--- a/MechanismOfAction/inputs/BCIO_MoA.xlsx
+++ b/MechanismOfAction/inputs/BCIO_MoA.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L283"/>
+  <dimension ref="A1:L277"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4183,138 +4183,146 @@
       <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>BFO:0000016</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>disposition</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>specifically dependent continuant</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>b is a disposition means: b is a realizable entity and b’s bearer is some material entity and b is such that if it ceases to exist, then its bearer is physically changed, and b’s realization occurs when and because this bearer is in some special physical circumstances, and this realization occurs in virtue of the bearer’s physical make-up.</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr"/>
-      <c r="H106" t="inlineStr"/>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr">
+      <c r="A106" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006113</t>
+        </is>
+      </c>
+      <c r="B106" s="2" t="inlineStr">
+        <is>
+          <t>dissonance reduction process</t>
+        </is>
+      </c>
+      <c r="C106" s="2" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D106" s="2" t="inlineStr">
+        <is>
+          <t>A mental process through which a perceived inconsistency between two concurrently held cognitive representations is reduced.</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="inlineStr"/>
+      <c r="F106" s="2" t="inlineStr"/>
+      <c r="G106" s="2" t="inlineStr"/>
+      <c r="H106" s="2" t="inlineStr"/>
+      <c r="I106" s="2" t="inlineStr"/>
+      <c r="J106" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K106" s="2" t="inlineStr"/>
+      <c r="L106" s="2" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>ENVO:01001110</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>ecosystem</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>environmental system</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>An environmental system which includes both living and non-living components.</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006113</t>
-        </is>
-      </c>
-      <c r="B107" s="2" t="inlineStr">
-        <is>
-          <t>dissonance reduction process</t>
-        </is>
-      </c>
-      <c r="C107" s="2" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D107" s="2" t="inlineStr">
-        <is>
-          <t>A mental process through which a perceived inconsistency between two concurrently held cognitive representations is reduced.</t>
-        </is>
-      </c>
-      <c r="E107" s="2" t="inlineStr"/>
-      <c r="F107" s="2" t="inlineStr"/>
-      <c r="G107" s="2" t="inlineStr"/>
-      <c r="H107" s="2" t="inlineStr"/>
-      <c r="I107" s="2" t="inlineStr"/>
-      <c r="J107" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K107" s="2" t="inlineStr"/>
-      <c r="L107" s="2" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>ENVO:01001110</t>
+          <t xml:space="preserve">MFOEM:000001 </t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>ecosystem</t>
+          <t>emotion process</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>environmental system</t>
+          <t>affective process</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>An environmental system which includes both living and non-living components.</t>
+          <t>An affective process that is a synchronized aggregate of constituent mental processes, including an appraisal process, which is valenced, has an object, and gives rise to an action tendency.</t>
         </is>
       </c>
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr"/>
-      <c r="H108" t="inlineStr"/>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MFOEM:000001 </t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>emotion process</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>affective process</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>An affective process that is a synchronized aggregate of constituent mental processes, including an appraisal process, which is valenced, has an object, and gives rise to an action tendency.</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr"/>
-      <c r="G109" t="inlineStr"/>
-      <c r="H109" t="inlineStr">
+      <c r="H108" t="inlineStr">
         <is>
           <t>There is no intended sequence of the entities that are part of the emotion process (e.g., an appraisal process does not necessarily precede a physiological process part of the emotion process). 
 Emotion processes are distinguished from other affective processes (e.g., mood) by having an object. Even if an emotion is experienced due to physiological reasons, they would be felt as being about something or someone. For instance, a person might be angry at a situation that they would normally not be angry at, because they are hungry. However, that person would still be angry at a specific situation. 
 Valence refers to the 'the subjective value of an event, object, person, or other entity in the life space of the individual' (https://dictionary.apa.org/valence). Valence ranges from negative to positive.</t>
         </is>
       </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MFOEM:000007 </t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>emotional action tendency</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>bodily disposition</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>A bodily disposition to behaviour that inheres in an organism by virtue of the physical changes brought about by an emotion process.</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Flight and fight action tendencies</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Emotional action tendency involves dispositions that proceed a behaviour relating to emotions. For instance, fight or flight action tendencies influence a person's behaviour in response to a threat.</t>
+        </is>
+      </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr">
         <is>
@@ -4325,104 +4333,100 @@
       <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MFOEM:000007 </t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>emotional action tendency</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>bodily disposition</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>A bodily disposition to behaviour that inheres in an organism by virtue of the physical changes brought about by an emotion process.</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>Flight and fight action tendencies</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>Emotional action tendency involves dispositions that proceed a behaviour relating to emotions. For instance, fight or flight action tendencies influence a person's behaviour in response to a threat.</t>
-        </is>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr">
+      <c r="A110" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006008</t>
+        </is>
+      </c>
+      <c r="B110" s="2" t="inlineStr">
+        <is>
+          <t>emotional self-regulation capability</t>
+        </is>
+      </c>
+      <c r="C110" s="2" t="inlineStr">
+        <is>
+          <t>self-regulation capability</t>
+        </is>
+      </c>
+      <c r="D110" s="2" t="inlineStr">
+        <is>
+          <t>A self-regulation capability to modulate one's emotional responses to a stimulus.</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="inlineStr"/>
+      <c r="F110" s="2" t="inlineStr">
+        <is>
+          <t>emotional regulation capability</t>
+        </is>
+      </c>
+      <c r="G110" s="2" t="inlineStr"/>
+      <c r="H110" s="2" t="inlineStr"/>
+      <c r="I110" s="2" t="inlineStr"/>
+      <c r="J110" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K110" s="2" t="inlineStr"/>
+      <c r="L110" s="2" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>ENVO:01000452</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>environmental disposition</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>disposition</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>A disposition which is realised by an environmental system or system parts thereof.</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'Mental disposition' is a subclass of 'bodily disposition', as mental dispositions occur in the body. </t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006008</t>
-        </is>
-      </c>
-      <c r="B111" s="2" t="inlineStr">
-        <is>
-          <t>emotional self-regulation capability</t>
-        </is>
-      </c>
-      <c r="C111" s="2" t="inlineStr">
-        <is>
-          <t>self-regulation capability</t>
-        </is>
-      </c>
-      <c r="D111" s="2" t="inlineStr">
-        <is>
-          <t>A self-regulation capability to modulate one's emotional responses to a stimulus.</t>
-        </is>
-      </c>
-      <c r="E111" s="2" t="inlineStr"/>
-      <c r="F111" s="2" t="inlineStr">
-        <is>
-          <t>emotional regulation capability</t>
-        </is>
-      </c>
-      <c r="G111" s="2" t="inlineStr"/>
-      <c r="H111" s="2" t="inlineStr"/>
-      <c r="I111" s="2" t="inlineStr"/>
-      <c r="J111" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K111" s="2" t="inlineStr"/>
-      <c r="L111" s="2" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>ENVO:01000452</t>
+          <t>ENVO:01000254</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>environmental disposition</t>
+          <t>environmental system</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>system</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>A disposition which is realised by an environmental system or system parts thereof.</t>
+          <t>A system which has the disposition to surround and interact with one or more material entities.</t>
         </is>
       </c>
       <c r="E112" t="inlineStr"/>
@@ -4430,83 +4434,88 @@
       <c r="G112" t="inlineStr"/>
       <c r="H112" t="inlineStr">
         <is>
-          <t xml:space="preserve">'Mental disposition' is a subclass of 'bodily disposition', as mental dispositions occur in the body. </t>
-        </is>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>ENVO:01000254</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>environmental system</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>system</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>A system which has the disposition to surround and interact with one or more material entities.</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr"/>
-      <c r="G113" t="inlineStr"/>
-      <c r="H113" t="inlineStr">
-        <is>
           <t>'The term 'disposition' is used to describe that an environmental system can surround and interact with one or more material entities. This conditionality is important, as an entity does not necessarily have to be in an specific environment system at all times.
 The class 'environmental system' relates to what is found in the physical and social environment (e.g., how many streets are there for you to walk on), while the class 'opportunity' is about the features of the environment and how they interact with the person (e.g., whether an environment enables a person to take walks).
 'environmental system' includes physical and social aspects of the environment. As all subclasses of 'environmental system' will have physical aspects, a separate subclass for 'physical environmental system' would not capture a unique aspect of its parent class.</t>
         </is>
       </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr">
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006127</t>
+        </is>
+      </c>
+      <c r="B113" s="2" t="inlineStr">
+        <is>
+          <t>episodic memory</t>
+        </is>
+      </c>
+      <c r="C113" s="2" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="D113" s="2" t="inlineStr">
+        <is>
+          <t>A memory process that deals with the receipt, storage, retrieval and modification of information regarding a personally experienced event at a particular time or place.</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="inlineStr"/>
+      <c r="F113" s="2" t="inlineStr"/>
+      <c r="G113" s="2" t="inlineStr"/>
+      <c r="H113" s="2" t="inlineStr"/>
+      <c r="I113" s="2" t="inlineStr"/>
+      <c r="J113" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K113" s="2" t="inlineStr"/>
+      <c r="L113" s="2" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006127</t>
+          <t>BCIO:006035</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t>episodic memory</t>
+          <t>evaluation of self</t>
         </is>
       </c>
       <c r="C114" s="2" t="inlineStr">
         <is>
-          <t>memory</t>
+          <t>evaluative belief</t>
         </is>
       </c>
       <c r="D114" s="2" t="inlineStr">
         <is>
-          <t>A memory process that deals with the receipt, storage, retrieval and modification of information regarding a personally experienced event at a particular time or place.</t>
+          <t>An evaluative belief about one's attributes.</t>
         </is>
       </c>
       <c r="E114" s="2" t="inlineStr"/>
-      <c r="F114" s="2" t="inlineStr"/>
+      <c r="F114" s="2" t="inlineStr">
+        <is>
+          <t>Self-concept</t>
+        </is>
+      </c>
       <c r="G114" s="2" t="inlineStr"/>
-      <c r="H114" s="2" t="inlineStr"/>
+      <c r="H114" s="2" t="inlineStr">
+        <is>
+          <t>Self-concept is used to form an evaluation of self.
+One's attributes can be evaluated as positive or negative.</t>
+        </is>
+      </c>
       <c r="I114" s="2" t="inlineStr"/>
       <c r="J114" s="2" t="inlineStr">
         <is>
@@ -4519,37 +4528,28 @@
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006035</t>
+          <t>BCIO:006038</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
         <is>
-          <t>evaluation of self</t>
+          <t>evaluative belief</t>
         </is>
       </c>
       <c r="C115" s="2" t="inlineStr">
         <is>
-          <t>evaluative belief</t>
+          <t>belief</t>
         </is>
       </c>
       <c r="D115" s="2" t="inlineStr">
         <is>
-          <t>An evaluative belief about one's attributes.</t>
+          <t>A belief about whether a particular aspect of the world is positive or negative.</t>
         </is>
       </c>
       <c r="E115" s="2" t="inlineStr"/>
-      <c r="F115" s="2" t="inlineStr">
-        <is>
-          <t>Self-concept</t>
-        </is>
-      </c>
+      <c r="F115" s="2" t="inlineStr"/>
       <c r="G115" s="2" t="inlineStr"/>
-      <c r="H115" s="2" t="inlineStr">
-        <is>
-          <t>Self-concept is used to form an evaluation of self.
-One's attributes can be evaluated as positive or negative.</t>
-        </is>
-      </c>
+      <c r="H115" s="2" t="inlineStr"/>
       <c r="I115" s="2" t="inlineStr"/>
       <c r="J115" s="2" t="inlineStr">
         <is>
@@ -4560,82 +4560,82 @@
       <c r="L115" s="2" t="inlineStr"/>
     </row>
     <row r="116">
-      <c r="A116" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006038</t>
-        </is>
-      </c>
-      <c r="B116" s="2" t="inlineStr">
+      <c r="A116" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:006151</t>
+        </is>
+      </c>
+      <c r="B116" s="4" t="inlineStr">
+        <is>
+          <t>evaluative belief about a stereotype</t>
+        </is>
+      </c>
+      <c r="C116" s="4" t="inlineStr">
         <is>
           <t>evaluative belief</t>
         </is>
       </c>
-      <c r="C116" s="2" t="inlineStr">
-        <is>
-          <t>belief</t>
-        </is>
-      </c>
-      <c r="D116" s="2" t="inlineStr">
-        <is>
-          <t>A belief about whether a particular aspect of the world is positive or negative.</t>
-        </is>
-      </c>
-      <c r="E116" s="2" t="inlineStr"/>
-      <c r="F116" s="2" t="inlineStr"/>
-      <c r="G116" s="2" t="inlineStr"/>
-      <c r="H116" s="2" t="inlineStr"/>
-      <c r="I116" s="2" t="inlineStr"/>
-      <c r="J116" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K116" s="2" t="inlineStr"/>
-      <c r="L116" s="2" t="inlineStr"/>
+      <c r="D116" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">An evaluative belief about a set of attributes considered to generally inhere in the members of a social group. </t>
+        </is>
+      </c>
+      <c r="E116" s="4" t="inlineStr"/>
+      <c r="F116" s="4" t="inlineStr"/>
+      <c r="G116" s="4" t="inlineStr"/>
+      <c r="H116" s="4" t="inlineStr"/>
+      <c r="I116" s="4" t="inlineStr"/>
+      <c r="J116" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="K116" s="4" t="inlineStr"/>
+      <c r="L116" s="4" t="inlineStr"/>
     </row>
     <row r="117">
-      <c r="A117" s="4" t="inlineStr">
-        <is>
-          <t>BCIO:006151</t>
-        </is>
-      </c>
-      <c r="B117" s="4" t="inlineStr">
-        <is>
-          <t>evaluative belief about a stereotype</t>
-        </is>
-      </c>
-      <c r="C117" s="4" t="inlineStr">
+      <c r="A117" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006147</t>
+        </is>
+      </c>
+      <c r="B117" s="2" t="inlineStr">
+        <is>
+          <t>evaluative belief about behaviour</t>
+        </is>
+      </c>
+      <c r="C117" s="2" t="inlineStr">
         <is>
           <t>evaluative belief</t>
         </is>
       </c>
-      <c r="D117" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">An evaluative belief about a set of attributes considered to generally inhere in the members of a social group. </t>
-        </is>
-      </c>
-      <c r="E117" s="4" t="inlineStr"/>
-      <c r="F117" s="4" t="inlineStr"/>
-      <c r="G117" s="4" t="inlineStr"/>
-      <c r="H117" s="4" t="inlineStr"/>
-      <c r="I117" s="4" t="inlineStr"/>
-      <c r="J117" s="4" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="K117" s="4" t="inlineStr"/>
-      <c r="L117" s="4" t="inlineStr"/>
+      <c r="D117" s="2" t="inlineStr">
+        <is>
+          <t>An evaluative belief about whether a behaviour is positive or negative.</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="inlineStr"/>
+      <c r="F117" s="2" t="inlineStr"/>
+      <c r="G117" s="2" t="inlineStr"/>
+      <c r="H117" s="2" t="inlineStr"/>
+      <c r="I117" s="2" t="inlineStr"/>
+      <c r="J117" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K117" s="2" t="inlineStr"/>
+      <c r="L117" s="2" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006147</t>
+          <t>BCIO:006148</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
-          <t>evaluative belief about behaviour</t>
+          <t>evaluative belief about behavioural outcomes</t>
         </is>
       </c>
       <c r="C118" s="2" t="inlineStr">
@@ -4645,7 +4645,7 @@
       </c>
       <c r="D118" s="2" t="inlineStr">
         <is>
-          <t>An evaluative belief about whether a behaviour is positive or negative.</t>
+          <t>An evaluative belief about whether the consequences of the behaviour are positive or negative.</t>
         </is>
       </c>
       <c r="E118" s="2" t="inlineStr"/>
@@ -4664,12 +4664,12 @@
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006148</t>
+          <t>BCIO:006150</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
         <is>
-          <t>evaluative belief about behavioural outcomes</t>
+          <t>evaluative belief about others</t>
         </is>
       </c>
       <c r="C119" s="2" t="inlineStr">
@@ -4679,7 +4679,7 @@
       </c>
       <c r="D119" s="2" t="inlineStr">
         <is>
-          <t>An evaluative belief about whether the consequences of the behaviour are positive or negative.</t>
+          <t>An evaluative belief about the attributes of others.</t>
         </is>
       </c>
       <c r="E119" s="2" t="inlineStr"/>
@@ -4696,90 +4696,95 @@
       <c r="L119" s="2" t="inlineStr"/>
     </row>
     <row r="120">
-      <c r="A120" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006150</t>
-        </is>
-      </c>
-      <c r="B120" s="2" t="inlineStr">
-        <is>
-          <t>evaluative belief about others</t>
-        </is>
-      </c>
-      <c r="C120" s="2" t="inlineStr">
-        <is>
-          <t>evaluative belief</t>
-        </is>
-      </c>
-      <c r="D120" s="2" t="inlineStr">
-        <is>
-          <t>An evaluative belief about the attributes of others.</t>
-        </is>
-      </c>
-      <c r="E120" s="2" t="inlineStr"/>
-      <c r="F120" s="2" t="inlineStr"/>
-      <c r="G120" s="2" t="inlineStr"/>
-      <c r="H120" s="2" t="inlineStr"/>
-      <c r="I120" s="2" t="inlineStr"/>
-      <c r="J120" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K120" s="2" t="inlineStr"/>
-      <c r="L120" s="2" t="inlineStr"/>
+      <c r="A120" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:006101</t>
+        </is>
+      </c>
+      <c r="B120" s="4" t="inlineStr">
+        <is>
+          <t>experiential rightness of goal pursuit</t>
+        </is>
+      </c>
+      <c r="C120" s="4" t="inlineStr">
+        <is>
+          <t>bodily process</t>
+        </is>
+      </c>
+      <c r="D120" s="4" t="inlineStr">
+        <is>
+          <t>A process by which the manner in which one attempts to achieve a goal creates an experiential sense of rightness associated with pursuing the goal, which in turn increases task engagement.</t>
+        </is>
+      </c>
+      <c r="E120" s="4" t="inlineStr"/>
+      <c r="F120" s="4" t="inlineStr">
+        <is>
+          <t>perceived regulatory fit process</t>
+        </is>
+      </c>
+      <c r="G120" s="4" t="inlineStr"/>
+      <c r="H120" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Perceived regulatory fit is commonly used. However, experiential rightness of goal pursuit was added as a label to make the entity less ambiguous. </t>
+        </is>
+      </c>
+      <c r="I120" s="4" t="inlineStr"/>
+      <c r="J120" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="K120" s="4" t="inlineStr"/>
+      <c r="L120" s="4" t="inlineStr"/>
     </row>
     <row r="121">
-      <c r="A121" s="4" t="inlineStr">
-        <is>
-          <t>BCIO:006101</t>
-        </is>
-      </c>
-      <c r="B121" s="4" t="inlineStr">
-        <is>
-          <t>experiential rightness of goal pursuit</t>
-        </is>
-      </c>
-      <c r="C121" s="4" t="inlineStr">
-        <is>
-          <t>bodily process</t>
-        </is>
-      </c>
-      <c r="D121" s="4" t="inlineStr">
-        <is>
-          <t>A process by which the manner in which one attempts to achieve a goal creates an experiential sense of rightness associated with pursuing the goal, which in turn increases task engagement.</t>
-        </is>
-      </c>
-      <c r="E121" s="4" t="inlineStr"/>
-      <c r="F121" s="4" t="inlineStr">
-        <is>
-          <t>perceived regulatory fit process</t>
-        </is>
-      </c>
-      <c r="G121" s="4" t="inlineStr"/>
-      <c r="H121" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Perceived regulatory fit is commonly used. However, experiential rightness of goal pursuit was added as a label to make the entity less ambiguous. </t>
-        </is>
-      </c>
-      <c r="I121" s="4" t="inlineStr"/>
-      <c r="J121" s="4" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="K121" s="4" t="inlineStr"/>
-      <c r="L121" s="4" t="inlineStr"/>
+      <c r="A121" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006122</t>
+        </is>
+      </c>
+      <c r="B121" s="2" t="inlineStr">
+        <is>
+          <t>extinction in classical conditioning</t>
+        </is>
+      </c>
+      <c r="C121" s="2" t="inlineStr">
+        <is>
+          <t>associative learning</t>
+        </is>
+      </c>
+      <c r="D121" s="2" t="inlineStr">
+        <is>
+          <t>Associative learning process in which the strength of a conditioned response is reduced because its conditioned stimulus is presented without being accompanied by the unconditioned stimulus.</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="inlineStr"/>
+      <c r="F121" s="2" t="inlineStr"/>
+      <c r="G121" s="2" t="inlineStr"/>
+      <c r="H121" s="2" t="inlineStr">
+        <is>
+          <t>An unconditioned stimulus is "a stimulus that elicits a reflexive or innate response (the unconditioned response) without prior learning." (p., 280, Holt, N., Bremner, A., Sutherland, E., Vliek, M., Passer, M., and Smith, R. (2019). EBOOK: Psychology: The Science of Mind and Behaviour, 4e. McGraw Hill.)
+A conditioned stimulus is a stimulus that, through association with an unconditioned stimulus, comes to elicit a conditioned response similar to the original unconditioned response (Holt, N., Bremner, A., Sutherland, E., Vliek, M., Passer, M., and Smith, R. (2019). EBOOK: Psychology: The Science of Mind and Behaviour, 4e. McGraw Hill.)</t>
+        </is>
+      </c>
+      <c r="I121" s="2" t="inlineStr"/>
+      <c r="J121" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K121" s="2" t="inlineStr"/>
+      <c r="L121" s="2" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006122</t>
+          <t>BCIO:006123</t>
         </is>
       </c>
       <c r="B122" s="2" t="inlineStr">
         <is>
-          <t>extinction in classical conditioning</t>
+          <t>extinction in operant learning</t>
         </is>
       </c>
       <c r="C122" s="2" t="inlineStr">
@@ -4789,7 +4794,7 @@
       </c>
       <c r="D122" s="2" t="inlineStr">
         <is>
-          <t>Associative learning process in which the strength of a conditioned response is reduced because its conditioned stimulus is presented without being accompanied by the unconditioned stimulus.</t>
+          <t xml:space="preserve">Associative learning process in which the rate of behavioural response in the presence of a discriminative stimulus is reduced because the response is no longer followed by a reinforcer. </t>
         </is>
       </c>
       <c r="E122" s="2" t="inlineStr"/>
@@ -4797,8 +4802,7 @@
       <c r="G122" s="2" t="inlineStr"/>
       <c r="H122" s="2" t="inlineStr">
         <is>
-          <t>An unconditioned stimulus is "a stimulus that elicits a reflexive or innate response (the unconditioned response) without prior learning." (p., 280, Holt, N., Bremner, A., Sutherland, E., Vliek, M., Passer, M., and Smith, R. (2019). EBOOK: Psychology: The Science of Mind and Behaviour, 4e. McGraw Hill.)
-A conditioned stimulus is a stimulus that, through association with an unconditioned stimulus, comes to elicit a conditioned response similar to the original unconditioned response (Holt, N., Bremner, A., Sutherland, E., Vliek, M., Passer, M., and Smith, R. (2019). EBOOK: Psychology: The Science of Mind and Behaviour, 4e. McGraw Hill.)</t>
+          <t>Discriminative stimulus is "a signal that a particular response will produce certain consequences." (p. 291; Holt, N., Bremner, A., Sutherland, E., Vliek, M., Passer, M., and Smith, R. (2019). EBOOK: Psychology: The Science of Mind and Behaviour, 4e. McGraw Hill.)</t>
         </is>
       </c>
       <c r="I122" s="2" t="inlineStr"/>
@@ -4811,200 +4815,196 @@
       <c r="L122" s="2" t="inlineStr"/>
     </row>
     <row r="123">
-      <c r="A123" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006123</t>
-        </is>
-      </c>
-      <c r="B123" s="2" t="inlineStr">
-        <is>
-          <t>extinction in operant learning</t>
-        </is>
-      </c>
-      <c r="C123" s="2" t="inlineStr">
-        <is>
-          <t>associative learning</t>
-        </is>
-      </c>
-      <c r="D123" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Associative learning process in which the rate of behavioural response in the presence of a discriminative stimulus is reduced because the response is no longer followed by a reinforcer. </t>
-        </is>
-      </c>
-      <c r="E123" s="2" t="inlineStr"/>
-      <c r="F123" s="2" t="inlineStr"/>
-      <c r="G123" s="2" t="inlineStr"/>
-      <c r="H123" s="2" t="inlineStr">
-        <is>
-          <t>Discriminative stimulus is "a signal that a particular response will produce certain consequences." (p. 291; Holt, N., Bremner, A., Sutherland, E., Vliek, M., Passer, M., and Smith, R. (2019). EBOOK: Psychology: The Science of Mind and Behaviour, 4e. McGraw Hill.)</t>
-        </is>
-      </c>
-      <c r="I123" s="2" t="inlineStr"/>
-      <c r="J123" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K123" s="2" t="inlineStr"/>
-      <c r="L123" s="2" t="inlineStr"/>
+      <c r="A123" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006307</t>
+        </is>
+      </c>
+      <c r="B123" s="3" t="inlineStr">
+        <is>
+          <t>extrinsic motivation</t>
+        </is>
+      </c>
+      <c r="C123" s="3" t="inlineStr">
+        <is>
+          <t>motivation</t>
+        </is>
+      </c>
+      <c r="D123" s="3" t="inlineStr">
+        <is>
+          <t>Motivation that is based on external rewards, punishments or pressure regarding a behaviour.</t>
+        </is>
+      </c>
+      <c r="E123" s="3" t="inlineStr"/>
+      <c r="F123" s="3" t="inlineStr">
+        <is>
+          <t>controlled motivation</t>
+        </is>
+      </c>
+      <c r="G123" s="3" t="inlineStr"/>
+      <c r="H123" s="3" t="inlineStr"/>
+      <c r="I123" s="3" t="inlineStr"/>
+      <c r="J123" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="K123" s="3" t="inlineStr"/>
+      <c r="L123" s="3" t="inlineStr"/>
     </row>
     <row r="124">
-      <c r="A124" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006307</t>
-        </is>
-      </c>
-      <c r="B124" s="3" t="inlineStr">
-        <is>
-          <t>extrinsic motivation</t>
-        </is>
-      </c>
-      <c r="C124" s="3" t="inlineStr">
-        <is>
-          <t>motivation</t>
-        </is>
-      </c>
-      <c r="D124" s="3" t="inlineStr">
-        <is>
-          <t>Motivation that is based on external rewards, punishments or pressure regarding a behaviour.</t>
-        </is>
-      </c>
-      <c r="E124" s="3" t="inlineStr"/>
-      <c r="F124" s="3" t="inlineStr">
-        <is>
-          <t>controlled motivation</t>
-        </is>
-      </c>
-      <c r="G124" s="3" t="inlineStr"/>
-      <c r="H124" s="3" t="inlineStr"/>
-      <c r="I124" s="3" t="inlineStr"/>
-      <c r="J124" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="K124" s="3" t="inlineStr"/>
-      <c r="L124" s="3" t="inlineStr"/>
+      <c r="A124" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006002</t>
+        </is>
+      </c>
+      <c r="B124" s="2" t="inlineStr">
+        <is>
+          <t>family environmental system</t>
+        </is>
+      </c>
+      <c r="C124" s="2" t="inlineStr">
+        <is>
+          <t>social environment system</t>
+        </is>
+      </c>
+      <c r="D124" s="2" t="inlineStr">
+        <is>
+          <t>A social environmental system that consists of persons related as members of a domestic group, or a number of domestic groups linked through descent from a common ancestor, marriage,  adoption or other legal arrangements.</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="inlineStr"/>
+      <c r="F124" s="2" t="inlineStr"/>
+      <c r="G124" s="2" t="inlineStr"/>
+      <c r="H124" s="2" t="inlineStr"/>
+      <c r="I124" s="2" t="inlineStr"/>
+      <c r="J124" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K124" s="2" t="inlineStr"/>
+      <c r="L124" s="2" t="inlineStr"/>
     </row>
     <row r="125">
-      <c r="A125" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006002</t>
-        </is>
-      </c>
-      <c r="B125" s="2" t="inlineStr">
-        <is>
-          <t>family environmental system</t>
-        </is>
-      </c>
-      <c r="C125" s="2" t="inlineStr">
-        <is>
-          <t>social environment system</t>
-        </is>
-      </c>
-      <c r="D125" s="2" t="inlineStr">
-        <is>
-          <t>A social environmental system that consists of persons related as members of a domestic group, or a number of domestic groups linked through descent from a common ancestor, marriage,  adoption or other legal arrangements.</t>
-        </is>
-      </c>
-      <c r="E125" s="2" t="inlineStr"/>
-      <c r="F125" s="2" t="inlineStr"/>
-      <c r="G125" s="2" t="inlineStr"/>
-      <c r="H125" s="2" t="inlineStr"/>
-      <c r="I125" s="2" t="inlineStr"/>
-      <c r="J125" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K125" s="2" t="inlineStr"/>
-      <c r="L125" s="2" t="inlineStr"/>
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>MFOEM:000026</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>fear</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>emotion process</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>A negative emotion that is aversive and characterised by feelings of threat and impending doom, and by an urge to get out of the situation.</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Distinguished from anxiety since it usually has sudden onset and offset. Anxiety is often gradual and long-lasting and is triggered by a distal threat.</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>MFOEM:000026</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>fear</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>emotion process</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>A negative emotion that is aversive and characterised by feelings of threat and impending doom, and by an urge to get out of the situation.</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr"/>
-      <c r="F126" t="inlineStr"/>
-      <c r="G126" t="inlineStr"/>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>Distinguished from anxiety since it usually has sudden onset and offset. Anxiety is often gradual and long-lasting and is triggered by a distal threat.</t>
-        </is>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr">
+      <c r="A126" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006109</t>
+        </is>
+      </c>
+      <c r="B126" s="2" t="inlineStr">
+        <is>
+          <t>feeling an urge</t>
+        </is>
+      </c>
+      <c r="C126" s="2" t="inlineStr">
+        <is>
+          <t>subjective affective feeling</t>
+        </is>
+      </c>
+      <c r="D126" s="2" t="inlineStr">
+        <is>
+          <t>A subjective affective feeling that  arises when an impulse to enact a behaviour is activated but not immediately acted upon.</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="inlineStr"/>
+      <c r="F126" s="2" t="inlineStr"/>
+      <c r="G126" s="2" t="inlineStr"/>
+      <c r="H126" s="2" t="inlineStr">
+        <is>
+          <t>An urge is felt when an impulse is frustrated.</t>
+        </is>
+      </c>
+      <c r="I126" s="2" t="inlineStr"/>
+      <c r="J126" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K126" s="2" t="inlineStr"/>
+      <c r="L126" s="2" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>MFOEM:000107</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>feeling at ease</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>subjective affective feeling</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>A subjective affective feeling of being at ease, comfortable, relaxed.</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr"/>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006109</t>
-        </is>
-      </c>
-      <c r="B127" s="2" t="inlineStr">
-        <is>
-          <t>feeling an urge</t>
-        </is>
-      </c>
-      <c r="C127" s="2" t="inlineStr">
-        <is>
-          <t>subjective affective feeling</t>
-        </is>
-      </c>
-      <c r="D127" s="2" t="inlineStr">
-        <is>
-          <t>A subjective affective feeling that  arises when an impulse to enact a behaviour is activated but not immediately acted upon.</t>
-        </is>
-      </c>
-      <c r="E127" s="2" t="inlineStr"/>
-      <c r="F127" s="2" t="inlineStr"/>
-      <c r="G127" s="2" t="inlineStr"/>
-      <c r="H127" s="2" t="inlineStr">
-        <is>
-          <t>An urge is felt when an impulse is frustrated.</t>
-        </is>
-      </c>
-      <c r="I127" s="2" t="inlineStr"/>
-      <c r="J127" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K127" s="2" t="inlineStr"/>
-      <c r="L127" s="2" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>MFOEM:000107</t>
+          <t>MFOEM:000109</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>feeling at ease</t>
+          <t>feeling energetic</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -5014,7 +5014,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>A subjective affective feeling of being at ease, comfortable, relaxed.</t>
+          <t>A subjective affective feeling of having lots of energy, being energetic.</t>
         </is>
       </c>
       <c r="E128" t="inlineStr"/>
@@ -5033,22 +5033,22 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>MFOEM:000109</t>
+          <t xml:space="preserve">MFOEM:000112 </t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>feeling energetic</t>
+          <t>feeling exhausted</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>subjective affective feeling</t>
+          <t>feeling tired</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>A subjective affective feeling of having lots of energy, being energetic.</t>
+          <t>Feeling tired to an extremely strong degree.</t>
         </is>
       </c>
       <c r="E129" t="inlineStr"/>
@@ -5067,28 +5067,32 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t xml:space="preserve">MFOEM:000112 </t>
+          <t>MFOEM:000124</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>feeling exhausted</t>
+          <t>feeling nervous</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>feeling tired</t>
+          <t>subjective affective feeling</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>Feeling tired to an extremely strong degree.</t>
+          <t>A subjective affective feeling of being not at ease or agitated.</t>
         </is>
       </c>
       <c r="E130" t="inlineStr"/>
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr"/>
-      <c r="H130" t="inlineStr"/>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Note that 'feeling nervous' is related to 'anxiety' but is not identical with it. Feeling nervous is the subjective experience of nervousness, while anxiety is a full-blown emotion process. Affective feelings are process parts of emotion processes.</t>
+        </is>
+      </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr">
         <is>
@@ -5099,140 +5103,136 @@
       <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>MFOEM:000124</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>feeling nervous</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
+      <c r="A131" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050233</t>
+        </is>
+      </c>
+      <c r="B131" s="3" t="inlineStr">
+        <is>
+          <t>feeling sadness</t>
+        </is>
+      </c>
+      <c r="C131" s="3" t="inlineStr">
         <is>
           <t>subjective affective feeling</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>A subjective affective feeling of being not at ease or agitated.</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr"/>
-      <c r="F131" t="inlineStr"/>
-      <c r="G131" t="inlineStr"/>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>Note that 'feeling nervous' is related to 'anxiety' but is not identical with it. Feeling nervous is the subjective experience of nervousness, while anxiety is a full-blown emotion process. Affective feelings are process parts of emotion processes.</t>
-        </is>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr">
+      <c r="D131" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A subjective affective feeling of sadness. </t>
+        </is>
+      </c>
+      <c r="E131" s="3" t="inlineStr"/>
+      <c r="F131" s="3" t="inlineStr"/>
+      <c r="G131" s="3" t="inlineStr"/>
+      <c r="H131" s="3" t="inlineStr"/>
+      <c r="I131" s="3" t="inlineStr"/>
+      <c r="J131" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="K131" s="3" t="inlineStr"/>
+      <c r="L131" s="3" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>MFOEM:000080</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>feeling tired</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>subjective affective feeling</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>A subjective affective feeling of tiredness, needing sleep.</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="inlineStr"/>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050233</t>
-        </is>
-      </c>
-      <c r="B132" s="3" t="inlineStr">
-        <is>
-          <t>feeling sadness</t>
-        </is>
-      </c>
-      <c r="C132" s="3" t="inlineStr">
-        <is>
-          <t>subjective affective feeling</t>
-        </is>
-      </c>
-      <c r="D132" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A subjective affective feeling of sadness. </t>
-        </is>
-      </c>
-      <c r="E132" s="3" t="inlineStr"/>
-      <c r="F132" s="3" t="inlineStr"/>
-      <c r="G132" s="3" t="inlineStr"/>
-      <c r="H132" s="3" t="inlineStr"/>
-      <c r="I132" s="3" t="inlineStr"/>
-      <c r="J132" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="K132" s="3" t="inlineStr"/>
-      <c r="L132" s="3" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>MFOEM:000080</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>feeling tired</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>subjective affective feeling</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>A subjective affective feeling of tiredness, needing sleep.</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr"/>
-      <c r="F133" t="inlineStr"/>
-      <c r="G133" t="inlineStr"/>
-      <c r="H133" t="inlineStr"/>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="A133" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006087</t>
+        </is>
+      </c>
+      <c r="B133" s="2" t="inlineStr">
+        <is>
+          <t>financial behavioural opportunity</t>
+        </is>
+      </c>
+      <c r="C133" s="2" t="inlineStr">
+        <is>
+          <t>physical behavioural opportunity</t>
+        </is>
+      </c>
+      <c r="D133" s="2" t="inlineStr">
+        <is>
+          <t>A physical behavioural opportunity that involves the person having sufficient financial resources.</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="inlineStr"/>
+      <c r="F133" s="2" t="inlineStr"/>
+      <c r="G133" s="2" t="inlineStr"/>
+      <c r="H133" s="2" t="inlineStr">
+        <is>
+          <t>As 'financial behavioural opportunity' will involve some physical monetary entity (e.g., money borrowed from someone), it is a physical behavioural opportunity. While financial resources (e.g., money) have intrinsically social dimensions, the 'financial behavioural opportunity' does not involve a social aspect.</t>
+        </is>
+      </c>
+      <c r="I133" s="2" t="inlineStr"/>
+      <c r="J133" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K133" s="2" t="inlineStr"/>
+      <c r="L133" s="2" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006087</t>
+          <t>BCIO:006003</t>
         </is>
       </c>
       <c r="B134" s="2" t="inlineStr">
         <is>
-          <t>financial behavioural opportunity</t>
+          <t>friendship network</t>
         </is>
       </c>
       <c r="C134" s="2" t="inlineStr">
         <is>
-          <t>physical behavioural opportunity</t>
+          <t>social environmental system</t>
         </is>
       </c>
       <c r="D134" s="2" t="inlineStr">
         <is>
-          <t>A physical behavioural opportunity that involves the person having sufficient financial resources.</t>
+          <t>A social environmental system that consists of persons who share a bond of mutual affection and are in contact or communication.</t>
         </is>
       </c>
       <c r="E134" s="2" t="inlineStr"/>
       <c r="F134" s="2" t="inlineStr"/>
       <c r="G134" s="2" t="inlineStr"/>
-      <c r="H134" s="2" t="inlineStr">
-        <is>
-          <t>As 'financial behavioural opportunity' will involve some physical monetary entity (e.g., money borrowed from someone), it is a physical behavioural opportunity. While financial resources (e.g., money) have intrinsically social dimensions, the 'financial behavioural opportunity' does not involve a social aspect.</t>
-        </is>
-      </c>
+      <c r="H134" s="2" t="inlineStr"/>
       <c r="I134" s="2" t="inlineStr"/>
       <c r="J134" s="2" t="inlineStr">
         <is>
@@ -5243,107 +5243,107 @@
       <c r="L134" s="2" t="inlineStr"/>
     </row>
     <row r="135">
-      <c r="A135" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006003</t>
-        </is>
-      </c>
-      <c r="B135" s="2" t="inlineStr">
-        <is>
-          <t>friendship network</t>
-        </is>
-      </c>
-      <c r="C135" s="2" t="inlineStr">
-        <is>
-          <t>social environmental system</t>
-        </is>
-      </c>
-      <c r="D135" s="2" t="inlineStr">
-        <is>
-          <t>A social environmental system that consists of persons who share a bond of mutual affection and are in contact or communication.</t>
-        </is>
-      </c>
-      <c r="E135" s="2" t="inlineStr"/>
-      <c r="F135" s="2" t="inlineStr"/>
-      <c r="G135" s="2" t="inlineStr"/>
-      <c r="H135" s="2" t="inlineStr"/>
-      <c r="I135" s="2" t="inlineStr"/>
-      <c r="J135" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K135" s="2" t="inlineStr"/>
-      <c r="L135" s="2" t="inlineStr"/>
+      <c r="A135" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006308</t>
+        </is>
+      </c>
+      <c r="B135" s="3" t="inlineStr">
+        <is>
+          <t>fundamental need-based motivation</t>
+        </is>
+      </c>
+      <c r="C135" s="3" t="inlineStr">
+        <is>
+          <t>autonomous motivation</t>
+        </is>
+      </c>
+      <c r="D135" s="3" t="inlineStr">
+        <is>
+          <t>Autonomous motivation due to a behaviour being perceived to satisfy core psychological need.</t>
+        </is>
+      </c>
+      <c r="E135" s="3" t="inlineStr"/>
+      <c r="F135" s="3" t="inlineStr">
+        <is>
+          <t>integrated motivation; integrated regulation</t>
+        </is>
+      </c>
+      <c r="G135" s="3" t="inlineStr"/>
+      <c r="H135" s="3" t="inlineStr"/>
+      <c r="I135" s="3" t="inlineStr"/>
+      <c r="J135" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="K135" s="3" t="inlineStr"/>
+      <c r="L135" s="3" t="inlineStr"/>
     </row>
     <row r="136">
-      <c r="A136" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006308</t>
-        </is>
-      </c>
-      <c r="B136" s="3" t="inlineStr">
-        <is>
-          <t>fundamental need-based motivation</t>
-        </is>
-      </c>
-      <c r="C136" s="3" t="inlineStr">
-        <is>
-          <t>autonomous motivation</t>
-        </is>
-      </c>
-      <c r="D136" s="3" t="inlineStr">
-        <is>
-          <t>Autonomous motivation due to a behaviour being perceived to satisfy core psychological need.</t>
-        </is>
-      </c>
-      <c r="E136" s="3" t="inlineStr"/>
-      <c r="F136" s="3" t="inlineStr">
-        <is>
-          <t>integrated motivation; integrated regulation</t>
-        </is>
-      </c>
-      <c r="G136" s="3" t="inlineStr"/>
-      <c r="H136" s="3" t="inlineStr"/>
-      <c r="I136" s="3" t="inlineStr"/>
-      <c r="J136" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="K136" s="3" t="inlineStr"/>
-      <c r="L136" s="3" t="inlineStr"/>
+      <c r="A136" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006124</t>
+        </is>
+      </c>
+      <c r="B136" s="2" t="inlineStr">
+        <is>
+          <t>generalisation in learning</t>
+        </is>
+      </c>
+      <c r="C136" s="2" t="inlineStr">
+        <is>
+          <t>associative learning</t>
+        </is>
+      </c>
+      <c r="D136" s="2" t="inlineStr">
+        <is>
+          <t>Associative learning process in which prior learning that an antecedent stimulus signals certain consequences of behaviour spreads to a stimulus that differs in certain aspects from the original antecedent stimulus.</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="inlineStr"/>
+      <c r="F136" s="2" t="inlineStr"/>
+      <c r="G136" s="2" t="inlineStr"/>
+      <c r="H136" s="2" t="inlineStr">
+        <is>
+          <t>The label 'Generalisation of target
+ behavior' is used for a behaviour change technique (BCT) in the BCT Taxonomy v1 (Michie et al., 2013). The definition for this BCT reads as follows: 'Advise to perform the wanted behaviour,  which is already performed in a particular situation, in another situation.' Therefore, the BCT is the advice to perform the behaviour, whereas the MoA is a learning process that occurs in the brain.</t>
+        </is>
+      </c>
+      <c r="I136" s="2" t="inlineStr"/>
+      <c r="J136" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K136" s="2" t="inlineStr"/>
+      <c r="L136" s="2" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006124</t>
+          <t>BCIO:006049</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
         <is>
-          <t>generalisation in learning</t>
+          <t>goal</t>
         </is>
       </c>
       <c r="C137" s="2" t="inlineStr">
         <is>
-          <t>associative learning</t>
+          <t>cognitive representation</t>
         </is>
       </c>
       <c r="D137" s="2" t="inlineStr">
         <is>
-          <t>Associative learning process in which prior learning that an antecedent stimulus signals certain consequences of behaviour spreads to a stimulus that differs in certain aspects from the original antecedent stimulus.</t>
+          <t>A cognitive representation of an end state towards which one is striving.</t>
         </is>
       </c>
       <c r="E137" s="2" t="inlineStr"/>
       <c r="F137" s="2" t="inlineStr"/>
       <c r="G137" s="2" t="inlineStr"/>
-      <c r="H137" s="2" t="inlineStr">
-        <is>
-          <t>The label 'Generalisation of target
- behavior' is used for a behaviour change technique (BCT) in the BCT Taxonomy v1 (Michie et al., 2013). The definition for this BCT reads as follows: 'Advise to perform the wanted behaviour,  which is already performed in a particular situation, in another situation.' Therefore, the BCT is the advice to perform the behaviour, whereas the MoA is a learning process that occurs in the brain.</t>
-        </is>
-      </c>
+      <c r="H137" s="2" t="inlineStr"/>
       <c r="I137" s="2" t="inlineStr"/>
       <c r="J137" s="2" t="inlineStr">
         <is>
@@ -5356,28 +5356,32 @@
     <row r="138">
       <c r="A138" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006049</t>
+          <t>BCIO:006096</t>
         </is>
       </c>
       <c r="B138" s="2" t="inlineStr">
         <is>
-          <t>goal</t>
+          <t>goal pursuit process</t>
         </is>
       </c>
       <c r="C138" s="2" t="inlineStr">
         <is>
-          <t>cognitive representation</t>
+          <t>bodily process</t>
         </is>
       </c>
       <c r="D138" s="2" t="inlineStr">
         <is>
-          <t>A cognitive representation of an end state towards which one is striving.</t>
+          <t>A bodily process in which attempts are made to achieve a desired end state.</t>
         </is>
       </c>
       <c r="E138" s="2" t="inlineStr"/>
       <c r="F138" s="2" t="inlineStr"/>
       <c r="G138" s="2" t="inlineStr"/>
-      <c r="H138" s="2" t="inlineStr"/>
+      <c r="H138" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'Goal pursuit process' is a bodily process, as it may involve more than just mental processes (i.e., other processes in the body). </t>
+        </is>
+      </c>
       <c r="I138" s="2" t="inlineStr"/>
       <c r="J138" s="2" t="inlineStr">
         <is>
@@ -5390,32 +5394,28 @@
     <row r="139">
       <c r="A139" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006096</t>
+          <t>BCIO:006114</t>
         </is>
       </c>
       <c r="B139" s="2" t="inlineStr">
         <is>
-          <t>goal pursuit process</t>
+          <t>goal setting process</t>
         </is>
       </c>
       <c r="C139" s="2" t="inlineStr">
         <is>
-          <t>bodily process</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D139" s="2" t="inlineStr">
         <is>
-          <t>A bodily process in which attempts are made to achieve a desired end state.</t>
+          <t>A mental process that establishes a cognitive representation of the desired end state.</t>
         </is>
       </c>
       <c r="E139" s="2" t="inlineStr"/>
       <c r="F139" s="2" t="inlineStr"/>
       <c r="G139" s="2" t="inlineStr"/>
-      <c r="H139" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">'Goal pursuit process' is a bodily process, as it may involve more than just mental processes (i.e., other processes in the body). </t>
-        </is>
-      </c>
+      <c r="H139" s="2" t="inlineStr"/>
       <c r="I139" s="2" t="inlineStr"/>
       <c r="J139" s="2" t="inlineStr">
         <is>
@@ -5426,165 +5426,165 @@
       <c r="L139" s="2" t="inlineStr"/>
     </row>
     <row r="140">
-      <c r="A140" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006114</t>
-        </is>
-      </c>
-      <c r="B140" s="2" t="inlineStr">
-        <is>
-          <t>goal setting process</t>
-        </is>
-      </c>
-      <c r="C140" s="2" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D140" s="2" t="inlineStr">
-        <is>
-          <t>A mental process that establishes a cognitive representation of the desired end state.</t>
-        </is>
-      </c>
-      <c r="E140" s="2" t="inlineStr"/>
-      <c r="F140" s="2" t="inlineStr"/>
-      <c r="G140" s="2" t="inlineStr"/>
-      <c r="H140" s="2" t="inlineStr"/>
-      <c r="I140" s="2" t="inlineStr"/>
-      <c r="J140" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K140" s="2" t="inlineStr"/>
-      <c r="L140" s="2" t="inlineStr"/>
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>MFOEM:000053</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>guilt</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>emotion process</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>A negative self-evaluative emotion that occurs when a person brings about a negative outcome by acts of commission or omission that violate internal or external moral standards.</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="inlineStr"/>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>MFOEM:000053</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>guilt</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>emotion process</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>A negative self-evaluative emotion that occurs when a person brings about a negative outcome by acts of commission or omission that violate internal or external moral standards.</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr"/>
-      <c r="F141" t="inlineStr"/>
-      <c r="G141" t="inlineStr"/>
-      <c r="H141" t="inlineStr"/>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="A141" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006309</t>
+        </is>
+      </c>
+      <c r="B141" s="3" t="inlineStr">
+        <is>
+          <t>habit learning</t>
+        </is>
+      </c>
+      <c r="C141" s="3" t="inlineStr">
+        <is>
+          <t>associative learning</t>
+        </is>
+      </c>
+      <c r="D141" s="3" t="inlineStr">
+        <is>
+          <t>Associative learning process that involves strengthening an association between a stimulus and an impulse through repetition of co-occurrence of the stimulus and the behaviour.</t>
+        </is>
+      </c>
+      <c r="E141" s="3" t="inlineStr"/>
+      <c r="F141" s="3" t="inlineStr"/>
+      <c r="G141" s="3" t="inlineStr"/>
+      <c r="H141" s="3" t="inlineStr"/>
+      <c r="I141" s="3" t="inlineStr"/>
+      <c r="J141" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="K141" s="3" t="inlineStr"/>
+      <c r="L141" s="3" t="inlineStr"/>
     </row>
     <row r="142">
-      <c r="A142" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006309</t>
-        </is>
-      </c>
-      <c r="B142" s="3" t="inlineStr">
-        <is>
-          <t>habit learning</t>
-        </is>
-      </c>
-      <c r="C142" s="3" t="inlineStr">
-        <is>
-          <t>associative learning</t>
-        </is>
-      </c>
-      <c r="D142" s="3" t="inlineStr">
-        <is>
-          <t>Associative learning process that involves strengthening an association between a stimulus and an impulse through repetition of co-occurrence of the stimulus and the behaviour.</t>
-        </is>
-      </c>
-      <c r="E142" s="3" t="inlineStr"/>
-      <c r="F142" s="3" t="inlineStr"/>
-      <c r="G142" s="3" t="inlineStr"/>
-      <c r="H142" s="3" t="inlineStr"/>
-      <c r="I142" s="3" t="inlineStr"/>
-      <c r="J142" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="K142" s="3" t="inlineStr"/>
-      <c r="L142" s="3" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="2" t="inlineStr">
+      <c r="A142" s="2" t="inlineStr">
         <is>
           <t>BCIO:006158</t>
         </is>
       </c>
-      <c r="B143" s="2" t="inlineStr">
+      <c r="B142" s="2" t="inlineStr">
         <is>
           <t>habitual behaviour</t>
         </is>
       </c>
-      <c r="C143" s="2" t="inlineStr">
+      <c r="C142" s="2" t="inlineStr">
         <is>
           <t>individual human behaviour</t>
         </is>
       </c>
-      <c r="D143" s="2" t="inlineStr">
+      <c r="D142" s="2" t="inlineStr">
         <is>
           <t>A behaviour that results from a learnt stimulus-behaviour co-occurrence.</t>
         </is>
       </c>
-      <c r="E143" s="2" t="inlineStr"/>
-      <c r="F143" s="2" t="inlineStr"/>
-      <c r="G143" s="2" t="inlineStr"/>
-      <c r="H143" s="2" t="inlineStr">
+      <c r="E142" s="2" t="inlineStr"/>
+      <c r="F142" s="2" t="inlineStr"/>
+      <c r="G142" s="2" t="inlineStr"/>
+      <c r="H142" s="2" t="inlineStr">
         <is>
           <t>A learnt stimulus-behaviour co-occurrence can lead to activation or execution of a habitual behaviour.
 Habitual behaviour can be an MoA or outcome depending on how 'habitual behaviour' is described in an intervention. The Behaviour Change-Intervention Ontology includes the class 'outcome behaviour' (definition: Human behavior that is an intervention outcome.), which would not be an MoA. When an intervention targets a habitual behaviour to achieve an outcome behaviour, the former qualifies as an MoA.</t>
         </is>
       </c>
-      <c r="I143" s="2" t="inlineStr"/>
-      <c r="J143" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K143" s="2" t="inlineStr"/>
-      <c r="L143" s="2" t="inlineStr"/>
+      <c r="I142" s="2" t="inlineStr"/>
+      <c r="J142" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K142" s="2" t="inlineStr"/>
+      <c r="L142" s="2" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>GO:0046959</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>habituation</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>non-associative learning</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>A decrease in a behavioural response to a repeated stimulus.</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="inlineStr"/>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>GO:0046959</t>
+          <t>MFOEM:000042</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>habituation</t>
+          <t>happiness</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>non-associative learning</t>
+          <t>emotion process</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>A decrease in a behavioural response to a repeated stimulus.</t>
+          <t>A positive emotion which is experienced in reaction to a positive experience or event.</t>
         </is>
       </c>
       <c r="E144" t="inlineStr"/>
@@ -5601,68 +5601,68 @@
       <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>MFOEM:000042</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>happiness</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>emotion process</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>A positive emotion which is experienced in reaction to a positive experience or event.</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr"/>
-      <c r="F145" t="inlineStr"/>
-      <c r="G145" t="inlineStr"/>
-      <c r="H145" t="inlineStr"/>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="A145" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006088</t>
+        </is>
+      </c>
+      <c r="B145" s="2" t="inlineStr">
+        <is>
+          <t>healthcare access</t>
+        </is>
+      </c>
+      <c r="C145" s="2" t="inlineStr">
+        <is>
+          <t>opportunity</t>
+        </is>
+      </c>
+      <c r="D145" s="2" t="inlineStr">
+        <is>
+          <t>A behavioural opportunity regarding how easy it is for a person to approach and use a healthcare service.</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="inlineStr"/>
+      <c r="F145" s="2" t="inlineStr"/>
+      <c r="G145" s="2" t="inlineStr"/>
+      <c r="H145" s="2" t="inlineStr">
+        <is>
+          <t>The 'healthcare services' refers to services provided for the purposes of preventing, detecting, curing or controlling a health problem or enhancing wellbeing.</t>
+        </is>
+      </c>
+      <c r="I145" s="2" t="inlineStr"/>
+      <c r="J145" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K145" s="2" t="inlineStr"/>
+      <c r="L145" s="2" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006088</t>
+          <t>BCIO:006115</t>
         </is>
       </c>
       <c r="B146" s="2" t="inlineStr">
         <is>
-          <t>healthcare access</t>
+          <t>heuristic process</t>
         </is>
       </c>
       <c r="C146" s="2" t="inlineStr">
         <is>
-          <t>opportunity</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D146" s="2" t="inlineStr">
         <is>
-          <t>A behavioural opportunity regarding how easy it is for a person to approach and use a healthcare service.</t>
+          <t>A mental process that uses simple rules and associations learnt from experience to make judgements.</t>
         </is>
       </c>
       <c r="E146" s="2" t="inlineStr"/>
       <c r="F146" s="2" t="inlineStr"/>
       <c r="G146" s="2" t="inlineStr"/>
-      <c r="H146" s="2" t="inlineStr">
-        <is>
-          <t>The 'healthcare services' refers to services provided for the purposes of preventing, detecting, curing or controlling a health problem or enhancing wellbeing.</t>
-        </is>
-      </c>
+      <c r="H146" s="2" t="inlineStr"/>
       <c r="I146" s="2" t="inlineStr"/>
       <c r="J146" s="2" t="inlineStr">
         <is>
@@ -5673,92 +5673,92 @@
       <c r="L146" s="2" t="inlineStr"/>
     </row>
     <row r="147">
-      <c r="A147" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006115</t>
-        </is>
-      </c>
-      <c r="B147" s="2" t="inlineStr">
-        <is>
-          <t>heuristic process</t>
-        </is>
-      </c>
-      <c r="C147" s="2" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D147" s="2" t="inlineStr">
-        <is>
-          <t>A mental process that uses simple rules and associations learnt from experience to make judgements.</t>
-        </is>
-      </c>
-      <c r="E147" s="2" t="inlineStr"/>
-      <c r="F147" s="2" t="inlineStr"/>
-      <c r="G147" s="2" t="inlineStr"/>
-      <c r="H147" s="2" t="inlineStr"/>
-      <c r="I147" s="2" t="inlineStr"/>
-      <c r="J147" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K147" s="2" t="inlineStr"/>
-      <c r="L147" s="2" t="inlineStr"/>
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>MFOEM:000205</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>hunger</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>subjective affective feeling</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>A subjective affective feeling that involves discomfort and is associated with a need to consume food.</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="inlineStr"/>
+      <c r="G147" t="inlineStr"/>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>MFOEM:000205</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>hunger</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>subjective affective feeling</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>A subjective affective feeling that involves discomfort and is associated with a need to consume food.</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr"/>
-      <c r="F148" t="inlineStr"/>
-      <c r="G148" t="inlineStr"/>
-      <c r="H148" t="inlineStr"/>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="A148" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006130</t>
+        </is>
+      </c>
+      <c r="B148" s="2" t="inlineStr">
+        <is>
+          <t>iconic memory</t>
+        </is>
+      </c>
+      <c r="C148" s="2" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="D148" s="2" t="inlineStr">
+        <is>
+          <t>A memory process that deals with the receipt, storage, retrieval and modification of information regarding a brief visual stimulus,</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="inlineStr"/>
+      <c r="F148" s="2" t="inlineStr"/>
+      <c r="G148" s="2" t="inlineStr"/>
+      <c r="H148" s="2" t="inlineStr"/>
+      <c r="I148" s="2" t="inlineStr"/>
+      <c r="J148" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K148" s="2" t="inlineStr"/>
+      <c r="L148" s="2" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006130</t>
+          <t>BCIO:006050</t>
         </is>
       </c>
       <c r="B149" s="2" t="inlineStr">
         <is>
-          <t>iconic memory</t>
+          <t>identity</t>
         </is>
       </c>
       <c r="C149" s="2" t="inlineStr">
         <is>
-          <t>memory</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D149" s="2" t="inlineStr">
         <is>
-          <t>A memory process that deals with the receipt, storage, retrieval and modification of information regarding a brief visual stimulus,</t>
+          <t>A mental disposition relating to perceptions of oneself.</t>
         </is>
       </c>
       <c r="E149" s="2" t="inlineStr"/>
@@ -5775,150 +5775,155 @@
       <c r="L149" s="2" t="inlineStr"/>
     </row>
     <row r="150">
-      <c r="A150" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006050</t>
-        </is>
-      </c>
-      <c r="B150" s="2" t="inlineStr">
-        <is>
-          <t>identity</t>
-        </is>
-      </c>
-      <c r="C150" s="2" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
-      <c r="D150" s="2" t="inlineStr">
-        <is>
-          <t>A mental disposition relating to perceptions of oneself.</t>
-        </is>
-      </c>
-      <c r="E150" s="2" t="inlineStr"/>
-      <c r="F150" s="2" t="inlineStr"/>
-      <c r="G150" s="2" t="inlineStr"/>
-      <c r="H150" s="2" t="inlineStr"/>
-      <c r="I150" s="2" t="inlineStr"/>
-      <c r="J150" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K150" s="2" t="inlineStr"/>
-      <c r="L150" s="2" t="inlineStr"/>
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>GO:0098596</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>imitative learning</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>observational learning</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Observational learning in which new behaviours are acquired through imitation. </t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr"/>
+      <c r="F150" t="inlineStr"/>
+      <c r="G150" t="inlineStr"/>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>GO:0098596</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>imitative learning</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>observational learning</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Observational learning in which new behaviours are acquired through imitation. </t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr"/>
-      <c r="F151" t="inlineStr"/>
-      <c r="G151" t="inlineStr"/>
-      <c r="H151" t="inlineStr"/>
-      <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="A151" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050234</t>
+        </is>
+      </c>
+      <c r="B151" s="3" t="inlineStr">
+        <is>
+          <t>impulse</t>
+        </is>
+      </c>
+      <c r="C151" s="3" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D151" s="3" t="inlineStr">
+        <is>
+          <t>A mental process that is sudden and compels an organism to think or behave in some way.</t>
+        </is>
+      </c>
+      <c r="E151" s="3" t="inlineStr"/>
+      <c r="F151" s="3" t="inlineStr"/>
+      <c r="G151" s="3" t="inlineStr"/>
+      <c r="H151" s="3" t="inlineStr"/>
+      <c r="I151" s="3" t="inlineStr"/>
+      <c r="J151" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="K151" s="3" t="inlineStr"/>
+      <c r="L151" s="3" t="inlineStr"/>
     </row>
     <row r="152">
-      <c r="A152" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050234</t>
-        </is>
-      </c>
-      <c r="B152" s="3" t="inlineStr">
-        <is>
-          <t>impulse</t>
-        </is>
-      </c>
-      <c r="C152" s="3" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D152" s="3" t="inlineStr">
-        <is>
-          <t>A mental process that is sudden and compels an organism to think or behave in some way.</t>
-        </is>
-      </c>
-      <c r="E152" s="3" t="inlineStr"/>
-      <c r="F152" s="3" t="inlineStr"/>
-      <c r="G152" s="3" t="inlineStr"/>
-      <c r="H152" s="3" t="inlineStr"/>
-      <c r="I152" s="3" t="inlineStr"/>
-      <c r="J152" s="3" t="inlineStr">
+      <c r="A152" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006094</t>
+        </is>
+      </c>
+      <c r="B152" s="2" t="inlineStr">
+        <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="C152" s="2" t="inlineStr">
+        <is>
+          <t>bodily process</t>
+        </is>
+      </c>
+      <c r="D152" s="2" t="inlineStr">
+        <is>
+          <t>A bodily process of a human that involves co-ordinated contraction of striated muscles controlled by the brain.</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="inlineStr"/>
+      <c r="F152" s="2" t="inlineStr"/>
+      <c r="G152" s="2" t="inlineStr"/>
+      <c r="H152" s="2" t="inlineStr">
+        <is>
+          <t>The striated muscles referred to do not ordinarily involve the cardiac muscles.
+Behaviour can be an MoA or outcome depending on how 'behaviour' is described in an intervention. The Behaviour Change-Intervention Ontology includes the class  'outcome behaviour' (definition: Human behavior that is an intervention outcome.), which would not be an MoA. When an intervention targets one behaviour to achieve an outcome behaviour (e.g. exercise for smoking cessation), the former qualifies as an MoA.</t>
+        </is>
+      </c>
+      <c r="I152" s="2" t="inlineStr"/>
+      <c r="J152" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K152" s="2" t="inlineStr"/>
+      <c r="L152" s="2" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:036025</t>
+        </is>
+      </c>
+      <c r="B153" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">inter-personal behaviour </t>
+        </is>
+      </c>
+      <c r="C153" s="3" t="inlineStr">
+        <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="D153" s="3" t="inlineStr">
+        <is>
+          <t>An individual human behaviour that involves an interaction between two or more people.</t>
+        </is>
+      </c>
+      <c r="E153" s="3" t="inlineStr"/>
+      <c r="F153" s="3" t="inlineStr"/>
+      <c r="G153" s="3" t="inlineStr"/>
+      <c r="H153" s="3" t="inlineStr"/>
+      <c r="I153" s="3" t="inlineStr"/>
+      <c r="J153" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="K152" s="3" t="inlineStr"/>
-      <c r="L152" s="3" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>BFO:0000004</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>independent continuant</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>entity</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>b is an independent continuant = Def. b is a continuant which is such that there is no c and no t such that b s-depends_on c at t.</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr"/>
-      <c r="F153" t="inlineStr"/>
-      <c r="G153" t="inlineStr"/>
-      <c r="H153" t="inlineStr"/>
-      <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="K153" s="3" t="inlineStr"/>
+      <c r="L153" s="3" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006094</t>
+          <t>BCIO:006100</t>
         </is>
       </c>
       <c r="B154" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>internal reward for a response</t>
         </is>
       </c>
       <c r="C154" s="2" t="inlineStr">
@@ -5928,18 +5933,13 @@
       </c>
       <c r="D154" s="2" t="inlineStr">
         <is>
-          <t>A bodily process of a human that involves co-ordinated contraction of striated muscles controlled by the brain.</t>
+          <t>A bodily process by which the person experiences an internally-generated positive physical or psychological state subsequent to a response.</t>
         </is>
       </c>
       <c r="E154" s="2" t="inlineStr"/>
       <c r="F154" s="2" t="inlineStr"/>
       <c r="G154" s="2" t="inlineStr"/>
-      <c r="H154" s="2" t="inlineStr">
-        <is>
-          <t>The striated muscles referred to do not ordinarily involve the cardiac muscles.
-Behaviour can be an MoA or outcome depending on how 'behaviour' is described in an intervention. The Behaviour Change-Intervention Ontology includes the class  'outcome behaviour' (definition: Human behavior that is an intervention outcome.), which would not be an MoA. When an intervention targets one behaviour to achieve an outcome behaviour (e.g. exercise for smoking cessation), the former qualifies as an MoA.</t>
-        </is>
-      </c>
+      <c r="H154" s="2" t="inlineStr"/>
       <c r="I154" s="2" t="inlineStr"/>
       <c r="J154" s="2" t="inlineStr">
         <is>
@@ -5950,310 +5950,310 @@
       <c r="L154" s="2" t="inlineStr"/>
     </row>
     <row r="155">
-      <c r="A155" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:036025</t>
-        </is>
-      </c>
-      <c r="B155" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">inter-personal behaviour </t>
-        </is>
-      </c>
-      <c r="C155" s="3" t="inlineStr">
-        <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="D155" s="3" t="inlineStr">
-        <is>
-          <t>An individual human behaviour that involves an interaction between two or more people.</t>
-        </is>
-      </c>
-      <c r="E155" s="3" t="inlineStr"/>
-      <c r="F155" s="3" t="inlineStr"/>
-      <c r="G155" s="3" t="inlineStr"/>
-      <c r="H155" s="3" t="inlineStr"/>
-      <c r="I155" s="3" t="inlineStr"/>
-      <c r="J155" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="K155" s="3" t="inlineStr"/>
-      <c r="L155" s="3" t="inlineStr"/>
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>MFOEM:000022</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>interpersonal disgust</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>disgust</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Disgust elicited by contact with others, especially contact with strangers or other individuals or groups we are averse to.</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr"/>
+      <c r="F155" t="inlineStr"/>
+      <c r="G155" t="inlineStr"/>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
-      <c r="A156" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006100</t>
-        </is>
-      </c>
-      <c r="B156" s="2" t="inlineStr">
-        <is>
-          <t>internal reward for a response</t>
-        </is>
-      </c>
-      <c r="C156" s="2" t="inlineStr">
-        <is>
-          <t>bodily process</t>
-        </is>
-      </c>
-      <c r="D156" s="2" t="inlineStr">
-        <is>
-          <t>A bodily process by which the person experiences an internally-generated positive physical or psychological state subsequent to a response.</t>
-        </is>
-      </c>
-      <c r="E156" s="2" t="inlineStr"/>
-      <c r="F156" s="2" t="inlineStr"/>
-      <c r="G156" s="2" t="inlineStr"/>
-      <c r="H156" s="2" t="inlineStr"/>
-      <c r="I156" s="2" t="inlineStr"/>
-      <c r="J156" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K156" s="2" t="inlineStr"/>
-      <c r="L156" s="2" t="inlineStr"/>
+      <c r="A156" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:006097</t>
+        </is>
+      </c>
+      <c r="B156" s="4" t="inlineStr">
+        <is>
+          <t>interpersonal reciprocal communication</t>
+        </is>
+      </c>
+      <c r="C156" s="4" t="inlineStr">
+        <is>
+          <t>communication</t>
+        </is>
+      </c>
+      <c r="D156" s="4" t="inlineStr">
+        <is>
+          <t>Communication that is mutual between two or more people.</t>
+        </is>
+      </c>
+      <c r="E156" s="4" t="inlineStr"/>
+      <c r="F156" s="4" t="inlineStr"/>
+      <c r="G156" s="4" t="inlineStr"/>
+      <c r="H156" s="4" t="inlineStr"/>
+      <c r="I156" s="4" t="inlineStr"/>
+      <c r="J156" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="K156" s="4" t="inlineStr"/>
+      <c r="L156" s="4" t="inlineStr"/>
     </row>
     <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>MFOEM:000022</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>interpersonal disgust</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>disgust</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>Disgust elicited by contact with others, especially contact with strangers or other individuals or groups we are averse to.</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr"/>
-      <c r="F157" t="inlineStr"/>
-      <c r="G157" t="inlineStr"/>
-      <c r="H157" t="inlineStr"/>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr">
+      <c r="A157" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006136</t>
+        </is>
+      </c>
+      <c r="B157" s="2" t="inlineStr">
+        <is>
+          <t>intrinsic motivation</t>
+        </is>
+      </c>
+      <c r="C157" s="2" t="inlineStr">
+        <is>
+          <t>autonomous motivation</t>
+        </is>
+      </c>
+      <c r="D157" s="2" t="inlineStr">
+        <is>
+          <t>Autonomous motivation due to a behaviour's inherent enjoyment, satisfaction or benefits to oneself.</t>
+        </is>
+      </c>
+      <c r="E157" s="2" t="inlineStr"/>
+      <c r="F157" s="2" t="inlineStr"/>
+      <c r="G157" s="2" t="inlineStr"/>
+      <c r="H157" s="2" t="inlineStr">
+        <is>
+          <t>The phrase 'benefits to oneself' includes the reduction of unpleasant internal states.</t>
+        </is>
+      </c>
+      <c r="I157" s="2" t="inlineStr"/>
+      <c r="J157" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K157" s="2" t="inlineStr"/>
+      <c r="L157" s="2" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006105</t>
+        </is>
+      </c>
+      <c r="B158" s="2" t="inlineStr">
+        <is>
+          <t>introjected self-regulation</t>
+        </is>
+      </c>
+      <c r="C158" s="2" t="inlineStr">
+        <is>
+          <t>self-regulation of behaviour</t>
+        </is>
+      </c>
+      <c r="D158" s="2" t="inlineStr">
+        <is>
+          <t>Self-regulation of behaviour undertaken to manage a sense of guilt, anxiety or obligation.</t>
+        </is>
+      </c>
+      <c r="E158" s="2" t="inlineStr"/>
+      <c r="F158" s="2" t="inlineStr"/>
+      <c r="G158" s="2" t="inlineStr"/>
+      <c r="H158" s="2" t="inlineStr"/>
+      <c r="I158" s="2" t="inlineStr"/>
+      <c r="J158" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K158" s="2" t="inlineStr"/>
+      <c r="L158" s="2" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>MF:0000006</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>judging</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>A mental process during which information is evaluated, the outcome of which is a belief or opinion.</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr"/>
+      <c r="F159" t="inlineStr"/>
+      <c r="G159" t="inlineStr"/>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="4" t="inlineStr">
-        <is>
-          <t>BCIO:006097</t>
-        </is>
-      </c>
-      <c r="B158" s="4" t="inlineStr">
-        <is>
-          <t>interpersonal reciprocal communication</t>
-        </is>
-      </c>
-      <c r="C158" s="4" t="inlineStr">
-        <is>
-          <t>communication</t>
-        </is>
-      </c>
-      <c r="D158" s="4" t="inlineStr">
-        <is>
-          <t>Communication that is mutual between two or more people.</t>
-        </is>
-      </c>
-      <c r="E158" s="4" t="inlineStr"/>
-      <c r="F158" s="4" t="inlineStr"/>
-      <c r="G158" s="4" t="inlineStr"/>
-      <c r="H158" s="4" t="inlineStr"/>
-      <c r="I158" s="4" t="inlineStr"/>
-      <c r="J158" s="4" t="inlineStr">
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:006117</t>
+        </is>
+      </c>
+      <c r="B160" s="4" t="inlineStr">
+        <is>
+          <t>judging consequences of behaviour</t>
+        </is>
+      </c>
+      <c r="C160" s="4" t="inlineStr">
+        <is>
+          <t>judging</t>
+        </is>
+      </c>
+      <c r="D160" s="4" t="inlineStr">
+        <is>
+          <t>Judging during which a belief about the consequences of a behaviour is created or modified.</t>
+        </is>
+      </c>
+      <c r="E160" s="4" t="inlineStr"/>
+      <c r="F160" s="4" t="inlineStr"/>
+      <c r="G160" s="4" t="inlineStr"/>
+      <c r="H160" s="4" t="inlineStr"/>
+      <c r="I160" s="4" t="inlineStr"/>
+      <c r="J160" s="4" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="K158" s="4" t="inlineStr"/>
-      <c r="L158" s="4" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006136</t>
-        </is>
-      </c>
-      <c r="B159" s="2" t="inlineStr">
-        <is>
-          <t>intrinsic motivation</t>
-        </is>
-      </c>
-      <c r="C159" s="2" t="inlineStr">
-        <is>
-          <t>autonomous motivation</t>
-        </is>
-      </c>
-      <c r="D159" s="2" t="inlineStr">
-        <is>
-          <t>Autonomous motivation due to a behaviour's inherent enjoyment, satisfaction or benefits to oneself.</t>
-        </is>
-      </c>
-      <c r="E159" s="2" t="inlineStr"/>
-      <c r="F159" s="2" t="inlineStr"/>
-      <c r="G159" s="2" t="inlineStr"/>
-      <c r="H159" s="2" t="inlineStr">
-        <is>
-          <t>The phrase 'benefits to oneself' includes the reduction of unpleasant internal states.</t>
-        </is>
-      </c>
-      <c r="I159" s="2" t="inlineStr"/>
-      <c r="J159" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K159" s="2" t="inlineStr"/>
-      <c r="L159" s="2" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006105</t>
-        </is>
-      </c>
-      <c r="B160" s="2" t="inlineStr">
-        <is>
-          <t>introjected self-regulation</t>
-        </is>
-      </c>
-      <c r="C160" s="2" t="inlineStr">
-        <is>
-          <t>self-regulation of behaviour</t>
-        </is>
-      </c>
-      <c r="D160" s="2" t="inlineStr">
-        <is>
-          <t>Self-regulation of behaviour undertaken to manage a sense of guilt, anxiety or obligation.</t>
-        </is>
-      </c>
-      <c r="E160" s="2" t="inlineStr"/>
-      <c r="F160" s="2" t="inlineStr"/>
-      <c r="G160" s="2" t="inlineStr"/>
-      <c r="H160" s="2" t="inlineStr"/>
-      <c r="I160" s="2" t="inlineStr"/>
-      <c r="J160" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K160" s="2" t="inlineStr"/>
-      <c r="L160" s="2" t="inlineStr"/>
+      <c r="K160" s="4" t="inlineStr"/>
+      <c r="L160" s="4" t="inlineStr"/>
     </row>
     <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>MF:0000006</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>judging</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>A mental process during which information is evaluated, the outcome of which is a belief or opinion.</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr"/>
-      <c r="F161" t="inlineStr"/>
-      <c r="G161" t="inlineStr"/>
-      <c r="H161" t="inlineStr"/>
-      <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="A161" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006052</t>
+        </is>
+      </c>
+      <c r="B161" s="2" t="inlineStr">
+        <is>
+          <t>knowledge</t>
+        </is>
+      </c>
+      <c r="C161" s="2" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="D161" s="2" t="inlineStr">
+        <is>
+          <t>A mental disposition to understand the nature of the world, or a specific aspect of the world, that corresponds to the actual state of the world and is acquired through experience or learning.</t>
+        </is>
+      </c>
+      <c r="E161" s="2" t="inlineStr"/>
+      <c r="F161" s="2" t="inlineStr"/>
+      <c r="G161" s="2" t="inlineStr"/>
+      <c r="H161" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Knowledge is defined as a 'mental disposition', a realisable entity, because a person requires a process to access the information stored in their brain. A person knows something, when the relevant information has been retrieved from their memory. There are instances where a person might have learned something, but is unable to retrieve the information at a specific moment. </t>
+        </is>
+      </c>
+      <c r="I161" s="2" t="inlineStr"/>
+      <c r="J161" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K161" s="2" t="inlineStr"/>
+      <c r="L161" s="2" t="inlineStr"/>
     </row>
     <row r="162">
-      <c r="A162" s="4" t="inlineStr">
-        <is>
-          <t>BCIO:006117</t>
-        </is>
-      </c>
-      <c r="B162" s="4" t="inlineStr">
-        <is>
-          <t>judging consequences of behaviour</t>
-        </is>
-      </c>
-      <c r="C162" s="4" t="inlineStr">
-        <is>
-          <t>judging</t>
-        </is>
-      </c>
-      <c r="D162" s="4" t="inlineStr">
-        <is>
-          <t>Judging during which a belief about the consequences of a behaviour is created or modified.</t>
-        </is>
-      </c>
-      <c r="E162" s="4" t="inlineStr"/>
-      <c r="F162" s="4" t="inlineStr"/>
-      <c r="G162" s="4" t="inlineStr"/>
-      <c r="H162" s="4" t="inlineStr"/>
-      <c r="I162" s="4" t="inlineStr"/>
-      <c r="J162" s="4" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="K162" s="4" t="inlineStr"/>
-      <c r="L162" s="4" t="inlineStr"/>
+      <c r="A162" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006053</t>
+        </is>
+      </c>
+      <c r="B162" s="2" t="inlineStr">
+        <is>
+          <t>knowledge regarding a behaviour</t>
+        </is>
+      </c>
+      <c r="C162" s="2" t="inlineStr">
+        <is>
+          <t>knowledge</t>
+        </is>
+      </c>
+      <c r="D162" s="2" t="inlineStr">
+        <is>
+          <t>Knowledge regarding a particular set of actions.</t>
+        </is>
+      </c>
+      <c r="E162" s="2" t="inlineStr"/>
+      <c r="F162" s="2" t="inlineStr"/>
+      <c r="G162" s="2" t="inlineStr"/>
+      <c r="H162" s="2" t="inlineStr"/>
+      <c r="I162" s="2" t="inlineStr"/>
+      <c r="J162" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K162" s="2" t="inlineStr"/>
+      <c r="L162" s="2" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006052</t>
+          <t>BCIO:006055</t>
         </is>
       </c>
       <c r="B163" s="2" t="inlineStr">
         <is>
+          <t>knowledge regarding a threat</t>
+        </is>
+      </c>
+      <c r="C163" s="2" t="inlineStr">
+        <is>
           <t>knowledge</t>
         </is>
       </c>
-      <c r="C163" s="2" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
       <c r="D163" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to understand the nature of the world, or a specific aspect of the world, that corresponds to the actual state of the world and is acquired through experience or learning.</t>
+          <t>Knowledge regarding a potential harm.</t>
         </is>
       </c>
       <c r="E163" s="2" t="inlineStr"/>
       <c r="F163" s="2" t="inlineStr"/>
       <c r="G163" s="2" t="inlineStr"/>
-      <c r="H163" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Knowledge is defined as a 'mental disposition', a realisable entity, because a person requires a process to access the information stored in their brain. A person knows something, when the relevant information has been retrieved from their memory. There are instances where a person might have learned something, but is unable to retrieve the information at a specific moment. </t>
-        </is>
-      </c>
+      <c r="H163" s="2" t="inlineStr"/>
       <c r="I163" s="2" t="inlineStr"/>
       <c r="J163" s="2" t="inlineStr">
         <is>
@@ -6266,12 +6266,12 @@
     <row r="164">
       <c r="A164" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006053</t>
+          <t>BCIO:006054</t>
         </is>
       </c>
       <c r="B164" s="2" t="inlineStr">
         <is>
-          <t>knowledge regarding a behaviour</t>
+          <t>knowledge regarding an innovation</t>
         </is>
       </c>
       <c r="C164" s="2" t="inlineStr">
@@ -6281,7 +6281,7 @@
       </c>
       <c r="D164" s="2" t="inlineStr">
         <is>
-          <t>Knowledge regarding a particular set of actions.</t>
+          <t>Knowledge regarding a novel invention or way of doing something.</t>
         </is>
       </c>
       <c r="E164" s="2" t="inlineStr"/>
@@ -6300,12 +6300,12 @@
     <row r="165">
       <c r="A165" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006055</t>
+          <t>BCIO:006056</t>
         </is>
       </c>
       <c r="B165" s="2" t="inlineStr">
         <is>
-          <t>knowledge regarding a threat</t>
+          <t>knowledge regarding treatment</t>
         </is>
       </c>
       <c r="C165" s="2" t="inlineStr">
@@ -6315,7 +6315,7 @@
       </c>
       <c r="D165" s="2" t="inlineStr">
         <is>
-          <t>Knowledge regarding a potential harm.</t>
+          <t>Knowledge regarding a therapy or medication for a health problem.</t>
         </is>
       </c>
       <c r="E165" s="2" t="inlineStr"/>
@@ -6334,28 +6334,36 @@
     <row r="166">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006054</t>
+          <t>BCIO:006155</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
         <is>
-          <t>knowledge regarding an innovation</t>
+          <t>learned stimulus-behaviour co-occurrence</t>
         </is>
       </c>
       <c r="C166" s="2" t="inlineStr">
         <is>
-          <t>knowledge</t>
+          <t>learned stimulus-response co-occurrence</t>
         </is>
       </c>
       <c r="D166" s="2" t="inlineStr">
         <is>
-          <t>Knowledge regarding a novel invention or way of doing something.</t>
+          <t>A mental disposition to behave in a particular way in response to an internal or external event in the person's environment, which is acquired through habit learning.</t>
         </is>
       </c>
       <c r="E166" s="2" t="inlineStr"/>
-      <c r="F166" s="2" t="inlineStr"/>
+      <c r="F166" s="2" t="inlineStr">
+        <is>
+          <t>Habit</t>
+        </is>
+      </c>
       <c r="G166" s="2" t="inlineStr"/>
-      <c r="H166" s="2" t="inlineStr"/>
+      <c r="H166" s="2" t="inlineStr">
+        <is>
+          <t>Learned stimulus-behaviour co-occurrence can vary in strength.</t>
+        </is>
+      </c>
       <c r="I166" s="2" t="inlineStr"/>
       <c r="J166" s="2" t="inlineStr">
         <is>
@@ -6368,28 +6376,32 @@
     <row r="167">
       <c r="A167" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006056</t>
+          <t>BCIO:006057</t>
         </is>
       </c>
       <c r="B167" s="2" t="inlineStr">
         <is>
-          <t>knowledge regarding treatment</t>
+          <t>learned stimulus-reponse co-occurrence</t>
         </is>
       </c>
       <c r="C167" s="2" t="inlineStr">
         <is>
-          <t>knowledge</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D167" s="2" t="inlineStr">
         <is>
-          <t>Knowledge regarding a therapy or medication for a health problem.</t>
+          <t>A mental disposition to think or behave in a particular way in response to an internal or external event in the person's environment, which is acquired through associative learning.</t>
         </is>
       </c>
       <c r="E167" s="2" t="inlineStr"/>
       <c r="F167" s="2" t="inlineStr"/>
       <c r="G167" s="2" t="inlineStr"/>
-      <c r="H167" s="2" t="inlineStr"/>
+      <c r="H167" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The responses to an event can include thinking and impulses to respond. </t>
+        </is>
+      </c>
       <c r="I167" s="2" t="inlineStr"/>
       <c r="J167" s="2" t="inlineStr">
         <is>
@@ -6402,12 +6414,12 @@
     <row r="168">
       <c r="A168" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006155</t>
+          <t>BCIO:006156</t>
         </is>
       </c>
       <c r="B168" s="2" t="inlineStr">
         <is>
-          <t>learned stimulus-behaviour co-occurrence</t>
+          <t>learned stimulus-thought co-occurrence</t>
         </is>
       </c>
       <c r="C168" s="2" t="inlineStr">
@@ -6417,21 +6429,17 @@
       </c>
       <c r="D168" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to behave in a particular way in response to an internal or external event in the person's environment, which is acquired through habit learning.</t>
+          <t>A mental disposition to think in a particular way in response to an internal or external event in the person's environment, which is acquired through associative learning.</t>
         </is>
       </c>
       <c r="E168" s="2" t="inlineStr"/>
       <c r="F168" s="2" t="inlineStr">
         <is>
-          <t>Habit</t>
+          <t>Mental habit</t>
         </is>
       </c>
       <c r="G168" s="2" t="inlineStr"/>
-      <c r="H168" s="2" t="inlineStr">
-        <is>
-          <t>Learned stimulus-behaviour co-occurrence can vary in strength.</t>
-        </is>
-      </c>
+      <c r="H168" s="2" t="inlineStr"/>
       <c r="I168" s="2" t="inlineStr"/>
       <c r="J168" s="2" t="inlineStr">
         <is>
@@ -6442,71 +6450,71 @@
       <c r="L168" s="2" t="inlineStr"/>
     </row>
     <row r="169">
-      <c r="A169" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006057</t>
-        </is>
-      </c>
-      <c r="B169" s="2" t="inlineStr">
-        <is>
-          <t>learned stimulus-reponse co-occurrence</t>
-        </is>
-      </c>
-      <c r="C169" s="2" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
-      <c r="D169" s="2" t="inlineStr">
-        <is>
-          <t>A mental disposition to think or behave in a particular way in response to an internal or external event in the person's environment, which is acquired through associative learning.</t>
-        </is>
-      </c>
-      <c r="E169" s="2" t="inlineStr"/>
-      <c r="F169" s="2" t="inlineStr"/>
-      <c r="G169" s="2" t="inlineStr"/>
-      <c r="H169" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The responses to an event can include thinking and impulses to respond. </t>
-        </is>
-      </c>
-      <c r="I169" s="2" t="inlineStr"/>
-      <c r="J169" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K169" s="2" t="inlineStr"/>
-      <c r="L169" s="2" t="inlineStr"/>
+      <c r="A169" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050239</t>
+        </is>
+      </c>
+      <c r="B169" s="3" t="inlineStr">
+        <is>
+          <t>learning</t>
+        </is>
+      </c>
+      <c r="C169" s="3" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D169" s="3" t="inlineStr">
+        <is>
+          <t>A mental process in which a lasting mental or behavioural change occurs as the result of experience.</t>
+        </is>
+      </c>
+      <c r="E169" s="3" t="inlineStr"/>
+      <c r="F169" s="3" t="inlineStr"/>
+      <c r="G169" s="3" t="inlineStr"/>
+      <c r="H169" s="3" t="inlineStr">
+        <is>
+          <t>The class 'learning' from the Gene Ontology was not reused but adapted for the Mechanism of Action (MoA) Ontology, as the Gene Ontology only focuses on learning adaptive behaviours in order to be relevant to all organisms.</t>
+        </is>
+      </c>
+      <c r="I169" s="3" t="inlineStr"/>
+      <c r="J169" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="K169" s="3" t="inlineStr"/>
+      <c r="L169" s="3" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006156</t>
+          <t>BCIO:050237</t>
         </is>
       </c>
       <c r="B170" s="2" t="inlineStr">
         <is>
-          <t>learned stimulus-thought co-occurrence</t>
+          <t>linguistic communication behaviour</t>
         </is>
       </c>
       <c r="C170" s="2" t="inlineStr">
         <is>
-          <t>learned stimulus-response co-occurrence</t>
+          <t>communication behaviour</t>
         </is>
       </c>
       <c r="D170" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to think in a particular way in response to an internal or external event in the person's environment, which is acquired through associative learning.</t>
+          <t>A communication behaviour in which the information that is communicated is encoded in language.</t>
         </is>
       </c>
       <c r="E170" s="2" t="inlineStr"/>
-      <c r="F170" s="2" t="inlineStr">
-        <is>
-          <t>Mental habit</t>
-        </is>
-      </c>
-      <c r="G170" s="2" t="inlineStr"/>
+      <c r="F170" s="2" t="inlineStr"/>
+      <c r="G170" s="2" t="inlineStr">
+        <is>
+          <t>Written language, spoken language and sign-language communication</t>
+        </is>
+      </c>
       <c r="H170" s="2" t="inlineStr"/>
       <c r="I170" s="2" t="inlineStr"/>
       <c r="J170" s="2" t="inlineStr">
@@ -6518,172 +6526,164 @@
       <c r="L170" s="2" t="inlineStr"/>
     </row>
     <row r="171">
-      <c r="A171" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050239</t>
-        </is>
-      </c>
-      <c r="B171" s="3" t="inlineStr">
-        <is>
-          <t>learning</t>
-        </is>
-      </c>
-      <c r="C171" s="3" t="inlineStr">
+      <c r="A171" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006085</t>
+        </is>
+      </c>
+      <c r="B171" s="2" t="inlineStr">
+        <is>
+          <t>location</t>
+        </is>
+      </c>
+      <c r="C171" s="2" t="inlineStr">
+        <is>
+          <t>quality</t>
+        </is>
+      </c>
+      <c r="D171" s="2" t="inlineStr">
+        <is>
+          <t>A spatial quality that inheres in a bearer by virtue of its position relative to other entities.</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="inlineStr"/>
+      <c r="F171" s="2" t="inlineStr"/>
+      <c r="G171" s="2" t="inlineStr"/>
+      <c r="H171" s="2" t="inlineStr">
+        <is>
+          <t>An intervention could be used to rearrange objects in an environment, changing the location of a person relative to these objects and thereby increasing the likelihood of a behaviour.</t>
+        </is>
+      </c>
+      <c r="I171" s="2" t="inlineStr"/>
+      <c r="J171" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K171" s="2" t="inlineStr"/>
+      <c r="L171" s="2" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>UBERON:0000465</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>material anatomical entity</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>material entity</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Anatomical entity that has mass.</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr"/>
+      <c r="F172" t="inlineStr"/>
+      <c r="G172" t="inlineStr"/>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>GO:0007613</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
         <is>
           <t>mental process</t>
         </is>
       </c>
-      <c r="D171" s="3" t="inlineStr">
-        <is>
-          <t>A mental process in which a lasting mental or behavioural change occurs as the result of experience.</t>
-        </is>
-      </c>
-      <c r="E171" s="3" t="inlineStr"/>
-      <c r="F171" s="3" t="inlineStr"/>
-      <c r="G171" s="3" t="inlineStr"/>
-      <c r="H171" s="3" t="inlineStr">
-        <is>
-          <t>The class 'learning' from the Gene Ontology was not reused but adapted for the Mechanism of Action (MoA) Ontology, as the Gene Ontology only focuses on learning adaptive behaviours in order to be relevant to all organisms.</t>
-        </is>
-      </c>
-      <c r="I171" s="3" t="inlineStr"/>
-      <c r="J171" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="K171" s="3" t="inlineStr"/>
-      <c r="L171" s="3" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050237</t>
-        </is>
-      </c>
-      <c r="B172" s="2" t="inlineStr">
-        <is>
-          <t>linguistic communication behaviour</t>
-        </is>
-      </c>
-      <c r="C172" s="2" t="inlineStr">
-        <is>
-          <t>communication behaviour</t>
-        </is>
-      </c>
-      <c r="D172" s="2" t="inlineStr">
-        <is>
-          <t>A communication behaviour in which the information that is communicated is encoded in language.</t>
-        </is>
-      </c>
-      <c r="E172" s="2" t="inlineStr"/>
-      <c r="F172" s="2" t="inlineStr"/>
-      <c r="G172" s="2" t="inlineStr">
-        <is>
-          <t>Written language, spoken language and sign-language communication</t>
-        </is>
-      </c>
-      <c r="H172" s="2" t="inlineStr"/>
-      <c r="I172" s="2" t="inlineStr"/>
-      <c r="J172" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K172" s="2" t="inlineStr"/>
-      <c r="L172" s="2" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006085</t>
-        </is>
-      </c>
-      <c r="B173" s="2" t="inlineStr">
-        <is>
-          <t>location</t>
-        </is>
-      </c>
-      <c r="C173" s="2" t="inlineStr">
-        <is>
-          <t>quality</t>
-        </is>
-      </c>
-      <c r="D173" s="2" t="inlineStr">
-        <is>
-          <t>A spatial quality that inheres in a bearer by virtue of its position relative to other entities.</t>
-        </is>
-      </c>
-      <c r="E173" s="2" t="inlineStr"/>
-      <c r="F173" s="2" t="inlineStr"/>
-      <c r="G173" s="2" t="inlineStr"/>
-      <c r="H173" s="2" t="inlineStr">
-        <is>
-          <t>An intervention could be used to rearrange objects in an environment, changing the location of a person relative to these objects and thereby increasing the likelihood of a behaviour.</t>
-        </is>
-      </c>
-      <c r="I173" s="2" t="inlineStr"/>
-      <c r="J173" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K173" s="2" t="inlineStr"/>
-      <c r="L173" s="2" t="inlineStr"/>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>The activities involved in the mental information processing system that receives (registers), modifies, stores, and retrieves informational stimuli.                   The main stages involved in the formation and retrieval of memory are encoding (processing of received information by acquisition), storage (building a permanent record of received information as a result of consolidation) and retrieval (calling back the stored information and use it in a suitable way to execute a given task)</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr"/>
+      <c r="F173" t="inlineStr"/>
+      <c r="G173" t="inlineStr"/>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
     </row>
     <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>UBERON:0000465</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>material anatomical entity</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>material entity</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>Anatomical entity that has mass.</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr"/>
-      <c r="F174" t="inlineStr"/>
-      <c r="G174" t="inlineStr"/>
-      <c r="H174" t="inlineStr"/>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="A174" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006093</t>
+        </is>
+      </c>
+      <c r="B174" s="2" t="inlineStr">
+        <is>
+          <t>mental behavioural cue</t>
+        </is>
+      </c>
+      <c r="C174" s="2" t="inlineStr">
+        <is>
+          <t>bodily behavioural cue</t>
+        </is>
+      </c>
+      <c r="D174" s="2" t="inlineStr">
+        <is>
+          <t>A stimulus that arises from mental processes and serves to elicit or guide behaviour.</t>
+        </is>
+      </c>
+      <c r="E174" s="2" t="inlineStr"/>
+      <c r="F174" s="2" t="inlineStr"/>
+      <c r="G174" s="2" t="inlineStr"/>
+      <c r="H174" s="2" t="inlineStr"/>
+      <c r="I174" s="2" t="inlineStr"/>
+      <c r="J174" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K174" s="2" t="inlineStr"/>
+      <c r="L174" s="2" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>BFO:0000040</t>
+          <t xml:space="preserve">MF:0000048 </t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>material entity</t>
+          <t>mental capability</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>independent continuant</t>
+          <t>personal capability</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>An independent continuant that is spatially extended whose identity is independent of that of other entities and can be maintained through time.</t>
+          <t>A personal capability that  includes mental processes in its realisation.</t>
         </is>
       </c>
       <c r="E175" t="inlineStr"/>
@@ -6700,126 +6700,130 @@
       <c r="L175" t="inlineStr"/>
     </row>
     <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>GO:0007613</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>memory</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
+      <c r="A176" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006131</t>
+        </is>
+      </c>
+      <c r="B176" s="2" t="inlineStr">
+        <is>
+          <t>mental categorising</t>
+        </is>
+      </c>
+      <c r="C176" s="2" t="inlineStr">
         <is>
           <t>mental process</t>
         </is>
       </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>The activities involved in the mental information processing system that receives (registers), modifies, stores, and retrieves informational stimuli.                   The main stages involved in the formation and retrieval of memory are encoding (processing of received information by acquisition), storage (building a permanent record of received information as a result of consolidation) and retrieval (calling back the stored information and use it in a suitable way to execute a given task)</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr"/>
-      <c r="F176" t="inlineStr"/>
-      <c r="G176" t="inlineStr"/>
-      <c r="H176" t="inlineStr"/>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr">
+      <c r="D176" s="2" t="inlineStr">
+        <is>
+          <t>A mental process in which objects, events, people, or experiences are grouped into classes, on the basis of features shared by members of the same class and features distinguishing the members of one class from those of another.</t>
+        </is>
+      </c>
+      <c r="E176" s="2" t="inlineStr"/>
+      <c r="F176" s="2" t="inlineStr"/>
+      <c r="G176" s="2" t="inlineStr"/>
+      <c r="H176" s="2" t="inlineStr"/>
+      <c r="I176" s="2" t="inlineStr"/>
+      <c r="J176" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K176" s="2" t="inlineStr"/>
+      <c r="L176" s="2" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>MF:0000033</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>bodily disposition</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>A bodily disposition that is realized in a mental process.</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr"/>
+      <c r="F177" t="inlineStr"/>
+      <c r="G177" t="inlineStr"/>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006093</t>
-        </is>
-      </c>
-      <c r="B177" s="2" t="inlineStr">
-        <is>
-          <t>mental behavioural cue</t>
-        </is>
-      </c>
-      <c r="C177" s="2" t="inlineStr">
-        <is>
-          <t>bodily behavioural cue</t>
-        </is>
-      </c>
-      <c r="D177" s="2" t="inlineStr">
-        <is>
-          <t>A stimulus that arises from mental processes and serves to elicit or guide behaviour.</t>
-        </is>
-      </c>
-      <c r="E177" s="2" t="inlineStr"/>
-      <c r="F177" s="2" t="inlineStr"/>
-      <c r="G177" s="2" t="inlineStr"/>
-      <c r="H177" s="2" t="inlineStr"/>
-      <c r="I177" s="2" t="inlineStr"/>
-      <c r="J177" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K177" s="2" t="inlineStr"/>
-      <c r="L177" s="2" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
     </row>
     <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MF:0000048 </t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>mental capability</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>personal capability</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>A personal capability that  includes mental processes in its realisation.</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr"/>
-      <c r="F178" t="inlineStr"/>
-      <c r="G178" t="inlineStr"/>
-      <c r="H178" t="inlineStr"/>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="A178" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006162</t>
+        </is>
+      </c>
+      <c r="B178" s="2" t="inlineStr">
+        <is>
+          <t>mental distancing</t>
+        </is>
+      </c>
+      <c r="C178" s="2" t="inlineStr">
+        <is>
+          <t>cognitive process</t>
+        </is>
+      </c>
+      <c r="D178" s="2" t="inlineStr">
+        <is>
+          <t>A cognitive process that involves intentionally detaching oneself from one's immediate thoughts.</t>
+        </is>
+      </c>
+      <c r="E178" s="2" t="inlineStr"/>
+      <c r="F178" s="2" t="inlineStr">
+        <is>
+          <t>decentring</t>
+        </is>
+      </c>
+      <c r="G178" s="2" t="inlineStr"/>
+      <c r="H178" s="2" t="inlineStr"/>
+      <c r="I178" s="2" t="inlineStr"/>
+      <c r="J178" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K178" s="2" t="inlineStr"/>
+      <c r="L178" s="2" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006131</t>
+          <t>BCIO:006080</t>
         </is>
       </c>
       <c r="B179" s="2" t="inlineStr">
         <is>
-          <t>mental categorising</t>
+          <t>mental image</t>
         </is>
       </c>
       <c r="C179" s="2" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>cognitive representation</t>
         </is>
       </c>
       <c r="D179" s="2" t="inlineStr">
         <is>
-          <t>A mental process in which objects, events, people, or experiences are grouped into classes, on the basis of features shared by members of the same class and features distinguishing the members of one class from those of another.</t>
+          <t>A cognitive representation of the sensory characteristics of objects or events that are not immediately present to the senses.</t>
         </is>
       </c>
       <c r="E179" s="2" t="inlineStr"/>
@@ -6838,22 +6842,22 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>MF:0000033</t>
+          <t>MF:0000083</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>mental imagery</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>bodily disposition</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>A bodily disposition that is realized in a mental process.</t>
+          <t>A mental process that evokes the representation of the sensory characteristics of objects or events when these are not immediately present to the senses.</t>
         </is>
       </c>
       <c r="E180" t="inlineStr"/>
@@ -6872,30 +6876,26 @@
     <row r="181">
       <c r="A181" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006162</t>
+          <t>BCIO:006058</t>
         </is>
       </c>
       <c r="B181" s="2" t="inlineStr">
         <is>
-          <t>mental distancing</t>
+          <t>mental imagery disposition</t>
         </is>
       </c>
       <c r="C181" s="2" t="inlineStr">
         <is>
-          <t>cognitive process</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D181" s="2" t="inlineStr">
         <is>
-          <t>A cognitive process that involves intentionally detaching oneself from one's immediate thoughts.</t>
+          <t>A mental disposition to evokes the representation of the sensory characteristics of objects or events when these are not immediately present to the senses.</t>
         </is>
       </c>
       <c r="E181" s="2" t="inlineStr"/>
-      <c r="F181" s="2" t="inlineStr">
-        <is>
-          <t>decentring</t>
-        </is>
-      </c>
+      <c r="F181" s="2" t="inlineStr"/>
       <c r="G181" s="2" t="inlineStr"/>
       <c r="H181" s="2" t="inlineStr"/>
       <c r="I181" s="2" t="inlineStr"/>
@@ -6908,92 +6908,96 @@
       <c r="L181" s="2" t="inlineStr"/>
     </row>
     <row r="182">
-      <c r="A182" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006080</t>
-        </is>
-      </c>
-      <c r="B182" s="2" t="inlineStr">
-        <is>
-          <t>mental image</t>
-        </is>
-      </c>
-      <c r="C182" s="2" t="inlineStr">
-        <is>
-          <t>cognitive representation</t>
-        </is>
-      </c>
-      <c r="D182" s="2" t="inlineStr">
-        <is>
-          <t>A cognitive representation of the sensory characteristics of objects or events that are not immediately present to the senses.</t>
-        </is>
-      </c>
-      <c r="E182" s="2" t="inlineStr"/>
-      <c r="F182" s="2" t="inlineStr"/>
-      <c r="G182" s="2" t="inlineStr"/>
-      <c r="H182" s="2" t="inlineStr"/>
-      <c r="I182" s="2" t="inlineStr"/>
-      <c r="J182" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K182" s="2" t="inlineStr"/>
-      <c r="L182" s="2" t="inlineStr"/>
+      <c r="A182" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050228</t>
+        </is>
+      </c>
+      <c r="B182" s="3" t="inlineStr">
+        <is>
+          <t>mental plan</t>
+        </is>
+      </c>
+      <c r="C182" s="3" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="D182" s="3" t="inlineStr">
+        <is>
+          <t>A mental disposition that is realized in mental processes mentally manipulating representations of steps in an imagined process which has some goal.</t>
+        </is>
+      </c>
+      <c r="E182" s="3" t="inlineStr"/>
+      <c r="F182" s="3" t="inlineStr"/>
+      <c r="G182" s="3" t="inlineStr"/>
+      <c r="H182" s="3" t="inlineStr"/>
+      <c r="I182" s="3" t="inlineStr"/>
+      <c r="J182" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="K182" s="3" t="inlineStr"/>
+      <c r="L182" s="3" t="inlineStr"/>
     </row>
     <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>MF:0000083</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>mental imagery</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>A mental process that evokes the representation of the sensory characteristics of objects or events when these are not immediately present to the senses.</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr"/>
-      <c r="F183" t="inlineStr"/>
-      <c r="G183" t="inlineStr"/>
-      <c r="H183" t="inlineStr"/>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="A183" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006070</t>
+        </is>
+      </c>
+      <c r="B183" s="2" t="inlineStr">
+        <is>
+          <t>mental plan for a behaviour</t>
+        </is>
+      </c>
+      <c r="C183" s="2" t="inlineStr">
+        <is>
+          <t>mental plan</t>
+        </is>
+      </c>
+      <c r="D183" s="2" t="inlineStr">
+        <is>
+          <t>A mental plan that is realized in mental processes representing a behaviour, the conditions under which the behaviour will be enacted and an intention to enact the behaviour under those conditions.</t>
+        </is>
+      </c>
+      <c r="E183" s="2" t="inlineStr"/>
+      <c r="F183" s="2" t="inlineStr">
+        <is>
+          <t>Action plan</t>
+        </is>
+      </c>
+      <c r="G183" s="2" t="inlineStr"/>
+      <c r="H183" s="2" t="inlineStr"/>
+      <c r="I183" s="2" t="inlineStr"/>
+      <c r="J183" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K183" s="2" t="inlineStr"/>
+      <c r="L183" s="2" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006058</t>
+          <t>BCIO:006157</t>
         </is>
       </c>
       <c r="B184" s="2" t="inlineStr">
         <is>
-          <t>mental imagery disposition</t>
+          <t>mental plan for coping with barriers</t>
         </is>
       </c>
       <c r="C184" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>mental plan for a behaviour</t>
         </is>
       </c>
       <c r="D184" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to evokes the representation of the sensory characteristics of objects or events when these are not immediately present to the senses.</t>
+          <t>A mental plan regarding a strategy to deal with conditions that could prevent the performance of a behaviour.</t>
         </is>
       </c>
       <c r="E184" s="2" t="inlineStr"/>
@@ -7010,102 +7014,107 @@
       <c r="L184" s="2" t="inlineStr"/>
     </row>
     <row r="185">
-      <c r="A185" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050228</t>
-        </is>
-      </c>
-      <c r="B185" s="3" t="inlineStr">
-        <is>
-          <t>mental plan</t>
-        </is>
-      </c>
-      <c r="C185" s="3" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
-      <c r="D185" s="3" t="inlineStr">
-        <is>
-          <t>A mental disposition that is realized in mental processes mentally manipulating representations of steps in an imagined process which has some goal.</t>
-        </is>
-      </c>
-      <c r="E185" s="3" t="inlineStr"/>
-      <c r="F185" s="3" t="inlineStr"/>
-      <c r="G185" s="3" t="inlineStr"/>
-      <c r="H185" s="3" t="inlineStr"/>
-      <c r="I185" s="3" t="inlineStr"/>
-      <c r="J185" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="K185" s="3" t="inlineStr"/>
-      <c r="L185" s="3" t="inlineStr"/>
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>MF:0000020</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>bodily process</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>A bodily process that occurs in the brain, and that can of itself be conscious, or can give rise to a process that can of itself be conscious or can give rise to behaviour.</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr"/>
+      <c r="F185" t="inlineStr"/>
+      <c r="G185" t="inlineStr"/>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Mental processes can varying in the degree to which they involve consciousness.
+A 'mental process' is a subclass of 'bodily process', as mental processes occur within the body, specifically involving the brain.</t>
+        </is>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
-      <c r="A186" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006070</t>
-        </is>
-      </c>
-      <c r="B186" s="2" t="inlineStr">
-        <is>
-          <t>mental plan for a behaviour</t>
-        </is>
-      </c>
-      <c r="C186" s="2" t="inlineStr">
-        <is>
-          <t>mental plan</t>
-        </is>
-      </c>
-      <c r="D186" s="2" t="inlineStr">
-        <is>
-          <t>A mental plan that is realized in mental processes representing a behaviour, the conditions under which the behaviour will be enacted and an intention to enact the behaviour under those conditions.</t>
-        </is>
-      </c>
-      <c r="E186" s="2" t="inlineStr"/>
-      <c r="F186" s="2" t="inlineStr">
-        <is>
-          <t>Action plan</t>
-        </is>
-      </c>
-      <c r="G186" s="2" t="inlineStr"/>
-      <c r="H186" s="2" t="inlineStr"/>
-      <c r="I186" s="2" t="inlineStr"/>
-      <c r="J186" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K186" s="2" t="inlineStr"/>
-      <c r="L186" s="2" t="inlineStr"/>
+      <c r="A186" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MF:0000075 </t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>mental quality</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>bodily quality</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>A bodily quality that inheres in those structures of the extended organism that are essential for mental functioning.</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr"/>
+      <c r="F186" t="inlineStr"/>
+      <c r="G186" t="inlineStr"/>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006157</t>
+          <t>BCIO:006004</t>
         </is>
       </c>
       <c r="B187" s="2" t="inlineStr">
         <is>
-          <t>mental plan for coping with barriers</t>
+          <t>mental skill</t>
         </is>
       </c>
       <c r="C187" s="2" t="inlineStr">
         <is>
-          <t>mental plan for a behaviour</t>
+          <t>mental capability</t>
         </is>
       </c>
       <c r="D187" s="2" t="inlineStr">
         <is>
-          <t>A mental plan regarding a strategy to deal with conditions that could prevent the performance of a behaviour.</t>
+          <t>A mental capability acquired through training or practice.</t>
         </is>
       </c>
       <c r="E187" s="2" t="inlineStr"/>
       <c r="F187" s="2" t="inlineStr"/>
       <c r="G187" s="2" t="inlineStr"/>
-      <c r="H187" s="2" t="inlineStr"/>
+      <c r="H187" s="2" t="inlineStr">
+        <is>
+          <t>The term 'skill' specifically refers to acquired capabilities, as behavioural theories suggested that the main difference between capabilities and skills was that skills were learned.</t>
+        </is>
+      </c>
       <c r="I187" s="2" t="inlineStr"/>
       <c r="J187" s="2" t="inlineStr">
         <is>
@@ -7116,63 +7125,62 @@
       <c r="L187" s="2" t="inlineStr"/>
     </row>
     <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>MF:0000020</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
+      <c r="A188" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006132</t>
+        </is>
+      </c>
+      <c r="B188" s="2" t="inlineStr">
+        <is>
+          <t>mentally comparing against a standard</t>
+        </is>
+      </c>
+      <c r="C188" s="2" t="inlineStr">
         <is>
           <t>mental process</t>
         </is>
       </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>bodily process</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>A bodily process that occurs in the brain, and that can of itself be conscious, or can give rise to a process that can of itself be conscious or can give rise to behaviour.</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr"/>
-      <c r="F188" t="inlineStr"/>
-      <c r="G188" t="inlineStr"/>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>Mental processes can varying in the degree to which they involve consciousness.
-A 'mental process' is a subclass of 'bodily process', as mental processes occur within the body, specifically involving the brain.</t>
-        </is>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="D188" s="2" t="inlineStr">
+        <is>
+          <t>A mental process in which conditions are compared against a particular reference level.</t>
+        </is>
+      </c>
+      <c r="E188" s="2" t="inlineStr"/>
+      <c r="F188" s="2" t="inlineStr"/>
+      <c r="G188" s="2" t="inlineStr"/>
+      <c r="H188" s="2" t="inlineStr">
+        <is>
+          <t>The term 'condition' may refer to the characteristics of an object, event and person.</t>
+        </is>
+      </c>
+      <c r="I188" s="2" t="inlineStr"/>
+      <c r="J188" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K188" s="2" t="inlineStr"/>
+      <c r="L188" s="2" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t xml:space="preserve">MF:0000075 </t>
+          <t>MFOEM:000023</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>mental quality</t>
+          <t>moral disgust</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>bodily quality</t>
+          <t>disgust</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>A bodily quality that inheres in those structures of the extended organism that are essential for mental functioning.</t>
+          <t>Disgust elicited by some kinds of especially egregious moral violations.</t>
         </is>
       </c>
       <c r="E189" t="inlineStr"/>
@@ -7191,32 +7199,28 @@
     <row r="190">
       <c r="A190" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006004</t>
+          <t>BCIO:006133</t>
         </is>
       </c>
       <c r="B190" s="2" t="inlineStr">
         <is>
-          <t>mental skill</t>
+          <t>motivation</t>
         </is>
       </c>
       <c r="C190" s="2" t="inlineStr">
         <is>
-          <t>mental capability</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D190" s="2" t="inlineStr">
         <is>
-          <t>A mental capability acquired through training or practice.</t>
+          <t>A mental process that energises and directs behaviour.</t>
         </is>
       </c>
       <c r="E190" s="2" t="inlineStr"/>
       <c r="F190" s="2" t="inlineStr"/>
       <c r="G190" s="2" t="inlineStr"/>
-      <c r="H190" s="2" t="inlineStr">
-        <is>
-          <t>The term 'skill' specifically refers to acquired capabilities, as behavioural theories suggested that the main difference between capabilities and skills was that skills were learned.</t>
-        </is>
-      </c>
+      <c r="H190" s="2" t="inlineStr"/>
       <c r="I190" s="2" t="inlineStr"/>
       <c r="J190" s="2" t="inlineStr">
         <is>
@@ -7229,32 +7233,28 @@
     <row r="191">
       <c r="A191" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006132</t>
+          <t>BCIO:006060</t>
         </is>
       </c>
       <c r="B191" s="2" t="inlineStr">
         <is>
-          <t>mentally comparing against a standard</t>
+          <t>motivational orientation towards types of outcomes</t>
         </is>
       </c>
       <c r="C191" s="2" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D191" s="2" t="inlineStr">
         <is>
-          <t>A mental process in which conditions are compared against a particular reference level.</t>
+          <t xml:space="preserve">A mental disposition for motivation to be guided by a focus on the presence or absence of outcomes of a certain valence. </t>
         </is>
       </c>
       <c r="E191" s="2" t="inlineStr"/>
       <c r="F191" s="2" t="inlineStr"/>
       <c r="G191" s="2" t="inlineStr"/>
-      <c r="H191" s="2" t="inlineStr">
-        <is>
-          <t>The term 'condition' may refer to the characteristics of an object, event and person.</t>
-        </is>
-      </c>
+      <c r="H191" s="2" t="inlineStr"/>
       <c r="I191" s="2" t="inlineStr"/>
       <c r="J191" s="2" t="inlineStr">
         <is>
@@ -7265,58 +7265,58 @@
       <c r="L191" s="2" t="inlineStr"/>
     </row>
     <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>MFOEM:000023</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>moral disgust</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>disgust</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>Disgust elicited by some kinds of especially egregious moral violations.</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr"/>
-      <c r="F192" t="inlineStr"/>
-      <c r="G192" t="inlineStr"/>
-      <c r="H192" t="inlineStr"/>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="A192" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006068</t>
+        </is>
+      </c>
+      <c r="B192" s="2" t="inlineStr">
+        <is>
+          <t>need for a sense of belonging and attachment</t>
+        </is>
+      </c>
+      <c r="C192" s="2" t="inlineStr">
+        <is>
+          <t>psychological need</t>
+        </is>
+      </c>
+      <c r="D192" s="2" t="inlineStr">
+        <is>
+          <t>A psychological need to have caring relationships with other people.</t>
+        </is>
+      </c>
+      <c r="E192" s="2" t="inlineStr"/>
+      <c r="F192" s="2" t="inlineStr"/>
+      <c r="G192" s="2" t="inlineStr"/>
+      <c r="H192" s="2" t="inlineStr"/>
+      <c r="I192" s="2" t="inlineStr"/>
+      <c r="J192" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K192" s="2" t="inlineStr"/>
+      <c r="L192" s="2" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006133</t>
+          <t>BCIO:006067</t>
         </is>
       </c>
       <c r="B193" s="2" t="inlineStr">
         <is>
-          <t>motivation</t>
+          <t>need for a sense of safety</t>
         </is>
       </c>
       <c r="C193" s="2" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>psychological need</t>
         </is>
       </c>
       <c r="D193" s="2" t="inlineStr">
         <is>
-          <t>A mental process that energises and directs behaviour.</t>
+          <t>A psychological need to feel safe from threats.</t>
         </is>
       </c>
       <c r="E193" s="2" t="inlineStr"/>
@@ -7335,22 +7335,22 @@
     <row r="194">
       <c r="A194" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006060</t>
+          <t>BCIO:006065</t>
         </is>
       </c>
       <c r="B194" s="2" t="inlineStr">
         <is>
-          <t>motivational orientation towards types of outcomes</t>
+          <t>need for autonomy</t>
         </is>
       </c>
       <c r="C194" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>psychological need</t>
         </is>
       </c>
       <c r="D194" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A mental disposition for motivation to be guided by a focus on the presence or absence of outcomes of a certain valence. </t>
+          <t>A psychological need to have a sense of personal agency and initiative</t>
         </is>
       </c>
       <c r="E194" s="2" t="inlineStr"/>
@@ -7369,12 +7369,12 @@
     <row r="195">
       <c r="A195" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006068</t>
+          <t>BCIO:006066</t>
         </is>
       </c>
       <c r="B195" s="2" t="inlineStr">
         <is>
-          <t>need for a sense of belonging and attachment</t>
+          <t>need for self-esteem</t>
         </is>
       </c>
       <c r="C195" s="2" t="inlineStr">
@@ -7384,7 +7384,7 @@
       </c>
       <c r="D195" s="2" t="inlineStr">
         <is>
-          <t>A psychological need to have caring relationships with other people.</t>
+          <t>A psychological need to have a positive evaluation of oneself and one's qualities and characteristics.</t>
         </is>
       </c>
       <c r="E195" s="2" t="inlineStr"/>
@@ -7403,12 +7403,12 @@
     <row r="196">
       <c r="A196" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006067</t>
+          <t>BCIO:006069</t>
         </is>
       </c>
       <c r="B196" s="2" t="inlineStr">
         <is>
-          <t>need for a sense of safety</t>
+          <t>need to feel competent</t>
         </is>
       </c>
       <c r="C196" s="2" t="inlineStr">
@@ -7418,11 +7418,15 @@
       </c>
       <c r="D196" s="2" t="inlineStr">
         <is>
-          <t>A psychological need to feel safe from threats.</t>
+          <t>A psychological need to experience oneself as capable and effective.</t>
         </is>
       </c>
       <c r="E196" s="2" t="inlineStr"/>
-      <c r="F196" s="2" t="inlineStr"/>
+      <c r="F196" s="2" t="inlineStr">
+        <is>
+          <t>need for mastery</t>
+        </is>
+      </c>
       <c r="G196" s="2" t="inlineStr"/>
       <c r="H196" s="2" t="inlineStr"/>
       <c r="I196" s="2" t="inlineStr"/>
@@ -7435,312 +7439,312 @@
       <c r="L196" s="2" t="inlineStr"/>
     </row>
     <row r="197">
-      <c r="A197" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006065</t>
-        </is>
-      </c>
-      <c r="B197" s="2" t="inlineStr">
-        <is>
-          <t>need for autonomy</t>
-        </is>
-      </c>
-      <c r="C197" s="2" t="inlineStr">
-        <is>
-          <t>psychological need</t>
-        </is>
-      </c>
-      <c r="D197" s="2" t="inlineStr">
-        <is>
-          <t>A psychological need to have a sense of personal agency and initiative</t>
-        </is>
-      </c>
-      <c r="E197" s="2" t="inlineStr"/>
-      <c r="F197" s="2" t="inlineStr"/>
-      <c r="G197" s="2" t="inlineStr"/>
-      <c r="H197" s="2" t="inlineStr"/>
-      <c r="I197" s="2" t="inlineStr"/>
-      <c r="J197" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K197" s="2" t="inlineStr"/>
-      <c r="L197" s="2" t="inlineStr"/>
+      <c r="A197" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:006037</t>
+        </is>
+      </c>
+      <c r="B197" s="4" t="inlineStr">
+        <is>
+          <t>negative evaluation of self</t>
+        </is>
+      </c>
+      <c r="C197" s="4" t="inlineStr">
+        <is>
+          <t>evaluation of self</t>
+        </is>
+      </c>
+      <c r="D197" s="4" t="inlineStr">
+        <is>
+          <t>A belief about one's negative attributes.</t>
+        </is>
+      </c>
+      <c r="E197" s="4" t="inlineStr"/>
+      <c r="F197" s="4" t="inlineStr">
+        <is>
+          <t>low self-esteem; negative self-esteem</t>
+        </is>
+      </c>
+      <c r="G197" s="4" t="inlineStr"/>
+      <c r="H197" s="4" t="inlineStr"/>
+      <c r="I197" s="4" t="inlineStr"/>
+      <c r="J197" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="K197" s="4" t="inlineStr"/>
+      <c r="L197" s="4" t="inlineStr"/>
     </row>
     <row r="198">
-      <c r="A198" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006066</t>
-        </is>
-      </c>
-      <c r="B198" s="2" t="inlineStr">
-        <is>
-          <t>need for self-esteem</t>
-        </is>
-      </c>
-      <c r="C198" s="2" t="inlineStr">
-        <is>
-          <t>psychological need</t>
-        </is>
-      </c>
-      <c r="D198" s="2" t="inlineStr">
-        <is>
-          <t>A psychological need to have a positive evaluation of oneself and one's qualities and characteristics.</t>
-        </is>
-      </c>
-      <c r="E198" s="2" t="inlineStr"/>
-      <c r="F198" s="2" t="inlineStr"/>
-      <c r="G198" s="2" t="inlineStr"/>
-      <c r="H198" s="2" t="inlineStr"/>
-      <c r="I198" s="2" t="inlineStr"/>
-      <c r="J198" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K198" s="2" t="inlineStr"/>
-      <c r="L198" s="2" t="inlineStr"/>
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>MFOEM:000210</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>negative surprise</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>surprise</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Surprise with a negative valence.</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr"/>
+      <c r="F198" t="inlineStr"/>
+      <c r="G198" t="inlineStr"/>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
-      <c r="A199" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006069</t>
-        </is>
-      </c>
-      <c r="B199" s="2" t="inlineStr">
-        <is>
-          <t>need to feel competent</t>
-        </is>
-      </c>
-      <c r="C199" s="2" t="inlineStr">
-        <is>
-          <t>psychological need</t>
-        </is>
-      </c>
-      <c r="D199" s="2" t="inlineStr">
-        <is>
-          <t>A psychological need to experience oneself as capable and effective.</t>
-        </is>
-      </c>
-      <c r="E199" s="2" t="inlineStr"/>
-      <c r="F199" s="2" t="inlineStr">
-        <is>
-          <t>need for mastery</t>
-        </is>
-      </c>
-      <c r="G199" s="2" t="inlineStr"/>
-      <c r="H199" s="2" t="inlineStr"/>
-      <c r="I199" s="2" t="inlineStr"/>
-      <c r="J199" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K199" s="2" t="inlineStr"/>
-      <c r="L199" s="2" t="inlineStr"/>
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>GO:0046958</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>non-associative learning</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>learning</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>A simple form of learning whereby the repeated presence of a stimulus leads to a change in the probability or strength of the response to that stimulus. There is no association of one type of stimulus with another, rather it is a generalized response to the environment.</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr"/>
+      <c r="F199" t="inlineStr"/>
+      <c r="G199" t="inlineStr"/>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
     </row>
     <row r="200">
-      <c r="A200" s="4" t="inlineStr">
-        <is>
-          <t>BCIO:006037</t>
-        </is>
-      </c>
-      <c r="B200" s="4" t="inlineStr">
-        <is>
-          <t>negative evaluation of self</t>
-        </is>
-      </c>
-      <c r="C200" s="4" t="inlineStr">
-        <is>
-          <t>evaluation of self</t>
-        </is>
-      </c>
-      <c r="D200" s="4" t="inlineStr">
-        <is>
-          <t>A belief about one's negative attributes.</t>
-        </is>
-      </c>
-      <c r="E200" s="4" t="inlineStr"/>
-      <c r="F200" s="4" t="inlineStr">
-        <is>
-          <t>low self-esteem; negative self-esteem</t>
-        </is>
-      </c>
-      <c r="G200" s="4" t="inlineStr"/>
-      <c r="H200" s="4" t="inlineStr"/>
-      <c r="I200" s="4" t="inlineStr"/>
-      <c r="J200" s="4" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="K200" s="4" t="inlineStr"/>
-      <c r="L200" s="4" t="inlineStr"/>
+      <c r="A200" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050235</t>
+        </is>
+      </c>
+      <c r="B200" s="3" t="inlineStr">
+        <is>
+          <t>non-judgemental acknowledgement</t>
+        </is>
+      </c>
+      <c r="C200" s="3" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D200" s="3" t="inlineStr">
+        <is>
+          <t>A mental process that involves taking notice of one's affective, mental or bodily experience without judging it as good or bad.</t>
+        </is>
+      </c>
+      <c r="E200" s="3" t="inlineStr"/>
+      <c r="F200" s="3" t="inlineStr">
+        <is>
+          <t>Acceptance</t>
+        </is>
+      </c>
+      <c r="G200" s="3" t="inlineStr"/>
+      <c r="H200" s="3" t="inlineStr"/>
+      <c r="I200" s="3" t="inlineStr"/>
+      <c r="J200" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="K200" s="3" t="inlineStr"/>
+      <c r="L200" s="3" t="inlineStr"/>
     </row>
     <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>MFOEM:000210</t>
-        </is>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>negative surprise</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>surprise</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>Surprise with a negative valence.</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr"/>
-      <c r="F201" t="inlineStr"/>
-      <c r="G201" t="inlineStr"/>
-      <c r="H201" t="inlineStr"/>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr">
+      <c r="A201" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050238</t>
+        </is>
+      </c>
+      <c r="B201" s="2" t="inlineStr">
+        <is>
+          <t>non-linguistic communication behaviour</t>
+        </is>
+      </c>
+      <c r="C201" s="2" t="inlineStr">
+        <is>
+          <t>communication behaviour</t>
+        </is>
+      </c>
+      <c r="D201" s="2" t="inlineStr">
+        <is>
+          <t>A communication behaviour in which information is transmitted without being encoded in the meaning units of any language.</t>
+        </is>
+      </c>
+      <c r="E201" s="2" t="inlineStr"/>
+      <c r="F201" s="2" t="inlineStr"/>
+      <c r="G201" s="2" t="inlineStr">
+        <is>
+          <t>Communicating through bodily gestures, through pictograms and through sound (e.g. a siren going off communicates information about the presence of danger without the use of language)</t>
+        </is>
+      </c>
+      <c r="H201" s="2" t="inlineStr"/>
+      <c r="I201" s="2" t="inlineStr"/>
+      <c r="J201" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K201" s="2" t="inlineStr"/>
+      <c r="L201" s="2" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006095</t>
+        </is>
+      </c>
+      <c r="B202" s="2" t="inlineStr">
+        <is>
+          <t>normative behaviour</t>
+        </is>
+      </c>
+      <c r="C202" s="2" t="inlineStr">
+        <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="D202" s="2" t="inlineStr">
+        <is>
+          <t>An individual human behaviour that is commonly enacted by people that are part of a social environmental system.</t>
+        </is>
+      </c>
+      <c r="E202" s="2" t="inlineStr"/>
+      <c r="F202" s="2" t="inlineStr"/>
+      <c r="G202" s="2" t="inlineStr"/>
+      <c r="H202" s="2" t="inlineStr">
+        <is>
+          <t>Normative behaviour can be an MoA or outcome depending on how 'normative behaviour' is described in an intervention. The Behaviour Change-Intervention Ontology includes the class 'outcome behaviour' (definition: Human behavior that is an intervention outcome.), which would not be an MoA. When an intervention targets a normative behaviour to achieve an outcome behaviour, the former qualifies as an MoA.</t>
+        </is>
+      </c>
+      <c r="I202" s="2" t="inlineStr"/>
+      <c r="J202" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K202" s="2" t="inlineStr"/>
+      <c r="L202" s="2" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006042</t>
+        </is>
+      </c>
+      <c r="B203" s="2" t="inlineStr">
+        <is>
+          <t>normative belief</t>
+        </is>
+      </c>
+      <c r="C203" s="2" t="inlineStr">
+        <is>
+          <t>perceived norm</t>
+        </is>
+      </c>
+      <c r="D203" s="2" t="inlineStr">
+        <is>
+          <t>A belief about whether important others think one should perform a behaviour.</t>
+        </is>
+      </c>
+      <c r="E203" s="2" t="inlineStr"/>
+      <c r="F203" s="2" t="inlineStr"/>
+      <c r="G203" s="2" t="inlineStr"/>
+      <c r="H203" s="2" t="inlineStr"/>
+      <c r="I203" s="2" t="inlineStr"/>
+      <c r="J203" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K203" s="2" t="inlineStr"/>
+      <c r="L203" s="2" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>GO:0098597</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>observational learning</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>learning</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>Learning that occurs through observing the behaviour of others.</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr"/>
+      <c r="F204" t="inlineStr"/>
+      <c r="G204" t="inlineStr"/>
+      <c r="H204" t="inlineStr"/>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>GO:0046958</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>non-associative learning</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>learning</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr">
-        <is>
-          <t>A simple form of learning whereby the repeated presence of a stimulus leads to a change in the probability or strength of the response to that stimulus. There is no association of one type of stimulus with another, rather it is a generalized response to the environment.</t>
-        </is>
-      </c>
-      <c r="E202" t="inlineStr"/>
-      <c r="F202" t="inlineStr"/>
-      <c r="G202" t="inlineStr"/>
-      <c r="H202" t="inlineStr"/>
-      <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050235</t>
-        </is>
-      </c>
-      <c r="B203" s="3" t="inlineStr">
-        <is>
-          <t>non-judgemental acknowledgement</t>
-        </is>
-      </c>
-      <c r="C203" s="3" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D203" s="3" t="inlineStr">
-        <is>
-          <t>A mental process that involves taking notice of one's affective, mental or bodily experience without judging it as good or bad.</t>
-        </is>
-      </c>
-      <c r="E203" s="3" t="inlineStr"/>
-      <c r="F203" s="3" t="inlineStr">
-        <is>
-          <t>Acceptance</t>
-        </is>
-      </c>
-      <c r="G203" s="3" t="inlineStr"/>
-      <c r="H203" s="3" t="inlineStr"/>
-      <c r="I203" s="3" t="inlineStr"/>
-      <c r="J203" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="K203" s="3" t="inlineStr"/>
-      <c r="L203" s="3" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050238</t>
-        </is>
-      </c>
-      <c r="B204" s="2" t="inlineStr">
-        <is>
-          <t>non-linguistic communication behaviour</t>
-        </is>
-      </c>
-      <c r="C204" s="2" t="inlineStr">
-        <is>
-          <t>communication behaviour</t>
-        </is>
-      </c>
-      <c r="D204" s="2" t="inlineStr">
-        <is>
-          <t>A communication behaviour in which information is transmitted without being encoded in the meaning units of any language.</t>
-        </is>
-      </c>
-      <c r="E204" s="2" t="inlineStr"/>
-      <c r="F204" s="2" t="inlineStr"/>
-      <c r="G204" s="2" t="inlineStr">
-        <is>
-          <t>Communicating through bodily gestures, through pictograms and through sound (e.g. a siren going off communicates information about the presence of danger without the use of language)</t>
-        </is>
-      </c>
-      <c r="H204" s="2" t="inlineStr"/>
-      <c r="I204" s="2" t="inlineStr"/>
-      <c r="J204" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K204" s="2" t="inlineStr"/>
-      <c r="L204" s="2" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006095</t>
+          <t>BCIO:015430</t>
         </is>
       </c>
       <c r="B205" s="2" t="inlineStr">
         <is>
-          <t>normative behaviour</t>
+          <t>occupational role</t>
         </is>
       </c>
       <c r="C205" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>personal role</t>
         </is>
       </c>
       <c r="D205" s="2" t="inlineStr">
         <is>
-          <t>An individual human behaviour that is commonly enacted by people that are part of a social environmental system.</t>
+          <t>A role that is realised in a person by doing a specified type of work or working in a specified way.</t>
         </is>
       </c>
       <c r="E205" s="2" t="inlineStr"/>
@@ -7748,7 +7752,7 @@
       <c r="G205" s="2" t="inlineStr"/>
       <c r="H205" s="2" t="inlineStr">
         <is>
-          <t>Normative behaviour can be an MoA or outcome depending on how 'normative behaviour' is described in an intervention. The Behaviour Change-Intervention Ontology includes the class 'outcome behaviour' (definition: Human behavior that is an intervention outcome.), which would not be an MoA. When an intervention targets a normative behaviour to achieve an outcome behaviour, the former qualifies as an MoA.</t>
+          <t>A role can be assigned without being realised. A person realises a role by doing something.</t>
         </is>
       </c>
       <c r="I205" s="2" t="inlineStr"/>
@@ -7763,22 +7767,22 @@
     <row r="206">
       <c r="A206" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006042</t>
+          <t>BCIO:006125</t>
         </is>
       </c>
       <c r="B206" s="2" t="inlineStr">
         <is>
-          <t>normative belief</t>
+          <t>operant conditioning</t>
         </is>
       </c>
       <c r="C206" s="2" t="inlineStr">
         <is>
-          <t>perceived norm</t>
+          <t>associative learning</t>
         </is>
       </c>
       <c r="D206" s="2" t="inlineStr">
         <is>
-          <t>A belief about whether important others think one should perform a behaviour.</t>
+          <t>Associative learning process in which the likelihood of a particular behavioural response is influenced by the past consequences associated with performing that behaviour.</t>
         </is>
       </c>
       <c r="E206" s="2" t="inlineStr"/>
@@ -7797,22 +7801,22 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>GO:0098597</t>
+          <t>MFOEM:000203</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>observational learning</t>
+          <t>pain</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>learning</t>
+          <t>subjective affective feeling</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>Learning that occurs through observing the behaviour of others.</t>
+          <t>A subjective affective feeling in an organism S, involving two integrated levels: (a) activation of the nociceptive system and associated emotion generating brain components of S, and (b) a simultaneous aversive sensory and emotional experience on the part of S, where (b) is phenomenologically similar to the sort of aversive experience involved in pain with concordant tissue damage.</t>
         </is>
       </c>
       <c r="E207" t="inlineStr"/>
@@ -7831,32 +7835,28 @@
     <row r="208">
       <c r="A208" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015430</t>
+          <t>BCIO:006040</t>
         </is>
       </c>
       <c r="B208" s="2" t="inlineStr">
         <is>
-          <t>occupational role</t>
+          <t>perceived descriptive norm</t>
         </is>
       </c>
       <c r="C208" s="2" t="inlineStr">
         <is>
-          <t>personal role</t>
+          <t>perceived norm</t>
         </is>
       </c>
       <c r="D208" s="2" t="inlineStr">
         <is>
-          <t>A role that is realised in a person by doing a specified type of work or working in a specified way.</t>
+          <t>A belief about the prevalence of performance of a given behaviour by people within a group.</t>
         </is>
       </c>
       <c r="E208" s="2" t="inlineStr"/>
       <c r="F208" s="2" t="inlineStr"/>
       <c r="G208" s="2" t="inlineStr"/>
-      <c r="H208" s="2" t="inlineStr">
-        <is>
-          <t>A role can be assigned without being realised. A person realises a role by doing something.</t>
-        </is>
-      </c>
+      <c r="H208" s="2" t="inlineStr"/>
       <c r="I208" s="2" t="inlineStr"/>
       <c r="J208" s="2" t="inlineStr">
         <is>
@@ -7869,22 +7869,22 @@
     <row r="209">
       <c r="A209" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006125</t>
+          <t>BCIO:006041</t>
         </is>
       </c>
       <c r="B209" s="2" t="inlineStr">
         <is>
-          <t>operant conditioning</t>
+          <t>perceived injunctive norm</t>
         </is>
       </c>
       <c r="C209" s="2" t="inlineStr">
         <is>
-          <t>associative learning</t>
+          <t>perceived norm</t>
         </is>
       </c>
       <c r="D209" s="2" t="inlineStr">
         <is>
-          <t>Associative learning process in which the likelihood of a particular behavioural response is influenced by the past consequences associated with performing that behaviour.</t>
+          <t>A belief about whether a behaviour is appropriate and correct for people who belong to a particular group.</t>
         </is>
       </c>
       <c r="E209" s="2" t="inlineStr"/>
@@ -7901,280 +7901,284 @@
       <c r="L209" s="2" t="inlineStr"/>
     </row>
     <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>MFOEM:000203</t>
-        </is>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>pain</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>subjective affective feeling</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr">
-        <is>
-          <t>A subjective affective feeling in an organism S, involving two integrated levels: (a) activation of the nociceptive system and associated emotion generating brain components of S, and (b) a simultaneous aversive sensory and emotional experience on the part of S, where (b) is phenomenologically similar to the sort of aversive experience involved in pain with concordant tissue damage.</t>
-        </is>
-      </c>
-      <c r="E210" t="inlineStr"/>
-      <c r="F210" t="inlineStr"/>
-      <c r="G210" t="inlineStr"/>
-      <c r="H210" t="inlineStr"/>
-      <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="A210" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006039</t>
+        </is>
+      </c>
+      <c r="B210" s="2" t="inlineStr">
+        <is>
+          <t>perceived norm</t>
+        </is>
+      </c>
+      <c r="C210" s="2" t="inlineStr">
+        <is>
+          <t>belief</t>
+        </is>
+      </c>
+      <c r="D210" s="2" t="inlineStr">
+        <is>
+          <t>A belief about what is typical for people who belong to a particular group.</t>
+        </is>
+      </c>
+      <c r="E210" s="2" t="inlineStr"/>
+      <c r="F210" s="2" t="inlineStr">
+        <is>
+          <t>belief about norm</t>
+        </is>
+      </c>
+      <c r="G210" s="2" t="inlineStr"/>
+      <c r="H210" s="2" t="inlineStr">
+        <is>
+          <t>A person does not need to belong to a group to have a perception of their norms. For instance, the perceived norm could be in a group one aspires to belong to, and so the person might attempt to conform to it in an attempt to be accepted as a member of that group.</t>
+        </is>
+      </c>
+      <c r="I210" s="2" t="inlineStr"/>
+      <c r="J210" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K210" s="2" t="inlineStr"/>
+      <c r="L210" s="2" t="inlineStr"/>
     </row>
     <row r="211">
-      <c r="A211" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006040</t>
-        </is>
-      </c>
-      <c r="B211" s="2" t="inlineStr">
-        <is>
-          <t>perceived descriptive norm</t>
-        </is>
-      </c>
-      <c r="C211" s="2" t="inlineStr">
-        <is>
-          <t>perceived norm</t>
-        </is>
-      </c>
-      <c r="D211" s="2" t="inlineStr">
-        <is>
-          <t>A belief about the prevalence of performance of a given behaviour by people within a group.</t>
-        </is>
-      </c>
-      <c r="E211" s="2" t="inlineStr"/>
-      <c r="F211" s="2" t="inlineStr"/>
-      <c r="G211" s="2" t="inlineStr"/>
-      <c r="H211" s="2" t="inlineStr"/>
-      <c r="I211" s="2" t="inlineStr"/>
-      <c r="J211" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K211" s="2" t="inlineStr"/>
-      <c r="L211" s="2" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006041</t>
-        </is>
-      </c>
-      <c r="B212" s="2" t="inlineStr">
-        <is>
-          <t>perceived injunctive norm</t>
-        </is>
-      </c>
-      <c r="C212" s="2" t="inlineStr">
-        <is>
-          <t>perceived norm</t>
-        </is>
-      </c>
-      <c r="D212" s="2" t="inlineStr">
-        <is>
-          <t>A belief about whether a behaviour is appropriate and correct for people who belong to a particular group.</t>
-        </is>
-      </c>
-      <c r="E212" s="2" t="inlineStr"/>
-      <c r="F212" s="2" t="inlineStr"/>
-      <c r="G212" s="2" t="inlineStr"/>
-      <c r="H212" s="2" t="inlineStr"/>
-      <c r="I212" s="2" t="inlineStr"/>
-      <c r="J212" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K212" s="2" t="inlineStr"/>
-      <c r="L212" s="2" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006039</t>
-        </is>
-      </c>
-      <c r="B213" s="2" t="inlineStr">
-        <is>
-          <t>perceived norm</t>
-        </is>
-      </c>
-      <c r="C213" s="2" t="inlineStr">
-        <is>
-          <t>belief</t>
-        </is>
-      </c>
-      <c r="D213" s="2" t="inlineStr">
-        <is>
-          <t>A belief about what is typical for people who belong to a particular group.</t>
-        </is>
-      </c>
-      <c r="E213" s="2" t="inlineStr"/>
-      <c r="F213" s="2" t="inlineStr">
-        <is>
-          <t>belief about norm</t>
-        </is>
-      </c>
-      <c r="G213" s="2" t="inlineStr"/>
-      <c r="H213" s="2" t="inlineStr">
-        <is>
-          <t>A person does not need to belong to a group to have a perception of their norms. For instance, the perceived norm could be in a group one aspires to belong to, and so the person might attempt to conform to it in an attempt to be accepted as a member of that group.</t>
-        </is>
-      </c>
-      <c r="I213" s="2" t="inlineStr"/>
-      <c r="J213" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K213" s="2" t="inlineStr"/>
-      <c r="L213" s="2" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
+      <c r="A211" t="inlineStr">
         <is>
           <t>MF:0000019</t>
         </is>
       </c>
-      <c r="B214" t="inlineStr">
+      <c r="B211" t="inlineStr">
         <is>
           <t>perception</t>
         </is>
       </c>
-      <c r="C214" t="inlineStr">
+      <c r="C211" t="inlineStr">
         <is>
           <t>mental process</t>
         </is>
       </c>
-      <c r="D214" t="inlineStr">
+      <c r="D211" t="inlineStr">
         <is>
           <t>A mental process which is a) produced by a causal process involving a part of the environment of the organism, and b) is experienced by the organism as being so caused, and c) in which the relevant part of the environment is thereby represented to the organism.</t>
         </is>
       </c>
-      <c r="E214" t="inlineStr"/>
-      <c r="F214" t="inlineStr"/>
-      <c r="G214" t="inlineStr"/>
-      <c r="H214" t="inlineStr">
+      <c r="E211" t="inlineStr"/>
+      <c r="F211" t="inlineStr"/>
+      <c r="G211" t="inlineStr"/>
+      <c r="H211" t="inlineStr">
         <is>
           <t>Examples for 'causal processes involving a part of the environment of an organism' that can be perceived are light rays and air vibrations.
 'Perception' is about perceiving stimuli in one's environment in the MoA Ontology. However, the term 'perception' is sometimes used to refer to things defined as 'belief' in the MoA Ontology.</t>
         </is>
       </c>
-      <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr">
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
         <is>
           <t xml:space="preserve">MF:0000043 </t>
         </is>
       </c>
-      <c r="B215" t="inlineStr">
+      <c r="B212" t="inlineStr">
         <is>
           <t>personal capability</t>
         </is>
       </c>
-      <c r="C215" t="inlineStr">
+      <c r="C212" t="inlineStr">
         <is>
           <t>bodily disposition</t>
         </is>
       </c>
-      <c r="D215" t="inlineStr">
+      <c r="D212" t="inlineStr">
         <is>
           <t>A bodily disposition whose realization ordinarily brings benefits to an organism or group of organisms, where "ordinarily" means within a typical  range or context.</t>
         </is>
       </c>
-      <c r="E215" t="inlineStr"/>
-      <c r="F215" t="inlineStr"/>
-      <c r="G215" t="inlineStr"/>
-      <c r="H215" t="inlineStr">
+      <c r="E212" t="inlineStr"/>
+      <c r="F212" t="inlineStr"/>
+      <c r="G212" t="inlineStr"/>
+      <c r="H212" t="inlineStr">
         <is>
           <t>The phrase 'ordinarily brings benefits to an organism or group of organism' is used to explain that capabilities normally provide a benefit. 
 For instance, having a musical ability is ordinarily an ability that is positive for a person (e.g., they receive positive feedback about their ability). However, in certain exceptional cases (e.g., a neighbour becoming annoyed with a person playing the piano and expressing this annoyance), the ability might not bring benefits.</t>
         </is>
       </c>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr">
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:006084</t>
+        </is>
+      </c>
+      <c r="B213" s="4" t="inlineStr">
+        <is>
+          <t>personal financial resource</t>
+        </is>
+      </c>
+      <c r="C213" s="4" t="inlineStr">
+        <is>
+          <t>personal  role</t>
+        </is>
+      </c>
+      <c r="D213" s="4" t="inlineStr">
+        <is>
+          <t>A personal role in which the individual has access to a material or an immaterial entity which may confer economic benefits.</t>
+        </is>
+      </c>
+      <c r="E213" s="4" t="inlineStr"/>
+      <c r="F213" s="4" t="inlineStr"/>
+      <c r="G213" s="4" t="inlineStr"/>
+      <c r="H213" s="4" t="inlineStr"/>
+      <c r="I213" s="4" t="inlineStr"/>
+      <c r="J213" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="K213" s="4" t="inlineStr"/>
+      <c r="L213" s="4" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006081</t>
+        </is>
+      </c>
+      <c r="B214" s="2" t="inlineStr">
+        <is>
+          <t>personal role</t>
+        </is>
+      </c>
+      <c r="C214" s="2" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="D214" s="2" t="inlineStr">
+        <is>
+          <t>A role that inheres in a human being by virtue of their social and institutional circumstances.</t>
+        </is>
+      </c>
+      <c r="E214" s="2" t="inlineStr"/>
+      <c r="F214" s="2" t="inlineStr"/>
+      <c r="G214" s="2" t="inlineStr"/>
+      <c r="H214" s="2" t="inlineStr">
+        <is>
+          <t>A role can be assigned without being realised. A person realises a role by doing something.</t>
+        </is>
+      </c>
+      <c r="I214" s="2" t="inlineStr"/>
+      <c r="J214" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K214" s="2" t="inlineStr"/>
+      <c r="L214" s="2" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006063</t>
+        </is>
+      </c>
+      <c r="B215" s="2" t="inlineStr">
+        <is>
+          <t>personal value</t>
+        </is>
+      </c>
+      <c r="C215" s="2" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="D215" s="2" t="inlineStr">
+        <is>
+          <t>A mental disposition to regard certain things as fundamentally important in life, which informs standards for behaviour.</t>
+        </is>
+      </c>
+      <c r="E215" s="2" t="inlineStr"/>
+      <c r="F215" s="2" t="inlineStr"/>
+      <c r="G215" s="2" t="inlineStr"/>
+      <c r="H215" s="2" t="inlineStr"/>
+      <c r="I215" s="2" t="inlineStr"/>
+      <c r="J215" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K215" s="2" t="inlineStr"/>
+      <c r="L215" s="2" t="inlineStr"/>
     </row>
     <row r="216">
-      <c r="A216" s="4" t="inlineStr">
-        <is>
-          <t>BCIO:006084</t>
-        </is>
-      </c>
-      <c r="B216" s="4" t="inlineStr">
-        <is>
-          <t>personal financial resource</t>
-        </is>
-      </c>
-      <c r="C216" s="4" t="inlineStr">
-        <is>
-          <t>personal  role</t>
-        </is>
-      </c>
-      <c r="D216" s="4" t="inlineStr">
-        <is>
-          <t>A personal role in which the individual has access to a material or an immaterial entity which may confer economic benefits.</t>
-        </is>
-      </c>
-      <c r="E216" s="4" t="inlineStr"/>
-      <c r="F216" s="4" t="inlineStr"/>
-      <c r="G216" s="4" t="inlineStr"/>
-      <c r="H216" s="4" t="inlineStr"/>
-      <c r="I216" s="4" t="inlineStr"/>
-      <c r="J216" s="4" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="K216" s="4" t="inlineStr"/>
-      <c r="L216" s="4" t="inlineStr"/>
+      <c r="A216" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006009</t>
+        </is>
+      </c>
+      <c r="B216" s="2" t="inlineStr">
+        <is>
+          <t>physical behavioural capability</t>
+        </is>
+      </c>
+      <c r="C216" s="2" t="inlineStr">
+        <is>
+          <t>behavioural capability</t>
+        </is>
+      </c>
+      <c r="D216" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A behavioural capability that involves a musculoskeletal process in its realisation. </t>
+        </is>
+      </c>
+      <c r="E216" s="2" t="inlineStr"/>
+      <c r="F216" s="2" t="inlineStr"/>
+      <c r="G216" s="2" t="inlineStr"/>
+      <c r="H216" s="2" t="inlineStr"/>
+      <c r="I216" s="2" t="inlineStr"/>
+      <c r="J216" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K216" s="2" t="inlineStr"/>
+      <c r="L216" s="2" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006081</t>
+          <t>BCIO:006089</t>
         </is>
       </c>
       <c r="B217" s="2" t="inlineStr">
         <is>
-          <t>personal role</t>
+          <t>physical behavioural opportunity</t>
         </is>
       </c>
       <c r="C217" s="2" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>behavioural opportunity</t>
         </is>
       </c>
       <c r="D217" s="2" t="inlineStr">
         <is>
-          <t>A role that inheres in a human being by virtue of their social and institutional circumstances.</t>
+          <t>A behavioural opportunity that involves time and parts of the environmental system that do not involve people or organisations.</t>
         </is>
       </c>
       <c r="E217" s="2" t="inlineStr"/>
@@ -8182,7 +8186,7 @@
       <c r="G217" s="2" t="inlineStr"/>
       <c r="H217" s="2" t="inlineStr">
         <is>
-          <t>A role can be assigned without being realised. A person realises a role by doing something.</t>
+          <t>An 'behavioural opportunity' is a feature of the environmental system. While the class 'environmental system' is about what is found in an environment, the behavioural opportunity is a feature of the environment which interacts with the person and enables or prevents a behaviour.</t>
         </is>
       </c>
       <c r="I217" s="2" t="inlineStr"/>
@@ -8197,22 +8201,22 @@
     <row r="218">
       <c r="A218" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006063</t>
+          <t>BCIO:006010</t>
         </is>
       </c>
       <c r="B218" s="2" t="inlineStr">
         <is>
-          <t>personal value</t>
+          <t>physical skill</t>
         </is>
       </c>
       <c r="C218" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>physical behavioural capability</t>
         </is>
       </c>
       <c r="D218" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to regard certain things as fundamentally important in life, which informs standards for behaviour.</t>
+          <t>A physical capability acquired through training or practice.</t>
         </is>
       </c>
       <c r="E218" s="2" t="inlineStr"/>
@@ -8229,68 +8233,64 @@
       <c r="L218" s="2" t="inlineStr"/>
     </row>
     <row r="219">
-      <c r="A219" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006009</t>
-        </is>
-      </c>
-      <c r="B219" s="2" t="inlineStr">
-        <is>
-          <t>physical behavioural capability</t>
-        </is>
-      </c>
-      <c r="C219" s="2" t="inlineStr">
-        <is>
-          <t>behavioural capability</t>
-        </is>
-      </c>
-      <c r="D219" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A behavioural capability that involves a musculoskeletal process in its realisation. </t>
-        </is>
-      </c>
-      <c r="E219" s="2" t="inlineStr"/>
-      <c r="F219" s="2" t="inlineStr"/>
-      <c r="G219" s="2" t="inlineStr"/>
-      <c r="H219" s="2" t="inlineStr"/>
-      <c r="I219" s="2" t="inlineStr"/>
-      <c r="J219" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K219" s="2" t="inlineStr"/>
-      <c r="L219" s="2" t="inlineStr"/>
+      <c r="A219" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MFOEM:000003 </t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>physiological process involved in an emotion</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>bodily process</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>A bodily process that encompasses all the neurophysiological changes accompanying an emotion, which take place in the central nervous system (CNS), neuro-endocrine system (NES) and autonomous nervous system (ANS).</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr"/>
+      <c r="F219" t="inlineStr"/>
+      <c r="G219" t="inlineStr"/>
+      <c r="H219" t="inlineStr"/>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006089</t>
+          <t>BCIO:006102</t>
         </is>
       </c>
       <c r="B220" s="2" t="inlineStr">
         <is>
-          <t>physical behavioural opportunity</t>
+          <t>plan enactment</t>
         </is>
       </c>
       <c r="C220" s="2" t="inlineStr">
         <is>
-          <t>behavioural opportunity</t>
+          <t>bodily process</t>
         </is>
       </c>
       <c r="D220" s="2" t="inlineStr">
         <is>
-          <t>A behavioural opportunity that involves time and parts of the environmental system that do not involve people or organisations.</t>
+          <t>A bodily process by which a person attempts to follow the steps in a plan.</t>
         </is>
       </c>
       <c r="E220" s="2" t="inlineStr"/>
       <c r="F220" s="2" t="inlineStr"/>
       <c r="G220" s="2" t="inlineStr"/>
-      <c r="H220" s="2" t="inlineStr">
-        <is>
-          <t>An 'behavioural opportunity' is a feature of the environmental system. While the class 'environmental system' is about what is found in an environment, the behavioural opportunity is a feature of the environment which interacts with the person and enables or prevents a behaviour.</t>
-        </is>
-      </c>
+      <c r="H220" s="2" t="inlineStr"/>
       <c r="I220" s="2" t="inlineStr"/>
       <c r="J220" s="2" t="inlineStr">
         <is>
@@ -8301,62 +8301,70 @@
       <c r="L220" s="2" t="inlineStr"/>
     </row>
     <row r="221">
-      <c r="A221" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006010</t>
-        </is>
-      </c>
-      <c r="B221" s="2" t="inlineStr">
-        <is>
-          <t>physical skill</t>
-        </is>
-      </c>
-      <c r="C221" s="2" t="inlineStr">
-        <is>
-          <t>physical behavioural capability</t>
-        </is>
-      </c>
-      <c r="D221" s="2" t="inlineStr">
-        <is>
-          <t>A physical capability acquired through training or practice.</t>
-        </is>
-      </c>
-      <c r="E221" s="2" t="inlineStr"/>
-      <c r="F221" s="2" t="inlineStr"/>
-      <c r="G221" s="2" t="inlineStr"/>
-      <c r="H221" s="2" t="inlineStr"/>
-      <c r="I221" s="2" t="inlineStr"/>
-      <c r="J221" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K221" s="2" t="inlineStr"/>
-      <c r="L221" s="2" t="inlineStr"/>
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>MF:0000027</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>planning</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>A mental process that involves mentally manipulating representations of steps in an imagined process which has some goal.</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr"/>
+      <c r="F221" t="inlineStr"/>
+      <c r="G221" t="inlineStr"/>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>The outcome of this mental process is a mental plan which has the potential to be followed to bring about the desired outcome.</t>
+        </is>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t xml:space="preserve">MFOEM:000003 </t>
+          <t>MFOEM:000035</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>physiological process involved in an emotion</t>
+          <t>pleasure</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>bodily process</t>
+          <t>emotion process</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>A bodily process that encompasses all the neurophysiological changes accompanying an emotion, which take place in the central nervous system (CNS), neuro-endocrine system (NES) and autonomous nervous system (ANS).</t>
+          <t>A positive emotion which is sought out and is associated with happiness and satisfaction.</t>
         </is>
       </c>
       <c r="E222" t="inlineStr"/>
-      <c r="F222" t="inlineStr"/>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>enjoyment</t>
+        </is>
+      </c>
       <c r="G222" t="inlineStr"/>
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
@@ -8371,26 +8379,30 @@
     <row r="223">
       <c r="A223" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006102</t>
+          <t>BCIO:006159</t>
         </is>
       </c>
       <c r="B223" s="2" t="inlineStr">
         <is>
-          <t>plan enactment</t>
+          <t>pleasure associated with behaviour</t>
         </is>
       </c>
       <c r="C223" s="2" t="inlineStr">
         <is>
-          <t>bodily process</t>
+          <t>pleasure</t>
         </is>
       </c>
       <c r="D223" s="2" t="inlineStr">
         <is>
-          <t>A bodily process by which a person attempts to follow the steps in a plan.</t>
+          <t xml:space="preserve">Pleasure that is experienced as a result of engaging in a behaviour. </t>
         </is>
       </c>
       <c r="E223" s="2" t="inlineStr"/>
-      <c r="F223" s="2" t="inlineStr"/>
+      <c r="F223" s="2" t="inlineStr">
+        <is>
+          <t>Enjoyment of behaviour</t>
+        </is>
+      </c>
       <c r="G223" s="2" t="inlineStr"/>
       <c r="H223" s="2" t="inlineStr"/>
       <c r="I223" s="2" t="inlineStr"/>
@@ -8403,68 +8415,72 @@
       <c r="L223" s="2" t="inlineStr"/>
     </row>
     <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>MF:0000027</t>
-        </is>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>planning</t>
-        </is>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D224" t="inlineStr">
-        <is>
-          <t>A mental process that involves mentally manipulating representations of steps in an imagined process which has some goal.</t>
-        </is>
-      </c>
-      <c r="E224" t="inlineStr"/>
-      <c r="F224" t="inlineStr"/>
-      <c r="G224" t="inlineStr"/>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>The outcome of this mental process is a mental plan which has the potential to be followed to bring about the desired outcome.</t>
-        </is>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
+      <c r="A224" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:006036</t>
+        </is>
+      </c>
+      <c r="B224" s="4" t="inlineStr">
+        <is>
+          <t>positive evaluation of self</t>
+        </is>
+      </c>
+      <c r="C224" s="4" t="inlineStr">
+        <is>
+          <t>evaluation of self</t>
+        </is>
+      </c>
+      <c r="D224" s="4" t="inlineStr">
+        <is>
+          <t>A belief about one's positive attributes.</t>
+        </is>
+      </c>
+      <c r="E224" s="4" t="inlineStr"/>
+      <c r="F224" s="4" t="inlineStr">
+        <is>
+          <t>positive self-esteem</t>
+        </is>
+      </c>
+      <c r="G224" s="4" t="inlineStr"/>
+      <c r="H224" s="4" t="inlineStr">
+        <is>
+          <t>Self-esteem is often used to refer to positive evaluations of self.</t>
+        </is>
+      </c>
+      <c r="I224" s="4" t="inlineStr"/>
+      <c r="J224" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="K224" s="4" t="inlineStr"/>
+      <c r="L224" s="4" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>MFOEM:000035</t>
+          <t>MFOEM:000209</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>pleasure</t>
+          <t>positive surprise</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>emotion process</t>
+          <t>surprise</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>A positive emotion which is sought out and is associated with happiness and satisfaction.</t>
+          <t>Surprise with a positive valence.</t>
         </is>
       </c>
       <c r="E225" t="inlineStr"/>
       <c r="F225" t="inlineStr">
         <is>
-          <t>enjoyment</t>
+          <t>wonder; astonishment</t>
         </is>
       </c>
       <c r="G225" t="inlineStr"/>
@@ -8481,30 +8497,26 @@
     <row r="226">
       <c r="A226" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006159</t>
+          <t>BCIO:006061</t>
         </is>
       </c>
       <c r="B226" s="2" t="inlineStr">
         <is>
-          <t>pleasure associated with behaviour</t>
+          <t>prevention focused motivational orientation</t>
         </is>
       </c>
       <c r="C226" s="2" t="inlineStr">
         <is>
-          <t>pleasure</t>
+          <t>motivational orientation towards types of outcomes</t>
         </is>
       </c>
       <c r="D226" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Pleasure that is experienced as a result of engaging in a behaviour. </t>
+          <t>A mental disposition for motivation to be guided by a focus on the presence or absence of positive outcomes.</t>
         </is>
       </c>
       <c r="E226" s="2" t="inlineStr"/>
-      <c r="F226" s="2" t="inlineStr">
-        <is>
-          <t>Enjoyment of behaviour</t>
-        </is>
-      </c>
+      <c r="F226" s="2" t="inlineStr"/>
       <c r="G226" s="2" t="inlineStr"/>
       <c r="H226" s="2" t="inlineStr"/>
       <c r="I226" s="2" t="inlineStr"/>
@@ -8517,138 +8529,126 @@
       <c r="L226" s="2" t="inlineStr"/>
     </row>
     <row r="227">
-      <c r="A227" s="4" t="inlineStr">
-        <is>
-          <t>BCIO:006036</t>
-        </is>
-      </c>
-      <c r="B227" s="4" t="inlineStr">
-        <is>
-          <t>positive evaluation of self</t>
-        </is>
-      </c>
-      <c r="C227" s="4" t="inlineStr">
-        <is>
-          <t>evaluation of self</t>
-        </is>
-      </c>
-      <c r="D227" s="4" t="inlineStr">
-        <is>
-          <t>A belief about one's positive attributes.</t>
-        </is>
-      </c>
-      <c r="E227" s="4" t="inlineStr"/>
-      <c r="F227" s="4" t="inlineStr">
-        <is>
-          <t>positive self-esteem</t>
-        </is>
-      </c>
-      <c r="G227" s="4" t="inlineStr"/>
-      <c r="H227" s="4" t="inlineStr">
-        <is>
-          <t>Self-esteem is often used to refer to positive evaluations of self.</t>
-        </is>
-      </c>
-      <c r="I227" s="4" t="inlineStr"/>
-      <c r="J227" s="4" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="K227" s="4" t="inlineStr"/>
-      <c r="L227" s="4" t="inlineStr"/>
+      <c r="A227" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006129</t>
+        </is>
+      </c>
+      <c r="B227" s="2" t="inlineStr">
+        <is>
+          <t>procedural memory</t>
+        </is>
+      </c>
+      <c r="C227" s="2" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="D227" s="2" t="inlineStr">
+        <is>
+          <t>A memory process that deals with the receipt, storage, retrieval and modification of information regarding how to perform a complex activity without conscious awareness.</t>
+        </is>
+      </c>
+      <c r="E227" s="2" t="inlineStr"/>
+      <c r="F227" s="2" t="inlineStr"/>
+      <c r="G227" s="2" t="inlineStr"/>
+      <c r="H227" s="2" t="inlineStr"/>
+      <c r="I227" s="2" t="inlineStr"/>
+      <c r="J227" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K227" s="2" t="inlineStr"/>
+      <c r="L227" s="2" t="inlineStr"/>
     </row>
     <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>MFOEM:000209</t>
-        </is>
-      </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>positive surprise</t>
-        </is>
-      </c>
-      <c r="C228" t="inlineStr">
-        <is>
-          <t>surprise</t>
-        </is>
-      </c>
-      <c r="D228" t="inlineStr">
-        <is>
-          <t>Surprise with a positive valence.</t>
-        </is>
-      </c>
-      <c r="E228" t="inlineStr"/>
-      <c r="F228" t="inlineStr">
-        <is>
-          <t>wonder; astonishment</t>
-        </is>
-      </c>
-      <c r="G228" t="inlineStr"/>
-      <c r="H228" t="inlineStr"/>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
+      <c r="A228" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050229</t>
+        </is>
+      </c>
+      <c r="B228" s="3" t="inlineStr">
+        <is>
+          <t>professional identity</t>
+        </is>
+      </c>
+      <c r="C228" s="3" t="inlineStr">
+        <is>
+          <t>identity</t>
+        </is>
+      </c>
+      <c r="D228" s="3" t="inlineStr">
+        <is>
+          <t>A self-identity that is associated with one's occupational role.</t>
+        </is>
+      </c>
+      <c r="E228" s="3" t="inlineStr"/>
+      <c r="F228" s="3" t="inlineStr"/>
+      <c r="G228" s="3" t="inlineStr"/>
+      <c r="H228" s="3" t="inlineStr"/>
+      <c r="I228" s="3" t="inlineStr"/>
+      <c r="J228" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="K228" s="3" t="inlineStr"/>
+      <c r="L228" s="3" t="inlineStr"/>
     </row>
     <row r="229">
-      <c r="A229" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006061</t>
-        </is>
-      </c>
-      <c r="B229" s="2" t="inlineStr">
-        <is>
-          <t>prevention focused motivational orientation</t>
-        </is>
-      </c>
-      <c r="C229" s="2" t="inlineStr">
-        <is>
-          <t>motivational orientation towards types of outcomes</t>
-        </is>
-      </c>
-      <c r="D229" s="2" t="inlineStr">
-        <is>
-          <t>A mental disposition for motivation to be guided by a focus on the presence or absence of positive outcomes.</t>
-        </is>
-      </c>
-      <c r="E229" s="2" t="inlineStr"/>
-      <c r="F229" s="2" t="inlineStr"/>
-      <c r="G229" s="2" t="inlineStr"/>
-      <c r="H229" s="2" t="inlineStr"/>
-      <c r="I229" s="2" t="inlineStr"/>
-      <c r="J229" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K229" s="2" t="inlineStr"/>
-      <c r="L229" s="2" t="inlineStr"/>
+      <c r="A229" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050213</t>
+        </is>
+      </c>
+      <c r="B229" s="3" t="inlineStr">
+        <is>
+          <t>professional network</t>
+        </is>
+      </c>
+      <c r="C229" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> social environmental system</t>
+        </is>
+      </c>
+      <c r="D229" s="3" t="inlineStr">
+        <is>
+          <t>A social environmental system that consists of persons who have shared interests relating to their occupational roles and are in contact or communication.</t>
+        </is>
+      </c>
+      <c r="E229" s="3" t="inlineStr"/>
+      <c r="F229" s="3" t="inlineStr"/>
+      <c r="G229" s="3" t="inlineStr"/>
+      <c r="H229" s="3" t="inlineStr"/>
+      <c r="I229" s="3" t="inlineStr"/>
+      <c r="J229" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="K229" s="3" t="inlineStr"/>
+      <c r="L229" s="3" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006129</t>
+          <t>BCIO:006062</t>
         </is>
       </c>
       <c r="B230" s="2" t="inlineStr">
         <is>
-          <t>procedural memory</t>
+          <t>promotion focused motivational orientation</t>
         </is>
       </c>
       <c r="C230" s="2" t="inlineStr">
         <is>
-          <t>memory</t>
+          <t>motivational orientation towards types of outcomes</t>
         </is>
       </c>
       <c r="D230" s="2" t="inlineStr">
         <is>
-          <t>A memory process that deals with the receipt, storage, retrieval and modification of information regarding how to perform a complex activity without conscious awareness.</t>
+          <t>A mental disposition for motivation to be guided by a focus on the presence or absence of negative outcomes.</t>
         </is>
       </c>
       <c r="E230" s="2" t="inlineStr"/>
@@ -8665,342 +8665,346 @@
       <c r="L230" s="2" t="inlineStr"/>
     </row>
     <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>BFO:0000144</t>
-        </is>
-      </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>process profile</t>
-        </is>
-      </c>
-      <c r="C231" t="inlineStr">
-        <is>
-          <t>process</t>
-        </is>
-      </c>
-      <c r="D231" t="inlineStr">
-        <is>
-          <t>b is a process_profile =Def. there is some process c such that b process_profile_of c.</t>
-        </is>
-      </c>
-      <c r="E231" t="inlineStr"/>
-      <c r="F231" t="inlineStr"/>
-      <c r="G231" t="inlineStr"/>
-      <c r="H231" t="inlineStr"/>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr">
+      <c r="A231" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006064</t>
+        </is>
+      </c>
+      <c r="B231" s="2" t="inlineStr">
+        <is>
+          <t>psychological need</t>
+        </is>
+      </c>
+      <c r="C231" s="2" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="D231" s="2" t="inlineStr">
+        <is>
+          <t>A mental disposition of a person to act to obtain or maintain a particular state due to this state’s importance to the person’s wellbeing.</t>
+        </is>
+      </c>
+      <c r="E231" s="2" t="inlineStr"/>
+      <c r="F231" s="2" t="inlineStr"/>
+      <c r="G231" s="2" t="inlineStr"/>
+      <c r="H231" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Psychological needs can be satisfied or thwarted. </t>
+        </is>
+      </c>
+      <c r="I231" s="2" t="inlineStr"/>
+      <c r="J231" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K231" s="2" t="inlineStr"/>
+      <c r="L231" s="2" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>PATO:0000001</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>quality</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>specifically dependent continuant</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>A dependent entity that inheres in a bearer by virtue of how the bearer is related to other entities.</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr"/>
+      <c r="F232" t="inlineStr"/>
+      <c r="G232" t="inlineStr"/>
+      <c r="H232" t="inlineStr"/>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050229</t>
-        </is>
-      </c>
-      <c r="B232" s="3" t="inlineStr">
-        <is>
-          <t>professional identity</t>
-        </is>
-      </c>
-      <c r="C232" s="3" t="inlineStr">
-        <is>
-          <t>identity</t>
-        </is>
-      </c>
-      <c r="D232" s="3" t="inlineStr">
-        <is>
-          <t>A self-identity that is associated with one's occupational role.</t>
-        </is>
-      </c>
-      <c r="E232" s="3" t="inlineStr"/>
-      <c r="F232" s="3" t="inlineStr"/>
-      <c r="G232" s="3" t="inlineStr"/>
-      <c r="H232" s="3" t="inlineStr"/>
-      <c r="I232" s="3" t="inlineStr"/>
-      <c r="J232" s="3" t="inlineStr">
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006112</t>
+        </is>
+      </c>
+      <c r="B233" s="2" t="inlineStr">
+        <is>
+          <t>reflective thinking</t>
+        </is>
+      </c>
+      <c r="C233" s="2" t="inlineStr">
+        <is>
+          <t>thinking</t>
+        </is>
+      </c>
+      <c r="D233" s="2" t="inlineStr">
+        <is>
+          <t>Thinking that involves the generation of inferences by reasoning based on one or more statements, evaluating anticipated consequences or considering the relationships between concepts.</t>
+        </is>
+      </c>
+      <c r="E233" s="2" t="inlineStr"/>
+      <c r="F233" s="2" t="inlineStr"/>
+      <c r="G233" s="2" t="inlineStr"/>
+      <c r="H233" s="2" t="inlineStr"/>
+      <c r="I233" s="2" t="inlineStr"/>
+      <c r="J233" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K233" s="2" t="inlineStr"/>
+      <c r="L233" s="2" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050232</t>
+        </is>
+      </c>
+      <c r="B234" s="3" t="inlineStr">
+        <is>
+          <t>regret</t>
+        </is>
+      </c>
+      <c r="C234" s="3" t="inlineStr">
+        <is>
+          <t>emotion process</t>
+        </is>
+      </c>
+      <c r="D234" s="3" t="inlineStr">
+        <is>
+          <t>A negative emotion that occurs when a person wishes they chose or acted differently in the past, due to the consequences of that choice or action being unfavourable.</t>
+        </is>
+      </c>
+      <c r="E234" s="3" t="inlineStr"/>
+      <c r="F234" s="3" t="inlineStr"/>
+      <c r="G234" s="3" t="inlineStr"/>
+      <c r="H234" s="3" t="inlineStr"/>
+      <c r="I234" s="3" t="inlineStr"/>
+      <c r="J234" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="K232" s="3" t="inlineStr"/>
-      <c r="L232" s="3" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050213</t>
-        </is>
-      </c>
-      <c r="B233" s="3" t="inlineStr">
-        <is>
-          <t>professional network</t>
-        </is>
-      </c>
-      <c r="C233" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> social environmental system</t>
-        </is>
-      </c>
-      <c r="D233" s="3" t="inlineStr">
-        <is>
-          <t>A social environmental system that consists of persons who have shared interests relating to their occupational roles and are in contact or communication.</t>
-        </is>
-      </c>
-      <c r="E233" s="3" t="inlineStr"/>
-      <c r="F233" s="3" t="inlineStr"/>
-      <c r="G233" s="3" t="inlineStr"/>
-      <c r="H233" s="3" t="inlineStr"/>
-      <c r="I233" s="3" t="inlineStr"/>
-      <c r="J233" s="3" t="inlineStr">
+      <c r="K234" s="3" t="inlineStr"/>
+      <c r="L234" s="3" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>MF:0000030</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>representation</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>specifically dependent continuant</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>A dependent continuant which is about a portion of reality.</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr"/>
+      <c r="F235" t="inlineStr"/>
+      <c r="G235" t="inlineStr"/>
+      <c r="H235" t="inlineStr"/>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:006073</t>
+        </is>
+      </c>
+      <c r="B236" s="4" t="inlineStr">
+        <is>
+          <t>risk stereotype</t>
+        </is>
+      </c>
+      <c r="C236" s="4" t="inlineStr">
+        <is>
+          <t>stereotype</t>
+        </is>
+      </c>
+      <c r="D236" s="4" t="inlineStr">
+        <is>
+          <t>A stereotype of a person who enacts a problem behaviour.</t>
+        </is>
+      </c>
+      <c r="E236" s="4" t="inlineStr"/>
+      <c r="F236" s="4" t="inlineStr">
+        <is>
+          <t>risk prototype</t>
+        </is>
+      </c>
+      <c r="G236" s="4" t="inlineStr"/>
+      <c r="H236" s="4" t="inlineStr"/>
+      <c r="I236" s="4" t="inlineStr"/>
+      <c r="J236" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="K236" s="4" t="inlineStr"/>
+      <c r="L236" s="4" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050266</t>
+        </is>
+      </c>
+      <c r="B237" s="3" t="inlineStr">
+        <is>
+          <t>ruminating</t>
+        </is>
+      </c>
+      <c r="C237" s="3" t="inlineStr">
+        <is>
+          <t>thinking</t>
+        </is>
+      </c>
+      <c r="D237" s="3" t="inlineStr">
+        <is>
+          <t>Thinking that is about negative experiences and feelings, and repeated.</t>
+        </is>
+      </c>
+      <c r="E237" s="3" t="inlineStr"/>
+      <c r="F237" s="3" t="inlineStr"/>
+      <c r="G237" s="3" t="inlineStr"/>
+      <c r="H237" s="3" t="inlineStr"/>
+      <c r="I237" s="3" t="inlineStr"/>
+      <c r="J237" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="K233" s="3" t="inlineStr"/>
-      <c r="L233" s="3" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006062</t>
-        </is>
-      </c>
-      <c r="B234" s="2" t="inlineStr">
-        <is>
-          <t>promotion focused motivational orientation</t>
-        </is>
-      </c>
-      <c r="C234" s="2" t="inlineStr">
-        <is>
-          <t>motivational orientation towards types of outcomes</t>
-        </is>
-      </c>
-      <c r="D234" s="2" t="inlineStr">
-        <is>
-          <t>A mental disposition for motivation to be guided by a focus on the presence or absence of negative outcomes.</t>
-        </is>
-      </c>
-      <c r="E234" s="2" t="inlineStr"/>
-      <c r="F234" s="2" t="inlineStr"/>
-      <c r="G234" s="2" t="inlineStr"/>
-      <c r="H234" s="2" t="inlineStr"/>
-      <c r="I234" s="2" t="inlineStr"/>
-      <c r="J234" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K234" s="2" t="inlineStr"/>
-      <c r="L234" s="2" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006064</t>
-        </is>
-      </c>
-      <c r="B235" s="2" t="inlineStr">
-        <is>
-          <t>psychological need</t>
-        </is>
-      </c>
-      <c r="C235" s="2" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
-      <c r="D235" s="2" t="inlineStr">
-        <is>
-          <t>A mental disposition of a person to act to obtain or maintain a particular state due to this state’s importance to the person’s wellbeing.</t>
-        </is>
-      </c>
-      <c r="E235" s="2" t="inlineStr"/>
-      <c r="F235" s="2" t="inlineStr"/>
-      <c r="G235" s="2" t="inlineStr"/>
-      <c r="H235" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Psychological needs can be satisfied or thwarted. </t>
-        </is>
-      </c>
-      <c r="I235" s="2" t="inlineStr"/>
-      <c r="J235" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K235" s="2" t="inlineStr"/>
-      <c r="L235" s="2" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
-        <is>
-          <t>PATO:0000001</t>
-        </is>
-      </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>quality</t>
-        </is>
-      </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>specifically dependent continuant</t>
-        </is>
-      </c>
-      <c r="D236" t="inlineStr">
-        <is>
-          <t>A dependent entity that inheres in a bearer by virtue of how the bearer is related to other entities.</t>
-        </is>
-      </c>
-      <c r="E236" t="inlineStr"/>
-      <c r="F236" t="inlineStr"/>
-      <c r="G236" t="inlineStr"/>
-      <c r="H236" t="inlineStr"/>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr">
+      <c r="K237" s="3" t="inlineStr"/>
+      <c r="L237" s="3" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MFOEM:000056 </t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>sadness</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>emotion process</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>A negative emotion felt when an event is appraised as unpleasant and resulting in loss or failure.</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr"/>
+      <c r="F238" t="inlineStr"/>
+      <c r="G238" t="inlineStr"/>
+      <c r="H238" t="inlineStr"/>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006112</t>
-        </is>
-      </c>
-      <c r="B237" s="2" t="inlineStr">
-        <is>
-          <t>reflective thinking</t>
-        </is>
-      </c>
-      <c r="C237" s="2" t="inlineStr">
-        <is>
-          <t>thinking</t>
-        </is>
-      </c>
-      <c r="D237" s="2" t="inlineStr">
-        <is>
-          <t>Thinking that involves the generation of inferences by reasoning based on one or more statements, evaluating anticipated consequences or considering the relationships between concepts.</t>
-        </is>
-      </c>
-      <c r="E237" s="2" t="inlineStr"/>
-      <c r="F237" s="2" t="inlineStr"/>
-      <c r="G237" s="2" t="inlineStr"/>
-      <c r="H237" s="2" t="inlineStr"/>
-      <c r="I237" s="2" t="inlineStr"/>
-      <c r="J237" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K237" s="2" t="inlineStr"/>
-      <c r="L237" s="2" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050232</t>
-        </is>
-      </c>
-      <c r="B238" s="3" t="inlineStr">
-        <is>
-          <t>regret</t>
-        </is>
-      </c>
-      <c r="C238" s="3" t="inlineStr">
-        <is>
-          <t>emotion process</t>
-        </is>
-      </c>
-      <c r="D238" s="3" t="inlineStr">
-        <is>
-          <t>A negative emotion that occurs when a person wishes they chose or acted differently in the past, due to the consequences of that choice or action being unfavourable.</t>
-        </is>
-      </c>
-      <c r="E238" s="3" t="inlineStr"/>
-      <c r="F238" s="3" t="inlineStr"/>
-      <c r="G238" s="3" t="inlineStr"/>
-      <c r="H238" s="3" t="inlineStr"/>
-      <c r="I238" s="3" t="inlineStr"/>
-      <c r="J238" s="3" t="inlineStr">
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050236</t>
+        </is>
+      </c>
+      <c r="B239" s="3" t="inlineStr">
+        <is>
+          <t>self-binding</t>
+        </is>
+      </c>
+      <c r="C239" s="3" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D239" s="3" t="inlineStr">
+        <is>
+          <t>A mental process that involves creating adverse consequences for oneself if one does not stick to an intended course of action.</t>
+        </is>
+      </c>
+      <c r="E239" s="3" t="inlineStr"/>
+      <c r="F239" s="3" t="inlineStr">
+        <is>
+          <t>Pre-commitment</t>
+        </is>
+      </c>
+      <c r="G239" s="3" t="inlineStr"/>
+      <c r="H239" s="3" t="inlineStr"/>
+      <c r="I239" s="3" t="inlineStr"/>
+      <c r="J239" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="K238" s="3" t="inlineStr"/>
-      <c r="L238" s="3" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t>MF:0000030</t>
-        </is>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>representation</t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>specifically dependent continuant</t>
-        </is>
-      </c>
-      <c r="D239" t="inlineStr">
-        <is>
-          <t>A dependent continuant which is about a portion of reality.</t>
-        </is>
-      </c>
-      <c r="E239" t="inlineStr"/>
-      <c r="F239" t="inlineStr"/>
-      <c r="G239" t="inlineStr"/>
-      <c r="H239" t="inlineStr"/>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
+      <c r="K239" s="3" t="inlineStr"/>
+      <c r="L239" s="3" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="4" t="inlineStr">
         <is>
-          <t>BCIO:006073</t>
+          <t>BCIO:006071</t>
         </is>
       </c>
       <c r="B240" s="4" t="inlineStr">
         <is>
-          <t>risk stereotype</t>
+          <t>self-concept</t>
         </is>
       </c>
       <c r="C240" s="4" t="inlineStr">
         <is>
-          <t>stereotype</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D240" s="4" t="inlineStr">
         <is>
-          <t>A stereotype of a person who enacts a problem behaviour.</t>
+          <t>A mental disposition to represent oneself as having particular qualities and characteristics.</t>
         </is>
       </c>
       <c r="E240" s="4" t="inlineStr"/>
-      <c r="F240" s="4" t="inlineStr">
-        <is>
-          <t>risk prototype</t>
-        </is>
-      </c>
+      <c r="F240" s="4" t="inlineStr"/>
       <c r="G240" s="4" t="inlineStr"/>
       <c r="H240" s="4" t="inlineStr"/>
       <c r="I240" s="4" t="inlineStr"/>
@@ -9013,248 +9017,254 @@
       <c r="L240" s="4" t="inlineStr"/>
     </row>
     <row r="241">
-      <c r="A241" t="inlineStr">
-        <is>
-          <t>BFO:0000023</t>
-        </is>
-      </c>
-      <c r="B241" t="inlineStr">
-        <is>
-          <t>role</t>
-        </is>
-      </c>
-      <c r="C241" t="inlineStr">
-        <is>
-          <t>specifically dependent continuant</t>
-        </is>
-      </c>
-      <c r="D241" t="inlineStr">
-        <is>
-          <t>b is a role means: b is a realizable entity and b exists because there is some single bearer that is in some special physical, social, or institutional set of circumstances in which this bearer does not have to beand b is not such that, if it ceases to exist, then the physical make-up of the bearer is thereby changed.</t>
-        </is>
-      </c>
-      <c r="E241" t="inlineStr"/>
-      <c r="F241" t="inlineStr"/>
-      <c r="G241" t="inlineStr"/>
-      <c r="H241" t="inlineStr"/>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050266</t>
-        </is>
-      </c>
-      <c r="B242" s="3" t="inlineStr">
-        <is>
-          <t>ruminating</t>
-        </is>
-      </c>
-      <c r="C242" s="3" t="inlineStr">
-        <is>
-          <t>thinking</t>
-        </is>
-      </c>
-      <c r="D242" s="3" t="inlineStr">
-        <is>
-          <t>Thinking that is about negative experiences and feelings, and repeated.</t>
-        </is>
-      </c>
-      <c r="E242" s="3" t="inlineStr"/>
-      <c r="F242" s="3" t="inlineStr"/>
-      <c r="G242" s="3" t="inlineStr"/>
-      <c r="H242" s="3" t="inlineStr"/>
-      <c r="I242" s="3" t="inlineStr"/>
-      <c r="J242" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="K242" s="3" t="inlineStr"/>
-      <c r="L242" s="3" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MFOEM:000056 </t>
-        </is>
-      </c>
-      <c r="B243" t="inlineStr">
-        <is>
-          <t>sadness</t>
-        </is>
-      </c>
-      <c r="C243" t="inlineStr">
-        <is>
-          <t>emotion process</t>
-        </is>
-      </c>
-      <c r="D243" t="inlineStr">
-        <is>
-          <t>A negative emotion felt when an event is appraised as unpleasant and resulting in loss or failure.</t>
-        </is>
-      </c>
-      <c r="E243" t="inlineStr"/>
-      <c r="F243" t="inlineStr"/>
-      <c r="G243" t="inlineStr"/>
-      <c r="H243" t="inlineStr"/>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050236</t>
-        </is>
-      </c>
-      <c r="B244" s="3" t="inlineStr">
-        <is>
-          <t>self-binding</t>
-        </is>
-      </c>
-      <c r="C244" s="3" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D244" s="3" t="inlineStr">
-        <is>
-          <t>A mental process that involves creating adverse consequences for oneself if one does not stick to an intended course of action.</t>
-        </is>
-      </c>
-      <c r="E244" s="3" t="inlineStr"/>
-      <c r="F244" s="3" t="inlineStr">
-        <is>
-          <t>Pre-commitment</t>
-        </is>
-      </c>
-      <c r="G244" s="3" t="inlineStr"/>
-      <c r="H244" s="3" t="inlineStr"/>
-      <c r="I244" s="3" t="inlineStr"/>
-      <c r="J244" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="K244" s="3" t="inlineStr"/>
-      <c r="L244" s="3" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="4" t="inlineStr">
-        <is>
-          <t>BCIO:006071</t>
-        </is>
-      </c>
-      <c r="B245" s="4" t="inlineStr">
-        <is>
-          <t>self-concept</t>
-        </is>
-      </c>
-      <c r="C245" s="4" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
-      <c r="D245" s="4" t="inlineStr">
-        <is>
-          <t>A mental disposition to represent oneself as having particular qualities and characteristics.</t>
-        </is>
-      </c>
-      <c r="E245" s="4" t="inlineStr"/>
-      <c r="F245" s="4" t="inlineStr"/>
-      <c r="G245" s="4" t="inlineStr"/>
-      <c r="H245" s="4" t="inlineStr"/>
-      <c r="I245" s="4" t="inlineStr"/>
-      <c r="J245" s="4" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="K245" s="4" t="inlineStr"/>
-      <c r="L245" s="4" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="2" t="inlineStr">
+      <c r="A241" s="2" t="inlineStr">
         <is>
           <t>BCIO:006154</t>
         </is>
       </c>
-      <c r="B246" s="2" t="inlineStr">
+      <c r="B241" s="2" t="inlineStr">
         <is>
           <t>self-efficacy belief for a behaviour</t>
         </is>
       </c>
-      <c r="C246" s="2" t="inlineStr">
+      <c r="C241" s="2" t="inlineStr">
         <is>
           <t>belief</t>
         </is>
       </c>
-      <c r="D246" s="2" t="inlineStr">
+      <c r="D241" s="2" t="inlineStr">
         <is>
           <t>A belief about one's capabilities to organise and execute a behaviour.</t>
         </is>
       </c>
-      <c r="E246" s="2" t="inlineStr"/>
-      <c r="F246" s="2" t="inlineStr"/>
-      <c r="G246" s="2" t="inlineStr"/>
-      <c r="H246" s="2" t="inlineStr">
+      <c r="E241" s="2" t="inlineStr"/>
+      <c r="F241" s="2" t="inlineStr"/>
+      <c r="G241" s="2" t="inlineStr"/>
+      <c r="H241" s="2" t="inlineStr">
         <is>
           <t>The phrase 'to organize' refers to the ability to organize mental processes and sequences of actions.
 'self-efficacy belief for a behaviour' is part of 'self-efficacy belief for a behaviour and its associated outcomes.' However, the latter also includes a belief about the outcomes associated with behaviour.</t>
         </is>
       </c>
-      <c r="I246" s="2" t="inlineStr"/>
-      <c r="J246" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K246" s="2" t="inlineStr"/>
-      <c r="L246" s="2" t="inlineStr"/>
+      <c r="I241" s="2" t="inlineStr"/>
+      <c r="J241" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K241" s="2" t="inlineStr"/>
+      <c r="L241" s="2" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006043</t>
+        </is>
+      </c>
+      <c r="B242" s="2" t="inlineStr">
+        <is>
+          <t>self-efficacy belief for a behaviour and its associated outcomes</t>
+        </is>
+      </c>
+      <c r="C242" s="2" t="inlineStr">
+        <is>
+          <t>belief</t>
+        </is>
+      </c>
+      <c r="D242" s="2" t="inlineStr">
+        <is>
+          <t>A belief about one's capabilities to organise and execute a behaviour and achieve the outcomes associated with this behaviour.</t>
+        </is>
+      </c>
+      <c r="E242" s="2" t="inlineStr"/>
+      <c r="F242" s="2" t="inlineStr"/>
+      <c r="G242" s="2" t="inlineStr"/>
+      <c r="H242" s="2" t="inlineStr">
+        <is>
+          <t>The phrase 'to organize' refers to the ability to organize mental processes and sequences of actions.
+'self-efficacy belief for a behaviour' is part of 'self-efficacy belief for a behaviour and its associated outcomes.' However, the latter also includes a belief about the outcomes associated with behaviour.</t>
+        </is>
+      </c>
+      <c r="I242" s="2" t="inlineStr"/>
+      <c r="J242" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K242" s="2" t="inlineStr"/>
+      <c r="L242" s="2" t="inlineStr"/>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006137</t>
+        </is>
+      </c>
+      <c r="B243" s="2" t="inlineStr">
+        <is>
+          <t>self-monitoring</t>
+        </is>
+      </c>
+      <c r="C243" s="2" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D243" s="2" t="inlineStr">
+        <is>
+          <t>A mental process in which one observes one's own behaviour or mental processes.</t>
+        </is>
+      </c>
+      <c r="E243" s="2" t="inlineStr"/>
+      <c r="F243" s="2" t="inlineStr"/>
+      <c r="G243" s="2" t="inlineStr"/>
+      <c r="H243" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">There are behaviour change techniques labelled 'Self-monitoring of behaviour' and 'Self-monitoring of outcome of behaviour'. These are about establishing a method for monitoring states. In contrast, the MoA is the mental process of monitoring.
+'Self-monitoring of behaviour' is defined as 'Instruct self recording of specified behaviour/s (with or without associated thoughts, emotions, situations) as part of a behaviour change strategy ' (Michie et al., 2013).
+'Self-monitoring of outcome of behaviour' is defined "Establish a method for the person to monitor and record their behavior(s) as part of a behavior change strategy"  (Michie et al., 2013). </t>
+        </is>
+      </c>
+      <c r="I243" s="2" t="inlineStr"/>
+      <c r="J243" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K243" s="2" t="inlineStr"/>
+      <c r="L243" s="2" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006005</t>
+        </is>
+      </c>
+      <c r="B244" s="2" t="inlineStr">
+        <is>
+          <t>self-regulation capability</t>
+        </is>
+      </c>
+      <c r="C244" s="2" t="inlineStr">
+        <is>
+          <t>mental capability</t>
+        </is>
+      </c>
+      <c r="D244" s="2" t="inlineStr">
+        <is>
+          <t>A mental capability that involves processes that modulate the frequency, rate or extent of a response to external or internal stimuli and that are instigated by the person themselves.</t>
+        </is>
+      </c>
+      <c r="E244" s="2" t="inlineStr"/>
+      <c r="F244" s="2" t="inlineStr"/>
+      <c r="G244" s="2" t="inlineStr"/>
+      <c r="H244" s="2" t="inlineStr">
+        <is>
+          <t>'Modulate’ refers to ‘modifying or controlling influence on or change the strength’ and involves processes</t>
+        </is>
+      </c>
+      <c r="I244" s="2" t="inlineStr"/>
+      <c r="J244" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K244" s="2" t="inlineStr"/>
+      <c r="L244" s="2" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006103</t>
+        </is>
+      </c>
+      <c r="B245" s="2" t="inlineStr">
+        <is>
+          <t>self-regulation of behaviour</t>
+        </is>
+      </c>
+      <c r="C245" s="2" t="inlineStr">
+        <is>
+          <t>bodily process</t>
+        </is>
+      </c>
+      <c r="D245" s="2" t="inlineStr">
+        <is>
+          <t>A bodily process that modulates the frequency, rate or extent of behaviour, the specific actions or reactions of a person in response to external or internal stimuli and that is instigated by the person.</t>
+        </is>
+      </c>
+      <c r="E245" s="2" t="inlineStr"/>
+      <c r="F245" s="2" t="inlineStr"/>
+      <c r="G245" s="2" t="inlineStr"/>
+      <c r="H245" s="2" t="inlineStr"/>
+      <c r="I245" s="2" t="inlineStr"/>
+      <c r="J245" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K245" s="2" t="inlineStr"/>
+      <c r="L245" s="2" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050222</t>
+        </is>
+      </c>
+      <c r="B246" s="3" t="inlineStr">
+        <is>
+          <t>self-regulatory skill</t>
+        </is>
+      </c>
+      <c r="C246" s="3" t="inlineStr">
+        <is>
+          <t>self-regulation capability</t>
+        </is>
+      </c>
+      <c r="D246" s="3" t="inlineStr">
+        <is>
+          <t>A self-regulation capability that is acquired through training or practice.</t>
+        </is>
+      </c>
+      <c r="E246" s="3" t="inlineStr"/>
+      <c r="F246" s="3" t="inlineStr"/>
+      <c r="G246" s="3" t="inlineStr"/>
+      <c r="H246" s="3" t="inlineStr"/>
+      <c r="I246" s="3" t="inlineStr"/>
+      <c r="J246" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="K246" s="3" t="inlineStr"/>
+      <c r="L246" s="3" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006043</t>
+          <t>BCIO:006106</t>
         </is>
       </c>
       <c r="B247" s="2" t="inlineStr">
         <is>
-          <t>self-efficacy belief for a behaviour and its associated outcomes</t>
+          <t>self-reinforcing self-regulation</t>
         </is>
       </c>
       <c r="C247" s="2" t="inlineStr">
         <is>
-          <t>belief</t>
+          <t>self-regulation of behaviour</t>
         </is>
       </c>
       <c r="D247" s="2" t="inlineStr">
         <is>
-          <t>A belief about one's capabilities to organise and execute a behaviour and achieve the outcomes associated with this behaviour.</t>
+          <t>Self-regulation of behaviour through self-administering a reward for performing an intended behaviour.</t>
         </is>
       </c>
       <c r="E247" s="2" t="inlineStr"/>
       <c r="F247" s="2" t="inlineStr"/>
       <c r="G247" s="2" t="inlineStr"/>
-      <c r="H247" s="2" t="inlineStr">
-        <is>
-          <t>The phrase 'to organize' refers to the ability to organize mental processes and sequences of actions.
-'self-efficacy belief for a behaviour' is part of 'self-efficacy belief for a behaviour and its associated outcomes.' However, the latter also includes a belief about the outcomes associated with behaviour.</t>
-        </is>
-      </c>
+      <c r="H247" s="2" t="inlineStr"/>
       <c r="I247" s="2" t="inlineStr"/>
       <c r="J247" s="2" t="inlineStr">
         <is>
@@ -9267,34 +9277,28 @@
     <row r="248">
       <c r="A248" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006137</t>
+          <t>BCIO:006128</t>
         </is>
       </c>
       <c r="B248" s="2" t="inlineStr">
         <is>
-          <t>self-monitoring</t>
+          <t>semantic memory</t>
         </is>
       </c>
       <c r="C248" s="2" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>memory</t>
         </is>
       </c>
       <c r="D248" s="2" t="inlineStr">
         <is>
-          <t>A mental process in which one observes one's own behaviour or mental processes.</t>
+          <t>A memory process that deals with the receipt, storage, retrieval and modification of information associated with meanings, understandings or conceptual facts about the world.</t>
         </is>
       </c>
       <c r="E248" s="2" t="inlineStr"/>
       <c r="F248" s="2" t="inlineStr"/>
       <c r="G248" s="2" t="inlineStr"/>
-      <c r="H248" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">There are behaviour change techniques labelled 'Self-monitoring of behaviour' and 'Self-monitoring of outcome of behaviour'. These are about establishing a method for monitoring states. In contrast, the MoA is the mental process of monitoring.
-'Self-monitoring of behaviour' is defined as 'Instruct self recording of specified behaviour/s (with or without associated thoughts, emotions, situations) as part of a behaviour change strategy ' (Michie et al., 2013).
-'Self-monitoring of outcome of behaviour' is defined "Establish a method for the person to monitor and record their behavior(s) as part of a behavior change strategy"  (Michie et al., 2013). </t>
-        </is>
-      </c>
+      <c r="H248" s="2" t="inlineStr"/>
       <c r="I248" s="2" t="inlineStr"/>
       <c r="J248" s="2" t="inlineStr">
         <is>
@@ -9305,130 +9309,126 @@
       <c r="L248" s="2" t="inlineStr"/>
     </row>
     <row r="249">
-      <c r="A249" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006005</t>
-        </is>
-      </c>
-      <c r="B249" s="2" t="inlineStr">
-        <is>
-          <t>self-regulation capability</t>
-        </is>
-      </c>
-      <c r="C249" s="2" t="inlineStr">
-        <is>
-          <t>mental capability</t>
-        </is>
-      </c>
-      <c r="D249" s="2" t="inlineStr">
-        <is>
-          <t>A mental capability that involves processes that modulate the frequency, rate or extent of a response to external or internal stimuli and that are instigated by the person themselves.</t>
-        </is>
-      </c>
-      <c r="E249" s="2" t="inlineStr"/>
-      <c r="F249" s="2" t="inlineStr"/>
-      <c r="G249" s="2" t="inlineStr"/>
-      <c r="H249" s="2" t="inlineStr">
-        <is>
-          <t>'Modulate’ refers to ‘modifying or controlling influence on or change the strength’ and involves processes</t>
-        </is>
-      </c>
-      <c r="I249" s="2" t="inlineStr"/>
-      <c r="J249" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K249" s="2" t="inlineStr"/>
-      <c r="L249" s="2" t="inlineStr"/>
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>GO:0046960</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>sensitization</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>non-associative learning</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>An increase in a behavioural response to a repeated stimulus.</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr"/>
+      <c r="F249" t="inlineStr"/>
+      <c r="G249" t="inlineStr"/>
+      <c r="H249" t="inlineStr"/>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr"/>
     </row>
     <row r="250">
-      <c r="A250" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006103</t>
-        </is>
-      </c>
-      <c r="B250" s="2" t="inlineStr">
-        <is>
-          <t>self-regulation of behaviour</t>
-        </is>
-      </c>
-      <c r="C250" s="2" t="inlineStr">
-        <is>
-          <t>bodily process</t>
-        </is>
-      </c>
-      <c r="D250" s="2" t="inlineStr">
-        <is>
-          <t>A bodily process that modulates the frequency, rate or extent of behaviour, the specific actions or reactions of a person in response to external or internal stimuli and that is instigated by the person.</t>
-        </is>
-      </c>
-      <c r="E250" s="2" t="inlineStr"/>
-      <c r="F250" s="2" t="inlineStr"/>
-      <c r="G250" s="2" t="inlineStr"/>
-      <c r="H250" s="2" t="inlineStr"/>
-      <c r="I250" s="2" t="inlineStr"/>
-      <c r="J250" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K250" s="2" t="inlineStr"/>
-      <c r="L250" s="2" t="inlineStr"/>
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>MFOEM:000040</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>sexual pleasure</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>pleasure</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>Pleasure that is experienced as a result of sexual activities.</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr"/>
+      <c r="F250" t="inlineStr"/>
+      <c r="G250" t="inlineStr"/>
+      <c r="H250" t="inlineStr"/>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr"/>
     </row>
     <row r="251">
-      <c r="A251" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050222</t>
-        </is>
-      </c>
-      <c r="B251" s="3" t="inlineStr">
-        <is>
-          <t>self-regulatory skill</t>
-        </is>
-      </c>
-      <c r="C251" s="3" t="inlineStr">
-        <is>
-          <t>self-regulation capability</t>
-        </is>
-      </c>
-      <c r="D251" s="3" t="inlineStr">
-        <is>
-          <t>A self-regulation capability that is acquired through training or practice.</t>
-        </is>
-      </c>
-      <c r="E251" s="3" t="inlineStr"/>
-      <c r="F251" s="3" t="inlineStr"/>
-      <c r="G251" s="3" t="inlineStr"/>
-      <c r="H251" s="3" t="inlineStr"/>
-      <c r="I251" s="3" t="inlineStr"/>
-      <c r="J251" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="K251" s="3" t="inlineStr"/>
-      <c r="L251" s="3" t="inlineStr"/>
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>MFOEM:000055</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>shame</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>emotion process</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>A negative emotion that is distressing and occurs when one appraises one's behaviour or circumstance as wrong, dishonourable, immodest or indecorous.  [No definition in Emotion Ontology]</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr"/>
+      <c r="F251" t="inlineStr"/>
+      <c r="G251" t="inlineStr"/>
+      <c r="H251" t="inlineStr"/>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006106</t>
+          <t>BCIO:006044</t>
         </is>
       </c>
       <c r="B252" s="2" t="inlineStr">
         <is>
-          <t>self-reinforcing self-regulation</t>
+          <t>situational self-efficacy belief for a behaviour</t>
         </is>
       </c>
       <c r="C252" s="2" t="inlineStr">
         <is>
-          <t>self-regulation of behaviour</t>
+          <t>self-efficacy belief for a behaviour</t>
         </is>
       </c>
       <c r="D252" s="2" t="inlineStr">
         <is>
-          <t>Self-regulation of behaviour through self-administering a reward for performing an intended behaviour.</t>
+          <t>Self-efficacy belief for a behaviour when a particular situation that may affect the behaviour is encountered.</t>
         </is>
       </c>
       <c r="E252" s="2" t="inlineStr"/>
@@ -9447,22 +9447,22 @@
     <row r="253">
       <c r="A253" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006128</t>
+          <t>BCIO:006014</t>
         </is>
       </c>
       <c r="B253" s="2" t="inlineStr">
         <is>
-          <t>semantic memory</t>
+          <t>social alienation</t>
         </is>
       </c>
       <c r="C253" s="2" t="inlineStr">
         <is>
-          <t>memory</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D253" s="2" t="inlineStr">
         <is>
-          <t>A memory process that deals with the receipt, storage, retrieval and modification of information associated with meanings, understandings or conceptual facts about the world.</t>
+          <t>A mental disposition to perceive or experience oneself as isolated from and not meaningfully involved in social groups.</t>
         </is>
       </c>
       <c r="E253" s="2" t="inlineStr"/>
@@ -9479,126 +9479,126 @@
       <c r="L253" s="2" t="inlineStr"/>
     </row>
     <row r="254">
-      <c r="A254" t="inlineStr">
-        <is>
-          <t>GO:0046960</t>
-        </is>
-      </c>
-      <c r="B254" t="inlineStr">
-        <is>
-          <t>sensitization</t>
-        </is>
-      </c>
-      <c r="C254" t="inlineStr">
-        <is>
-          <t>non-associative learning</t>
-        </is>
-      </c>
-      <c r="D254" t="inlineStr">
-        <is>
-          <t>An increase in a behavioural response to a repeated stimulus.</t>
-        </is>
-      </c>
-      <c r="E254" t="inlineStr"/>
-      <c r="F254" t="inlineStr"/>
-      <c r="G254" t="inlineStr"/>
-      <c r="H254" t="inlineStr"/>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
+      <c r="A254" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006011</t>
+        </is>
+      </c>
+      <c r="B254" s="2" t="inlineStr">
+        <is>
+          <t>social behavioural capability</t>
+        </is>
+      </c>
+      <c r="C254" s="2" t="inlineStr">
+        <is>
+          <t>behavioural capability</t>
+        </is>
+      </c>
+      <c r="D254" s="2" t="inlineStr">
+        <is>
+          <t>A personal capability includes interpersonal behaviour in its realisation.</t>
+        </is>
+      </c>
+      <c r="E254" s="2" t="inlineStr"/>
+      <c r="F254" s="2" t="inlineStr"/>
+      <c r="G254" s="2" t="inlineStr"/>
+      <c r="H254" s="2" t="inlineStr"/>
+      <c r="I254" s="2" t="inlineStr"/>
+      <c r="J254" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K254" s="2" t="inlineStr"/>
+      <c r="L254" s="2" t="inlineStr"/>
     </row>
     <row r="255">
-      <c r="A255" t="inlineStr">
-        <is>
-          <t>MFOEM:000040</t>
-        </is>
-      </c>
-      <c r="B255" t="inlineStr">
-        <is>
-          <t>sexual pleasure</t>
-        </is>
-      </c>
-      <c r="C255" t="inlineStr">
-        <is>
-          <t>pleasure</t>
-        </is>
-      </c>
-      <c r="D255" t="inlineStr">
-        <is>
-          <t>Pleasure that is experienced as a result of sexual activities.</t>
-        </is>
-      </c>
-      <c r="E255" t="inlineStr"/>
-      <c r="F255" t="inlineStr"/>
-      <c r="G255" t="inlineStr"/>
-      <c r="H255" t="inlineStr"/>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
+      <c r="A255" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006090</t>
+        </is>
+      </c>
+      <c r="B255" s="2" t="inlineStr">
+        <is>
+          <t>social behavioural opportunity</t>
+        </is>
+      </c>
+      <c r="C255" s="2" t="inlineStr">
+        <is>
+          <t>behavioural opportunity</t>
+        </is>
+      </c>
+      <c r="D255" s="2" t="inlineStr">
+        <is>
+          <t>A behavioural opportunity that involves the social environmental system.</t>
+        </is>
+      </c>
+      <c r="E255" s="2" t="inlineStr"/>
+      <c r="F255" s="2" t="inlineStr"/>
+      <c r="G255" s="2" t="inlineStr"/>
+      <c r="H255" s="2" t="inlineStr"/>
+      <c r="I255" s="2" t="inlineStr"/>
+      <c r="J255" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K255" s="2" t="inlineStr"/>
+      <c r="L255" s="2" t="inlineStr"/>
     </row>
     <row r="256">
-      <c r="A256" t="inlineStr">
-        <is>
-          <t>MFOEM:000055</t>
-        </is>
-      </c>
-      <c r="B256" t="inlineStr">
-        <is>
-          <t>shame</t>
-        </is>
-      </c>
-      <c r="C256" t="inlineStr">
-        <is>
-          <t>emotion process</t>
-        </is>
-      </c>
-      <c r="D256" t="inlineStr">
-        <is>
-          <t>A negative emotion that is distressing and occurs when one appraises one's behaviour or circumstance as wrong, dishonourable, immodest or indecorous.  [No definition in Emotion Ontology]</t>
-        </is>
-      </c>
-      <c r="E256" t="inlineStr"/>
-      <c r="F256" t="inlineStr"/>
-      <c r="G256" t="inlineStr"/>
-      <c r="H256" t="inlineStr"/>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
+      <c r="A256" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006118</t>
+        </is>
+      </c>
+      <c r="B256" s="2" t="inlineStr">
+        <is>
+          <t>social comparison process</t>
+        </is>
+      </c>
+      <c r="C256" s="2" t="inlineStr">
+        <is>
+          <t>judging</t>
+        </is>
+      </c>
+      <c r="D256" s="2" t="inlineStr">
+        <is>
+          <t>Judging oneself or one's social group in relation to the qualities or characteristics of another person or social group.</t>
+        </is>
+      </c>
+      <c r="E256" s="2" t="inlineStr"/>
+      <c r="F256" s="2" t="inlineStr"/>
+      <c r="G256" s="2" t="inlineStr"/>
+      <c r="H256" s="2" t="inlineStr"/>
+      <c r="I256" s="2" t="inlineStr"/>
+      <c r="J256" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K256" s="2" t="inlineStr"/>
+      <c r="L256" s="2" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006044</t>
+          <t>BCIO:006074</t>
         </is>
       </c>
       <c r="B257" s="2" t="inlineStr">
         <is>
-          <t>situational self-efficacy belief for a behaviour</t>
+          <t>social embeddedness</t>
         </is>
       </c>
       <c r="C257" s="2" t="inlineStr">
         <is>
-          <t>self-efficacy belief for a behaviour</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D257" s="2" t="inlineStr">
         <is>
-          <t>Self-efficacy belief for a behaviour when a particular situation that may affect the behaviour is encountered.</t>
+          <t>A mental disposition to experience a feeling of being connected by social attachments.</t>
         </is>
       </c>
       <c r="E257" s="2" t="inlineStr"/>
@@ -9617,22 +9617,22 @@
     <row r="258">
       <c r="A258" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006014</t>
+          <t>BCIO:006001</t>
         </is>
       </c>
       <c r="B258" s="2" t="inlineStr">
         <is>
-          <t>social alienation</t>
+          <t>social environmental system</t>
         </is>
       </c>
       <c r="C258" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>environmental system</t>
         </is>
       </c>
       <c r="D258" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to perceive or experience oneself as isolated from and not meaningfully involved in social groups.</t>
+          <t>An environmental system that consists of people, their pets, social and cultural institutions and processes that influence the life of people and social groups.</t>
         </is>
       </c>
       <c r="E258" s="2" t="inlineStr"/>
@@ -9651,28 +9651,32 @@
     <row r="259">
       <c r="A259" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006011</t>
+          <t>BCIO:006051</t>
         </is>
       </c>
       <c r="B259" s="2" t="inlineStr">
         <is>
-          <t>social behavioural capability</t>
+          <t>social identity</t>
         </is>
       </c>
       <c r="C259" s="2" t="inlineStr">
         <is>
-          <t>behavioural capability</t>
+          <t>identity</t>
         </is>
       </c>
       <c r="D259" s="2" t="inlineStr">
         <is>
-          <t>A personal capability includes interpersonal behaviour in its realisation.</t>
+          <t>A self-identity in which the representation involves a relation between the identity holder and another person or group.</t>
         </is>
       </c>
       <c r="E259" s="2" t="inlineStr"/>
       <c r="F259" s="2" t="inlineStr"/>
       <c r="G259" s="2" t="inlineStr"/>
-      <c r="H259" s="2" t="inlineStr"/>
+      <c r="H259" s="2" t="inlineStr">
+        <is>
+          <t>'Social identity' can involve a sense of one's rank or status in reference to other groups.</t>
+        </is>
+      </c>
       <c r="I259" s="2" t="inlineStr"/>
       <c r="J259" s="2" t="inlineStr">
         <is>
@@ -9685,27 +9689,31 @@
     <row r="260">
       <c r="A260" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006090</t>
+          <t>BCIO:006099</t>
         </is>
       </c>
       <c r="B260" s="2" t="inlineStr">
         <is>
-          <t>social behavioural opportunity</t>
+          <t>social influence behaviour</t>
         </is>
       </c>
       <c r="C260" s="2" t="inlineStr">
         <is>
-          <t>behavioural opportunity</t>
+          <t>inter-personal behaviour</t>
         </is>
       </c>
       <c r="D260" s="2" t="inlineStr">
         <is>
-          <t>A behavioural opportunity that involves the social environmental system.</t>
+          <t>An interpersonal behaviour where a person exerts an influence on the behaviour of another.</t>
         </is>
       </c>
       <c r="E260" s="2" t="inlineStr"/>
       <c r="F260" s="2" t="inlineStr"/>
-      <c r="G260" s="2" t="inlineStr"/>
+      <c r="G260" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Social support from social network. </t>
+        </is>
+      </c>
       <c r="H260" s="2" t="inlineStr"/>
       <c r="I260" s="2" t="inlineStr"/>
       <c r="J260" s="2" t="inlineStr">
@@ -9719,28 +9727,32 @@
     <row r="261">
       <c r="A261" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006118</t>
+          <t>BCIO:006082</t>
         </is>
       </c>
       <c r="B261" s="2" t="inlineStr">
         <is>
-          <t>social comparison process</t>
+          <t>social role</t>
         </is>
       </c>
       <c r="C261" s="2" t="inlineStr">
         <is>
-          <t>judging</t>
+          <t>personal  role</t>
         </is>
       </c>
       <c r="D261" s="2" t="inlineStr">
         <is>
-          <t>Judging oneself or one's social group in relation to the qualities or characteristics of another person or social group.</t>
+          <t>A personal role that is realised in human social processes.</t>
         </is>
       </c>
       <c r="E261" s="2" t="inlineStr"/>
       <c r="F261" s="2" t="inlineStr"/>
       <c r="G261" s="2" t="inlineStr"/>
-      <c r="H261" s="2" t="inlineStr"/>
+      <c r="H261" s="2" t="inlineStr">
+        <is>
+          <t>A role can be assigned without being realised. A person realises a role by doing something.</t>
+        </is>
+      </c>
       <c r="I261" s="2" t="inlineStr"/>
       <c r="J261" s="2" t="inlineStr">
         <is>
@@ -9753,22 +9765,22 @@
     <row r="262">
       <c r="A262" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006074</t>
+          <t>BCIO:006012</t>
         </is>
       </c>
       <c r="B262" s="2" t="inlineStr">
         <is>
-          <t>social embeddedness</t>
+          <t>social skill</t>
         </is>
       </c>
       <c r="C262" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>social behavioural capability</t>
         </is>
       </c>
       <c r="D262" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to experience a feeling of being connected by social attachments.</t>
+          <t>A social capability acquired through training or practice.</t>
         </is>
       </c>
       <c r="E262" s="2" t="inlineStr"/>
@@ -9787,28 +9799,32 @@
     <row r="263">
       <c r="A263" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006001</t>
+          <t>BCIO:006072</t>
         </is>
       </c>
       <c r="B263" s="2" t="inlineStr">
         <is>
-          <t>social environmental system</t>
+          <t>stereotype</t>
         </is>
       </c>
       <c r="C263" s="2" t="inlineStr">
         <is>
-          <t>environmental system</t>
+          <t>cognitive schema</t>
         </is>
       </c>
       <c r="D263" s="2" t="inlineStr">
         <is>
-          <t>An environmental system that consists of people, their pets, social and cultural institutions and processes that influence the life of people and social groups.</t>
+          <t>A cognitive schema that when activated, guides perception, thought, emotion or behaviour toward members of a social group as having certain shared attributes, by virtue of their group membership.</t>
         </is>
       </c>
       <c r="E263" s="2" t="inlineStr"/>
       <c r="F263" s="2" t="inlineStr"/>
       <c r="G263" s="2" t="inlineStr"/>
-      <c r="H263" s="2" t="inlineStr"/>
+      <c r="H263" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The attributes of members are not definitional. For instance, a psychologist studying psychology is not a stereotype. </t>
+        </is>
+      </c>
       <c r="I263" s="2" t="inlineStr"/>
       <c r="J263" s="2" t="inlineStr">
         <is>
@@ -9819,71 +9835,73 @@
       <c r="L263" s="2" t="inlineStr"/>
     </row>
     <row r="264">
-      <c r="A264" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006051</t>
-        </is>
-      </c>
-      <c r="B264" s="2" t="inlineStr">
-        <is>
-          <t>social identity</t>
-        </is>
-      </c>
-      <c r="C264" s="2" t="inlineStr">
-        <is>
-          <t>identity</t>
-        </is>
-      </c>
-      <c r="D264" s="2" t="inlineStr">
-        <is>
-          <t>A self-identity in which the representation involves a relation between the identity holder and another person or group.</t>
-        </is>
-      </c>
-      <c r="E264" s="2" t="inlineStr"/>
-      <c r="F264" s="2" t="inlineStr"/>
-      <c r="G264" s="2" t="inlineStr"/>
-      <c r="H264" s="2" t="inlineStr">
-        <is>
-          <t>'Social identity' can involve a sense of one's rank or status in reference to other groups.</t>
-        </is>
-      </c>
-      <c r="I264" s="2" t="inlineStr"/>
-      <c r="J264" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K264" s="2" t="inlineStr"/>
-      <c r="L264" s="2" t="inlineStr"/>
+      <c r="A264" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MFOEM:000006 </t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>subjective affective feeling</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>affective process</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>An affective process that involves the experience of internal or external sensory stimuli.</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr"/>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>Feeling calm; hunger; pain</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr"/>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>'Subjective affective feeling can have greater or weaker physiological or mental components. The bodily process that are experienced will usually involve some mental process.
+Bodily sensation and the experiences of emotions (e.g., feeling calm) would both qualify as examples of 'subjective affective feeling'.
+As a subclass of 'affective process', subjective affective feelings have valence. Valence refers to the 'the subjective value of an event, object, person, or other entity in the life space of the individual' (https://dictionary.apa.org/valence). Valence ranges from negative to positive.</t>
+        </is>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006099</t>
+          <t>BCIO:006075</t>
         </is>
       </c>
       <c r="B265" s="2" t="inlineStr">
         <is>
-          <t>social influence behaviour</t>
+          <t>subjective need</t>
         </is>
       </c>
       <c r="C265" s="2" t="inlineStr">
         <is>
-          <t>inter-personal behaviour</t>
+          <t>subjective affective feeling</t>
         </is>
       </c>
       <c r="D265" s="2" t="inlineStr">
         <is>
-          <t>An interpersonal behaviour where a person exerts an influence on the behaviour of another.</t>
+          <t>A subjective affective feeling that involves experiencing anticipated relief or continued comfort by obtaining or maintaining a particular state.</t>
         </is>
       </c>
       <c r="E265" s="2" t="inlineStr"/>
       <c r="F265" s="2" t="inlineStr"/>
-      <c r="G265" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Social support from social network. </t>
-        </is>
-      </c>
+      <c r="G265" s="2" t="inlineStr"/>
       <c r="H265" s="2" t="inlineStr"/>
       <c r="I265" s="2" t="inlineStr"/>
       <c r="J265" s="2" t="inlineStr">
@@ -9895,96 +9913,92 @@
       <c r="L265" s="2" t="inlineStr"/>
     </row>
     <row r="266">
-      <c r="A266" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006082</t>
-        </is>
-      </c>
-      <c r="B266" s="2" t="inlineStr">
-        <is>
-          <t>social role</t>
-        </is>
-      </c>
-      <c r="C266" s="2" t="inlineStr">
-        <is>
-          <t>personal  role</t>
-        </is>
-      </c>
-      <c r="D266" s="2" t="inlineStr">
-        <is>
-          <t>A personal role that is realised in human social processes.</t>
-        </is>
-      </c>
-      <c r="E266" s="2" t="inlineStr"/>
-      <c r="F266" s="2" t="inlineStr"/>
-      <c r="G266" s="2" t="inlineStr"/>
-      <c r="H266" s="2" t="inlineStr">
-        <is>
-          <t>A role can be assigned without being realised. A person realises a role by doing something.</t>
-        </is>
-      </c>
-      <c r="I266" s="2" t="inlineStr"/>
-      <c r="J266" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K266" s="2" t="inlineStr"/>
-      <c r="L266" s="2" t="inlineStr"/>
+      <c r="A266" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MF:0000088 </t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>subliminal process</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>A mental process that involves neuronal activity in response to a sensory stimulus but which is not the subject of consciousness.</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr"/>
+      <c r="F266" t="inlineStr"/>
+      <c r="G266" t="inlineStr"/>
+      <c r="H266" t="inlineStr"/>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
-      <c r="A267" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006012</t>
-        </is>
-      </c>
-      <c r="B267" s="2" t="inlineStr">
-        <is>
-          <t>social skill</t>
-        </is>
-      </c>
-      <c r="C267" s="2" t="inlineStr">
-        <is>
-          <t>social behavioural capability</t>
-        </is>
-      </c>
-      <c r="D267" s="2" t="inlineStr">
-        <is>
-          <t>A social capability acquired through training or practice.</t>
-        </is>
-      </c>
-      <c r="E267" s="2" t="inlineStr"/>
-      <c r="F267" s="2" t="inlineStr"/>
-      <c r="G267" s="2" t="inlineStr"/>
-      <c r="H267" s="2" t="inlineStr"/>
-      <c r="I267" s="2" t="inlineStr"/>
-      <c r="J267" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K267" s="2" t="inlineStr"/>
-      <c r="L267" s="2" t="inlineStr"/>
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>MFOEM:000032</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>surprise</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>emotion process</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t xml:space="preserve">An emotion caused by encountering unexpected events. </t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr"/>
+      <c r="F267" t="inlineStr"/>
+      <c r="G267" t="inlineStr"/>
+      <c r="H267" t="inlineStr"/>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>BFO:0000020</t>
+          <t>RO:0002577</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>specifically dependent continuant</t>
+          <t>system</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>entity</t>
+          <t>material entity</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>b is a specifically dependent continuant = Def. b is a continuant and there is some independent continuant c which is not a spatial region and which is such that b s-depends_on c at every time t during the course of b’s existence. (axiom label in BFO2 Reference: [050-003])</t>
+          <t>A material entity consisting of multiple components that are causally integrated.</t>
         </is>
       </c>
       <c r="E268" t="inlineStr"/>
@@ -10003,32 +10017,32 @@
     <row r="269">
       <c r="A269" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006072</t>
+          <t>BCIO:006163</t>
         </is>
       </c>
       <c r="B269" s="2" t="inlineStr">
         <is>
-          <t>stereotype</t>
+          <t>targeted mental distancing</t>
         </is>
       </c>
       <c r="C269" s="2" t="inlineStr">
         <is>
-          <t>cognitive schema</t>
+          <t>mental distancing</t>
         </is>
       </c>
       <c r="D269" s="2" t="inlineStr">
         <is>
-          <t>A cognitive schema that when activated, guides perception, thought, emotion or behaviour toward members of a social group as having certain shared attributes, by virtue of their group membership.</t>
+          <t>Mental distancing that involves identifying particular immediate thoughts and intentionally detaching from these thoughts.</t>
         </is>
       </c>
       <c r="E269" s="2" t="inlineStr"/>
-      <c r="F269" s="2" t="inlineStr"/>
+      <c r="F269" s="2" t="inlineStr">
+        <is>
+          <t>targeted decentring</t>
+        </is>
+      </c>
       <c r="G269" s="2" t="inlineStr"/>
-      <c r="H269" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The attributes of members are not definitional. For instance, a psychologist studying psychology is not a stereotype. </t>
-        </is>
-      </c>
+      <c r="H269" s="2" t="inlineStr"/>
       <c r="I269" s="2" t="inlineStr"/>
       <c r="J269" s="2" t="inlineStr">
         <is>
@@ -10039,170 +10053,160 @@
       <c r="L269" s="2" t="inlineStr"/>
     </row>
     <row r="270">
-      <c r="A270" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MFOEM:000006 </t>
-        </is>
-      </c>
-      <c r="B270" t="inlineStr">
-        <is>
-          <t>subjective affective feeling</t>
-        </is>
-      </c>
-      <c r="C270" t="inlineStr">
-        <is>
-          <t>affective process</t>
-        </is>
-      </c>
-      <c r="D270" t="inlineStr">
-        <is>
-          <t>An affective process that involves the experience of internal or external sensory stimuli.</t>
-        </is>
-      </c>
-      <c r="E270" t="inlineStr"/>
-      <c r="F270" t="inlineStr">
-        <is>
-          <t>Feeling calm; hunger; pain</t>
-        </is>
-      </c>
-      <c r="G270" t="inlineStr"/>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>'Subjective affective feeling can have greater or weaker physiological or mental components. The bodily process that are experienced will usually involve some mental process.
-Bodily sensation and the experiences of emotions (e.g., feeling calm) would both qualify as examples of 'subjective affective feeling'.
-As a subclass of 'affective process', subjective affective feelings have valence. Valence refers to the 'the subjective value of an event, object, person, or other entity in the life space of the individual' (https://dictionary.apa.org/valence). Valence ranges from negative to positive.</t>
-        </is>
-      </c>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
+      <c r="A270" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006091</t>
+        </is>
+      </c>
+      <c r="B270" s="2" t="inlineStr">
+        <is>
+          <t>temporal behavioural opportunity</t>
+        </is>
+      </c>
+      <c r="C270" s="2" t="inlineStr">
+        <is>
+          <t>physical behavioural opportunity</t>
+        </is>
+      </c>
+      <c r="D270" s="2" t="inlineStr">
+        <is>
+          <t>A physical behavioural opportunity that involves the person having sufficient time or a suitable period.</t>
+        </is>
+      </c>
+      <c r="E270" s="2" t="inlineStr"/>
+      <c r="F270" s="2" t="inlineStr"/>
+      <c r="G270" s="2" t="inlineStr"/>
+      <c r="H270" s="2" t="inlineStr"/>
+      <c r="I270" s="2" t="inlineStr"/>
+      <c r="J270" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K270" s="2" t="inlineStr"/>
+      <c r="L270" s="2" t="inlineStr"/>
     </row>
     <row r="271">
-      <c r="A271" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006075</t>
-        </is>
-      </c>
-      <c r="B271" s="2" t="inlineStr">
-        <is>
-          <t>subjective need</t>
-        </is>
-      </c>
-      <c r="C271" s="2" t="inlineStr">
-        <is>
-          <t>subjective affective feeling</t>
-        </is>
-      </c>
-      <c r="D271" s="2" t="inlineStr">
-        <is>
-          <t>A subjective affective feeling that involves experiencing anticipated relief or continued comfort by obtaining or maintaining a particular state.</t>
-        </is>
-      </c>
-      <c r="E271" s="2" t="inlineStr"/>
-      <c r="F271" s="2" t="inlineStr"/>
-      <c r="G271" s="2" t="inlineStr"/>
-      <c r="H271" s="2" t="inlineStr"/>
-      <c r="I271" s="2" t="inlineStr"/>
-      <c r="J271" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K271" s="2" t="inlineStr"/>
-      <c r="L271" s="2" t="inlineStr"/>
+      <c r="A271" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:006076</t>
+        </is>
+      </c>
+      <c r="B271" s="4" t="inlineStr">
+        <is>
+          <t>temporal orientation</t>
+        </is>
+      </c>
+      <c r="C271" s="4" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="D271" s="4" t="inlineStr">
+        <is>
+          <t>A mental disposition to focus more on present or future outcomes.</t>
+        </is>
+      </c>
+      <c r="E271" s="4" t="inlineStr"/>
+      <c r="F271" s="4" t="inlineStr"/>
+      <c r="G271" s="4" t="inlineStr"/>
+      <c r="H271" s="4" t="inlineStr"/>
+      <c r="I271" s="4" t="inlineStr"/>
+      <c r="J271" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="K271" s="4" t="inlineStr"/>
+      <c r="L271" s="4" t="inlineStr"/>
     </row>
     <row r="272">
-      <c r="A272" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MF:0000088 </t>
-        </is>
-      </c>
-      <c r="B272" t="inlineStr">
-        <is>
-          <t>subliminal process</t>
-        </is>
-      </c>
-      <c r="C272" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D272" t="inlineStr">
-        <is>
-          <t>A mental process that involves neuronal activity in response to a sensory stimulus but which is not the subject of consciousness.</t>
-        </is>
-      </c>
-      <c r="E272" t="inlineStr"/>
-      <c r="F272" t="inlineStr"/>
-      <c r="G272" t="inlineStr"/>
-      <c r="H272" t="inlineStr"/>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
+      <c r="A272" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050230</t>
+        </is>
+      </c>
+      <c r="B272" s="3" t="inlineStr">
+        <is>
+          <t>temporal orientation to the future</t>
+        </is>
+      </c>
+      <c r="C272" s="3" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="D272" s="3" t="inlineStr">
+        <is>
+          <t>A mental disposition to focus more on future than present outcomes.</t>
+        </is>
+      </c>
+      <c r="E272" s="3" t="inlineStr"/>
+      <c r="F272" s="3" t="inlineStr"/>
+      <c r="G272" s="3" t="inlineStr"/>
+      <c r="H272" s="3" t="inlineStr"/>
+      <c r="I272" s="3" t="inlineStr"/>
+      <c r="J272" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="K272" s="3" t="inlineStr"/>
+      <c r="L272" s="3" t="inlineStr"/>
     </row>
     <row r="273">
-      <c r="A273" t="inlineStr">
-        <is>
-          <t>MFOEM:000032</t>
-        </is>
-      </c>
-      <c r="B273" t="inlineStr">
-        <is>
-          <t>surprise</t>
-        </is>
-      </c>
-      <c r="C273" t="inlineStr">
-        <is>
-          <t>emotion process</t>
-        </is>
-      </c>
-      <c r="D273" t="inlineStr">
-        <is>
-          <t xml:space="preserve">An emotion caused by encountering unexpected events. </t>
-        </is>
-      </c>
-      <c r="E273" t="inlineStr"/>
-      <c r="F273" t="inlineStr"/>
-      <c r="G273" t="inlineStr"/>
-      <c r="H273" t="inlineStr"/>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
+      <c r="A273" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050231</t>
+        </is>
+      </c>
+      <c r="B273" s="3" t="inlineStr">
+        <is>
+          <t>temporal orientation to the present</t>
+        </is>
+      </c>
+      <c r="C273" s="3" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="D273" s="3" t="inlineStr">
+        <is>
+          <t>A mental disposition to focus more on present than future outcomes.</t>
+        </is>
+      </c>
+      <c r="E273" s="3" t="inlineStr"/>
+      <c r="F273" s="3" t="inlineStr"/>
+      <c r="G273" s="3" t="inlineStr"/>
+      <c r="H273" s="3" t="inlineStr"/>
+      <c r="I273" s="3" t="inlineStr"/>
+      <c r="J273" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="K273" s="3" t="inlineStr"/>
+      <c r="L273" s="3" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>RO:0002577</t>
+          <t>MF:0000013</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>system</t>
+          <t>thinking</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>material entity</t>
+          <t>cognitive process</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>A material entity consisting of multiple components that are causally integrated.</t>
+          <t>A cognitive process that involves the manipulation of mental language and/or mental images.</t>
         </is>
       </c>
       <c r="E274" t="inlineStr"/>
@@ -10221,30 +10225,26 @@
     <row r="275">
       <c r="A275" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006163</t>
+          <t>BCIO:006107</t>
         </is>
       </c>
       <c r="B275" s="2" t="inlineStr">
         <is>
-          <t>targeted mental distancing</t>
+          <t>value-congruent self-regulation</t>
         </is>
       </c>
       <c r="C275" s="2" t="inlineStr">
         <is>
-          <t>mental distancing</t>
+          <t>self-regulation of behaviour</t>
         </is>
       </c>
       <c r="D275" s="2" t="inlineStr">
         <is>
-          <t>Mental distancing that involves identifying particular immediate thoughts and intentionally detaching from these thoughts.</t>
+          <t>Self-regulation undertaken to achieve consistency between one's values and the behaviour performed.</t>
         </is>
       </c>
       <c r="E275" s="2" t="inlineStr"/>
-      <c r="F275" s="2" t="inlineStr">
-        <is>
-          <t>targeted decentring</t>
-        </is>
-      </c>
+      <c r="F275" s="2" t="inlineStr"/>
       <c r="G275" s="2" t="inlineStr"/>
       <c r="H275" s="2" t="inlineStr"/>
       <c r="I275" s="2" t="inlineStr"/>
@@ -10257,280 +10257,76 @@
       <c r="L275" s="2" t="inlineStr"/>
     </row>
     <row r="276">
-      <c r="A276" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006091</t>
-        </is>
-      </c>
-      <c r="B276" s="2" t="inlineStr">
-        <is>
-          <t>temporal behavioural opportunity</t>
-        </is>
-      </c>
-      <c r="C276" s="2" t="inlineStr">
-        <is>
-          <t>physical behavioural opportunity</t>
-        </is>
-      </c>
-      <c r="D276" s="2" t="inlineStr">
-        <is>
-          <t>A physical behavioural opportunity that involves the person having sufficient time or a suitable period.</t>
-        </is>
-      </c>
-      <c r="E276" s="2" t="inlineStr"/>
-      <c r="F276" s="2" t="inlineStr"/>
-      <c r="G276" s="2" t="inlineStr"/>
-      <c r="H276" s="2" t="inlineStr"/>
-      <c r="I276" s="2" t="inlineStr"/>
-      <c r="J276" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K276" s="2" t="inlineStr"/>
-      <c r="L276" s="2" t="inlineStr"/>
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>MF:0000045</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>wanting</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>A mental process that involves thinking about a state of affairs that is not yet the case together with a desire for that state of affairs to come about.</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr"/>
+      <c r="F276" t="inlineStr"/>
+      <c r="G276" t="inlineStr"/>
+      <c r="H276" t="inlineStr"/>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="inlineStr"/>
     </row>
     <row r="277">
-      <c r="A277" s="4" t="inlineStr">
-        <is>
-          <t>BCIO:006076</t>
-        </is>
-      </c>
-      <c r="B277" s="4" t="inlineStr">
-        <is>
-          <t>temporal orientation</t>
-        </is>
-      </c>
-      <c r="C277" s="4" t="inlineStr">
+      <c r="A277" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006059</t>
+        </is>
+      </c>
+      <c r="B277" s="2" t="inlineStr">
+        <is>
+          <t>willingness to comply</t>
+        </is>
+      </c>
+      <c r="C277" s="2" t="inlineStr">
         <is>
           <t>mental disposition</t>
         </is>
       </c>
-      <c r="D277" s="4" t="inlineStr">
-        <is>
-          <t>A mental disposition to focus more on present or future outcomes.</t>
-        </is>
-      </c>
-      <c r="E277" s="4" t="inlineStr"/>
-      <c r="F277" s="4" t="inlineStr"/>
-      <c r="G277" s="4" t="inlineStr"/>
-      <c r="H277" s="4" t="inlineStr"/>
-      <c r="I277" s="4" t="inlineStr"/>
-      <c r="J277" s="4" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="K277" s="4" t="inlineStr"/>
-      <c r="L277" s="4" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050230</t>
-        </is>
-      </c>
-      <c r="B278" s="3" t="inlineStr">
-        <is>
-          <t>temporal orientation to the future</t>
-        </is>
-      </c>
-      <c r="C278" s="3" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
-      <c r="D278" s="3" t="inlineStr">
-        <is>
-          <t>A mental disposition to focus more on future than present outcomes.</t>
-        </is>
-      </c>
-      <c r="E278" s="3" t="inlineStr"/>
-      <c r="F278" s="3" t="inlineStr"/>
-      <c r="G278" s="3" t="inlineStr"/>
-      <c r="H278" s="3" t="inlineStr"/>
-      <c r="I278" s="3" t="inlineStr"/>
-      <c r="J278" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="K278" s="3" t="inlineStr"/>
-      <c r="L278" s="3" t="inlineStr"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050231</t>
-        </is>
-      </c>
-      <c r="B279" s="3" t="inlineStr">
-        <is>
-          <t>temporal orientation to the present</t>
-        </is>
-      </c>
-      <c r="C279" s="3" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
-      <c r="D279" s="3" t="inlineStr">
-        <is>
-          <t>A mental disposition to focus more on present than future outcomes.</t>
-        </is>
-      </c>
-      <c r="E279" s="3" t="inlineStr"/>
-      <c r="F279" s="3" t="inlineStr"/>
-      <c r="G279" s="3" t="inlineStr"/>
-      <c r="H279" s="3" t="inlineStr"/>
-      <c r="I279" s="3" t="inlineStr"/>
-      <c r="J279" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="K279" s="3" t="inlineStr"/>
-      <c r="L279" s="3" t="inlineStr"/>
-    </row>
-    <row r="280">
-      <c r="A280" t="inlineStr">
-        <is>
-          <t>MF:0000013</t>
-        </is>
-      </c>
-      <c r="B280" t="inlineStr">
-        <is>
-          <t>thinking</t>
-        </is>
-      </c>
-      <c r="C280" t="inlineStr">
-        <is>
-          <t>cognitive process</t>
-        </is>
-      </c>
-      <c r="D280" t="inlineStr">
-        <is>
-          <t>A cognitive process that involves the manipulation of mental language and/or mental images.</t>
-        </is>
-      </c>
-      <c r="E280" t="inlineStr"/>
-      <c r="F280" t="inlineStr"/>
-      <c r="G280" t="inlineStr"/>
-      <c r="H280" t="inlineStr"/>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006107</t>
-        </is>
-      </c>
-      <c r="B281" s="2" t="inlineStr">
-        <is>
-          <t>value-congruent self-regulation</t>
-        </is>
-      </c>
-      <c r="C281" s="2" t="inlineStr">
-        <is>
-          <t>self-regulation of behaviour</t>
-        </is>
-      </c>
-      <c r="D281" s="2" t="inlineStr">
-        <is>
-          <t>Self-regulation undertaken to achieve consistency between one's values and the behaviour performed.</t>
-        </is>
-      </c>
-      <c r="E281" s="2" t="inlineStr"/>
-      <c r="F281" s="2" t="inlineStr"/>
-      <c r="G281" s="2" t="inlineStr"/>
-      <c r="H281" s="2" t="inlineStr"/>
-      <c r="I281" s="2" t="inlineStr"/>
-      <c r="J281" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K281" s="2" t="inlineStr"/>
-      <c r="L281" s="2" t="inlineStr"/>
-    </row>
-    <row r="282">
-      <c r="A282" t="inlineStr">
-        <is>
-          <t>MF:0000045</t>
-        </is>
-      </c>
-      <c r="B282" t="inlineStr">
-        <is>
-          <t>wanting</t>
-        </is>
-      </c>
-      <c r="C282" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D282" t="inlineStr">
-        <is>
-          <t>A mental process that involves thinking about a state of affairs that is not yet the case together with a desire for that state of affairs to come about.</t>
-        </is>
-      </c>
-      <c r="E282" t="inlineStr"/>
-      <c r="F282" t="inlineStr"/>
-      <c r="G282" t="inlineStr"/>
-      <c r="H282" t="inlineStr"/>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-    </row>
-    <row r="283">
-      <c r="A283" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006059</t>
-        </is>
-      </c>
-      <c r="B283" s="2" t="inlineStr">
-        <is>
-          <t>willingness to comply</t>
-        </is>
-      </c>
-      <c r="C283" s="2" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
-      <c r="D283" s="2" t="inlineStr">
+      <c r="D277" s="2" t="inlineStr">
         <is>
           <t>A mental disposition to act in accordance with the likely approval of others.</t>
         </is>
       </c>
-      <c r="E283" s="2" t="inlineStr"/>
-      <c r="F283" s="2" t="inlineStr">
+      <c r="E277" s="2" t="inlineStr"/>
+      <c r="F277" s="2" t="inlineStr">
         <is>
           <t>motivation to comply</t>
         </is>
       </c>
-      <c r="G283" s="2" t="inlineStr"/>
-      <c r="H283" s="2" t="inlineStr"/>
-      <c r="I283" s="2" t="inlineStr"/>
-      <c r="J283" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K283" s="2" t="inlineStr"/>
-      <c r="L283" s="2" t="inlineStr"/>
+      <c r="G277" s="2" t="inlineStr"/>
+      <c r="H277" s="2" t="inlineStr"/>
+      <c r="I277" s="2" t="inlineStr"/>
+      <c r="J277" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K277" s="2" t="inlineStr"/>
+      <c r="L277" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/MechanismOfAction/inputs/BCIO_MoA.xlsx
+++ b/MechanismOfAction/inputs/BCIO_MoA.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L277"/>
+  <dimension ref="A1:L280"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -568,7 +568,11 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>While 'addiction' is a disposition relating to experience motivation to use a substance, 'substance dependence' refers to 'disposition related to the impaired functioning in the absence of a substance'.</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr">
         <is>
@@ -789,7 +793,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">A cognitive representation which represents an evaluation of the relevance of some triggering object or event to the organism. </t>
+          <t>A cognitive representation of the emotional relevance of an object or event to the organism.</t>
         </is>
       </c>
       <c r="E9" t="inlineStr"/>
@@ -1039,7 +1043,11 @@
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Dangerousness or level of threat may refer to physical, emotional or social dangers or threats.</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr">
         <is>
@@ -1277,7 +1285,7 @@
       <c r="E23" s="3" t="inlineStr"/>
       <c r="F23" s="3" t="inlineStr">
         <is>
-          <t>introjected motivation; Introjected regulation</t>
+          <t>introjected motivation; introjected regulation</t>
         </is>
       </c>
       <c r="G23" s="3" t="inlineStr"/>
@@ -1770,7 +1778,11 @@
       <c r="E37" s="2" t="inlineStr"/>
       <c r="F37" s="2" t="inlineStr"/>
       <c r="G37" s="2" t="inlineStr"/>
-      <c r="H37" s="2" t="inlineStr"/>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The term ‘plan’ can sometimes be used to refer to intention and sometimes for instructional plans. </t>
+        </is>
+      </c>
       <c r="I37" s="2" t="inlineStr"/>
       <c r="J37" s="2" t="inlineStr">
         <is>
@@ -1793,7 +1805,7 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>quality</t>
+          <t>environmental disposition</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
@@ -2010,7 +2022,7 @@
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>belief about barriers</t>
+          <t>belief about barriers to a behaviour</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr">
@@ -2039,12 +2051,12 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006018</t>
+          <t>BCIO:006034</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>belief about conformity to behavioural norms</t>
+          <t>belief about choice over a behaviour</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr">
@@ -2054,11 +2066,15 @@
       </c>
       <c r="D45" s="2" t="inlineStr">
         <is>
-          <t>A belief about the extent to which one's own behaviour is similar to that of referent others.</t>
+          <t>A belief about the extent to which one is free to choose whether to perform the behaviour.</t>
         </is>
       </c>
       <c r="E45" s="2" t="inlineStr"/>
-      <c r="F45" s="2" t="inlineStr"/>
+      <c r="F45" s="2" t="inlineStr">
+        <is>
+          <t>belief about voluntariness of behaviour; belief about autonomy in performing behaviours</t>
+        </is>
+      </c>
       <c r="G45" s="2" t="inlineStr"/>
       <c r="H45" s="2" t="inlineStr"/>
       <c r="I45" s="2" t="inlineStr"/>
@@ -2071,90 +2087,86 @@
       <c r="L45" s="2" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" s="3" t="inlineStr">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006018</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>belief about conformity to behavioural norms</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>belief</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>A belief about the extent to which one's own behaviour is similar to that of referent others.</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr"/>
+      <c r="F46" s="2" t="inlineStr"/>
+      <c r="G46" s="2" t="inlineStr"/>
+      <c r="H46" s="2" t="inlineStr"/>
+      <c r="I46" s="2" t="inlineStr"/>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="inlineStr"/>
+      <c r="L46" s="2" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="3" t="inlineStr">
         <is>
           <t>BCIO:050217</t>
         </is>
       </c>
-      <c r="B46" s="3" t="inlineStr">
+      <c r="B47" s="3" t="inlineStr">
         <is>
           <t>belief about consequences of an occurrence</t>
         </is>
       </c>
-      <c r="C46" s="3" t="inlineStr">
+      <c r="C47" s="3" t="inlineStr">
         <is>
           <t>belief</t>
         </is>
       </c>
-      <c r="D46" s="3" t="inlineStr">
+      <c r="D47" s="3" t="inlineStr">
         <is>
           <t>A belief about the outcomes resulting from an occurrence.</t>
         </is>
       </c>
-      <c r="E46" s="3" t="inlineStr"/>
-      <c r="F46" s="3" t="inlineStr"/>
-      <c r="G46" s="3" t="inlineStr"/>
-      <c r="H46" s="3" t="inlineStr"/>
-      <c r="I46" s="3" t="inlineStr"/>
-      <c r="J46" s="3" t="inlineStr">
+      <c r="E47" s="3" t="inlineStr"/>
+      <c r="F47" s="3" t="inlineStr"/>
+      <c r="G47" s="3" t="inlineStr"/>
+      <c r="H47" s="3" t="inlineStr">
+        <is>
+          <t>Consequences can be either positive or negative.</t>
+        </is>
+      </c>
+      <c r="I47" s="3" t="inlineStr"/>
+      <c r="J47" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="K46" s="3" t="inlineStr"/>
-      <c r="L46" s="3" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006019</t>
-        </is>
-      </c>
-      <c r="B47" s="2" t="inlineStr">
-        <is>
-          <t>belief about consequences of behaviour</t>
-        </is>
-      </c>
-      <c r="C47" s="2" t="inlineStr">
-        <is>
-          <t>belief about consequences of an occurrence</t>
-        </is>
-      </c>
-      <c r="D47" s="2" t="inlineStr">
-        <is>
-          <t>A belief about the outcomes resulting from a behaviour.</t>
-        </is>
-      </c>
-      <c r="E47" s="2" t="inlineStr"/>
-      <c r="F47" s="2" t="inlineStr">
-        <is>
-          <t>response efficacy</t>
-        </is>
-      </c>
-      <c r="G47" s="2" t="inlineStr"/>
-      <c r="H47" s="2" t="inlineStr">
-        <is>
-          <t>Consequences can be either positive or negative.</t>
-        </is>
-      </c>
-      <c r="I47" s="2" t="inlineStr"/>
-      <c r="J47" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K47" s="2" t="inlineStr"/>
-      <c r="L47" s="2" t="inlineStr"/>
+      <c r="K47" s="3" t="inlineStr"/>
+      <c r="L47" s="3" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006021</t>
+          <t>BCIO:006019</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>belief about consequences of goal attainment</t>
+          <t>belief about consequences of behaviour</t>
         </is>
       </c>
       <c r="C48" s="2" t="inlineStr">
@@ -2164,16 +2176,19 @@
       </c>
       <c r="D48" s="2" t="inlineStr">
         <is>
-          <t>A belief about the outcomes resulting from achieving a goal.</t>
+          <t>A belief about what results from or follows the performance of a behaviour.</t>
         </is>
       </c>
       <c r="E48" s="2" t="inlineStr"/>
-      <c r="F48" s="2" t="inlineStr"/>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>response efficacy</t>
+        </is>
+      </c>
       <c r="G48" s="2" t="inlineStr"/>
       <c r="H48" s="2" t="inlineStr">
         <is>
-          <t>Consequences can be either positive or negative.
-Belief about consequences of goal attainment is about what types of outcomes will be achieved, rather than the value or the likelihood of these outcomes. For instance, a person may believe that studying every night will help achieve good grades. However, the value of achieving such grade may vary, and would fall under 'evaluative belief'.</t>
+          <t>Consequences can be either positive or negative.</t>
         </is>
       </c>
       <c r="I48" s="2" t="inlineStr"/>
@@ -2188,28 +2203,33 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006152</t>
+          <t>BCIO:006021</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>belief about control over behaviour</t>
+          <t>belief about consequences of goal attainment</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr">
         <is>
-          <t>belief</t>
+          <t>belief about consequences of an occurrence</t>
         </is>
       </c>
       <c r="D49" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A belief about one's capabilities and opportunities within an environmental system to perform a behaviour or achieve the outcomes resulting from a behaviour. </t>
+          <t>A belief about the outcomes resulting from achieving a goal.</t>
         </is>
       </c>
       <c r="E49" s="2" t="inlineStr"/>
       <c r="F49" s="2" t="inlineStr"/>
       <c r="G49" s="2" t="inlineStr"/>
-      <c r="H49" s="2" t="inlineStr"/>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>Consequences can be either positive or negative.
+Belief about consequences of goal attainment is about what types of outcomes will be achieved, rather than the value or the likelihood of these outcomes. For instance, a person may believe that studying every night will help achieve good grades. However, the value of achieving such grade may vary, and would fall under 'evaluative belief'.</t>
+        </is>
+      </c>
       <c r="I49" s="2" t="inlineStr"/>
       <c r="J49" s="2" t="inlineStr">
         <is>
@@ -2222,12 +2242,12 @@
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006022</t>
+          <t>BCIO:006152</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>belief about control over one's future</t>
+          <t>belief about control over behaviour</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr">
@@ -2237,7 +2257,7 @@
       </c>
       <c r="D50" s="2" t="inlineStr">
         <is>
-          <t>A belief about the extent to which one can direct what happens in one's future.</t>
+          <t xml:space="preserve">A belief about one's capabilities and opportunities within an environmental system to perform a behaviour or achieve the outcomes resulting from a behaviour. </t>
         </is>
       </c>
       <c r="E50" s="2" t="inlineStr"/>
@@ -2254,169 +2274,169 @@
       <c r="L50" s="2" t="inlineStr"/>
     </row>
     <row r="51">
-      <c r="A51" s="4" t="inlineStr">
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006022</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t>belief about control over one's future</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>belief</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>A belief about the extent to which one can direct what happens in one's future.</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr"/>
+      <c r="F51" s="2" t="inlineStr"/>
+      <c r="G51" s="2" t="inlineStr"/>
+      <c r="H51" s="2" t="inlineStr"/>
+      <c r="I51" s="2" t="inlineStr"/>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="inlineStr"/>
+      <c r="L51" s="2" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="4" t="inlineStr">
         <is>
           <t>BCIO:006153</t>
         </is>
       </c>
-      <c r="B51" s="4" t="inlineStr">
+      <c r="B52" s="4" t="inlineStr">
         <is>
           <t>belief about control over the environment</t>
         </is>
       </c>
-      <c r="C51" s="4" t="inlineStr">
+      <c r="C52" s="4" t="inlineStr">
         <is>
           <t>belief about control over behaviour</t>
         </is>
       </c>
-      <c r="D51" s="4" t="inlineStr">
+      <c r="D52" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">A belief about one's resources and opportunities within an environment to perform a behaviour. </t>
         </is>
       </c>
-      <c r="E51" s="4" t="inlineStr"/>
-      <c r="F51" s="4" t="inlineStr"/>
-      <c r="G51" s="4" t="inlineStr"/>
-      <c r="H51" s="4" t="inlineStr"/>
-      <c r="I51" s="4" t="inlineStr"/>
-      <c r="J51" s="4" t="inlineStr">
+      <c r="E52" s="4" t="inlineStr"/>
+      <c r="F52" s="4" t="inlineStr"/>
+      <c r="G52" s="4" t="inlineStr"/>
+      <c r="H52" s="4" t="inlineStr"/>
+      <c r="I52" s="4" t="inlineStr"/>
+      <c r="J52" s="4" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="K51" s="4" t="inlineStr"/>
-      <c r="L51" s="4" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="3" t="inlineStr">
+      <c r="K52" s="4" t="inlineStr"/>
+      <c r="L52" s="4" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="3" t="inlineStr">
         <is>
           <t>BCIO:050218</t>
         </is>
       </c>
-      <c r="B52" s="3" t="inlineStr">
+      <c r="B53" s="3" t="inlineStr">
         <is>
           <t>belief about emotional consequences of behaviour</t>
         </is>
       </c>
-      <c r="C52" s="3" t="inlineStr">
+      <c r="C53" s="3" t="inlineStr">
         <is>
           <t>belief about consequences of behaviour</t>
         </is>
       </c>
-      <c r="D52" s="3" t="inlineStr">
-        <is>
-          <t>A belief about the outcomes of behaviour in terms of resulting emotions.</t>
-        </is>
-      </c>
-      <c r="E52" s="3" t="inlineStr"/>
-      <c r="F52" s="3" t="inlineStr"/>
-      <c r="G52" s="3" t="inlineStr"/>
-      <c r="H52" s="3" t="inlineStr"/>
-      <c r="I52" s="3" t="inlineStr"/>
-      <c r="J52" s="3" t="inlineStr">
+      <c r="D53" s="3" t="inlineStr">
+        <is>
+          <t>A belief about consequences of behaviour in terms of emotions.</t>
+        </is>
+      </c>
+      <c r="E53" s="3" t="inlineStr"/>
+      <c r="F53" s="3" t="inlineStr"/>
+      <c r="G53" s="3" t="inlineStr"/>
+      <c r="H53" s="3" t="inlineStr"/>
+      <c r="I53" s="3" t="inlineStr"/>
+      <c r="J53" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="K52" s="3" t="inlineStr"/>
-      <c r="L52" s="3" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="inlineStr">
+      <c r="K53" s="3" t="inlineStr"/>
+      <c r="L53" s="3" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="inlineStr">
         <is>
           <t>BCIO:006023</t>
         </is>
       </c>
-      <c r="B53" s="2" t="inlineStr">
+      <c r="B54" s="2" t="inlineStr">
         <is>
           <t>belief about gain</t>
         </is>
       </c>
-      <c r="C53" s="2" t="inlineStr">
+      <c r="C54" s="2" t="inlineStr">
         <is>
           <t>belief</t>
         </is>
       </c>
-      <c r="D53" s="2" t="inlineStr">
+      <c r="D54" s="2" t="inlineStr">
         <is>
           <t>A belief about the existence of an increase from an initial reference point.</t>
         </is>
       </c>
-      <c r="E53" s="2" t="inlineStr"/>
-      <c r="F53" s="2" t="inlineStr">
+      <c r="E54" s="2" t="inlineStr"/>
+      <c r="F54" s="2" t="inlineStr">
         <is>
           <t>Perceived gain</t>
         </is>
       </c>
-      <c r="G53" s="2" t="inlineStr"/>
-      <c r="H53" s="2" t="inlineStr">
+      <c r="G54" s="2" t="inlineStr"/>
+      <c r="H54" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">The perceived gain could be in anything internal or external, such as health or wealth.
 The classes 'belief about gain' and 'belief about reduction' do not necessarily involve likelihood. Likelihoods relate to the future, However, 'belief about gain' might be about an existing gain.  For instance, in situation where the following trade is offered: "I've given you $2, are you willing to trade it for a 50% chance of winning $6?" it'd be "I have $2 more than I started with", there is an existing gain that is compared to a future one. </t>
         </is>
       </c>
-      <c r="I53" s="2" t="inlineStr"/>
-      <c r="J53" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K53" s="2" t="inlineStr"/>
-      <c r="L53" s="2" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050219</t>
-        </is>
-      </c>
-      <c r="B54" s="3" t="inlineStr">
-        <is>
-          <t>belief about health consequences of behaviour</t>
-        </is>
-      </c>
-      <c r="C54" s="3" t="inlineStr">
-        <is>
-          <t>belief about consequences of behaviour</t>
-        </is>
-      </c>
-      <c r="D54" s="3" t="inlineStr">
-        <is>
-          <t>A belief about the outcomes of behaviour in terms of one's health and wellbeing.</t>
-        </is>
-      </c>
-      <c r="E54" s="3" t="inlineStr"/>
-      <c r="F54" s="3" t="inlineStr"/>
-      <c r="G54" s="3" t="inlineStr"/>
-      <c r="H54" s="3" t="inlineStr"/>
-      <c r="I54" s="3" t="inlineStr"/>
-      <c r="J54" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="K54" s="3" t="inlineStr"/>
-      <c r="L54" s="3" t="inlineStr"/>
+      <c r="I54" s="2" t="inlineStr"/>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="inlineStr"/>
+      <c r="L54" s="2" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050224</t>
+          <t>BCIO:050219</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>belief about healthcare accessibility</t>
+          <t>belief about health consequences of behaviour</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>belief about one's environment</t>
+          <t>belief about consequences of behaviour</t>
         </is>
       </c>
       <c r="D55" s="3" t="inlineStr">
         <is>
-          <t>A belief about one's environment in terms of how easy it is for a person to approach and use a healthcare service.</t>
+          <t>A belief about consequences of behaviour in terms of one's health and wellbeing.</t>
         </is>
       </c>
       <c r="E55" s="3" t="inlineStr"/>
@@ -2433,64 +2453,68 @@
       <c r="L55" s="3" t="inlineStr"/>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006026</t>
-        </is>
-      </c>
-      <c r="B56" s="2" t="inlineStr">
-        <is>
-          <t>belief about likelihood of consequences of an occurrence</t>
-        </is>
-      </c>
-      <c r="C56" s="2" t="inlineStr">
-        <is>
-          <t>belief about consequences of an occurrence</t>
-        </is>
-      </c>
-      <c r="D56" s="2" t="inlineStr">
-        <is>
-          <t>A belief about the probability that a given event or state will occur in the future.</t>
-        </is>
-      </c>
-      <c r="E56" s="2" t="inlineStr"/>
-      <c r="F56" s="2" t="inlineStr"/>
-      <c r="G56" s="2" t="inlineStr"/>
-      <c r="H56" s="2" t="inlineStr"/>
-      <c r="I56" s="2" t="inlineStr"/>
-      <c r="J56" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K56" s="2" t="inlineStr"/>
-      <c r="L56" s="2" t="inlineStr"/>
+      <c r="A56" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050224</t>
+        </is>
+      </c>
+      <c r="B56" s="3" t="inlineStr">
+        <is>
+          <t>belief about healthcare accessibility</t>
+        </is>
+      </c>
+      <c r="C56" s="3" t="inlineStr">
+        <is>
+          <t>belief about one's environment</t>
+        </is>
+      </c>
+      <c r="D56" s="3" t="inlineStr">
+        <is>
+          <t>A belief about one's environment in terms of how easy it is for a person to approach and use a healthcare service.</t>
+        </is>
+      </c>
+      <c r="E56" s="3" t="inlineStr"/>
+      <c r="F56" s="3" t="inlineStr"/>
+      <c r="G56" s="3" t="inlineStr"/>
+      <c r="H56" s="3" t="inlineStr"/>
+      <c r="I56" s="3" t="inlineStr"/>
+      <c r="J56" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="K56" s="3" t="inlineStr"/>
+      <c r="L56" s="3" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006024</t>
+          <t>BCIO:006026</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>belief about likelihood of consequences of behaviour</t>
+          <t>belief about likelihood of consequences of an occurrence</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr">
         <is>
-          <t>belief about likelihood of consequences of an occurrence</t>
+          <t>belief about consequences of an occurrence</t>
         </is>
       </c>
       <c r="D57" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> A belief about the probability a particular behaviour will result or not result in particular outcomes.</t>
+          <t>A belief about the probability that a given event or state will occur or not occur in the future.</t>
         </is>
       </c>
       <c r="E57" s="2" t="inlineStr"/>
       <c r="F57" s="2" t="inlineStr"/>
       <c r="G57" s="2" t="inlineStr"/>
-      <c r="H57" s="2" t="inlineStr"/>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>Consequences can be either positive or negative.</t>
+        </is>
+      </c>
       <c r="I57" s="2" t="inlineStr"/>
       <c r="J57" s="2" t="inlineStr">
         <is>
@@ -2501,160 +2525,160 @@
       <c r="L57" s="2" t="inlineStr"/>
     </row>
     <row r="58">
-      <c r="A58" s="3" t="inlineStr">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006024</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="inlineStr">
+        <is>
+          <t>belief about likelihood of consequences of behaviour</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>belief about likelihood of consequences of an occurrence</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> A belief about the probability a particular behaviour will result or not result in particular outcomes.</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr"/>
+      <c r="F58" s="2" t="inlineStr"/>
+      <c r="G58" s="2" t="inlineStr"/>
+      <c r="H58" s="2" t="inlineStr"/>
+      <c r="I58" s="2" t="inlineStr"/>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="inlineStr"/>
+      <c r="L58" s="2" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="3" t="inlineStr">
         <is>
           <t>BCIO:050220</t>
         </is>
       </c>
-      <c r="B58" s="3" t="inlineStr">
+      <c r="B59" s="3" t="inlineStr">
         <is>
           <t>belief about likelihood of emotional consequences of behaviour</t>
         </is>
       </c>
-      <c r="C58" s="3" t="inlineStr">
+      <c r="C59" s="3" t="inlineStr">
         <is>
           <t>belief about likelihood of consequences of behaviour</t>
         </is>
       </c>
-      <c r="D58" s="3" t="inlineStr">
+      <c r="D59" s="3" t="inlineStr">
         <is>
           <t>A belief about the probability of a behaviour resulting or not resulting in a change to emotions.</t>
         </is>
       </c>
-      <c r="E58" s="3" t="inlineStr"/>
-      <c r="F58" s="3" t="inlineStr"/>
-      <c r="G58" s="3" t="inlineStr"/>
-      <c r="H58" s="3" t="inlineStr"/>
-      <c r="I58" s="3" t="inlineStr"/>
-      <c r="J58" s="3" t="inlineStr">
+      <c r="E59" s="3" t="inlineStr"/>
+      <c r="F59" s="3" t="inlineStr"/>
+      <c r="G59" s="3" t="inlineStr"/>
+      <c r="H59" s="3" t="inlineStr"/>
+      <c r="I59" s="3" t="inlineStr"/>
+      <c r="J59" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="K58" s="3" t="inlineStr"/>
-      <c r="L58" s="3" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="inlineStr">
+      <c r="K59" s="3" t="inlineStr"/>
+      <c r="L59" s="3" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="inlineStr">
         <is>
           <t>BCIO:006025</t>
         </is>
       </c>
-      <c r="B59" s="2" t="inlineStr">
+      <c r="B60" s="2" t="inlineStr">
         <is>
           <t>belief about likelihood of health consequences of behaviour</t>
         </is>
       </c>
-      <c r="C59" s="2" t="inlineStr">
+      <c r="C60" s="2" t="inlineStr">
         <is>
           <t>belief about likelihood of consequences of behaviour</t>
         </is>
       </c>
-      <c r="D59" s="2" t="inlineStr">
+      <c r="D60" s="2" t="inlineStr">
         <is>
           <t>A belief about the probability of a behaviour resulting or not resulting in a change to health or wellbeing.</t>
         </is>
       </c>
-      <c r="E59" s="2" t="inlineStr"/>
-      <c r="F59" s="2" t="inlineStr"/>
-      <c r="G59" s="2" t="inlineStr"/>
-      <c r="H59" s="2" t="inlineStr"/>
-      <c r="I59" s="2" t="inlineStr"/>
-      <c r="J59" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K59" s="2" t="inlineStr"/>
-      <c r="L59" s="2" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="3" t="inlineStr">
+      <c r="E60" s="2" t="inlineStr"/>
+      <c r="F60" s="2" t="inlineStr"/>
+      <c r="G60" s="2" t="inlineStr"/>
+      <c r="H60" s="2" t="inlineStr"/>
+      <c r="I60" s="2" t="inlineStr"/>
+      <c r="J60" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K60" s="2" t="inlineStr"/>
+      <c r="L60" s="2" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="3" t="inlineStr">
         <is>
           <t>BCIO:050221</t>
         </is>
       </c>
-      <c r="B60" s="3" t="inlineStr">
+      <c r="B61" s="3" t="inlineStr">
         <is>
           <t>belief about likelihood of social consequences of behaviour</t>
         </is>
       </c>
-      <c r="C60" s="3" t="inlineStr">
+      <c r="C61" s="3" t="inlineStr">
         <is>
           <t>belief about likelihood of consequences of behaviour</t>
         </is>
       </c>
-      <c r="D60" s="3" t="inlineStr">
+      <c r="D61" s="3" t="inlineStr">
         <is>
           <t>A belief about the probability of a behaviour resulting or not resulting in a change to social outcomes.</t>
         </is>
       </c>
-      <c r="E60" s="3" t="inlineStr"/>
-      <c r="F60" s="3" t="inlineStr"/>
-      <c r="G60" s="3" t="inlineStr"/>
-      <c r="H60" s="3" t="inlineStr"/>
-      <c r="I60" s="3" t="inlineStr"/>
-      <c r="J60" s="3" t="inlineStr">
+      <c r="E61" s="3" t="inlineStr"/>
+      <c r="F61" s="3" t="inlineStr"/>
+      <c r="G61" s="3" t="inlineStr"/>
+      <c r="H61" s="3" t="inlineStr"/>
+      <c r="I61" s="3" t="inlineStr"/>
+      <c r="J61" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="K60" s="3" t="inlineStr"/>
-      <c r="L60" s="3" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006141</t>
-        </is>
-      </c>
-      <c r="B61" s="2" t="inlineStr">
-        <is>
-          <t>belief about message</t>
-        </is>
-      </c>
-      <c r="C61" s="2" t="inlineStr">
-        <is>
-          <t>belief</t>
-        </is>
-      </c>
-      <c r="D61" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A belief regarding aspects of a verbal, graphic, written or recorded communication. </t>
-        </is>
-      </c>
-      <c r="E61" s="2" t="inlineStr"/>
-      <c r="F61" s="2" t="inlineStr"/>
-      <c r="G61" s="2" t="inlineStr"/>
-      <c r="H61" s="2" t="inlineStr"/>
-      <c r="I61" s="2" t="inlineStr"/>
-      <c r="J61" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K61" s="2" t="inlineStr"/>
-      <c r="L61" s="2" t="inlineStr"/>
+      <c r="K61" s="3" t="inlineStr"/>
+      <c r="L61" s="3" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006028</t>
+          <t>BCIO:006141</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>belief about message relevance</t>
+          <t>belief about message</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr">
         <is>
-          <t>belief about message</t>
+          <t>belief</t>
         </is>
       </c>
       <c r="D62" s="2" t="inlineStr">
         <is>
-          <t>A belief regarding whether the content of a verbal, graphic, written or recorded communication is relevant to oneself.</t>
+          <t xml:space="preserve">A belief regarding aspects of a verbal, graphic, written or recorded communication. </t>
         </is>
       </c>
       <c r="E62" s="2" t="inlineStr"/>
@@ -2673,12 +2697,12 @@
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006143</t>
+          <t>BCIO:006028</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>belief about message trustworthiness</t>
+          <t>belief about message relevance</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr">
@@ -2688,7 +2712,7 @@
       </c>
       <c r="D63" s="2" t="inlineStr">
         <is>
-          <t>A belief about whether a verbal, graphic, written or recording communication provides information that can be relied on as honest or truthful.</t>
+          <t>A belief regarding whether the content of a verbal, graphic, written or recorded communication is relevant to oneself.</t>
         </is>
       </c>
       <c r="E63" s="2" t="inlineStr"/>
@@ -2707,22 +2731,22 @@
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006144</t>
+          <t>BCIO:006143</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>belief about need satisfaction</t>
+          <t>belief about message trustworthiness</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr">
         <is>
-          <t>belief</t>
+          <t>belief about message</t>
         </is>
       </c>
       <c r="D64" s="2" t="inlineStr">
         <is>
-          <t>A belief regarding whether one or more of the person's needs have been met.</t>
+          <t>A belief about whether a verbal, graphic, written or recording communication provides information that can be relied on as honest or truthful.</t>
         </is>
       </c>
       <c r="E64" s="2" t="inlineStr"/>
@@ -2741,12 +2765,12 @@
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006029</t>
+          <t>BCIO:006144</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>belief about one's environment</t>
+          <t>belief about need satisfaction</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr">
@@ -2756,7 +2780,7 @@
       </c>
       <c r="D65" s="2" t="inlineStr">
         <is>
-          <t>A belief about the nature of the immediate physical and social settings in which people live, including  culture and the people and institutions with whom they interact.</t>
+          <t>A belief regarding whether one or more of the person's needs have been met.</t>
         </is>
       </c>
       <c r="E65" s="2" t="inlineStr"/>
@@ -2773,175 +2797,166 @@
       <c r="L65" s="2" t="inlineStr"/>
     </row>
     <row r="66">
-      <c r="A66" s="3" t="inlineStr">
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006029</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="inlineStr">
+        <is>
+          <t>belief about one's environment</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="inlineStr">
+        <is>
+          <t>belief</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="inlineStr">
+        <is>
+          <t>A belief about the nature of the immediate physical and social settings in which people live, including  culture and the people and institutions with whom they interact.</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="inlineStr"/>
+      <c r="F66" s="2" t="inlineStr"/>
+      <c r="G66" s="2" t="inlineStr"/>
+      <c r="H66" s="2" t="inlineStr"/>
+      <c r="I66" s="2" t="inlineStr"/>
+      <c r="J66" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K66" s="2" t="inlineStr"/>
+      <c r="L66" s="2" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="3" t="inlineStr">
         <is>
           <t>BCIO:050225</t>
         </is>
       </c>
-      <c r="B66" s="3" t="inlineStr">
+      <c r="B67" s="3" t="inlineStr">
         <is>
           <t>belief about one's physical environment</t>
         </is>
       </c>
-      <c r="C66" s="3" t="inlineStr">
+      <c r="C67" s="3" t="inlineStr">
         <is>
           <t>belief about one's environment</t>
         </is>
       </c>
-      <c r="D66" s="3" t="inlineStr">
+      <c r="D67" s="3" t="inlineStr">
         <is>
           <t>A belief about parts of one's environment that do not involve people or organisations.</t>
         </is>
       </c>
-      <c r="E66" s="3" t="inlineStr"/>
-      <c r="F66" s="3" t="inlineStr"/>
-      <c r="G66" s="3" t="inlineStr"/>
-      <c r="H66" s="3" t="inlineStr"/>
-      <c r="I66" s="3" t="inlineStr"/>
-      <c r="J66" s="3" t="inlineStr">
+      <c r="E67" s="3" t="inlineStr"/>
+      <c r="F67" s="3" t="inlineStr"/>
+      <c r="G67" s="3" t="inlineStr"/>
+      <c r="H67" s="3" t="inlineStr"/>
+      <c r="I67" s="3" t="inlineStr"/>
+      <c r="J67" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="K66" s="3" t="inlineStr"/>
-      <c r="L66" s="3" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="inlineStr">
+      <c r="K67" s="3" t="inlineStr"/>
+      <c r="L67" s="3" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="inlineStr">
         <is>
           <t>BCIO:006145</t>
         </is>
       </c>
-      <c r="B67" s="2" t="inlineStr">
+      <c r="B68" s="2" t="inlineStr">
         <is>
           <t>belief about one's social environment</t>
         </is>
       </c>
-      <c r="C67" s="2" t="inlineStr">
+      <c r="C68" s="2" t="inlineStr">
         <is>
           <t>belief about one's environment</t>
         </is>
       </c>
-      <c r="D67" s="2" t="inlineStr">
+      <c r="D68" s="2" t="inlineStr">
         <is>
           <t>A belief about the aspects of one's immediate social settings in which people live, including culture and the people and institutions with whom they interact.</t>
         </is>
       </c>
-      <c r="E67" s="2" t="inlineStr"/>
-      <c r="F67" s="2" t="inlineStr"/>
-      <c r="G67" s="2" t="inlineStr"/>
-      <c r="H67" s="2" t="inlineStr"/>
-      <c r="I67" s="2" t="inlineStr"/>
-      <c r="J67" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K67" s="2" t="inlineStr"/>
-      <c r="L67" s="2" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="3" t="inlineStr">
+      <c r="E68" s="2" t="inlineStr"/>
+      <c r="F68" s="2" t="inlineStr"/>
+      <c r="G68" s="2" t="inlineStr"/>
+      <c r="H68" s="2" t="inlineStr"/>
+      <c r="I68" s="2" t="inlineStr"/>
+      <c r="J68" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K68" s="2" t="inlineStr"/>
+      <c r="L68" s="2" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="3" t="inlineStr">
         <is>
           <t>BCIO:006301</t>
         </is>
       </c>
-      <c r="B68" s="3" t="inlineStr">
+      <c r="B69" s="3" t="inlineStr">
         <is>
           <t>belief about others' susceptibility</t>
         </is>
       </c>
-      <c r="C68" s="3" t="inlineStr">
+      <c r="C69" s="3" t="inlineStr">
         <is>
           <t>belief about susceptibility to a threat</t>
         </is>
       </c>
-      <c r="D68" s="3" t="inlineStr">
+      <c r="D69" s="3" t="inlineStr">
         <is>
           <t>A belief about how vulnerable others are to a threat.</t>
         </is>
       </c>
-      <c r="E68" s="3" t="inlineStr"/>
-      <c r="F68" s="3" t="inlineStr"/>
-      <c r="G68" s="3" t="inlineStr"/>
-      <c r="H68" s="3" t="inlineStr"/>
-      <c r="I68" s="3" t="inlineStr"/>
-      <c r="J68" s="3" t="inlineStr">
+      <c r="E69" s="3" t="inlineStr"/>
+      <c r="F69" s="3" t="inlineStr"/>
+      <c r="G69" s="3" t="inlineStr"/>
+      <c r="H69" s="3" t="inlineStr"/>
+      <c r="I69" s="3" t="inlineStr"/>
+      <c r="J69" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="K68" s="3" t="inlineStr"/>
-      <c r="L68" s="3" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006031</t>
-        </is>
-      </c>
-      <c r="B69" s="2" t="inlineStr">
-        <is>
-          <t>belief about personal susceptibility</t>
-        </is>
-      </c>
-      <c r="C69" s="2" t="inlineStr">
-        <is>
-          <t>belief about susceptibility to a threat</t>
-        </is>
-      </c>
-      <c r="D69" s="2" t="inlineStr">
-        <is>
-          <t>A belief about one's personal vulnerability to a threat.</t>
-        </is>
-      </c>
-      <c r="E69" s="2" t="inlineStr"/>
-      <c r="F69" s="2" t="inlineStr"/>
-      <c r="G69" s="2" t="inlineStr"/>
-      <c r="H69" s="2" t="inlineStr"/>
-      <c r="I69" s="2" t="inlineStr"/>
-      <c r="J69" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K69" s="2" t="inlineStr"/>
-      <c r="L69" s="2" t="inlineStr"/>
+      <c r="K69" s="3" t="inlineStr"/>
+      <c r="L69" s="3" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006027</t>
+          <t>BCIO:006031</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>belief about reduction</t>
+          <t>belief about personal susceptibility</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr">
         <is>
-          <t>belief</t>
+          <t>belief about susceptibility to a threat</t>
         </is>
       </c>
       <c r="D70" s="2" t="inlineStr">
         <is>
-          <t>A belief about the existence of a decrease from an initial reference point.</t>
+          <t>A belief about one's personal vulnerability to a threat.</t>
         </is>
       </c>
       <c r="E70" s="2" t="inlineStr"/>
-      <c r="F70" s="2" t="inlineStr">
-        <is>
-          <t>perceived loss; belief about loss</t>
-        </is>
-      </c>
+      <c r="F70" s="2" t="inlineStr"/>
       <c r="G70" s="2" t="inlineStr"/>
-      <c r="H70" s="2" t="inlineStr">
-        <is>
-          <t>The perceived loss could be in anything internal or external, such as wealth or health.
-The classes 'belief about gain' and 'belief about reduction' do not necessarily involve likelihood. Likelihoods relate to the future, However, 'belief about reduction' might be about an existing loss.</t>
-        </is>
-      </c>
+      <c r="H70" s="2" t="inlineStr"/>
       <c r="I70" s="2" t="inlineStr"/>
       <c r="J70" s="2" t="inlineStr">
         <is>
@@ -2952,106 +2967,111 @@
       <c r="L70" s="2" t="inlineStr"/>
     </row>
     <row r="71">
-      <c r="A71" s="3" t="inlineStr">
+      <c r="A71" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006027</t>
+        </is>
+      </c>
+      <c r="B71" s="2" t="inlineStr">
+        <is>
+          <t>belief about reduction</t>
+        </is>
+      </c>
+      <c r="C71" s="2" t="inlineStr">
+        <is>
+          <t>belief</t>
+        </is>
+      </c>
+      <c r="D71" s="2" t="inlineStr">
+        <is>
+          <t>A belief about the existence of a decrease from an initial reference point.</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="inlineStr"/>
+      <c r="F71" s="2" t="inlineStr">
+        <is>
+          <t>perceived loss; belief about loss</t>
+        </is>
+      </c>
+      <c r="G71" s="2" t="inlineStr"/>
+      <c r="H71" s="2" t="inlineStr">
+        <is>
+          <t>The perceived loss could be in anything internal or external, such as wealth or health.
+The classes 'belief about gain' and 'belief about reduction' do not necessarily involve likelihood. Likelihoods relate to the future. However, 'belief about reduction' might be about an existing loss.</t>
+        </is>
+      </c>
+      <c r="I71" s="2" t="inlineStr"/>
+      <c r="J71" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K71" s="2" t="inlineStr"/>
+      <c r="L71" s="2" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="3" t="inlineStr">
         <is>
           <t>BCIO:006303</t>
         </is>
       </c>
-      <c r="B71" s="3" t="inlineStr">
+      <c r="B72" s="3" t="inlineStr">
         <is>
           <t>belief about responsibility to act</t>
         </is>
       </c>
-      <c r="C71" s="3" t="inlineStr">
+      <c r="C72" s="3" t="inlineStr">
         <is>
           <t>belief</t>
         </is>
       </c>
-      <c r="D71" s="3" t="inlineStr">
+      <c r="D72" s="3" t="inlineStr">
         <is>
           <t>A belief about whether oneself or another person is obligated to take a certain course of action.</t>
         </is>
       </c>
-      <c r="E71" s="3" t="inlineStr"/>
-      <c r="F71" s="3" t="inlineStr"/>
-      <c r="G71" s="3" t="inlineStr"/>
-      <c r="H71" s="3" t="inlineStr"/>
-      <c r="I71" s="3" t="inlineStr"/>
-      <c r="J71" s="3" t="inlineStr">
+      <c r="E72" s="3" t="inlineStr"/>
+      <c r="F72" s="3" t="inlineStr"/>
+      <c r="G72" s="3" t="inlineStr"/>
+      <c r="H72" s="3" t="inlineStr"/>
+      <c r="I72" s="3" t="inlineStr"/>
+      <c r="J72" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="K71" s="3" t="inlineStr"/>
-      <c r="L71" s="3" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006030</t>
-        </is>
-      </c>
-      <c r="B72" s="2" t="inlineStr">
-        <is>
-          <t>belief about severity of an outcome</t>
-        </is>
-      </c>
-      <c r="C72" s="2" t="inlineStr">
-        <is>
-          <t>belief</t>
-        </is>
-      </c>
-      <c r="D72" s="2" t="inlineStr">
-        <is>
-          <t>A belief about how serious the harm associated with an outcome could be.</t>
-        </is>
-      </c>
-      <c r="E72" s="2" t="inlineStr"/>
-      <c r="F72" s="2" t="inlineStr">
-        <is>
-          <t>belief about threat severity</t>
-        </is>
-      </c>
-      <c r="G72" s="2" t="inlineStr"/>
-      <c r="H72" s="2" t="inlineStr"/>
-      <c r="I72" s="2" t="inlineStr"/>
-      <c r="J72" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K72" s="2" t="inlineStr"/>
-      <c r="L72" s="2" t="inlineStr"/>
+      <c r="K72" s="3" t="inlineStr"/>
+      <c r="L72" s="3" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006020</t>
+          <t>BCIO:006030</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>belief about social consequences of behaviour</t>
+          <t>belief about severity of an outcome</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr">
         <is>
-          <t>belief about consequences of behaviour</t>
+          <t>belief</t>
         </is>
       </c>
       <c r="D73" s="2" t="inlineStr">
         <is>
-          <t>A belief about the outcomes of a behaviour in terms of social processes.</t>
+          <t>A belief about how serious the harm associated with an outcome could be.</t>
         </is>
       </c>
       <c r="E73" s="2" t="inlineStr"/>
-      <c r="F73" s="2" t="inlineStr"/>
+      <c r="F73" s="2" t="inlineStr">
+        <is>
+          <t>belief about threat severity</t>
+        </is>
+      </c>
       <c r="G73" s="2" t="inlineStr"/>
-      <c r="H73" s="2" t="inlineStr">
-        <is>
-          <t>Consequences can be either positive or negative.</t>
-        </is>
-      </c>
+      <c r="H73" s="2" t="inlineStr"/>
       <c r="I73" s="2" t="inlineStr"/>
       <c r="J73" s="2" t="inlineStr">
         <is>
@@ -3064,28 +3084,32 @@
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006146</t>
+          <t>BCIO:006020</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>belief about social support</t>
+          <t>belief about social consequences of behaviour</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr">
         <is>
-          <t>belief about one's social environment</t>
+          <t>belief about consequences of behaviour</t>
         </is>
       </c>
       <c r="D74" s="2" t="inlineStr">
         <is>
-          <t>A belief about whether others will provide or are available to provide assistance or comfort to help the person cope with one or more stressors or enhance their wellbeing.</t>
+          <t>A belief about consequences of behaviour in terms of social processes.</t>
         </is>
       </c>
       <c r="E74" s="2" t="inlineStr"/>
       <c r="F74" s="2" t="inlineStr"/>
       <c r="G74" s="2" t="inlineStr"/>
-      <c r="H74" s="2" t="inlineStr"/>
+      <c r="H74" s="2" t="inlineStr">
+        <is>
+          <t>Consequences can be either positive or negative.</t>
+        </is>
+      </c>
       <c r="I74" s="2" t="inlineStr"/>
       <c r="J74" s="2" t="inlineStr">
         <is>
@@ -3096,48 +3120,48 @@
       <c r="L74" s="2" t="inlineStr"/>
     </row>
     <row r="75">
-      <c r="A75" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050226</t>
-        </is>
-      </c>
-      <c r="B75" s="3" t="inlineStr">
-        <is>
-          <t>belief about sufficient time for a behaviour</t>
-        </is>
-      </c>
-      <c r="C75" s="3" t="inlineStr">
-        <is>
-          <t>belief</t>
-        </is>
-      </c>
-      <c r="D75" s="3" t="inlineStr">
-        <is>
-          <t>A belief about having enough time or a suitable period of time to enact a behaviour.</t>
-        </is>
-      </c>
-      <c r="E75" s="3" t="inlineStr"/>
-      <c r="F75" s="3" t="inlineStr"/>
-      <c r="G75" s="3" t="inlineStr"/>
-      <c r="H75" s="3" t="inlineStr"/>
-      <c r="I75" s="3" t="inlineStr"/>
-      <c r="J75" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="K75" s="3" t="inlineStr"/>
-      <c r="L75" s="3" t="inlineStr"/>
+      <c r="A75" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006146</t>
+        </is>
+      </c>
+      <c r="B75" s="2" t="inlineStr">
+        <is>
+          <t>belief about social support</t>
+        </is>
+      </c>
+      <c r="C75" s="2" t="inlineStr">
+        <is>
+          <t>belief about one's social environment</t>
+        </is>
+      </c>
+      <c r="D75" s="2" t="inlineStr">
+        <is>
+          <t>A belief about whether others will provide or are available to provide assistance or comfort to help the person cope with one or more stressors or enhance their wellbeing.</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="inlineStr"/>
+      <c r="F75" s="2" t="inlineStr"/>
+      <c r="G75" s="2" t="inlineStr"/>
+      <c r="H75" s="2" t="inlineStr"/>
+      <c r="I75" s="2" t="inlineStr"/>
+      <c r="J75" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K75" s="2" t="inlineStr"/>
+      <c r="L75" s="2" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006305</t>
+          <t>BCIO:050226</t>
         </is>
       </c>
       <c r="B76" s="3" t="inlineStr">
         <is>
-          <t>belief about susceptibility to a threat</t>
+          <t>belief about sufficient time for a behaviour</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr">
@@ -3147,15 +3171,11 @@
       </c>
       <c r="D76" s="3" t="inlineStr">
         <is>
-          <t>A belief about vulnerability to a threat.</t>
+          <t>A belief about having enough time or a suitable period of time to enact a behaviour.</t>
         </is>
       </c>
       <c r="E76" s="3" t="inlineStr"/>
-      <c r="F76" s="3" t="inlineStr">
-        <is>
-          <t>belief about susceptibility to a risk</t>
-        </is>
-      </c>
+      <c r="F76" s="3" t="inlineStr"/>
       <c r="G76" s="3" t="inlineStr"/>
       <c r="H76" s="3" t="inlineStr"/>
       <c r="I76" s="3" t="inlineStr"/>
@@ -3168,58 +3188,62 @@
       <c r="L76" s="3" t="inlineStr"/>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006142</t>
-        </is>
-      </c>
-      <c r="B77" s="2" t="inlineStr">
-        <is>
-          <t>belief about the credibility of a message's source</t>
-        </is>
-      </c>
-      <c r="C77" s="2" t="inlineStr">
-        <is>
-          <t>belief about message</t>
-        </is>
-      </c>
-      <c r="D77" s="2" t="inlineStr">
-        <is>
-          <t>A belief about whether a verbal, graphic, written or recorded communication is provided by people or institutions who provide reliable information.</t>
-        </is>
-      </c>
-      <c r="E77" s="2" t="inlineStr"/>
-      <c r="F77" s="2" t="inlineStr"/>
-      <c r="G77" s="2" t="inlineStr"/>
-      <c r="H77" s="2" t="inlineStr"/>
-      <c r="I77" s="2" t="inlineStr"/>
-      <c r="J77" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K77" s="2" t="inlineStr"/>
-      <c r="L77" s="2" t="inlineStr"/>
+      <c r="A77" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006305</t>
+        </is>
+      </c>
+      <c r="B77" s="3" t="inlineStr">
+        <is>
+          <t>belief about susceptibility to a threat</t>
+        </is>
+      </c>
+      <c r="C77" s="3" t="inlineStr">
+        <is>
+          <t>belief</t>
+        </is>
+      </c>
+      <c r="D77" s="3" t="inlineStr">
+        <is>
+          <t>A belief about vulnerability to a threat.</t>
+        </is>
+      </c>
+      <c r="E77" s="3" t="inlineStr"/>
+      <c r="F77" s="3" t="inlineStr">
+        <is>
+          <t>belief about susceptibility to a risk</t>
+        </is>
+      </c>
+      <c r="G77" s="3" t="inlineStr"/>
+      <c r="H77" s="3" t="inlineStr"/>
+      <c r="I77" s="3" t="inlineStr"/>
+      <c r="J77" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="K77" s="3" t="inlineStr"/>
+      <c r="L77" s="3" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006032</t>
+          <t>BCIO:006142</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>belief about the desirability of consequences of behaviour</t>
+          <t>belief about the credibility of a message's source</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr">
         <is>
-          <t>belief about consequences of behaviour</t>
+          <t>belief about message</t>
         </is>
       </c>
       <c r="D78" s="2" t="inlineStr">
         <is>
-          <t>A belief about the desirability or worth of the outcomes of a behaviour.</t>
+          <t>A belief about whether a verbal, graphic, written or recorded communication is provided by people or institutions who provide reliable information.</t>
         </is>
       </c>
       <c r="E78" s="2" t="inlineStr"/>
@@ -3238,22 +3262,22 @@
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006149</t>
+          <t>BCIO:006032</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>belief about the personal desirability of consequences of a behaviour</t>
+          <t>belief about the desirability of consequences of behaviour</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr">
         <is>
-          <t>evaluative belief about behavioural outcome</t>
+          <t>belief about consequences of behaviour</t>
         </is>
       </c>
       <c r="D79" s="2" t="inlineStr">
         <is>
-          <t>An evaluative belief about the value of the outcomes of a behaviour to oneself.</t>
+          <t>A belief about the desirability or worth of the outcomes of a behaviour.</t>
         </is>
       </c>
       <c r="E79" s="2" t="inlineStr"/>
@@ -3272,28 +3296,32 @@
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006033</t>
+          <t>BCIO:006149</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>belief about the timing of the consequences of behaviour</t>
+          <t>belief about the personal desirability of consequences of a behaviour</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>belief about consequences of behaviour</t>
+          <t>evaluative belief about behavioural outcome</t>
         </is>
       </c>
       <c r="D80" s="2" t="inlineStr">
         <is>
-          <t>A belief about outcomes in terms of how long after the performance of a behaviour they will occur.</t>
+          <t>An evaluative belief about the consequences of behaviour in terms of their value to oneself.</t>
         </is>
       </c>
       <c r="E80" s="2" t="inlineStr"/>
       <c r="F80" s="2" t="inlineStr"/>
       <c r="G80" s="2" t="inlineStr"/>
-      <c r="H80" s="2" t="inlineStr"/>
+      <c r="H80" s="2" t="inlineStr">
+        <is>
+          <t>'Desirability' can range from highly desirable to highly undesirable.</t>
+        </is>
+      </c>
       <c r="I80" s="2" t="inlineStr"/>
       <c r="J80" s="2" t="inlineStr">
         <is>
@@ -3304,76 +3332,72 @@
       <c r="L80" s="2" t="inlineStr"/>
     </row>
     <row r="81">
-      <c r="A81" s="3" t="inlineStr">
+      <c r="A81" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006033</t>
+        </is>
+      </c>
+      <c r="B81" s="2" t="inlineStr">
+        <is>
+          <t>belief about the timing of the consequences of behaviour</t>
+        </is>
+      </c>
+      <c r="C81" s="2" t="inlineStr">
+        <is>
+          <t>belief about consequences of behaviour</t>
+        </is>
+      </c>
+      <c r="D81" s="2" t="inlineStr">
+        <is>
+          <t>A belief about consequences of behaviour in terms of how long after the performance of the behaviour they will occur.</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="inlineStr"/>
+      <c r="F81" s="2" t="inlineStr"/>
+      <c r="G81" s="2" t="inlineStr"/>
+      <c r="H81" s="2" t="inlineStr"/>
+      <c r="I81" s="2" t="inlineStr"/>
+      <c r="J81" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K81" s="2" t="inlineStr"/>
+      <c r="L81" s="2" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="3" t="inlineStr">
         <is>
           <t>BCIO:006306</t>
         </is>
       </c>
-      <c r="B81" s="3" t="inlineStr">
+      <c r="B82" s="3" t="inlineStr">
         <is>
           <t>belief about threat</t>
         </is>
       </c>
-      <c r="C81" s="3" t="inlineStr">
+      <c r="C82" s="3" t="inlineStr">
         <is>
           <t>belief</t>
         </is>
       </c>
-      <c r="D81" s="3" t="inlineStr">
+      <c r="D82" s="3" t="inlineStr">
         <is>
           <t>A belief about a potential harm.</t>
         </is>
       </c>
-      <c r="E81" s="3" t="inlineStr"/>
-      <c r="F81" s="3" t="inlineStr"/>
-      <c r="G81" s="3" t="inlineStr"/>
-      <c r="H81" s="3" t="inlineStr"/>
-      <c r="I81" s="3" t="inlineStr"/>
-      <c r="J81" s="3" t="inlineStr">
+      <c r="E82" s="3" t="inlineStr"/>
+      <c r="F82" s="3" t="inlineStr"/>
+      <c r="G82" s="3" t="inlineStr"/>
+      <c r="H82" s="3" t="inlineStr"/>
+      <c r="I82" s="3" t="inlineStr"/>
+      <c r="J82" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="K81" s="3" t="inlineStr"/>
-      <c r="L81" s="3" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006034</t>
-        </is>
-      </c>
-      <c r="B82" s="2" t="inlineStr">
-        <is>
-          <t>belief about voluntariness of behaviour</t>
-        </is>
-      </c>
-      <c r="C82" s="2" t="inlineStr">
-        <is>
-          <t>belief</t>
-        </is>
-      </c>
-      <c r="D82" s="2" t="inlineStr">
-        <is>
-          <t>A belief about the extent to which one is free to choose whether to perform the behaviour.</t>
-        </is>
-      </c>
-      <c r="E82" s="2" t="inlineStr"/>
-      <c r="F82" s="2" t="inlineStr">
-        <is>
-          <t>belief about autonomy in performing behaviours</t>
-        </is>
-      </c>
-      <c r="G82" s="2" t="inlineStr"/>
-      <c r="H82" s="2" t="inlineStr"/>
-      <c r="I82" s="2" t="inlineStr"/>
-      <c r="J82" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K82" s="2" t="inlineStr"/>
-      <c r="L82" s="2" t="inlineStr"/>
+      <c r="K82" s="3" t="inlineStr"/>
+      <c r="L82" s="3" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
@@ -3506,7 +3530,11 @@
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr"/>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The phrase 'bodily component of an organism’ in the definition refers to ‘a part of the body’. </t>
+        </is>
+      </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr">
         <is>
@@ -3678,7 +3706,8 @@
       <c r="G91" t="inlineStr"/>
       <c r="H91" t="inlineStr">
         <is>
-          <t>The use of the phrase ‘an anatomical structure in the cognitive system’ in the formal definition means that a specific cognitive representation will depend on parts of the brain, rather than involving the whole brain.</t>
+          <t>The use of the phrase ‘an anatomical structure in the cognitive system’ in the formal definition means that a specific cognitive representation will depend on parts of the brain, rather than involving the whole brain.
+When a belief is activated, the content of that belief is a cognitive representation.</t>
         </is>
       </c>
       <c r="I91" t="inlineStr"/>
@@ -3895,38 +3924,38 @@
       <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000511</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
+      <c r="A98" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006160</t>
+        </is>
+      </c>
+      <c r="B98" s="3" t="inlineStr">
         <is>
           <t>craving</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
+      <c r="C98" s="3" t="inlineStr">
         <is>
           <t>subjective affective feeling</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>A subjective affective feeling involving a powerful want or need for something or urge to engage in a behaviour.</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr"/>
-      <c r="G98" t="inlineStr"/>
-      <c r="H98" t="inlineStr"/>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr">
+      <c r="D98" s="3" t="inlineStr">
+        <is>
+          <t>A subjective affective feeling of desiring or needing something.</t>
+        </is>
+      </c>
+      <c r="E98" s="3" t="inlineStr"/>
+      <c r="F98" s="3" t="inlineStr"/>
+      <c r="G98" s="3" t="inlineStr"/>
+      <c r="H98" s="3" t="inlineStr"/>
+      <c r="I98" s="3" t="inlineStr"/>
+      <c r="J98" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="K98" s="3" t="inlineStr"/>
+      <c r="L98" s="3" t="inlineStr">
         <is>
           <t>RW: I've made the edits I suggest pending agreement from the rest of the team 23 Feb 22</t>
         </is>
@@ -4549,7 +4578,11 @@
       <c r="E115" s="2" t="inlineStr"/>
       <c r="F115" s="2" t="inlineStr"/>
       <c r="G115" s="2" t="inlineStr"/>
-      <c r="H115" s="2" t="inlineStr"/>
+      <c r="H115" s="2" t="inlineStr">
+        <is>
+          <t>The class 'evaluative belief about the consequences of behaviour' can be found as the subclass of 'belief about consequences of behaviour'.</t>
+        </is>
+      </c>
       <c r="I115" s="2" t="inlineStr"/>
       <c r="J115" s="2" t="inlineStr">
         <is>
@@ -4630,12 +4663,12 @@
     <row r="118">
       <c r="A118" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006148</t>
+          <t>BCIO:006150</t>
         </is>
       </c>
       <c r="B118" s="2" t="inlineStr">
         <is>
-          <t>evaluative belief about behavioural outcomes</t>
+          <t>evaluative belief about others</t>
         </is>
       </c>
       <c r="C118" s="2" t="inlineStr">
@@ -4645,7 +4678,7 @@
       </c>
       <c r="D118" s="2" t="inlineStr">
         <is>
-          <t>An evaluative belief about whether the consequences of the behaviour are positive or negative.</t>
+          <t>An evaluative belief about the attributes of others.</t>
         </is>
       </c>
       <c r="E118" s="2" t="inlineStr"/>
@@ -4664,12 +4697,12 @@
     <row r="119">
       <c r="A119" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006150</t>
+          <t>BCIO:006148</t>
         </is>
       </c>
       <c r="B119" s="2" t="inlineStr">
         <is>
-          <t>evaluative belief about others</t>
+          <t>evaluative belief about the consequences of behaviour</t>
         </is>
       </c>
       <c r="C119" s="2" t="inlineStr">
@@ -4679,10 +4712,14 @@
       </c>
       <c r="D119" s="2" t="inlineStr">
         <is>
-          <t>An evaluative belief about the attributes of others.</t>
-        </is>
-      </c>
-      <c r="E119" s="2" t="inlineStr"/>
+          <t>A belief about consequences of behaviour in terms of whether they are positive or negative.</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="inlineStr">
+        <is>
+          <t>(evaluative belief   belief about consequences of behaviour)</t>
+        </is>
+      </c>
       <c r="F119" s="2" t="inlineStr"/>
       <c r="G119" s="2" t="inlineStr"/>
       <c r="H119" s="2" t="inlineStr"/>
@@ -5090,7 +5127,7 @@
       <c r="G130" t="inlineStr"/>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Note that 'feeling nervous' is related to 'anxiety' but is not identical with it. Feeling nervous is the subjective experience of nervousness, while anxiety is a full-blown emotion process. Affective feelings are process parts of emotion processes.</t>
+          <t>Note that 'feeling nervous' is related to 'anxiety' but is not identical with it. Feeling nervous is the subjective experience of nervousness, while anxiety is a full-blown emotion process. Subjective affective feelings are process parts of emotion processes.</t>
         </is>
       </c>
       <c r="I130" t="inlineStr"/>
@@ -5724,7 +5761,7 @@
       </c>
       <c r="D148" s="2" t="inlineStr">
         <is>
-          <t>A memory process that deals with the receipt, storage, retrieval and modification of information regarding a brief visual stimulus,</t>
+          <t>A memory process that deals with the receipt, storage, retrieval and modification of information regarding a brief visual stimulus.</t>
         </is>
       </c>
       <c r="E148" s="2" t="inlineStr"/>
@@ -5741,311 +5778,315 @@
       <c r="L148" s="2" t="inlineStr"/>
     </row>
     <row r="149">
-      <c r="A149" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006050</t>
-        </is>
-      </c>
-      <c r="B149" s="2" t="inlineStr">
-        <is>
-          <t>identity</t>
-        </is>
-      </c>
-      <c r="C149" s="2" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
-      <c r="D149" s="2" t="inlineStr">
-        <is>
-          <t>A mental disposition relating to perceptions of oneself.</t>
-        </is>
-      </c>
-      <c r="E149" s="2" t="inlineStr"/>
-      <c r="F149" s="2" t="inlineStr"/>
-      <c r="G149" s="2" t="inlineStr"/>
-      <c r="H149" s="2" t="inlineStr"/>
-      <c r="I149" s="2" t="inlineStr"/>
-      <c r="J149" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K149" s="2" t="inlineStr"/>
-      <c r="L149" s="2" t="inlineStr"/>
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>GO:0098596</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>imitative learning</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>observational learning</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Observational learning in which new behaviours are acquired through imitation. </t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr"/>
+      <c r="F149" t="inlineStr"/>
+      <c r="G149" t="inlineStr"/>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>GO:0098596</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>imitative learning</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>observational learning</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Observational learning in which new behaviours are acquired through imitation. </t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr"/>
-      <c r="F150" t="inlineStr"/>
-      <c r="G150" t="inlineStr"/>
-      <c r="H150" t="inlineStr"/>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="A150" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050234</t>
+        </is>
+      </c>
+      <c r="B150" s="3" t="inlineStr">
+        <is>
+          <t>impulse</t>
+        </is>
+      </c>
+      <c r="C150" s="3" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D150" s="3" t="inlineStr">
+        <is>
+          <t>A mental process that is sudden and compels an organism to think or behave in some way.</t>
+        </is>
+      </c>
+      <c r="E150" s="3" t="inlineStr"/>
+      <c r="F150" s="3" t="inlineStr"/>
+      <c r="G150" s="3" t="inlineStr"/>
+      <c r="H150" s="3" t="inlineStr">
+        <is>
+          <t>An impulse is not felt or consciously processed. If an impulse if frustrated, a person or other organism feels an urge.</t>
+        </is>
+      </c>
+      <c r="I150" s="3" t="inlineStr"/>
+      <c r="J150" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="K150" s="3" t="inlineStr"/>
+      <c r="L150" s="3" t="inlineStr"/>
     </row>
     <row r="151">
-      <c r="A151" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050234</t>
-        </is>
-      </c>
-      <c r="B151" s="3" t="inlineStr">
-        <is>
-          <t>impulse</t>
-        </is>
-      </c>
-      <c r="C151" s="3" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D151" s="3" t="inlineStr">
-        <is>
-          <t>A mental process that is sudden and compels an organism to think or behave in some way.</t>
-        </is>
-      </c>
-      <c r="E151" s="3" t="inlineStr"/>
-      <c r="F151" s="3" t="inlineStr"/>
-      <c r="G151" s="3" t="inlineStr"/>
-      <c r="H151" s="3" t="inlineStr"/>
-      <c r="I151" s="3" t="inlineStr"/>
-      <c r="J151" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="K151" s="3" t="inlineStr"/>
-      <c r="L151" s="3" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="2" t="inlineStr">
+      <c r="A151" s="2" t="inlineStr">
         <is>
           <t>BCIO:006094</t>
         </is>
       </c>
-      <c r="B152" s="2" t="inlineStr">
+      <c r="B151" s="2" t="inlineStr">
         <is>
           <t>individual human behaviour</t>
         </is>
       </c>
-      <c r="C152" s="2" t="inlineStr">
+      <c r="C151" s="2" t="inlineStr">
         <is>
           <t>bodily process</t>
         </is>
       </c>
-      <c r="D152" s="2" t="inlineStr">
+      <c r="D151" s="2" t="inlineStr">
         <is>
           <t>A bodily process of a human that involves co-ordinated contraction of striated muscles controlled by the brain.</t>
         </is>
       </c>
-      <c r="E152" s="2" t="inlineStr"/>
-      <c r="F152" s="2" t="inlineStr"/>
-      <c r="G152" s="2" t="inlineStr"/>
-      <c r="H152" s="2" t="inlineStr">
+      <c r="E151" s="2" t="inlineStr"/>
+      <c r="F151" s="2" t="inlineStr"/>
+      <c r="G151" s="2" t="inlineStr"/>
+      <c r="H151" s="2" t="inlineStr">
         <is>
           <t>The striated muscles referred to do not ordinarily involve the cardiac muscles.
 Behaviour can be an MoA or outcome depending on how 'behaviour' is described in an intervention. The Behaviour Change-Intervention Ontology includes the class  'outcome behaviour' (definition: Human behavior that is an intervention outcome.), which would not be an MoA. When an intervention targets one behaviour to achieve an outcome behaviour (e.g. exercise for smoking cessation), the former qualifies as an MoA.</t>
         </is>
       </c>
-      <c r="I152" s="2" t="inlineStr"/>
-      <c r="J152" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K152" s="2" t="inlineStr"/>
-      <c r="L152" s="2" t="inlineStr"/>
+      <c r="I151" s="2" t="inlineStr"/>
+      <c r="J151" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K151" s="2" t="inlineStr"/>
+      <c r="L151" s="2" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:036025</t>
+        </is>
+      </c>
+      <c r="B152" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">inter-personal behaviour </t>
+        </is>
+      </c>
+      <c r="C152" s="3" t="inlineStr">
+        <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="D152" s="3" t="inlineStr">
+        <is>
+          <t>An individual human behaviour that involves an interaction between two or more people.</t>
+        </is>
+      </c>
+      <c r="E152" s="3" t="inlineStr"/>
+      <c r="F152" s="3" t="inlineStr"/>
+      <c r="G152" s="3" t="inlineStr"/>
+      <c r="H152" s="3" t="inlineStr"/>
+      <c r="I152" s="3" t="inlineStr"/>
+      <c r="J152" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="K152" s="3" t="inlineStr"/>
+      <c r="L152" s="3" t="inlineStr"/>
     </row>
     <row r="153">
-      <c r="A153" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:036025</t>
-        </is>
-      </c>
-      <c r="B153" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">inter-personal behaviour </t>
-        </is>
-      </c>
-      <c r="C153" s="3" t="inlineStr">
-        <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="D153" s="3" t="inlineStr">
-        <is>
-          <t>An individual human behaviour that involves an interaction between two or more people.</t>
-        </is>
-      </c>
-      <c r="E153" s="3" t="inlineStr"/>
-      <c r="F153" s="3" t="inlineStr"/>
-      <c r="G153" s="3" t="inlineStr"/>
-      <c r="H153" s="3" t="inlineStr"/>
-      <c r="I153" s="3" t="inlineStr"/>
-      <c r="J153" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="K153" s="3" t="inlineStr"/>
-      <c r="L153" s="3" t="inlineStr"/>
+      <c r="A153" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006100</t>
+        </is>
+      </c>
+      <c r="B153" s="2" t="inlineStr">
+        <is>
+          <t>internal reward for a response</t>
+        </is>
+      </c>
+      <c r="C153" s="2" t="inlineStr">
+        <is>
+          <t>bodily process</t>
+        </is>
+      </c>
+      <c r="D153" s="2" t="inlineStr">
+        <is>
+          <t>A bodily process by which the person experiences an internally-generated positive physical or psychological state subsequent to a response.</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="inlineStr"/>
+      <c r="F153" s="2" t="inlineStr"/>
+      <c r="G153" s="2" t="inlineStr"/>
+      <c r="H153" s="2" t="inlineStr"/>
+      <c r="I153" s="2" t="inlineStr"/>
+      <c r="J153" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K153" s="2" t="inlineStr"/>
+      <c r="L153" s="2" t="inlineStr"/>
     </row>
     <row r="154">
-      <c r="A154" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006100</t>
-        </is>
-      </c>
-      <c r="B154" s="2" t="inlineStr">
-        <is>
-          <t>internal reward for a response</t>
-        </is>
-      </c>
-      <c r="C154" s="2" t="inlineStr">
-        <is>
-          <t>bodily process</t>
-        </is>
-      </c>
-      <c r="D154" s="2" t="inlineStr">
-        <is>
-          <t>A bodily process by which the person experiences an internally-generated positive physical or psychological state subsequent to a response.</t>
-        </is>
-      </c>
-      <c r="E154" s="2" t="inlineStr"/>
-      <c r="F154" s="2" t="inlineStr"/>
-      <c r="G154" s="2" t="inlineStr"/>
-      <c r="H154" s="2" t="inlineStr"/>
-      <c r="I154" s="2" t="inlineStr"/>
-      <c r="J154" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K154" s="2" t="inlineStr"/>
-      <c r="L154" s="2" t="inlineStr"/>
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>MFOEM:000022</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>interpersonal disgust</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>disgust</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Disgust elicited by contact with others, especially contact with strangers or other individuals or groups we are averse to.</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr"/>
+      <c r="F154" t="inlineStr"/>
+      <c r="G154" t="inlineStr"/>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>MFOEM:000022</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>interpersonal disgust</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>disgust</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>Disgust elicited by contact with others, especially contact with strangers or other individuals or groups we are averse to.</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr"/>
-      <c r="F155" t="inlineStr"/>
-      <c r="G155" t="inlineStr"/>
-      <c r="H155" t="inlineStr"/>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="A155" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:006097</t>
+        </is>
+      </c>
+      <c r="B155" s="4" t="inlineStr">
+        <is>
+          <t>interpersonal reciprocal communication</t>
+        </is>
+      </c>
+      <c r="C155" s="4" t="inlineStr">
+        <is>
+          <t>communication</t>
+        </is>
+      </c>
+      <c r="D155" s="4" t="inlineStr">
+        <is>
+          <t>Communication that is mutual between two or more people.</t>
+        </is>
+      </c>
+      <c r="E155" s="4" t="inlineStr"/>
+      <c r="F155" s="4" t="inlineStr"/>
+      <c r="G155" s="4" t="inlineStr"/>
+      <c r="H155" s="4" t="inlineStr"/>
+      <c r="I155" s="4" t="inlineStr"/>
+      <c r="J155" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="K155" s="4" t="inlineStr"/>
+      <c r="L155" s="4" t="inlineStr"/>
     </row>
     <row r="156">
-      <c r="A156" s="4" t="inlineStr">
-        <is>
-          <t>BCIO:006097</t>
-        </is>
-      </c>
-      <c r="B156" s="4" t="inlineStr">
-        <is>
-          <t>interpersonal reciprocal communication</t>
-        </is>
-      </c>
-      <c r="C156" s="4" t="inlineStr">
-        <is>
-          <t>communication</t>
-        </is>
-      </c>
-      <c r="D156" s="4" t="inlineStr">
-        <is>
-          <t>Communication that is mutual between two or more people.</t>
-        </is>
-      </c>
-      <c r="E156" s="4" t="inlineStr"/>
-      <c r="F156" s="4" t="inlineStr"/>
-      <c r="G156" s="4" t="inlineStr"/>
-      <c r="H156" s="4" t="inlineStr"/>
-      <c r="I156" s="4" t="inlineStr"/>
-      <c r="J156" s="4" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="K156" s="4" t="inlineStr"/>
-      <c r="L156" s="4" t="inlineStr"/>
+      <c r="A156" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006136</t>
+        </is>
+      </c>
+      <c r="B156" s="2" t="inlineStr">
+        <is>
+          <t>intrinsic motivation</t>
+        </is>
+      </c>
+      <c r="C156" s="2" t="inlineStr">
+        <is>
+          <t>autonomous motivation</t>
+        </is>
+      </c>
+      <c r="D156" s="2" t="inlineStr">
+        <is>
+          <t>Autonomous motivation due to a behaviour's inherent enjoyment, satisfaction or benefits to oneself.</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="inlineStr"/>
+      <c r="F156" s="2" t="inlineStr"/>
+      <c r="G156" s="2" t="inlineStr"/>
+      <c r="H156" s="2" t="inlineStr">
+        <is>
+          <t>The phrase 'benefits to oneself' includes the reduction of unpleasant internal states.</t>
+        </is>
+      </c>
+      <c r="I156" s="2" t="inlineStr"/>
+      <c r="J156" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K156" s="2" t="inlineStr"/>
+      <c r="L156" s="2" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006136</t>
+          <t>BCIO:006105</t>
         </is>
       </c>
       <c r="B157" s="2" t="inlineStr">
         <is>
-          <t>intrinsic motivation</t>
+          <t>introjected self-regulation</t>
         </is>
       </c>
       <c r="C157" s="2" t="inlineStr">
         <is>
-          <t>autonomous motivation</t>
+          <t>self-regulation of behaviour</t>
         </is>
       </c>
       <c r="D157" s="2" t="inlineStr">
         <is>
-          <t>Autonomous motivation due to a behaviour's inherent enjoyment, satisfaction or benefits to oneself.</t>
+          <t>Self-regulation of behaviour undertaken to manage a sense of guilt, anxiety or obligation.</t>
         </is>
       </c>
       <c r="E157" s="2" t="inlineStr"/>
       <c r="F157" s="2" t="inlineStr"/>
       <c r="G157" s="2" t="inlineStr"/>
-      <c r="H157" s="2" t="inlineStr">
-        <is>
-          <t>The phrase 'benefits to oneself' includes the reduction of unpleasant internal states.</t>
-        </is>
-      </c>
+      <c r="H157" s="2" t="inlineStr"/>
       <c r="I157" s="2" t="inlineStr"/>
       <c r="J157" s="2" t="inlineStr">
         <is>
@@ -6056,136 +6097,136 @@
       <c r="L157" s="2" t="inlineStr"/>
     </row>
     <row r="158">
-      <c r="A158" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006105</t>
-        </is>
-      </c>
-      <c r="B158" s="2" t="inlineStr">
-        <is>
-          <t>introjected self-regulation</t>
-        </is>
-      </c>
-      <c r="C158" s="2" t="inlineStr">
-        <is>
-          <t>self-regulation of behaviour</t>
-        </is>
-      </c>
-      <c r="D158" s="2" t="inlineStr">
-        <is>
-          <t>Self-regulation of behaviour undertaken to manage a sense of guilt, anxiety or obligation.</t>
-        </is>
-      </c>
-      <c r="E158" s="2" t="inlineStr"/>
-      <c r="F158" s="2" t="inlineStr"/>
-      <c r="G158" s="2" t="inlineStr"/>
-      <c r="H158" s="2" t="inlineStr"/>
-      <c r="I158" s="2" t="inlineStr"/>
-      <c r="J158" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K158" s="2" t="inlineStr"/>
-      <c r="L158" s="2" t="inlineStr"/>
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>MF:0000006</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>judging</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>A mental process during which information is evaluated, the outcome of which is a belief or opinion.</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr"/>
+      <c r="F158" t="inlineStr"/>
+      <c r="G158" t="inlineStr"/>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>MF:0000006</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
+      <c r="A159" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:006117</t>
+        </is>
+      </c>
+      <c r="B159" s="4" t="inlineStr">
+        <is>
+          <t>judging consequences of behaviour</t>
+        </is>
+      </c>
+      <c r="C159" s="4" t="inlineStr">
         <is>
           <t>judging</t>
         </is>
       </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>A mental process during which information is evaluated, the outcome of which is a belief or opinion.</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr"/>
-      <c r="F159" t="inlineStr"/>
-      <c r="G159" t="inlineStr"/>
-      <c r="H159" t="inlineStr"/>
-      <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="D159" s="4" t="inlineStr">
+        <is>
+          <t>Judging during which a belief about the consequences of a behaviour is created or modified.</t>
+        </is>
+      </c>
+      <c r="E159" s="4" t="inlineStr"/>
+      <c r="F159" s="4" t="inlineStr"/>
+      <c r="G159" s="4" t="inlineStr"/>
+      <c r="H159" s="4" t="inlineStr"/>
+      <c r="I159" s="4" t="inlineStr"/>
+      <c r="J159" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="K159" s="4" t="inlineStr"/>
+      <c r="L159" s="4" t="inlineStr"/>
     </row>
     <row r="160">
-      <c r="A160" s="4" t="inlineStr">
-        <is>
-          <t>BCIO:006117</t>
-        </is>
-      </c>
-      <c r="B160" s="4" t="inlineStr">
-        <is>
-          <t>judging consequences of behaviour</t>
-        </is>
-      </c>
-      <c r="C160" s="4" t="inlineStr">
-        <is>
-          <t>judging</t>
-        </is>
-      </c>
-      <c r="D160" s="4" t="inlineStr">
-        <is>
-          <t>Judging during which a belief about the consequences of a behaviour is created or modified.</t>
-        </is>
-      </c>
-      <c r="E160" s="4" t="inlineStr"/>
-      <c r="F160" s="4" t="inlineStr"/>
-      <c r="G160" s="4" t="inlineStr"/>
-      <c r="H160" s="4" t="inlineStr"/>
-      <c r="I160" s="4" t="inlineStr"/>
-      <c r="J160" s="4" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="K160" s="4" t="inlineStr"/>
-      <c r="L160" s="4" t="inlineStr"/>
+      <c r="A160" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006052</t>
+        </is>
+      </c>
+      <c r="B160" s="2" t="inlineStr">
+        <is>
+          <t>knowledge</t>
+        </is>
+      </c>
+      <c r="C160" s="2" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="D160" s="2" t="inlineStr">
+        <is>
+          <t>A mental disposition to understand the nature of the world, or a specific aspect of the world, that corresponds to the actual state of the world and is acquired through experience or learning.</t>
+        </is>
+      </c>
+      <c r="E160" s="2" t="inlineStr"/>
+      <c r="F160" s="2" t="inlineStr"/>
+      <c r="G160" s="2" t="inlineStr"/>
+      <c r="H160" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Knowledge is defined as a 'mental disposition', a realisable entity, because a person requires a process to access the information stored in their brain. A person knows something, when the relevant information has been retrieved from their memory. There are instances where a person might have learned something, but is unable to retrieve the information at a specific moment. </t>
+        </is>
+      </c>
+      <c r="I160" s="2" t="inlineStr"/>
+      <c r="J160" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K160" s="2" t="inlineStr"/>
+      <c r="L160" s="2" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006052</t>
+          <t>BCIO:006053</t>
         </is>
       </c>
       <c r="B161" s="2" t="inlineStr">
         <is>
+          <t>knowledge regarding a behaviour</t>
+        </is>
+      </c>
+      <c r="C161" s="2" t="inlineStr">
+        <is>
           <t>knowledge</t>
         </is>
       </c>
-      <c r="C161" s="2" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
       <c r="D161" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to understand the nature of the world, or a specific aspect of the world, that corresponds to the actual state of the world and is acquired through experience or learning.</t>
+          <t>Knowledge regarding a particular set of actions.</t>
         </is>
       </c>
       <c r="E161" s="2" t="inlineStr"/>
       <c r="F161" s="2" t="inlineStr"/>
       <c r="G161" s="2" t="inlineStr"/>
-      <c r="H161" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Knowledge is defined as a 'mental disposition', a realisable entity, because a person requires a process to access the information stored in their brain. A person knows something, when the relevant information has been retrieved from their memory. There are instances where a person might have learned something, but is unable to retrieve the information at a specific moment. </t>
-        </is>
-      </c>
+      <c r="H161" s="2" t="inlineStr"/>
       <c r="I161" s="2" t="inlineStr"/>
       <c r="J161" s="2" t="inlineStr">
         <is>
@@ -6198,12 +6239,12 @@
     <row r="162">
       <c r="A162" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006053</t>
+          <t>BCIO:006055</t>
         </is>
       </c>
       <c r="B162" s="2" t="inlineStr">
         <is>
-          <t>knowledge regarding a behaviour</t>
+          <t>knowledge regarding a threat</t>
         </is>
       </c>
       <c r="C162" s="2" t="inlineStr">
@@ -6213,7 +6254,7 @@
       </c>
       <c r="D162" s="2" t="inlineStr">
         <is>
-          <t>Knowledge regarding a particular set of actions.</t>
+          <t>Knowledge regarding a potential harm.</t>
         </is>
       </c>
       <c r="E162" s="2" t="inlineStr"/>
@@ -6232,12 +6273,12 @@
     <row r="163">
       <c r="A163" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006055</t>
+          <t>BCIO:006054</t>
         </is>
       </c>
       <c r="B163" s="2" t="inlineStr">
         <is>
-          <t>knowledge regarding a threat</t>
+          <t>knowledge regarding an innovation</t>
         </is>
       </c>
       <c r="C163" s="2" t="inlineStr">
@@ -6247,7 +6288,7 @@
       </c>
       <c r="D163" s="2" t="inlineStr">
         <is>
-          <t>Knowledge regarding a potential harm.</t>
+          <t>Knowledge regarding a novel invention or way of doing something.</t>
         </is>
       </c>
       <c r="E163" s="2" t="inlineStr"/>
@@ -6266,12 +6307,12 @@
     <row r="164">
       <c r="A164" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006054</t>
+          <t>BCIO:006056</t>
         </is>
       </c>
       <c r="B164" s="2" t="inlineStr">
         <is>
-          <t>knowledge regarding an innovation</t>
+          <t>knowledge regarding treatment</t>
         </is>
       </c>
       <c r="C164" s="2" t="inlineStr">
@@ -6281,7 +6322,7 @@
       </c>
       <c r="D164" s="2" t="inlineStr">
         <is>
-          <t>Knowledge regarding a novel invention or way of doing something.</t>
+          <t>Knowledge regarding a therapy or medication for a health problem.</t>
         </is>
       </c>
       <c r="E164" s="2" t="inlineStr"/>
@@ -6300,28 +6341,36 @@
     <row r="165">
       <c r="A165" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006056</t>
+          <t>BCIO:006155</t>
         </is>
       </c>
       <c r="B165" s="2" t="inlineStr">
         <is>
-          <t>knowledge regarding treatment</t>
+          <t>learned stimulus-behaviour co-occurrence</t>
         </is>
       </c>
       <c r="C165" s="2" t="inlineStr">
         <is>
-          <t>knowledge</t>
+          <t>learned stimulus-response co-occurrence</t>
         </is>
       </c>
       <c r="D165" s="2" t="inlineStr">
         <is>
-          <t>Knowledge regarding a therapy or medication for a health problem.</t>
+          <t>A mental disposition to behave in a particular way in response to an internal or external event in the person's environment, which is acquired through habit learning.</t>
         </is>
       </c>
       <c r="E165" s="2" t="inlineStr"/>
-      <c r="F165" s="2" t="inlineStr"/>
+      <c r="F165" s="2" t="inlineStr">
+        <is>
+          <t>Habit</t>
+        </is>
+      </c>
       <c r="G165" s="2" t="inlineStr"/>
-      <c r="H165" s="2" t="inlineStr"/>
+      <c r="H165" s="2" t="inlineStr">
+        <is>
+          <t>Learned stimulus-behaviour co-occurrence can vary in strength.</t>
+        </is>
+      </c>
       <c r="I165" s="2" t="inlineStr"/>
       <c r="J165" s="2" t="inlineStr">
         <is>
@@ -6334,34 +6383,30 @@
     <row r="166">
       <c r="A166" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006155</t>
+          <t>BCIO:006057</t>
         </is>
       </c>
       <c r="B166" s="2" t="inlineStr">
         <is>
-          <t>learned stimulus-behaviour co-occurrence</t>
+          <t>learned stimulus-reponse co-occurrence</t>
         </is>
       </c>
       <c r="C166" s="2" t="inlineStr">
         <is>
-          <t>learned stimulus-response co-occurrence</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D166" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to behave in a particular way in response to an internal or external event in the person's environment, which is acquired through habit learning.</t>
+          <t>A mental disposition to think or behave in a particular way in response to an internal or external event in the person's environment, which is acquired through associative learning.</t>
         </is>
       </c>
       <c r="E166" s="2" t="inlineStr"/>
-      <c r="F166" s="2" t="inlineStr">
-        <is>
-          <t>Habit</t>
-        </is>
-      </c>
+      <c r="F166" s="2" t="inlineStr"/>
       <c r="G166" s="2" t="inlineStr"/>
       <c r="H166" s="2" t="inlineStr">
         <is>
-          <t>Learned stimulus-behaviour co-occurrence can vary in strength.</t>
+          <t xml:space="preserve">The responses to an event can include thinking and impulses to respond. </t>
         </is>
       </c>
       <c r="I166" s="2" t="inlineStr"/>
@@ -6376,32 +6421,32 @@
     <row r="167">
       <c r="A167" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006057</t>
+          <t>BCIO:006156</t>
         </is>
       </c>
       <c r="B167" s="2" t="inlineStr">
         <is>
-          <t>learned stimulus-reponse co-occurrence</t>
+          <t>learned stimulus-thought co-occurrence</t>
         </is>
       </c>
       <c r="C167" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>learned stimulus-response co-occurrence</t>
         </is>
       </c>
       <c r="D167" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to think or behave in a particular way in response to an internal or external event in the person's environment, which is acquired through associative learning.</t>
+          <t>A mental disposition to think in a particular way in response to an internal or external event in the person's environment, which is acquired through associative learning.</t>
         </is>
       </c>
       <c r="E167" s="2" t="inlineStr"/>
-      <c r="F167" s="2" t="inlineStr"/>
+      <c r="F167" s="2" t="inlineStr">
+        <is>
+          <t>Mental habit</t>
+        </is>
+      </c>
       <c r="G167" s="2" t="inlineStr"/>
-      <c r="H167" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The responses to an event can include thinking and impulses to respond. </t>
-        </is>
-      </c>
+      <c r="H167" s="2" t="inlineStr"/>
       <c r="I167" s="2" t="inlineStr"/>
       <c r="J167" s="2" t="inlineStr">
         <is>
@@ -6412,110 +6457,110 @@
       <c r="L167" s="2" t="inlineStr"/>
     </row>
     <row r="168">
-      <c r="A168" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006156</t>
-        </is>
-      </c>
-      <c r="B168" s="2" t="inlineStr">
-        <is>
-          <t>learned stimulus-thought co-occurrence</t>
-        </is>
-      </c>
-      <c r="C168" s="2" t="inlineStr">
-        <is>
-          <t>learned stimulus-response co-occurrence</t>
-        </is>
-      </c>
-      <c r="D168" s="2" t="inlineStr">
-        <is>
-          <t>A mental disposition to think in a particular way in response to an internal or external event in the person's environment, which is acquired through associative learning.</t>
-        </is>
-      </c>
-      <c r="E168" s="2" t="inlineStr"/>
-      <c r="F168" s="2" t="inlineStr">
-        <is>
-          <t>Mental habit</t>
-        </is>
-      </c>
-      <c r="G168" s="2" t="inlineStr"/>
-      <c r="H168" s="2" t="inlineStr"/>
-      <c r="I168" s="2" t="inlineStr"/>
-      <c r="J168" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K168" s="2" t="inlineStr"/>
-      <c r="L168" s="2" t="inlineStr"/>
+      <c r="A168" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050239</t>
+        </is>
+      </c>
+      <c r="B168" s="3" t="inlineStr">
+        <is>
+          <t>learning</t>
+        </is>
+      </c>
+      <c r="C168" s="3" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D168" s="3" t="inlineStr">
+        <is>
+          <t>A mental process in which a lasting mental or behavioural change occurs as the result of experience.</t>
+        </is>
+      </c>
+      <c r="E168" s="3" t="inlineStr"/>
+      <c r="F168" s="3" t="inlineStr"/>
+      <c r="G168" s="3" t="inlineStr"/>
+      <c r="H168" s="3" t="inlineStr">
+        <is>
+          <t>The class 'learning' from the Gene Ontology was not reused but adapted for the Mechanism of Action (MoA) Ontology, as the Gene Ontology only focuses on learning adaptive behaviours in order to be relevant to all organisms.</t>
+        </is>
+      </c>
+      <c r="I168" s="3" t="inlineStr"/>
+      <c r="J168" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="K168" s="3" t="inlineStr"/>
+      <c r="L168" s="3" t="inlineStr"/>
     </row>
     <row r="169">
-      <c r="A169" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050239</t>
-        </is>
-      </c>
-      <c r="B169" s="3" t="inlineStr">
-        <is>
-          <t>learning</t>
-        </is>
-      </c>
-      <c r="C169" s="3" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D169" s="3" t="inlineStr">
-        <is>
-          <t>A mental process in which a lasting mental or behavioural change occurs as the result of experience.</t>
-        </is>
-      </c>
-      <c r="E169" s="3" t="inlineStr"/>
-      <c r="F169" s="3" t="inlineStr"/>
-      <c r="G169" s="3" t="inlineStr"/>
-      <c r="H169" s="3" t="inlineStr">
-        <is>
-          <t>The class 'learning' from the Gene Ontology was not reused but adapted for the Mechanism of Action (MoA) Ontology, as the Gene Ontology only focuses on learning adaptive behaviours in order to be relevant to all organisms.</t>
-        </is>
-      </c>
-      <c r="I169" s="3" t="inlineStr"/>
-      <c r="J169" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="K169" s="3" t="inlineStr"/>
-      <c r="L169" s="3" t="inlineStr"/>
+      <c r="A169" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050237</t>
+        </is>
+      </c>
+      <c r="B169" s="2" t="inlineStr">
+        <is>
+          <t>linguistic communication behaviour</t>
+        </is>
+      </c>
+      <c r="C169" s="2" t="inlineStr">
+        <is>
+          <t>communication behaviour</t>
+        </is>
+      </c>
+      <c r="D169" s="2" t="inlineStr">
+        <is>
+          <t>A communication behaviour in which the information that is communicated is encoded in language.</t>
+        </is>
+      </c>
+      <c r="E169" s="2" t="inlineStr"/>
+      <c r="F169" s="2" t="inlineStr"/>
+      <c r="G169" s="2" t="inlineStr">
+        <is>
+          <t>Written language, spoken language and sign-language communication</t>
+        </is>
+      </c>
+      <c r="H169" s="2" t="inlineStr"/>
+      <c r="I169" s="2" t="inlineStr"/>
+      <c r="J169" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K169" s="2" t="inlineStr"/>
+      <c r="L169" s="2" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050237</t>
+          <t>BCIO:006085</t>
         </is>
       </c>
       <c r="B170" s="2" t="inlineStr">
         <is>
-          <t>linguistic communication behaviour</t>
+          <t>location</t>
         </is>
       </c>
       <c r="C170" s="2" t="inlineStr">
         <is>
-          <t>communication behaviour</t>
+          <t>quality</t>
         </is>
       </c>
       <c r="D170" s="2" t="inlineStr">
         <is>
-          <t>A communication behaviour in which the information that is communicated is encoded in language.</t>
+          <t>A spatial quality that inheres in a bearer by virtue of its position relative to other entities.</t>
         </is>
       </c>
       <c r="E170" s="2" t="inlineStr"/>
       <c r="F170" s="2" t="inlineStr"/>
-      <c r="G170" s="2" t="inlineStr">
-        <is>
-          <t>Written language, spoken language and sign-language communication</t>
-        </is>
-      </c>
-      <c r="H170" s="2" t="inlineStr"/>
+      <c r="G170" s="2" t="inlineStr"/>
+      <c r="H170" s="2" t="inlineStr">
+        <is>
+          <t>An intervention could be used to rearrange objects in an environment, changing the location of a person relative to these objects and thereby increasing the likelihood of a behaviour.</t>
+        </is>
+      </c>
       <c r="I170" s="2" t="inlineStr"/>
       <c r="J170" s="2" t="inlineStr">
         <is>
@@ -6526,62 +6571,58 @@
       <c r="L170" s="2" t="inlineStr"/>
     </row>
     <row r="171">
-      <c r="A171" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006085</t>
-        </is>
-      </c>
-      <c r="B171" s="2" t="inlineStr">
-        <is>
-          <t>location</t>
-        </is>
-      </c>
-      <c r="C171" s="2" t="inlineStr">
-        <is>
-          <t>quality</t>
-        </is>
-      </c>
-      <c r="D171" s="2" t="inlineStr">
-        <is>
-          <t>A spatial quality that inheres in a bearer by virtue of its position relative to other entities.</t>
-        </is>
-      </c>
-      <c r="E171" s="2" t="inlineStr"/>
-      <c r="F171" s="2" t="inlineStr"/>
-      <c r="G171" s="2" t="inlineStr"/>
-      <c r="H171" s="2" t="inlineStr">
-        <is>
-          <t>An intervention could be used to rearrange objects in an environment, changing the location of a person relative to these objects and thereby increasing the likelihood of a behaviour.</t>
-        </is>
-      </c>
-      <c r="I171" s="2" t="inlineStr"/>
-      <c r="J171" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K171" s="2" t="inlineStr"/>
-      <c r="L171" s="2" t="inlineStr"/>
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>UBERON:0000465</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>material anatomical entity</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>material entity</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Anatomical entity that has mass.</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr"/>
+      <c r="F171" t="inlineStr"/>
+      <c r="G171" t="inlineStr"/>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>UBERON:0000465</t>
+          <t>GO:0007613</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>material anatomical entity</t>
+          <t>memory</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>material entity</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>Anatomical entity that has mass.</t>
+          <t>The activities involved in the mental information processing system that receives (registers), modifies, stores, and retrieves informational stimuli.</t>
         </is>
       </c>
       <c r="E172" t="inlineStr"/>
@@ -6598,202 +6639,202 @@
       <c r="L172" t="inlineStr"/>
     </row>
     <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>GO:0007613</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>memory</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
+      <c r="A173" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006093</t>
+        </is>
+      </c>
+      <c r="B173" s="2" t="inlineStr">
+        <is>
+          <t>mental behavioural cue</t>
+        </is>
+      </c>
+      <c r="C173" s="2" t="inlineStr">
+        <is>
+          <t>bodily behavioural cue</t>
+        </is>
+      </c>
+      <c r="D173" s="2" t="inlineStr">
+        <is>
+          <t>A stimulus that arises from mental processes and serves to elicit or guide behaviour.</t>
+        </is>
+      </c>
+      <c r="E173" s="2" t="inlineStr"/>
+      <c r="F173" s="2" t="inlineStr"/>
+      <c r="G173" s="2" t="inlineStr"/>
+      <c r="H173" s="2" t="inlineStr"/>
+      <c r="I173" s="2" t="inlineStr"/>
+      <c r="J173" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K173" s="2" t="inlineStr"/>
+      <c r="L173" s="2" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MF:0000048 </t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>mental capability</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>personal capability</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>A personal capability that  includes mental processes in its realisation.</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr"/>
+      <c r="F174" t="inlineStr"/>
+      <c r="G174" t="inlineStr"/>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006131</t>
+        </is>
+      </c>
+      <c r="B175" s="2" t="inlineStr">
+        <is>
+          <t>mental categorising</t>
+        </is>
+      </c>
+      <c r="C175" s="2" t="inlineStr">
         <is>
           <t>mental process</t>
         </is>
       </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>The activities involved in the mental information processing system that receives (registers), modifies, stores, and retrieves informational stimuli.                   The main stages involved in the formation and retrieval of memory are encoding (processing of received information by acquisition), storage (building a permanent record of received information as a result of consolidation) and retrieval (calling back the stored information and use it in a suitable way to execute a given task)</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr"/>
-      <c r="F173" t="inlineStr"/>
-      <c r="G173" t="inlineStr"/>
-      <c r="H173" t="inlineStr"/>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr">
+      <c r="D175" s="2" t="inlineStr">
+        <is>
+          <t>A mental process in which objects, events, people, or experiences are grouped into classes, on the basis of features shared by members of the same class and features distinguishing the members of one class from those of another.</t>
+        </is>
+      </c>
+      <c r="E175" s="2" t="inlineStr"/>
+      <c r="F175" s="2" t="inlineStr"/>
+      <c r="G175" s="2" t="inlineStr"/>
+      <c r="H175" s="2" t="inlineStr"/>
+      <c r="I175" s="2" t="inlineStr"/>
+      <c r="J175" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K175" s="2" t="inlineStr"/>
+      <c r="L175" s="2" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>MF:0000033</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>bodily disposition</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>A bodily disposition that is realized in a mental process.</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr"/>
+      <c r="F176" t="inlineStr"/>
+      <c r="G176" t="inlineStr"/>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006093</t>
-        </is>
-      </c>
-      <c r="B174" s="2" t="inlineStr">
-        <is>
-          <t>mental behavioural cue</t>
-        </is>
-      </c>
-      <c r="C174" s="2" t="inlineStr">
-        <is>
-          <t>bodily behavioural cue</t>
-        </is>
-      </c>
-      <c r="D174" s="2" t="inlineStr">
-        <is>
-          <t>A stimulus that arises from mental processes and serves to elicit or guide behaviour.</t>
-        </is>
-      </c>
-      <c r="E174" s="2" t="inlineStr"/>
-      <c r="F174" s="2" t="inlineStr"/>
-      <c r="G174" s="2" t="inlineStr"/>
-      <c r="H174" s="2" t="inlineStr"/>
-      <c r="I174" s="2" t="inlineStr"/>
-      <c r="J174" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K174" s="2" t="inlineStr"/>
-      <c r="L174" s="2" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MF:0000048 </t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>mental capability</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>personal capability</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>A personal capability that  includes mental processes in its realisation.</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr"/>
-      <c r="F175" t="inlineStr"/>
-      <c r="G175" t="inlineStr"/>
-      <c r="H175" t="inlineStr"/>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006131</t>
-        </is>
-      </c>
-      <c r="B176" s="2" t="inlineStr">
-        <is>
-          <t>mental categorising</t>
-        </is>
-      </c>
-      <c r="C176" s="2" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D176" s="2" t="inlineStr">
-        <is>
-          <t>A mental process in which objects, events, people, or experiences are grouped into classes, on the basis of features shared by members of the same class and features distinguishing the members of one class from those of another.</t>
-        </is>
-      </c>
-      <c r="E176" s="2" t="inlineStr"/>
-      <c r="F176" s="2" t="inlineStr"/>
-      <c r="G176" s="2" t="inlineStr"/>
-      <c r="H176" s="2" t="inlineStr"/>
-      <c r="I176" s="2" t="inlineStr"/>
-      <c r="J176" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K176" s="2" t="inlineStr"/>
-      <c r="L176" s="2" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
     </row>
     <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>MF:0000033</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>bodily disposition</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>A bodily disposition that is realized in a mental process.</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr"/>
-      <c r="F177" t="inlineStr"/>
-      <c r="G177" t="inlineStr"/>
-      <c r="H177" t="inlineStr"/>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="A177" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006162</t>
+        </is>
+      </c>
+      <c r="B177" s="2" t="inlineStr">
+        <is>
+          <t>mental distancing</t>
+        </is>
+      </c>
+      <c r="C177" s="2" t="inlineStr">
+        <is>
+          <t>cognitive process</t>
+        </is>
+      </c>
+      <c r="D177" s="2" t="inlineStr">
+        <is>
+          <t>A cognitive process that involves intentionally detaching oneself from one's immediate thoughts.</t>
+        </is>
+      </c>
+      <c r="E177" s="2" t="inlineStr"/>
+      <c r="F177" s="2" t="inlineStr">
+        <is>
+          <t>decentring</t>
+        </is>
+      </c>
+      <c r="G177" s="2" t="inlineStr"/>
+      <c r="H177" s="2" t="inlineStr"/>
+      <c r="I177" s="2" t="inlineStr"/>
+      <c r="J177" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K177" s="2" t="inlineStr"/>
+      <c r="L177" s="2" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006162</t>
+          <t>BCIO:006080</t>
         </is>
       </c>
       <c r="B178" s="2" t="inlineStr">
         <is>
-          <t>mental distancing</t>
+          <t>mental image</t>
         </is>
       </c>
       <c r="C178" s="2" t="inlineStr">
         <is>
-          <t>cognitive process</t>
+          <t>cognitive representation</t>
         </is>
       </c>
       <c r="D178" s="2" t="inlineStr">
         <is>
-          <t>A cognitive process that involves intentionally detaching oneself from one's immediate thoughts.</t>
+          <t>A cognitive representation of the sensory characteristics of objects or events that are not immediately present to the senses.</t>
         </is>
       </c>
       <c r="E178" s="2" t="inlineStr"/>
-      <c r="F178" s="2" t="inlineStr">
-        <is>
-          <t>decentring</t>
-        </is>
-      </c>
+      <c r="F178" s="2" t="inlineStr"/>
       <c r="G178" s="2" t="inlineStr"/>
       <c r="H178" s="2" t="inlineStr"/>
       <c r="I178" s="2" t="inlineStr"/>
@@ -6806,168 +6847,177 @@
       <c r="L178" s="2" t="inlineStr"/>
     </row>
     <row r="179">
-      <c r="A179" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006080</t>
-        </is>
-      </c>
-      <c r="B179" s="2" t="inlineStr">
-        <is>
-          <t>mental image</t>
-        </is>
-      </c>
-      <c r="C179" s="2" t="inlineStr">
-        <is>
-          <t>cognitive representation</t>
-        </is>
-      </c>
-      <c r="D179" s="2" t="inlineStr">
-        <is>
-          <t>A cognitive representation of the sensory characteristics of objects or events that are not immediately present to the senses.</t>
-        </is>
-      </c>
-      <c r="E179" s="2" t="inlineStr"/>
-      <c r="F179" s="2" t="inlineStr"/>
-      <c r="G179" s="2" t="inlineStr"/>
-      <c r="H179" s="2" t="inlineStr"/>
-      <c r="I179" s="2" t="inlineStr"/>
-      <c r="J179" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K179" s="2" t="inlineStr"/>
-      <c r="L179" s="2" t="inlineStr"/>
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>MF:0000083</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>mental imagery</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>A mental process that evokes the representation of the sensory characteristics of objects or events when these are not immediately present to the senses.</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr"/>
+      <c r="F179" t="inlineStr"/>
+      <c r="G179" t="inlineStr"/>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
     </row>
     <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>MF:0000083</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>mental imagery</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>A mental process that evokes the representation of the sensory characteristics of objects or events when these are not immediately present to the senses.</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr"/>
-      <c r="F180" t="inlineStr"/>
-      <c r="G180" t="inlineStr"/>
-      <c r="H180" t="inlineStr"/>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="A180" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006058</t>
+        </is>
+      </c>
+      <c r="B180" s="2" t="inlineStr">
+        <is>
+          <t>mental imagery disposition</t>
+        </is>
+      </c>
+      <c r="C180" s="2" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="D180" s="2" t="inlineStr">
+        <is>
+          <t>A mental disposition to evokes the representation of the sensory characteristics of objects or events when these are not immediately present to the senses.</t>
+        </is>
+      </c>
+      <c r="E180" s="2" t="inlineStr"/>
+      <c r="F180" s="2" t="inlineStr"/>
+      <c r="G180" s="2" t="inlineStr"/>
+      <c r="H180" s="2" t="inlineStr"/>
+      <c r="I180" s="2" t="inlineStr"/>
+      <c r="J180" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K180" s="2" t="inlineStr"/>
+      <c r="L180" s="2" t="inlineStr"/>
     </row>
     <row r="181">
-      <c r="A181" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006058</t>
-        </is>
-      </c>
-      <c r="B181" s="2" t="inlineStr">
-        <is>
-          <t>mental imagery disposition</t>
-        </is>
-      </c>
-      <c r="C181" s="2" t="inlineStr">
+      <c r="A181" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050228</t>
+        </is>
+      </c>
+      <c r="B181" s="3" t="inlineStr">
+        <is>
+          <t>mental plan</t>
+        </is>
+      </c>
+      <c r="C181" s="3" t="inlineStr">
         <is>
           <t>mental disposition</t>
         </is>
       </c>
-      <c r="D181" s="2" t="inlineStr">
-        <is>
-          <t>A mental disposition to evokes the representation of the sensory characteristics of objects or events when these are not immediately present to the senses.</t>
-        </is>
-      </c>
-      <c r="E181" s="2" t="inlineStr"/>
-      <c r="F181" s="2" t="inlineStr"/>
-      <c r="G181" s="2" t="inlineStr"/>
-      <c r="H181" s="2" t="inlineStr"/>
-      <c r="I181" s="2" t="inlineStr"/>
-      <c r="J181" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K181" s="2" t="inlineStr"/>
-      <c r="L181" s="2" t="inlineStr"/>
+      <c r="D181" s="3" t="inlineStr">
+        <is>
+          <t>A mental disposition that is realised in mental processes mentally manipulating representations of steps in an imagined process which has some goal.</t>
+        </is>
+      </c>
+      <c r="E181" s="3" t="inlineStr"/>
+      <c r="F181" s="3" t="inlineStr"/>
+      <c r="G181" s="3" t="inlineStr"/>
+      <c r="H181" s="3" t="inlineStr">
+        <is>
+          <t>A mental plan is the outcome of a planning process.</t>
+        </is>
+      </c>
+      <c r="I181" s="3" t="inlineStr"/>
+      <c r="J181" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="K181" s="3" t="inlineStr"/>
+      <c r="L181" s="3" t="inlineStr"/>
     </row>
     <row r="182">
-      <c r="A182" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050228</t>
-        </is>
-      </c>
-      <c r="B182" s="3" t="inlineStr">
+      <c r="A182" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006070</t>
+        </is>
+      </c>
+      <c r="B182" s="2" t="inlineStr">
+        <is>
+          <t>mental plan for a behaviour</t>
+        </is>
+      </c>
+      <c r="C182" s="2" t="inlineStr">
         <is>
           <t>mental plan</t>
         </is>
       </c>
-      <c r="C182" s="3" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
-      <c r="D182" s="3" t="inlineStr">
-        <is>
-          <t>A mental disposition that is realized in mental processes mentally manipulating representations of steps in an imagined process which has some goal.</t>
-        </is>
-      </c>
-      <c r="E182" s="3" t="inlineStr"/>
-      <c r="F182" s="3" t="inlineStr"/>
-      <c r="G182" s="3" t="inlineStr"/>
-      <c r="H182" s="3" t="inlineStr"/>
-      <c r="I182" s="3" t="inlineStr"/>
-      <c r="J182" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="K182" s="3" t="inlineStr"/>
-      <c r="L182" s="3" t="inlineStr"/>
+      <c r="D182" s="2" t="inlineStr">
+        <is>
+          <t>A mental plan that is realised in mental processes representing the steps to enact a behaviour and the conditions under which the behaviour will be enacted.</t>
+        </is>
+      </c>
+      <c r="E182" s="2" t="inlineStr"/>
+      <c r="F182" s="2" t="inlineStr">
+        <is>
+          <t>Action plan</t>
+        </is>
+      </c>
+      <c r="G182" s="2" t="inlineStr"/>
+      <c r="H182" s="2" t="inlineStr">
+        <is>
+          <t>The term ‘plan’ can sometimes be used to refer to intention and sometimes for instructional plans.
+'mental plan for a behaviour’ involves  plans for which details about the behaviour (when [specific times], where, how or with whom) are specified.</t>
+        </is>
+      </c>
+      <c r="I182" s="2" t="inlineStr"/>
+      <c r="J182" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K182" s="2" t="inlineStr"/>
+      <c r="L182" s="2" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006070</t>
+          <t>BCIO:006157</t>
         </is>
       </c>
       <c r="B183" s="2" t="inlineStr">
         <is>
+          <t>mental plan for coping with barriers</t>
+        </is>
+      </c>
+      <c r="C183" s="2" t="inlineStr">
+        <is>
           <t>mental plan for a behaviour</t>
         </is>
       </c>
-      <c r="C183" s="2" t="inlineStr">
-        <is>
-          <t>mental plan</t>
-        </is>
-      </c>
       <c r="D183" s="2" t="inlineStr">
         <is>
-          <t>A mental plan that is realized in mental processes representing a behaviour, the conditions under which the behaviour will be enacted and an intention to enact the behaviour under those conditions.</t>
+          <t>A mental plan regarding a strategy to deal with conditions that could prevent the performance of a behaviour.</t>
         </is>
       </c>
       <c r="E183" s="2" t="inlineStr"/>
-      <c r="F183" s="2" t="inlineStr">
-        <is>
-          <t>Action plan</t>
-        </is>
-      </c>
+      <c r="F183" s="2" t="inlineStr"/>
       <c r="G183" s="2" t="inlineStr"/>
       <c r="H183" s="2" t="inlineStr"/>
       <c r="I183" s="2" t="inlineStr"/>
@@ -6980,69 +7030,69 @@
       <c r="L183" s="2" t="inlineStr"/>
     </row>
     <row r="184">
-      <c r="A184" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006157</t>
-        </is>
-      </c>
-      <c r="B184" s="2" t="inlineStr">
-        <is>
-          <t>mental plan for coping with barriers</t>
-        </is>
-      </c>
-      <c r="C184" s="2" t="inlineStr">
-        <is>
-          <t>mental plan for a behaviour</t>
-        </is>
-      </c>
-      <c r="D184" s="2" t="inlineStr">
-        <is>
-          <t>A mental plan regarding a strategy to deal with conditions that could prevent the performance of a behaviour.</t>
-        </is>
-      </c>
-      <c r="E184" s="2" t="inlineStr"/>
-      <c r="F184" s="2" t="inlineStr"/>
-      <c r="G184" s="2" t="inlineStr"/>
-      <c r="H184" s="2" t="inlineStr"/>
-      <c r="I184" s="2" t="inlineStr"/>
-      <c r="J184" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K184" s="2" t="inlineStr"/>
-      <c r="L184" s="2" t="inlineStr"/>
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>MF:0000020</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>bodily process</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>A bodily process that occurs in the brain, and that can of itself be conscious, or can give rise to a process that can of itself be conscious or can give rise to behaviour.</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr"/>
+      <c r="F184" t="inlineStr"/>
+      <c r="G184" t="inlineStr"/>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Mental processes can varying in the degree to which they involve consciousness.
+A 'mental process' is a subclass of 'bodily process', as mental processes occur within the body, specifically involving the brain.</t>
+        </is>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>MF:0000020</t>
+          <t xml:space="preserve">MF:0000075 </t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>mental quality</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>bodily process</t>
+          <t>bodily quality</t>
         </is>
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>A bodily process that occurs in the brain, and that can of itself be conscious, or can give rise to a process that can of itself be conscious or can give rise to behaviour.</t>
+          <t>A bodily quality that inheres in those structures of the extended organism that are essential for mental functioning.</t>
         </is>
       </c>
       <c r="E185" t="inlineStr"/>
       <c r="F185" t="inlineStr"/>
       <c r="G185" t="inlineStr"/>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>Mental processes can varying in the degree to which they involve consciousness.
-A 'mental process' is a subclass of 'bodily process', as mental processes occur within the body, specifically involving the brain.</t>
-        </is>
-      </c>
+      <c r="H185" t="inlineStr"/>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr">
         <is>
@@ -7053,58 +7103,62 @@
       <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MF:0000075 </t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>mental quality</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>bodily quality</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>A bodily quality that inheres in those structures of the extended organism that are essential for mental functioning.</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr"/>
-      <c r="F186" t="inlineStr"/>
-      <c r="G186" t="inlineStr"/>
-      <c r="H186" t="inlineStr"/>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="A186" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006004</t>
+        </is>
+      </c>
+      <c r="B186" s="2" t="inlineStr">
+        <is>
+          <t>mental skill</t>
+        </is>
+      </c>
+      <c r="C186" s="2" t="inlineStr">
+        <is>
+          <t>mental capability</t>
+        </is>
+      </c>
+      <c r="D186" s="2" t="inlineStr">
+        <is>
+          <t>A mental capability acquired through training or practice.</t>
+        </is>
+      </c>
+      <c r="E186" s="2" t="inlineStr"/>
+      <c r="F186" s="2" t="inlineStr"/>
+      <c r="G186" s="2" t="inlineStr"/>
+      <c r="H186" s="2" t="inlineStr">
+        <is>
+          <t>The term 'skill' specifically refers to acquired capabilities, as behavioural theories suggested that the main difference between capabilities and skills was that skills were learned.</t>
+        </is>
+      </c>
+      <c r="I186" s="2" t="inlineStr"/>
+      <c r="J186" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K186" s="2" t="inlineStr"/>
+      <c r="L186" s="2" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006004</t>
+          <t>BCIO:006132</t>
         </is>
       </c>
       <c r="B187" s="2" t="inlineStr">
         <is>
-          <t>mental skill</t>
+          <t>mentally comparing against a standard</t>
         </is>
       </c>
       <c r="C187" s="2" t="inlineStr">
         <is>
-          <t>mental capability</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D187" s="2" t="inlineStr">
         <is>
-          <t>A mental capability acquired through training or practice.</t>
+          <t>A mental process in which conditions are compared against a particular reference level.</t>
         </is>
       </c>
       <c r="E187" s="2" t="inlineStr"/>
@@ -7112,7 +7166,7 @@
       <c r="G187" s="2" t="inlineStr"/>
       <c r="H187" s="2" t="inlineStr">
         <is>
-          <t>The term 'skill' specifically refers to acquired capabilities, as behavioural theories suggested that the main difference between capabilities and skills was that skills were learned.</t>
+          <t>The term 'condition' may refer to the characteristics of an object, event and person.</t>
         </is>
       </c>
       <c r="I187" s="2" t="inlineStr"/>
@@ -7125,96 +7179,92 @@
       <c r="L187" s="2" t="inlineStr"/>
     </row>
     <row r="188">
-      <c r="A188" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006132</t>
-        </is>
-      </c>
-      <c r="B188" s="2" t="inlineStr">
-        <is>
-          <t>mentally comparing against a standard</t>
-        </is>
-      </c>
-      <c r="C188" s="2" t="inlineStr">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>MFOEM:000023</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>moral disgust</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>disgust</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Disgust elicited by some kinds of especially egregious moral violations.</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr"/>
+      <c r="F188" t="inlineStr"/>
+      <c r="G188" t="inlineStr"/>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006133</t>
+        </is>
+      </c>
+      <c r="B189" s="2" t="inlineStr">
+        <is>
+          <t>motivation</t>
+        </is>
+      </c>
+      <c r="C189" s="2" t="inlineStr">
         <is>
           <t>mental process</t>
         </is>
       </c>
-      <c r="D188" s="2" t="inlineStr">
-        <is>
-          <t>A mental process in which conditions are compared against a particular reference level.</t>
-        </is>
-      </c>
-      <c r="E188" s="2" t="inlineStr"/>
-      <c r="F188" s="2" t="inlineStr"/>
-      <c r="G188" s="2" t="inlineStr"/>
-      <c r="H188" s="2" t="inlineStr">
-        <is>
-          <t>The term 'condition' may refer to the characteristics of an object, event and person.</t>
-        </is>
-      </c>
-      <c r="I188" s="2" t="inlineStr"/>
-      <c r="J188" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K188" s="2" t="inlineStr"/>
-      <c r="L188" s="2" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>MFOEM:000023</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>moral disgust</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>disgust</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>Disgust elicited by some kinds of especially egregious moral violations.</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr"/>
-      <c r="F189" t="inlineStr"/>
-      <c r="G189" t="inlineStr"/>
-      <c r="H189" t="inlineStr"/>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="D189" s="2" t="inlineStr">
+        <is>
+          <t>A mental process that energises and directs behaviour.</t>
+        </is>
+      </c>
+      <c r="E189" s="2" t="inlineStr"/>
+      <c r="F189" s="2" t="inlineStr"/>
+      <c r="G189" s="2" t="inlineStr"/>
+      <c r="H189" s="2" t="inlineStr"/>
+      <c r="I189" s="2" t="inlineStr"/>
+      <c r="J189" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K189" s="2" t="inlineStr"/>
+      <c r="L189" s="2" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006133</t>
+          <t>BCIO:006060</t>
         </is>
       </c>
       <c r="B190" s="2" t="inlineStr">
         <is>
-          <t>motivation</t>
+          <t>motivational orientation towards types of outcomes</t>
         </is>
       </c>
       <c r="C190" s="2" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D190" s="2" t="inlineStr">
         <is>
-          <t>A mental process that energises and directs behaviour.</t>
+          <t xml:space="preserve">A mental disposition for motivation to be guided by a focus on the presence or absence of outcomes of a certain valence. </t>
         </is>
       </c>
       <c r="E190" s="2" t="inlineStr"/>
@@ -7233,22 +7283,22 @@
     <row r="191">
       <c r="A191" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006060</t>
+          <t>BCIO:006068</t>
         </is>
       </c>
       <c r="B191" s="2" t="inlineStr">
         <is>
-          <t>motivational orientation towards types of outcomes</t>
+          <t>need for a sense of belonging and attachment</t>
         </is>
       </c>
       <c r="C191" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>psychological need</t>
         </is>
       </c>
       <c r="D191" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A mental disposition for motivation to be guided by a focus on the presence or absence of outcomes of a certain valence. </t>
+          <t>A psychological need to have caring relationships with other people.</t>
         </is>
       </c>
       <c r="E191" s="2" t="inlineStr"/>
@@ -7267,12 +7317,12 @@
     <row r="192">
       <c r="A192" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006068</t>
+          <t>BCIO:006067</t>
         </is>
       </c>
       <c r="B192" s="2" t="inlineStr">
         <is>
-          <t>need for a sense of belonging and attachment</t>
+          <t>need for a sense of safety</t>
         </is>
       </c>
       <c r="C192" s="2" t="inlineStr">
@@ -7282,7 +7332,7 @@
       </c>
       <c r="D192" s="2" t="inlineStr">
         <is>
-          <t>A psychological need to have caring relationships with other people.</t>
+          <t>A psychological need to feel safe from threats.</t>
         </is>
       </c>
       <c r="E192" s="2" t="inlineStr"/>
@@ -7301,12 +7351,12 @@
     <row r="193">
       <c r="A193" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006067</t>
+          <t>BCIO:006065</t>
         </is>
       </c>
       <c r="B193" s="2" t="inlineStr">
         <is>
-          <t>need for a sense of safety</t>
+          <t>need for autonomy</t>
         </is>
       </c>
       <c r="C193" s="2" t="inlineStr">
@@ -7316,7 +7366,7 @@
       </c>
       <c r="D193" s="2" t="inlineStr">
         <is>
-          <t>A psychological need to feel safe from threats.</t>
+          <t>A psychological need to have a sense of personal agency and initiative.</t>
         </is>
       </c>
       <c r="E193" s="2" t="inlineStr"/>
@@ -7335,12 +7385,12 @@
     <row r="194">
       <c r="A194" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006065</t>
+          <t>BCIO:006066</t>
         </is>
       </c>
       <c r="B194" s="2" t="inlineStr">
         <is>
-          <t>need for autonomy</t>
+          <t>need for self-esteem</t>
         </is>
       </c>
       <c r="C194" s="2" t="inlineStr">
@@ -7350,7 +7400,7 @@
       </c>
       <c r="D194" s="2" t="inlineStr">
         <is>
-          <t>A psychological need to have a sense of personal agency and initiative</t>
+          <t>A psychological need to have a positive evaluation of oneself and one's qualities and characteristics.</t>
         </is>
       </c>
       <c r="E194" s="2" t="inlineStr"/>
@@ -7369,12 +7419,12 @@
     <row r="195">
       <c r="A195" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006066</t>
+          <t>BCIO:006069</t>
         </is>
       </c>
       <c r="B195" s="2" t="inlineStr">
         <is>
-          <t>need for self-esteem</t>
+          <t>need to feel competent</t>
         </is>
       </c>
       <c r="C195" s="2" t="inlineStr">
@@ -7384,11 +7434,15 @@
       </c>
       <c r="D195" s="2" t="inlineStr">
         <is>
-          <t>A psychological need to have a positive evaluation of oneself and one's qualities and characteristics.</t>
+          <t>A psychological need to experience oneself as capable and effective.</t>
         </is>
       </c>
       <c r="E195" s="2" t="inlineStr"/>
-      <c r="F195" s="2" t="inlineStr"/>
+      <c r="F195" s="2" t="inlineStr">
+        <is>
+          <t>need for mastery</t>
+        </is>
+      </c>
       <c r="G195" s="2" t="inlineStr"/>
       <c r="H195" s="2" t="inlineStr"/>
       <c r="I195" s="2" t="inlineStr"/>
@@ -7401,100 +7455,96 @@
       <c r="L195" s="2" t="inlineStr"/>
     </row>
     <row r="196">
-      <c r="A196" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006069</t>
-        </is>
-      </c>
-      <c r="B196" s="2" t="inlineStr">
-        <is>
-          <t>need to feel competent</t>
-        </is>
-      </c>
-      <c r="C196" s="2" t="inlineStr">
-        <is>
-          <t>psychological need</t>
-        </is>
-      </c>
-      <c r="D196" s="2" t="inlineStr">
-        <is>
-          <t>A psychological need to experience oneself as capable and effective.</t>
-        </is>
-      </c>
-      <c r="E196" s="2" t="inlineStr"/>
-      <c r="F196" s="2" t="inlineStr">
-        <is>
-          <t>need for mastery</t>
-        </is>
-      </c>
-      <c r="G196" s="2" t="inlineStr"/>
-      <c r="H196" s="2" t="inlineStr"/>
-      <c r="I196" s="2" t="inlineStr"/>
-      <c r="J196" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K196" s="2" t="inlineStr"/>
-      <c r="L196" s="2" t="inlineStr"/>
+      <c r="A196" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:006037</t>
+        </is>
+      </c>
+      <c r="B196" s="4" t="inlineStr">
+        <is>
+          <t>negative evaluation of self</t>
+        </is>
+      </c>
+      <c r="C196" s="4" t="inlineStr">
+        <is>
+          <t>evaluation of self</t>
+        </is>
+      </c>
+      <c r="D196" s="4" t="inlineStr">
+        <is>
+          <t>A belief about one's negative attributes.</t>
+        </is>
+      </c>
+      <c r="E196" s="4" t="inlineStr"/>
+      <c r="F196" s="4" t="inlineStr">
+        <is>
+          <t>low self-esteem; negative self-esteem</t>
+        </is>
+      </c>
+      <c r="G196" s="4" t="inlineStr"/>
+      <c r="H196" s="4" t="inlineStr"/>
+      <c r="I196" s="4" t="inlineStr"/>
+      <c r="J196" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="K196" s="4" t="inlineStr"/>
+      <c r="L196" s="4" t="inlineStr"/>
     </row>
     <row r="197">
-      <c r="A197" s="4" t="inlineStr">
-        <is>
-          <t>BCIO:006037</t>
-        </is>
-      </c>
-      <c r="B197" s="4" t="inlineStr">
-        <is>
-          <t>negative evaluation of self</t>
-        </is>
-      </c>
-      <c r="C197" s="4" t="inlineStr">
-        <is>
-          <t>evaluation of self</t>
-        </is>
-      </c>
-      <c r="D197" s="4" t="inlineStr">
-        <is>
-          <t>A belief about one's negative attributes.</t>
-        </is>
-      </c>
-      <c r="E197" s="4" t="inlineStr"/>
-      <c r="F197" s="4" t="inlineStr">
-        <is>
-          <t>low self-esteem; negative self-esteem</t>
-        </is>
-      </c>
-      <c r="G197" s="4" t="inlineStr"/>
-      <c r="H197" s="4" t="inlineStr"/>
-      <c r="I197" s="4" t="inlineStr"/>
-      <c r="J197" s="4" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="K197" s="4" t="inlineStr"/>
-      <c r="L197" s="4" t="inlineStr"/>
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>MFOEM:000210</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>negative surprise</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>surprise</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Surprise with a negative valence.</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr"/>
+      <c r="F197" t="inlineStr"/>
+      <c r="G197" t="inlineStr"/>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>MFOEM:000210</t>
+          <t>GO:0046958</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>negative surprise</t>
+          <t>non-associative learning</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>learning</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Surprise with a negative valence.</t>
+          <t>A simple form of learning whereby the repeated presence of a stimulus leads to a change in the probability or strength of the response to that stimulus. There is no association of one type of stimulus with another, rather it is a generalized response to the environment.</t>
         </is>
       </c>
       <c r="E198" t="inlineStr"/>
@@ -7511,106 +7561,110 @@
       <c r="L198" t="inlineStr"/>
     </row>
     <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>GO:0046958</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>non-associative learning</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>learning</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>A simple form of learning whereby the repeated presence of a stimulus leads to a change in the probability or strength of the response to that stimulus. There is no association of one type of stimulus with another, rather it is a generalized response to the environment.</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr"/>
-      <c r="F199" t="inlineStr"/>
-      <c r="G199" t="inlineStr"/>
-      <c r="H199" t="inlineStr"/>
-      <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="A199" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050235</t>
+        </is>
+      </c>
+      <c r="B199" s="3" t="inlineStr">
+        <is>
+          <t>non-judgemental acknowledgement</t>
+        </is>
+      </c>
+      <c r="C199" s="3" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D199" s="3" t="inlineStr">
+        <is>
+          <t>A mental process that involves taking notice of one's affective, mental or bodily experience without judging it as good or bad.</t>
+        </is>
+      </c>
+      <c r="E199" s="3" t="inlineStr"/>
+      <c r="F199" s="3" t="inlineStr">
+        <is>
+          <t>Acceptance</t>
+        </is>
+      </c>
+      <c r="G199" s="3" t="inlineStr"/>
+      <c r="H199" s="3" t="inlineStr"/>
+      <c r="I199" s="3" t="inlineStr"/>
+      <c r="J199" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="K199" s="3" t="inlineStr"/>
+      <c r="L199" s="3" t="inlineStr"/>
     </row>
     <row r="200">
-      <c r="A200" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050235</t>
-        </is>
-      </c>
-      <c r="B200" s="3" t="inlineStr">
-        <is>
-          <t>non-judgemental acknowledgement</t>
-        </is>
-      </c>
-      <c r="C200" s="3" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D200" s="3" t="inlineStr">
-        <is>
-          <t>A mental process that involves taking notice of one's affective, mental or bodily experience without judging it as good or bad.</t>
-        </is>
-      </c>
-      <c r="E200" s="3" t="inlineStr"/>
-      <c r="F200" s="3" t="inlineStr">
-        <is>
-          <t>Acceptance</t>
-        </is>
-      </c>
-      <c r="G200" s="3" t="inlineStr"/>
-      <c r="H200" s="3" t="inlineStr"/>
-      <c r="I200" s="3" t="inlineStr"/>
-      <c r="J200" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="K200" s="3" t="inlineStr"/>
-      <c r="L200" s="3" t="inlineStr"/>
+      <c r="A200" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050238</t>
+        </is>
+      </c>
+      <c r="B200" s="2" t="inlineStr">
+        <is>
+          <t>non-linguistic communication behaviour</t>
+        </is>
+      </c>
+      <c r="C200" s="2" t="inlineStr">
+        <is>
+          <t>communication behaviour</t>
+        </is>
+      </c>
+      <c r="D200" s="2" t="inlineStr">
+        <is>
+          <t>A communication behaviour in which information is transmitted without being encoded in the meaning units of any language.</t>
+        </is>
+      </c>
+      <c r="E200" s="2" t="inlineStr"/>
+      <c r="F200" s="2" t="inlineStr"/>
+      <c r="G200" s="2" t="inlineStr">
+        <is>
+          <t>Communicating through bodily gestures, through pictograms and through sound (e.g. a siren going off communicates information about the presence of danger without the use of language)</t>
+        </is>
+      </c>
+      <c r="H200" s="2" t="inlineStr"/>
+      <c r="I200" s="2" t="inlineStr"/>
+      <c r="J200" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K200" s="2" t="inlineStr"/>
+      <c r="L200" s="2" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050238</t>
+          <t>BCIO:006095</t>
         </is>
       </c>
       <c r="B201" s="2" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour</t>
+          <t>normative behaviour</t>
         </is>
       </c>
       <c r="C201" s="2" t="inlineStr">
         <is>
-          <t>communication behaviour</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="D201" s="2" t="inlineStr">
         <is>
-          <t>A communication behaviour in which information is transmitted without being encoded in the meaning units of any language.</t>
+          <t>An individual human behaviour that is commonly enacted by people that are part of a social environmental system.</t>
         </is>
       </c>
       <c r="E201" s="2" t="inlineStr"/>
       <c r="F201" s="2" t="inlineStr"/>
-      <c r="G201" s="2" t="inlineStr">
-        <is>
-          <t>Communicating through bodily gestures, through pictograms and through sound (e.g. a siren going off communicates information about the presence of danger without the use of language)</t>
-        </is>
-      </c>
-      <c r="H201" s="2" t="inlineStr"/>
+      <c r="G201" s="2" t="inlineStr"/>
+      <c r="H201" s="2" t="inlineStr">
+        <is>
+          <t>Normative behaviour can be an MoA or outcome depending on how 'normative behaviour' is described in an intervention. The Behaviour Change-Intervention Ontology includes the class 'outcome behaviour' (definition: Human behavior that is an intervention outcome.), which would not be an MoA. When an intervention targets a normative behaviour to achieve an outcome behaviour, the former qualifies as an MoA.</t>
+        </is>
+      </c>
       <c r="I201" s="2" t="inlineStr"/>
       <c r="J201" s="2" t="inlineStr">
         <is>
@@ -7623,22 +7677,22 @@
     <row r="202">
       <c r="A202" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006095</t>
+          <t>BCIO:006042</t>
         </is>
       </c>
       <c r="B202" s="2" t="inlineStr">
         <is>
-          <t>normative behaviour</t>
+          <t>normative belief</t>
         </is>
       </c>
       <c r="C202" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>perceived norm</t>
         </is>
       </c>
       <c r="D202" s="2" t="inlineStr">
         <is>
-          <t>An individual human behaviour that is commonly enacted by people that are part of a social environmental system.</t>
+          <t>A belief about whether key others think one should perform a behaviour.</t>
         </is>
       </c>
       <c r="E202" s="2" t="inlineStr"/>
@@ -7646,7 +7700,7 @@
       <c r="G202" s="2" t="inlineStr"/>
       <c r="H202" s="2" t="inlineStr">
         <is>
-          <t>Normative behaviour can be an MoA or outcome depending on how 'normative behaviour' is described in an intervention. The Behaviour Change-Intervention Ontology includes the class 'outcome behaviour' (definition: Human behavior that is an intervention outcome.), which would not be an MoA. When an intervention targets a normative behaviour to achieve an outcome behaviour, the former qualifies as an MoA.</t>
+          <t>'Key others' can include 'people in one’s social network’</t>
         </is>
       </c>
       <c r="I202" s="2" t="inlineStr"/>
@@ -7659,102 +7713,102 @@
       <c r="L202" s="2" t="inlineStr"/>
     </row>
     <row r="203">
-      <c r="A203" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006042</t>
-        </is>
-      </c>
-      <c r="B203" s="2" t="inlineStr">
-        <is>
-          <t>normative belief</t>
-        </is>
-      </c>
-      <c r="C203" s="2" t="inlineStr">
-        <is>
-          <t>perceived norm</t>
-        </is>
-      </c>
-      <c r="D203" s="2" t="inlineStr">
-        <is>
-          <t>A belief about whether important others think one should perform a behaviour.</t>
-        </is>
-      </c>
-      <c r="E203" s="2" t="inlineStr"/>
-      <c r="F203" s="2" t="inlineStr"/>
-      <c r="G203" s="2" t="inlineStr"/>
-      <c r="H203" s="2" t="inlineStr"/>
-      <c r="I203" s="2" t="inlineStr"/>
-      <c r="J203" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K203" s="2" t="inlineStr"/>
-      <c r="L203" s="2" t="inlineStr"/>
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>GO:0098597</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>observational learning</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>learning</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Learning that occurs through observing the behaviour of others.</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr"/>
+      <c r="F203" t="inlineStr"/>
+      <c r="G203" t="inlineStr"/>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
     </row>
     <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>GO:0098597</t>
-        </is>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>observational learning</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>learning</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>Learning that occurs through observing the behaviour of others.</t>
-        </is>
-      </c>
-      <c r="E204" t="inlineStr"/>
-      <c r="F204" t="inlineStr"/>
-      <c r="G204" t="inlineStr"/>
-      <c r="H204" t="inlineStr"/>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="A204" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:015430</t>
+        </is>
+      </c>
+      <c r="B204" s="2" t="inlineStr">
+        <is>
+          <t>occupational role</t>
+        </is>
+      </c>
+      <c r="C204" s="2" t="inlineStr">
+        <is>
+          <t>personal role</t>
+        </is>
+      </c>
+      <c r="D204" s="2" t="inlineStr">
+        <is>
+          <t>A role that is realised in a person by doing a specified type of work or working in a specified way.</t>
+        </is>
+      </c>
+      <c r="E204" s="2" t="inlineStr"/>
+      <c r="F204" s="2" t="inlineStr"/>
+      <c r="G204" s="2" t="inlineStr"/>
+      <c r="H204" s="2" t="inlineStr">
+        <is>
+          <t>A role can be assigned without being realised. A person realises a role by doing something.</t>
+        </is>
+      </c>
+      <c r="I204" s="2" t="inlineStr"/>
+      <c r="J204" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K204" s="2" t="inlineStr"/>
+      <c r="L204" s="2" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="2" t="inlineStr">
         <is>
-          <t>BCIO:015430</t>
+          <t>BCIO:006125</t>
         </is>
       </c>
       <c r="B205" s="2" t="inlineStr">
         <is>
-          <t>occupational role</t>
+          <t>operant conditioning</t>
         </is>
       </c>
       <c r="C205" s="2" t="inlineStr">
         <is>
-          <t>personal role</t>
+          <t>associative learning</t>
         </is>
       </c>
       <c r="D205" s="2" t="inlineStr">
         <is>
-          <t>A role that is realised in a person by doing a specified type of work or working in a specified way.</t>
+          <t>Associative learning process in which the likelihood of a particular behavioural response is influenced by the past consequences associated with performing that behaviour.</t>
         </is>
       </c>
       <c r="E205" s="2" t="inlineStr"/>
       <c r="F205" s="2" t="inlineStr"/>
       <c r="G205" s="2" t="inlineStr"/>
-      <c r="H205" s="2" t="inlineStr">
-        <is>
-          <t>A role can be assigned without being realised. A person realises a role by doing something.</t>
-        </is>
-      </c>
+      <c r="H205" s="2" t="inlineStr"/>
       <c r="I205" s="2" t="inlineStr"/>
       <c r="J205" s="2" t="inlineStr">
         <is>
@@ -7765,82 +7819,82 @@
       <c r="L205" s="2" t="inlineStr"/>
     </row>
     <row r="206">
-      <c r="A206" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006125</t>
-        </is>
-      </c>
-      <c r="B206" s="2" t="inlineStr">
-        <is>
-          <t>operant conditioning</t>
-        </is>
-      </c>
-      <c r="C206" s="2" t="inlineStr">
-        <is>
-          <t>associative learning</t>
-        </is>
-      </c>
-      <c r="D206" s="2" t="inlineStr">
-        <is>
-          <t>Associative learning process in which the likelihood of a particular behavioural response is influenced by the past consequences associated with performing that behaviour.</t>
-        </is>
-      </c>
-      <c r="E206" s="2" t="inlineStr"/>
-      <c r="F206" s="2" t="inlineStr"/>
-      <c r="G206" s="2" t="inlineStr"/>
-      <c r="H206" s="2" t="inlineStr"/>
-      <c r="I206" s="2" t="inlineStr"/>
-      <c r="J206" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K206" s="2" t="inlineStr"/>
-      <c r="L206" s="2" t="inlineStr"/>
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>MFOEM:000203</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>pain</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>subjective affective feeling</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>A subjective affective feeling in an organism S, involving two integrated levels: (a) activation of the nociceptive system and associated emotion generating brain components of S, and (b) a simultaneous aversive sensory and emotional experience on the part of S, where (b) is phenomenologically similar to the sort of aversive experience involved in pain with concordant tissue damage.</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr"/>
+      <c r="F206" t="inlineStr"/>
+      <c r="G206" t="inlineStr"/>
+      <c r="H206" t="inlineStr"/>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
     </row>
     <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>MFOEM:000203</t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>pain</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>subjective affective feeling</t>
-        </is>
-      </c>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>A subjective affective feeling in an organism S, involving two integrated levels: (a) activation of the nociceptive system and associated emotion generating brain components of S, and (b) a simultaneous aversive sensory and emotional experience on the part of S, where (b) is phenomenologically similar to the sort of aversive experience involved in pain with concordant tissue damage.</t>
-        </is>
-      </c>
-      <c r="E207" t="inlineStr"/>
-      <c r="F207" t="inlineStr"/>
-      <c r="G207" t="inlineStr"/>
-      <c r="H207" t="inlineStr"/>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="A207" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006040</t>
+        </is>
+      </c>
+      <c r="B207" s="2" t="inlineStr">
+        <is>
+          <t>perceived descriptive norm</t>
+        </is>
+      </c>
+      <c r="C207" s="2" t="inlineStr">
+        <is>
+          <t>perceived norm</t>
+        </is>
+      </c>
+      <c r="D207" s="2" t="inlineStr">
+        <is>
+          <t>A belief about the prevalence of performance of a given behaviour by people within a group.</t>
+        </is>
+      </c>
+      <c r="E207" s="2" t="inlineStr"/>
+      <c r="F207" s="2" t="inlineStr"/>
+      <c r="G207" s="2" t="inlineStr"/>
+      <c r="H207" s="2" t="inlineStr"/>
+      <c r="I207" s="2" t="inlineStr"/>
+      <c r="J207" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K207" s="2" t="inlineStr"/>
+      <c r="L207" s="2" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006040</t>
+          <t>BCIO:006041</t>
         </is>
       </c>
       <c r="B208" s="2" t="inlineStr">
         <is>
-          <t>perceived descriptive norm</t>
+          <t>perceived injunctive norm</t>
         </is>
       </c>
       <c r="C208" s="2" t="inlineStr">
@@ -7850,7 +7904,7 @@
       </c>
       <c r="D208" s="2" t="inlineStr">
         <is>
-          <t>A belief about the prevalence of performance of a given behaviour by people within a group.</t>
+          <t>A belief about whether a behaviour is appropriate and correct for people who belong to a particular group.</t>
         </is>
       </c>
       <c r="E208" s="2" t="inlineStr"/>
@@ -7869,28 +7923,36 @@
     <row r="209">
       <c r="A209" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006041</t>
+          <t>BCIO:006039</t>
         </is>
       </c>
       <c r="B209" s="2" t="inlineStr">
         <is>
-          <t>perceived injunctive norm</t>
+          <t>perceived norm</t>
         </is>
       </c>
       <c r="C209" s="2" t="inlineStr">
         <is>
-          <t>perceived norm</t>
+          <t>belief</t>
         </is>
       </c>
       <c r="D209" s="2" t="inlineStr">
         <is>
-          <t>A belief about whether a behaviour is appropriate and correct for people who belong to a particular group.</t>
+          <t>A belief about what is typical for people who belong to a particular group.</t>
         </is>
       </c>
       <c r="E209" s="2" t="inlineStr"/>
-      <c r="F209" s="2" t="inlineStr"/>
+      <c r="F209" s="2" t="inlineStr">
+        <is>
+          <t>belief about norm</t>
+        </is>
+      </c>
       <c r="G209" s="2" t="inlineStr"/>
-      <c r="H209" s="2" t="inlineStr"/>
+      <c r="H209" s="2" t="inlineStr">
+        <is>
+          <t>A person does not need to belong to a group to have a perception of their norms. For instance, the perceived norm could be in a group one aspires to belong to, and so the person might attempt to conform to it in an attempt to be accepted as a member of that group.</t>
+        </is>
+      </c>
       <c r="I209" s="2" t="inlineStr"/>
       <c r="J209" s="2" t="inlineStr">
         <is>
@@ -7901,66 +7963,63 @@
       <c r="L209" s="2" t="inlineStr"/>
     </row>
     <row r="210">
-      <c r="A210" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006039</t>
-        </is>
-      </c>
-      <c r="B210" s="2" t="inlineStr">
-        <is>
-          <t>perceived norm</t>
-        </is>
-      </c>
-      <c r="C210" s="2" t="inlineStr">
-        <is>
-          <t>belief</t>
-        </is>
-      </c>
-      <c r="D210" s="2" t="inlineStr">
-        <is>
-          <t>A belief about what is typical for people who belong to a particular group.</t>
-        </is>
-      </c>
-      <c r="E210" s="2" t="inlineStr"/>
-      <c r="F210" s="2" t="inlineStr">
-        <is>
-          <t>belief about norm</t>
-        </is>
-      </c>
-      <c r="G210" s="2" t="inlineStr"/>
-      <c r="H210" s="2" t="inlineStr">
-        <is>
-          <t>A person does not need to belong to a group to have a perception of their norms. For instance, the perceived norm could be in a group one aspires to belong to, and so the person might attempt to conform to it in an attempt to be accepted as a member of that group.</t>
-        </is>
-      </c>
-      <c r="I210" s="2" t="inlineStr"/>
-      <c r="J210" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K210" s="2" t="inlineStr"/>
-      <c r="L210" s="2" t="inlineStr"/>
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>MF:0000019</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>perception</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>A mental process which is a) produced by a causal process involving a part of the environment of the organism, and b) is experienced by the organism as being so caused, and c) in which the relevant part of the environment is thereby represented to the organism.</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr"/>
+      <c r="F210" t="inlineStr"/>
+      <c r="G210" t="inlineStr"/>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Examples for 'causal processes involving a part of the environment of an organism' that can be perceived are light rays and air vibrations.
+'Perception' is about perceiving stimuli in one's environment in the MoA Ontology. However, the term 'perception' is sometimes used to refer to things defined as 'belief' in the MoA Ontology.</t>
+        </is>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>MF:0000019</t>
+          <t xml:space="preserve">MF:0000043 </t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>perception</t>
+          <t>personal capability</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>bodily disposition</t>
         </is>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>A mental process which is a) produced by a causal process involving a part of the environment of the organism, and b) is experienced by the organism as being so caused, and c) in which the relevant part of the environment is thereby represented to the organism.</t>
+          <t>A bodily disposition whose realization ordinarily brings benefits to an organism or group of organisms, where "ordinarily" means within a typical  range or context.</t>
         </is>
       </c>
       <c r="E211" t="inlineStr"/>
@@ -7968,8 +8027,8 @@
       <c r="G211" t="inlineStr"/>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Examples for 'causal processes involving a part of the environment of an organism' that can be perceived are light rays and air vibrations.
-'Perception' is about perceiving stimuli in one's environment in the MoA Ontology. However, the term 'perception' is sometimes used to refer to things defined as 'belief' in the MoA Ontology.</t>
+          <t>The phrase 'ordinarily brings benefits to an organism or group of organism' is used to explain that capabilities normally provide a benefit. 
+For instance, having a musical ability is ordinarily an ability that is positive for a person (e.g., they receive positive feedback about their ability). However, in certain exceptional cases (e.g., a neighbour becoming annoyed with a person playing the piano and expressing this annoyance), the ability might not bring benefits.</t>
         </is>
       </c>
       <c r="I211" t="inlineStr"/>
@@ -7982,107 +8041,102 @@
       <c r="L211" t="inlineStr"/>
     </row>
     <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MF:0000043 </t>
-        </is>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>personal capability</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>bodily disposition</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr">
-        <is>
-          <t>A bodily disposition whose realization ordinarily brings benefits to an organism or group of organisms, where "ordinarily" means within a typical  range or context.</t>
-        </is>
-      </c>
-      <c r="E212" t="inlineStr"/>
-      <c r="F212" t="inlineStr"/>
-      <c r="G212" t="inlineStr"/>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>The phrase 'ordinarily brings benefits to an organism or group of organism' is used to explain that capabilities normally provide a benefit. 
-For instance, having a musical ability is ordinarily an ability that is positive for a person (e.g., they receive positive feedback about their ability). However, in certain exceptional cases (e.g., a neighbour becoming annoyed with a person playing the piano and expressing this annoyance), the ability might not bring benefits.</t>
-        </is>
-      </c>
-      <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
+      <c r="A212" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:006084</t>
+        </is>
+      </c>
+      <c r="B212" s="4" t="inlineStr">
+        <is>
+          <t>personal financial resource</t>
+        </is>
+      </c>
+      <c r="C212" s="4" t="inlineStr">
+        <is>
+          <t>personal  role</t>
+        </is>
+      </c>
+      <c r="D212" s="4" t="inlineStr">
+        <is>
+          <t>A personal role in which the individual has access to a material or an immaterial entity which may confer economic benefits.</t>
+        </is>
+      </c>
+      <c r="E212" s="4" t="inlineStr"/>
+      <c r="F212" s="4" t="inlineStr"/>
+      <c r="G212" s="4" t="inlineStr"/>
+      <c r="H212" s="4" t="inlineStr"/>
+      <c r="I212" s="4" t="inlineStr"/>
+      <c r="J212" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="K212" s="4" t="inlineStr"/>
+      <c r="L212" s="4" t="inlineStr"/>
     </row>
     <row r="213">
-      <c r="A213" s="4" t="inlineStr">
-        <is>
-          <t>BCIO:006084</t>
-        </is>
-      </c>
-      <c r="B213" s="4" t="inlineStr">
-        <is>
-          <t>personal financial resource</t>
-        </is>
-      </c>
-      <c r="C213" s="4" t="inlineStr">
-        <is>
-          <t>personal  role</t>
-        </is>
-      </c>
-      <c r="D213" s="4" t="inlineStr">
-        <is>
-          <t>A personal role in which the individual has access to a material or an immaterial entity which may confer economic benefits.</t>
-        </is>
-      </c>
-      <c r="E213" s="4" t="inlineStr"/>
-      <c r="F213" s="4" t="inlineStr"/>
-      <c r="G213" s="4" t="inlineStr"/>
-      <c r="H213" s="4" t="inlineStr"/>
-      <c r="I213" s="4" t="inlineStr"/>
-      <c r="J213" s="4" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="K213" s="4" t="inlineStr"/>
-      <c r="L213" s="4" t="inlineStr"/>
+      <c r="A213" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006081</t>
+        </is>
+      </c>
+      <c r="B213" s="2" t="inlineStr">
+        <is>
+          <t>personal role</t>
+        </is>
+      </c>
+      <c r="C213" s="2" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="D213" s="2" t="inlineStr">
+        <is>
+          <t>A role that inheres in a human being by virtue of their social and institutional circumstances.</t>
+        </is>
+      </c>
+      <c r="E213" s="2" t="inlineStr"/>
+      <c r="F213" s="2" t="inlineStr"/>
+      <c r="G213" s="2" t="inlineStr"/>
+      <c r="H213" s="2" t="inlineStr">
+        <is>
+          <t>A role can be assigned without being realised. A person realises a role by doing something.</t>
+        </is>
+      </c>
+      <c r="I213" s="2" t="inlineStr"/>
+      <c r="J213" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K213" s="2" t="inlineStr"/>
+      <c r="L213" s="2" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006081</t>
+          <t>BCIO:006063</t>
         </is>
       </c>
       <c r="B214" s="2" t="inlineStr">
         <is>
-          <t>personal role</t>
+          <t>personal value</t>
         </is>
       </c>
       <c r="C214" s="2" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D214" s="2" t="inlineStr">
         <is>
-          <t>A role that inheres in a human being by virtue of their social and institutional circumstances.</t>
+          <t>A mental disposition to regard certain things as fundamentally important in life, which informs standards for behaviour.</t>
         </is>
       </c>
       <c r="E214" s="2" t="inlineStr"/>
       <c r="F214" s="2" t="inlineStr"/>
       <c r="G214" s="2" t="inlineStr"/>
-      <c r="H214" s="2" t="inlineStr">
-        <is>
-          <t>A role can be assigned without being realised. A person realises a role by doing something.</t>
-        </is>
-      </c>
+      <c r="H214" s="2" t="inlineStr"/>
       <c r="I214" s="2" t="inlineStr"/>
       <c r="J214" s="2" t="inlineStr">
         <is>
@@ -8095,22 +8149,22 @@
     <row r="215">
       <c r="A215" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006063</t>
+          <t>BCIO:006009</t>
         </is>
       </c>
       <c r="B215" s="2" t="inlineStr">
         <is>
-          <t>personal value</t>
+          <t>physical behavioural capability</t>
         </is>
       </c>
       <c r="C215" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>behavioural capability</t>
         </is>
       </c>
       <c r="D215" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to regard certain things as fundamentally important in life, which informs standards for behaviour.</t>
+          <t xml:space="preserve">A behavioural capability that involves a musculoskeletal process in its realisation. </t>
         </is>
       </c>
       <c r="E215" s="2" t="inlineStr"/>
@@ -8129,28 +8183,32 @@
     <row r="216">
       <c r="A216" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006009</t>
+          <t>BCIO:006089</t>
         </is>
       </c>
       <c r="B216" s="2" t="inlineStr">
         <is>
-          <t>physical behavioural capability</t>
+          <t>physical behavioural opportunity</t>
         </is>
       </c>
       <c r="C216" s="2" t="inlineStr">
         <is>
-          <t>behavioural capability</t>
+          <t>behavioural opportunity</t>
         </is>
       </c>
       <c r="D216" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A behavioural capability that involves a musculoskeletal process in its realisation. </t>
+          <t>A behavioural opportunity that involves time and parts of the environmental system that do not involve people or organisations.</t>
         </is>
       </c>
       <c r="E216" s="2" t="inlineStr"/>
       <c r="F216" s="2" t="inlineStr"/>
       <c r="G216" s="2" t="inlineStr"/>
-      <c r="H216" s="2" t="inlineStr"/>
+      <c r="H216" s="2" t="inlineStr">
+        <is>
+          <t>An 'behavioural opportunity' is a feature of the environmental system. While the class 'environmental system' is about what is found in an environment, the behavioural opportunity is a feature of the environment which interacts with the person and enables or prevents a behaviour.</t>
+        </is>
+      </c>
       <c r="I216" s="2" t="inlineStr"/>
       <c r="J216" s="2" t="inlineStr">
         <is>
@@ -8163,32 +8221,28 @@
     <row r="217">
       <c r="A217" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006089</t>
+          <t>BCIO:006010</t>
         </is>
       </c>
       <c r="B217" s="2" t="inlineStr">
         <is>
-          <t>physical behavioural opportunity</t>
+          <t>physical skill</t>
         </is>
       </c>
       <c r="C217" s="2" t="inlineStr">
         <is>
-          <t>behavioural opportunity</t>
+          <t>physical behavioural capability</t>
         </is>
       </c>
       <c r="D217" s="2" t="inlineStr">
         <is>
-          <t>A behavioural opportunity that involves time and parts of the environmental system that do not involve people or organisations.</t>
+          <t>A physical capability acquired through training or practice.</t>
         </is>
       </c>
       <c r="E217" s="2" t="inlineStr"/>
       <c r="F217" s="2" t="inlineStr"/>
       <c r="G217" s="2" t="inlineStr"/>
-      <c r="H217" s="2" t="inlineStr">
-        <is>
-          <t>An 'behavioural opportunity' is a feature of the environmental system. While the class 'environmental system' is about what is found in an environment, the behavioural opportunity is a feature of the environment which interacts with the person and enables or prevents a behaviour.</t>
-        </is>
-      </c>
+      <c r="H217" s="2" t="inlineStr"/>
       <c r="I217" s="2" t="inlineStr"/>
       <c r="J217" s="2" t="inlineStr">
         <is>
@@ -8199,136 +8253,140 @@
       <c r="L217" s="2" t="inlineStr"/>
     </row>
     <row r="218">
-      <c r="A218" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006010</t>
-        </is>
-      </c>
-      <c r="B218" s="2" t="inlineStr">
-        <is>
-          <t>physical skill</t>
-        </is>
-      </c>
-      <c r="C218" s="2" t="inlineStr">
-        <is>
-          <t>physical behavioural capability</t>
-        </is>
-      </c>
-      <c r="D218" s="2" t="inlineStr">
-        <is>
-          <t>A physical capability acquired through training or practice.</t>
-        </is>
-      </c>
-      <c r="E218" s="2" t="inlineStr"/>
-      <c r="F218" s="2" t="inlineStr"/>
-      <c r="G218" s="2" t="inlineStr"/>
-      <c r="H218" s="2" t="inlineStr"/>
-      <c r="I218" s="2" t="inlineStr"/>
-      <c r="J218" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K218" s="2" t="inlineStr"/>
-      <c r="L218" s="2" t="inlineStr"/>
+      <c r="A218" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MFOEM:000003 </t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>physiological process involved in an emotion</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>bodily process</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>A bodily process that encompasses all the neurophysiological changes accompanying an emotion, which take place in the central nervous system (CNS), neuro-endocrine system (NES) and autonomous nervous system (ANS).</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr"/>
+      <c r="F218" t="inlineStr"/>
+      <c r="G218" t="inlineStr"/>
+      <c r="H218" t="inlineStr"/>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
     </row>
     <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MFOEM:000003 </t>
-        </is>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>physiological process involved in an emotion</t>
-        </is>
-      </c>
-      <c r="C219" t="inlineStr">
+      <c r="A219" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006102</t>
+        </is>
+      </c>
+      <c r="B219" s="2" t="inlineStr">
+        <is>
+          <t>plan enactment</t>
+        </is>
+      </c>
+      <c r="C219" s="2" t="inlineStr">
         <is>
           <t>bodily process</t>
         </is>
       </c>
-      <c r="D219" t="inlineStr">
-        <is>
-          <t>A bodily process that encompasses all the neurophysiological changes accompanying an emotion, which take place in the central nervous system (CNS), neuro-endocrine system (NES) and autonomous nervous system (ANS).</t>
-        </is>
-      </c>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr"/>
-      <c r="H219" t="inlineStr"/>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr">
+      <c r="D219" s="2" t="inlineStr">
+        <is>
+          <t>A bodily process by which a person attempts to follow the steps in a plan.</t>
+        </is>
+      </c>
+      <c r="E219" s="2" t="inlineStr"/>
+      <c r="F219" s="2" t="inlineStr"/>
+      <c r="G219" s="2" t="inlineStr"/>
+      <c r="H219" s="2" t="inlineStr"/>
+      <c r="I219" s="2" t="inlineStr"/>
+      <c r="J219" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K219" s="2" t="inlineStr"/>
+      <c r="L219" s="2" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>MF:0000027</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>planning</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>A mental process that involves mentally manipulating representations of steps in an imagined process which has some goal.</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr"/>
+      <c r="F220" t="inlineStr"/>
+      <c r="G220" t="inlineStr"/>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>The outcome of this mental process is a mental plan which has the potential to be followed to bring about the desired outcome.</t>
+        </is>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006102</t>
-        </is>
-      </c>
-      <c r="B220" s="2" t="inlineStr">
-        <is>
-          <t>plan enactment</t>
-        </is>
-      </c>
-      <c r="C220" s="2" t="inlineStr">
-        <is>
-          <t>bodily process</t>
-        </is>
-      </c>
-      <c r="D220" s="2" t="inlineStr">
-        <is>
-          <t>A bodily process by which a person attempts to follow the steps in a plan.</t>
-        </is>
-      </c>
-      <c r="E220" s="2" t="inlineStr"/>
-      <c r="F220" s="2" t="inlineStr"/>
-      <c r="G220" s="2" t="inlineStr"/>
-      <c r="H220" s="2" t="inlineStr"/>
-      <c r="I220" s="2" t="inlineStr"/>
-      <c r="J220" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K220" s="2" t="inlineStr"/>
-      <c r="L220" s="2" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>MF:0000027</t>
+          <t>MFOEM:000035</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>planning</t>
+          <t>pleasure</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>emotion process</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>A mental process that involves mentally manipulating representations of steps in an imagined process which has some goal.</t>
+          <t>A positive emotion which is sought out and is associated with happiness and satisfaction.</t>
         </is>
       </c>
       <c r="E221" t="inlineStr"/>
-      <c r="F221" t="inlineStr"/>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>enjoyment</t>
+        </is>
+      </c>
       <c r="G221" t="inlineStr"/>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>The outcome of this mental process is a mental plan which has the potential to be followed to bring about the desired outcome.</t>
-        </is>
-      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr">
         <is>
@@ -8339,180 +8397,176 @@
       <c r="L221" t="inlineStr"/>
     </row>
     <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>MFOEM:000035</t>
-        </is>
-      </c>
-      <c r="B222" t="inlineStr">
+      <c r="A222" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006159</t>
+        </is>
+      </c>
+      <c r="B222" s="2" t="inlineStr">
+        <is>
+          <t>pleasure associated with behaviour</t>
+        </is>
+      </c>
+      <c r="C222" s="2" t="inlineStr">
         <is>
           <t>pleasure</t>
         </is>
       </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>emotion process</t>
-        </is>
-      </c>
-      <c r="D222" t="inlineStr">
-        <is>
-          <t>A positive emotion which is sought out and is associated with happiness and satisfaction.</t>
-        </is>
-      </c>
-      <c r="E222" t="inlineStr"/>
-      <c r="F222" t="inlineStr">
-        <is>
-          <t>enjoyment</t>
-        </is>
-      </c>
-      <c r="G222" t="inlineStr"/>
-      <c r="H222" t="inlineStr"/>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr">
+      <c r="D222" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pleasure that is experienced as a result of engaging in a behaviour. </t>
+        </is>
+      </c>
+      <c r="E222" s="2" t="inlineStr"/>
+      <c r="F222" s="2" t="inlineStr">
+        <is>
+          <t>Enjoyment of behaviour</t>
+        </is>
+      </c>
+      <c r="G222" s="2" t="inlineStr"/>
+      <c r="H222" s="2" t="inlineStr"/>
+      <c r="I222" s="2" t="inlineStr"/>
+      <c r="J222" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K222" s="2" t="inlineStr"/>
+      <c r="L222" s="2" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:006036</t>
+        </is>
+      </c>
+      <c r="B223" s="4" t="inlineStr">
+        <is>
+          <t>positive evaluation of self</t>
+        </is>
+      </c>
+      <c r="C223" s="4" t="inlineStr">
+        <is>
+          <t>evaluation of self</t>
+        </is>
+      </c>
+      <c r="D223" s="4" t="inlineStr">
+        <is>
+          <t>A belief about one's positive attributes.</t>
+        </is>
+      </c>
+      <c r="E223" s="4" t="inlineStr"/>
+      <c r="F223" s="4" t="inlineStr">
+        <is>
+          <t>positive self-esteem</t>
+        </is>
+      </c>
+      <c r="G223" s="4" t="inlineStr"/>
+      <c r="H223" s="4" t="inlineStr">
+        <is>
+          <t>Self-esteem is often used to refer to positive evaluations of self.</t>
+        </is>
+      </c>
+      <c r="I223" s="4" t="inlineStr"/>
+      <c r="J223" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="K223" s="4" t="inlineStr"/>
+      <c r="L223" s="4" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>MFOEM:000209</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>positive surprise</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>surprise</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>Surprise with a positive valence.</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr"/>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>wonder; astonishment</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr"/>
+      <c r="H224" t="inlineStr"/>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006159</t>
-        </is>
-      </c>
-      <c r="B223" s="2" t="inlineStr">
-        <is>
-          <t>pleasure associated with behaviour</t>
-        </is>
-      </c>
-      <c r="C223" s="2" t="inlineStr">
-        <is>
-          <t>pleasure</t>
-        </is>
-      </c>
-      <c r="D223" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pleasure that is experienced as a result of engaging in a behaviour. </t>
-        </is>
-      </c>
-      <c r="E223" s="2" t="inlineStr"/>
-      <c r="F223" s="2" t="inlineStr">
-        <is>
-          <t>Enjoyment of behaviour</t>
-        </is>
-      </c>
-      <c r="G223" s="2" t="inlineStr"/>
-      <c r="H223" s="2" t="inlineStr"/>
-      <c r="I223" s="2" t="inlineStr"/>
-      <c r="J223" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K223" s="2" t="inlineStr"/>
-      <c r="L223" s="2" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="4" t="inlineStr">
-        <is>
-          <t>BCIO:006036</t>
-        </is>
-      </c>
-      <c r="B224" s="4" t="inlineStr">
-        <is>
-          <t>positive evaluation of self</t>
-        </is>
-      </c>
-      <c r="C224" s="4" t="inlineStr">
-        <is>
-          <t>evaluation of self</t>
-        </is>
-      </c>
-      <c r="D224" s="4" t="inlineStr">
-        <is>
-          <t>A belief about one's positive attributes.</t>
-        </is>
-      </c>
-      <c r="E224" s="4" t="inlineStr"/>
-      <c r="F224" s="4" t="inlineStr">
-        <is>
-          <t>positive self-esteem</t>
-        </is>
-      </c>
-      <c r="G224" s="4" t="inlineStr"/>
-      <c r="H224" s="4" t="inlineStr">
-        <is>
-          <t>Self-esteem is often used to refer to positive evaluations of self.</t>
-        </is>
-      </c>
-      <c r="I224" s="4" t="inlineStr"/>
-      <c r="J224" s="4" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="K224" s="4" t="inlineStr"/>
-      <c r="L224" s="4" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>MFOEM:000209</t>
-        </is>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>positive surprise</t>
-        </is>
-      </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>surprise</t>
-        </is>
-      </c>
-      <c r="D225" t="inlineStr">
-        <is>
-          <t>Surprise with a positive valence.</t>
-        </is>
-      </c>
-      <c r="E225" t="inlineStr"/>
-      <c r="F225" t="inlineStr">
-        <is>
-          <t>wonder; astonishment</t>
-        </is>
-      </c>
-      <c r="G225" t="inlineStr"/>
-      <c r="H225" t="inlineStr"/>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
+      <c r="A225" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006061</t>
+        </is>
+      </c>
+      <c r="B225" s="2" t="inlineStr">
+        <is>
+          <t>prevention focused motivational orientation</t>
+        </is>
+      </c>
+      <c r="C225" s="2" t="inlineStr">
+        <is>
+          <t>motivational orientation towards types of outcomes</t>
+        </is>
+      </c>
+      <c r="D225" s="2" t="inlineStr">
+        <is>
+          <t>A mental disposition for motivation to be guided by a focus on the presence or absence of positive outcomes.</t>
+        </is>
+      </c>
+      <c r="E225" s="2" t="inlineStr"/>
+      <c r="F225" s="2" t="inlineStr"/>
+      <c r="G225" s="2" t="inlineStr"/>
+      <c r="H225" s="2" t="inlineStr"/>
+      <c r="I225" s="2" t="inlineStr"/>
+      <c r="J225" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K225" s="2" t="inlineStr"/>
+      <c r="L225" s="2" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006061</t>
+          <t>BCIO:006129</t>
         </is>
       </c>
       <c r="B226" s="2" t="inlineStr">
         <is>
-          <t>prevention focused motivational orientation</t>
+          <t>procedural memory</t>
         </is>
       </c>
       <c r="C226" s="2" t="inlineStr">
         <is>
-          <t>motivational orientation towards types of outcomes</t>
+          <t>memory</t>
         </is>
       </c>
       <c r="D226" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition for motivation to be guided by a focus on the presence or absence of positive outcomes.</t>
+          <t>A memory process that deals with the receipt, storage, retrieval and modification of information regarding how to perform a complex activity without conscious awareness.</t>
         </is>
       </c>
       <c r="E226" s="2" t="inlineStr"/>
@@ -8529,58 +8583,58 @@
       <c r="L226" s="2" t="inlineStr"/>
     </row>
     <row r="227">
-      <c r="A227" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006129</t>
-        </is>
-      </c>
-      <c r="B227" s="2" t="inlineStr">
-        <is>
-          <t>procedural memory</t>
-        </is>
-      </c>
-      <c r="C227" s="2" t="inlineStr">
-        <is>
-          <t>memory</t>
-        </is>
-      </c>
-      <c r="D227" s="2" t="inlineStr">
-        <is>
-          <t>A memory process that deals with the receipt, storage, retrieval and modification of information regarding how to perform a complex activity without conscious awareness.</t>
-        </is>
-      </c>
-      <c r="E227" s="2" t="inlineStr"/>
-      <c r="F227" s="2" t="inlineStr"/>
-      <c r="G227" s="2" t="inlineStr"/>
-      <c r="H227" s="2" t="inlineStr"/>
-      <c r="I227" s="2" t="inlineStr"/>
-      <c r="J227" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K227" s="2" t="inlineStr"/>
-      <c r="L227" s="2" t="inlineStr"/>
+      <c r="A227" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050229</t>
+        </is>
+      </c>
+      <c r="B227" s="3" t="inlineStr">
+        <is>
+          <t>professional identity</t>
+        </is>
+      </c>
+      <c r="C227" s="3" t="inlineStr">
+        <is>
+          <t>self-identity</t>
+        </is>
+      </c>
+      <c r="D227" s="3" t="inlineStr">
+        <is>
+          <t>A self-identity that is associated with one's occupational role.</t>
+        </is>
+      </c>
+      <c r="E227" s="3" t="inlineStr"/>
+      <c r="F227" s="3" t="inlineStr"/>
+      <c r="G227" s="3" t="inlineStr"/>
+      <c r="H227" s="3" t="inlineStr"/>
+      <c r="I227" s="3" t="inlineStr"/>
+      <c r="J227" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="K227" s="3" t="inlineStr"/>
+      <c r="L227" s="3" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050229</t>
+          <t>BCIO:050213</t>
         </is>
       </c>
       <c r="B228" s="3" t="inlineStr">
         <is>
-          <t>professional identity</t>
+          <t>professional network</t>
         </is>
       </c>
       <c r="C228" s="3" t="inlineStr">
         <is>
-          <t>identity</t>
+          <t xml:space="preserve"> social environmental system</t>
         </is>
       </c>
       <c r="D228" s="3" t="inlineStr">
         <is>
-          <t>A self-identity that is associated with one's occupational role.</t>
+          <t>A social environmental system that consists of persons who have shared interests relating to their occupational roles and are in contact or communication.</t>
         </is>
       </c>
       <c r="E228" s="3" t="inlineStr"/>
@@ -8597,64 +8651,68 @@
       <c r="L228" s="3" t="inlineStr"/>
     </row>
     <row r="229">
-      <c r="A229" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050213</t>
-        </is>
-      </c>
-      <c r="B229" s="3" t="inlineStr">
-        <is>
-          <t>professional network</t>
-        </is>
-      </c>
-      <c r="C229" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> social environmental system</t>
-        </is>
-      </c>
-      <c r="D229" s="3" t="inlineStr">
-        <is>
-          <t>A social environmental system that consists of persons who have shared interests relating to their occupational roles and are in contact or communication.</t>
-        </is>
-      </c>
-      <c r="E229" s="3" t="inlineStr"/>
-      <c r="F229" s="3" t="inlineStr"/>
-      <c r="G229" s="3" t="inlineStr"/>
-      <c r="H229" s="3" t="inlineStr"/>
-      <c r="I229" s="3" t="inlineStr"/>
-      <c r="J229" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="K229" s="3" t="inlineStr"/>
-      <c r="L229" s="3" t="inlineStr"/>
+      <c r="A229" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006062</t>
+        </is>
+      </c>
+      <c r="B229" s="2" t="inlineStr">
+        <is>
+          <t>promotion focused motivational orientation</t>
+        </is>
+      </c>
+      <c r="C229" s="2" t="inlineStr">
+        <is>
+          <t>motivational orientation towards types of outcomes</t>
+        </is>
+      </c>
+      <c r="D229" s="2" t="inlineStr">
+        <is>
+          <t>A mental disposition for motivation to be guided by a focus on the presence or absence of negative outcomes.</t>
+        </is>
+      </c>
+      <c r="E229" s="2" t="inlineStr"/>
+      <c r="F229" s="2" t="inlineStr"/>
+      <c r="G229" s="2" t="inlineStr"/>
+      <c r="H229" s="2" t="inlineStr"/>
+      <c r="I229" s="2" t="inlineStr"/>
+      <c r="J229" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K229" s="2" t="inlineStr"/>
+      <c r="L229" s="2" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006062</t>
+          <t>BCIO:006064</t>
         </is>
       </c>
       <c r="B230" s="2" t="inlineStr">
         <is>
-          <t>promotion focused motivational orientation</t>
+          <t>psychological need</t>
         </is>
       </c>
       <c r="C230" s="2" t="inlineStr">
         <is>
-          <t>motivational orientation towards types of outcomes</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D230" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition for motivation to be guided by a focus on the presence or absence of negative outcomes.</t>
+          <t>A mental disposition of a person to act to obtain or maintain a particular state due to this state’s importance to the person’s wellbeing.</t>
         </is>
       </c>
       <c r="E230" s="2" t="inlineStr"/>
       <c r="F230" s="2" t="inlineStr"/>
       <c r="G230" s="2" t="inlineStr"/>
-      <c r="H230" s="2" t="inlineStr"/>
+      <c r="H230" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Psychological needs can be satisfied or thwarted. </t>
+        </is>
+      </c>
       <c r="I230" s="2" t="inlineStr"/>
       <c r="J230" s="2" t="inlineStr">
         <is>
@@ -8665,260 +8723,256 @@
       <c r="L230" s="2" t="inlineStr"/>
     </row>
     <row r="231">
-      <c r="A231" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006064</t>
-        </is>
-      </c>
-      <c r="B231" s="2" t="inlineStr">
-        <is>
-          <t>psychological need</t>
-        </is>
-      </c>
-      <c r="C231" s="2" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
-      <c r="D231" s="2" t="inlineStr">
-        <is>
-          <t>A mental disposition of a person to act to obtain or maintain a particular state due to this state’s importance to the person’s wellbeing.</t>
-        </is>
-      </c>
-      <c r="E231" s="2" t="inlineStr"/>
-      <c r="F231" s="2" t="inlineStr"/>
-      <c r="G231" s="2" t="inlineStr"/>
-      <c r="H231" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Psychological needs can be satisfied or thwarted. </t>
-        </is>
-      </c>
-      <c r="I231" s="2" t="inlineStr"/>
-      <c r="J231" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K231" s="2" t="inlineStr"/>
-      <c r="L231" s="2" t="inlineStr"/>
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>PATO:0000001</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>quality</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>specifically dependent continuant</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>A dependent entity that inheres in a bearer by virtue of how the bearer is related to other entities.</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr"/>
+      <c r="F231" t="inlineStr"/>
+      <c r="G231" t="inlineStr"/>
+      <c r="H231" t="inlineStr"/>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
     </row>
     <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>PATO:0000001</t>
-        </is>
-      </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>quality</t>
-        </is>
-      </c>
-      <c r="C232" t="inlineStr">
+      <c r="A232" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006112</t>
+        </is>
+      </c>
+      <c r="B232" s="2" t="inlineStr">
+        <is>
+          <t>reflective thinking</t>
+        </is>
+      </c>
+      <c r="C232" s="2" t="inlineStr">
+        <is>
+          <t>thinking</t>
+        </is>
+      </c>
+      <c r="D232" s="2" t="inlineStr">
+        <is>
+          <t>Thinking that involves the generation of inferences by reasoning based on one or more statements, evaluating anticipated consequences or considering the relationships between concepts.</t>
+        </is>
+      </c>
+      <c r="E232" s="2" t="inlineStr"/>
+      <c r="F232" s="2" t="inlineStr"/>
+      <c r="G232" s="2" t="inlineStr"/>
+      <c r="H232" s="2" t="inlineStr"/>
+      <c r="I232" s="2" t="inlineStr"/>
+      <c r="J232" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K232" s="2" t="inlineStr"/>
+      <c r="L232" s="2" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050232</t>
+        </is>
+      </c>
+      <c r="B233" s="3" t="inlineStr">
+        <is>
+          <t>regret</t>
+        </is>
+      </c>
+      <c r="C233" s="3" t="inlineStr">
+        <is>
+          <t>emotion process</t>
+        </is>
+      </c>
+      <c r="D233" s="3" t="inlineStr">
+        <is>
+          <t>A negative emotion that occurs when a person wishes they chose or acted differently in the past, due to the consequences of that choice or action being unfavourable.</t>
+        </is>
+      </c>
+      <c r="E233" s="3" t="inlineStr"/>
+      <c r="F233" s="3" t="inlineStr"/>
+      <c r="G233" s="3" t="inlineStr"/>
+      <c r="H233" s="3" t="inlineStr"/>
+      <c r="I233" s="3" t="inlineStr"/>
+      <c r="J233" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="K233" s="3" t="inlineStr"/>
+      <c r="L233" s="3" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>MF:0000030</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>representation</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
         <is>
           <t>specifically dependent continuant</t>
         </is>
       </c>
-      <c r="D232" t="inlineStr">
-        <is>
-          <t>A dependent entity that inheres in a bearer by virtue of how the bearer is related to other entities.</t>
-        </is>
-      </c>
-      <c r="E232" t="inlineStr"/>
-      <c r="F232" t="inlineStr"/>
-      <c r="G232" t="inlineStr"/>
-      <c r="H232" t="inlineStr"/>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr">
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>A dependent continuant which is about a portion of reality.</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr"/>
+      <c r="F234" t="inlineStr"/>
+      <c r="G234" t="inlineStr"/>
+      <c r="H234" t="inlineStr"/>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006112</t>
-        </is>
-      </c>
-      <c r="B233" s="2" t="inlineStr">
-        <is>
-          <t>reflective thinking</t>
-        </is>
-      </c>
-      <c r="C233" s="2" t="inlineStr">
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:006073</t>
+        </is>
+      </c>
+      <c r="B235" s="4" t="inlineStr">
+        <is>
+          <t>risk stereotype</t>
+        </is>
+      </c>
+      <c r="C235" s="4" t="inlineStr">
+        <is>
+          <t>stereotype</t>
+        </is>
+      </c>
+      <c r="D235" s="4" t="inlineStr">
+        <is>
+          <t>A stereotype of a person who enacts a problem behaviour.</t>
+        </is>
+      </c>
+      <c r="E235" s="4" t="inlineStr"/>
+      <c r="F235" s="4" t="inlineStr">
+        <is>
+          <t>risk prototype</t>
+        </is>
+      </c>
+      <c r="G235" s="4" t="inlineStr"/>
+      <c r="H235" s="4" t="inlineStr"/>
+      <c r="I235" s="4" t="inlineStr"/>
+      <c r="J235" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="K235" s="4" t="inlineStr"/>
+      <c r="L235" s="4" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050266</t>
+        </is>
+      </c>
+      <c r="B236" s="3" t="inlineStr">
+        <is>
+          <t>ruminating</t>
+        </is>
+      </c>
+      <c r="C236" s="3" t="inlineStr">
         <is>
           <t>thinking</t>
         </is>
       </c>
-      <c r="D233" s="2" t="inlineStr">
-        <is>
-          <t>Thinking that involves the generation of inferences by reasoning based on one or more statements, evaluating anticipated consequences or considering the relationships between concepts.</t>
-        </is>
-      </c>
-      <c r="E233" s="2" t="inlineStr"/>
-      <c r="F233" s="2" t="inlineStr"/>
-      <c r="G233" s="2" t="inlineStr"/>
-      <c r="H233" s="2" t="inlineStr"/>
-      <c r="I233" s="2" t="inlineStr"/>
-      <c r="J233" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K233" s="2" t="inlineStr"/>
-      <c r="L233" s="2" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050232</t>
-        </is>
-      </c>
-      <c r="B234" s="3" t="inlineStr">
-        <is>
-          <t>regret</t>
-        </is>
-      </c>
-      <c r="C234" s="3" t="inlineStr">
+      <c r="D236" s="3" t="inlineStr">
+        <is>
+          <t>Thinking that is about negative experiences and feelings, and repeated.</t>
+        </is>
+      </c>
+      <c r="E236" s="3" t="inlineStr"/>
+      <c r="F236" s="3" t="inlineStr"/>
+      <c r="G236" s="3" t="inlineStr"/>
+      <c r="H236" s="3" t="inlineStr"/>
+      <c r="I236" s="3" t="inlineStr"/>
+      <c r="J236" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="K236" s="3" t="inlineStr"/>
+      <c r="L236" s="3" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MFOEM:000056 </t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>sadness</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
         <is>
           <t>emotion process</t>
         </is>
       </c>
-      <c r="D234" s="3" t="inlineStr">
-        <is>
-          <t>A negative emotion that occurs when a person wishes they chose or acted differently in the past, due to the consequences of that choice or action being unfavourable.</t>
-        </is>
-      </c>
-      <c r="E234" s="3" t="inlineStr"/>
-      <c r="F234" s="3" t="inlineStr"/>
-      <c r="G234" s="3" t="inlineStr"/>
-      <c r="H234" s="3" t="inlineStr"/>
-      <c r="I234" s="3" t="inlineStr"/>
-      <c r="J234" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="K234" s="3" t="inlineStr"/>
-      <c r="L234" s="3" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t>MF:0000030</t>
-        </is>
-      </c>
-      <c r="B235" t="inlineStr">
-        <is>
-          <t>representation</t>
-        </is>
-      </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>specifically dependent continuant</t>
-        </is>
-      </c>
-      <c r="D235" t="inlineStr">
-        <is>
-          <t>A dependent continuant which is about a portion of reality.</t>
-        </is>
-      </c>
-      <c r="E235" t="inlineStr"/>
-      <c r="F235" t="inlineStr"/>
-      <c r="G235" t="inlineStr"/>
-      <c r="H235" t="inlineStr"/>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr">
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>A negative emotion felt when an event is appraised as unpleasant and resulting in loss or failure.</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr"/>
+      <c r="F237" t="inlineStr"/>
+      <c r="G237" t="inlineStr"/>
+      <c r="H237" t="inlineStr"/>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="4" t="inlineStr">
-        <is>
-          <t>BCIO:006073</t>
-        </is>
-      </c>
-      <c r="B236" s="4" t="inlineStr">
-        <is>
-          <t>risk stereotype</t>
-        </is>
-      </c>
-      <c r="C236" s="4" t="inlineStr">
-        <is>
-          <t>stereotype</t>
-        </is>
-      </c>
-      <c r="D236" s="4" t="inlineStr">
-        <is>
-          <t>A stereotype of a person who enacts a problem behaviour.</t>
-        </is>
-      </c>
-      <c r="E236" s="4" t="inlineStr"/>
-      <c r="F236" s="4" t="inlineStr">
-        <is>
-          <t>risk prototype</t>
-        </is>
-      </c>
-      <c r="G236" s="4" t="inlineStr"/>
-      <c r="H236" s="4" t="inlineStr"/>
-      <c r="I236" s="4" t="inlineStr"/>
-      <c r="J236" s="4" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="K236" s="4" t="inlineStr"/>
-      <c r="L236" s="4" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050266</t>
-        </is>
-      </c>
-      <c r="B237" s="3" t="inlineStr">
-        <is>
-          <t>ruminating</t>
-        </is>
-      </c>
-      <c r="C237" s="3" t="inlineStr">
-        <is>
-          <t>thinking</t>
-        </is>
-      </c>
-      <c r="D237" s="3" t="inlineStr">
-        <is>
-          <t>Thinking that is about negative experiences and feelings, and repeated.</t>
-        </is>
-      </c>
-      <c r="E237" s="3" t="inlineStr"/>
-      <c r="F237" s="3" t="inlineStr"/>
-      <c r="G237" s="3" t="inlineStr"/>
-      <c r="H237" s="3" t="inlineStr"/>
-      <c r="I237" s="3" t="inlineStr"/>
-      <c r="J237" s="3" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="K237" s="3" t="inlineStr"/>
-      <c r="L237" s="3" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t xml:space="preserve">MFOEM:000056 </t>
+          <t>MFOEM:000169</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>sadness</t>
+          <t>satisfaction</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -8928,7 +8982,7 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>A negative emotion felt when an event is appraised as unpleasant and resulting in loss or failure.</t>
+          <t>An emotion that is experienced when one's wishes, expectations or needs are fulfilled.</t>
         </is>
       </c>
       <c r="E238" t="inlineStr"/>
@@ -9042,8 +9096,8 @@
       <c r="G241" s="2" t="inlineStr"/>
       <c r="H241" s="2" t="inlineStr">
         <is>
-          <t>The phrase 'to organize' refers to the ability to organize mental processes and sequences of actions.
-'self-efficacy belief for a behaviour' is part of 'self-efficacy belief for a behaviour and its associated outcomes.' However, the latter also includes a belief about the outcomes associated with behaviour.</t>
+          <t>The phrase 'to organise' refers to the ability to organise mental processes and sequences of actions.
+'self-efficacy belief for a behaviour' is part of 'self-efficacy belief for a behaviour and its associated outcomes'. However, the latter also includes a belief about the outcomes associated with behaviour.</t>
         </is>
       </c>
       <c r="I241" s="2" t="inlineStr"/>
@@ -9081,8 +9135,8 @@
       <c r="G242" s="2" t="inlineStr"/>
       <c r="H242" s="2" t="inlineStr">
         <is>
-          <t>The phrase 'to organize' refers to the ability to organize mental processes and sequences of actions.
-'self-efficacy belief for a behaviour' is part of 'self-efficacy belief for a behaviour and its associated outcomes.' However, the latter also includes a belief about the outcomes associated with behaviour.</t>
+          <t>The phrase 'to organise' refers to the ability to organise mental processes and sequences of actions.
+'self-efficacy belief for a behaviour' is part of 'self-efficacy belief for a behaviour and its associated outcomes'. However, the latter also includes a belief about the outcomes associated with behaviour.</t>
         </is>
       </c>
       <c r="I242" s="2" t="inlineStr"/>
@@ -9097,34 +9151,28 @@
     <row r="243">
       <c r="A243" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006137</t>
+          <t>BCIO:006050</t>
         </is>
       </c>
       <c r="B243" s="2" t="inlineStr">
         <is>
-          <t>self-monitoring</t>
+          <t>self-identity</t>
         </is>
       </c>
       <c r="C243" s="2" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>cognitive representation</t>
         </is>
       </c>
       <c r="D243" s="2" t="inlineStr">
         <is>
-          <t>A mental process in which one observes one's own behaviour or mental processes.</t>
+          <t>A cognitive representation that a person has about themselves.</t>
         </is>
       </c>
       <c r="E243" s="2" t="inlineStr"/>
       <c r="F243" s="2" t="inlineStr"/>
       <c r="G243" s="2" t="inlineStr"/>
-      <c r="H243" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">There are behaviour change techniques labelled 'Self-monitoring of behaviour' and 'Self-monitoring of outcome of behaviour'. These are about establishing a method for monitoring states. In contrast, the MoA is the mental process of monitoring.
-'Self-monitoring of behaviour' is defined as 'Instruct self recording of specified behaviour/s (with or without associated thoughts, emotions, situations) as part of a behaviour change strategy ' (Michie et al., 2013).
-'Self-monitoring of outcome of behaviour' is defined "Establish a method for the person to monitor and record their behavior(s) as part of a behavior change strategy"  (Michie et al., 2013). </t>
-        </is>
-      </c>
+      <c r="H243" s="2" t="inlineStr"/>
       <c r="I243" s="2" t="inlineStr"/>
       <c r="J243" s="2" t="inlineStr">
         <is>
@@ -9137,22 +9185,22 @@
     <row r="244">
       <c r="A244" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006005</t>
+          <t>BCIO:006137</t>
         </is>
       </c>
       <c r="B244" s="2" t="inlineStr">
         <is>
-          <t>self-regulation capability</t>
+          <t>self-monitoring</t>
         </is>
       </c>
       <c r="C244" s="2" t="inlineStr">
         <is>
-          <t>mental capability</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D244" s="2" t="inlineStr">
         <is>
-          <t>A mental capability that involves processes that modulate the frequency, rate or extent of a response to external or internal stimuli and that are instigated by the person themselves.</t>
+          <t>A mental process in which one observes one's own behaviour or mental processes.</t>
         </is>
       </c>
       <c r="E244" s="2" t="inlineStr"/>
@@ -9160,7 +9208,9 @@
       <c r="G244" s="2" t="inlineStr"/>
       <c r="H244" s="2" t="inlineStr">
         <is>
-          <t>'Modulate’ refers to ‘modifying or controlling influence on or change the strength’ and involves processes</t>
+          <t xml:space="preserve">There are behaviour change techniques labelled 'Self-monitoring of behaviour' and 'Self-monitoring of outcome of behaviour'. These are about establishing a method for monitoring states. In contrast, the MoA is the mental process of monitoring.
+'Self-monitoring of behaviour' is defined as 'Instruct self recording of specified behaviour/s (with or without associated thoughts, emotions, situations) as part of a behaviour change strategy ' (Michie et al., 2013).
+'Self-monitoring of outcome of behaviour' is defined "Establish a method for the person to monitor and record their behavior(s) as part of a behavior change strategy"  (Michie et al., 2013). </t>
         </is>
       </c>
       <c r="I244" s="2" t="inlineStr"/>
@@ -9175,28 +9225,32 @@
     <row r="245">
       <c r="A245" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006103</t>
+          <t>BCIO:006005</t>
         </is>
       </c>
       <c r="B245" s="2" t="inlineStr">
         <is>
-          <t>self-regulation of behaviour</t>
+          <t>self-regulation capability</t>
         </is>
       </c>
       <c r="C245" s="2" t="inlineStr">
         <is>
-          <t>bodily process</t>
+          <t>mental capability</t>
         </is>
       </c>
       <c r="D245" s="2" t="inlineStr">
         <is>
-          <t>A bodily process that modulates the frequency, rate or extent of behaviour, the specific actions or reactions of a person in response to external or internal stimuli and that is instigated by the person.</t>
+          <t>A mental capability that involves processes that modulate the frequency, rate or extent of a response to external or internal stimuli and that are instigated by the person themselves.</t>
         </is>
       </c>
       <c r="E245" s="2" t="inlineStr"/>
       <c r="F245" s="2" t="inlineStr"/>
       <c r="G245" s="2" t="inlineStr"/>
-      <c r="H245" s="2" t="inlineStr"/>
+      <c r="H245" s="2" t="inlineStr">
+        <is>
+          <t>'Modulate’ refers to ‘modifying or controlling influence on or change the strength’ and involves processes</t>
+        </is>
+      </c>
       <c r="I245" s="2" t="inlineStr"/>
       <c r="J245" s="2" t="inlineStr">
         <is>
@@ -9207,194 +9261,194 @@
       <c r="L245" s="2" t="inlineStr"/>
     </row>
     <row r="246">
-      <c r="A246" s="3" t="inlineStr">
+      <c r="A246" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006103</t>
+        </is>
+      </c>
+      <c r="B246" s="2" t="inlineStr">
+        <is>
+          <t>self-regulation of behaviour</t>
+        </is>
+      </c>
+      <c r="C246" s="2" t="inlineStr">
+        <is>
+          <t>self-regulation process</t>
+        </is>
+      </c>
+      <c r="D246" s="2" t="inlineStr">
+        <is>
+          <t>A self-regulation process that modulates the frequency, rate or extent of one's  performance of a behaviour.</t>
+        </is>
+      </c>
+      <c r="E246" s="2" t="inlineStr"/>
+      <c r="F246" s="2" t="inlineStr"/>
+      <c r="G246" s="2" t="inlineStr"/>
+      <c r="H246" s="2" t="inlineStr"/>
+      <c r="I246" s="2" t="inlineStr"/>
+      <c r="J246" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K246" s="2" t="inlineStr"/>
+      <c r="L246" s="2" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050268</t>
+        </is>
+      </c>
+      <c r="B247" s="3" t="inlineStr">
+        <is>
+          <t>self-regulation process</t>
+        </is>
+      </c>
+      <c r="C247" s="3" t="inlineStr">
+        <is>
+          <t>bodily process</t>
+        </is>
+      </c>
+      <c r="D247" s="3" t="inlineStr">
+        <is>
+          <t>A bodily process that modulates the frequency, rate or extent of a response to external or internal stimuli and that is instigated by the person.</t>
+        </is>
+      </c>
+      <c r="E247" s="3" t="inlineStr"/>
+      <c r="F247" s="3" t="inlineStr"/>
+      <c r="G247" s="3" t="inlineStr"/>
+      <c r="H247" s="3" t="inlineStr"/>
+      <c r="I247" s="3" t="inlineStr"/>
+      <c r="J247" s="3" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="K247" s="3" t="inlineStr"/>
+      <c r="L247" s="3" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="3" t="inlineStr">
         <is>
           <t>BCIO:050222</t>
         </is>
       </c>
-      <c r="B246" s="3" t="inlineStr">
+      <c r="B248" s="3" t="inlineStr">
         <is>
           <t>self-regulatory skill</t>
         </is>
       </c>
-      <c r="C246" s="3" t="inlineStr">
+      <c r="C248" s="3" t="inlineStr">
         <is>
           <t>self-regulation capability</t>
         </is>
       </c>
-      <c r="D246" s="3" t="inlineStr">
+      <c r="D248" s="3" t="inlineStr">
         <is>
           <t>A self-regulation capability that is acquired through training or practice.</t>
         </is>
       </c>
-      <c r="E246" s="3" t="inlineStr"/>
-      <c r="F246" s="3" t="inlineStr"/>
-      <c r="G246" s="3" t="inlineStr"/>
-      <c r="H246" s="3" t="inlineStr"/>
-      <c r="I246" s="3" t="inlineStr"/>
-      <c r="J246" s="3" t="inlineStr">
+      <c r="E248" s="3" t="inlineStr"/>
+      <c r="F248" s="3" t="inlineStr"/>
+      <c r="G248" s="3" t="inlineStr"/>
+      <c r="H248" s="3" t="inlineStr"/>
+      <c r="I248" s="3" t="inlineStr"/>
+      <c r="J248" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="K246" s="3" t="inlineStr"/>
-      <c r="L246" s="3" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="2" t="inlineStr">
+      <c r="K248" s="3" t="inlineStr"/>
+      <c r="L248" s="3" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="2" t="inlineStr">
         <is>
           <t>BCIO:006106</t>
         </is>
       </c>
-      <c r="B247" s="2" t="inlineStr">
+      <c r="B249" s="2" t="inlineStr">
         <is>
           <t>self-reinforcing self-regulation</t>
         </is>
       </c>
-      <c r="C247" s="2" t="inlineStr">
+      <c r="C249" s="2" t="inlineStr">
         <is>
           <t>self-regulation of behaviour</t>
         </is>
       </c>
-      <c r="D247" s="2" t="inlineStr">
+      <c r="D249" s="2" t="inlineStr">
         <is>
           <t>Self-regulation of behaviour through self-administering a reward for performing an intended behaviour.</t>
         </is>
       </c>
-      <c r="E247" s="2" t="inlineStr"/>
-      <c r="F247" s="2" t="inlineStr"/>
-      <c r="G247" s="2" t="inlineStr"/>
-      <c r="H247" s="2" t="inlineStr"/>
-      <c r="I247" s="2" t="inlineStr"/>
-      <c r="J247" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K247" s="2" t="inlineStr"/>
-      <c r="L247" s="2" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="2" t="inlineStr">
+      <c r="E249" s="2" t="inlineStr"/>
+      <c r="F249" s="2" t="inlineStr"/>
+      <c r="G249" s="2" t="inlineStr"/>
+      <c r="H249" s="2" t="inlineStr"/>
+      <c r="I249" s="2" t="inlineStr"/>
+      <c r="J249" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K249" s="2" t="inlineStr"/>
+      <c r="L249" s="2" t="inlineStr"/>
+    </row>
+    <row r="250">
+      <c r="A250" s="2" t="inlineStr">
         <is>
           <t>BCIO:006128</t>
         </is>
       </c>
-      <c r="B248" s="2" t="inlineStr">
+      <c r="B250" s="2" t="inlineStr">
         <is>
           <t>semantic memory</t>
         </is>
       </c>
-      <c r="C248" s="2" t="inlineStr">
+      <c r="C250" s="2" t="inlineStr">
         <is>
           <t>memory</t>
         </is>
       </c>
-      <c r="D248" s="2" t="inlineStr">
+      <c r="D250" s="2" t="inlineStr">
         <is>
           <t>A memory process that deals with the receipt, storage, retrieval and modification of information associated with meanings, understandings or conceptual facts about the world.</t>
         </is>
       </c>
-      <c r="E248" s="2" t="inlineStr"/>
-      <c r="F248" s="2" t="inlineStr"/>
-      <c r="G248" s="2" t="inlineStr"/>
-      <c r="H248" s="2" t="inlineStr"/>
-      <c r="I248" s="2" t="inlineStr"/>
-      <c r="J248" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K248" s="2" t="inlineStr"/>
-      <c r="L248" s="2" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" t="inlineStr">
-        <is>
-          <t>GO:0046960</t>
-        </is>
-      </c>
-      <c r="B249" t="inlineStr">
-        <is>
-          <t>sensitization</t>
-        </is>
-      </c>
-      <c r="C249" t="inlineStr">
-        <is>
-          <t>non-associative learning</t>
-        </is>
-      </c>
-      <c r="D249" t="inlineStr">
-        <is>
-          <t>An increase in a behavioural response to a repeated stimulus.</t>
-        </is>
-      </c>
-      <c r="E249" t="inlineStr"/>
-      <c r="F249" t="inlineStr"/>
-      <c r="G249" t="inlineStr"/>
-      <c r="H249" t="inlineStr"/>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" t="inlineStr">
-        <is>
-          <t>MFOEM:000040</t>
-        </is>
-      </c>
-      <c r="B250" t="inlineStr">
-        <is>
-          <t>sexual pleasure</t>
-        </is>
-      </c>
-      <c r="C250" t="inlineStr">
-        <is>
-          <t>pleasure</t>
-        </is>
-      </c>
-      <c r="D250" t="inlineStr">
-        <is>
-          <t>Pleasure that is experienced as a result of sexual activities.</t>
-        </is>
-      </c>
-      <c r="E250" t="inlineStr"/>
-      <c r="F250" t="inlineStr"/>
-      <c r="G250" t="inlineStr"/>
-      <c r="H250" t="inlineStr"/>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
+      <c r="E250" s="2" t="inlineStr"/>
+      <c r="F250" s="2" t="inlineStr"/>
+      <c r="G250" s="2" t="inlineStr"/>
+      <c r="H250" s="2" t="inlineStr"/>
+      <c r="I250" s="2" t="inlineStr"/>
+      <c r="J250" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K250" s="2" t="inlineStr"/>
+      <c r="L250" s="2" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>MFOEM:000055</t>
+          <t>GO:0046960</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>shame</t>
+          <t>sensitization</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>emotion process</t>
+          <t>non-associative learning</t>
         </is>
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>A negative emotion that is distressing and occurs when one appraises one's behaviour or circumstance as wrong, dishonourable, immodest or indecorous.  [No definition in Emotion Ontology]</t>
+          <t>An increase in a behavioural response to a repeated stimulus.</t>
         </is>
       </c>
       <c r="E251" t="inlineStr"/>
@@ -9411,98 +9465,102 @@
       <c r="L251" t="inlineStr"/>
     </row>
     <row r="252">
-      <c r="A252" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006044</t>
-        </is>
-      </c>
-      <c r="B252" s="2" t="inlineStr">
-        <is>
-          <t>situational self-efficacy belief for a behaviour</t>
-        </is>
-      </c>
-      <c r="C252" s="2" t="inlineStr">
-        <is>
-          <t>self-efficacy belief for a behaviour</t>
-        </is>
-      </c>
-      <c r="D252" s="2" t="inlineStr">
-        <is>
-          <t>Self-efficacy belief for a behaviour when a particular situation that may affect the behaviour is encountered.</t>
-        </is>
-      </c>
-      <c r="E252" s="2" t="inlineStr"/>
-      <c r="F252" s="2" t="inlineStr"/>
-      <c r="G252" s="2" t="inlineStr"/>
-      <c r="H252" s="2" t="inlineStr"/>
-      <c r="I252" s="2" t="inlineStr"/>
-      <c r="J252" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K252" s="2" t="inlineStr"/>
-      <c r="L252" s="2" t="inlineStr"/>
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>MFOEM:000040</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>sexual pleasure</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>pleasure</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>Pleasure that is experienced as a result of sexual activities.</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr"/>
+      <c r="F252" t="inlineStr"/>
+      <c r="G252" t="inlineStr"/>
+      <c r="H252" t="inlineStr"/>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr"/>
     </row>
     <row r="253">
-      <c r="A253" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006014</t>
-        </is>
-      </c>
-      <c r="B253" s="2" t="inlineStr">
-        <is>
-          <t>social alienation</t>
-        </is>
-      </c>
-      <c r="C253" s="2" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
-      <c r="D253" s="2" t="inlineStr">
-        <is>
-          <t>A mental disposition to perceive or experience oneself as isolated from and not meaningfully involved in social groups.</t>
-        </is>
-      </c>
-      <c r="E253" s="2" t="inlineStr"/>
-      <c r="F253" s="2" t="inlineStr"/>
-      <c r="G253" s="2" t="inlineStr"/>
-      <c r="H253" s="2" t="inlineStr"/>
-      <c r="I253" s="2" t="inlineStr"/>
-      <c r="J253" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K253" s="2" t="inlineStr"/>
-      <c r="L253" s="2" t="inlineStr"/>
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>MFOEM:000055</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>shame</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>emotion process</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>A negative emotion that is distressing and occurs when one appraises one's behaviour or circumstance as wrong, dishonourable, immodest or indecorous.</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr"/>
+      <c r="F253" t="inlineStr"/>
+      <c r="G253" t="inlineStr"/>
+      <c r="H253" t="inlineStr"/>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006011</t>
+          <t>BCIO:006044</t>
         </is>
       </c>
       <c r="B254" s="2" t="inlineStr">
         <is>
-          <t>social behavioural capability</t>
+          <t>situational self-efficacy belief for a behaviour</t>
         </is>
       </c>
       <c r="C254" s="2" t="inlineStr">
         <is>
-          <t>behavioural capability</t>
+          <t>self-efficacy belief for a behaviour</t>
         </is>
       </c>
       <c r="D254" s="2" t="inlineStr">
         <is>
-          <t>A personal capability includes interpersonal behaviour in its realisation.</t>
+          <t>Self-efficacy belief for a behaviour when a barrier or facilitator of the behaviour is encountered.</t>
         </is>
       </c>
       <c r="E254" s="2" t="inlineStr"/>
       <c r="F254" s="2" t="inlineStr"/>
       <c r="G254" s="2" t="inlineStr"/>
-      <c r="H254" s="2" t="inlineStr"/>
+      <c r="H254" s="2" t="inlineStr">
+        <is>
+          <t>The 'barrier or facilitator' specified in the definition can be external or internal.</t>
+        </is>
+      </c>
       <c r="I254" s="2" t="inlineStr"/>
       <c r="J254" s="2" t="inlineStr">
         <is>
@@ -9515,22 +9573,22 @@
     <row r="255">
       <c r="A255" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006090</t>
+          <t>BCIO:006014</t>
         </is>
       </c>
       <c r="B255" s="2" t="inlineStr">
         <is>
-          <t>social behavioural opportunity</t>
+          <t>social alienation</t>
         </is>
       </c>
       <c r="C255" s="2" t="inlineStr">
         <is>
-          <t>behavioural opportunity</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D255" s="2" t="inlineStr">
         <is>
-          <t>A behavioural opportunity that involves the social environmental system.</t>
+          <t>A mental disposition to perceive or experience oneself as isolated from and not meaningfully involved in social groups.</t>
         </is>
       </c>
       <c r="E255" s="2" t="inlineStr"/>
@@ -9549,22 +9607,22 @@
     <row r="256">
       <c r="A256" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006118</t>
+          <t>BCIO:006011</t>
         </is>
       </c>
       <c r="B256" s="2" t="inlineStr">
         <is>
-          <t>social comparison process</t>
+          <t>social behavioural capability</t>
         </is>
       </c>
       <c r="C256" s="2" t="inlineStr">
         <is>
-          <t>judging</t>
+          <t>behavioural capability</t>
         </is>
       </c>
       <c r="D256" s="2" t="inlineStr">
         <is>
-          <t>Judging oneself or one's social group in relation to the qualities or characteristics of another person or social group.</t>
+          <t>A personal capability includes interpersonal behaviour in its realisation.</t>
         </is>
       </c>
       <c r="E256" s="2" t="inlineStr"/>
@@ -9583,22 +9641,22 @@
     <row r="257">
       <c r="A257" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006074</t>
+          <t>BCIO:006090</t>
         </is>
       </c>
       <c r="B257" s="2" t="inlineStr">
         <is>
-          <t>social embeddedness</t>
+          <t>social behavioural opportunity</t>
         </is>
       </c>
       <c r="C257" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>behavioural opportunity</t>
         </is>
       </c>
       <c r="D257" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to experience a feeling of being connected by social attachments.</t>
+          <t>A behavioural opportunity that involves the social environmental system.</t>
         </is>
       </c>
       <c r="E257" s="2" t="inlineStr"/>
@@ -9617,22 +9675,22 @@
     <row r="258">
       <c r="A258" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006001</t>
+          <t>BCIO:006118</t>
         </is>
       </c>
       <c r="B258" s="2" t="inlineStr">
         <is>
-          <t>social environmental system</t>
+          <t>social comparison process</t>
         </is>
       </c>
       <c r="C258" s="2" t="inlineStr">
         <is>
-          <t>environmental system</t>
+          <t>judging</t>
         </is>
       </c>
       <c r="D258" s="2" t="inlineStr">
         <is>
-          <t>An environmental system that consists of people, their pets, social and cultural institutions and processes that influence the life of people and social groups.</t>
+          <t>Judging oneself or one's social group in relation to the qualities or characteristics of another person or social group.</t>
         </is>
       </c>
       <c r="E258" s="2" t="inlineStr"/>
@@ -9651,32 +9709,28 @@
     <row r="259">
       <c r="A259" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006051</t>
+          <t>BCIO:006074</t>
         </is>
       </c>
       <c r="B259" s="2" t="inlineStr">
         <is>
-          <t>social identity</t>
+          <t>social embeddedness</t>
         </is>
       </c>
       <c r="C259" s="2" t="inlineStr">
         <is>
-          <t>identity</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D259" s="2" t="inlineStr">
         <is>
-          <t>A self-identity in which the representation involves a relation between the identity holder and another person or group.</t>
+          <t>A mental disposition to experience a feeling of being connected by social attachments.</t>
         </is>
       </c>
       <c r="E259" s="2" t="inlineStr"/>
       <c r="F259" s="2" t="inlineStr"/>
       <c r="G259" s="2" t="inlineStr"/>
-      <c r="H259" s="2" t="inlineStr">
-        <is>
-          <t>'Social identity' can involve a sense of one's rank or status in reference to other groups.</t>
-        </is>
-      </c>
+      <c r="H259" s="2" t="inlineStr"/>
       <c r="I259" s="2" t="inlineStr"/>
       <c r="J259" s="2" t="inlineStr">
         <is>
@@ -9689,31 +9743,27 @@
     <row r="260">
       <c r="A260" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006099</t>
+          <t>BCIO:006001</t>
         </is>
       </c>
       <c r="B260" s="2" t="inlineStr">
         <is>
-          <t>social influence behaviour</t>
+          <t>social environmental system</t>
         </is>
       </c>
       <c r="C260" s="2" t="inlineStr">
         <is>
-          <t>inter-personal behaviour</t>
+          <t>environmental system</t>
         </is>
       </c>
       <c r="D260" s="2" t="inlineStr">
         <is>
-          <t>An interpersonal behaviour where a person exerts an influence on the behaviour of another.</t>
+          <t>An environmental system that consists of people, their pets, social and cultural institutions and processes that influence the life of people and social groups.</t>
         </is>
       </c>
       <c r="E260" s="2" t="inlineStr"/>
       <c r="F260" s="2" t="inlineStr"/>
-      <c r="G260" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Social support from social network. </t>
-        </is>
-      </c>
+      <c r="G260" s="2" t="inlineStr"/>
       <c r="H260" s="2" t="inlineStr"/>
       <c r="I260" s="2" t="inlineStr"/>
       <c r="J260" s="2" t="inlineStr">
@@ -9727,22 +9777,22 @@
     <row r="261">
       <c r="A261" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006082</t>
+          <t>BCIO:006051</t>
         </is>
       </c>
       <c r="B261" s="2" t="inlineStr">
         <is>
-          <t>social role</t>
+          <t>social identity</t>
         </is>
       </c>
       <c r="C261" s="2" t="inlineStr">
         <is>
-          <t>personal  role</t>
+          <t>self-identity</t>
         </is>
       </c>
       <c r="D261" s="2" t="inlineStr">
         <is>
-          <t>A personal role that is realised in human social processes.</t>
+          <t>A self-identity in which the representation involves a relation between the identity holder and another person or group.</t>
         </is>
       </c>
       <c r="E261" s="2" t="inlineStr"/>
@@ -9750,7 +9800,7 @@
       <c r="G261" s="2" t="inlineStr"/>
       <c r="H261" s="2" t="inlineStr">
         <is>
-          <t>A role can be assigned without being realised. A person realises a role by doing something.</t>
+          <t>'Social identity' can involve a sense of one's rank or status in reference to other groups.</t>
         </is>
       </c>
       <c r="I261" s="2" t="inlineStr"/>
@@ -9765,27 +9815,31 @@
     <row r="262">
       <c r="A262" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006012</t>
+          <t>BCIO:006099</t>
         </is>
       </c>
       <c r="B262" s="2" t="inlineStr">
         <is>
-          <t>social skill</t>
+          <t>social influence behaviour</t>
         </is>
       </c>
       <c r="C262" s="2" t="inlineStr">
         <is>
-          <t>social behavioural capability</t>
+          <t>inter-personal behaviour</t>
         </is>
       </c>
       <c r="D262" s="2" t="inlineStr">
         <is>
-          <t>A social capability acquired through training or practice.</t>
+          <t>An inter-personal behaviour where a person exerts an influence on the behaviour of another.</t>
         </is>
       </c>
       <c r="E262" s="2" t="inlineStr"/>
       <c r="F262" s="2" t="inlineStr"/>
-      <c r="G262" s="2" t="inlineStr"/>
+      <c r="G262" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Social support from social network. </t>
+        </is>
+      </c>
       <c r="H262" s="2" t="inlineStr"/>
       <c r="I262" s="2" t="inlineStr"/>
       <c r="J262" s="2" t="inlineStr">
@@ -9799,22 +9853,22 @@
     <row r="263">
       <c r="A263" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006072</t>
+          <t>BCIO:006082</t>
         </is>
       </c>
       <c r="B263" s="2" t="inlineStr">
         <is>
-          <t>stereotype</t>
+          <t>social role</t>
         </is>
       </c>
       <c r="C263" s="2" t="inlineStr">
         <is>
-          <t>cognitive schema</t>
+          <t>personal  role</t>
         </is>
       </c>
       <c r="D263" s="2" t="inlineStr">
         <is>
-          <t>A cognitive schema that when activated, guides perception, thought, emotion or behaviour toward members of a social group as having certain shared attributes, by virtue of their group membership.</t>
+          <t>A personal role that is realised in human social processes.</t>
         </is>
       </c>
       <c r="E263" s="2" t="inlineStr"/>
@@ -9822,7 +9876,7 @@
       <c r="G263" s="2" t="inlineStr"/>
       <c r="H263" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">The attributes of members are not definitional. For instance, a psychologist studying psychology is not a stereotype. </t>
+          <t>A role can be assigned without being realised. A person realises a role by doing something.</t>
         </is>
       </c>
       <c r="I263" s="2" t="inlineStr"/>
@@ -9835,108 +9889,112 @@
       <c r="L263" s="2" t="inlineStr"/>
     </row>
     <row r="264">
-      <c r="A264" t="inlineStr">
+      <c r="A264" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006012</t>
+        </is>
+      </c>
+      <c r="B264" s="2" t="inlineStr">
+        <is>
+          <t>social skill</t>
+        </is>
+      </c>
+      <c r="C264" s="2" t="inlineStr">
+        <is>
+          <t>social behavioural capability</t>
+        </is>
+      </c>
+      <c r="D264" s="2" t="inlineStr">
+        <is>
+          <t>A social capability acquired through training or practice.</t>
+        </is>
+      </c>
+      <c r="E264" s="2" t="inlineStr"/>
+      <c r="F264" s="2" t="inlineStr"/>
+      <c r="G264" s="2" t="inlineStr"/>
+      <c r="H264" s="2" t="inlineStr"/>
+      <c r="I264" s="2" t="inlineStr"/>
+      <c r="J264" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K264" s="2" t="inlineStr"/>
+      <c r="L264" s="2" t="inlineStr"/>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006072</t>
+        </is>
+      </c>
+      <c r="B265" s="2" t="inlineStr">
+        <is>
+          <t>stereotype</t>
+        </is>
+      </c>
+      <c r="C265" s="2" t="inlineStr">
+        <is>
+          <t>cognitive schema</t>
+        </is>
+      </c>
+      <c r="D265" s="2" t="inlineStr">
+        <is>
+          <t>A cognitive schema that when activated, guides perception, thought, emotion or behaviour toward members of a social group as having certain shared attributes, by virtue of their group membership.</t>
+        </is>
+      </c>
+      <c r="E265" s="2" t="inlineStr"/>
+      <c r="F265" s="2" t="inlineStr"/>
+      <c r="G265" s="2" t="inlineStr"/>
+      <c r="H265" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The attributes of members are not definitional. For instance, a psychologist studying psychology is not a stereotype. </t>
+        </is>
+      </c>
+      <c r="I265" s="2" t="inlineStr"/>
+      <c r="J265" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K265" s="2" t="inlineStr"/>
+      <c r="L265" s="2" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
         <is>
           <t xml:space="preserve">MFOEM:000006 </t>
         </is>
       </c>
-      <c r="B264" t="inlineStr">
+      <c r="B266" t="inlineStr">
         <is>
           <t>subjective affective feeling</t>
         </is>
       </c>
-      <c r="C264" t="inlineStr">
+      <c r="C266" t="inlineStr">
         <is>
           <t>affective process</t>
         </is>
       </c>
-      <c r="D264" t="inlineStr">
+      <c r="D266" t="inlineStr">
         <is>
           <t>An affective process that involves the experience of internal or external sensory stimuli.</t>
         </is>
       </c>
-      <c r="E264" t="inlineStr"/>
-      <c r="F264" t="inlineStr">
+      <c r="E266" t="inlineStr"/>
+      <c r="F266" t="inlineStr">
         <is>
           <t>Feeling calm; hunger; pain</t>
         </is>
       </c>
-      <c r="G264" t="inlineStr"/>
-      <c r="H264" t="inlineStr">
+      <c r="G266" t="inlineStr"/>
+      <c r="H266" t="inlineStr">
         <is>
           <t>'Subjective affective feeling can have greater or weaker physiological or mental components. The bodily process that are experienced will usually involve some mental process.
 Bodily sensation and the experiences of emotions (e.g., feeling calm) would both qualify as examples of 'subjective affective feeling'.
 As a subclass of 'affective process', subjective affective feelings have valence. Valence refers to the 'the subjective value of an event, object, person, or other entity in the life space of the individual' (https://dictionary.apa.org/valence). Valence ranges from negative to positive.</t>
         </is>
       </c>
-      <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006075</t>
-        </is>
-      </c>
-      <c r="B265" s="2" t="inlineStr">
-        <is>
-          <t>subjective need</t>
-        </is>
-      </c>
-      <c r="C265" s="2" t="inlineStr">
-        <is>
-          <t>subjective affective feeling</t>
-        </is>
-      </c>
-      <c r="D265" s="2" t="inlineStr">
-        <is>
-          <t>A subjective affective feeling that involves experiencing anticipated relief or continued comfort by obtaining or maintaining a particular state.</t>
-        </is>
-      </c>
-      <c r="E265" s="2" t="inlineStr"/>
-      <c r="F265" s="2" t="inlineStr"/>
-      <c r="G265" s="2" t="inlineStr"/>
-      <c r="H265" s="2" t="inlineStr"/>
-      <c r="I265" s="2" t="inlineStr"/>
-      <c r="J265" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K265" s="2" t="inlineStr"/>
-      <c r="L265" s="2" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MF:0000088 </t>
-        </is>
-      </c>
-      <c r="B266" t="inlineStr">
-        <is>
-          <t>subliminal process</t>
-        </is>
-      </c>
-      <c r="C266" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D266" t="inlineStr">
-        <is>
-          <t>A mental process that involves neuronal activity in response to a sensory stimulus but which is not the subject of consciousness.</t>
-        </is>
-      </c>
-      <c r="E266" t="inlineStr"/>
-      <c r="F266" t="inlineStr"/>
-      <c r="G266" t="inlineStr"/>
-      <c r="H266" t="inlineStr"/>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr">
         <is>
@@ -9947,58 +10005,58 @@
       <c r="L266" t="inlineStr"/>
     </row>
     <row r="267">
-      <c r="A267" t="inlineStr">
-        <is>
-          <t>MFOEM:000032</t>
-        </is>
-      </c>
-      <c r="B267" t="inlineStr">
-        <is>
-          <t>surprise</t>
-        </is>
-      </c>
-      <c r="C267" t="inlineStr">
-        <is>
-          <t>emotion process</t>
-        </is>
-      </c>
-      <c r="D267" t="inlineStr">
-        <is>
-          <t xml:space="preserve">An emotion caused by encountering unexpected events. </t>
-        </is>
-      </c>
-      <c r="E267" t="inlineStr"/>
-      <c r="F267" t="inlineStr"/>
-      <c r="G267" t="inlineStr"/>
-      <c r="H267" t="inlineStr"/>
-      <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
+      <c r="A267" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006075</t>
+        </is>
+      </c>
+      <c r="B267" s="2" t="inlineStr">
+        <is>
+          <t>subjective need</t>
+        </is>
+      </c>
+      <c r="C267" s="2" t="inlineStr">
+        <is>
+          <t>subjective affective feeling</t>
+        </is>
+      </c>
+      <c r="D267" s="2" t="inlineStr">
+        <is>
+          <t>A subjective affective feeling that involves experiencing anticipated relief or continued comfort by obtaining or maintaining a particular state.</t>
+        </is>
+      </c>
+      <c r="E267" s="2" t="inlineStr"/>
+      <c r="F267" s="2" t="inlineStr"/>
+      <c r="G267" s="2" t="inlineStr"/>
+      <c r="H267" s="2" t="inlineStr"/>
+      <c r="I267" s="2" t="inlineStr"/>
+      <c r="J267" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K267" s="2" t="inlineStr"/>
+      <c r="L267" s="2" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>RO:0002577</t>
+          <t xml:space="preserve">MF:0000088 </t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>system</t>
+          <t>subliminal process</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>material entity</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>A material entity consisting of multiple components that are causally integrated.</t>
+          <t>A mental process that involves neuronal activity in response to a sensory stimulus but which is not the subject of consciousness.</t>
         </is>
       </c>
       <c r="E268" t="inlineStr"/>
@@ -10015,318 +10073,424 @@
       <c r="L268" t="inlineStr"/>
     </row>
     <row r="269">
-      <c r="A269" s="2" t="inlineStr">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>ADDICTO:0001140</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>substance dependence</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>bodily disposition</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>A bodily disposition which is realised as impaired functioning following reduction or termination of use of a psychoactive substance.</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr"/>
+      <c r="F269" t="inlineStr"/>
+      <c r="G269" t="inlineStr"/>
+      <c r="H269" t="inlineStr">
+        <is>
+          <t>While 'addiction' is a disposition relating to experience motivation to use a substance, 'substance dependence' refers to 'disposition related to the impaired functioning in the absence of a substance'.</t>
+        </is>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>MFOEM:000032</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>surprise</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>emotion process</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t xml:space="preserve">An emotion caused by encountering unexpected events. </t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr"/>
+      <c r="F270" t="inlineStr"/>
+      <c r="G270" t="inlineStr"/>
+      <c r="H270" t="inlineStr"/>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>RO:0002577</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>material entity</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>A material entity consisting of multiple components that are causally integrated.</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr"/>
+      <c r="F271" t="inlineStr"/>
+      <c r="G271" t="inlineStr"/>
+      <c r="H271" t="inlineStr"/>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="inlineStr">
         <is>
           <t>BCIO:006163</t>
         </is>
       </c>
-      <c r="B269" s="2" t="inlineStr">
+      <c r="B272" s="2" t="inlineStr">
         <is>
           <t>targeted mental distancing</t>
         </is>
       </c>
-      <c r="C269" s="2" t="inlineStr">
+      <c r="C272" s="2" t="inlineStr">
         <is>
           <t>mental distancing</t>
         </is>
       </c>
-      <c r="D269" s="2" t="inlineStr">
+      <c r="D272" s="2" t="inlineStr">
         <is>
           <t>Mental distancing that involves identifying particular immediate thoughts and intentionally detaching from these thoughts.</t>
         </is>
       </c>
-      <c r="E269" s="2" t="inlineStr"/>
-      <c r="F269" s="2" t="inlineStr">
+      <c r="E272" s="2" t="inlineStr"/>
+      <c r="F272" s="2" t="inlineStr">
         <is>
           <t>targeted decentring</t>
         </is>
       </c>
-      <c r="G269" s="2" t="inlineStr"/>
-      <c r="H269" s="2" t="inlineStr"/>
-      <c r="I269" s="2" t="inlineStr"/>
-      <c r="J269" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K269" s="2" t="inlineStr"/>
-      <c r="L269" s="2" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="2" t="inlineStr">
+      <c r="G272" s="2" t="inlineStr"/>
+      <c r="H272" s="2" t="inlineStr"/>
+      <c r="I272" s="2" t="inlineStr"/>
+      <c r="J272" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K272" s="2" t="inlineStr"/>
+      <c r="L272" s="2" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="inlineStr">
         <is>
           <t>BCIO:006091</t>
         </is>
       </c>
-      <c r="B270" s="2" t="inlineStr">
+      <c r="B273" s="2" t="inlineStr">
         <is>
           <t>temporal behavioural opportunity</t>
         </is>
       </c>
-      <c r="C270" s="2" t="inlineStr">
+      <c r="C273" s="2" t="inlineStr">
         <is>
           <t>physical behavioural opportunity</t>
         </is>
       </c>
-      <c r="D270" s="2" t="inlineStr">
+      <c r="D273" s="2" t="inlineStr">
         <is>
           <t>A physical behavioural opportunity that involves the person having sufficient time or a suitable period.</t>
         </is>
       </c>
-      <c r="E270" s="2" t="inlineStr"/>
-      <c r="F270" s="2" t="inlineStr"/>
-      <c r="G270" s="2" t="inlineStr"/>
-      <c r="H270" s="2" t="inlineStr"/>
-      <c r="I270" s="2" t="inlineStr"/>
-      <c r="J270" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K270" s="2" t="inlineStr"/>
-      <c r="L270" s="2" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="4" t="inlineStr">
+      <c r="E273" s="2" t="inlineStr"/>
+      <c r="F273" s="2" t="inlineStr"/>
+      <c r="G273" s="2" t="inlineStr"/>
+      <c r="H273" s="2" t="inlineStr"/>
+      <c r="I273" s="2" t="inlineStr"/>
+      <c r="J273" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K273" s="2" t="inlineStr"/>
+      <c r="L273" s="2" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="4" t="inlineStr">
         <is>
           <t>BCIO:006076</t>
         </is>
       </c>
-      <c r="B271" s="4" t="inlineStr">
+      <c r="B274" s="4" t="inlineStr">
         <is>
           <t>temporal orientation</t>
         </is>
       </c>
-      <c r="C271" s="4" t="inlineStr">
+      <c r="C274" s="4" t="inlineStr">
         <is>
           <t>mental disposition</t>
         </is>
       </c>
-      <c r="D271" s="4" t="inlineStr">
+      <c r="D274" s="4" t="inlineStr">
         <is>
           <t>A mental disposition to focus more on present or future outcomes.</t>
         </is>
       </c>
-      <c r="E271" s="4" t="inlineStr"/>
-      <c r="F271" s="4" t="inlineStr"/>
-      <c r="G271" s="4" t="inlineStr"/>
-      <c r="H271" s="4" t="inlineStr"/>
-      <c r="I271" s="4" t="inlineStr"/>
-      <c r="J271" s="4" t="inlineStr">
+      <c r="E274" s="4" t="inlineStr"/>
+      <c r="F274" s="4" t="inlineStr"/>
+      <c r="G274" s="4" t="inlineStr"/>
+      <c r="H274" s="4" t="inlineStr"/>
+      <c r="I274" s="4" t="inlineStr"/>
+      <c r="J274" s="4" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="K271" s="4" t="inlineStr"/>
-      <c r="L271" s="4" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="3" t="inlineStr">
+      <c r="K274" s="4" t="inlineStr"/>
+      <c r="L274" s="4" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="3" t="inlineStr">
         <is>
           <t>BCIO:050230</t>
         </is>
       </c>
-      <c r="B272" s="3" t="inlineStr">
+      <c r="B275" s="3" t="inlineStr">
         <is>
           <t>temporal orientation to the future</t>
         </is>
       </c>
-      <c r="C272" s="3" t="inlineStr">
+      <c r="C275" s="3" t="inlineStr">
         <is>
           <t>mental disposition</t>
         </is>
       </c>
-      <c r="D272" s="3" t="inlineStr">
+      <c r="D275" s="3" t="inlineStr">
         <is>
           <t>A mental disposition to focus more on future than present outcomes.</t>
         </is>
       </c>
-      <c r="E272" s="3" t="inlineStr"/>
-      <c r="F272" s="3" t="inlineStr"/>
-      <c r="G272" s="3" t="inlineStr"/>
-      <c r="H272" s="3" t="inlineStr"/>
-      <c r="I272" s="3" t="inlineStr"/>
-      <c r="J272" s="3" t="inlineStr">
+      <c r="E275" s="3" t="inlineStr"/>
+      <c r="F275" s="3" t="inlineStr"/>
+      <c r="G275" s="3" t="inlineStr"/>
+      <c r="H275" s="3" t="inlineStr"/>
+      <c r="I275" s="3" t="inlineStr"/>
+      <c r="J275" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="K272" s="3" t="inlineStr"/>
-      <c r="L272" s="3" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="3" t="inlineStr">
+      <c r="K275" s="3" t="inlineStr"/>
+      <c r="L275" s="3" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="3" t="inlineStr">
         <is>
           <t>BCIO:050231</t>
         </is>
       </c>
-      <c r="B273" s="3" t="inlineStr">
+      <c r="B276" s="3" t="inlineStr">
         <is>
           <t>temporal orientation to the present</t>
         </is>
       </c>
-      <c r="C273" s="3" t="inlineStr">
+      <c r="C276" s="3" t="inlineStr">
         <is>
           <t>mental disposition</t>
         </is>
       </c>
-      <c r="D273" s="3" t="inlineStr">
+      <c r="D276" s="3" t="inlineStr">
         <is>
           <t>A mental disposition to focus more on present than future outcomes.</t>
         </is>
       </c>
-      <c r="E273" s="3" t="inlineStr"/>
-      <c r="F273" s="3" t="inlineStr"/>
-      <c r="G273" s="3" t="inlineStr"/>
-      <c r="H273" s="3" t="inlineStr"/>
-      <c r="I273" s="3" t="inlineStr"/>
-      <c r="J273" s="3" t="inlineStr">
+      <c r="E276" s="3" t="inlineStr"/>
+      <c r="F276" s="3" t="inlineStr"/>
+      <c r="G276" s="3" t="inlineStr"/>
+      <c r="H276" s="3" t="inlineStr"/>
+      <c r="I276" s="3" t="inlineStr"/>
+      <c r="J276" s="3" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="K273" s="3" t="inlineStr"/>
-      <c r="L273" s="3" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" t="inlineStr">
+      <c r="K276" s="3" t="inlineStr"/>
+      <c r="L276" s="3" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
         <is>
           <t>MF:0000013</t>
         </is>
       </c>
-      <c r="B274" t="inlineStr">
+      <c r="B277" t="inlineStr">
         <is>
           <t>thinking</t>
         </is>
       </c>
-      <c r="C274" t="inlineStr">
+      <c r="C277" t="inlineStr">
         <is>
           <t>cognitive process</t>
         </is>
       </c>
-      <c r="D274" t="inlineStr">
+      <c r="D277" t="inlineStr">
         <is>
           <t>A cognitive process that involves the manipulation of mental language and/or mental images.</t>
         </is>
       </c>
-      <c r="E274" t="inlineStr"/>
-      <c r="F274" t="inlineStr"/>
-      <c r="G274" t="inlineStr"/>
-      <c r="H274" t="inlineStr"/>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr">
+      <c r="E277" t="inlineStr"/>
+      <c r="F277" t="inlineStr"/>
+      <c r="G277" t="inlineStr"/>
+      <c r="H277" t="inlineStr"/>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="2" t="inlineStr">
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="inlineStr">
         <is>
           <t>BCIO:006107</t>
         </is>
       </c>
-      <c r="B275" s="2" t="inlineStr">
+      <c r="B278" s="2" t="inlineStr">
         <is>
           <t>value-congruent self-regulation</t>
         </is>
       </c>
-      <c r="C275" s="2" t="inlineStr">
+      <c r="C278" s="2" t="inlineStr">
         <is>
           <t>self-regulation of behaviour</t>
         </is>
       </c>
-      <c r="D275" s="2" t="inlineStr">
+      <c r="D278" s="2" t="inlineStr">
         <is>
           <t>Self-regulation undertaken to achieve consistency between one's values and the behaviour performed.</t>
         </is>
       </c>
-      <c r="E275" s="2" t="inlineStr"/>
-      <c r="F275" s="2" t="inlineStr"/>
-      <c r="G275" s="2" t="inlineStr"/>
-      <c r="H275" s="2" t="inlineStr"/>
-      <c r="I275" s="2" t="inlineStr"/>
-      <c r="J275" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K275" s="2" t="inlineStr"/>
-      <c r="L275" s="2" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" t="inlineStr">
+      <c r="E278" s="2" t="inlineStr"/>
+      <c r="F278" s="2" t="inlineStr"/>
+      <c r="G278" s="2" t="inlineStr"/>
+      <c r="H278" s="2" t="inlineStr"/>
+      <c r="I278" s="2" t="inlineStr"/>
+      <c r="J278" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K278" s="2" t="inlineStr"/>
+      <c r="L278" s="2" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
         <is>
           <t>MF:0000045</t>
         </is>
       </c>
-      <c r="B276" t="inlineStr">
+      <c r="B279" t="inlineStr">
         <is>
           <t>wanting</t>
         </is>
       </c>
-      <c r="C276" t="inlineStr">
+      <c r="C279" t="inlineStr">
         <is>
           <t>mental process</t>
         </is>
       </c>
-      <c r="D276" t="inlineStr">
+      <c r="D279" t="inlineStr">
         <is>
           <t>A mental process that involves thinking about a state of affairs that is not yet the case together with a desire for that state of affairs to come about.</t>
         </is>
       </c>
-      <c r="E276" t="inlineStr"/>
-      <c r="F276" t="inlineStr"/>
-      <c r="G276" t="inlineStr"/>
-      <c r="H276" t="inlineStr"/>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr">
+      <c r="E279" t="inlineStr"/>
+      <c r="F279" t="inlineStr"/>
+      <c r="G279" t="inlineStr"/>
+      <c r="H279" t="inlineStr"/>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="2" t="inlineStr">
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="2" t="inlineStr">
         <is>
           <t>BCIO:006059</t>
         </is>
       </c>
-      <c r="B277" s="2" t="inlineStr">
+      <c r="B280" s="2" t="inlineStr">
         <is>
           <t>willingness to comply</t>
         </is>
       </c>
-      <c r="C277" s="2" t="inlineStr">
+      <c r="C280" s="2" t="inlineStr">
         <is>
           <t>mental disposition</t>
         </is>
       </c>
-      <c r="D277" s="2" t="inlineStr">
+      <c r="D280" s="2" t="inlineStr">
         <is>
           <t>A mental disposition to act in accordance with the likely approval of others.</t>
         </is>
       </c>
-      <c r="E277" s="2" t="inlineStr"/>
-      <c r="F277" s="2" t="inlineStr">
+      <c r="E280" s="2" t="inlineStr"/>
+      <c r="F280" s="2" t="inlineStr">
         <is>
           <t>motivation to comply</t>
         </is>
       </c>
-      <c r="G277" s="2" t="inlineStr"/>
-      <c r="H277" s="2" t="inlineStr"/>
-      <c r="I277" s="2" t="inlineStr"/>
-      <c r="J277" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K277" s="2" t="inlineStr"/>
-      <c r="L277" s="2" t="inlineStr"/>
+      <c r="G280" s="2" t="inlineStr"/>
+      <c r="H280" s="2" t="inlineStr"/>
+      <c r="I280" s="2" t="inlineStr"/>
+      <c r="J280" s="2" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="K280" s="2" t="inlineStr"/>
+      <c r="L280" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/MechanismOfAction/inputs/BCIO_MoA.xlsx
+++ b/MechanismOfAction/inputs/BCIO_MoA.xlsx
@@ -3306,7 +3306,7 @@
       </c>
       <c r="C80" s="2" t="inlineStr">
         <is>
-          <t>evaluative belief about behavioural outcome</t>
+          <t>evaluative belief about the consequences of behaviour</t>
         </is>
       </c>
       <c r="D80" s="2" t="inlineStr">
@@ -4707,7 +4707,7 @@
       </c>
       <c r="C119" s="2" t="inlineStr">
         <is>
-          <t>evaluative belief</t>
+          <t>belief about consequences of behaviour</t>
         </is>
       </c>
       <c r="D119" s="2" t="inlineStr">
@@ -4902,7 +4902,7 @@
       </c>
       <c r="C124" s="2" t="inlineStr">
         <is>
-          <t>social environment system</t>
+          <t>social environmental system</t>
         </is>
       </c>
       <c r="D124" s="2" t="inlineStr">
@@ -5650,7 +5650,7 @@
       </c>
       <c r="C145" s="2" t="inlineStr">
         <is>
-          <t>opportunity</t>
+          <t>behavioural opportunity</t>
         </is>
       </c>
       <c r="D145" s="2" t="inlineStr">
@@ -6351,7 +6351,7 @@
       </c>
       <c r="C165" s="2" t="inlineStr">
         <is>
-          <t>learned stimulus-response co-occurrence</t>
+          <t>learned stimulus-reponse co-occurrence</t>
         </is>
       </c>
       <c r="D165" s="2" t="inlineStr">
@@ -6431,7 +6431,7 @@
       </c>
       <c r="C167" s="2" t="inlineStr">
         <is>
-          <t>learned stimulus-response co-occurrence</t>
+          <t>learned stimulus-reponse co-occurrence</t>
         </is>
       </c>
       <c r="D167" s="2" t="inlineStr">
@@ -9863,7 +9863,7 @@
       </c>
       <c r="C263" s="2" t="inlineStr">
         <is>
-          <t>personal  role</t>
+          <t>personal role</t>
         </is>
       </c>
       <c r="D263" s="2" t="inlineStr">

--- a/MechanismOfAction/inputs/BCIO_MoA.xlsx
+++ b/MechanismOfAction/inputs/BCIO_MoA.xlsx
@@ -3260,38 +3260,38 @@
       <c r="L78" s="2" t="inlineStr"/>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="inlineStr">
+      <c r="A79" s="4" t="inlineStr">
         <is>
           <t>BCIO:006032</t>
         </is>
       </c>
-      <c r="B79" s="2" t="inlineStr">
+      <c r="B79" s="4" t="inlineStr">
         <is>
           <t>belief about the desirability of consequences of behaviour</t>
         </is>
       </c>
-      <c r="C79" s="2" t="inlineStr">
+      <c r="C79" s="4" t="inlineStr">
         <is>
           <t>belief about consequences of behaviour</t>
         </is>
       </c>
-      <c r="D79" s="2" t="inlineStr">
+      <c r="D79" s="4" t="inlineStr">
         <is>
           <t>A belief about the desirability or worth of the outcomes of a behaviour.</t>
         </is>
       </c>
-      <c r="E79" s="2" t="inlineStr"/>
-      <c r="F79" s="2" t="inlineStr"/>
-      <c r="G79" s="2" t="inlineStr"/>
-      <c r="H79" s="2" t="inlineStr"/>
-      <c r="I79" s="2" t="inlineStr"/>
-      <c r="J79" s="2" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="K79" s="2" t="inlineStr"/>
-      <c r="L79" s="2" t="inlineStr"/>
+      <c r="E79" s="4" t="inlineStr"/>
+      <c r="F79" s="4" t="inlineStr"/>
+      <c r="G79" s="4" t="inlineStr"/>
+      <c r="H79" s="4" t="inlineStr"/>
+      <c r="I79" s="4" t="inlineStr"/>
+      <c r="J79" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="K79" s="4" t="inlineStr"/>
+      <c r="L79" s="4" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
@@ -8723,38 +8723,38 @@
       <c r="L230" s="2" t="inlineStr"/>
     </row>
     <row r="231">
-      <c r="A231" t="inlineStr">
+      <c r="A231" s="4" t="inlineStr">
         <is>
           <t>PATO:0000001</t>
         </is>
       </c>
-      <c r="B231" t="inlineStr">
+      <c r="B231" s="4" t="inlineStr">
         <is>
           <t>quality</t>
         </is>
       </c>
-      <c r="C231" t="inlineStr">
+      <c r="C231" s="4" t="inlineStr">
         <is>
           <t>specifically dependent continuant</t>
         </is>
       </c>
-      <c r="D231" t="inlineStr">
+      <c r="D231" s="4" t="inlineStr">
         <is>
           <t>A dependent entity that inheres in a bearer by virtue of how the bearer is related to other entities.</t>
         </is>
       </c>
-      <c r="E231" t="inlineStr"/>
-      <c r="F231" t="inlineStr"/>
-      <c r="G231" t="inlineStr"/>
-      <c r="H231" t="inlineStr"/>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
+      <c r="E231" s="4" t="inlineStr"/>
+      <c r="F231" s="4" t="inlineStr"/>
+      <c r="G231" s="4" t="inlineStr"/>
+      <c r="H231" s="4" t="inlineStr"/>
+      <c r="I231" s="4" t="inlineStr"/>
+      <c r="J231" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="K231" s="4" t="inlineStr"/>
+      <c r="L231" s="4" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="2" t="inlineStr">

--- a/MechanismOfAction/inputs/BCIO_MoA.xlsx
+++ b/MechanismOfAction/inputs/BCIO_MoA.xlsx
@@ -2634,7 +2634,7 @@
       </c>
       <c r="D55" s="3" t="inlineStr">
         <is>
-          <t>A belief about consequences of behaviour in terms of one's health and wellbeing.</t>
+          <t>A belief about consequences of behaviour in terms of health and wellbeing.</t>
         </is>
       </c>
       <c r="E55" s="3" t="inlineStr"/>
@@ -3358,7 +3358,7 @@
       </c>
       <c r="D74" s="2" t="inlineStr">
         <is>
-          <t>A belief about consequences of behaviour in terms of social processes.</t>
+          <t>A belief about consequences of behaviour in terms of their impact on the social environmental system.</t>
         </is>
       </c>
       <c r="E74" s="2" t="inlineStr"/>
@@ -3592,7 +3592,7 @@
       </c>
       <c r="D80" s="2" t="inlineStr">
         <is>
-          <t>An evaluative belief about the consequences of behaviour in terms of their value to oneself.</t>
+          <t>An evaluative belief about the value of the consequences of behaviour to the individual.</t>
         </is>
       </c>
       <c r="E80" s="2" t="inlineStr"/>

--- a/MechanismOfAction/inputs/BCIO_MoA.xlsx
+++ b/MechanismOfAction/inputs/BCIO_MoA.xlsx
@@ -3592,7 +3592,7 @@
       </c>
       <c r="D80" s="2" t="inlineStr">
         <is>
-          <t>An evaluative belief about the value of the consequences of behaviour to the individual.</t>
+          <t>An evaluative belief about the value of the consequences of behaviour to oneself.</t>
         </is>
       </c>
       <c r="E80" s="2" t="inlineStr"/>

--- a/MechanismOfAction/inputs/BCIO_MoA.xlsx
+++ b/MechanismOfAction/inputs/BCIO_MoA.xlsx
@@ -3773,41 +3773,41 @@
       <c r="O84" t="inlineStr"/>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
+      <c r="A85" s="4" t="inlineStr">
         <is>
           <t>MFOEM:000202</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B85" s="4" t="inlineStr">
         <is>
           <t>bodily feeling</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="C85" s="4" t="inlineStr">
         <is>
           <t>affective process</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr">
+      <c r="D85" s="4" t="inlineStr">
         <is>
           <t>An affective process involving sensory experience of physiological stimuli.</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="N85" t="inlineStr"/>
-      <c r="O85" t="inlineStr"/>
+      <c r="E85" s="4" t="inlineStr"/>
+      <c r="F85" s="4" t="inlineStr"/>
+      <c r="G85" s="4" t="inlineStr"/>
+      <c r="H85" s="4" t="inlineStr"/>
+      <c r="I85" s="4" t="inlineStr"/>
+      <c r="J85" s="4" t="inlineStr"/>
+      <c r="K85" s="4" t="inlineStr"/>
+      <c r="L85" s="4" t="inlineStr"/>
+      <c r="M85" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="N85" s="4" t="inlineStr"/>
+      <c r="O85" s="4" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3855,41 +3855,41 @@
       <c r="O86" t="inlineStr"/>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
+      <c r="A87" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">MF:0000074 </t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B87" s="4" t="inlineStr">
         <is>
           <t>bodily quality</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="C87" s="4" t="inlineStr">
         <is>
           <t>quality</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
+      <c r="D87" s="4" t="inlineStr">
         <is>
           <t>A quality that inheres in some extended organism.</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr"/>
-      <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="N87" t="inlineStr"/>
-      <c r="O87" t="inlineStr"/>
+      <c r="E87" s="4" t="inlineStr"/>
+      <c r="F87" s="4" t="inlineStr"/>
+      <c r="G87" s="4" t="inlineStr"/>
+      <c r="H87" s="4" t="inlineStr"/>
+      <c r="I87" s="4" t="inlineStr"/>
+      <c r="J87" s="4" t="inlineStr"/>
+      <c r="K87" s="4" t="inlineStr"/>
+      <c r="L87" s="4" t="inlineStr"/>
+      <c r="M87" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="N87" s="4" t="inlineStr"/>
+      <c r="O87" s="4" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
@@ -5147,7 +5147,7 @@
       </c>
       <c r="E119" s="2" t="inlineStr">
         <is>
-          <t>(evaluative belief   belief about consequences of behaviour)</t>
+          <t>(evaluative belief    belief about consequences of behaviour)</t>
         </is>
       </c>
       <c r="F119" s="2" t="inlineStr"/>
@@ -5829,8 +5829,7 @@
       <c r="H136" s="2" t="inlineStr"/>
       <c r="I136" s="2" t="inlineStr">
         <is>
-          <t>The label 'Generalisation of target
- behavior' is used for a behaviour change technique (BCT) in the BCT Taxonomy v1 (Michie et al., 2013). The definition for this BCT reads as follows: 'Advise to perform the wanted behaviour,  which is already performed in a particular situation, in another situation.' Therefore, the BCT is the advice to perform the behaviour, whereas the MoA is a learning process that occurs in the brain.</t>
+          <t>The label 'Generalisation of target  behavior' is used for a behaviour change technique (BCT) in the BCT Taxonomy v1 (Michie et al., 2013). The definition for this BCT reads as follows: 'Advise to perform the wanted behaviour,  which is already performed in a particular situation, in another situation.' Therefore, the BCT is the advice to perform the behaviour, whereas the MoA is a learning process that occurs in the brain.</t>
         </is>
       </c>
       <c r="J136" s="2" t="inlineStr"/>
@@ -7386,7 +7385,11 @@
       <c r="F176" t="inlineStr"/>
       <c r="G176" t="inlineStr"/>
       <c r="H176" t="inlineStr"/>
-      <c r="I176" t="inlineStr"/>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mental disposition' is a subclass of 'bodily disposition', as mental dispositions occur in the body. </t>
+        </is>
+      </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr"/>
@@ -7709,7 +7712,7 @@
       <c r="H184" t="inlineStr"/>
       <c r="I184" t="inlineStr">
         <is>
-          <t>Mental processes can varying in the degree to which they involve consciousness.
+          <t>Mental processes can vary in the degree to which they involve consciousness.
 A 'mental process' is a subclass of 'bodily process', as mental processes occur within the body, specifically involving the brain.</t>
         </is>
       </c>
@@ -7725,41 +7728,41 @@
       <c r="O184" t="inlineStr"/>
     </row>
     <row r="185">
-      <c r="A185" t="inlineStr">
+      <c r="A185" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">MF:0000075 </t>
         </is>
       </c>
-      <c r="B185" t="inlineStr">
+      <c r="B185" s="4" t="inlineStr">
         <is>
           <t>mental quality</t>
         </is>
       </c>
-      <c r="C185" t="inlineStr">
+      <c r="C185" s="4" t="inlineStr">
         <is>
           <t>bodily quality</t>
         </is>
       </c>
-      <c r="D185" t="inlineStr">
+      <c r="D185" s="4" t="inlineStr">
         <is>
           <t>A bodily quality that inheres in those structures of the extended organism that are essential for mental functioning.</t>
         </is>
       </c>
-      <c r="E185" t="inlineStr"/>
-      <c r="F185" t="inlineStr"/>
-      <c r="G185" t="inlineStr"/>
-      <c r="H185" t="inlineStr"/>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="N185" t="inlineStr"/>
-      <c r="O185" t="inlineStr"/>
+      <c r="E185" s="4" t="inlineStr"/>
+      <c r="F185" s="4" t="inlineStr"/>
+      <c r="G185" s="4" t="inlineStr"/>
+      <c r="H185" s="4" t="inlineStr"/>
+      <c r="I185" s="4" t="inlineStr"/>
+      <c r="J185" s="4" t="inlineStr"/>
+      <c r="K185" s="4" t="inlineStr"/>
+      <c r="L185" s="4" t="inlineStr"/>
+      <c r="M185" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="N185" s="4" t="inlineStr"/>
+      <c r="O185" s="4" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="2" t="inlineStr">
@@ -8266,7 +8269,7 @@
       </c>
       <c r="B199" s="3" t="inlineStr">
         <is>
-          <t>non-judgemental acknowledgement</t>
+          <t>non-judgmental acknowledgement</t>
         </is>
       </c>
       <c r="C199" s="3" t="inlineStr">

--- a/MechanismOfAction/inputs/BCIO_MoA.xlsx
+++ b/MechanismOfAction/inputs/BCIO_MoA.xlsx
@@ -8979,7 +8979,7 @@
       <c r="H216" s="2" t="inlineStr"/>
       <c r="I216" s="2" t="inlineStr">
         <is>
-          <t>An 'behavioural opportunity' is a feature of the environmental system. While the class 'environmental system' is about what is found in an environment, the behavioural opportunity is a feature of the environment which interacts with the person and enables or prevents a behaviour.</t>
+          <t>A 'behavioural opportunity' is a feature of the environmental system. While the class 'environmental system' is about what is found in an environment, the behavioural opportunity is a feature of the environment which interacts with the person and enables or prevents a behaviour.</t>
         </is>
       </c>
       <c r="J216" s="2" t="inlineStr"/>
@@ -9544,41 +9544,41 @@
       <c r="O230" s="2" t="inlineStr"/>
     </row>
     <row r="231">
-      <c r="A231" t="inlineStr">
+      <c r="A231" s="4" t="inlineStr">
         <is>
           <t>PATO:0000001</t>
         </is>
       </c>
-      <c r="B231" t="inlineStr">
+      <c r="B231" s="4" t="inlineStr">
         <is>
           <t>quality</t>
         </is>
       </c>
-      <c r="C231" t="inlineStr">
+      <c r="C231" s="4" t="inlineStr">
         <is>
           <t>specifically dependent continuant</t>
         </is>
       </c>
-      <c r="D231" t="inlineStr">
+      <c r="D231" s="4" t="inlineStr">
         <is>
           <t>A dependent entity that inheres in a bearer by virtue of how the bearer is related to other entities.</t>
         </is>
       </c>
-      <c r="E231" t="inlineStr"/>
-      <c r="F231" t="inlineStr"/>
-      <c r="G231" t="inlineStr"/>
-      <c r="H231" t="inlineStr"/>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="N231" t="inlineStr"/>
-      <c r="O231" t="inlineStr"/>
+      <c r="E231" s="4" t="inlineStr"/>
+      <c r="F231" s="4" t="inlineStr"/>
+      <c r="G231" s="4" t="inlineStr"/>
+      <c r="H231" s="4" t="inlineStr"/>
+      <c r="I231" s="4" t="inlineStr"/>
+      <c r="J231" s="4" t="inlineStr"/>
+      <c r="K231" s="4" t="inlineStr"/>
+      <c r="L231" s="4" t="inlineStr"/>
+      <c r="M231" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="N231" s="4" t="inlineStr"/>
+      <c r="O231" s="4" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="2" t="inlineStr">
@@ -9655,41 +9655,41 @@
       <c r="O233" s="3" t="inlineStr"/>
     </row>
     <row r="234">
-      <c r="A234" t="inlineStr">
+      <c r="A234" s="4" t="inlineStr">
         <is>
           <t>MF:0000030</t>
         </is>
       </c>
-      <c r="B234" t="inlineStr">
+      <c r="B234" s="4" t="inlineStr">
         <is>
           <t>representation</t>
         </is>
       </c>
-      <c r="C234" t="inlineStr">
+      <c r="C234" s="4" t="inlineStr">
         <is>
           <t>specifically dependent continuant</t>
         </is>
       </c>
-      <c r="D234" t="inlineStr">
+      <c r="D234" s="4" t="inlineStr">
         <is>
           <t>A dependent continuant which is about a portion of reality.</t>
         </is>
       </c>
-      <c r="E234" t="inlineStr"/>
-      <c r="F234" t="inlineStr"/>
-      <c r="G234" t="inlineStr"/>
-      <c r="H234" t="inlineStr"/>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="N234" t="inlineStr"/>
-      <c r="O234" t="inlineStr"/>
+      <c r="E234" s="4" t="inlineStr"/>
+      <c r="F234" s="4" t="inlineStr"/>
+      <c r="G234" s="4" t="inlineStr"/>
+      <c r="H234" s="4" t="inlineStr"/>
+      <c r="I234" s="4" t="inlineStr"/>
+      <c r="J234" s="4" t="inlineStr"/>
+      <c r="K234" s="4" t="inlineStr"/>
+      <c r="L234" s="4" t="inlineStr"/>
+      <c r="M234" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="N234" s="4" t="inlineStr"/>
+      <c r="O234" s="4" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="4" t="inlineStr">

--- a/MechanismOfAction/inputs/BCIO_MoA.xlsx
+++ b/MechanismOfAction/inputs/BCIO_MoA.xlsx
@@ -3773,41 +3773,41 @@
       <c r="O84" t="inlineStr"/>
     </row>
     <row r="85">
-      <c r="A85" s="4" t="inlineStr">
+      <c r="A85" t="inlineStr">
         <is>
           <t>MFOEM:000202</t>
         </is>
       </c>
-      <c r="B85" s="4" t="inlineStr">
+      <c r="B85" t="inlineStr">
         <is>
           <t>bodily feeling</t>
         </is>
       </c>
-      <c r="C85" s="4" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t>affective process</t>
         </is>
       </c>
-      <c r="D85" s="4" t="inlineStr">
+      <c r="D85" t="inlineStr">
         <is>
           <t>An affective process involving sensory experience of physiological stimuli.</t>
         </is>
       </c>
-      <c r="E85" s="4" t="inlineStr"/>
-      <c r="F85" s="4" t="inlineStr"/>
-      <c r="G85" s="4" t="inlineStr"/>
-      <c r="H85" s="4" t="inlineStr"/>
-      <c r="I85" s="4" t="inlineStr"/>
-      <c r="J85" s="4" t="inlineStr"/>
-      <c r="K85" s="4" t="inlineStr"/>
-      <c r="L85" s="4" t="inlineStr"/>
-      <c r="M85" s="4" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="N85" s="4" t="inlineStr"/>
-      <c r="O85" s="4" t="inlineStr"/>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -3855,41 +3855,41 @@
       <c r="O86" t="inlineStr"/>
     </row>
     <row r="87">
-      <c r="A87" s="4" t="inlineStr">
+      <c r="A87" t="inlineStr">
         <is>
           <t xml:space="preserve">MF:0000074 </t>
         </is>
       </c>
-      <c r="B87" s="4" t="inlineStr">
+      <c r="B87" t="inlineStr">
         <is>
           <t>bodily quality</t>
         </is>
       </c>
-      <c r="C87" s="4" t="inlineStr">
+      <c r="C87" t="inlineStr">
         <is>
           <t>quality</t>
         </is>
       </c>
-      <c r="D87" s="4" t="inlineStr">
+      <c r="D87" t="inlineStr">
         <is>
           <t>A quality that inheres in some extended organism.</t>
         </is>
       </c>
-      <c r="E87" s="4" t="inlineStr"/>
-      <c r="F87" s="4" t="inlineStr"/>
-      <c r="G87" s="4" t="inlineStr"/>
-      <c r="H87" s="4" t="inlineStr"/>
-      <c r="I87" s="4" t="inlineStr"/>
-      <c r="J87" s="4" t="inlineStr"/>
-      <c r="K87" s="4" t="inlineStr"/>
-      <c r="L87" s="4" t="inlineStr"/>
-      <c r="M87" s="4" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="N87" s="4" t="inlineStr"/>
-      <c r="O87" s="4" t="inlineStr"/>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr"/>
+      <c r="O87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
@@ -7728,41 +7728,41 @@
       <c r="O184" t="inlineStr"/>
     </row>
     <row r="185">
-      <c r="A185" s="4" t="inlineStr">
+      <c r="A185" t="inlineStr">
         <is>
           <t xml:space="preserve">MF:0000075 </t>
         </is>
       </c>
-      <c r="B185" s="4" t="inlineStr">
+      <c r="B185" t="inlineStr">
         <is>
           <t>mental quality</t>
         </is>
       </c>
-      <c r="C185" s="4" t="inlineStr">
+      <c r="C185" t="inlineStr">
         <is>
           <t>bodily quality</t>
         </is>
       </c>
-      <c r="D185" s="4" t="inlineStr">
+      <c r="D185" t="inlineStr">
         <is>
           <t>A bodily quality that inheres in those structures of the extended organism that are essential for mental functioning.</t>
         </is>
       </c>
-      <c r="E185" s="4" t="inlineStr"/>
-      <c r="F185" s="4" t="inlineStr"/>
-      <c r="G185" s="4" t="inlineStr"/>
-      <c r="H185" s="4" t="inlineStr"/>
-      <c r="I185" s="4" t="inlineStr"/>
-      <c r="J185" s="4" t="inlineStr"/>
-      <c r="K185" s="4" t="inlineStr"/>
-      <c r="L185" s="4" t="inlineStr"/>
-      <c r="M185" s="4" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="N185" s="4" t="inlineStr"/>
-      <c r="O185" s="4" t="inlineStr"/>
+      <c r="E185" t="inlineStr"/>
+      <c r="F185" t="inlineStr"/>
+      <c r="G185" t="inlineStr"/>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="N185" t="inlineStr"/>
+      <c r="O185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="2" t="inlineStr">
@@ -9544,41 +9544,41 @@
       <c r="O230" s="2" t="inlineStr"/>
     </row>
     <row r="231">
-      <c r="A231" s="4" t="inlineStr">
+      <c r="A231" t="inlineStr">
         <is>
           <t>PATO:0000001</t>
         </is>
       </c>
-      <c r="B231" s="4" t="inlineStr">
+      <c r="B231" t="inlineStr">
         <is>
           <t>quality</t>
         </is>
       </c>
-      <c r="C231" s="4" t="inlineStr">
+      <c r="C231" t="inlineStr">
         <is>
           <t>specifically dependent continuant</t>
         </is>
       </c>
-      <c r="D231" s="4" t="inlineStr">
+      <c r="D231" t="inlineStr">
         <is>
           <t>A dependent entity that inheres in a bearer by virtue of how the bearer is related to other entities.</t>
         </is>
       </c>
-      <c r="E231" s="4" t="inlineStr"/>
-      <c r="F231" s="4" t="inlineStr"/>
-      <c r="G231" s="4" t="inlineStr"/>
-      <c r="H231" s="4" t="inlineStr"/>
-      <c r="I231" s="4" t="inlineStr"/>
-      <c r="J231" s="4" t="inlineStr"/>
-      <c r="K231" s="4" t="inlineStr"/>
-      <c r="L231" s="4" t="inlineStr"/>
-      <c r="M231" s="4" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="N231" s="4" t="inlineStr"/>
-      <c r="O231" s="4" t="inlineStr"/>
+      <c r="E231" t="inlineStr"/>
+      <c r="F231" t="inlineStr"/>
+      <c r="G231" t="inlineStr"/>
+      <c r="H231" t="inlineStr"/>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="N231" t="inlineStr"/>
+      <c r="O231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="2" t="inlineStr">
@@ -9655,41 +9655,41 @@
       <c r="O233" s="3" t="inlineStr"/>
     </row>
     <row r="234">
-      <c r="A234" s="4" t="inlineStr">
+      <c r="A234" t="inlineStr">
         <is>
           <t>MF:0000030</t>
         </is>
       </c>
-      <c r="B234" s="4" t="inlineStr">
+      <c r="B234" t="inlineStr">
         <is>
           <t>representation</t>
         </is>
       </c>
-      <c r="C234" s="4" t="inlineStr">
+      <c r="C234" t="inlineStr">
         <is>
           <t>specifically dependent continuant</t>
         </is>
       </c>
-      <c r="D234" s="4" t="inlineStr">
+      <c r="D234" t="inlineStr">
         <is>
           <t>A dependent continuant which is about a portion of reality.</t>
         </is>
       </c>
-      <c r="E234" s="4" t="inlineStr"/>
-      <c r="F234" s="4" t="inlineStr"/>
-      <c r="G234" s="4" t="inlineStr"/>
-      <c r="H234" s="4" t="inlineStr"/>
-      <c r="I234" s="4" t="inlineStr"/>
-      <c r="J234" s="4" t="inlineStr"/>
-      <c r="K234" s="4" t="inlineStr"/>
-      <c r="L234" s="4" t="inlineStr"/>
-      <c r="M234" s="4" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="N234" s="4" t="inlineStr"/>
-      <c r="O234" s="4" t="inlineStr"/>
+      <c r="E234" t="inlineStr"/>
+      <c r="F234" t="inlineStr"/>
+      <c r="G234" t="inlineStr"/>
+      <c r="H234" t="inlineStr"/>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="N234" t="inlineStr"/>
+      <c r="O234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="4" t="inlineStr">
@@ -10922,7 +10922,7 @@
       <c r="E266" t="inlineStr"/>
       <c r="F266" t="inlineStr">
         <is>
-          <t>'The conscious experience that a person has of feelings in their body (e.g., hunger), their mood (e.g., feeling cheerful) and their emotion (e.g., feeling nervous), in response to internal or external stimuli.</t>
+          <t>The conscious experience that a person has of feelings in their body (e.g., hunger), their mood (e.g., feeling cheerful) and their emotion (e.g., feeling nervous), in response to internal or external stimuli.</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">

--- a/MechanismOfAction/inputs/BCIO_MoA.xlsx
+++ b/MechanismOfAction/inputs/BCIO_MoA.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -47,11 +47,6 @@
         <fgColor rgb="00ffffff"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="002f4f4f"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -65,12 +60,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -2119,7 +2113,7 @@
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>A belief about a factor could restrict or impede a person from engaging in a behaviour.</t>
+          <t>A belief about a factor that could restrict or impede a person from engaging in a behaviour.</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr"/>
@@ -3625,41 +3619,41 @@
       <c r="O80" t="inlineStr"/>
     </row>
     <row r="81">
-      <c r="A81" s="4" t="inlineStr">
+      <c r="A81" t="inlineStr">
         <is>
           <t>MFOEM:000202</t>
         </is>
       </c>
-      <c r="B81" s="4" t="inlineStr">
+      <c r="B81" t="inlineStr">
         <is>
           <t>bodily feeling</t>
         </is>
       </c>
-      <c r="C81" s="4" t="inlineStr">
+      <c r="C81" t="inlineStr">
         <is>
           <t>affective process</t>
         </is>
       </c>
-      <c r="D81" s="4" t="inlineStr">
+      <c r="D81" t="inlineStr">
         <is>
           <t>An affective process involving sensory experience of physiological stimuli.</t>
         </is>
       </c>
-      <c r="E81" s="4" t="inlineStr"/>
-      <c r="F81" s="4" t="inlineStr"/>
-      <c r="G81" s="4" t="inlineStr"/>
-      <c r="H81" s="4" t="inlineStr"/>
-      <c r="I81" s="4" t="inlineStr"/>
-      <c r="J81" s="4" t="inlineStr"/>
-      <c r="K81" s="4" t="inlineStr"/>
-      <c r="L81" s="4" t="inlineStr"/>
-      <c r="M81" s="4" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="N81" s="4" t="inlineStr"/>
-      <c r="O81" s="4" t="inlineStr"/>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3707,41 +3701,41 @@
       <c r="O82" t="inlineStr"/>
     </row>
     <row r="83">
-      <c r="A83" s="4" t="inlineStr">
+      <c r="A83" t="inlineStr">
         <is>
           <t xml:space="preserve">MF:0000074 </t>
         </is>
       </c>
-      <c r="B83" s="4" t="inlineStr">
+      <c r="B83" t="inlineStr">
         <is>
           <t>bodily quality</t>
         </is>
       </c>
-      <c r="C83" s="4" t="inlineStr">
+      <c r="C83" t="inlineStr">
         <is>
           <t>quality</t>
         </is>
       </c>
-      <c r="D83" s="4" t="inlineStr">
+      <c r="D83" t="inlineStr">
         <is>
           <t>A quality that inheres in some extended organism.</t>
         </is>
       </c>
-      <c r="E83" s="4" t="inlineStr"/>
-      <c r="F83" s="4" t="inlineStr"/>
-      <c r="G83" s="4" t="inlineStr"/>
-      <c r="H83" s="4" t="inlineStr"/>
-      <c r="I83" s="4" t="inlineStr"/>
-      <c r="J83" s="4" t="inlineStr"/>
-      <c r="K83" s="4" t="inlineStr"/>
-      <c r="L83" s="4" t="inlineStr"/>
-      <c r="M83" s="4" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="N83" s="4" t="inlineStr"/>
-      <c r="O83" s="4" t="inlineStr"/>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr"/>
+      <c r="O83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
@@ -7424,41 +7418,41 @@
       <c r="O176" t="inlineStr"/>
     </row>
     <row r="177">
-      <c r="A177" s="4" t="inlineStr">
+      <c r="A177" t="inlineStr">
         <is>
           <t xml:space="preserve">MF:0000075 </t>
         </is>
       </c>
-      <c r="B177" s="4" t="inlineStr">
+      <c r="B177" t="inlineStr">
         <is>
           <t>mental quality</t>
         </is>
       </c>
-      <c r="C177" s="4" t="inlineStr">
+      <c r="C177" t="inlineStr">
         <is>
           <t>bodily quality</t>
         </is>
       </c>
-      <c r="D177" s="4" t="inlineStr">
+      <c r="D177" t="inlineStr">
         <is>
           <t>A bodily quality that inheres in those structures of the extended organism that are essential for mental functioning.</t>
         </is>
       </c>
-      <c r="E177" s="4" t="inlineStr"/>
-      <c r="F177" s="4" t="inlineStr"/>
-      <c r="G177" s="4" t="inlineStr"/>
-      <c r="H177" s="4" t="inlineStr"/>
-      <c r="I177" s="4" t="inlineStr"/>
-      <c r="J177" s="4" t="inlineStr"/>
-      <c r="K177" s="4" t="inlineStr"/>
-      <c r="L177" s="4" t="inlineStr"/>
-      <c r="M177" s="4" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="N177" s="4" t="inlineStr"/>
-      <c r="O177" s="4" t="inlineStr"/>
+      <c r="E177" t="inlineStr"/>
+      <c r="F177" t="inlineStr"/>
+      <c r="G177" t="inlineStr"/>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="N177" t="inlineStr"/>
+      <c r="O177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="2" t="inlineStr">
@@ -9117,41 +9111,41 @@
       <c r="O219" s="2" t="inlineStr"/>
     </row>
     <row r="220">
-      <c r="A220" s="4" t="inlineStr">
+      <c r="A220" t="inlineStr">
         <is>
           <t>PATO:0000001</t>
         </is>
       </c>
-      <c r="B220" s="4" t="inlineStr">
+      <c r="B220" t="inlineStr">
         <is>
           <t>quality</t>
         </is>
       </c>
-      <c r="C220" s="4" t="inlineStr">
+      <c r="C220" t="inlineStr">
         <is>
           <t>specifically dependent continuant</t>
         </is>
       </c>
-      <c r="D220" s="4" t="inlineStr">
+      <c r="D220" t="inlineStr">
         <is>
           <t>A dependent entity that inheres in a bearer by virtue of how the bearer is related to other entities.</t>
         </is>
       </c>
-      <c r="E220" s="4" t="inlineStr"/>
-      <c r="F220" s="4" t="inlineStr"/>
-      <c r="G220" s="4" t="inlineStr"/>
-      <c r="H220" s="4" t="inlineStr"/>
-      <c r="I220" s="4" t="inlineStr"/>
-      <c r="J220" s="4" t="inlineStr"/>
-      <c r="K220" s="4" t="inlineStr"/>
-      <c r="L220" s="4" t="inlineStr"/>
-      <c r="M220" s="4" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="N220" s="4" t="inlineStr"/>
-      <c r="O220" s="4" t="inlineStr"/>
+      <c r="E220" t="inlineStr"/>
+      <c r="F220" t="inlineStr"/>
+      <c r="G220" t="inlineStr"/>
+      <c r="H220" t="inlineStr"/>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="N220" t="inlineStr"/>
+      <c r="O220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="2" t="inlineStr">
@@ -9228,41 +9222,41 @@
       <c r="O222" s="3" t="inlineStr"/>
     </row>
     <row r="223">
-      <c r="A223" s="4" t="inlineStr">
+      <c r="A223" t="inlineStr">
         <is>
           <t>MF:0000030</t>
         </is>
       </c>
-      <c r="B223" s="4" t="inlineStr">
+      <c r="B223" t="inlineStr">
         <is>
           <t>representation</t>
         </is>
       </c>
-      <c r="C223" s="4" t="inlineStr">
+      <c r="C223" t="inlineStr">
         <is>
           <t>specifically dependent continuant</t>
         </is>
       </c>
-      <c r="D223" s="4" t="inlineStr">
+      <c r="D223" t="inlineStr">
         <is>
           <t>A dependent continuant which is about a portion of reality.</t>
         </is>
       </c>
-      <c r="E223" s="4" t="inlineStr"/>
-      <c r="F223" s="4" t="inlineStr"/>
-      <c r="G223" s="4" t="inlineStr"/>
-      <c r="H223" s="4" t="inlineStr"/>
-      <c r="I223" s="4" t="inlineStr"/>
-      <c r="J223" s="4" t="inlineStr"/>
-      <c r="K223" s="4" t="inlineStr"/>
-      <c r="L223" s="4" t="inlineStr"/>
-      <c r="M223" s="4" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="N223" s="4" t="inlineStr"/>
-      <c r="O223" s="4" t="inlineStr"/>
+      <c r="E223" t="inlineStr"/>
+      <c r="F223" t="inlineStr"/>
+      <c r="G223" t="inlineStr"/>
+      <c r="H223" t="inlineStr"/>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="N223" t="inlineStr"/>
+      <c r="O223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="3" t="inlineStr">

--- a/MechanismOfAction/inputs/BCIO_MoA.xlsx
+++ b/MechanismOfAction/inputs/BCIO_MoA.xlsx
@@ -1865,7 +1865,7 @@
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>An environmental disposition of that enables or facilitates a behaviour.</t>
+          <t>An environmental disposition that enables or facilitates a behaviour.</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr"/>

--- a/MechanismOfAction/inputs/BCIO_MoA.xlsx
+++ b/MechanismOfAction/inputs/BCIO_MoA.xlsx
@@ -1404,7 +1404,7 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>Learning that involves changing strength of association between two or more mental processes.</t>
+          <t>Learning that involves changing the strength of association between two or more mental processes.</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr"/>

--- a/MechanismOfAction/inputs/BCIO_MoA.xlsx
+++ b/MechanismOfAction/inputs/BCIO_MoA.xlsx
@@ -533,7 +533,7 @@
       </c>
       <c r="D2" s="2" t="inlineStr">
         <is>
-          <t>A cognitive schema that when activate, guides a sequence of behaviours.</t>
+          <t>A cognitive schema that when activated, guides a sequence of behaviours.</t>
         </is>
       </c>
       <c r="E2" s="2" t="inlineStr"/>
@@ -4803,8 +4803,7 @@
       <c r="H110" s="2" t="inlineStr"/>
       <c r="I110" s="2" t="inlineStr">
         <is>
-          <t>Self-concept is used to form an evaluation of self.
-One's attributes can be evaluated as positive or negative.</t>
+          <t>One's attributes can be evaluated as positive or negative.</t>
         </is>
       </c>
       <c r="J110" s="2" t="inlineStr"/>
@@ -5355,7 +5354,7 @@
       <c r="H124" t="inlineStr"/>
       <c r="I124" t="inlineStr">
         <is>
-          <t>Note that 'feeling nervous' is related to 'anxiety' but is not identical with it. Feeling nervous is the subjective experience of nervousness, while anxiety is a full-blown emotion process. Subjective affective feelings are process parts of emotion processes.</t>
+          <t>Note that 'feeling nervous' is related to 'anxiety' but is not identical with it. Feeling nervous is the subjective experience of nervousness, while anxiety is a complete emotion process. Subjective affective feelings are process parts of emotion processes.</t>
         </is>
       </c>
       <c r="J124" t="inlineStr"/>
@@ -5543,7 +5542,7 @@
       </c>
       <c r="D129" s="3" t="inlineStr">
         <is>
-          <t>Autonomous motivation due to a behaviour being perceived to satisfy core psychological need.</t>
+          <t>Autonomous motivation due to a behaviour being perceived to satisfy a core psychological need.</t>
         </is>
       </c>
       <c r="E129" s="3" t="inlineStr"/>
@@ -7224,7 +7223,7 @@
       </c>
       <c r="D172" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to evokes the representation of the sensory characteristics of objects or events when these are not immediately present to the senses.</t>
+          <t>A mental disposition to evoke the representation of the sensory characteristics of objects or events when these are not immediately present to the senses.</t>
         </is>
       </c>
       <c r="E172" s="2" t="inlineStr"/>

--- a/MechanismOfAction/inputs/BCIO_MoA.xlsx
+++ b/MechanismOfAction/inputs/BCIO_MoA.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P273"/>
+  <dimension ref="A1:P274"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8936,124 +8936,136 @@
       <c r="P208" t="inlineStr"/>
     </row>
     <row r="209">
-      <c r="A209" t="inlineStr">
+      <c r="A209" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050300</t>
+        </is>
+      </c>
+      <c r="B209" s="2" t="inlineStr">
+        <is>
+          <t>personal attribute</t>
+        </is>
+      </c>
+      <c r="C209" s="2" t="inlineStr">
+        <is>
+          <t>specifically dependent continuant</t>
+        </is>
+      </c>
+      <c r="D209" s="2" t="inlineStr">
+        <is>
+          <t>A specifically dependent continuant that inheres in a person.</t>
+        </is>
+      </c>
+      <c r="E209" s="2" t="inlineStr"/>
+      <c r="F209" s="2" t="inlineStr">
+        <is>
+          <t>A characteristic of a person such as age, intelligence, socioeconomic status, height and job.</t>
+        </is>
+      </c>
+      <c r="G209" s="2" t="inlineStr"/>
+      <c r="H209" s="2" t="inlineStr"/>
+      <c r="I209" s="2" t="inlineStr">
+        <is>
+          <t>Includes everything that can be said about a person: the most general class under which all other qualities, dispositions, roles etc belong.</t>
+        </is>
+      </c>
+      <c r="J209" s="2" t="inlineStr"/>
+      <c r="K209" s="2" t="inlineStr"/>
+      <c r="L209" s="2" t="inlineStr"/>
+      <c r="M209" s="2" t="inlineStr">
+        <is>
+          <t>The population ontology individuals branch defines many personal attributes</t>
+        </is>
+      </c>
+      <c r="N209" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="O209" s="2" t="inlineStr"/>
+      <c r="P209" s="2" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
         <is>
           <t xml:space="preserve">MF:0000043 </t>
         </is>
       </c>
-      <c r="B209" t="inlineStr">
+      <c r="B210" t="inlineStr">
         <is>
           <t>personal capability</t>
         </is>
       </c>
-      <c r="C209" t="inlineStr">
+      <c r="C210" t="inlineStr">
         <is>
           <t>bodily disposition</t>
         </is>
       </c>
-      <c r="D209" t="inlineStr">
+      <c r="D210" t="inlineStr">
         <is>
           <t>A bodily disposition whose realization ordinarily brings benefits to an organism or group of organisms, where "ordinarily" means within a typical  range or context.</t>
         </is>
       </c>
-      <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr">
+      <c r="E210" t="inlineStr"/>
+      <c r="F210" t="inlineStr">
         <is>
           <t>The ability of someone to perform some useful and/or beneficial activity.</t>
         </is>
       </c>
-      <c r="G209" t="inlineStr"/>
-      <c r="H209" t="inlineStr"/>
-      <c r="I209" t="inlineStr">
+      <c r="G210" t="inlineStr"/>
+      <c r="H210" t="inlineStr"/>
+      <c r="I210" t="inlineStr">
         <is>
           <t>The phrase 'ordinarily brings benefits to an organism or group of organism' is used to explain that capabilities normally provide a benefit. 
 For instance, having a musical ability is ordinarily an ability that is positive for a person (e.g., they receive positive feedback about their ability). However, in certain exceptional cases (e.g., a neighbour becoming annoyed with a person playing the piano and expressing this annoyance), the ability might not bring benefits.</t>
         </is>
       </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
-      <c r="M209" t="inlineStr"/>
-      <c r="N209" t="inlineStr">
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="O209" t="inlineStr"/>
-      <c r="P209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006081</t>
-        </is>
-      </c>
-      <c r="B210" s="3" t="inlineStr">
-        <is>
-          <t>personal role</t>
-        </is>
-      </c>
-      <c r="C210" s="3" t="inlineStr">
-        <is>
-          <t>role</t>
-        </is>
-      </c>
-      <c r="D210" s="3" t="inlineStr">
-        <is>
-          <t>A role that inheres in a human being by virtue of their social and institutional circumstances.</t>
-        </is>
-      </c>
-      <c r="E210" s="3" t="inlineStr"/>
-      <c r="F210" s="3" t="inlineStr">
-        <is>
-          <t>A role that someone has within an organisation or social grouping.</t>
-        </is>
-      </c>
-      <c r="G210" s="3" t="inlineStr"/>
-      <c r="H210" s="3" t="inlineStr"/>
-      <c r="I210" s="3" t="inlineStr">
-        <is>
-          <t>A role can be assigned without being realised. A person realises a role by doing something.</t>
-        </is>
-      </c>
-      <c r="J210" s="3" t="inlineStr"/>
-      <c r="K210" s="3" t="inlineStr"/>
-      <c r="L210" s="3" t="inlineStr"/>
-      <c r="M210" s="3" t="inlineStr"/>
-      <c r="N210" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O210" s="3" t="inlineStr"/>
-      <c r="P210" s="3" t="inlineStr"/>
+      <c r="O210" t="inlineStr"/>
+      <c r="P210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006063</t>
+          <t>BCIO:006081</t>
         </is>
       </c>
       <c r="B211" s="3" t="inlineStr">
         <is>
-          <t>personal value</t>
+          <t>personal role</t>
         </is>
       </c>
       <c r="C211" s="3" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>role</t>
         </is>
       </c>
       <c r="D211" s="3" t="inlineStr">
         <is>
-          <t>A mental disposition to regard certain things as fundamentally important in life, which informs standards for behaviour.</t>
+          <t>A role that inheres in a human being by virtue of their social and institutional circumstances.</t>
         </is>
       </c>
       <c r="E211" s="3" t="inlineStr"/>
-      <c r="F211" s="3" t="inlineStr"/>
+      <c r="F211" s="3" t="inlineStr">
+        <is>
+          <t>A role that someone has within an organisation or social grouping.</t>
+        </is>
+      </c>
       <c r="G211" s="3" t="inlineStr"/>
       <c r="H211" s="3" t="inlineStr"/>
-      <c r="I211" s="3" t="inlineStr"/>
+      <c r="I211" s="3" t="inlineStr">
+        <is>
+          <t>A role can be assigned without being realised. A person realises a role by doing something.</t>
+        </is>
+      </c>
       <c r="J211" s="3" t="inlineStr"/>
       <c r="K211" s="3" t="inlineStr"/>
       <c r="L211" s="3" t="inlineStr"/>
@@ -9069,22 +9081,22 @@
     <row r="212">
       <c r="A212" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006009</t>
+          <t>BCIO:006063</t>
         </is>
       </c>
       <c r="B212" s="3" t="inlineStr">
         <is>
-          <t>physical behavioural capability</t>
+          <t>personal value</t>
         </is>
       </c>
       <c r="C212" s="3" t="inlineStr">
         <is>
-          <t>behavioural capability</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D212" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">A behavioural capability that involves a musculoskeletal process in its realisation. </t>
+          <t>A mental disposition to regard certain things as fundamentally important in life, which informs standards for behaviour.</t>
         </is>
       </c>
       <c r="E212" s="3" t="inlineStr"/>
@@ -9107,37 +9119,29 @@
     <row r="213">
       <c r="A213" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006089</t>
+          <t>BCIO:006009</t>
         </is>
       </c>
       <c r="B213" s="3" t="inlineStr">
         <is>
-          <t>physical behavioural opportunity</t>
+          <t>physical behavioural capability</t>
         </is>
       </c>
       <c r="C213" s="3" t="inlineStr">
         <is>
-          <t>behavioural opportunity</t>
+          <t>behavioural capability</t>
         </is>
       </c>
       <c r="D213" s="3" t="inlineStr">
         <is>
-          <t>A behavioural opportunity that involves time and parts of the environmental system that do not involve people or organisations.</t>
+          <t xml:space="preserve">A behavioural capability that involves a musculoskeletal process in its realisation. </t>
         </is>
       </c>
       <c r="E213" s="3" t="inlineStr"/>
-      <c r="F213" s="3" t="inlineStr">
-        <is>
-          <t>Properties of a person's environment that involve the objects in their environment, the space they inhabit, the time available or the material resources available to them and influence the person's ability to enact a behaviour.</t>
-        </is>
-      </c>
+      <c r="F213" s="3" t="inlineStr"/>
       <c r="G213" s="3" t="inlineStr"/>
       <c r="H213" s="3" t="inlineStr"/>
-      <c r="I213" s="3" t="inlineStr">
-        <is>
-          <t>A 'behavioural opportunity' is a feature of the environmental system. While the class 'environmental system' is about what is found in an environment, the behavioural opportunity is a feature of the environment which interacts with the person and enables or prevents a behaviour.</t>
-        </is>
-      </c>
+      <c r="I213" s="3" t="inlineStr"/>
       <c r="J213" s="3" t="inlineStr"/>
       <c r="K213" s="3" t="inlineStr"/>
       <c r="L213" s="3" t="inlineStr"/>
@@ -9153,29 +9157,37 @@
     <row r="214">
       <c r="A214" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006010</t>
+          <t>BCIO:006089</t>
         </is>
       </c>
       <c r="B214" s="3" t="inlineStr">
         <is>
-          <t>physical skill</t>
+          <t>physical behavioural opportunity</t>
         </is>
       </c>
       <c r="C214" s="3" t="inlineStr">
         <is>
-          <t>physical behavioural capability</t>
+          <t>behavioural opportunity</t>
         </is>
       </c>
       <c r="D214" s="3" t="inlineStr">
         <is>
-          <t>A physical capability acquired through training or practice.</t>
+          <t>A behavioural opportunity that involves time and parts of the environmental system that do not involve people or organisations.</t>
         </is>
       </c>
       <c r="E214" s="3" t="inlineStr"/>
-      <c r="F214" s="3" t="inlineStr"/>
+      <c r="F214" s="3" t="inlineStr">
+        <is>
+          <t>Properties of a person's environment that involve the objects in their environment, the space they inhabit, the time available or the material resources available to them and influence the person's ability to enact a behaviour.</t>
+        </is>
+      </c>
       <c r="G214" s="3" t="inlineStr"/>
       <c r="H214" s="3" t="inlineStr"/>
-      <c r="I214" s="3" t="inlineStr"/>
+      <c r="I214" s="3" t="inlineStr">
+        <is>
+          <t>A 'behavioural opportunity' is a feature of the environmental system. While the class 'environmental system' is about what is found in an environment, the behavioural opportunity is a feature of the environment which interacts with the person and enables or prevents a behaviour.</t>
+        </is>
+      </c>
       <c r="J214" s="3" t="inlineStr"/>
       <c r="K214" s="3" t="inlineStr"/>
       <c r="L214" s="3" t="inlineStr"/>
@@ -9189,157 +9201,153 @@
       <c r="P214" s="3" t="inlineStr"/>
     </row>
     <row r="215">
-      <c r="A215" t="inlineStr">
+      <c r="A215" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006010</t>
+        </is>
+      </c>
+      <c r="B215" s="3" t="inlineStr">
+        <is>
+          <t>physical skill</t>
+        </is>
+      </c>
+      <c r="C215" s="3" t="inlineStr">
+        <is>
+          <t>physical behavioural capability</t>
+        </is>
+      </c>
+      <c r="D215" s="3" t="inlineStr">
+        <is>
+          <t>A physical capability acquired through training or practice.</t>
+        </is>
+      </c>
+      <c r="E215" s="3" t="inlineStr"/>
+      <c r="F215" s="3" t="inlineStr"/>
+      <c r="G215" s="3" t="inlineStr"/>
+      <c r="H215" s="3" t="inlineStr"/>
+      <c r="I215" s="3" t="inlineStr"/>
+      <c r="J215" s="3" t="inlineStr"/>
+      <c r="K215" s="3" t="inlineStr"/>
+      <c r="L215" s="3" t="inlineStr"/>
+      <c r="M215" s="3" t="inlineStr"/>
+      <c r="N215" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O215" s="3" t="inlineStr"/>
+      <c r="P215" s="3" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
         <is>
           <t xml:space="preserve">MFOEM:000003 </t>
         </is>
       </c>
-      <c r="B215" t="inlineStr">
+      <c r="B216" t="inlineStr">
         <is>
           <t>physiological process involved in an emotion</t>
         </is>
       </c>
-      <c r="C215" t="inlineStr">
+      <c r="C216" t="inlineStr">
         <is>
           <t>bodily process</t>
         </is>
       </c>
-      <c r="D215" t="inlineStr">
+      <c r="D216" t="inlineStr">
         <is>
           <t>A bodily process that encompasses all the neurophysiological changes accompanying an emotion, which take place in the central nervous system (CNS), neuro-endocrine system (NES) and autonomous nervous system (ANS).</t>
         </is>
       </c>
-      <c r="E215" t="inlineStr"/>
-      <c r="F215" t="inlineStr">
+      <c r="E216" t="inlineStr"/>
+      <c r="F216" t="inlineStr">
         <is>
           <t>A process that occurs in a person's body when they are experiencing an emotion.</t>
         </is>
       </c>
-      <c r="G215" t="inlineStr"/>
-      <c r="H215" t="inlineStr"/>
-      <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="inlineStr"/>
-      <c r="N215" t="inlineStr">
+      <c r="G216" t="inlineStr"/>
+      <c r="H216" t="inlineStr"/>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="inlineStr"/>
+      <c r="N216" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="O215" t="inlineStr"/>
-      <c r="P215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="3" t="inlineStr">
+      <c r="O216" t="inlineStr"/>
+      <c r="P216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" s="3" t="inlineStr">
         <is>
           <t>BCIO:006102</t>
         </is>
       </c>
-      <c r="B216" s="3" t="inlineStr">
+      <c r="B217" s="3" t="inlineStr">
         <is>
           <t>plan enactment</t>
         </is>
       </c>
-      <c r="C216" s="3" t="inlineStr">
+      <c r="C217" s="3" t="inlineStr">
         <is>
           <t>bodily process</t>
         </is>
       </c>
-      <c r="D216" s="3" t="inlineStr">
+      <c r="D217" s="3" t="inlineStr">
         <is>
           <t>A bodily process by which a person attempts to follow the steps in a plan.</t>
         </is>
       </c>
-      <c r="E216" s="3" t="inlineStr"/>
-      <c r="F216" s="3" t="inlineStr"/>
-      <c r="G216" s="3" t="inlineStr"/>
-      <c r="H216" s="3" t="inlineStr"/>
-      <c r="I216" s="3" t="inlineStr"/>
-      <c r="J216" s="3" t="inlineStr"/>
-      <c r="K216" s="3" t="inlineStr"/>
-      <c r="L216" s="3" t="inlineStr"/>
-      <c r="M216" s="3" t="inlineStr"/>
-      <c r="N216" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O216" s="3" t="inlineStr"/>
-      <c r="P216" s="3" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>MF:0000027</t>
-        </is>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>planning</t>
-        </is>
-      </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>A mental process that involves mentally manipulating representations of steps in an imagined process which has some goal.</t>
-        </is>
-      </c>
-      <c r="E217" t="inlineStr"/>
-      <c r="F217" t="inlineStr"/>
-      <c r="G217" t="inlineStr"/>
-      <c r="H217" t="inlineStr"/>
-      <c r="I217" t="inlineStr">
-        <is>
-          <t>The outcome of this mental process is a mental plan which has the potential to be followed to bring about the desired outcome.</t>
-        </is>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="inlineStr"/>
-      <c r="N217" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="O217" t="inlineStr"/>
-      <c r="P217" t="inlineStr"/>
+      <c r="E217" s="3" t="inlineStr"/>
+      <c r="F217" s="3" t="inlineStr"/>
+      <c r="G217" s="3" t="inlineStr"/>
+      <c r="H217" s="3" t="inlineStr"/>
+      <c r="I217" s="3" t="inlineStr"/>
+      <c r="J217" s="3" t="inlineStr"/>
+      <c r="K217" s="3" t="inlineStr"/>
+      <c r="L217" s="3" t="inlineStr"/>
+      <c r="M217" s="3" t="inlineStr"/>
+      <c r="N217" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O217" s="3" t="inlineStr"/>
+      <c r="P217" s="3" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>MFOEM:000035</t>
+          <t>MF:0000027</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>pleasure</t>
+          <t>planning</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>emotion process</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>A positive emotion which is sought out and is associated with happiness and satisfaction.</t>
+          <t>A mental process that involves mentally manipulating representations of steps in an imagined process which has some goal.</t>
         </is>
       </c>
       <c r="E218" t="inlineStr"/>
       <c r="F218" t="inlineStr"/>
-      <c r="G218" t="inlineStr">
-        <is>
-          <t>enjoyment</t>
-        </is>
-      </c>
+      <c r="G218" t="inlineStr"/>
       <c r="H218" t="inlineStr"/>
-      <c r="I218" t="inlineStr"/>
+      <c r="I218" t="inlineStr">
+        <is>
+          <t>The outcome of this mental process is a mental plan which has the potential to be followed to bring about the desired outcome.</t>
+        </is>
+      </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr"/>
@@ -9353,146 +9361,150 @@
       <c r="P218" t="inlineStr"/>
     </row>
     <row r="219">
-      <c r="A219" s="3" t="inlineStr">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>MFOEM:000035</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>pleasure</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>emotion process</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>A positive emotion which is sought out and is associated with happiness and satisfaction.</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr"/>
+      <c r="F219" t="inlineStr"/>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>enjoyment</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr"/>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="inlineStr"/>
+      <c r="N219" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="O219" t="inlineStr"/>
+      <c r="P219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" s="3" t="inlineStr">
         <is>
           <t>BCIO:006159</t>
         </is>
       </c>
-      <c r="B219" s="3" t="inlineStr">
+      <c r="B220" s="3" t="inlineStr">
         <is>
           <t>pleasure associated with behaviour</t>
         </is>
       </c>
-      <c r="C219" s="3" t="inlineStr">
+      <c r="C220" s="3" t="inlineStr">
         <is>
           <t>pleasure</t>
         </is>
       </c>
-      <c r="D219" s="3" t="inlineStr">
+      <c r="D220" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pleasure that is experienced as a result of engaging in a behaviour. </t>
         </is>
       </c>
-      <c r="E219" s="3" t="inlineStr"/>
-      <c r="F219" s="3" t="inlineStr"/>
-      <c r="G219" s="3" t="inlineStr">
+      <c r="E220" s="3" t="inlineStr"/>
+      <c r="F220" s="3" t="inlineStr"/>
+      <c r="G220" s="3" t="inlineStr">
         <is>
           <t>Enjoyment of behaviour</t>
         </is>
       </c>
-      <c r="H219" s="3" t="inlineStr"/>
-      <c r="I219" s="3" t="inlineStr"/>
-      <c r="J219" s="3" t="inlineStr"/>
-      <c r="K219" s="3" t="inlineStr"/>
-      <c r="L219" s="3" t="inlineStr"/>
-      <c r="M219" s="3" t="inlineStr"/>
-      <c r="N219" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O219" s="3" t="inlineStr"/>
-      <c r="P219" s="3" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
+      <c r="H220" s="3" t="inlineStr"/>
+      <c r="I220" s="3" t="inlineStr"/>
+      <c r="J220" s="3" t="inlineStr"/>
+      <c r="K220" s="3" t="inlineStr"/>
+      <c r="L220" s="3" t="inlineStr"/>
+      <c r="M220" s="3" t="inlineStr"/>
+      <c r="N220" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O220" s="3" t="inlineStr"/>
+      <c r="P220" s="3" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
         <is>
           <t>MFOEM:000209</t>
         </is>
       </c>
-      <c r="B220" t="inlineStr">
+      <c r="B221" t="inlineStr">
         <is>
           <t>positive surprise</t>
         </is>
       </c>
-      <c r="C220" t="inlineStr">
+      <c r="C221" t="inlineStr">
         <is>
           <t>surprise</t>
         </is>
       </c>
-      <c r="D220" t="inlineStr">
+      <c r="D221" t="inlineStr">
         <is>
           <t>Surprise with a positive valence.</t>
         </is>
       </c>
-      <c r="E220" t="inlineStr"/>
-      <c r="F220" t="inlineStr"/>
-      <c r="G220" t="inlineStr">
+      <c r="E221" t="inlineStr"/>
+      <c r="F221" t="inlineStr"/>
+      <c r="G221" t="inlineStr">
         <is>
           <t>wonder; astonishment</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr"/>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="inlineStr"/>
-      <c r="N220" t="inlineStr">
+      <c r="H221" t="inlineStr"/>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="inlineStr"/>
+      <c r="N221" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="O220" t="inlineStr"/>
-      <c r="P220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006061</t>
-        </is>
-      </c>
-      <c r="B221" s="3" t="inlineStr">
-        <is>
-          <t>prevention focused motivational orientation</t>
-        </is>
-      </c>
-      <c r="C221" s="3" t="inlineStr">
-        <is>
-          <t>motivational orientation towards types of outcomes</t>
-        </is>
-      </c>
-      <c r="D221" s="3" t="inlineStr">
-        <is>
-          <t>A mental disposition for motivation to be guided by a focus on the presence or absence of positive outcomes.</t>
-        </is>
-      </c>
-      <c r="E221" s="3" t="inlineStr"/>
-      <c r="F221" s="3" t="inlineStr"/>
-      <c r="G221" s="3" t="inlineStr"/>
-      <c r="H221" s="3" t="inlineStr"/>
-      <c r="I221" s="3" t="inlineStr"/>
-      <c r="J221" s="3" t="inlineStr"/>
-      <c r="K221" s="3" t="inlineStr"/>
-      <c r="L221" s="3" t="inlineStr"/>
-      <c r="M221" s="3" t="inlineStr"/>
-      <c r="N221" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O221" s="3" t="inlineStr"/>
-      <c r="P221" s="3" t="inlineStr"/>
+      <c r="O221" t="inlineStr"/>
+      <c r="P221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006129</t>
+          <t>BCIO:006061</t>
         </is>
       </c>
       <c r="B222" s="3" t="inlineStr">
         <is>
-          <t>procedural memory</t>
+          <t>prevention focused motivational orientation</t>
         </is>
       </c>
       <c r="C222" s="3" t="inlineStr">
         <is>
-          <t>memory</t>
+          <t>motivational orientation towards types of outcomes</t>
         </is>
       </c>
       <c r="D222" s="3" t="inlineStr">
         <is>
-          <t>A memory process that deals with the receipt, storage, retrieval and modification of information regarding how to perform a complex activity without conscious awareness.</t>
+          <t>A mental disposition for motivation to be guided by a focus on the presence or absence of positive outcomes.</t>
         </is>
       </c>
       <c r="E222" s="3" t="inlineStr"/>
@@ -9513,62 +9525,62 @@
       <c r="P222" s="3" t="inlineStr"/>
     </row>
     <row r="223">
-      <c r="A223" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050229</t>
-        </is>
-      </c>
-      <c r="B223" s="2" t="inlineStr">
-        <is>
-          <t>professional identity</t>
-        </is>
-      </c>
-      <c r="C223" s="2" t="inlineStr">
-        <is>
-          <t>self-identity</t>
-        </is>
-      </c>
-      <c r="D223" s="2" t="inlineStr">
-        <is>
-          <t>A self-identity that is associated with one's occupational role.</t>
-        </is>
-      </c>
-      <c r="E223" s="2" t="inlineStr"/>
-      <c r="F223" s="2" t="inlineStr"/>
-      <c r="G223" s="2" t="inlineStr"/>
-      <c r="H223" s="2" t="inlineStr"/>
-      <c r="I223" s="2" t="inlineStr"/>
-      <c r="J223" s="2" t="inlineStr"/>
-      <c r="K223" s="2" t="inlineStr"/>
-      <c r="L223" s="2" t="inlineStr"/>
-      <c r="M223" s="2" t="inlineStr"/>
-      <c r="N223" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="O223" s="2" t="inlineStr"/>
-      <c r="P223" s="2" t="inlineStr"/>
+      <c r="A223" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006129</t>
+        </is>
+      </c>
+      <c r="B223" s="3" t="inlineStr">
+        <is>
+          <t>procedural memory</t>
+        </is>
+      </c>
+      <c r="C223" s="3" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="D223" s="3" t="inlineStr">
+        <is>
+          <t>A memory process that deals with the receipt, storage, retrieval and modification of information regarding how to perform a complex activity without conscious awareness.</t>
+        </is>
+      </c>
+      <c r="E223" s="3" t="inlineStr"/>
+      <c r="F223" s="3" t="inlineStr"/>
+      <c r="G223" s="3" t="inlineStr"/>
+      <c r="H223" s="3" t="inlineStr"/>
+      <c r="I223" s="3" t="inlineStr"/>
+      <c r="J223" s="3" t="inlineStr"/>
+      <c r="K223" s="3" t="inlineStr"/>
+      <c r="L223" s="3" t="inlineStr"/>
+      <c r="M223" s="3" t="inlineStr"/>
+      <c r="N223" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O223" s="3" t="inlineStr"/>
+      <c r="P223" s="3" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050213</t>
+          <t>BCIO:050229</t>
         </is>
       </c>
       <c r="B224" s="2" t="inlineStr">
         <is>
-          <t>professional network</t>
+          <t>professional identity</t>
         </is>
       </c>
       <c r="C224" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> social environmental system</t>
+          <t>self-identity</t>
         </is>
       </c>
       <c r="D224" s="2" t="inlineStr">
         <is>
-          <t>A social environmental system that consists of persons who have shared interests relating to their occupational roles and are in contact or communication.</t>
+          <t>A self-identity that is associated with one's occupational role.</t>
         </is>
       </c>
       <c r="E224" s="2" t="inlineStr"/>
@@ -9589,73 +9601,69 @@
       <c r="P224" s="2" t="inlineStr"/>
     </row>
     <row r="225">
-      <c r="A225" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006062</t>
-        </is>
-      </c>
-      <c r="B225" s="3" t="inlineStr">
-        <is>
-          <t>promotion focused motivational orientation</t>
-        </is>
-      </c>
-      <c r="C225" s="3" t="inlineStr">
-        <is>
-          <t>motivational orientation towards types of outcomes</t>
-        </is>
-      </c>
-      <c r="D225" s="3" t="inlineStr">
-        <is>
-          <t>A mental disposition for motivation to be guided by a focus on the presence or absence of negative outcomes.</t>
-        </is>
-      </c>
-      <c r="E225" s="3" t="inlineStr"/>
-      <c r="F225" s="3" t="inlineStr"/>
-      <c r="G225" s="3" t="inlineStr"/>
-      <c r="H225" s="3" t="inlineStr"/>
-      <c r="I225" s="3" t="inlineStr"/>
-      <c r="J225" s="3" t="inlineStr"/>
-      <c r="K225" s="3" t="inlineStr"/>
-      <c r="L225" s="3" t="inlineStr"/>
-      <c r="M225" s="3" t="inlineStr"/>
-      <c r="N225" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O225" s="3" t="inlineStr"/>
-      <c r="P225" s="3" t="inlineStr"/>
+      <c r="A225" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050213</t>
+        </is>
+      </c>
+      <c r="B225" s="2" t="inlineStr">
+        <is>
+          <t>professional network</t>
+        </is>
+      </c>
+      <c r="C225" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> social environmental system</t>
+        </is>
+      </c>
+      <c r="D225" s="2" t="inlineStr">
+        <is>
+          <t>A social environmental system that consists of persons who have shared interests relating to their occupational roles and are in contact or communication.</t>
+        </is>
+      </c>
+      <c r="E225" s="2" t="inlineStr"/>
+      <c r="F225" s="2" t="inlineStr"/>
+      <c r="G225" s="2" t="inlineStr"/>
+      <c r="H225" s="2" t="inlineStr"/>
+      <c r="I225" s="2" t="inlineStr"/>
+      <c r="J225" s="2" t="inlineStr"/>
+      <c r="K225" s="2" t="inlineStr"/>
+      <c r="L225" s="2" t="inlineStr"/>
+      <c r="M225" s="2" t="inlineStr"/>
+      <c r="N225" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="O225" s="2" t="inlineStr"/>
+      <c r="P225" s="2" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006064</t>
+          <t>BCIO:006062</t>
         </is>
       </c>
       <c r="B226" s="3" t="inlineStr">
         <is>
-          <t>psychological need</t>
+          <t>promotion focused motivational orientation</t>
         </is>
       </c>
       <c r="C226" s="3" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>motivational orientation towards types of outcomes</t>
         </is>
       </c>
       <c r="D226" s="3" t="inlineStr">
         <is>
-          <t>A mental disposition of a person to act to obtain or maintain a particular state due to this state’s importance to the person’s wellbeing.</t>
+          <t>A mental disposition for motivation to be guided by a focus on the presence or absence of negative outcomes.</t>
         </is>
       </c>
       <c r="E226" s="3" t="inlineStr"/>
       <c r="F226" s="3" t="inlineStr"/>
       <c r="G226" s="3" t="inlineStr"/>
       <c r="H226" s="3" t="inlineStr"/>
-      <c r="I226" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Psychological needs can be satisfied or thwarted. </t>
-        </is>
-      </c>
+      <c r="I226" s="3" t="inlineStr"/>
       <c r="J226" s="3" t="inlineStr"/>
       <c r="K226" s="3" t="inlineStr"/>
       <c r="L226" s="3" t="inlineStr"/>
@@ -9669,242 +9677,246 @@
       <c r="P226" s="3" t="inlineStr"/>
     </row>
     <row r="227">
-      <c r="A227" t="inlineStr">
+      <c r="A227" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006064</t>
+        </is>
+      </c>
+      <c r="B227" s="3" t="inlineStr">
+        <is>
+          <t>psychological need</t>
+        </is>
+      </c>
+      <c r="C227" s="3" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="D227" s="3" t="inlineStr">
+        <is>
+          <t>A mental disposition of a person to act to obtain or maintain a particular state due to this state’s importance to the person’s wellbeing.</t>
+        </is>
+      </c>
+      <c r="E227" s="3" t="inlineStr"/>
+      <c r="F227" s="3" t="inlineStr"/>
+      <c r="G227" s="3" t="inlineStr"/>
+      <c r="H227" s="3" t="inlineStr"/>
+      <c r="I227" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Psychological needs can be satisfied or thwarted. </t>
+        </is>
+      </c>
+      <c r="J227" s="3" t="inlineStr"/>
+      <c r="K227" s="3" t="inlineStr"/>
+      <c r="L227" s="3" t="inlineStr"/>
+      <c r="M227" s="3" t="inlineStr"/>
+      <c r="N227" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O227" s="3" t="inlineStr"/>
+      <c r="P227" s="3" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
         <is>
           <t>PATO:0000001</t>
         </is>
       </c>
-      <c r="B227" t="inlineStr">
+      <c r="B228" t="inlineStr">
         <is>
           <t>quality</t>
         </is>
       </c>
-      <c r="C227" t="inlineStr">
+      <c r="C228" t="inlineStr">
         <is>
           <t>specifically dependent continuant</t>
         </is>
       </c>
-      <c r="D227" t="inlineStr">
+      <c r="D228" t="inlineStr">
         <is>
           <t>A dependent entity that inheres in a bearer by virtue of how the bearer is related to other entities.</t>
         </is>
       </c>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr"/>
-      <c r="H227" t="inlineStr"/>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="inlineStr"/>
-      <c r="N227" t="inlineStr">
+      <c r="E228" t="inlineStr"/>
+      <c r="F228" t="inlineStr"/>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr"/>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
+      <c r="M228" t="inlineStr"/>
+      <c r="N228" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="O227" t="inlineStr"/>
-      <c r="P227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="3" t="inlineStr">
+      <c r="O228" t="inlineStr"/>
+      <c r="P228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="3" t="inlineStr">
         <is>
           <t>BCIO:006112</t>
         </is>
       </c>
-      <c r="B228" s="3" t="inlineStr">
+      <c r="B229" s="3" t="inlineStr">
         <is>
           <t>reflective thinking</t>
         </is>
       </c>
-      <c r="C228" s="3" t="inlineStr">
+      <c r="C229" s="3" t="inlineStr">
         <is>
           <t>thinking</t>
         </is>
       </c>
-      <c r="D228" s="3" t="inlineStr">
+      <c r="D229" s="3" t="inlineStr">
         <is>
           <t>Thinking that involves the generation of inferences by reasoning based on one or more statements, evaluating anticipated consequences or considering the relationships between concepts.</t>
         </is>
       </c>
-      <c r="E228" s="3" t="inlineStr"/>
-      <c r="F228" s="3" t="inlineStr"/>
-      <c r="G228" s="3" t="inlineStr"/>
-      <c r="H228" s="3" t="inlineStr"/>
-      <c r="I228" s="3" t="inlineStr"/>
-      <c r="J228" s="3" t="inlineStr"/>
-      <c r="K228" s="3" t="inlineStr"/>
-      <c r="L228" s="3" t="inlineStr"/>
-      <c r="M228" s="3" t="inlineStr"/>
-      <c r="N228" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O228" s="3" t="inlineStr"/>
-      <c r="P228" s="3" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="2" t="inlineStr">
+      <c r="E229" s="3" t="inlineStr"/>
+      <c r="F229" s="3" t="inlineStr"/>
+      <c r="G229" s="3" t="inlineStr"/>
+      <c r="H229" s="3" t="inlineStr"/>
+      <c r="I229" s="3" t="inlineStr"/>
+      <c r="J229" s="3" t="inlineStr"/>
+      <c r="K229" s="3" t="inlineStr"/>
+      <c r="L229" s="3" t="inlineStr"/>
+      <c r="M229" s="3" t="inlineStr"/>
+      <c r="N229" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O229" s="3" t="inlineStr"/>
+      <c r="P229" s="3" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="inlineStr">
         <is>
           <t>BCIO:050232</t>
         </is>
       </c>
-      <c r="B229" s="2" t="inlineStr">
+      <c r="B230" s="2" t="inlineStr">
         <is>
           <t>regret</t>
         </is>
       </c>
-      <c r="C229" s="2" t="inlineStr">
+      <c r="C230" s="2" t="inlineStr">
         <is>
           <t>emotion process</t>
         </is>
       </c>
-      <c r="D229" s="2" t="inlineStr">
+      <c r="D230" s="2" t="inlineStr">
         <is>
           <t>A negative emotion that occurs when a person wishes they chose or acted differently in the past, due to the consequences of that choice or action being unfavourable.</t>
         </is>
       </c>
-      <c r="E229" s="2" t="inlineStr"/>
-      <c r="F229" s="2" t="inlineStr"/>
-      <c r="G229" s="2" t="inlineStr"/>
-      <c r="H229" s="2" t="inlineStr"/>
-      <c r="I229" s="2" t="inlineStr"/>
-      <c r="J229" s="2" t="inlineStr"/>
-      <c r="K229" s="2" t="inlineStr"/>
-      <c r="L229" s="2" t="inlineStr"/>
-      <c r="M229" s="2" t="inlineStr"/>
-      <c r="N229" s="2" t="inlineStr">
+      <c r="E230" s="2" t="inlineStr"/>
+      <c r="F230" s="2" t="inlineStr"/>
+      <c r="G230" s="2" t="inlineStr"/>
+      <c r="H230" s="2" t="inlineStr"/>
+      <c r="I230" s="2" t="inlineStr"/>
+      <c r="J230" s="2" t="inlineStr"/>
+      <c r="K230" s="2" t="inlineStr"/>
+      <c r="L230" s="2" t="inlineStr"/>
+      <c r="M230" s="2" t="inlineStr"/>
+      <c r="N230" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="O229" s="2" t="inlineStr"/>
-      <c r="P229" s="2" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
+      <c r="O230" s="2" t="inlineStr"/>
+      <c r="P230" s="2" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
         <is>
           <t>MF:0000030</t>
         </is>
       </c>
-      <c r="B230" t="inlineStr">
+      <c r="B231" t="inlineStr">
         <is>
           <t>representation</t>
         </is>
       </c>
-      <c r="C230" t="inlineStr">
+      <c r="C231" t="inlineStr">
         <is>
           <t>specifically dependent continuant</t>
         </is>
       </c>
-      <c r="D230" t="inlineStr">
+      <c r="D231" t="inlineStr">
         <is>
           <t>A dependent continuant which is about a portion of reality.</t>
         </is>
       </c>
-      <c r="E230" t="inlineStr"/>
-      <c r="F230" t="inlineStr"/>
-      <c r="G230" t="inlineStr"/>
-      <c r="H230" t="inlineStr"/>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="inlineStr"/>
-      <c r="N230" t="inlineStr">
+      <c r="E231" t="inlineStr"/>
+      <c r="F231" t="inlineStr"/>
+      <c r="G231" t="inlineStr"/>
+      <c r="H231" t="inlineStr"/>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="inlineStr"/>
+      <c r="N231" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="O230" t="inlineStr"/>
-      <c r="P230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="2" t="inlineStr">
+      <c r="O231" t="inlineStr"/>
+      <c r="P231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="inlineStr">
         <is>
           <t>BCIO:050266</t>
         </is>
       </c>
-      <c r="B231" s="2" t="inlineStr">
+      <c r="B232" s="2" t="inlineStr">
         <is>
           <t>ruminating</t>
         </is>
       </c>
-      <c r="C231" s="2" t="inlineStr">
+      <c r="C232" s="2" t="inlineStr">
         <is>
           <t>thinking</t>
         </is>
       </c>
-      <c r="D231" s="2" t="inlineStr">
+      <c r="D232" s="2" t="inlineStr">
         <is>
           <t>Thinking that is about negative experiences and feelings, and repeated.</t>
         </is>
       </c>
-      <c r="E231" s="2" t="inlineStr"/>
-      <c r="F231" s="2" t="inlineStr"/>
-      <c r="G231" s="2" t="inlineStr"/>
-      <c r="H231" s="2" t="inlineStr"/>
-      <c r="I231" s="2" t="inlineStr"/>
-      <c r="J231" s="2" t="inlineStr"/>
-      <c r="K231" s="2" t="inlineStr"/>
-      <c r="L231" s="2" t="inlineStr"/>
-      <c r="M231" s="2" t="inlineStr"/>
-      <c r="N231" s="2" t="inlineStr">
+      <c r="E232" s="2" t="inlineStr"/>
+      <c r="F232" s="2" t="inlineStr"/>
+      <c r="G232" s="2" t="inlineStr"/>
+      <c r="H232" s="2" t="inlineStr"/>
+      <c r="I232" s="2" t="inlineStr"/>
+      <c r="J232" s="2" t="inlineStr"/>
+      <c r="K232" s="2" t="inlineStr"/>
+      <c r="L232" s="2" t="inlineStr"/>
+      <c r="M232" s="2" t="inlineStr"/>
+      <c r="N232" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="O231" s="2" t="inlineStr"/>
-      <c r="P231" s="2" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MFOEM:000056 </t>
-        </is>
-      </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>sadness</t>
-        </is>
-      </c>
-      <c r="C232" t="inlineStr">
-        <is>
-          <t>emotion process</t>
-        </is>
-      </c>
-      <c r="D232" t="inlineStr">
-        <is>
-          <t>A negative emotion felt when an event is appraised as unpleasant and resulting in loss or failure.</t>
-        </is>
-      </c>
-      <c r="E232" t="inlineStr"/>
-      <c r="F232" t="inlineStr"/>
-      <c r="G232" t="inlineStr"/>
-      <c r="H232" t="inlineStr"/>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="inlineStr"/>
-      <c r="N232" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="O232" t="inlineStr"/>
-      <c r="P232" t="inlineStr"/>
+      <c r="O232" s="2" t="inlineStr"/>
+      <c r="P232" s="2" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>MFOEM:000169</t>
+          <t xml:space="preserve">MFOEM:000056 </t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>satisfaction</t>
+          <t>sadness</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -9914,7 +9926,7 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>An emotion that is experienced when one's wishes, expectations or needs are fulfilled.</t>
+          <t>A negative emotion felt when an event is appraised as unpleasant and resulting in loss or failure.</t>
         </is>
       </c>
       <c r="E233" t="inlineStr"/>
@@ -9935,99 +9947,94 @@
       <c r="P233" t="inlineStr"/>
     </row>
     <row r="234">
-      <c r="A234" s="2" t="inlineStr">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>MFOEM:000169</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>satisfaction</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>emotion process</t>
+        </is>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>An emotion that is experienced when one's wishes, expectations or needs are fulfilled.</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr"/>
+      <c r="F234" t="inlineStr"/>
+      <c r="G234" t="inlineStr"/>
+      <c r="H234" t="inlineStr"/>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" t="inlineStr"/>
+      <c r="N234" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="O234" t="inlineStr"/>
+      <c r="P234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="inlineStr">
         <is>
           <t>BCIO:050236</t>
         </is>
       </c>
-      <c r="B234" s="2" t="inlineStr">
+      <c r="B235" s="2" t="inlineStr">
         <is>
           <t>self-binding</t>
         </is>
       </c>
-      <c r="C234" s="2" t="inlineStr">
+      <c r="C235" s="2" t="inlineStr">
         <is>
           <t>mental process</t>
         </is>
       </c>
-      <c r="D234" s="2" t="inlineStr">
+      <c r="D235" s="2" t="inlineStr">
         <is>
           <t>A mental process that involves creating adverse consequences for oneself if one does not stick to an intended course of action.</t>
         </is>
       </c>
-      <c r="E234" s="2" t="inlineStr"/>
-      <c r="F234" s="2" t="inlineStr"/>
-      <c r="G234" s="2" t="inlineStr">
+      <c r="E235" s="2" t="inlineStr"/>
+      <c r="F235" s="2" t="inlineStr"/>
+      <c r="G235" s="2" t="inlineStr">
         <is>
           <t>Pre-commitment</t>
         </is>
       </c>
-      <c r="H234" s="2" t="inlineStr"/>
-      <c r="I234" s="2" t="inlineStr"/>
-      <c r="J234" s="2" t="inlineStr"/>
-      <c r="K234" s="2" t="inlineStr"/>
-      <c r="L234" s="2" t="inlineStr"/>
-      <c r="M234" s="2" t="inlineStr"/>
-      <c r="N234" s="2" t="inlineStr">
+      <c r="H235" s="2" t="inlineStr"/>
+      <c r="I235" s="2" t="inlineStr"/>
+      <c r="J235" s="2" t="inlineStr"/>
+      <c r="K235" s="2" t="inlineStr"/>
+      <c r="L235" s="2" t="inlineStr"/>
+      <c r="M235" s="2" t="inlineStr"/>
+      <c r="N235" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="O234" s="2" t="inlineStr"/>
-      <c r="P234" s="2" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006154</t>
-        </is>
-      </c>
-      <c r="B235" s="3" t="inlineStr">
-        <is>
-          <t>self-efficacy belief for a behaviour</t>
-        </is>
-      </c>
-      <c r="C235" s="3" t="inlineStr">
-        <is>
-          <t>belief</t>
-        </is>
-      </c>
-      <c r="D235" s="3" t="inlineStr">
-        <is>
-          <t>A belief about one's capabilities to organise and execute a behaviour.</t>
-        </is>
-      </c>
-      <c r="E235" s="3" t="inlineStr"/>
-      <c r="F235" s="3" t="inlineStr"/>
-      <c r="G235" s="3" t="inlineStr"/>
-      <c r="H235" s="3" t="inlineStr"/>
-      <c r="I235" s="3" t="inlineStr">
-        <is>
-          <t>The phrase 'to organise' refers to the ability to organise mental processes and sequences of actions.
-'self-efficacy belief for a behaviour' is part of 'self-efficacy belief for a behaviour and its associated outcomes'. However, the latter also includes a belief about the outcomes associated with behaviour.</t>
-        </is>
-      </c>
-      <c r="J235" s="3" t="inlineStr"/>
-      <c r="K235" s="3" t="inlineStr"/>
-      <c r="L235" s="3" t="inlineStr"/>
-      <c r="M235" s="3" t="inlineStr"/>
-      <c r="N235" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O235" s="3" t="inlineStr"/>
-      <c r="P235" s="3" t="inlineStr"/>
+      <c r="O235" s="2" t="inlineStr"/>
+      <c r="P235" s="2" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006043</t>
+          <t>BCIO:006154</t>
         </is>
       </c>
       <c r="B236" s="3" t="inlineStr">
         <is>
-          <t>self-efficacy belief for a behaviour and its associated outcomes</t>
+          <t>self-efficacy belief for a behaviour</t>
         </is>
       </c>
       <c r="C236" s="3" t="inlineStr">
@@ -10037,7 +10044,7 @@
       </c>
       <c r="D236" s="3" t="inlineStr">
         <is>
-          <t>A belief about one's capabilities to organise and execute a behaviour and achieve the outcomes associated with this behaviour.</t>
+          <t>A belief about one's capabilities to organise and execute a behaviour.</t>
         </is>
       </c>
       <c r="E236" s="3" t="inlineStr"/>
@@ -10051,11 +10058,7 @@
         </is>
       </c>
       <c r="J236" s="3" t="inlineStr"/>
-      <c r="K236" s="3" t="inlineStr">
-        <is>
-          <t>self-efficacy belief for a behaviour</t>
-        </is>
-      </c>
+      <c r="K236" s="3" t="inlineStr"/>
       <c r="L236" s="3" t="inlineStr"/>
       <c r="M236" s="3" t="inlineStr"/>
       <c r="N236" s="3" t="inlineStr">
@@ -10069,31 +10072,40 @@
     <row r="237">
       <c r="A237" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006050</t>
+          <t>BCIO:006043</t>
         </is>
       </c>
       <c r="B237" s="3" t="inlineStr">
         <is>
-          <t>self-identity</t>
+          <t>self-efficacy belief for a behaviour and its associated outcomes</t>
         </is>
       </c>
       <c r="C237" s="3" t="inlineStr">
         <is>
-          <t>cognitive representation</t>
+          <t>belief</t>
         </is>
       </c>
       <c r="D237" s="3" t="inlineStr">
         <is>
-          <t>A cognitive representation that a person has about themselves.</t>
+          <t>A belief about one's capabilities to organise and execute a behaviour and achieve the outcomes associated with this behaviour.</t>
         </is>
       </c>
       <c r="E237" s="3" t="inlineStr"/>
       <c r="F237" s="3" t="inlineStr"/>
       <c r="G237" s="3" t="inlineStr"/>
       <c r="H237" s="3" t="inlineStr"/>
-      <c r="I237" s="3" t="inlineStr"/>
+      <c r="I237" s="3" t="inlineStr">
+        <is>
+          <t>The phrase 'to organise' refers to the ability to organise mental processes and sequences of actions.
+'self-efficacy belief for a behaviour' is part of 'self-efficacy belief for a behaviour and its associated outcomes'. However, the latter also includes a belief about the outcomes associated with behaviour.</t>
+        </is>
+      </c>
       <c r="J237" s="3" t="inlineStr"/>
-      <c r="K237" s="3" t="inlineStr"/>
+      <c r="K237" s="3" t="inlineStr">
+        <is>
+          <t>self-efficacy belief for a behaviour</t>
+        </is>
+      </c>
       <c r="L237" s="3" t="inlineStr"/>
       <c r="M237" s="3" t="inlineStr"/>
       <c r="N237" s="3" t="inlineStr">
@@ -10107,35 +10119,29 @@
     <row r="238">
       <c r="A238" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006137</t>
+          <t>BCIO:006050</t>
         </is>
       </c>
       <c r="B238" s="3" t="inlineStr">
         <is>
-          <t>self-monitoring</t>
+          <t>self-identity</t>
         </is>
       </c>
       <c r="C238" s="3" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>cognitive representation</t>
         </is>
       </c>
       <c r="D238" s="3" t="inlineStr">
         <is>
-          <t>A mental process in which one observes one's own behaviour or mental processes.</t>
+          <t>A cognitive representation that a person has about themselves.</t>
         </is>
       </c>
       <c r="E238" s="3" t="inlineStr"/>
       <c r="F238" s="3" t="inlineStr"/>
       <c r="G238" s="3" t="inlineStr"/>
       <c r="H238" s="3" t="inlineStr"/>
-      <c r="I238" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">There are behaviour change techniques labelled 'Self-monitoring of behaviour' and 'Self-monitoring of outcome of behaviour'. These are about establishing a method for monitoring states. In contrast, the MoA is the mental process of monitoring.
-'Self-monitoring of behaviour' is defined as 'Instruct self recording of specified behaviour/s (with or without associated thoughts, emotions, situations) as part of a behaviour change strategy ' (Michie et al., 2013).
-'Self-monitoring of outcome of behaviour' is defined "Establish a method for the person to monitor and record their behavior(s) as part of a behavior change strategy"  (Michie et al., 2013). </t>
-        </is>
-      </c>
+      <c r="I238" s="3" t="inlineStr"/>
       <c r="J238" s="3" t="inlineStr"/>
       <c r="K238" s="3" t="inlineStr"/>
       <c r="L238" s="3" t="inlineStr"/>
@@ -10151,22 +10157,22 @@
     <row r="239">
       <c r="A239" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006005</t>
+          <t>BCIO:006137</t>
         </is>
       </c>
       <c r="B239" s="3" t="inlineStr">
         <is>
-          <t>self-regulation capability</t>
+          <t>self-monitoring</t>
         </is>
       </c>
       <c r="C239" s="3" t="inlineStr">
         <is>
-          <t>mental capability</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D239" s="3" t="inlineStr">
         <is>
-          <t>A mental capability that involves processes that modulate the frequency, rate or extent of a response to external or internal stimuli and that are instigated by the person themselves.</t>
+          <t>A mental process in which one observes one's own behaviour or mental processes.</t>
         </is>
       </c>
       <c r="E239" s="3" t="inlineStr"/>
@@ -10175,7 +10181,9 @@
       <c r="H239" s="3" t="inlineStr"/>
       <c r="I239" s="3" t="inlineStr">
         <is>
-          <t>'Modulate’ refers to ‘modifying or controlling influence on or change the strength’ and involves processes</t>
+          <t xml:space="preserve">There are behaviour change techniques labelled 'Self-monitoring of behaviour' and 'Self-monitoring of outcome of behaviour'. These are about establishing a method for monitoring states. In contrast, the MoA is the mental process of monitoring.
+'Self-monitoring of behaviour' is defined as 'Instruct self recording of specified behaviour/s (with or without associated thoughts, emotions, situations) as part of a behaviour change strategy ' (Michie et al., 2013).
+'Self-monitoring of outcome of behaviour' is defined "Establish a method for the person to monitor and record their behavior(s) as part of a behavior change strategy"  (Michie et al., 2013). </t>
         </is>
       </c>
       <c r="J239" s="3" t="inlineStr"/>
@@ -10193,29 +10201,33 @@
     <row r="240">
       <c r="A240" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006103</t>
+          <t>BCIO:006005</t>
         </is>
       </c>
       <c r="B240" s="3" t="inlineStr">
         <is>
-          <t>self-regulation of behaviour</t>
+          <t>self-regulation capability</t>
         </is>
       </c>
       <c r="C240" s="3" t="inlineStr">
         <is>
-          <t>self-regulation process</t>
+          <t>mental capability</t>
         </is>
       </c>
       <c r="D240" s="3" t="inlineStr">
         <is>
-          <t>A self-regulation process that modulates the frequency, rate or extent of one's  performance of a behaviour.</t>
+          <t>A mental capability that involves processes that modulate the frequency, rate or extent of a response to external or internal stimuli and that are instigated by the person themselves.</t>
         </is>
       </c>
       <c r="E240" s="3" t="inlineStr"/>
       <c r="F240" s="3" t="inlineStr"/>
       <c r="G240" s="3" t="inlineStr"/>
       <c r="H240" s="3" t="inlineStr"/>
-      <c r="I240" s="3" t="inlineStr"/>
+      <c r="I240" s="3" t="inlineStr">
+        <is>
+          <t>'Modulate’ refers to ‘modifying or controlling influence on or change the strength’ and involves processes</t>
+        </is>
+      </c>
       <c r="J240" s="3" t="inlineStr"/>
       <c r="K240" s="3" t="inlineStr"/>
       <c r="L240" s="3" t="inlineStr"/>
@@ -10229,62 +10241,62 @@
       <c r="P240" s="3" t="inlineStr"/>
     </row>
     <row r="241">
-      <c r="A241" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050268</t>
-        </is>
-      </c>
-      <c r="B241" s="2" t="inlineStr">
+      <c r="A241" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006103</t>
+        </is>
+      </c>
+      <c r="B241" s="3" t="inlineStr">
+        <is>
+          <t>self-regulation of behaviour</t>
+        </is>
+      </c>
+      <c r="C241" s="3" t="inlineStr">
         <is>
           <t>self-regulation process</t>
         </is>
       </c>
-      <c r="C241" s="2" t="inlineStr">
-        <is>
-          <t>bodily process</t>
-        </is>
-      </c>
-      <c r="D241" s="2" t="inlineStr">
-        <is>
-          <t>A bodily process that modulates the frequency, rate or extent of a response to external or internal stimuli and that is instigated by the person.</t>
-        </is>
-      </c>
-      <c r="E241" s="2" t="inlineStr"/>
-      <c r="F241" s="2" t="inlineStr"/>
-      <c r="G241" s="2" t="inlineStr"/>
-      <c r="H241" s="2" t="inlineStr"/>
-      <c r="I241" s="2" t="inlineStr"/>
-      <c r="J241" s="2" t="inlineStr"/>
-      <c r="K241" s="2" t="inlineStr"/>
-      <c r="L241" s="2" t="inlineStr"/>
-      <c r="M241" s="2" t="inlineStr"/>
-      <c r="N241" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="O241" s="2" t="inlineStr"/>
-      <c r="P241" s="2" t="inlineStr"/>
+      <c r="D241" s="3" t="inlineStr">
+        <is>
+          <t>A self-regulation process that modulates the frequency, rate or extent of one's  performance of a behaviour.</t>
+        </is>
+      </c>
+      <c r="E241" s="3" t="inlineStr"/>
+      <c r="F241" s="3" t="inlineStr"/>
+      <c r="G241" s="3" t="inlineStr"/>
+      <c r="H241" s="3" t="inlineStr"/>
+      <c r="I241" s="3" t="inlineStr"/>
+      <c r="J241" s="3" t="inlineStr"/>
+      <c r="K241" s="3" t="inlineStr"/>
+      <c r="L241" s="3" t="inlineStr"/>
+      <c r="M241" s="3" t="inlineStr"/>
+      <c r="N241" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O241" s="3" t="inlineStr"/>
+      <c r="P241" s="3" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050222</t>
+          <t>BCIO:050268</t>
         </is>
       </c>
       <c r="B242" s="2" t="inlineStr">
         <is>
-          <t>self-regulatory skill</t>
+          <t>self-regulation process</t>
         </is>
       </c>
       <c r="C242" s="2" t="inlineStr">
         <is>
-          <t>self-regulation capability</t>
+          <t>bodily process</t>
         </is>
       </c>
       <c r="D242" s="2" t="inlineStr">
         <is>
-          <t>A self-regulation capability that is acquired through training or practice.</t>
+          <t>A bodily process that modulates the frequency, rate or extent of a response to external or internal stimuli and that is instigated by the person.</t>
         </is>
       </c>
       <c r="E242" s="2" t="inlineStr"/>
@@ -10305,70 +10317,70 @@
       <c r="P242" s="2" t="inlineStr"/>
     </row>
     <row r="243">
-      <c r="A243" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006106</t>
-        </is>
-      </c>
-      <c r="B243" s="3" t="inlineStr">
-        <is>
-          <t>self-reinforcing self-regulation</t>
-        </is>
-      </c>
-      <c r="C243" s="3" t="inlineStr">
-        <is>
-          <t>self-regulation of behaviour</t>
-        </is>
-      </c>
-      <c r="D243" s="3" t="inlineStr">
-        <is>
-          <t>Self-regulation of behaviour through self-administering a reward for performing an intended behaviour.</t>
-        </is>
-      </c>
-      <c r="E243" s="3" t="inlineStr"/>
-      <c r="F243" s="3" t="inlineStr">
-        <is>
-          <t>A bodily process that modulates the frequency, rate or extent of behaviour through self-administering a reward for performing an intended behaviour.</t>
-        </is>
-      </c>
-      <c r="G243" s="3" t="inlineStr"/>
-      <c r="H243" s="3" t="inlineStr"/>
-      <c r="I243" s="3" t="inlineStr"/>
-      <c r="J243" s="3" t="inlineStr"/>
-      <c r="K243" s="3" t="inlineStr"/>
-      <c r="L243" s="3" t="inlineStr"/>
-      <c r="M243" s="3" t="inlineStr"/>
-      <c r="N243" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O243" s="3" t="inlineStr"/>
-      <c r="P243" s="3" t="inlineStr"/>
+      <c r="A243" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050222</t>
+        </is>
+      </c>
+      <c r="B243" s="2" t="inlineStr">
+        <is>
+          <t>self-regulatory skill</t>
+        </is>
+      </c>
+      <c r="C243" s="2" t="inlineStr">
+        <is>
+          <t>self-regulation capability</t>
+        </is>
+      </c>
+      <c r="D243" s="2" t="inlineStr">
+        <is>
+          <t>A self-regulation capability that is acquired through training or practice.</t>
+        </is>
+      </c>
+      <c r="E243" s="2" t="inlineStr"/>
+      <c r="F243" s="2" t="inlineStr"/>
+      <c r="G243" s="2" t="inlineStr"/>
+      <c r="H243" s="2" t="inlineStr"/>
+      <c r="I243" s="2" t="inlineStr"/>
+      <c r="J243" s="2" t="inlineStr"/>
+      <c r="K243" s="2" t="inlineStr"/>
+      <c r="L243" s="2" t="inlineStr"/>
+      <c r="M243" s="2" t="inlineStr"/>
+      <c r="N243" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="O243" s="2" t="inlineStr"/>
+      <c r="P243" s="2" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006128</t>
+          <t>BCIO:006106</t>
         </is>
       </c>
       <c r="B244" s="3" t="inlineStr">
         <is>
-          <t>semantic memory</t>
+          <t>self-reinforcing self-regulation</t>
         </is>
       </c>
       <c r="C244" s="3" t="inlineStr">
         <is>
-          <t>memory</t>
+          <t>self-regulation of behaviour</t>
         </is>
       </c>
       <c r="D244" s="3" t="inlineStr">
         <is>
-          <t>A memory process that deals with the receipt, storage, retrieval and modification of information associated with meanings, understandings or conceptual facts about the world.</t>
+          <t>Self-regulation of behaviour through self-administering a reward for performing an intended behaviour.</t>
         </is>
       </c>
       <c r="E244" s="3" t="inlineStr"/>
-      <c r="F244" s="3" t="inlineStr"/>
+      <c r="F244" s="3" t="inlineStr">
+        <is>
+          <t>A bodily process that modulates the frequency, rate or extent of behaviour through self-administering a reward for performing an intended behaviour.</t>
+        </is>
+      </c>
       <c r="G244" s="3" t="inlineStr"/>
       <c r="H244" s="3" t="inlineStr"/>
       <c r="I244" s="3" t="inlineStr"/>
@@ -10385,62 +10397,62 @@
       <c r="P244" s="3" t="inlineStr"/>
     </row>
     <row r="245">
-      <c r="A245" t="inlineStr">
-        <is>
-          <t>GO:0046960</t>
-        </is>
-      </c>
-      <c r="B245" t="inlineStr">
-        <is>
-          <t>sensitization</t>
-        </is>
-      </c>
-      <c r="C245" t="inlineStr">
-        <is>
-          <t>non-associative learning</t>
-        </is>
-      </c>
-      <c r="D245" t="inlineStr">
-        <is>
-          <t>An increase in a behavioural response to a repeated stimulus.</t>
-        </is>
-      </c>
-      <c r="E245" t="inlineStr"/>
-      <c r="F245" t="inlineStr"/>
-      <c r="G245" t="inlineStr"/>
-      <c r="H245" t="inlineStr"/>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
-      <c r="M245" t="inlineStr"/>
-      <c r="N245" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="O245" t="inlineStr"/>
-      <c r="P245" t="inlineStr"/>
+      <c r="A245" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006128</t>
+        </is>
+      </c>
+      <c r="B245" s="3" t="inlineStr">
+        <is>
+          <t>semantic memory</t>
+        </is>
+      </c>
+      <c r="C245" s="3" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="D245" s="3" t="inlineStr">
+        <is>
+          <t>A memory process that deals with the receipt, storage, retrieval and modification of information associated with meanings, understandings or conceptual facts about the world.</t>
+        </is>
+      </c>
+      <c r="E245" s="3" t="inlineStr"/>
+      <c r="F245" s="3" t="inlineStr"/>
+      <c r="G245" s="3" t="inlineStr"/>
+      <c r="H245" s="3" t="inlineStr"/>
+      <c r="I245" s="3" t="inlineStr"/>
+      <c r="J245" s="3" t="inlineStr"/>
+      <c r="K245" s="3" t="inlineStr"/>
+      <c r="L245" s="3" t="inlineStr"/>
+      <c r="M245" s="3" t="inlineStr"/>
+      <c r="N245" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O245" s="3" t="inlineStr"/>
+      <c r="P245" s="3" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>MFOEM:000040</t>
+          <t>GO:0046960</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>sexual pleasure</t>
+          <t>sensitization</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>pleasure</t>
+          <t>non-associative learning</t>
         </is>
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>Pleasure that is experienced as a result of sexual activities.</t>
+          <t>An increase in a behavioural response to a repeated stimulus.</t>
         </is>
       </c>
       <c r="E246" t="inlineStr"/>
@@ -10463,22 +10475,22 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>MFOEM:000055</t>
+          <t>MFOEM:000040</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>shame</t>
+          <t>sexual pleasure</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>emotion process</t>
+          <t>pleasure</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>A negative emotion that is distressing and occurs when one appraises one's behaviour or circumstance as wrong, dishonourable, immodest or indecorous.</t>
+          <t>Pleasure that is experienced as a result of sexual activities.</t>
         </is>
       </c>
       <c r="E247" t="inlineStr"/>
@@ -10499,73 +10511,73 @@
       <c r="P247" t="inlineStr"/>
     </row>
     <row r="248">
-      <c r="A248" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006044</t>
-        </is>
-      </c>
-      <c r="B248" s="3" t="inlineStr">
-        <is>
-          <t>situational self-efficacy belief for a behaviour</t>
-        </is>
-      </c>
-      <c r="C248" s="3" t="inlineStr">
-        <is>
-          <t>self-efficacy belief for a behaviour</t>
-        </is>
-      </c>
-      <c r="D248" s="3" t="inlineStr">
-        <is>
-          <t>Self-efficacy belief for a behaviour when a barrier or facilitator of the behaviour is encountered.</t>
-        </is>
-      </c>
-      <c r="E248" s="3" t="inlineStr"/>
-      <c r="F248" s="3" t="inlineStr"/>
-      <c r="G248" s="3" t="inlineStr"/>
-      <c r="H248" s="3" t="inlineStr"/>
-      <c r="I248" s="3" t="inlineStr">
-        <is>
-          <t>The 'barrier or facilitator' specified in the definition can be external or internal.</t>
-        </is>
-      </c>
-      <c r="J248" s="3" t="inlineStr"/>
-      <c r="K248" s="3" t="inlineStr"/>
-      <c r="L248" s="3" t="inlineStr"/>
-      <c r="M248" s="3" t="inlineStr"/>
-      <c r="N248" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O248" s="3" t="inlineStr"/>
-      <c r="P248" s="3" t="inlineStr"/>
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>MFOEM:000055</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>shame</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>emotion process</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>A negative emotion that is distressing and occurs when one appraises one's behaviour or circumstance as wrong, dishonourable, immodest or indecorous.</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr"/>
+      <c r="F248" t="inlineStr"/>
+      <c r="G248" t="inlineStr"/>
+      <c r="H248" t="inlineStr"/>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
+      <c r="M248" t="inlineStr"/>
+      <c r="N248" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="O248" t="inlineStr"/>
+      <c r="P248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006014</t>
+          <t>BCIO:006044</t>
         </is>
       </c>
       <c r="B249" s="3" t="inlineStr">
         <is>
-          <t>social alienation</t>
+          <t>situational self-efficacy belief for a behaviour</t>
         </is>
       </c>
       <c r="C249" s="3" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>self-efficacy belief for a behaviour</t>
         </is>
       </c>
       <c r="D249" s="3" t="inlineStr">
         <is>
-          <t>A mental disposition to perceive or experience oneself as isolated from and not meaningfully involved in social groups.</t>
+          <t>Self-efficacy belief for a behaviour when a barrier or facilitator of the behaviour is encountered.</t>
         </is>
       </c>
       <c r="E249" s="3" t="inlineStr"/>
       <c r="F249" s="3" t="inlineStr"/>
       <c r="G249" s="3" t="inlineStr"/>
       <c r="H249" s="3" t="inlineStr"/>
-      <c r="I249" s="3" t="inlineStr"/>
+      <c r="I249" s="3" t="inlineStr">
+        <is>
+          <t>The 'barrier or facilitator' specified in the definition can be external or internal.</t>
+        </is>
+      </c>
       <c r="J249" s="3" t="inlineStr"/>
       <c r="K249" s="3" t="inlineStr"/>
       <c r="L249" s="3" t="inlineStr"/>
@@ -10581,22 +10593,22 @@
     <row r="250">
       <c r="A250" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006011</t>
+          <t>BCIO:006014</t>
         </is>
       </c>
       <c r="B250" s="3" t="inlineStr">
         <is>
-          <t>social behavioural capability</t>
+          <t>social alienation</t>
         </is>
       </c>
       <c r="C250" s="3" t="inlineStr">
         <is>
-          <t>behavioural capability</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D250" s="3" t="inlineStr">
         <is>
-          <t>A personal capability includes interpersonal behaviour in its realisation.</t>
+          <t>A mental disposition to perceive or experience oneself as isolated from and not meaningfully involved in social groups.</t>
         </is>
       </c>
       <c r="E250" s="3" t="inlineStr"/>
@@ -10619,30 +10631,26 @@
     <row r="251">
       <c r="A251" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006090</t>
+          <t>BCIO:006011</t>
         </is>
       </c>
       <c r="B251" s="3" t="inlineStr">
         <is>
-          <t>social behavioural opportunity</t>
+          <t>social behavioural capability</t>
         </is>
       </c>
       <c r="C251" s="3" t="inlineStr">
         <is>
-          <t>behavioural opportunity</t>
+          <t>behavioural capability</t>
         </is>
       </c>
       <c r="D251" s="3" t="inlineStr">
         <is>
-          <t>A behavioural opportunity that involves the social environmental system.</t>
+          <t>A personal capability includes interpersonal behaviour in its realisation.</t>
         </is>
       </c>
       <c r="E251" s="3" t="inlineStr"/>
-      <c r="F251" s="3" t="inlineStr">
-        <is>
-          <t>Properties of a person's environment relating to the social world they inhabit, including the rules and norms that are operating and social cues.</t>
-        </is>
-      </c>
+      <c r="F251" s="3" t="inlineStr"/>
       <c r="G251" s="3" t="inlineStr"/>
       <c r="H251" s="3" t="inlineStr"/>
       <c r="I251" s="3" t="inlineStr"/>
@@ -10661,26 +10669,30 @@
     <row r="252">
       <c r="A252" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006118</t>
+          <t>BCIO:006090</t>
         </is>
       </c>
       <c r="B252" s="3" t="inlineStr">
         <is>
-          <t>social comparison process</t>
+          <t>social behavioural opportunity</t>
         </is>
       </c>
       <c r="C252" s="3" t="inlineStr">
         <is>
-          <t>judging</t>
+          <t>behavioural opportunity</t>
         </is>
       </c>
       <c r="D252" s="3" t="inlineStr">
         <is>
-          <t>Judging oneself or one's social group in relation to the qualities or characteristics of another person or social group.</t>
+          <t>A behavioural opportunity that involves the social environmental system.</t>
         </is>
       </c>
       <c r="E252" s="3" t="inlineStr"/>
-      <c r="F252" s="3" t="inlineStr"/>
+      <c r="F252" s="3" t="inlineStr">
+        <is>
+          <t>Properties of a person's environment relating to the social world they inhabit, including the rules and norms that are operating and social cues.</t>
+        </is>
+      </c>
       <c r="G252" s="3" t="inlineStr"/>
       <c r="H252" s="3" t="inlineStr"/>
       <c r="I252" s="3" t="inlineStr"/>
@@ -10699,22 +10711,22 @@
     <row r="253">
       <c r="A253" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006074</t>
+          <t>BCIO:006118</t>
         </is>
       </c>
       <c r="B253" s="3" t="inlineStr">
         <is>
-          <t>social embeddedness</t>
+          <t>social comparison process</t>
         </is>
       </c>
       <c r="C253" s="3" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>judging</t>
         </is>
       </c>
       <c r="D253" s="3" t="inlineStr">
         <is>
-          <t>A mental disposition to experience a feeling of being connected by social attachments.</t>
+          <t>Judging oneself or one's social group in relation to the qualities or characteristics of another person or social group.</t>
         </is>
       </c>
       <c r="E253" s="3" t="inlineStr"/>
@@ -10737,22 +10749,22 @@
     <row r="254">
       <c r="A254" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006001</t>
+          <t>BCIO:006074</t>
         </is>
       </c>
       <c r="B254" s="3" t="inlineStr">
         <is>
-          <t>social environmental system</t>
+          <t>social embeddedness</t>
         </is>
       </c>
       <c r="C254" s="3" t="inlineStr">
         <is>
-          <t>environmental system</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D254" s="3" t="inlineStr">
         <is>
-          <t>An environmental system that consists of people, their pets, social and cultural institutions and processes that influence the life of people and social groups.</t>
+          <t>A mental disposition to experience a feeling of being connected by social attachments.</t>
         </is>
       </c>
       <c r="E254" s="3" t="inlineStr"/>
@@ -10775,33 +10787,29 @@
     <row r="255">
       <c r="A255" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006051</t>
+          <t>BCIO:006001</t>
         </is>
       </c>
       <c r="B255" s="3" t="inlineStr">
         <is>
-          <t>social identity</t>
+          <t>social environmental system</t>
         </is>
       </c>
       <c r="C255" s="3" t="inlineStr">
         <is>
-          <t>self-identity</t>
+          <t>environmental system</t>
         </is>
       </c>
       <c r="D255" s="3" t="inlineStr">
         <is>
-          <t>A self-identity in which the representation involves a relation between the identity holder and another person or group.</t>
+          <t>An environmental system that consists of people, their pets, social and cultural institutions and processes that influence the life of people and social groups.</t>
         </is>
       </c>
       <c r="E255" s="3" t="inlineStr"/>
       <c r="F255" s="3" t="inlineStr"/>
       <c r="G255" s="3" t="inlineStr"/>
       <c r="H255" s="3" t="inlineStr"/>
-      <c r="I255" s="3" t="inlineStr">
-        <is>
-          <t>'Social identity' can involve a sense of one's rank or status in reference to other groups.</t>
-        </is>
-      </c>
+      <c r="I255" s="3" t="inlineStr"/>
       <c r="J255" s="3" t="inlineStr"/>
       <c r="K255" s="3" t="inlineStr"/>
       <c r="L255" s="3" t="inlineStr"/>
@@ -10817,33 +10825,33 @@
     <row r="256">
       <c r="A256" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006099</t>
+          <t>BCIO:006051</t>
         </is>
       </c>
       <c r="B256" s="3" t="inlineStr">
         <is>
-          <t>social influence behaviour</t>
+          <t>social identity</t>
         </is>
       </c>
       <c r="C256" s="3" t="inlineStr">
         <is>
-          <t>inter-personal behaviour</t>
+          <t>self-identity</t>
         </is>
       </c>
       <c r="D256" s="3" t="inlineStr">
         <is>
-          <t>An inter-personal behaviour where a person exerts an influence on the behaviour of another.</t>
+          <t>A self-identity in which the representation involves a relation between the identity holder and another person or group.</t>
         </is>
       </c>
       <c r="E256" s="3" t="inlineStr"/>
       <c r="F256" s="3" t="inlineStr"/>
       <c r="G256" s="3" t="inlineStr"/>
-      <c r="H256" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Social support from social network. </t>
-        </is>
-      </c>
-      <c r="I256" s="3" t="inlineStr"/>
+      <c r="H256" s="3" t="inlineStr"/>
+      <c r="I256" s="3" t="inlineStr">
+        <is>
+          <t>'Social identity' can involve a sense of one's rank or status in reference to other groups.</t>
+        </is>
+      </c>
       <c r="J256" s="3" t="inlineStr"/>
       <c r="K256" s="3" t="inlineStr"/>
       <c r="L256" s="3" t="inlineStr"/>
@@ -10859,33 +10867,33 @@
     <row r="257">
       <c r="A257" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006082</t>
+          <t>BCIO:006099</t>
         </is>
       </c>
       <c r="B257" s="3" t="inlineStr">
         <is>
-          <t>social role</t>
+          <t>social influence behaviour</t>
         </is>
       </c>
       <c r="C257" s="3" t="inlineStr">
         <is>
-          <t>personal role</t>
+          <t>inter-personal behaviour</t>
         </is>
       </c>
       <c r="D257" s="3" t="inlineStr">
         <is>
-          <t>A personal role that is realised in human social processes.</t>
+          <t>An inter-personal behaviour where a person exerts an influence on the behaviour of another.</t>
         </is>
       </c>
       <c r="E257" s="3" t="inlineStr"/>
       <c r="F257" s="3" t="inlineStr"/>
       <c r="G257" s="3" t="inlineStr"/>
-      <c r="H257" s="3" t="inlineStr"/>
-      <c r="I257" s="3" t="inlineStr">
-        <is>
-          <t>A role can be assigned without being realised. A person realises a role by doing something.</t>
-        </is>
-      </c>
+      <c r="H257" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Social support from social network. </t>
+        </is>
+      </c>
+      <c r="I257" s="3" t="inlineStr"/>
       <c r="J257" s="3" t="inlineStr"/>
       <c r="K257" s="3" t="inlineStr"/>
       <c r="L257" s="3" t="inlineStr"/>
@@ -10901,29 +10909,33 @@
     <row r="258">
       <c r="A258" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006012</t>
+          <t>BCIO:006082</t>
         </is>
       </c>
       <c r="B258" s="3" t="inlineStr">
         <is>
-          <t>social skill</t>
+          <t>social role</t>
         </is>
       </c>
       <c r="C258" s="3" t="inlineStr">
         <is>
-          <t>social behavioural capability</t>
+          <t>personal role</t>
         </is>
       </c>
       <c r="D258" s="3" t="inlineStr">
         <is>
-          <t>A social capability acquired through training or practice.</t>
+          <t>A personal role that is realised in human social processes.</t>
         </is>
       </c>
       <c r="E258" s="3" t="inlineStr"/>
       <c r="F258" s="3" t="inlineStr"/>
       <c r="G258" s="3" t="inlineStr"/>
       <c r="H258" s="3" t="inlineStr"/>
-      <c r="I258" s="3" t="inlineStr"/>
+      <c r="I258" s="3" t="inlineStr">
+        <is>
+          <t>A role can be assigned without being realised. A person realises a role by doing something.</t>
+        </is>
+      </c>
       <c r="J258" s="3" t="inlineStr"/>
       <c r="K258" s="3" t="inlineStr"/>
       <c r="L258" s="3" t="inlineStr"/>
@@ -10939,33 +10951,29 @@
     <row r="259">
       <c r="A259" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006072</t>
+          <t>BCIO:006012</t>
         </is>
       </c>
       <c r="B259" s="3" t="inlineStr">
         <is>
-          <t>stereotype</t>
+          <t>social skill</t>
         </is>
       </c>
       <c r="C259" s="3" t="inlineStr">
         <is>
-          <t>cognitive schema</t>
+          <t>social behavioural capability</t>
         </is>
       </c>
       <c r="D259" s="3" t="inlineStr">
         <is>
-          <t>A cognitive schema that when activated, guides perception, thought, emotion or behaviour toward members of a social group as having certain shared attributes, by virtue of their group membership.</t>
+          <t>A social capability acquired through training or practice.</t>
         </is>
       </c>
       <c r="E259" s="3" t="inlineStr"/>
       <c r="F259" s="3" t="inlineStr"/>
       <c r="G259" s="3" t="inlineStr"/>
       <c r="H259" s="3" t="inlineStr"/>
-      <c r="I259" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The attributes of members are not definitional. For instance, a psychologist studying psychology is not a stereotype. </t>
-        </is>
-      </c>
+      <c r="I259" s="3" t="inlineStr"/>
       <c r="J259" s="3" t="inlineStr"/>
       <c r="K259" s="3" t="inlineStr"/>
       <c r="L259" s="3" t="inlineStr"/>
@@ -10979,167 +10987,167 @@
       <c r="P259" s="3" t="inlineStr"/>
     </row>
     <row r="260">
-      <c r="A260" t="inlineStr">
+      <c r="A260" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006072</t>
+        </is>
+      </c>
+      <c r="B260" s="3" t="inlineStr">
+        <is>
+          <t>stereotype</t>
+        </is>
+      </c>
+      <c r="C260" s="3" t="inlineStr">
+        <is>
+          <t>cognitive schema</t>
+        </is>
+      </c>
+      <c r="D260" s="3" t="inlineStr">
+        <is>
+          <t>A cognitive schema that when activated, guides perception, thought, emotion or behaviour toward members of a social group as having certain shared attributes, by virtue of their group membership.</t>
+        </is>
+      </c>
+      <c r="E260" s="3" t="inlineStr"/>
+      <c r="F260" s="3" t="inlineStr"/>
+      <c r="G260" s="3" t="inlineStr"/>
+      <c r="H260" s="3" t="inlineStr"/>
+      <c r="I260" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The attributes of members are not definitional. For instance, a psychologist studying psychology is not a stereotype. </t>
+        </is>
+      </c>
+      <c r="J260" s="3" t="inlineStr"/>
+      <c r="K260" s="3" t="inlineStr"/>
+      <c r="L260" s="3" t="inlineStr"/>
+      <c r="M260" s="3" t="inlineStr"/>
+      <c r="N260" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O260" s="3" t="inlineStr"/>
+      <c r="P260" s="3" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
         <is>
           <t xml:space="preserve">MFOEM:000006 </t>
         </is>
       </c>
-      <c r="B260" t="inlineStr">
+      <c r="B261" t="inlineStr">
         <is>
           <t>subjective affective feeling</t>
         </is>
       </c>
-      <c r="C260" t="inlineStr">
+      <c r="C261" t="inlineStr">
         <is>
           <t>affective process</t>
         </is>
       </c>
-      <c r="D260" t="inlineStr">
+      <c r="D261" t="inlineStr">
         <is>
           <t>An affective process that involves the experience of internal or external sensory stimuli.</t>
         </is>
       </c>
-      <c r="E260" t="inlineStr"/>
-      <c r="F260" t="inlineStr">
+      <c r="E261" t="inlineStr"/>
+      <c r="F261" t="inlineStr">
         <is>
           <t>The conscious experience that a person has of feelings in their body (e.g., hunger), their mood (e.g., feeling cheerful) and their emotion (e.g., feeling nervous), in response to internal or external stimuli.</t>
         </is>
       </c>
-      <c r="G260" t="inlineStr">
+      <c r="G261" t="inlineStr">
         <is>
           <t>Feeling calm; hunger; pain</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr"/>
-      <c r="I260" t="inlineStr">
+      <c r="H261" t="inlineStr"/>
+      <c r="I261" t="inlineStr">
         <is>
           <t>'Subjective affective feeling can have greater or weaker physiological or mental components. The bodily process that are experienced will usually involve some mental process.
 Bodily sensation and the experiences of emotions (e.g., feeling calm) would both qualify as examples of 'subjective affective feeling'.
 As a subclass of 'affective process', subjective affective feelings have valence. Valence refers to the 'the subjective value of an event, object, person, or other entity in the life space of the individual' (https://dictionary.apa.org/valence). Valence ranges from negative to positive.</t>
         </is>
       </c>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
-      <c r="M260" t="inlineStr"/>
-      <c r="N260" t="inlineStr">
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="inlineStr"/>
+      <c r="M261" t="inlineStr"/>
+      <c r="N261" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="O260" t="inlineStr"/>
-      <c r="P260" t="inlineStr"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="3" t="inlineStr">
+      <c r="O261" t="inlineStr"/>
+      <c r="P261" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" s="3" t="inlineStr">
         <is>
           <t>BCIO:006075</t>
         </is>
       </c>
-      <c r="B261" s="3" t="inlineStr">
+      <c r="B262" s="3" t="inlineStr">
         <is>
           <t>subjective need</t>
         </is>
       </c>
-      <c r="C261" s="3" t="inlineStr">
+      <c r="C262" s="3" t="inlineStr">
         <is>
           <t>subjective affective feeling</t>
         </is>
       </c>
-      <c r="D261" s="3" t="inlineStr">
+      <c r="D262" s="3" t="inlineStr">
         <is>
           <t>A subjective affective feeling that involves experiencing anticipated relief or continued comfort by obtaining or maintaining a particular state.</t>
         </is>
       </c>
-      <c r="E261" s="3" t="inlineStr"/>
-      <c r="F261" s="3" t="inlineStr">
+      <c r="E262" s="3" t="inlineStr"/>
+      <c r="F262" s="3" t="inlineStr">
         <is>
           <t>A feeling of anticipated relief or avoidance of discomfort.</t>
         </is>
       </c>
-      <c r="G261" s="3" t="inlineStr"/>
-      <c r="H261" s="3" t="inlineStr"/>
-      <c r="I261" s="3" t="inlineStr"/>
-      <c r="J261" s="3" t="inlineStr"/>
-      <c r="K261" s="3" t="inlineStr"/>
-      <c r="L261" s="3" t="inlineStr"/>
-      <c r="M261" s="3" t="inlineStr"/>
-      <c r="N261" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O261" s="3" t="inlineStr"/>
-      <c r="P261" s="3" t="inlineStr"/>
-    </row>
-    <row r="262">
-      <c r="A262" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MF:0000088 </t>
-        </is>
-      </c>
-      <c r="B262" t="inlineStr">
-        <is>
-          <t>subliminal process</t>
-        </is>
-      </c>
-      <c r="C262" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D262" t="inlineStr">
-        <is>
-          <t>A mental process that involves neuronal activity in response to a sensory stimulus but which is not the subject of consciousness.</t>
-        </is>
-      </c>
-      <c r="E262" t="inlineStr"/>
-      <c r="F262" t="inlineStr"/>
-      <c r="G262" t="inlineStr"/>
-      <c r="H262" t="inlineStr"/>
-      <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="inlineStr"/>
-      <c r="N262" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="O262" t="inlineStr"/>
-      <c r="P262" t="inlineStr"/>
+      <c r="G262" s="3" t="inlineStr"/>
+      <c r="H262" s="3" t="inlineStr"/>
+      <c r="I262" s="3" t="inlineStr"/>
+      <c r="J262" s="3" t="inlineStr"/>
+      <c r="K262" s="3" t="inlineStr"/>
+      <c r="L262" s="3" t="inlineStr"/>
+      <c r="M262" s="3" t="inlineStr"/>
+      <c r="N262" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O262" s="3" t="inlineStr"/>
+      <c r="P262" s="3" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>ADDICTO:0001140</t>
+          <t xml:space="preserve">MF:0000088 </t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>substance dependence</t>
+          <t>subliminal process</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>bodily disposition</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D263" t="inlineStr">
         <is>
-          <t>A bodily disposition which is realised as impaired functioning following reduction or termination of use of a psychoactive substance.</t>
+          <t>A mental process that involves neuronal activity in response to a sensory stimulus but which is not the subject of consciousness.</t>
         </is>
       </c>
       <c r="E263" t="inlineStr"/>
       <c r="F263" t="inlineStr"/>
       <c r="G263" t="inlineStr"/>
       <c r="H263" t="inlineStr"/>
-      <c r="I263" t="inlineStr">
-        <is>
-          <t>While 'addiction' is a disposition relating to experience motivation to use a substance, 'substance dependence' refers to 'disposition related to the impaired functioning in the absence of a substance'.</t>
-        </is>
-      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
       <c r="L263" t="inlineStr"/>
@@ -11155,29 +11163,33 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>MFOEM:000032</t>
+          <t>ADDICTO:0001140</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>substance dependence</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>emotion process</t>
+          <t>bodily disposition</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t xml:space="preserve">An emotion caused by encountering unexpected events. </t>
+          <t>A bodily disposition which is realised as impaired functioning following reduction or termination of use of a psychoactive substance.</t>
         </is>
       </c>
       <c r="E264" t="inlineStr"/>
       <c r="F264" t="inlineStr"/>
       <c r="G264" t="inlineStr"/>
       <c r="H264" t="inlineStr"/>
-      <c r="I264" t="inlineStr"/>
+      <c r="I264" t="inlineStr">
+        <is>
+          <t>While 'addiction' is a disposition relating to experience motivation to use a substance, 'substance dependence' refers to 'disposition related to the impaired functioning in the absence of a substance'.</t>
+        </is>
+      </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
       <c r="L264" t="inlineStr"/>
@@ -11193,22 +11205,22 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>RO:0002577</t>
+          <t>MFOEM:000032</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>system</t>
+          <t>surprise</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>material entity</t>
+          <t>emotion process</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>A material entity consisting of multiple components that are causally integrated.</t>
+          <t xml:space="preserve">An emotion caused by encountering unexpected events. </t>
         </is>
       </c>
       <c r="E265" t="inlineStr"/>
@@ -11229,75 +11241,71 @@
       <c r="P265" t="inlineStr"/>
     </row>
     <row r="266">
-      <c r="A266" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006163</t>
-        </is>
-      </c>
-      <c r="B266" s="3" t="inlineStr">
-        <is>
-          <t>targeted mental distancing</t>
-        </is>
-      </c>
-      <c r="C266" s="3" t="inlineStr">
-        <is>
-          <t>mental distancing</t>
-        </is>
-      </c>
-      <c r="D266" s="3" t="inlineStr">
-        <is>
-          <t>Mental distancing that involves identifying particular immediate thoughts and intentionally detaching from these thoughts.</t>
-        </is>
-      </c>
-      <c r="E266" s="3" t="inlineStr"/>
-      <c r="F266" s="3" t="inlineStr"/>
-      <c r="G266" s="3" t="inlineStr">
-        <is>
-          <t>targeted decentring</t>
-        </is>
-      </c>
-      <c r="H266" s="3" t="inlineStr"/>
-      <c r="I266" s="3" t="inlineStr"/>
-      <c r="J266" s="3" t="inlineStr"/>
-      <c r="K266" s="3" t="inlineStr"/>
-      <c r="L266" s="3" t="inlineStr"/>
-      <c r="M266" s="3" t="inlineStr"/>
-      <c r="N266" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O266" s="3" t="inlineStr"/>
-      <c r="P266" s="3" t="inlineStr"/>
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>RO:0002577</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>material entity</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>A material entity consisting of multiple components that are causally integrated.</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr"/>
+      <c r="F266" t="inlineStr"/>
+      <c r="G266" t="inlineStr"/>
+      <c r="H266" t="inlineStr"/>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="inlineStr"/>
+      <c r="M266" t="inlineStr"/>
+      <c r="N266" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="O266" t="inlineStr"/>
+      <c r="P266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006091</t>
+          <t>BCIO:006163</t>
         </is>
       </c>
       <c r="B267" s="3" t="inlineStr">
         <is>
-          <t>temporal behavioural opportunity</t>
+          <t>targeted mental distancing</t>
         </is>
       </c>
       <c r="C267" s="3" t="inlineStr">
         <is>
-          <t>physical behavioural opportunity</t>
+          <t>mental distancing</t>
         </is>
       </c>
       <c r="D267" s="3" t="inlineStr">
         <is>
-          <t>A physical behavioural opportunity that involves the person having sufficient time or a suitable period.</t>
+          <t>Mental distancing that involves identifying particular immediate thoughts and intentionally detaching from these thoughts.</t>
         </is>
       </c>
       <c r="E267" s="3" t="inlineStr"/>
-      <c r="F267" s="3" t="inlineStr">
-        <is>
-          <t>Properties of a person's environment that involve the time available and influence the person's ability to enact a behaviour.</t>
-        </is>
-      </c>
-      <c r="G267" s="3" t="inlineStr"/>
+      <c r="F267" s="3" t="inlineStr"/>
+      <c r="G267" s="3" t="inlineStr">
+        <is>
+          <t>targeted decentring</t>
+        </is>
+      </c>
       <c r="H267" s="3" t="inlineStr"/>
       <c r="I267" s="3" t="inlineStr"/>
       <c r="J267" s="3" t="inlineStr"/>
@@ -11313,52 +11321,56 @@
       <c r="P267" s="3" t="inlineStr"/>
     </row>
     <row r="268">
-      <c r="A268" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050230</t>
-        </is>
-      </c>
-      <c r="B268" s="2" t="inlineStr">
-        <is>
-          <t>temporal orientation to the future</t>
-        </is>
-      </c>
-      <c r="C268" s="2" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
-      <c r="D268" s="2" t="inlineStr">
-        <is>
-          <t>A mental disposition to focus more on future than present outcomes.</t>
-        </is>
-      </c>
-      <c r="E268" s="2" t="inlineStr"/>
-      <c r="F268" s="2" t="inlineStr"/>
-      <c r="G268" s="2" t="inlineStr"/>
-      <c r="H268" s="2" t="inlineStr"/>
-      <c r="I268" s="2" t="inlineStr"/>
-      <c r="J268" s="2" t="inlineStr"/>
-      <c r="K268" s="2" t="inlineStr"/>
-      <c r="L268" s="2" t="inlineStr"/>
-      <c r="M268" s="2" t="inlineStr"/>
-      <c r="N268" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="O268" s="2" t="inlineStr"/>
-      <c r="P268" s="2" t="inlineStr"/>
+      <c r="A268" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006091</t>
+        </is>
+      </c>
+      <c r="B268" s="3" t="inlineStr">
+        <is>
+          <t>temporal behavioural opportunity</t>
+        </is>
+      </c>
+      <c r="C268" s="3" t="inlineStr">
+        <is>
+          <t>physical behavioural opportunity</t>
+        </is>
+      </c>
+      <c r="D268" s="3" t="inlineStr">
+        <is>
+          <t>A physical behavioural opportunity that involves the person having sufficient time or a suitable period.</t>
+        </is>
+      </c>
+      <c r="E268" s="3" t="inlineStr"/>
+      <c r="F268" s="3" t="inlineStr">
+        <is>
+          <t>Properties of a person's environment that involve the time available and influence the person's ability to enact a behaviour.</t>
+        </is>
+      </c>
+      <c r="G268" s="3" t="inlineStr"/>
+      <c r="H268" s="3" t="inlineStr"/>
+      <c r="I268" s="3" t="inlineStr"/>
+      <c r="J268" s="3" t="inlineStr"/>
+      <c r="K268" s="3" t="inlineStr"/>
+      <c r="L268" s="3" t="inlineStr"/>
+      <c r="M268" s="3" t="inlineStr"/>
+      <c r="N268" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O268" s="3" t="inlineStr"/>
+      <c r="P268" s="3" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050231</t>
+          <t>BCIO:050230</t>
         </is>
       </c>
       <c r="B269" s="2" t="inlineStr">
         <is>
-          <t>temporal orientation to the present</t>
+          <t>temporal orientation to the future</t>
         </is>
       </c>
       <c r="C269" s="2" t="inlineStr">
@@ -11368,7 +11380,7 @@
       </c>
       <c r="D269" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to focus more on present than future outcomes.</t>
+          <t>A mental disposition to focus more on future than present outcomes.</t>
         </is>
       </c>
       <c r="E269" s="2" t="inlineStr"/>
@@ -11389,160 +11401,198 @@
       <c r="P269" s="2" t="inlineStr"/>
     </row>
     <row r="270">
-      <c r="A270" t="inlineStr">
+      <c r="A270" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050231</t>
+        </is>
+      </c>
+      <c r="B270" s="2" t="inlineStr">
+        <is>
+          <t>temporal orientation to the present</t>
+        </is>
+      </c>
+      <c r="C270" s="2" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="D270" s="2" t="inlineStr">
+        <is>
+          <t>A mental disposition to focus more on present than future outcomes.</t>
+        </is>
+      </c>
+      <c r="E270" s="2" t="inlineStr"/>
+      <c r="F270" s="2" t="inlineStr"/>
+      <c r="G270" s="2" t="inlineStr"/>
+      <c r="H270" s="2" t="inlineStr"/>
+      <c r="I270" s="2" t="inlineStr"/>
+      <c r="J270" s="2" t="inlineStr"/>
+      <c r="K270" s="2" t="inlineStr"/>
+      <c r="L270" s="2" t="inlineStr"/>
+      <c r="M270" s="2" t="inlineStr"/>
+      <c r="N270" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="O270" s="2" t="inlineStr"/>
+      <c r="P270" s="2" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
         <is>
           <t>MF:0000013</t>
         </is>
       </c>
-      <c r="B270" t="inlineStr">
+      <c r="B271" t="inlineStr">
         <is>
           <t>thinking</t>
         </is>
       </c>
-      <c r="C270" t="inlineStr">
+      <c r="C271" t="inlineStr">
         <is>
           <t>cognitive process</t>
         </is>
       </c>
-      <c r="D270" t="inlineStr">
+      <c r="D271" t="inlineStr">
         <is>
           <t>A cognitive process that involves the manipulation of mental language and/or mental images.</t>
         </is>
       </c>
-      <c r="E270" t="inlineStr"/>
-      <c r="F270" t="inlineStr"/>
-      <c r="G270" t="inlineStr"/>
-      <c r="H270" t="inlineStr"/>
-      <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
-      <c r="M270" t="inlineStr"/>
-      <c r="N270" t="inlineStr">
+      <c r="E271" t="inlineStr"/>
+      <c r="F271" t="inlineStr"/>
+      <c r="G271" t="inlineStr"/>
+      <c r="H271" t="inlineStr"/>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="inlineStr"/>
+      <c r="M271" t="inlineStr"/>
+      <c r="N271" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="O270" t="inlineStr"/>
-      <c r="P270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="3" t="inlineStr">
+      <c r="O271" t="inlineStr"/>
+      <c r="P271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="3" t="inlineStr">
         <is>
           <t>BCIO:006107</t>
         </is>
       </c>
-      <c r="B271" s="3" t="inlineStr">
+      <c r="B272" s="3" t="inlineStr">
         <is>
           <t>value-congruent self-regulation</t>
         </is>
       </c>
-      <c r="C271" s="3" t="inlineStr">
+      <c r="C272" s="3" t="inlineStr">
         <is>
           <t>self-regulation of behaviour</t>
         </is>
       </c>
-      <c r="D271" s="3" t="inlineStr">
+      <c r="D272" s="3" t="inlineStr">
         <is>
           <t>Self-regulation undertaken to achieve consistency between one's values and the behaviour performed.</t>
         </is>
       </c>
-      <c r="E271" s="3" t="inlineStr"/>
-      <c r="F271" s="3" t="inlineStr"/>
-      <c r="G271" s="3" t="inlineStr"/>
-      <c r="H271" s="3" t="inlineStr"/>
-      <c r="I271" s="3" t="inlineStr"/>
-      <c r="J271" s="3" t="inlineStr"/>
-      <c r="K271" s="3" t="inlineStr"/>
-      <c r="L271" s="3" t="inlineStr"/>
-      <c r="M271" s="3" t="inlineStr"/>
-      <c r="N271" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O271" s="3" t="inlineStr"/>
-      <c r="P271" s="3" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" t="inlineStr">
+      <c r="E272" s="3" t="inlineStr"/>
+      <c r="F272" s="3" t="inlineStr"/>
+      <c r="G272" s="3" t="inlineStr"/>
+      <c r="H272" s="3" t="inlineStr"/>
+      <c r="I272" s="3" t="inlineStr"/>
+      <c r="J272" s="3" t="inlineStr"/>
+      <c r="K272" s="3" t="inlineStr"/>
+      <c r="L272" s="3" t="inlineStr"/>
+      <c r="M272" s="3" t="inlineStr"/>
+      <c r="N272" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O272" s="3" t="inlineStr"/>
+      <c r="P272" s="3" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
         <is>
           <t>MF:0000045</t>
         </is>
       </c>
-      <c r="B272" t="inlineStr">
+      <c r="B273" t="inlineStr">
         <is>
           <t>wanting</t>
         </is>
       </c>
-      <c r="C272" t="inlineStr">
+      <c r="C273" t="inlineStr">
         <is>
           <t>mental process</t>
         </is>
       </c>
-      <c r="D272" t="inlineStr">
+      <c r="D273" t="inlineStr">
         <is>
           <t>A mental process that involves thinking about a state of affairs that is not yet the case together with a desire for that state of affairs to come about.</t>
         </is>
       </c>
-      <c r="E272" t="inlineStr"/>
-      <c r="F272" t="inlineStr"/>
-      <c r="G272" t="inlineStr"/>
-      <c r="H272" t="inlineStr"/>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="inlineStr"/>
-      <c r="N272" t="inlineStr">
+      <c r="E273" t="inlineStr"/>
+      <c r="F273" t="inlineStr"/>
+      <c r="G273" t="inlineStr"/>
+      <c r="H273" t="inlineStr"/>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="inlineStr"/>
+      <c r="M273" t="inlineStr"/>
+      <c r="N273" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="O272" t="inlineStr"/>
-      <c r="P272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="3" t="inlineStr">
+      <c r="O273" t="inlineStr"/>
+      <c r="P273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="3" t="inlineStr">
         <is>
           <t>BCIO:006059</t>
         </is>
       </c>
-      <c r="B273" s="3" t="inlineStr">
+      <c r="B274" s="3" t="inlineStr">
         <is>
           <t>willingness to comply</t>
         </is>
       </c>
-      <c r="C273" s="3" t="inlineStr">
+      <c r="C274" s="3" t="inlineStr">
         <is>
           <t>mental disposition</t>
         </is>
       </c>
-      <c r="D273" s="3" t="inlineStr">
+      <c r="D274" s="3" t="inlineStr">
         <is>
           <t>A mental disposition to act in accordance with the likely approval of others.</t>
         </is>
       </c>
-      <c r="E273" s="3" t="inlineStr"/>
-      <c r="F273" s="3" t="inlineStr"/>
-      <c r="G273" s="3" t="inlineStr">
+      <c r="E274" s="3" t="inlineStr"/>
+      <c r="F274" s="3" t="inlineStr"/>
+      <c r="G274" s="3" t="inlineStr">
         <is>
           <t>motivation to comply</t>
         </is>
       </c>
-      <c r="H273" s="3" t="inlineStr"/>
-      <c r="I273" s="3" t="inlineStr"/>
-      <c r="J273" s="3" t="inlineStr"/>
-      <c r="K273" s="3" t="inlineStr"/>
-      <c r="L273" s="3" t="inlineStr"/>
-      <c r="M273" s="3" t="inlineStr"/>
-      <c r="N273" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O273" s="3" t="inlineStr"/>
-      <c r="P273" s="3" t="inlineStr"/>
+      <c r="H274" s="3" t="inlineStr"/>
+      <c r="I274" s="3" t="inlineStr"/>
+      <c r="J274" s="3" t="inlineStr"/>
+      <c r="K274" s="3" t="inlineStr"/>
+      <c r="L274" s="3" t="inlineStr"/>
+      <c r="M274" s="3" t="inlineStr"/>
+      <c r="N274" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O274" s="3" t="inlineStr"/>
+      <c r="P274" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/MechanismOfAction/inputs/BCIO_MoA.xlsx
+++ b/MechanismOfAction/inputs/BCIO_MoA.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P274"/>
+  <dimension ref="A1:P275"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9033,77 +9033,81 @@
       <c r="P210" t="inlineStr"/>
     </row>
     <row r="211">
-      <c r="A211" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006081</t>
-        </is>
-      </c>
-      <c r="B211" s="3" t="inlineStr">
-        <is>
-          <t>personal role</t>
-        </is>
-      </c>
-      <c r="C211" s="3" t="inlineStr">
-        <is>
-          <t>role</t>
-        </is>
-      </c>
-      <c r="D211" s="3" t="inlineStr">
-        <is>
-          <t>A role that inheres in a human being by virtue of their social and institutional circumstances.</t>
-        </is>
-      </c>
-      <c r="E211" s="3" t="inlineStr"/>
-      <c r="F211" s="3" t="inlineStr">
-        <is>
-          <t>A role that someone has within an organisation or social grouping.</t>
-        </is>
-      </c>
-      <c r="G211" s="3" t="inlineStr"/>
-      <c r="H211" s="3" t="inlineStr"/>
-      <c r="I211" s="3" t="inlineStr">
-        <is>
-          <t>A role can be assigned without being realised. A person realises a role by doing something.</t>
-        </is>
-      </c>
-      <c r="J211" s="3" t="inlineStr"/>
-      <c r="K211" s="3" t="inlineStr"/>
-      <c r="L211" s="3" t="inlineStr"/>
-      <c r="M211" s="3" t="inlineStr"/>
-      <c r="N211" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O211" s="3" t="inlineStr"/>
-      <c r="P211" s="3" t="inlineStr"/>
+      <c r="A211" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050301</t>
+        </is>
+      </c>
+      <c r="B211" s="2" t="inlineStr">
+        <is>
+          <t>personal disposition</t>
+        </is>
+      </c>
+      <c r="C211" s="2" t="inlineStr">
+        <is>
+          <t>disposition</t>
+        </is>
+      </c>
+      <c r="D211" s="2" t="inlineStr">
+        <is>
+          <t>A disposition that inheres in a person.</t>
+        </is>
+      </c>
+      <c r="E211" s="2" t="inlineStr"/>
+      <c r="F211" s="2" t="inlineStr">
+        <is>
+          <t>A characteristic of a person such as intelligence and personality that causes them to think feel or act in a particular way in a particular situation.</t>
+        </is>
+      </c>
+      <c r="G211" s="2" t="inlineStr"/>
+      <c r="H211" s="2" t="inlineStr"/>
+      <c r="I211" s="2" t="inlineStr"/>
+      <c r="J211" s="2" t="inlineStr"/>
+      <c r="K211" s="2" t="inlineStr"/>
+      <c r="L211" s="2" t="inlineStr"/>
+      <c r="M211" s="2" t="inlineStr"/>
+      <c r="N211" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="O211" s="2" t="inlineStr"/>
+      <c r="P211" s="2" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006063</t>
+          <t>BCIO:006081</t>
         </is>
       </c>
       <c r="B212" s="3" t="inlineStr">
         <is>
-          <t>personal value</t>
+          <t>personal role</t>
         </is>
       </c>
       <c r="C212" s="3" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>role</t>
         </is>
       </c>
       <c r="D212" s="3" t="inlineStr">
         <is>
-          <t>A mental disposition to regard certain things as fundamentally important in life, which informs standards for behaviour.</t>
+          <t>A role that inheres in a human being by virtue of their social and institutional circumstances.</t>
         </is>
       </c>
       <c r="E212" s="3" t="inlineStr"/>
-      <c r="F212" s="3" t="inlineStr"/>
+      <c r="F212" s="3" t="inlineStr">
+        <is>
+          <t>A role that someone has within an organisation or social grouping.</t>
+        </is>
+      </c>
       <c r="G212" s="3" t="inlineStr"/>
       <c r="H212" s="3" t="inlineStr"/>
-      <c r="I212" s="3" t="inlineStr"/>
+      <c r="I212" s="3" t="inlineStr">
+        <is>
+          <t>A role can be assigned without being realised. A person realises a role by doing something.</t>
+        </is>
+      </c>
       <c r="J212" s="3" t="inlineStr"/>
       <c r="K212" s="3" t="inlineStr"/>
       <c r="L212" s="3" t="inlineStr"/>
@@ -9119,22 +9123,22 @@
     <row r="213">
       <c r="A213" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006009</t>
+          <t>BCIO:006063</t>
         </is>
       </c>
       <c r="B213" s="3" t="inlineStr">
         <is>
-          <t>physical behavioural capability</t>
+          <t>personal value</t>
         </is>
       </c>
       <c r="C213" s="3" t="inlineStr">
         <is>
-          <t>behavioural capability</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D213" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">A behavioural capability that involves a musculoskeletal process in its realisation. </t>
+          <t>A mental disposition to regard certain things as fundamentally important in life, which informs standards for behaviour.</t>
         </is>
       </c>
       <c r="E213" s="3" t="inlineStr"/>
@@ -9157,37 +9161,29 @@
     <row r="214">
       <c r="A214" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006089</t>
+          <t>BCIO:006009</t>
         </is>
       </c>
       <c r="B214" s="3" t="inlineStr">
         <is>
-          <t>physical behavioural opportunity</t>
+          <t>physical behavioural capability</t>
         </is>
       </c>
       <c r="C214" s="3" t="inlineStr">
         <is>
-          <t>behavioural opportunity</t>
+          <t>behavioural capability</t>
         </is>
       </c>
       <c r="D214" s="3" t="inlineStr">
         <is>
-          <t>A behavioural opportunity that involves time and parts of the environmental system that do not involve people or organisations.</t>
+          <t xml:space="preserve">A behavioural capability that involves a musculoskeletal process in its realisation. </t>
         </is>
       </c>
       <c r="E214" s="3" t="inlineStr"/>
-      <c r="F214" s="3" t="inlineStr">
-        <is>
-          <t>Properties of a person's environment that involve the objects in their environment, the space they inhabit, the time available or the material resources available to them and influence the person's ability to enact a behaviour.</t>
-        </is>
-      </c>
+      <c r="F214" s="3" t="inlineStr"/>
       <c r="G214" s="3" t="inlineStr"/>
       <c r="H214" s="3" t="inlineStr"/>
-      <c r="I214" s="3" t="inlineStr">
-        <is>
-          <t>A 'behavioural opportunity' is a feature of the environmental system. While the class 'environmental system' is about what is found in an environment, the behavioural opportunity is a feature of the environment which interacts with the person and enables or prevents a behaviour.</t>
-        </is>
-      </c>
+      <c r="I214" s="3" t="inlineStr"/>
       <c r="J214" s="3" t="inlineStr"/>
       <c r="K214" s="3" t="inlineStr"/>
       <c r="L214" s="3" t="inlineStr"/>
@@ -9203,29 +9199,37 @@
     <row r="215">
       <c r="A215" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006010</t>
+          <t>BCIO:006089</t>
         </is>
       </c>
       <c r="B215" s="3" t="inlineStr">
         <is>
-          <t>physical skill</t>
+          <t>physical behavioural opportunity</t>
         </is>
       </c>
       <c r="C215" s="3" t="inlineStr">
         <is>
-          <t>physical behavioural capability</t>
+          <t>behavioural opportunity</t>
         </is>
       </c>
       <c r="D215" s="3" t="inlineStr">
         <is>
-          <t>A physical capability acquired through training or practice.</t>
+          <t>A behavioural opportunity that involves time and parts of the environmental system that do not involve people or organisations.</t>
         </is>
       </c>
       <c r="E215" s="3" t="inlineStr"/>
-      <c r="F215" s="3" t="inlineStr"/>
+      <c r="F215" s="3" t="inlineStr">
+        <is>
+          <t>Properties of a person's environment that involve the objects in their environment, the space they inhabit, the time available or the material resources available to them and influence the person's ability to enact a behaviour.</t>
+        </is>
+      </c>
       <c r="G215" s="3" t="inlineStr"/>
       <c r="H215" s="3" t="inlineStr"/>
-      <c r="I215" s="3" t="inlineStr"/>
+      <c r="I215" s="3" t="inlineStr">
+        <is>
+          <t>A 'behavioural opportunity' is a feature of the environmental system. While the class 'environmental system' is about what is found in an environment, the behavioural opportunity is a feature of the environment which interacts with the person and enables or prevents a behaviour.</t>
+        </is>
+      </c>
       <c r="J215" s="3" t="inlineStr"/>
       <c r="K215" s="3" t="inlineStr"/>
       <c r="L215" s="3" t="inlineStr"/>
@@ -9239,157 +9243,153 @@
       <c r="P215" s="3" t="inlineStr"/>
     </row>
     <row r="216">
-      <c r="A216" t="inlineStr">
+      <c r="A216" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006010</t>
+        </is>
+      </c>
+      <c r="B216" s="3" t="inlineStr">
+        <is>
+          <t>physical skill</t>
+        </is>
+      </c>
+      <c r="C216" s="3" t="inlineStr">
+        <is>
+          <t>physical behavioural capability</t>
+        </is>
+      </c>
+      <c r="D216" s="3" t="inlineStr">
+        <is>
+          <t>A physical capability acquired through training or practice.</t>
+        </is>
+      </c>
+      <c r="E216" s="3" t="inlineStr"/>
+      <c r="F216" s="3" t="inlineStr"/>
+      <c r="G216" s="3" t="inlineStr"/>
+      <c r="H216" s="3" t="inlineStr"/>
+      <c r="I216" s="3" t="inlineStr"/>
+      <c r="J216" s="3" t="inlineStr"/>
+      <c r="K216" s="3" t="inlineStr"/>
+      <c r="L216" s="3" t="inlineStr"/>
+      <c r="M216" s="3" t="inlineStr"/>
+      <c r="N216" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O216" s="3" t="inlineStr"/>
+      <c r="P216" s="3" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
         <is>
           <t xml:space="preserve">MFOEM:000003 </t>
         </is>
       </c>
-      <c r="B216" t="inlineStr">
+      <c r="B217" t="inlineStr">
         <is>
           <t>physiological process involved in an emotion</t>
         </is>
       </c>
-      <c r="C216" t="inlineStr">
+      <c r="C217" t="inlineStr">
         <is>
           <t>bodily process</t>
         </is>
       </c>
-      <c r="D216" t="inlineStr">
+      <c r="D217" t="inlineStr">
         <is>
           <t>A bodily process that encompasses all the neurophysiological changes accompanying an emotion, which take place in the central nervous system (CNS), neuro-endocrine system (NES) and autonomous nervous system (ANS).</t>
         </is>
       </c>
-      <c r="E216" t="inlineStr"/>
-      <c r="F216" t="inlineStr">
+      <c r="E217" t="inlineStr"/>
+      <c r="F217" t="inlineStr">
         <is>
           <t>A process that occurs in a person's body when they are experiencing an emotion.</t>
         </is>
       </c>
-      <c r="G216" t="inlineStr"/>
-      <c r="H216" t="inlineStr"/>
-      <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="inlineStr"/>
-      <c r="N216" t="inlineStr">
+      <c r="G217" t="inlineStr"/>
+      <c r="H217" t="inlineStr"/>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="inlineStr"/>
+      <c r="N217" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="O216" t="inlineStr"/>
-      <c r="P216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="3" t="inlineStr">
+      <c r="O217" t="inlineStr"/>
+      <c r="P217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" s="3" t="inlineStr">
         <is>
           <t>BCIO:006102</t>
         </is>
       </c>
-      <c r="B217" s="3" t="inlineStr">
+      <c r="B218" s="3" t="inlineStr">
         <is>
           <t>plan enactment</t>
         </is>
       </c>
-      <c r="C217" s="3" t="inlineStr">
+      <c r="C218" s="3" t="inlineStr">
         <is>
           <t>bodily process</t>
         </is>
       </c>
-      <c r="D217" s="3" t="inlineStr">
+      <c r="D218" s="3" t="inlineStr">
         <is>
           <t>A bodily process by which a person attempts to follow the steps in a plan.</t>
         </is>
       </c>
-      <c r="E217" s="3" t="inlineStr"/>
-      <c r="F217" s="3" t="inlineStr"/>
-      <c r="G217" s="3" t="inlineStr"/>
-      <c r="H217" s="3" t="inlineStr"/>
-      <c r="I217" s="3" t="inlineStr"/>
-      <c r="J217" s="3" t="inlineStr"/>
-      <c r="K217" s="3" t="inlineStr"/>
-      <c r="L217" s="3" t="inlineStr"/>
-      <c r="M217" s="3" t="inlineStr"/>
-      <c r="N217" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O217" s="3" t="inlineStr"/>
-      <c r="P217" s="3" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>MF:0000027</t>
-        </is>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>planning</t>
-        </is>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D218" t="inlineStr">
-        <is>
-          <t>A mental process that involves mentally manipulating representations of steps in an imagined process which has some goal.</t>
-        </is>
-      </c>
-      <c r="E218" t="inlineStr"/>
-      <c r="F218" t="inlineStr"/>
-      <c r="G218" t="inlineStr"/>
-      <c r="H218" t="inlineStr"/>
-      <c r="I218" t="inlineStr">
-        <is>
-          <t>The outcome of this mental process is a mental plan which has the potential to be followed to bring about the desired outcome.</t>
-        </is>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="inlineStr"/>
-      <c r="N218" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="O218" t="inlineStr"/>
-      <c r="P218" t="inlineStr"/>
+      <c r="E218" s="3" t="inlineStr"/>
+      <c r="F218" s="3" t="inlineStr"/>
+      <c r="G218" s="3" t="inlineStr"/>
+      <c r="H218" s="3" t="inlineStr"/>
+      <c r="I218" s="3" t="inlineStr"/>
+      <c r="J218" s="3" t="inlineStr"/>
+      <c r="K218" s="3" t="inlineStr"/>
+      <c r="L218" s="3" t="inlineStr"/>
+      <c r="M218" s="3" t="inlineStr"/>
+      <c r="N218" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O218" s="3" t="inlineStr"/>
+      <c r="P218" s="3" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>MFOEM:000035</t>
+          <t>MF:0000027</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>pleasure</t>
+          <t>planning</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>emotion process</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>A positive emotion which is sought out and is associated with happiness and satisfaction.</t>
+          <t>A mental process that involves mentally manipulating representations of steps in an imagined process which has some goal.</t>
         </is>
       </c>
       <c r="E219" t="inlineStr"/>
       <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr">
-        <is>
-          <t>enjoyment</t>
-        </is>
-      </c>
+      <c r="G219" t="inlineStr"/>
       <c r="H219" t="inlineStr"/>
-      <c r="I219" t="inlineStr"/>
+      <c r="I219" t="inlineStr">
+        <is>
+          <t>The outcome of this mental process is a mental plan which has the potential to be followed to bring about the desired outcome.</t>
+        </is>
+      </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr"/>
@@ -9403,146 +9403,150 @@
       <c r="P219" t="inlineStr"/>
     </row>
     <row r="220">
-      <c r="A220" s="3" t="inlineStr">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>MFOEM:000035</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>pleasure</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>emotion process</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>A positive emotion which is sought out and is associated with happiness and satisfaction.</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr"/>
+      <c r="F220" t="inlineStr"/>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>enjoyment</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr"/>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="inlineStr"/>
+      <c r="N220" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="O220" t="inlineStr"/>
+      <c r="P220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" s="3" t="inlineStr">
         <is>
           <t>BCIO:006159</t>
         </is>
       </c>
-      <c r="B220" s="3" t="inlineStr">
+      <c r="B221" s="3" t="inlineStr">
         <is>
           <t>pleasure associated with behaviour</t>
         </is>
       </c>
-      <c r="C220" s="3" t="inlineStr">
+      <c r="C221" s="3" t="inlineStr">
         <is>
           <t>pleasure</t>
         </is>
       </c>
-      <c r="D220" s="3" t="inlineStr">
+      <c r="D221" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pleasure that is experienced as a result of engaging in a behaviour. </t>
         </is>
       </c>
-      <c r="E220" s="3" t="inlineStr"/>
-      <c r="F220" s="3" t="inlineStr"/>
-      <c r="G220" s="3" t="inlineStr">
+      <c r="E221" s="3" t="inlineStr"/>
+      <c r="F221" s="3" t="inlineStr"/>
+      <c r="G221" s="3" t="inlineStr">
         <is>
           <t>Enjoyment of behaviour</t>
         </is>
       </c>
-      <c r="H220" s="3" t="inlineStr"/>
-      <c r="I220" s="3" t="inlineStr"/>
-      <c r="J220" s="3" t="inlineStr"/>
-      <c r="K220" s="3" t="inlineStr"/>
-      <c r="L220" s="3" t="inlineStr"/>
-      <c r="M220" s="3" t="inlineStr"/>
-      <c r="N220" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O220" s="3" t="inlineStr"/>
-      <c r="P220" s="3" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
+      <c r="H221" s="3" t="inlineStr"/>
+      <c r="I221" s="3" t="inlineStr"/>
+      <c r="J221" s="3" t="inlineStr"/>
+      <c r="K221" s="3" t="inlineStr"/>
+      <c r="L221" s="3" t="inlineStr"/>
+      <c r="M221" s="3" t="inlineStr"/>
+      <c r="N221" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O221" s="3" t="inlineStr"/>
+      <c r="P221" s="3" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
         <is>
           <t>MFOEM:000209</t>
         </is>
       </c>
-      <c r="B221" t="inlineStr">
+      <c r="B222" t="inlineStr">
         <is>
           <t>positive surprise</t>
         </is>
       </c>
-      <c r="C221" t="inlineStr">
+      <c r="C222" t="inlineStr">
         <is>
           <t>surprise</t>
         </is>
       </c>
-      <c r="D221" t="inlineStr">
+      <c r="D222" t="inlineStr">
         <is>
           <t>Surprise with a positive valence.</t>
         </is>
       </c>
-      <c r="E221" t="inlineStr"/>
-      <c r="F221" t="inlineStr"/>
-      <c r="G221" t="inlineStr">
+      <c r="E222" t="inlineStr"/>
+      <c r="F222" t="inlineStr"/>
+      <c r="G222" t="inlineStr">
         <is>
           <t>wonder; astonishment</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr"/>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="inlineStr"/>
-      <c r="N221" t="inlineStr">
+      <c r="H222" t="inlineStr"/>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="inlineStr"/>
+      <c r="N222" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="O221" t="inlineStr"/>
-      <c r="P221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006061</t>
-        </is>
-      </c>
-      <c r="B222" s="3" t="inlineStr">
-        <is>
-          <t>prevention focused motivational orientation</t>
-        </is>
-      </c>
-      <c r="C222" s="3" t="inlineStr">
-        <is>
-          <t>motivational orientation towards types of outcomes</t>
-        </is>
-      </c>
-      <c r="D222" s="3" t="inlineStr">
-        <is>
-          <t>A mental disposition for motivation to be guided by a focus on the presence or absence of positive outcomes.</t>
-        </is>
-      </c>
-      <c r="E222" s="3" t="inlineStr"/>
-      <c r="F222" s="3" t="inlineStr"/>
-      <c r="G222" s="3" t="inlineStr"/>
-      <c r="H222" s="3" t="inlineStr"/>
-      <c r="I222" s="3" t="inlineStr"/>
-      <c r="J222" s="3" t="inlineStr"/>
-      <c r="K222" s="3" t="inlineStr"/>
-      <c r="L222" s="3" t="inlineStr"/>
-      <c r="M222" s="3" t="inlineStr"/>
-      <c r="N222" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O222" s="3" t="inlineStr"/>
-      <c r="P222" s="3" t="inlineStr"/>
+      <c r="O222" t="inlineStr"/>
+      <c r="P222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006129</t>
+          <t>BCIO:006061</t>
         </is>
       </c>
       <c r="B223" s="3" t="inlineStr">
         <is>
-          <t>procedural memory</t>
+          <t>prevention focused motivational orientation</t>
         </is>
       </c>
       <c r="C223" s="3" t="inlineStr">
         <is>
-          <t>memory</t>
+          <t>motivational orientation towards types of outcomes</t>
         </is>
       </c>
       <c r="D223" s="3" t="inlineStr">
         <is>
-          <t>A memory process that deals with the receipt, storage, retrieval and modification of information regarding how to perform a complex activity without conscious awareness.</t>
+          <t>A mental disposition for motivation to be guided by a focus on the presence or absence of positive outcomes.</t>
         </is>
       </c>
       <c r="E223" s="3" t="inlineStr"/>
@@ -9563,62 +9567,62 @@
       <c r="P223" s="3" t="inlineStr"/>
     </row>
     <row r="224">
-      <c r="A224" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050229</t>
-        </is>
-      </c>
-      <c r="B224" s="2" t="inlineStr">
-        <is>
-          <t>professional identity</t>
-        </is>
-      </c>
-      <c r="C224" s="2" t="inlineStr">
-        <is>
-          <t>self-identity</t>
-        </is>
-      </c>
-      <c r="D224" s="2" t="inlineStr">
-        <is>
-          <t>A self-identity that is associated with one's occupational role.</t>
-        </is>
-      </c>
-      <c r="E224" s="2" t="inlineStr"/>
-      <c r="F224" s="2" t="inlineStr"/>
-      <c r="G224" s="2" t="inlineStr"/>
-      <c r="H224" s="2" t="inlineStr"/>
-      <c r="I224" s="2" t="inlineStr"/>
-      <c r="J224" s="2" t="inlineStr"/>
-      <c r="K224" s="2" t="inlineStr"/>
-      <c r="L224" s="2" t="inlineStr"/>
-      <c r="M224" s="2" t="inlineStr"/>
-      <c r="N224" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="O224" s="2" t="inlineStr"/>
-      <c r="P224" s="2" t="inlineStr"/>
+      <c r="A224" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006129</t>
+        </is>
+      </c>
+      <c r="B224" s="3" t="inlineStr">
+        <is>
+          <t>procedural memory</t>
+        </is>
+      </c>
+      <c r="C224" s="3" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="D224" s="3" t="inlineStr">
+        <is>
+          <t>A memory process that deals with the receipt, storage, retrieval and modification of information regarding how to perform a complex activity without conscious awareness.</t>
+        </is>
+      </c>
+      <c r="E224" s="3" t="inlineStr"/>
+      <c r="F224" s="3" t="inlineStr"/>
+      <c r="G224" s="3" t="inlineStr"/>
+      <c r="H224" s="3" t="inlineStr"/>
+      <c r="I224" s="3" t="inlineStr"/>
+      <c r="J224" s="3" t="inlineStr"/>
+      <c r="K224" s="3" t="inlineStr"/>
+      <c r="L224" s="3" t="inlineStr"/>
+      <c r="M224" s="3" t="inlineStr"/>
+      <c r="N224" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O224" s="3" t="inlineStr"/>
+      <c r="P224" s="3" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050213</t>
+          <t>BCIO:050229</t>
         </is>
       </c>
       <c r="B225" s="2" t="inlineStr">
         <is>
-          <t>professional network</t>
+          <t>professional identity</t>
         </is>
       </c>
       <c r="C225" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> social environmental system</t>
+          <t>self-identity</t>
         </is>
       </c>
       <c r="D225" s="2" t="inlineStr">
         <is>
-          <t>A social environmental system that consists of persons who have shared interests relating to their occupational roles and are in contact or communication.</t>
+          <t>A self-identity that is associated with one's occupational role.</t>
         </is>
       </c>
       <c r="E225" s="2" t="inlineStr"/>
@@ -9639,73 +9643,69 @@
       <c r="P225" s="2" t="inlineStr"/>
     </row>
     <row r="226">
-      <c r="A226" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006062</t>
-        </is>
-      </c>
-      <c r="B226" s="3" t="inlineStr">
-        <is>
-          <t>promotion focused motivational orientation</t>
-        </is>
-      </c>
-      <c r="C226" s="3" t="inlineStr">
-        <is>
-          <t>motivational orientation towards types of outcomes</t>
-        </is>
-      </c>
-      <c r="D226" s="3" t="inlineStr">
-        <is>
-          <t>A mental disposition for motivation to be guided by a focus on the presence or absence of negative outcomes.</t>
-        </is>
-      </c>
-      <c r="E226" s="3" t="inlineStr"/>
-      <c r="F226" s="3" t="inlineStr"/>
-      <c r="G226" s="3" t="inlineStr"/>
-      <c r="H226" s="3" t="inlineStr"/>
-      <c r="I226" s="3" t="inlineStr"/>
-      <c r="J226" s="3" t="inlineStr"/>
-      <c r="K226" s="3" t="inlineStr"/>
-      <c r="L226" s="3" t="inlineStr"/>
-      <c r="M226" s="3" t="inlineStr"/>
-      <c r="N226" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O226" s="3" t="inlineStr"/>
-      <c r="P226" s="3" t="inlineStr"/>
+      <c r="A226" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050213</t>
+        </is>
+      </c>
+      <c r="B226" s="2" t="inlineStr">
+        <is>
+          <t>professional network</t>
+        </is>
+      </c>
+      <c r="C226" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> social environmental system</t>
+        </is>
+      </c>
+      <c r="D226" s="2" t="inlineStr">
+        <is>
+          <t>A social environmental system that consists of persons who have shared interests relating to their occupational roles and are in contact or communication.</t>
+        </is>
+      </c>
+      <c r="E226" s="2" t="inlineStr"/>
+      <c r="F226" s="2" t="inlineStr"/>
+      <c r="G226" s="2" t="inlineStr"/>
+      <c r="H226" s="2" t="inlineStr"/>
+      <c r="I226" s="2" t="inlineStr"/>
+      <c r="J226" s="2" t="inlineStr"/>
+      <c r="K226" s="2" t="inlineStr"/>
+      <c r="L226" s="2" t="inlineStr"/>
+      <c r="M226" s="2" t="inlineStr"/>
+      <c r="N226" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="O226" s="2" t="inlineStr"/>
+      <c r="P226" s="2" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006064</t>
+          <t>BCIO:006062</t>
         </is>
       </c>
       <c r="B227" s="3" t="inlineStr">
         <is>
-          <t>psychological need</t>
+          <t>promotion focused motivational orientation</t>
         </is>
       </c>
       <c r="C227" s="3" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>motivational orientation towards types of outcomes</t>
         </is>
       </c>
       <c r="D227" s="3" t="inlineStr">
         <is>
-          <t>A mental disposition of a person to act to obtain or maintain a particular state due to this state’s importance to the person’s wellbeing.</t>
+          <t>A mental disposition for motivation to be guided by a focus on the presence or absence of negative outcomes.</t>
         </is>
       </c>
       <c r="E227" s="3" t="inlineStr"/>
       <c r="F227" s="3" t="inlineStr"/>
       <c r="G227" s="3" t="inlineStr"/>
       <c r="H227" s="3" t="inlineStr"/>
-      <c r="I227" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Psychological needs can be satisfied or thwarted. </t>
-        </is>
-      </c>
+      <c r="I227" s="3" t="inlineStr"/>
       <c r="J227" s="3" t="inlineStr"/>
       <c r="K227" s="3" t="inlineStr"/>
       <c r="L227" s="3" t="inlineStr"/>
@@ -9719,242 +9719,246 @@
       <c r="P227" s="3" t="inlineStr"/>
     </row>
     <row r="228">
-      <c r="A228" t="inlineStr">
+      <c r="A228" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006064</t>
+        </is>
+      </c>
+      <c r="B228" s="3" t="inlineStr">
+        <is>
+          <t>psychological need</t>
+        </is>
+      </c>
+      <c r="C228" s="3" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="D228" s="3" t="inlineStr">
+        <is>
+          <t>A mental disposition of a person to act to obtain or maintain a particular state due to this state’s importance to the person’s wellbeing.</t>
+        </is>
+      </c>
+      <c r="E228" s="3" t="inlineStr"/>
+      <c r="F228" s="3" t="inlineStr"/>
+      <c r="G228" s="3" t="inlineStr"/>
+      <c r="H228" s="3" t="inlineStr"/>
+      <c r="I228" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Psychological needs can be satisfied or thwarted. </t>
+        </is>
+      </c>
+      <c r="J228" s="3" t="inlineStr"/>
+      <c r="K228" s="3" t="inlineStr"/>
+      <c r="L228" s="3" t="inlineStr"/>
+      <c r="M228" s="3" t="inlineStr"/>
+      <c r="N228" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O228" s="3" t="inlineStr"/>
+      <c r="P228" s="3" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
         <is>
           <t>PATO:0000001</t>
         </is>
       </c>
-      <c r="B228" t="inlineStr">
+      <c r="B229" t="inlineStr">
         <is>
           <t>quality</t>
         </is>
       </c>
-      <c r="C228" t="inlineStr">
+      <c r="C229" t="inlineStr">
         <is>
           <t>specifically dependent continuant</t>
         </is>
       </c>
-      <c r="D228" t="inlineStr">
+      <c r="D229" t="inlineStr">
         <is>
           <t>A dependent entity that inheres in a bearer by virtue of how the bearer is related to other entities.</t>
         </is>
       </c>
-      <c r="E228" t="inlineStr"/>
-      <c r="F228" t="inlineStr"/>
-      <c r="G228" t="inlineStr"/>
-      <c r="H228" t="inlineStr"/>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="inlineStr"/>
-      <c r="N228" t="inlineStr">
+      <c r="E229" t="inlineStr"/>
+      <c r="F229" t="inlineStr"/>
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr"/>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
+      <c r="M229" t="inlineStr"/>
+      <c r="N229" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="O228" t="inlineStr"/>
-      <c r="P228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="3" t="inlineStr">
+      <c r="O229" t="inlineStr"/>
+      <c r="P229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="3" t="inlineStr">
         <is>
           <t>BCIO:006112</t>
         </is>
       </c>
-      <c r="B229" s="3" t="inlineStr">
+      <c r="B230" s="3" t="inlineStr">
         <is>
           <t>reflective thinking</t>
         </is>
       </c>
-      <c r="C229" s="3" t="inlineStr">
+      <c r="C230" s="3" t="inlineStr">
         <is>
           <t>thinking</t>
         </is>
       </c>
-      <c r="D229" s="3" t="inlineStr">
+      <c r="D230" s="3" t="inlineStr">
         <is>
           <t>Thinking that involves the generation of inferences by reasoning based on one or more statements, evaluating anticipated consequences or considering the relationships between concepts.</t>
         </is>
       </c>
-      <c r="E229" s="3" t="inlineStr"/>
-      <c r="F229" s="3" t="inlineStr"/>
-      <c r="G229" s="3" t="inlineStr"/>
-      <c r="H229" s="3" t="inlineStr"/>
-      <c r="I229" s="3" t="inlineStr"/>
-      <c r="J229" s="3" t="inlineStr"/>
-      <c r="K229" s="3" t="inlineStr"/>
-      <c r="L229" s="3" t="inlineStr"/>
-      <c r="M229" s="3" t="inlineStr"/>
-      <c r="N229" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O229" s="3" t="inlineStr"/>
-      <c r="P229" s="3" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="2" t="inlineStr">
+      <c r="E230" s="3" t="inlineStr"/>
+      <c r="F230" s="3" t="inlineStr"/>
+      <c r="G230" s="3" t="inlineStr"/>
+      <c r="H230" s="3" t="inlineStr"/>
+      <c r="I230" s="3" t="inlineStr"/>
+      <c r="J230" s="3" t="inlineStr"/>
+      <c r="K230" s="3" t="inlineStr"/>
+      <c r="L230" s="3" t="inlineStr"/>
+      <c r="M230" s="3" t="inlineStr"/>
+      <c r="N230" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O230" s="3" t="inlineStr"/>
+      <c r="P230" s="3" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="inlineStr">
         <is>
           <t>BCIO:050232</t>
         </is>
       </c>
-      <c r="B230" s="2" t="inlineStr">
+      <c r="B231" s="2" t="inlineStr">
         <is>
           <t>regret</t>
         </is>
       </c>
-      <c r="C230" s="2" t="inlineStr">
+      <c r="C231" s="2" t="inlineStr">
         <is>
           <t>emotion process</t>
         </is>
       </c>
-      <c r="D230" s="2" t="inlineStr">
+      <c r="D231" s="2" t="inlineStr">
         <is>
           <t>A negative emotion that occurs when a person wishes they chose or acted differently in the past, due to the consequences of that choice or action being unfavourable.</t>
         </is>
       </c>
-      <c r="E230" s="2" t="inlineStr"/>
-      <c r="F230" s="2" t="inlineStr"/>
-      <c r="G230" s="2" t="inlineStr"/>
-      <c r="H230" s="2" t="inlineStr"/>
-      <c r="I230" s="2" t="inlineStr"/>
-      <c r="J230" s="2" t="inlineStr"/>
-      <c r="K230" s="2" t="inlineStr"/>
-      <c r="L230" s="2" t="inlineStr"/>
-      <c r="M230" s="2" t="inlineStr"/>
-      <c r="N230" s="2" t="inlineStr">
+      <c r="E231" s="2" t="inlineStr"/>
+      <c r="F231" s="2" t="inlineStr"/>
+      <c r="G231" s="2" t="inlineStr"/>
+      <c r="H231" s="2" t="inlineStr"/>
+      <c r="I231" s="2" t="inlineStr"/>
+      <c r="J231" s="2" t="inlineStr"/>
+      <c r="K231" s="2" t="inlineStr"/>
+      <c r="L231" s="2" t="inlineStr"/>
+      <c r="M231" s="2" t="inlineStr"/>
+      <c r="N231" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="O230" s="2" t="inlineStr"/>
-      <c r="P230" s="2" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
+      <c r="O231" s="2" t="inlineStr"/>
+      <c r="P231" s="2" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
         <is>
           <t>MF:0000030</t>
         </is>
       </c>
-      <c r="B231" t="inlineStr">
+      <c r="B232" t="inlineStr">
         <is>
           <t>representation</t>
         </is>
       </c>
-      <c r="C231" t="inlineStr">
+      <c r="C232" t="inlineStr">
         <is>
           <t>specifically dependent continuant</t>
         </is>
       </c>
-      <c r="D231" t="inlineStr">
+      <c r="D232" t="inlineStr">
         <is>
           <t>A dependent continuant which is about a portion of reality.</t>
         </is>
       </c>
-      <c r="E231" t="inlineStr"/>
-      <c r="F231" t="inlineStr"/>
-      <c r="G231" t="inlineStr"/>
-      <c r="H231" t="inlineStr"/>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="inlineStr"/>
-      <c r="N231" t="inlineStr">
+      <c r="E232" t="inlineStr"/>
+      <c r="F232" t="inlineStr"/>
+      <c r="G232" t="inlineStr"/>
+      <c r="H232" t="inlineStr"/>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="inlineStr"/>
+      <c r="N232" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="O231" t="inlineStr"/>
-      <c r="P231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="2" t="inlineStr">
+      <c r="O232" t="inlineStr"/>
+      <c r="P232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" s="2" t="inlineStr">
         <is>
           <t>BCIO:050266</t>
         </is>
       </c>
-      <c r="B232" s="2" t="inlineStr">
+      <c r="B233" s="2" t="inlineStr">
         <is>
           <t>ruminating</t>
         </is>
       </c>
-      <c r="C232" s="2" t="inlineStr">
+      <c r="C233" s="2" t="inlineStr">
         <is>
           <t>thinking</t>
         </is>
       </c>
-      <c r="D232" s="2" t="inlineStr">
+      <c r="D233" s="2" t="inlineStr">
         <is>
           <t>Thinking that is about negative experiences and feelings, and repeated.</t>
         </is>
       </c>
-      <c r="E232" s="2" t="inlineStr"/>
-      <c r="F232" s="2" t="inlineStr"/>
-      <c r="G232" s="2" t="inlineStr"/>
-      <c r="H232" s="2" t="inlineStr"/>
-      <c r="I232" s="2" t="inlineStr"/>
-      <c r="J232" s="2" t="inlineStr"/>
-      <c r="K232" s="2" t="inlineStr"/>
-      <c r="L232" s="2" t="inlineStr"/>
-      <c r="M232" s="2" t="inlineStr"/>
-      <c r="N232" s="2" t="inlineStr">
+      <c r="E233" s="2" t="inlineStr"/>
+      <c r="F233" s="2" t="inlineStr"/>
+      <c r="G233" s="2" t="inlineStr"/>
+      <c r="H233" s="2" t="inlineStr"/>
+      <c r="I233" s="2" t="inlineStr"/>
+      <c r="J233" s="2" t="inlineStr"/>
+      <c r="K233" s="2" t="inlineStr"/>
+      <c r="L233" s="2" t="inlineStr"/>
+      <c r="M233" s="2" t="inlineStr"/>
+      <c r="N233" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="O232" s="2" t="inlineStr"/>
-      <c r="P232" s="2" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MFOEM:000056 </t>
-        </is>
-      </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>sadness</t>
-        </is>
-      </c>
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>emotion process</t>
-        </is>
-      </c>
-      <c r="D233" t="inlineStr">
-        <is>
-          <t>A negative emotion felt when an event is appraised as unpleasant and resulting in loss or failure.</t>
-        </is>
-      </c>
-      <c r="E233" t="inlineStr"/>
-      <c r="F233" t="inlineStr"/>
-      <c r="G233" t="inlineStr"/>
-      <c r="H233" t="inlineStr"/>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="inlineStr"/>
-      <c r="N233" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="O233" t="inlineStr"/>
-      <c r="P233" t="inlineStr"/>
+      <c r="O233" s="2" t="inlineStr"/>
+      <c r="P233" s="2" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>MFOEM:000169</t>
+          <t xml:space="preserve">MFOEM:000056 </t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>satisfaction</t>
+          <t>sadness</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -9964,7 +9968,7 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>An emotion that is experienced when one's wishes, expectations or needs are fulfilled.</t>
+          <t>A negative emotion felt when an event is appraised as unpleasant and resulting in loss or failure.</t>
         </is>
       </c>
       <c r="E234" t="inlineStr"/>
@@ -9985,99 +9989,94 @@
       <c r="P234" t="inlineStr"/>
     </row>
     <row r="235">
-      <c r="A235" s="2" t="inlineStr">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>MFOEM:000169</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>satisfaction</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>emotion process</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>An emotion that is experienced when one's wishes, expectations or needs are fulfilled.</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr"/>
+      <c r="F235" t="inlineStr"/>
+      <c r="G235" t="inlineStr"/>
+      <c r="H235" t="inlineStr"/>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" t="inlineStr"/>
+      <c r="N235" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="O235" t="inlineStr"/>
+      <c r="P235" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="inlineStr">
         <is>
           <t>BCIO:050236</t>
         </is>
       </c>
-      <c r="B235" s="2" t="inlineStr">
+      <c r="B236" s="2" t="inlineStr">
         <is>
           <t>self-binding</t>
         </is>
       </c>
-      <c r="C235" s="2" t="inlineStr">
+      <c r="C236" s="2" t="inlineStr">
         <is>
           <t>mental process</t>
         </is>
       </c>
-      <c r="D235" s="2" t="inlineStr">
+      <c r="D236" s="2" t="inlineStr">
         <is>
           <t>A mental process that involves creating adverse consequences for oneself if one does not stick to an intended course of action.</t>
         </is>
       </c>
-      <c r="E235" s="2" t="inlineStr"/>
-      <c r="F235" s="2" t="inlineStr"/>
-      <c r="G235" s="2" t="inlineStr">
+      <c r="E236" s="2" t="inlineStr"/>
+      <c r="F236" s="2" t="inlineStr"/>
+      <c r="G236" s="2" t="inlineStr">
         <is>
           <t>Pre-commitment</t>
         </is>
       </c>
-      <c r="H235" s="2" t="inlineStr"/>
-      <c r="I235" s="2" t="inlineStr"/>
-      <c r="J235" s="2" t="inlineStr"/>
-      <c r="K235" s="2" t="inlineStr"/>
-      <c r="L235" s="2" t="inlineStr"/>
-      <c r="M235" s="2" t="inlineStr"/>
-      <c r="N235" s="2" t="inlineStr">
+      <c r="H236" s="2" t="inlineStr"/>
+      <c r="I236" s="2" t="inlineStr"/>
+      <c r="J236" s="2" t="inlineStr"/>
+      <c r="K236" s="2" t="inlineStr"/>
+      <c r="L236" s="2" t="inlineStr"/>
+      <c r="M236" s="2" t="inlineStr"/>
+      <c r="N236" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="O235" s="2" t="inlineStr"/>
-      <c r="P235" s="2" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006154</t>
-        </is>
-      </c>
-      <c r="B236" s="3" t="inlineStr">
-        <is>
-          <t>self-efficacy belief for a behaviour</t>
-        </is>
-      </c>
-      <c r="C236" s="3" t="inlineStr">
-        <is>
-          <t>belief</t>
-        </is>
-      </c>
-      <c r="D236" s="3" t="inlineStr">
-        <is>
-          <t>A belief about one's capabilities to organise and execute a behaviour.</t>
-        </is>
-      </c>
-      <c r="E236" s="3" t="inlineStr"/>
-      <c r="F236" s="3" t="inlineStr"/>
-      <c r="G236" s="3" t="inlineStr"/>
-      <c r="H236" s="3" t="inlineStr"/>
-      <c r="I236" s="3" t="inlineStr">
-        <is>
-          <t>The phrase 'to organise' refers to the ability to organise mental processes and sequences of actions.
-'self-efficacy belief for a behaviour' is part of 'self-efficacy belief for a behaviour and its associated outcomes'. However, the latter also includes a belief about the outcomes associated with behaviour.</t>
-        </is>
-      </c>
-      <c r="J236" s="3" t="inlineStr"/>
-      <c r="K236" s="3" t="inlineStr"/>
-      <c r="L236" s="3" t="inlineStr"/>
-      <c r="M236" s="3" t="inlineStr"/>
-      <c r="N236" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O236" s="3" t="inlineStr"/>
-      <c r="P236" s="3" t="inlineStr"/>
+      <c r="O236" s="2" t="inlineStr"/>
+      <c r="P236" s="2" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006043</t>
+          <t>BCIO:006154</t>
         </is>
       </c>
       <c r="B237" s="3" t="inlineStr">
         <is>
-          <t>self-efficacy belief for a behaviour and its associated outcomes</t>
+          <t>self-efficacy belief for a behaviour</t>
         </is>
       </c>
       <c r="C237" s="3" t="inlineStr">
@@ -10087,7 +10086,7 @@
       </c>
       <c r="D237" s="3" t="inlineStr">
         <is>
-          <t>A belief about one's capabilities to organise and execute a behaviour and achieve the outcomes associated with this behaviour.</t>
+          <t>A belief about one's capabilities to organise and execute a behaviour.</t>
         </is>
       </c>
       <c r="E237" s="3" t="inlineStr"/>
@@ -10101,11 +10100,7 @@
         </is>
       </c>
       <c r="J237" s="3" t="inlineStr"/>
-      <c r="K237" s="3" t="inlineStr">
-        <is>
-          <t>self-efficacy belief for a behaviour</t>
-        </is>
-      </c>
+      <c r="K237" s="3" t="inlineStr"/>
       <c r="L237" s="3" t="inlineStr"/>
       <c r="M237" s="3" t="inlineStr"/>
       <c r="N237" s="3" t="inlineStr">
@@ -10119,31 +10114,40 @@
     <row r="238">
       <c r="A238" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006050</t>
+          <t>BCIO:006043</t>
         </is>
       </c>
       <c r="B238" s="3" t="inlineStr">
         <is>
-          <t>self-identity</t>
+          <t>self-efficacy belief for a behaviour and its associated outcomes</t>
         </is>
       </c>
       <c r="C238" s="3" t="inlineStr">
         <is>
-          <t>cognitive representation</t>
+          <t>belief</t>
         </is>
       </c>
       <c r="D238" s="3" t="inlineStr">
         <is>
-          <t>A cognitive representation that a person has about themselves.</t>
+          <t>A belief about one's capabilities to organise and execute a behaviour and achieve the outcomes associated with this behaviour.</t>
         </is>
       </c>
       <c r="E238" s="3" t="inlineStr"/>
       <c r="F238" s="3" t="inlineStr"/>
       <c r="G238" s="3" t="inlineStr"/>
       <c r="H238" s="3" t="inlineStr"/>
-      <c r="I238" s="3" t="inlineStr"/>
+      <c r="I238" s="3" t="inlineStr">
+        <is>
+          <t>The phrase 'to organise' refers to the ability to organise mental processes and sequences of actions.
+'self-efficacy belief for a behaviour' is part of 'self-efficacy belief for a behaviour and its associated outcomes'. However, the latter also includes a belief about the outcomes associated with behaviour.</t>
+        </is>
+      </c>
       <c r="J238" s="3" t="inlineStr"/>
-      <c r="K238" s="3" t="inlineStr"/>
+      <c r="K238" s="3" t="inlineStr">
+        <is>
+          <t>self-efficacy belief for a behaviour</t>
+        </is>
+      </c>
       <c r="L238" s="3" t="inlineStr"/>
       <c r="M238" s="3" t="inlineStr"/>
       <c r="N238" s="3" t="inlineStr">
@@ -10157,35 +10161,29 @@
     <row r="239">
       <c r="A239" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006137</t>
+          <t>BCIO:006050</t>
         </is>
       </c>
       <c r="B239" s="3" t="inlineStr">
         <is>
-          <t>self-monitoring</t>
+          <t>self-identity</t>
         </is>
       </c>
       <c r="C239" s="3" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>cognitive representation</t>
         </is>
       </c>
       <c r="D239" s="3" t="inlineStr">
         <is>
-          <t>A mental process in which one observes one's own behaviour or mental processes.</t>
+          <t>A cognitive representation that a person has about themselves.</t>
         </is>
       </c>
       <c r="E239" s="3" t="inlineStr"/>
       <c r="F239" s="3" t="inlineStr"/>
       <c r="G239" s="3" t="inlineStr"/>
       <c r="H239" s="3" t="inlineStr"/>
-      <c r="I239" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">There are behaviour change techniques labelled 'Self-monitoring of behaviour' and 'Self-monitoring of outcome of behaviour'. These are about establishing a method for monitoring states. In contrast, the MoA is the mental process of monitoring.
-'Self-monitoring of behaviour' is defined as 'Instruct self recording of specified behaviour/s (with or without associated thoughts, emotions, situations) as part of a behaviour change strategy ' (Michie et al., 2013).
-'Self-monitoring of outcome of behaviour' is defined "Establish a method for the person to monitor and record their behavior(s) as part of a behavior change strategy"  (Michie et al., 2013). </t>
-        </is>
-      </c>
+      <c r="I239" s="3" t="inlineStr"/>
       <c r="J239" s="3" t="inlineStr"/>
       <c r="K239" s="3" t="inlineStr"/>
       <c r="L239" s="3" t="inlineStr"/>
@@ -10201,22 +10199,22 @@
     <row r="240">
       <c r="A240" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006005</t>
+          <t>BCIO:006137</t>
         </is>
       </c>
       <c r="B240" s="3" t="inlineStr">
         <is>
-          <t>self-regulation capability</t>
+          <t>self-monitoring</t>
         </is>
       </c>
       <c r="C240" s="3" t="inlineStr">
         <is>
-          <t>mental capability</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D240" s="3" t="inlineStr">
         <is>
-          <t>A mental capability that involves processes that modulate the frequency, rate or extent of a response to external or internal stimuli and that are instigated by the person themselves.</t>
+          <t>A mental process in which one observes one's own behaviour or mental processes.</t>
         </is>
       </c>
       <c r="E240" s="3" t="inlineStr"/>
@@ -10225,7 +10223,9 @@
       <c r="H240" s="3" t="inlineStr"/>
       <c r="I240" s="3" t="inlineStr">
         <is>
-          <t>'Modulate’ refers to ‘modifying or controlling influence on or change the strength’ and involves processes</t>
+          <t xml:space="preserve">There are behaviour change techniques labelled 'Self-monitoring of behaviour' and 'Self-monitoring of outcome of behaviour'. These are about establishing a method for monitoring states. In contrast, the MoA is the mental process of monitoring.
+'Self-monitoring of behaviour' is defined as 'Instruct self recording of specified behaviour/s (with or without associated thoughts, emotions, situations) as part of a behaviour change strategy ' (Michie et al., 2013).
+'Self-monitoring of outcome of behaviour' is defined "Establish a method for the person to monitor and record their behavior(s) as part of a behavior change strategy"  (Michie et al., 2013). </t>
         </is>
       </c>
       <c r="J240" s="3" t="inlineStr"/>
@@ -10243,29 +10243,33 @@
     <row r="241">
       <c r="A241" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006103</t>
+          <t>BCIO:006005</t>
         </is>
       </c>
       <c r="B241" s="3" t="inlineStr">
         <is>
-          <t>self-regulation of behaviour</t>
+          <t>self-regulation capability</t>
         </is>
       </c>
       <c r="C241" s="3" t="inlineStr">
         <is>
-          <t>self-regulation process</t>
+          <t>mental capability</t>
         </is>
       </c>
       <c r="D241" s="3" t="inlineStr">
         <is>
-          <t>A self-regulation process that modulates the frequency, rate or extent of one's  performance of a behaviour.</t>
+          <t>A mental capability that involves processes that modulate the frequency, rate or extent of a response to external or internal stimuli and that are instigated by the person themselves.</t>
         </is>
       </c>
       <c r="E241" s="3" t="inlineStr"/>
       <c r="F241" s="3" t="inlineStr"/>
       <c r="G241" s="3" t="inlineStr"/>
       <c r="H241" s="3" t="inlineStr"/>
-      <c r="I241" s="3" t="inlineStr"/>
+      <c r="I241" s="3" t="inlineStr">
+        <is>
+          <t>'Modulate’ refers to ‘modifying or controlling influence on or change the strength’ and involves processes</t>
+        </is>
+      </c>
       <c r="J241" s="3" t="inlineStr"/>
       <c r="K241" s="3" t="inlineStr"/>
       <c r="L241" s="3" t="inlineStr"/>
@@ -10279,62 +10283,62 @@
       <c r="P241" s="3" t="inlineStr"/>
     </row>
     <row r="242">
-      <c r="A242" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050268</t>
-        </is>
-      </c>
-      <c r="B242" s="2" t="inlineStr">
+      <c r="A242" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006103</t>
+        </is>
+      </c>
+      <c r="B242" s="3" t="inlineStr">
+        <is>
+          <t>self-regulation of behaviour</t>
+        </is>
+      </c>
+      <c r="C242" s="3" t="inlineStr">
         <is>
           <t>self-regulation process</t>
         </is>
       </c>
-      <c r="C242" s="2" t="inlineStr">
-        <is>
-          <t>bodily process</t>
-        </is>
-      </c>
-      <c r="D242" s="2" t="inlineStr">
-        <is>
-          <t>A bodily process that modulates the frequency, rate or extent of a response to external or internal stimuli and that is instigated by the person.</t>
-        </is>
-      </c>
-      <c r="E242" s="2" t="inlineStr"/>
-      <c r="F242" s="2" t="inlineStr"/>
-      <c r="G242" s="2" t="inlineStr"/>
-      <c r="H242" s="2" t="inlineStr"/>
-      <c r="I242" s="2" t="inlineStr"/>
-      <c r="J242" s="2" t="inlineStr"/>
-      <c r="K242" s="2" t="inlineStr"/>
-      <c r="L242" s="2" t="inlineStr"/>
-      <c r="M242" s="2" t="inlineStr"/>
-      <c r="N242" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="O242" s="2" t="inlineStr"/>
-      <c r="P242" s="2" t="inlineStr"/>
+      <c r="D242" s="3" t="inlineStr">
+        <is>
+          <t>A self-regulation process that modulates the frequency, rate or extent of one's  performance of a behaviour.</t>
+        </is>
+      </c>
+      <c r="E242" s="3" t="inlineStr"/>
+      <c r="F242" s="3" t="inlineStr"/>
+      <c r="G242" s="3" t="inlineStr"/>
+      <c r="H242" s="3" t="inlineStr"/>
+      <c r="I242" s="3" t="inlineStr"/>
+      <c r="J242" s="3" t="inlineStr"/>
+      <c r="K242" s="3" t="inlineStr"/>
+      <c r="L242" s="3" t="inlineStr"/>
+      <c r="M242" s="3" t="inlineStr"/>
+      <c r="N242" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O242" s="3" t="inlineStr"/>
+      <c r="P242" s="3" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050222</t>
+          <t>BCIO:050268</t>
         </is>
       </c>
       <c r="B243" s="2" t="inlineStr">
         <is>
-          <t>self-regulatory skill</t>
+          <t>self-regulation process</t>
         </is>
       </c>
       <c r="C243" s="2" t="inlineStr">
         <is>
-          <t>self-regulation capability</t>
+          <t>bodily process</t>
         </is>
       </c>
       <c r="D243" s="2" t="inlineStr">
         <is>
-          <t>A self-regulation capability that is acquired through training or practice.</t>
+          <t>A bodily process that modulates the frequency, rate or extent of a response to external or internal stimuli and that is instigated by the person.</t>
         </is>
       </c>
       <c r="E243" s="2" t="inlineStr"/>
@@ -10355,70 +10359,70 @@
       <c r="P243" s="2" t="inlineStr"/>
     </row>
     <row r="244">
-      <c r="A244" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006106</t>
-        </is>
-      </c>
-      <c r="B244" s="3" t="inlineStr">
-        <is>
-          <t>self-reinforcing self-regulation</t>
-        </is>
-      </c>
-      <c r="C244" s="3" t="inlineStr">
-        <is>
-          <t>self-regulation of behaviour</t>
-        </is>
-      </c>
-      <c r="D244" s="3" t="inlineStr">
-        <is>
-          <t>Self-regulation of behaviour through self-administering a reward for performing an intended behaviour.</t>
-        </is>
-      </c>
-      <c r="E244" s="3" t="inlineStr"/>
-      <c r="F244" s="3" t="inlineStr">
-        <is>
-          <t>A bodily process that modulates the frequency, rate or extent of behaviour through self-administering a reward for performing an intended behaviour.</t>
-        </is>
-      </c>
-      <c r="G244" s="3" t="inlineStr"/>
-      <c r="H244" s="3" t="inlineStr"/>
-      <c r="I244" s="3" t="inlineStr"/>
-      <c r="J244" s="3" t="inlineStr"/>
-      <c r="K244" s="3" t="inlineStr"/>
-      <c r="L244" s="3" t="inlineStr"/>
-      <c r="M244" s="3" t="inlineStr"/>
-      <c r="N244" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O244" s="3" t="inlineStr"/>
-      <c r="P244" s="3" t="inlineStr"/>
+      <c r="A244" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050222</t>
+        </is>
+      </c>
+      <c r="B244" s="2" t="inlineStr">
+        <is>
+          <t>self-regulatory skill</t>
+        </is>
+      </c>
+      <c r="C244" s="2" t="inlineStr">
+        <is>
+          <t>self-regulation capability</t>
+        </is>
+      </c>
+      <c r="D244" s="2" t="inlineStr">
+        <is>
+          <t>A self-regulation capability that is acquired through training or practice.</t>
+        </is>
+      </c>
+      <c r="E244" s="2" t="inlineStr"/>
+      <c r="F244" s="2" t="inlineStr"/>
+      <c r="G244" s="2" t="inlineStr"/>
+      <c r="H244" s="2" t="inlineStr"/>
+      <c r="I244" s="2" t="inlineStr"/>
+      <c r="J244" s="2" t="inlineStr"/>
+      <c r="K244" s="2" t="inlineStr"/>
+      <c r="L244" s="2" t="inlineStr"/>
+      <c r="M244" s="2" t="inlineStr"/>
+      <c r="N244" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="O244" s="2" t="inlineStr"/>
+      <c r="P244" s="2" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006128</t>
+          <t>BCIO:006106</t>
         </is>
       </c>
       <c r="B245" s="3" t="inlineStr">
         <is>
-          <t>semantic memory</t>
+          <t>self-reinforcing self-regulation</t>
         </is>
       </c>
       <c r="C245" s="3" t="inlineStr">
         <is>
-          <t>memory</t>
+          <t>self-regulation of behaviour</t>
         </is>
       </c>
       <c r="D245" s="3" t="inlineStr">
         <is>
-          <t>A memory process that deals with the receipt, storage, retrieval and modification of information associated with meanings, understandings or conceptual facts about the world.</t>
+          <t>Self-regulation of behaviour through self-administering a reward for performing an intended behaviour.</t>
         </is>
       </c>
       <c r="E245" s="3" t="inlineStr"/>
-      <c r="F245" s="3" t="inlineStr"/>
+      <c r="F245" s="3" t="inlineStr">
+        <is>
+          <t>A bodily process that modulates the frequency, rate or extent of behaviour through self-administering a reward for performing an intended behaviour.</t>
+        </is>
+      </c>
       <c r="G245" s="3" t="inlineStr"/>
       <c r="H245" s="3" t="inlineStr"/>
       <c r="I245" s="3" t="inlineStr"/>
@@ -10435,62 +10439,62 @@
       <c r="P245" s="3" t="inlineStr"/>
     </row>
     <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t>GO:0046960</t>
-        </is>
-      </c>
-      <c r="B246" t="inlineStr">
-        <is>
-          <t>sensitization</t>
-        </is>
-      </c>
-      <c r="C246" t="inlineStr">
-        <is>
-          <t>non-associative learning</t>
-        </is>
-      </c>
-      <c r="D246" t="inlineStr">
-        <is>
-          <t>An increase in a behavioural response to a repeated stimulus.</t>
-        </is>
-      </c>
-      <c r="E246" t="inlineStr"/>
-      <c r="F246" t="inlineStr"/>
-      <c r="G246" t="inlineStr"/>
-      <c r="H246" t="inlineStr"/>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
-      <c r="M246" t="inlineStr"/>
-      <c r="N246" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="O246" t="inlineStr"/>
-      <c r="P246" t="inlineStr"/>
+      <c r="A246" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006128</t>
+        </is>
+      </c>
+      <c r="B246" s="3" t="inlineStr">
+        <is>
+          <t>semantic memory</t>
+        </is>
+      </c>
+      <c r="C246" s="3" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="D246" s="3" t="inlineStr">
+        <is>
+          <t>A memory process that deals with the receipt, storage, retrieval and modification of information associated with meanings, understandings or conceptual facts about the world.</t>
+        </is>
+      </c>
+      <c r="E246" s="3" t="inlineStr"/>
+      <c r="F246" s="3" t="inlineStr"/>
+      <c r="G246" s="3" t="inlineStr"/>
+      <c r="H246" s="3" t="inlineStr"/>
+      <c r="I246" s="3" t="inlineStr"/>
+      <c r="J246" s="3" t="inlineStr"/>
+      <c r="K246" s="3" t="inlineStr"/>
+      <c r="L246" s="3" t="inlineStr"/>
+      <c r="M246" s="3" t="inlineStr"/>
+      <c r="N246" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O246" s="3" t="inlineStr"/>
+      <c r="P246" s="3" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>MFOEM:000040</t>
+          <t>GO:0046960</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>sexual pleasure</t>
+          <t>sensitization</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>pleasure</t>
+          <t>non-associative learning</t>
         </is>
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>Pleasure that is experienced as a result of sexual activities.</t>
+          <t>An increase in a behavioural response to a repeated stimulus.</t>
         </is>
       </c>
       <c r="E247" t="inlineStr"/>
@@ -10513,22 +10517,22 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>MFOEM:000055</t>
+          <t>MFOEM:000040</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>shame</t>
+          <t>sexual pleasure</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>emotion process</t>
+          <t>pleasure</t>
         </is>
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>A negative emotion that is distressing and occurs when one appraises one's behaviour or circumstance as wrong, dishonourable, immodest or indecorous.</t>
+          <t>Pleasure that is experienced as a result of sexual activities.</t>
         </is>
       </c>
       <c r="E248" t="inlineStr"/>
@@ -10549,73 +10553,73 @@
       <c r="P248" t="inlineStr"/>
     </row>
     <row r="249">
-      <c r="A249" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006044</t>
-        </is>
-      </c>
-      <c r="B249" s="3" t="inlineStr">
-        <is>
-          <t>situational self-efficacy belief for a behaviour</t>
-        </is>
-      </c>
-      <c r="C249" s="3" t="inlineStr">
-        <is>
-          <t>self-efficacy belief for a behaviour</t>
-        </is>
-      </c>
-      <c r="D249" s="3" t="inlineStr">
-        <is>
-          <t>Self-efficacy belief for a behaviour when a barrier or facilitator of the behaviour is encountered.</t>
-        </is>
-      </c>
-      <c r="E249" s="3" t="inlineStr"/>
-      <c r="F249" s="3" t="inlineStr"/>
-      <c r="G249" s="3" t="inlineStr"/>
-      <c r="H249" s="3" t="inlineStr"/>
-      <c r="I249" s="3" t="inlineStr">
-        <is>
-          <t>The 'barrier or facilitator' specified in the definition can be external or internal.</t>
-        </is>
-      </c>
-      <c r="J249" s="3" t="inlineStr"/>
-      <c r="K249" s="3" t="inlineStr"/>
-      <c r="L249" s="3" t="inlineStr"/>
-      <c r="M249" s="3" t="inlineStr"/>
-      <c r="N249" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O249" s="3" t="inlineStr"/>
-      <c r="P249" s="3" t="inlineStr"/>
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>MFOEM:000055</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>shame</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>emotion process</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>A negative emotion that is distressing and occurs when one appraises one's behaviour or circumstance as wrong, dishonourable, immodest or indecorous.</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr"/>
+      <c r="F249" t="inlineStr"/>
+      <c r="G249" t="inlineStr"/>
+      <c r="H249" t="inlineStr"/>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr"/>
+      <c r="M249" t="inlineStr"/>
+      <c r="N249" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="O249" t="inlineStr"/>
+      <c r="P249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006014</t>
+          <t>BCIO:006044</t>
         </is>
       </c>
       <c r="B250" s="3" t="inlineStr">
         <is>
-          <t>social alienation</t>
+          <t>situational self-efficacy belief for a behaviour</t>
         </is>
       </c>
       <c r="C250" s="3" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>self-efficacy belief for a behaviour</t>
         </is>
       </c>
       <c r="D250" s="3" t="inlineStr">
         <is>
-          <t>A mental disposition to perceive or experience oneself as isolated from and not meaningfully involved in social groups.</t>
+          <t>Self-efficacy belief for a behaviour when a barrier or facilitator of the behaviour is encountered.</t>
         </is>
       </c>
       <c r="E250" s="3" t="inlineStr"/>
       <c r="F250" s="3" t="inlineStr"/>
       <c r="G250" s="3" t="inlineStr"/>
       <c r="H250" s="3" t="inlineStr"/>
-      <c r="I250" s="3" t="inlineStr"/>
+      <c r="I250" s="3" t="inlineStr">
+        <is>
+          <t>The 'barrier or facilitator' specified in the definition can be external or internal.</t>
+        </is>
+      </c>
       <c r="J250" s="3" t="inlineStr"/>
       <c r="K250" s="3" t="inlineStr"/>
       <c r="L250" s="3" t="inlineStr"/>
@@ -10631,22 +10635,22 @@
     <row r="251">
       <c r="A251" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006011</t>
+          <t>BCIO:006014</t>
         </is>
       </c>
       <c r="B251" s="3" t="inlineStr">
         <is>
-          <t>social behavioural capability</t>
+          <t>social alienation</t>
         </is>
       </c>
       <c r="C251" s="3" t="inlineStr">
         <is>
-          <t>behavioural capability</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D251" s="3" t="inlineStr">
         <is>
-          <t>A personal capability includes interpersonal behaviour in its realisation.</t>
+          <t>A mental disposition to perceive or experience oneself as isolated from and not meaningfully involved in social groups.</t>
         </is>
       </c>
       <c r="E251" s="3" t="inlineStr"/>
@@ -10669,30 +10673,26 @@
     <row r="252">
       <c r="A252" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006090</t>
+          <t>BCIO:006011</t>
         </is>
       </c>
       <c r="B252" s="3" t="inlineStr">
         <is>
-          <t>social behavioural opportunity</t>
+          <t>social behavioural capability</t>
         </is>
       </c>
       <c r="C252" s="3" t="inlineStr">
         <is>
-          <t>behavioural opportunity</t>
+          <t>behavioural capability</t>
         </is>
       </c>
       <c r="D252" s="3" t="inlineStr">
         <is>
-          <t>A behavioural opportunity that involves the social environmental system.</t>
+          <t>A personal capability includes interpersonal behaviour in its realisation.</t>
         </is>
       </c>
       <c r="E252" s="3" t="inlineStr"/>
-      <c r="F252" s="3" t="inlineStr">
-        <is>
-          <t>Properties of a person's environment relating to the social world they inhabit, including the rules and norms that are operating and social cues.</t>
-        </is>
-      </c>
+      <c r="F252" s="3" t="inlineStr"/>
       <c r="G252" s="3" t="inlineStr"/>
       <c r="H252" s="3" t="inlineStr"/>
       <c r="I252" s="3" t="inlineStr"/>
@@ -10711,26 +10711,30 @@
     <row r="253">
       <c r="A253" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006118</t>
+          <t>BCIO:006090</t>
         </is>
       </c>
       <c r="B253" s="3" t="inlineStr">
         <is>
-          <t>social comparison process</t>
+          <t>social behavioural opportunity</t>
         </is>
       </c>
       <c r="C253" s="3" t="inlineStr">
         <is>
-          <t>judging</t>
+          <t>behavioural opportunity</t>
         </is>
       </c>
       <c r="D253" s="3" t="inlineStr">
         <is>
-          <t>Judging oneself or one's social group in relation to the qualities or characteristics of another person or social group.</t>
+          <t>A behavioural opportunity that involves the social environmental system.</t>
         </is>
       </c>
       <c r="E253" s="3" t="inlineStr"/>
-      <c r="F253" s="3" t="inlineStr"/>
+      <c r="F253" s="3" t="inlineStr">
+        <is>
+          <t>Properties of a person's environment relating to the social world they inhabit, including the rules and norms that are operating and social cues.</t>
+        </is>
+      </c>
       <c r="G253" s="3" t="inlineStr"/>
       <c r="H253" s="3" t="inlineStr"/>
       <c r="I253" s="3" t="inlineStr"/>
@@ -10749,22 +10753,22 @@
     <row r="254">
       <c r="A254" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006074</t>
+          <t>BCIO:006118</t>
         </is>
       </c>
       <c r="B254" s="3" t="inlineStr">
         <is>
-          <t>social embeddedness</t>
+          <t>social comparison process</t>
         </is>
       </c>
       <c r="C254" s="3" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>judging</t>
         </is>
       </c>
       <c r="D254" s="3" t="inlineStr">
         <is>
-          <t>A mental disposition to experience a feeling of being connected by social attachments.</t>
+          <t>Judging oneself or one's social group in relation to the qualities or characteristics of another person or social group.</t>
         </is>
       </c>
       <c r="E254" s="3" t="inlineStr"/>
@@ -10787,22 +10791,22 @@
     <row r="255">
       <c r="A255" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006001</t>
+          <t>BCIO:006074</t>
         </is>
       </c>
       <c r="B255" s="3" t="inlineStr">
         <is>
-          <t>social environmental system</t>
+          <t>social embeddedness</t>
         </is>
       </c>
       <c r="C255" s="3" t="inlineStr">
         <is>
-          <t>environmental system</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D255" s="3" t="inlineStr">
         <is>
-          <t>An environmental system that consists of people, their pets, social and cultural institutions and processes that influence the life of people and social groups.</t>
+          <t>A mental disposition to experience a feeling of being connected by social attachments.</t>
         </is>
       </c>
       <c r="E255" s="3" t="inlineStr"/>
@@ -10825,33 +10829,29 @@
     <row r="256">
       <c r="A256" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006051</t>
+          <t>BCIO:006001</t>
         </is>
       </c>
       <c r="B256" s="3" t="inlineStr">
         <is>
-          <t>social identity</t>
+          <t>social environmental system</t>
         </is>
       </c>
       <c r="C256" s="3" t="inlineStr">
         <is>
-          <t>self-identity</t>
+          <t>environmental system</t>
         </is>
       </c>
       <c r="D256" s="3" t="inlineStr">
         <is>
-          <t>A self-identity in which the representation involves a relation between the identity holder and another person or group.</t>
+          <t>An environmental system that consists of people, their pets, social and cultural institutions and processes that influence the life of people and social groups.</t>
         </is>
       </c>
       <c r="E256" s="3" t="inlineStr"/>
       <c r="F256" s="3" t="inlineStr"/>
       <c r="G256" s="3" t="inlineStr"/>
       <c r="H256" s="3" t="inlineStr"/>
-      <c r="I256" s="3" t="inlineStr">
-        <is>
-          <t>'Social identity' can involve a sense of one's rank or status in reference to other groups.</t>
-        </is>
-      </c>
+      <c r="I256" s="3" t="inlineStr"/>
       <c r="J256" s="3" t="inlineStr"/>
       <c r="K256" s="3" t="inlineStr"/>
       <c r="L256" s="3" t="inlineStr"/>
@@ -10867,33 +10867,33 @@
     <row r="257">
       <c r="A257" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006099</t>
+          <t>BCIO:006051</t>
         </is>
       </c>
       <c r="B257" s="3" t="inlineStr">
         <is>
-          <t>social influence behaviour</t>
+          <t>social identity</t>
         </is>
       </c>
       <c r="C257" s="3" t="inlineStr">
         <is>
-          <t>inter-personal behaviour</t>
+          <t>self-identity</t>
         </is>
       </c>
       <c r="D257" s="3" t="inlineStr">
         <is>
-          <t>An inter-personal behaviour where a person exerts an influence on the behaviour of another.</t>
+          <t>A self-identity in which the representation involves a relation between the identity holder and another person or group.</t>
         </is>
       </c>
       <c r="E257" s="3" t="inlineStr"/>
       <c r="F257" s="3" t="inlineStr"/>
       <c r="G257" s="3" t="inlineStr"/>
-      <c r="H257" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Social support from social network. </t>
-        </is>
-      </c>
-      <c r="I257" s="3" t="inlineStr"/>
+      <c r="H257" s="3" t="inlineStr"/>
+      <c r="I257" s="3" t="inlineStr">
+        <is>
+          <t>'Social identity' can involve a sense of one's rank or status in reference to other groups.</t>
+        </is>
+      </c>
       <c r="J257" s="3" t="inlineStr"/>
       <c r="K257" s="3" t="inlineStr"/>
       <c r="L257" s="3" t="inlineStr"/>
@@ -10909,33 +10909,33 @@
     <row r="258">
       <c r="A258" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006082</t>
+          <t>BCIO:006099</t>
         </is>
       </c>
       <c r="B258" s="3" t="inlineStr">
         <is>
-          <t>social role</t>
+          <t>social influence behaviour</t>
         </is>
       </c>
       <c r="C258" s="3" t="inlineStr">
         <is>
-          <t>personal role</t>
+          <t>inter-personal behaviour</t>
         </is>
       </c>
       <c r="D258" s="3" t="inlineStr">
         <is>
-          <t>A personal role that is realised in human social processes.</t>
+          <t>An inter-personal behaviour where a person exerts an influence on the behaviour of another.</t>
         </is>
       </c>
       <c r="E258" s="3" t="inlineStr"/>
       <c r="F258" s="3" t="inlineStr"/>
       <c r="G258" s="3" t="inlineStr"/>
-      <c r="H258" s="3" t="inlineStr"/>
-      <c r="I258" s="3" t="inlineStr">
-        <is>
-          <t>A role can be assigned without being realised. A person realises a role by doing something.</t>
-        </is>
-      </c>
+      <c r="H258" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Social support from social network. </t>
+        </is>
+      </c>
+      <c r="I258" s="3" t="inlineStr"/>
       <c r="J258" s="3" t="inlineStr"/>
       <c r="K258" s="3" t="inlineStr"/>
       <c r="L258" s="3" t="inlineStr"/>
@@ -10951,29 +10951,33 @@
     <row r="259">
       <c r="A259" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006012</t>
+          <t>BCIO:006082</t>
         </is>
       </c>
       <c r="B259" s="3" t="inlineStr">
         <is>
-          <t>social skill</t>
+          <t>social role</t>
         </is>
       </c>
       <c r="C259" s="3" t="inlineStr">
         <is>
-          <t>social behavioural capability</t>
+          <t>personal role</t>
         </is>
       </c>
       <c r="D259" s="3" t="inlineStr">
         <is>
-          <t>A social capability acquired through training or practice.</t>
+          <t>A personal role that is realised in human social processes.</t>
         </is>
       </c>
       <c r="E259" s="3" t="inlineStr"/>
       <c r="F259" s="3" t="inlineStr"/>
       <c r="G259" s="3" t="inlineStr"/>
       <c r="H259" s="3" t="inlineStr"/>
-      <c r="I259" s="3" t="inlineStr"/>
+      <c r="I259" s="3" t="inlineStr">
+        <is>
+          <t>A role can be assigned without being realised. A person realises a role by doing something.</t>
+        </is>
+      </c>
       <c r="J259" s="3" t="inlineStr"/>
       <c r="K259" s="3" t="inlineStr"/>
       <c r="L259" s="3" t="inlineStr"/>
@@ -10989,33 +10993,29 @@
     <row r="260">
       <c r="A260" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006072</t>
+          <t>BCIO:006012</t>
         </is>
       </c>
       <c r="B260" s="3" t="inlineStr">
         <is>
-          <t>stereotype</t>
+          <t>social skill</t>
         </is>
       </c>
       <c r="C260" s="3" t="inlineStr">
         <is>
-          <t>cognitive schema</t>
+          <t>social behavioural capability</t>
         </is>
       </c>
       <c r="D260" s="3" t="inlineStr">
         <is>
-          <t>A cognitive schema that when activated, guides perception, thought, emotion or behaviour toward members of a social group as having certain shared attributes, by virtue of their group membership.</t>
+          <t>A social capability acquired through training or practice.</t>
         </is>
       </c>
       <c r="E260" s="3" t="inlineStr"/>
       <c r="F260" s="3" t="inlineStr"/>
       <c r="G260" s="3" t="inlineStr"/>
       <c r="H260" s="3" t="inlineStr"/>
-      <c r="I260" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The attributes of members are not definitional. For instance, a psychologist studying psychology is not a stereotype. </t>
-        </is>
-      </c>
+      <c r="I260" s="3" t="inlineStr"/>
       <c r="J260" s="3" t="inlineStr"/>
       <c r="K260" s="3" t="inlineStr"/>
       <c r="L260" s="3" t="inlineStr"/>
@@ -11029,167 +11029,167 @@
       <c r="P260" s="3" t="inlineStr"/>
     </row>
     <row r="261">
-      <c r="A261" t="inlineStr">
+      <c r="A261" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006072</t>
+        </is>
+      </c>
+      <c r="B261" s="3" t="inlineStr">
+        <is>
+          <t>stereotype</t>
+        </is>
+      </c>
+      <c r="C261" s="3" t="inlineStr">
+        <is>
+          <t>cognitive schema</t>
+        </is>
+      </c>
+      <c r="D261" s="3" t="inlineStr">
+        <is>
+          <t>A cognitive schema that when activated, guides perception, thought, emotion or behaviour toward members of a social group as having certain shared attributes, by virtue of their group membership.</t>
+        </is>
+      </c>
+      <c r="E261" s="3" t="inlineStr"/>
+      <c r="F261" s="3" t="inlineStr"/>
+      <c r="G261" s="3" t="inlineStr"/>
+      <c r="H261" s="3" t="inlineStr"/>
+      <c r="I261" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The attributes of members are not definitional. For instance, a psychologist studying psychology is not a stereotype. </t>
+        </is>
+      </c>
+      <c r="J261" s="3" t="inlineStr"/>
+      <c r="K261" s="3" t="inlineStr"/>
+      <c r="L261" s="3" t="inlineStr"/>
+      <c r="M261" s="3" t="inlineStr"/>
+      <c r="N261" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O261" s="3" t="inlineStr"/>
+      <c r="P261" s="3" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
         <is>
           <t xml:space="preserve">MFOEM:000006 </t>
         </is>
       </c>
-      <c r="B261" t="inlineStr">
+      <c r="B262" t="inlineStr">
         <is>
           <t>subjective affective feeling</t>
         </is>
       </c>
-      <c r="C261" t="inlineStr">
+      <c r="C262" t="inlineStr">
         <is>
           <t>affective process</t>
         </is>
       </c>
-      <c r="D261" t="inlineStr">
+      <c r="D262" t="inlineStr">
         <is>
           <t>An affective process that involves the experience of internal or external sensory stimuli.</t>
         </is>
       </c>
-      <c r="E261" t="inlineStr"/>
-      <c r="F261" t="inlineStr">
+      <c r="E262" t="inlineStr"/>
+      <c r="F262" t="inlineStr">
         <is>
           <t>The conscious experience that a person has of feelings in their body (e.g., hunger), their mood (e.g., feeling cheerful) and their emotion (e.g., feeling nervous), in response to internal or external stimuli.</t>
         </is>
       </c>
-      <c r="G261" t="inlineStr">
+      <c r="G262" t="inlineStr">
         <is>
           <t>Feeling calm; hunger; pain</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr"/>
-      <c r="I261" t="inlineStr">
+      <c r="H262" t="inlineStr"/>
+      <c r="I262" t="inlineStr">
         <is>
           <t>'Subjective affective feeling can have greater or weaker physiological or mental components. The bodily process that are experienced will usually involve some mental process.
 Bodily sensation and the experiences of emotions (e.g., feeling calm) would both qualify as examples of 'subjective affective feeling'.
 As a subclass of 'affective process', subjective affective feelings have valence. Valence refers to the 'the subjective value of an event, object, person, or other entity in the life space of the individual' (https://dictionary.apa.org/valence). Valence ranges from negative to positive.</t>
         </is>
       </c>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="inlineStr"/>
-      <c r="N261" t="inlineStr">
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="inlineStr"/>
+      <c r="M262" t="inlineStr"/>
+      <c r="N262" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="O261" t="inlineStr"/>
-      <c r="P261" t="inlineStr"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="3" t="inlineStr">
+      <c r="O262" t="inlineStr"/>
+      <c r="P262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" s="3" t="inlineStr">
         <is>
           <t>BCIO:006075</t>
         </is>
       </c>
-      <c r="B262" s="3" t="inlineStr">
+      <c r="B263" s="3" t="inlineStr">
         <is>
           <t>subjective need</t>
         </is>
       </c>
-      <c r="C262" s="3" t="inlineStr">
+      <c r="C263" s="3" t="inlineStr">
         <is>
           <t>subjective affective feeling</t>
         </is>
       </c>
-      <c r="D262" s="3" t="inlineStr">
+      <c r="D263" s="3" t="inlineStr">
         <is>
           <t>A subjective affective feeling that involves experiencing anticipated relief or continued comfort by obtaining or maintaining a particular state.</t>
         </is>
       </c>
-      <c r="E262" s="3" t="inlineStr"/>
-      <c r="F262" s="3" t="inlineStr">
+      <c r="E263" s="3" t="inlineStr"/>
+      <c r="F263" s="3" t="inlineStr">
         <is>
           <t>A feeling of anticipated relief or avoidance of discomfort.</t>
         </is>
       </c>
-      <c r="G262" s="3" t="inlineStr"/>
-      <c r="H262" s="3" t="inlineStr"/>
-      <c r="I262" s="3" t="inlineStr"/>
-      <c r="J262" s="3" t="inlineStr"/>
-      <c r="K262" s="3" t="inlineStr"/>
-      <c r="L262" s="3" t="inlineStr"/>
-      <c r="M262" s="3" t="inlineStr"/>
-      <c r="N262" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O262" s="3" t="inlineStr"/>
-      <c r="P262" s="3" t="inlineStr"/>
-    </row>
-    <row r="263">
-      <c r="A263" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MF:0000088 </t>
-        </is>
-      </c>
-      <c r="B263" t="inlineStr">
-        <is>
-          <t>subliminal process</t>
-        </is>
-      </c>
-      <c r="C263" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D263" t="inlineStr">
-        <is>
-          <t>A mental process that involves neuronal activity in response to a sensory stimulus but which is not the subject of consciousness.</t>
-        </is>
-      </c>
-      <c r="E263" t="inlineStr"/>
-      <c r="F263" t="inlineStr"/>
-      <c r="G263" t="inlineStr"/>
-      <c r="H263" t="inlineStr"/>
-      <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="inlineStr"/>
-      <c r="N263" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="O263" t="inlineStr"/>
-      <c r="P263" t="inlineStr"/>
+      <c r="G263" s="3" t="inlineStr"/>
+      <c r="H263" s="3" t="inlineStr"/>
+      <c r="I263" s="3" t="inlineStr"/>
+      <c r="J263" s="3" t="inlineStr"/>
+      <c r="K263" s="3" t="inlineStr"/>
+      <c r="L263" s="3" t="inlineStr"/>
+      <c r="M263" s="3" t="inlineStr"/>
+      <c r="N263" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O263" s="3" t="inlineStr"/>
+      <c r="P263" s="3" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>ADDICTO:0001140</t>
+          <t xml:space="preserve">MF:0000088 </t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>substance dependence</t>
+          <t>subliminal process</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>bodily disposition</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>A bodily disposition which is realised as impaired functioning following reduction or termination of use of a psychoactive substance.</t>
+          <t>A mental process that involves neuronal activity in response to a sensory stimulus but which is not the subject of consciousness.</t>
         </is>
       </c>
       <c r="E264" t="inlineStr"/>
       <c r="F264" t="inlineStr"/>
       <c r="G264" t="inlineStr"/>
       <c r="H264" t="inlineStr"/>
-      <c r="I264" t="inlineStr">
-        <is>
-          <t>While 'addiction' is a disposition relating to experience motivation to use a substance, 'substance dependence' refers to 'disposition related to the impaired functioning in the absence of a substance'.</t>
-        </is>
-      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
       <c r="L264" t="inlineStr"/>
@@ -11205,29 +11205,33 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>MFOEM:000032</t>
+          <t>ADDICTO:0001140</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>substance dependence</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>emotion process</t>
+          <t>bodily disposition</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t xml:space="preserve">An emotion caused by encountering unexpected events. </t>
+          <t>A bodily disposition which is realised as impaired functioning following reduction or termination of use of a psychoactive substance.</t>
         </is>
       </c>
       <c r="E265" t="inlineStr"/>
       <c r="F265" t="inlineStr"/>
       <c r="G265" t="inlineStr"/>
       <c r="H265" t="inlineStr"/>
-      <c r="I265" t="inlineStr"/>
+      <c r="I265" t="inlineStr">
+        <is>
+          <t>While 'addiction' is a disposition relating to experience motivation to use a substance, 'substance dependence' refers to 'disposition related to the impaired functioning in the absence of a substance'.</t>
+        </is>
+      </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
       <c r="L265" t="inlineStr"/>
@@ -11243,22 +11247,22 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>RO:0002577</t>
+          <t>MFOEM:000032</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>system</t>
+          <t>surprise</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>material entity</t>
+          <t>emotion process</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>A material entity consisting of multiple components that are causally integrated.</t>
+          <t xml:space="preserve">An emotion caused by encountering unexpected events. </t>
         </is>
       </c>
       <c r="E266" t="inlineStr"/>
@@ -11279,75 +11283,71 @@
       <c r="P266" t="inlineStr"/>
     </row>
     <row r="267">
-      <c r="A267" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006163</t>
-        </is>
-      </c>
-      <c r="B267" s="3" t="inlineStr">
-        <is>
-          <t>targeted mental distancing</t>
-        </is>
-      </c>
-      <c r="C267" s="3" t="inlineStr">
-        <is>
-          <t>mental distancing</t>
-        </is>
-      </c>
-      <c r="D267" s="3" t="inlineStr">
-        <is>
-          <t>Mental distancing that involves identifying particular immediate thoughts and intentionally detaching from these thoughts.</t>
-        </is>
-      </c>
-      <c r="E267" s="3" t="inlineStr"/>
-      <c r="F267" s="3" t="inlineStr"/>
-      <c r="G267" s="3" t="inlineStr">
-        <is>
-          <t>targeted decentring</t>
-        </is>
-      </c>
-      <c r="H267" s="3" t="inlineStr"/>
-      <c r="I267" s="3" t="inlineStr"/>
-      <c r="J267" s="3" t="inlineStr"/>
-      <c r="K267" s="3" t="inlineStr"/>
-      <c r="L267" s="3" t="inlineStr"/>
-      <c r="M267" s="3" t="inlineStr"/>
-      <c r="N267" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O267" s="3" t="inlineStr"/>
-      <c r="P267" s="3" t="inlineStr"/>
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>RO:0002577</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>material entity</t>
+        </is>
+      </c>
+      <c r="D267" t="inlineStr">
+        <is>
+          <t>A material entity consisting of multiple components that are causally integrated.</t>
+        </is>
+      </c>
+      <c r="E267" t="inlineStr"/>
+      <c r="F267" t="inlineStr"/>
+      <c r="G267" t="inlineStr"/>
+      <c r="H267" t="inlineStr"/>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="inlineStr"/>
+      <c r="M267" t="inlineStr"/>
+      <c r="N267" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="O267" t="inlineStr"/>
+      <c r="P267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006091</t>
+          <t>BCIO:006163</t>
         </is>
       </c>
       <c r="B268" s="3" t="inlineStr">
         <is>
-          <t>temporal behavioural opportunity</t>
+          <t>targeted mental distancing</t>
         </is>
       </c>
       <c r="C268" s="3" t="inlineStr">
         <is>
-          <t>physical behavioural opportunity</t>
+          <t>mental distancing</t>
         </is>
       </c>
       <c r="D268" s="3" t="inlineStr">
         <is>
-          <t>A physical behavioural opportunity that involves the person having sufficient time or a suitable period.</t>
+          <t>Mental distancing that involves identifying particular immediate thoughts and intentionally detaching from these thoughts.</t>
         </is>
       </c>
       <c r="E268" s="3" t="inlineStr"/>
-      <c r="F268" s="3" t="inlineStr">
-        <is>
-          <t>Properties of a person's environment that involve the time available and influence the person's ability to enact a behaviour.</t>
-        </is>
-      </c>
-      <c r="G268" s="3" t="inlineStr"/>
+      <c r="F268" s="3" t="inlineStr"/>
+      <c r="G268" s="3" t="inlineStr">
+        <is>
+          <t>targeted decentring</t>
+        </is>
+      </c>
       <c r="H268" s="3" t="inlineStr"/>
       <c r="I268" s="3" t="inlineStr"/>
       <c r="J268" s="3" t="inlineStr"/>
@@ -11363,52 +11363,56 @@
       <c r="P268" s="3" t="inlineStr"/>
     </row>
     <row r="269">
-      <c r="A269" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050230</t>
-        </is>
-      </c>
-      <c r="B269" s="2" t="inlineStr">
-        <is>
-          <t>temporal orientation to the future</t>
-        </is>
-      </c>
-      <c r="C269" s="2" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
-      <c r="D269" s="2" t="inlineStr">
-        <is>
-          <t>A mental disposition to focus more on future than present outcomes.</t>
-        </is>
-      </c>
-      <c r="E269" s="2" t="inlineStr"/>
-      <c r="F269" s="2" t="inlineStr"/>
-      <c r="G269" s="2" t="inlineStr"/>
-      <c r="H269" s="2" t="inlineStr"/>
-      <c r="I269" s="2" t="inlineStr"/>
-      <c r="J269" s="2" t="inlineStr"/>
-      <c r="K269" s="2" t="inlineStr"/>
-      <c r="L269" s="2" t="inlineStr"/>
-      <c r="M269" s="2" t="inlineStr"/>
-      <c r="N269" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="O269" s="2" t="inlineStr"/>
-      <c r="P269" s="2" t="inlineStr"/>
+      <c r="A269" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006091</t>
+        </is>
+      </c>
+      <c r="B269" s="3" t="inlineStr">
+        <is>
+          <t>temporal behavioural opportunity</t>
+        </is>
+      </c>
+      <c r="C269" s="3" t="inlineStr">
+        <is>
+          <t>physical behavioural opportunity</t>
+        </is>
+      </c>
+      <c r="D269" s="3" t="inlineStr">
+        <is>
+          <t>A physical behavioural opportunity that involves the person having sufficient time or a suitable period.</t>
+        </is>
+      </c>
+      <c r="E269" s="3" t="inlineStr"/>
+      <c r="F269" s="3" t="inlineStr">
+        <is>
+          <t>Properties of a person's environment that involve the time available and influence the person's ability to enact a behaviour.</t>
+        </is>
+      </c>
+      <c r="G269" s="3" t="inlineStr"/>
+      <c r="H269" s="3" t="inlineStr"/>
+      <c r="I269" s="3" t="inlineStr"/>
+      <c r="J269" s="3" t="inlineStr"/>
+      <c r="K269" s="3" t="inlineStr"/>
+      <c r="L269" s="3" t="inlineStr"/>
+      <c r="M269" s="3" t="inlineStr"/>
+      <c r="N269" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O269" s="3" t="inlineStr"/>
+      <c r="P269" s="3" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050231</t>
+          <t>BCIO:050230</t>
         </is>
       </c>
       <c r="B270" s="2" t="inlineStr">
         <is>
-          <t>temporal orientation to the present</t>
+          <t>temporal orientation to the future</t>
         </is>
       </c>
       <c r="C270" s="2" t="inlineStr">
@@ -11418,7 +11422,7 @@
       </c>
       <c r="D270" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to focus more on present than future outcomes.</t>
+          <t>A mental disposition to focus more on future than present outcomes.</t>
         </is>
       </c>
       <c r="E270" s="2" t="inlineStr"/>
@@ -11439,160 +11443,198 @@
       <c r="P270" s="2" t="inlineStr"/>
     </row>
     <row r="271">
-      <c r="A271" t="inlineStr">
+      <c r="A271" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050231</t>
+        </is>
+      </c>
+      <c r="B271" s="2" t="inlineStr">
+        <is>
+          <t>temporal orientation to the present</t>
+        </is>
+      </c>
+      <c r="C271" s="2" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="D271" s="2" t="inlineStr">
+        <is>
+          <t>A mental disposition to focus more on present than future outcomes.</t>
+        </is>
+      </c>
+      <c r="E271" s="2" t="inlineStr"/>
+      <c r="F271" s="2" t="inlineStr"/>
+      <c r="G271" s="2" t="inlineStr"/>
+      <c r="H271" s="2" t="inlineStr"/>
+      <c r="I271" s="2" t="inlineStr"/>
+      <c r="J271" s="2" t="inlineStr"/>
+      <c r="K271" s="2" t="inlineStr"/>
+      <c r="L271" s="2" t="inlineStr"/>
+      <c r="M271" s="2" t="inlineStr"/>
+      <c r="N271" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="O271" s="2" t="inlineStr"/>
+      <c r="P271" s="2" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
         <is>
           <t>MF:0000013</t>
         </is>
       </c>
-      <c r="B271" t="inlineStr">
+      <c r="B272" t="inlineStr">
         <is>
           <t>thinking</t>
         </is>
       </c>
-      <c r="C271" t="inlineStr">
+      <c r="C272" t="inlineStr">
         <is>
           <t>cognitive process</t>
         </is>
       </c>
-      <c r="D271" t="inlineStr">
+      <c r="D272" t="inlineStr">
         <is>
           <t>A cognitive process that involves the manipulation of mental language and/or mental images.</t>
         </is>
       </c>
-      <c r="E271" t="inlineStr"/>
-      <c r="F271" t="inlineStr"/>
-      <c r="G271" t="inlineStr"/>
-      <c r="H271" t="inlineStr"/>
-      <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
-      <c r="M271" t="inlineStr"/>
-      <c r="N271" t="inlineStr">
+      <c r="E272" t="inlineStr"/>
+      <c r="F272" t="inlineStr"/>
+      <c r="G272" t="inlineStr"/>
+      <c r="H272" t="inlineStr"/>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="inlineStr"/>
+      <c r="M272" t="inlineStr"/>
+      <c r="N272" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="O271" t="inlineStr"/>
-      <c r="P271" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="3" t="inlineStr">
+      <c r="O272" t="inlineStr"/>
+      <c r="P272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="3" t="inlineStr">
         <is>
           <t>BCIO:006107</t>
         </is>
       </c>
-      <c r="B272" s="3" t="inlineStr">
+      <c r="B273" s="3" t="inlineStr">
         <is>
           <t>value-congruent self-regulation</t>
         </is>
       </c>
-      <c r="C272" s="3" t="inlineStr">
+      <c r="C273" s="3" t="inlineStr">
         <is>
           <t>self-regulation of behaviour</t>
         </is>
       </c>
-      <c r="D272" s="3" t="inlineStr">
+      <c r="D273" s="3" t="inlineStr">
         <is>
           <t>Self-regulation undertaken to achieve consistency between one's values and the behaviour performed.</t>
         </is>
       </c>
-      <c r="E272" s="3" t="inlineStr"/>
-      <c r="F272" s="3" t="inlineStr"/>
-      <c r="G272" s="3" t="inlineStr"/>
-      <c r="H272" s="3" t="inlineStr"/>
-      <c r="I272" s="3" t="inlineStr"/>
-      <c r="J272" s="3" t="inlineStr"/>
-      <c r="K272" s="3" t="inlineStr"/>
-      <c r="L272" s="3" t="inlineStr"/>
-      <c r="M272" s="3" t="inlineStr"/>
-      <c r="N272" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O272" s="3" t="inlineStr"/>
-      <c r="P272" s="3" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" t="inlineStr">
+      <c r="E273" s="3" t="inlineStr"/>
+      <c r="F273" s="3" t="inlineStr"/>
+      <c r="G273" s="3" t="inlineStr"/>
+      <c r="H273" s="3" t="inlineStr"/>
+      <c r="I273" s="3" t="inlineStr"/>
+      <c r="J273" s="3" t="inlineStr"/>
+      <c r="K273" s="3" t="inlineStr"/>
+      <c r="L273" s="3" t="inlineStr"/>
+      <c r="M273" s="3" t="inlineStr"/>
+      <c r="N273" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O273" s="3" t="inlineStr"/>
+      <c r="P273" s="3" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
         <is>
           <t>MF:0000045</t>
         </is>
       </c>
-      <c r="B273" t="inlineStr">
+      <c r="B274" t="inlineStr">
         <is>
           <t>wanting</t>
         </is>
       </c>
-      <c r="C273" t="inlineStr">
+      <c r="C274" t="inlineStr">
         <is>
           <t>mental process</t>
         </is>
       </c>
-      <c r="D273" t="inlineStr">
+      <c r="D274" t="inlineStr">
         <is>
           <t>A mental process that involves thinking about a state of affairs that is not yet the case together with a desire for that state of affairs to come about.</t>
         </is>
       </c>
-      <c r="E273" t="inlineStr"/>
-      <c r="F273" t="inlineStr"/>
-      <c r="G273" t="inlineStr"/>
-      <c r="H273" t="inlineStr"/>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="inlineStr"/>
-      <c r="N273" t="inlineStr">
+      <c r="E274" t="inlineStr"/>
+      <c r="F274" t="inlineStr"/>
+      <c r="G274" t="inlineStr"/>
+      <c r="H274" t="inlineStr"/>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="inlineStr"/>
+      <c r="M274" t="inlineStr"/>
+      <c r="N274" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="O273" t="inlineStr"/>
-      <c r="P273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="3" t="inlineStr">
+      <c r="O274" t="inlineStr"/>
+      <c r="P274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="3" t="inlineStr">
         <is>
           <t>BCIO:006059</t>
         </is>
       </c>
-      <c r="B274" s="3" t="inlineStr">
+      <c r="B275" s="3" t="inlineStr">
         <is>
           <t>willingness to comply</t>
         </is>
       </c>
-      <c r="C274" s="3" t="inlineStr">
+      <c r="C275" s="3" t="inlineStr">
         <is>
           <t>mental disposition</t>
         </is>
       </c>
-      <c r="D274" s="3" t="inlineStr">
+      <c r="D275" s="3" t="inlineStr">
         <is>
           <t>A mental disposition to act in accordance with the likely approval of others.</t>
         </is>
       </c>
-      <c r="E274" s="3" t="inlineStr"/>
-      <c r="F274" s="3" t="inlineStr"/>
-      <c r="G274" s="3" t="inlineStr">
+      <c r="E275" s="3" t="inlineStr"/>
+      <c r="F275" s="3" t="inlineStr"/>
+      <c r="G275" s="3" t="inlineStr">
         <is>
           <t>motivation to comply</t>
         </is>
       </c>
-      <c r="H274" s="3" t="inlineStr"/>
-      <c r="I274" s="3" t="inlineStr"/>
-      <c r="J274" s="3" t="inlineStr"/>
-      <c r="K274" s="3" t="inlineStr"/>
-      <c r="L274" s="3" t="inlineStr"/>
-      <c r="M274" s="3" t="inlineStr"/>
-      <c r="N274" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O274" s="3" t="inlineStr"/>
-      <c r="P274" s="3" t="inlineStr"/>
+      <c r="H275" s="3" t="inlineStr"/>
+      <c r="I275" s="3" t="inlineStr"/>
+      <c r="J275" s="3" t="inlineStr"/>
+      <c r="K275" s="3" t="inlineStr"/>
+      <c r="L275" s="3" t="inlineStr"/>
+      <c r="M275" s="3" t="inlineStr"/>
+      <c r="N275" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O275" s="3" t="inlineStr"/>
+      <c r="P275" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/MechanismOfAction/inputs/BCIO_MoA.xlsx
+++ b/MechanismOfAction/inputs/BCIO_MoA.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P275"/>
+  <dimension ref="A1:P277"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9075,115 +9075,115 @@
       <c r="P211" s="2" t="inlineStr"/>
     </row>
     <row r="212">
-      <c r="A212" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006081</t>
-        </is>
-      </c>
-      <c r="B212" s="3" t="inlineStr">
-        <is>
-          <t>personal role</t>
-        </is>
-      </c>
-      <c r="C212" s="3" t="inlineStr">
-        <is>
-          <t>role</t>
-        </is>
-      </c>
-      <c r="D212" s="3" t="inlineStr">
-        <is>
-          <t>A role that inheres in a human being by virtue of their social and institutional circumstances.</t>
-        </is>
-      </c>
-      <c r="E212" s="3" t="inlineStr"/>
-      <c r="F212" s="3" t="inlineStr">
-        <is>
-          <t>A role that someone has within an organisation or social grouping.</t>
-        </is>
-      </c>
-      <c r="G212" s="3" t="inlineStr"/>
-      <c r="H212" s="3" t="inlineStr"/>
-      <c r="I212" s="3" t="inlineStr">
-        <is>
-          <t>A role can be assigned without being realised. A person realises a role by doing something.</t>
-        </is>
-      </c>
-      <c r="J212" s="3" t="inlineStr"/>
-      <c r="K212" s="3" t="inlineStr"/>
-      <c r="L212" s="3" t="inlineStr"/>
-      <c r="M212" s="3" t="inlineStr"/>
-      <c r="N212" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O212" s="3" t="inlineStr"/>
-      <c r="P212" s="3" t="inlineStr"/>
+      <c r="A212" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050302</t>
+        </is>
+      </c>
+      <c r="B212" s="2" t="inlineStr">
+        <is>
+          <t>personal life attribute</t>
+        </is>
+      </c>
+      <c r="C212" s="2" t="inlineStr">
+        <is>
+          <t>process attribute</t>
+        </is>
+      </c>
+      <c r="D212" s="2" t="inlineStr">
+        <is>
+          <t>A process attribute that is an attribute of a life process.</t>
+        </is>
+      </c>
+      <c r="E212" s="2" t="inlineStr"/>
+      <c r="F212" s="2" t="inlineStr"/>
+      <c r="G212" s="2" t="inlineStr"/>
+      <c r="H212" s="2" t="inlineStr"/>
+      <c r="I212" s="2" t="inlineStr"/>
+      <c r="J212" s="2" t="inlineStr"/>
+      <c r="K212" s="2" t="inlineStr"/>
+      <c r="L212" s="2" t="inlineStr"/>
+      <c r="M212" s="2" t="inlineStr"/>
+      <c r="N212" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="O212" s="2" t="inlineStr"/>
+      <c r="P212" s="2" t="inlineStr"/>
     </row>
     <row r="213">
-      <c r="A213" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006063</t>
-        </is>
-      </c>
-      <c r="B213" s="3" t="inlineStr">
-        <is>
-          <t>personal value</t>
-        </is>
-      </c>
-      <c r="C213" s="3" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
-      <c r="D213" s="3" t="inlineStr">
-        <is>
-          <t>A mental disposition to regard certain things as fundamentally important in life, which informs standards for behaviour.</t>
-        </is>
-      </c>
-      <c r="E213" s="3" t="inlineStr"/>
-      <c r="F213" s="3" t="inlineStr"/>
-      <c r="G213" s="3" t="inlineStr"/>
-      <c r="H213" s="3" t="inlineStr"/>
-      <c r="I213" s="3" t="inlineStr"/>
-      <c r="J213" s="3" t="inlineStr"/>
-      <c r="K213" s="3" t="inlineStr"/>
-      <c r="L213" s="3" t="inlineStr"/>
-      <c r="M213" s="3" t="inlineStr"/>
-      <c r="N213" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O213" s="3" t="inlineStr"/>
-      <c r="P213" s="3" t="inlineStr"/>
+      <c r="A213" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050303</t>
+        </is>
+      </c>
+      <c r="B213" s="2" t="inlineStr">
+        <is>
+          <t>personal quality</t>
+        </is>
+      </c>
+      <c r="C213" s="2" t="inlineStr">
+        <is>
+          <t>quality</t>
+        </is>
+      </c>
+      <c r="D213" s="2" t="inlineStr">
+        <is>
+          <t>A quality that inheres in a person.</t>
+        </is>
+      </c>
+      <c r="E213" s="2" t="inlineStr"/>
+      <c r="F213" s="2" t="inlineStr"/>
+      <c r="G213" s="2" t="inlineStr"/>
+      <c r="H213" s="2" t="inlineStr"/>
+      <c r="I213" s="2" t="inlineStr"/>
+      <c r="J213" s="2" t="inlineStr"/>
+      <c r="K213" s="2" t="inlineStr"/>
+      <c r="L213" s="2" t="inlineStr"/>
+      <c r="M213" s="2" t="inlineStr"/>
+      <c r="N213" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="O213" s="2" t="inlineStr"/>
+      <c r="P213" s="2" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006009</t>
+          <t>BCIO:006081</t>
         </is>
       </c>
       <c r="B214" s="3" t="inlineStr">
         <is>
-          <t>physical behavioural capability</t>
+          <t>personal role</t>
         </is>
       </c>
       <c r="C214" s="3" t="inlineStr">
         <is>
-          <t>behavioural capability</t>
+          <t>role</t>
         </is>
       </c>
       <c r="D214" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">A behavioural capability that involves a musculoskeletal process in its realisation. </t>
+          <t>A role that inheres in a human being by virtue of their social and institutional circumstances.</t>
         </is>
       </c>
       <c r="E214" s="3" t="inlineStr"/>
-      <c r="F214" s="3" t="inlineStr"/>
+      <c r="F214" s="3" t="inlineStr">
+        <is>
+          <t>A role that someone has within an organisation or social grouping.</t>
+        </is>
+      </c>
       <c r="G214" s="3" t="inlineStr"/>
       <c r="H214" s="3" t="inlineStr"/>
-      <c r="I214" s="3" t="inlineStr"/>
+      <c r="I214" s="3" t="inlineStr">
+        <is>
+          <t>A role can be assigned without being realised. A person realises a role by doing something.</t>
+        </is>
+      </c>
       <c r="J214" s="3" t="inlineStr"/>
       <c r="K214" s="3" t="inlineStr"/>
       <c r="L214" s="3" t="inlineStr"/>
@@ -9199,37 +9199,29 @@
     <row r="215">
       <c r="A215" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006089</t>
+          <t>BCIO:006063</t>
         </is>
       </c>
       <c r="B215" s="3" t="inlineStr">
         <is>
-          <t>physical behavioural opportunity</t>
+          <t>personal value</t>
         </is>
       </c>
       <c r="C215" s="3" t="inlineStr">
         <is>
-          <t>behavioural opportunity</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D215" s="3" t="inlineStr">
         <is>
-          <t>A behavioural opportunity that involves time and parts of the environmental system that do not involve people or organisations.</t>
+          <t>A mental disposition to regard certain things as fundamentally important in life, which informs standards for behaviour.</t>
         </is>
       </c>
       <c r="E215" s="3" t="inlineStr"/>
-      <c r="F215" s="3" t="inlineStr">
-        <is>
-          <t>Properties of a person's environment that involve the objects in their environment, the space they inhabit, the time available or the material resources available to them and influence the person's ability to enact a behaviour.</t>
-        </is>
-      </c>
+      <c r="F215" s="3" t="inlineStr"/>
       <c r="G215" s="3" t="inlineStr"/>
       <c r="H215" s="3" t="inlineStr"/>
-      <c r="I215" s="3" t="inlineStr">
-        <is>
-          <t>A 'behavioural opportunity' is a feature of the environmental system. While the class 'environmental system' is about what is found in an environment, the behavioural opportunity is a feature of the environment which interacts with the person and enables or prevents a behaviour.</t>
-        </is>
-      </c>
+      <c r="I215" s="3" t="inlineStr"/>
       <c r="J215" s="3" t="inlineStr"/>
       <c r="K215" s="3" t="inlineStr"/>
       <c r="L215" s="3" t="inlineStr"/>
@@ -9245,22 +9237,22 @@
     <row r="216">
       <c r="A216" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006010</t>
+          <t>BCIO:006009</t>
         </is>
       </c>
       <c r="B216" s="3" t="inlineStr">
         <is>
-          <t>physical skill</t>
+          <t>physical behavioural capability</t>
         </is>
       </c>
       <c r="C216" s="3" t="inlineStr">
         <is>
-          <t>physical behavioural capability</t>
+          <t>behavioural capability</t>
         </is>
       </c>
       <c r="D216" s="3" t="inlineStr">
         <is>
-          <t>A physical capability acquired through training or practice.</t>
+          <t xml:space="preserve">A behavioural capability that involves a musculoskeletal process in its realisation. </t>
         </is>
       </c>
       <c r="E216" s="3" t="inlineStr"/>
@@ -9281,66 +9273,70 @@
       <c r="P216" s="3" t="inlineStr"/>
     </row>
     <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MFOEM:000003 </t>
-        </is>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>physiological process involved in an emotion</t>
-        </is>
-      </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>bodily process</t>
-        </is>
-      </c>
-      <c r="D217" t="inlineStr">
-        <is>
-          <t>A bodily process that encompasses all the neurophysiological changes accompanying an emotion, which take place in the central nervous system (CNS), neuro-endocrine system (NES) and autonomous nervous system (ANS).</t>
-        </is>
-      </c>
-      <c r="E217" t="inlineStr"/>
-      <c r="F217" t="inlineStr">
-        <is>
-          <t>A process that occurs in a person's body when they are experiencing an emotion.</t>
-        </is>
-      </c>
-      <c r="G217" t="inlineStr"/>
-      <c r="H217" t="inlineStr"/>
-      <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="inlineStr"/>
-      <c r="N217" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="O217" t="inlineStr"/>
-      <c r="P217" t="inlineStr"/>
+      <c r="A217" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006089</t>
+        </is>
+      </c>
+      <c r="B217" s="3" t="inlineStr">
+        <is>
+          <t>physical behavioural opportunity</t>
+        </is>
+      </c>
+      <c r="C217" s="3" t="inlineStr">
+        <is>
+          <t>behavioural opportunity</t>
+        </is>
+      </c>
+      <c r="D217" s="3" t="inlineStr">
+        <is>
+          <t>A behavioural opportunity that involves time and parts of the environmental system that do not involve people or organisations.</t>
+        </is>
+      </c>
+      <c r="E217" s="3" t="inlineStr"/>
+      <c r="F217" s="3" t="inlineStr">
+        <is>
+          <t>Properties of a person's environment that involve the objects in their environment, the space they inhabit, the time available or the material resources available to them and influence the person's ability to enact a behaviour.</t>
+        </is>
+      </c>
+      <c r="G217" s="3" t="inlineStr"/>
+      <c r="H217" s="3" t="inlineStr"/>
+      <c r="I217" s="3" t="inlineStr">
+        <is>
+          <t>A 'behavioural opportunity' is a feature of the environmental system. While the class 'environmental system' is about what is found in an environment, the behavioural opportunity is a feature of the environment which interacts with the person and enables or prevents a behaviour.</t>
+        </is>
+      </c>
+      <c r="J217" s="3" t="inlineStr"/>
+      <c r="K217" s="3" t="inlineStr"/>
+      <c r="L217" s="3" t="inlineStr"/>
+      <c r="M217" s="3" t="inlineStr"/>
+      <c r="N217" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O217" s="3" t="inlineStr"/>
+      <c r="P217" s="3" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006102</t>
+          <t>BCIO:006010</t>
         </is>
       </c>
       <c r="B218" s="3" t="inlineStr">
         <is>
-          <t>plan enactment</t>
+          <t>physical skill</t>
         </is>
       </c>
       <c r="C218" s="3" t="inlineStr">
         <is>
-          <t>bodily process</t>
+          <t>physical behavioural capability</t>
         </is>
       </c>
       <c r="D218" s="3" t="inlineStr">
         <is>
-          <t>A bodily process by which a person attempts to follow the steps in a plan.</t>
+          <t>A physical capability acquired through training or practice.</t>
         </is>
       </c>
       <c r="E218" s="3" t="inlineStr"/>
@@ -9363,33 +9359,33 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>MF:0000027</t>
+          <t xml:space="preserve">MFOEM:000003 </t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>planning</t>
+          <t>physiological process involved in an emotion</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>bodily process</t>
         </is>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>A mental process that involves mentally manipulating representations of steps in an imagined process which has some goal.</t>
+          <t>A bodily process that encompasses all the neurophysiological changes accompanying an emotion, which take place in the central nervous system (CNS), neuro-endocrine system (NES) and autonomous nervous system (ANS).</t>
         </is>
       </c>
       <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr"/>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>A process that occurs in a person's body when they are experiencing an emotion.</t>
+        </is>
+      </c>
       <c r="G219" t="inlineStr"/>
       <c r="H219" t="inlineStr"/>
-      <c r="I219" t="inlineStr">
-        <is>
-          <t>The outcome of this mental process is a mental plan which has the potential to be followed to bring about the desired outcome.</t>
-        </is>
-      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr"/>
@@ -9403,115 +9399,111 @@
       <c r="P219" t="inlineStr"/>
     </row>
     <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>MFOEM:000035</t>
-        </is>
-      </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>pleasure</t>
-        </is>
-      </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>emotion process</t>
-        </is>
-      </c>
-      <c r="D220" t="inlineStr">
-        <is>
-          <t>A positive emotion which is sought out and is associated with happiness and satisfaction.</t>
-        </is>
-      </c>
-      <c r="E220" t="inlineStr"/>
-      <c r="F220" t="inlineStr"/>
-      <c r="G220" t="inlineStr">
-        <is>
-          <t>enjoyment</t>
-        </is>
-      </c>
-      <c r="H220" t="inlineStr"/>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="inlineStr"/>
-      <c r="N220" t="inlineStr">
+      <c r="A220" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006102</t>
+        </is>
+      </c>
+      <c r="B220" s="3" t="inlineStr">
+        <is>
+          <t>plan enactment</t>
+        </is>
+      </c>
+      <c r="C220" s="3" t="inlineStr">
+        <is>
+          <t>bodily process</t>
+        </is>
+      </c>
+      <c r="D220" s="3" t="inlineStr">
+        <is>
+          <t>A bodily process by which a person attempts to follow the steps in a plan.</t>
+        </is>
+      </c>
+      <c r="E220" s="3" t="inlineStr"/>
+      <c r="F220" s="3" t="inlineStr"/>
+      <c r="G220" s="3" t="inlineStr"/>
+      <c r="H220" s="3" t="inlineStr"/>
+      <c r="I220" s="3" t="inlineStr"/>
+      <c r="J220" s="3" t="inlineStr"/>
+      <c r="K220" s="3" t="inlineStr"/>
+      <c r="L220" s="3" t="inlineStr"/>
+      <c r="M220" s="3" t="inlineStr"/>
+      <c r="N220" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O220" s="3" t="inlineStr"/>
+      <c r="P220" s="3" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>MF:0000027</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>planning</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>A mental process that involves mentally manipulating representations of steps in an imagined process which has some goal.</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr"/>
+      <c r="F221" t="inlineStr"/>
+      <c r="G221" t="inlineStr"/>
+      <c r="H221" t="inlineStr"/>
+      <c r="I221" t="inlineStr">
+        <is>
+          <t>The outcome of this mental process is a mental plan which has the potential to be followed to bring about the desired outcome.</t>
+        </is>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="inlineStr"/>
+      <c r="N221" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="O220" t="inlineStr"/>
-      <c r="P220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006159</t>
-        </is>
-      </c>
-      <c r="B221" s="3" t="inlineStr">
-        <is>
-          <t>pleasure associated with behaviour</t>
-        </is>
-      </c>
-      <c r="C221" s="3" t="inlineStr">
-        <is>
-          <t>pleasure</t>
-        </is>
-      </c>
-      <c r="D221" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pleasure that is experienced as a result of engaging in a behaviour. </t>
-        </is>
-      </c>
-      <c r="E221" s="3" t="inlineStr"/>
-      <c r="F221" s="3" t="inlineStr"/>
-      <c r="G221" s="3" t="inlineStr">
-        <is>
-          <t>Enjoyment of behaviour</t>
-        </is>
-      </c>
-      <c r="H221" s="3" t="inlineStr"/>
-      <c r="I221" s="3" t="inlineStr"/>
-      <c r="J221" s="3" t="inlineStr"/>
-      <c r="K221" s="3" t="inlineStr"/>
-      <c r="L221" s="3" t="inlineStr"/>
-      <c r="M221" s="3" t="inlineStr"/>
-      <c r="N221" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O221" s="3" t="inlineStr"/>
-      <c r="P221" s="3" t="inlineStr"/>
+      <c r="O221" t="inlineStr"/>
+      <c r="P221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>MFOEM:000209</t>
+          <t>MFOEM:000035</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>positive surprise</t>
+          <t>pleasure</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>emotion process</t>
         </is>
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Surprise with a positive valence.</t>
+          <t>A positive emotion which is sought out and is associated with happiness and satisfaction.</t>
         </is>
       </c>
       <c r="E222" t="inlineStr"/>
       <c r="F222" t="inlineStr"/>
       <c r="G222" t="inlineStr">
         <is>
-          <t>wonder; astonishment</t>
+          <t>enjoyment</t>
         </is>
       </c>
       <c r="H222" t="inlineStr"/>
@@ -9531,27 +9523,31 @@
     <row r="223">
       <c r="A223" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006061</t>
+          <t>BCIO:006159</t>
         </is>
       </c>
       <c r="B223" s="3" t="inlineStr">
         <is>
-          <t>prevention focused motivational orientation</t>
+          <t>pleasure associated with behaviour</t>
         </is>
       </c>
       <c r="C223" s="3" t="inlineStr">
         <is>
-          <t>motivational orientation towards types of outcomes</t>
+          <t>pleasure</t>
         </is>
       </c>
       <c r="D223" s="3" t="inlineStr">
         <is>
-          <t>A mental disposition for motivation to be guided by a focus on the presence or absence of positive outcomes.</t>
+          <t xml:space="preserve">Pleasure that is experienced as a result of engaging in a behaviour. </t>
         </is>
       </c>
       <c r="E223" s="3" t="inlineStr"/>
       <c r="F223" s="3" t="inlineStr"/>
-      <c r="G223" s="3" t="inlineStr"/>
+      <c r="G223" s="3" t="inlineStr">
+        <is>
+          <t>Enjoyment of behaviour</t>
+        </is>
+      </c>
       <c r="H223" s="3" t="inlineStr"/>
       <c r="I223" s="3" t="inlineStr"/>
       <c r="J223" s="3" t="inlineStr"/>
@@ -9567,263 +9563,267 @@
       <c r="P223" s="3" t="inlineStr"/>
     </row>
     <row r="224">
-      <c r="A224" s="3" t="inlineStr">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>MFOEM:000209</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>positive surprise</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>surprise</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>Surprise with a positive valence.</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr"/>
+      <c r="F224" t="inlineStr"/>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>wonder; astonishment</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr"/>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="inlineStr"/>
+      <c r="N224" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="O224" t="inlineStr"/>
+      <c r="P224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006061</t>
+        </is>
+      </c>
+      <c r="B225" s="3" t="inlineStr">
+        <is>
+          <t>prevention focused motivational orientation</t>
+        </is>
+      </c>
+      <c r="C225" s="3" t="inlineStr">
+        <is>
+          <t>motivational orientation towards types of outcomes</t>
+        </is>
+      </c>
+      <c r="D225" s="3" t="inlineStr">
+        <is>
+          <t>A mental disposition for motivation to be guided by a focus on the presence or absence of positive outcomes.</t>
+        </is>
+      </c>
+      <c r="E225" s="3" t="inlineStr"/>
+      <c r="F225" s="3" t="inlineStr"/>
+      <c r="G225" s="3" t="inlineStr"/>
+      <c r="H225" s="3" t="inlineStr"/>
+      <c r="I225" s="3" t="inlineStr"/>
+      <c r="J225" s="3" t="inlineStr"/>
+      <c r="K225" s="3" t="inlineStr"/>
+      <c r="L225" s="3" t="inlineStr"/>
+      <c r="M225" s="3" t="inlineStr"/>
+      <c r="N225" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O225" s="3" t="inlineStr"/>
+      <c r="P225" s="3" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="3" t="inlineStr">
         <is>
           <t>BCIO:006129</t>
         </is>
       </c>
-      <c r="B224" s="3" t="inlineStr">
+      <c r="B226" s="3" t="inlineStr">
         <is>
           <t>procedural memory</t>
         </is>
       </c>
-      <c r="C224" s="3" t="inlineStr">
+      <c r="C226" s="3" t="inlineStr">
         <is>
           <t>memory</t>
         </is>
       </c>
-      <c r="D224" s="3" t="inlineStr">
+      <c r="D226" s="3" t="inlineStr">
         <is>
           <t>A memory process that deals with the receipt, storage, retrieval and modification of information regarding how to perform a complex activity without conscious awareness.</t>
         </is>
       </c>
-      <c r="E224" s="3" t="inlineStr"/>
-      <c r="F224" s="3" t="inlineStr"/>
-      <c r="G224" s="3" t="inlineStr"/>
-      <c r="H224" s="3" t="inlineStr"/>
-      <c r="I224" s="3" t="inlineStr"/>
-      <c r="J224" s="3" t="inlineStr"/>
-      <c r="K224" s="3" t="inlineStr"/>
-      <c r="L224" s="3" t="inlineStr"/>
-      <c r="M224" s="3" t="inlineStr"/>
-      <c r="N224" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O224" s="3" t="inlineStr"/>
-      <c r="P224" s="3" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="2" t="inlineStr">
+      <c r="E226" s="3" t="inlineStr"/>
+      <c r="F226" s="3" t="inlineStr"/>
+      <c r="G226" s="3" t="inlineStr"/>
+      <c r="H226" s="3" t="inlineStr"/>
+      <c r="I226" s="3" t="inlineStr"/>
+      <c r="J226" s="3" t="inlineStr"/>
+      <c r="K226" s="3" t="inlineStr"/>
+      <c r="L226" s="3" t="inlineStr"/>
+      <c r="M226" s="3" t="inlineStr"/>
+      <c r="N226" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O226" s="3" t="inlineStr"/>
+      <c r="P226" s="3" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="inlineStr">
         <is>
           <t>BCIO:050229</t>
         </is>
       </c>
-      <c r="B225" s="2" t="inlineStr">
+      <c r="B227" s="2" t="inlineStr">
         <is>
           <t>professional identity</t>
         </is>
       </c>
-      <c r="C225" s="2" t="inlineStr">
+      <c r="C227" s="2" t="inlineStr">
         <is>
           <t>self-identity</t>
         </is>
       </c>
-      <c r="D225" s="2" t="inlineStr">
+      <c r="D227" s="2" t="inlineStr">
         <is>
           <t>A self-identity that is associated with one's occupational role.</t>
         </is>
       </c>
-      <c r="E225" s="2" t="inlineStr"/>
-      <c r="F225" s="2" t="inlineStr"/>
-      <c r="G225" s="2" t="inlineStr"/>
-      <c r="H225" s="2" t="inlineStr"/>
-      <c r="I225" s="2" t="inlineStr"/>
-      <c r="J225" s="2" t="inlineStr"/>
-      <c r="K225" s="2" t="inlineStr"/>
-      <c r="L225" s="2" t="inlineStr"/>
-      <c r="M225" s="2" t="inlineStr"/>
-      <c r="N225" s="2" t="inlineStr">
+      <c r="E227" s="2" t="inlineStr"/>
+      <c r="F227" s="2" t="inlineStr"/>
+      <c r="G227" s="2" t="inlineStr"/>
+      <c r="H227" s="2" t="inlineStr"/>
+      <c r="I227" s="2" t="inlineStr"/>
+      <c r="J227" s="2" t="inlineStr"/>
+      <c r="K227" s="2" t="inlineStr"/>
+      <c r="L227" s="2" t="inlineStr"/>
+      <c r="M227" s="2" t="inlineStr"/>
+      <c r="N227" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="O225" s="2" t="inlineStr"/>
-      <c r="P225" s="2" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="2" t="inlineStr">
+      <c r="O227" s="2" t="inlineStr"/>
+      <c r="P227" s="2" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="inlineStr">
         <is>
           <t>BCIO:050213</t>
         </is>
       </c>
-      <c r="B226" s="2" t="inlineStr">
+      <c r="B228" s="2" t="inlineStr">
         <is>
           <t>professional network</t>
         </is>
       </c>
-      <c r="C226" s="2" t="inlineStr">
+      <c r="C228" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> social environmental system</t>
         </is>
       </c>
-      <c r="D226" s="2" t="inlineStr">
+      <c r="D228" s="2" t="inlineStr">
         <is>
           <t>A social environmental system that consists of persons who have shared interests relating to their occupational roles and are in contact or communication.</t>
         </is>
       </c>
-      <c r="E226" s="2" t="inlineStr"/>
-      <c r="F226" s="2" t="inlineStr"/>
-      <c r="G226" s="2" t="inlineStr"/>
-      <c r="H226" s="2" t="inlineStr"/>
-      <c r="I226" s="2" t="inlineStr"/>
-      <c r="J226" s="2" t="inlineStr"/>
-      <c r="K226" s="2" t="inlineStr"/>
-      <c r="L226" s="2" t="inlineStr"/>
-      <c r="M226" s="2" t="inlineStr"/>
-      <c r="N226" s="2" t="inlineStr">
+      <c r="E228" s="2" t="inlineStr"/>
+      <c r="F228" s="2" t="inlineStr"/>
+      <c r="G228" s="2" t="inlineStr"/>
+      <c r="H228" s="2" t="inlineStr"/>
+      <c r="I228" s="2" t="inlineStr"/>
+      <c r="J228" s="2" t="inlineStr"/>
+      <c r="K228" s="2" t="inlineStr"/>
+      <c r="L228" s="2" t="inlineStr"/>
+      <c r="M228" s="2" t="inlineStr"/>
+      <c r="N228" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="O226" s="2" t="inlineStr"/>
-      <c r="P226" s="2" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="3" t="inlineStr">
+      <c r="O228" s="2" t="inlineStr"/>
+      <c r="P228" s="2" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="3" t="inlineStr">
         <is>
           <t>BCIO:006062</t>
         </is>
       </c>
-      <c r="B227" s="3" t="inlineStr">
+      <c r="B229" s="3" t="inlineStr">
         <is>
           <t>promotion focused motivational orientation</t>
         </is>
       </c>
-      <c r="C227" s="3" t="inlineStr">
+      <c r="C229" s="3" t="inlineStr">
         <is>
           <t>motivational orientation towards types of outcomes</t>
         </is>
       </c>
-      <c r="D227" s="3" t="inlineStr">
+      <c r="D229" s="3" t="inlineStr">
         <is>
           <t>A mental disposition for motivation to be guided by a focus on the presence or absence of negative outcomes.</t>
         </is>
       </c>
-      <c r="E227" s="3" t="inlineStr"/>
-      <c r="F227" s="3" t="inlineStr"/>
-      <c r="G227" s="3" t="inlineStr"/>
-      <c r="H227" s="3" t="inlineStr"/>
-      <c r="I227" s="3" t="inlineStr"/>
-      <c r="J227" s="3" t="inlineStr"/>
-      <c r="K227" s="3" t="inlineStr"/>
-      <c r="L227" s="3" t="inlineStr"/>
-      <c r="M227" s="3" t="inlineStr"/>
-      <c r="N227" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O227" s="3" t="inlineStr"/>
-      <c r="P227" s="3" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006064</t>
-        </is>
-      </c>
-      <c r="B228" s="3" t="inlineStr">
-        <is>
-          <t>psychological need</t>
-        </is>
-      </c>
-      <c r="C228" s="3" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
-      <c r="D228" s="3" t="inlineStr">
-        <is>
-          <t>A mental disposition of a person to act to obtain or maintain a particular state due to this state’s importance to the person’s wellbeing.</t>
-        </is>
-      </c>
-      <c r="E228" s="3" t="inlineStr"/>
-      <c r="F228" s="3" t="inlineStr"/>
-      <c r="G228" s="3" t="inlineStr"/>
-      <c r="H228" s="3" t="inlineStr"/>
-      <c r="I228" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Psychological needs can be satisfied or thwarted. </t>
-        </is>
-      </c>
-      <c r="J228" s="3" t="inlineStr"/>
-      <c r="K228" s="3" t="inlineStr"/>
-      <c r="L228" s="3" t="inlineStr"/>
-      <c r="M228" s="3" t="inlineStr"/>
-      <c r="N228" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O228" s="3" t="inlineStr"/>
-      <c r="P228" s="3" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>PATO:0000001</t>
-        </is>
-      </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>quality</t>
-        </is>
-      </c>
-      <c r="C229" t="inlineStr">
-        <is>
-          <t>specifically dependent continuant</t>
-        </is>
-      </c>
-      <c r="D229" t="inlineStr">
-        <is>
-          <t>A dependent entity that inheres in a bearer by virtue of how the bearer is related to other entities.</t>
-        </is>
-      </c>
-      <c r="E229" t="inlineStr"/>
-      <c r="F229" t="inlineStr"/>
-      <c r="G229" t="inlineStr"/>
-      <c r="H229" t="inlineStr"/>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="inlineStr"/>
-      <c r="N229" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="O229" t="inlineStr"/>
-      <c r="P229" t="inlineStr"/>
+      <c r="E229" s="3" t="inlineStr"/>
+      <c r="F229" s="3" t="inlineStr"/>
+      <c r="G229" s="3" t="inlineStr"/>
+      <c r="H229" s="3" t="inlineStr"/>
+      <c r="I229" s="3" t="inlineStr"/>
+      <c r="J229" s="3" t="inlineStr"/>
+      <c r="K229" s="3" t="inlineStr"/>
+      <c r="L229" s="3" t="inlineStr"/>
+      <c r="M229" s="3" t="inlineStr"/>
+      <c r="N229" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O229" s="3" t="inlineStr"/>
+      <c r="P229" s="3" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006112</t>
+          <t>BCIO:006064</t>
         </is>
       </c>
       <c r="B230" s="3" t="inlineStr">
         <is>
-          <t>reflective thinking</t>
+          <t>psychological need</t>
         </is>
       </c>
       <c r="C230" s="3" t="inlineStr">
         <is>
-          <t>thinking</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D230" s="3" t="inlineStr">
         <is>
-          <t>Thinking that involves the generation of inferences by reasoning based on one or more statements, evaluating anticipated consequences or considering the relationships between concepts.</t>
+          <t>A mental disposition of a person to act to obtain or maintain a particular state due to this state’s importance to the person’s wellbeing.</t>
         </is>
       </c>
       <c r="E230" s="3" t="inlineStr"/>
       <c r="F230" s="3" t="inlineStr"/>
       <c r="G230" s="3" t="inlineStr"/>
       <c r="H230" s="3" t="inlineStr"/>
-      <c r="I230" s="3" t="inlineStr"/>
+      <c r="I230" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Psychological needs can be satisfied or thwarted. </t>
+        </is>
+      </c>
       <c r="J230" s="3" t="inlineStr"/>
       <c r="K230" s="3" t="inlineStr"/>
       <c r="L230" s="3" t="inlineStr"/>
@@ -9837,100 +9837,100 @@
       <c r="P230" s="3" t="inlineStr"/>
     </row>
     <row r="231">
-      <c r="A231" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050232</t>
-        </is>
-      </c>
-      <c r="B231" s="2" t="inlineStr">
-        <is>
-          <t>regret</t>
-        </is>
-      </c>
-      <c r="C231" s="2" t="inlineStr">
-        <is>
-          <t>emotion process</t>
-        </is>
-      </c>
-      <c r="D231" s="2" t="inlineStr">
-        <is>
-          <t>A negative emotion that occurs when a person wishes they chose or acted differently in the past, due to the consequences of that choice or action being unfavourable.</t>
-        </is>
-      </c>
-      <c r="E231" s="2" t="inlineStr"/>
-      <c r="F231" s="2" t="inlineStr"/>
-      <c r="G231" s="2" t="inlineStr"/>
-      <c r="H231" s="2" t="inlineStr"/>
-      <c r="I231" s="2" t="inlineStr"/>
-      <c r="J231" s="2" t="inlineStr"/>
-      <c r="K231" s="2" t="inlineStr"/>
-      <c r="L231" s="2" t="inlineStr"/>
-      <c r="M231" s="2" t="inlineStr"/>
-      <c r="N231" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="O231" s="2" t="inlineStr"/>
-      <c r="P231" s="2" t="inlineStr"/>
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>PATO:0000001</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>quality</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>specifically dependent continuant</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>A dependent entity that inheres in a bearer by virtue of how the bearer is related to other entities.</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr"/>
+      <c r="F231" t="inlineStr"/>
+      <c r="G231" t="inlineStr"/>
+      <c r="H231" t="inlineStr"/>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="inlineStr"/>
+      <c r="N231" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="O231" t="inlineStr"/>
+      <c r="P231" t="inlineStr"/>
     </row>
     <row r="232">
-      <c r="A232" t="inlineStr">
-        <is>
-          <t>MF:0000030</t>
-        </is>
-      </c>
-      <c r="B232" t="inlineStr">
-        <is>
-          <t>representation</t>
-        </is>
-      </c>
-      <c r="C232" t="inlineStr">
-        <is>
-          <t>specifically dependent continuant</t>
-        </is>
-      </c>
-      <c r="D232" t="inlineStr">
-        <is>
-          <t>A dependent continuant which is about a portion of reality.</t>
-        </is>
-      </c>
-      <c r="E232" t="inlineStr"/>
-      <c r="F232" t="inlineStr"/>
-      <c r="G232" t="inlineStr"/>
-      <c r="H232" t="inlineStr"/>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
-      <c r="M232" t="inlineStr"/>
-      <c r="N232" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="O232" t="inlineStr"/>
-      <c r="P232" t="inlineStr"/>
+      <c r="A232" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006112</t>
+        </is>
+      </c>
+      <c r="B232" s="3" t="inlineStr">
+        <is>
+          <t>reflective thinking</t>
+        </is>
+      </c>
+      <c r="C232" s="3" t="inlineStr">
+        <is>
+          <t>thinking</t>
+        </is>
+      </c>
+      <c r="D232" s="3" t="inlineStr">
+        <is>
+          <t>Thinking that involves the generation of inferences by reasoning based on one or more statements, evaluating anticipated consequences or considering the relationships between concepts.</t>
+        </is>
+      </c>
+      <c r="E232" s="3" t="inlineStr"/>
+      <c r="F232" s="3" t="inlineStr"/>
+      <c r="G232" s="3" t="inlineStr"/>
+      <c r="H232" s="3" t="inlineStr"/>
+      <c r="I232" s="3" t="inlineStr"/>
+      <c r="J232" s="3" t="inlineStr"/>
+      <c r="K232" s="3" t="inlineStr"/>
+      <c r="L232" s="3" t="inlineStr"/>
+      <c r="M232" s="3" t="inlineStr"/>
+      <c r="N232" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O232" s="3" t="inlineStr"/>
+      <c r="P232" s="3" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050266</t>
+          <t>BCIO:050232</t>
         </is>
       </c>
       <c r="B233" s="2" t="inlineStr">
         <is>
-          <t>ruminating</t>
+          <t>regret</t>
         </is>
       </c>
       <c r="C233" s="2" t="inlineStr">
         <is>
-          <t>thinking</t>
+          <t>emotion process</t>
         </is>
       </c>
       <c r="D233" s="2" t="inlineStr">
         <is>
-          <t>Thinking that is about negative experiences and feelings, and repeated.</t>
+          <t>A negative emotion that occurs when a person wishes they chose or acted differently in the past, due to the consequences of that choice or action being unfavourable.</t>
         </is>
       </c>
       <c r="E233" s="2" t="inlineStr"/>
@@ -9953,22 +9953,22 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t xml:space="preserve">MFOEM:000056 </t>
+          <t>MF:0000030</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>sadness</t>
+          <t>representation</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>emotion process</t>
+          <t>specifically dependent continuant</t>
         </is>
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>A negative emotion felt when an event is appraised as unpleasant and resulting in loss or failure.</t>
+          <t>A dependent continuant which is about a portion of reality.</t>
         </is>
       </c>
       <c r="E234" t="inlineStr"/>
@@ -9989,201 +9989,192 @@
       <c r="P234" t="inlineStr"/>
     </row>
     <row r="235">
-      <c r="A235" t="inlineStr">
+      <c r="A235" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050266</t>
+        </is>
+      </c>
+      <c r="B235" s="2" t="inlineStr">
+        <is>
+          <t>ruminating</t>
+        </is>
+      </c>
+      <c r="C235" s="2" t="inlineStr">
+        <is>
+          <t>thinking</t>
+        </is>
+      </c>
+      <c r="D235" s="2" t="inlineStr">
+        <is>
+          <t>Thinking that is about negative experiences and feelings, and repeated.</t>
+        </is>
+      </c>
+      <c r="E235" s="2" t="inlineStr"/>
+      <c r="F235" s="2" t="inlineStr"/>
+      <c r="G235" s="2" t="inlineStr"/>
+      <c r="H235" s="2" t="inlineStr"/>
+      <c r="I235" s="2" t="inlineStr"/>
+      <c r="J235" s="2" t="inlineStr"/>
+      <c r="K235" s="2" t="inlineStr"/>
+      <c r="L235" s="2" t="inlineStr"/>
+      <c r="M235" s="2" t="inlineStr"/>
+      <c r="N235" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="O235" s="2" t="inlineStr"/>
+      <c r="P235" s="2" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MFOEM:000056 </t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>sadness</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>emotion process</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>A negative emotion felt when an event is appraised as unpleasant and resulting in loss or failure.</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr"/>
+      <c r="F236" t="inlineStr"/>
+      <c r="G236" t="inlineStr"/>
+      <c r="H236" t="inlineStr"/>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
+      <c r="M236" t="inlineStr"/>
+      <c r="N236" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="O236" t="inlineStr"/>
+      <c r="P236" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
         <is>
           <t>MFOEM:000169</t>
         </is>
       </c>
-      <c r="B235" t="inlineStr">
+      <c r="B237" t="inlineStr">
         <is>
           <t>satisfaction</t>
         </is>
       </c>
-      <c r="C235" t="inlineStr">
+      <c r="C237" t="inlineStr">
         <is>
           <t>emotion process</t>
         </is>
       </c>
-      <c r="D235" t="inlineStr">
+      <c r="D237" t="inlineStr">
         <is>
           <t>An emotion that is experienced when one's wishes, expectations or needs are fulfilled.</t>
         </is>
       </c>
-      <c r="E235" t="inlineStr"/>
-      <c r="F235" t="inlineStr"/>
-      <c r="G235" t="inlineStr"/>
-      <c r="H235" t="inlineStr"/>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="inlineStr"/>
-      <c r="N235" t="inlineStr">
+      <c r="E237" t="inlineStr"/>
+      <c r="F237" t="inlineStr"/>
+      <c r="G237" t="inlineStr"/>
+      <c r="H237" t="inlineStr"/>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
+      <c r="M237" t="inlineStr"/>
+      <c r="N237" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="O235" t="inlineStr"/>
-      <c r="P235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="2" t="inlineStr">
+      <c r="O237" t="inlineStr"/>
+      <c r="P237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="inlineStr">
         <is>
           <t>BCIO:050236</t>
         </is>
       </c>
-      <c r="B236" s="2" t="inlineStr">
+      <c r="B238" s="2" t="inlineStr">
         <is>
           <t>self-binding</t>
         </is>
       </c>
-      <c r="C236" s="2" t="inlineStr">
+      <c r="C238" s="2" t="inlineStr">
         <is>
           <t>mental process</t>
         </is>
       </c>
-      <c r="D236" s="2" t="inlineStr">
+      <c r="D238" s="2" t="inlineStr">
         <is>
           <t>A mental process that involves creating adverse consequences for oneself if one does not stick to an intended course of action.</t>
         </is>
       </c>
-      <c r="E236" s="2" t="inlineStr"/>
-      <c r="F236" s="2" t="inlineStr"/>
-      <c r="G236" s="2" t="inlineStr">
+      <c r="E238" s="2" t="inlineStr"/>
+      <c r="F238" s="2" t="inlineStr"/>
+      <c r="G238" s="2" t="inlineStr">
         <is>
           <t>Pre-commitment</t>
         </is>
       </c>
-      <c r="H236" s="2" t="inlineStr"/>
-      <c r="I236" s="2" t="inlineStr"/>
-      <c r="J236" s="2" t="inlineStr"/>
-      <c r="K236" s="2" t="inlineStr"/>
-      <c r="L236" s="2" t="inlineStr"/>
-      <c r="M236" s="2" t="inlineStr"/>
-      <c r="N236" s="2" t="inlineStr">
+      <c r="H238" s="2" t="inlineStr"/>
+      <c r="I238" s="2" t="inlineStr"/>
+      <c r="J238" s="2" t="inlineStr"/>
+      <c r="K238" s="2" t="inlineStr"/>
+      <c r="L238" s="2" t="inlineStr"/>
+      <c r="M238" s="2" t="inlineStr"/>
+      <c r="N238" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="O236" s="2" t="inlineStr"/>
-      <c r="P236" s="2" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006154</t>
-        </is>
-      </c>
-      <c r="B237" s="3" t="inlineStr">
-        <is>
-          <t>self-efficacy belief for a behaviour</t>
-        </is>
-      </c>
-      <c r="C237" s="3" t="inlineStr">
-        <is>
-          <t>belief</t>
-        </is>
-      </c>
-      <c r="D237" s="3" t="inlineStr">
-        <is>
-          <t>A belief about one's capabilities to organise and execute a behaviour.</t>
-        </is>
-      </c>
-      <c r="E237" s="3" t="inlineStr"/>
-      <c r="F237" s="3" t="inlineStr"/>
-      <c r="G237" s="3" t="inlineStr"/>
-      <c r="H237" s="3" t="inlineStr"/>
-      <c r="I237" s="3" t="inlineStr">
-        <is>
-          <t>The phrase 'to organise' refers to the ability to organise mental processes and sequences of actions.
-'self-efficacy belief for a behaviour' is part of 'self-efficacy belief for a behaviour and its associated outcomes'. However, the latter also includes a belief about the outcomes associated with behaviour.</t>
-        </is>
-      </c>
-      <c r="J237" s="3" t="inlineStr"/>
-      <c r="K237" s="3" t="inlineStr"/>
-      <c r="L237" s="3" t="inlineStr"/>
-      <c r="M237" s="3" t="inlineStr"/>
-      <c r="N237" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O237" s="3" t="inlineStr"/>
-      <c r="P237" s="3" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006043</t>
-        </is>
-      </c>
-      <c r="B238" s="3" t="inlineStr">
-        <is>
-          <t>self-efficacy belief for a behaviour and its associated outcomes</t>
-        </is>
-      </c>
-      <c r="C238" s="3" t="inlineStr">
-        <is>
-          <t>belief</t>
-        </is>
-      </c>
-      <c r="D238" s="3" t="inlineStr">
-        <is>
-          <t>A belief about one's capabilities to organise and execute a behaviour and achieve the outcomes associated with this behaviour.</t>
-        </is>
-      </c>
-      <c r="E238" s="3" t="inlineStr"/>
-      <c r="F238" s="3" t="inlineStr"/>
-      <c r="G238" s="3" t="inlineStr"/>
-      <c r="H238" s="3" t="inlineStr"/>
-      <c r="I238" s="3" t="inlineStr">
-        <is>
-          <t>The phrase 'to organise' refers to the ability to organise mental processes and sequences of actions.
-'self-efficacy belief for a behaviour' is part of 'self-efficacy belief for a behaviour and its associated outcomes'. However, the latter also includes a belief about the outcomes associated with behaviour.</t>
-        </is>
-      </c>
-      <c r="J238" s="3" t="inlineStr"/>
-      <c r="K238" s="3" t="inlineStr">
-        <is>
-          <t>self-efficacy belief for a behaviour</t>
-        </is>
-      </c>
-      <c r="L238" s="3" t="inlineStr"/>
-      <c r="M238" s="3" t="inlineStr"/>
-      <c r="N238" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O238" s="3" t="inlineStr"/>
-      <c r="P238" s="3" t="inlineStr"/>
+      <c r="O238" s="2" t="inlineStr"/>
+      <c r="P238" s="2" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006050</t>
+          <t>BCIO:006154</t>
         </is>
       </c>
       <c r="B239" s="3" t="inlineStr">
         <is>
-          <t>self-identity</t>
+          <t>self-efficacy belief for a behaviour</t>
         </is>
       </c>
       <c r="C239" s="3" t="inlineStr">
         <is>
-          <t>cognitive representation</t>
+          <t>belief</t>
         </is>
       </c>
       <c r="D239" s="3" t="inlineStr">
         <is>
-          <t>A cognitive representation that a person has about themselves.</t>
+          <t>A belief about one's capabilities to organise and execute a behaviour.</t>
         </is>
       </c>
       <c r="E239" s="3" t="inlineStr"/>
       <c r="F239" s="3" t="inlineStr"/>
       <c r="G239" s="3" t="inlineStr"/>
       <c r="H239" s="3" t="inlineStr"/>
-      <c r="I239" s="3" t="inlineStr"/>
+      <c r="I239" s="3" t="inlineStr">
+        <is>
+          <t>The phrase 'to organise' refers to the ability to organise mental processes and sequences of actions.
+'self-efficacy belief for a behaviour' is part of 'self-efficacy belief for a behaviour and its associated outcomes'. However, the latter also includes a belief about the outcomes associated with behaviour.</t>
+        </is>
+      </c>
       <c r="J239" s="3" t="inlineStr"/>
       <c r="K239" s="3" t="inlineStr"/>
       <c r="L239" s="3" t="inlineStr"/>
@@ -10199,22 +10190,22 @@
     <row r="240">
       <c r="A240" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006137</t>
+          <t>BCIO:006043</t>
         </is>
       </c>
       <c r="B240" s="3" t="inlineStr">
         <is>
-          <t>self-monitoring</t>
+          <t>self-efficacy belief for a behaviour and its associated outcomes</t>
         </is>
       </c>
       <c r="C240" s="3" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>belief</t>
         </is>
       </c>
       <c r="D240" s="3" t="inlineStr">
         <is>
-          <t>A mental process in which one observes one's own behaviour or mental processes.</t>
+          <t>A belief about one's capabilities to organise and execute a behaviour and achieve the outcomes associated with this behaviour.</t>
         </is>
       </c>
       <c r="E240" s="3" t="inlineStr"/>
@@ -10223,13 +10214,16 @@
       <c r="H240" s="3" t="inlineStr"/>
       <c r="I240" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">There are behaviour change techniques labelled 'Self-monitoring of behaviour' and 'Self-monitoring of outcome of behaviour'. These are about establishing a method for monitoring states. In contrast, the MoA is the mental process of monitoring.
-'Self-monitoring of behaviour' is defined as 'Instruct self recording of specified behaviour/s (with or without associated thoughts, emotions, situations) as part of a behaviour change strategy ' (Michie et al., 2013).
-'Self-monitoring of outcome of behaviour' is defined "Establish a method for the person to monitor and record their behavior(s) as part of a behavior change strategy"  (Michie et al., 2013). </t>
+          <t>The phrase 'to organise' refers to the ability to organise mental processes and sequences of actions.
+'self-efficacy belief for a behaviour' is part of 'self-efficacy belief for a behaviour and its associated outcomes'. However, the latter also includes a belief about the outcomes associated with behaviour.</t>
         </is>
       </c>
       <c r="J240" s="3" t="inlineStr"/>
-      <c r="K240" s="3" t="inlineStr"/>
+      <c r="K240" s="3" t="inlineStr">
+        <is>
+          <t>self-efficacy belief for a behaviour</t>
+        </is>
+      </c>
       <c r="L240" s="3" t="inlineStr"/>
       <c r="M240" s="3" t="inlineStr"/>
       <c r="N240" s="3" t="inlineStr">
@@ -10243,33 +10237,29 @@
     <row r="241">
       <c r="A241" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006005</t>
+          <t>BCIO:006050</t>
         </is>
       </c>
       <c r="B241" s="3" t="inlineStr">
         <is>
-          <t>self-regulation capability</t>
+          <t>self-identity</t>
         </is>
       </c>
       <c r="C241" s="3" t="inlineStr">
         <is>
-          <t>mental capability</t>
+          <t>cognitive representation</t>
         </is>
       </c>
       <c r="D241" s="3" t="inlineStr">
         <is>
-          <t>A mental capability that involves processes that modulate the frequency, rate or extent of a response to external or internal stimuli and that are instigated by the person themselves.</t>
+          <t>A cognitive representation that a person has about themselves.</t>
         </is>
       </c>
       <c r="E241" s="3" t="inlineStr"/>
       <c r="F241" s="3" t="inlineStr"/>
       <c r="G241" s="3" t="inlineStr"/>
       <c r="H241" s="3" t="inlineStr"/>
-      <c r="I241" s="3" t="inlineStr">
-        <is>
-          <t>'Modulate’ refers to ‘modifying or controlling influence on or change the strength’ and involves processes</t>
-        </is>
-      </c>
+      <c r="I241" s="3" t="inlineStr"/>
       <c r="J241" s="3" t="inlineStr"/>
       <c r="K241" s="3" t="inlineStr"/>
       <c r="L241" s="3" t="inlineStr"/>
@@ -10285,29 +10275,35 @@
     <row r="242">
       <c r="A242" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006103</t>
+          <t>BCIO:006137</t>
         </is>
       </c>
       <c r="B242" s="3" t="inlineStr">
         <is>
-          <t>self-regulation of behaviour</t>
+          <t>self-monitoring</t>
         </is>
       </c>
       <c r="C242" s="3" t="inlineStr">
         <is>
-          <t>self-regulation process</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D242" s="3" t="inlineStr">
         <is>
-          <t>A self-regulation process that modulates the frequency, rate or extent of one's  performance of a behaviour.</t>
+          <t>A mental process in which one observes one's own behaviour or mental processes.</t>
         </is>
       </c>
       <c r="E242" s="3" t="inlineStr"/>
       <c r="F242" s="3" t="inlineStr"/>
       <c r="G242" s="3" t="inlineStr"/>
       <c r="H242" s="3" t="inlineStr"/>
-      <c r="I242" s="3" t="inlineStr"/>
+      <c r="I242" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">There are behaviour change techniques labelled 'Self-monitoring of behaviour' and 'Self-monitoring of outcome of behaviour'. These are about establishing a method for monitoring states. In contrast, the MoA is the mental process of monitoring.
+'Self-monitoring of behaviour' is defined as 'Instruct self recording of specified behaviour/s (with or without associated thoughts, emotions, situations) as part of a behaviour change strategy ' (Michie et al., 2013).
+'Self-monitoring of outcome of behaviour' is defined "Establish a method for the person to monitor and record their behavior(s) as part of a behavior change strategy"  (Michie et al., 2013). </t>
+        </is>
+      </c>
       <c r="J242" s="3" t="inlineStr"/>
       <c r="K242" s="3" t="inlineStr"/>
       <c r="L242" s="3" t="inlineStr"/>
@@ -10321,256 +10317,260 @@
       <c r="P242" s="3" t="inlineStr"/>
     </row>
     <row r="243">
-      <c r="A243" s="2" t="inlineStr">
+      <c r="A243" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006005</t>
+        </is>
+      </c>
+      <c r="B243" s="3" t="inlineStr">
+        <is>
+          <t>self-regulation capability</t>
+        </is>
+      </c>
+      <c r="C243" s="3" t="inlineStr">
+        <is>
+          <t>mental capability</t>
+        </is>
+      </c>
+      <c r="D243" s="3" t="inlineStr">
+        <is>
+          <t>A mental capability that involves processes that modulate the frequency, rate or extent of a response to external or internal stimuli and that are instigated by the person themselves.</t>
+        </is>
+      </c>
+      <c r="E243" s="3" t="inlineStr"/>
+      <c r="F243" s="3" t="inlineStr"/>
+      <c r="G243" s="3" t="inlineStr"/>
+      <c r="H243" s="3" t="inlineStr"/>
+      <c r="I243" s="3" t="inlineStr">
+        <is>
+          <t>'Modulate’ refers to ‘modifying or controlling influence on or change the strength’ and involves processes</t>
+        </is>
+      </c>
+      <c r="J243" s="3" t="inlineStr"/>
+      <c r="K243" s="3" t="inlineStr"/>
+      <c r="L243" s="3" t="inlineStr"/>
+      <c r="M243" s="3" t="inlineStr"/>
+      <c r="N243" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O243" s="3" t="inlineStr"/>
+      <c r="P243" s="3" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006103</t>
+        </is>
+      </c>
+      <c r="B244" s="3" t="inlineStr">
+        <is>
+          <t>self-regulation of behaviour</t>
+        </is>
+      </c>
+      <c r="C244" s="3" t="inlineStr">
+        <is>
+          <t>self-regulation process</t>
+        </is>
+      </c>
+      <c r="D244" s="3" t="inlineStr">
+        <is>
+          <t>A self-regulation process that modulates the frequency, rate or extent of one's  performance of a behaviour.</t>
+        </is>
+      </c>
+      <c r="E244" s="3" t="inlineStr"/>
+      <c r="F244" s="3" t="inlineStr"/>
+      <c r="G244" s="3" t="inlineStr"/>
+      <c r="H244" s="3" t="inlineStr"/>
+      <c r="I244" s="3" t="inlineStr"/>
+      <c r="J244" s="3" t="inlineStr"/>
+      <c r="K244" s="3" t="inlineStr"/>
+      <c r="L244" s="3" t="inlineStr"/>
+      <c r="M244" s="3" t="inlineStr"/>
+      <c r="N244" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O244" s="3" t="inlineStr"/>
+      <c r="P244" s="3" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="inlineStr">
         <is>
           <t>BCIO:050268</t>
         </is>
       </c>
-      <c r="B243" s="2" t="inlineStr">
+      <c r="B245" s="2" t="inlineStr">
         <is>
           <t>self-regulation process</t>
         </is>
       </c>
-      <c r="C243" s="2" t="inlineStr">
+      <c r="C245" s="2" t="inlineStr">
         <is>
           <t>bodily process</t>
         </is>
       </c>
-      <c r="D243" s="2" t="inlineStr">
+      <c r="D245" s="2" t="inlineStr">
         <is>
           <t>A bodily process that modulates the frequency, rate or extent of a response to external or internal stimuli and that is instigated by the person.</t>
         </is>
       </c>
-      <c r="E243" s="2" t="inlineStr"/>
-      <c r="F243" s="2" t="inlineStr"/>
-      <c r="G243" s="2" t="inlineStr"/>
-      <c r="H243" s="2" t="inlineStr"/>
-      <c r="I243" s="2" t="inlineStr"/>
-      <c r="J243" s="2" t="inlineStr"/>
-      <c r="K243" s="2" t="inlineStr"/>
-      <c r="L243" s="2" t="inlineStr"/>
-      <c r="M243" s="2" t="inlineStr"/>
-      <c r="N243" s="2" t="inlineStr">
+      <c r="E245" s="2" t="inlineStr"/>
+      <c r="F245" s="2" t="inlineStr"/>
+      <c r="G245" s="2" t="inlineStr"/>
+      <c r="H245" s="2" t="inlineStr"/>
+      <c r="I245" s="2" t="inlineStr"/>
+      <c r="J245" s="2" t="inlineStr"/>
+      <c r="K245" s="2" t="inlineStr"/>
+      <c r="L245" s="2" t="inlineStr"/>
+      <c r="M245" s="2" t="inlineStr"/>
+      <c r="N245" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="O243" s="2" t="inlineStr"/>
-      <c r="P243" s="2" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="2" t="inlineStr">
+      <c r="O245" s="2" t="inlineStr"/>
+      <c r="P245" s="2" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="inlineStr">
         <is>
           <t>BCIO:050222</t>
         </is>
       </c>
-      <c r="B244" s="2" t="inlineStr">
+      <c r="B246" s="2" t="inlineStr">
         <is>
           <t>self-regulatory skill</t>
         </is>
       </c>
-      <c r="C244" s="2" t="inlineStr">
+      <c r="C246" s="2" t="inlineStr">
         <is>
           <t>self-regulation capability</t>
         </is>
       </c>
-      <c r="D244" s="2" t="inlineStr">
+      <c r="D246" s="2" t="inlineStr">
         <is>
           <t>A self-regulation capability that is acquired through training or practice.</t>
         </is>
       </c>
-      <c r="E244" s="2" t="inlineStr"/>
-      <c r="F244" s="2" t="inlineStr"/>
-      <c r="G244" s="2" t="inlineStr"/>
-      <c r="H244" s="2" t="inlineStr"/>
-      <c r="I244" s="2" t="inlineStr"/>
-      <c r="J244" s="2" t="inlineStr"/>
-      <c r="K244" s="2" t="inlineStr"/>
-      <c r="L244" s="2" t="inlineStr"/>
-      <c r="M244" s="2" t="inlineStr"/>
-      <c r="N244" s="2" t="inlineStr">
+      <c r="E246" s="2" t="inlineStr"/>
+      <c r="F246" s="2" t="inlineStr"/>
+      <c r="G246" s="2" t="inlineStr"/>
+      <c r="H246" s="2" t="inlineStr"/>
+      <c r="I246" s="2" t="inlineStr"/>
+      <c r="J246" s="2" t="inlineStr"/>
+      <c r="K246" s="2" t="inlineStr"/>
+      <c r="L246" s="2" t="inlineStr"/>
+      <c r="M246" s="2" t="inlineStr"/>
+      <c r="N246" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="O244" s="2" t="inlineStr"/>
-      <c r="P244" s="2" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="3" t="inlineStr">
+      <c r="O246" s="2" t="inlineStr"/>
+      <c r="P246" s="2" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="3" t="inlineStr">
         <is>
           <t>BCIO:006106</t>
         </is>
       </c>
-      <c r="B245" s="3" t="inlineStr">
+      <c r="B247" s="3" t="inlineStr">
         <is>
           <t>self-reinforcing self-regulation</t>
         </is>
       </c>
-      <c r="C245" s="3" t="inlineStr">
+      <c r="C247" s="3" t="inlineStr">
         <is>
           <t>self-regulation of behaviour</t>
         </is>
       </c>
-      <c r="D245" s="3" t="inlineStr">
+      <c r="D247" s="3" t="inlineStr">
         <is>
           <t>Self-regulation of behaviour through self-administering a reward for performing an intended behaviour.</t>
         </is>
       </c>
-      <c r="E245" s="3" t="inlineStr"/>
-      <c r="F245" s="3" t="inlineStr">
+      <c r="E247" s="3" t="inlineStr"/>
+      <c r="F247" s="3" t="inlineStr">
         <is>
           <t>A bodily process that modulates the frequency, rate or extent of behaviour through self-administering a reward for performing an intended behaviour.</t>
         </is>
       </c>
-      <c r="G245" s="3" t="inlineStr"/>
-      <c r="H245" s="3" t="inlineStr"/>
-      <c r="I245" s="3" t="inlineStr"/>
-      <c r="J245" s="3" t="inlineStr"/>
-      <c r="K245" s="3" t="inlineStr"/>
-      <c r="L245" s="3" t="inlineStr"/>
-      <c r="M245" s="3" t="inlineStr"/>
-      <c r="N245" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O245" s="3" t="inlineStr"/>
-      <c r="P245" s="3" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="3" t="inlineStr">
+      <c r="G247" s="3" t="inlineStr"/>
+      <c r="H247" s="3" t="inlineStr"/>
+      <c r="I247" s="3" t="inlineStr"/>
+      <c r="J247" s="3" t="inlineStr"/>
+      <c r="K247" s="3" t="inlineStr"/>
+      <c r="L247" s="3" t="inlineStr"/>
+      <c r="M247" s="3" t="inlineStr"/>
+      <c r="N247" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O247" s="3" t="inlineStr"/>
+      <c r="P247" s="3" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="3" t="inlineStr">
         <is>
           <t>BCIO:006128</t>
         </is>
       </c>
-      <c r="B246" s="3" t="inlineStr">
+      <c r="B248" s="3" t="inlineStr">
         <is>
           <t>semantic memory</t>
         </is>
       </c>
-      <c r="C246" s="3" t="inlineStr">
+      <c r="C248" s="3" t="inlineStr">
         <is>
           <t>memory</t>
         </is>
       </c>
-      <c r="D246" s="3" t="inlineStr">
+      <c r="D248" s="3" t="inlineStr">
         <is>
           <t>A memory process that deals with the receipt, storage, retrieval and modification of information associated with meanings, understandings or conceptual facts about the world.</t>
         </is>
       </c>
-      <c r="E246" s="3" t="inlineStr"/>
-      <c r="F246" s="3" t="inlineStr"/>
-      <c r="G246" s="3" t="inlineStr"/>
-      <c r="H246" s="3" t="inlineStr"/>
-      <c r="I246" s="3" t="inlineStr"/>
-      <c r="J246" s="3" t="inlineStr"/>
-      <c r="K246" s="3" t="inlineStr"/>
-      <c r="L246" s="3" t="inlineStr"/>
-      <c r="M246" s="3" t="inlineStr"/>
-      <c r="N246" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O246" s="3" t="inlineStr"/>
-      <c r="P246" s="3" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" t="inlineStr">
-        <is>
-          <t>GO:0046960</t>
-        </is>
-      </c>
-      <c r="B247" t="inlineStr">
-        <is>
-          <t>sensitization</t>
-        </is>
-      </c>
-      <c r="C247" t="inlineStr">
-        <is>
-          <t>non-associative learning</t>
-        </is>
-      </c>
-      <c r="D247" t="inlineStr">
-        <is>
-          <t>An increase in a behavioural response to a repeated stimulus.</t>
-        </is>
-      </c>
-      <c r="E247" t="inlineStr"/>
-      <c r="F247" t="inlineStr"/>
-      <c r="G247" t="inlineStr"/>
-      <c r="H247" t="inlineStr"/>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
-      <c r="M247" t="inlineStr"/>
-      <c r="N247" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="O247" t="inlineStr"/>
-      <c r="P247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" t="inlineStr">
-        <is>
-          <t>MFOEM:000040</t>
-        </is>
-      </c>
-      <c r="B248" t="inlineStr">
-        <is>
-          <t>sexual pleasure</t>
-        </is>
-      </c>
-      <c r="C248" t="inlineStr">
-        <is>
-          <t>pleasure</t>
-        </is>
-      </c>
-      <c r="D248" t="inlineStr">
-        <is>
-          <t>Pleasure that is experienced as a result of sexual activities.</t>
-        </is>
-      </c>
-      <c r="E248" t="inlineStr"/>
-      <c r="F248" t="inlineStr"/>
-      <c r="G248" t="inlineStr"/>
-      <c r="H248" t="inlineStr"/>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="inlineStr"/>
-      <c r="N248" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="O248" t="inlineStr"/>
-      <c r="P248" t="inlineStr"/>
+      <c r="E248" s="3" t="inlineStr"/>
+      <c r="F248" s="3" t="inlineStr"/>
+      <c r="G248" s="3" t="inlineStr"/>
+      <c r="H248" s="3" t="inlineStr"/>
+      <c r="I248" s="3" t="inlineStr"/>
+      <c r="J248" s="3" t="inlineStr"/>
+      <c r="K248" s="3" t="inlineStr"/>
+      <c r="L248" s="3" t="inlineStr"/>
+      <c r="M248" s="3" t="inlineStr"/>
+      <c r="N248" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O248" s="3" t="inlineStr"/>
+      <c r="P248" s="3" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>MFOEM:000055</t>
+          <t>GO:0046960</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>shame</t>
+          <t>sensitization</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>emotion process</t>
+          <t>non-associative learning</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>A negative emotion that is distressing and occurs when one appraises one's behaviour or circumstance as wrong, dishonourable, immodest or indecorous.</t>
+          <t>An increase in a behavioural response to a repeated stimulus.</t>
         </is>
       </c>
       <c r="E249" t="inlineStr"/>
@@ -10591,111 +10591,111 @@
       <c r="P249" t="inlineStr"/>
     </row>
     <row r="250">
-      <c r="A250" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006044</t>
-        </is>
-      </c>
-      <c r="B250" s="3" t="inlineStr">
-        <is>
-          <t>situational self-efficacy belief for a behaviour</t>
-        </is>
-      </c>
-      <c r="C250" s="3" t="inlineStr">
-        <is>
-          <t>self-efficacy belief for a behaviour</t>
-        </is>
-      </c>
-      <c r="D250" s="3" t="inlineStr">
-        <is>
-          <t>Self-efficacy belief for a behaviour when a barrier or facilitator of the behaviour is encountered.</t>
-        </is>
-      </c>
-      <c r="E250" s="3" t="inlineStr"/>
-      <c r="F250" s="3" t="inlineStr"/>
-      <c r="G250" s="3" t="inlineStr"/>
-      <c r="H250" s="3" t="inlineStr"/>
-      <c r="I250" s="3" t="inlineStr">
-        <is>
-          <t>The 'barrier or facilitator' specified in the definition can be external or internal.</t>
-        </is>
-      </c>
-      <c r="J250" s="3" t="inlineStr"/>
-      <c r="K250" s="3" t="inlineStr"/>
-      <c r="L250" s="3" t="inlineStr"/>
-      <c r="M250" s="3" t="inlineStr"/>
-      <c r="N250" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O250" s="3" t="inlineStr"/>
-      <c r="P250" s="3" t="inlineStr"/>
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>MFOEM:000040</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>sexual pleasure</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>pleasure</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>Pleasure that is experienced as a result of sexual activities.</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr"/>
+      <c r="F250" t="inlineStr"/>
+      <c r="G250" t="inlineStr"/>
+      <c r="H250" t="inlineStr"/>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr"/>
+      <c r="M250" t="inlineStr"/>
+      <c r="N250" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="O250" t="inlineStr"/>
+      <c r="P250" t="inlineStr"/>
     </row>
     <row r="251">
-      <c r="A251" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006014</t>
-        </is>
-      </c>
-      <c r="B251" s="3" t="inlineStr">
-        <is>
-          <t>social alienation</t>
-        </is>
-      </c>
-      <c r="C251" s="3" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
-      <c r="D251" s="3" t="inlineStr">
-        <is>
-          <t>A mental disposition to perceive or experience oneself as isolated from and not meaningfully involved in social groups.</t>
-        </is>
-      </c>
-      <c r="E251" s="3" t="inlineStr"/>
-      <c r="F251" s="3" t="inlineStr"/>
-      <c r="G251" s="3" t="inlineStr"/>
-      <c r="H251" s="3" t="inlineStr"/>
-      <c r="I251" s="3" t="inlineStr"/>
-      <c r="J251" s="3" t="inlineStr"/>
-      <c r="K251" s="3" t="inlineStr"/>
-      <c r="L251" s="3" t="inlineStr"/>
-      <c r="M251" s="3" t="inlineStr"/>
-      <c r="N251" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O251" s="3" t="inlineStr"/>
-      <c r="P251" s="3" t="inlineStr"/>
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>MFOEM:000055</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>shame</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>emotion process</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>A negative emotion that is distressing and occurs when one appraises one's behaviour or circumstance as wrong, dishonourable, immodest or indecorous.</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr"/>
+      <c r="F251" t="inlineStr"/>
+      <c r="G251" t="inlineStr"/>
+      <c r="H251" t="inlineStr"/>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
+      <c r="M251" t="inlineStr"/>
+      <c r="N251" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="O251" t="inlineStr"/>
+      <c r="P251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006011</t>
+          <t>BCIO:006044</t>
         </is>
       </c>
       <c r="B252" s="3" t="inlineStr">
         <is>
-          <t>social behavioural capability</t>
+          <t>situational self-efficacy belief for a behaviour</t>
         </is>
       </c>
       <c r="C252" s="3" t="inlineStr">
         <is>
-          <t>behavioural capability</t>
+          <t>self-efficacy belief for a behaviour</t>
         </is>
       </c>
       <c r="D252" s="3" t="inlineStr">
         <is>
-          <t>A personal capability includes interpersonal behaviour in its realisation.</t>
+          <t>Self-efficacy belief for a behaviour when a barrier or facilitator of the behaviour is encountered.</t>
         </is>
       </c>
       <c r="E252" s="3" t="inlineStr"/>
       <c r="F252" s="3" t="inlineStr"/>
       <c r="G252" s="3" t="inlineStr"/>
       <c r="H252" s="3" t="inlineStr"/>
-      <c r="I252" s="3" t="inlineStr"/>
+      <c r="I252" s="3" t="inlineStr">
+        <is>
+          <t>The 'barrier or facilitator' specified in the definition can be external or internal.</t>
+        </is>
+      </c>
       <c r="J252" s="3" t="inlineStr"/>
       <c r="K252" s="3" t="inlineStr"/>
       <c r="L252" s="3" t="inlineStr"/>
@@ -10711,30 +10711,26 @@
     <row r="253">
       <c r="A253" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006090</t>
+          <t>BCIO:006014</t>
         </is>
       </c>
       <c r="B253" s="3" t="inlineStr">
         <is>
-          <t>social behavioural opportunity</t>
+          <t>social alienation</t>
         </is>
       </c>
       <c r="C253" s="3" t="inlineStr">
         <is>
-          <t>behavioural opportunity</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D253" s="3" t="inlineStr">
         <is>
-          <t>A behavioural opportunity that involves the social environmental system.</t>
+          <t>A mental disposition to perceive or experience oneself as isolated from and not meaningfully involved in social groups.</t>
         </is>
       </c>
       <c r="E253" s="3" t="inlineStr"/>
-      <c r="F253" s="3" t="inlineStr">
-        <is>
-          <t>Properties of a person's environment relating to the social world they inhabit, including the rules and norms that are operating and social cues.</t>
-        </is>
-      </c>
+      <c r="F253" s="3" t="inlineStr"/>
       <c r="G253" s="3" t="inlineStr"/>
       <c r="H253" s="3" t="inlineStr"/>
       <c r="I253" s="3" t="inlineStr"/>
@@ -10753,22 +10749,22 @@
     <row r="254">
       <c r="A254" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006118</t>
+          <t>BCIO:006011</t>
         </is>
       </c>
       <c r="B254" s="3" t="inlineStr">
         <is>
-          <t>social comparison process</t>
+          <t>social behavioural capability</t>
         </is>
       </c>
       <c r="C254" s="3" t="inlineStr">
         <is>
-          <t>judging</t>
+          <t>behavioural capability</t>
         </is>
       </c>
       <c r="D254" s="3" t="inlineStr">
         <is>
-          <t>Judging oneself or one's social group in relation to the qualities or characteristics of another person or social group.</t>
+          <t>A personal capability includes interpersonal behaviour in its realisation.</t>
         </is>
       </c>
       <c r="E254" s="3" t="inlineStr"/>
@@ -10791,26 +10787,30 @@
     <row r="255">
       <c r="A255" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006074</t>
+          <t>BCIO:006090</t>
         </is>
       </c>
       <c r="B255" s="3" t="inlineStr">
         <is>
-          <t>social embeddedness</t>
+          <t>social behavioural opportunity</t>
         </is>
       </c>
       <c r="C255" s="3" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>behavioural opportunity</t>
         </is>
       </c>
       <c r="D255" s="3" t="inlineStr">
         <is>
-          <t>A mental disposition to experience a feeling of being connected by social attachments.</t>
+          <t>A behavioural opportunity that involves the social environmental system.</t>
         </is>
       </c>
       <c r="E255" s="3" t="inlineStr"/>
-      <c r="F255" s="3" t="inlineStr"/>
+      <c r="F255" s="3" t="inlineStr">
+        <is>
+          <t>Properties of a person's environment relating to the social world they inhabit, including the rules and norms that are operating and social cues.</t>
+        </is>
+      </c>
       <c r="G255" s="3" t="inlineStr"/>
       <c r="H255" s="3" t="inlineStr"/>
       <c r="I255" s="3" t="inlineStr"/>
@@ -10829,22 +10829,22 @@
     <row r="256">
       <c r="A256" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006001</t>
+          <t>BCIO:006118</t>
         </is>
       </c>
       <c r="B256" s="3" t="inlineStr">
         <is>
-          <t>social environmental system</t>
+          <t>social comparison process</t>
         </is>
       </c>
       <c r="C256" s="3" t="inlineStr">
         <is>
-          <t>environmental system</t>
+          <t>judging</t>
         </is>
       </c>
       <c r="D256" s="3" t="inlineStr">
         <is>
-          <t>An environmental system that consists of people, their pets, social and cultural institutions and processes that influence the life of people and social groups.</t>
+          <t>Judging oneself or one's social group in relation to the qualities or characteristics of another person or social group.</t>
         </is>
       </c>
       <c r="E256" s="3" t="inlineStr"/>
@@ -10867,33 +10867,29 @@
     <row r="257">
       <c r="A257" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006051</t>
+          <t>BCIO:006074</t>
         </is>
       </c>
       <c r="B257" s="3" t="inlineStr">
         <is>
-          <t>social identity</t>
+          <t>social embeddedness</t>
         </is>
       </c>
       <c r="C257" s="3" t="inlineStr">
         <is>
-          <t>self-identity</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D257" s="3" t="inlineStr">
         <is>
-          <t>A self-identity in which the representation involves a relation between the identity holder and another person or group.</t>
+          <t>A mental disposition to experience a feeling of being connected by social attachments.</t>
         </is>
       </c>
       <c r="E257" s="3" t="inlineStr"/>
       <c r="F257" s="3" t="inlineStr"/>
       <c r="G257" s="3" t="inlineStr"/>
       <c r="H257" s="3" t="inlineStr"/>
-      <c r="I257" s="3" t="inlineStr">
-        <is>
-          <t>'Social identity' can involve a sense of one's rank or status in reference to other groups.</t>
-        </is>
-      </c>
+      <c r="I257" s="3" t="inlineStr"/>
       <c r="J257" s="3" t="inlineStr"/>
       <c r="K257" s="3" t="inlineStr"/>
       <c r="L257" s="3" t="inlineStr"/>
@@ -10909,32 +10905,28 @@
     <row r="258">
       <c r="A258" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006099</t>
+          <t>BCIO:006001</t>
         </is>
       </c>
       <c r="B258" s="3" t="inlineStr">
         <is>
-          <t>social influence behaviour</t>
+          <t>social environmental system</t>
         </is>
       </c>
       <c r="C258" s="3" t="inlineStr">
         <is>
-          <t>inter-personal behaviour</t>
+          <t>environmental system</t>
         </is>
       </c>
       <c r="D258" s="3" t="inlineStr">
         <is>
-          <t>An inter-personal behaviour where a person exerts an influence on the behaviour of another.</t>
+          <t>An environmental system that consists of people, their pets, social and cultural institutions and processes that influence the life of people and social groups.</t>
         </is>
       </c>
       <c r="E258" s="3" t="inlineStr"/>
       <c r="F258" s="3" t="inlineStr"/>
       <c r="G258" s="3" t="inlineStr"/>
-      <c r="H258" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Social support from social network. </t>
-        </is>
-      </c>
+      <c r="H258" s="3" t="inlineStr"/>
       <c r="I258" s="3" t="inlineStr"/>
       <c r="J258" s="3" t="inlineStr"/>
       <c r="K258" s="3" t="inlineStr"/>
@@ -10951,22 +10943,22 @@
     <row r="259">
       <c r="A259" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006082</t>
+          <t>BCIO:006051</t>
         </is>
       </c>
       <c r="B259" s="3" t="inlineStr">
         <is>
-          <t>social role</t>
+          <t>social identity</t>
         </is>
       </c>
       <c r="C259" s="3" t="inlineStr">
         <is>
-          <t>personal role</t>
+          <t>self-identity</t>
         </is>
       </c>
       <c r="D259" s="3" t="inlineStr">
         <is>
-          <t>A personal role that is realised in human social processes.</t>
+          <t>A self-identity in which the representation involves a relation between the identity holder and another person or group.</t>
         </is>
       </c>
       <c r="E259" s="3" t="inlineStr"/>
@@ -10975,7 +10967,7 @@
       <c r="H259" s="3" t="inlineStr"/>
       <c r="I259" s="3" t="inlineStr">
         <is>
-          <t>A role can be assigned without being realised. A person realises a role by doing something.</t>
+          <t>'Social identity' can involve a sense of one's rank or status in reference to other groups.</t>
         </is>
       </c>
       <c r="J259" s="3" t="inlineStr"/>
@@ -10993,28 +10985,32 @@
     <row r="260">
       <c r="A260" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006012</t>
+          <t>BCIO:006099</t>
         </is>
       </c>
       <c r="B260" s="3" t="inlineStr">
         <is>
-          <t>social skill</t>
+          <t>social influence behaviour</t>
         </is>
       </c>
       <c r="C260" s="3" t="inlineStr">
         <is>
-          <t>social behavioural capability</t>
+          <t>inter-personal behaviour</t>
         </is>
       </c>
       <c r="D260" s="3" t="inlineStr">
         <is>
-          <t>A social capability acquired through training or practice.</t>
+          <t>An inter-personal behaviour where a person exerts an influence on the behaviour of another.</t>
         </is>
       </c>
       <c r="E260" s="3" t="inlineStr"/>
       <c r="F260" s="3" t="inlineStr"/>
       <c r="G260" s="3" t="inlineStr"/>
-      <c r="H260" s="3" t="inlineStr"/>
+      <c r="H260" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Social support from social network. </t>
+        </is>
+      </c>
       <c r="I260" s="3" t="inlineStr"/>
       <c r="J260" s="3" t="inlineStr"/>
       <c r="K260" s="3" t="inlineStr"/>
@@ -11031,22 +11027,22 @@
     <row r="261">
       <c r="A261" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006072</t>
+          <t>BCIO:006082</t>
         </is>
       </c>
       <c r="B261" s="3" t="inlineStr">
         <is>
-          <t>stereotype</t>
+          <t>social role</t>
         </is>
       </c>
       <c r="C261" s="3" t="inlineStr">
         <is>
-          <t>cognitive schema</t>
+          <t>personal role</t>
         </is>
       </c>
       <c r="D261" s="3" t="inlineStr">
         <is>
-          <t>A cognitive schema that when activated, guides perception, thought, emotion or behaviour toward members of a social group as having certain shared attributes, by virtue of their group membership.</t>
+          <t>A personal role that is realised in human social processes.</t>
         </is>
       </c>
       <c r="E261" s="3" t="inlineStr"/>
@@ -11055,7 +11051,7 @@
       <c r="H261" s="3" t="inlineStr"/>
       <c r="I261" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">The attributes of members are not definitional. For instance, a psychologist studying psychology is not a stereotype. </t>
+          <t>A role can be assigned without being realised. A person realises a role by doing something.</t>
         </is>
       </c>
       <c r="J261" s="3" t="inlineStr"/>
@@ -11071,87 +11067,73 @@
       <c r="P261" s="3" t="inlineStr"/>
     </row>
     <row r="262">
-      <c r="A262" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MFOEM:000006 </t>
-        </is>
-      </c>
-      <c r="B262" t="inlineStr">
-        <is>
-          <t>subjective affective feeling</t>
-        </is>
-      </c>
-      <c r="C262" t="inlineStr">
-        <is>
-          <t>affective process</t>
-        </is>
-      </c>
-      <c r="D262" t="inlineStr">
-        <is>
-          <t>An affective process that involves the experience of internal or external sensory stimuli.</t>
-        </is>
-      </c>
-      <c r="E262" t="inlineStr"/>
-      <c r="F262" t="inlineStr">
-        <is>
-          <t>The conscious experience that a person has of feelings in their body (e.g., hunger), their mood (e.g., feeling cheerful) and their emotion (e.g., feeling nervous), in response to internal or external stimuli.</t>
-        </is>
-      </c>
-      <c r="G262" t="inlineStr">
-        <is>
-          <t>Feeling calm; hunger; pain</t>
-        </is>
-      </c>
-      <c r="H262" t="inlineStr"/>
-      <c r="I262" t="inlineStr">
-        <is>
-          <t>'Subjective affective feeling can have greater or weaker physiological or mental components. The bodily process that are experienced will usually involve some mental process.
-Bodily sensation and the experiences of emotions (e.g., feeling calm) would both qualify as examples of 'subjective affective feeling'.
-As a subclass of 'affective process', subjective affective feelings have valence. Valence refers to the 'the subjective value of an event, object, person, or other entity in the life space of the individual' (https://dictionary.apa.org/valence). Valence ranges from negative to positive.</t>
-        </is>
-      </c>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="inlineStr"/>
-      <c r="N262" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="O262" t="inlineStr"/>
-      <c r="P262" t="inlineStr"/>
+      <c r="A262" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006012</t>
+        </is>
+      </c>
+      <c r="B262" s="3" t="inlineStr">
+        <is>
+          <t>social skill</t>
+        </is>
+      </c>
+      <c r="C262" s="3" t="inlineStr">
+        <is>
+          <t>social behavioural capability</t>
+        </is>
+      </c>
+      <c r="D262" s="3" t="inlineStr">
+        <is>
+          <t>A social capability acquired through training or practice.</t>
+        </is>
+      </c>
+      <c r="E262" s="3" t="inlineStr"/>
+      <c r="F262" s="3" t="inlineStr"/>
+      <c r="G262" s="3" t="inlineStr"/>
+      <c r="H262" s="3" t="inlineStr"/>
+      <c r="I262" s="3" t="inlineStr"/>
+      <c r="J262" s="3" t="inlineStr"/>
+      <c r="K262" s="3" t="inlineStr"/>
+      <c r="L262" s="3" t="inlineStr"/>
+      <c r="M262" s="3" t="inlineStr"/>
+      <c r="N262" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O262" s="3" t="inlineStr"/>
+      <c r="P262" s="3" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006075</t>
+          <t>BCIO:006072</t>
         </is>
       </c>
       <c r="B263" s="3" t="inlineStr">
         <is>
-          <t>subjective need</t>
+          <t>stereotype</t>
         </is>
       </c>
       <c r="C263" s="3" t="inlineStr">
         <is>
-          <t>subjective affective feeling</t>
+          <t>cognitive schema</t>
         </is>
       </c>
       <c r="D263" s="3" t="inlineStr">
         <is>
-          <t>A subjective affective feeling that involves experiencing anticipated relief or continued comfort by obtaining or maintaining a particular state.</t>
+          <t>A cognitive schema that when activated, guides perception, thought, emotion or behaviour toward members of a social group as having certain shared attributes, by virtue of their group membership.</t>
         </is>
       </c>
       <c r="E263" s="3" t="inlineStr"/>
-      <c r="F263" s="3" t="inlineStr">
-        <is>
-          <t>A feeling of anticipated relief or avoidance of discomfort.</t>
-        </is>
-      </c>
+      <c r="F263" s="3" t="inlineStr"/>
       <c r="G263" s="3" t="inlineStr"/>
       <c r="H263" s="3" t="inlineStr"/>
-      <c r="I263" s="3" t="inlineStr"/>
+      <c r="I263" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The attributes of members are not definitional. For instance, a psychologist studying psychology is not a stereotype. </t>
+        </is>
+      </c>
       <c r="J263" s="3" t="inlineStr"/>
       <c r="K263" s="3" t="inlineStr"/>
       <c r="L263" s="3" t="inlineStr"/>
@@ -11167,29 +11149,43 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t xml:space="preserve">MF:0000088 </t>
+          <t xml:space="preserve">MFOEM:000006 </t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>subliminal process</t>
+          <t>subjective affective feeling</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>affective process</t>
         </is>
       </c>
       <c r="D264" t="inlineStr">
         <is>
-          <t>A mental process that involves neuronal activity in response to a sensory stimulus but which is not the subject of consciousness.</t>
+          <t>An affective process that involves the experience of internal or external sensory stimuli.</t>
         </is>
       </c>
       <c r="E264" t="inlineStr"/>
-      <c r="F264" t="inlineStr"/>
-      <c r="G264" t="inlineStr"/>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>The conscious experience that a person has of feelings in their body (e.g., hunger), their mood (e.g., feeling cheerful) and their emotion (e.g., feeling nervous), in response to internal or external stimuli.</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>Feeling calm; hunger; pain</t>
+        </is>
+      </c>
       <c r="H264" t="inlineStr"/>
-      <c r="I264" t="inlineStr"/>
+      <c r="I264" t="inlineStr">
+        <is>
+          <t>'Subjective affective feeling can have greater or weaker physiological or mental components. The bodily process that are experienced will usually involve some mental process.
+Bodily sensation and the experiences of emotions (e.g., feeling calm) would both qualify as examples of 'subjective affective feeling'.
+As a subclass of 'affective process', subjective affective feelings have valence. Valence refers to the 'the subjective value of an event, object, person, or other entity in the life space of the individual' (https://dictionary.apa.org/valence). Valence ranges from negative to positive.</t>
+        </is>
+      </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
       <c r="L264" t="inlineStr"/>
@@ -11203,66 +11199,66 @@
       <c r="P264" t="inlineStr"/>
     </row>
     <row r="265">
-      <c r="A265" t="inlineStr">
-        <is>
-          <t>ADDICTO:0001140</t>
-        </is>
-      </c>
-      <c r="B265" t="inlineStr">
-        <is>
-          <t>substance dependence</t>
-        </is>
-      </c>
-      <c r="C265" t="inlineStr">
-        <is>
-          <t>bodily disposition</t>
-        </is>
-      </c>
-      <c r="D265" t="inlineStr">
-        <is>
-          <t>A bodily disposition which is realised as impaired functioning following reduction or termination of use of a psychoactive substance.</t>
-        </is>
-      </c>
-      <c r="E265" t="inlineStr"/>
-      <c r="F265" t="inlineStr"/>
-      <c r="G265" t="inlineStr"/>
-      <c r="H265" t="inlineStr"/>
-      <c r="I265" t="inlineStr">
-        <is>
-          <t>While 'addiction' is a disposition relating to experience motivation to use a substance, 'substance dependence' refers to 'disposition related to the impaired functioning in the absence of a substance'.</t>
-        </is>
-      </c>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
-      <c r="M265" t="inlineStr"/>
-      <c r="N265" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="O265" t="inlineStr"/>
-      <c r="P265" t="inlineStr"/>
+      <c r="A265" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006075</t>
+        </is>
+      </c>
+      <c r="B265" s="3" t="inlineStr">
+        <is>
+          <t>subjective need</t>
+        </is>
+      </c>
+      <c r="C265" s="3" t="inlineStr">
+        <is>
+          <t>subjective affective feeling</t>
+        </is>
+      </c>
+      <c r="D265" s="3" t="inlineStr">
+        <is>
+          <t>A subjective affective feeling that involves experiencing anticipated relief or continued comfort by obtaining or maintaining a particular state.</t>
+        </is>
+      </c>
+      <c r="E265" s="3" t="inlineStr"/>
+      <c r="F265" s="3" t="inlineStr">
+        <is>
+          <t>A feeling of anticipated relief or avoidance of discomfort.</t>
+        </is>
+      </c>
+      <c r="G265" s="3" t="inlineStr"/>
+      <c r="H265" s="3" t="inlineStr"/>
+      <c r="I265" s="3" t="inlineStr"/>
+      <c r="J265" s="3" t="inlineStr"/>
+      <c r="K265" s="3" t="inlineStr"/>
+      <c r="L265" s="3" t="inlineStr"/>
+      <c r="M265" s="3" t="inlineStr"/>
+      <c r="N265" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O265" s="3" t="inlineStr"/>
+      <c r="P265" s="3" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>MFOEM:000032</t>
+          <t xml:space="preserve">MF:0000088 </t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>subliminal process</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>emotion process</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t xml:space="preserve">An emotion caused by encountering unexpected events. </t>
+          <t>A mental process that involves neuronal activity in response to a sensory stimulus but which is not the subject of consciousness.</t>
         </is>
       </c>
       <c r="E266" t="inlineStr"/>
@@ -11285,29 +11281,33 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>RO:0002577</t>
+          <t>ADDICTO:0001140</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>system</t>
+          <t>substance dependence</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>material entity</t>
+          <t>bodily disposition</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>A material entity consisting of multiple components that are causally integrated.</t>
+          <t>A bodily disposition which is realised as impaired functioning following reduction or termination of use of a psychoactive substance.</t>
         </is>
       </c>
       <c r="E267" t="inlineStr"/>
       <c r="F267" t="inlineStr"/>
       <c r="G267" t="inlineStr"/>
       <c r="H267" t="inlineStr"/>
-      <c r="I267" t="inlineStr"/>
+      <c r="I267" t="inlineStr">
+        <is>
+          <t>While 'addiction' is a disposition relating to experience motivation to use a substance, 'substance dependence' refers to 'disposition related to the impaired functioning in the absence of a substance'.</t>
+        </is>
+      </c>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
       <c r="L267" t="inlineStr"/>
@@ -11321,260 +11321,260 @@
       <c r="P267" t="inlineStr"/>
     </row>
     <row r="268">
-      <c r="A268" s="3" t="inlineStr">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>MFOEM:000032</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>surprise</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>emotion process</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t xml:space="preserve">An emotion caused by encountering unexpected events. </t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr"/>
+      <c r="F268" t="inlineStr"/>
+      <c r="G268" t="inlineStr"/>
+      <c r="H268" t="inlineStr"/>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="inlineStr"/>
+      <c r="M268" t="inlineStr"/>
+      <c r="N268" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="O268" t="inlineStr"/>
+      <c r="P268" t="inlineStr"/>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>RO:0002577</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>material entity</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>A material entity consisting of multiple components that are causally integrated.</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr"/>
+      <c r="F269" t="inlineStr"/>
+      <c r="G269" t="inlineStr"/>
+      <c r="H269" t="inlineStr"/>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="inlineStr"/>
+      <c r="M269" t="inlineStr"/>
+      <c r="N269" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="O269" t="inlineStr"/>
+      <c r="P269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" s="3" t="inlineStr">
         <is>
           <t>BCIO:006163</t>
         </is>
       </c>
-      <c r="B268" s="3" t="inlineStr">
+      <c r="B270" s="3" t="inlineStr">
         <is>
           <t>targeted mental distancing</t>
         </is>
       </c>
-      <c r="C268" s="3" t="inlineStr">
+      <c r="C270" s="3" t="inlineStr">
         <is>
           <t>mental distancing</t>
         </is>
       </c>
-      <c r="D268" s="3" t="inlineStr">
+      <c r="D270" s="3" t="inlineStr">
         <is>
           <t>Mental distancing that involves identifying particular immediate thoughts and intentionally detaching from these thoughts.</t>
         </is>
       </c>
-      <c r="E268" s="3" t="inlineStr"/>
-      <c r="F268" s="3" t="inlineStr"/>
-      <c r="G268" s="3" t="inlineStr">
+      <c r="E270" s="3" t="inlineStr"/>
+      <c r="F270" s="3" t="inlineStr"/>
+      <c r="G270" s="3" t="inlineStr">
         <is>
           <t>targeted decentring</t>
         </is>
       </c>
-      <c r="H268" s="3" t="inlineStr"/>
-      <c r="I268" s="3" t="inlineStr"/>
-      <c r="J268" s="3" t="inlineStr"/>
-      <c r="K268" s="3" t="inlineStr"/>
-      <c r="L268" s="3" t="inlineStr"/>
-      <c r="M268" s="3" t="inlineStr"/>
-      <c r="N268" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O268" s="3" t="inlineStr"/>
-      <c r="P268" s="3" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="3" t="inlineStr">
+      <c r="H270" s="3" t="inlineStr"/>
+      <c r="I270" s="3" t="inlineStr"/>
+      <c r="J270" s="3" t="inlineStr"/>
+      <c r="K270" s="3" t="inlineStr"/>
+      <c r="L270" s="3" t="inlineStr"/>
+      <c r="M270" s="3" t="inlineStr"/>
+      <c r="N270" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O270" s="3" t="inlineStr"/>
+      <c r="P270" s="3" t="inlineStr"/>
+    </row>
+    <row r="271">
+      <c r="A271" s="3" t="inlineStr">
         <is>
           <t>BCIO:006091</t>
         </is>
       </c>
-      <c r="B269" s="3" t="inlineStr">
+      <c r="B271" s="3" t="inlineStr">
         <is>
           <t>temporal behavioural opportunity</t>
         </is>
       </c>
-      <c r="C269" s="3" t="inlineStr">
+      <c r="C271" s="3" t="inlineStr">
         <is>
           <t>physical behavioural opportunity</t>
         </is>
       </c>
-      <c r="D269" s="3" t="inlineStr">
+      <c r="D271" s="3" t="inlineStr">
         <is>
           <t>A physical behavioural opportunity that involves the person having sufficient time or a suitable period.</t>
         </is>
       </c>
-      <c r="E269" s="3" t="inlineStr"/>
-      <c r="F269" s="3" t="inlineStr">
+      <c r="E271" s="3" t="inlineStr"/>
+      <c r="F271" s="3" t="inlineStr">
         <is>
           <t>Properties of a person's environment that involve the time available and influence the person's ability to enact a behaviour.</t>
         </is>
       </c>
-      <c r="G269" s="3" t="inlineStr"/>
-      <c r="H269" s="3" t="inlineStr"/>
-      <c r="I269" s="3" t="inlineStr"/>
-      <c r="J269" s="3" t="inlineStr"/>
-      <c r="K269" s="3" t="inlineStr"/>
-      <c r="L269" s="3" t="inlineStr"/>
-      <c r="M269" s="3" t="inlineStr"/>
-      <c r="N269" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O269" s="3" t="inlineStr"/>
-      <c r="P269" s="3" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="2" t="inlineStr">
+      <c r="G271" s="3" t="inlineStr"/>
+      <c r="H271" s="3" t="inlineStr"/>
+      <c r="I271" s="3" t="inlineStr"/>
+      <c r="J271" s="3" t="inlineStr"/>
+      <c r="K271" s="3" t="inlineStr"/>
+      <c r="L271" s="3" t="inlineStr"/>
+      <c r="M271" s="3" t="inlineStr"/>
+      <c r="N271" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O271" s="3" t="inlineStr"/>
+      <c r="P271" s="3" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="inlineStr">
         <is>
           <t>BCIO:050230</t>
         </is>
       </c>
-      <c r="B270" s="2" t="inlineStr">
+      <c r="B272" s="2" t="inlineStr">
         <is>
           <t>temporal orientation to the future</t>
         </is>
       </c>
-      <c r="C270" s="2" t="inlineStr">
+      <c r="C272" s="2" t="inlineStr">
         <is>
           <t>mental disposition</t>
         </is>
       </c>
-      <c r="D270" s="2" t="inlineStr">
+      <c r="D272" s="2" t="inlineStr">
         <is>
           <t>A mental disposition to focus more on future than present outcomes.</t>
         </is>
       </c>
-      <c r="E270" s="2" t="inlineStr"/>
-      <c r="F270" s="2" t="inlineStr"/>
-      <c r="G270" s="2" t="inlineStr"/>
-      <c r="H270" s="2" t="inlineStr"/>
-      <c r="I270" s="2" t="inlineStr"/>
-      <c r="J270" s="2" t="inlineStr"/>
-      <c r="K270" s="2" t="inlineStr"/>
-      <c r="L270" s="2" t="inlineStr"/>
-      <c r="M270" s="2" t="inlineStr"/>
-      <c r="N270" s="2" t="inlineStr">
+      <c r="E272" s="2" t="inlineStr"/>
+      <c r="F272" s="2" t="inlineStr"/>
+      <c r="G272" s="2" t="inlineStr"/>
+      <c r="H272" s="2" t="inlineStr"/>
+      <c r="I272" s="2" t="inlineStr"/>
+      <c r="J272" s="2" t="inlineStr"/>
+      <c r="K272" s="2" t="inlineStr"/>
+      <c r="L272" s="2" t="inlineStr"/>
+      <c r="M272" s="2" t="inlineStr"/>
+      <c r="N272" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="O270" s="2" t="inlineStr"/>
-      <c r="P270" s="2" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="2" t="inlineStr">
+      <c r="O272" s="2" t="inlineStr"/>
+      <c r="P272" s="2" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="inlineStr">
         <is>
           <t>BCIO:050231</t>
         </is>
       </c>
-      <c r="B271" s="2" t="inlineStr">
+      <c r="B273" s="2" t="inlineStr">
         <is>
           <t>temporal orientation to the present</t>
         </is>
       </c>
-      <c r="C271" s="2" t="inlineStr">
+      <c r="C273" s="2" t="inlineStr">
         <is>
           <t>mental disposition</t>
         </is>
       </c>
-      <c r="D271" s="2" t="inlineStr">
+      <c r="D273" s="2" t="inlineStr">
         <is>
           <t>A mental disposition to focus more on present than future outcomes.</t>
         </is>
       </c>
-      <c r="E271" s="2" t="inlineStr"/>
-      <c r="F271" s="2" t="inlineStr"/>
-      <c r="G271" s="2" t="inlineStr"/>
-      <c r="H271" s="2" t="inlineStr"/>
-      <c r="I271" s="2" t="inlineStr"/>
-      <c r="J271" s="2" t="inlineStr"/>
-      <c r="K271" s="2" t="inlineStr"/>
-      <c r="L271" s="2" t="inlineStr"/>
-      <c r="M271" s="2" t="inlineStr"/>
-      <c r="N271" s="2" t="inlineStr">
+      <c r="E273" s="2" t="inlineStr"/>
+      <c r="F273" s="2" t="inlineStr"/>
+      <c r="G273" s="2" t="inlineStr"/>
+      <c r="H273" s="2" t="inlineStr"/>
+      <c r="I273" s="2" t="inlineStr"/>
+      <c r="J273" s="2" t="inlineStr"/>
+      <c r="K273" s="2" t="inlineStr"/>
+      <c r="L273" s="2" t="inlineStr"/>
+      <c r="M273" s="2" t="inlineStr"/>
+      <c r="N273" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="O271" s="2" t="inlineStr"/>
-      <c r="P271" s="2" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" t="inlineStr">
-        <is>
-          <t>MF:0000013</t>
-        </is>
-      </c>
-      <c r="B272" t="inlineStr">
-        <is>
-          <t>thinking</t>
-        </is>
-      </c>
-      <c r="C272" t="inlineStr">
-        <is>
-          <t>cognitive process</t>
-        </is>
-      </c>
-      <c r="D272" t="inlineStr">
-        <is>
-          <t>A cognitive process that involves the manipulation of mental language and/or mental images.</t>
-        </is>
-      </c>
-      <c r="E272" t="inlineStr"/>
-      <c r="F272" t="inlineStr"/>
-      <c r="G272" t="inlineStr"/>
-      <c r="H272" t="inlineStr"/>
-      <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
-      <c r="M272" t="inlineStr"/>
-      <c r="N272" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="O272" t="inlineStr"/>
-      <c r="P272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006107</t>
-        </is>
-      </c>
-      <c r="B273" s="3" t="inlineStr">
-        <is>
-          <t>value-congruent self-regulation</t>
-        </is>
-      </c>
-      <c r="C273" s="3" t="inlineStr">
-        <is>
-          <t>self-regulation of behaviour</t>
-        </is>
-      </c>
-      <c r="D273" s="3" t="inlineStr">
-        <is>
-          <t>Self-regulation undertaken to achieve consistency between one's values and the behaviour performed.</t>
-        </is>
-      </c>
-      <c r="E273" s="3" t="inlineStr"/>
-      <c r="F273" s="3" t="inlineStr"/>
-      <c r="G273" s="3" t="inlineStr"/>
-      <c r="H273" s="3" t="inlineStr"/>
-      <c r="I273" s="3" t="inlineStr"/>
-      <c r="J273" s="3" t="inlineStr"/>
-      <c r="K273" s="3" t="inlineStr"/>
-      <c r="L273" s="3" t="inlineStr"/>
-      <c r="M273" s="3" t="inlineStr"/>
-      <c r="N273" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O273" s="3" t="inlineStr"/>
-      <c r="P273" s="3" t="inlineStr"/>
+      <c r="O273" s="2" t="inlineStr"/>
+      <c r="P273" s="2" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>MF:0000045</t>
+          <t>MF:0000013</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>wanting</t>
+          <t>thinking</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>cognitive process</t>
         </is>
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>A mental process that involves thinking about a state of affairs that is not yet the case together with a desire for that state of affairs to come about.</t>
+          <t>A cognitive process that involves the manipulation of mental language and/or mental images.</t>
         </is>
       </c>
       <c r="E274" t="inlineStr"/>
@@ -11597,31 +11597,27 @@
     <row r="275">
       <c r="A275" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006059</t>
+          <t>BCIO:006107</t>
         </is>
       </c>
       <c r="B275" s="3" t="inlineStr">
         <is>
-          <t>willingness to comply</t>
+          <t>value-congruent self-regulation</t>
         </is>
       </c>
       <c r="C275" s="3" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>self-regulation of behaviour</t>
         </is>
       </c>
       <c r="D275" s="3" t="inlineStr">
         <is>
-          <t>A mental disposition to act in accordance with the likely approval of others.</t>
+          <t>Self-regulation undertaken to achieve consistency between one's values and the behaviour performed.</t>
         </is>
       </c>
       <c r="E275" s="3" t="inlineStr"/>
       <c r="F275" s="3" t="inlineStr"/>
-      <c r="G275" s="3" t="inlineStr">
-        <is>
-          <t>motivation to comply</t>
-        </is>
-      </c>
+      <c r="G275" s="3" t="inlineStr"/>
       <c r="H275" s="3" t="inlineStr"/>
       <c r="I275" s="3" t="inlineStr"/>
       <c r="J275" s="3" t="inlineStr"/>
@@ -11636,6 +11632,86 @@
       <c r="O275" s="3" t="inlineStr"/>
       <c r="P275" s="3" t="inlineStr"/>
     </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>MF:0000045</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>wanting</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>A mental process that involves thinking about a state of affairs that is not yet the case together with a desire for that state of affairs to come about.</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr"/>
+      <c r="F276" t="inlineStr"/>
+      <c r="G276" t="inlineStr"/>
+      <c r="H276" t="inlineStr"/>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="inlineStr"/>
+      <c r="M276" t="inlineStr"/>
+      <c r="N276" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="O276" t="inlineStr"/>
+      <c r="P276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006059</t>
+        </is>
+      </c>
+      <c r="B277" s="3" t="inlineStr">
+        <is>
+          <t>willingness to comply</t>
+        </is>
+      </c>
+      <c r="C277" s="3" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="D277" s="3" t="inlineStr">
+        <is>
+          <t>A mental disposition to act in accordance with the likely approval of others.</t>
+        </is>
+      </c>
+      <c r="E277" s="3" t="inlineStr"/>
+      <c r="F277" s="3" t="inlineStr"/>
+      <c r="G277" s="3" t="inlineStr">
+        <is>
+          <t>motivation to comply</t>
+        </is>
+      </c>
+      <c r="H277" s="3" t="inlineStr"/>
+      <c r="I277" s="3" t="inlineStr"/>
+      <c r="J277" s="3" t="inlineStr"/>
+      <c r="K277" s="3" t="inlineStr"/>
+      <c r="L277" s="3" t="inlineStr"/>
+      <c r="M277" s="3" t="inlineStr"/>
+      <c r="N277" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O277" s="3" t="inlineStr"/>
+      <c r="P277" s="3" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/MechanismOfAction/inputs/BCIO_MoA.xlsx
+++ b/MechanismOfAction/inputs/BCIO_MoA.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P277"/>
+  <dimension ref="A1:P276"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4558,42 +4558,42 @@
       <c r="P100" t="inlineStr"/>
     </row>
     <row r="101">
-      <c r="A101" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006160</t>
-        </is>
-      </c>
-      <c r="B101" s="2" t="inlineStr">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000511</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
         <is>
           <t>craving</t>
         </is>
       </c>
-      <c r="C101" s="2" t="inlineStr">
+      <c r="C101" t="inlineStr">
         <is>
           <t>subjective affective feeling</t>
         </is>
       </c>
-      <c r="D101" s="2" t="inlineStr">
+      <c r="D101" t="inlineStr">
         <is>
           <t>A subjective affective feeling of desiring or needing something.</t>
         </is>
       </c>
-      <c r="E101" s="2" t="inlineStr"/>
-      <c r="F101" s="2" t="inlineStr"/>
-      <c r="G101" s="2" t="inlineStr"/>
-      <c r="H101" s="2" t="inlineStr"/>
-      <c r="I101" s="2" t="inlineStr"/>
-      <c r="J101" s="2" t="inlineStr"/>
-      <c r="K101" s="2" t="inlineStr"/>
-      <c r="L101" s="2" t="inlineStr"/>
-      <c r="M101" s="2" t="inlineStr"/>
-      <c r="N101" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="O101" s="2" t="inlineStr"/>
-      <c r="P101" s="2" t="inlineStr">
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="O101" t="inlineStr"/>
+      <c r="P101" t="inlineStr">
         <is>
           <t>RW: I've made the edits I suggest pending agreement from the rest of the team 23 Feb 22</t>
         </is>
@@ -6630,192 +6630,187 @@
       <c r="P151" s="2" t="inlineStr"/>
     </row>
     <row r="152">
-      <c r="A152" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006094</t>
-        </is>
-      </c>
-      <c r="B152" s="3" t="inlineStr">
+      <c r="A152" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:036025</t>
+        </is>
+      </c>
+      <c r="B152" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">inter-personal behaviour </t>
+        </is>
+      </c>
+      <c r="C152" s="2" t="inlineStr">
         <is>
           <t>individual human behaviour</t>
         </is>
       </c>
-      <c r="C152" s="3" t="inlineStr">
+      <c r="D152" s="2" t="inlineStr">
+        <is>
+          <t>An individual human behaviour that involves an interaction between two or more people.</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="inlineStr"/>
+      <c r="F152" s="2" t="inlineStr"/>
+      <c r="G152" s="2" t="inlineStr"/>
+      <c r="H152" s="2" t="inlineStr"/>
+      <c r="I152" s="2" t="inlineStr"/>
+      <c r="J152" s="2" t="inlineStr"/>
+      <c r="K152" s="2" t="inlineStr"/>
+      <c r="L152" s="2" t="inlineStr"/>
+      <c r="M152" s="2" t="inlineStr"/>
+      <c r="N152" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="O152" s="2" t="inlineStr"/>
+      <c r="P152" s="2" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006100</t>
+        </is>
+      </c>
+      <c r="B153" s="3" t="inlineStr">
+        <is>
+          <t>internal reward for a response</t>
+        </is>
+      </c>
+      <c r="C153" s="3" t="inlineStr">
         <is>
           <t>bodily process</t>
         </is>
       </c>
-      <c r="D152" s="3" t="inlineStr">
-        <is>
-          <t>A bodily process of a human that involves co-ordinated contraction of striated muscles controlled by the brain.</t>
-        </is>
-      </c>
-      <c r="E152" s="3" t="inlineStr"/>
-      <c r="F152" s="3" t="inlineStr"/>
-      <c r="G152" s="3" t="inlineStr"/>
-      <c r="H152" s="3" t="inlineStr"/>
-      <c r="I152" s="3" t="inlineStr">
-        <is>
-          <t>The striated muscles referred to do not ordinarily involve the cardiac muscles.
-Behaviour can be an MoA or outcome depending on how 'behaviour' is described in an intervention. The Behaviour Change-Intervention Ontology includes the class  'outcome behaviour' (definition: Human behavior that is an intervention outcome.), which would not be an MoA. When an intervention targets one behaviour to achieve an outcome behaviour (e.g. exercise for smoking cessation), the former qualifies as an MoA.</t>
-        </is>
-      </c>
-      <c r="J152" s="3" t="inlineStr"/>
-      <c r="K152" s="3" t="inlineStr"/>
-      <c r="L152" s="3" t="inlineStr"/>
-      <c r="M152" s="3" t="inlineStr"/>
-      <c r="N152" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O152" s="3" t="inlineStr"/>
-      <c r="P152" s="3" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:036025</t>
-        </is>
-      </c>
-      <c r="B153" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">inter-personal behaviour </t>
-        </is>
-      </c>
-      <c r="C153" s="2" t="inlineStr">
-        <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="D153" s="2" t="inlineStr">
-        <is>
-          <t>An individual human behaviour that involves an interaction between two or more people.</t>
-        </is>
-      </c>
-      <c r="E153" s="2" t="inlineStr"/>
-      <c r="F153" s="2" t="inlineStr"/>
-      <c r="G153" s="2" t="inlineStr"/>
-      <c r="H153" s="2" t="inlineStr"/>
-      <c r="I153" s="2" t="inlineStr"/>
-      <c r="J153" s="2" t="inlineStr"/>
-      <c r="K153" s="2" t="inlineStr"/>
-      <c r="L153" s="2" t="inlineStr"/>
-      <c r="M153" s="2" t="inlineStr"/>
-      <c r="N153" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="O153" s="2" t="inlineStr"/>
-      <c r="P153" s="2" t="inlineStr"/>
+      <c r="D153" s="3" t="inlineStr">
+        <is>
+          <t>A bodily process by which the person experiences an internally-generated positive physical or psychological state subsequent to a response.</t>
+        </is>
+      </c>
+      <c r="E153" s="3" t="inlineStr"/>
+      <c r="F153" s="3" t="inlineStr"/>
+      <c r="G153" s="3" t="inlineStr"/>
+      <c r="H153" s="3" t="inlineStr"/>
+      <c r="I153" s="3" t="inlineStr"/>
+      <c r="J153" s="3" t="inlineStr"/>
+      <c r="K153" s="3" t="inlineStr"/>
+      <c r="L153" s="3" t="inlineStr"/>
+      <c r="M153" s="3" t="inlineStr"/>
+      <c r="N153" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O153" s="3" t="inlineStr"/>
+      <c r="P153" s="3" t="inlineStr"/>
     </row>
     <row r="154">
-      <c r="A154" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006100</t>
-        </is>
-      </c>
-      <c r="B154" s="3" t="inlineStr">
-        <is>
-          <t>internal reward for a response</t>
-        </is>
-      </c>
-      <c r="C154" s="3" t="inlineStr">
-        <is>
-          <t>bodily process</t>
-        </is>
-      </c>
-      <c r="D154" s="3" t="inlineStr">
-        <is>
-          <t>A bodily process by which the person experiences an internally-generated positive physical or psychological state subsequent to a response.</t>
-        </is>
-      </c>
-      <c r="E154" s="3" t="inlineStr"/>
-      <c r="F154" s="3" t="inlineStr"/>
-      <c r="G154" s="3" t="inlineStr"/>
-      <c r="H154" s="3" t="inlineStr"/>
-      <c r="I154" s="3" t="inlineStr"/>
-      <c r="J154" s="3" t="inlineStr"/>
-      <c r="K154" s="3" t="inlineStr"/>
-      <c r="L154" s="3" t="inlineStr"/>
-      <c r="M154" s="3" t="inlineStr"/>
-      <c r="N154" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O154" s="3" t="inlineStr"/>
-      <c r="P154" s="3" t="inlineStr"/>
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>MFOEM:000022</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>interpersonal disgust</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>disgust</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Disgust elicited by contact with others, especially contact with strangers or other individuals or groups we are averse to.</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr"/>
+      <c r="F154" t="inlineStr"/>
+      <c r="G154" t="inlineStr"/>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="O154" t="inlineStr"/>
+      <c r="P154" t="inlineStr"/>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>MFOEM:000022</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>interpersonal disgust</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>disgust</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>Disgust elicited by contact with others, especially contact with strangers or other individuals or groups we are averse to.</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr"/>
-      <c r="F155" t="inlineStr"/>
-      <c r="G155" t="inlineStr"/>
-      <c r="H155" t="inlineStr"/>
-      <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="inlineStr"/>
-      <c r="N155" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="O155" t="inlineStr"/>
-      <c r="P155" t="inlineStr"/>
+      <c r="A155" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006136</t>
+        </is>
+      </c>
+      <c r="B155" s="3" t="inlineStr">
+        <is>
+          <t>intrinsic motivation</t>
+        </is>
+      </c>
+      <c r="C155" s="3" t="inlineStr">
+        <is>
+          <t>autonomous motivation</t>
+        </is>
+      </c>
+      <c r="D155" s="3" t="inlineStr">
+        <is>
+          <t>Autonomous motivation due to a behaviour's inherent enjoyment, satisfaction or benefits to oneself.</t>
+        </is>
+      </c>
+      <c r="E155" s="3" t="inlineStr"/>
+      <c r="F155" s="3" t="inlineStr"/>
+      <c r="G155" s="3" t="inlineStr"/>
+      <c r="H155" s="3" t="inlineStr"/>
+      <c r="I155" s="3" t="inlineStr">
+        <is>
+          <t>The phrase 'benefits to oneself' includes the reduction of unpleasant internal states.</t>
+        </is>
+      </c>
+      <c r="J155" s="3" t="inlineStr"/>
+      <c r="K155" s="3" t="inlineStr"/>
+      <c r="L155" s="3" t="inlineStr"/>
+      <c r="M155" s="3" t="inlineStr"/>
+      <c r="N155" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O155" s="3" t="inlineStr"/>
+      <c r="P155" s="3" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006136</t>
+          <t>BCIO:006105</t>
         </is>
       </c>
       <c r="B156" s="3" t="inlineStr">
         <is>
-          <t>intrinsic motivation</t>
+          <t>introjected self-regulation</t>
         </is>
       </c>
       <c r="C156" s="3" t="inlineStr">
         <is>
-          <t>autonomous motivation</t>
+          <t>self-regulation of behaviour</t>
         </is>
       </c>
       <c r="D156" s="3" t="inlineStr">
         <is>
-          <t>Autonomous motivation due to a behaviour's inherent enjoyment, satisfaction or benefits to oneself.</t>
+          <t>Self-regulation of behaviour undertaken to manage a sense of guilt, anxiety or obligation.</t>
         </is>
       </c>
       <c r="E156" s="3" t="inlineStr"/>
       <c r="F156" s="3" t="inlineStr"/>
       <c r="G156" s="3" t="inlineStr"/>
       <c r="H156" s="3" t="inlineStr"/>
-      <c r="I156" s="3" t="inlineStr">
-        <is>
-          <t>The phrase 'benefits to oneself' includes the reduction of unpleasant internal states.</t>
-        </is>
-      </c>
+      <c r="I156" s="3" t="inlineStr"/>
       <c r="J156" s="3" t="inlineStr"/>
       <c r="K156" s="3" t="inlineStr"/>
       <c r="L156" s="3" t="inlineStr"/>
@@ -6829,115 +6824,115 @@
       <c r="P156" s="3" t="inlineStr"/>
     </row>
     <row r="157">
-      <c r="A157" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006105</t>
-        </is>
-      </c>
-      <c r="B157" s="3" t="inlineStr">
-        <is>
-          <t>introjected self-regulation</t>
-        </is>
-      </c>
-      <c r="C157" s="3" t="inlineStr">
-        <is>
-          <t>self-regulation of behaviour</t>
-        </is>
-      </c>
-      <c r="D157" s="3" t="inlineStr">
-        <is>
-          <t>Self-regulation of behaviour undertaken to manage a sense of guilt, anxiety or obligation.</t>
-        </is>
-      </c>
-      <c r="E157" s="3" t="inlineStr"/>
-      <c r="F157" s="3" t="inlineStr"/>
-      <c r="G157" s="3" t="inlineStr"/>
-      <c r="H157" s="3" t="inlineStr"/>
-      <c r="I157" s="3" t="inlineStr"/>
-      <c r="J157" s="3" t="inlineStr"/>
-      <c r="K157" s="3" t="inlineStr"/>
-      <c r="L157" s="3" t="inlineStr"/>
-      <c r="M157" s="3" t="inlineStr"/>
-      <c r="N157" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O157" s="3" t="inlineStr"/>
-      <c r="P157" s="3" t="inlineStr"/>
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>MF:0000006</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>judging</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>A mental process during which information is evaluated, the outcome of which is a belief or opinion.</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr"/>
+      <c r="F157" t="inlineStr"/>
+      <c r="G157" t="inlineStr"/>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="O157" t="inlineStr"/>
+      <c r="P157" t="inlineStr"/>
     </row>
     <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>MF:0000006</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>judging</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>A mental process during which information is evaluated, the outcome of which is a belief or opinion.</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr"/>
-      <c r="F158" t="inlineStr"/>
-      <c r="G158" t="inlineStr"/>
-      <c r="H158" t="inlineStr"/>
-      <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="inlineStr"/>
-      <c r="N158" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="O158" t="inlineStr"/>
-      <c r="P158" t="inlineStr"/>
+      <c r="A158" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006052</t>
+        </is>
+      </c>
+      <c r="B158" s="3" t="inlineStr">
+        <is>
+          <t>knowledge</t>
+        </is>
+      </c>
+      <c r="C158" s="3" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="D158" s="3" t="inlineStr">
+        <is>
+          <t>A mental disposition to understand the nature of the world, or a specific aspect of the world, that corresponds to the actual state of the world and is acquired through experience or learning.</t>
+        </is>
+      </c>
+      <c r="E158" s="3" t="inlineStr"/>
+      <c r="F158" s="3" t="inlineStr">
+        <is>
+          <t>An understanding of something that results from experience or learning.</t>
+        </is>
+      </c>
+      <c r="G158" s="3" t="inlineStr"/>
+      <c r="H158" s="3" t="inlineStr"/>
+      <c r="I158" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Knowledge is defined as a 'mental disposition', a realisable entity, because a person requires a process to access the information stored in their brain. A person knows something, when the relevant information has been retrieved from their memory. There are instances where a person might have learned something, but is unable to retrieve the information at a specific moment. </t>
+        </is>
+      </c>
+      <c r="J158" s="3" t="inlineStr"/>
+      <c r="K158" s="3" t="inlineStr"/>
+      <c r="L158" s="3" t="inlineStr"/>
+      <c r="M158" s="3" t="inlineStr"/>
+      <c r="N158" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O158" s="3" t="inlineStr"/>
+      <c r="P158" s="3" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006052</t>
+          <t>BCIO:006053</t>
         </is>
       </c>
       <c r="B159" s="3" t="inlineStr">
         <is>
+          <t>knowledge regarding a behaviour</t>
+        </is>
+      </c>
+      <c r="C159" s="3" t="inlineStr">
+        <is>
           <t>knowledge</t>
         </is>
       </c>
-      <c r="C159" s="3" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
       <c r="D159" s="3" t="inlineStr">
         <is>
-          <t>A mental disposition to understand the nature of the world, or a specific aspect of the world, that corresponds to the actual state of the world and is acquired through experience or learning.</t>
+          <t>Knowledge regarding a particular set of actions.</t>
         </is>
       </c>
       <c r="E159" s="3" t="inlineStr"/>
-      <c r="F159" s="3" t="inlineStr">
-        <is>
-          <t>An understanding of something that results from experience or learning.</t>
-        </is>
-      </c>
+      <c r="F159" s="3" t="inlineStr"/>
       <c r="G159" s="3" t="inlineStr"/>
       <c r="H159" s="3" t="inlineStr"/>
-      <c r="I159" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Knowledge is defined as a 'mental disposition', a realisable entity, because a person requires a process to access the information stored in their brain. A person knows something, when the relevant information has been retrieved from their memory. There are instances where a person might have learned something, but is unable to retrieve the information at a specific moment. </t>
-        </is>
-      </c>
+      <c r="I159" s="3" t="inlineStr"/>
       <c r="J159" s="3" t="inlineStr"/>
       <c r="K159" s="3" t="inlineStr"/>
       <c r="L159" s="3" t="inlineStr"/>
@@ -6953,12 +6948,12 @@
     <row r="160">
       <c r="A160" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006053</t>
+          <t>BCIO:006055</t>
         </is>
       </c>
       <c r="B160" s="3" t="inlineStr">
         <is>
-          <t>knowledge regarding a behaviour</t>
+          <t>knowledge regarding a threat</t>
         </is>
       </c>
       <c r="C160" s="3" t="inlineStr">
@@ -6968,7 +6963,7 @@
       </c>
       <c r="D160" s="3" t="inlineStr">
         <is>
-          <t>Knowledge regarding a particular set of actions.</t>
+          <t>Knowledge regarding a potential harm.</t>
         </is>
       </c>
       <c r="E160" s="3" t="inlineStr"/>
@@ -6991,12 +6986,12 @@
     <row r="161">
       <c r="A161" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006055</t>
+          <t>BCIO:006054</t>
         </is>
       </c>
       <c r="B161" s="3" t="inlineStr">
         <is>
-          <t>knowledge regarding a threat</t>
+          <t>knowledge regarding an innovation</t>
         </is>
       </c>
       <c r="C161" s="3" t="inlineStr">
@@ -7006,7 +7001,7 @@
       </c>
       <c r="D161" s="3" t="inlineStr">
         <is>
-          <t>Knowledge regarding a potential harm.</t>
+          <t>Knowledge regarding a novel invention or way of doing something.</t>
         </is>
       </c>
       <c r="E161" s="3" t="inlineStr"/>
@@ -7029,12 +7024,12 @@
     <row r="162">
       <c r="A162" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006054</t>
+          <t>BCIO:006056</t>
         </is>
       </c>
       <c r="B162" s="3" t="inlineStr">
         <is>
-          <t>knowledge regarding an innovation</t>
+          <t>knowledge regarding treatment</t>
         </is>
       </c>
       <c r="C162" s="3" t="inlineStr">
@@ -7044,7 +7039,7 @@
       </c>
       <c r="D162" s="3" t="inlineStr">
         <is>
-          <t>Knowledge regarding a novel invention or way of doing something.</t>
+          <t>Knowledge regarding a therapy or medication for a health problem.</t>
         </is>
       </c>
       <c r="E162" s="3" t="inlineStr"/>
@@ -7067,29 +7062,41 @@
     <row r="163">
       <c r="A163" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006056</t>
+          <t>BCIO:006155</t>
         </is>
       </c>
       <c r="B163" s="3" t="inlineStr">
         <is>
-          <t>knowledge regarding treatment</t>
+          <t>learned stimulus-behaviour co-occurrence</t>
         </is>
       </c>
       <c r="C163" s="3" t="inlineStr">
         <is>
-          <t>knowledge</t>
+          <t>learned stimulus-reponse co-occurrence</t>
         </is>
       </c>
       <c r="D163" s="3" t="inlineStr">
         <is>
-          <t>Knowledge regarding a therapy or medication for a health problem.</t>
+          <t>A mental disposition to behave in a particular way in response to an internal or external event in the person's environment, which is acquired through habit learning.</t>
         </is>
       </c>
       <c r="E163" s="3" t="inlineStr"/>
-      <c r="F163" s="3" t="inlineStr"/>
-      <c r="G163" s="3" t="inlineStr"/>
+      <c r="F163" s="3" t="inlineStr">
+        <is>
+          <t>A tendency for something in the environment to prompt a behaviour as a result of learning.</t>
+        </is>
+      </c>
+      <c r="G163" s="3" t="inlineStr">
+        <is>
+          <t>Habit</t>
+        </is>
+      </c>
       <c r="H163" s="3" t="inlineStr"/>
-      <c r="I163" s="3" t="inlineStr"/>
+      <c r="I163" s="3" t="inlineStr">
+        <is>
+          <t>Learned stimulus-behaviour co-occurrence can vary in strength.</t>
+        </is>
+      </c>
       <c r="J163" s="3" t="inlineStr"/>
       <c r="K163" s="3" t="inlineStr"/>
       <c r="L163" s="3" t="inlineStr"/>
@@ -7105,39 +7112,31 @@
     <row r="164">
       <c r="A164" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006155</t>
+          <t>BCIO:006057</t>
         </is>
       </c>
       <c r="B164" s="3" t="inlineStr">
         <is>
-          <t>learned stimulus-behaviour co-occurrence</t>
+          <t>learned stimulus-reponse co-occurrence</t>
         </is>
       </c>
       <c r="C164" s="3" t="inlineStr">
         <is>
-          <t>learned stimulus-reponse co-occurrence</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D164" s="3" t="inlineStr">
         <is>
-          <t>A mental disposition to behave in a particular way in response to an internal or external event in the person's environment, which is acquired through habit learning.</t>
+          <t>A mental disposition to think or behave in a particular way in response to an internal or external event in the person's environment, which is acquired through associative learning.</t>
         </is>
       </c>
       <c r="E164" s="3" t="inlineStr"/>
-      <c r="F164" s="3" t="inlineStr">
-        <is>
-          <t>A tendency for something in the environment to prompt a behaviour as a result of learning.</t>
-        </is>
-      </c>
-      <c r="G164" s="3" t="inlineStr">
-        <is>
-          <t>Habit</t>
-        </is>
-      </c>
+      <c r="F164" s="3" t="inlineStr"/>
+      <c r="G164" s="3" t="inlineStr"/>
       <c r="H164" s="3" t="inlineStr"/>
       <c r="I164" s="3" t="inlineStr">
         <is>
-          <t>Learned stimulus-behaviour co-occurrence can vary in strength.</t>
+          <t xml:space="preserve">The responses to an event can include thinking and impulses to respond. </t>
         </is>
       </c>
       <c r="J164" s="3" t="inlineStr"/>
@@ -7155,33 +7154,33 @@
     <row r="165">
       <c r="A165" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006057</t>
+          <t>BCIO:006156</t>
         </is>
       </c>
       <c r="B165" s="3" t="inlineStr">
         <is>
+          <t>learned stimulus-thought co-occurrence</t>
+        </is>
+      </c>
+      <c r="C165" s="3" t="inlineStr">
+        <is>
           <t>learned stimulus-reponse co-occurrence</t>
         </is>
       </c>
-      <c r="C165" s="3" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
       <c r="D165" s="3" t="inlineStr">
         <is>
-          <t>A mental disposition to think or behave in a particular way in response to an internal or external event in the person's environment, which is acquired through associative learning.</t>
+          <t>A mental disposition to think in a particular way in response to an internal or external event in the person's environment, which is acquired through associative learning.</t>
         </is>
       </c>
       <c r="E165" s="3" t="inlineStr"/>
       <c r="F165" s="3" t="inlineStr"/>
-      <c r="G165" s="3" t="inlineStr"/>
+      <c r="G165" s="3" t="inlineStr">
+        <is>
+          <t>Mental habit</t>
+        </is>
+      </c>
       <c r="H165" s="3" t="inlineStr"/>
-      <c r="I165" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The responses to an event can include thinking and impulses to respond. </t>
-        </is>
-      </c>
+      <c r="I165" s="3" t="inlineStr"/>
       <c r="J165" s="3" t="inlineStr"/>
       <c r="K165" s="3" t="inlineStr"/>
       <c r="L165" s="3" t="inlineStr"/>
@@ -7195,119 +7194,123 @@
       <c r="P165" s="3" t="inlineStr"/>
     </row>
     <row r="166">
-      <c r="A166" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006156</t>
-        </is>
-      </c>
-      <c r="B166" s="3" t="inlineStr">
-        <is>
-          <t>learned stimulus-thought co-occurrence</t>
-        </is>
-      </c>
-      <c r="C166" s="3" t="inlineStr">
-        <is>
-          <t>learned stimulus-reponse co-occurrence</t>
-        </is>
-      </c>
-      <c r="D166" s="3" t="inlineStr">
-        <is>
-          <t>A mental disposition to think in a particular way in response to an internal or external event in the person's environment, which is acquired through associative learning.</t>
-        </is>
-      </c>
-      <c r="E166" s="3" t="inlineStr"/>
-      <c r="F166" s="3" t="inlineStr"/>
-      <c r="G166" s="3" t="inlineStr">
-        <is>
-          <t>Mental habit</t>
-        </is>
-      </c>
-      <c r="H166" s="3" t="inlineStr"/>
-      <c r="I166" s="3" t="inlineStr"/>
-      <c r="J166" s="3" t="inlineStr"/>
-      <c r="K166" s="3" t="inlineStr"/>
-      <c r="L166" s="3" t="inlineStr"/>
-      <c r="M166" s="3" t="inlineStr"/>
-      <c r="N166" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O166" s="3" t="inlineStr"/>
-      <c r="P166" s="3" t="inlineStr"/>
+      <c r="A166" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050239</t>
+        </is>
+      </c>
+      <c r="B166" s="2" t="inlineStr">
+        <is>
+          <t>learning</t>
+        </is>
+      </c>
+      <c r="C166" s="2" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D166" s="2" t="inlineStr">
+        <is>
+          <t>A mental process in which a lasting mental or behavioural change occurs as the result of experience.</t>
+        </is>
+      </c>
+      <c r="E166" s="2" t="inlineStr"/>
+      <c r="F166" s="2" t="inlineStr"/>
+      <c r="G166" s="2" t="inlineStr"/>
+      <c r="H166" s="2" t="inlineStr"/>
+      <c r="I166" s="2" t="inlineStr">
+        <is>
+          <t>The class 'learning' from the Gene Ontology was not reused but adapted for the Mechanism of Action (MoA) Ontology, as the Gene Ontology only focuses on learning adaptive behaviours in order to be relevant to all organisms.</t>
+        </is>
+      </c>
+      <c r="J166" s="2" t="inlineStr"/>
+      <c r="K166" s="2" t="inlineStr"/>
+      <c r="L166" s="2" t="inlineStr"/>
+      <c r="M166" s="2" t="inlineStr"/>
+      <c r="N166" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="O166" s="2" t="inlineStr"/>
+      <c r="P166" s="2" t="inlineStr"/>
     </row>
     <row r="167">
-      <c r="A167" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050239</t>
-        </is>
-      </c>
-      <c r="B167" s="2" t="inlineStr">
-        <is>
-          <t>learning</t>
-        </is>
-      </c>
-      <c r="C167" s="2" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D167" s="2" t="inlineStr">
-        <is>
-          <t>A mental process in which a lasting mental or behavioural change occurs as the result of experience.</t>
-        </is>
-      </c>
-      <c r="E167" s="2" t="inlineStr"/>
-      <c r="F167" s="2" t="inlineStr"/>
-      <c r="G167" s="2" t="inlineStr"/>
-      <c r="H167" s="2" t="inlineStr"/>
-      <c r="I167" s="2" t="inlineStr">
-        <is>
-          <t>The class 'learning' from the Gene Ontology was not reused but adapted for the Mechanism of Action (MoA) Ontology, as the Gene Ontology only focuses on learning adaptive behaviours in order to be relevant to all organisms.</t>
-        </is>
-      </c>
-      <c r="J167" s="2" t="inlineStr"/>
-      <c r="K167" s="2" t="inlineStr"/>
-      <c r="L167" s="2" t="inlineStr"/>
-      <c r="M167" s="2" t="inlineStr"/>
-      <c r="N167" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="O167" s="2" t="inlineStr"/>
-      <c r="P167" s="2" t="inlineStr"/>
+      <c r="A167" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050237</t>
+        </is>
+      </c>
+      <c r="B167" s="3" t="inlineStr">
+        <is>
+          <t>linguistic communication behaviour</t>
+        </is>
+      </c>
+      <c r="C167" s="3" t="inlineStr">
+        <is>
+          <t>communication behaviour</t>
+        </is>
+      </c>
+      <c r="D167" s="3" t="inlineStr">
+        <is>
+          <t>A communication behaviour in which the information that is communicated is encoded in language.</t>
+        </is>
+      </c>
+      <c r="E167" s="3" t="inlineStr"/>
+      <c r="F167" s="3" t="inlineStr"/>
+      <c r="G167" s="3" t="inlineStr"/>
+      <c r="H167" s="3" t="inlineStr">
+        <is>
+          <t>Written language, spoken language and sign-language communication</t>
+        </is>
+      </c>
+      <c r="I167" s="3" t="inlineStr"/>
+      <c r="J167" s="3" t="inlineStr"/>
+      <c r="K167" s="3" t="inlineStr"/>
+      <c r="L167" s="3" t="inlineStr"/>
+      <c r="M167" s="3" t="inlineStr"/>
+      <c r="N167" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O167" s="3" t="inlineStr"/>
+      <c r="P167" s="3" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050237</t>
+          <t>BCIO:006085</t>
         </is>
       </c>
       <c r="B168" s="3" t="inlineStr">
         <is>
-          <t>linguistic communication behaviour</t>
+          <t>location</t>
         </is>
       </c>
       <c r="C168" s="3" t="inlineStr">
         <is>
-          <t>communication behaviour</t>
+          <t>quality</t>
         </is>
       </c>
       <c r="D168" s="3" t="inlineStr">
         <is>
-          <t>A communication behaviour in which the information that is communicated is encoded in language.</t>
+          <t>A spatial quality that inheres in a bearer by virtue of its position relative to other entities.</t>
         </is>
       </c>
       <c r="E168" s="3" t="inlineStr"/>
-      <c r="F168" s="3" t="inlineStr"/>
+      <c r="F168" s="3" t="inlineStr">
+        <is>
+          <t>Where a person, animal or object is.</t>
+        </is>
+      </c>
       <c r="G168" s="3" t="inlineStr"/>
-      <c r="H168" s="3" t="inlineStr">
-        <is>
-          <t>Written language, spoken language and sign-language communication</t>
-        </is>
-      </c>
-      <c r="I168" s="3" t="inlineStr"/>
+      <c r="H168" s="3" t="inlineStr"/>
+      <c r="I168" s="3" t="inlineStr">
+        <is>
+          <t>An intervention could be used to rearrange objects in an environment, changing the location of a person relative to these objects and thereby increasing the likelihood of a behaviour.</t>
+        </is>
+      </c>
       <c r="J168" s="3" t="inlineStr"/>
       <c r="K168" s="3" t="inlineStr"/>
       <c r="L168" s="3" t="inlineStr"/>
@@ -7321,70 +7324,62 @@
       <c r="P168" s="3" t="inlineStr"/>
     </row>
     <row r="169">
-      <c r="A169" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006085</t>
-        </is>
-      </c>
-      <c r="B169" s="3" t="inlineStr">
-        <is>
-          <t>location</t>
-        </is>
-      </c>
-      <c r="C169" s="3" t="inlineStr">
-        <is>
-          <t>quality</t>
-        </is>
-      </c>
-      <c r="D169" s="3" t="inlineStr">
-        <is>
-          <t>A spatial quality that inheres in a bearer by virtue of its position relative to other entities.</t>
-        </is>
-      </c>
-      <c r="E169" s="3" t="inlineStr"/>
-      <c r="F169" s="3" t="inlineStr">
-        <is>
-          <t>Where a person, animal or object is.</t>
-        </is>
-      </c>
-      <c r="G169" s="3" t="inlineStr"/>
-      <c r="H169" s="3" t="inlineStr"/>
-      <c r="I169" s="3" t="inlineStr">
-        <is>
-          <t>An intervention could be used to rearrange objects in an environment, changing the location of a person relative to these objects and thereby increasing the likelihood of a behaviour.</t>
-        </is>
-      </c>
-      <c r="J169" s="3" t="inlineStr"/>
-      <c r="K169" s="3" t="inlineStr"/>
-      <c r="L169" s="3" t="inlineStr"/>
-      <c r="M169" s="3" t="inlineStr"/>
-      <c r="N169" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O169" s="3" t="inlineStr"/>
-      <c r="P169" s="3" t="inlineStr"/>
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>UBERON:0000465</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>material anatomical entity</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>material entity</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Anatomical entity that has mass.</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr"/>
+      <c r="F169" t="inlineStr"/>
+      <c r="G169" t="inlineStr"/>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="O169" t="inlineStr"/>
+      <c r="P169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>UBERON:0000465</t>
+          <t>GO:0007613</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>material anatomical entity</t>
+          <t>memory</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>material entity</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>Anatomical entity that has mass.</t>
+          <t>The activities involved in the mental information processing system that receives (registers), modifies, stores, and retrieves informational stimuli.</t>
         </is>
       </c>
       <c r="E170" t="inlineStr"/>
@@ -7405,227 +7400,227 @@
       <c r="P170" t="inlineStr"/>
     </row>
     <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>GO:0007613</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>memory</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
+      <c r="A171" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006093</t>
+        </is>
+      </c>
+      <c r="B171" s="3" t="inlineStr">
+        <is>
+          <t>mental behavioural cue</t>
+        </is>
+      </c>
+      <c r="C171" s="3" t="inlineStr">
+        <is>
+          <t>bodily behavioural cue</t>
+        </is>
+      </c>
+      <c r="D171" s="3" t="inlineStr">
+        <is>
+          <t>A stimulus that arises from mental processes and serves to elicit or guide behaviour.</t>
+        </is>
+      </c>
+      <c r="E171" s="3" t="inlineStr"/>
+      <c r="F171" s="3" t="inlineStr"/>
+      <c r="G171" s="3" t="inlineStr"/>
+      <c r="H171" s="3" t="inlineStr"/>
+      <c r="I171" s="3" t="inlineStr"/>
+      <c r="J171" s="3" t="inlineStr"/>
+      <c r="K171" s="3" t="inlineStr"/>
+      <c r="L171" s="3" t="inlineStr"/>
+      <c r="M171" s="3" t="inlineStr"/>
+      <c r="N171" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O171" s="3" t="inlineStr"/>
+      <c r="P171" s="3" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MF:0000048 </t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>mental capability</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>personal capability</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>A personal capability that  includes mental processes in its realisation.</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr"/>
+      <c r="F172" t="inlineStr"/>
+      <c r="G172" t="inlineStr"/>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="O172" t="inlineStr"/>
+      <c r="P172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006131</t>
+        </is>
+      </c>
+      <c r="B173" s="3" t="inlineStr">
+        <is>
+          <t>mental categorising</t>
+        </is>
+      </c>
+      <c r="C173" s="3" t="inlineStr">
         <is>
           <t>mental process</t>
         </is>
       </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>The activities involved in the mental information processing system that receives (registers), modifies, stores, and retrieves informational stimuli.</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr"/>
-      <c r="F171" t="inlineStr"/>
-      <c r="G171" t="inlineStr"/>
-      <c r="H171" t="inlineStr"/>
-      <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="inlineStr"/>
-      <c r="N171" t="inlineStr">
+      <c r="D173" s="3" t="inlineStr">
+        <is>
+          <t>A mental process in which objects, events, people, or experiences are grouped into classes, on the basis of features shared by members of the same class and features distinguishing the members of one class from those of another.</t>
+        </is>
+      </c>
+      <c r="E173" s="3" t="inlineStr"/>
+      <c r="F173" s="3" t="inlineStr"/>
+      <c r="G173" s="3" t="inlineStr"/>
+      <c r="H173" s="3" t="inlineStr"/>
+      <c r="I173" s="3" t="inlineStr"/>
+      <c r="J173" s="3" t="inlineStr"/>
+      <c r="K173" s="3" t="inlineStr"/>
+      <c r="L173" s="3" t="inlineStr"/>
+      <c r="M173" s="3" t="inlineStr"/>
+      <c r="N173" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O173" s="3" t="inlineStr"/>
+      <c r="P173" s="3" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>MF:0000033</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>bodily disposition</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>A bodily disposition that is realized in a mental process.</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr"/>
+      <c r="F174" t="inlineStr"/>
+      <c r="G174" t="inlineStr"/>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mental disposition' is a subclass of 'bodily disposition', as mental dispositions occur in the body. </t>
+        </is>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="O171" t="inlineStr"/>
-      <c r="P171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006093</t>
-        </is>
-      </c>
-      <c r="B172" s="3" t="inlineStr">
-        <is>
-          <t>mental behavioural cue</t>
-        </is>
-      </c>
-      <c r="C172" s="3" t="inlineStr">
-        <is>
-          <t>bodily behavioural cue</t>
-        </is>
-      </c>
-      <c r="D172" s="3" t="inlineStr">
-        <is>
-          <t>A stimulus that arises from mental processes and serves to elicit or guide behaviour.</t>
-        </is>
-      </c>
-      <c r="E172" s="3" t="inlineStr"/>
-      <c r="F172" s="3" t="inlineStr"/>
-      <c r="G172" s="3" t="inlineStr"/>
-      <c r="H172" s="3" t="inlineStr"/>
-      <c r="I172" s="3" t="inlineStr"/>
-      <c r="J172" s="3" t="inlineStr"/>
-      <c r="K172" s="3" t="inlineStr"/>
-      <c r="L172" s="3" t="inlineStr"/>
-      <c r="M172" s="3" t="inlineStr"/>
-      <c r="N172" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O172" s="3" t="inlineStr"/>
-      <c r="P172" s="3" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MF:0000048 </t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>mental capability</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>personal capability</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>A personal capability that  includes mental processes in its realisation.</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr"/>
-      <c r="F173" t="inlineStr"/>
-      <c r="G173" t="inlineStr"/>
-      <c r="H173" t="inlineStr"/>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="inlineStr"/>
-      <c r="N173" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="O173" t="inlineStr"/>
-      <c r="P173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006131</t>
-        </is>
-      </c>
-      <c r="B174" s="3" t="inlineStr">
-        <is>
-          <t>mental categorising</t>
-        </is>
-      </c>
-      <c r="C174" s="3" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D174" s="3" t="inlineStr">
-        <is>
-          <t>A mental process in which objects, events, people, or experiences are grouped into classes, on the basis of features shared by members of the same class and features distinguishing the members of one class from those of another.</t>
-        </is>
-      </c>
-      <c r="E174" s="3" t="inlineStr"/>
-      <c r="F174" s="3" t="inlineStr"/>
-      <c r="G174" s="3" t="inlineStr"/>
-      <c r="H174" s="3" t="inlineStr"/>
-      <c r="I174" s="3" t="inlineStr"/>
-      <c r="J174" s="3" t="inlineStr"/>
-      <c r="K174" s="3" t="inlineStr"/>
-      <c r="L174" s="3" t="inlineStr"/>
-      <c r="M174" s="3" t="inlineStr"/>
-      <c r="N174" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O174" s="3" t="inlineStr"/>
-      <c r="P174" s="3" t="inlineStr"/>
+      <c r="O174" t="inlineStr"/>
+      <c r="P174" t="inlineStr"/>
     </row>
     <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>MF:0000033</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>bodily disposition</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>A bodily disposition that is realized in a mental process.</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr"/>
-      <c r="F175" t="inlineStr"/>
-      <c r="G175" t="inlineStr"/>
-      <c r="H175" t="inlineStr"/>
-      <c r="I175" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mental disposition' is a subclass of 'bodily disposition', as mental dispositions occur in the body. </t>
-        </is>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="inlineStr"/>
-      <c r="N175" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="O175" t="inlineStr"/>
-      <c r="P175" t="inlineStr"/>
+      <c r="A175" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006162</t>
+        </is>
+      </c>
+      <c r="B175" s="3" t="inlineStr">
+        <is>
+          <t>mental distancing</t>
+        </is>
+      </c>
+      <c r="C175" s="3" t="inlineStr">
+        <is>
+          <t>cognitive process</t>
+        </is>
+      </c>
+      <c r="D175" s="3" t="inlineStr">
+        <is>
+          <t>A cognitive process that involves intentionally detaching oneself from one's immediate thoughts.</t>
+        </is>
+      </c>
+      <c r="E175" s="3" t="inlineStr"/>
+      <c r="F175" s="3" t="inlineStr"/>
+      <c r="G175" s="3" t="inlineStr">
+        <is>
+          <t>decentring</t>
+        </is>
+      </c>
+      <c r="H175" s="3" t="inlineStr"/>
+      <c r="I175" s="3" t="inlineStr"/>
+      <c r="J175" s="3" t="inlineStr"/>
+      <c r="K175" s="3" t="inlineStr"/>
+      <c r="L175" s="3" t="inlineStr"/>
+      <c r="M175" s="3" t="inlineStr"/>
+      <c r="N175" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O175" s="3" t="inlineStr"/>
+      <c r="P175" s="3" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006162</t>
+          <t>BCIO:006080</t>
         </is>
       </c>
       <c r="B176" s="3" t="inlineStr">
         <is>
-          <t>mental distancing</t>
+          <t>mental image</t>
         </is>
       </c>
       <c r="C176" s="3" t="inlineStr">
         <is>
-          <t>cognitive process</t>
+          <t>cognitive representation</t>
         </is>
       </c>
       <c r="D176" s="3" t="inlineStr">
         <is>
-          <t>A cognitive process that involves intentionally detaching oneself from one's immediate thoughts.</t>
+          <t>A cognitive representation of the sensory characteristics of objects or events that are not immediately present to the senses.</t>
         </is>
       </c>
       <c r="E176" s="3" t="inlineStr"/>
       <c r="F176" s="3" t="inlineStr"/>
-      <c r="G176" s="3" t="inlineStr">
-        <is>
-          <t>decentring</t>
-        </is>
-      </c>
+      <c r="G176" s="3" t="inlineStr"/>
       <c r="H176" s="3" t="inlineStr"/>
       <c r="I176" s="3" t="inlineStr"/>
       <c r="J176" s="3" t="inlineStr"/>
@@ -7641,200 +7636,200 @@
       <c r="P176" s="3" t="inlineStr"/>
     </row>
     <row r="177">
-      <c r="A177" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006080</t>
-        </is>
-      </c>
-      <c r="B177" s="3" t="inlineStr">
-        <is>
-          <t>mental image</t>
-        </is>
-      </c>
-      <c r="C177" s="3" t="inlineStr">
-        <is>
-          <t>cognitive representation</t>
-        </is>
-      </c>
-      <c r="D177" s="3" t="inlineStr">
-        <is>
-          <t>A cognitive representation of the sensory characteristics of objects or events that are not immediately present to the senses.</t>
-        </is>
-      </c>
-      <c r="E177" s="3" t="inlineStr"/>
-      <c r="F177" s="3" t="inlineStr"/>
-      <c r="G177" s="3" t="inlineStr"/>
-      <c r="H177" s="3" t="inlineStr"/>
-      <c r="I177" s="3" t="inlineStr"/>
-      <c r="J177" s="3" t="inlineStr"/>
-      <c r="K177" s="3" t="inlineStr"/>
-      <c r="L177" s="3" t="inlineStr"/>
-      <c r="M177" s="3" t="inlineStr"/>
-      <c r="N177" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O177" s="3" t="inlineStr"/>
-      <c r="P177" s="3" t="inlineStr"/>
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>MF:0000083</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>mental imagery</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>A mental process that evokes the representation of the sensory characteristics of objects or events when these are not immediately present to the senses.</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr"/>
+      <c r="F177" t="inlineStr"/>
+      <c r="G177" t="inlineStr"/>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="O177" t="inlineStr"/>
+      <c r="P177" t="inlineStr"/>
     </row>
     <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>MF:0000083</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>mental imagery</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>A mental process that evokes the representation of the sensory characteristics of objects or events when these are not immediately present to the senses.</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr"/>
-      <c r="F178" t="inlineStr"/>
-      <c r="G178" t="inlineStr"/>
-      <c r="H178" t="inlineStr"/>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="inlineStr"/>
-      <c r="N178" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="O178" t="inlineStr"/>
-      <c r="P178" t="inlineStr"/>
+      <c r="A178" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006058</t>
+        </is>
+      </c>
+      <c r="B178" s="3" t="inlineStr">
+        <is>
+          <t>mental imagery disposition</t>
+        </is>
+      </c>
+      <c r="C178" s="3" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="D178" s="3" t="inlineStr">
+        <is>
+          <t>A mental disposition to evoke the representation of the sensory characteristics of objects or events when these are not immediately present to the senses.</t>
+        </is>
+      </c>
+      <c r="E178" s="3" t="inlineStr"/>
+      <c r="F178" s="3" t="inlineStr">
+        <is>
+          <t>A tendency to experience mental images.</t>
+        </is>
+      </c>
+      <c r="G178" s="3" t="inlineStr"/>
+      <c r="H178" s="3" t="inlineStr"/>
+      <c r="I178" s="3" t="inlineStr"/>
+      <c r="J178" s="3" t="inlineStr"/>
+      <c r="K178" s="3" t="inlineStr"/>
+      <c r="L178" s="3" t="inlineStr"/>
+      <c r="M178" s="3" t="inlineStr"/>
+      <c r="N178" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O178" s="3" t="inlineStr"/>
+      <c r="P178" s="3" t="inlineStr"/>
     </row>
     <row r="179">
-      <c r="A179" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006058</t>
-        </is>
-      </c>
-      <c r="B179" s="3" t="inlineStr">
-        <is>
-          <t>mental imagery disposition</t>
-        </is>
-      </c>
-      <c r="C179" s="3" t="inlineStr">
+      <c r="A179" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050228</t>
+        </is>
+      </c>
+      <c r="B179" s="2" t="inlineStr">
+        <is>
+          <t>mental plan</t>
+        </is>
+      </c>
+      <c r="C179" s="2" t="inlineStr">
         <is>
           <t>mental disposition</t>
         </is>
       </c>
-      <c r="D179" s="3" t="inlineStr">
-        <is>
-          <t>A mental disposition to evoke the representation of the sensory characteristics of objects or events when these are not immediately present to the senses.</t>
-        </is>
-      </c>
-      <c r="E179" s="3" t="inlineStr"/>
-      <c r="F179" s="3" t="inlineStr">
-        <is>
-          <t>A tendency to experience mental images.</t>
-        </is>
-      </c>
-      <c r="G179" s="3" t="inlineStr"/>
-      <c r="H179" s="3" t="inlineStr"/>
-      <c r="I179" s="3" t="inlineStr"/>
-      <c r="J179" s="3" t="inlineStr"/>
-      <c r="K179" s="3" t="inlineStr"/>
-      <c r="L179" s="3" t="inlineStr"/>
-      <c r="M179" s="3" t="inlineStr"/>
-      <c r="N179" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O179" s="3" t="inlineStr"/>
-      <c r="P179" s="3" t="inlineStr"/>
+      <c r="D179" s="2" t="inlineStr">
+        <is>
+          <t>A mental disposition that is realised in mental processes mentally manipulating representations of steps in an imagined process which has some goal.</t>
+        </is>
+      </c>
+      <c r="E179" s="2" t="inlineStr"/>
+      <c r="F179" s="2" t="inlineStr"/>
+      <c r="G179" s="2" t="inlineStr"/>
+      <c r="H179" s="2" t="inlineStr"/>
+      <c r="I179" s="2" t="inlineStr">
+        <is>
+          <t>A mental plan is the outcome of a planning process.</t>
+        </is>
+      </c>
+      <c r="J179" s="2" t="inlineStr"/>
+      <c r="K179" s="2" t="inlineStr"/>
+      <c r="L179" s="2" t="inlineStr"/>
+      <c r="M179" s="2" t="inlineStr"/>
+      <c r="N179" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="O179" s="2" t="inlineStr"/>
+      <c r="P179" s="2" t="inlineStr"/>
     </row>
     <row r="180">
-      <c r="A180" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050228</t>
-        </is>
-      </c>
-      <c r="B180" s="2" t="inlineStr">
+      <c r="A180" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006070</t>
+        </is>
+      </c>
+      <c r="B180" s="3" t="inlineStr">
+        <is>
+          <t>mental plan for a behaviour</t>
+        </is>
+      </c>
+      <c r="C180" s="3" t="inlineStr">
         <is>
           <t>mental plan</t>
         </is>
       </c>
-      <c r="C180" s="2" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
-      <c r="D180" s="2" t="inlineStr">
-        <is>
-          <t>A mental disposition that is realised in mental processes mentally manipulating representations of steps in an imagined process which has some goal.</t>
-        </is>
-      </c>
-      <c r="E180" s="2" t="inlineStr"/>
-      <c r="F180" s="2" t="inlineStr"/>
-      <c r="G180" s="2" t="inlineStr"/>
-      <c r="H180" s="2" t="inlineStr"/>
-      <c r="I180" s="2" t="inlineStr">
-        <is>
-          <t>A mental plan is the outcome of a planning process.</t>
-        </is>
-      </c>
-      <c r="J180" s="2" t="inlineStr"/>
-      <c r="K180" s="2" t="inlineStr"/>
-      <c r="L180" s="2" t="inlineStr"/>
-      <c r="M180" s="2" t="inlineStr"/>
-      <c r="N180" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="O180" s="2" t="inlineStr"/>
-      <c r="P180" s="2" t="inlineStr"/>
+      <c r="D180" s="3" t="inlineStr">
+        <is>
+          <t>A mental plan that is realised in mental processes representing the steps to enact a behaviour and the conditions under which the behaviour will be enacted.</t>
+        </is>
+      </c>
+      <c r="E180" s="3" t="inlineStr"/>
+      <c r="F180" s="3" t="inlineStr"/>
+      <c r="G180" s="3" t="inlineStr">
+        <is>
+          <t>Action plan</t>
+        </is>
+      </c>
+      <c r="H180" s="3" t="inlineStr"/>
+      <c r="I180" s="3" t="inlineStr">
+        <is>
+          <t>The term ‘plan’ can sometimes be used to refer to intention and sometimes for instructional plans.
+'mental plan for a behaviour’ involves  plans for which details about the behaviour (when [specific times], where, how or with whom) are specified.</t>
+        </is>
+      </c>
+      <c r="J180" s="3" t="inlineStr"/>
+      <c r="K180" s="3" t="inlineStr"/>
+      <c r="L180" s="3" t="inlineStr"/>
+      <c r="M180" s="3" t="inlineStr"/>
+      <c r="N180" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O180" s="3" t="inlineStr"/>
+      <c r="P180" s="3" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006070</t>
+          <t>BCIO:006157</t>
         </is>
       </c>
       <c r="B181" s="3" t="inlineStr">
         <is>
+          <t>mental plan for coping with barriers</t>
+        </is>
+      </c>
+      <c r="C181" s="3" t="inlineStr">
+        <is>
           <t>mental plan for a behaviour</t>
         </is>
       </c>
-      <c r="C181" s="3" t="inlineStr">
-        <is>
-          <t>mental plan</t>
-        </is>
-      </c>
       <c r="D181" s="3" t="inlineStr">
         <is>
-          <t>A mental plan that is realised in mental processes representing the steps to enact a behaviour and the conditions under which the behaviour will be enacted.</t>
+          <t>A mental plan regarding a strategy to deal with conditions that could prevent the performance of a behaviour.</t>
         </is>
       </c>
       <c r="E181" s="3" t="inlineStr"/>
       <c r="F181" s="3" t="inlineStr"/>
-      <c r="G181" s="3" t="inlineStr">
-        <is>
-          <t>Action plan</t>
-        </is>
-      </c>
+      <c r="G181" s="3" t="inlineStr"/>
       <c r="H181" s="3" t="inlineStr"/>
-      <c r="I181" s="3" t="inlineStr">
-        <is>
-          <t>The term ‘plan’ can sometimes be used to refer to intention and sometimes for instructional plans.
-'mental plan for a behaviour’ involves  plans for which details about the behaviour (when [specific times], where, how or with whom) are specified.</t>
-        </is>
-      </c>
+      <c r="I181" s="3" t="inlineStr"/>
       <c r="J181" s="3" t="inlineStr"/>
       <c r="K181" s="3" t="inlineStr"/>
       <c r="L181" s="3" t="inlineStr"/>
@@ -7848,78 +7843,78 @@
       <c r="P181" s="3" t="inlineStr"/>
     </row>
     <row r="182">
-      <c r="A182" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006157</t>
-        </is>
-      </c>
-      <c r="B182" s="3" t="inlineStr">
-        <is>
-          <t>mental plan for coping with barriers</t>
-        </is>
-      </c>
-      <c r="C182" s="3" t="inlineStr">
-        <is>
-          <t>mental plan for a behaviour</t>
-        </is>
-      </c>
-      <c r="D182" s="3" t="inlineStr">
-        <is>
-          <t>A mental plan regarding a strategy to deal with conditions that could prevent the performance of a behaviour.</t>
-        </is>
-      </c>
-      <c r="E182" s="3" t="inlineStr"/>
-      <c r="F182" s="3" t="inlineStr"/>
-      <c r="G182" s="3" t="inlineStr"/>
-      <c r="H182" s="3" t="inlineStr"/>
-      <c r="I182" s="3" t="inlineStr"/>
-      <c r="J182" s="3" t="inlineStr"/>
-      <c r="K182" s="3" t="inlineStr"/>
-      <c r="L182" s="3" t="inlineStr"/>
-      <c r="M182" s="3" t="inlineStr"/>
-      <c r="N182" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O182" s="3" t="inlineStr"/>
-      <c r="P182" s="3" t="inlineStr"/>
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>MF:0000020</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>bodily process</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>A bodily process that occurs in the brain, and that can of itself be conscious, or can give rise to a process that can of itself be conscious or can give rise to behaviour.</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr"/>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>A process that takes place in the brain and can involve consciousness.</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr"/>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="inlineStr">
+        <is>
+          <t>Mental processes can vary in the degree to which they involve consciousness.
+A 'mental process' is a subclass of 'bodily process', as mental processes occur within the body, specifically involving the brain.</t>
+        </is>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="O182" t="inlineStr"/>
+      <c r="P182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>MF:0000020</t>
+          <t xml:space="preserve">MF:0000075 </t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>mental quality</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>bodily process</t>
+          <t>bodily quality</t>
         </is>
       </c>
       <c r="D183" t="inlineStr">
         <is>
-          <t>A bodily process that occurs in the brain, and that can of itself be conscious, or can give rise to a process that can of itself be conscious or can give rise to behaviour.</t>
+          <t>A bodily quality that inheres in those structures of the extended organism that are essential for mental functioning.</t>
         </is>
       </c>
       <c r="E183" t="inlineStr"/>
-      <c r="F183" t="inlineStr">
-        <is>
-          <t>A process that takes place in the brain and can involve consciousness.</t>
-        </is>
-      </c>
+      <c r="F183" t="inlineStr"/>
       <c r="G183" t="inlineStr"/>
       <c r="H183" t="inlineStr"/>
-      <c r="I183" t="inlineStr">
-        <is>
-          <t>Mental processes can vary in the degree to which they involve consciousness.
-A 'mental process' is a subclass of 'bodily process', as mental processes occur within the body, specifically involving the brain.</t>
-        </is>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr"/>
@@ -7933,62 +7928,66 @@
       <c r="P183" t="inlineStr"/>
     </row>
     <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MF:0000075 </t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>mental quality</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>bodily quality</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>A bodily quality that inheres in those structures of the extended organism that are essential for mental functioning.</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr"/>
-      <c r="F184" t="inlineStr"/>
-      <c r="G184" t="inlineStr"/>
-      <c r="H184" t="inlineStr"/>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="inlineStr"/>
-      <c r="N184" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="O184" t="inlineStr"/>
-      <c r="P184" t="inlineStr"/>
+      <c r="A184" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006004</t>
+        </is>
+      </c>
+      <c r="B184" s="3" t="inlineStr">
+        <is>
+          <t>mental skill</t>
+        </is>
+      </c>
+      <c r="C184" s="3" t="inlineStr">
+        <is>
+          <t>mental capability</t>
+        </is>
+      </c>
+      <c r="D184" s="3" t="inlineStr">
+        <is>
+          <t>A mental capability acquired through training or practice.</t>
+        </is>
+      </c>
+      <c r="E184" s="3" t="inlineStr"/>
+      <c r="F184" s="3" t="inlineStr"/>
+      <c r="G184" s="3" t="inlineStr"/>
+      <c r="H184" s="3" t="inlineStr"/>
+      <c r="I184" s="3" t="inlineStr">
+        <is>
+          <t>The term 'skill' specifically refers to acquired capabilities, as behavioural theories suggested that the main difference between capabilities and skills was that skills were learned.</t>
+        </is>
+      </c>
+      <c r="J184" s="3" t="inlineStr"/>
+      <c r="K184" s="3" t="inlineStr"/>
+      <c r="L184" s="3" t="inlineStr"/>
+      <c r="M184" s="3" t="inlineStr"/>
+      <c r="N184" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O184" s="3" t="inlineStr"/>
+      <c r="P184" s="3" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006004</t>
+          <t>BCIO:006132</t>
         </is>
       </c>
       <c r="B185" s="3" t="inlineStr">
         <is>
-          <t>mental skill</t>
+          <t>mentally comparing against a standard</t>
         </is>
       </c>
       <c r="C185" s="3" t="inlineStr">
         <is>
-          <t>mental capability</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D185" s="3" t="inlineStr">
         <is>
-          <t>A mental capability acquired through training or practice.</t>
+          <t>A mental process in which conditions are compared against a particular reference level.</t>
         </is>
       </c>
       <c r="E185" s="3" t="inlineStr"/>
@@ -7997,7 +7996,7 @@
       <c r="H185" s="3" t="inlineStr"/>
       <c r="I185" s="3" t="inlineStr">
         <is>
-          <t>The term 'skill' specifically refers to acquired capabilities, as behavioural theories suggested that the main difference between capabilities and skills was that skills were learned.</t>
+          <t>The term 'condition' may refer to the characteristics of an object, event and person.</t>
         </is>
       </c>
       <c r="J185" s="3" t="inlineStr"/>
@@ -8013,104 +8012,100 @@
       <c r="P185" s="3" t="inlineStr"/>
     </row>
     <row r="186">
-      <c r="A186" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006132</t>
-        </is>
-      </c>
-      <c r="B186" s="3" t="inlineStr">
-        <is>
-          <t>mentally comparing against a standard</t>
-        </is>
-      </c>
-      <c r="C186" s="3" t="inlineStr">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>MFOEM:000023</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>moral disgust</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>disgust</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Disgust elicited by some kinds of especially egregious moral violations.</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr"/>
+      <c r="F186" t="inlineStr"/>
+      <c r="G186" t="inlineStr"/>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="O186" t="inlineStr"/>
+      <c r="P186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006133</t>
+        </is>
+      </c>
+      <c r="B187" s="3" t="inlineStr">
+        <is>
+          <t>motivation</t>
+        </is>
+      </c>
+      <c r="C187" s="3" t="inlineStr">
         <is>
           <t>mental process</t>
         </is>
       </c>
-      <c r="D186" s="3" t="inlineStr">
-        <is>
-          <t>A mental process in which conditions are compared against a particular reference level.</t>
-        </is>
-      </c>
-      <c r="E186" s="3" t="inlineStr"/>
-      <c r="F186" s="3" t="inlineStr"/>
-      <c r="G186" s="3" t="inlineStr"/>
-      <c r="H186" s="3" t="inlineStr"/>
-      <c r="I186" s="3" t="inlineStr">
-        <is>
-          <t>The term 'condition' may refer to the characteristics of an object, event and person.</t>
-        </is>
-      </c>
-      <c r="J186" s="3" t="inlineStr"/>
-      <c r="K186" s="3" t="inlineStr"/>
-      <c r="L186" s="3" t="inlineStr"/>
-      <c r="M186" s="3" t="inlineStr"/>
-      <c r="N186" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O186" s="3" t="inlineStr"/>
-      <c r="P186" s="3" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>MFOEM:000023</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>moral disgust</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>disgust</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>Disgust elicited by some kinds of especially egregious moral violations.</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr"/>
-      <c r="F187" t="inlineStr"/>
-      <c r="G187" t="inlineStr"/>
-      <c r="H187" t="inlineStr"/>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="inlineStr"/>
-      <c r="N187" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="O187" t="inlineStr"/>
-      <c r="P187" t="inlineStr"/>
+      <c r="D187" s="3" t="inlineStr">
+        <is>
+          <t>A mental process that energises and directs behaviour.</t>
+        </is>
+      </c>
+      <c r="E187" s="3" t="inlineStr"/>
+      <c r="F187" s="3" t="inlineStr"/>
+      <c r="G187" s="3" t="inlineStr"/>
+      <c r="H187" s="3" t="inlineStr"/>
+      <c r="I187" s="3" t="inlineStr"/>
+      <c r="J187" s="3" t="inlineStr"/>
+      <c r="K187" s="3" t="inlineStr"/>
+      <c r="L187" s="3" t="inlineStr"/>
+      <c r="M187" s="3" t="inlineStr"/>
+      <c r="N187" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O187" s="3" t="inlineStr"/>
+      <c r="P187" s="3" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006133</t>
+          <t>BCIO:006060</t>
         </is>
       </c>
       <c r="B188" s="3" t="inlineStr">
         <is>
-          <t>motivation</t>
+          <t>motivational orientation towards types of outcomes</t>
         </is>
       </c>
       <c r="C188" s="3" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D188" s="3" t="inlineStr">
         <is>
-          <t>A mental process that energises and directs behaviour.</t>
+          <t xml:space="preserve">A mental disposition for motivation to be guided by a focus on the presence or absence of outcomes of a certain valence. </t>
         </is>
       </c>
       <c r="E188" s="3" t="inlineStr"/>
@@ -8133,22 +8128,22 @@
     <row r="189">
       <c r="A189" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006060</t>
+          <t>BCIO:006068</t>
         </is>
       </c>
       <c r="B189" s="3" t="inlineStr">
         <is>
-          <t>motivational orientation towards types of outcomes</t>
+          <t>need for a sense of belonging and attachment</t>
         </is>
       </c>
       <c r="C189" s="3" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>psychological need</t>
         </is>
       </c>
       <c r="D189" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">A mental disposition for motivation to be guided by a focus on the presence or absence of outcomes of a certain valence. </t>
+          <t>A psychological need to have caring relationships with other people.</t>
         </is>
       </c>
       <c r="E189" s="3" t="inlineStr"/>
@@ -8171,12 +8166,12 @@
     <row r="190">
       <c r="A190" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006068</t>
+          <t>BCIO:006067</t>
         </is>
       </c>
       <c r="B190" s="3" t="inlineStr">
         <is>
-          <t>need for a sense of belonging and attachment</t>
+          <t>need for a sense of safety</t>
         </is>
       </c>
       <c r="C190" s="3" t="inlineStr">
@@ -8186,7 +8181,7 @@
       </c>
       <c r="D190" s="3" t="inlineStr">
         <is>
-          <t>A psychological need to have caring relationships with other people.</t>
+          <t>A psychological need to feel safe from threats.</t>
         </is>
       </c>
       <c r="E190" s="3" t="inlineStr"/>
@@ -8209,12 +8204,12 @@
     <row r="191">
       <c r="A191" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006067</t>
+          <t>BCIO:006065</t>
         </is>
       </c>
       <c r="B191" s="3" t="inlineStr">
         <is>
-          <t>need for a sense of safety</t>
+          <t>need for autonomy</t>
         </is>
       </c>
       <c r="C191" s="3" t="inlineStr">
@@ -8224,7 +8219,7 @@
       </c>
       <c r="D191" s="3" t="inlineStr">
         <is>
-          <t>A psychological need to feel safe from threats.</t>
+          <t>A psychological need to have a sense of personal agency and initiative.</t>
         </is>
       </c>
       <c r="E191" s="3" t="inlineStr"/>
@@ -8247,12 +8242,12 @@
     <row r="192">
       <c r="A192" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006065</t>
+          <t>BCIO:006066</t>
         </is>
       </c>
       <c r="B192" s="3" t="inlineStr">
         <is>
-          <t>need for autonomy</t>
+          <t>need for self-esteem</t>
         </is>
       </c>
       <c r="C192" s="3" t="inlineStr">
@@ -8262,7 +8257,7 @@
       </c>
       <c r="D192" s="3" t="inlineStr">
         <is>
-          <t>A psychological need to have a sense of personal agency and initiative.</t>
+          <t>A psychological need to have a positive evaluation of oneself and one's qualities and characteristics.</t>
         </is>
       </c>
       <c r="E192" s="3" t="inlineStr"/>
@@ -8285,12 +8280,12 @@
     <row r="193">
       <c r="A193" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006066</t>
+          <t>BCIO:006069</t>
         </is>
       </c>
       <c r="B193" s="3" t="inlineStr">
         <is>
-          <t>need for self-esteem</t>
+          <t>need to feel competent</t>
         </is>
       </c>
       <c r="C193" s="3" t="inlineStr">
@@ -8300,12 +8295,16 @@
       </c>
       <c r="D193" s="3" t="inlineStr">
         <is>
-          <t>A psychological need to have a positive evaluation of oneself and one's qualities and characteristics.</t>
+          <t>A psychological need to experience oneself as capable and effective.</t>
         </is>
       </c>
       <c r="E193" s="3" t="inlineStr"/>
       <c r="F193" s="3" t="inlineStr"/>
-      <c r="G193" s="3" t="inlineStr"/>
+      <c r="G193" s="3" t="inlineStr">
+        <is>
+          <t>need for mastery</t>
+        </is>
+      </c>
       <c r="H193" s="3" t="inlineStr"/>
       <c r="I193" s="3" t="inlineStr"/>
       <c r="J193" s="3" t="inlineStr"/>
@@ -8321,66 +8320,62 @@
       <c r="P193" s="3" t="inlineStr"/>
     </row>
     <row r="194">
-      <c r="A194" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006069</t>
-        </is>
-      </c>
-      <c r="B194" s="3" t="inlineStr">
-        <is>
-          <t>need to feel competent</t>
-        </is>
-      </c>
-      <c r="C194" s="3" t="inlineStr">
-        <is>
-          <t>psychological need</t>
-        </is>
-      </c>
-      <c r="D194" s="3" t="inlineStr">
-        <is>
-          <t>A psychological need to experience oneself as capable and effective.</t>
-        </is>
-      </c>
-      <c r="E194" s="3" t="inlineStr"/>
-      <c r="F194" s="3" t="inlineStr"/>
-      <c r="G194" s="3" t="inlineStr">
-        <is>
-          <t>need for mastery</t>
-        </is>
-      </c>
-      <c r="H194" s="3" t="inlineStr"/>
-      <c r="I194" s="3" t="inlineStr"/>
-      <c r="J194" s="3" t="inlineStr"/>
-      <c r="K194" s="3" t="inlineStr"/>
-      <c r="L194" s="3" t="inlineStr"/>
-      <c r="M194" s="3" t="inlineStr"/>
-      <c r="N194" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O194" s="3" t="inlineStr"/>
-      <c r="P194" s="3" t="inlineStr"/>
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>MFOEM:000210</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>negative surprise</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>surprise</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Surprise with a negative valence.</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr"/>
+      <c r="F194" t="inlineStr"/>
+      <c r="G194" t="inlineStr"/>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="O194" t="inlineStr"/>
+      <c r="P194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>MFOEM:000210</t>
+          <t>GO:0046958</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>negative surprise</t>
+          <t>non-associative learning</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>learning</t>
         </is>
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>Surprise with a negative valence.</t>
+          <t>A simple form of learning whereby the repeated presence of a stimulus leads to a change in the probability or strength of the response to that stimulus. There is no association of one type of stimulus with another, rather it is a generalized response to the environment.</t>
         </is>
       </c>
       <c r="E195" t="inlineStr"/>
@@ -8401,115 +8396,119 @@
       <c r="P195" t="inlineStr"/>
     </row>
     <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>GO:0046958</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>non-associative learning</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>learning</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>A simple form of learning whereby the repeated presence of a stimulus leads to a change in the probability or strength of the response to that stimulus. There is no association of one type of stimulus with another, rather it is a generalized response to the environment.</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr"/>
-      <c r="F196" t="inlineStr"/>
-      <c r="G196" t="inlineStr"/>
-      <c r="H196" t="inlineStr"/>
-      <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="inlineStr"/>
-      <c r="N196" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="O196" t="inlineStr"/>
-      <c r="P196" t="inlineStr"/>
+      <c r="A196" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050235</t>
+        </is>
+      </c>
+      <c r="B196" s="2" t="inlineStr">
+        <is>
+          <t>non-judgmental acknowledgement</t>
+        </is>
+      </c>
+      <c r="C196" s="2" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D196" s="2" t="inlineStr">
+        <is>
+          <t>A mental process that involves taking notice of one's affective, mental or bodily experience without judging it as good or bad.</t>
+        </is>
+      </c>
+      <c r="E196" s="2" t="inlineStr"/>
+      <c r="F196" s="2" t="inlineStr"/>
+      <c r="G196" s="2" t="inlineStr">
+        <is>
+          <t>Acceptance</t>
+        </is>
+      </c>
+      <c r="H196" s="2" t="inlineStr"/>
+      <c r="I196" s="2" t="inlineStr"/>
+      <c r="J196" s="2" t="inlineStr"/>
+      <c r="K196" s="2" t="inlineStr"/>
+      <c r="L196" s="2" t="inlineStr"/>
+      <c r="M196" s="2" t="inlineStr"/>
+      <c r="N196" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="O196" s="2" t="inlineStr"/>
+      <c r="P196" s="2" t="inlineStr"/>
     </row>
     <row r="197">
-      <c r="A197" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050235</t>
-        </is>
-      </c>
-      <c r="B197" s="2" t="inlineStr">
-        <is>
-          <t>non-judgmental acknowledgement</t>
-        </is>
-      </c>
-      <c r="C197" s="2" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D197" s="2" t="inlineStr">
-        <is>
-          <t>A mental process that involves taking notice of one's affective, mental or bodily experience without judging it as good or bad.</t>
-        </is>
-      </c>
-      <c r="E197" s="2" t="inlineStr"/>
-      <c r="F197" s="2" t="inlineStr"/>
-      <c r="G197" s="2" t="inlineStr">
-        <is>
-          <t>Acceptance</t>
-        </is>
-      </c>
-      <c r="H197" s="2" t="inlineStr"/>
-      <c r="I197" s="2" t="inlineStr"/>
-      <c r="J197" s="2" t="inlineStr"/>
-      <c r="K197" s="2" t="inlineStr"/>
-      <c r="L197" s="2" t="inlineStr"/>
-      <c r="M197" s="2" t="inlineStr"/>
-      <c r="N197" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="O197" s="2" t="inlineStr"/>
-      <c r="P197" s="2" t="inlineStr"/>
+      <c r="A197" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050238</t>
+        </is>
+      </c>
+      <c r="B197" s="3" t="inlineStr">
+        <is>
+          <t>non-linguistic communication behaviour</t>
+        </is>
+      </c>
+      <c r="C197" s="3" t="inlineStr">
+        <is>
+          <t>communication behaviour</t>
+        </is>
+      </c>
+      <c r="D197" s="3" t="inlineStr">
+        <is>
+          <t>A communication behaviour in which information is transmitted without being encoded in the meaning units of any language.</t>
+        </is>
+      </c>
+      <c r="E197" s="3" t="inlineStr"/>
+      <c r="F197" s="3" t="inlineStr"/>
+      <c r="G197" s="3" t="inlineStr"/>
+      <c r="H197" s="3" t="inlineStr">
+        <is>
+          <t>Communicating through bodily gestures, through pictograms and through sound (e.g. a siren going off communicates information about the presence of danger without the use of language)</t>
+        </is>
+      </c>
+      <c r="I197" s="3" t="inlineStr"/>
+      <c r="J197" s="3" t="inlineStr"/>
+      <c r="K197" s="3" t="inlineStr"/>
+      <c r="L197" s="3" t="inlineStr"/>
+      <c r="M197" s="3" t="inlineStr"/>
+      <c r="N197" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O197" s="3" t="inlineStr"/>
+      <c r="P197" s="3" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050238</t>
+          <t>BCIO:006095</t>
         </is>
       </c>
       <c r="B198" s="3" t="inlineStr">
         <is>
-          <t>non-linguistic communication behaviour</t>
+          <t>normative behaviour</t>
         </is>
       </c>
       <c r="C198" s="3" t="inlineStr">
         <is>
-          <t>communication behaviour</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="D198" s="3" t="inlineStr">
         <is>
-          <t>A communication behaviour in which information is transmitted without being encoded in the meaning units of any language.</t>
+          <t>An individual human behaviour that is commonly enacted by people that are part of a social environmental system.</t>
         </is>
       </c>
       <c r="E198" s="3" t="inlineStr"/>
       <c r="F198" s="3" t="inlineStr"/>
       <c r="G198" s="3" t="inlineStr"/>
-      <c r="H198" s="3" t="inlineStr">
-        <is>
-          <t>Communicating through bodily gestures, through pictograms and through sound (e.g. a siren going off communicates information about the presence of danger without the use of language)</t>
-        </is>
-      </c>
-      <c r="I198" s="3" t="inlineStr"/>
+      <c r="H198" s="3" t="inlineStr"/>
+      <c r="I198" s="3" t="inlineStr">
+        <is>
+          <t>Normative behaviour can be an MoA or outcome depending on how 'normative behaviour' is described in an intervention. The Behaviour Change-Intervention Ontology includes the class 'outcome behaviour' (definition: Human behavior that is an intervention outcome.), which would not be an MoA. When an intervention targets a normative behaviour to achieve an outcome behaviour, the former qualifies as an MoA.</t>
+        </is>
+      </c>
       <c r="J198" s="3" t="inlineStr"/>
       <c r="K198" s="3" t="inlineStr"/>
       <c r="L198" s="3" t="inlineStr"/>
@@ -8525,22 +8524,22 @@
     <row r="199">
       <c r="A199" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006095</t>
+          <t>BCIO:006042</t>
         </is>
       </c>
       <c r="B199" s="3" t="inlineStr">
         <is>
-          <t>normative behaviour</t>
+          <t>normative belief</t>
         </is>
       </c>
       <c r="C199" s="3" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>perceived norm</t>
         </is>
       </c>
       <c r="D199" s="3" t="inlineStr">
         <is>
-          <t>An individual human behaviour that is commonly enacted by people that are part of a social environmental system.</t>
+          <t>A belief about whether key others think one should perform a behaviour.</t>
         </is>
       </c>
       <c r="E199" s="3" t="inlineStr"/>
@@ -8549,7 +8548,7 @@
       <c r="H199" s="3" t="inlineStr"/>
       <c r="I199" s="3" t="inlineStr">
         <is>
-          <t>Normative behaviour can be an MoA or outcome depending on how 'normative behaviour' is described in an intervention. The Behaviour Change-Intervention Ontology includes the class 'outcome behaviour' (definition: Human behavior that is an intervention outcome.), which would not be an MoA. When an intervention targets a normative behaviour to achieve an outcome behaviour, the former qualifies as an MoA.</t>
+          <t>'Key others' can include 'people in one’s social network’</t>
         </is>
       </c>
       <c r="J199" s="3" t="inlineStr"/>
@@ -8565,115 +8564,111 @@
       <c r="P199" s="3" t="inlineStr"/>
     </row>
     <row r="200">
-      <c r="A200" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006042</t>
-        </is>
-      </c>
-      <c r="B200" s="3" t="inlineStr">
-        <is>
-          <t>normative belief</t>
-        </is>
-      </c>
-      <c r="C200" s="3" t="inlineStr">
-        <is>
-          <t>perceived norm</t>
-        </is>
-      </c>
-      <c r="D200" s="3" t="inlineStr">
-        <is>
-          <t>A belief about whether key others think one should perform a behaviour.</t>
-        </is>
-      </c>
-      <c r="E200" s="3" t="inlineStr"/>
-      <c r="F200" s="3" t="inlineStr"/>
-      <c r="G200" s="3" t="inlineStr"/>
-      <c r="H200" s="3" t="inlineStr"/>
-      <c r="I200" s="3" t="inlineStr">
-        <is>
-          <t>'Key others' can include 'people in one’s social network’</t>
-        </is>
-      </c>
-      <c r="J200" s="3" t="inlineStr"/>
-      <c r="K200" s="3" t="inlineStr"/>
-      <c r="L200" s="3" t="inlineStr"/>
-      <c r="M200" s="3" t="inlineStr"/>
-      <c r="N200" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O200" s="3" t="inlineStr"/>
-      <c r="P200" s="3" t="inlineStr"/>
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>GO:0098597</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>observational learning</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>learning</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>Learning that occurs through observing the behaviour of others.</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr"/>
+      <c r="F200" t="inlineStr"/>
+      <c r="G200" t="inlineStr"/>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="O200" t="inlineStr"/>
+      <c r="P200" t="inlineStr"/>
     </row>
     <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>GO:0098597</t>
-        </is>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>observational learning</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>learning</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>Learning that occurs through observing the behaviour of others.</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr"/>
-      <c r="F201" t="inlineStr"/>
-      <c r="G201" t="inlineStr"/>
-      <c r="H201" t="inlineStr"/>
-      <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="inlineStr"/>
-      <c r="N201" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="O201" t="inlineStr"/>
-      <c r="P201" t="inlineStr"/>
+      <c r="A201" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:015430</t>
+        </is>
+      </c>
+      <c r="B201" s="3" t="inlineStr">
+        <is>
+          <t>occupational role</t>
+        </is>
+      </c>
+      <c r="C201" s="3" t="inlineStr">
+        <is>
+          <t>personal role</t>
+        </is>
+      </c>
+      <c r="D201" s="3" t="inlineStr">
+        <is>
+          <t>A role that is realised in a person by doing a specified type of work or working in a specified way.</t>
+        </is>
+      </c>
+      <c r="E201" s="3" t="inlineStr"/>
+      <c r="F201" s="3" t="inlineStr"/>
+      <c r="G201" s="3" t="inlineStr"/>
+      <c r="H201" s="3" t="inlineStr"/>
+      <c r="I201" s="3" t="inlineStr">
+        <is>
+          <t>A role can be assigned without being realised. A person realises a role by doing something.</t>
+        </is>
+      </c>
+      <c r="J201" s="3" t="inlineStr"/>
+      <c r="K201" s="3" t="inlineStr"/>
+      <c r="L201" s="3" t="inlineStr"/>
+      <c r="M201" s="3" t="inlineStr"/>
+      <c r="N201" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O201" s="3" t="inlineStr"/>
+      <c r="P201" s="3" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="3" t="inlineStr">
         <is>
-          <t>BCIO:015430</t>
+          <t>BCIO:006125</t>
         </is>
       </c>
       <c r="B202" s="3" t="inlineStr">
         <is>
-          <t>occupational role</t>
+          <t>operant conditioning</t>
         </is>
       </c>
       <c r="C202" s="3" t="inlineStr">
         <is>
-          <t>personal role</t>
+          <t>associative learning</t>
         </is>
       </c>
       <c r="D202" s="3" t="inlineStr">
         <is>
-          <t>A role that is realised in a person by doing a specified type of work or working in a specified way.</t>
+          <t>Associative learning process in which the likelihood of a particular behavioural response is influenced by the past consequences associated with performing that behaviour.</t>
         </is>
       </c>
       <c r="E202" s="3" t="inlineStr"/>
       <c r="F202" s="3" t="inlineStr"/>
       <c r="G202" s="3" t="inlineStr"/>
       <c r="H202" s="3" t="inlineStr"/>
-      <c r="I202" s="3" t="inlineStr">
-        <is>
-          <t>A role can be assigned without being realised. A person realises a role by doing something.</t>
-        </is>
-      </c>
+      <c r="I202" s="3" t="inlineStr"/>
       <c r="J202" s="3" t="inlineStr"/>
       <c r="K202" s="3" t="inlineStr"/>
       <c r="L202" s="3" t="inlineStr"/>
@@ -8687,94 +8682,94 @@
       <c r="P202" s="3" t="inlineStr"/>
     </row>
     <row r="203">
-      <c r="A203" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006125</t>
-        </is>
-      </c>
-      <c r="B203" s="3" t="inlineStr">
-        <is>
-          <t>operant conditioning</t>
-        </is>
-      </c>
-      <c r="C203" s="3" t="inlineStr">
-        <is>
-          <t>associative learning</t>
-        </is>
-      </c>
-      <c r="D203" s="3" t="inlineStr">
-        <is>
-          <t>Associative learning process in which the likelihood of a particular behavioural response is influenced by the past consequences associated with performing that behaviour.</t>
-        </is>
-      </c>
-      <c r="E203" s="3" t="inlineStr"/>
-      <c r="F203" s="3" t="inlineStr"/>
-      <c r="G203" s="3" t="inlineStr"/>
-      <c r="H203" s="3" t="inlineStr"/>
-      <c r="I203" s="3" t="inlineStr"/>
-      <c r="J203" s="3" t="inlineStr"/>
-      <c r="K203" s="3" t="inlineStr"/>
-      <c r="L203" s="3" t="inlineStr"/>
-      <c r="M203" s="3" t="inlineStr"/>
-      <c r="N203" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O203" s="3" t="inlineStr"/>
-      <c r="P203" s="3" t="inlineStr"/>
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>MFOEM:000203</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>pain</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>subjective affective feeling</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>A subjective affective feeling in an organism S, involving two integrated levels: (a) activation of the nociceptive system and associated emotion generating brain components of S, and (b) a simultaneous aversive sensory and emotional experience on the part of S, where (b) is phenomenologically similar to the sort of aversive experience involved in pain with concordant tissue damage.</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr"/>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>An unpleasant experience typically associated with tissue damage.</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr"/>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="O203" t="inlineStr"/>
+      <c r="P203" t="inlineStr"/>
     </row>
     <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>MFOEM:000203</t>
-        </is>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>pain</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>subjective affective feeling</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr">
-        <is>
-          <t>A subjective affective feeling in an organism S, involving two integrated levels: (a) activation of the nociceptive system and associated emotion generating brain components of S, and (b) a simultaneous aversive sensory and emotional experience on the part of S, where (b) is phenomenologically similar to the sort of aversive experience involved in pain with concordant tissue damage.</t>
-        </is>
-      </c>
-      <c r="E204" t="inlineStr"/>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>An unpleasant experience typically associated with tissue damage.</t>
-        </is>
-      </c>
-      <c r="G204" t="inlineStr"/>
-      <c r="H204" t="inlineStr"/>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="inlineStr"/>
-      <c r="N204" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="O204" t="inlineStr"/>
-      <c r="P204" t="inlineStr"/>
+      <c r="A204" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006040</t>
+        </is>
+      </c>
+      <c r="B204" s="3" t="inlineStr">
+        <is>
+          <t>perceived descriptive norm</t>
+        </is>
+      </c>
+      <c r="C204" s="3" t="inlineStr">
+        <is>
+          <t>perceived norm</t>
+        </is>
+      </c>
+      <c r="D204" s="3" t="inlineStr">
+        <is>
+          <t>A belief about the prevalence of performance of a given behaviour by people within a group.</t>
+        </is>
+      </c>
+      <c r="E204" s="3" t="inlineStr"/>
+      <c r="F204" s="3" t="inlineStr"/>
+      <c r="G204" s="3" t="inlineStr"/>
+      <c r="H204" s="3" t="inlineStr"/>
+      <c r="I204" s="3" t="inlineStr"/>
+      <c r="J204" s="3" t="inlineStr"/>
+      <c r="K204" s="3" t="inlineStr"/>
+      <c r="L204" s="3" t="inlineStr"/>
+      <c r="M204" s="3" t="inlineStr"/>
+      <c r="N204" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O204" s="3" t="inlineStr"/>
+      <c r="P204" s="3" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006040</t>
+          <t>BCIO:006041</t>
         </is>
       </c>
       <c r="B205" s="3" t="inlineStr">
         <is>
-          <t>perceived descriptive norm</t>
+          <t>perceived injunctive norm</t>
         </is>
       </c>
       <c r="C205" s="3" t="inlineStr">
@@ -8784,7 +8779,7 @@
       </c>
       <c r="D205" s="3" t="inlineStr">
         <is>
-          <t>A belief about the prevalence of performance of a given behaviour by people within a group.</t>
+          <t>A belief about whether a behaviour is appropriate and correct for people who belong to a particular group.</t>
         </is>
       </c>
       <c r="E205" s="3" t="inlineStr"/>
@@ -8807,29 +8802,37 @@
     <row r="206">
       <c r="A206" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006041</t>
+          <t>BCIO:006039</t>
         </is>
       </c>
       <c r="B206" s="3" t="inlineStr">
         <is>
-          <t>perceived injunctive norm</t>
+          <t>perceived norm</t>
         </is>
       </c>
       <c r="C206" s="3" t="inlineStr">
         <is>
-          <t>perceived norm</t>
+          <t>belief</t>
         </is>
       </c>
       <c r="D206" s="3" t="inlineStr">
         <is>
-          <t>A belief about whether a behaviour is appropriate and correct for people who belong to a particular group.</t>
+          <t>A belief about what is typical for people who belong to a particular group.</t>
         </is>
       </c>
       <c r="E206" s="3" t="inlineStr"/>
       <c r="F206" s="3" t="inlineStr"/>
-      <c r="G206" s="3" t="inlineStr"/>
+      <c r="G206" s="3" t="inlineStr">
+        <is>
+          <t>belief about norm</t>
+        </is>
+      </c>
       <c r="H206" s="3" t="inlineStr"/>
-      <c r="I206" s="3" t="inlineStr"/>
+      <c r="I206" s="3" t="inlineStr">
+        <is>
+          <t>A person does not need to belong to a group to have a perception of their norms. For instance, the perceived norm could be in a group one aspires to belong to, and so the person might attempt to conform to it in an attempt to be accepted as a member of that group.</t>
+        </is>
+      </c>
       <c r="J206" s="3" t="inlineStr"/>
       <c r="K206" s="3" t="inlineStr"/>
       <c r="L206" s="3" t="inlineStr"/>
@@ -8843,222 +8846,214 @@
       <c r="P206" s="3" t="inlineStr"/>
     </row>
     <row r="207">
-      <c r="A207" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006039</t>
-        </is>
-      </c>
-      <c r="B207" s="3" t="inlineStr">
-        <is>
-          <t>perceived norm</t>
-        </is>
-      </c>
-      <c r="C207" s="3" t="inlineStr">
-        <is>
-          <t>belief</t>
-        </is>
-      </c>
-      <c r="D207" s="3" t="inlineStr">
-        <is>
-          <t>A belief about what is typical for people who belong to a particular group.</t>
-        </is>
-      </c>
-      <c r="E207" s="3" t="inlineStr"/>
-      <c r="F207" s="3" t="inlineStr"/>
-      <c r="G207" s="3" t="inlineStr">
-        <is>
-          <t>belief about norm</t>
-        </is>
-      </c>
-      <c r="H207" s="3" t="inlineStr"/>
-      <c r="I207" s="3" t="inlineStr">
-        <is>
-          <t>A person does not need to belong to a group to have a perception of their norms. For instance, the perceived norm could be in a group one aspires to belong to, and so the person might attempt to conform to it in an attempt to be accepted as a member of that group.</t>
-        </is>
-      </c>
-      <c r="J207" s="3" t="inlineStr"/>
-      <c r="K207" s="3" t="inlineStr"/>
-      <c r="L207" s="3" t="inlineStr"/>
-      <c r="M207" s="3" t="inlineStr"/>
-      <c r="N207" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O207" s="3" t="inlineStr"/>
-      <c r="P207" s="3" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
+      <c r="A207" t="inlineStr">
         <is>
           <t>MF:0000019</t>
         </is>
       </c>
-      <c r="B208" t="inlineStr">
+      <c r="B207" t="inlineStr">
         <is>
           <t>perception</t>
         </is>
       </c>
-      <c r="C208" t="inlineStr">
+      <c r="C207" t="inlineStr">
         <is>
           <t>mental process</t>
         </is>
       </c>
-      <c r="D208" t="inlineStr">
+      <c r="D207" t="inlineStr">
         <is>
           <t>A mental process which is a) produced by a causal process involving a part of the environment of the organism, and b) is experienced by the organism as being so caused, and c) in which the relevant part of the environment is thereby represented to the organism.</t>
         </is>
       </c>
-      <c r="E208" t="inlineStr"/>
-      <c r="F208" t="inlineStr">
+      <c r="E207" t="inlineStr"/>
+      <c r="F207" t="inlineStr">
         <is>
           <t>A sensory experience involving a part of a person's environment.</t>
         </is>
       </c>
-      <c r="G208" t="inlineStr"/>
-      <c r="H208" t="inlineStr"/>
-      <c r="I208" t="inlineStr">
+      <c r="G207" t="inlineStr"/>
+      <c r="H207" t="inlineStr"/>
+      <c r="I207" t="inlineStr">
         <is>
           <t>Examples for 'causal processes involving a part of the environment of an organism' that can be perceived are light rays and air vibrations.
 'Perception' is about perceiving stimuli in one's environment in the MoA Ontology. However, the term 'perception' is sometimes used to refer to things defined as 'belief' in the MoA Ontology.</t>
         </is>
       </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
-      <c r="M208" t="inlineStr"/>
-      <c r="N208" t="inlineStr">
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="O208" t="inlineStr"/>
-      <c r="P208" t="inlineStr"/>
+      <c r="O207" t="inlineStr"/>
+      <c r="P207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050300</t>
+        </is>
+      </c>
+      <c r="B208" s="2" t="inlineStr">
+        <is>
+          <t>personal attribute</t>
+        </is>
+      </c>
+      <c r="C208" s="2" t="inlineStr">
+        <is>
+          <t>specifically dependent continuant</t>
+        </is>
+      </c>
+      <c r="D208" s="2" t="inlineStr">
+        <is>
+          <t>A specifically dependent continuant that inheres in a person.</t>
+        </is>
+      </c>
+      <c r="E208" s="2" t="inlineStr"/>
+      <c r="F208" s="2" t="inlineStr">
+        <is>
+          <t>A characteristic of a person such as age, intelligence, socioeconomic status, height and job.</t>
+        </is>
+      </c>
+      <c r="G208" s="2" t="inlineStr"/>
+      <c r="H208" s="2" t="inlineStr"/>
+      <c r="I208" s="2" t="inlineStr">
+        <is>
+          <t>Includes everything that can be said about a person: the most general class under which all other qualities, dispositions, roles etc belong.</t>
+        </is>
+      </c>
+      <c r="J208" s="2" t="inlineStr"/>
+      <c r="K208" s="2" t="inlineStr"/>
+      <c r="L208" s="2" t="inlineStr"/>
+      <c r="M208" s="2" t="inlineStr">
+        <is>
+          <t>The population ontology individuals branch defines many personal attributes</t>
+        </is>
+      </c>
+      <c r="N208" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="O208" s="2" t="inlineStr"/>
+      <c r="P208" s="2" t="inlineStr"/>
     </row>
     <row r="209">
-      <c r="A209" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050300</t>
-        </is>
-      </c>
-      <c r="B209" s="2" t="inlineStr">
-        <is>
-          <t>personal attribute</t>
-        </is>
-      </c>
-      <c r="C209" s="2" t="inlineStr">
-        <is>
-          <t>specifically dependent continuant</t>
-        </is>
-      </c>
-      <c r="D209" s="2" t="inlineStr">
-        <is>
-          <t>A specifically dependent continuant that inheres in a person.</t>
-        </is>
-      </c>
-      <c r="E209" s="2" t="inlineStr"/>
-      <c r="F209" s="2" t="inlineStr">
-        <is>
-          <t>A characteristic of a person such as age, intelligence, socioeconomic status, height and job.</t>
-        </is>
-      </c>
-      <c r="G209" s="2" t="inlineStr"/>
-      <c r="H209" s="2" t="inlineStr"/>
-      <c r="I209" s="2" t="inlineStr">
-        <is>
-          <t>Includes everything that can be said about a person: the most general class under which all other qualities, dispositions, roles etc belong.</t>
-        </is>
-      </c>
-      <c r="J209" s="2" t="inlineStr"/>
-      <c r="K209" s="2" t="inlineStr"/>
-      <c r="L209" s="2" t="inlineStr"/>
-      <c r="M209" s="2" t="inlineStr">
-        <is>
-          <t>The population ontology individuals branch defines many personal attributes</t>
-        </is>
-      </c>
-      <c r="N209" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="O209" s="2" t="inlineStr"/>
-      <c r="P209" s="2" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
+      <c r="A209" t="inlineStr">
         <is>
           <t xml:space="preserve">MF:0000043 </t>
         </is>
       </c>
-      <c r="B210" t="inlineStr">
+      <c r="B209" t="inlineStr">
         <is>
           <t>personal capability</t>
         </is>
       </c>
-      <c r="C210" t="inlineStr">
+      <c r="C209" t="inlineStr">
         <is>
           <t>bodily disposition</t>
         </is>
       </c>
-      <c r="D210" t="inlineStr">
+      <c r="D209" t="inlineStr">
         <is>
           <t>A bodily disposition whose realization ordinarily brings benefits to an organism or group of organisms, where "ordinarily" means within a typical  range or context.</t>
         </is>
       </c>
-      <c r="E210" t="inlineStr"/>
-      <c r="F210" t="inlineStr">
+      <c r="E209" t="inlineStr"/>
+      <c r="F209" t="inlineStr">
         <is>
           <t>The ability of someone to perform some useful and/or beneficial activity.</t>
         </is>
       </c>
-      <c r="G210" t="inlineStr"/>
-      <c r="H210" t="inlineStr"/>
-      <c r="I210" t="inlineStr">
+      <c r="G209" t="inlineStr"/>
+      <c r="H209" t="inlineStr"/>
+      <c r="I209" t="inlineStr">
         <is>
           <t>The phrase 'ordinarily brings benefits to an organism or group of organism' is used to explain that capabilities normally provide a benefit. 
 For instance, having a musical ability is ordinarily an ability that is positive for a person (e.g., they receive positive feedback about their ability). However, in certain exceptional cases (e.g., a neighbour becoming annoyed with a person playing the piano and expressing this annoyance), the ability might not bring benefits.</t>
         </is>
       </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="inlineStr"/>
-      <c r="N210" t="inlineStr">
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="O210" t="inlineStr"/>
-      <c r="P210" t="inlineStr"/>
+      <c r="O209" t="inlineStr"/>
+      <c r="P209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050301</t>
+        </is>
+      </c>
+      <c r="B210" s="2" t="inlineStr">
+        <is>
+          <t>personal disposition</t>
+        </is>
+      </c>
+      <c r="C210" s="2" t="inlineStr">
+        <is>
+          <t>disposition</t>
+        </is>
+      </c>
+      <c r="D210" s="2" t="inlineStr">
+        <is>
+          <t>A disposition that inheres in a person.</t>
+        </is>
+      </c>
+      <c r="E210" s="2" t="inlineStr"/>
+      <c r="F210" s="2" t="inlineStr">
+        <is>
+          <t>A characteristic of a person such as intelligence and personality that causes them to think feel or act in a particular way in a particular situation.</t>
+        </is>
+      </c>
+      <c r="G210" s="2" t="inlineStr"/>
+      <c r="H210" s="2" t="inlineStr"/>
+      <c r="I210" s="2" t="inlineStr"/>
+      <c r="J210" s="2" t="inlineStr"/>
+      <c r="K210" s="2" t="inlineStr"/>
+      <c r="L210" s="2" t="inlineStr"/>
+      <c r="M210" s="2" t="inlineStr"/>
+      <c r="N210" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="O210" s="2" t="inlineStr"/>
+      <c r="P210" s="2" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050301</t>
+          <t>BCIO:050302</t>
         </is>
       </c>
       <c r="B211" s="2" t="inlineStr">
         <is>
-          <t>personal disposition</t>
+          <t>personal life attribute</t>
         </is>
       </c>
       <c r="C211" s="2" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>process attribute</t>
         </is>
       </c>
       <c r="D211" s="2" t="inlineStr">
         <is>
-          <t>A disposition that inheres in a person.</t>
+          <t>A process attribute that is an attribute of a life process.</t>
         </is>
       </c>
       <c r="E211" s="2" t="inlineStr"/>
-      <c r="F211" s="2" t="inlineStr">
-        <is>
-          <t>A characteristic of a person such as intelligence and personality that causes them to think feel or act in a particular way in a particular situation.</t>
-        </is>
-      </c>
+      <c r="F211" s="2" t="inlineStr"/>
       <c r="G211" s="2" t="inlineStr"/>
       <c r="H211" s="2" t="inlineStr"/>
       <c r="I211" s="2" t="inlineStr"/>
@@ -9077,22 +9072,22 @@
     <row r="212">
       <c r="A212" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050302</t>
+          <t>BCIO:050303</t>
         </is>
       </c>
       <c r="B212" s="2" t="inlineStr">
         <is>
-          <t>personal life attribute</t>
+          <t>personal quality</t>
         </is>
       </c>
       <c r="C212" s="2" t="inlineStr">
         <is>
-          <t>process attribute</t>
+          <t>quality</t>
         </is>
       </c>
       <c r="D212" s="2" t="inlineStr">
         <is>
-          <t>A process attribute that is an attribute of a life process.</t>
+          <t>A quality that inheres in a person.</t>
         </is>
       </c>
       <c r="E212" s="2" t="inlineStr"/>
@@ -9113,77 +9108,77 @@
       <c r="P212" s="2" t="inlineStr"/>
     </row>
     <row r="213">
-      <c r="A213" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050303</t>
-        </is>
-      </c>
-      <c r="B213" s="2" t="inlineStr">
-        <is>
-          <t>personal quality</t>
-        </is>
-      </c>
-      <c r="C213" s="2" t="inlineStr">
-        <is>
-          <t>quality</t>
-        </is>
-      </c>
-      <c r="D213" s="2" t="inlineStr">
-        <is>
-          <t>A quality that inheres in a person.</t>
-        </is>
-      </c>
-      <c r="E213" s="2" t="inlineStr"/>
-      <c r="F213" s="2" t="inlineStr"/>
-      <c r="G213" s="2" t="inlineStr"/>
-      <c r="H213" s="2" t="inlineStr"/>
-      <c r="I213" s="2" t="inlineStr"/>
-      <c r="J213" s="2" t="inlineStr"/>
-      <c r="K213" s="2" t="inlineStr"/>
-      <c r="L213" s="2" t="inlineStr"/>
-      <c r="M213" s="2" t="inlineStr"/>
-      <c r="N213" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="O213" s="2" t="inlineStr"/>
-      <c r="P213" s="2" t="inlineStr"/>
+      <c r="A213" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006081</t>
+        </is>
+      </c>
+      <c r="B213" s="3" t="inlineStr">
+        <is>
+          <t>personal role</t>
+        </is>
+      </c>
+      <c r="C213" s="3" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="D213" s="3" t="inlineStr">
+        <is>
+          <t>A role that inheres in a human being by virtue of their social and institutional circumstances.</t>
+        </is>
+      </c>
+      <c r="E213" s="3" t="inlineStr"/>
+      <c r="F213" s="3" t="inlineStr">
+        <is>
+          <t>A role that someone has within an organisation or social grouping.</t>
+        </is>
+      </c>
+      <c r="G213" s="3" t="inlineStr"/>
+      <c r="H213" s="3" t="inlineStr"/>
+      <c r="I213" s="3" t="inlineStr">
+        <is>
+          <t>A role can be assigned without being realised. A person realises a role by doing something.</t>
+        </is>
+      </c>
+      <c r="J213" s="3" t="inlineStr"/>
+      <c r="K213" s="3" t="inlineStr"/>
+      <c r="L213" s="3" t="inlineStr"/>
+      <c r="M213" s="3" t="inlineStr"/>
+      <c r="N213" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O213" s="3" t="inlineStr"/>
+      <c r="P213" s="3" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006081</t>
+          <t>BCIO:006063</t>
         </is>
       </c>
       <c r="B214" s="3" t="inlineStr">
         <is>
-          <t>personal role</t>
+          <t>personal value</t>
         </is>
       </c>
       <c r="C214" s="3" t="inlineStr">
         <is>
-          <t>role</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D214" s="3" t="inlineStr">
         <is>
-          <t>A role that inheres in a human being by virtue of their social and institutional circumstances.</t>
+          <t>A mental disposition to regard certain things as fundamentally important in life, which informs standards for behaviour.</t>
         </is>
       </c>
       <c r="E214" s="3" t="inlineStr"/>
-      <c r="F214" s="3" t="inlineStr">
-        <is>
-          <t>A role that someone has within an organisation or social grouping.</t>
-        </is>
-      </c>
+      <c r="F214" s="3" t="inlineStr"/>
       <c r="G214" s="3" t="inlineStr"/>
       <c r="H214" s="3" t="inlineStr"/>
-      <c r="I214" s="3" t="inlineStr">
-        <is>
-          <t>A role can be assigned without being realised. A person realises a role by doing something.</t>
-        </is>
-      </c>
+      <c r="I214" s="3" t="inlineStr"/>
       <c r="J214" s="3" t="inlineStr"/>
       <c r="K214" s="3" t="inlineStr"/>
       <c r="L214" s="3" t="inlineStr"/>
@@ -9199,22 +9194,22 @@
     <row r="215">
       <c r="A215" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006063</t>
+          <t>BCIO:006009</t>
         </is>
       </c>
       <c r="B215" s="3" t="inlineStr">
         <is>
-          <t>personal value</t>
+          <t>physical behavioural capability</t>
         </is>
       </c>
       <c r="C215" s="3" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>behavioural capability</t>
         </is>
       </c>
       <c r="D215" s="3" t="inlineStr">
         <is>
-          <t>A mental disposition to regard certain things as fundamentally important in life, which informs standards for behaviour.</t>
+          <t xml:space="preserve">A behavioural capability that involves a musculoskeletal process in its realisation. </t>
         </is>
       </c>
       <c r="E215" s="3" t="inlineStr"/>
@@ -9237,29 +9232,37 @@
     <row r="216">
       <c r="A216" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006009</t>
+          <t>BCIO:006089</t>
         </is>
       </c>
       <c r="B216" s="3" t="inlineStr">
         <is>
-          <t>physical behavioural capability</t>
+          <t>physical behavioural opportunity</t>
         </is>
       </c>
       <c r="C216" s="3" t="inlineStr">
         <is>
-          <t>behavioural capability</t>
+          <t>behavioural opportunity</t>
         </is>
       </c>
       <c r="D216" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">A behavioural capability that involves a musculoskeletal process in its realisation. </t>
+          <t>A behavioural opportunity that involves time and parts of the environmental system that do not involve people or organisations.</t>
         </is>
       </c>
       <c r="E216" s="3" t="inlineStr"/>
-      <c r="F216" s="3" t="inlineStr"/>
+      <c r="F216" s="3" t="inlineStr">
+        <is>
+          <t>Properties of a person's environment that involve the objects in their environment, the space they inhabit, the time available or the material resources available to them and influence the person's ability to enact a behaviour.</t>
+        </is>
+      </c>
       <c r="G216" s="3" t="inlineStr"/>
       <c r="H216" s="3" t="inlineStr"/>
-      <c r="I216" s="3" t="inlineStr"/>
+      <c r="I216" s="3" t="inlineStr">
+        <is>
+          <t>A 'behavioural opportunity' is a feature of the environmental system. While the class 'environmental system' is about what is found in an environment, the behavioural opportunity is a feature of the environment which interacts with the person and enables or prevents a behaviour.</t>
+        </is>
+      </c>
       <c r="J216" s="3" t="inlineStr"/>
       <c r="K216" s="3" t="inlineStr"/>
       <c r="L216" s="3" t="inlineStr"/>
@@ -9275,37 +9278,29 @@
     <row r="217">
       <c r="A217" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006089</t>
+          <t>BCIO:006010</t>
         </is>
       </c>
       <c r="B217" s="3" t="inlineStr">
         <is>
-          <t>physical behavioural opportunity</t>
+          <t>physical skill</t>
         </is>
       </c>
       <c r="C217" s="3" t="inlineStr">
         <is>
-          <t>behavioural opportunity</t>
+          <t>physical behavioural capability</t>
         </is>
       </c>
       <c r="D217" s="3" t="inlineStr">
         <is>
-          <t>A behavioural opportunity that involves time and parts of the environmental system that do not involve people or organisations.</t>
+          <t>A physical capability acquired through training or practice.</t>
         </is>
       </c>
       <c r="E217" s="3" t="inlineStr"/>
-      <c r="F217" s="3" t="inlineStr">
-        <is>
-          <t>Properties of a person's environment that involve the objects in their environment, the space they inhabit, the time available or the material resources available to them and influence the person's ability to enact a behaviour.</t>
-        </is>
-      </c>
+      <c r="F217" s="3" t="inlineStr"/>
       <c r="G217" s="3" t="inlineStr"/>
       <c r="H217" s="3" t="inlineStr"/>
-      <c r="I217" s="3" t="inlineStr">
-        <is>
-          <t>A 'behavioural opportunity' is a feature of the environmental system. While the class 'environmental system' is about what is found in an environment, the behavioural opportunity is a feature of the environment which interacts with the person and enables or prevents a behaviour.</t>
-        </is>
-      </c>
+      <c r="I217" s="3" t="inlineStr"/>
       <c r="J217" s="3" t="inlineStr"/>
       <c r="K217" s="3" t="inlineStr"/>
       <c r="L217" s="3" t="inlineStr"/>
@@ -9319,153 +9314,157 @@
       <c r="P217" s="3" t="inlineStr"/>
     </row>
     <row r="218">
-      <c r="A218" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006010</t>
-        </is>
-      </c>
-      <c r="B218" s="3" t="inlineStr">
-        <is>
-          <t>physical skill</t>
-        </is>
-      </c>
-      <c r="C218" s="3" t="inlineStr">
-        <is>
-          <t>physical behavioural capability</t>
-        </is>
-      </c>
-      <c r="D218" s="3" t="inlineStr">
-        <is>
-          <t>A physical capability acquired through training or practice.</t>
-        </is>
-      </c>
-      <c r="E218" s="3" t="inlineStr"/>
-      <c r="F218" s="3" t="inlineStr"/>
-      <c r="G218" s="3" t="inlineStr"/>
-      <c r="H218" s="3" t="inlineStr"/>
-      <c r="I218" s="3" t="inlineStr"/>
-      <c r="J218" s="3" t="inlineStr"/>
-      <c r="K218" s="3" t="inlineStr"/>
-      <c r="L218" s="3" t="inlineStr"/>
-      <c r="M218" s="3" t="inlineStr"/>
-      <c r="N218" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O218" s="3" t="inlineStr"/>
-      <c r="P218" s="3" t="inlineStr"/>
+      <c r="A218" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MFOEM:000003 </t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>physiological process involved in an emotion</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>bodily process</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>A bodily process that encompasses all the neurophysiological changes accompanying an emotion, which take place in the central nervous system (CNS), neuro-endocrine system (NES) and autonomous nervous system (ANS).</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr"/>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>A process that occurs in a person's body when they are experiencing an emotion.</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr"/>
+      <c r="H218" t="inlineStr"/>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="inlineStr"/>
+      <c r="N218" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="O218" t="inlineStr"/>
+      <c r="P218" t="inlineStr"/>
     </row>
     <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MFOEM:000003 </t>
-        </is>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>physiological process involved in an emotion</t>
-        </is>
-      </c>
-      <c r="C219" t="inlineStr">
+      <c r="A219" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006102</t>
+        </is>
+      </c>
+      <c r="B219" s="3" t="inlineStr">
+        <is>
+          <t>plan enactment</t>
+        </is>
+      </c>
+      <c r="C219" s="3" t="inlineStr">
         <is>
           <t>bodily process</t>
         </is>
       </c>
-      <c r="D219" t="inlineStr">
-        <is>
-          <t>A bodily process that encompasses all the neurophysiological changes accompanying an emotion, which take place in the central nervous system (CNS), neuro-endocrine system (NES) and autonomous nervous system (ANS).</t>
-        </is>
-      </c>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr">
-        <is>
-          <t>A process that occurs in a person's body when they are experiencing an emotion.</t>
-        </is>
-      </c>
-      <c r="G219" t="inlineStr"/>
-      <c r="H219" t="inlineStr"/>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="inlineStr"/>
-      <c r="N219" t="inlineStr">
+      <c r="D219" s="3" t="inlineStr">
+        <is>
+          <t>A bodily process by which a person attempts to follow the steps in a plan.</t>
+        </is>
+      </c>
+      <c r="E219" s="3" t="inlineStr"/>
+      <c r="F219" s="3" t="inlineStr"/>
+      <c r="G219" s="3" t="inlineStr"/>
+      <c r="H219" s="3" t="inlineStr"/>
+      <c r="I219" s="3" t="inlineStr"/>
+      <c r="J219" s="3" t="inlineStr"/>
+      <c r="K219" s="3" t="inlineStr"/>
+      <c r="L219" s="3" t="inlineStr"/>
+      <c r="M219" s="3" t="inlineStr"/>
+      <c r="N219" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O219" s="3" t="inlineStr"/>
+      <c r="P219" s="3" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>MF:0000027</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>planning</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>A mental process that involves mentally manipulating representations of steps in an imagined process which has some goal.</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr"/>
+      <c r="F220" t="inlineStr"/>
+      <c r="G220" t="inlineStr"/>
+      <c r="H220" t="inlineStr"/>
+      <c r="I220" t="inlineStr">
+        <is>
+          <t>The outcome of this mental process is a mental plan which has the potential to be followed to bring about the desired outcome.</t>
+        </is>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="inlineStr"/>
+      <c r="N220" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="O219" t="inlineStr"/>
-      <c r="P219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006102</t>
-        </is>
-      </c>
-      <c r="B220" s="3" t="inlineStr">
-        <is>
-          <t>plan enactment</t>
-        </is>
-      </c>
-      <c r="C220" s="3" t="inlineStr">
-        <is>
-          <t>bodily process</t>
-        </is>
-      </c>
-      <c r="D220" s="3" t="inlineStr">
-        <is>
-          <t>A bodily process by which a person attempts to follow the steps in a plan.</t>
-        </is>
-      </c>
-      <c r="E220" s="3" t="inlineStr"/>
-      <c r="F220" s="3" t="inlineStr"/>
-      <c r="G220" s="3" t="inlineStr"/>
-      <c r="H220" s="3" t="inlineStr"/>
-      <c r="I220" s="3" t="inlineStr"/>
-      <c r="J220" s="3" t="inlineStr"/>
-      <c r="K220" s="3" t="inlineStr"/>
-      <c r="L220" s="3" t="inlineStr"/>
-      <c r="M220" s="3" t="inlineStr"/>
-      <c r="N220" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O220" s="3" t="inlineStr"/>
-      <c r="P220" s="3" t="inlineStr"/>
+      <c r="O220" t="inlineStr"/>
+      <c r="P220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>MF:0000027</t>
+          <t>MFOEM:000035</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>planning</t>
+          <t>pleasure</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>emotion process</t>
         </is>
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>A mental process that involves mentally manipulating representations of steps in an imagined process which has some goal.</t>
+          <t>A positive emotion which is sought out and is associated with happiness and satisfaction.</t>
         </is>
       </c>
       <c r="E221" t="inlineStr"/>
       <c r="F221" t="inlineStr"/>
-      <c r="G221" t="inlineStr"/>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>enjoyment</t>
+        </is>
+      </c>
       <c r="H221" t="inlineStr"/>
-      <c r="I221" t="inlineStr">
-        <is>
-          <t>The outcome of this mental process is a mental plan which has the potential to be followed to bring about the desired outcome.</t>
-        </is>
-      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr"/>
@@ -9479,150 +9478,146 @@
       <c r="P221" t="inlineStr"/>
     </row>
     <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>MFOEM:000035</t>
-        </is>
-      </c>
-      <c r="B222" t="inlineStr">
+      <c r="A222" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006159</t>
+        </is>
+      </c>
+      <c r="B222" s="3" t="inlineStr">
+        <is>
+          <t>pleasure associated with behaviour</t>
+        </is>
+      </c>
+      <c r="C222" s="3" t="inlineStr">
         <is>
           <t>pleasure</t>
         </is>
       </c>
-      <c r="C222" t="inlineStr">
-        <is>
-          <t>emotion process</t>
-        </is>
-      </c>
-      <c r="D222" t="inlineStr">
-        <is>
-          <t>A positive emotion which is sought out and is associated with happiness and satisfaction.</t>
-        </is>
-      </c>
-      <c r="E222" t="inlineStr"/>
-      <c r="F222" t="inlineStr"/>
-      <c r="G222" t="inlineStr">
-        <is>
-          <t>enjoyment</t>
-        </is>
-      </c>
-      <c r="H222" t="inlineStr"/>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="inlineStr"/>
-      <c r="N222" t="inlineStr">
+      <c r="D222" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pleasure that is experienced as a result of engaging in a behaviour. </t>
+        </is>
+      </c>
+      <c r="E222" s="3" t="inlineStr"/>
+      <c r="F222" s="3" t="inlineStr"/>
+      <c r="G222" s="3" t="inlineStr">
+        <is>
+          <t>Enjoyment of behaviour</t>
+        </is>
+      </c>
+      <c r="H222" s="3" t="inlineStr"/>
+      <c r="I222" s="3" t="inlineStr"/>
+      <c r="J222" s="3" t="inlineStr"/>
+      <c r="K222" s="3" t="inlineStr"/>
+      <c r="L222" s="3" t="inlineStr"/>
+      <c r="M222" s="3" t="inlineStr"/>
+      <c r="N222" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O222" s="3" t="inlineStr"/>
+      <c r="P222" s="3" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>MFOEM:000209</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>positive surprise</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>surprise</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>Surprise with a positive valence.</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr"/>
+      <c r="F223" t="inlineStr"/>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>wonder; astonishment</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr"/>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="inlineStr"/>
+      <c r="N223" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="O222" t="inlineStr"/>
-      <c r="P222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006159</t>
-        </is>
-      </c>
-      <c r="B223" s="3" t="inlineStr">
-        <is>
-          <t>pleasure associated with behaviour</t>
-        </is>
-      </c>
-      <c r="C223" s="3" t="inlineStr">
-        <is>
-          <t>pleasure</t>
-        </is>
-      </c>
-      <c r="D223" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pleasure that is experienced as a result of engaging in a behaviour. </t>
-        </is>
-      </c>
-      <c r="E223" s="3" t="inlineStr"/>
-      <c r="F223" s="3" t="inlineStr"/>
-      <c r="G223" s="3" t="inlineStr">
-        <is>
-          <t>Enjoyment of behaviour</t>
-        </is>
-      </c>
-      <c r="H223" s="3" t="inlineStr"/>
-      <c r="I223" s="3" t="inlineStr"/>
-      <c r="J223" s="3" t="inlineStr"/>
-      <c r="K223" s="3" t="inlineStr"/>
-      <c r="L223" s="3" t="inlineStr"/>
-      <c r="M223" s="3" t="inlineStr"/>
-      <c r="N223" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O223" s="3" t="inlineStr"/>
-      <c r="P223" s="3" t="inlineStr"/>
+      <c r="O223" t="inlineStr"/>
+      <c r="P223" t="inlineStr"/>
     </row>
     <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>MFOEM:000209</t>
-        </is>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>positive surprise</t>
-        </is>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>surprise</t>
-        </is>
-      </c>
-      <c r="D224" t="inlineStr">
-        <is>
-          <t>Surprise with a positive valence.</t>
-        </is>
-      </c>
-      <c r="E224" t="inlineStr"/>
-      <c r="F224" t="inlineStr"/>
-      <c r="G224" t="inlineStr">
-        <is>
-          <t>wonder; astonishment</t>
-        </is>
-      </c>
-      <c r="H224" t="inlineStr"/>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="inlineStr"/>
-      <c r="N224" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="O224" t="inlineStr"/>
-      <c r="P224" t="inlineStr"/>
+      <c r="A224" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006061</t>
+        </is>
+      </c>
+      <c r="B224" s="3" t="inlineStr">
+        <is>
+          <t>prevention focused motivational orientation</t>
+        </is>
+      </c>
+      <c r="C224" s="3" t="inlineStr">
+        <is>
+          <t>motivational orientation towards types of outcomes</t>
+        </is>
+      </c>
+      <c r="D224" s="3" t="inlineStr">
+        <is>
+          <t>A mental disposition for motivation to be guided by a focus on the presence or absence of positive outcomes.</t>
+        </is>
+      </c>
+      <c r="E224" s="3" t="inlineStr"/>
+      <c r="F224" s="3" t="inlineStr"/>
+      <c r="G224" s="3" t="inlineStr"/>
+      <c r="H224" s="3" t="inlineStr"/>
+      <c r="I224" s="3" t="inlineStr"/>
+      <c r="J224" s="3" t="inlineStr"/>
+      <c r="K224" s="3" t="inlineStr"/>
+      <c r="L224" s="3" t="inlineStr"/>
+      <c r="M224" s="3" t="inlineStr"/>
+      <c r="N224" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O224" s="3" t="inlineStr"/>
+      <c r="P224" s="3" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006061</t>
+          <t>BCIO:006129</t>
         </is>
       </c>
       <c r="B225" s="3" t="inlineStr">
         <is>
-          <t>prevention focused motivational orientation</t>
+          <t>procedural memory</t>
         </is>
       </c>
       <c r="C225" s="3" t="inlineStr">
         <is>
-          <t>motivational orientation towards types of outcomes</t>
+          <t>memory</t>
         </is>
       </c>
       <c r="D225" s="3" t="inlineStr">
         <is>
-          <t>A mental disposition for motivation to be guided by a focus on the presence or absence of positive outcomes.</t>
+          <t>A memory process that deals with the receipt, storage, retrieval and modification of information regarding how to perform a complex activity without conscious awareness.</t>
         </is>
       </c>
       <c r="E225" s="3" t="inlineStr"/>
@@ -9643,62 +9638,62 @@
       <c r="P225" s="3" t="inlineStr"/>
     </row>
     <row r="226">
-      <c r="A226" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006129</t>
-        </is>
-      </c>
-      <c r="B226" s="3" t="inlineStr">
-        <is>
-          <t>procedural memory</t>
-        </is>
-      </c>
-      <c r="C226" s="3" t="inlineStr">
-        <is>
-          <t>memory</t>
-        </is>
-      </c>
-      <c r="D226" s="3" t="inlineStr">
-        <is>
-          <t>A memory process that deals with the receipt, storage, retrieval and modification of information regarding how to perform a complex activity without conscious awareness.</t>
-        </is>
-      </c>
-      <c r="E226" s="3" t="inlineStr"/>
-      <c r="F226" s="3" t="inlineStr"/>
-      <c r="G226" s="3" t="inlineStr"/>
-      <c r="H226" s="3" t="inlineStr"/>
-      <c r="I226" s="3" t="inlineStr"/>
-      <c r="J226" s="3" t="inlineStr"/>
-      <c r="K226" s="3" t="inlineStr"/>
-      <c r="L226" s="3" t="inlineStr"/>
-      <c r="M226" s="3" t="inlineStr"/>
-      <c r="N226" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O226" s="3" t="inlineStr"/>
-      <c r="P226" s="3" t="inlineStr"/>
+      <c r="A226" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050229</t>
+        </is>
+      </c>
+      <c r="B226" s="2" t="inlineStr">
+        <is>
+          <t>professional identity</t>
+        </is>
+      </c>
+      <c r="C226" s="2" t="inlineStr">
+        <is>
+          <t>self-identity</t>
+        </is>
+      </c>
+      <c r="D226" s="2" t="inlineStr">
+        <is>
+          <t>A self-identity that is associated with one's occupational role.</t>
+        </is>
+      </c>
+      <c r="E226" s="2" t="inlineStr"/>
+      <c r="F226" s="2" t="inlineStr"/>
+      <c r="G226" s="2" t="inlineStr"/>
+      <c r="H226" s="2" t="inlineStr"/>
+      <c r="I226" s="2" t="inlineStr"/>
+      <c r="J226" s="2" t="inlineStr"/>
+      <c r="K226" s="2" t="inlineStr"/>
+      <c r="L226" s="2" t="inlineStr"/>
+      <c r="M226" s="2" t="inlineStr"/>
+      <c r="N226" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="O226" s="2" t="inlineStr"/>
+      <c r="P226" s="2" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050229</t>
+          <t>BCIO:050213</t>
         </is>
       </c>
       <c r="B227" s="2" t="inlineStr">
         <is>
-          <t>professional identity</t>
+          <t>professional network</t>
         </is>
       </c>
       <c r="C227" s="2" t="inlineStr">
         <is>
-          <t>self-identity</t>
+          <t xml:space="preserve"> social environmental system</t>
         </is>
       </c>
       <c r="D227" s="2" t="inlineStr">
         <is>
-          <t>A self-identity that is associated with one's occupational role.</t>
+          <t>A social environmental system that consists of persons who have shared interests relating to their occupational roles and are in contact or communication.</t>
         </is>
       </c>
       <c r="E227" s="2" t="inlineStr"/>
@@ -9719,69 +9714,73 @@
       <c r="P227" s="2" t="inlineStr"/>
     </row>
     <row r="228">
-      <c r="A228" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050213</t>
-        </is>
-      </c>
-      <c r="B228" s="2" t="inlineStr">
-        <is>
-          <t>professional network</t>
-        </is>
-      </c>
-      <c r="C228" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> social environmental system</t>
-        </is>
-      </c>
-      <c r="D228" s="2" t="inlineStr">
-        <is>
-          <t>A social environmental system that consists of persons who have shared interests relating to their occupational roles and are in contact or communication.</t>
-        </is>
-      </c>
-      <c r="E228" s="2" t="inlineStr"/>
-      <c r="F228" s="2" t="inlineStr"/>
-      <c r="G228" s="2" t="inlineStr"/>
-      <c r="H228" s="2" t="inlineStr"/>
-      <c r="I228" s="2" t="inlineStr"/>
-      <c r="J228" s="2" t="inlineStr"/>
-      <c r="K228" s="2" t="inlineStr"/>
-      <c r="L228" s="2" t="inlineStr"/>
-      <c r="M228" s="2" t="inlineStr"/>
-      <c r="N228" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="O228" s="2" t="inlineStr"/>
-      <c r="P228" s="2" t="inlineStr"/>
+      <c r="A228" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006062</t>
+        </is>
+      </c>
+      <c r="B228" s="3" t="inlineStr">
+        <is>
+          <t>promotion focused motivational orientation</t>
+        </is>
+      </c>
+      <c r="C228" s="3" t="inlineStr">
+        <is>
+          <t>motivational orientation towards types of outcomes</t>
+        </is>
+      </c>
+      <c r="D228" s="3" t="inlineStr">
+        <is>
+          <t>A mental disposition for motivation to be guided by a focus on the presence or absence of negative outcomes.</t>
+        </is>
+      </c>
+      <c r="E228" s="3" t="inlineStr"/>
+      <c r="F228" s="3" t="inlineStr"/>
+      <c r="G228" s="3" t="inlineStr"/>
+      <c r="H228" s="3" t="inlineStr"/>
+      <c r="I228" s="3" t="inlineStr"/>
+      <c r="J228" s="3" t="inlineStr"/>
+      <c r="K228" s="3" t="inlineStr"/>
+      <c r="L228" s="3" t="inlineStr"/>
+      <c r="M228" s="3" t="inlineStr"/>
+      <c r="N228" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O228" s="3" t="inlineStr"/>
+      <c r="P228" s="3" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006062</t>
+          <t>BCIO:006064</t>
         </is>
       </c>
       <c r="B229" s="3" t="inlineStr">
         <is>
-          <t>promotion focused motivational orientation</t>
+          <t>psychological need</t>
         </is>
       </c>
       <c r="C229" s="3" t="inlineStr">
         <is>
-          <t>motivational orientation towards types of outcomes</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D229" s="3" t="inlineStr">
         <is>
-          <t>A mental disposition for motivation to be guided by a focus on the presence or absence of negative outcomes.</t>
+          <t>A mental disposition of a person to act to obtain or maintain a particular state due to this state’s importance to the person’s wellbeing.</t>
         </is>
       </c>
       <c r="E229" s="3" t="inlineStr"/>
       <c r="F229" s="3" t="inlineStr"/>
       <c r="G229" s="3" t="inlineStr"/>
       <c r="H229" s="3" t="inlineStr"/>
-      <c r="I229" s="3" t="inlineStr"/>
+      <c r="I229" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Psychological needs can be satisfied or thwarted. </t>
+        </is>
+      </c>
       <c r="J229" s="3" t="inlineStr"/>
       <c r="K229" s="3" t="inlineStr"/>
       <c r="L229" s="3" t="inlineStr"/>
@@ -9795,246 +9794,242 @@
       <c r="P229" s="3" t="inlineStr"/>
     </row>
     <row r="230">
-      <c r="A230" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006064</t>
-        </is>
-      </c>
-      <c r="B230" s="3" t="inlineStr">
-        <is>
-          <t>psychological need</t>
-        </is>
-      </c>
-      <c r="C230" s="3" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
-      <c r="D230" s="3" t="inlineStr">
-        <is>
-          <t>A mental disposition of a person to act to obtain or maintain a particular state due to this state’s importance to the person’s wellbeing.</t>
-        </is>
-      </c>
-      <c r="E230" s="3" t="inlineStr"/>
-      <c r="F230" s="3" t="inlineStr"/>
-      <c r="G230" s="3" t="inlineStr"/>
-      <c r="H230" s="3" t="inlineStr"/>
-      <c r="I230" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Psychological needs can be satisfied or thwarted. </t>
-        </is>
-      </c>
-      <c r="J230" s="3" t="inlineStr"/>
-      <c r="K230" s="3" t="inlineStr"/>
-      <c r="L230" s="3" t="inlineStr"/>
-      <c r="M230" s="3" t="inlineStr"/>
-      <c r="N230" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O230" s="3" t="inlineStr"/>
-      <c r="P230" s="3" t="inlineStr"/>
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>PATO:0000001</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>quality</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>specifically dependent continuant</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>A dependent entity that inheres in a bearer by virtue of how the bearer is related to other entities.</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr"/>
+      <c r="F230" t="inlineStr"/>
+      <c r="G230" t="inlineStr"/>
+      <c r="H230" t="inlineStr"/>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
+      <c r="M230" t="inlineStr"/>
+      <c r="N230" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="O230" t="inlineStr"/>
+      <c r="P230" t="inlineStr"/>
     </row>
     <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>PATO:0000001</t>
-        </is>
-      </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>quality</t>
-        </is>
-      </c>
-      <c r="C231" t="inlineStr">
+      <c r="A231" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006112</t>
+        </is>
+      </c>
+      <c r="B231" s="3" t="inlineStr">
+        <is>
+          <t>reflective thinking</t>
+        </is>
+      </c>
+      <c r="C231" s="3" t="inlineStr">
+        <is>
+          <t>thinking</t>
+        </is>
+      </c>
+      <c r="D231" s="3" t="inlineStr">
+        <is>
+          <t>Thinking that involves the generation of inferences by reasoning based on one or more statements, evaluating anticipated consequences or considering the relationships between concepts.</t>
+        </is>
+      </c>
+      <c r="E231" s="3" t="inlineStr"/>
+      <c r="F231" s="3" t="inlineStr"/>
+      <c r="G231" s="3" t="inlineStr"/>
+      <c r="H231" s="3" t="inlineStr"/>
+      <c r="I231" s="3" t="inlineStr"/>
+      <c r="J231" s="3" t="inlineStr"/>
+      <c r="K231" s="3" t="inlineStr"/>
+      <c r="L231" s="3" t="inlineStr"/>
+      <c r="M231" s="3" t="inlineStr"/>
+      <c r="N231" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O231" s="3" t="inlineStr"/>
+      <c r="P231" s="3" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050232</t>
+        </is>
+      </c>
+      <c r="B232" s="2" t="inlineStr">
+        <is>
+          <t>regret</t>
+        </is>
+      </c>
+      <c r="C232" s="2" t="inlineStr">
+        <is>
+          <t>emotion process</t>
+        </is>
+      </c>
+      <c r="D232" s="2" t="inlineStr">
+        <is>
+          <t>A negative emotion that occurs when a person wishes they chose or acted differently in the past, due to the consequences of that choice or action being unfavourable.</t>
+        </is>
+      </c>
+      <c r="E232" s="2" t="inlineStr"/>
+      <c r="F232" s="2" t="inlineStr"/>
+      <c r="G232" s="2" t="inlineStr"/>
+      <c r="H232" s="2" t="inlineStr"/>
+      <c r="I232" s="2" t="inlineStr"/>
+      <c r="J232" s="2" t="inlineStr"/>
+      <c r="K232" s="2" t="inlineStr"/>
+      <c r="L232" s="2" t="inlineStr"/>
+      <c r="M232" s="2" t="inlineStr"/>
+      <c r="N232" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="O232" s="2" t="inlineStr"/>
+      <c r="P232" s="2" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>MF:0000030</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>representation</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
         <is>
           <t>specifically dependent continuant</t>
         </is>
       </c>
-      <c r="D231" t="inlineStr">
-        <is>
-          <t>A dependent entity that inheres in a bearer by virtue of how the bearer is related to other entities.</t>
-        </is>
-      </c>
-      <c r="E231" t="inlineStr"/>
-      <c r="F231" t="inlineStr"/>
-      <c r="G231" t="inlineStr"/>
-      <c r="H231" t="inlineStr"/>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="inlineStr"/>
-      <c r="N231" t="inlineStr">
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>A dependent continuant which is about a portion of reality.</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr"/>
+      <c r="F233" t="inlineStr"/>
+      <c r="G233" t="inlineStr"/>
+      <c r="H233" t="inlineStr"/>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" t="inlineStr"/>
+      <c r="N233" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="O231" t="inlineStr"/>
-      <c r="P231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006112</t>
-        </is>
-      </c>
-      <c r="B232" s="3" t="inlineStr">
-        <is>
-          <t>reflective thinking</t>
-        </is>
-      </c>
-      <c r="C232" s="3" t="inlineStr">
+      <c r="O233" t="inlineStr"/>
+      <c r="P233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050266</t>
+        </is>
+      </c>
+      <c r="B234" s="2" t="inlineStr">
+        <is>
+          <t>ruminating</t>
+        </is>
+      </c>
+      <c r="C234" s="2" t="inlineStr">
         <is>
           <t>thinking</t>
         </is>
       </c>
-      <c r="D232" s="3" t="inlineStr">
-        <is>
-          <t>Thinking that involves the generation of inferences by reasoning based on one or more statements, evaluating anticipated consequences or considering the relationships between concepts.</t>
-        </is>
-      </c>
-      <c r="E232" s="3" t="inlineStr"/>
-      <c r="F232" s="3" t="inlineStr"/>
-      <c r="G232" s="3" t="inlineStr"/>
-      <c r="H232" s="3" t="inlineStr"/>
-      <c r="I232" s="3" t="inlineStr"/>
-      <c r="J232" s="3" t="inlineStr"/>
-      <c r="K232" s="3" t="inlineStr"/>
-      <c r="L232" s="3" t="inlineStr"/>
-      <c r="M232" s="3" t="inlineStr"/>
-      <c r="N232" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O232" s="3" t="inlineStr"/>
-      <c r="P232" s="3" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050232</t>
-        </is>
-      </c>
-      <c r="B233" s="2" t="inlineStr">
-        <is>
-          <t>regret</t>
-        </is>
-      </c>
-      <c r="C233" s="2" t="inlineStr">
+      <c r="D234" s="2" t="inlineStr">
+        <is>
+          <t>Thinking that is about negative experiences and feelings, and repeated.</t>
+        </is>
+      </c>
+      <c r="E234" s="2" t="inlineStr"/>
+      <c r="F234" s="2" t="inlineStr"/>
+      <c r="G234" s="2" t="inlineStr"/>
+      <c r="H234" s="2" t="inlineStr"/>
+      <c r="I234" s="2" t="inlineStr"/>
+      <c r="J234" s="2" t="inlineStr"/>
+      <c r="K234" s="2" t="inlineStr"/>
+      <c r="L234" s="2" t="inlineStr"/>
+      <c r="M234" s="2" t="inlineStr"/>
+      <c r="N234" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="O234" s="2" t="inlineStr"/>
+      <c r="P234" s="2" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MFOEM:000056 </t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>sadness</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
         <is>
           <t>emotion process</t>
         </is>
       </c>
-      <c r="D233" s="2" t="inlineStr">
-        <is>
-          <t>A negative emotion that occurs when a person wishes they chose or acted differently in the past, due to the consequences of that choice or action being unfavourable.</t>
-        </is>
-      </c>
-      <c r="E233" s="2" t="inlineStr"/>
-      <c r="F233" s="2" t="inlineStr"/>
-      <c r="G233" s="2" t="inlineStr"/>
-      <c r="H233" s="2" t="inlineStr"/>
-      <c r="I233" s="2" t="inlineStr"/>
-      <c r="J233" s="2" t="inlineStr"/>
-      <c r="K233" s="2" t="inlineStr"/>
-      <c r="L233" s="2" t="inlineStr"/>
-      <c r="M233" s="2" t="inlineStr"/>
-      <c r="N233" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="O233" s="2" t="inlineStr"/>
-      <c r="P233" s="2" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" t="inlineStr">
-        <is>
-          <t>MF:0000030</t>
-        </is>
-      </c>
-      <c r="B234" t="inlineStr">
-        <is>
-          <t>representation</t>
-        </is>
-      </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>specifically dependent continuant</t>
-        </is>
-      </c>
-      <c r="D234" t="inlineStr">
-        <is>
-          <t>A dependent continuant which is about a portion of reality.</t>
-        </is>
-      </c>
-      <c r="E234" t="inlineStr"/>
-      <c r="F234" t="inlineStr"/>
-      <c r="G234" t="inlineStr"/>
-      <c r="H234" t="inlineStr"/>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
-      <c r="M234" t="inlineStr"/>
-      <c r="N234" t="inlineStr">
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>A negative emotion felt when an event is appraised as unpleasant and resulting in loss or failure.</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr"/>
+      <c r="F235" t="inlineStr"/>
+      <c r="G235" t="inlineStr"/>
+      <c r="H235" t="inlineStr"/>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" t="inlineStr"/>
+      <c r="N235" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="O234" t="inlineStr"/>
-      <c r="P234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050266</t>
-        </is>
-      </c>
-      <c r="B235" s="2" t="inlineStr">
-        <is>
-          <t>ruminating</t>
-        </is>
-      </c>
-      <c r="C235" s="2" t="inlineStr">
-        <is>
-          <t>thinking</t>
-        </is>
-      </c>
-      <c r="D235" s="2" t="inlineStr">
-        <is>
-          <t>Thinking that is about negative experiences and feelings, and repeated.</t>
-        </is>
-      </c>
-      <c r="E235" s="2" t="inlineStr"/>
-      <c r="F235" s="2" t="inlineStr"/>
-      <c r="G235" s="2" t="inlineStr"/>
-      <c r="H235" s="2" t="inlineStr"/>
-      <c r="I235" s="2" t="inlineStr"/>
-      <c r="J235" s="2" t="inlineStr"/>
-      <c r="K235" s="2" t="inlineStr"/>
-      <c r="L235" s="2" t="inlineStr"/>
-      <c r="M235" s="2" t="inlineStr"/>
-      <c r="N235" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="O235" s="2" t="inlineStr"/>
-      <c r="P235" s="2" t="inlineStr"/>
+      <c r="O235" t="inlineStr"/>
+      <c r="P235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t xml:space="preserve">MFOEM:000056 </t>
+          <t>MFOEM:000169</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>sadness</t>
+          <t>satisfaction</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -10044,7 +10039,7 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>A negative emotion felt when an event is appraised as unpleasant and resulting in loss or failure.</t>
+          <t>An emotion that is experienced when one's wishes, expectations or needs are fulfilled.</t>
         </is>
       </c>
       <c r="E236" t="inlineStr"/>
@@ -10065,94 +10060,99 @@
       <c r="P236" t="inlineStr"/>
     </row>
     <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t>MFOEM:000169</t>
-        </is>
-      </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>satisfaction</t>
-        </is>
-      </c>
-      <c r="C237" t="inlineStr">
-        <is>
-          <t>emotion process</t>
-        </is>
-      </c>
-      <c r="D237" t="inlineStr">
-        <is>
-          <t>An emotion that is experienced when one's wishes, expectations or needs are fulfilled.</t>
-        </is>
-      </c>
-      <c r="E237" t="inlineStr"/>
-      <c r="F237" t="inlineStr"/>
-      <c r="G237" t="inlineStr"/>
-      <c r="H237" t="inlineStr"/>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="inlineStr"/>
-      <c r="N237" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="O237" t="inlineStr"/>
-      <c r="P237" t="inlineStr"/>
+      <c r="A237" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050236</t>
+        </is>
+      </c>
+      <c r="B237" s="2" t="inlineStr">
+        <is>
+          <t>self-binding</t>
+        </is>
+      </c>
+      <c r="C237" s="2" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D237" s="2" t="inlineStr">
+        <is>
+          <t>A mental process that involves creating adverse consequences for oneself if one does not stick to an intended course of action.</t>
+        </is>
+      </c>
+      <c r="E237" s="2" t="inlineStr"/>
+      <c r="F237" s="2" t="inlineStr"/>
+      <c r="G237" s="2" t="inlineStr">
+        <is>
+          <t>Pre-commitment</t>
+        </is>
+      </c>
+      <c r="H237" s="2" t="inlineStr"/>
+      <c r="I237" s="2" t="inlineStr"/>
+      <c r="J237" s="2" t="inlineStr"/>
+      <c r="K237" s="2" t="inlineStr"/>
+      <c r="L237" s="2" t="inlineStr"/>
+      <c r="M237" s="2" t="inlineStr"/>
+      <c r="N237" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="O237" s="2" t="inlineStr"/>
+      <c r="P237" s="2" t="inlineStr"/>
     </row>
     <row r="238">
-      <c r="A238" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050236</t>
-        </is>
-      </c>
-      <c r="B238" s="2" t="inlineStr">
-        <is>
-          <t>self-binding</t>
-        </is>
-      </c>
-      <c r="C238" s="2" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D238" s="2" t="inlineStr">
-        <is>
-          <t>A mental process that involves creating adverse consequences for oneself if one does not stick to an intended course of action.</t>
-        </is>
-      </c>
-      <c r="E238" s="2" t="inlineStr"/>
-      <c r="F238" s="2" t="inlineStr"/>
-      <c r="G238" s="2" t="inlineStr">
-        <is>
-          <t>Pre-commitment</t>
-        </is>
-      </c>
-      <c r="H238" s="2" t="inlineStr"/>
-      <c r="I238" s="2" t="inlineStr"/>
-      <c r="J238" s="2" t="inlineStr"/>
-      <c r="K238" s="2" t="inlineStr"/>
-      <c r="L238" s="2" t="inlineStr"/>
-      <c r="M238" s="2" t="inlineStr"/>
-      <c r="N238" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="O238" s="2" t="inlineStr"/>
-      <c r="P238" s="2" t="inlineStr"/>
+      <c r="A238" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006154</t>
+        </is>
+      </c>
+      <c r="B238" s="3" t="inlineStr">
+        <is>
+          <t>self-efficacy belief for a behaviour</t>
+        </is>
+      </c>
+      <c r="C238" s="3" t="inlineStr">
+        <is>
+          <t>belief</t>
+        </is>
+      </c>
+      <c r="D238" s="3" t="inlineStr">
+        <is>
+          <t>A belief about one's capabilities to organise and execute a behaviour.</t>
+        </is>
+      </c>
+      <c r="E238" s="3" t="inlineStr"/>
+      <c r="F238" s="3" t="inlineStr"/>
+      <c r="G238" s="3" t="inlineStr"/>
+      <c r="H238" s="3" t="inlineStr"/>
+      <c r="I238" s="3" t="inlineStr">
+        <is>
+          <t>The phrase 'to organise' refers to the ability to organise mental processes and sequences of actions.
+'self-efficacy belief for a behaviour' is part of 'self-efficacy belief for a behaviour and its associated outcomes'. However, the latter also includes a belief about the outcomes associated with behaviour.</t>
+        </is>
+      </c>
+      <c r="J238" s="3" t="inlineStr"/>
+      <c r="K238" s="3" t="inlineStr"/>
+      <c r="L238" s="3" t="inlineStr"/>
+      <c r="M238" s="3" t="inlineStr"/>
+      <c r="N238" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O238" s="3" t="inlineStr"/>
+      <c r="P238" s="3" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006154</t>
+          <t>BCIO:006043</t>
         </is>
       </c>
       <c r="B239" s="3" t="inlineStr">
         <is>
-          <t>self-efficacy belief for a behaviour</t>
+          <t>self-efficacy belief for a behaviour and its associated outcomes</t>
         </is>
       </c>
       <c r="C239" s="3" t="inlineStr">
@@ -10162,7 +10162,7 @@
       </c>
       <c r="D239" s="3" t="inlineStr">
         <is>
-          <t>A belief about one's capabilities to organise and execute a behaviour.</t>
+          <t>A belief about one's capabilities to organise and execute a behaviour and achieve the outcomes associated with this behaviour.</t>
         </is>
       </c>
       <c r="E239" s="3" t="inlineStr"/>
@@ -10176,7 +10176,11 @@
         </is>
       </c>
       <c r="J239" s="3" t="inlineStr"/>
-      <c r="K239" s="3" t="inlineStr"/>
+      <c r="K239" s="3" t="inlineStr">
+        <is>
+          <t>self-efficacy belief for a behaviour</t>
+        </is>
+      </c>
       <c r="L239" s="3" t="inlineStr"/>
       <c r="M239" s="3" t="inlineStr"/>
       <c r="N239" s="3" t="inlineStr">
@@ -10190,40 +10194,31 @@
     <row r="240">
       <c r="A240" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006043</t>
+          <t>BCIO:006050</t>
         </is>
       </c>
       <c r="B240" s="3" t="inlineStr">
         <is>
-          <t>self-efficacy belief for a behaviour and its associated outcomes</t>
+          <t>self-identity</t>
         </is>
       </c>
       <c r="C240" s="3" t="inlineStr">
         <is>
-          <t>belief</t>
+          <t>cognitive representation</t>
         </is>
       </c>
       <c r="D240" s="3" t="inlineStr">
         <is>
-          <t>A belief about one's capabilities to organise and execute a behaviour and achieve the outcomes associated with this behaviour.</t>
+          <t>A cognitive representation that a person has about themselves.</t>
         </is>
       </c>
       <c r="E240" s="3" t="inlineStr"/>
       <c r="F240" s="3" t="inlineStr"/>
       <c r="G240" s="3" t="inlineStr"/>
       <c r="H240" s="3" t="inlineStr"/>
-      <c r="I240" s="3" t="inlineStr">
-        <is>
-          <t>The phrase 'to organise' refers to the ability to organise mental processes and sequences of actions.
-'self-efficacy belief for a behaviour' is part of 'self-efficacy belief for a behaviour and its associated outcomes'. However, the latter also includes a belief about the outcomes associated with behaviour.</t>
-        </is>
-      </c>
+      <c r="I240" s="3" t="inlineStr"/>
       <c r="J240" s="3" t="inlineStr"/>
-      <c r="K240" s="3" t="inlineStr">
-        <is>
-          <t>self-efficacy belief for a behaviour</t>
-        </is>
-      </c>
+      <c r="K240" s="3" t="inlineStr"/>
       <c r="L240" s="3" t="inlineStr"/>
       <c r="M240" s="3" t="inlineStr"/>
       <c r="N240" s="3" t="inlineStr">
@@ -10237,29 +10232,35 @@
     <row r="241">
       <c r="A241" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006050</t>
+          <t>BCIO:006137</t>
         </is>
       </c>
       <c r="B241" s="3" t="inlineStr">
         <is>
-          <t>self-identity</t>
+          <t>self-monitoring</t>
         </is>
       </c>
       <c r="C241" s="3" t="inlineStr">
         <is>
-          <t>cognitive representation</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D241" s="3" t="inlineStr">
         <is>
-          <t>A cognitive representation that a person has about themselves.</t>
+          <t>A mental process in which one observes one's own behaviour or mental processes.</t>
         </is>
       </c>
       <c r="E241" s="3" t="inlineStr"/>
       <c r="F241" s="3" t="inlineStr"/>
       <c r="G241" s="3" t="inlineStr"/>
       <c r="H241" s="3" t="inlineStr"/>
-      <c r="I241" s="3" t="inlineStr"/>
+      <c r="I241" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">There are behaviour change techniques labelled 'Self-monitoring of behaviour' and 'Self-monitoring of outcome of behaviour'. These are about establishing a method for monitoring states. In contrast, the MoA is the mental process of monitoring.
+'Self-monitoring of behaviour' is defined as 'Instruct self recording of specified behaviour/s (with or without associated thoughts, emotions, situations) as part of a behaviour change strategy ' (Michie et al., 2013).
+'Self-monitoring of outcome of behaviour' is defined "Establish a method for the person to monitor and record their behavior(s) as part of a behavior change strategy"  (Michie et al., 2013). </t>
+        </is>
+      </c>
       <c r="J241" s="3" t="inlineStr"/>
       <c r="K241" s="3" t="inlineStr"/>
       <c r="L241" s="3" t="inlineStr"/>
@@ -10275,22 +10276,22 @@
     <row r="242">
       <c r="A242" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006137</t>
+          <t>BCIO:006005</t>
         </is>
       </c>
       <c r="B242" s="3" t="inlineStr">
         <is>
-          <t>self-monitoring</t>
+          <t>self-regulation capability</t>
         </is>
       </c>
       <c r="C242" s="3" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>mental capability</t>
         </is>
       </c>
       <c r="D242" s="3" t="inlineStr">
         <is>
-          <t>A mental process in which one observes one's own behaviour or mental processes.</t>
+          <t>A mental capability that involves processes that modulate the frequency, rate or extent of a response to external or internal stimuli and that are instigated by the person themselves.</t>
         </is>
       </c>
       <c r="E242" s="3" t="inlineStr"/>
@@ -10299,9 +10300,7 @@
       <c r="H242" s="3" t="inlineStr"/>
       <c r="I242" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">There are behaviour change techniques labelled 'Self-monitoring of behaviour' and 'Self-monitoring of outcome of behaviour'. These are about establishing a method for monitoring states. In contrast, the MoA is the mental process of monitoring.
-'Self-monitoring of behaviour' is defined as 'Instruct self recording of specified behaviour/s (with or without associated thoughts, emotions, situations) as part of a behaviour change strategy ' (Michie et al., 2013).
-'Self-monitoring of outcome of behaviour' is defined "Establish a method for the person to monitor and record their behavior(s) as part of a behavior change strategy"  (Michie et al., 2013). </t>
+          <t>'Modulate’ refers to ‘modifying or controlling influence on or change the strength’ and involves processes</t>
         </is>
       </c>
       <c r="J242" s="3" t="inlineStr"/>
@@ -10319,33 +10318,29 @@
     <row r="243">
       <c r="A243" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006005</t>
+          <t>BCIO:006103</t>
         </is>
       </c>
       <c r="B243" s="3" t="inlineStr">
         <is>
-          <t>self-regulation capability</t>
+          <t>self-regulation of behaviour</t>
         </is>
       </c>
       <c r="C243" s="3" t="inlineStr">
         <is>
-          <t>mental capability</t>
+          <t>self-regulation process</t>
         </is>
       </c>
       <c r="D243" s="3" t="inlineStr">
         <is>
-          <t>A mental capability that involves processes that modulate the frequency, rate or extent of a response to external or internal stimuli and that are instigated by the person themselves.</t>
+          <t>A self-regulation process that modulates the frequency, rate or extent of one's  performance of a behaviour.</t>
         </is>
       </c>
       <c r="E243" s="3" t="inlineStr"/>
       <c r="F243" s="3" t="inlineStr"/>
       <c r="G243" s="3" t="inlineStr"/>
       <c r="H243" s="3" t="inlineStr"/>
-      <c r="I243" s="3" t="inlineStr">
-        <is>
-          <t>'Modulate’ refers to ‘modifying or controlling influence on or change the strength’ and involves processes</t>
-        </is>
-      </c>
+      <c r="I243" s="3" t="inlineStr"/>
       <c r="J243" s="3" t="inlineStr"/>
       <c r="K243" s="3" t="inlineStr"/>
       <c r="L243" s="3" t="inlineStr"/>
@@ -10359,62 +10354,62 @@
       <c r="P243" s="3" t="inlineStr"/>
     </row>
     <row r="244">
-      <c r="A244" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006103</t>
-        </is>
-      </c>
-      <c r="B244" s="3" t="inlineStr">
-        <is>
-          <t>self-regulation of behaviour</t>
-        </is>
-      </c>
-      <c r="C244" s="3" t="inlineStr">
+      <c r="A244" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050268</t>
+        </is>
+      </c>
+      <c r="B244" s="2" t="inlineStr">
         <is>
           <t>self-regulation process</t>
         </is>
       </c>
-      <c r="D244" s="3" t="inlineStr">
-        <is>
-          <t>A self-regulation process that modulates the frequency, rate or extent of one's  performance of a behaviour.</t>
-        </is>
-      </c>
-      <c r="E244" s="3" t="inlineStr"/>
-      <c r="F244" s="3" t="inlineStr"/>
-      <c r="G244" s="3" t="inlineStr"/>
-      <c r="H244" s="3" t="inlineStr"/>
-      <c r="I244" s="3" t="inlineStr"/>
-      <c r="J244" s="3" t="inlineStr"/>
-      <c r="K244" s="3" t="inlineStr"/>
-      <c r="L244" s="3" t="inlineStr"/>
-      <c r="M244" s="3" t="inlineStr"/>
-      <c r="N244" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O244" s="3" t="inlineStr"/>
-      <c r="P244" s="3" t="inlineStr"/>
+      <c r="C244" s="2" t="inlineStr">
+        <is>
+          <t>bodily process</t>
+        </is>
+      </c>
+      <c r="D244" s="2" t="inlineStr">
+        <is>
+          <t>A bodily process that modulates the frequency, rate or extent of a response to external or internal stimuli and that is instigated by the person.</t>
+        </is>
+      </c>
+      <c r="E244" s="2" t="inlineStr"/>
+      <c r="F244" s="2" t="inlineStr"/>
+      <c r="G244" s="2" t="inlineStr"/>
+      <c r="H244" s="2" t="inlineStr"/>
+      <c r="I244" s="2" t="inlineStr"/>
+      <c r="J244" s="2" t="inlineStr"/>
+      <c r="K244" s="2" t="inlineStr"/>
+      <c r="L244" s="2" t="inlineStr"/>
+      <c r="M244" s="2" t="inlineStr"/>
+      <c r="N244" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="O244" s="2" t="inlineStr"/>
+      <c r="P244" s="2" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050268</t>
+          <t>BCIO:050222</t>
         </is>
       </c>
       <c r="B245" s="2" t="inlineStr">
         <is>
-          <t>self-regulation process</t>
+          <t>self-regulatory skill</t>
         </is>
       </c>
       <c r="C245" s="2" t="inlineStr">
         <is>
-          <t>bodily process</t>
+          <t>self-regulation capability</t>
         </is>
       </c>
       <c r="D245" s="2" t="inlineStr">
         <is>
-          <t>A bodily process that modulates the frequency, rate or extent of a response to external or internal stimuli and that is instigated by the person.</t>
+          <t>A self-regulation capability that is acquired through training or practice.</t>
         </is>
       </c>
       <c r="E245" s="2" t="inlineStr"/>
@@ -10435,70 +10430,70 @@
       <c r="P245" s="2" t="inlineStr"/>
     </row>
     <row r="246">
-      <c r="A246" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050222</t>
-        </is>
-      </c>
-      <c r="B246" s="2" t="inlineStr">
-        <is>
-          <t>self-regulatory skill</t>
-        </is>
-      </c>
-      <c r="C246" s="2" t="inlineStr">
-        <is>
-          <t>self-regulation capability</t>
-        </is>
-      </c>
-      <c r="D246" s="2" t="inlineStr">
-        <is>
-          <t>A self-regulation capability that is acquired through training or practice.</t>
-        </is>
-      </c>
-      <c r="E246" s="2" t="inlineStr"/>
-      <c r="F246" s="2" t="inlineStr"/>
-      <c r="G246" s="2" t="inlineStr"/>
-      <c r="H246" s="2" t="inlineStr"/>
-      <c r="I246" s="2" t="inlineStr"/>
-      <c r="J246" s="2" t="inlineStr"/>
-      <c r="K246" s="2" t="inlineStr"/>
-      <c r="L246" s="2" t="inlineStr"/>
-      <c r="M246" s="2" t="inlineStr"/>
-      <c r="N246" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="O246" s="2" t="inlineStr"/>
-      <c r="P246" s="2" t="inlineStr"/>
+      <c r="A246" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006106</t>
+        </is>
+      </c>
+      <c r="B246" s="3" t="inlineStr">
+        <is>
+          <t>self-reinforcing self-regulation</t>
+        </is>
+      </c>
+      <c r="C246" s="3" t="inlineStr">
+        <is>
+          <t>self-regulation of behaviour</t>
+        </is>
+      </c>
+      <c r="D246" s="3" t="inlineStr">
+        <is>
+          <t>Self-regulation of behaviour through self-administering a reward for performing an intended behaviour.</t>
+        </is>
+      </c>
+      <c r="E246" s="3" t="inlineStr"/>
+      <c r="F246" s="3" t="inlineStr">
+        <is>
+          <t>A bodily process that modulates the frequency, rate or extent of behaviour through self-administering a reward for performing an intended behaviour.</t>
+        </is>
+      </c>
+      <c r="G246" s="3" t="inlineStr"/>
+      <c r="H246" s="3" t="inlineStr"/>
+      <c r="I246" s="3" t="inlineStr"/>
+      <c r="J246" s="3" t="inlineStr"/>
+      <c r="K246" s="3" t="inlineStr"/>
+      <c r="L246" s="3" t="inlineStr"/>
+      <c r="M246" s="3" t="inlineStr"/>
+      <c r="N246" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O246" s="3" t="inlineStr"/>
+      <c r="P246" s="3" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006106</t>
+          <t>BCIO:006128</t>
         </is>
       </c>
       <c r="B247" s="3" t="inlineStr">
         <is>
-          <t>self-reinforcing self-regulation</t>
+          <t>semantic memory</t>
         </is>
       </c>
       <c r="C247" s="3" t="inlineStr">
         <is>
-          <t>self-regulation of behaviour</t>
+          <t>memory</t>
         </is>
       </c>
       <c r="D247" s="3" t="inlineStr">
         <is>
-          <t>Self-regulation of behaviour through self-administering a reward for performing an intended behaviour.</t>
+          <t>A memory process that deals with the receipt, storage, retrieval and modification of information associated with meanings, understandings or conceptual facts about the world.</t>
         </is>
       </c>
       <c r="E247" s="3" t="inlineStr"/>
-      <c r="F247" s="3" t="inlineStr">
-        <is>
-          <t>A bodily process that modulates the frequency, rate or extent of behaviour through self-administering a reward for performing an intended behaviour.</t>
-        </is>
-      </c>
+      <c r="F247" s="3" t="inlineStr"/>
       <c r="G247" s="3" t="inlineStr"/>
       <c r="H247" s="3" t="inlineStr"/>
       <c r="I247" s="3" t="inlineStr"/>
@@ -10515,62 +10510,62 @@
       <c r="P247" s="3" t="inlineStr"/>
     </row>
     <row r="248">
-      <c r="A248" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006128</t>
-        </is>
-      </c>
-      <c r="B248" s="3" t="inlineStr">
-        <is>
-          <t>semantic memory</t>
-        </is>
-      </c>
-      <c r="C248" s="3" t="inlineStr">
-        <is>
-          <t>memory</t>
-        </is>
-      </c>
-      <c r="D248" s="3" t="inlineStr">
-        <is>
-          <t>A memory process that deals with the receipt, storage, retrieval and modification of information associated with meanings, understandings or conceptual facts about the world.</t>
-        </is>
-      </c>
-      <c r="E248" s="3" t="inlineStr"/>
-      <c r="F248" s="3" t="inlineStr"/>
-      <c r="G248" s="3" t="inlineStr"/>
-      <c r="H248" s="3" t="inlineStr"/>
-      <c r="I248" s="3" t="inlineStr"/>
-      <c r="J248" s="3" t="inlineStr"/>
-      <c r="K248" s="3" t="inlineStr"/>
-      <c r="L248" s="3" t="inlineStr"/>
-      <c r="M248" s="3" t="inlineStr"/>
-      <c r="N248" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O248" s="3" t="inlineStr"/>
-      <c r="P248" s="3" t="inlineStr"/>
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>GO:0046960</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>sensitization</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>non-associative learning</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>An increase in a behavioural response to a repeated stimulus.</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr"/>
+      <c r="F248" t="inlineStr"/>
+      <c r="G248" t="inlineStr"/>
+      <c r="H248" t="inlineStr"/>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
+      <c r="M248" t="inlineStr"/>
+      <c r="N248" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="O248" t="inlineStr"/>
+      <c r="P248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>GO:0046960</t>
+          <t>MFOEM:000040</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>sensitization</t>
+          <t>sexual pleasure</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>non-associative learning</t>
+          <t>pleasure</t>
         </is>
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>An increase in a behavioural response to a repeated stimulus.</t>
+          <t>Pleasure that is experienced as a result of sexual activities.</t>
         </is>
       </c>
       <c r="E249" t="inlineStr"/>
@@ -10593,22 +10588,22 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>MFOEM:000040</t>
+          <t>MFOEM:000055</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>sexual pleasure</t>
+          <t>shame</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>pleasure</t>
+          <t>emotion process</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>Pleasure that is experienced as a result of sexual activities.</t>
+          <t>A negative emotion that is distressing and occurs when one appraises one's behaviour or circumstance as wrong, dishonourable, immodest or indecorous.</t>
         </is>
       </c>
       <c r="E250" t="inlineStr"/>
@@ -10629,73 +10624,73 @@
       <c r="P250" t="inlineStr"/>
     </row>
     <row r="251">
-      <c r="A251" t="inlineStr">
-        <is>
-          <t>MFOEM:000055</t>
-        </is>
-      </c>
-      <c r="B251" t="inlineStr">
-        <is>
-          <t>shame</t>
-        </is>
-      </c>
-      <c r="C251" t="inlineStr">
-        <is>
-          <t>emotion process</t>
-        </is>
-      </c>
-      <c r="D251" t="inlineStr">
-        <is>
-          <t>A negative emotion that is distressing and occurs when one appraises one's behaviour or circumstance as wrong, dishonourable, immodest or indecorous.</t>
-        </is>
-      </c>
-      <c r="E251" t="inlineStr"/>
-      <c r="F251" t="inlineStr"/>
-      <c r="G251" t="inlineStr"/>
-      <c r="H251" t="inlineStr"/>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="inlineStr"/>
-      <c r="N251" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="O251" t="inlineStr"/>
-      <c r="P251" t="inlineStr"/>
+      <c r="A251" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006044</t>
+        </is>
+      </c>
+      <c r="B251" s="3" t="inlineStr">
+        <is>
+          <t>situational self-efficacy belief for a behaviour</t>
+        </is>
+      </c>
+      <c r="C251" s="3" t="inlineStr">
+        <is>
+          <t>self-efficacy belief for a behaviour</t>
+        </is>
+      </c>
+      <c r="D251" s="3" t="inlineStr">
+        <is>
+          <t>Self-efficacy belief for a behaviour when a barrier or facilitator of the behaviour is encountered.</t>
+        </is>
+      </c>
+      <c r="E251" s="3" t="inlineStr"/>
+      <c r="F251" s="3" t="inlineStr"/>
+      <c r="G251" s="3" t="inlineStr"/>
+      <c r="H251" s="3" t="inlineStr"/>
+      <c r="I251" s="3" t="inlineStr">
+        <is>
+          <t>The 'barrier or facilitator' specified in the definition can be external or internal.</t>
+        </is>
+      </c>
+      <c r="J251" s="3" t="inlineStr"/>
+      <c r="K251" s="3" t="inlineStr"/>
+      <c r="L251" s="3" t="inlineStr"/>
+      <c r="M251" s="3" t="inlineStr"/>
+      <c r="N251" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O251" s="3" t="inlineStr"/>
+      <c r="P251" s="3" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006044</t>
+          <t>BCIO:006014</t>
         </is>
       </c>
       <c r="B252" s="3" t="inlineStr">
         <is>
-          <t>situational self-efficacy belief for a behaviour</t>
+          <t>social alienation</t>
         </is>
       </c>
       <c r="C252" s="3" t="inlineStr">
         <is>
-          <t>self-efficacy belief for a behaviour</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D252" s="3" t="inlineStr">
         <is>
-          <t>Self-efficacy belief for a behaviour when a barrier or facilitator of the behaviour is encountered.</t>
+          <t>A mental disposition to perceive or experience oneself as isolated from and not meaningfully involved in social groups.</t>
         </is>
       </c>
       <c r="E252" s="3" t="inlineStr"/>
       <c r="F252" s="3" t="inlineStr"/>
       <c r="G252" s="3" t="inlineStr"/>
       <c r="H252" s="3" t="inlineStr"/>
-      <c r="I252" s="3" t="inlineStr">
-        <is>
-          <t>The 'barrier or facilitator' specified in the definition can be external or internal.</t>
-        </is>
-      </c>
+      <c r="I252" s="3" t="inlineStr"/>
       <c r="J252" s="3" t="inlineStr"/>
       <c r="K252" s="3" t="inlineStr"/>
       <c r="L252" s="3" t="inlineStr"/>
@@ -10711,22 +10706,22 @@
     <row r="253">
       <c r="A253" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006014</t>
+          <t>BCIO:006011</t>
         </is>
       </c>
       <c r="B253" s="3" t="inlineStr">
         <is>
-          <t>social alienation</t>
+          <t>social behavioural capability</t>
         </is>
       </c>
       <c r="C253" s="3" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>behavioural capability</t>
         </is>
       </c>
       <c r="D253" s="3" t="inlineStr">
         <is>
-          <t>A mental disposition to perceive or experience oneself as isolated from and not meaningfully involved in social groups.</t>
+          <t>A personal capability includes interpersonal behaviour in its realisation.</t>
         </is>
       </c>
       <c r="E253" s="3" t="inlineStr"/>
@@ -10749,26 +10744,30 @@
     <row r="254">
       <c r="A254" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006011</t>
+          <t>BCIO:006090</t>
         </is>
       </c>
       <c r="B254" s="3" t="inlineStr">
         <is>
-          <t>social behavioural capability</t>
+          <t>social behavioural opportunity</t>
         </is>
       </c>
       <c r="C254" s="3" t="inlineStr">
         <is>
-          <t>behavioural capability</t>
+          <t>behavioural opportunity</t>
         </is>
       </c>
       <c r="D254" s="3" t="inlineStr">
         <is>
-          <t>A personal capability includes interpersonal behaviour in its realisation.</t>
+          <t>A behavioural opportunity that involves the social environmental system.</t>
         </is>
       </c>
       <c r="E254" s="3" t="inlineStr"/>
-      <c r="F254" s="3" t="inlineStr"/>
+      <c r="F254" s="3" t="inlineStr">
+        <is>
+          <t>Properties of a person's environment relating to the social world they inhabit, including the rules and norms that are operating and social cues.</t>
+        </is>
+      </c>
       <c r="G254" s="3" t="inlineStr"/>
       <c r="H254" s="3" t="inlineStr"/>
       <c r="I254" s="3" t="inlineStr"/>
@@ -10787,30 +10786,26 @@
     <row r="255">
       <c r="A255" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006090</t>
+          <t>BCIO:006118</t>
         </is>
       </c>
       <c r="B255" s="3" t="inlineStr">
         <is>
-          <t>social behavioural opportunity</t>
+          <t>social comparison process</t>
         </is>
       </c>
       <c r="C255" s="3" t="inlineStr">
         <is>
-          <t>behavioural opportunity</t>
+          <t>judging</t>
         </is>
       </c>
       <c r="D255" s="3" t="inlineStr">
         <is>
-          <t>A behavioural opportunity that involves the social environmental system.</t>
+          <t>Judging oneself or one's social group in relation to the qualities or characteristics of another person or social group.</t>
         </is>
       </c>
       <c r="E255" s="3" t="inlineStr"/>
-      <c r="F255" s="3" t="inlineStr">
-        <is>
-          <t>Properties of a person's environment relating to the social world they inhabit, including the rules and norms that are operating and social cues.</t>
-        </is>
-      </c>
+      <c r="F255" s="3" t="inlineStr"/>
       <c r="G255" s="3" t="inlineStr"/>
       <c r="H255" s="3" t="inlineStr"/>
       <c r="I255" s="3" t="inlineStr"/>
@@ -10829,22 +10824,22 @@
     <row r="256">
       <c r="A256" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006118</t>
+          <t>BCIO:006074</t>
         </is>
       </c>
       <c r="B256" s="3" t="inlineStr">
         <is>
-          <t>social comparison process</t>
+          <t>social embeddedness</t>
         </is>
       </c>
       <c r="C256" s="3" t="inlineStr">
         <is>
-          <t>judging</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D256" s="3" t="inlineStr">
         <is>
-          <t>Judging oneself or one's social group in relation to the qualities or characteristics of another person or social group.</t>
+          <t>A mental disposition to experience a feeling of being connected by social attachments.</t>
         </is>
       </c>
       <c r="E256" s="3" t="inlineStr"/>
@@ -10867,22 +10862,22 @@
     <row r="257">
       <c r="A257" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006074</t>
+          <t>BCIO:006001</t>
         </is>
       </c>
       <c r="B257" s="3" t="inlineStr">
         <is>
-          <t>social embeddedness</t>
+          <t>social environmental system</t>
         </is>
       </c>
       <c r="C257" s="3" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>environmental system</t>
         </is>
       </c>
       <c r="D257" s="3" t="inlineStr">
         <is>
-          <t>A mental disposition to experience a feeling of being connected by social attachments.</t>
+          <t>An environmental system that consists of people, their pets, social and cultural institutions and processes that influence the life of people and social groups.</t>
         </is>
       </c>
       <c r="E257" s="3" t="inlineStr"/>
@@ -10905,29 +10900,33 @@
     <row r="258">
       <c r="A258" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006001</t>
+          <t>BCIO:006051</t>
         </is>
       </c>
       <c r="B258" s="3" t="inlineStr">
         <is>
-          <t>social environmental system</t>
+          <t>social identity</t>
         </is>
       </c>
       <c r="C258" s="3" t="inlineStr">
         <is>
-          <t>environmental system</t>
+          <t>self-identity</t>
         </is>
       </c>
       <c r="D258" s="3" t="inlineStr">
         <is>
-          <t>An environmental system that consists of people, their pets, social and cultural institutions and processes that influence the life of people and social groups.</t>
+          <t>A self-identity in which the representation involves a relation between the identity holder and another person or group.</t>
         </is>
       </c>
       <c r="E258" s="3" t="inlineStr"/>
       <c r="F258" s="3" t="inlineStr"/>
       <c r="G258" s="3" t="inlineStr"/>
       <c r="H258" s="3" t="inlineStr"/>
-      <c r="I258" s="3" t="inlineStr"/>
+      <c r="I258" s="3" t="inlineStr">
+        <is>
+          <t>'Social identity' can involve a sense of one's rank or status in reference to other groups.</t>
+        </is>
+      </c>
       <c r="J258" s="3" t="inlineStr"/>
       <c r="K258" s="3" t="inlineStr"/>
       <c r="L258" s="3" t="inlineStr"/>
@@ -10943,33 +10942,33 @@
     <row r="259">
       <c r="A259" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006051</t>
+          <t>BCIO:006099</t>
         </is>
       </c>
       <c r="B259" s="3" t="inlineStr">
         <is>
-          <t>social identity</t>
+          <t>social influence behaviour</t>
         </is>
       </c>
       <c r="C259" s="3" t="inlineStr">
         <is>
-          <t>self-identity</t>
+          <t>inter-personal behaviour</t>
         </is>
       </c>
       <c r="D259" s="3" t="inlineStr">
         <is>
-          <t>A self-identity in which the representation involves a relation between the identity holder and another person or group.</t>
+          <t>An inter-personal behaviour where a person exerts an influence on the behaviour of another.</t>
         </is>
       </c>
       <c r="E259" s="3" t="inlineStr"/>
       <c r="F259" s="3" t="inlineStr"/>
       <c r="G259" s="3" t="inlineStr"/>
-      <c r="H259" s="3" t="inlineStr"/>
-      <c r="I259" s="3" t="inlineStr">
-        <is>
-          <t>'Social identity' can involve a sense of one's rank or status in reference to other groups.</t>
-        </is>
-      </c>
+      <c r="H259" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Social support from social network. </t>
+        </is>
+      </c>
+      <c r="I259" s="3" t="inlineStr"/>
       <c r="J259" s="3" t="inlineStr"/>
       <c r="K259" s="3" t="inlineStr"/>
       <c r="L259" s="3" t="inlineStr"/>
@@ -10985,33 +10984,33 @@
     <row r="260">
       <c r="A260" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006099</t>
+          <t>BCIO:006082</t>
         </is>
       </c>
       <c r="B260" s="3" t="inlineStr">
         <is>
-          <t>social influence behaviour</t>
+          <t>social role</t>
         </is>
       </c>
       <c r="C260" s="3" t="inlineStr">
         <is>
-          <t>inter-personal behaviour</t>
+          <t>personal role</t>
         </is>
       </c>
       <c r="D260" s="3" t="inlineStr">
         <is>
-          <t>An inter-personal behaviour where a person exerts an influence on the behaviour of another.</t>
+          <t>A personal role that is realised in human social processes.</t>
         </is>
       </c>
       <c r="E260" s="3" t="inlineStr"/>
       <c r="F260" s="3" t="inlineStr"/>
       <c r="G260" s="3" t="inlineStr"/>
-      <c r="H260" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Social support from social network. </t>
-        </is>
-      </c>
-      <c r="I260" s="3" t="inlineStr"/>
+      <c r="H260" s="3" t="inlineStr"/>
+      <c r="I260" s="3" t="inlineStr">
+        <is>
+          <t>A role can be assigned without being realised. A person realises a role by doing something.</t>
+        </is>
+      </c>
       <c r="J260" s="3" t="inlineStr"/>
       <c r="K260" s="3" t="inlineStr"/>
       <c r="L260" s="3" t="inlineStr"/>
@@ -11027,33 +11026,29 @@
     <row r="261">
       <c r="A261" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006082</t>
+          <t>BCIO:006012</t>
         </is>
       </c>
       <c r="B261" s="3" t="inlineStr">
         <is>
-          <t>social role</t>
+          <t>social skill</t>
         </is>
       </c>
       <c r="C261" s="3" t="inlineStr">
         <is>
-          <t>personal role</t>
+          <t>social behavioural capability</t>
         </is>
       </c>
       <c r="D261" s="3" t="inlineStr">
         <is>
-          <t>A personal role that is realised in human social processes.</t>
+          <t>A social capability acquired through training or practice.</t>
         </is>
       </c>
       <c r="E261" s="3" t="inlineStr"/>
       <c r="F261" s="3" t="inlineStr"/>
       <c r="G261" s="3" t="inlineStr"/>
       <c r="H261" s="3" t="inlineStr"/>
-      <c r="I261" s="3" t="inlineStr">
-        <is>
-          <t>A role can be assigned without being realised. A person realises a role by doing something.</t>
-        </is>
-      </c>
+      <c r="I261" s="3" t="inlineStr"/>
       <c r="J261" s="3" t="inlineStr"/>
       <c r="K261" s="3" t="inlineStr"/>
       <c r="L261" s="3" t="inlineStr"/>
@@ -11069,29 +11064,33 @@
     <row r="262">
       <c r="A262" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006012</t>
+          <t>BCIO:006072</t>
         </is>
       </c>
       <c r="B262" s="3" t="inlineStr">
         <is>
-          <t>social skill</t>
+          <t>stereotype</t>
         </is>
       </c>
       <c r="C262" s="3" t="inlineStr">
         <is>
-          <t>social behavioural capability</t>
+          <t>cognitive schema</t>
         </is>
       </c>
       <c r="D262" s="3" t="inlineStr">
         <is>
-          <t>A social capability acquired through training or practice.</t>
+          <t>A cognitive schema that when activated, guides perception, thought, emotion or behaviour toward members of a social group as having certain shared attributes, by virtue of their group membership.</t>
         </is>
       </c>
       <c r="E262" s="3" t="inlineStr"/>
       <c r="F262" s="3" t="inlineStr"/>
       <c r="G262" s="3" t="inlineStr"/>
       <c r="H262" s="3" t="inlineStr"/>
-      <c r="I262" s="3" t="inlineStr"/>
+      <c r="I262" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The attributes of members are not definitional. For instance, a psychologist studying psychology is not a stereotype. </t>
+        </is>
+      </c>
       <c r="J262" s="3" t="inlineStr"/>
       <c r="K262" s="3" t="inlineStr"/>
       <c r="L262" s="3" t="inlineStr"/>
@@ -11105,167 +11104,167 @@
       <c r="P262" s="3" t="inlineStr"/>
     </row>
     <row r="263">
-      <c r="A263" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006072</t>
-        </is>
-      </c>
-      <c r="B263" s="3" t="inlineStr">
-        <is>
-          <t>stereotype</t>
-        </is>
-      </c>
-      <c r="C263" s="3" t="inlineStr">
-        <is>
-          <t>cognitive schema</t>
-        </is>
-      </c>
-      <c r="D263" s="3" t="inlineStr">
-        <is>
-          <t>A cognitive schema that when activated, guides perception, thought, emotion or behaviour toward members of a social group as having certain shared attributes, by virtue of their group membership.</t>
-        </is>
-      </c>
-      <c r="E263" s="3" t="inlineStr"/>
-      <c r="F263" s="3" t="inlineStr"/>
-      <c r="G263" s="3" t="inlineStr"/>
-      <c r="H263" s="3" t="inlineStr"/>
-      <c r="I263" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The attributes of members are not definitional. For instance, a psychologist studying psychology is not a stereotype. </t>
-        </is>
-      </c>
-      <c r="J263" s="3" t="inlineStr"/>
-      <c r="K263" s="3" t="inlineStr"/>
-      <c r="L263" s="3" t="inlineStr"/>
-      <c r="M263" s="3" t="inlineStr"/>
-      <c r="N263" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O263" s="3" t="inlineStr"/>
-      <c r="P263" s="3" t="inlineStr"/>
-    </row>
-    <row r="264">
-      <c r="A264" t="inlineStr">
+      <c r="A263" t="inlineStr">
         <is>
           <t xml:space="preserve">MFOEM:000006 </t>
         </is>
       </c>
-      <c r="B264" t="inlineStr">
+      <c r="B263" t="inlineStr">
         <is>
           <t>subjective affective feeling</t>
         </is>
       </c>
-      <c r="C264" t="inlineStr">
+      <c r="C263" t="inlineStr">
         <is>
           <t>affective process</t>
         </is>
       </c>
-      <c r="D264" t="inlineStr">
+      <c r="D263" t="inlineStr">
         <is>
           <t>An affective process that involves the experience of internal or external sensory stimuli.</t>
         </is>
       </c>
-      <c r="E264" t="inlineStr"/>
-      <c r="F264" t="inlineStr">
+      <c r="E263" t="inlineStr"/>
+      <c r="F263" t="inlineStr">
         <is>
           <t>The conscious experience that a person has of feelings in their body (e.g., hunger), their mood (e.g., feeling cheerful) and their emotion (e.g., feeling nervous), in response to internal or external stimuli.</t>
         </is>
       </c>
-      <c r="G264" t="inlineStr">
+      <c r="G263" t="inlineStr">
         <is>
           <t>Feeling calm; hunger; pain</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr"/>
-      <c r="I264" t="inlineStr">
+      <c r="H263" t="inlineStr"/>
+      <c r="I263" t="inlineStr">
         <is>
           <t>'Subjective affective feeling can have greater or weaker physiological or mental components. The bodily process that are experienced will usually involve some mental process.
 Bodily sensation and the experiences of emotions (e.g., feeling calm) would both qualify as examples of 'subjective affective feeling'.
 As a subclass of 'affective process', subjective affective feelings have valence. Valence refers to the 'the subjective value of an event, object, person, or other entity in the life space of the individual' (https://dictionary.apa.org/valence). Valence ranges from negative to positive.</t>
         </is>
       </c>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
-      <c r="M264" t="inlineStr"/>
-      <c r="N264" t="inlineStr">
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="inlineStr"/>
+      <c r="M263" t="inlineStr"/>
+      <c r="N263" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="O264" t="inlineStr"/>
-      <c r="P264" t="inlineStr"/>
+      <c r="O263" t="inlineStr"/>
+      <c r="P263" t="inlineStr"/>
+    </row>
+    <row r="264">
+      <c r="A264" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006075</t>
+        </is>
+      </c>
+      <c r="B264" s="3" t="inlineStr">
+        <is>
+          <t>subjective need</t>
+        </is>
+      </c>
+      <c r="C264" s="3" t="inlineStr">
+        <is>
+          <t>subjective affective feeling</t>
+        </is>
+      </c>
+      <c r="D264" s="3" t="inlineStr">
+        <is>
+          <t>A subjective affective feeling that involves experiencing anticipated relief or continued comfort by obtaining or maintaining a particular state.</t>
+        </is>
+      </c>
+      <c r="E264" s="3" t="inlineStr"/>
+      <c r="F264" s="3" t="inlineStr">
+        <is>
+          <t>A feeling of anticipated relief or avoidance of discomfort.</t>
+        </is>
+      </c>
+      <c r="G264" s="3" t="inlineStr"/>
+      <c r="H264" s="3" t="inlineStr"/>
+      <c r="I264" s="3" t="inlineStr"/>
+      <c r="J264" s="3" t="inlineStr"/>
+      <c r="K264" s="3" t="inlineStr"/>
+      <c r="L264" s="3" t="inlineStr"/>
+      <c r="M264" s="3" t="inlineStr"/>
+      <c r="N264" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O264" s="3" t="inlineStr"/>
+      <c r="P264" s="3" t="inlineStr"/>
     </row>
     <row r="265">
-      <c r="A265" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006075</t>
-        </is>
-      </c>
-      <c r="B265" s="3" t="inlineStr">
-        <is>
-          <t>subjective need</t>
-        </is>
-      </c>
-      <c r="C265" s="3" t="inlineStr">
-        <is>
-          <t>subjective affective feeling</t>
-        </is>
-      </c>
-      <c r="D265" s="3" t="inlineStr">
-        <is>
-          <t>A subjective affective feeling that involves experiencing anticipated relief or continued comfort by obtaining or maintaining a particular state.</t>
-        </is>
-      </c>
-      <c r="E265" s="3" t="inlineStr"/>
-      <c r="F265" s="3" t="inlineStr">
-        <is>
-          <t>A feeling of anticipated relief or avoidance of discomfort.</t>
-        </is>
-      </c>
-      <c r="G265" s="3" t="inlineStr"/>
-      <c r="H265" s="3" t="inlineStr"/>
-      <c r="I265" s="3" t="inlineStr"/>
-      <c r="J265" s="3" t="inlineStr"/>
-      <c r="K265" s="3" t="inlineStr"/>
-      <c r="L265" s="3" t="inlineStr"/>
-      <c r="M265" s="3" t="inlineStr"/>
-      <c r="N265" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O265" s="3" t="inlineStr"/>
-      <c r="P265" s="3" t="inlineStr"/>
+      <c r="A265" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MF:0000088 </t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>subliminal process</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>A mental process that involves neuronal activity in response to a sensory stimulus but which is not the subject of consciousness.</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr"/>
+      <c r="F265" t="inlineStr"/>
+      <c r="G265" t="inlineStr"/>
+      <c r="H265" t="inlineStr"/>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="inlineStr"/>
+      <c r="M265" t="inlineStr"/>
+      <c r="N265" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="O265" t="inlineStr"/>
+      <c r="P265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t xml:space="preserve">MF:0000088 </t>
+          <t>ADDICTO:0001140</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>subliminal process</t>
+          <t>substance dependence</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>bodily disposition</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>A mental process that involves neuronal activity in response to a sensory stimulus but which is not the subject of consciousness.</t>
+          <t>A bodily disposition which is realised as impaired functioning following reduction or termination of use of a psychoactive substance.</t>
         </is>
       </c>
       <c r="E266" t="inlineStr"/>
       <c r="F266" t="inlineStr"/>
       <c r="G266" t="inlineStr"/>
       <c r="H266" t="inlineStr"/>
-      <c r="I266" t="inlineStr"/>
+      <c r="I266" t="inlineStr">
+        <is>
+          <t>While 'addiction' is a disposition relating to experience motivation to use a substance, 'substance dependence' refers to 'disposition related to the impaired functioning in the absence of a substance'.</t>
+        </is>
+      </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
       <c r="L266" t="inlineStr"/>
@@ -11281,33 +11280,29 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>ADDICTO:0001140</t>
+          <t>MFOEM:000032</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>substance dependence</t>
+          <t>surprise</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>bodily disposition</t>
+          <t>emotion process</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>A bodily disposition which is realised as impaired functioning following reduction or termination of use of a psychoactive substance.</t>
+          <t xml:space="preserve">An emotion caused by encountering unexpected events. </t>
         </is>
       </c>
       <c r="E267" t="inlineStr"/>
       <c r="F267" t="inlineStr"/>
       <c r="G267" t="inlineStr"/>
       <c r="H267" t="inlineStr"/>
-      <c r="I267" t="inlineStr">
-        <is>
-          <t>While 'addiction' is a disposition relating to experience motivation to use a substance, 'substance dependence' refers to 'disposition related to the impaired functioning in the absence of a substance'.</t>
-        </is>
-      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
       <c r="L267" t="inlineStr"/>
@@ -11323,22 +11318,22 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>MFOEM:000032</t>
+          <t>RO:0002577</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>system</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>emotion process</t>
+          <t>material entity</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t xml:space="preserve">An emotion caused by encountering unexpected events. </t>
+          <t>A material entity consisting of multiple components that are causally integrated.</t>
         </is>
       </c>
       <c r="E268" t="inlineStr"/>
@@ -11359,71 +11354,75 @@
       <c r="P268" t="inlineStr"/>
     </row>
     <row r="269">
-      <c r="A269" t="inlineStr">
-        <is>
-          <t>RO:0002577</t>
-        </is>
-      </c>
-      <c r="B269" t="inlineStr">
-        <is>
-          <t>system</t>
-        </is>
-      </c>
-      <c r="C269" t="inlineStr">
-        <is>
-          <t>material entity</t>
-        </is>
-      </c>
-      <c r="D269" t="inlineStr">
-        <is>
-          <t>A material entity consisting of multiple components that are causally integrated.</t>
-        </is>
-      </c>
-      <c r="E269" t="inlineStr"/>
-      <c r="F269" t="inlineStr"/>
-      <c r="G269" t="inlineStr"/>
-      <c r="H269" t="inlineStr"/>
-      <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
-      <c r="M269" t="inlineStr"/>
-      <c r="N269" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="O269" t="inlineStr"/>
-      <c r="P269" t="inlineStr"/>
+      <c r="A269" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006163</t>
+        </is>
+      </c>
+      <c r="B269" s="3" t="inlineStr">
+        <is>
+          <t>targeted mental distancing</t>
+        </is>
+      </c>
+      <c r="C269" s="3" t="inlineStr">
+        <is>
+          <t>mental distancing</t>
+        </is>
+      </c>
+      <c r="D269" s="3" t="inlineStr">
+        <is>
+          <t>Mental distancing that involves identifying particular immediate thoughts and intentionally detaching from these thoughts.</t>
+        </is>
+      </c>
+      <c r="E269" s="3" t="inlineStr"/>
+      <c r="F269" s="3" t="inlineStr"/>
+      <c r="G269" s="3" t="inlineStr">
+        <is>
+          <t>targeted decentring</t>
+        </is>
+      </c>
+      <c r="H269" s="3" t="inlineStr"/>
+      <c r="I269" s="3" t="inlineStr"/>
+      <c r="J269" s="3" t="inlineStr"/>
+      <c r="K269" s="3" t="inlineStr"/>
+      <c r="L269" s="3" t="inlineStr"/>
+      <c r="M269" s="3" t="inlineStr"/>
+      <c r="N269" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O269" s="3" t="inlineStr"/>
+      <c r="P269" s="3" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006163</t>
+          <t>BCIO:006091</t>
         </is>
       </c>
       <c r="B270" s="3" t="inlineStr">
         <is>
-          <t>targeted mental distancing</t>
+          <t>temporal behavioural opportunity</t>
         </is>
       </c>
       <c r="C270" s="3" t="inlineStr">
         <is>
-          <t>mental distancing</t>
+          <t>physical behavioural opportunity</t>
         </is>
       </c>
       <c r="D270" s="3" t="inlineStr">
         <is>
-          <t>Mental distancing that involves identifying particular immediate thoughts and intentionally detaching from these thoughts.</t>
+          <t>A physical behavioural opportunity that involves the person having sufficient time or a suitable period.</t>
         </is>
       </c>
       <c r="E270" s="3" t="inlineStr"/>
-      <c r="F270" s="3" t="inlineStr"/>
-      <c r="G270" s="3" t="inlineStr">
-        <is>
-          <t>targeted decentring</t>
-        </is>
-      </c>
+      <c r="F270" s="3" t="inlineStr">
+        <is>
+          <t>Properties of a person's environment that involve the time available and influence the person's ability to enact a behaviour.</t>
+        </is>
+      </c>
+      <c r="G270" s="3" t="inlineStr"/>
       <c r="H270" s="3" t="inlineStr"/>
       <c r="I270" s="3" t="inlineStr"/>
       <c r="J270" s="3" t="inlineStr"/>
@@ -11439,56 +11438,52 @@
       <c r="P270" s="3" t="inlineStr"/>
     </row>
     <row r="271">
-      <c r="A271" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006091</t>
-        </is>
-      </c>
-      <c r="B271" s="3" t="inlineStr">
-        <is>
-          <t>temporal behavioural opportunity</t>
-        </is>
-      </c>
-      <c r="C271" s="3" t="inlineStr">
-        <is>
-          <t>physical behavioural opportunity</t>
-        </is>
-      </c>
-      <c r="D271" s="3" t="inlineStr">
-        <is>
-          <t>A physical behavioural opportunity that involves the person having sufficient time or a suitable period.</t>
-        </is>
-      </c>
-      <c r="E271" s="3" t="inlineStr"/>
-      <c r="F271" s="3" t="inlineStr">
-        <is>
-          <t>Properties of a person's environment that involve the time available and influence the person's ability to enact a behaviour.</t>
-        </is>
-      </c>
-      <c r="G271" s="3" t="inlineStr"/>
-      <c r="H271" s="3" t="inlineStr"/>
-      <c r="I271" s="3" t="inlineStr"/>
-      <c r="J271" s="3" t="inlineStr"/>
-      <c r="K271" s="3" t="inlineStr"/>
-      <c r="L271" s="3" t="inlineStr"/>
-      <c r="M271" s="3" t="inlineStr"/>
-      <c r="N271" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O271" s="3" t="inlineStr"/>
-      <c r="P271" s="3" t="inlineStr"/>
+      <c r="A271" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050230</t>
+        </is>
+      </c>
+      <c r="B271" s="2" t="inlineStr">
+        <is>
+          <t>temporal orientation to the future</t>
+        </is>
+      </c>
+      <c r="C271" s="2" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="D271" s="2" t="inlineStr">
+        <is>
+          <t>A mental disposition to focus more on future than present outcomes.</t>
+        </is>
+      </c>
+      <c r="E271" s="2" t="inlineStr"/>
+      <c r="F271" s="2" t="inlineStr"/>
+      <c r="G271" s="2" t="inlineStr"/>
+      <c r="H271" s="2" t="inlineStr"/>
+      <c r="I271" s="2" t="inlineStr"/>
+      <c r="J271" s="2" t="inlineStr"/>
+      <c r="K271" s="2" t="inlineStr"/>
+      <c r="L271" s="2" t="inlineStr"/>
+      <c r="M271" s="2" t="inlineStr"/>
+      <c r="N271" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="O271" s="2" t="inlineStr"/>
+      <c r="P271" s="2" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050230</t>
+          <t>BCIO:050231</t>
         </is>
       </c>
       <c r="B272" s="2" t="inlineStr">
         <is>
-          <t>temporal orientation to the future</t>
+          <t>temporal orientation to the present</t>
         </is>
       </c>
       <c r="C272" s="2" t="inlineStr">
@@ -11498,7 +11493,7 @@
       </c>
       <c r="D272" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to focus more on future than present outcomes.</t>
+          <t>A mental disposition to focus more on present than future outcomes.</t>
         </is>
       </c>
       <c r="E272" s="2" t="inlineStr"/>
@@ -11519,198 +11514,160 @@
       <c r="P272" s="2" t="inlineStr"/>
     </row>
     <row r="273">
-      <c r="A273" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050231</t>
-        </is>
-      </c>
-      <c r="B273" s="2" t="inlineStr">
-        <is>
-          <t>temporal orientation to the present</t>
-        </is>
-      </c>
-      <c r="C273" s="2" t="inlineStr">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>MF:0000013</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>thinking</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>cognitive process</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>A cognitive process that involves the manipulation of mental language and/or mental images.</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr"/>
+      <c r="F273" t="inlineStr"/>
+      <c r="G273" t="inlineStr"/>
+      <c r="H273" t="inlineStr"/>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="inlineStr"/>
+      <c r="M273" t="inlineStr"/>
+      <c r="N273" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="O273" t="inlineStr"/>
+      <c r="P273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006107</t>
+        </is>
+      </c>
+      <c r="B274" s="3" t="inlineStr">
+        <is>
+          <t>value-congruent self-regulation</t>
+        </is>
+      </c>
+      <c r="C274" s="3" t="inlineStr">
+        <is>
+          <t>self-regulation of behaviour</t>
+        </is>
+      </c>
+      <c r="D274" s="3" t="inlineStr">
+        <is>
+          <t>Self-regulation undertaken to achieve consistency between one's values and the behaviour performed.</t>
+        </is>
+      </c>
+      <c r="E274" s="3" t="inlineStr"/>
+      <c r="F274" s="3" t="inlineStr"/>
+      <c r="G274" s="3" t="inlineStr"/>
+      <c r="H274" s="3" t="inlineStr"/>
+      <c r="I274" s="3" t="inlineStr"/>
+      <c r="J274" s="3" t="inlineStr"/>
+      <c r="K274" s="3" t="inlineStr"/>
+      <c r="L274" s="3" t="inlineStr"/>
+      <c r="M274" s="3" t="inlineStr"/>
+      <c r="N274" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O274" s="3" t="inlineStr"/>
+      <c r="P274" s="3" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>MF:0000045</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>wanting</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>A mental process that involves thinking about a state of affairs that is not yet the case together with a desire for that state of affairs to come about.</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr"/>
+      <c r="F275" t="inlineStr"/>
+      <c r="G275" t="inlineStr"/>
+      <c r="H275" t="inlineStr"/>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="inlineStr"/>
+      <c r="M275" t="inlineStr"/>
+      <c r="N275" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="O275" t="inlineStr"/>
+      <c r="P275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006059</t>
+        </is>
+      </c>
+      <c r="B276" s="3" t="inlineStr">
+        <is>
+          <t>willingness to comply</t>
+        </is>
+      </c>
+      <c r="C276" s="3" t="inlineStr">
         <is>
           <t>mental disposition</t>
         </is>
       </c>
-      <c r="D273" s="2" t="inlineStr">
-        <is>
-          <t>A mental disposition to focus more on present than future outcomes.</t>
-        </is>
-      </c>
-      <c r="E273" s="2" t="inlineStr"/>
-      <c r="F273" s="2" t="inlineStr"/>
-      <c r="G273" s="2" t="inlineStr"/>
-      <c r="H273" s="2" t="inlineStr"/>
-      <c r="I273" s="2" t="inlineStr"/>
-      <c r="J273" s="2" t="inlineStr"/>
-      <c r="K273" s="2" t="inlineStr"/>
-      <c r="L273" s="2" t="inlineStr"/>
-      <c r="M273" s="2" t="inlineStr"/>
-      <c r="N273" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="O273" s="2" t="inlineStr"/>
-      <c r="P273" s="2" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" t="inlineStr">
-        <is>
-          <t>MF:0000013</t>
-        </is>
-      </c>
-      <c r="B274" t="inlineStr">
-        <is>
-          <t>thinking</t>
-        </is>
-      </c>
-      <c r="C274" t="inlineStr">
-        <is>
-          <t>cognitive process</t>
-        </is>
-      </c>
-      <c r="D274" t="inlineStr">
-        <is>
-          <t>A cognitive process that involves the manipulation of mental language and/or mental images.</t>
-        </is>
-      </c>
-      <c r="E274" t="inlineStr"/>
-      <c r="F274" t="inlineStr"/>
-      <c r="G274" t="inlineStr"/>
-      <c r="H274" t="inlineStr"/>
-      <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
-      <c r="M274" t="inlineStr"/>
-      <c r="N274" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="O274" t="inlineStr"/>
-      <c r="P274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006107</t>
-        </is>
-      </c>
-      <c r="B275" s="3" t="inlineStr">
-        <is>
-          <t>value-congruent self-regulation</t>
-        </is>
-      </c>
-      <c r="C275" s="3" t="inlineStr">
-        <is>
-          <t>self-regulation of behaviour</t>
-        </is>
-      </c>
-      <c r="D275" s="3" t="inlineStr">
-        <is>
-          <t>Self-regulation undertaken to achieve consistency between one's values and the behaviour performed.</t>
-        </is>
-      </c>
-      <c r="E275" s="3" t="inlineStr"/>
-      <c r="F275" s="3" t="inlineStr"/>
-      <c r="G275" s="3" t="inlineStr"/>
-      <c r="H275" s="3" t="inlineStr"/>
-      <c r="I275" s="3" t="inlineStr"/>
-      <c r="J275" s="3" t="inlineStr"/>
-      <c r="K275" s="3" t="inlineStr"/>
-      <c r="L275" s="3" t="inlineStr"/>
-      <c r="M275" s="3" t="inlineStr"/>
-      <c r="N275" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O275" s="3" t="inlineStr"/>
-      <c r="P275" s="3" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" t="inlineStr">
-        <is>
-          <t>MF:0000045</t>
-        </is>
-      </c>
-      <c r="B276" t="inlineStr">
-        <is>
-          <t>wanting</t>
-        </is>
-      </c>
-      <c r="C276" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D276" t="inlineStr">
-        <is>
-          <t>A mental process that involves thinking about a state of affairs that is not yet the case together with a desire for that state of affairs to come about.</t>
-        </is>
-      </c>
-      <c r="E276" t="inlineStr"/>
-      <c r="F276" t="inlineStr"/>
-      <c r="G276" t="inlineStr"/>
-      <c r="H276" t="inlineStr"/>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="inlineStr"/>
-      <c r="N276" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="O276" t="inlineStr"/>
-      <c r="P276" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006059</t>
-        </is>
-      </c>
-      <c r="B277" s="3" t="inlineStr">
-        <is>
-          <t>willingness to comply</t>
-        </is>
-      </c>
-      <c r="C277" s="3" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
-      <c r="D277" s="3" t="inlineStr">
+      <c r="D276" s="3" t="inlineStr">
         <is>
           <t>A mental disposition to act in accordance with the likely approval of others.</t>
         </is>
       </c>
-      <c r="E277" s="3" t="inlineStr"/>
-      <c r="F277" s="3" t="inlineStr"/>
-      <c r="G277" s="3" t="inlineStr">
+      <c r="E276" s="3" t="inlineStr"/>
+      <c r="F276" s="3" t="inlineStr"/>
+      <c r="G276" s="3" t="inlineStr">
         <is>
           <t>motivation to comply</t>
         </is>
       </c>
-      <c r="H277" s="3" t="inlineStr"/>
-      <c r="I277" s="3" t="inlineStr"/>
-      <c r="J277" s="3" t="inlineStr"/>
-      <c r="K277" s="3" t="inlineStr"/>
-      <c r="L277" s="3" t="inlineStr"/>
-      <c r="M277" s="3" t="inlineStr"/>
-      <c r="N277" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O277" s="3" t="inlineStr"/>
-      <c r="P277" s="3" t="inlineStr"/>
+      <c r="H276" s="3" t="inlineStr"/>
+      <c r="I276" s="3" t="inlineStr"/>
+      <c r="J276" s="3" t="inlineStr"/>
+      <c r="K276" s="3" t="inlineStr"/>
+      <c r="L276" s="3" t="inlineStr"/>
+      <c r="M276" s="3" t="inlineStr"/>
+      <c r="N276" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O276" s="3" t="inlineStr"/>
+      <c r="P276" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/MechanismOfAction/inputs/BCIO_MoA.xlsx
+++ b/MechanismOfAction/inputs/BCIO_MoA.xlsx
@@ -30,7 +30,7 @@
       <sz val="12"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -47,6 +47,11 @@
         <fgColor rgb="00ffe4b5"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="002f4f4f"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -60,11 +65,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -8893,54 +8899,54 @@
       <c r="P207" t="inlineStr"/>
     </row>
     <row r="208">
-      <c r="A208" s="2" t="inlineStr">
+      <c r="A208" s="4" t="inlineStr">
         <is>
           <t>BCIO:050300</t>
         </is>
       </c>
-      <c r="B208" s="2" t="inlineStr">
+      <c r="B208" s="4" t="inlineStr">
         <is>
           <t>personal attribute</t>
         </is>
       </c>
-      <c r="C208" s="2" t="inlineStr">
+      <c r="C208" s="4" t="inlineStr">
         <is>
           <t>specifically dependent continuant</t>
         </is>
       </c>
-      <c r="D208" s="2" t="inlineStr">
+      <c r="D208" s="4" t="inlineStr">
         <is>
           <t>A specifically dependent continuant that inheres in a person.</t>
         </is>
       </c>
-      <c r="E208" s="2" t="inlineStr"/>
-      <c r="F208" s="2" t="inlineStr">
+      <c r="E208" s="4" t="inlineStr"/>
+      <c r="F208" s="4" t="inlineStr">
         <is>
           <t>A characteristic of a person such as age, intelligence, socioeconomic status, height and job.</t>
         </is>
       </c>
-      <c r="G208" s="2" t="inlineStr"/>
-      <c r="H208" s="2" t="inlineStr"/>
-      <c r="I208" s="2" t="inlineStr">
+      <c r="G208" s="4" t="inlineStr"/>
+      <c r="H208" s="4" t="inlineStr"/>
+      <c r="I208" s="4" t="inlineStr">
         <is>
           <t>Includes everything that can be said about a person: the most general class under which all other qualities, dispositions, roles etc belong.</t>
         </is>
       </c>
-      <c r="J208" s="2" t="inlineStr"/>
-      <c r="K208" s="2" t="inlineStr"/>
-      <c r="L208" s="2" t="inlineStr"/>
-      <c r="M208" s="2" t="inlineStr">
+      <c r="J208" s="4" t="inlineStr"/>
+      <c r="K208" s="4" t="inlineStr"/>
+      <c r="L208" s="4" t="inlineStr"/>
+      <c r="M208" s="4" t="inlineStr">
         <is>
           <t>The population ontology individuals branch defines many personal attributes</t>
         </is>
       </c>
-      <c r="N208" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="O208" s="2" t="inlineStr"/>
-      <c r="P208" s="2" t="inlineStr"/>
+      <c r="N208" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="O208" s="4" t="inlineStr"/>
+      <c r="P208" s="4" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">

--- a/MechanismOfAction/inputs/BCIO_MoA.xlsx
+++ b/MechanismOfAction/inputs/BCIO_MoA.xlsx
@@ -9038,42 +9038,42 @@
       <c r="P210" s="2" t="inlineStr"/>
     </row>
     <row r="211">
-      <c r="A211" s="2" t="inlineStr">
+      <c r="A211" s="4" t="inlineStr">
         <is>
           <t>BCIO:050302</t>
         </is>
       </c>
-      <c r="B211" s="2" t="inlineStr">
+      <c r="B211" s="4" t="inlineStr">
         <is>
           <t>personal life attribute</t>
         </is>
       </c>
-      <c r="C211" s="2" t="inlineStr">
+      <c r="C211" s="4" t="inlineStr">
         <is>
           <t>process attribute</t>
         </is>
       </c>
-      <c r="D211" s="2" t="inlineStr">
+      <c r="D211" s="4" t="inlineStr">
         <is>
           <t>A process attribute that is an attribute of a life process.</t>
         </is>
       </c>
-      <c r="E211" s="2" t="inlineStr"/>
-      <c r="F211" s="2" t="inlineStr"/>
-      <c r="G211" s="2" t="inlineStr"/>
-      <c r="H211" s="2" t="inlineStr"/>
-      <c r="I211" s="2" t="inlineStr"/>
-      <c r="J211" s="2" t="inlineStr"/>
-      <c r="K211" s="2" t="inlineStr"/>
-      <c r="L211" s="2" t="inlineStr"/>
-      <c r="M211" s="2" t="inlineStr"/>
-      <c r="N211" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="O211" s="2" t="inlineStr"/>
-      <c r="P211" s="2" t="inlineStr"/>
+      <c r="E211" s="4" t="inlineStr"/>
+      <c r="F211" s="4" t="inlineStr"/>
+      <c r="G211" s="4" t="inlineStr"/>
+      <c r="H211" s="4" t="inlineStr"/>
+      <c r="I211" s="4" t="inlineStr"/>
+      <c r="J211" s="4" t="inlineStr"/>
+      <c r="K211" s="4" t="inlineStr"/>
+      <c r="L211" s="4" t="inlineStr"/>
+      <c r="M211" s="4" t="inlineStr"/>
+      <c r="N211" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="O211" s="4" t="inlineStr"/>
+      <c r="P211" s="4" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="2" t="inlineStr">

--- a/MechanismOfAction/inputs/BCIO_MoA.xlsx
+++ b/MechanismOfAction/inputs/BCIO_MoA.xlsx
@@ -9076,42 +9076,42 @@
       <c r="P211" s="4" t="inlineStr"/>
     </row>
     <row r="212">
-      <c r="A212" s="2" t="inlineStr">
+      <c r="A212" s="4" t="inlineStr">
         <is>
           <t>BCIO:050303</t>
         </is>
       </c>
-      <c r="B212" s="2" t="inlineStr">
+      <c r="B212" s="4" t="inlineStr">
         <is>
           <t>personal quality</t>
         </is>
       </c>
-      <c r="C212" s="2" t="inlineStr">
+      <c r="C212" s="4" t="inlineStr">
         <is>
           <t>quality</t>
         </is>
       </c>
-      <c r="D212" s="2" t="inlineStr">
+      <c r="D212" s="4" t="inlineStr">
         <is>
           <t>A quality that inheres in a person.</t>
         </is>
       </c>
-      <c r="E212" s="2" t="inlineStr"/>
-      <c r="F212" s="2" t="inlineStr"/>
-      <c r="G212" s="2" t="inlineStr"/>
-      <c r="H212" s="2" t="inlineStr"/>
-      <c r="I212" s="2" t="inlineStr"/>
-      <c r="J212" s="2" t="inlineStr"/>
-      <c r="K212" s="2" t="inlineStr"/>
-      <c r="L212" s="2" t="inlineStr"/>
-      <c r="M212" s="2" t="inlineStr"/>
-      <c r="N212" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="O212" s="2" t="inlineStr"/>
-      <c r="P212" s="2" t="inlineStr"/>
+      <c r="E212" s="4" t="inlineStr"/>
+      <c r="F212" s="4" t="inlineStr"/>
+      <c r="G212" s="4" t="inlineStr"/>
+      <c r="H212" s="4" t="inlineStr"/>
+      <c r="I212" s="4" t="inlineStr"/>
+      <c r="J212" s="4" t="inlineStr"/>
+      <c r="K212" s="4" t="inlineStr"/>
+      <c r="L212" s="4" t="inlineStr"/>
+      <c r="M212" s="4" t="inlineStr"/>
+      <c r="N212" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="O212" s="4" t="inlineStr"/>
+      <c r="P212" s="4" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="3" t="inlineStr">

--- a/MechanismOfAction/inputs/BCIO_MoA.xlsx
+++ b/MechanismOfAction/inputs/BCIO_MoA.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P276"/>
+  <dimension ref="A1:P277"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4581,7 +4581,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>A subjective affective feeling of desiring or needing something.</t>
+          <t>A subjective affective feeling involving a strong desire or urge.</t>
         </is>
       </c>
       <c r="E101" t="inlineStr"/>
@@ -5839,153 +5839,161 @@
       <c r="P131" t="inlineStr"/>
     </row>
     <row r="132">
-      <c r="A132" s="2" t="inlineStr">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000377</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>feeling of need satisfaction</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>subjective affective feeling</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>A feeling involving positive affect associated with reduction in a feeling of need.</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>A feeling of anticipated relief or avoidance of discomfort.</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>subjective need</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="O132" t="inlineStr"/>
+      <c r="P132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="inlineStr">
         <is>
           <t>BCIO:050233</t>
         </is>
       </c>
-      <c r="B132" s="2" t="inlineStr">
+      <c r="B133" s="2" t="inlineStr">
         <is>
           <t>feeling sadness</t>
         </is>
       </c>
-      <c r="C132" s="2" t="inlineStr">
+      <c r="C133" s="2" t="inlineStr">
         <is>
           <t>subjective affective feeling</t>
         </is>
       </c>
-      <c r="D132" s="2" t="inlineStr">
+      <c r="D133" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">A subjective affective feeling of sadness. </t>
         </is>
       </c>
-      <c r="E132" s="2" t="inlineStr"/>
-      <c r="F132" s="2" t="inlineStr"/>
-      <c r="G132" s="2" t="inlineStr"/>
-      <c r="H132" s="2" t="inlineStr"/>
-      <c r="I132" s="2" t="inlineStr"/>
-      <c r="J132" s="2" t="inlineStr"/>
-      <c r="K132" s="2" t="inlineStr"/>
-      <c r="L132" s="2" t="inlineStr"/>
-      <c r="M132" s="2" t="inlineStr"/>
-      <c r="N132" s="2" t="inlineStr">
+      <c r="E133" s="2" t="inlineStr"/>
+      <c r="F133" s="2" t="inlineStr"/>
+      <c r="G133" s="2" t="inlineStr"/>
+      <c r="H133" s="2" t="inlineStr"/>
+      <c r="I133" s="2" t="inlineStr"/>
+      <c r="J133" s="2" t="inlineStr"/>
+      <c r="K133" s="2" t="inlineStr"/>
+      <c r="L133" s="2" t="inlineStr"/>
+      <c r="M133" s="2" t="inlineStr"/>
+      <c r="N133" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="O132" s="2" t="inlineStr"/>
-      <c r="P132" s="2" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
+      <c r="O133" s="2" t="inlineStr"/>
+      <c r="P133" s="2" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
         <is>
           <t>MFOEM:000080</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr">
+      <c r="B134" t="inlineStr">
         <is>
           <t>feeling tired</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
+      <c r="C134" t="inlineStr">
         <is>
           <t>subjective affective feeling</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
+      <c r="D134" t="inlineStr">
         <is>
           <t>A subjective affective feeling of tiredness, needing sleep.</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr"/>
-      <c r="F133" t="inlineStr"/>
-      <c r="G133" t="inlineStr"/>
-      <c r="H133" t="inlineStr"/>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="inlineStr"/>
-      <c r="N133" t="inlineStr">
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="inlineStr"/>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006087</t>
-        </is>
-      </c>
-      <c r="B134" s="3" t="inlineStr">
-        <is>
-          <t>financial behavioural opportunity</t>
-        </is>
-      </c>
-      <c r="C134" s="3" t="inlineStr">
-        <is>
-          <t>physical behavioural opportunity</t>
-        </is>
-      </c>
-      <c r="D134" s="3" t="inlineStr">
-        <is>
-          <t>A physical behavioural opportunity that involves the person having sufficient financial resources.</t>
-        </is>
-      </c>
-      <c r="E134" s="3" t="inlineStr"/>
-      <c r="F134" s="3" t="inlineStr">
-        <is>
-          <t>Properties of a person's environment that involve the material resources available to them and influence the person's ability to enact a behaviour.</t>
-        </is>
-      </c>
-      <c r="G134" s="3" t="inlineStr"/>
-      <c r="H134" s="3" t="inlineStr"/>
-      <c r="I134" s="3" t="inlineStr">
-        <is>
-          <t>As 'financial behavioural opportunity' will involve some physical monetary entity (e.g., money borrowed from someone), it is a physical behavioural opportunity. While financial resources (e.g., money) have intrinsically social dimensions, the 'financial behavioural opportunity' does not involve a social aspect.</t>
-        </is>
-      </c>
-      <c r="J134" s="3" t="inlineStr"/>
-      <c r="K134" s="3" t="inlineStr"/>
-      <c r="L134" s="3" t="inlineStr"/>
-      <c r="M134" s="3" t="inlineStr"/>
-      <c r="N134" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O134" s="3" t="inlineStr"/>
-      <c r="P134" s="3" t="inlineStr"/>
+      <c r="O134" t="inlineStr"/>
+      <c r="P134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006003</t>
+          <t>BCIO:006087</t>
         </is>
       </c>
       <c r="B135" s="3" t="inlineStr">
         <is>
-          <t>friendship network</t>
+          <t>financial behavioural opportunity</t>
         </is>
       </c>
       <c r="C135" s="3" t="inlineStr">
         <is>
-          <t>social environmental system</t>
+          <t>physical behavioural opportunity</t>
         </is>
       </c>
       <c r="D135" s="3" t="inlineStr">
         <is>
-          <t>A social environmental system that consists of persons who share a bond of mutual affection and are in contact or communication.</t>
+          <t>A physical behavioural opportunity that involves the person having sufficient financial resources.</t>
         </is>
       </c>
       <c r="E135" s="3" t="inlineStr"/>
-      <c r="F135" s="3" t="inlineStr"/>
+      <c r="F135" s="3" t="inlineStr">
+        <is>
+          <t>Properties of a person's environment that involve the material resources available to them and influence the person's ability to enact a behaviour.</t>
+        </is>
+      </c>
       <c r="G135" s="3" t="inlineStr"/>
       <c r="H135" s="3" t="inlineStr"/>
-      <c r="I135" s="3" t="inlineStr"/>
+      <c r="I135" s="3" t="inlineStr">
+        <is>
+          <t>As 'financial behavioural opportunity' will involve some physical monetary entity (e.g., money borrowed from someone), it is a physical behavioural opportunity. While financial resources (e.g., money) have intrinsically social dimensions, the 'financial behavioural opportunity' does not involve a social aspect.</t>
+        </is>
+      </c>
       <c r="J135" s="3" t="inlineStr"/>
       <c r="K135" s="3" t="inlineStr"/>
       <c r="L135" s="3" t="inlineStr"/>
@@ -5999,115 +6007,115 @@
       <c r="P135" s="3" t="inlineStr"/>
     </row>
     <row r="136">
-      <c r="A136" s="2" t="inlineStr">
+      <c r="A136" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006003</t>
+        </is>
+      </c>
+      <c r="B136" s="3" t="inlineStr">
+        <is>
+          <t>friendship network</t>
+        </is>
+      </c>
+      <c r="C136" s="3" t="inlineStr">
+        <is>
+          <t>social environmental system</t>
+        </is>
+      </c>
+      <c r="D136" s="3" t="inlineStr">
+        <is>
+          <t>A social environmental system that consists of persons who share a bond of mutual affection and are in contact or communication.</t>
+        </is>
+      </c>
+      <c r="E136" s="3" t="inlineStr"/>
+      <c r="F136" s="3" t="inlineStr"/>
+      <c r="G136" s="3" t="inlineStr"/>
+      <c r="H136" s="3" t="inlineStr"/>
+      <c r="I136" s="3" t="inlineStr"/>
+      <c r="J136" s="3" t="inlineStr"/>
+      <c r="K136" s="3" t="inlineStr"/>
+      <c r="L136" s="3" t="inlineStr"/>
+      <c r="M136" s="3" t="inlineStr"/>
+      <c r="N136" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O136" s="3" t="inlineStr"/>
+      <c r="P136" s="3" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="inlineStr">
         <is>
           <t>BCIO:006308</t>
         </is>
       </c>
-      <c r="B136" s="2" t="inlineStr">
+      <c r="B137" s="2" t="inlineStr">
         <is>
           <t>fundamental need-based motivation</t>
         </is>
       </c>
-      <c r="C136" s="2" t="inlineStr">
+      <c r="C137" s="2" t="inlineStr">
         <is>
           <t>autonomous motivation</t>
         </is>
       </c>
-      <c r="D136" s="2" t="inlineStr">
+      <c r="D137" s="2" t="inlineStr">
         <is>
           <t>Autonomous motivation due to a behaviour being perceived to satisfy a core psychological need.</t>
         </is>
       </c>
-      <c r="E136" s="2" t="inlineStr"/>
-      <c r="F136" s="2" t="inlineStr"/>
-      <c r="G136" s="2" t="inlineStr">
+      <c r="E137" s="2" t="inlineStr"/>
+      <c r="F137" s="2" t="inlineStr"/>
+      <c r="G137" s="2" t="inlineStr">
         <is>
           <t>integrated motivation; integrated regulation</t>
         </is>
       </c>
-      <c r="H136" s="2" t="inlineStr"/>
-      <c r="I136" s="2" t="inlineStr"/>
-      <c r="J136" s="2" t="inlineStr"/>
-      <c r="K136" s="2" t="inlineStr"/>
-      <c r="L136" s="2" t="inlineStr"/>
-      <c r="M136" s="2" t="inlineStr"/>
-      <c r="N136" s="2" t="inlineStr">
+      <c r="H137" s="2" t="inlineStr"/>
+      <c r="I137" s="2" t="inlineStr"/>
+      <c r="J137" s="2" t="inlineStr"/>
+      <c r="K137" s="2" t="inlineStr"/>
+      <c r="L137" s="2" t="inlineStr"/>
+      <c r="M137" s="2" t="inlineStr"/>
+      <c r="N137" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="O136" s="2" t="inlineStr"/>
-      <c r="P136" s="2" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006124</t>
-        </is>
-      </c>
-      <c r="B137" s="3" t="inlineStr">
-        <is>
-          <t>generalisation in learning</t>
-        </is>
-      </c>
-      <c r="C137" s="3" t="inlineStr">
-        <is>
-          <t>associative learning</t>
-        </is>
-      </c>
-      <c r="D137" s="3" t="inlineStr">
-        <is>
-          <t>Associative learning process in which prior learning that an antecedent stimulus signals certain consequences of behaviour spreads to a stimulus that differs in certain aspects from the original antecedent stimulus.</t>
-        </is>
-      </c>
-      <c r="E137" s="3" t="inlineStr"/>
-      <c r="F137" s="3" t="inlineStr"/>
-      <c r="G137" s="3" t="inlineStr"/>
-      <c r="H137" s="3" t="inlineStr"/>
-      <c r="I137" s="3" t="inlineStr">
-        <is>
-          <t>The label 'Generalisation of target  behavior' is used for a behaviour change technique (BCT) in the BCT Taxonomy v1 (Michie et al., 2013). The definition for this BCT reads as follows: 'Advise to perform the wanted behaviour,  which is already performed in a particular situation, in another situation.' Therefore, the BCT is the advice to perform the behaviour, whereas the MoA is a learning process that occurs in the brain.</t>
-        </is>
-      </c>
-      <c r="J137" s="3" t="inlineStr"/>
-      <c r="K137" s="3" t="inlineStr"/>
-      <c r="L137" s="3" t="inlineStr"/>
-      <c r="M137" s="3" t="inlineStr"/>
-      <c r="N137" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O137" s="3" t="inlineStr"/>
-      <c r="P137" s="3" t="inlineStr"/>
+      <c r="O137" s="2" t="inlineStr"/>
+      <c r="P137" s="2" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006049</t>
+          <t>BCIO:006124</t>
         </is>
       </c>
       <c r="B138" s="3" t="inlineStr">
         <is>
-          <t>goal</t>
+          <t>generalisation in learning</t>
         </is>
       </c>
       <c r="C138" s="3" t="inlineStr">
         <is>
-          <t>cognitive representation</t>
+          <t>associative learning</t>
         </is>
       </c>
       <c r="D138" s="3" t="inlineStr">
         <is>
-          <t>A cognitive representation of an end state towards which one is striving.</t>
+          <t>Associative learning process in which prior learning that an antecedent stimulus signals certain consequences of behaviour spreads to a stimulus that differs in certain aspects from the original antecedent stimulus.</t>
         </is>
       </c>
       <c r="E138" s="3" t="inlineStr"/>
       <c r="F138" s="3" t="inlineStr"/>
       <c r="G138" s="3" t="inlineStr"/>
       <c r="H138" s="3" t="inlineStr"/>
-      <c r="I138" s="3" t="inlineStr"/>
+      <c r="I138" s="3" t="inlineStr">
+        <is>
+          <t>The label 'Generalisation of target  behavior' is used for a behaviour change technique (BCT) in the BCT Taxonomy v1 (Michie et al., 2013). The definition for this BCT reads as follows: 'Advise to perform the wanted behaviour,  which is already performed in a particular situation, in another situation.' Therefore, the BCT is the advice to perform the behaviour, whereas the MoA is a learning process that occurs in the brain.</t>
+        </is>
+      </c>
       <c r="J138" s="3" t="inlineStr"/>
       <c r="K138" s="3" t="inlineStr"/>
       <c r="L138" s="3" t="inlineStr"/>
@@ -6123,33 +6131,29 @@
     <row r="139">
       <c r="A139" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006096</t>
+          <t>BCIO:006049</t>
         </is>
       </c>
       <c r="B139" s="3" t="inlineStr">
         <is>
-          <t>goal pursuit process</t>
+          <t>goal</t>
         </is>
       </c>
       <c r="C139" s="3" t="inlineStr">
         <is>
-          <t>bodily process</t>
+          <t>cognitive representation</t>
         </is>
       </c>
       <c r="D139" s="3" t="inlineStr">
         <is>
-          <t>A bodily process in which attempts are made to achieve a desired end state.</t>
+          <t>A cognitive representation of an end state towards which one is striving.</t>
         </is>
       </c>
       <c r="E139" s="3" t="inlineStr"/>
       <c r="F139" s="3" t="inlineStr"/>
       <c r="G139" s="3" t="inlineStr"/>
       <c r="H139" s="3" t="inlineStr"/>
-      <c r="I139" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">'Goal pursuit process' is a bodily process, as it may involve more than just mental processes (i.e., other processes in the body). </t>
-        </is>
-      </c>
+      <c r="I139" s="3" t="inlineStr"/>
       <c r="J139" s="3" t="inlineStr"/>
       <c r="K139" s="3" t="inlineStr"/>
       <c r="L139" s="3" t="inlineStr"/>
@@ -6165,29 +6169,33 @@
     <row r="140">
       <c r="A140" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006114</t>
+          <t>BCIO:006096</t>
         </is>
       </c>
       <c r="B140" s="3" t="inlineStr">
         <is>
-          <t>goal setting process</t>
+          <t>goal pursuit process</t>
         </is>
       </c>
       <c r="C140" s="3" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>bodily process</t>
         </is>
       </c>
       <c r="D140" s="3" t="inlineStr">
         <is>
-          <t>A mental process that establishes a cognitive representation of the desired end state.</t>
+          <t>A bodily process in which attempts are made to achieve a desired end state.</t>
         </is>
       </c>
       <c r="E140" s="3" t="inlineStr"/>
       <c r="F140" s="3" t="inlineStr"/>
       <c r="G140" s="3" t="inlineStr"/>
       <c r="H140" s="3" t="inlineStr"/>
-      <c r="I140" s="3" t="inlineStr"/>
+      <c r="I140" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'Goal pursuit process' is a bodily process, as it may involve more than just mental processes (i.e., other processes in the body). </t>
+        </is>
+      </c>
       <c r="J140" s="3" t="inlineStr"/>
       <c r="K140" s="3" t="inlineStr"/>
       <c r="L140" s="3" t="inlineStr"/>
@@ -6201,181 +6209,181 @@
       <c r="P140" s="3" t="inlineStr"/>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr">
+      <c r="A141" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006114</t>
+        </is>
+      </c>
+      <c r="B141" s="3" t="inlineStr">
+        <is>
+          <t>goal setting process</t>
+        </is>
+      </c>
+      <c r="C141" s="3" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D141" s="3" t="inlineStr">
+        <is>
+          <t>A mental process that establishes a cognitive representation of the desired end state.</t>
+        </is>
+      </c>
+      <c r="E141" s="3" t="inlineStr"/>
+      <c r="F141" s="3" t="inlineStr"/>
+      <c r="G141" s="3" t="inlineStr"/>
+      <c r="H141" s="3" t="inlineStr"/>
+      <c r="I141" s="3" t="inlineStr"/>
+      <c r="J141" s="3" t="inlineStr"/>
+      <c r="K141" s="3" t="inlineStr"/>
+      <c r="L141" s="3" t="inlineStr"/>
+      <c r="M141" s="3" t="inlineStr"/>
+      <c r="N141" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O141" s="3" t="inlineStr"/>
+      <c r="P141" s="3" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
         <is>
           <t>MFOEM:000053</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr">
+      <c r="B142" t="inlineStr">
         <is>
           <t>guilt</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
+      <c r="C142" t="inlineStr">
         <is>
           <t>emotion process</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
+      <c r="D142" t="inlineStr">
         <is>
           <t>A negative self-evaluative emotion that occurs when a person brings about a negative outcome by acts of commission or omission that violate internal or external moral standards.</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr"/>
-      <c r="F141" t="inlineStr"/>
-      <c r="G141" t="inlineStr"/>
-      <c r="H141" t="inlineStr"/>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="inlineStr"/>
-      <c r="N141" t="inlineStr">
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" t="inlineStr"/>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="O141" t="inlineStr"/>
-      <c r="P141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="2" t="inlineStr">
+      <c r="O142" t="inlineStr"/>
+      <c r="P142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="inlineStr">
         <is>
           <t>BCIO:006309</t>
         </is>
       </c>
-      <c r="B142" s="2" t="inlineStr">
+      <c r="B143" s="2" t="inlineStr">
         <is>
           <t>habit learning</t>
         </is>
       </c>
-      <c r="C142" s="2" t="inlineStr">
+      <c r="C143" s="2" t="inlineStr">
         <is>
           <t>associative learning</t>
         </is>
       </c>
-      <c r="D142" s="2" t="inlineStr">
+      <c r="D143" s="2" t="inlineStr">
         <is>
           <t>Associative learning process that involves strengthening an association between a stimulus and an impulse through repetition of co-occurrence of the stimulus and the behaviour.</t>
         </is>
       </c>
-      <c r="E142" s="2" t="inlineStr"/>
-      <c r="F142" s="2" t="inlineStr"/>
-      <c r="G142" s="2" t="inlineStr"/>
-      <c r="H142" s="2" t="inlineStr"/>
-      <c r="I142" s="2" t="inlineStr"/>
-      <c r="J142" s="2" t="inlineStr"/>
-      <c r="K142" s="2" t="inlineStr"/>
-      <c r="L142" s="2" t="inlineStr"/>
-      <c r="M142" s="2" t="inlineStr"/>
-      <c r="N142" s="2" t="inlineStr">
+      <c r="E143" s="2" t="inlineStr"/>
+      <c r="F143" s="2" t="inlineStr"/>
+      <c r="G143" s="2" t="inlineStr"/>
+      <c r="H143" s="2" t="inlineStr"/>
+      <c r="I143" s="2" t="inlineStr"/>
+      <c r="J143" s="2" t="inlineStr"/>
+      <c r="K143" s="2" t="inlineStr"/>
+      <c r="L143" s="2" t="inlineStr"/>
+      <c r="M143" s="2" t="inlineStr"/>
+      <c r="N143" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="O142" s="2" t="inlineStr"/>
-      <c r="P142" s="2" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="3" t="inlineStr">
+      <c r="O143" s="2" t="inlineStr"/>
+      <c r="P143" s="2" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" s="3" t="inlineStr">
         <is>
           <t>BCIO:006158</t>
         </is>
       </c>
-      <c r="B143" s="3" t="inlineStr">
+      <c r="B144" s="3" t="inlineStr">
         <is>
           <t>habitual behaviour</t>
         </is>
       </c>
-      <c r="C143" s="3" t="inlineStr">
+      <c r="C144" s="3" t="inlineStr">
         <is>
           <t>individual human behaviour</t>
         </is>
       </c>
-      <c r="D143" s="3" t="inlineStr">
+      <c r="D144" s="3" t="inlineStr">
         <is>
           <t>A behaviour that results from a learnt stimulus-behaviour co-occurrence.</t>
         </is>
       </c>
-      <c r="E143" s="3" t="inlineStr"/>
-      <c r="F143" s="3" t="inlineStr"/>
-      <c r="G143" s="3" t="inlineStr"/>
-      <c r="H143" s="3" t="inlineStr"/>
-      <c r="I143" s="3" t="inlineStr">
+      <c r="E144" s="3" t="inlineStr"/>
+      <c r="F144" s="3" t="inlineStr"/>
+      <c r="G144" s="3" t="inlineStr"/>
+      <c r="H144" s="3" t="inlineStr"/>
+      <c r="I144" s="3" t="inlineStr">
         <is>
           <t>A learnt stimulus-behaviour co-occurrence can lead to activation or execution of a habitual behaviour.
 Habitual behaviour can be an MoA or outcome depending on how 'habitual behaviour' is described in an intervention. The Behaviour Change-Intervention Ontology includes the class 'outcome behaviour' (definition: Human behavior that is an intervention outcome.), which would not be an MoA. When an intervention targets a habitual behaviour to achieve an outcome behaviour, the former qualifies as an MoA.</t>
         </is>
       </c>
-      <c r="J143" s="3" t="inlineStr"/>
-      <c r="K143" s="3" t="inlineStr"/>
-      <c r="L143" s="3" t="inlineStr"/>
-      <c r="M143" s="3" t="inlineStr"/>
-      <c r="N143" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O143" s="3" t="inlineStr"/>
-      <c r="P143" s="3" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>GO:0046959</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>habituation</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>non-associative learning</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>A decrease in a behavioural response to a repeated stimulus.</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr"/>
-      <c r="F144" t="inlineStr"/>
-      <c r="G144" t="inlineStr"/>
-      <c r="H144" t="inlineStr"/>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="inlineStr"/>
-      <c r="N144" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
+      <c r="J144" s="3" t="inlineStr"/>
+      <c r="K144" s="3" t="inlineStr"/>
+      <c r="L144" s="3" t="inlineStr"/>
+      <c r="M144" s="3" t="inlineStr"/>
+      <c r="N144" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O144" s="3" t="inlineStr"/>
+      <c r="P144" s="3" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>MFOEM:000042</t>
+          <t>GO:0046959</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>happiness</t>
+          <t>habituation</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>emotion process</t>
+          <t>non-associative learning</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>A positive emotion which is experienced in reaction to a positive experience or event.</t>
+          <t>A decrease in a behavioural response to a repeated stimulus.</t>
         </is>
       </c>
       <c r="E145" t="inlineStr"/>
@@ -6396,77 +6404,77 @@
       <c r="P145" t="inlineStr"/>
     </row>
     <row r="146">
-      <c r="A146" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006088</t>
-        </is>
-      </c>
-      <c r="B146" s="3" t="inlineStr">
-        <is>
-          <t>healthcare access</t>
-        </is>
-      </c>
-      <c r="C146" s="3" t="inlineStr">
-        <is>
-          <t>behavioural opportunity</t>
-        </is>
-      </c>
-      <c r="D146" s="3" t="inlineStr">
-        <is>
-          <t>A behavioural opportunity regarding how easy it is for a person to approach and use a healthcare service.</t>
-        </is>
-      </c>
-      <c r="E146" s="3" t="inlineStr"/>
-      <c r="F146" s="3" t="inlineStr">
-        <is>
-          <t>Properties of a person's environment that enable or facilitate accessing healthcare services.</t>
-        </is>
-      </c>
-      <c r="G146" s="3" t="inlineStr"/>
-      <c r="H146" s="3" t="inlineStr"/>
-      <c r="I146" s="3" t="inlineStr">
-        <is>
-          <t>The 'healthcare services' refers to services provided for the purposes of preventing, detecting, curing or controlling a health problem or enhancing wellbeing.</t>
-        </is>
-      </c>
-      <c r="J146" s="3" t="inlineStr"/>
-      <c r="K146" s="3" t="inlineStr"/>
-      <c r="L146" s="3" t="inlineStr"/>
-      <c r="M146" s="3" t="inlineStr"/>
-      <c r="N146" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O146" s="3" t="inlineStr"/>
-      <c r="P146" s="3" t="inlineStr"/>
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>MFOEM:000042</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>happiness</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>emotion process</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>A positive emotion which is experienced in reaction to a positive experience or event.</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr"/>
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="O146" t="inlineStr"/>
+      <c r="P146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006115</t>
+          <t>BCIO:006088</t>
         </is>
       </c>
       <c r="B147" s="3" t="inlineStr">
         <is>
-          <t>heuristic process</t>
+          <t>healthcare access</t>
         </is>
       </c>
       <c r="C147" s="3" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>behavioural opportunity</t>
         </is>
       </c>
       <c r="D147" s="3" t="inlineStr">
         <is>
-          <t>A mental process that uses simple rules and associations learnt from experience to make judgements.</t>
+          <t>A behavioural opportunity regarding how easy it is for a person to approach and use a healthcare service.</t>
         </is>
       </c>
       <c r="E147" s="3" t="inlineStr"/>
-      <c r="F147" s="3" t="inlineStr"/>
+      <c r="F147" s="3" t="inlineStr">
+        <is>
+          <t>Properties of a person's environment that enable or facilitate accessing healthcare services.</t>
+        </is>
+      </c>
       <c r="G147" s="3" t="inlineStr"/>
       <c r="H147" s="3" t="inlineStr"/>
-      <c r="I147" s="3" t="inlineStr"/>
+      <c r="I147" s="3" t="inlineStr">
+        <is>
+          <t>The 'healthcare services' refers to services provided for the purposes of preventing, detecting, curing or controlling a health problem or enhancing wellbeing.</t>
+        </is>
+      </c>
       <c r="J147" s="3" t="inlineStr"/>
       <c r="K147" s="3" t="inlineStr"/>
       <c r="L147" s="3" t="inlineStr"/>
@@ -6480,305 +6488,301 @@
       <c r="P147" s="3" t="inlineStr"/>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr">
+      <c r="A148" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006115</t>
+        </is>
+      </c>
+      <c r="B148" s="3" t="inlineStr">
+        <is>
+          <t>heuristic process</t>
+        </is>
+      </c>
+      <c r="C148" s="3" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D148" s="3" t="inlineStr">
+        <is>
+          <t>A mental process that uses simple rules and associations learnt from experience to make judgements.</t>
+        </is>
+      </c>
+      <c r="E148" s="3" t="inlineStr"/>
+      <c r="F148" s="3" t="inlineStr"/>
+      <c r="G148" s="3" t="inlineStr"/>
+      <c r="H148" s="3" t="inlineStr"/>
+      <c r="I148" s="3" t="inlineStr"/>
+      <c r="J148" s="3" t="inlineStr"/>
+      <c r="K148" s="3" t="inlineStr"/>
+      <c r="L148" s="3" t="inlineStr"/>
+      <c r="M148" s="3" t="inlineStr"/>
+      <c r="N148" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O148" s="3" t="inlineStr"/>
+      <c r="P148" s="3" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
         <is>
           <t>MFOEM:000205</t>
         </is>
       </c>
-      <c r="B148" t="inlineStr">
+      <c r="B149" t="inlineStr">
         <is>
           <t>hunger</t>
         </is>
       </c>
-      <c r="C148" t="inlineStr">
+      <c r="C149" t="inlineStr">
         <is>
           <t>subjective affective feeling</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr">
+      <c r="D149" t="inlineStr">
         <is>
           <t>A subjective affective feeling that involves discomfort and is associated with a need to consume food.</t>
         </is>
       </c>
-      <c r="E148" t="inlineStr"/>
-      <c r="F148" t="inlineStr"/>
-      <c r="G148" t="inlineStr"/>
-      <c r="H148" t="inlineStr"/>
-      <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="inlineStr"/>
-      <c r="N148" t="inlineStr">
+      <c r="E149" t="inlineStr"/>
+      <c r="F149" t="inlineStr"/>
+      <c r="G149" t="inlineStr"/>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="O148" t="inlineStr"/>
-      <c r="P148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="3" t="inlineStr">
+      <c r="O149" t="inlineStr"/>
+      <c r="P149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="3" t="inlineStr">
         <is>
           <t>BCIO:006130</t>
         </is>
       </c>
-      <c r="B149" s="3" t="inlineStr">
+      <c r="B150" s="3" t="inlineStr">
         <is>
           <t>iconic memory</t>
         </is>
       </c>
-      <c r="C149" s="3" t="inlineStr">
+      <c r="C150" s="3" t="inlineStr">
         <is>
           <t>memory</t>
         </is>
       </c>
-      <c r="D149" s="3" t="inlineStr">
+      <c r="D150" s="3" t="inlineStr">
         <is>
           <t>A memory process that deals with the receipt, storage, retrieval and modification of information regarding a brief visual stimulus.</t>
         </is>
       </c>
-      <c r="E149" s="3" t="inlineStr"/>
-      <c r="F149" s="3" t="inlineStr"/>
-      <c r="G149" s="3" t="inlineStr"/>
-      <c r="H149" s="3" t="inlineStr"/>
-      <c r="I149" s="3" t="inlineStr"/>
-      <c r="J149" s="3" t="inlineStr"/>
-      <c r="K149" s="3" t="inlineStr"/>
-      <c r="L149" s="3" t="inlineStr"/>
-      <c r="M149" s="3" t="inlineStr"/>
-      <c r="N149" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O149" s="3" t="inlineStr"/>
-      <c r="P149" s="3" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
+      <c r="E150" s="3" t="inlineStr"/>
+      <c r="F150" s="3" t="inlineStr"/>
+      <c r="G150" s="3" t="inlineStr"/>
+      <c r="H150" s="3" t="inlineStr"/>
+      <c r="I150" s="3" t="inlineStr"/>
+      <c r="J150" s="3" t="inlineStr"/>
+      <c r="K150" s="3" t="inlineStr"/>
+      <c r="L150" s="3" t="inlineStr"/>
+      <c r="M150" s="3" t="inlineStr"/>
+      <c r="N150" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O150" s="3" t="inlineStr"/>
+      <c r="P150" s="3" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000381</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>identity</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>cognitive representation</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>A cognitive representation of themselves by a person or group.</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr"/>
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" t="inlineStr"/>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="O151" t="inlineStr"/>
+      <c r="P151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
         <is>
           <t>GO:0098596</t>
         </is>
       </c>
-      <c r="B150" t="inlineStr">
+      <c r="B152" t="inlineStr">
         <is>
           <t>imitative learning</t>
         </is>
       </c>
-      <c r="C150" t="inlineStr">
+      <c r="C152" t="inlineStr">
         <is>
           <t>observational learning</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr">
+      <c r="D152" t="inlineStr">
         <is>
           <t xml:space="preserve">Observational learning in which new behaviours are acquired through imitation. </t>
         </is>
       </c>
-      <c r="E150" t="inlineStr"/>
-      <c r="F150" t="inlineStr"/>
-      <c r="G150" t="inlineStr"/>
-      <c r="H150" t="inlineStr"/>
-      <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="inlineStr"/>
-      <c r="N150" t="inlineStr">
+      <c r="E152" t="inlineStr"/>
+      <c r="F152" t="inlineStr"/>
+      <c r="G152" t="inlineStr"/>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="O150" t="inlineStr"/>
-      <c r="P150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="2" t="inlineStr">
+      <c r="O152" t="inlineStr"/>
+      <c r="P152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="inlineStr">
         <is>
           <t>BCIO:050234</t>
         </is>
       </c>
-      <c r="B151" s="2" t="inlineStr">
+      <c r="B153" s="2" t="inlineStr">
         <is>
           <t>impulse</t>
         </is>
       </c>
-      <c r="C151" s="2" t="inlineStr">
+      <c r="C153" s="2" t="inlineStr">
         <is>
           <t>mental process</t>
         </is>
       </c>
-      <c r="D151" s="2" t="inlineStr">
+      <c r="D153" s="2" t="inlineStr">
         <is>
           <t>A mental process that is sudden and compels an organism to think or behave in some way.</t>
         </is>
       </c>
-      <c r="E151" s="2" t="inlineStr"/>
-      <c r="F151" s="2" t="inlineStr"/>
-      <c r="G151" s="2" t="inlineStr"/>
-      <c r="H151" s="2" t="inlineStr"/>
-      <c r="I151" s="2" t="inlineStr">
+      <c r="E153" s="2" t="inlineStr"/>
+      <c r="F153" s="2" t="inlineStr"/>
+      <c r="G153" s="2" t="inlineStr"/>
+      <c r="H153" s="2" t="inlineStr"/>
+      <c r="I153" s="2" t="inlineStr">
         <is>
           <t>An impulse is not felt or consciously processed. If an impulse if frustrated, a person or other organism feels an urge.</t>
         </is>
       </c>
-      <c r="J151" s="2" t="inlineStr"/>
-      <c r="K151" s="2" t="inlineStr"/>
-      <c r="L151" s="2" t="inlineStr"/>
-      <c r="M151" s="2" t="inlineStr"/>
-      <c r="N151" s="2" t="inlineStr">
+      <c r="J153" s="2" t="inlineStr"/>
+      <c r="K153" s="2" t="inlineStr"/>
+      <c r="L153" s="2" t="inlineStr"/>
+      <c r="M153" s="2" t="inlineStr"/>
+      <c r="N153" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="O151" s="2" t="inlineStr"/>
-      <c r="P151" s="2" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="2" t="inlineStr">
+      <c r="O153" s="2" t="inlineStr"/>
+      <c r="P153" s="2" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="inlineStr">
         <is>
           <t>BCIO:036025</t>
         </is>
       </c>
-      <c r="B152" s="2" t="inlineStr">
+      <c r="B154" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">inter-personal behaviour </t>
         </is>
       </c>
-      <c r="C152" s="2" t="inlineStr">
+      <c r="C154" s="2" t="inlineStr">
         <is>
           <t>individual human behaviour</t>
         </is>
       </c>
-      <c r="D152" s="2" t="inlineStr">
+      <c r="D154" s="2" t="inlineStr">
         <is>
           <t>An individual human behaviour that involves an interaction between two or more people.</t>
         </is>
       </c>
-      <c r="E152" s="2" t="inlineStr"/>
-      <c r="F152" s="2" t="inlineStr"/>
-      <c r="G152" s="2" t="inlineStr"/>
-      <c r="H152" s="2" t="inlineStr"/>
-      <c r="I152" s="2" t="inlineStr"/>
-      <c r="J152" s="2" t="inlineStr"/>
-      <c r="K152" s="2" t="inlineStr"/>
-      <c r="L152" s="2" t="inlineStr"/>
-      <c r="M152" s="2" t="inlineStr"/>
-      <c r="N152" s="2" t="inlineStr">
+      <c r="E154" s="2" t="inlineStr"/>
+      <c r="F154" s="2" t="inlineStr"/>
+      <c r="G154" s="2" t="inlineStr"/>
+      <c r="H154" s="2" t="inlineStr"/>
+      <c r="I154" s="2" t="inlineStr"/>
+      <c r="J154" s="2" t="inlineStr"/>
+      <c r="K154" s="2" t="inlineStr"/>
+      <c r="L154" s="2" t="inlineStr"/>
+      <c r="M154" s="2" t="inlineStr"/>
+      <c r="N154" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="O152" s="2" t="inlineStr"/>
-      <c r="P152" s="2" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006100</t>
-        </is>
-      </c>
-      <c r="B153" s="3" t="inlineStr">
-        <is>
-          <t>internal reward for a response</t>
-        </is>
-      </c>
-      <c r="C153" s="3" t="inlineStr">
-        <is>
-          <t>bodily process</t>
-        </is>
-      </c>
-      <c r="D153" s="3" t="inlineStr">
-        <is>
-          <t>A bodily process by which the person experiences an internally-generated positive physical or psychological state subsequent to a response.</t>
-        </is>
-      </c>
-      <c r="E153" s="3" t="inlineStr"/>
-      <c r="F153" s="3" t="inlineStr"/>
-      <c r="G153" s="3" t="inlineStr"/>
-      <c r="H153" s="3" t="inlineStr"/>
-      <c r="I153" s="3" t="inlineStr"/>
-      <c r="J153" s="3" t="inlineStr"/>
-      <c r="K153" s="3" t="inlineStr"/>
-      <c r="L153" s="3" t="inlineStr"/>
-      <c r="M153" s="3" t="inlineStr"/>
-      <c r="N153" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O153" s="3" t="inlineStr"/>
-      <c r="P153" s="3" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>MFOEM:000022</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>interpersonal disgust</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>disgust</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>Disgust elicited by contact with others, especially contact with strangers or other individuals or groups we are averse to.</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr"/>
-      <c r="F154" t="inlineStr"/>
-      <c r="G154" t="inlineStr"/>
-      <c r="H154" t="inlineStr"/>
-      <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="inlineStr"/>
-      <c r="N154" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="O154" t="inlineStr"/>
-      <c r="P154" t="inlineStr"/>
+      <c r="O154" s="2" t="inlineStr"/>
+      <c r="P154" s="2" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006136</t>
+          <t>BCIO:006100</t>
         </is>
       </c>
       <c r="B155" s="3" t="inlineStr">
         <is>
-          <t>intrinsic motivation</t>
+          <t>internal reward for a response</t>
         </is>
       </c>
       <c r="C155" s="3" t="inlineStr">
         <is>
-          <t>autonomous motivation</t>
+          <t>bodily process</t>
         </is>
       </c>
       <c r="D155" s="3" t="inlineStr">
         <is>
-          <t>Autonomous motivation due to a behaviour's inherent enjoyment, satisfaction or benefits to oneself.</t>
+          <t>A bodily process by which the person experiences an internally-generated positive physical or psychological state subsequent to a response.</t>
         </is>
       </c>
       <c r="E155" s="3" t="inlineStr"/>
       <c r="F155" s="3" t="inlineStr"/>
       <c r="G155" s="3" t="inlineStr"/>
       <c r="H155" s="3" t="inlineStr"/>
-      <c r="I155" s="3" t="inlineStr">
-        <is>
-          <t>The phrase 'benefits to oneself' includes the reduction of unpleasant internal states.</t>
-        </is>
-      </c>
+      <c r="I155" s="3" t="inlineStr"/>
       <c r="J155" s="3" t="inlineStr"/>
       <c r="K155" s="3" t="inlineStr"/>
       <c r="L155" s="3" t="inlineStr"/>
@@ -6792,115 +6796,111 @@
       <c r="P155" s="3" t="inlineStr"/>
     </row>
     <row r="156">
-      <c r="A156" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006105</t>
-        </is>
-      </c>
-      <c r="B156" s="3" t="inlineStr">
-        <is>
-          <t>introjected self-regulation</t>
-        </is>
-      </c>
-      <c r="C156" s="3" t="inlineStr">
-        <is>
-          <t>self-regulation of behaviour</t>
-        </is>
-      </c>
-      <c r="D156" s="3" t="inlineStr">
-        <is>
-          <t>Self-regulation of behaviour undertaken to manage a sense of guilt, anxiety or obligation.</t>
-        </is>
-      </c>
-      <c r="E156" s="3" t="inlineStr"/>
-      <c r="F156" s="3" t="inlineStr"/>
-      <c r="G156" s="3" t="inlineStr"/>
-      <c r="H156" s="3" t="inlineStr"/>
-      <c r="I156" s="3" t="inlineStr"/>
-      <c r="J156" s="3" t="inlineStr"/>
-      <c r="K156" s="3" t="inlineStr"/>
-      <c r="L156" s="3" t="inlineStr"/>
-      <c r="M156" s="3" t="inlineStr"/>
-      <c r="N156" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O156" s="3" t="inlineStr"/>
-      <c r="P156" s="3" t="inlineStr"/>
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>MFOEM:000022</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>interpersonal disgust</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>disgust</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Disgust elicited by contact with others, especially contact with strangers or other individuals or groups we are averse to.</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr"/>
+      <c r="F156" t="inlineStr"/>
+      <c r="G156" t="inlineStr"/>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="O156" t="inlineStr"/>
+      <c r="P156" t="inlineStr"/>
     </row>
     <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>MF:0000006</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>judging</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>A mental process during which information is evaluated, the outcome of which is a belief or opinion.</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr"/>
-      <c r="F157" t="inlineStr"/>
-      <c r="G157" t="inlineStr"/>
-      <c r="H157" t="inlineStr"/>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="inlineStr"/>
-      <c r="N157" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="O157" t="inlineStr"/>
-      <c r="P157" t="inlineStr"/>
+      <c r="A157" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006136</t>
+        </is>
+      </c>
+      <c r="B157" s="3" t="inlineStr">
+        <is>
+          <t>intrinsic motivation</t>
+        </is>
+      </c>
+      <c r="C157" s="3" t="inlineStr">
+        <is>
+          <t>autonomous motivation</t>
+        </is>
+      </c>
+      <c r="D157" s="3" t="inlineStr">
+        <is>
+          <t>Autonomous motivation due to a behaviour's inherent enjoyment, satisfaction or benefits to oneself.</t>
+        </is>
+      </c>
+      <c r="E157" s="3" t="inlineStr"/>
+      <c r="F157" s="3" t="inlineStr"/>
+      <c r="G157" s="3" t="inlineStr"/>
+      <c r="H157" s="3" t="inlineStr"/>
+      <c r="I157" s="3" t="inlineStr">
+        <is>
+          <t>The phrase 'benefits to oneself' includes the reduction of unpleasant internal states.</t>
+        </is>
+      </c>
+      <c r="J157" s="3" t="inlineStr"/>
+      <c r="K157" s="3" t="inlineStr"/>
+      <c r="L157" s="3" t="inlineStr"/>
+      <c r="M157" s="3" t="inlineStr"/>
+      <c r="N157" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O157" s="3" t="inlineStr"/>
+      <c r="P157" s="3" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006052</t>
+          <t>BCIO:006105</t>
         </is>
       </c>
       <c r="B158" s="3" t="inlineStr">
         <is>
-          <t>knowledge</t>
+          <t>introjected self-regulation</t>
         </is>
       </c>
       <c r="C158" s="3" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>self-regulation of behaviour</t>
         </is>
       </c>
       <c r="D158" s="3" t="inlineStr">
         <is>
-          <t>A mental disposition to understand the nature of the world, or a specific aspect of the world, that corresponds to the actual state of the world and is acquired through experience or learning.</t>
+          <t>Self-regulation of behaviour undertaken to manage a sense of guilt, anxiety or obligation.</t>
         </is>
       </c>
       <c r="E158" s="3" t="inlineStr"/>
-      <c r="F158" s="3" t="inlineStr">
-        <is>
-          <t>An understanding of something that results from experience or learning.</t>
-        </is>
-      </c>
+      <c r="F158" s="3" t="inlineStr"/>
       <c r="G158" s="3" t="inlineStr"/>
       <c r="H158" s="3" t="inlineStr"/>
-      <c r="I158" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Knowledge is defined as a 'mental disposition', a realisable entity, because a person requires a process to access the information stored in their brain. A person knows something, when the relevant information has been retrieved from their memory. There are instances where a person might have learned something, but is unable to retrieve the information at a specific moment. </t>
-        </is>
-      </c>
+      <c r="I158" s="3" t="inlineStr"/>
       <c r="J158" s="3" t="inlineStr"/>
       <c r="K158" s="3" t="inlineStr"/>
       <c r="L158" s="3" t="inlineStr"/>
@@ -6914,69 +6914,77 @@
       <c r="P158" s="3" t="inlineStr"/>
     </row>
     <row r="159">
-      <c r="A159" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006053</t>
-        </is>
-      </c>
-      <c r="B159" s="3" t="inlineStr">
-        <is>
-          <t>knowledge regarding a behaviour</t>
-        </is>
-      </c>
-      <c r="C159" s="3" t="inlineStr">
-        <is>
-          <t>knowledge</t>
-        </is>
-      </c>
-      <c r="D159" s="3" t="inlineStr">
-        <is>
-          <t>Knowledge regarding a particular set of actions.</t>
-        </is>
-      </c>
-      <c r="E159" s="3" t="inlineStr"/>
-      <c r="F159" s="3" t="inlineStr"/>
-      <c r="G159" s="3" t="inlineStr"/>
-      <c r="H159" s="3" t="inlineStr"/>
-      <c r="I159" s="3" t="inlineStr"/>
-      <c r="J159" s="3" t="inlineStr"/>
-      <c r="K159" s="3" t="inlineStr"/>
-      <c r="L159" s="3" t="inlineStr"/>
-      <c r="M159" s="3" t="inlineStr"/>
-      <c r="N159" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O159" s="3" t="inlineStr"/>
-      <c r="P159" s="3" t="inlineStr"/>
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>MF:0000006</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>judging</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>A mental process during which information is evaluated, the outcome of which is a belief or opinion.</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr"/>
+      <c r="F159" t="inlineStr"/>
+      <c r="G159" t="inlineStr"/>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="O159" t="inlineStr"/>
+      <c r="P159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006055</t>
+          <t>BCIO:006052</t>
         </is>
       </c>
       <c r="B160" s="3" t="inlineStr">
         <is>
-          <t>knowledge regarding a threat</t>
+          <t>knowledge</t>
         </is>
       </c>
       <c r="C160" s="3" t="inlineStr">
         <is>
-          <t>knowledge</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D160" s="3" t="inlineStr">
         <is>
-          <t>Knowledge regarding a potential harm.</t>
+          <t>A mental disposition to understand the nature of the world, or a specific aspect of the world, that corresponds to the actual state of the world and is acquired through experience or learning.</t>
         </is>
       </c>
       <c r="E160" s="3" t="inlineStr"/>
-      <c r="F160" s="3" t="inlineStr"/>
+      <c r="F160" s="3" t="inlineStr">
+        <is>
+          <t>An understanding of something that results from experience or learning.</t>
+        </is>
+      </c>
       <c r="G160" s="3" t="inlineStr"/>
       <c r="H160" s="3" t="inlineStr"/>
-      <c r="I160" s="3" t="inlineStr"/>
+      <c r="I160" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Knowledge is defined as a 'mental disposition', a realisable entity, because a person requires a process to access the information stored in their brain. A person knows something, when the relevant information has been retrieved from their memory. There are instances where a person might have learned something, but is unable to retrieve the information at a specific moment. </t>
+        </is>
+      </c>
       <c r="J160" s="3" t="inlineStr"/>
       <c r="K160" s="3" t="inlineStr"/>
       <c r="L160" s="3" t="inlineStr"/>
@@ -6992,12 +7000,12 @@
     <row r="161">
       <c r="A161" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006054</t>
+          <t>BCIO:006053</t>
         </is>
       </c>
       <c r="B161" s="3" t="inlineStr">
         <is>
-          <t>knowledge regarding an innovation</t>
+          <t>knowledge regarding a behaviour</t>
         </is>
       </c>
       <c r="C161" s="3" t="inlineStr">
@@ -7007,7 +7015,7 @@
       </c>
       <c r="D161" s="3" t="inlineStr">
         <is>
-          <t>Knowledge regarding a novel invention or way of doing something.</t>
+          <t>Knowledge regarding a particular set of actions.</t>
         </is>
       </c>
       <c r="E161" s="3" t="inlineStr"/>
@@ -7030,12 +7038,12 @@
     <row r="162">
       <c r="A162" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006056</t>
+          <t>BCIO:006055</t>
         </is>
       </c>
       <c r="B162" s="3" t="inlineStr">
         <is>
-          <t>knowledge regarding treatment</t>
+          <t>knowledge regarding a threat</t>
         </is>
       </c>
       <c r="C162" s="3" t="inlineStr">
@@ -7045,7 +7053,7 @@
       </c>
       <c r="D162" s="3" t="inlineStr">
         <is>
-          <t>Knowledge regarding a therapy or medication for a health problem.</t>
+          <t>Knowledge regarding a potential harm.</t>
         </is>
       </c>
       <c r="E162" s="3" t="inlineStr"/>
@@ -7068,41 +7076,29 @@
     <row r="163">
       <c r="A163" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006155</t>
+          <t>BCIO:006054</t>
         </is>
       </c>
       <c r="B163" s="3" t="inlineStr">
         <is>
-          <t>learned stimulus-behaviour co-occurrence</t>
+          <t>knowledge regarding an innovation</t>
         </is>
       </c>
       <c r="C163" s="3" t="inlineStr">
         <is>
-          <t>learned stimulus-reponse co-occurrence</t>
+          <t>knowledge</t>
         </is>
       </c>
       <c r="D163" s="3" t="inlineStr">
         <is>
-          <t>A mental disposition to behave in a particular way in response to an internal or external event in the person's environment, which is acquired through habit learning.</t>
+          <t>Knowledge regarding a novel invention or way of doing something.</t>
         </is>
       </c>
       <c r="E163" s="3" t="inlineStr"/>
-      <c r="F163" s="3" t="inlineStr">
-        <is>
-          <t>A tendency for something in the environment to prompt a behaviour as a result of learning.</t>
-        </is>
-      </c>
-      <c r="G163" s="3" t="inlineStr">
-        <is>
-          <t>Habit</t>
-        </is>
-      </c>
+      <c r="F163" s="3" t="inlineStr"/>
+      <c r="G163" s="3" t="inlineStr"/>
       <c r="H163" s="3" t="inlineStr"/>
-      <c r="I163" s="3" t="inlineStr">
-        <is>
-          <t>Learned stimulus-behaviour co-occurrence can vary in strength.</t>
-        </is>
-      </c>
+      <c r="I163" s="3" t="inlineStr"/>
       <c r="J163" s="3" t="inlineStr"/>
       <c r="K163" s="3" t="inlineStr"/>
       <c r="L163" s="3" t="inlineStr"/>
@@ -7118,33 +7114,29 @@
     <row r="164">
       <c r="A164" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006057</t>
+          <t>BCIO:006056</t>
         </is>
       </c>
       <c r="B164" s="3" t="inlineStr">
         <is>
-          <t>learned stimulus-reponse co-occurrence</t>
+          <t>knowledge regarding treatment</t>
         </is>
       </c>
       <c r="C164" s="3" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>knowledge</t>
         </is>
       </c>
       <c r="D164" s="3" t="inlineStr">
         <is>
-          <t>A mental disposition to think or behave in a particular way in response to an internal or external event in the person's environment, which is acquired through associative learning.</t>
+          <t>Knowledge regarding a therapy or medication for a health problem.</t>
         </is>
       </c>
       <c r="E164" s="3" t="inlineStr"/>
       <c r="F164" s="3" t="inlineStr"/>
       <c r="G164" s="3" t="inlineStr"/>
       <c r="H164" s="3" t="inlineStr"/>
-      <c r="I164" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The responses to an event can include thinking and impulses to respond. </t>
-        </is>
-      </c>
+      <c r="I164" s="3" t="inlineStr"/>
       <c r="J164" s="3" t="inlineStr"/>
       <c r="K164" s="3" t="inlineStr"/>
       <c r="L164" s="3" t="inlineStr"/>
@@ -7160,12 +7152,12 @@
     <row r="165">
       <c r="A165" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006156</t>
+          <t>BCIO:006155</t>
         </is>
       </c>
       <c r="B165" s="3" t="inlineStr">
         <is>
-          <t>learned stimulus-thought co-occurrence</t>
+          <t>learned stimulus-behaviour co-occurrence</t>
         </is>
       </c>
       <c r="C165" s="3" t="inlineStr">
@@ -7175,18 +7167,26 @@
       </c>
       <c r="D165" s="3" t="inlineStr">
         <is>
-          <t>A mental disposition to think in a particular way in response to an internal or external event in the person's environment, which is acquired through associative learning.</t>
+          <t>A mental disposition to behave in a particular way in response to an internal or external event in the person's environment, which is acquired through habit learning.</t>
         </is>
       </c>
       <c r="E165" s="3" t="inlineStr"/>
-      <c r="F165" s="3" t="inlineStr"/>
+      <c r="F165" s="3" t="inlineStr">
+        <is>
+          <t>A tendency for something in the environment to prompt a behaviour as a result of learning.</t>
+        </is>
+      </c>
       <c r="G165" s="3" t="inlineStr">
         <is>
-          <t>Mental habit</t>
+          <t>Habit</t>
         </is>
       </c>
       <c r="H165" s="3" t="inlineStr"/>
-      <c r="I165" s="3" t="inlineStr"/>
+      <c r="I165" s="3" t="inlineStr">
+        <is>
+          <t>Learned stimulus-behaviour co-occurrence can vary in strength.</t>
+        </is>
+      </c>
       <c r="J165" s="3" t="inlineStr"/>
       <c r="K165" s="3" t="inlineStr"/>
       <c r="L165" s="3" t="inlineStr"/>
@@ -7200,76 +7200,76 @@
       <c r="P165" s="3" t="inlineStr"/>
     </row>
     <row r="166">
-      <c r="A166" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050239</t>
-        </is>
-      </c>
-      <c r="B166" s="2" t="inlineStr">
-        <is>
-          <t>learning</t>
-        </is>
-      </c>
-      <c r="C166" s="2" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D166" s="2" t="inlineStr">
-        <is>
-          <t>A mental process in which a lasting mental or behavioural change occurs as the result of experience.</t>
-        </is>
-      </c>
-      <c r="E166" s="2" t="inlineStr"/>
-      <c r="F166" s="2" t="inlineStr"/>
-      <c r="G166" s="2" t="inlineStr"/>
-      <c r="H166" s="2" t="inlineStr"/>
-      <c r="I166" s="2" t="inlineStr">
-        <is>
-          <t>The class 'learning' from the Gene Ontology was not reused but adapted for the Mechanism of Action (MoA) Ontology, as the Gene Ontology only focuses on learning adaptive behaviours in order to be relevant to all organisms.</t>
-        </is>
-      </c>
-      <c r="J166" s="2" t="inlineStr"/>
-      <c r="K166" s="2" t="inlineStr"/>
-      <c r="L166" s="2" t="inlineStr"/>
-      <c r="M166" s="2" t="inlineStr"/>
-      <c r="N166" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="O166" s="2" t="inlineStr"/>
-      <c r="P166" s="2" t="inlineStr"/>
+      <c r="A166" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006057</t>
+        </is>
+      </c>
+      <c r="B166" s="3" t="inlineStr">
+        <is>
+          <t>learned stimulus-reponse co-occurrence</t>
+        </is>
+      </c>
+      <c r="C166" s="3" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="D166" s="3" t="inlineStr">
+        <is>
+          <t>A mental disposition to think or behave in a particular way in response to an internal or external event in the person's environment, which is acquired through associative learning.</t>
+        </is>
+      </c>
+      <c r="E166" s="3" t="inlineStr"/>
+      <c r="F166" s="3" t="inlineStr"/>
+      <c r="G166" s="3" t="inlineStr"/>
+      <c r="H166" s="3" t="inlineStr"/>
+      <c r="I166" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The responses to an event can include thinking and impulses to respond. </t>
+        </is>
+      </c>
+      <c r="J166" s="3" t="inlineStr"/>
+      <c r="K166" s="3" t="inlineStr"/>
+      <c r="L166" s="3" t="inlineStr"/>
+      <c r="M166" s="3" t="inlineStr"/>
+      <c r="N166" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O166" s="3" t="inlineStr"/>
+      <c r="P166" s="3" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="3" t="inlineStr">
         <is>
-          <t>BCIO:050237</t>
+          <t>BCIO:006156</t>
         </is>
       </c>
       <c r="B167" s="3" t="inlineStr">
         <is>
-          <t>linguistic communication behaviour</t>
+          <t>learned stimulus-thought co-occurrence</t>
         </is>
       </c>
       <c r="C167" s="3" t="inlineStr">
         <is>
-          <t>communication behaviour</t>
+          <t>learned stimulus-reponse co-occurrence</t>
         </is>
       </c>
       <c r="D167" s="3" t="inlineStr">
         <is>
-          <t>A communication behaviour in which the information that is communicated is encoded in language.</t>
+          <t>A mental disposition to think in a particular way in response to an internal or external event in the person's environment, which is acquired through associative learning.</t>
         </is>
       </c>
       <c r="E167" s="3" t="inlineStr"/>
       <c r="F167" s="3" t="inlineStr"/>
-      <c r="G167" s="3" t="inlineStr"/>
-      <c r="H167" s="3" t="inlineStr">
-        <is>
-          <t>Written language, spoken language and sign-language communication</t>
-        </is>
-      </c>
+      <c r="G167" s="3" t="inlineStr">
+        <is>
+          <t>Mental habit</t>
+        </is>
+      </c>
+      <c r="H167" s="3" t="inlineStr"/>
       <c r="I167" s="3" t="inlineStr"/>
       <c r="J167" s="3" t="inlineStr"/>
       <c r="K167" s="3" t="inlineStr"/>
@@ -7284,184 +7284,192 @@
       <c r="P167" s="3" t="inlineStr"/>
     </row>
     <row r="168">
-      <c r="A168" s="3" t="inlineStr">
+      <c r="A168" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050239</t>
+        </is>
+      </c>
+      <c r="B168" s="2" t="inlineStr">
+        <is>
+          <t>learning</t>
+        </is>
+      </c>
+      <c r="C168" s="2" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D168" s="2" t="inlineStr">
+        <is>
+          <t>A mental process in which a lasting mental or behavioural change occurs as the result of experience.</t>
+        </is>
+      </c>
+      <c r="E168" s="2" t="inlineStr"/>
+      <c r="F168" s="2" t="inlineStr"/>
+      <c r="G168" s="2" t="inlineStr"/>
+      <c r="H168" s="2" t="inlineStr"/>
+      <c r="I168" s="2" t="inlineStr">
+        <is>
+          <t>The class 'learning' from the Gene Ontology was not reused but adapted for the Mechanism of Action (MoA) Ontology, as the Gene Ontology only focuses on learning adaptive behaviours in order to be relevant to all organisms.</t>
+        </is>
+      </c>
+      <c r="J168" s="2" t="inlineStr"/>
+      <c r="K168" s="2" t="inlineStr"/>
+      <c r="L168" s="2" t="inlineStr"/>
+      <c r="M168" s="2" t="inlineStr"/>
+      <c r="N168" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="O168" s="2" t="inlineStr"/>
+      <c r="P168" s="2" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:050237</t>
+        </is>
+      </c>
+      <c r="B169" s="3" t="inlineStr">
+        <is>
+          <t>linguistic communication behaviour</t>
+        </is>
+      </c>
+      <c r="C169" s="3" t="inlineStr">
+        <is>
+          <t>communication behaviour</t>
+        </is>
+      </c>
+      <c r="D169" s="3" t="inlineStr">
+        <is>
+          <t>A communication behaviour in which the information that is communicated is encoded in language.</t>
+        </is>
+      </c>
+      <c r="E169" s="3" t="inlineStr"/>
+      <c r="F169" s="3" t="inlineStr"/>
+      <c r="G169" s="3" t="inlineStr"/>
+      <c r="H169" s="3" t="inlineStr">
+        <is>
+          <t>Written language, spoken language and sign-language communication</t>
+        </is>
+      </c>
+      <c r="I169" s="3" t="inlineStr"/>
+      <c r="J169" s="3" t="inlineStr"/>
+      <c r="K169" s="3" t="inlineStr"/>
+      <c r="L169" s="3" t="inlineStr"/>
+      <c r="M169" s="3" t="inlineStr"/>
+      <c r="N169" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O169" s="3" t="inlineStr"/>
+      <c r="P169" s="3" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="3" t="inlineStr">
         <is>
           <t>BCIO:006085</t>
         </is>
       </c>
-      <c r="B168" s="3" t="inlineStr">
+      <c r="B170" s="3" t="inlineStr">
         <is>
           <t>location</t>
         </is>
       </c>
-      <c r="C168" s="3" t="inlineStr">
+      <c r="C170" s="3" t="inlineStr">
         <is>
           <t>quality</t>
         </is>
       </c>
-      <c r="D168" s="3" t="inlineStr">
+      <c r="D170" s="3" t="inlineStr">
         <is>
           <t>A spatial quality that inheres in a bearer by virtue of its position relative to other entities.</t>
         </is>
       </c>
-      <c r="E168" s="3" t="inlineStr"/>
-      <c r="F168" s="3" t="inlineStr">
+      <c r="E170" s="3" t="inlineStr"/>
+      <c r="F170" s="3" t="inlineStr">
         <is>
           <t>Where a person, animal or object is.</t>
         </is>
       </c>
-      <c r="G168" s="3" t="inlineStr"/>
-      <c r="H168" s="3" t="inlineStr"/>
-      <c r="I168" s="3" t="inlineStr">
+      <c r="G170" s="3" t="inlineStr"/>
+      <c r="H170" s="3" t="inlineStr"/>
+      <c r="I170" s="3" t="inlineStr">
         <is>
           <t>An intervention could be used to rearrange objects in an environment, changing the location of a person relative to these objects and thereby increasing the likelihood of a behaviour.</t>
         </is>
       </c>
-      <c r="J168" s="3" t="inlineStr"/>
-      <c r="K168" s="3" t="inlineStr"/>
-      <c r="L168" s="3" t="inlineStr"/>
-      <c r="M168" s="3" t="inlineStr"/>
-      <c r="N168" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O168" s="3" t="inlineStr"/>
-      <c r="P168" s="3" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
+      <c r="J170" s="3" t="inlineStr"/>
+      <c r="K170" s="3" t="inlineStr"/>
+      <c r="L170" s="3" t="inlineStr"/>
+      <c r="M170" s="3" t="inlineStr"/>
+      <c r="N170" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O170" s="3" t="inlineStr"/>
+      <c r="P170" s="3" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
         <is>
           <t>UBERON:0000465</t>
         </is>
       </c>
-      <c r="B169" t="inlineStr">
+      <c r="B171" t="inlineStr">
         <is>
           <t>material anatomical entity</t>
         </is>
       </c>
-      <c r="C169" t="inlineStr">
+      <c r="C171" t="inlineStr">
         <is>
           <t>material entity</t>
         </is>
       </c>
-      <c r="D169" t="inlineStr">
+      <c r="D171" t="inlineStr">
         <is>
           <t>Anatomical entity that has mass.</t>
         </is>
       </c>
-      <c r="E169" t="inlineStr"/>
-      <c r="F169" t="inlineStr"/>
-      <c r="G169" t="inlineStr"/>
-      <c r="H169" t="inlineStr"/>
-      <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="inlineStr"/>
-      <c r="N169" t="inlineStr">
+      <c r="E171" t="inlineStr"/>
+      <c r="F171" t="inlineStr"/>
+      <c r="G171" t="inlineStr"/>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="O169" t="inlineStr"/>
-      <c r="P169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>GO:0007613</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>memory</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>The activities involved in the mental information processing system that receives (registers), modifies, stores, and retrieves informational stimuli.</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr"/>
-      <c r="F170" t="inlineStr"/>
-      <c r="G170" t="inlineStr"/>
-      <c r="H170" t="inlineStr"/>
-      <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="inlineStr"/>
-      <c r="N170" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="O170" t="inlineStr"/>
-      <c r="P170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006093</t>
-        </is>
-      </c>
-      <c r="B171" s="3" t="inlineStr">
-        <is>
-          <t>mental behavioural cue</t>
-        </is>
-      </c>
-      <c r="C171" s="3" t="inlineStr">
-        <is>
-          <t>bodily behavioural cue</t>
-        </is>
-      </c>
-      <c r="D171" s="3" t="inlineStr">
-        <is>
-          <t>A stimulus that arises from mental processes and serves to elicit or guide behaviour.</t>
-        </is>
-      </c>
-      <c r="E171" s="3" t="inlineStr"/>
-      <c r="F171" s="3" t="inlineStr"/>
-      <c r="G171" s="3" t="inlineStr"/>
-      <c r="H171" s="3" t="inlineStr"/>
-      <c r="I171" s="3" t="inlineStr"/>
-      <c r="J171" s="3" t="inlineStr"/>
-      <c r="K171" s="3" t="inlineStr"/>
-      <c r="L171" s="3" t="inlineStr"/>
-      <c r="M171" s="3" t="inlineStr"/>
-      <c r="N171" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O171" s="3" t="inlineStr"/>
-      <c r="P171" s="3" t="inlineStr"/>
+      <c r="O171" t="inlineStr"/>
+      <c r="P171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t xml:space="preserve">MF:0000048 </t>
+          <t>GO:0007613</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>mental capability</t>
+          <t>memory</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>personal capability</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>A personal capability that  includes mental processes in its realisation.</t>
+          <t>The activities involved in the mental information processing system that receives (registers), modifies, stores, and retrieves informational stimuli.</t>
         </is>
       </c>
       <c r="E172" t="inlineStr"/>
@@ -7484,22 +7492,22 @@
     <row r="173">
       <c r="A173" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006131</t>
+          <t>BCIO:006093</t>
         </is>
       </c>
       <c r="B173" s="3" t="inlineStr">
         <is>
-          <t>mental categorising</t>
+          <t>mental behavioural cue</t>
         </is>
       </c>
       <c r="C173" s="3" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>bodily behavioural cue</t>
         </is>
       </c>
       <c r="D173" s="3" t="inlineStr">
         <is>
-          <t>A mental process in which objects, events, people, or experiences are grouped into classes, on the basis of features shared by members of the same class and features distinguishing the members of one class from those of another.</t>
+          <t>A stimulus that arises from mental processes and serves to elicit or guide behaviour.</t>
         </is>
       </c>
       <c r="E173" s="3" t="inlineStr"/>
@@ -7522,33 +7530,29 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>MF:0000033</t>
+          <t xml:space="preserve">MF:0000048 </t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>mental capability</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>bodily disposition</t>
+          <t>personal capability</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>A bodily disposition that is realized in a mental process.</t>
+          <t>A personal capability that  includes mental processes in its realisation.</t>
         </is>
       </c>
       <c r="E174" t="inlineStr"/>
       <c r="F174" t="inlineStr"/>
       <c r="G174" t="inlineStr"/>
       <c r="H174" t="inlineStr"/>
-      <c r="I174" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mental disposition' is a subclass of 'bodily disposition', as mental dispositions occur in the body. </t>
-        </is>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
@@ -7564,31 +7568,27 @@
     <row r="175">
       <c r="A175" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006162</t>
+          <t>BCIO:006131</t>
         </is>
       </c>
       <c r="B175" s="3" t="inlineStr">
         <is>
-          <t>mental distancing</t>
+          <t>mental categorising</t>
         </is>
       </c>
       <c r="C175" s="3" t="inlineStr">
         <is>
-          <t>cognitive process</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D175" s="3" t="inlineStr">
         <is>
-          <t>A cognitive process that involves intentionally detaching oneself from one's immediate thoughts.</t>
+          <t>A mental process in which objects, events, people, or experiences are grouped into classes, on the basis of features shared by members of the same class and features distinguishing the members of one class from those of another.</t>
         </is>
       </c>
       <c r="E175" s="3" t="inlineStr"/>
       <c r="F175" s="3" t="inlineStr"/>
-      <c r="G175" s="3" t="inlineStr">
-        <is>
-          <t>decentring</t>
-        </is>
-      </c>
+      <c r="G175" s="3" t="inlineStr"/>
       <c r="H175" s="3" t="inlineStr"/>
       <c r="I175" s="3" t="inlineStr"/>
       <c r="J175" s="3" t="inlineStr"/>
@@ -7604,108 +7604,112 @@
       <c r="P175" s="3" t="inlineStr"/>
     </row>
     <row r="176">
-      <c r="A176" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006080</t>
-        </is>
-      </c>
-      <c r="B176" s="3" t="inlineStr">
-        <is>
-          <t>mental image</t>
-        </is>
-      </c>
-      <c r="C176" s="3" t="inlineStr">
-        <is>
-          <t>cognitive representation</t>
-        </is>
-      </c>
-      <c r="D176" s="3" t="inlineStr">
-        <is>
-          <t>A cognitive representation of the sensory characteristics of objects or events that are not immediately present to the senses.</t>
-        </is>
-      </c>
-      <c r="E176" s="3" t="inlineStr"/>
-      <c r="F176" s="3" t="inlineStr"/>
-      <c r="G176" s="3" t="inlineStr"/>
-      <c r="H176" s="3" t="inlineStr"/>
-      <c r="I176" s="3" t="inlineStr"/>
-      <c r="J176" s="3" t="inlineStr"/>
-      <c r="K176" s="3" t="inlineStr"/>
-      <c r="L176" s="3" t="inlineStr"/>
-      <c r="M176" s="3" t="inlineStr"/>
-      <c r="N176" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O176" s="3" t="inlineStr"/>
-      <c r="P176" s="3" t="inlineStr"/>
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>MF:0000033</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>bodily disposition</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>A bodily disposition that is realized in a mental process.</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr"/>
+      <c r="F176" t="inlineStr"/>
+      <c r="G176" t="inlineStr"/>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mental disposition' is a subclass of 'bodily disposition', as mental dispositions occur in the body. </t>
+        </is>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="O176" t="inlineStr"/>
+      <c r="P176" t="inlineStr"/>
     </row>
     <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>MF:0000083</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>mental imagery</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>A mental process that evokes the representation of the sensory characteristics of objects or events when these are not immediately present to the senses.</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr"/>
-      <c r="F177" t="inlineStr"/>
-      <c r="G177" t="inlineStr"/>
-      <c r="H177" t="inlineStr"/>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="inlineStr"/>
-      <c r="N177" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="O177" t="inlineStr"/>
-      <c r="P177" t="inlineStr"/>
+      <c r="A177" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006162</t>
+        </is>
+      </c>
+      <c r="B177" s="3" t="inlineStr">
+        <is>
+          <t>mental distancing</t>
+        </is>
+      </c>
+      <c r="C177" s="3" t="inlineStr">
+        <is>
+          <t>cognitive process</t>
+        </is>
+      </c>
+      <c r="D177" s="3" t="inlineStr">
+        <is>
+          <t>A cognitive process that involves intentionally detaching oneself from one's immediate thoughts.</t>
+        </is>
+      </c>
+      <c r="E177" s="3" t="inlineStr"/>
+      <c r="F177" s="3" t="inlineStr"/>
+      <c r="G177" s="3" t="inlineStr">
+        <is>
+          <t>decentring</t>
+        </is>
+      </c>
+      <c r="H177" s="3" t="inlineStr"/>
+      <c r="I177" s="3" t="inlineStr"/>
+      <c r="J177" s="3" t="inlineStr"/>
+      <c r="K177" s="3" t="inlineStr"/>
+      <c r="L177" s="3" t="inlineStr"/>
+      <c r="M177" s="3" t="inlineStr"/>
+      <c r="N177" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O177" s="3" t="inlineStr"/>
+      <c r="P177" s="3" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006058</t>
+          <t>BCIO:006080</t>
         </is>
       </c>
       <c r="B178" s="3" t="inlineStr">
         <is>
-          <t>mental imagery disposition</t>
+          <t>mental image</t>
         </is>
       </c>
       <c r="C178" s="3" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>cognitive representation</t>
         </is>
       </c>
       <c r="D178" s="3" t="inlineStr">
         <is>
-          <t>A mental disposition to evoke the representation of the sensory characteristics of objects or events when these are not immediately present to the senses.</t>
+          <t>A cognitive representation of the sensory characteristics of objects or events that are not immediately present to the senses.</t>
         </is>
       </c>
       <c r="E178" s="3" t="inlineStr"/>
-      <c r="F178" s="3" t="inlineStr">
-        <is>
-          <t>A tendency to experience mental images.</t>
-        </is>
-      </c>
+      <c r="F178" s="3" t="inlineStr"/>
       <c r="G178" s="3" t="inlineStr"/>
       <c r="H178" s="3" t="inlineStr"/>
       <c r="I178" s="3" t="inlineStr"/>
@@ -7722,82 +7726,73 @@
       <c r="P178" s="3" t="inlineStr"/>
     </row>
     <row r="179">
-      <c r="A179" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050228</t>
-        </is>
-      </c>
-      <c r="B179" s="2" t="inlineStr">
-        <is>
-          <t>mental plan</t>
-        </is>
-      </c>
-      <c r="C179" s="2" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
-      <c r="D179" s="2" t="inlineStr">
-        <is>
-          <t>A mental disposition that is realised in mental processes mentally manipulating representations of steps in an imagined process which has some goal.</t>
-        </is>
-      </c>
-      <c r="E179" s="2" t="inlineStr"/>
-      <c r="F179" s="2" t="inlineStr"/>
-      <c r="G179" s="2" t="inlineStr"/>
-      <c r="H179" s="2" t="inlineStr"/>
-      <c r="I179" s="2" t="inlineStr">
-        <is>
-          <t>A mental plan is the outcome of a planning process.</t>
-        </is>
-      </c>
-      <c r="J179" s="2" t="inlineStr"/>
-      <c r="K179" s="2" t="inlineStr"/>
-      <c r="L179" s="2" t="inlineStr"/>
-      <c r="M179" s="2" t="inlineStr"/>
-      <c r="N179" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="O179" s="2" t="inlineStr"/>
-      <c r="P179" s="2" t="inlineStr"/>
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>MF:0000083</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>mental imagery</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>A mental process that evokes the representation of the sensory characteristics of objects or events when these are not immediately present to the senses.</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr"/>
+      <c r="F179" t="inlineStr"/>
+      <c r="G179" t="inlineStr"/>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="O179" t="inlineStr"/>
+      <c r="P179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006070</t>
+          <t>BCIO:006058</t>
         </is>
       </c>
       <c r="B180" s="3" t="inlineStr">
         <is>
-          <t>mental plan for a behaviour</t>
+          <t>mental imagery disposition</t>
         </is>
       </c>
       <c r="C180" s="3" t="inlineStr">
         <is>
-          <t>mental plan</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D180" s="3" t="inlineStr">
         <is>
-          <t>A mental plan that is realised in mental processes representing the steps to enact a behaviour and the conditions under which the behaviour will be enacted.</t>
+          <t>A mental disposition to evoke the representation of the sensory characteristics of objects or events when these are not immediately present to the senses.</t>
         </is>
       </c>
       <c r="E180" s="3" t="inlineStr"/>
-      <c r="F180" s="3" t="inlineStr"/>
-      <c r="G180" s="3" t="inlineStr">
-        <is>
-          <t>Action plan</t>
-        </is>
-      </c>
+      <c r="F180" s="3" t="inlineStr">
+        <is>
+          <t>A tendency to experience mental images.</t>
+        </is>
+      </c>
+      <c r="G180" s="3" t="inlineStr"/>
       <c r="H180" s="3" t="inlineStr"/>
-      <c r="I180" s="3" t="inlineStr">
-        <is>
-          <t>The term ‘plan’ can sometimes be used to refer to intention and sometimes for instructional plans.
-'mental plan for a behaviour’ involves  plans for which details about the behaviour (when [specific times], where, how or with whom) are specified.</t>
-        </is>
-      </c>
+      <c r="I180" s="3" t="inlineStr"/>
       <c r="J180" s="3" t="inlineStr"/>
       <c r="K180" s="3" t="inlineStr"/>
       <c r="L180" s="3" t="inlineStr"/>
@@ -7811,259 +7806,268 @@
       <c r="P180" s="3" t="inlineStr"/>
     </row>
     <row r="181">
-      <c r="A181" s="3" t="inlineStr">
+      <c r="A181" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050228</t>
+        </is>
+      </c>
+      <c r="B181" s="2" t="inlineStr">
+        <is>
+          <t>mental plan</t>
+        </is>
+      </c>
+      <c r="C181" s="2" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="D181" s="2" t="inlineStr">
+        <is>
+          <t>A mental disposition that is realised in mental processes mentally manipulating representations of steps in an imagined process which has some goal.</t>
+        </is>
+      </c>
+      <c r="E181" s="2" t="inlineStr"/>
+      <c r="F181" s="2" t="inlineStr"/>
+      <c r="G181" s="2" t="inlineStr"/>
+      <c r="H181" s="2" t="inlineStr"/>
+      <c r="I181" s="2" t="inlineStr">
+        <is>
+          <t>A mental plan is the outcome of a planning process.</t>
+        </is>
+      </c>
+      <c r="J181" s="2" t="inlineStr"/>
+      <c r="K181" s="2" t="inlineStr"/>
+      <c r="L181" s="2" t="inlineStr"/>
+      <c r="M181" s="2" t="inlineStr"/>
+      <c r="N181" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="O181" s="2" t="inlineStr"/>
+      <c r="P181" s="2" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006070</t>
+        </is>
+      </c>
+      <c r="B182" s="3" t="inlineStr">
+        <is>
+          <t>mental plan for a behaviour</t>
+        </is>
+      </c>
+      <c r="C182" s="3" t="inlineStr">
+        <is>
+          <t>mental plan</t>
+        </is>
+      </c>
+      <c r="D182" s="3" t="inlineStr">
+        <is>
+          <t>A mental plan that is realised in mental processes representing the steps to enact a behaviour and the conditions under which the behaviour will be enacted.</t>
+        </is>
+      </c>
+      <c r="E182" s="3" t="inlineStr"/>
+      <c r="F182" s="3" t="inlineStr"/>
+      <c r="G182" s="3" t="inlineStr">
+        <is>
+          <t>Action plan</t>
+        </is>
+      </c>
+      <c r="H182" s="3" t="inlineStr"/>
+      <c r="I182" s="3" t="inlineStr">
+        <is>
+          <t>The term ‘plan’ can sometimes be used to refer to intention and sometimes for instructional plans.
+'mental plan for a behaviour’ involves  plans for which details about the behaviour (when [specific times], where, how or with whom) are specified.</t>
+        </is>
+      </c>
+      <c r="J182" s="3" t="inlineStr"/>
+      <c r="K182" s="3" t="inlineStr"/>
+      <c r="L182" s="3" t="inlineStr"/>
+      <c r="M182" s="3" t="inlineStr"/>
+      <c r="N182" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O182" s="3" t="inlineStr"/>
+      <c r="P182" s="3" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="3" t="inlineStr">
         <is>
           <t>BCIO:006157</t>
         </is>
       </c>
-      <c r="B181" s="3" t="inlineStr">
+      <c r="B183" s="3" t="inlineStr">
         <is>
           <t>mental plan for coping with barriers</t>
         </is>
       </c>
-      <c r="C181" s="3" t="inlineStr">
+      <c r="C183" s="3" t="inlineStr">
         <is>
           <t>mental plan for a behaviour</t>
         </is>
       </c>
-      <c r="D181" s="3" t="inlineStr">
+      <c r="D183" s="3" t="inlineStr">
         <is>
           <t>A mental plan regarding a strategy to deal with conditions that could prevent the performance of a behaviour.</t>
         </is>
       </c>
-      <c r="E181" s="3" t="inlineStr"/>
-      <c r="F181" s="3" t="inlineStr"/>
-      <c r="G181" s="3" t="inlineStr"/>
-      <c r="H181" s="3" t="inlineStr"/>
-      <c r="I181" s="3" t="inlineStr"/>
-      <c r="J181" s="3" t="inlineStr"/>
-      <c r="K181" s="3" t="inlineStr"/>
-      <c r="L181" s="3" t="inlineStr"/>
-      <c r="M181" s="3" t="inlineStr"/>
-      <c r="N181" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O181" s="3" t="inlineStr"/>
-      <c r="P181" s="3" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
+      <c r="E183" s="3" t="inlineStr"/>
+      <c r="F183" s="3" t="inlineStr"/>
+      <c r="G183" s="3" t="inlineStr"/>
+      <c r="H183" s="3" t="inlineStr"/>
+      <c r="I183" s="3" t="inlineStr"/>
+      <c r="J183" s="3" t="inlineStr"/>
+      <c r="K183" s="3" t="inlineStr"/>
+      <c r="L183" s="3" t="inlineStr"/>
+      <c r="M183" s="3" t="inlineStr"/>
+      <c r="N183" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O183" s="3" t="inlineStr"/>
+      <c r="P183" s="3" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
         <is>
           <t>MF:0000020</t>
         </is>
       </c>
-      <c r="B182" t="inlineStr">
+      <c r="B184" t="inlineStr">
         <is>
           <t>mental process</t>
         </is>
       </c>
-      <c r="C182" t="inlineStr">
+      <c r="C184" t="inlineStr">
         <is>
           <t>bodily process</t>
         </is>
       </c>
-      <c r="D182" t="inlineStr">
+      <c r="D184" t="inlineStr">
         <is>
           <t>A bodily process that occurs in the brain, and that can of itself be conscious, or can give rise to a process that can of itself be conscious or can give rise to behaviour.</t>
         </is>
       </c>
-      <c r="E182" t="inlineStr"/>
-      <c r="F182" t="inlineStr">
+      <c r="E184" t="inlineStr"/>
+      <c r="F184" t="inlineStr">
         <is>
           <t>A process that takes place in the brain and can involve consciousness.</t>
         </is>
       </c>
-      <c r="G182" t="inlineStr"/>
-      <c r="H182" t="inlineStr"/>
-      <c r="I182" t="inlineStr">
+      <c r="G184" t="inlineStr"/>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="inlineStr">
         <is>
           <t>Mental processes can vary in the degree to which they involve consciousness.
 A 'mental process' is a subclass of 'bodily process', as mental processes occur within the body, specifically involving the brain.</t>
         </is>
       </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="inlineStr"/>
-      <c r="N182" t="inlineStr">
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="O182" t="inlineStr"/>
-      <c r="P182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
+      <c r="O184" t="inlineStr"/>
+      <c r="P184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
         <is>
           <t xml:space="preserve">MF:0000075 </t>
         </is>
       </c>
-      <c r="B183" t="inlineStr">
+      <c r="B185" t="inlineStr">
         <is>
           <t>mental quality</t>
         </is>
       </c>
-      <c r="C183" t="inlineStr">
+      <c r="C185" t="inlineStr">
         <is>
           <t>bodily quality</t>
         </is>
       </c>
-      <c r="D183" t="inlineStr">
+      <c r="D185" t="inlineStr">
         <is>
           <t>A bodily quality that inheres in those structures of the extended organism that are essential for mental functioning.</t>
         </is>
       </c>
-      <c r="E183" t="inlineStr"/>
-      <c r="F183" t="inlineStr"/>
-      <c r="G183" t="inlineStr"/>
-      <c r="H183" t="inlineStr"/>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="inlineStr"/>
-      <c r="N183" t="inlineStr">
+      <c r="E185" t="inlineStr"/>
+      <c r="F185" t="inlineStr"/>
+      <c r="G185" t="inlineStr"/>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="O183" t="inlineStr"/>
-      <c r="P183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="3" t="inlineStr">
+      <c r="O185" t="inlineStr"/>
+      <c r="P185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="3" t="inlineStr">
         <is>
           <t>BCIO:006004</t>
         </is>
       </c>
-      <c r="B184" s="3" t="inlineStr">
+      <c r="B186" s="3" t="inlineStr">
         <is>
           <t>mental skill</t>
         </is>
       </c>
-      <c r="C184" s="3" t="inlineStr">
+      <c r="C186" s="3" t="inlineStr">
         <is>
           <t>mental capability</t>
         </is>
       </c>
-      <c r="D184" s="3" t="inlineStr">
+      <c r="D186" s="3" t="inlineStr">
         <is>
           <t>A mental capability acquired through training or practice.</t>
         </is>
       </c>
-      <c r="E184" s="3" t="inlineStr"/>
-      <c r="F184" s="3" t="inlineStr"/>
-      <c r="G184" s="3" t="inlineStr"/>
-      <c r="H184" s="3" t="inlineStr"/>
-      <c r="I184" s="3" t="inlineStr">
+      <c r="E186" s="3" t="inlineStr"/>
+      <c r="F186" s="3" t="inlineStr"/>
+      <c r="G186" s="3" t="inlineStr"/>
+      <c r="H186" s="3" t="inlineStr"/>
+      <c r="I186" s="3" t="inlineStr">
         <is>
           <t>The term 'skill' specifically refers to acquired capabilities, as behavioural theories suggested that the main difference between capabilities and skills was that skills were learned.</t>
         </is>
       </c>
-      <c r="J184" s="3" t="inlineStr"/>
-      <c r="K184" s="3" t="inlineStr"/>
-      <c r="L184" s="3" t="inlineStr"/>
-      <c r="M184" s="3" t="inlineStr"/>
-      <c r="N184" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O184" s="3" t="inlineStr"/>
-      <c r="P184" s="3" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006132</t>
-        </is>
-      </c>
-      <c r="B185" s="3" t="inlineStr">
-        <is>
-          <t>mentally comparing against a standard</t>
-        </is>
-      </c>
-      <c r="C185" s="3" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D185" s="3" t="inlineStr">
-        <is>
-          <t>A mental process in which conditions are compared against a particular reference level.</t>
-        </is>
-      </c>
-      <c r="E185" s="3" t="inlineStr"/>
-      <c r="F185" s="3" t="inlineStr"/>
-      <c r="G185" s="3" t="inlineStr"/>
-      <c r="H185" s="3" t="inlineStr"/>
-      <c r="I185" s="3" t="inlineStr">
-        <is>
-          <t>The term 'condition' may refer to the characteristics of an object, event and person.</t>
-        </is>
-      </c>
-      <c r="J185" s="3" t="inlineStr"/>
-      <c r="K185" s="3" t="inlineStr"/>
-      <c r="L185" s="3" t="inlineStr"/>
-      <c r="M185" s="3" t="inlineStr"/>
-      <c r="N185" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O185" s="3" t="inlineStr"/>
-      <c r="P185" s="3" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>MFOEM:000023</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>moral disgust</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>disgust</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>Disgust elicited by some kinds of especially egregious moral violations.</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr"/>
-      <c r="F186" t="inlineStr"/>
-      <c r="G186" t="inlineStr"/>
-      <c r="H186" t="inlineStr"/>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="inlineStr"/>
-      <c r="N186" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="O186" t="inlineStr"/>
-      <c r="P186" t="inlineStr"/>
+      <c r="J186" s="3" t="inlineStr"/>
+      <c r="K186" s="3" t="inlineStr"/>
+      <c r="L186" s="3" t="inlineStr"/>
+      <c r="M186" s="3" t="inlineStr"/>
+      <c r="N186" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O186" s="3" t="inlineStr"/>
+      <c r="P186" s="3" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006133</t>
+          <t>BCIO:006132</t>
         </is>
       </c>
       <c r="B187" s="3" t="inlineStr">
         <is>
-          <t>motivation</t>
+          <t>mentally comparing against a standard</t>
         </is>
       </c>
       <c r="C187" s="3" t="inlineStr">
@@ -8073,14 +8077,18 @@
       </c>
       <c r="D187" s="3" t="inlineStr">
         <is>
-          <t>A mental process that energises and directs behaviour.</t>
+          <t>A mental process in which conditions are compared against a particular reference level.</t>
         </is>
       </c>
       <c r="E187" s="3" t="inlineStr"/>
       <c r="F187" s="3" t="inlineStr"/>
       <c r="G187" s="3" t="inlineStr"/>
       <c r="H187" s="3" t="inlineStr"/>
-      <c r="I187" s="3" t="inlineStr"/>
+      <c r="I187" s="3" t="inlineStr">
+        <is>
+          <t>The term 'condition' may refer to the characteristics of an object, event and person.</t>
+        </is>
+      </c>
       <c r="J187" s="3" t="inlineStr"/>
       <c r="K187" s="3" t="inlineStr"/>
       <c r="L187" s="3" t="inlineStr"/>
@@ -8094,62 +8102,62 @@
       <c r="P187" s="3" t="inlineStr"/>
     </row>
     <row r="188">
-      <c r="A188" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006060</t>
-        </is>
-      </c>
-      <c r="B188" s="3" t="inlineStr">
-        <is>
-          <t>motivational orientation towards types of outcomes</t>
-        </is>
-      </c>
-      <c r="C188" s="3" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
-      <c r="D188" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A mental disposition for motivation to be guided by a focus on the presence or absence of outcomes of a certain valence. </t>
-        </is>
-      </c>
-      <c r="E188" s="3" t="inlineStr"/>
-      <c r="F188" s="3" t="inlineStr"/>
-      <c r="G188" s="3" t="inlineStr"/>
-      <c r="H188" s="3" t="inlineStr"/>
-      <c r="I188" s="3" t="inlineStr"/>
-      <c r="J188" s="3" t="inlineStr"/>
-      <c r="K188" s="3" t="inlineStr"/>
-      <c r="L188" s="3" t="inlineStr"/>
-      <c r="M188" s="3" t="inlineStr"/>
-      <c r="N188" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O188" s="3" t="inlineStr"/>
-      <c r="P188" s="3" t="inlineStr"/>
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>MFOEM:000023</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>moral disgust</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>disgust</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Disgust elicited by some kinds of especially egregious moral violations.</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr"/>
+      <c r="F188" t="inlineStr"/>
+      <c r="G188" t="inlineStr"/>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="O188" t="inlineStr"/>
+      <c r="P188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006068</t>
+          <t>BCIO:006133</t>
         </is>
       </c>
       <c r="B189" s="3" t="inlineStr">
         <is>
-          <t>need for a sense of belonging and attachment</t>
+          <t>motivation</t>
         </is>
       </c>
       <c r="C189" s="3" t="inlineStr">
         <is>
-          <t>psychological need</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D189" s="3" t="inlineStr">
         <is>
-          <t>A psychological need to have caring relationships with other people.</t>
+          <t>A mental process that energises and directs behaviour.</t>
         </is>
       </c>
       <c r="E189" s="3" t="inlineStr"/>
@@ -8172,22 +8180,22 @@
     <row r="190">
       <c r="A190" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006067</t>
+          <t>BCIO:006060</t>
         </is>
       </c>
       <c r="B190" s="3" t="inlineStr">
         <is>
-          <t>need for a sense of safety</t>
+          <t>motivational orientation towards types of outcomes</t>
         </is>
       </c>
       <c r="C190" s="3" t="inlineStr">
         <is>
-          <t>psychological need</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D190" s="3" t="inlineStr">
         <is>
-          <t>A psychological need to feel safe from threats.</t>
+          <t xml:space="preserve">A mental disposition for motivation to be guided by a focus on the presence or absence of outcomes of a certain valence. </t>
         </is>
       </c>
       <c r="E190" s="3" t="inlineStr"/>
@@ -8210,12 +8218,12 @@
     <row r="191">
       <c r="A191" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006065</t>
+          <t>BCIO:006068</t>
         </is>
       </c>
       <c r="B191" s="3" t="inlineStr">
         <is>
-          <t>need for autonomy</t>
+          <t>need for a sense of belonging and attachment</t>
         </is>
       </c>
       <c r="C191" s="3" t="inlineStr">
@@ -8225,7 +8233,7 @@
       </c>
       <c r="D191" s="3" t="inlineStr">
         <is>
-          <t>A psychological need to have a sense of personal agency and initiative.</t>
+          <t>A psychological need to have caring relationships with other people.</t>
         </is>
       </c>
       <c r="E191" s="3" t="inlineStr"/>
@@ -8248,12 +8256,12 @@
     <row r="192">
       <c r="A192" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006066</t>
+          <t>BCIO:006067</t>
         </is>
       </c>
       <c r="B192" s="3" t="inlineStr">
         <is>
-          <t>need for self-esteem</t>
+          <t>need for a sense of safety</t>
         </is>
       </c>
       <c r="C192" s="3" t="inlineStr">
@@ -8263,7 +8271,7 @@
       </c>
       <c r="D192" s="3" t="inlineStr">
         <is>
-          <t>A psychological need to have a positive evaluation of oneself and one's qualities and characteristics.</t>
+          <t>A psychological need to feel safe from threats.</t>
         </is>
       </c>
       <c r="E192" s="3" t="inlineStr"/>
@@ -8286,12 +8294,12 @@
     <row r="193">
       <c r="A193" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006069</t>
+          <t>BCIO:006065</t>
         </is>
       </c>
       <c r="B193" s="3" t="inlineStr">
         <is>
-          <t>need to feel competent</t>
+          <t>need for autonomy</t>
         </is>
       </c>
       <c r="C193" s="3" t="inlineStr">
@@ -8301,16 +8309,12 @@
       </c>
       <c r="D193" s="3" t="inlineStr">
         <is>
-          <t>A psychological need to experience oneself as capable and effective.</t>
+          <t>A psychological need to have a sense of personal agency and initiative.</t>
         </is>
       </c>
       <c r="E193" s="3" t="inlineStr"/>
       <c r="F193" s="3" t="inlineStr"/>
-      <c r="G193" s="3" t="inlineStr">
-        <is>
-          <t>need for mastery</t>
-        </is>
-      </c>
+      <c r="G193" s="3" t="inlineStr"/>
       <c r="H193" s="3" t="inlineStr"/>
       <c r="I193" s="3" t="inlineStr"/>
       <c r="J193" s="3" t="inlineStr"/>
@@ -8326,237 +8330,233 @@
       <c r="P193" s="3" t="inlineStr"/>
     </row>
     <row r="194">
-      <c r="A194" t="inlineStr">
+      <c r="A194" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006066</t>
+        </is>
+      </c>
+      <c r="B194" s="3" t="inlineStr">
+        <is>
+          <t>need for self-esteem</t>
+        </is>
+      </c>
+      <c r="C194" s="3" t="inlineStr">
+        <is>
+          <t>psychological need</t>
+        </is>
+      </c>
+      <c r="D194" s="3" t="inlineStr">
+        <is>
+          <t>A psychological need to have a positive evaluation of oneself and one's qualities and characteristics.</t>
+        </is>
+      </c>
+      <c r="E194" s="3" t="inlineStr"/>
+      <c r="F194" s="3" t="inlineStr"/>
+      <c r="G194" s="3" t="inlineStr"/>
+      <c r="H194" s="3" t="inlineStr"/>
+      <c r="I194" s="3" t="inlineStr"/>
+      <c r="J194" s="3" t="inlineStr"/>
+      <c r="K194" s="3" t="inlineStr"/>
+      <c r="L194" s="3" t="inlineStr"/>
+      <c r="M194" s="3" t="inlineStr"/>
+      <c r="N194" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O194" s="3" t="inlineStr"/>
+      <c r="P194" s="3" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006069</t>
+        </is>
+      </c>
+      <c r="B195" s="3" t="inlineStr">
+        <is>
+          <t>need to feel competent</t>
+        </is>
+      </c>
+      <c r="C195" s="3" t="inlineStr">
+        <is>
+          <t>psychological need</t>
+        </is>
+      </c>
+      <c r="D195" s="3" t="inlineStr">
+        <is>
+          <t>A psychological need to experience oneself as capable and effective.</t>
+        </is>
+      </c>
+      <c r="E195" s="3" t="inlineStr"/>
+      <c r="F195" s="3" t="inlineStr"/>
+      <c r="G195" s="3" t="inlineStr">
+        <is>
+          <t>need for mastery</t>
+        </is>
+      </c>
+      <c r="H195" s="3" t="inlineStr"/>
+      <c r="I195" s="3" t="inlineStr"/>
+      <c r="J195" s="3" t="inlineStr"/>
+      <c r="K195" s="3" t="inlineStr"/>
+      <c r="L195" s="3" t="inlineStr"/>
+      <c r="M195" s="3" t="inlineStr"/>
+      <c r="N195" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O195" s="3" t="inlineStr"/>
+      <c r="P195" s="3" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
         <is>
           <t>MFOEM:000210</t>
         </is>
       </c>
-      <c r="B194" t="inlineStr">
+      <c r="B196" t="inlineStr">
         <is>
           <t>negative surprise</t>
         </is>
       </c>
-      <c r="C194" t="inlineStr">
+      <c r="C196" t="inlineStr">
         <is>
           <t>surprise</t>
         </is>
       </c>
-      <c r="D194" t="inlineStr">
+      <c r="D196" t="inlineStr">
         <is>
           <t>Surprise with a negative valence.</t>
         </is>
       </c>
-      <c r="E194" t="inlineStr"/>
-      <c r="F194" t="inlineStr"/>
-      <c r="G194" t="inlineStr"/>
-      <c r="H194" t="inlineStr"/>
-      <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="inlineStr"/>
-      <c r="N194" t="inlineStr">
+      <c r="E196" t="inlineStr"/>
+      <c r="F196" t="inlineStr"/>
+      <c r="G196" t="inlineStr"/>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="O194" t="inlineStr"/>
-      <c r="P194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
+      <c r="O196" t="inlineStr"/>
+      <c r="P196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
         <is>
           <t>GO:0046958</t>
         </is>
       </c>
-      <c r="B195" t="inlineStr">
+      <c r="B197" t="inlineStr">
         <is>
           <t>non-associative learning</t>
         </is>
       </c>
-      <c r="C195" t="inlineStr">
+      <c r="C197" t="inlineStr">
         <is>
           <t>learning</t>
         </is>
       </c>
-      <c r="D195" t="inlineStr">
+      <c r="D197" t="inlineStr">
         <is>
           <t>A simple form of learning whereby the repeated presence of a stimulus leads to a change in the probability or strength of the response to that stimulus. There is no association of one type of stimulus with another, rather it is a generalized response to the environment.</t>
         </is>
       </c>
-      <c r="E195" t="inlineStr"/>
-      <c r="F195" t="inlineStr"/>
-      <c r="G195" t="inlineStr"/>
-      <c r="H195" t="inlineStr"/>
-      <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="inlineStr"/>
-      <c r="N195" t="inlineStr">
+      <c r="E197" t="inlineStr"/>
+      <c r="F197" t="inlineStr"/>
+      <c r="G197" t="inlineStr"/>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="O195" t="inlineStr"/>
-      <c r="P195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="2" t="inlineStr">
+      <c r="O197" t="inlineStr"/>
+      <c r="P197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="inlineStr">
         <is>
           <t>BCIO:050235</t>
         </is>
       </c>
-      <c r="B196" s="2" t="inlineStr">
+      <c r="B198" s="2" t="inlineStr">
         <is>
           <t>non-judgmental acknowledgement</t>
         </is>
       </c>
-      <c r="C196" s="2" t="inlineStr">
+      <c r="C198" s="2" t="inlineStr">
         <is>
           <t>mental process</t>
         </is>
       </c>
-      <c r="D196" s="2" t="inlineStr">
+      <c r="D198" s="2" t="inlineStr">
         <is>
           <t>A mental process that involves taking notice of one's affective, mental or bodily experience without judging it as good or bad.</t>
         </is>
       </c>
-      <c r="E196" s="2" t="inlineStr"/>
-      <c r="F196" s="2" t="inlineStr"/>
-      <c r="G196" s="2" t="inlineStr">
+      <c r="E198" s="2" t="inlineStr"/>
+      <c r="F198" s="2" t="inlineStr"/>
+      <c r="G198" s="2" t="inlineStr">
         <is>
           <t>Acceptance</t>
         </is>
       </c>
-      <c r="H196" s="2" t="inlineStr"/>
-      <c r="I196" s="2" t="inlineStr"/>
-      <c r="J196" s="2" t="inlineStr"/>
-      <c r="K196" s="2" t="inlineStr"/>
-      <c r="L196" s="2" t="inlineStr"/>
-      <c r="M196" s="2" t="inlineStr"/>
-      <c r="N196" s="2" t="inlineStr">
+      <c r="H198" s="2" t="inlineStr"/>
+      <c r="I198" s="2" t="inlineStr"/>
+      <c r="J198" s="2" t="inlineStr"/>
+      <c r="K198" s="2" t="inlineStr"/>
+      <c r="L198" s="2" t="inlineStr"/>
+      <c r="M198" s="2" t="inlineStr"/>
+      <c r="N198" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="O196" s="2" t="inlineStr"/>
-      <c r="P196" s="2" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050238</t>
-        </is>
-      </c>
-      <c r="B197" s="3" t="inlineStr">
-        <is>
-          <t>non-linguistic communication behaviour</t>
-        </is>
-      </c>
-      <c r="C197" s="3" t="inlineStr">
-        <is>
-          <t>communication behaviour</t>
-        </is>
-      </c>
-      <c r="D197" s="3" t="inlineStr">
-        <is>
-          <t>A communication behaviour in which information is transmitted without being encoded in the meaning units of any language.</t>
-        </is>
-      </c>
-      <c r="E197" s="3" t="inlineStr"/>
-      <c r="F197" s="3" t="inlineStr"/>
-      <c r="G197" s="3" t="inlineStr"/>
-      <c r="H197" s="3" t="inlineStr">
-        <is>
-          <t>Communicating through bodily gestures, through pictograms and through sound (e.g. a siren going off communicates information about the presence of danger without the use of language)</t>
-        </is>
-      </c>
-      <c r="I197" s="3" t="inlineStr"/>
-      <c r="J197" s="3" t="inlineStr"/>
-      <c r="K197" s="3" t="inlineStr"/>
-      <c r="L197" s="3" t="inlineStr"/>
-      <c r="M197" s="3" t="inlineStr"/>
-      <c r="N197" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O197" s="3" t="inlineStr"/>
-      <c r="P197" s="3" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006095</t>
-        </is>
-      </c>
-      <c r="B198" s="3" t="inlineStr">
-        <is>
-          <t>normative behaviour</t>
-        </is>
-      </c>
-      <c r="C198" s="3" t="inlineStr">
-        <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="D198" s="3" t="inlineStr">
-        <is>
-          <t>An individual human behaviour that is commonly enacted by people that are part of a social environmental system.</t>
-        </is>
-      </c>
-      <c r="E198" s="3" t="inlineStr"/>
-      <c r="F198" s="3" t="inlineStr"/>
-      <c r="G198" s="3" t="inlineStr"/>
-      <c r="H198" s="3" t="inlineStr"/>
-      <c r="I198" s="3" t="inlineStr">
-        <is>
-          <t>Normative behaviour can be an MoA or outcome depending on how 'normative behaviour' is described in an intervention. The Behaviour Change-Intervention Ontology includes the class 'outcome behaviour' (definition: Human behavior that is an intervention outcome.), which would not be an MoA. When an intervention targets a normative behaviour to achieve an outcome behaviour, the former qualifies as an MoA.</t>
-        </is>
-      </c>
-      <c r="J198" s="3" t="inlineStr"/>
-      <c r="K198" s="3" t="inlineStr"/>
-      <c r="L198" s="3" t="inlineStr"/>
-      <c r="M198" s="3" t="inlineStr"/>
-      <c r="N198" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O198" s="3" t="inlineStr"/>
-      <c r="P198" s="3" t="inlineStr"/>
+      <c r="O198" s="2" t="inlineStr"/>
+      <c r="P198" s="2" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006042</t>
+          <t>BCIO:050238</t>
         </is>
       </c>
       <c r="B199" s="3" t="inlineStr">
         <is>
-          <t>normative belief</t>
+          <t>non-linguistic communication behaviour</t>
         </is>
       </c>
       <c r="C199" s="3" t="inlineStr">
         <is>
-          <t>perceived norm</t>
+          <t>communication behaviour</t>
         </is>
       </c>
       <c r="D199" s="3" t="inlineStr">
         <is>
-          <t>A belief about whether key others think one should perform a behaviour.</t>
+          <t>A communication behaviour in which information is transmitted without being encoded in the meaning units of any language.</t>
         </is>
       </c>
       <c r="E199" s="3" t="inlineStr"/>
       <c r="F199" s="3" t="inlineStr"/>
       <c r="G199" s="3" t="inlineStr"/>
-      <c r="H199" s="3" t="inlineStr"/>
-      <c r="I199" s="3" t="inlineStr">
-        <is>
-          <t>'Key others' can include 'people in one’s social network’</t>
-        </is>
-      </c>
+      <c r="H199" s="3" t="inlineStr">
+        <is>
+          <t>Communicating through bodily gestures, through pictograms and through sound (e.g. a siren going off communicates information about the presence of danger without the use of language)</t>
+        </is>
+      </c>
+      <c r="I199" s="3" t="inlineStr"/>
       <c r="J199" s="3" t="inlineStr"/>
       <c r="K199" s="3" t="inlineStr"/>
       <c r="L199" s="3" t="inlineStr"/>
@@ -8570,62 +8570,66 @@
       <c r="P199" s="3" t="inlineStr"/>
     </row>
     <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>GO:0098597</t>
-        </is>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>observational learning</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>learning</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>Learning that occurs through observing the behaviour of others.</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr"/>
-      <c r="F200" t="inlineStr"/>
-      <c r="G200" t="inlineStr"/>
-      <c r="H200" t="inlineStr"/>
-      <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
-      <c r="M200" t="inlineStr"/>
-      <c r="N200" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="O200" t="inlineStr"/>
-      <c r="P200" t="inlineStr"/>
+      <c r="A200" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006095</t>
+        </is>
+      </c>
+      <c r="B200" s="3" t="inlineStr">
+        <is>
+          <t>normative behaviour</t>
+        </is>
+      </c>
+      <c r="C200" s="3" t="inlineStr">
+        <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="D200" s="3" t="inlineStr">
+        <is>
+          <t>An individual human behaviour that is commonly enacted by people that are part of a social environmental system.</t>
+        </is>
+      </c>
+      <c r="E200" s="3" t="inlineStr"/>
+      <c r="F200" s="3" t="inlineStr"/>
+      <c r="G200" s="3" t="inlineStr"/>
+      <c r="H200" s="3" t="inlineStr"/>
+      <c r="I200" s="3" t="inlineStr">
+        <is>
+          <t>Normative behaviour can be an MoA or outcome depending on how 'normative behaviour' is described in an intervention. The Behaviour Change-Intervention Ontology includes the class 'outcome behaviour' (definition: Human behavior that is an intervention outcome.), which would not be an MoA. When an intervention targets a normative behaviour to achieve an outcome behaviour, the former qualifies as an MoA.</t>
+        </is>
+      </c>
+      <c r="J200" s="3" t="inlineStr"/>
+      <c r="K200" s="3" t="inlineStr"/>
+      <c r="L200" s="3" t="inlineStr"/>
+      <c r="M200" s="3" t="inlineStr"/>
+      <c r="N200" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O200" s="3" t="inlineStr"/>
+      <c r="P200" s="3" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="3" t="inlineStr">
         <is>
-          <t>BCIO:015430</t>
+          <t>BCIO:006042</t>
         </is>
       </c>
       <c r="B201" s="3" t="inlineStr">
         <is>
-          <t>occupational role</t>
+          <t>normative belief</t>
         </is>
       </c>
       <c r="C201" s="3" t="inlineStr">
         <is>
-          <t>personal role</t>
+          <t>perceived norm</t>
         </is>
       </c>
       <c r="D201" s="3" t="inlineStr">
         <is>
-          <t>A role that is realised in a person by doing a specified type of work or working in a specified way.</t>
+          <t>A belief about whether key others think one should perform a behaviour.</t>
         </is>
       </c>
       <c r="E201" s="3" t="inlineStr"/>
@@ -8634,7 +8638,7 @@
       <c r="H201" s="3" t="inlineStr"/>
       <c r="I201" s="3" t="inlineStr">
         <is>
-          <t>A role can be assigned without being realised. A person realises a role by doing something.</t>
+          <t>'Key others' can include 'people in one’s social network’</t>
         </is>
       </c>
       <c r="J201" s="3" t="inlineStr"/>
@@ -8650,104 +8654,104 @@
       <c r="P201" s="3" t="inlineStr"/>
     </row>
     <row r="202">
-      <c r="A202" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006125</t>
-        </is>
-      </c>
-      <c r="B202" s="3" t="inlineStr">
-        <is>
-          <t>operant conditioning</t>
-        </is>
-      </c>
-      <c r="C202" s="3" t="inlineStr">
-        <is>
-          <t>associative learning</t>
-        </is>
-      </c>
-      <c r="D202" s="3" t="inlineStr">
-        <is>
-          <t>Associative learning process in which the likelihood of a particular behavioural response is influenced by the past consequences associated with performing that behaviour.</t>
-        </is>
-      </c>
-      <c r="E202" s="3" t="inlineStr"/>
-      <c r="F202" s="3" t="inlineStr"/>
-      <c r="G202" s="3" t="inlineStr"/>
-      <c r="H202" s="3" t="inlineStr"/>
-      <c r="I202" s="3" t="inlineStr"/>
-      <c r="J202" s="3" t="inlineStr"/>
-      <c r="K202" s="3" t="inlineStr"/>
-      <c r="L202" s="3" t="inlineStr"/>
-      <c r="M202" s="3" t="inlineStr"/>
-      <c r="N202" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O202" s="3" t="inlineStr"/>
-      <c r="P202" s="3" t="inlineStr"/>
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>GO:0098597</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>observational learning</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>learning</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Learning that occurs through observing the behaviour of others.</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr"/>
+      <c r="F202" t="inlineStr"/>
+      <c r="G202" t="inlineStr"/>
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="O202" t="inlineStr"/>
+      <c r="P202" t="inlineStr"/>
     </row>
     <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>MFOEM:000203</t>
-        </is>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>pain</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>subjective affective feeling</t>
-        </is>
-      </c>
-      <c r="D203" t="inlineStr">
-        <is>
-          <t>A subjective affective feeling in an organism S, involving two integrated levels: (a) activation of the nociceptive system and associated emotion generating brain components of S, and (b) a simultaneous aversive sensory and emotional experience on the part of S, where (b) is phenomenologically similar to the sort of aversive experience involved in pain with concordant tissue damage.</t>
-        </is>
-      </c>
-      <c r="E203" t="inlineStr"/>
-      <c r="F203" t="inlineStr">
-        <is>
-          <t>An unpleasant experience typically associated with tissue damage.</t>
-        </is>
-      </c>
-      <c r="G203" t="inlineStr"/>
-      <c r="H203" t="inlineStr"/>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="inlineStr"/>
-      <c r="N203" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="O203" t="inlineStr"/>
-      <c r="P203" t="inlineStr"/>
+      <c r="A203" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:015430</t>
+        </is>
+      </c>
+      <c r="B203" s="3" t="inlineStr">
+        <is>
+          <t>occupational role</t>
+        </is>
+      </c>
+      <c r="C203" s="3" t="inlineStr">
+        <is>
+          <t>personal role</t>
+        </is>
+      </c>
+      <c r="D203" s="3" t="inlineStr">
+        <is>
+          <t>A role that is realised in a person by doing a specified type of work or working in a specified way.</t>
+        </is>
+      </c>
+      <c r="E203" s="3" t="inlineStr"/>
+      <c r="F203" s="3" t="inlineStr"/>
+      <c r="G203" s="3" t="inlineStr"/>
+      <c r="H203" s="3" t="inlineStr"/>
+      <c r="I203" s="3" t="inlineStr">
+        <is>
+          <t>A role can be assigned without being realised. A person realises a role by doing something.</t>
+        </is>
+      </c>
+      <c r="J203" s="3" t="inlineStr"/>
+      <c r="K203" s="3" t="inlineStr"/>
+      <c r="L203" s="3" t="inlineStr"/>
+      <c r="M203" s="3" t="inlineStr"/>
+      <c r="N203" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O203" s="3" t="inlineStr"/>
+      <c r="P203" s="3" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006040</t>
+          <t>BCIO:006125</t>
         </is>
       </c>
       <c r="B204" s="3" t="inlineStr">
         <is>
-          <t>perceived descriptive norm</t>
+          <t>operant conditioning</t>
         </is>
       </c>
       <c r="C204" s="3" t="inlineStr">
         <is>
-          <t>perceived norm</t>
+          <t>associative learning</t>
         </is>
       </c>
       <c r="D204" s="3" t="inlineStr">
         <is>
-          <t>A belief about the prevalence of performance of a given behaviour by people within a group.</t>
+          <t>Associative learning process in which the likelihood of a particular behavioural response is influenced by the past consequences associated with performing that behaviour.</t>
         </is>
       </c>
       <c r="E204" s="3" t="inlineStr"/>
@@ -8768,77 +8772,73 @@
       <c r="P204" s="3" t="inlineStr"/>
     </row>
     <row r="205">
-      <c r="A205" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006041</t>
-        </is>
-      </c>
-      <c r="B205" s="3" t="inlineStr">
-        <is>
-          <t>perceived injunctive norm</t>
-        </is>
-      </c>
-      <c r="C205" s="3" t="inlineStr">
-        <is>
-          <t>perceived norm</t>
-        </is>
-      </c>
-      <c r="D205" s="3" t="inlineStr">
-        <is>
-          <t>A belief about whether a behaviour is appropriate and correct for people who belong to a particular group.</t>
-        </is>
-      </c>
-      <c r="E205" s="3" t="inlineStr"/>
-      <c r="F205" s="3" t="inlineStr"/>
-      <c r="G205" s="3" t="inlineStr"/>
-      <c r="H205" s="3" t="inlineStr"/>
-      <c r="I205" s="3" t="inlineStr"/>
-      <c r="J205" s="3" t="inlineStr"/>
-      <c r="K205" s="3" t="inlineStr"/>
-      <c r="L205" s="3" t="inlineStr"/>
-      <c r="M205" s="3" t="inlineStr"/>
-      <c r="N205" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O205" s="3" t="inlineStr"/>
-      <c r="P205" s="3" t="inlineStr"/>
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>MFOEM:000203</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>pain</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>subjective affective feeling</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>A subjective affective feeling in an organism S, involving two integrated levels: (a) activation of the nociceptive system and associated emotion generating brain components of S, and (b) a simultaneous aversive sensory and emotional experience on the part of S, where (b) is phenomenologically similar to the sort of aversive experience involved in pain with concordant tissue damage.</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr"/>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>An unpleasant experience typically associated with tissue damage.</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr"/>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="O205" t="inlineStr"/>
+      <c r="P205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006039</t>
+          <t>BCIO:006040</t>
         </is>
       </c>
       <c r="B206" s="3" t="inlineStr">
         <is>
+          <t>perceived descriptive norm</t>
+        </is>
+      </c>
+      <c r="C206" s="3" t="inlineStr">
+        <is>
           <t>perceived norm</t>
         </is>
       </c>
-      <c r="C206" s="3" t="inlineStr">
-        <is>
-          <t>belief</t>
-        </is>
-      </c>
       <c r="D206" s="3" t="inlineStr">
         <is>
-          <t>A belief about what is typical for people who belong to a particular group.</t>
+          <t>A belief about the prevalence of performance of a given behaviour by people within a group.</t>
         </is>
       </c>
       <c r="E206" s="3" t="inlineStr"/>
       <c r="F206" s="3" t="inlineStr"/>
-      <c r="G206" s="3" t="inlineStr">
-        <is>
-          <t>belief about norm</t>
-        </is>
-      </c>
+      <c r="G206" s="3" t="inlineStr"/>
       <c r="H206" s="3" t="inlineStr"/>
-      <c r="I206" s="3" t="inlineStr">
-        <is>
-          <t>A person does not need to belong to a group to have a perception of their norms. For instance, the perceived norm could be in a group one aspires to belong to, and so the person might attempt to conform to it in an attempt to be accepted as a member of that group.</t>
-        </is>
-      </c>
+      <c r="I206" s="3" t="inlineStr"/>
       <c r="J206" s="3" t="inlineStr"/>
       <c r="K206" s="3" t="inlineStr"/>
       <c r="L206" s="3" t="inlineStr"/>
@@ -8852,135 +8852,122 @@
       <c r="P206" s="3" t="inlineStr"/>
     </row>
     <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>MF:0000019</t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>perception</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D207" t="inlineStr">
-        <is>
-          <t>A mental process which is a) produced by a causal process involving a part of the environment of the organism, and b) is experienced by the organism as being so caused, and c) in which the relevant part of the environment is thereby represented to the organism.</t>
-        </is>
-      </c>
-      <c r="E207" t="inlineStr"/>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>A sensory experience involving a part of a person's environment.</t>
-        </is>
-      </c>
-      <c r="G207" t="inlineStr"/>
-      <c r="H207" t="inlineStr"/>
-      <c r="I207" t="inlineStr">
-        <is>
-          <t>Examples for 'causal processes involving a part of the environment of an organism' that can be perceived are light rays and air vibrations.
-'Perception' is about perceiving stimuli in one's environment in the MoA Ontology. However, the term 'perception' is sometimes used to refer to things defined as 'belief' in the MoA Ontology.</t>
-        </is>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="inlineStr"/>
-      <c r="N207" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="O207" t="inlineStr"/>
-      <c r="P207" t="inlineStr"/>
+      <c r="A207" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006041</t>
+        </is>
+      </c>
+      <c r="B207" s="3" t="inlineStr">
+        <is>
+          <t>perceived injunctive norm</t>
+        </is>
+      </c>
+      <c r="C207" s="3" t="inlineStr">
+        <is>
+          <t>perceived norm</t>
+        </is>
+      </c>
+      <c r="D207" s="3" t="inlineStr">
+        <is>
+          <t>A belief about whether a behaviour is appropriate and correct for people who belong to a particular group.</t>
+        </is>
+      </c>
+      <c r="E207" s="3" t="inlineStr"/>
+      <c r="F207" s="3" t="inlineStr"/>
+      <c r="G207" s="3" t="inlineStr"/>
+      <c r="H207" s="3" t="inlineStr"/>
+      <c r="I207" s="3" t="inlineStr"/>
+      <c r="J207" s="3" t="inlineStr"/>
+      <c r="K207" s="3" t="inlineStr"/>
+      <c r="L207" s="3" t="inlineStr"/>
+      <c r="M207" s="3" t="inlineStr"/>
+      <c r="N207" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O207" s="3" t="inlineStr"/>
+      <c r="P207" s="3" t="inlineStr"/>
     </row>
     <row r="208">
-      <c r="A208" s="4" t="inlineStr">
-        <is>
-          <t>BCIO:050300</t>
-        </is>
-      </c>
-      <c r="B208" s="4" t="inlineStr">
-        <is>
-          <t>personal attribute</t>
-        </is>
-      </c>
-      <c r="C208" s="4" t="inlineStr">
-        <is>
-          <t>specifically dependent continuant</t>
-        </is>
-      </c>
-      <c r="D208" s="4" t="inlineStr">
-        <is>
-          <t>A specifically dependent continuant that inheres in a person.</t>
-        </is>
-      </c>
-      <c r="E208" s="4" t="inlineStr"/>
-      <c r="F208" s="4" t="inlineStr">
-        <is>
-          <t>A characteristic of a person such as age, intelligence, socioeconomic status, height and job.</t>
-        </is>
-      </c>
-      <c r="G208" s="4" t="inlineStr"/>
-      <c r="H208" s="4" t="inlineStr"/>
-      <c r="I208" s="4" t="inlineStr">
-        <is>
-          <t>Includes everything that can be said about a person: the most general class under which all other qualities, dispositions, roles etc belong.</t>
-        </is>
-      </c>
-      <c r="J208" s="4" t="inlineStr"/>
-      <c r="K208" s="4" t="inlineStr"/>
-      <c r="L208" s="4" t="inlineStr"/>
-      <c r="M208" s="4" t="inlineStr">
-        <is>
-          <t>The population ontology individuals branch defines many personal attributes</t>
-        </is>
-      </c>
-      <c r="N208" s="4" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="O208" s="4" t="inlineStr"/>
-      <c r="P208" s="4" t="inlineStr"/>
+      <c r="A208" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006039</t>
+        </is>
+      </c>
+      <c r="B208" s="3" t="inlineStr">
+        <is>
+          <t>perceived norm</t>
+        </is>
+      </c>
+      <c r="C208" s="3" t="inlineStr">
+        <is>
+          <t>belief</t>
+        </is>
+      </c>
+      <c r="D208" s="3" t="inlineStr">
+        <is>
+          <t>A belief about what is typical for people who belong to a particular group.</t>
+        </is>
+      </c>
+      <c r="E208" s="3" t="inlineStr"/>
+      <c r="F208" s="3" t="inlineStr"/>
+      <c r="G208" s="3" t="inlineStr">
+        <is>
+          <t>belief about norm</t>
+        </is>
+      </c>
+      <c r="H208" s="3" t="inlineStr"/>
+      <c r="I208" s="3" t="inlineStr">
+        <is>
+          <t>A person does not need to belong to a group to have a perception of their norms. For instance, the perceived norm could be in a group one aspires to belong to, and so the person might attempt to conform to it in an attempt to be accepted as a member of that group.</t>
+        </is>
+      </c>
+      <c r="J208" s="3" t="inlineStr"/>
+      <c r="K208" s="3" t="inlineStr"/>
+      <c r="L208" s="3" t="inlineStr"/>
+      <c r="M208" s="3" t="inlineStr"/>
+      <c r="N208" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O208" s="3" t="inlineStr"/>
+      <c r="P208" s="3" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t xml:space="preserve">MF:0000043 </t>
+          <t>MF:0000019</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>personal capability</t>
+          <t>perception</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>bodily disposition</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>A bodily disposition whose realization ordinarily brings benefits to an organism or group of organisms, where "ordinarily" means within a typical  range or context.</t>
+          <t>A mental process which is a) produced by a causal process involving a part of the environment of the organism, and b) is experienced by the organism as being so caused, and c) in which the relevant part of the environment is thereby represented to the organism.</t>
         </is>
       </c>
       <c r="E209" t="inlineStr"/>
       <c r="F209" t="inlineStr">
         <is>
-          <t>The ability of someone to perform some useful and/or beneficial activity.</t>
+          <t>A sensory experience involving a part of a person's environment.</t>
         </is>
       </c>
       <c r="G209" t="inlineStr"/>
       <c r="H209" t="inlineStr"/>
       <c r="I209" t="inlineStr">
         <is>
-          <t>The phrase 'ordinarily brings benefits to an organism or group of organism' is used to explain that capabilities normally provide a benefit. 
-For instance, having a musical ability is ordinarily an ability that is positive for a person (e.g., they receive positive feedback about their ability). However, in certain exceptional cases (e.g., a neighbour becoming annoyed with a person playing the piano and expressing this annoyance), the ability might not bring benefits.</t>
+          <t>Examples for 'causal processes involving a part of the environment of an organism' that can be perceived are light rays and air vibrations.
+'Perception' is about perceiving stimuli in one's environment in the MoA Ontology. However, the term 'perception' is sometimes used to refer to things defined as 'belief' in the MoA Ontology.</t>
         </is>
       </c>
       <c r="J209" t="inlineStr"/>
@@ -8996,233 +8983,254 @@
       <c r="P209" t="inlineStr"/>
     </row>
     <row r="210">
-      <c r="A210" s="2" t="inlineStr">
+      <c r="A210" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:050300</t>
+        </is>
+      </c>
+      <c r="B210" s="4" t="inlineStr">
+        <is>
+          <t>personal attribute</t>
+        </is>
+      </c>
+      <c r="C210" s="4" t="inlineStr">
+        <is>
+          <t>specifically dependent continuant</t>
+        </is>
+      </c>
+      <c r="D210" s="4" t="inlineStr">
+        <is>
+          <t>A specifically dependent continuant that inheres in a person.</t>
+        </is>
+      </c>
+      <c r="E210" s="4" t="inlineStr"/>
+      <c r="F210" s="4" t="inlineStr">
+        <is>
+          <t>A characteristic of a person such as age, intelligence, socioeconomic status, height and job.</t>
+        </is>
+      </c>
+      <c r="G210" s="4" t="inlineStr"/>
+      <c r="H210" s="4" t="inlineStr"/>
+      <c r="I210" s="4" t="inlineStr">
+        <is>
+          <t>Includes everything that can be said about a person: the most general class under which all other qualities, dispositions, roles etc belong.</t>
+        </is>
+      </c>
+      <c r="J210" s="4" t="inlineStr"/>
+      <c r="K210" s="4" t="inlineStr"/>
+      <c r="L210" s="4" t="inlineStr"/>
+      <c r="M210" s="4" t="inlineStr">
+        <is>
+          <t>The population ontology individuals branch defines many personal attributes</t>
+        </is>
+      </c>
+      <c r="N210" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="O210" s="4" t="inlineStr"/>
+      <c r="P210" s="4" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MF:0000043 </t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>personal capability</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>bodily disposition</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>A bodily disposition whose realization ordinarily brings benefits to an organism or group of organisms, where "ordinarily" means within a typical  range or context.</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr"/>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>The ability of someone to perform some useful and/or beneficial activity.</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr"/>
+      <c r="H211" t="inlineStr"/>
+      <c r="I211" t="inlineStr">
+        <is>
+          <t>The phrase 'ordinarily brings benefits to an organism or group of organism' is used to explain that capabilities normally provide a benefit. 
+For instance, having a musical ability is ordinarily an ability that is positive for a person (e.g., they receive positive feedback about their ability). However, in certain exceptional cases (e.g., a neighbour becoming annoyed with a person playing the piano and expressing this annoyance), the ability might not bring benefits.</t>
+        </is>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="O211" t="inlineStr"/>
+      <c r="P211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="inlineStr">
         <is>
           <t>BCIO:050301</t>
         </is>
       </c>
-      <c r="B210" s="2" t="inlineStr">
+      <c r="B212" s="2" t="inlineStr">
         <is>
           <t>personal disposition</t>
         </is>
       </c>
-      <c r="C210" s="2" t="inlineStr">
+      <c r="C212" s="2" t="inlineStr">
         <is>
           <t>disposition</t>
         </is>
       </c>
-      <c r="D210" s="2" t="inlineStr">
+      <c r="D212" s="2" t="inlineStr">
         <is>
           <t>A disposition that inheres in a person.</t>
         </is>
       </c>
-      <c r="E210" s="2" t="inlineStr"/>
-      <c r="F210" s="2" t="inlineStr">
+      <c r="E212" s="2" t="inlineStr"/>
+      <c r="F212" s="2" t="inlineStr">
         <is>
           <t>A characteristic of a person such as intelligence and personality that causes them to think feel or act in a particular way in a particular situation.</t>
         </is>
       </c>
-      <c r="G210" s="2" t="inlineStr"/>
-      <c r="H210" s="2" t="inlineStr"/>
-      <c r="I210" s="2" t="inlineStr"/>
-      <c r="J210" s="2" t="inlineStr"/>
-      <c r="K210" s="2" t="inlineStr"/>
-      <c r="L210" s="2" t="inlineStr"/>
-      <c r="M210" s="2" t="inlineStr"/>
-      <c r="N210" s="2" t="inlineStr">
+      <c r="G212" s="2" t="inlineStr"/>
+      <c r="H212" s="2" t="inlineStr"/>
+      <c r="I212" s="2" t="inlineStr"/>
+      <c r="J212" s="2" t="inlineStr"/>
+      <c r="K212" s="2" t="inlineStr"/>
+      <c r="L212" s="2" t="inlineStr"/>
+      <c r="M212" s="2" t="inlineStr"/>
+      <c r="N212" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="O210" s="2" t="inlineStr"/>
-      <c r="P210" s="2" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="4" t="inlineStr">
+      <c r="O212" s="2" t="inlineStr"/>
+      <c r="P212" s="2" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="4" t="inlineStr">
         <is>
           <t>BCIO:050302</t>
         </is>
       </c>
-      <c r="B211" s="4" t="inlineStr">
+      <c r="B213" s="4" t="inlineStr">
         <is>
           <t>personal life attribute</t>
         </is>
       </c>
-      <c r="C211" s="4" t="inlineStr">
+      <c r="C213" s="4" t="inlineStr">
         <is>
           <t>process attribute</t>
         </is>
       </c>
-      <c r="D211" s="4" t="inlineStr">
+      <c r="D213" s="4" t="inlineStr">
         <is>
           <t>A process attribute that is an attribute of a life process.</t>
         </is>
       </c>
-      <c r="E211" s="4" t="inlineStr"/>
-      <c r="F211" s="4" t="inlineStr"/>
-      <c r="G211" s="4" t="inlineStr"/>
-      <c r="H211" s="4" t="inlineStr"/>
-      <c r="I211" s="4" t="inlineStr"/>
-      <c r="J211" s="4" t="inlineStr"/>
-      <c r="K211" s="4" t="inlineStr"/>
-      <c r="L211" s="4" t="inlineStr"/>
-      <c r="M211" s="4" t="inlineStr"/>
-      <c r="N211" s="4" t="inlineStr">
+      <c r="E213" s="4" t="inlineStr"/>
+      <c r="F213" s="4" t="inlineStr"/>
+      <c r="G213" s="4" t="inlineStr"/>
+      <c r="H213" s="4" t="inlineStr"/>
+      <c r="I213" s="4" t="inlineStr"/>
+      <c r="J213" s="4" t="inlineStr"/>
+      <c r="K213" s="4" t="inlineStr"/>
+      <c r="L213" s="4" t="inlineStr"/>
+      <c r="M213" s="4" t="inlineStr"/>
+      <c r="N213" s="4" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="O211" s="4" t="inlineStr"/>
-      <c r="P211" s="4" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="4" t="inlineStr">
+      <c r="O213" s="4" t="inlineStr"/>
+      <c r="P213" s="4" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" s="4" t="inlineStr">
         <is>
           <t>BCIO:050303</t>
         </is>
       </c>
-      <c r="B212" s="4" t="inlineStr">
+      <c r="B214" s="4" t="inlineStr">
         <is>
           <t>personal quality</t>
         </is>
       </c>
-      <c r="C212" s="4" t="inlineStr">
+      <c r="C214" s="4" t="inlineStr">
         <is>
           <t>quality</t>
         </is>
       </c>
-      <c r="D212" s="4" t="inlineStr">
+      <c r="D214" s="4" t="inlineStr">
         <is>
           <t>A quality that inheres in a person.</t>
         </is>
       </c>
-      <c r="E212" s="4" t="inlineStr"/>
-      <c r="F212" s="4" t="inlineStr"/>
-      <c r="G212" s="4" t="inlineStr"/>
-      <c r="H212" s="4" t="inlineStr"/>
-      <c r="I212" s="4" t="inlineStr"/>
-      <c r="J212" s="4" t="inlineStr"/>
-      <c r="K212" s="4" t="inlineStr"/>
-      <c r="L212" s="4" t="inlineStr"/>
-      <c r="M212" s="4" t="inlineStr"/>
-      <c r="N212" s="4" t="inlineStr">
+      <c r="E214" s="4" t="inlineStr"/>
+      <c r="F214" s="4" t="inlineStr"/>
+      <c r="G214" s="4" t="inlineStr"/>
+      <c r="H214" s="4" t="inlineStr"/>
+      <c r="I214" s="4" t="inlineStr"/>
+      <c r="J214" s="4" t="inlineStr"/>
+      <c r="K214" s="4" t="inlineStr"/>
+      <c r="L214" s="4" t="inlineStr"/>
+      <c r="M214" s="4" t="inlineStr"/>
+      <c r="N214" s="4" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="O212" s="4" t="inlineStr"/>
-      <c r="P212" s="4" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006081</t>
-        </is>
-      </c>
-      <c r="B213" s="3" t="inlineStr">
-        <is>
-          <t>personal role</t>
-        </is>
-      </c>
-      <c r="C213" s="3" t="inlineStr">
-        <is>
-          <t>role</t>
-        </is>
-      </c>
-      <c r="D213" s="3" t="inlineStr">
-        <is>
-          <t>A role that inheres in a human being by virtue of their social and institutional circumstances.</t>
-        </is>
-      </c>
-      <c r="E213" s="3" t="inlineStr"/>
-      <c r="F213" s="3" t="inlineStr">
-        <is>
-          <t>A role that someone has within an organisation or social grouping.</t>
-        </is>
-      </c>
-      <c r="G213" s="3" t="inlineStr"/>
-      <c r="H213" s="3" t="inlineStr"/>
-      <c r="I213" s="3" t="inlineStr">
-        <is>
-          <t>A role can be assigned without being realised. A person realises a role by doing something.</t>
-        </is>
-      </c>
-      <c r="J213" s="3" t="inlineStr"/>
-      <c r="K213" s="3" t="inlineStr"/>
-      <c r="L213" s="3" t="inlineStr"/>
-      <c r="M213" s="3" t="inlineStr"/>
-      <c r="N213" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O213" s="3" t="inlineStr"/>
-      <c r="P213" s="3" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006063</t>
-        </is>
-      </c>
-      <c r="B214" s="3" t="inlineStr">
-        <is>
-          <t>personal value</t>
-        </is>
-      </c>
-      <c r="C214" s="3" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
-      <c r="D214" s="3" t="inlineStr">
-        <is>
-          <t>A mental disposition to regard certain things as fundamentally important in life, which informs standards for behaviour.</t>
-        </is>
-      </c>
-      <c r="E214" s="3" t="inlineStr"/>
-      <c r="F214" s="3" t="inlineStr"/>
-      <c r="G214" s="3" t="inlineStr"/>
-      <c r="H214" s="3" t="inlineStr"/>
-      <c r="I214" s="3" t="inlineStr"/>
-      <c r="J214" s="3" t="inlineStr"/>
-      <c r="K214" s="3" t="inlineStr"/>
-      <c r="L214" s="3" t="inlineStr"/>
-      <c r="M214" s="3" t="inlineStr"/>
-      <c r="N214" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O214" s="3" t="inlineStr"/>
-      <c r="P214" s="3" t="inlineStr"/>
+      <c r="O214" s="4" t="inlineStr"/>
+      <c r="P214" s="4" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006009</t>
+          <t>BCIO:006081</t>
         </is>
       </c>
       <c r="B215" s="3" t="inlineStr">
         <is>
-          <t>physical behavioural capability</t>
+          <t>personal role</t>
         </is>
       </c>
       <c r="C215" s="3" t="inlineStr">
         <is>
-          <t>behavioural capability</t>
+          <t>role</t>
         </is>
       </c>
       <c r="D215" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">A behavioural capability that involves a musculoskeletal process in its realisation. </t>
+          <t>A role that inheres in a human being by virtue of their social and institutional circumstances.</t>
         </is>
       </c>
       <c r="E215" s="3" t="inlineStr"/>
-      <c r="F215" s="3" t="inlineStr"/>
+      <c r="F215" s="3" t="inlineStr">
+        <is>
+          <t>A role that someone has within an organisation or social grouping.</t>
+        </is>
+      </c>
       <c r="G215" s="3" t="inlineStr"/>
       <c r="H215" s="3" t="inlineStr"/>
-      <c r="I215" s="3" t="inlineStr"/>
+      <c r="I215" s="3" t="inlineStr">
+        <is>
+          <t>A role can be assigned without being realised. A person realises a role by doing something.</t>
+        </is>
+      </c>
       <c r="J215" s="3" t="inlineStr"/>
       <c r="K215" s="3" t="inlineStr"/>
       <c r="L215" s="3" t="inlineStr"/>
@@ -9238,37 +9246,29 @@
     <row r="216">
       <c r="A216" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006089</t>
+          <t>BCIO:006063</t>
         </is>
       </c>
       <c r="B216" s="3" t="inlineStr">
         <is>
-          <t>physical behavioural opportunity</t>
+          <t>personal value</t>
         </is>
       </c>
       <c r="C216" s="3" t="inlineStr">
         <is>
-          <t>behavioural opportunity</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D216" s="3" t="inlineStr">
         <is>
-          <t>A behavioural opportunity that involves time and parts of the environmental system that do not involve people or organisations.</t>
+          <t>A mental disposition to regard certain things as fundamentally important in life, which informs standards for behaviour.</t>
         </is>
       </c>
       <c r="E216" s="3" t="inlineStr"/>
-      <c r="F216" s="3" t="inlineStr">
-        <is>
-          <t>Properties of a person's environment that involve the objects in their environment, the space they inhabit, the time available or the material resources available to them and influence the person's ability to enact a behaviour.</t>
-        </is>
-      </c>
+      <c r="F216" s="3" t="inlineStr"/>
       <c r="G216" s="3" t="inlineStr"/>
       <c r="H216" s="3" t="inlineStr"/>
-      <c r="I216" s="3" t="inlineStr">
-        <is>
-          <t>A 'behavioural opportunity' is a feature of the environmental system. While the class 'environmental system' is about what is found in an environment, the behavioural opportunity is a feature of the environment which interacts with the person and enables or prevents a behaviour.</t>
-        </is>
-      </c>
+      <c r="I216" s="3" t="inlineStr"/>
       <c r="J216" s="3" t="inlineStr"/>
       <c r="K216" s="3" t="inlineStr"/>
       <c r="L216" s="3" t="inlineStr"/>
@@ -9284,22 +9284,22 @@
     <row r="217">
       <c r="A217" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006010</t>
+          <t>BCIO:006009</t>
         </is>
       </c>
       <c r="B217" s="3" t="inlineStr">
         <is>
-          <t>physical skill</t>
+          <t>physical behavioural capability</t>
         </is>
       </c>
       <c r="C217" s="3" t="inlineStr">
         <is>
-          <t>physical behavioural capability</t>
+          <t>behavioural capability</t>
         </is>
       </c>
       <c r="D217" s="3" t="inlineStr">
         <is>
-          <t>A physical capability acquired through training or practice.</t>
+          <t xml:space="preserve">A behavioural capability that involves a musculoskeletal process in its realisation. </t>
         </is>
       </c>
       <c r="E217" s="3" t="inlineStr"/>
@@ -9320,66 +9320,70 @@
       <c r="P217" s="3" t="inlineStr"/>
     </row>
     <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MFOEM:000003 </t>
-        </is>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>physiological process involved in an emotion</t>
-        </is>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>bodily process</t>
-        </is>
-      </c>
-      <c r="D218" t="inlineStr">
-        <is>
-          <t>A bodily process that encompasses all the neurophysiological changes accompanying an emotion, which take place in the central nervous system (CNS), neuro-endocrine system (NES) and autonomous nervous system (ANS).</t>
-        </is>
-      </c>
-      <c r="E218" t="inlineStr"/>
-      <c r="F218" t="inlineStr">
-        <is>
-          <t>A process that occurs in a person's body when they are experiencing an emotion.</t>
-        </is>
-      </c>
-      <c r="G218" t="inlineStr"/>
-      <c r="H218" t="inlineStr"/>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="inlineStr"/>
-      <c r="N218" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="O218" t="inlineStr"/>
-      <c r="P218" t="inlineStr"/>
+      <c r="A218" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006089</t>
+        </is>
+      </c>
+      <c r="B218" s="3" t="inlineStr">
+        <is>
+          <t>physical behavioural opportunity</t>
+        </is>
+      </c>
+      <c r="C218" s="3" t="inlineStr">
+        <is>
+          <t>behavioural opportunity</t>
+        </is>
+      </c>
+      <c r="D218" s="3" t="inlineStr">
+        <is>
+          <t>A behavioural opportunity that involves time and parts of the environmental system that do not involve people or organisations.</t>
+        </is>
+      </c>
+      <c r="E218" s="3" t="inlineStr"/>
+      <c r="F218" s="3" t="inlineStr">
+        <is>
+          <t>Properties of a person's environment that involve the objects in their environment, the space they inhabit, the time available or the material resources available to them and influence the person's ability to enact a behaviour.</t>
+        </is>
+      </c>
+      <c r="G218" s="3" t="inlineStr"/>
+      <c r="H218" s="3" t="inlineStr"/>
+      <c r="I218" s="3" t="inlineStr">
+        <is>
+          <t>A 'behavioural opportunity' is a feature of the environmental system. While the class 'environmental system' is about what is found in an environment, the behavioural opportunity is a feature of the environment which interacts with the person and enables or prevents a behaviour.</t>
+        </is>
+      </c>
+      <c r="J218" s="3" t="inlineStr"/>
+      <c r="K218" s="3" t="inlineStr"/>
+      <c r="L218" s="3" t="inlineStr"/>
+      <c r="M218" s="3" t="inlineStr"/>
+      <c r="N218" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O218" s="3" t="inlineStr"/>
+      <c r="P218" s="3" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006102</t>
+          <t>BCIO:006010</t>
         </is>
       </c>
       <c r="B219" s="3" t="inlineStr">
         <is>
-          <t>plan enactment</t>
+          <t>physical skill</t>
         </is>
       </c>
       <c r="C219" s="3" t="inlineStr">
         <is>
-          <t>bodily process</t>
+          <t>physical behavioural capability</t>
         </is>
       </c>
       <c r="D219" s="3" t="inlineStr">
         <is>
-          <t>A bodily process by which a person attempts to follow the steps in a plan.</t>
+          <t>A physical capability acquired through training or practice.</t>
         </is>
       </c>
       <c r="E219" s="3" t="inlineStr"/>
@@ -9402,33 +9406,33 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>MF:0000027</t>
+          <t xml:space="preserve">MFOEM:000003 </t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>planning</t>
+          <t>physiological process involved in an emotion</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>bodily process</t>
         </is>
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>A mental process that involves mentally manipulating representations of steps in an imagined process which has some goal.</t>
+          <t>A bodily process that encompasses all the neurophysiological changes accompanying an emotion, which take place in the central nervous system (CNS), neuro-endocrine system (NES) and autonomous nervous system (ANS).</t>
         </is>
       </c>
       <c r="E220" t="inlineStr"/>
-      <c r="F220" t="inlineStr"/>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>A process that occurs in a person's body when they are experiencing an emotion.</t>
+        </is>
+      </c>
       <c r="G220" t="inlineStr"/>
       <c r="H220" t="inlineStr"/>
-      <c r="I220" t="inlineStr">
-        <is>
-          <t>The outcome of this mental process is a mental plan which has the potential to be followed to bring about the desired outcome.</t>
-        </is>
-      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr"/>
@@ -9442,115 +9446,111 @@
       <c r="P220" t="inlineStr"/>
     </row>
     <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>MFOEM:000035</t>
-        </is>
-      </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>pleasure</t>
-        </is>
-      </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>emotion process</t>
-        </is>
-      </c>
-      <c r="D221" t="inlineStr">
-        <is>
-          <t>A positive emotion which is sought out and is associated with happiness and satisfaction.</t>
-        </is>
-      </c>
-      <c r="E221" t="inlineStr"/>
-      <c r="F221" t="inlineStr"/>
-      <c r="G221" t="inlineStr">
-        <is>
-          <t>enjoyment</t>
-        </is>
-      </c>
-      <c r="H221" t="inlineStr"/>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="inlineStr"/>
-      <c r="N221" t="inlineStr">
+      <c r="A221" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006102</t>
+        </is>
+      </c>
+      <c r="B221" s="3" t="inlineStr">
+        <is>
+          <t>plan enactment</t>
+        </is>
+      </c>
+      <c r="C221" s="3" t="inlineStr">
+        <is>
+          <t>bodily process</t>
+        </is>
+      </c>
+      <c r="D221" s="3" t="inlineStr">
+        <is>
+          <t>A bodily process by which a person attempts to follow the steps in a plan.</t>
+        </is>
+      </c>
+      <c r="E221" s="3" t="inlineStr"/>
+      <c r="F221" s="3" t="inlineStr"/>
+      <c r="G221" s="3" t="inlineStr"/>
+      <c r="H221" s="3" t="inlineStr"/>
+      <c r="I221" s="3" t="inlineStr"/>
+      <c r="J221" s="3" t="inlineStr"/>
+      <c r="K221" s="3" t="inlineStr"/>
+      <c r="L221" s="3" t="inlineStr"/>
+      <c r="M221" s="3" t="inlineStr"/>
+      <c r="N221" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O221" s="3" t="inlineStr"/>
+      <c r="P221" s="3" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>MF:0000027</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>planning</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>A mental process that involves mentally manipulating representations of steps in an imagined process which has some goal.</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr"/>
+      <c r="F222" t="inlineStr"/>
+      <c r="G222" t="inlineStr"/>
+      <c r="H222" t="inlineStr"/>
+      <c r="I222" t="inlineStr">
+        <is>
+          <t>The outcome of this mental process is a mental plan which has the potential to be followed to bring about the desired outcome.</t>
+        </is>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="inlineStr"/>
+      <c r="N222" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="O221" t="inlineStr"/>
-      <c r="P221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006159</t>
-        </is>
-      </c>
-      <c r="B222" s="3" t="inlineStr">
-        <is>
-          <t>pleasure associated with behaviour</t>
-        </is>
-      </c>
-      <c r="C222" s="3" t="inlineStr">
-        <is>
-          <t>pleasure</t>
-        </is>
-      </c>
-      <c r="D222" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pleasure that is experienced as a result of engaging in a behaviour. </t>
-        </is>
-      </c>
-      <c r="E222" s="3" t="inlineStr"/>
-      <c r="F222" s="3" t="inlineStr"/>
-      <c r="G222" s="3" t="inlineStr">
-        <is>
-          <t>Enjoyment of behaviour</t>
-        </is>
-      </c>
-      <c r="H222" s="3" t="inlineStr"/>
-      <c r="I222" s="3" t="inlineStr"/>
-      <c r="J222" s="3" t="inlineStr"/>
-      <c r="K222" s="3" t="inlineStr"/>
-      <c r="L222" s="3" t="inlineStr"/>
-      <c r="M222" s="3" t="inlineStr"/>
-      <c r="N222" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O222" s="3" t="inlineStr"/>
-      <c r="P222" s="3" t="inlineStr"/>
+      <c r="O222" t="inlineStr"/>
+      <c r="P222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>MFOEM:000209</t>
+          <t>MFOEM:000035</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>positive surprise</t>
+          <t>pleasure</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>emotion process</t>
         </is>
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Surprise with a positive valence.</t>
+          <t>A positive emotion which is sought out and is associated with happiness and satisfaction.</t>
         </is>
       </c>
       <c r="E223" t="inlineStr"/>
       <c r="F223" t="inlineStr"/>
       <c r="G223" t="inlineStr">
         <is>
-          <t>wonder; astonishment</t>
+          <t>enjoyment</t>
         </is>
       </c>
       <c r="H223" t="inlineStr"/>
@@ -9570,27 +9570,31 @@
     <row r="224">
       <c r="A224" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006061</t>
+          <t>BCIO:006159</t>
         </is>
       </c>
       <c r="B224" s="3" t="inlineStr">
         <is>
-          <t>prevention focused motivational orientation</t>
+          <t>pleasure associated with behaviour</t>
         </is>
       </c>
       <c r="C224" s="3" t="inlineStr">
         <is>
-          <t>motivational orientation towards types of outcomes</t>
+          <t>pleasure</t>
         </is>
       </c>
       <c r="D224" s="3" t="inlineStr">
         <is>
-          <t>A mental disposition for motivation to be guided by a focus on the presence or absence of positive outcomes.</t>
+          <t xml:space="preserve">Pleasure that is experienced as a result of engaging in a behaviour. </t>
         </is>
       </c>
       <c r="E224" s="3" t="inlineStr"/>
       <c r="F224" s="3" t="inlineStr"/>
-      <c r="G224" s="3" t="inlineStr"/>
+      <c r="G224" s="3" t="inlineStr">
+        <is>
+          <t>Enjoyment of behaviour</t>
+        </is>
+      </c>
       <c r="H224" s="3" t="inlineStr"/>
       <c r="I224" s="3" t="inlineStr"/>
       <c r="J224" s="3" t="inlineStr"/>
@@ -9606,263 +9610,267 @@
       <c r="P224" s="3" t="inlineStr"/>
     </row>
     <row r="225">
-      <c r="A225" s="3" t="inlineStr">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>MFOEM:000209</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>positive surprise</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>surprise</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>Surprise with a positive valence.</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr"/>
+      <c r="F225" t="inlineStr"/>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>wonder; astonishment</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr"/>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" t="inlineStr"/>
+      <c r="N225" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="O225" t="inlineStr"/>
+      <c r="P225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006061</t>
+        </is>
+      </c>
+      <c r="B226" s="3" t="inlineStr">
+        <is>
+          <t>prevention focused motivational orientation</t>
+        </is>
+      </c>
+      <c r="C226" s="3" t="inlineStr">
+        <is>
+          <t>motivational orientation towards types of outcomes</t>
+        </is>
+      </c>
+      <c r="D226" s="3" t="inlineStr">
+        <is>
+          <t>A mental disposition for motivation to be guided by a focus on the presence or absence of positive outcomes.</t>
+        </is>
+      </c>
+      <c r="E226" s="3" t="inlineStr"/>
+      <c r="F226" s="3" t="inlineStr"/>
+      <c r="G226" s="3" t="inlineStr"/>
+      <c r="H226" s="3" t="inlineStr"/>
+      <c r="I226" s="3" t="inlineStr"/>
+      <c r="J226" s="3" t="inlineStr"/>
+      <c r="K226" s="3" t="inlineStr"/>
+      <c r="L226" s="3" t="inlineStr"/>
+      <c r="M226" s="3" t="inlineStr"/>
+      <c r="N226" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O226" s="3" t="inlineStr"/>
+      <c r="P226" s="3" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="3" t="inlineStr">
         <is>
           <t>BCIO:006129</t>
         </is>
       </c>
-      <c r="B225" s="3" t="inlineStr">
+      <c r="B227" s="3" t="inlineStr">
         <is>
           <t>procedural memory</t>
         </is>
       </c>
-      <c r="C225" s="3" t="inlineStr">
+      <c r="C227" s="3" t="inlineStr">
         <is>
           <t>memory</t>
         </is>
       </c>
-      <c r="D225" s="3" t="inlineStr">
+      <c r="D227" s="3" t="inlineStr">
         <is>
           <t>A memory process that deals with the receipt, storage, retrieval and modification of information regarding how to perform a complex activity without conscious awareness.</t>
         </is>
       </c>
-      <c r="E225" s="3" t="inlineStr"/>
-      <c r="F225" s="3" t="inlineStr"/>
-      <c r="G225" s="3" t="inlineStr"/>
-      <c r="H225" s="3" t="inlineStr"/>
-      <c r="I225" s="3" t="inlineStr"/>
-      <c r="J225" s="3" t="inlineStr"/>
-      <c r="K225" s="3" t="inlineStr"/>
-      <c r="L225" s="3" t="inlineStr"/>
-      <c r="M225" s="3" t="inlineStr"/>
-      <c r="N225" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O225" s="3" t="inlineStr"/>
-      <c r="P225" s="3" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="2" t="inlineStr">
+      <c r="E227" s="3" t="inlineStr"/>
+      <c r="F227" s="3" t="inlineStr"/>
+      <c r="G227" s="3" t="inlineStr"/>
+      <c r="H227" s="3" t="inlineStr"/>
+      <c r="I227" s="3" t="inlineStr"/>
+      <c r="J227" s="3" t="inlineStr"/>
+      <c r="K227" s="3" t="inlineStr"/>
+      <c r="L227" s="3" t="inlineStr"/>
+      <c r="M227" s="3" t="inlineStr"/>
+      <c r="N227" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O227" s="3" t="inlineStr"/>
+      <c r="P227" s="3" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="inlineStr">
         <is>
           <t>BCIO:050229</t>
         </is>
       </c>
-      <c r="B226" s="2" t="inlineStr">
+      <c r="B228" s="2" t="inlineStr">
         <is>
           <t>professional identity</t>
         </is>
       </c>
-      <c r="C226" s="2" t="inlineStr">
+      <c r="C228" s="2" t="inlineStr">
         <is>
           <t>self-identity</t>
         </is>
       </c>
-      <c r="D226" s="2" t="inlineStr">
+      <c r="D228" s="2" t="inlineStr">
         <is>
           <t>A self-identity that is associated with one's occupational role.</t>
         </is>
       </c>
-      <c r="E226" s="2" t="inlineStr"/>
-      <c r="F226" s="2" t="inlineStr"/>
-      <c r="G226" s="2" t="inlineStr"/>
-      <c r="H226" s="2" t="inlineStr"/>
-      <c r="I226" s="2" t="inlineStr"/>
-      <c r="J226" s="2" t="inlineStr"/>
-      <c r="K226" s="2" t="inlineStr"/>
-      <c r="L226" s="2" t="inlineStr"/>
-      <c r="M226" s="2" t="inlineStr"/>
-      <c r="N226" s="2" t="inlineStr">
+      <c r="E228" s="2" t="inlineStr"/>
+      <c r="F228" s="2" t="inlineStr"/>
+      <c r="G228" s="2" t="inlineStr"/>
+      <c r="H228" s="2" t="inlineStr"/>
+      <c r="I228" s="2" t="inlineStr"/>
+      <c r="J228" s="2" t="inlineStr"/>
+      <c r="K228" s="2" t="inlineStr"/>
+      <c r="L228" s="2" t="inlineStr"/>
+      <c r="M228" s="2" t="inlineStr"/>
+      <c r="N228" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="O226" s="2" t="inlineStr"/>
-      <c r="P226" s="2" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="2" t="inlineStr">
+      <c r="O228" s="2" t="inlineStr"/>
+      <c r="P228" s="2" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="inlineStr">
         <is>
           <t>BCIO:050213</t>
         </is>
       </c>
-      <c r="B227" s="2" t="inlineStr">
+      <c r="B229" s="2" t="inlineStr">
         <is>
           <t>professional network</t>
         </is>
       </c>
-      <c r="C227" s="2" t="inlineStr">
+      <c r="C229" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve"> social environmental system</t>
         </is>
       </c>
-      <c r="D227" s="2" t="inlineStr">
+      <c r="D229" s="2" t="inlineStr">
         <is>
           <t>A social environmental system that consists of persons who have shared interests relating to their occupational roles and are in contact or communication.</t>
         </is>
       </c>
-      <c r="E227" s="2" t="inlineStr"/>
-      <c r="F227" s="2" t="inlineStr"/>
-      <c r="G227" s="2" t="inlineStr"/>
-      <c r="H227" s="2" t="inlineStr"/>
-      <c r="I227" s="2" t="inlineStr"/>
-      <c r="J227" s="2" t="inlineStr"/>
-      <c r="K227" s="2" t="inlineStr"/>
-      <c r="L227" s="2" t="inlineStr"/>
-      <c r="M227" s="2" t="inlineStr"/>
-      <c r="N227" s="2" t="inlineStr">
+      <c r="E229" s="2" t="inlineStr"/>
+      <c r="F229" s="2" t="inlineStr"/>
+      <c r="G229" s="2" t="inlineStr"/>
+      <c r="H229" s="2" t="inlineStr"/>
+      <c r="I229" s="2" t="inlineStr"/>
+      <c r="J229" s="2" t="inlineStr"/>
+      <c r="K229" s="2" t="inlineStr"/>
+      <c r="L229" s="2" t="inlineStr"/>
+      <c r="M229" s="2" t="inlineStr"/>
+      <c r="N229" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="O227" s="2" t="inlineStr"/>
-      <c r="P227" s="2" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="3" t="inlineStr">
+      <c r="O229" s="2" t="inlineStr"/>
+      <c r="P229" s="2" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" s="3" t="inlineStr">
         <is>
           <t>BCIO:006062</t>
         </is>
       </c>
-      <c r="B228" s="3" t="inlineStr">
+      <c r="B230" s="3" t="inlineStr">
         <is>
           <t>promotion focused motivational orientation</t>
         </is>
       </c>
-      <c r="C228" s="3" t="inlineStr">
+      <c r="C230" s="3" t="inlineStr">
         <is>
           <t>motivational orientation towards types of outcomes</t>
         </is>
       </c>
-      <c r="D228" s="3" t="inlineStr">
+      <c r="D230" s="3" t="inlineStr">
         <is>
           <t>A mental disposition for motivation to be guided by a focus on the presence or absence of negative outcomes.</t>
         </is>
       </c>
-      <c r="E228" s="3" t="inlineStr"/>
-      <c r="F228" s="3" t="inlineStr"/>
-      <c r="G228" s="3" t="inlineStr"/>
-      <c r="H228" s="3" t="inlineStr"/>
-      <c r="I228" s="3" t="inlineStr"/>
-      <c r="J228" s="3" t="inlineStr"/>
-      <c r="K228" s="3" t="inlineStr"/>
-      <c r="L228" s="3" t="inlineStr"/>
-      <c r="M228" s="3" t="inlineStr"/>
-      <c r="N228" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O228" s="3" t="inlineStr"/>
-      <c r="P228" s="3" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006064</t>
-        </is>
-      </c>
-      <c r="B229" s="3" t="inlineStr">
-        <is>
-          <t>psychological need</t>
-        </is>
-      </c>
-      <c r="C229" s="3" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
-      <c r="D229" s="3" t="inlineStr">
-        <is>
-          <t>A mental disposition of a person to act to obtain or maintain a particular state due to this state’s importance to the person’s wellbeing.</t>
-        </is>
-      </c>
-      <c r="E229" s="3" t="inlineStr"/>
-      <c r="F229" s="3" t="inlineStr"/>
-      <c r="G229" s="3" t="inlineStr"/>
-      <c r="H229" s="3" t="inlineStr"/>
-      <c r="I229" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Psychological needs can be satisfied or thwarted. </t>
-        </is>
-      </c>
-      <c r="J229" s="3" t="inlineStr"/>
-      <c r="K229" s="3" t="inlineStr"/>
-      <c r="L229" s="3" t="inlineStr"/>
-      <c r="M229" s="3" t="inlineStr"/>
-      <c r="N229" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O229" s="3" t="inlineStr"/>
-      <c r="P229" s="3" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>PATO:0000001</t>
-        </is>
-      </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>quality</t>
-        </is>
-      </c>
-      <c r="C230" t="inlineStr">
-        <is>
-          <t>specifically dependent continuant</t>
-        </is>
-      </c>
-      <c r="D230" t="inlineStr">
-        <is>
-          <t>A dependent entity that inheres in a bearer by virtue of how the bearer is related to other entities.</t>
-        </is>
-      </c>
-      <c r="E230" t="inlineStr"/>
-      <c r="F230" t="inlineStr"/>
-      <c r="G230" t="inlineStr"/>
-      <c r="H230" t="inlineStr"/>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="inlineStr"/>
-      <c r="N230" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="O230" t="inlineStr"/>
-      <c r="P230" t="inlineStr"/>
+      <c r="E230" s="3" t="inlineStr"/>
+      <c r="F230" s="3" t="inlineStr"/>
+      <c r="G230" s="3" t="inlineStr"/>
+      <c r="H230" s="3" t="inlineStr"/>
+      <c r="I230" s="3" t="inlineStr"/>
+      <c r="J230" s="3" t="inlineStr"/>
+      <c r="K230" s="3" t="inlineStr"/>
+      <c r="L230" s="3" t="inlineStr"/>
+      <c r="M230" s="3" t="inlineStr"/>
+      <c r="N230" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O230" s="3" t="inlineStr"/>
+      <c r="P230" s="3" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006112</t>
+          <t>BCIO:006064</t>
         </is>
       </c>
       <c r="B231" s="3" t="inlineStr">
         <is>
-          <t>reflective thinking</t>
+          <t>psychological need</t>
         </is>
       </c>
       <c r="C231" s="3" t="inlineStr">
         <is>
-          <t>thinking</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D231" s="3" t="inlineStr">
         <is>
-          <t>Thinking that involves the generation of inferences by reasoning based on one or more statements, evaluating anticipated consequences or considering the relationships between concepts.</t>
+          <t>A mental disposition of a person to act to obtain or maintain a particular state due to this state’s importance to the person’s wellbeing.</t>
         </is>
       </c>
       <c r="E231" s="3" t="inlineStr"/>
       <c r="F231" s="3" t="inlineStr"/>
       <c r="G231" s="3" t="inlineStr"/>
       <c r="H231" s="3" t="inlineStr"/>
-      <c r="I231" s="3" t="inlineStr"/>
+      <c r="I231" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Psychological needs can be satisfied or thwarted. </t>
+        </is>
+      </c>
       <c r="J231" s="3" t="inlineStr"/>
       <c r="K231" s="3" t="inlineStr"/>
       <c r="L231" s="3" t="inlineStr"/>
@@ -9876,100 +9884,100 @@
       <c r="P231" s="3" t="inlineStr"/>
     </row>
     <row r="232">
-      <c r="A232" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050232</t>
-        </is>
-      </c>
-      <c r="B232" s="2" t="inlineStr">
-        <is>
-          <t>regret</t>
-        </is>
-      </c>
-      <c r="C232" s="2" t="inlineStr">
-        <is>
-          <t>emotion process</t>
-        </is>
-      </c>
-      <c r="D232" s="2" t="inlineStr">
-        <is>
-          <t>A negative emotion that occurs when a person wishes they chose or acted differently in the past, due to the consequences of that choice or action being unfavourable.</t>
-        </is>
-      </c>
-      <c r="E232" s="2" t="inlineStr"/>
-      <c r="F232" s="2" t="inlineStr"/>
-      <c r="G232" s="2" t="inlineStr"/>
-      <c r="H232" s="2" t="inlineStr"/>
-      <c r="I232" s="2" t="inlineStr"/>
-      <c r="J232" s="2" t="inlineStr"/>
-      <c r="K232" s="2" t="inlineStr"/>
-      <c r="L232" s="2" t="inlineStr"/>
-      <c r="M232" s="2" t="inlineStr"/>
-      <c r="N232" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="O232" s="2" t="inlineStr"/>
-      <c r="P232" s="2" t="inlineStr"/>
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>PATO:0000001</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>quality</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>specifically dependent continuant</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>A dependent entity that inheres in a bearer by virtue of how the bearer is related to other entities.</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr"/>
+      <c r="F232" t="inlineStr"/>
+      <c r="G232" t="inlineStr"/>
+      <c r="H232" t="inlineStr"/>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="inlineStr"/>
+      <c r="N232" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="O232" t="inlineStr"/>
+      <c r="P232" t="inlineStr"/>
     </row>
     <row r="233">
-      <c r="A233" t="inlineStr">
-        <is>
-          <t>MF:0000030</t>
-        </is>
-      </c>
-      <c r="B233" t="inlineStr">
-        <is>
-          <t>representation</t>
-        </is>
-      </c>
-      <c r="C233" t="inlineStr">
-        <is>
-          <t>specifically dependent continuant</t>
-        </is>
-      </c>
-      <c r="D233" t="inlineStr">
-        <is>
-          <t>A dependent continuant which is about a portion of reality.</t>
-        </is>
-      </c>
-      <c r="E233" t="inlineStr"/>
-      <c r="F233" t="inlineStr"/>
-      <c r="G233" t="inlineStr"/>
-      <c r="H233" t="inlineStr"/>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="inlineStr"/>
-      <c r="N233" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="O233" t="inlineStr"/>
-      <c r="P233" t="inlineStr"/>
+      <c r="A233" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006112</t>
+        </is>
+      </c>
+      <c r="B233" s="3" t="inlineStr">
+        <is>
+          <t>reflective thinking</t>
+        </is>
+      </c>
+      <c r="C233" s="3" t="inlineStr">
+        <is>
+          <t>thinking</t>
+        </is>
+      </c>
+      <c r="D233" s="3" t="inlineStr">
+        <is>
+          <t>Thinking that involves the generation of inferences by reasoning based on one or more statements, evaluating anticipated consequences or considering the relationships between concepts.</t>
+        </is>
+      </c>
+      <c r="E233" s="3" t="inlineStr"/>
+      <c r="F233" s="3" t="inlineStr"/>
+      <c r="G233" s="3" t="inlineStr"/>
+      <c r="H233" s="3" t="inlineStr"/>
+      <c r="I233" s="3" t="inlineStr"/>
+      <c r="J233" s="3" t="inlineStr"/>
+      <c r="K233" s="3" t="inlineStr"/>
+      <c r="L233" s="3" t="inlineStr"/>
+      <c r="M233" s="3" t="inlineStr"/>
+      <c r="N233" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O233" s="3" t="inlineStr"/>
+      <c r="P233" s="3" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050266</t>
+          <t>BCIO:050232</t>
         </is>
       </c>
       <c r="B234" s="2" t="inlineStr">
         <is>
-          <t>ruminating</t>
+          <t>regret</t>
         </is>
       </c>
       <c r="C234" s="2" t="inlineStr">
         <is>
-          <t>thinking</t>
+          <t>emotion process</t>
         </is>
       </c>
       <c r="D234" s="2" t="inlineStr">
         <is>
-          <t>Thinking that is about negative experiences and feelings, and repeated.</t>
+          <t>A negative emotion that occurs when a person wishes they chose or acted differently in the past, due to the consequences of that choice or action being unfavourable.</t>
         </is>
       </c>
       <c r="E234" s="2" t="inlineStr"/>
@@ -9992,22 +10000,22 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t xml:space="preserve">MFOEM:000056 </t>
+          <t>MF:0000030</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>sadness</t>
+          <t>representation</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>emotion process</t>
+          <t>specifically dependent continuant</t>
         </is>
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>A negative emotion felt when an event is appraised as unpleasant and resulting in loss or failure.</t>
+          <t>A dependent continuant which is about a portion of reality.</t>
         </is>
       </c>
       <c r="E235" t="inlineStr"/>
@@ -10028,201 +10036,192 @@
       <c r="P235" t="inlineStr"/>
     </row>
     <row r="236">
-      <c r="A236" t="inlineStr">
+      <c r="A236" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050266</t>
+        </is>
+      </c>
+      <c r="B236" s="2" t="inlineStr">
+        <is>
+          <t>ruminating</t>
+        </is>
+      </c>
+      <c r="C236" s="2" t="inlineStr">
+        <is>
+          <t>thinking</t>
+        </is>
+      </c>
+      <c r="D236" s="2" t="inlineStr">
+        <is>
+          <t>Thinking that is about negative experiences and feelings, and repeated.</t>
+        </is>
+      </c>
+      <c r="E236" s="2" t="inlineStr"/>
+      <c r="F236" s="2" t="inlineStr"/>
+      <c r="G236" s="2" t="inlineStr"/>
+      <c r="H236" s="2" t="inlineStr"/>
+      <c r="I236" s="2" t="inlineStr"/>
+      <c r="J236" s="2" t="inlineStr"/>
+      <c r="K236" s="2" t="inlineStr"/>
+      <c r="L236" s="2" t="inlineStr"/>
+      <c r="M236" s="2" t="inlineStr"/>
+      <c r="N236" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="O236" s="2" t="inlineStr"/>
+      <c r="P236" s="2" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MFOEM:000056 </t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>sadness</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>emotion process</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>A negative emotion felt when an event is appraised as unpleasant and resulting in loss or failure.</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr"/>
+      <c r="F237" t="inlineStr"/>
+      <c r="G237" t="inlineStr"/>
+      <c r="H237" t="inlineStr"/>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
+      <c r="M237" t="inlineStr"/>
+      <c r="N237" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="O237" t="inlineStr"/>
+      <c r="P237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
         <is>
           <t>MFOEM:000169</t>
         </is>
       </c>
-      <c r="B236" t="inlineStr">
+      <c r="B238" t="inlineStr">
         <is>
           <t>satisfaction</t>
         </is>
       </c>
-      <c r="C236" t="inlineStr">
+      <c r="C238" t="inlineStr">
         <is>
           <t>emotion process</t>
         </is>
       </c>
-      <c r="D236" t="inlineStr">
+      <c r="D238" t="inlineStr">
         <is>
           <t>An emotion that is experienced when one's wishes, expectations or needs are fulfilled.</t>
         </is>
       </c>
-      <c r="E236" t="inlineStr"/>
-      <c r="F236" t="inlineStr"/>
-      <c r="G236" t="inlineStr"/>
-      <c r="H236" t="inlineStr"/>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="inlineStr"/>
-      <c r="N236" t="inlineStr">
+      <c r="E238" t="inlineStr"/>
+      <c r="F238" t="inlineStr"/>
+      <c r="G238" t="inlineStr"/>
+      <c r="H238" t="inlineStr"/>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
+      <c r="M238" t="inlineStr"/>
+      <c r="N238" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="O236" t="inlineStr"/>
-      <c r="P236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="2" t="inlineStr">
+      <c r="O238" t="inlineStr"/>
+      <c r="P238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="inlineStr">
         <is>
           <t>BCIO:050236</t>
         </is>
       </c>
-      <c r="B237" s="2" t="inlineStr">
+      <c r="B239" s="2" t="inlineStr">
         <is>
           <t>self-binding</t>
         </is>
       </c>
-      <c r="C237" s="2" t="inlineStr">
+      <c r="C239" s="2" t="inlineStr">
         <is>
           <t>mental process</t>
         </is>
       </c>
-      <c r="D237" s="2" t="inlineStr">
+      <c r="D239" s="2" t="inlineStr">
         <is>
           <t>A mental process that involves creating adverse consequences for oneself if one does not stick to an intended course of action.</t>
         </is>
       </c>
-      <c r="E237" s="2" t="inlineStr"/>
-      <c r="F237" s="2" t="inlineStr"/>
-      <c r="G237" s="2" t="inlineStr">
+      <c r="E239" s="2" t="inlineStr"/>
+      <c r="F239" s="2" t="inlineStr"/>
+      <c r="G239" s="2" t="inlineStr">
         <is>
           <t>Pre-commitment</t>
         </is>
       </c>
-      <c r="H237" s="2" t="inlineStr"/>
-      <c r="I237" s="2" t="inlineStr"/>
-      <c r="J237" s="2" t="inlineStr"/>
-      <c r="K237" s="2" t="inlineStr"/>
-      <c r="L237" s="2" t="inlineStr"/>
-      <c r="M237" s="2" t="inlineStr"/>
-      <c r="N237" s="2" t="inlineStr">
+      <c r="H239" s="2" t="inlineStr"/>
+      <c r="I239" s="2" t="inlineStr"/>
+      <c r="J239" s="2" t="inlineStr"/>
+      <c r="K239" s="2" t="inlineStr"/>
+      <c r="L239" s="2" t="inlineStr"/>
+      <c r="M239" s="2" t="inlineStr"/>
+      <c r="N239" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="O237" s="2" t="inlineStr"/>
-      <c r="P237" s="2" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006154</t>
-        </is>
-      </c>
-      <c r="B238" s="3" t="inlineStr">
-        <is>
-          <t>self-efficacy belief for a behaviour</t>
-        </is>
-      </c>
-      <c r="C238" s="3" t="inlineStr">
-        <is>
-          <t>belief</t>
-        </is>
-      </c>
-      <c r="D238" s="3" t="inlineStr">
-        <is>
-          <t>A belief about one's capabilities to organise and execute a behaviour.</t>
-        </is>
-      </c>
-      <c r="E238" s="3" t="inlineStr"/>
-      <c r="F238" s="3" t="inlineStr"/>
-      <c r="G238" s="3" t="inlineStr"/>
-      <c r="H238" s="3" t="inlineStr"/>
-      <c r="I238" s="3" t="inlineStr">
-        <is>
-          <t>The phrase 'to organise' refers to the ability to organise mental processes and sequences of actions.
-'self-efficacy belief for a behaviour' is part of 'self-efficacy belief for a behaviour and its associated outcomes'. However, the latter also includes a belief about the outcomes associated with behaviour.</t>
-        </is>
-      </c>
-      <c r="J238" s="3" t="inlineStr"/>
-      <c r="K238" s="3" t="inlineStr"/>
-      <c r="L238" s="3" t="inlineStr"/>
-      <c r="M238" s="3" t="inlineStr"/>
-      <c r="N238" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O238" s="3" t="inlineStr"/>
-      <c r="P238" s="3" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006043</t>
-        </is>
-      </c>
-      <c r="B239" s="3" t="inlineStr">
-        <is>
-          <t>self-efficacy belief for a behaviour and its associated outcomes</t>
-        </is>
-      </c>
-      <c r="C239" s="3" t="inlineStr">
-        <is>
-          <t>belief</t>
-        </is>
-      </c>
-      <c r="D239" s="3" t="inlineStr">
-        <is>
-          <t>A belief about one's capabilities to organise and execute a behaviour and achieve the outcomes associated with this behaviour.</t>
-        </is>
-      </c>
-      <c r="E239" s="3" t="inlineStr"/>
-      <c r="F239" s="3" t="inlineStr"/>
-      <c r="G239" s="3" t="inlineStr"/>
-      <c r="H239" s="3" t="inlineStr"/>
-      <c r="I239" s="3" t="inlineStr">
-        <is>
-          <t>The phrase 'to organise' refers to the ability to organise mental processes and sequences of actions.
-'self-efficacy belief for a behaviour' is part of 'self-efficacy belief for a behaviour and its associated outcomes'. However, the latter also includes a belief about the outcomes associated with behaviour.</t>
-        </is>
-      </c>
-      <c r="J239" s="3" t="inlineStr"/>
-      <c r="K239" s="3" t="inlineStr">
-        <is>
-          <t>self-efficacy belief for a behaviour</t>
-        </is>
-      </c>
-      <c r="L239" s="3" t="inlineStr"/>
-      <c r="M239" s="3" t="inlineStr"/>
-      <c r="N239" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O239" s="3" t="inlineStr"/>
-      <c r="P239" s="3" t="inlineStr"/>
+      <c r="O239" s="2" t="inlineStr"/>
+      <c r="P239" s="2" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006050</t>
+          <t>BCIO:006154</t>
         </is>
       </c>
       <c r="B240" s="3" t="inlineStr">
         <is>
-          <t>self-identity</t>
+          <t>self-efficacy belief for a behaviour</t>
         </is>
       </c>
       <c r="C240" s="3" t="inlineStr">
         <is>
-          <t>cognitive representation</t>
+          <t>belief</t>
         </is>
       </c>
       <c r="D240" s="3" t="inlineStr">
         <is>
-          <t>A cognitive representation that a person has about themselves.</t>
+          <t>A belief about one's capabilities to organise and execute a behaviour.</t>
         </is>
       </c>
       <c r="E240" s="3" t="inlineStr"/>
       <c r="F240" s="3" t="inlineStr"/>
       <c r="G240" s="3" t="inlineStr"/>
       <c r="H240" s="3" t="inlineStr"/>
-      <c r="I240" s="3" t="inlineStr"/>
+      <c r="I240" s="3" t="inlineStr">
+        <is>
+          <t>The phrase 'to organise' refers to the ability to organise mental processes and sequences of actions.
+'self-efficacy belief for a behaviour' is part of 'self-efficacy belief for a behaviour and its associated outcomes'. However, the latter also includes a belief about the outcomes associated with behaviour.</t>
+        </is>
+      </c>
       <c r="J240" s="3" t="inlineStr"/>
       <c r="K240" s="3" t="inlineStr"/>
       <c r="L240" s="3" t="inlineStr"/>
@@ -10238,22 +10237,22 @@
     <row r="241">
       <c r="A241" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006137</t>
+          <t>BCIO:006043</t>
         </is>
       </c>
       <c r="B241" s="3" t="inlineStr">
         <is>
-          <t>self-monitoring</t>
+          <t>self-efficacy belief for a behaviour and its associated outcomes</t>
         </is>
       </c>
       <c r="C241" s="3" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>belief</t>
         </is>
       </c>
       <c r="D241" s="3" t="inlineStr">
         <is>
-          <t>A mental process in which one observes one's own behaviour or mental processes.</t>
+          <t>A belief about one's capabilities to organise and execute a behaviour and achieve the outcomes associated with this behaviour.</t>
         </is>
       </c>
       <c r="E241" s="3" t="inlineStr"/>
@@ -10262,13 +10261,16 @@
       <c r="H241" s="3" t="inlineStr"/>
       <c r="I241" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">There are behaviour change techniques labelled 'Self-monitoring of behaviour' and 'Self-monitoring of outcome of behaviour'. These are about establishing a method for monitoring states. In contrast, the MoA is the mental process of monitoring.
-'Self-monitoring of behaviour' is defined as 'Instruct self recording of specified behaviour/s (with or without associated thoughts, emotions, situations) as part of a behaviour change strategy ' (Michie et al., 2013).
-'Self-monitoring of outcome of behaviour' is defined "Establish a method for the person to monitor and record their behavior(s) as part of a behavior change strategy"  (Michie et al., 2013). </t>
+          <t>The phrase 'to organise' refers to the ability to organise mental processes and sequences of actions.
+'self-efficacy belief for a behaviour' is part of 'self-efficacy belief for a behaviour and its associated outcomes'. However, the latter also includes a belief about the outcomes associated with behaviour.</t>
         </is>
       </c>
       <c r="J241" s="3" t="inlineStr"/>
-      <c r="K241" s="3" t="inlineStr"/>
+      <c r="K241" s="3" t="inlineStr">
+        <is>
+          <t>self-efficacy belief for a behaviour</t>
+        </is>
+      </c>
       <c r="L241" s="3" t="inlineStr"/>
       <c r="M241" s="3" t="inlineStr"/>
       <c r="N241" s="3" t="inlineStr">
@@ -10282,33 +10284,29 @@
     <row r="242">
       <c r="A242" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006005</t>
+          <t>BCIO:006050</t>
         </is>
       </c>
       <c r="B242" s="3" t="inlineStr">
         <is>
-          <t>self-regulation capability</t>
+          <t>self-identity</t>
         </is>
       </c>
       <c r="C242" s="3" t="inlineStr">
         <is>
-          <t>mental capability</t>
+          <t>cognitive representation</t>
         </is>
       </c>
       <c r="D242" s="3" t="inlineStr">
         <is>
-          <t>A mental capability that involves processes that modulate the frequency, rate or extent of a response to external or internal stimuli and that are instigated by the person themselves.</t>
+          <t>A cognitive representation that a person has about themselves.</t>
         </is>
       </c>
       <c r="E242" s="3" t="inlineStr"/>
       <c r="F242" s="3" t="inlineStr"/>
       <c r="G242" s="3" t="inlineStr"/>
       <c r="H242" s="3" t="inlineStr"/>
-      <c r="I242" s="3" t="inlineStr">
-        <is>
-          <t>'Modulate’ refers to ‘modifying or controlling influence on or change the strength’ and involves processes</t>
-        </is>
-      </c>
+      <c r="I242" s="3" t="inlineStr"/>
       <c r="J242" s="3" t="inlineStr"/>
       <c r="K242" s="3" t="inlineStr"/>
       <c r="L242" s="3" t="inlineStr"/>
@@ -10324,29 +10322,35 @@
     <row r="243">
       <c r="A243" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006103</t>
+          <t>BCIO:006137</t>
         </is>
       </c>
       <c r="B243" s="3" t="inlineStr">
         <is>
-          <t>self-regulation of behaviour</t>
+          <t>self-monitoring</t>
         </is>
       </c>
       <c r="C243" s="3" t="inlineStr">
         <is>
-          <t>self-regulation process</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D243" s="3" t="inlineStr">
         <is>
-          <t>A self-regulation process that modulates the frequency, rate or extent of one's  performance of a behaviour.</t>
+          <t>A mental process in which one observes one's own behaviour or mental processes.</t>
         </is>
       </c>
       <c r="E243" s="3" t="inlineStr"/>
       <c r="F243" s="3" t="inlineStr"/>
       <c r="G243" s="3" t="inlineStr"/>
       <c r="H243" s="3" t="inlineStr"/>
-      <c r="I243" s="3" t="inlineStr"/>
+      <c r="I243" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">There are behaviour change techniques labelled 'Self-monitoring of behaviour' and 'Self-monitoring of outcome of behaviour'. These are about establishing a method for monitoring states. In contrast, the MoA is the mental process of monitoring.
+'Self-monitoring of behaviour' is defined as 'Instruct self recording of specified behaviour/s (with or without associated thoughts, emotions, situations) as part of a behaviour change strategy ' (Michie et al., 2013).
+'Self-monitoring of outcome of behaviour' is defined "Establish a method for the person to monitor and record their behavior(s) as part of a behavior change strategy"  (Michie et al., 2013). </t>
+        </is>
+      </c>
       <c r="J243" s="3" t="inlineStr"/>
       <c r="K243" s="3" t="inlineStr"/>
       <c r="L243" s="3" t="inlineStr"/>
@@ -10360,256 +10364,260 @@
       <c r="P243" s="3" t="inlineStr"/>
     </row>
     <row r="244">
-      <c r="A244" s="2" t="inlineStr">
+      <c r="A244" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006005</t>
+        </is>
+      </c>
+      <c r="B244" s="3" t="inlineStr">
+        <is>
+          <t>self-regulation capability</t>
+        </is>
+      </c>
+      <c r="C244" s="3" t="inlineStr">
+        <is>
+          <t>mental capability</t>
+        </is>
+      </c>
+      <c r="D244" s="3" t="inlineStr">
+        <is>
+          <t>A mental capability that involves processes that modulate the frequency, rate or extent of a response to external or internal stimuli and that are instigated by the person themselves.</t>
+        </is>
+      </c>
+      <c r="E244" s="3" t="inlineStr"/>
+      <c r="F244" s="3" t="inlineStr"/>
+      <c r="G244" s="3" t="inlineStr"/>
+      <c r="H244" s="3" t="inlineStr"/>
+      <c r="I244" s="3" t="inlineStr">
+        <is>
+          <t>'Modulate’ refers to ‘modifying or controlling influence on or change the strength’ and involves processes</t>
+        </is>
+      </c>
+      <c r="J244" s="3" t="inlineStr"/>
+      <c r="K244" s="3" t="inlineStr"/>
+      <c r="L244" s="3" t="inlineStr"/>
+      <c r="M244" s="3" t="inlineStr"/>
+      <c r="N244" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O244" s="3" t="inlineStr"/>
+      <c r="P244" s="3" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006103</t>
+        </is>
+      </c>
+      <c r="B245" s="3" t="inlineStr">
+        <is>
+          <t>self-regulation of behaviour</t>
+        </is>
+      </c>
+      <c r="C245" s="3" t="inlineStr">
+        <is>
+          <t>self-regulation process</t>
+        </is>
+      </c>
+      <c r="D245" s="3" t="inlineStr">
+        <is>
+          <t>A self-regulation process that modulates the frequency, rate or extent of one's  performance of a behaviour.</t>
+        </is>
+      </c>
+      <c r="E245" s="3" t="inlineStr"/>
+      <c r="F245" s="3" t="inlineStr"/>
+      <c r="G245" s="3" t="inlineStr"/>
+      <c r="H245" s="3" t="inlineStr"/>
+      <c r="I245" s="3" t="inlineStr"/>
+      <c r="J245" s="3" t="inlineStr"/>
+      <c r="K245" s="3" t="inlineStr"/>
+      <c r="L245" s="3" t="inlineStr"/>
+      <c r="M245" s="3" t="inlineStr"/>
+      <c r="N245" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O245" s="3" t="inlineStr"/>
+      <c r="P245" s="3" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="2" t="inlineStr">
         <is>
           <t>BCIO:050268</t>
         </is>
       </c>
-      <c r="B244" s="2" t="inlineStr">
+      <c r="B246" s="2" t="inlineStr">
         <is>
           <t>self-regulation process</t>
         </is>
       </c>
-      <c r="C244" s="2" t="inlineStr">
+      <c r="C246" s="2" t="inlineStr">
         <is>
           <t>bodily process</t>
         </is>
       </c>
-      <c r="D244" s="2" t="inlineStr">
+      <c r="D246" s="2" t="inlineStr">
         <is>
           <t>A bodily process that modulates the frequency, rate or extent of a response to external or internal stimuli and that is instigated by the person.</t>
         </is>
       </c>
-      <c r="E244" s="2" t="inlineStr"/>
-      <c r="F244" s="2" t="inlineStr"/>
-      <c r="G244" s="2" t="inlineStr"/>
-      <c r="H244" s="2" t="inlineStr"/>
-      <c r="I244" s="2" t="inlineStr"/>
-      <c r="J244" s="2" t="inlineStr"/>
-      <c r="K244" s="2" t="inlineStr"/>
-      <c r="L244" s="2" t="inlineStr"/>
-      <c r="M244" s="2" t="inlineStr"/>
-      <c r="N244" s="2" t="inlineStr">
+      <c r="E246" s="2" t="inlineStr"/>
+      <c r="F246" s="2" t="inlineStr"/>
+      <c r="G246" s="2" t="inlineStr"/>
+      <c r="H246" s="2" t="inlineStr"/>
+      <c r="I246" s="2" t="inlineStr"/>
+      <c r="J246" s="2" t="inlineStr"/>
+      <c r="K246" s="2" t="inlineStr"/>
+      <c r="L246" s="2" t="inlineStr"/>
+      <c r="M246" s="2" t="inlineStr"/>
+      <c r="N246" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="O244" s="2" t="inlineStr"/>
-      <c r="P244" s="2" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="2" t="inlineStr">
+      <c r="O246" s="2" t="inlineStr"/>
+      <c r="P246" s="2" t="inlineStr"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="inlineStr">
         <is>
           <t>BCIO:050222</t>
         </is>
       </c>
-      <c r="B245" s="2" t="inlineStr">
+      <c r="B247" s="2" t="inlineStr">
         <is>
           <t>self-regulatory skill</t>
         </is>
       </c>
-      <c r="C245" s="2" t="inlineStr">
+      <c r="C247" s="2" t="inlineStr">
         <is>
           <t>self-regulation capability</t>
         </is>
       </c>
-      <c r="D245" s="2" t="inlineStr">
+      <c r="D247" s="2" t="inlineStr">
         <is>
           <t>A self-regulation capability that is acquired through training or practice.</t>
         </is>
       </c>
-      <c r="E245" s="2" t="inlineStr"/>
-      <c r="F245" s="2" t="inlineStr"/>
-      <c r="G245" s="2" t="inlineStr"/>
-      <c r="H245" s="2" t="inlineStr"/>
-      <c r="I245" s="2" t="inlineStr"/>
-      <c r="J245" s="2" t="inlineStr"/>
-      <c r="K245" s="2" t="inlineStr"/>
-      <c r="L245" s="2" t="inlineStr"/>
-      <c r="M245" s="2" t="inlineStr"/>
-      <c r="N245" s="2" t="inlineStr">
+      <c r="E247" s="2" t="inlineStr"/>
+      <c r="F247" s="2" t="inlineStr"/>
+      <c r="G247" s="2" t="inlineStr"/>
+      <c r="H247" s="2" t="inlineStr"/>
+      <c r="I247" s="2" t="inlineStr"/>
+      <c r="J247" s="2" t="inlineStr"/>
+      <c r="K247" s="2" t="inlineStr"/>
+      <c r="L247" s="2" t="inlineStr"/>
+      <c r="M247" s="2" t="inlineStr"/>
+      <c r="N247" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="O245" s="2" t="inlineStr"/>
-      <c r="P245" s="2" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="3" t="inlineStr">
+      <c r="O247" s="2" t="inlineStr"/>
+      <c r="P247" s="2" t="inlineStr"/>
+    </row>
+    <row r="248">
+      <c r="A248" s="3" t="inlineStr">
         <is>
           <t>BCIO:006106</t>
         </is>
       </c>
-      <c r="B246" s="3" t="inlineStr">
+      <c r="B248" s="3" t="inlineStr">
         <is>
           <t>self-reinforcing self-regulation</t>
         </is>
       </c>
-      <c r="C246" s="3" t="inlineStr">
+      <c r="C248" s="3" t="inlineStr">
         <is>
           <t>self-regulation of behaviour</t>
         </is>
       </c>
-      <c r="D246" s="3" t="inlineStr">
+      <c r="D248" s="3" t="inlineStr">
         <is>
           <t>Self-regulation of behaviour through self-administering a reward for performing an intended behaviour.</t>
         </is>
       </c>
-      <c r="E246" s="3" t="inlineStr"/>
-      <c r="F246" s="3" t="inlineStr">
+      <c r="E248" s="3" t="inlineStr"/>
+      <c r="F248" s="3" t="inlineStr">
         <is>
           <t>A bodily process that modulates the frequency, rate or extent of behaviour through self-administering a reward for performing an intended behaviour.</t>
         </is>
       </c>
-      <c r="G246" s="3" t="inlineStr"/>
-      <c r="H246" s="3" t="inlineStr"/>
-      <c r="I246" s="3" t="inlineStr"/>
-      <c r="J246" s="3" t="inlineStr"/>
-      <c r="K246" s="3" t="inlineStr"/>
-      <c r="L246" s="3" t="inlineStr"/>
-      <c r="M246" s="3" t="inlineStr"/>
-      <c r="N246" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O246" s="3" t="inlineStr"/>
-      <c r="P246" s="3" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="3" t="inlineStr">
+      <c r="G248" s="3" t="inlineStr"/>
+      <c r="H248" s="3" t="inlineStr"/>
+      <c r="I248" s="3" t="inlineStr"/>
+      <c r="J248" s="3" t="inlineStr"/>
+      <c r="K248" s="3" t="inlineStr"/>
+      <c r="L248" s="3" t="inlineStr"/>
+      <c r="M248" s="3" t="inlineStr"/>
+      <c r="N248" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O248" s="3" t="inlineStr"/>
+      <c r="P248" s="3" t="inlineStr"/>
+    </row>
+    <row r="249">
+      <c r="A249" s="3" t="inlineStr">
         <is>
           <t>BCIO:006128</t>
         </is>
       </c>
-      <c r="B247" s="3" t="inlineStr">
+      <c r="B249" s="3" t="inlineStr">
         <is>
           <t>semantic memory</t>
         </is>
       </c>
-      <c r="C247" s="3" t="inlineStr">
+      <c r="C249" s="3" t="inlineStr">
         <is>
           <t>memory</t>
         </is>
       </c>
-      <c r="D247" s="3" t="inlineStr">
+      <c r="D249" s="3" t="inlineStr">
         <is>
           <t>A memory process that deals with the receipt, storage, retrieval and modification of information associated with meanings, understandings or conceptual facts about the world.</t>
         </is>
       </c>
-      <c r="E247" s="3" t="inlineStr"/>
-      <c r="F247" s="3" t="inlineStr"/>
-      <c r="G247" s="3" t="inlineStr"/>
-      <c r="H247" s="3" t="inlineStr"/>
-      <c r="I247" s="3" t="inlineStr"/>
-      <c r="J247" s="3" t="inlineStr"/>
-      <c r="K247" s="3" t="inlineStr"/>
-      <c r="L247" s="3" t="inlineStr"/>
-      <c r="M247" s="3" t="inlineStr"/>
-      <c r="N247" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O247" s="3" t="inlineStr"/>
-      <c r="P247" s="3" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" t="inlineStr">
-        <is>
-          <t>GO:0046960</t>
-        </is>
-      </c>
-      <c r="B248" t="inlineStr">
-        <is>
-          <t>sensitization</t>
-        </is>
-      </c>
-      <c r="C248" t="inlineStr">
-        <is>
-          <t>non-associative learning</t>
-        </is>
-      </c>
-      <c r="D248" t="inlineStr">
-        <is>
-          <t>An increase in a behavioural response to a repeated stimulus.</t>
-        </is>
-      </c>
-      <c r="E248" t="inlineStr"/>
-      <c r="F248" t="inlineStr"/>
-      <c r="G248" t="inlineStr"/>
-      <c r="H248" t="inlineStr"/>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
-      <c r="M248" t="inlineStr"/>
-      <c r="N248" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="O248" t="inlineStr"/>
-      <c r="P248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" t="inlineStr">
-        <is>
-          <t>MFOEM:000040</t>
-        </is>
-      </c>
-      <c r="B249" t="inlineStr">
-        <is>
-          <t>sexual pleasure</t>
-        </is>
-      </c>
-      <c r="C249" t="inlineStr">
-        <is>
-          <t>pleasure</t>
-        </is>
-      </c>
-      <c r="D249" t="inlineStr">
-        <is>
-          <t>Pleasure that is experienced as a result of sexual activities.</t>
-        </is>
-      </c>
-      <c r="E249" t="inlineStr"/>
-      <c r="F249" t="inlineStr"/>
-      <c r="G249" t="inlineStr"/>
-      <c r="H249" t="inlineStr"/>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
-      <c r="M249" t="inlineStr"/>
-      <c r="N249" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="O249" t="inlineStr"/>
-      <c r="P249" t="inlineStr"/>
+      <c r="E249" s="3" t="inlineStr"/>
+      <c r="F249" s="3" t="inlineStr"/>
+      <c r="G249" s="3" t="inlineStr"/>
+      <c r="H249" s="3" t="inlineStr"/>
+      <c r="I249" s="3" t="inlineStr"/>
+      <c r="J249" s="3" t="inlineStr"/>
+      <c r="K249" s="3" t="inlineStr"/>
+      <c r="L249" s="3" t="inlineStr"/>
+      <c r="M249" s="3" t="inlineStr"/>
+      <c r="N249" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O249" s="3" t="inlineStr"/>
+      <c r="P249" s="3" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>MFOEM:000055</t>
+          <t>GO:0046960</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>shame</t>
+          <t>sensitization</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>emotion process</t>
+          <t>non-associative learning</t>
         </is>
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>A negative emotion that is distressing and occurs when one appraises one's behaviour or circumstance as wrong, dishonourable, immodest or indecorous.</t>
+          <t>An increase in a behavioural response to a repeated stimulus.</t>
         </is>
       </c>
       <c r="E250" t="inlineStr"/>
@@ -10630,111 +10638,111 @@
       <c r="P250" t="inlineStr"/>
     </row>
     <row r="251">
-      <c r="A251" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006044</t>
-        </is>
-      </c>
-      <c r="B251" s="3" t="inlineStr">
-        <is>
-          <t>situational self-efficacy belief for a behaviour</t>
-        </is>
-      </c>
-      <c r="C251" s="3" t="inlineStr">
-        <is>
-          <t>self-efficacy belief for a behaviour</t>
-        </is>
-      </c>
-      <c r="D251" s="3" t="inlineStr">
-        <is>
-          <t>Self-efficacy belief for a behaviour when a barrier or facilitator of the behaviour is encountered.</t>
-        </is>
-      </c>
-      <c r="E251" s="3" t="inlineStr"/>
-      <c r="F251" s="3" t="inlineStr"/>
-      <c r="G251" s="3" t="inlineStr"/>
-      <c r="H251" s="3" t="inlineStr"/>
-      <c r="I251" s="3" t="inlineStr">
-        <is>
-          <t>The 'barrier or facilitator' specified in the definition can be external or internal.</t>
-        </is>
-      </c>
-      <c r="J251" s="3" t="inlineStr"/>
-      <c r="K251" s="3" t="inlineStr"/>
-      <c r="L251" s="3" t="inlineStr"/>
-      <c r="M251" s="3" t="inlineStr"/>
-      <c r="N251" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O251" s="3" t="inlineStr"/>
-      <c r="P251" s="3" t="inlineStr"/>
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>MFOEM:000040</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>sexual pleasure</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>pleasure</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>Pleasure that is experienced as a result of sexual activities.</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr"/>
+      <c r="F251" t="inlineStr"/>
+      <c r="G251" t="inlineStr"/>
+      <c r="H251" t="inlineStr"/>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
+      <c r="M251" t="inlineStr"/>
+      <c r="N251" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="O251" t="inlineStr"/>
+      <c r="P251" t="inlineStr"/>
     </row>
     <row r="252">
-      <c r="A252" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006014</t>
-        </is>
-      </c>
-      <c r="B252" s="3" t="inlineStr">
-        <is>
-          <t>social alienation</t>
-        </is>
-      </c>
-      <c r="C252" s="3" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
-      <c r="D252" s="3" t="inlineStr">
-        <is>
-          <t>A mental disposition to perceive or experience oneself as isolated from and not meaningfully involved in social groups.</t>
-        </is>
-      </c>
-      <c r="E252" s="3" t="inlineStr"/>
-      <c r="F252" s="3" t="inlineStr"/>
-      <c r="G252" s="3" t="inlineStr"/>
-      <c r="H252" s="3" t="inlineStr"/>
-      <c r="I252" s="3" t="inlineStr"/>
-      <c r="J252" s="3" t="inlineStr"/>
-      <c r="K252" s="3" t="inlineStr"/>
-      <c r="L252" s="3" t="inlineStr"/>
-      <c r="M252" s="3" t="inlineStr"/>
-      <c r="N252" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O252" s="3" t="inlineStr"/>
-      <c r="P252" s="3" t="inlineStr"/>
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>MFOEM:000055</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>shame</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>emotion process</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>A negative emotion that is distressing and occurs when one appraises one's behaviour or circumstance as wrong, dishonourable, immodest or indecorous.</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr"/>
+      <c r="F252" t="inlineStr"/>
+      <c r="G252" t="inlineStr"/>
+      <c r="H252" t="inlineStr"/>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr"/>
+      <c r="M252" t="inlineStr"/>
+      <c r="N252" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="O252" t="inlineStr"/>
+      <c r="P252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006011</t>
+          <t>BCIO:006044</t>
         </is>
       </c>
       <c r="B253" s="3" t="inlineStr">
         <is>
-          <t>social behavioural capability</t>
+          <t>situational self-efficacy belief for a behaviour</t>
         </is>
       </c>
       <c r="C253" s="3" t="inlineStr">
         <is>
-          <t>behavioural capability</t>
+          <t>self-efficacy belief for a behaviour</t>
         </is>
       </c>
       <c r="D253" s="3" t="inlineStr">
         <is>
-          <t>A personal capability includes interpersonal behaviour in its realisation.</t>
+          <t>Self-efficacy belief for a behaviour when a barrier or facilitator of the behaviour is encountered.</t>
         </is>
       </c>
       <c r="E253" s="3" t="inlineStr"/>
       <c r="F253" s="3" t="inlineStr"/>
       <c r="G253" s="3" t="inlineStr"/>
       <c r="H253" s="3" t="inlineStr"/>
-      <c r="I253" s="3" t="inlineStr"/>
+      <c r="I253" s="3" t="inlineStr">
+        <is>
+          <t>The 'barrier or facilitator' specified in the definition can be external or internal.</t>
+        </is>
+      </c>
       <c r="J253" s="3" t="inlineStr"/>
       <c r="K253" s="3" t="inlineStr"/>
       <c r="L253" s="3" t="inlineStr"/>
@@ -10750,30 +10758,26 @@
     <row r="254">
       <c r="A254" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006090</t>
+          <t>BCIO:006014</t>
         </is>
       </c>
       <c r="B254" s="3" t="inlineStr">
         <is>
-          <t>social behavioural opportunity</t>
+          <t>social alienation</t>
         </is>
       </c>
       <c r="C254" s="3" t="inlineStr">
         <is>
-          <t>behavioural opportunity</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D254" s="3" t="inlineStr">
         <is>
-          <t>A behavioural opportunity that involves the social environmental system.</t>
+          <t>A mental disposition to perceive or experience oneself as isolated from and not meaningfully involved in social groups.</t>
         </is>
       </c>
       <c r="E254" s="3" t="inlineStr"/>
-      <c r="F254" s="3" t="inlineStr">
-        <is>
-          <t>Properties of a person's environment relating to the social world they inhabit, including the rules and norms that are operating and social cues.</t>
-        </is>
-      </c>
+      <c r="F254" s="3" t="inlineStr"/>
       <c r="G254" s="3" t="inlineStr"/>
       <c r="H254" s="3" t="inlineStr"/>
       <c r="I254" s="3" t="inlineStr"/>
@@ -10792,22 +10796,22 @@
     <row r="255">
       <c r="A255" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006118</t>
+          <t>BCIO:006011</t>
         </is>
       </c>
       <c r="B255" s="3" t="inlineStr">
         <is>
-          <t>social comparison process</t>
+          <t>social behavioural capability</t>
         </is>
       </c>
       <c r="C255" s="3" t="inlineStr">
         <is>
-          <t>judging</t>
+          <t>behavioural capability</t>
         </is>
       </c>
       <c r="D255" s="3" t="inlineStr">
         <is>
-          <t>Judging oneself or one's social group in relation to the qualities or characteristics of another person or social group.</t>
+          <t>A personal capability includes interpersonal behaviour in its realisation.</t>
         </is>
       </c>
       <c r="E255" s="3" t="inlineStr"/>
@@ -10830,26 +10834,30 @@
     <row r="256">
       <c r="A256" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006074</t>
+          <t>BCIO:006090</t>
         </is>
       </c>
       <c r="B256" s="3" t="inlineStr">
         <is>
-          <t>social embeddedness</t>
+          <t>social behavioural opportunity</t>
         </is>
       </c>
       <c r="C256" s="3" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>behavioural opportunity</t>
         </is>
       </c>
       <c r="D256" s="3" t="inlineStr">
         <is>
-          <t>A mental disposition to experience a feeling of being connected by social attachments.</t>
+          <t>A behavioural opportunity that involves the social environmental system.</t>
         </is>
       </c>
       <c r="E256" s="3" t="inlineStr"/>
-      <c r="F256" s="3" t="inlineStr"/>
+      <c r="F256" s="3" t="inlineStr">
+        <is>
+          <t>Properties of a person's environment relating to the social world they inhabit, including the rules and norms that are operating and social cues.</t>
+        </is>
+      </c>
       <c r="G256" s="3" t="inlineStr"/>
       <c r="H256" s="3" t="inlineStr"/>
       <c r="I256" s="3" t="inlineStr"/>
@@ -10868,22 +10876,22 @@
     <row r="257">
       <c r="A257" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006001</t>
+          <t>BCIO:006118</t>
         </is>
       </c>
       <c r="B257" s="3" t="inlineStr">
         <is>
-          <t>social environmental system</t>
+          <t>social comparison process</t>
         </is>
       </c>
       <c r="C257" s="3" t="inlineStr">
         <is>
-          <t>environmental system</t>
+          <t>judging</t>
         </is>
       </c>
       <c r="D257" s="3" t="inlineStr">
         <is>
-          <t>An environmental system that consists of people, their pets, social and cultural institutions and processes that influence the life of people and social groups.</t>
+          <t>Judging oneself or one's social group in relation to the qualities or characteristics of another person or social group.</t>
         </is>
       </c>
       <c r="E257" s="3" t="inlineStr"/>
@@ -10906,33 +10914,29 @@
     <row r="258">
       <c r="A258" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006051</t>
+          <t>BCIO:006074</t>
         </is>
       </c>
       <c r="B258" s="3" t="inlineStr">
         <is>
-          <t>social identity</t>
+          <t>social embeddedness</t>
         </is>
       </c>
       <c r="C258" s="3" t="inlineStr">
         <is>
-          <t>self-identity</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D258" s="3" t="inlineStr">
         <is>
-          <t>A self-identity in which the representation involves a relation between the identity holder and another person or group.</t>
+          <t>A mental disposition to experience a feeling of being connected by social attachments.</t>
         </is>
       </c>
       <c r="E258" s="3" t="inlineStr"/>
       <c r="F258" s="3" t="inlineStr"/>
       <c r="G258" s="3" t="inlineStr"/>
       <c r="H258" s="3" t="inlineStr"/>
-      <c r="I258" s="3" t="inlineStr">
-        <is>
-          <t>'Social identity' can involve a sense of one's rank or status in reference to other groups.</t>
-        </is>
-      </c>
+      <c r="I258" s="3" t="inlineStr"/>
       <c r="J258" s="3" t="inlineStr"/>
       <c r="K258" s="3" t="inlineStr"/>
       <c r="L258" s="3" t="inlineStr"/>
@@ -10948,32 +10952,28 @@
     <row r="259">
       <c r="A259" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006099</t>
+          <t>BCIO:006001</t>
         </is>
       </c>
       <c r="B259" s="3" t="inlineStr">
         <is>
-          <t>social influence behaviour</t>
+          <t>social environmental system</t>
         </is>
       </c>
       <c r="C259" s="3" t="inlineStr">
         <is>
-          <t>inter-personal behaviour</t>
+          <t>environmental system</t>
         </is>
       </c>
       <c r="D259" s="3" t="inlineStr">
         <is>
-          <t>An inter-personal behaviour where a person exerts an influence on the behaviour of another.</t>
+          <t>An environmental system that consists of people, their pets, social and cultural institutions and processes that influence the life of people and social groups.</t>
         </is>
       </c>
       <c r="E259" s="3" t="inlineStr"/>
       <c r="F259" s="3" t="inlineStr"/>
       <c r="G259" s="3" t="inlineStr"/>
-      <c r="H259" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Social support from social network. </t>
-        </is>
-      </c>
+      <c r="H259" s="3" t="inlineStr"/>
       <c r="I259" s="3" t="inlineStr"/>
       <c r="J259" s="3" t="inlineStr"/>
       <c r="K259" s="3" t="inlineStr"/>
@@ -10990,22 +10990,22 @@
     <row r="260">
       <c r="A260" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006082</t>
+          <t>BCIO:006051</t>
         </is>
       </c>
       <c r="B260" s="3" t="inlineStr">
         <is>
-          <t>social role</t>
+          <t>social identity</t>
         </is>
       </c>
       <c r="C260" s="3" t="inlineStr">
         <is>
-          <t>personal role</t>
+          <t>self-identity</t>
         </is>
       </c>
       <c r="D260" s="3" t="inlineStr">
         <is>
-          <t>A personal role that is realised in human social processes.</t>
+          <t>A self-identity in which the representation involves a relation between the identity holder and another person or group.</t>
         </is>
       </c>
       <c r="E260" s="3" t="inlineStr"/>
@@ -11014,7 +11014,7 @@
       <c r="H260" s="3" t="inlineStr"/>
       <c r="I260" s="3" t="inlineStr">
         <is>
-          <t>A role can be assigned without being realised. A person realises a role by doing something.</t>
+          <t>'Social identity' can involve a sense of one's rank or status in reference to other groups.</t>
         </is>
       </c>
       <c r="J260" s="3" t="inlineStr"/>
@@ -11032,28 +11032,32 @@
     <row r="261">
       <c r="A261" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006012</t>
+          <t>BCIO:006099</t>
         </is>
       </c>
       <c r="B261" s="3" t="inlineStr">
         <is>
-          <t>social skill</t>
+          <t>social influence behaviour</t>
         </is>
       </c>
       <c r="C261" s="3" t="inlineStr">
         <is>
-          <t>social behavioural capability</t>
+          <t>inter-personal behaviour</t>
         </is>
       </c>
       <c r="D261" s="3" t="inlineStr">
         <is>
-          <t>A social capability acquired through training or practice.</t>
+          <t>An inter-personal behaviour where a person exerts an influence on the behaviour of another.</t>
         </is>
       </c>
       <c r="E261" s="3" t="inlineStr"/>
       <c r="F261" s="3" t="inlineStr"/>
       <c r="G261" s="3" t="inlineStr"/>
-      <c r="H261" s="3" t="inlineStr"/>
+      <c r="H261" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Social support from social network. </t>
+        </is>
+      </c>
       <c r="I261" s="3" t="inlineStr"/>
       <c r="J261" s="3" t="inlineStr"/>
       <c r="K261" s="3" t="inlineStr"/>
@@ -11070,22 +11074,22 @@
     <row r="262">
       <c r="A262" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006072</t>
+          <t>BCIO:006082</t>
         </is>
       </c>
       <c r="B262" s="3" t="inlineStr">
         <is>
-          <t>stereotype</t>
+          <t>social role</t>
         </is>
       </c>
       <c r="C262" s="3" t="inlineStr">
         <is>
-          <t>cognitive schema</t>
+          <t>personal role</t>
         </is>
       </c>
       <c r="D262" s="3" t="inlineStr">
         <is>
-          <t>A cognitive schema that when activated, guides perception, thought, emotion or behaviour toward members of a social group as having certain shared attributes, by virtue of their group membership.</t>
+          <t>A personal role that is realised in human social processes.</t>
         </is>
       </c>
       <c r="E262" s="3" t="inlineStr"/>
@@ -11094,7 +11098,7 @@
       <c r="H262" s="3" t="inlineStr"/>
       <c r="I262" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">The attributes of members are not definitional. For instance, a psychologist studying psychology is not a stereotype. </t>
+          <t>A role can be assigned without being realised. A person realises a role by doing something.</t>
         </is>
       </c>
       <c r="J262" s="3" t="inlineStr"/>
@@ -11110,87 +11114,73 @@
       <c r="P262" s="3" t="inlineStr"/>
     </row>
     <row r="263">
-      <c r="A263" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MFOEM:000006 </t>
-        </is>
-      </c>
-      <c r="B263" t="inlineStr">
-        <is>
-          <t>subjective affective feeling</t>
-        </is>
-      </c>
-      <c r="C263" t="inlineStr">
-        <is>
-          <t>affective process</t>
-        </is>
-      </c>
-      <c r="D263" t="inlineStr">
-        <is>
-          <t>An affective process that involves the experience of internal or external sensory stimuli.</t>
-        </is>
-      </c>
-      <c r="E263" t="inlineStr"/>
-      <c r="F263" t="inlineStr">
-        <is>
-          <t>The conscious experience that a person has of feelings in their body (e.g., hunger), their mood (e.g., feeling cheerful) and their emotion (e.g., feeling nervous), in response to internal or external stimuli.</t>
-        </is>
-      </c>
-      <c r="G263" t="inlineStr">
-        <is>
-          <t>Feeling calm; hunger; pain</t>
-        </is>
-      </c>
-      <c r="H263" t="inlineStr"/>
-      <c r="I263" t="inlineStr">
-        <is>
-          <t>'Subjective affective feeling can have greater or weaker physiological or mental components. The bodily process that are experienced will usually involve some mental process.
-Bodily sensation and the experiences of emotions (e.g., feeling calm) would both qualify as examples of 'subjective affective feeling'.
-As a subclass of 'affective process', subjective affective feelings have valence. Valence refers to the 'the subjective value of an event, object, person, or other entity in the life space of the individual' (https://dictionary.apa.org/valence). Valence ranges from negative to positive.</t>
-        </is>
-      </c>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
-      <c r="M263" t="inlineStr"/>
-      <c r="N263" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="O263" t="inlineStr"/>
-      <c r="P263" t="inlineStr"/>
+      <c r="A263" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006012</t>
+        </is>
+      </c>
+      <c r="B263" s="3" t="inlineStr">
+        <is>
+          <t>social skill</t>
+        </is>
+      </c>
+      <c r="C263" s="3" t="inlineStr">
+        <is>
+          <t>social behavioural capability</t>
+        </is>
+      </c>
+      <c r="D263" s="3" t="inlineStr">
+        <is>
+          <t>A social capability acquired through training or practice.</t>
+        </is>
+      </c>
+      <c r="E263" s="3" t="inlineStr"/>
+      <c r="F263" s="3" t="inlineStr"/>
+      <c r="G263" s="3" t="inlineStr"/>
+      <c r="H263" s="3" t="inlineStr"/>
+      <c r="I263" s="3" t="inlineStr"/>
+      <c r="J263" s="3" t="inlineStr"/>
+      <c r="K263" s="3" t="inlineStr"/>
+      <c r="L263" s="3" t="inlineStr"/>
+      <c r="M263" s="3" t="inlineStr"/>
+      <c r="N263" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O263" s="3" t="inlineStr"/>
+      <c r="P263" s="3" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006075</t>
+          <t>BCIO:006072</t>
         </is>
       </c>
       <c r="B264" s="3" t="inlineStr">
         <is>
-          <t>subjective need</t>
+          <t>stereotype</t>
         </is>
       </c>
       <c r="C264" s="3" t="inlineStr">
         <is>
-          <t>subjective affective feeling</t>
+          <t>cognitive schema</t>
         </is>
       </c>
       <c r="D264" s="3" t="inlineStr">
         <is>
-          <t>A subjective affective feeling that involves experiencing anticipated relief or continued comfort by obtaining or maintaining a particular state.</t>
+          <t>A cognitive schema that when activated, guides perception, thought, emotion or behaviour toward members of a social group as having certain shared attributes, by virtue of their group membership.</t>
         </is>
       </c>
       <c r="E264" s="3" t="inlineStr"/>
-      <c r="F264" s="3" t="inlineStr">
-        <is>
-          <t>A feeling of anticipated relief or avoidance of discomfort.</t>
-        </is>
-      </c>
+      <c r="F264" s="3" t="inlineStr"/>
       <c r="G264" s="3" t="inlineStr"/>
       <c r="H264" s="3" t="inlineStr"/>
-      <c r="I264" s="3" t="inlineStr"/>
+      <c r="I264" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The attributes of members are not definitional. For instance, a psychologist studying psychology is not a stereotype. </t>
+        </is>
+      </c>
       <c r="J264" s="3" t="inlineStr"/>
       <c r="K264" s="3" t="inlineStr"/>
       <c r="L264" s="3" t="inlineStr"/>
@@ -11206,29 +11196,43 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t xml:space="preserve">MF:0000088 </t>
+          <t xml:space="preserve">MFOEM:000006 </t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>subliminal process</t>
+          <t>subjective affective feeling</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>affective process</t>
         </is>
       </c>
       <c r="D265" t="inlineStr">
         <is>
-          <t>A mental process that involves neuronal activity in response to a sensory stimulus but which is not the subject of consciousness.</t>
+          <t>An affective process that involves the experience of internal or external sensory stimuli.</t>
         </is>
       </c>
       <c r="E265" t="inlineStr"/>
-      <c r="F265" t="inlineStr"/>
-      <c r="G265" t="inlineStr"/>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>The conscious experience that a person has of feelings in their body (e.g., hunger), their mood (e.g., feeling cheerful) and their emotion (e.g., feeling nervous), in response to internal or external stimuli.</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>Feeling calm; hunger; pain</t>
+        </is>
+      </c>
       <c r="H265" t="inlineStr"/>
-      <c r="I265" t="inlineStr"/>
+      <c r="I265" t="inlineStr">
+        <is>
+          <t>'Subjective affective feeling can have greater or weaker physiological or mental components. The bodily process that are experienced will usually involve some mental process.
+Bodily sensation and the experiences of emotions (e.g., feeling calm) would both qualify as examples of 'subjective affective feeling'.
+As a subclass of 'affective process', subjective affective feelings have valence. Valence refers to the 'the subjective value of an event, object, person, or other entity in the life space of the individual' (https://dictionary.apa.org/valence). Valence ranges from negative to positive.</t>
+        </is>
+      </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
       <c r="L265" t="inlineStr"/>
@@ -11244,33 +11248,29 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>ADDICTO:0001140</t>
+          <t xml:space="preserve">MF:0000088 </t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>substance dependence</t>
+          <t>subliminal process</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>bodily disposition</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D266" t="inlineStr">
         <is>
-          <t>A bodily disposition which is realised as impaired functioning following reduction or termination of use of a psychoactive substance.</t>
+          <t>A mental process that involves neuronal activity in response to a sensory stimulus but which is not the subject of consciousness.</t>
         </is>
       </c>
       <c r="E266" t="inlineStr"/>
       <c r="F266" t="inlineStr"/>
       <c r="G266" t="inlineStr"/>
       <c r="H266" t="inlineStr"/>
-      <c r="I266" t="inlineStr">
-        <is>
-          <t>While 'addiction' is a disposition relating to experience motivation to use a substance, 'substance dependence' refers to 'disposition related to the impaired functioning in the absence of a substance'.</t>
-        </is>
-      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
       <c r="L266" t="inlineStr"/>
@@ -11286,29 +11286,33 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>MFOEM:000032</t>
+          <t>ADDICTO:0001140</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>substance dependence</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>emotion process</t>
+          <t>bodily disposition</t>
         </is>
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t xml:space="preserve">An emotion caused by encountering unexpected events. </t>
+          <t>A bodily disposition which is realised as impaired functioning following reduction or termination of use of a psychoactive substance.</t>
         </is>
       </c>
       <c r="E267" t="inlineStr"/>
       <c r="F267" t="inlineStr"/>
       <c r="G267" t="inlineStr"/>
       <c r="H267" t="inlineStr"/>
-      <c r="I267" t="inlineStr"/>
+      <c r="I267" t="inlineStr">
+        <is>
+          <t>While 'addiction' is a disposition relating to experience motivation to use a substance, 'substance dependence' refers to 'disposition related to the impaired functioning in the absence of a substance'.</t>
+        </is>
+      </c>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
       <c r="L267" t="inlineStr"/>
@@ -11324,22 +11328,22 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>RO:0002577</t>
+          <t>MFOEM:000032</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>system</t>
+          <t>surprise</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>material entity</t>
+          <t>emotion process</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>A material entity consisting of multiple components that are causally integrated.</t>
+          <t xml:space="preserve">An emotion caused by encountering unexpected events. </t>
         </is>
       </c>
       <c r="E268" t="inlineStr"/>
@@ -11360,75 +11364,71 @@
       <c r="P268" t="inlineStr"/>
     </row>
     <row r="269">
-      <c r="A269" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006163</t>
-        </is>
-      </c>
-      <c r="B269" s="3" t="inlineStr">
-        <is>
-          <t>targeted mental distancing</t>
-        </is>
-      </c>
-      <c r="C269" s="3" t="inlineStr">
-        <is>
-          <t>mental distancing</t>
-        </is>
-      </c>
-      <c r="D269" s="3" t="inlineStr">
-        <is>
-          <t>Mental distancing that involves identifying particular immediate thoughts and intentionally detaching from these thoughts.</t>
-        </is>
-      </c>
-      <c r="E269" s="3" t="inlineStr"/>
-      <c r="F269" s="3" t="inlineStr"/>
-      <c r="G269" s="3" t="inlineStr">
-        <is>
-          <t>targeted decentring</t>
-        </is>
-      </c>
-      <c r="H269" s="3" t="inlineStr"/>
-      <c r="I269" s="3" t="inlineStr"/>
-      <c r="J269" s="3" t="inlineStr"/>
-      <c r="K269" s="3" t="inlineStr"/>
-      <c r="L269" s="3" t="inlineStr"/>
-      <c r="M269" s="3" t="inlineStr"/>
-      <c r="N269" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O269" s="3" t="inlineStr"/>
-      <c r="P269" s="3" t="inlineStr"/>
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>RO:0002577</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>material entity</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>A material entity consisting of multiple components that are causally integrated.</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr"/>
+      <c r="F269" t="inlineStr"/>
+      <c r="G269" t="inlineStr"/>
+      <c r="H269" t="inlineStr"/>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="inlineStr"/>
+      <c r="M269" t="inlineStr"/>
+      <c r="N269" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="O269" t="inlineStr"/>
+      <c r="P269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006091</t>
+          <t>BCIO:006163</t>
         </is>
       </c>
       <c r="B270" s="3" t="inlineStr">
         <is>
-          <t>temporal behavioural opportunity</t>
+          <t>targeted mental distancing</t>
         </is>
       </c>
       <c r="C270" s="3" t="inlineStr">
         <is>
-          <t>physical behavioural opportunity</t>
+          <t>mental distancing</t>
         </is>
       </c>
       <c r="D270" s="3" t="inlineStr">
         <is>
-          <t>A physical behavioural opportunity that involves the person having sufficient time or a suitable period.</t>
+          <t>Mental distancing that involves identifying particular immediate thoughts and intentionally detaching from these thoughts.</t>
         </is>
       </c>
       <c r="E270" s="3" t="inlineStr"/>
-      <c r="F270" s="3" t="inlineStr">
-        <is>
-          <t>Properties of a person's environment that involve the time available and influence the person's ability to enact a behaviour.</t>
-        </is>
-      </c>
-      <c r="G270" s="3" t="inlineStr"/>
+      <c r="F270" s="3" t="inlineStr"/>
+      <c r="G270" s="3" t="inlineStr">
+        <is>
+          <t>targeted decentring</t>
+        </is>
+      </c>
       <c r="H270" s="3" t="inlineStr"/>
       <c r="I270" s="3" t="inlineStr"/>
       <c r="J270" s="3" t="inlineStr"/>
@@ -11444,52 +11444,56 @@
       <c r="P270" s="3" t="inlineStr"/>
     </row>
     <row r="271">
-      <c r="A271" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050230</t>
-        </is>
-      </c>
-      <c r="B271" s="2" t="inlineStr">
-        <is>
-          <t>temporal orientation to the future</t>
-        </is>
-      </c>
-      <c r="C271" s="2" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
-      <c r="D271" s="2" t="inlineStr">
-        <is>
-          <t>A mental disposition to focus more on future than present outcomes.</t>
-        </is>
-      </c>
-      <c r="E271" s="2" t="inlineStr"/>
-      <c r="F271" s="2" t="inlineStr"/>
-      <c r="G271" s="2" t="inlineStr"/>
-      <c r="H271" s="2" t="inlineStr"/>
-      <c r="I271" s="2" t="inlineStr"/>
-      <c r="J271" s="2" t="inlineStr"/>
-      <c r="K271" s="2" t="inlineStr"/>
-      <c r="L271" s="2" t="inlineStr"/>
-      <c r="M271" s="2" t="inlineStr"/>
-      <c r="N271" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="O271" s="2" t="inlineStr"/>
-      <c r="P271" s="2" t="inlineStr"/>
+      <c r="A271" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006091</t>
+        </is>
+      </c>
+      <c r="B271" s="3" t="inlineStr">
+        <is>
+          <t>temporal behavioural opportunity</t>
+        </is>
+      </c>
+      <c r="C271" s="3" t="inlineStr">
+        <is>
+          <t>physical behavioural opportunity</t>
+        </is>
+      </c>
+      <c r="D271" s="3" t="inlineStr">
+        <is>
+          <t>A physical behavioural opportunity that involves the person having sufficient time or a suitable period.</t>
+        </is>
+      </c>
+      <c r="E271" s="3" t="inlineStr"/>
+      <c r="F271" s="3" t="inlineStr">
+        <is>
+          <t>Properties of a person's environment that involve the time available and influence the person's ability to enact a behaviour.</t>
+        </is>
+      </c>
+      <c r="G271" s="3" t="inlineStr"/>
+      <c r="H271" s="3" t="inlineStr"/>
+      <c r="I271" s="3" t="inlineStr"/>
+      <c r="J271" s="3" t="inlineStr"/>
+      <c r="K271" s="3" t="inlineStr"/>
+      <c r="L271" s="3" t="inlineStr"/>
+      <c r="M271" s="3" t="inlineStr"/>
+      <c r="N271" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O271" s="3" t="inlineStr"/>
+      <c r="P271" s="3" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050231</t>
+          <t>BCIO:050230</t>
         </is>
       </c>
       <c r="B272" s="2" t="inlineStr">
         <is>
-          <t>temporal orientation to the present</t>
+          <t>temporal orientation to the future</t>
         </is>
       </c>
       <c r="C272" s="2" t="inlineStr">
@@ -11499,7 +11503,7 @@
       </c>
       <c r="D272" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to focus more on present than future outcomes.</t>
+          <t>A mental disposition to focus more on future than present outcomes.</t>
         </is>
       </c>
       <c r="E272" s="2" t="inlineStr"/>
@@ -11520,160 +11524,198 @@
       <c r="P272" s="2" t="inlineStr"/>
     </row>
     <row r="273">
-      <c r="A273" t="inlineStr">
+      <c r="A273" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050231</t>
+        </is>
+      </c>
+      <c r="B273" s="2" t="inlineStr">
+        <is>
+          <t>temporal orientation to the present</t>
+        </is>
+      </c>
+      <c r="C273" s="2" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="D273" s="2" t="inlineStr">
+        <is>
+          <t>A mental disposition to focus more on present than future outcomes.</t>
+        </is>
+      </c>
+      <c r="E273" s="2" t="inlineStr"/>
+      <c r="F273" s="2" t="inlineStr"/>
+      <c r="G273" s="2" t="inlineStr"/>
+      <c r="H273" s="2" t="inlineStr"/>
+      <c r="I273" s="2" t="inlineStr"/>
+      <c r="J273" s="2" t="inlineStr"/>
+      <c r="K273" s="2" t="inlineStr"/>
+      <c r="L273" s="2" t="inlineStr"/>
+      <c r="M273" s="2" t="inlineStr"/>
+      <c r="N273" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="O273" s="2" t="inlineStr"/>
+      <c r="P273" s="2" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
         <is>
           <t>MF:0000013</t>
         </is>
       </c>
-      <c r="B273" t="inlineStr">
+      <c r="B274" t="inlineStr">
         <is>
           <t>thinking</t>
         </is>
       </c>
-      <c r="C273" t="inlineStr">
+      <c r="C274" t="inlineStr">
         <is>
           <t>cognitive process</t>
         </is>
       </c>
-      <c r="D273" t="inlineStr">
+      <c r="D274" t="inlineStr">
         <is>
           <t>A cognitive process that involves the manipulation of mental language and/or mental images.</t>
         </is>
       </c>
-      <c r="E273" t="inlineStr"/>
-      <c r="F273" t="inlineStr"/>
-      <c r="G273" t="inlineStr"/>
-      <c r="H273" t="inlineStr"/>
-      <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
-      <c r="M273" t="inlineStr"/>
-      <c r="N273" t="inlineStr">
+      <c r="E274" t="inlineStr"/>
+      <c r="F274" t="inlineStr"/>
+      <c r="G274" t="inlineStr"/>
+      <c r="H274" t="inlineStr"/>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="inlineStr"/>
+      <c r="M274" t="inlineStr"/>
+      <c r="N274" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="O273" t="inlineStr"/>
-      <c r="P273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="3" t="inlineStr">
+      <c r="O274" t="inlineStr"/>
+      <c r="P274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" s="3" t="inlineStr">
         <is>
           <t>BCIO:006107</t>
         </is>
       </c>
-      <c r="B274" s="3" t="inlineStr">
+      <c r="B275" s="3" t="inlineStr">
         <is>
           <t>value-congruent self-regulation</t>
         </is>
       </c>
-      <c r="C274" s="3" t="inlineStr">
+      <c r="C275" s="3" t="inlineStr">
         <is>
           <t>self-regulation of behaviour</t>
         </is>
       </c>
-      <c r="D274" s="3" t="inlineStr">
+      <c r="D275" s="3" t="inlineStr">
         <is>
           <t>Self-regulation undertaken to achieve consistency between one's values and the behaviour performed.</t>
         </is>
       </c>
-      <c r="E274" s="3" t="inlineStr"/>
-      <c r="F274" s="3" t="inlineStr"/>
-      <c r="G274" s="3" t="inlineStr"/>
-      <c r="H274" s="3" t="inlineStr"/>
-      <c r="I274" s="3" t="inlineStr"/>
-      <c r="J274" s="3" t="inlineStr"/>
-      <c r="K274" s="3" t="inlineStr"/>
-      <c r="L274" s="3" t="inlineStr"/>
-      <c r="M274" s="3" t="inlineStr"/>
-      <c r="N274" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O274" s="3" t="inlineStr"/>
-      <c r="P274" s="3" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" t="inlineStr">
+      <c r="E275" s="3" t="inlineStr"/>
+      <c r="F275" s="3" t="inlineStr"/>
+      <c r="G275" s="3" t="inlineStr"/>
+      <c r="H275" s="3" t="inlineStr"/>
+      <c r="I275" s="3" t="inlineStr"/>
+      <c r="J275" s="3" t="inlineStr"/>
+      <c r="K275" s="3" t="inlineStr"/>
+      <c r="L275" s="3" t="inlineStr"/>
+      <c r="M275" s="3" t="inlineStr"/>
+      <c r="N275" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O275" s="3" t="inlineStr"/>
+      <c r="P275" s="3" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
         <is>
           <t>MF:0000045</t>
         </is>
       </c>
-      <c r="B275" t="inlineStr">
+      <c r="B276" t="inlineStr">
         <is>
           <t>wanting</t>
         </is>
       </c>
-      <c r="C275" t="inlineStr">
+      <c r="C276" t="inlineStr">
         <is>
           <t>mental process</t>
         </is>
       </c>
-      <c r="D275" t="inlineStr">
+      <c r="D276" t="inlineStr">
         <is>
           <t>A mental process that involves thinking about a state of affairs that is not yet the case together with a desire for that state of affairs to come about.</t>
         </is>
       </c>
-      <c r="E275" t="inlineStr"/>
-      <c r="F275" t="inlineStr"/>
-      <c r="G275" t="inlineStr"/>
-      <c r="H275" t="inlineStr"/>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="inlineStr"/>
-      <c r="N275" t="inlineStr">
+      <c r="E276" t="inlineStr"/>
+      <c r="F276" t="inlineStr"/>
+      <c r="G276" t="inlineStr"/>
+      <c r="H276" t="inlineStr"/>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="inlineStr"/>
+      <c r="M276" t="inlineStr"/>
+      <c r="N276" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="O275" t="inlineStr"/>
-      <c r="P275" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="3" t="inlineStr">
+      <c r="O276" t="inlineStr"/>
+      <c r="P276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="3" t="inlineStr">
         <is>
           <t>BCIO:006059</t>
         </is>
       </c>
-      <c r="B276" s="3" t="inlineStr">
+      <c r="B277" s="3" t="inlineStr">
         <is>
           <t>willingness to comply</t>
         </is>
       </c>
-      <c r="C276" s="3" t="inlineStr">
+      <c r="C277" s="3" t="inlineStr">
         <is>
           <t>mental disposition</t>
         </is>
       </c>
-      <c r="D276" s="3" t="inlineStr">
+      <c r="D277" s="3" t="inlineStr">
         <is>
           <t>A mental disposition to act in accordance with the likely approval of others.</t>
         </is>
       </c>
-      <c r="E276" s="3" t="inlineStr"/>
-      <c r="F276" s="3" t="inlineStr"/>
-      <c r="G276" s="3" t="inlineStr">
+      <c r="E277" s="3" t="inlineStr"/>
+      <c r="F277" s="3" t="inlineStr"/>
+      <c r="G277" s="3" t="inlineStr">
         <is>
           <t>motivation to comply</t>
         </is>
       </c>
-      <c r="H276" s="3" t="inlineStr"/>
-      <c r="I276" s="3" t="inlineStr"/>
-      <c r="J276" s="3" t="inlineStr"/>
-      <c r="K276" s="3" t="inlineStr"/>
-      <c r="L276" s="3" t="inlineStr"/>
-      <c r="M276" s="3" t="inlineStr"/>
-      <c r="N276" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O276" s="3" t="inlineStr"/>
-      <c r="P276" s="3" t="inlineStr"/>
+      <c r="H277" s="3" t="inlineStr"/>
+      <c r="I277" s="3" t="inlineStr"/>
+      <c r="J277" s="3" t="inlineStr"/>
+      <c r="K277" s="3" t="inlineStr"/>
+      <c r="L277" s="3" t="inlineStr"/>
+      <c r="M277" s="3" t="inlineStr"/>
+      <c r="N277" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O277" s="3" t="inlineStr"/>
+      <c r="P277" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/MechanismOfAction/inputs/BCIO_MoA.xlsx
+++ b/MechanismOfAction/inputs/BCIO_MoA.xlsx
@@ -9122,46 +9122,46 @@
       <c r="P212" t="inlineStr"/>
     </row>
     <row r="213">
-      <c r="A213" s="2" t="inlineStr">
+      <c r="A213" s="4" t="inlineStr">
         <is>
           <t>BCIO:050301</t>
         </is>
       </c>
-      <c r="B213" s="2" t="inlineStr">
+      <c r="B213" s="4" t="inlineStr">
         <is>
           <t>personal disposition</t>
         </is>
       </c>
-      <c r="C213" s="2" t="inlineStr">
+      <c r="C213" s="4" t="inlineStr">
         <is>
           <t>disposition</t>
         </is>
       </c>
-      <c r="D213" s="2" t="inlineStr">
+      <c r="D213" s="4" t="inlineStr">
         <is>
           <t>A disposition that inheres in a person.</t>
         </is>
       </c>
-      <c r="E213" s="2" t="inlineStr"/>
-      <c r="F213" s="2" t="inlineStr">
+      <c r="E213" s="4" t="inlineStr"/>
+      <c r="F213" s="4" t="inlineStr">
         <is>
           <t>A characteristic of a person such as intelligence and personality that causes them to think feel or act in a particular way in a particular situation.</t>
         </is>
       </c>
-      <c r="G213" s="2" t="inlineStr"/>
-      <c r="H213" s="2" t="inlineStr"/>
-      <c r="I213" s="2" t="inlineStr"/>
-      <c r="J213" s="2" t="inlineStr"/>
-      <c r="K213" s="2" t="inlineStr"/>
-      <c r="L213" s="2" t="inlineStr"/>
-      <c r="M213" s="2" t="inlineStr"/>
-      <c r="N213" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="O213" s="2" t="inlineStr"/>
-      <c r="P213" s="2" t="inlineStr"/>
+      <c r="G213" s="4" t="inlineStr"/>
+      <c r="H213" s="4" t="inlineStr"/>
+      <c r="I213" s="4" t="inlineStr"/>
+      <c r="J213" s="4" t="inlineStr"/>
+      <c r="K213" s="4" t="inlineStr"/>
+      <c r="L213" s="4" t="inlineStr"/>
+      <c r="M213" s="4" t="inlineStr"/>
+      <c r="N213" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="O213" s="4" t="inlineStr"/>
+      <c r="P213" s="4" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="4" t="inlineStr">

--- a/MechanismOfAction/inputs/BCIO_MoA.xlsx
+++ b/MechanismOfAction/inputs/BCIO_MoA.xlsx
@@ -4045,42 +4045,42 @@
       <c r="P87" t="inlineStr"/>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
+      <c r="A88" s="4" t="inlineStr">
         <is>
           <t>MFOEM:000202</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" s="4" t="inlineStr">
         <is>
           <t>bodily feeling</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="C88" s="4" t="inlineStr">
         <is>
           <t>affective process</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="D88" s="4" t="inlineStr">
         <is>
           <t>An affective process involving sensory experience of physiological stimuli.</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr"/>
-      <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
+      <c r="E88" s="4" t="inlineStr"/>
+      <c r="F88" s="4" t="inlineStr"/>
+      <c r="G88" s="4" t="inlineStr"/>
+      <c r="H88" s="4" t="inlineStr"/>
+      <c r="I88" s="4" t="inlineStr"/>
+      <c r="J88" s="4" t="inlineStr"/>
+      <c r="K88" s="4" t="inlineStr"/>
+      <c r="L88" s="4" t="inlineStr"/>
+      <c r="M88" s="4" t="inlineStr"/>
+      <c r="N88" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="O88" s="4" t="inlineStr"/>
+      <c r="P88" s="4" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -8022,42 +8022,42 @@
       <c r="P185" t="inlineStr"/>
     </row>
     <row r="186">
-      <c r="A186" t="inlineStr">
+      <c r="A186" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">MF:0000075 </t>
         </is>
       </c>
-      <c r="B186" t="inlineStr">
+      <c r="B186" s="4" t="inlineStr">
         <is>
           <t>mental quality</t>
         </is>
       </c>
-      <c r="C186" t="inlineStr">
+      <c r="C186" s="4" t="inlineStr">
         <is>
           <t>bodily quality</t>
         </is>
       </c>
-      <c r="D186" t="inlineStr">
+      <c r="D186" s="4" t="inlineStr">
         <is>
           <t>A bodily quality that inheres in those structures of the extended organism that are essential for mental functioning.</t>
         </is>
       </c>
-      <c r="E186" t="inlineStr"/>
-      <c r="F186" t="inlineStr"/>
-      <c r="G186" t="inlineStr"/>
-      <c r="H186" t="inlineStr"/>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="inlineStr"/>
-      <c r="N186" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="O186" t="inlineStr"/>
-      <c r="P186" t="inlineStr"/>
+      <c r="E186" s="4" t="inlineStr"/>
+      <c r="F186" s="4" t="inlineStr"/>
+      <c r="G186" s="4" t="inlineStr"/>
+      <c r="H186" s="4" t="inlineStr"/>
+      <c r="I186" s="4" t="inlineStr"/>
+      <c r="J186" s="4" t="inlineStr"/>
+      <c r="K186" s="4" t="inlineStr"/>
+      <c r="L186" s="4" t="inlineStr"/>
+      <c r="M186" s="4" t="inlineStr"/>
+      <c r="N186" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="O186" s="4" t="inlineStr"/>
+      <c r="P186" s="4" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="3" t="inlineStr">

--- a/MechanismOfAction/inputs/BCIO_MoA.xlsx
+++ b/MechanismOfAction/inputs/BCIO_MoA.xlsx
@@ -4129,42 +4129,42 @@
       <c r="P89" t="inlineStr"/>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
+      <c r="A90" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">MF:0000074 </t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" s="4" t="inlineStr">
         <is>
           <t>bodily quality</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="C90" s="4" t="inlineStr">
         <is>
           <t>quality</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="D90" s="4" t="inlineStr">
         <is>
           <t>A quality that inheres in some extended organism.</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr"/>
-      <c r="H90" t="inlineStr"/>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
+      <c r="E90" s="4" t="inlineStr"/>
+      <c r="F90" s="4" t="inlineStr"/>
+      <c r="G90" s="4" t="inlineStr"/>
+      <c r="H90" s="4" t="inlineStr"/>
+      <c r="I90" s="4" t="inlineStr"/>
+      <c r="J90" s="4" t="inlineStr"/>
+      <c r="K90" s="4" t="inlineStr"/>
+      <c r="L90" s="4" t="inlineStr"/>
+      <c r="M90" s="4" t="inlineStr"/>
+      <c r="N90" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="O90" s="4" t="inlineStr"/>
+      <c r="P90" s="4" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="3" t="inlineStr">

--- a/MechanismOfAction/inputs/BCIO_MoA.xlsx
+++ b/MechanismOfAction/inputs/BCIO_MoA.xlsx
@@ -9926,42 +9926,42 @@
       <c r="P232" s="3" t="inlineStr"/>
     </row>
     <row r="233">
-      <c r="A233" t="inlineStr">
+      <c r="A233" s="4" t="inlineStr">
         <is>
           <t>PATO:0000001</t>
         </is>
       </c>
-      <c r="B233" t="inlineStr">
+      <c r="B233" s="4" t="inlineStr">
         <is>
           <t>quality</t>
         </is>
       </c>
-      <c r="C233" t="inlineStr">
+      <c r="C233" s="4" t="inlineStr">
         <is>
           <t>specifically dependent continuant</t>
         </is>
       </c>
-      <c r="D233" t="inlineStr">
+      <c r="D233" s="4" t="inlineStr">
         <is>
           <t>A dependent entity that inheres in a bearer by virtue of how the bearer is related to other entities.</t>
         </is>
       </c>
-      <c r="E233" t="inlineStr"/>
-      <c r="F233" t="inlineStr"/>
-      <c r="G233" t="inlineStr"/>
-      <c r="H233" t="inlineStr"/>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
-      <c r="M233" t="inlineStr"/>
-      <c r="N233" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="O233" t="inlineStr"/>
-      <c r="P233" t="inlineStr"/>
+      <c r="E233" s="4" t="inlineStr"/>
+      <c r="F233" s="4" t="inlineStr"/>
+      <c r="G233" s="4" t="inlineStr"/>
+      <c r="H233" s="4" t="inlineStr"/>
+      <c r="I233" s="4" t="inlineStr"/>
+      <c r="J233" s="4" t="inlineStr"/>
+      <c r="K233" s="4" t="inlineStr"/>
+      <c r="L233" s="4" t="inlineStr"/>
+      <c r="M233" s="4" t="inlineStr"/>
+      <c r="N233" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="O233" s="4" t="inlineStr"/>
+      <c r="P233" s="4" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="3" t="inlineStr">
@@ -10040,42 +10040,42 @@
       <c r="P235" s="2" t="inlineStr"/>
     </row>
     <row r="236">
-      <c r="A236" t="inlineStr">
+      <c r="A236" s="4" t="inlineStr">
         <is>
           <t>MF:0000030</t>
         </is>
       </c>
-      <c r="B236" t="inlineStr">
+      <c r="B236" s="4" t="inlineStr">
         <is>
           <t>representation</t>
         </is>
       </c>
-      <c r="C236" t="inlineStr">
+      <c r="C236" s="4" t="inlineStr">
         <is>
           <t>specifically dependent continuant</t>
         </is>
       </c>
-      <c r="D236" t="inlineStr">
+      <c r="D236" s="4" t="inlineStr">
         <is>
           <t>A dependent continuant which is about a portion of reality.</t>
         </is>
       </c>
-      <c r="E236" t="inlineStr"/>
-      <c r="F236" t="inlineStr"/>
-      <c r="G236" t="inlineStr"/>
-      <c r="H236" t="inlineStr"/>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="inlineStr"/>
-      <c r="N236" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="O236" t="inlineStr"/>
-      <c r="P236" t="inlineStr"/>
+      <c r="E236" s="4" t="inlineStr"/>
+      <c r="F236" s="4" t="inlineStr"/>
+      <c r="G236" s="4" t="inlineStr"/>
+      <c r="H236" s="4" t="inlineStr"/>
+      <c r="I236" s="4" t="inlineStr"/>
+      <c r="J236" s="4" t="inlineStr"/>
+      <c r="K236" s="4" t="inlineStr"/>
+      <c r="L236" s="4" t="inlineStr"/>
+      <c r="M236" s="4" t="inlineStr"/>
+      <c r="N236" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="O236" s="4" t="inlineStr"/>
+      <c r="P236" s="4" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="2" t="inlineStr">

--- a/MechanismOfAction/inputs/BCIO_MoA.xlsx
+++ b/MechanismOfAction/inputs/BCIO_MoA.xlsx
@@ -4045,42 +4045,42 @@
       <c r="P87" t="inlineStr"/>
     </row>
     <row r="88">
-      <c r="A88" s="4" t="inlineStr">
+      <c r="A88" t="inlineStr">
         <is>
           <t>MFOEM:000202</t>
         </is>
       </c>
-      <c r="B88" s="4" t="inlineStr">
+      <c r="B88" t="inlineStr">
         <is>
           <t>bodily feeling</t>
         </is>
       </c>
-      <c r="C88" s="4" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t>affective process</t>
         </is>
       </c>
-      <c r="D88" s="4" t="inlineStr">
+      <c r="D88" t="inlineStr">
         <is>
           <t>An affective process involving sensory experience of physiological stimuli.</t>
         </is>
       </c>
-      <c r="E88" s="4" t="inlineStr"/>
-      <c r="F88" s="4" t="inlineStr"/>
-      <c r="G88" s="4" t="inlineStr"/>
-      <c r="H88" s="4" t="inlineStr"/>
-      <c r="I88" s="4" t="inlineStr"/>
-      <c r="J88" s="4" t="inlineStr"/>
-      <c r="K88" s="4" t="inlineStr"/>
-      <c r="L88" s="4" t="inlineStr"/>
-      <c r="M88" s="4" t="inlineStr"/>
-      <c r="N88" s="4" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="O88" s="4" t="inlineStr"/>
-      <c r="P88" s="4" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -10040,42 +10040,42 @@
       <c r="P235" s="2" t="inlineStr"/>
     </row>
     <row r="236">
-      <c r="A236" s="4" t="inlineStr">
+      <c r="A236" t="inlineStr">
         <is>
           <t>MF:0000030</t>
         </is>
       </c>
-      <c r="B236" s="4" t="inlineStr">
+      <c r="B236" t="inlineStr">
         <is>
           <t>representation</t>
         </is>
       </c>
-      <c r="C236" s="4" t="inlineStr">
+      <c r="C236" t="inlineStr">
         <is>
           <t>specifically dependent continuant</t>
         </is>
       </c>
-      <c r="D236" s="4" t="inlineStr">
+      <c r="D236" t="inlineStr">
         <is>
           <t>A dependent continuant which is about a portion of reality.</t>
         </is>
       </c>
-      <c r="E236" s="4" t="inlineStr"/>
-      <c r="F236" s="4" t="inlineStr"/>
-      <c r="G236" s="4" t="inlineStr"/>
-      <c r="H236" s="4" t="inlineStr"/>
-      <c r="I236" s="4" t="inlineStr"/>
-      <c r="J236" s="4" t="inlineStr"/>
-      <c r="K236" s="4" t="inlineStr"/>
-      <c r="L236" s="4" t="inlineStr"/>
-      <c r="M236" s="4" t="inlineStr"/>
-      <c r="N236" s="4" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="O236" s="4" t="inlineStr"/>
-      <c r="P236" s="4" t="inlineStr"/>
+      <c r="E236" t="inlineStr"/>
+      <c r="F236" t="inlineStr"/>
+      <c r="G236" t="inlineStr"/>
+      <c r="H236" t="inlineStr"/>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
+      <c r="M236" t="inlineStr"/>
+      <c r="N236" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="O236" t="inlineStr"/>
+      <c r="P236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="2" t="inlineStr">

--- a/MechanismOfAction/inputs/BCIO_MoA.xlsx
+++ b/MechanismOfAction/inputs/BCIO_MoA.xlsx
@@ -4045,42 +4045,42 @@
       <c r="P87" t="inlineStr"/>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
+      <c r="A88" s="4" t="inlineStr">
         <is>
           <t>MFOEM:000202</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" s="4" t="inlineStr">
         <is>
           <t>bodily feeling</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="C88" s="4" t="inlineStr">
         <is>
           <t>affective process</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="D88" s="4" t="inlineStr">
         <is>
           <t>An affective process involving sensory experience of physiological stimuli.</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr"/>
-      <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
+      <c r="E88" s="4" t="inlineStr"/>
+      <c r="F88" s="4" t="inlineStr"/>
+      <c r="G88" s="4" t="inlineStr"/>
+      <c r="H88" s="4" t="inlineStr"/>
+      <c r="I88" s="4" t="inlineStr"/>
+      <c r="J88" s="4" t="inlineStr"/>
+      <c r="K88" s="4" t="inlineStr"/>
+      <c r="L88" s="4" t="inlineStr"/>
+      <c r="M88" s="4" t="inlineStr"/>
+      <c r="N88" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="O88" s="4" t="inlineStr"/>
+      <c r="P88" s="4" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">

--- a/MechanismOfAction/inputs/BCIO_MoA.xlsx
+++ b/MechanismOfAction/inputs/BCIO_MoA.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P278"/>
+  <dimension ref="A1:P279"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7496,22 +7496,22 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>GO:0007613</t>
+          <t>BFO:0000040</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>memory</t>
+          <t>material entity</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>independent continuant</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>The activities involved in the mental information processing system that receives (registers), modifies, stores, and retrieves informational stimuli.</t>
+          <t>An independent continuant that is spatially extended whose identity is independent of that of other entities and can be maintained through time.</t>
         </is>
       </c>
       <c r="E173" t="inlineStr"/>
@@ -7532,227 +7532,227 @@
       <c r="P173" t="inlineStr"/>
     </row>
     <row r="174">
-      <c r="A174" s="3" t="inlineStr">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>GO:0007613</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>The activities involved in the mental information processing system that receives (registers), modifies, stores, and retrieves informational stimuli.</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr"/>
+      <c r="F174" t="inlineStr"/>
+      <c r="G174" t="inlineStr"/>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="O174" t="inlineStr"/>
+      <c r="P174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="3" t="inlineStr">
         <is>
           <t>BCIO:006093</t>
         </is>
       </c>
-      <c r="B174" s="3" t="inlineStr">
+      <c r="B175" s="3" t="inlineStr">
         <is>
           <t>mental behavioural cue</t>
         </is>
       </c>
-      <c r="C174" s="3" t="inlineStr">
+      <c r="C175" s="3" t="inlineStr">
         <is>
           <t>bodily behavioural cue</t>
         </is>
       </c>
-      <c r="D174" s="3" t="inlineStr">
+      <c r="D175" s="3" t="inlineStr">
         <is>
           <t>A stimulus that arises from mental processes and serves to elicit or guide behaviour.</t>
         </is>
       </c>
-      <c r="E174" s="3" t="inlineStr"/>
-      <c r="F174" s="3" t="inlineStr"/>
-      <c r="G174" s="3" t="inlineStr"/>
-      <c r="H174" s="3" t="inlineStr"/>
-      <c r="I174" s="3" t="inlineStr"/>
-      <c r="J174" s="3" t="inlineStr"/>
-      <c r="K174" s="3" t="inlineStr"/>
-      <c r="L174" s="3" t="inlineStr"/>
-      <c r="M174" s="3" t="inlineStr"/>
-      <c r="N174" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O174" s="3" t="inlineStr"/>
-      <c r="P174" s="3" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
+      <c r="E175" s="3" t="inlineStr"/>
+      <c r="F175" s="3" t="inlineStr"/>
+      <c r="G175" s="3" t="inlineStr"/>
+      <c r="H175" s="3" t="inlineStr"/>
+      <c r="I175" s="3" t="inlineStr"/>
+      <c r="J175" s="3" t="inlineStr"/>
+      <c r="K175" s="3" t="inlineStr"/>
+      <c r="L175" s="3" t="inlineStr"/>
+      <c r="M175" s="3" t="inlineStr"/>
+      <c r="N175" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O175" s="3" t="inlineStr"/>
+      <c r="P175" s="3" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
         <is>
           <t xml:space="preserve">MF:0000048 </t>
         </is>
       </c>
-      <c r="B175" t="inlineStr">
+      <c r="B176" t="inlineStr">
         <is>
           <t>mental capability</t>
         </is>
       </c>
-      <c r="C175" t="inlineStr">
+      <c r="C176" t="inlineStr">
         <is>
           <t>personal capability</t>
         </is>
       </c>
-      <c r="D175" t="inlineStr">
+      <c r="D176" t="inlineStr">
         <is>
           <t>A personal capability that  includes mental processes in its realisation.</t>
         </is>
       </c>
-      <c r="E175" t="inlineStr"/>
-      <c r="F175" t="inlineStr"/>
-      <c r="G175" t="inlineStr"/>
-      <c r="H175" t="inlineStr"/>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="inlineStr"/>
-      <c r="N175" t="inlineStr">
+      <c r="E176" t="inlineStr"/>
+      <c r="F176" t="inlineStr"/>
+      <c r="G176" t="inlineStr"/>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="O175" t="inlineStr"/>
-      <c r="P175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="3" t="inlineStr">
+      <c r="O176" t="inlineStr"/>
+      <c r="P176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="3" t="inlineStr">
         <is>
           <t>BCIO:006131</t>
         </is>
       </c>
-      <c r="B176" s="3" t="inlineStr">
+      <c r="B177" s="3" t="inlineStr">
         <is>
           <t>mental categorising</t>
         </is>
       </c>
-      <c r="C176" s="3" t="inlineStr">
+      <c r="C177" s="3" t="inlineStr">
         <is>
           <t>mental process</t>
         </is>
       </c>
-      <c r="D176" s="3" t="inlineStr">
+      <c r="D177" s="3" t="inlineStr">
         <is>
           <t>A mental process in which objects, events, people, or experiences are grouped into classes, on the basis of features shared by members of the same class and features distinguishing the members of one class from those of another.</t>
         </is>
       </c>
-      <c r="E176" s="3" t="inlineStr"/>
-      <c r="F176" s="3" t="inlineStr"/>
-      <c r="G176" s="3" t="inlineStr"/>
-      <c r="H176" s="3" t="inlineStr"/>
-      <c r="I176" s="3" t="inlineStr"/>
-      <c r="J176" s="3" t="inlineStr"/>
-      <c r="K176" s="3" t="inlineStr"/>
-      <c r="L176" s="3" t="inlineStr"/>
-      <c r="M176" s="3" t="inlineStr"/>
-      <c r="N176" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O176" s="3" t="inlineStr"/>
-      <c r="P176" s="3" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
+      <c r="E177" s="3" t="inlineStr"/>
+      <c r="F177" s="3" t="inlineStr"/>
+      <c r="G177" s="3" t="inlineStr"/>
+      <c r="H177" s="3" t="inlineStr"/>
+      <c r="I177" s="3" t="inlineStr"/>
+      <c r="J177" s="3" t="inlineStr"/>
+      <c r="K177" s="3" t="inlineStr"/>
+      <c r="L177" s="3" t="inlineStr"/>
+      <c r="M177" s="3" t="inlineStr"/>
+      <c r="N177" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O177" s="3" t="inlineStr"/>
+      <c r="P177" s="3" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
         <is>
           <t>MF:0000033</t>
         </is>
       </c>
-      <c r="B177" t="inlineStr">
+      <c r="B178" t="inlineStr">
         <is>
           <t>mental disposition</t>
         </is>
       </c>
-      <c r="C177" t="inlineStr">
+      <c r="C178" t="inlineStr">
         <is>
           <t>bodily disposition</t>
         </is>
       </c>
-      <c r="D177" t="inlineStr">
+      <c r="D178" t="inlineStr">
         <is>
           <t>A bodily disposition that is realized in a mental process.</t>
         </is>
       </c>
-      <c r="E177" t="inlineStr"/>
-      <c r="F177" t="inlineStr"/>
-      <c r="G177" t="inlineStr"/>
-      <c r="H177" t="inlineStr"/>
-      <c r="I177" t="inlineStr">
+      <c r="E178" t="inlineStr"/>
+      <c r="F178" t="inlineStr"/>
+      <c r="G178" t="inlineStr"/>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="inlineStr">
         <is>
           <t xml:space="preserve">Mental disposition' is a subclass of 'bodily disposition', as mental dispositions occur in the body. </t>
         </is>
       </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="inlineStr"/>
-      <c r="N177" t="inlineStr">
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="O177" t="inlineStr"/>
-      <c r="P177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006162</t>
-        </is>
-      </c>
-      <c r="B178" s="3" t="inlineStr">
-        <is>
-          <t>mental distancing</t>
-        </is>
-      </c>
-      <c r="C178" s="3" t="inlineStr">
-        <is>
-          <t>cognitive process</t>
-        </is>
-      </c>
-      <c r="D178" s="3" t="inlineStr">
-        <is>
-          <t>A cognitive process that involves intentionally detaching oneself from one's immediate thoughts.</t>
-        </is>
-      </c>
-      <c r="E178" s="3" t="inlineStr"/>
-      <c r="F178" s="3" t="inlineStr"/>
-      <c r="G178" s="3" t="inlineStr">
-        <is>
-          <t>decentring</t>
-        </is>
-      </c>
-      <c r="H178" s="3" t="inlineStr"/>
-      <c r="I178" s="3" t="inlineStr"/>
-      <c r="J178" s="3" t="inlineStr"/>
-      <c r="K178" s="3" t="inlineStr"/>
-      <c r="L178" s="3" t="inlineStr"/>
-      <c r="M178" s="3" t="inlineStr"/>
-      <c r="N178" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O178" s="3" t="inlineStr"/>
-      <c r="P178" s="3" t="inlineStr"/>
+      <c r="O178" t="inlineStr"/>
+      <c r="P178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006080</t>
+          <t>BCIO:006162</t>
         </is>
       </c>
       <c r="B179" s="3" t="inlineStr">
         <is>
-          <t>mental image</t>
+          <t>mental distancing</t>
         </is>
       </c>
       <c r="C179" s="3" t="inlineStr">
         <is>
-          <t>cognitive representation</t>
+          <t>cognitive process</t>
         </is>
       </c>
       <c r="D179" s="3" t="inlineStr">
         <is>
-          <t>A cognitive representation of the sensory characteristics of objects or events that are not immediately present to the senses.</t>
+          <t>A cognitive process that involves intentionally detaching oneself from one's immediate thoughts.</t>
         </is>
       </c>
       <c r="E179" s="3" t="inlineStr"/>
       <c r="F179" s="3" t="inlineStr"/>
-      <c r="G179" s="3" t="inlineStr"/>
+      <c r="G179" s="3" t="inlineStr">
+        <is>
+          <t>decentring</t>
+        </is>
+      </c>
       <c r="H179" s="3" t="inlineStr"/>
       <c r="I179" s="3" t="inlineStr"/>
       <c r="J179" s="3" t="inlineStr"/>
@@ -7768,200 +7768,200 @@
       <c r="P179" s="3" t="inlineStr"/>
     </row>
     <row r="180">
-      <c r="A180" t="inlineStr">
+      <c r="A180" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006080</t>
+        </is>
+      </c>
+      <c r="B180" s="3" t="inlineStr">
+        <is>
+          <t>mental image</t>
+        </is>
+      </c>
+      <c r="C180" s="3" t="inlineStr">
+        <is>
+          <t>cognitive representation</t>
+        </is>
+      </c>
+      <c r="D180" s="3" t="inlineStr">
+        <is>
+          <t>A cognitive representation of the sensory characteristics of objects or events that are not immediately present to the senses.</t>
+        </is>
+      </c>
+      <c r="E180" s="3" t="inlineStr"/>
+      <c r="F180" s="3" t="inlineStr"/>
+      <c r="G180" s="3" t="inlineStr"/>
+      <c r="H180" s="3" t="inlineStr"/>
+      <c r="I180" s="3" t="inlineStr"/>
+      <c r="J180" s="3" t="inlineStr"/>
+      <c r="K180" s="3" t="inlineStr"/>
+      <c r="L180" s="3" t="inlineStr"/>
+      <c r="M180" s="3" t="inlineStr"/>
+      <c r="N180" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O180" s="3" t="inlineStr"/>
+      <c r="P180" s="3" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
         <is>
           <t>MF:0000083</t>
         </is>
       </c>
-      <c r="B180" t="inlineStr">
+      <c r="B181" t="inlineStr">
         <is>
           <t>mental imagery</t>
         </is>
       </c>
-      <c r="C180" t="inlineStr">
+      <c r="C181" t="inlineStr">
         <is>
           <t>mental process</t>
         </is>
       </c>
-      <c r="D180" t="inlineStr">
+      <c r="D181" t="inlineStr">
         <is>
           <t>A mental process that evokes the representation of the sensory characteristics of objects or events when these are not immediately present to the senses.</t>
         </is>
       </c>
-      <c r="E180" t="inlineStr"/>
-      <c r="F180" t="inlineStr"/>
-      <c r="G180" t="inlineStr"/>
-      <c r="H180" t="inlineStr"/>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="inlineStr"/>
-      <c r="N180" t="inlineStr">
+      <c r="E181" t="inlineStr"/>
+      <c r="F181" t="inlineStr"/>
+      <c r="G181" t="inlineStr"/>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="O180" t="inlineStr"/>
-      <c r="P180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="3" t="inlineStr">
+      <c r="O181" t="inlineStr"/>
+      <c r="P181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="3" t="inlineStr">
         <is>
           <t>BCIO:006058</t>
         </is>
       </c>
-      <c r="B181" s="3" t="inlineStr">
+      <c r="B182" s="3" t="inlineStr">
         <is>
           <t>mental imagery disposition</t>
         </is>
       </c>
-      <c r="C181" s="3" t="inlineStr">
+      <c r="C182" s="3" t="inlineStr">
         <is>
           <t>mental disposition</t>
         </is>
       </c>
-      <c r="D181" s="3" t="inlineStr">
+      <c r="D182" s="3" t="inlineStr">
         <is>
           <t>A mental disposition to evoke the representation of the sensory characteristics of objects or events when these are not immediately present to the senses.</t>
         </is>
       </c>
-      <c r="E181" s="3" t="inlineStr"/>
-      <c r="F181" s="3" t="inlineStr">
+      <c r="E182" s="3" t="inlineStr"/>
+      <c r="F182" s="3" t="inlineStr">
         <is>
           <t>A tendency to experience mental images.</t>
         </is>
       </c>
-      <c r="G181" s="3" t="inlineStr"/>
-      <c r="H181" s="3" t="inlineStr"/>
-      <c r="I181" s="3" t="inlineStr"/>
-      <c r="J181" s="3" t="inlineStr"/>
-      <c r="K181" s="3" t="inlineStr"/>
-      <c r="L181" s="3" t="inlineStr"/>
-      <c r="M181" s="3" t="inlineStr"/>
-      <c r="N181" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O181" s="3" t="inlineStr"/>
-      <c r="P181" s="3" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="2" t="inlineStr">
+      <c r="G182" s="3" t="inlineStr"/>
+      <c r="H182" s="3" t="inlineStr"/>
+      <c r="I182" s="3" t="inlineStr"/>
+      <c r="J182" s="3" t="inlineStr"/>
+      <c r="K182" s="3" t="inlineStr"/>
+      <c r="L182" s="3" t="inlineStr"/>
+      <c r="M182" s="3" t="inlineStr"/>
+      <c r="N182" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O182" s="3" t="inlineStr"/>
+      <c r="P182" s="3" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="inlineStr">
         <is>
           <t>BCIO:050228</t>
         </is>
       </c>
-      <c r="B182" s="2" t="inlineStr">
+      <c r="B183" s="2" t="inlineStr">
         <is>
           <t>mental plan</t>
         </is>
       </c>
-      <c r="C182" s="2" t="inlineStr">
+      <c r="C183" s="2" t="inlineStr">
         <is>
           <t>mental disposition</t>
         </is>
       </c>
-      <c r="D182" s="2" t="inlineStr">
+      <c r="D183" s="2" t="inlineStr">
         <is>
           <t>A mental disposition that is realised in mental processes mentally manipulating representations of steps in an imagined process which has some goal.</t>
         </is>
       </c>
-      <c r="E182" s="2" t="inlineStr"/>
-      <c r="F182" s="2" t="inlineStr"/>
-      <c r="G182" s="2" t="inlineStr"/>
-      <c r="H182" s="2" t="inlineStr"/>
-      <c r="I182" s="2" t="inlineStr">
+      <c r="E183" s="2" t="inlineStr"/>
+      <c r="F183" s="2" t="inlineStr"/>
+      <c r="G183" s="2" t="inlineStr"/>
+      <c r="H183" s="2" t="inlineStr"/>
+      <c r="I183" s="2" t="inlineStr">
         <is>
           <t>A mental plan is the outcome of a planning process.</t>
         </is>
       </c>
-      <c r="J182" s="2" t="inlineStr"/>
-      <c r="K182" s="2" t="inlineStr"/>
-      <c r="L182" s="2" t="inlineStr"/>
-      <c r="M182" s="2" t="inlineStr"/>
-      <c r="N182" s="2" t="inlineStr">
+      <c r="J183" s="2" t="inlineStr"/>
+      <c r="K183" s="2" t="inlineStr"/>
+      <c r="L183" s="2" t="inlineStr"/>
+      <c r="M183" s="2" t="inlineStr"/>
+      <c r="N183" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="O182" s="2" t="inlineStr"/>
-      <c r="P182" s="2" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="3" t="inlineStr">
+      <c r="O183" s="2" t="inlineStr"/>
+      <c r="P183" s="2" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="3" t="inlineStr">
         <is>
           <t>BCIO:006070</t>
         </is>
       </c>
-      <c r="B183" s="3" t="inlineStr">
+      <c r="B184" s="3" t="inlineStr">
         <is>
           <t>mental plan for a behaviour</t>
         </is>
       </c>
-      <c r="C183" s="3" t="inlineStr">
+      <c r="C184" s="3" t="inlineStr">
         <is>
           <t>mental plan</t>
         </is>
       </c>
-      <c r="D183" s="3" t="inlineStr">
+      <c r="D184" s="3" t="inlineStr">
         <is>
           <t>A mental plan that is realised in mental processes representing the steps to enact a behaviour and the conditions under which the behaviour will be enacted.</t>
         </is>
       </c>
-      <c r="E183" s="3" t="inlineStr"/>
-      <c r="F183" s="3" t="inlineStr"/>
-      <c r="G183" s="3" t="inlineStr">
+      <c r="E184" s="3" t="inlineStr"/>
+      <c r="F184" s="3" t="inlineStr"/>
+      <c r="G184" s="3" t="inlineStr">
         <is>
           <t>Action plan</t>
         </is>
       </c>
-      <c r="H183" s="3" t="inlineStr"/>
-      <c r="I183" s="3" t="inlineStr">
+      <c r="H184" s="3" t="inlineStr"/>
+      <c r="I184" s="3" t="inlineStr">
         <is>
           <t>The term ‘plan’ can sometimes be used to refer to intention and sometimes for instructional plans.
 'mental plan for a behaviour’ involves  plans for which details about the behaviour (when [specific times], where, how or with whom) are specified.</t>
         </is>
       </c>
-      <c r="J183" s="3" t="inlineStr"/>
-      <c r="K183" s="3" t="inlineStr"/>
-      <c r="L183" s="3" t="inlineStr"/>
-      <c r="M183" s="3" t="inlineStr"/>
-      <c r="N183" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O183" s="3" t="inlineStr"/>
-      <c r="P183" s="3" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006157</t>
-        </is>
-      </c>
-      <c r="B184" s="3" t="inlineStr">
-        <is>
-          <t>mental plan for coping with barriers</t>
-        </is>
-      </c>
-      <c r="C184" s="3" t="inlineStr">
-        <is>
-          <t>mental plan for a behaviour</t>
-        </is>
-      </c>
-      <c r="D184" s="3" t="inlineStr">
-        <is>
-          <t>A mental plan regarding a strategy to deal with conditions that could prevent the performance of a behaviour.</t>
-        </is>
-      </c>
-      <c r="E184" s="3" t="inlineStr"/>
-      <c r="F184" s="3" t="inlineStr"/>
-      <c r="G184" s="3" t="inlineStr"/>
-      <c r="H184" s="3" t="inlineStr"/>
-      <c r="I184" s="3" t="inlineStr"/>
       <c r="J184" s="3" t="inlineStr"/>
       <c r="K184" s="3" t="inlineStr"/>
       <c r="L184" s="3" t="inlineStr"/>
@@ -7975,151 +7975,147 @@
       <c r="P184" s="3" t="inlineStr"/>
     </row>
     <row r="185">
-      <c r="A185" t="inlineStr">
+      <c r="A185" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006157</t>
+        </is>
+      </c>
+      <c r="B185" s="3" t="inlineStr">
+        <is>
+          <t>mental plan for coping with barriers</t>
+        </is>
+      </c>
+      <c r="C185" s="3" t="inlineStr">
+        <is>
+          <t>mental plan for a behaviour</t>
+        </is>
+      </c>
+      <c r="D185" s="3" t="inlineStr">
+        <is>
+          <t>A mental plan regarding a strategy to deal with conditions that could prevent the performance of a behaviour.</t>
+        </is>
+      </c>
+      <c r="E185" s="3" t="inlineStr"/>
+      <c r="F185" s="3" t="inlineStr"/>
+      <c r="G185" s="3" t="inlineStr"/>
+      <c r="H185" s="3" t="inlineStr"/>
+      <c r="I185" s="3" t="inlineStr"/>
+      <c r="J185" s="3" t="inlineStr"/>
+      <c r="K185" s="3" t="inlineStr"/>
+      <c r="L185" s="3" t="inlineStr"/>
+      <c r="M185" s="3" t="inlineStr"/>
+      <c r="N185" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O185" s="3" t="inlineStr"/>
+      <c r="P185" s="3" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
         <is>
           <t>MF:0000020</t>
         </is>
       </c>
-      <c r="B185" t="inlineStr">
+      <c r="B186" t="inlineStr">
         <is>
           <t>mental process</t>
         </is>
       </c>
-      <c r="C185" t="inlineStr">
+      <c r="C186" t="inlineStr">
         <is>
           <t>bodily process</t>
         </is>
       </c>
-      <c r="D185" t="inlineStr">
+      <c r="D186" t="inlineStr">
         <is>
           <t>A bodily process that occurs in the brain, and that can of itself be conscious, or can give rise to a process that can of itself be conscious or can give rise to behaviour.</t>
         </is>
       </c>
-      <c r="E185" t="inlineStr"/>
-      <c r="F185" t="inlineStr">
+      <c r="E186" t="inlineStr"/>
+      <c r="F186" t="inlineStr">
         <is>
           <t>A process that takes place in the brain and can involve consciousness.</t>
         </is>
       </c>
-      <c r="G185" t="inlineStr"/>
-      <c r="H185" t="inlineStr"/>
-      <c r="I185" t="inlineStr">
+      <c r="G186" t="inlineStr"/>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="inlineStr">
         <is>
           <t>Mental processes can vary in the degree to which they involve consciousness.
 A 'mental process' is a subclass of 'bodily process', as mental processes occur within the body, specifically involving the brain.</t>
         </is>
       </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="inlineStr"/>
-      <c r="N185" t="inlineStr">
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="O185" t="inlineStr"/>
-      <c r="P185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="4" t="inlineStr">
+      <c r="O186" t="inlineStr"/>
+      <c r="P186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">MF:0000075 </t>
         </is>
       </c>
-      <c r="B186" s="4" t="inlineStr">
+      <c r="B187" s="4" t="inlineStr">
         <is>
           <t>mental quality</t>
         </is>
       </c>
-      <c r="C186" s="4" t="inlineStr">
+      <c r="C187" s="4" t="inlineStr">
         <is>
           <t>bodily quality</t>
         </is>
       </c>
-      <c r="D186" s="4" t="inlineStr">
+      <c r="D187" s="4" t="inlineStr">
         <is>
           <t>A bodily quality that inheres in those structures of the extended organism that are essential for mental functioning.</t>
         </is>
       </c>
-      <c r="E186" s="4" t="inlineStr"/>
-      <c r="F186" s="4" t="inlineStr"/>
-      <c r="G186" s="4" t="inlineStr"/>
-      <c r="H186" s="4" t="inlineStr"/>
-      <c r="I186" s="4" t="inlineStr"/>
-      <c r="J186" s="4" t="inlineStr"/>
-      <c r="K186" s="4" t="inlineStr"/>
-      <c r="L186" s="4" t="inlineStr"/>
-      <c r="M186" s="4" t="inlineStr"/>
-      <c r="N186" s="4" t="inlineStr">
+      <c r="E187" s="4" t="inlineStr"/>
+      <c r="F187" s="4" t="inlineStr"/>
+      <c r="G187" s="4" t="inlineStr"/>
+      <c r="H187" s="4" t="inlineStr"/>
+      <c r="I187" s="4" t="inlineStr"/>
+      <c r="J187" s="4" t="inlineStr"/>
+      <c r="K187" s="4" t="inlineStr"/>
+      <c r="L187" s="4" t="inlineStr"/>
+      <c r="M187" s="4" t="inlineStr"/>
+      <c r="N187" s="4" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="O186" s="4" t="inlineStr"/>
-      <c r="P186" s="4" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006004</t>
-        </is>
-      </c>
-      <c r="B187" s="3" t="inlineStr">
-        <is>
-          <t>mental skill</t>
-        </is>
-      </c>
-      <c r="C187" s="3" t="inlineStr">
-        <is>
-          <t>mental capability</t>
-        </is>
-      </c>
-      <c r="D187" s="3" t="inlineStr">
-        <is>
-          <t>A mental capability acquired through training or practice.</t>
-        </is>
-      </c>
-      <c r="E187" s="3" t="inlineStr"/>
-      <c r="F187" s="3" t="inlineStr"/>
-      <c r="G187" s="3" t="inlineStr"/>
-      <c r="H187" s="3" t="inlineStr"/>
-      <c r="I187" s="3" t="inlineStr">
-        <is>
-          <t>The term 'skill' specifically refers to acquired capabilities, as behavioural theories suggested that the main difference between capabilities and skills was that skills were learned.</t>
-        </is>
-      </c>
-      <c r="J187" s="3" t="inlineStr"/>
-      <c r="K187" s="3" t="inlineStr"/>
-      <c r="L187" s="3" t="inlineStr"/>
-      <c r="M187" s="3" t="inlineStr"/>
-      <c r="N187" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O187" s="3" t="inlineStr"/>
-      <c r="P187" s="3" t="inlineStr"/>
+      <c r="O187" s="4" t="inlineStr"/>
+      <c r="P187" s="4" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006132</t>
+          <t>BCIO:006004</t>
         </is>
       </c>
       <c r="B188" s="3" t="inlineStr">
         <is>
-          <t>mentally comparing against a standard</t>
+          <t>mental skill</t>
         </is>
       </c>
       <c r="C188" s="3" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>mental capability</t>
         </is>
       </c>
       <c r="D188" s="3" t="inlineStr">
         <is>
-          <t>A mental process in which conditions are compared against a particular reference level.</t>
+          <t>A mental capability acquired through training or practice.</t>
         </is>
       </c>
       <c r="E188" s="3" t="inlineStr"/>
@@ -8128,7 +8124,7 @@
       <c r="H188" s="3" t="inlineStr"/>
       <c r="I188" s="3" t="inlineStr">
         <is>
-          <t>The term 'condition' may refer to the characteristics of an object, event and person.</t>
+          <t>The term 'skill' specifically refers to acquired capabilities, as behavioural theories suggested that the main difference between capabilities and skills was that skills were learned.</t>
         </is>
       </c>
       <c r="J188" s="3" t="inlineStr"/>
@@ -8144,100 +8140,104 @@
       <c r="P188" s="3" t="inlineStr"/>
     </row>
     <row r="189">
-      <c r="A189" t="inlineStr">
+      <c r="A189" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006132</t>
+        </is>
+      </c>
+      <c r="B189" s="3" t="inlineStr">
+        <is>
+          <t>mentally comparing against a standard</t>
+        </is>
+      </c>
+      <c r="C189" s="3" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D189" s="3" t="inlineStr">
+        <is>
+          <t>A mental process in which conditions are compared against a particular reference level.</t>
+        </is>
+      </c>
+      <c r="E189" s="3" t="inlineStr"/>
+      <c r="F189" s="3" t="inlineStr"/>
+      <c r="G189" s="3" t="inlineStr"/>
+      <c r="H189" s="3" t="inlineStr"/>
+      <c r="I189" s="3" t="inlineStr">
+        <is>
+          <t>The term 'condition' may refer to the characteristics of an object, event and person.</t>
+        </is>
+      </c>
+      <c r="J189" s="3" t="inlineStr"/>
+      <c r="K189" s="3" t="inlineStr"/>
+      <c r="L189" s="3" t="inlineStr"/>
+      <c r="M189" s="3" t="inlineStr"/>
+      <c r="N189" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O189" s="3" t="inlineStr"/>
+      <c r="P189" s="3" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
         <is>
           <t>MFOEM:000023</t>
         </is>
       </c>
-      <c r="B189" t="inlineStr">
+      <c r="B190" t="inlineStr">
         <is>
           <t>moral disgust</t>
         </is>
       </c>
-      <c r="C189" t="inlineStr">
+      <c r="C190" t="inlineStr">
         <is>
           <t>disgust</t>
         </is>
       </c>
-      <c r="D189" t="inlineStr">
+      <c r="D190" t="inlineStr">
         <is>
           <t>Disgust elicited by some kinds of especially egregious moral violations.</t>
         </is>
       </c>
-      <c r="E189" t="inlineStr"/>
-      <c r="F189" t="inlineStr"/>
-      <c r="G189" t="inlineStr"/>
-      <c r="H189" t="inlineStr"/>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="inlineStr"/>
-      <c r="N189" t="inlineStr">
+      <c r="E190" t="inlineStr"/>
+      <c r="F190" t="inlineStr"/>
+      <c r="G190" t="inlineStr"/>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="O189" t="inlineStr"/>
-      <c r="P189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006133</t>
-        </is>
-      </c>
-      <c r="B190" s="3" t="inlineStr">
-        <is>
-          <t>motivation</t>
-        </is>
-      </c>
-      <c r="C190" s="3" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D190" s="3" t="inlineStr">
-        <is>
-          <t>A mental process that energises and directs behaviour.</t>
-        </is>
-      </c>
-      <c r="E190" s="3" t="inlineStr"/>
-      <c r="F190" s="3" t="inlineStr"/>
-      <c r="G190" s="3" t="inlineStr"/>
-      <c r="H190" s="3" t="inlineStr"/>
-      <c r="I190" s="3" t="inlineStr"/>
-      <c r="J190" s="3" t="inlineStr"/>
-      <c r="K190" s="3" t="inlineStr"/>
-      <c r="L190" s="3" t="inlineStr"/>
-      <c r="M190" s="3" t="inlineStr"/>
-      <c r="N190" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O190" s="3" t="inlineStr"/>
-      <c r="P190" s="3" t="inlineStr"/>
+      <c r="O190" t="inlineStr"/>
+      <c r="P190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006060</t>
+          <t>BCIO:006133</t>
         </is>
       </c>
       <c r="B191" s="3" t="inlineStr">
         <is>
-          <t>motivational orientation towards types of outcomes</t>
+          <t>motivation</t>
         </is>
       </c>
       <c r="C191" s="3" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D191" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">A mental disposition for motivation to be guided by a focus on the presence or absence of outcomes of a certain valence. </t>
+          <t>A mental process that energises and directs behaviour.</t>
         </is>
       </c>
       <c r="E191" s="3" t="inlineStr"/>
@@ -8260,22 +8260,22 @@
     <row r="192">
       <c r="A192" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006068</t>
+          <t>BCIO:006060</t>
         </is>
       </c>
       <c r="B192" s="3" t="inlineStr">
         <is>
-          <t>need for a sense of belonging and attachment</t>
+          <t>motivational orientation towards types of outcomes</t>
         </is>
       </c>
       <c r="C192" s="3" t="inlineStr">
         <is>
-          <t>psychological need</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D192" s="3" t="inlineStr">
         <is>
-          <t>A psychological need to have caring relationships with other people.</t>
+          <t xml:space="preserve">A mental disposition for motivation to be guided by a focus on the presence or absence of outcomes of a certain valence. </t>
         </is>
       </c>
       <c r="E192" s="3" t="inlineStr"/>
@@ -8298,12 +8298,12 @@
     <row r="193">
       <c r="A193" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006067</t>
+          <t>BCIO:006068</t>
         </is>
       </c>
       <c r="B193" s="3" t="inlineStr">
         <is>
-          <t>need for a sense of safety</t>
+          <t>need for a sense of belonging and attachment</t>
         </is>
       </c>
       <c r="C193" s="3" t="inlineStr">
@@ -8313,7 +8313,7 @@
       </c>
       <c r="D193" s="3" t="inlineStr">
         <is>
-          <t>A psychological need to feel safe from threats.</t>
+          <t>A psychological need to have caring relationships with other people.</t>
         </is>
       </c>
       <c r="E193" s="3" t="inlineStr"/>
@@ -8336,12 +8336,12 @@
     <row r="194">
       <c r="A194" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006065</t>
+          <t>BCIO:006067</t>
         </is>
       </c>
       <c r="B194" s="3" t="inlineStr">
         <is>
-          <t>need for autonomy</t>
+          <t>need for a sense of safety</t>
         </is>
       </c>
       <c r="C194" s="3" t="inlineStr">
@@ -8351,7 +8351,7 @@
       </c>
       <c r="D194" s="3" t="inlineStr">
         <is>
-          <t>A psychological need to have a sense of personal agency and initiative.</t>
+          <t>A psychological need to feel safe from threats.</t>
         </is>
       </c>
       <c r="E194" s="3" t="inlineStr"/>
@@ -8374,12 +8374,12 @@
     <row r="195">
       <c r="A195" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006066</t>
+          <t>BCIO:006065</t>
         </is>
       </c>
       <c r="B195" s="3" t="inlineStr">
         <is>
-          <t>need for self-esteem</t>
+          <t>need for autonomy</t>
         </is>
       </c>
       <c r="C195" s="3" t="inlineStr">
@@ -8389,7 +8389,7 @@
       </c>
       <c r="D195" s="3" t="inlineStr">
         <is>
-          <t>A psychological need to have a positive evaluation of oneself and one's qualities and characteristics.</t>
+          <t>A psychological need to have a sense of personal agency and initiative.</t>
         </is>
       </c>
       <c r="E195" s="3" t="inlineStr"/>
@@ -8412,12 +8412,12 @@
     <row r="196">
       <c r="A196" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006069</t>
+          <t>BCIO:006066</t>
         </is>
       </c>
       <c r="B196" s="3" t="inlineStr">
         <is>
-          <t>need to feel competent</t>
+          <t>need for self-esteem</t>
         </is>
       </c>
       <c r="C196" s="3" t="inlineStr">
@@ -8427,16 +8427,12 @@
       </c>
       <c r="D196" s="3" t="inlineStr">
         <is>
-          <t>A psychological need to experience oneself as capable and effective.</t>
+          <t>A psychological need to have a positive evaluation of oneself and one's qualities and characteristics.</t>
         </is>
       </c>
       <c r="E196" s="3" t="inlineStr"/>
       <c r="F196" s="3" t="inlineStr"/>
-      <c r="G196" s="3" t="inlineStr">
-        <is>
-          <t>need for mastery</t>
-        </is>
-      </c>
+      <c r="G196" s="3" t="inlineStr"/>
       <c r="H196" s="3" t="inlineStr"/>
       <c r="I196" s="3" t="inlineStr"/>
       <c r="J196" s="3" t="inlineStr"/>
@@ -8452,62 +8448,66 @@
       <c r="P196" s="3" t="inlineStr"/>
     </row>
     <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>MFOEM:000210</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>negative surprise</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>surprise</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>Surprise with a negative valence.</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
-      <c r="H197" t="inlineStr"/>
-      <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="inlineStr"/>
-      <c r="N197" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="O197" t="inlineStr"/>
-      <c r="P197" t="inlineStr"/>
+      <c r="A197" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006069</t>
+        </is>
+      </c>
+      <c r="B197" s="3" t="inlineStr">
+        <is>
+          <t>need to feel competent</t>
+        </is>
+      </c>
+      <c r="C197" s="3" t="inlineStr">
+        <is>
+          <t>psychological need</t>
+        </is>
+      </c>
+      <c r="D197" s="3" t="inlineStr">
+        <is>
+          <t>A psychological need to experience oneself as capable and effective.</t>
+        </is>
+      </c>
+      <c r="E197" s="3" t="inlineStr"/>
+      <c r="F197" s="3" t="inlineStr"/>
+      <c r="G197" s="3" t="inlineStr">
+        <is>
+          <t>need for mastery</t>
+        </is>
+      </c>
+      <c r="H197" s="3" t="inlineStr"/>
+      <c r="I197" s="3" t="inlineStr"/>
+      <c r="J197" s="3" t="inlineStr"/>
+      <c r="K197" s="3" t="inlineStr"/>
+      <c r="L197" s="3" t="inlineStr"/>
+      <c r="M197" s="3" t="inlineStr"/>
+      <c r="N197" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O197" s="3" t="inlineStr"/>
+      <c r="P197" s="3" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>GO:0046958</t>
+          <t>MFOEM:000210</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>non-associative learning</t>
+          <t>negative surprise</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>learning</t>
+          <t>surprise</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>A simple form of learning whereby the repeated presence of a stimulus leads to a change in the probability or strength of the response to that stimulus. There is no association of one type of stimulus with another, rather it is a generalized response to the environment.</t>
+          <t>Surprise with a negative valence.</t>
         </is>
       </c>
       <c r="E198" t="inlineStr"/>
@@ -8528,119 +8528,115 @@
       <c r="P198" t="inlineStr"/>
     </row>
     <row r="199">
-      <c r="A199" s="2" t="inlineStr">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>GO:0046958</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>non-associative learning</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>learning</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>A simple form of learning whereby the repeated presence of a stimulus leads to a change in the probability or strength of the response to that stimulus. There is no association of one type of stimulus with another, rather it is a generalized response to the environment.</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr"/>
+      <c r="F199" t="inlineStr"/>
+      <c r="G199" t="inlineStr"/>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="O199" t="inlineStr"/>
+      <c r="P199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="inlineStr">
         <is>
           <t>BCIO:050235</t>
         </is>
       </c>
-      <c r="B199" s="2" t="inlineStr">
+      <c r="B200" s="2" t="inlineStr">
         <is>
           <t>non-judgmental acknowledgement</t>
         </is>
       </c>
-      <c r="C199" s="2" t="inlineStr">
+      <c r="C200" s="2" t="inlineStr">
         <is>
           <t>mental process</t>
         </is>
       </c>
-      <c r="D199" s="2" t="inlineStr">
+      <c r="D200" s="2" t="inlineStr">
         <is>
           <t>A mental process that involves taking notice of one's affective, mental or bodily experience without judging it as good or bad.</t>
         </is>
       </c>
-      <c r="E199" s="2" t="inlineStr"/>
-      <c r="F199" s="2" t="inlineStr"/>
-      <c r="G199" s="2" t="inlineStr">
+      <c r="E200" s="2" t="inlineStr"/>
+      <c r="F200" s="2" t="inlineStr"/>
+      <c r="G200" s="2" t="inlineStr">
         <is>
           <t>Acceptance</t>
         </is>
       </c>
-      <c r="H199" s="2" t="inlineStr"/>
-      <c r="I199" s="2" t="inlineStr"/>
-      <c r="J199" s="2" t="inlineStr"/>
-      <c r="K199" s="2" t="inlineStr"/>
-      <c r="L199" s="2" t="inlineStr"/>
-      <c r="M199" s="2" t="inlineStr"/>
-      <c r="N199" s="2" t="inlineStr">
+      <c r="H200" s="2" t="inlineStr"/>
+      <c r="I200" s="2" t="inlineStr"/>
+      <c r="J200" s="2" t="inlineStr"/>
+      <c r="K200" s="2" t="inlineStr"/>
+      <c r="L200" s="2" t="inlineStr"/>
+      <c r="M200" s="2" t="inlineStr"/>
+      <c r="N200" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="O199" s="2" t="inlineStr"/>
-      <c r="P199" s="2" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050238</t>
-        </is>
-      </c>
-      <c r="B200" s="3" t="inlineStr">
-        <is>
-          <t>non-linguistic communication behaviour</t>
-        </is>
-      </c>
-      <c r="C200" s="3" t="inlineStr">
-        <is>
-          <t>communication behaviour</t>
-        </is>
-      </c>
-      <c r="D200" s="3" t="inlineStr">
-        <is>
-          <t>A communication behaviour in which information is transmitted without being encoded in the meaning units of any language.</t>
-        </is>
-      </c>
-      <c r="E200" s="3" t="inlineStr"/>
-      <c r="F200" s="3" t="inlineStr"/>
-      <c r="G200" s="3" t="inlineStr"/>
-      <c r="H200" s="3" t="inlineStr">
-        <is>
-          <t>Communicating through bodily gestures, through pictograms and through sound (e.g. a siren going off communicates information about the presence of danger without the use of language)</t>
-        </is>
-      </c>
-      <c r="I200" s="3" t="inlineStr"/>
-      <c r="J200" s="3" t="inlineStr"/>
-      <c r="K200" s="3" t="inlineStr"/>
-      <c r="L200" s="3" t="inlineStr"/>
-      <c r="M200" s="3" t="inlineStr"/>
-      <c r="N200" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O200" s="3" t="inlineStr"/>
-      <c r="P200" s="3" t="inlineStr"/>
+      <c r="O200" s="2" t="inlineStr"/>
+      <c r="P200" s="2" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006095</t>
+          <t>BCIO:050238</t>
         </is>
       </c>
       <c r="B201" s="3" t="inlineStr">
         <is>
-          <t>normative behaviour</t>
+          <t>non-linguistic communication behaviour</t>
         </is>
       </c>
       <c r="C201" s="3" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>communication behaviour</t>
         </is>
       </c>
       <c r="D201" s="3" t="inlineStr">
         <is>
-          <t>An individual human behaviour that is commonly enacted by people that are part of a social environmental system.</t>
+          <t>A communication behaviour in which information is transmitted without being encoded in the meaning units of any language.</t>
         </is>
       </c>
       <c r="E201" s="3" t="inlineStr"/>
       <c r="F201" s="3" t="inlineStr"/>
       <c r="G201" s="3" t="inlineStr"/>
-      <c r="H201" s="3" t="inlineStr"/>
-      <c r="I201" s="3" t="inlineStr">
-        <is>
-          <t>Normative behaviour can be an MoA or outcome depending on how 'normative behaviour' is described in an intervention. The Behaviour Change-Intervention Ontology includes the class 'outcome behaviour' (definition: Human behavior that is an intervention outcome.), which would not be an MoA. When an intervention targets a normative behaviour to achieve an outcome behaviour, the former qualifies as an MoA.</t>
-        </is>
-      </c>
+      <c r="H201" s="3" t="inlineStr">
+        <is>
+          <t>Communicating through bodily gestures, through pictograms and through sound (e.g. a siren going off communicates information about the presence of danger without the use of language)</t>
+        </is>
+      </c>
+      <c r="I201" s="3" t="inlineStr"/>
       <c r="J201" s="3" t="inlineStr"/>
       <c r="K201" s="3" t="inlineStr"/>
       <c r="L201" s="3" t="inlineStr"/>
@@ -8656,22 +8652,22 @@
     <row r="202">
       <c r="A202" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006042</t>
+          <t>BCIO:006095</t>
         </is>
       </c>
       <c r="B202" s="3" t="inlineStr">
         <is>
-          <t>normative belief</t>
+          <t>normative behaviour</t>
         </is>
       </c>
       <c r="C202" s="3" t="inlineStr">
         <is>
-          <t>perceived norm</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="D202" s="3" t="inlineStr">
         <is>
-          <t>A belief about whether key others think one should perform a behaviour.</t>
+          <t>An individual human behaviour that is commonly enacted by people that are part of a social environmental system.</t>
         </is>
       </c>
       <c r="E202" s="3" t="inlineStr"/>
@@ -8680,7 +8676,7 @@
       <c r="H202" s="3" t="inlineStr"/>
       <c r="I202" s="3" t="inlineStr">
         <is>
-          <t>'Key others' can include 'people in one’s social network’</t>
+          <t>Normative behaviour can be an MoA or outcome depending on how 'normative behaviour' is described in an intervention. The Behaviour Change-Intervention Ontology includes the class 'outcome behaviour' (definition: Human behavior that is an intervention outcome.), which would not be an MoA. When an intervention targets a normative behaviour to achieve an outcome behaviour, the former qualifies as an MoA.</t>
         </is>
       </c>
       <c r="J202" s="3" t="inlineStr"/>
@@ -8696,111 +8692,115 @@
       <c r="P202" s="3" t="inlineStr"/>
     </row>
     <row r="203">
-      <c r="A203" t="inlineStr">
+      <c r="A203" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006042</t>
+        </is>
+      </c>
+      <c r="B203" s="3" t="inlineStr">
+        <is>
+          <t>normative belief</t>
+        </is>
+      </c>
+      <c r="C203" s="3" t="inlineStr">
+        <is>
+          <t>perceived norm</t>
+        </is>
+      </c>
+      <c r="D203" s="3" t="inlineStr">
+        <is>
+          <t>A belief about whether key others think one should perform a behaviour.</t>
+        </is>
+      </c>
+      <c r="E203" s="3" t="inlineStr"/>
+      <c r="F203" s="3" t="inlineStr"/>
+      <c r="G203" s="3" t="inlineStr"/>
+      <c r="H203" s="3" t="inlineStr"/>
+      <c r="I203" s="3" t="inlineStr">
+        <is>
+          <t>'Key others' can include 'people in one’s social network’</t>
+        </is>
+      </c>
+      <c r="J203" s="3" t="inlineStr"/>
+      <c r="K203" s="3" t="inlineStr"/>
+      <c r="L203" s="3" t="inlineStr"/>
+      <c r="M203" s="3" t="inlineStr"/>
+      <c r="N203" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O203" s="3" t="inlineStr"/>
+      <c r="P203" s="3" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
         <is>
           <t>GO:0098597</t>
         </is>
       </c>
-      <c r="B203" t="inlineStr">
+      <c r="B204" t="inlineStr">
         <is>
           <t>observational learning</t>
         </is>
       </c>
-      <c r="C203" t="inlineStr">
+      <c r="C204" t="inlineStr">
         <is>
           <t>learning</t>
         </is>
       </c>
-      <c r="D203" t="inlineStr">
+      <c r="D204" t="inlineStr">
         <is>
           <t>Learning that occurs through observing the behaviour of others.</t>
         </is>
       </c>
-      <c r="E203" t="inlineStr"/>
-      <c r="F203" t="inlineStr"/>
-      <c r="G203" t="inlineStr"/>
-      <c r="H203" t="inlineStr"/>
-      <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
-      <c r="M203" t="inlineStr"/>
-      <c r="N203" t="inlineStr">
+      <c r="E204" t="inlineStr"/>
+      <c r="F204" t="inlineStr"/>
+      <c r="G204" t="inlineStr"/>
+      <c r="H204" t="inlineStr"/>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="O203" t="inlineStr"/>
-      <c r="P203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:015430</t>
-        </is>
-      </c>
-      <c r="B204" s="3" t="inlineStr">
-        <is>
-          <t>occupational role</t>
-        </is>
-      </c>
-      <c r="C204" s="3" t="inlineStr">
-        <is>
-          <t>personal role</t>
-        </is>
-      </c>
-      <c r="D204" s="3" t="inlineStr">
-        <is>
-          <t>A role that is realised in a person by doing a specified type of work or working in a specified way.</t>
-        </is>
-      </c>
-      <c r="E204" s="3" t="inlineStr"/>
-      <c r="F204" s="3" t="inlineStr"/>
-      <c r="G204" s="3" t="inlineStr"/>
-      <c r="H204" s="3" t="inlineStr"/>
-      <c r="I204" s="3" t="inlineStr">
-        <is>
-          <t>A role can be assigned without being realised. A person realises a role by doing something.</t>
-        </is>
-      </c>
-      <c r="J204" s="3" t="inlineStr"/>
-      <c r="K204" s="3" t="inlineStr"/>
-      <c r="L204" s="3" t="inlineStr"/>
-      <c r="M204" s="3" t="inlineStr"/>
-      <c r="N204" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O204" s="3" t="inlineStr"/>
-      <c r="P204" s="3" t="inlineStr"/>
+      <c r="O204" t="inlineStr"/>
+      <c r="P204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006125</t>
+          <t>BCIO:015430</t>
         </is>
       </c>
       <c r="B205" s="3" t="inlineStr">
         <is>
-          <t>operant conditioning</t>
+          <t>occupational role</t>
         </is>
       </c>
       <c r="C205" s="3" t="inlineStr">
         <is>
-          <t>associative learning</t>
+          <t>personal role</t>
         </is>
       </c>
       <c r="D205" s="3" t="inlineStr">
         <is>
-          <t>Associative learning process in which the likelihood of a particular behavioural response is influenced by the past consequences associated with performing that behaviour.</t>
+          <t>A role that is realised in a person by doing a specified type of work or working in a specified way.</t>
         </is>
       </c>
       <c r="E205" s="3" t="inlineStr"/>
       <c r="F205" s="3" t="inlineStr"/>
       <c r="G205" s="3" t="inlineStr"/>
       <c r="H205" s="3" t="inlineStr"/>
-      <c r="I205" s="3" t="inlineStr"/>
+      <c r="I205" s="3" t="inlineStr">
+        <is>
+          <t>A role can be assigned without being realised. A person realises a role by doing something.</t>
+        </is>
+      </c>
       <c r="J205" s="3" t="inlineStr"/>
       <c r="K205" s="3" t="inlineStr"/>
       <c r="L205" s="3" t="inlineStr"/>
@@ -8814,94 +8814,94 @@
       <c r="P205" s="3" t="inlineStr"/>
     </row>
     <row r="206">
-      <c r="A206" t="inlineStr">
+      <c r="A206" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006125</t>
+        </is>
+      </c>
+      <c r="B206" s="3" t="inlineStr">
+        <is>
+          <t>operant conditioning</t>
+        </is>
+      </c>
+      <c r="C206" s="3" t="inlineStr">
+        <is>
+          <t>associative learning</t>
+        </is>
+      </c>
+      <c r="D206" s="3" t="inlineStr">
+        <is>
+          <t>Associative learning process in which the likelihood of a particular behavioural response is influenced by the past consequences associated with performing that behaviour.</t>
+        </is>
+      </c>
+      <c r="E206" s="3" t="inlineStr"/>
+      <c r="F206" s="3" t="inlineStr"/>
+      <c r="G206" s="3" t="inlineStr"/>
+      <c r="H206" s="3" t="inlineStr"/>
+      <c r="I206" s="3" t="inlineStr"/>
+      <c r="J206" s="3" t="inlineStr"/>
+      <c r="K206" s="3" t="inlineStr"/>
+      <c r="L206" s="3" t="inlineStr"/>
+      <c r="M206" s="3" t="inlineStr"/>
+      <c r="N206" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O206" s="3" t="inlineStr"/>
+      <c r="P206" s="3" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
         <is>
           <t>MFOEM:000203</t>
         </is>
       </c>
-      <c r="B206" t="inlineStr">
+      <c r="B207" t="inlineStr">
         <is>
           <t>pain</t>
         </is>
       </c>
-      <c r="C206" t="inlineStr">
+      <c r="C207" t="inlineStr">
         <is>
           <t>subjective affective feeling</t>
         </is>
       </c>
-      <c r="D206" t="inlineStr">
+      <c r="D207" t="inlineStr">
         <is>
           <t>A subjective affective feeling in an organism S, involving two integrated levels: (a) activation of the nociceptive system and associated emotion generating brain components of S, and (b) a simultaneous aversive sensory and emotional experience on the part of S, where (b) is phenomenologically similar to the sort of aversive experience involved in pain with concordant tissue damage.</t>
         </is>
       </c>
-      <c r="E206" t="inlineStr"/>
-      <c r="F206" t="inlineStr">
+      <c r="E207" t="inlineStr"/>
+      <c r="F207" t="inlineStr">
         <is>
           <t>An unpleasant experience typically associated with tissue damage.</t>
         </is>
       </c>
-      <c r="G206" t="inlineStr"/>
-      <c r="H206" t="inlineStr"/>
-      <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
-      <c r="M206" t="inlineStr"/>
-      <c r="N206" t="inlineStr">
+      <c r="G207" t="inlineStr"/>
+      <c r="H207" t="inlineStr"/>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="O206" t="inlineStr"/>
-      <c r="P206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006040</t>
-        </is>
-      </c>
-      <c r="B207" s="3" t="inlineStr">
-        <is>
-          <t>perceived descriptive norm</t>
-        </is>
-      </c>
-      <c r="C207" s="3" t="inlineStr">
-        <is>
-          <t>perceived norm</t>
-        </is>
-      </c>
-      <c r="D207" s="3" t="inlineStr">
-        <is>
-          <t>A belief about the prevalence of performance of a given behaviour by people within a group.</t>
-        </is>
-      </c>
-      <c r="E207" s="3" t="inlineStr"/>
-      <c r="F207" s="3" t="inlineStr"/>
-      <c r="G207" s="3" t="inlineStr"/>
-      <c r="H207" s="3" t="inlineStr"/>
-      <c r="I207" s="3" t="inlineStr"/>
-      <c r="J207" s="3" t="inlineStr"/>
-      <c r="K207" s="3" t="inlineStr"/>
-      <c r="L207" s="3" t="inlineStr"/>
-      <c r="M207" s="3" t="inlineStr"/>
-      <c r="N207" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O207" s="3" t="inlineStr"/>
-      <c r="P207" s="3" t="inlineStr"/>
+      <c r="O207" t="inlineStr"/>
+      <c r="P207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006041</t>
+          <t>BCIO:006040</t>
         </is>
       </c>
       <c r="B208" s="3" t="inlineStr">
         <is>
-          <t>perceived injunctive norm</t>
+          <t>perceived descriptive norm</t>
         </is>
       </c>
       <c r="C208" s="3" t="inlineStr">
@@ -8911,7 +8911,7 @@
       </c>
       <c r="D208" s="3" t="inlineStr">
         <is>
-          <t>A belief about whether a behaviour is appropriate and correct for people who belong to a particular group.</t>
+          <t>A belief about the prevalence of performance of a given behaviour by people within a group.</t>
         </is>
       </c>
       <c r="E208" s="3" t="inlineStr"/>
@@ -8934,37 +8934,29 @@
     <row r="209">
       <c r="A209" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006039</t>
+          <t>BCIO:006041</t>
         </is>
       </c>
       <c r="B209" s="3" t="inlineStr">
         <is>
+          <t>perceived injunctive norm</t>
+        </is>
+      </c>
+      <c r="C209" s="3" t="inlineStr">
+        <is>
           <t>perceived norm</t>
         </is>
       </c>
-      <c r="C209" s="3" t="inlineStr">
-        <is>
-          <t>belief</t>
-        </is>
-      </c>
       <c r="D209" s="3" t="inlineStr">
         <is>
-          <t>A belief about what is typical for people who belong to a particular group.</t>
+          <t>A belief about whether a behaviour is appropriate and correct for people who belong to a particular group.</t>
         </is>
       </c>
       <c r="E209" s="3" t="inlineStr"/>
       <c r="F209" s="3" t="inlineStr"/>
-      <c r="G209" s="3" t="inlineStr">
-        <is>
-          <t>belief about norm</t>
-        </is>
-      </c>
+      <c r="G209" s="3" t="inlineStr"/>
       <c r="H209" s="3" t="inlineStr"/>
-      <c r="I209" s="3" t="inlineStr">
-        <is>
-          <t>A person does not need to belong to a group to have a perception of their norms. For instance, the perceived norm could be in a group one aspires to belong to, and so the person might attempt to conform to it in an attempt to be accepted as a member of that group.</t>
-        </is>
-      </c>
+      <c r="I209" s="3" t="inlineStr"/>
       <c r="J209" s="3" t="inlineStr"/>
       <c r="K209" s="3" t="inlineStr"/>
       <c r="L209" s="3" t="inlineStr"/>
@@ -8978,214 +8970,222 @@
       <c r="P209" s="3" t="inlineStr"/>
     </row>
     <row r="210">
-      <c r="A210" t="inlineStr">
+      <c r="A210" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006039</t>
+        </is>
+      </c>
+      <c r="B210" s="3" t="inlineStr">
+        <is>
+          <t>perceived norm</t>
+        </is>
+      </c>
+      <c r="C210" s="3" t="inlineStr">
+        <is>
+          <t>belief</t>
+        </is>
+      </c>
+      <c r="D210" s="3" t="inlineStr">
+        <is>
+          <t>A belief about what is typical for people who belong to a particular group.</t>
+        </is>
+      </c>
+      <c r="E210" s="3" t="inlineStr"/>
+      <c r="F210" s="3" t="inlineStr"/>
+      <c r="G210" s="3" t="inlineStr">
+        <is>
+          <t>belief about norm</t>
+        </is>
+      </c>
+      <c r="H210" s="3" t="inlineStr"/>
+      <c r="I210" s="3" t="inlineStr">
+        <is>
+          <t>A person does not need to belong to a group to have a perception of their norms. For instance, the perceived norm could be in a group one aspires to belong to, and so the person might attempt to conform to it in an attempt to be accepted as a member of that group.</t>
+        </is>
+      </c>
+      <c r="J210" s="3" t="inlineStr"/>
+      <c r="K210" s="3" t="inlineStr"/>
+      <c r="L210" s="3" t="inlineStr"/>
+      <c r="M210" s="3" t="inlineStr"/>
+      <c r="N210" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O210" s="3" t="inlineStr"/>
+      <c r="P210" s="3" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
         <is>
           <t>MF:0000019</t>
         </is>
       </c>
-      <c r="B210" t="inlineStr">
+      <c r="B211" t="inlineStr">
         <is>
           <t>perception</t>
         </is>
       </c>
-      <c r="C210" t="inlineStr">
+      <c r="C211" t="inlineStr">
         <is>
           <t>mental process</t>
         </is>
       </c>
-      <c r="D210" t="inlineStr">
+      <c r="D211" t="inlineStr">
         <is>
           <t>A mental process which is a) produced by a causal process involving a part of the environment of the organism, and b) is experienced by the organism as being so caused, and c) in which the relevant part of the environment is thereby represented to the organism.</t>
         </is>
       </c>
-      <c r="E210" t="inlineStr"/>
-      <c r="F210" t="inlineStr">
+      <c r="E211" t="inlineStr"/>
+      <c r="F211" t="inlineStr">
         <is>
           <t>A sensory experience involving a part of a person's environment.</t>
         </is>
       </c>
-      <c r="G210" t="inlineStr"/>
-      <c r="H210" t="inlineStr"/>
-      <c r="I210" t="inlineStr">
+      <c r="G211" t="inlineStr"/>
+      <c r="H211" t="inlineStr"/>
+      <c r="I211" t="inlineStr">
         <is>
           <t>Examples for 'causal processes involving a part of the environment of an organism' that can be perceived are light rays and air vibrations.
 'Perception' is about perceiving stimuli in one's environment in the MoA Ontology. However, the term 'perception' is sometimes used to refer to things defined as 'belief' in the MoA Ontology.</t>
         </is>
       </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
-      <c r="M210" t="inlineStr"/>
-      <c r="N210" t="inlineStr">
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="O210" t="inlineStr"/>
-      <c r="P210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="4" t="inlineStr">
+      <c r="O211" t="inlineStr"/>
+      <c r="P211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" s="4" t="inlineStr">
         <is>
           <t>BCIO:050300</t>
         </is>
       </c>
-      <c r="B211" s="4" t="inlineStr">
+      <c r="B212" s="4" t="inlineStr">
         <is>
           <t>personal attribute</t>
         </is>
       </c>
-      <c r="C211" s="4" t="inlineStr">
+      <c r="C212" s="4" t="inlineStr">
         <is>
           <t>specifically dependent continuant</t>
         </is>
       </c>
-      <c r="D211" s="4" t="inlineStr">
+      <c r="D212" s="4" t="inlineStr">
         <is>
           <t>A specifically dependent continuant that inheres in a person.</t>
         </is>
       </c>
-      <c r="E211" s="4" t="inlineStr"/>
-      <c r="F211" s="4" t="inlineStr">
+      <c r="E212" s="4" t="inlineStr"/>
+      <c r="F212" s="4" t="inlineStr">
         <is>
           <t>A characteristic of a person such as age, intelligence, socioeconomic status, height and job.</t>
         </is>
       </c>
-      <c r="G211" s="4" t="inlineStr"/>
-      <c r="H211" s="4" t="inlineStr"/>
-      <c r="I211" s="4" t="inlineStr">
+      <c r="G212" s="4" t="inlineStr"/>
+      <c r="H212" s="4" t="inlineStr"/>
+      <c r="I212" s="4" t="inlineStr">
         <is>
           <t>Includes everything that can be said about a person: the most general class under which all other qualities, dispositions, roles etc belong.</t>
         </is>
       </c>
-      <c r="J211" s="4" t="inlineStr"/>
-      <c r="K211" s="4" t="inlineStr"/>
-      <c r="L211" s="4" t="inlineStr"/>
-      <c r="M211" s="4" t="inlineStr">
+      <c r="J212" s="4" t="inlineStr"/>
+      <c r="K212" s="4" t="inlineStr"/>
+      <c r="L212" s="4" t="inlineStr"/>
+      <c r="M212" s="4" t="inlineStr">
         <is>
           <t>The population ontology individuals branch defines many personal attributes</t>
         </is>
       </c>
-      <c r="N211" s="4" t="inlineStr">
+      <c r="N212" s="4" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="O211" s="4" t="inlineStr"/>
-      <c r="P211" s="4" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
+      <c r="O212" s="4" t="inlineStr"/>
+      <c r="P212" s="4" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
         <is>
           <t xml:space="preserve">MF:0000043 </t>
         </is>
       </c>
-      <c r="B212" t="inlineStr">
+      <c r="B213" t="inlineStr">
         <is>
           <t>personal capability</t>
         </is>
       </c>
-      <c r="C212" t="inlineStr">
+      <c r="C213" t="inlineStr">
         <is>
           <t>bodily disposition</t>
         </is>
       </c>
-      <c r="D212" t="inlineStr">
+      <c r="D213" t="inlineStr">
         <is>
           <t>A bodily disposition whose realization ordinarily brings benefits to an organism or group of organisms, where "ordinarily" means within a typical  range or context.</t>
         </is>
       </c>
-      <c r="E212" t="inlineStr"/>
-      <c r="F212" t="inlineStr">
+      <c r="E213" t="inlineStr"/>
+      <c r="F213" t="inlineStr">
         <is>
           <t>The ability of someone to perform some useful and/or beneficial activity.</t>
         </is>
       </c>
-      <c r="G212" t="inlineStr"/>
-      <c r="H212" t="inlineStr"/>
-      <c r="I212" t="inlineStr">
+      <c r="G213" t="inlineStr"/>
+      <c r="H213" t="inlineStr"/>
+      <c r="I213" t="inlineStr">
         <is>
           <t>The phrase 'ordinarily brings benefits to an organism or group of organism' is used to explain that capabilities normally provide a benefit. 
 For instance, having a musical ability is ordinarily an ability that is positive for a person (e.g., they receive positive feedback about their ability). However, in certain exceptional cases (e.g., a neighbour becoming annoyed with a person playing the piano and expressing this annoyance), the ability might not bring benefits.</t>
         </is>
       </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="inlineStr"/>
-      <c r="N212" t="inlineStr">
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="O212" t="inlineStr"/>
-      <c r="P212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="4" t="inlineStr">
-        <is>
-          <t>BCIO:050301</t>
-        </is>
-      </c>
-      <c r="B213" s="4" t="inlineStr">
-        <is>
-          <t>personal disposition</t>
-        </is>
-      </c>
-      <c r="C213" s="4" t="inlineStr">
-        <is>
-          <t>disposition</t>
-        </is>
-      </c>
-      <c r="D213" s="4" t="inlineStr">
-        <is>
-          <t>A disposition that inheres in a person.</t>
-        </is>
-      </c>
-      <c r="E213" s="4" t="inlineStr"/>
-      <c r="F213" s="4" t="inlineStr">
-        <is>
-          <t>A characteristic of a person such as intelligence and personality that causes them to think feel or act in a particular way in a particular situation.</t>
-        </is>
-      </c>
-      <c r="G213" s="4" t="inlineStr"/>
-      <c r="H213" s="4" t="inlineStr"/>
-      <c r="I213" s="4" t="inlineStr"/>
-      <c r="J213" s="4" t="inlineStr"/>
-      <c r="K213" s="4" t="inlineStr"/>
-      <c r="L213" s="4" t="inlineStr"/>
-      <c r="M213" s="4" t="inlineStr"/>
-      <c r="N213" s="4" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="O213" s="4" t="inlineStr"/>
-      <c r="P213" s="4" t="inlineStr"/>
+      <c r="O213" t="inlineStr"/>
+      <c r="P213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="4" t="inlineStr">
         <is>
-          <t>BCIO:050302</t>
+          <t>BCIO:050301</t>
         </is>
       </c>
       <c r="B214" s="4" t="inlineStr">
         <is>
-          <t>personal life attribute</t>
+          <t>personal disposition</t>
         </is>
       </c>
       <c r="C214" s="4" t="inlineStr">
         <is>
-          <t>process attribute</t>
+          <t>disposition</t>
         </is>
       </c>
       <c r="D214" s="4" t="inlineStr">
         <is>
-          <t>A process attribute that is an attribute of a life process.</t>
+          <t>A disposition that inheres in a person.</t>
         </is>
       </c>
       <c r="E214" s="4" t="inlineStr"/>
-      <c r="F214" s="4" t="inlineStr"/>
+      <c r="F214" s="4" t="inlineStr">
+        <is>
+          <t>A characteristic of a person such as intelligence and personality that causes them to think feel or act in a particular way in a particular situation.</t>
+        </is>
+      </c>
       <c r="G214" s="4" t="inlineStr"/>
       <c r="H214" s="4" t="inlineStr"/>
       <c r="I214" s="4" t="inlineStr"/>
@@ -9204,22 +9204,22 @@
     <row r="215">
       <c r="A215" s="4" t="inlineStr">
         <is>
-          <t>BCIO:050303</t>
+          <t>BCIO:050302</t>
         </is>
       </c>
       <c r="B215" s="4" t="inlineStr">
         <is>
-          <t>personal quality</t>
+          <t>personal life attribute</t>
         </is>
       </c>
       <c r="C215" s="4" t="inlineStr">
         <is>
-          <t>quality</t>
+          <t>process attribute</t>
         </is>
       </c>
       <c r="D215" s="4" t="inlineStr">
         <is>
-          <t>A quality that inheres in a person.</t>
+          <t>A process attribute that is an attribute of a life process.</t>
         </is>
       </c>
       <c r="E215" s="4" t="inlineStr"/>
@@ -9240,77 +9240,77 @@
       <c r="P215" s="4" t="inlineStr"/>
     </row>
     <row r="216">
-      <c r="A216" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006081</t>
-        </is>
-      </c>
-      <c r="B216" s="3" t="inlineStr">
-        <is>
-          <t>personal role</t>
-        </is>
-      </c>
-      <c r="C216" s="3" t="inlineStr">
-        <is>
-          <t>role</t>
-        </is>
-      </c>
-      <c r="D216" s="3" t="inlineStr">
-        <is>
-          <t>A role that inheres in a human being by virtue of their social and institutional circumstances.</t>
-        </is>
-      </c>
-      <c r="E216" s="3" t="inlineStr"/>
-      <c r="F216" s="3" t="inlineStr">
-        <is>
-          <t>A role that someone has within an organisation or social grouping.</t>
-        </is>
-      </c>
-      <c r="G216" s="3" t="inlineStr"/>
-      <c r="H216" s="3" t="inlineStr"/>
-      <c r="I216" s="3" t="inlineStr">
-        <is>
-          <t>A role can be assigned without being realised. A person realises a role by doing something.</t>
-        </is>
-      </c>
-      <c r="J216" s="3" t="inlineStr"/>
-      <c r="K216" s="3" t="inlineStr"/>
-      <c r="L216" s="3" t="inlineStr"/>
-      <c r="M216" s="3" t="inlineStr"/>
-      <c r="N216" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O216" s="3" t="inlineStr"/>
-      <c r="P216" s="3" t="inlineStr"/>
+      <c r="A216" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:050303</t>
+        </is>
+      </c>
+      <c r="B216" s="4" t="inlineStr">
+        <is>
+          <t>personal quality</t>
+        </is>
+      </c>
+      <c r="C216" s="4" t="inlineStr">
+        <is>
+          <t>quality</t>
+        </is>
+      </c>
+      <c r="D216" s="4" t="inlineStr">
+        <is>
+          <t>A quality that inheres in a person.</t>
+        </is>
+      </c>
+      <c r="E216" s="4" t="inlineStr"/>
+      <c r="F216" s="4" t="inlineStr"/>
+      <c r="G216" s="4" t="inlineStr"/>
+      <c r="H216" s="4" t="inlineStr"/>
+      <c r="I216" s="4" t="inlineStr"/>
+      <c r="J216" s="4" t="inlineStr"/>
+      <c r="K216" s="4" t="inlineStr"/>
+      <c r="L216" s="4" t="inlineStr"/>
+      <c r="M216" s="4" t="inlineStr"/>
+      <c r="N216" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="O216" s="4" t="inlineStr"/>
+      <c r="P216" s="4" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006063</t>
+          <t>BCIO:006081</t>
         </is>
       </c>
       <c r="B217" s="3" t="inlineStr">
         <is>
-          <t>personal value</t>
+          <t>personal role</t>
         </is>
       </c>
       <c r="C217" s="3" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>role</t>
         </is>
       </c>
       <c r="D217" s="3" t="inlineStr">
         <is>
-          <t>A mental disposition to regard certain things as fundamentally important in life, which informs standards for behaviour.</t>
+          <t>A role that inheres in a human being by virtue of their social and institutional circumstances.</t>
         </is>
       </c>
       <c r="E217" s="3" t="inlineStr"/>
-      <c r="F217" s="3" t="inlineStr"/>
+      <c r="F217" s="3" t="inlineStr">
+        <is>
+          <t>A role that someone has within an organisation or social grouping.</t>
+        </is>
+      </c>
       <c r="G217" s="3" t="inlineStr"/>
       <c r="H217" s="3" t="inlineStr"/>
-      <c r="I217" s="3" t="inlineStr"/>
+      <c r="I217" s="3" t="inlineStr">
+        <is>
+          <t>A role can be assigned without being realised. A person realises a role by doing something.</t>
+        </is>
+      </c>
       <c r="J217" s="3" t="inlineStr"/>
       <c r="K217" s="3" t="inlineStr"/>
       <c r="L217" s="3" t="inlineStr"/>
@@ -9326,22 +9326,22 @@
     <row r="218">
       <c r="A218" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006009</t>
+          <t>BCIO:006063</t>
         </is>
       </c>
       <c r="B218" s="3" t="inlineStr">
         <is>
-          <t>physical behavioural capability</t>
+          <t>personal value</t>
         </is>
       </c>
       <c r="C218" s="3" t="inlineStr">
         <is>
-          <t>behavioural capability</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D218" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">A behavioural capability that involves a musculoskeletal process in its realisation. </t>
+          <t>A mental disposition to regard certain things as fundamentally important in life, which informs standards for behaviour.</t>
         </is>
       </c>
       <c r="E218" s="3" t="inlineStr"/>
@@ -9364,37 +9364,29 @@
     <row r="219">
       <c r="A219" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006089</t>
+          <t>BCIO:006009</t>
         </is>
       </c>
       <c r="B219" s="3" t="inlineStr">
         <is>
-          <t>physical behavioural opportunity</t>
+          <t>physical behavioural capability</t>
         </is>
       </c>
       <c r="C219" s="3" t="inlineStr">
         <is>
-          <t>behavioural opportunity</t>
+          <t>behavioural capability</t>
         </is>
       </c>
       <c r="D219" s="3" t="inlineStr">
         <is>
-          <t>A behavioural opportunity that involves time and parts of the environmental system that do not involve people or organisations.</t>
+          <t xml:space="preserve">A behavioural capability that involves a musculoskeletal process in its realisation. </t>
         </is>
       </c>
       <c r="E219" s="3" t="inlineStr"/>
-      <c r="F219" s="3" t="inlineStr">
-        <is>
-          <t>Properties of a person's environment that involve the objects in their environment, the space they inhabit, the time available or the material resources available to them and influence the person's ability to enact a behaviour.</t>
-        </is>
-      </c>
+      <c r="F219" s="3" t="inlineStr"/>
       <c r="G219" s="3" t="inlineStr"/>
       <c r="H219" s="3" t="inlineStr"/>
-      <c r="I219" s="3" t="inlineStr">
-        <is>
-          <t>A 'behavioural opportunity' is a feature of the environmental system. While the class 'environmental system' is about what is found in an environment, the behavioural opportunity is a feature of the environment which interacts with the person and enables or prevents a behaviour.</t>
-        </is>
-      </c>
+      <c r="I219" s="3" t="inlineStr"/>
       <c r="J219" s="3" t="inlineStr"/>
       <c r="K219" s="3" t="inlineStr"/>
       <c r="L219" s="3" t="inlineStr"/>
@@ -9410,29 +9402,37 @@
     <row r="220">
       <c r="A220" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006010</t>
+          <t>BCIO:006089</t>
         </is>
       </c>
       <c r="B220" s="3" t="inlineStr">
         <is>
-          <t>physical skill</t>
+          <t>physical behavioural opportunity</t>
         </is>
       </c>
       <c r="C220" s="3" t="inlineStr">
         <is>
-          <t>physical behavioural capability</t>
+          <t>behavioural opportunity</t>
         </is>
       </c>
       <c r="D220" s="3" t="inlineStr">
         <is>
-          <t>A physical capability acquired through training or practice.</t>
+          <t>A behavioural opportunity that involves time and parts of the environmental system that do not involve people or organisations.</t>
         </is>
       </c>
       <c r="E220" s="3" t="inlineStr"/>
-      <c r="F220" s="3" t="inlineStr"/>
+      <c r="F220" s="3" t="inlineStr">
+        <is>
+          <t>Properties of a person's environment that involve the objects in their environment, the space they inhabit, the time available or the material resources available to them and influence the person's ability to enact a behaviour.</t>
+        </is>
+      </c>
       <c r="G220" s="3" t="inlineStr"/>
       <c r="H220" s="3" t="inlineStr"/>
-      <c r="I220" s="3" t="inlineStr"/>
+      <c r="I220" s="3" t="inlineStr">
+        <is>
+          <t>A 'behavioural opportunity' is a feature of the environmental system. While the class 'environmental system' is about what is found in an environment, the behavioural opportunity is a feature of the environment which interacts with the person and enables or prevents a behaviour.</t>
+        </is>
+      </c>
       <c r="J220" s="3" t="inlineStr"/>
       <c r="K220" s="3" t="inlineStr"/>
       <c r="L220" s="3" t="inlineStr"/>
@@ -9446,157 +9446,153 @@
       <c r="P220" s="3" t="inlineStr"/>
     </row>
     <row r="221">
-      <c r="A221" t="inlineStr">
+      <c r="A221" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006010</t>
+        </is>
+      </c>
+      <c r="B221" s="3" t="inlineStr">
+        <is>
+          <t>physical skill</t>
+        </is>
+      </c>
+      <c r="C221" s="3" t="inlineStr">
+        <is>
+          <t>physical behavioural capability</t>
+        </is>
+      </c>
+      <c r="D221" s="3" t="inlineStr">
+        <is>
+          <t>A physical capability acquired through training or practice.</t>
+        </is>
+      </c>
+      <c r="E221" s="3" t="inlineStr"/>
+      <c r="F221" s="3" t="inlineStr"/>
+      <c r="G221" s="3" t="inlineStr"/>
+      <c r="H221" s="3" t="inlineStr"/>
+      <c r="I221" s="3" t="inlineStr"/>
+      <c r="J221" s="3" t="inlineStr"/>
+      <c r="K221" s="3" t="inlineStr"/>
+      <c r="L221" s="3" t="inlineStr"/>
+      <c r="M221" s="3" t="inlineStr"/>
+      <c r="N221" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O221" s="3" t="inlineStr"/>
+      <c r="P221" s="3" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
         <is>
           <t xml:space="preserve">MFOEM:000003 </t>
         </is>
       </c>
-      <c r="B221" t="inlineStr">
+      <c r="B222" t="inlineStr">
         <is>
           <t>physiological process involved in an emotion</t>
         </is>
       </c>
-      <c r="C221" t="inlineStr">
+      <c r="C222" t="inlineStr">
         <is>
           <t>bodily process</t>
         </is>
       </c>
-      <c r="D221" t="inlineStr">
+      <c r="D222" t="inlineStr">
         <is>
           <t>A bodily process that encompasses all the neurophysiological changes accompanying an emotion, which take place in the central nervous system (CNS), neuro-endocrine system (NES) and autonomous nervous system (ANS).</t>
         </is>
       </c>
-      <c r="E221" t="inlineStr"/>
-      <c r="F221" t="inlineStr">
+      <c r="E222" t="inlineStr"/>
+      <c r="F222" t="inlineStr">
         <is>
           <t>A process that occurs in a person's body when they are experiencing an emotion.</t>
         </is>
       </c>
-      <c r="G221" t="inlineStr"/>
-      <c r="H221" t="inlineStr"/>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="inlineStr"/>
-      <c r="N221" t="inlineStr">
+      <c r="G222" t="inlineStr"/>
+      <c r="H222" t="inlineStr"/>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="inlineStr"/>
+      <c r="N222" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="O221" t="inlineStr"/>
-      <c r="P221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="3" t="inlineStr">
+      <c r="O222" t="inlineStr"/>
+      <c r="P222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" s="3" t="inlineStr">
         <is>
           <t>BCIO:006102</t>
         </is>
       </c>
-      <c r="B222" s="3" t="inlineStr">
+      <c r="B223" s="3" t="inlineStr">
         <is>
           <t>plan enactment</t>
         </is>
       </c>
-      <c r="C222" s="3" t="inlineStr">
+      <c r="C223" s="3" t="inlineStr">
         <is>
           <t>bodily process</t>
         </is>
       </c>
-      <c r="D222" s="3" t="inlineStr">
+      <c r="D223" s="3" t="inlineStr">
         <is>
           <t>A bodily process by which a person attempts to follow the steps in a plan.</t>
         </is>
       </c>
-      <c r="E222" s="3" t="inlineStr"/>
-      <c r="F222" s="3" t="inlineStr"/>
-      <c r="G222" s="3" t="inlineStr"/>
-      <c r="H222" s="3" t="inlineStr"/>
-      <c r="I222" s="3" t="inlineStr"/>
-      <c r="J222" s="3" t="inlineStr"/>
-      <c r="K222" s="3" t="inlineStr"/>
-      <c r="L222" s="3" t="inlineStr"/>
-      <c r="M222" s="3" t="inlineStr"/>
-      <c r="N222" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O222" s="3" t="inlineStr"/>
-      <c r="P222" s="3" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>MF:0000027</t>
-        </is>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>planning</t>
-        </is>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D223" t="inlineStr">
-        <is>
-          <t>A mental process that involves mentally manipulating representations of steps in an imagined process which has some goal.</t>
-        </is>
-      </c>
-      <c r="E223" t="inlineStr"/>
-      <c r="F223" t="inlineStr"/>
-      <c r="G223" t="inlineStr"/>
-      <c r="H223" t="inlineStr"/>
-      <c r="I223" t="inlineStr">
-        <is>
-          <t>The outcome of this mental process is a mental plan which has the potential to be followed to bring about the desired outcome.</t>
-        </is>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="inlineStr"/>
-      <c r="N223" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="O223" t="inlineStr"/>
-      <c r="P223" t="inlineStr"/>
+      <c r="E223" s="3" t="inlineStr"/>
+      <c r="F223" s="3" t="inlineStr"/>
+      <c r="G223" s="3" t="inlineStr"/>
+      <c r="H223" s="3" t="inlineStr"/>
+      <c r="I223" s="3" t="inlineStr"/>
+      <c r="J223" s="3" t="inlineStr"/>
+      <c r="K223" s="3" t="inlineStr"/>
+      <c r="L223" s="3" t="inlineStr"/>
+      <c r="M223" s="3" t="inlineStr"/>
+      <c r="N223" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O223" s="3" t="inlineStr"/>
+      <c r="P223" s="3" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>MFOEM:000035</t>
+          <t>MF:0000027</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>pleasure</t>
+          <t>planning</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>emotion process</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>A positive emotion which is sought out and is associated with happiness and satisfaction.</t>
+          <t>A mental process that involves mentally manipulating representations of steps in an imagined process which has some goal.</t>
         </is>
       </c>
       <c r="E224" t="inlineStr"/>
       <c r="F224" t="inlineStr"/>
-      <c r="G224" t="inlineStr">
-        <is>
-          <t>enjoyment</t>
-        </is>
-      </c>
+      <c r="G224" t="inlineStr"/>
       <c r="H224" t="inlineStr"/>
-      <c r="I224" t="inlineStr"/>
+      <c r="I224" t="inlineStr">
+        <is>
+          <t>The outcome of this mental process is a mental plan which has the potential to be followed to bring about the desired outcome.</t>
+        </is>
+      </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr"/>
@@ -9610,146 +9606,150 @@
       <c r="P224" t="inlineStr"/>
     </row>
     <row r="225">
-      <c r="A225" s="3" t="inlineStr">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>MFOEM:000035</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>pleasure</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>emotion process</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>A positive emotion which is sought out and is associated with happiness and satisfaction.</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr"/>
+      <c r="F225" t="inlineStr"/>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>enjoyment</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr"/>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" t="inlineStr"/>
+      <c r="N225" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="O225" t="inlineStr"/>
+      <c r="P225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" s="3" t="inlineStr">
         <is>
           <t>BCIO:006159</t>
         </is>
       </c>
-      <c r="B225" s="3" t="inlineStr">
+      <c r="B226" s="3" t="inlineStr">
         <is>
           <t>pleasure associated with behaviour</t>
         </is>
       </c>
-      <c r="C225" s="3" t="inlineStr">
+      <c r="C226" s="3" t="inlineStr">
         <is>
           <t>pleasure</t>
         </is>
       </c>
-      <c r="D225" s="3" t="inlineStr">
+      <c r="D226" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pleasure that is experienced as a result of engaging in a behaviour. </t>
         </is>
       </c>
-      <c r="E225" s="3" t="inlineStr"/>
-      <c r="F225" s="3" t="inlineStr"/>
-      <c r="G225" s="3" t="inlineStr">
+      <c r="E226" s="3" t="inlineStr"/>
+      <c r="F226" s="3" t="inlineStr"/>
+      <c r="G226" s="3" t="inlineStr">
         <is>
           <t>Enjoyment of behaviour</t>
         </is>
       </c>
-      <c r="H225" s="3" t="inlineStr"/>
-      <c r="I225" s="3" t="inlineStr"/>
-      <c r="J225" s="3" t="inlineStr"/>
-      <c r="K225" s="3" t="inlineStr"/>
-      <c r="L225" s="3" t="inlineStr"/>
-      <c r="M225" s="3" t="inlineStr"/>
-      <c r="N225" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O225" s="3" t="inlineStr"/>
-      <c r="P225" s="3" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" t="inlineStr">
+      <c r="H226" s="3" t="inlineStr"/>
+      <c r="I226" s="3" t="inlineStr"/>
+      <c r="J226" s="3" t="inlineStr"/>
+      <c r="K226" s="3" t="inlineStr"/>
+      <c r="L226" s="3" t="inlineStr"/>
+      <c r="M226" s="3" t="inlineStr"/>
+      <c r="N226" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O226" s="3" t="inlineStr"/>
+      <c r="P226" s="3" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
         <is>
           <t>MFOEM:000209</t>
         </is>
       </c>
-      <c r="B226" t="inlineStr">
+      <c r="B227" t="inlineStr">
         <is>
           <t>positive surprise</t>
         </is>
       </c>
-      <c r="C226" t="inlineStr">
+      <c r="C227" t="inlineStr">
         <is>
           <t>surprise</t>
         </is>
       </c>
-      <c r="D226" t="inlineStr">
+      <c r="D227" t="inlineStr">
         <is>
           <t>Surprise with a positive valence.</t>
         </is>
       </c>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr">
+      <c r="E227" t="inlineStr"/>
+      <c r="F227" t="inlineStr"/>
+      <c r="G227" t="inlineStr">
         <is>
           <t>wonder; astonishment</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr"/>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="inlineStr"/>
-      <c r="N226" t="inlineStr">
+      <c r="H227" t="inlineStr"/>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
+      <c r="M227" t="inlineStr"/>
+      <c r="N227" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="O226" t="inlineStr"/>
-      <c r="P226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006061</t>
-        </is>
-      </c>
-      <c r="B227" s="3" t="inlineStr">
-        <is>
-          <t>prevention focused motivational orientation</t>
-        </is>
-      </c>
-      <c r="C227" s="3" t="inlineStr">
-        <is>
-          <t>motivational orientation towards types of outcomes</t>
-        </is>
-      </c>
-      <c r="D227" s="3" t="inlineStr">
-        <is>
-          <t>A mental disposition for motivation to be guided by a focus on the presence or absence of positive outcomes.</t>
-        </is>
-      </c>
-      <c r="E227" s="3" t="inlineStr"/>
-      <c r="F227" s="3" t="inlineStr"/>
-      <c r="G227" s="3" t="inlineStr"/>
-      <c r="H227" s="3" t="inlineStr"/>
-      <c r="I227" s="3" t="inlineStr"/>
-      <c r="J227" s="3" t="inlineStr"/>
-      <c r="K227" s="3" t="inlineStr"/>
-      <c r="L227" s="3" t="inlineStr"/>
-      <c r="M227" s="3" t="inlineStr"/>
-      <c r="N227" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O227" s="3" t="inlineStr"/>
-      <c r="P227" s="3" t="inlineStr"/>
+      <c r="O227" t="inlineStr"/>
+      <c r="P227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006129</t>
+          <t>BCIO:006061</t>
         </is>
       </c>
       <c r="B228" s="3" t="inlineStr">
         <is>
-          <t>procedural memory</t>
+          <t>prevention focused motivational orientation</t>
         </is>
       </c>
       <c r="C228" s="3" t="inlineStr">
         <is>
-          <t>memory</t>
+          <t>motivational orientation towards types of outcomes</t>
         </is>
       </c>
       <c r="D228" s="3" t="inlineStr">
         <is>
-          <t>A memory process that deals with the receipt, storage, retrieval and modification of information regarding how to perform a complex activity without conscious awareness.</t>
+          <t>A mental disposition for motivation to be guided by a focus on the presence or absence of positive outcomes.</t>
         </is>
       </c>
       <c r="E228" s="3" t="inlineStr"/>
@@ -9770,62 +9770,62 @@
       <c r="P228" s="3" t="inlineStr"/>
     </row>
     <row r="229">
-      <c r="A229" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050229</t>
-        </is>
-      </c>
-      <c r="B229" s="2" t="inlineStr">
-        <is>
-          <t>professional identity</t>
-        </is>
-      </c>
-      <c r="C229" s="2" t="inlineStr">
-        <is>
-          <t>self-identity</t>
-        </is>
-      </c>
-      <c r="D229" s="2" t="inlineStr">
-        <is>
-          <t>A self-identity that is associated with one's occupational role.</t>
-        </is>
-      </c>
-      <c r="E229" s="2" t="inlineStr"/>
-      <c r="F229" s="2" t="inlineStr"/>
-      <c r="G229" s="2" t="inlineStr"/>
-      <c r="H229" s="2" t="inlineStr"/>
-      <c r="I229" s="2" t="inlineStr"/>
-      <c r="J229" s="2" t="inlineStr"/>
-      <c r="K229" s="2" t="inlineStr"/>
-      <c r="L229" s="2" t="inlineStr"/>
-      <c r="M229" s="2" t="inlineStr"/>
-      <c r="N229" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="O229" s="2" t="inlineStr"/>
-      <c r="P229" s="2" t="inlineStr"/>
+      <c r="A229" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006129</t>
+        </is>
+      </c>
+      <c r="B229" s="3" t="inlineStr">
+        <is>
+          <t>procedural memory</t>
+        </is>
+      </c>
+      <c r="C229" s="3" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="D229" s="3" t="inlineStr">
+        <is>
+          <t>A memory process that deals with the receipt, storage, retrieval and modification of information regarding how to perform a complex activity without conscious awareness.</t>
+        </is>
+      </c>
+      <c r="E229" s="3" t="inlineStr"/>
+      <c r="F229" s="3" t="inlineStr"/>
+      <c r="G229" s="3" t="inlineStr"/>
+      <c r="H229" s="3" t="inlineStr"/>
+      <c r="I229" s="3" t="inlineStr"/>
+      <c r="J229" s="3" t="inlineStr"/>
+      <c r="K229" s="3" t="inlineStr"/>
+      <c r="L229" s="3" t="inlineStr"/>
+      <c r="M229" s="3" t="inlineStr"/>
+      <c r="N229" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O229" s="3" t="inlineStr"/>
+      <c r="P229" s="3" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050213</t>
+          <t>BCIO:050229</t>
         </is>
       </c>
       <c r="B230" s="2" t="inlineStr">
         <is>
-          <t>professional network</t>
+          <t>professional identity</t>
         </is>
       </c>
       <c r="C230" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> social environmental system</t>
+          <t>self-identity</t>
         </is>
       </c>
       <c r="D230" s="2" t="inlineStr">
         <is>
-          <t>A social environmental system that consists of persons who have shared interests relating to their occupational roles and are in contact or communication.</t>
+          <t>A self-identity that is associated with one's occupational role.</t>
         </is>
       </c>
       <c r="E230" s="2" t="inlineStr"/>
@@ -9846,73 +9846,69 @@
       <c r="P230" s="2" t="inlineStr"/>
     </row>
     <row r="231">
-      <c r="A231" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006062</t>
-        </is>
-      </c>
-      <c r="B231" s="3" t="inlineStr">
-        <is>
-          <t>promotion focused motivational orientation</t>
-        </is>
-      </c>
-      <c r="C231" s="3" t="inlineStr">
-        <is>
-          <t>motivational orientation towards types of outcomes</t>
-        </is>
-      </c>
-      <c r="D231" s="3" t="inlineStr">
-        <is>
-          <t>A mental disposition for motivation to be guided by a focus on the presence or absence of negative outcomes.</t>
-        </is>
-      </c>
-      <c r="E231" s="3" t="inlineStr"/>
-      <c r="F231" s="3" t="inlineStr"/>
-      <c r="G231" s="3" t="inlineStr"/>
-      <c r="H231" s="3" t="inlineStr"/>
-      <c r="I231" s="3" t="inlineStr"/>
-      <c r="J231" s="3" t="inlineStr"/>
-      <c r="K231" s="3" t="inlineStr"/>
-      <c r="L231" s="3" t="inlineStr"/>
-      <c r="M231" s="3" t="inlineStr"/>
-      <c r="N231" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O231" s="3" t="inlineStr"/>
-      <c r="P231" s="3" t="inlineStr"/>
+      <c r="A231" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050213</t>
+        </is>
+      </c>
+      <c r="B231" s="2" t="inlineStr">
+        <is>
+          <t>professional network</t>
+        </is>
+      </c>
+      <c r="C231" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> social environmental system</t>
+        </is>
+      </c>
+      <c r="D231" s="2" t="inlineStr">
+        <is>
+          <t>A social environmental system that consists of persons who have shared interests relating to their occupational roles and are in contact or communication.</t>
+        </is>
+      </c>
+      <c r="E231" s="2" t="inlineStr"/>
+      <c r="F231" s="2" t="inlineStr"/>
+      <c r="G231" s="2" t="inlineStr"/>
+      <c r="H231" s="2" t="inlineStr"/>
+      <c r="I231" s="2" t="inlineStr"/>
+      <c r="J231" s="2" t="inlineStr"/>
+      <c r="K231" s="2" t="inlineStr"/>
+      <c r="L231" s="2" t="inlineStr"/>
+      <c r="M231" s="2" t="inlineStr"/>
+      <c r="N231" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="O231" s="2" t="inlineStr"/>
+      <c r="P231" s="2" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006064</t>
+          <t>BCIO:006062</t>
         </is>
       </c>
       <c r="B232" s="3" t="inlineStr">
         <is>
-          <t>psychological need</t>
+          <t>promotion focused motivational orientation</t>
         </is>
       </c>
       <c r="C232" s="3" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>motivational orientation towards types of outcomes</t>
         </is>
       </c>
       <c r="D232" s="3" t="inlineStr">
         <is>
-          <t>A mental disposition of a person to act to obtain or maintain a particular state due to this state’s importance to the person’s wellbeing.</t>
+          <t>A mental disposition for motivation to be guided by a focus on the presence or absence of negative outcomes.</t>
         </is>
       </c>
       <c r="E232" s="3" t="inlineStr"/>
       <c r="F232" s="3" t="inlineStr"/>
       <c r="G232" s="3" t="inlineStr"/>
       <c r="H232" s="3" t="inlineStr"/>
-      <c r="I232" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Psychological needs can be satisfied or thwarted. </t>
-        </is>
-      </c>
+      <c r="I232" s="3" t="inlineStr"/>
       <c r="J232" s="3" t="inlineStr"/>
       <c r="K232" s="3" t="inlineStr"/>
       <c r="L232" s="3" t="inlineStr"/>
@@ -9926,242 +9922,246 @@
       <c r="P232" s="3" t="inlineStr"/>
     </row>
     <row r="233">
-      <c r="A233" s="4" t="inlineStr">
+      <c r="A233" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006064</t>
+        </is>
+      </c>
+      <c r="B233" s="3" t="inlineStr">
+        <is>
+          <t>psychological need</t>
+        </is>
+      </c>
+      <c r="C233" s="3" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="D233" s="3" t="inlineStr">
+        <is>
+          <t>A mental disposition of a person to act to obtain or maintain a particular state due to this state’s importance to the person’s wellbeing.</t>
+        </is>
+      </c>
+      <c r="E233" s="3" t="inlineStr"/>
+      <c r="F233" s="3" t="inlineStr"/>
+      <c r="G233" s="3" t="inlineStr"/>
+      <c r="H233" s="3" t="inlineStr"/>
+      <c r="I233" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Psychological needs can be satisfied or thwarted. </t>
+        </is>
+      </c>
+      <c r="J233" s="3" t="inlineStr"/>
+      <c r="K233" s="3" t="inlineStr"/>
+      <c r="L233" s="3" t="inlineStr"/>
+      <c r="M233" s="3" t="inlineStr"/>
+      <c r="N233" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O233" s="3" t="inlineStr"/>
+      <c r="P233" s="3" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="4" t="inlineStr">
         <is>
           <t>PATO:0000001</t>
         </is>
       </c>
-      <c r="B233" s="4" t="inlineStr">
+      <c r="B234" s="4" t="inlineStr">
         <is>
           <t>quality</t>
         </is>
       </c>
-      <c r="C233" s="4" t="inlineStr">
+      <c r="C234" s="4" t="inlineStr">
         <is>
           <t>specifically dependent continuant</t>
         </is>
       </c>
-      <c r="D233" s="4" t="inlineStr">
+      <c r="D234" s="4" t="inlineStr">
         <is>
           <t>A dependent entity that inheres in a bearer by virtue of how the bearer is related to other entities.</t>
         </is>
       </c>
-      <c r="E233" s="4" t="inlineStr"/>
-      <c r="F233" s="4" t="inlineStr"/>
-      <c r="G233" s="4" t="inlineStr"/>
-      <c r="H233" s="4" t="inlineStr"/>
-      <c r="I233" s="4" t="inlineStr"/>
-      <c r="J233" s="4" t="inlineStr"/>
-      <c r="K233" s="4" t="inlineStr"/>
-      <c r="L233" s="4" t="inlineStr"/>
-      <c r="M233" s="4" t="inlineStr"/>
-      <c r="N233" s="4" t="inlineStr">
+      <c r="E234" s="4" t="inlineStr"/>
+      <c r="F234" s="4" t="inlineStr"/>
+      <c r="G234" s="4" t="inlineStr"/>
+      <c r="H234" s="4" t="inlineStr"/>
+      <c r="I234" s="4" t="inlineStr"/>
+      <c r="J234" s="4" t="inlineStr"/>
+      <c r="K234" s="4" t="inlineStr"/>
+      <c r="L234" s="4" t="inlineStr"/>
+      <c r="M234" s="4" t="inlineStr"/>
+      <c r="N234" s="4" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="O233" s="4" t="inlineStr"/>
-      <c r="P233" s="4" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="3" t="inlineStr">
+      <c r="O234" s="4" t="inlineStr"/>
+      <c r="P234" s="4" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="3" t="inlineStr">
         <is>
           <t>BCIO:006112</t>
         </is>
       </c>
-      <c r="B234" s="3" t="inlineStr">
+      <c r="B235" s="3" t="inlineStr">
         <is>
           <t>reflective thinking</t>
         </is>
       </c>
-      <c r="C234" s="3" t="inlineStr">
+      <c r="C235" s="3" t="inlineStr">
         <is>
           <t>thinking</t>
         </is>
       </c>
-      <c r="D234" s="3" t="inlineStr">
+      <c r="D235" s="3" t="inlineStr">
         <is>
           <t>Thinking that involves the generation of inferences by reasoning based on one or more statements, evaluating anticipated consequences or considering the relationships between concepts.</t>
         </is>
       </c>
-      <c r="E234" s="3" t="inlineStr"/>
-      <c r="F234" s="3" t="inlineStr"/>
-      <c r="G234" s="3" t="inlineStr"/>
-      <c r="H234" s="3" t="inlineStr"/>
-      <c r="I234" s="3" t="inlineStr"/>
-      <c r="J234" s="3" t="inlineStr"/>
-      <c r="K234" s="3" t="inlineStr"/>
-      <c r="L234" s="3" t="inlineStr"/>
-      <c r="M234" s="3" t="inlineStr"/>
-      <c r="N234" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O234" s="3" t="inlineStr"/>
-      <c r="P234" s="3" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="2" t="inlineStr">
+      <c r="E235" s="3" t="inlineStr"/>
+      <c r="F235" s="3" t="inlineStr"/>
+      <c r="G235" s="3" t="inlineStr"/>
+      <c r="H235" s="3" t="inlineStr"/>
+      <c r="I235" s="3" t="inlineStr"/>
+      <c r="J235" s="3" t="inlineStr"/>
+      <c r="K235" s="3" t="inlineStr"/>
+      <c r="L235" s="3" t="inlineStr"/>
+      <c r="M235" s="3" t="inlineStr"/>
+      <c r="N235" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O235" s="3" t="inlineStr"/>
+      <c r="P235" s="3" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="inlineStr">
         <is>
           <t>BCIO:050232</t>
         </is>
       </c>
-      <c r="B235" s="2" t="inlineStr">
+      <c r="B236" s="2" t="inlineStr">
         <is>
           <t>regret</t>
         </is>
       </c>
-      <c r="C235" s="2" t="inlineStr">
+      <c r="C236" s="2" t="inlineStr">
         <is>
           <t>emotion process</t>
         </is>
       </c>
-      <c r="D235" s="2" t="inlineStr">
+      <c r="D236" s="2" t="inlineStr">
         <is>
           <t>A negative emotion that occurs when a person wishes they chose or acted differently in the past, due to the consequences of that choice or action being unfavourable.</t>
         </is>
       </c>
-      <c r="E235" s="2" t="inlineStr"/>
-      <c r="F235" s="2" t="inlineStr"/>
-      <c r="G235" s="2" t="inlineStr"/>
-      <c r="H235" s="2" t="inlineStr"/>
-      <c r="I235" s="2" t="inlineStr"/>
-      <c r="J235" s="2" t="inlineStr"/>
-      <c r="K235" s="2" t="inlineStr"/>
-      <c r="L235" s="2" t="inlineStr"/>
-      <c r="M235" s="2" t="inlineStr"/>
-      <c r="N235" s="2" t="inlineStr">
+      <c r="E236" s="2" t="inlineStr"/>
+      <c r="F236" s="2" t="inlineStr"/>
+      <c r="G236" s="2" t="inlineStr"/>
+      <c r="H236" s="2" t="inlineStr"/>
+      <c r="I236" s="2" t="inlineStr"/>
+      <c r="J236" s="2" t="inlineStr"/>
+      <c r="K236" s="2" t="inlineStr"/>
+      <c r="L236" s="2" t="inlineStr"/>
+      <c r="M236" s="2" t="inlineStr"/>
+      <c r="N236" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="O235" s="2" t="inlineStr"/>
-      <c r="P235" s="2" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" t="inlineStr">
+      <c r="O236" s="2" t="inlineStr"/>
+      <c r="P236" s="2" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
         <is>
           <t>MF:0000030</t>
         </is>
       </c>
-      <c r="B236" t="inlineStr">
+      <c r="B237" t="inlineStr">
         <is>
           <t>representation</t>
         </is>
       </c>
-      <c r="C236" t="inlineStr">
+      <c r="C237" t="inlineStr">
         <is>
           <t>specifically dependent continuant</t>
         </is>
       </c>
-      <c r="D236" t="inlineStr">
+      <c r="D237" t="inlineStr">
         <is>
           <t>A dependent continuant which is about a portion of reality.</t>
         </is>
       </c>
-      <c r="E236" t="inlineStr"/>
-      <c r="F236" t="inlineStr"/>
-      <c r="G236" t="inlineStr"/>
-      <c r="H236" t="inlineStr"/>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
-      <c r="M236" t="inlineStr"/>
-      <c r="N236" t="inlineStr">
+      <c r="E237" t="inlineStr"/>
+      <c r="F237" t="inlineStr"/>
+      <c r="G237" t="inlineStr"/>
+      <c r="H237" t="inlineStr"/>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
+      <c r="M237" t="inlineStr"/>
+      <c r="N237" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="O236" t="inlineStr"/>
-      <c r="P236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="2" t="inlineStr">
+      <c r="O237" t="inlineStr"/>
+      <c r="P237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="inlineStr">
         <is>
           <t>BCIO:050266</t>
         </is>
       </c>
-      <c r="B237" s="2" t="inlineStr">
+      <c r="B238" s="2" t="inlineStr">
         <is>
           <t>ruminating</t>
         </is>
       </c>
-      <c r="C237" s="2" t="inlineStr">
+      <c r="C238" s="2" t="inlineStr">
         <is>
           <t>thinking</t>
         </is>
       </c>
-      <c r="D237" s="2" t="inlineStr">
+      <c r="D238" s="2" t="inlineStr">
         <is>
           <t>Thinking that is about negative experiences and feelings, and repeated.</t>
         </is>
       </c>
-      <c r="E237" s="2" t="inlineStr"/>
-      <c r="F237" s="2" t="inlineStr"/>
-      <c r="G237" s="2" t="inlineStr"/>
-      <c r="H237" s="2" t="inlineStr"/>
-      <c r="I237" s="2" t="inlineStr"/>
-      <c r="J237" s="2" t="inlineStr"/>
-      <c r="K237" s="2" t="inlineStr"/>
-      <c r="L237" s="2" t="inlineStr"/>
-      <c r="M237" s="2" t="inlineStr"/>
-      <c r="N237" s="2" t="inlineStr">
+      <c r="E238" s="2" t="inlineStr"/>
+      <c r="F238" s="2" t="inlineStr"/>
+      <c r="G238" s="2" t="inlineStr"/>
+      <c r="H238" s="2" t="inlineStr"/>
+      <c r="I238" s="2" t="inlineStr"/>
+      <c r="J238" s="2" t="inlineStr"/>
+      <c r="K238" s="2" t="inlineStr"/>
+      <c r="L238" s="2" t="inlineStr"/>
+      <c r="M238" s="2" t="inlineStr"/>
+      <c r="N238" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="O237" s="2" t="inlineStr"/>
-      <c r="P237" s="2" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MFOEM:000056 </t>
-        </is>
-      </c>
-      <c r="B238" t="inlineStr">
-        <is>
-          <t>sadness</t>
-        </is>
-      </c>
-      <c r="C238" t="inlineStr">
-        <is>
-          <t>emotion process</t>
-        </is>
-      </c>
-      <c r="D238" t="inlineStr">
-        <is>
-          <t>A negative emotion felt when an event is appraised as unpleasant and resulting in loss or failure.</t>
-        </is>
-      </c>
-      <c r="E238" t="inlineStr"/>
-      <c r="F238" t="inlineStr"/>
-      <c r="G238" t="inlineStr"/>
-      <c r="H238" t="inlineStr"/>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="inlineStr"/>
-      <c r="N238" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="O238" t="inlineStr"/>
-      <c r="P238" t="inlineStr"/>
+      <c r="O238" s="2" t="inlineStr"/>
+      <c r="P238" s="2" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>MFOEM:000169</t>
+          <t xml:space="preserve">MFOEM:000056 </t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>satisfaction</t>
+          <t>sadness</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -10171,7 +10171,7 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>An emotion that is experienced when one's wishes, expectations or needs are fulfilled.</t>
+          <t>A negative emotion felt when an event is appraised as unpleasant and resulting in loss or failure.</t>
         </is>
       </c>
       <c r="E239" t="inlineStr"/>
@@ -10192,99 +10192,94 @@
       <c r="P239" t="inlineStr"/>
     </row>
     <row r="240">
-      <c r="A240" s="2" t="inlineStr">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>MFOEM:000169</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>satisfaction</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>emotion process</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>An emotion that is experienced when one's wishes, expectations or needs are fulfilled.</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr"/>
+      <c r="F240" t="inlineStr"/>
+      <c r="G240" t="inlineStr"/>
+      <c r="H240" t="inlineStr"/>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
+      <c r="M240" t="inlineStr"/>
+      <c r="N240" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="O240" t="inlineStr"/>
+      <c r="P240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="inlineStr">
         <is>
           <t>BCIO:050236</t>
         </is>
       </c>
-      <c r="B240" s="2" t="inlineStr">
+      <c r="B241" s="2" t="inlineStr">
         <is>
           <t>self-binding</t>
         </is>
       </c>
-      <c r="C240" s="2" t="inlineStr">
+      <c r="C241" s="2" t="inlineStr">
         <is>
           <t>mental process</t>
         </is>
       </c>
-      <c r="D240" s="2" t="inlineStr">
+      <c r="D241" s="2" t="inlineStr">
         <is>
           <t>A mental process that involves creating adverse consequences for oneself if one does not stick to an intended course of action.</t>
         </is>
       </c>
-      <c r="E240" s="2" t="inlineStr"/>
-      <c r="F240" s="2" t="inlineStr"/>
-      <c r="G240" s="2" t="inlineStr">
+      <c r="E241" s="2" t="inlineStr"/>
+      <c r="F241" s="2" t="inlineStr"/>
+      <c r="G241" s="2" t="inlineStr">
         <is>
           <t>Pre-commitment</t>
         </is>
       </c>
-      <c r="H240" s="2" t="inlineStr"/>
-      <c r="I240" s="2" t="inlineStr"/>
-      <c r="J240" s="2" t="inlineStr"/>
-      <c r="K240" s="2" t="inlineStr"/>
-      <c r="L240" s="2" t="inlineStr"/>
-      <c r="M240" s="2" t="inlineStr"/>
-      <c r="N240" s="2" t="inlineStr">
+      <c r="H241" s="2" t="inlineStr"/>
+      <c r="I241" s="2" t="inlineStr"/>
+      <c r="J241" s="2" t="inlineStr"/>
+      <c r="K241" s="2" t="inlineStr"/>
+      <c r="L241" s="2" t="inlineStr"/>
+      <c r="M241" s="2" t="inlineStr"/>
+      <c r="N241" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="O240" s="2" t="inlineStr"/>
-      <c r="P240" s="2" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006154</t>
-        </is>
-      </c>
-      <c r="B241" s="3" t="inlineStr">
-        <is>
-          <t>self-efficacy belief for a behaviour</t>
-        </is>
-      </c>
-      <c r="C241" s="3" t="inlineStr">
-        <is>
-          <t>belief</t>
-        </is>
-      </c>
-      <c r="D241" s="3" t="inlineStr">
-        <is>
-          <t>A belief about one's capabilities to organise and execute a behaviour.</t>
-        </is>
-      </c>
-      <c r="E241" s="3" t="inlineStr"/>
-      <c r="F241" s="3" t="inlineStr"/>
-      <c r="G241" s="3" t="inlineStr"/>
-      <c r="H241" s="3" t="inlineStr"/>
-      <c r="I241" s="3" t="inlineStr">
-        <is>
-          <t>The phrase 'to organise' refers to the ability to organise mental processes and sequences of actions.
-'self-efficacy belief for a behaviour' is part of 'self-efficacy belief for a behaviour and its associated outcomes'. However, the latter also includes a belief about the outcomes associated with behaviour.</t>
-        </is>
-      </c>
-      <c r="J241" s="3" t="inlineStr"/>
-      <c r="K241" s="3" t="inlineStr"/>
-      <c r="L241" s="3" t="inlineStr"/>
-      <c r="M241" s="3" t="inlineStr"/>
-      <c r="N241" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O241" s="3" t="inlineStr"/>
-      <c r="P241" s="3" t="inlineStr"/>
+      <c r="O241" s="2" t="inlineStr"/>
+      <c r="P241" s="2" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006043</t>
+          <t>BCIO:006154</t>
         </is>
       </c>
       <c r="B242" s="3" t="inlineStr">
         <is>
-          <t>self-efficacy belief for a behaviour and its associated outcomes</t>
+          <t>self-efficacy belief for a behaviour</t>
         </is>
       </c>
       <c r="C242" s="3" t="inlineStr">
@@ -10294,7 +10289,7 @@
       </c>
       <c r="D242" s="3" t="inlineStr">
         <is>
-          <t>A belief about one's capabilities to organise and execute a behaviour and achieve the outcomes associated with this behaviour.</t>
+          <t>A belief about one's capabilities to organise and execute a behaviour.</t>
         </is>
       </c>
       <c r="E242" s="3" t="inlineStr"/>
@@ -10308,11 +10303,7 @@
         </is>
       </c>
       <c r="J242" s="3" t="inlineStr"/>
-      <c r="K242" s="3" t="inlineStr">
-        <is>
-          <t>self-efficacy belief for a behaviour</t>
-        </is>
-      </c>
+      <c r="K242" s="3" t="inlineStr"/>
       <c r="L242" s="3" t="inlineStr"/>
       <c r="M242" s="3" t="inlineStr"/>
       <c r="N242" s="3" t="inlineStr">
@@ -10324,106 +10315,109 @@
       <c r="P242" s="3" t="inlineStr"/>
     </row>
     <row r="243">
-      <c r="A243" t="inlineStr">
+      <c r="A243" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006043</t>
+        </is>
+      </c>
+      <c r="B243" s="3" t="inlineStr">
+        <is>
+          <t>self-efficacy belief for a behaviour and its associated outcomes</t>
+        </is>
+      </c>
+      <c r="C243" s="3" t="inlineStr">
+        <is>
+          <t>belief</t>
+        </is>
+      </c>
+      <c r="D243" s="3" t="inlineStr">
+        <is>
+          <t>A belief about one's capabilities to organise and execute a behaviour and achieve the outcomes associated with this behaviour.</t>
+        </is>
+      </c>
+      <c r="E243" s="3" t="inlineStr"/>
+      <c r="F243" s="3" t="inlineStr"/>
+      <c r="G243" s="3" t="inlineStr"/>
+      <c r="H243" s="3" t="inlineStr"/>
+      <c r="I243" s="3" t="inlineStr">
+        <is>
+          <t>The phrase 'to organise' refers to the ability to organise mental processes and sequences of actions.
+'self-efficacy belief for a behaviour' is part of 'self-efficacy belief for a behaviour and its associated outcomes'. However, the latter also includes a belief about the outcomes associated with behaviour.</t>
+        </is>
+      </c>
+      <c r="J243" s="3" t="inlineStr"/>
+      <c r="K243" s="3" t="inlineStr">
+        <is>
+          <t>self-efficacy belief for a behaviour</t>
+        </is>
+      </c>
+      <c r="L243" s="3" t="inlineStr"/>
+      <c r="M243" s="3" t="inlineStr"/>
+      <c r="N243" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O243" s="3" t="inlineStr"/>
+      <c r="P243" s="3" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
         <is>
           <t>ADDICTO:0000399</t>
         </is>
       </c>
-      <c r="B243" t="inlineStr">
+      <c r="B244" t="inlineStr">
         <is>
           <t>self-identity</t>
         </is>
       </c>
-      <c r="C243" t="inlineStr">
+      <c r="C244" t="inlineStr">
         <is>
           <t>identity</t>
         </is>
       </c>
-      <c r="D243" t="inlineStr">
+      <c r="D244" t="inlineStr">
         <is>
           <t>An identity that a person has about themselves.</t>
         </is>
       </c>
-      <c r="E243" t="inlineStr"/>
-      <c r="F243" t="inlineStr"/>
-      <c r="G243" t="inlineStr"/>
-      <c r="H243" t="inlineStr"/>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
-      <c r="M243" t="inlineStr"/>
-      <c r="N243" t="inlineStr">
+      <c r="E244" t="inlineStr"/>
+      <c r="F244" t="inlineStr"/>
+      <c r="G244" t="inlineStr"/>
+      <c r="H244" t="inlineStr"/>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
+      <c r="M244" t="inlineStr"/>
+      <c r="N244" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="O243" t="inlineStr"/>
-      <c r="P243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006137</t>
-        </is>
-      </c>
-      <c r="B244" s="3" t="inlineStr">
-        <is>
-          <t>self-monitoring</t>
-        </is>
-      </c>
-      <c r="C244" s="3" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D244" s="3" t="inlineStr">
-        <is>
-          <t>A mental process in which one observes one's own behaviour or mental processes.</t>
-        </is>
-      </c>
-      <c r="E244" s="3" t="inlineStr"/>
-      <c r="F244" s="3" t="inlineStr"/>
-      <c r="G244" s="3" t="inlineStr"/>
-      <c r="H244" s="3" t="inlineStr"/>
-      <c r="I244" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">There are behaviour change techniques labelled 'Self-monitoring of behaviour' and 'Self-monitoring of outcome of behaviour'. These are about establishing a method for monitoring states. In contrast, the MoA is the mental process of monitoring.
-'Self-monitoring of behaviour' is defined as 'Instruct self recording of specified behaviour/s (with or without associated thoughts, emotions, situations) as part of a behaviour change strategy ' (Michie et al., 2013).
-'Self-monitoring of outcome of behaviour' is defined "Establish a method for the person to monitor and record their behavior(s) as part of a behavior change strategy"  (Michie et al., 2013). </t>
-        </is>
-      </c>
-      <c r="J244" s="3" t="inlineStr"/>
-      <c r="K244" s="3" t="inlineStr"/>
-      <c r="L244" s="3" t="inlineStr"/>
-      <c r="M244" s="3" t="inlineStr"/>
-      <c r="N244" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O244" s="3" t="inlineStr"/>
-      <c r="P244" s="3" t="inlineStr"/>
+      <c r="O244" t="inlineStr"/>
+      <c r="P244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006005</t>
+          <t>BCIO:006137</t>
         </is>
       </c>
       <c r="B245" s="3" t="inlineStr">
         <is>
-          <t>self-regulation capability</t>
+          <t>self-monitoring</t>
         </is>
       </c>
       <c r="C245" s="3" t="inlineStr">
         <is>
-          <t>mental capability</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D245" s="3" t="inlineStr">
         <is>
-          <t>A mental capability that involves processes that modulate the frequency, rate or extent of a response to external or internal stimuli and that are instigated by the person themselves.</t>
+          <t>A mental process in which one observes one's own behaviour or mental processes.</t>
         </is>
       </c>
       <c r="E245" s="3" t="inlineStr"/>
@@ -10432,7 +10426,9 @@
       <c r="H245" s="3" t="inlineStr"/>
       <c r="I245" s="3" t="inlineStr">
         <is>
-          <t>'Modulate’ refers to ‘modifying or controlling influence on or change the strength’ and involves processes</t>
+          <t xml:space="preserve">There are behaviour change techniques labelled 'Self-monitoring of behaviour' and 'Self-monitoring of outcome of behaviour'. These are about establishing a method for monitoring states. In contrast, the MoA is the mental process of monitoring.
+'Self-monitoring of behaviour' is defined as 'Instruct self recording of specified behaviour/s (with or without associated thoughts, emotions, situations) as part of a behaviour change strategy ' (Michie et al., 2013).
+'Self-monitoring of outcome of behaviour' is defined "Establish a method for the person to monitor and record their behavior(s) as part of a behavior change strategy"  (Michie et al., 2013). </t>
         </is>
       </c>
       <c r="J245" s="3" t="inlineStr"/>
@@ -10450,29 +10446,33 @@
     <row r="246">
       <c r="A246" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006103</t>
+          <t>BCIO:006005</t>
         </is>
       </c>
       <c r="B246" s="3" t="inlineStr">
         <is>
-          <t>self-regulation of behaviour</t>
+          <t>self-regulation capability</t>
         </is>
       </c>
       <c r="C246" s="3" t="inlineStr">
         <is>
-          <t>self-regulation process</t>
+          <t>mental capability</t>
         </is>
       </c>
       <c r="D246" s="3" t="inlineStr">
         <is>
-          <t>A self-regulation process that modulates the frequency, rate or extent of one's  performance of a behaviour.</t>
+          <t>A mental capability that involves processes that modulate the frequency, rate or extent of a response to external or internal stimuli and that are instigated by the person themselves.</t>
         </is>
       </c>
       <c r="E246" s="3" t="inlineStr"/>
       <c r="F246" s="3" t="inlineStr"/>
       <c r="G246" s="3" t="inlineStr"/>
       <c r="H246" s="3" t="inlineStr"/>
-      <c r="I246" s="3" t="inlineStr"/>
+      <c r="I246" s="3" t="inlineStr">
+        <is>
+          <t>'Modulate’ refers to ‘modifying or controlling influence on or change the strength’ and involves processes</t>
+        </is>
+      </c>
       <c r="J246" s="3" t="inlineStr"/>
       <c r="K246" s="3" t="inlineStr"/>
       <c r="L246" s="3" t="inlineStr"/>
@@ -10486,62 +10486,62 @@
       <c r="P246" s="3" t="inlineStr"/>
     </row>
     <row r="247">
-      <c r="A247" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050268</t>
-        </is>
-      </c>
-      <c r="B247" s="2" t="inlineStr">
+      <c r="A247" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006103</t>
+        </is>
+      </c>
+      <c r="B247" s="3" t="inlineStr">
+        <is>
+          <t>self-regulation of behaviour</t>
+        </is>
+      </c>
+      <c r="C247" s="3" t="inlineStr">
         <is>
           <t>self-regulation process</t>
         </is>
       </c>
-      <c r="C247" s="2" t="inlineStr">
-        <is>
-          <t>bodily process</t>
-        </is>
-      </c>
-      <c r="D247" s="2" t="inlineStr">
-        <is>
-          <t>A bodily process that modulates the frequency, rate or extent of a response to external or internal stimuli and that is instigated by the person.</t>
-        </is>
-      </c>
-      <c r="E247" s="2" t="inlineStr"/>
-      <c r="F247" s="2" t="inlineStr"/>
-      <c r="G247" s="2" t="inlineStr"/>
-      <c r="H247" s="2" t="inlineStr"/>
-      <c r="I247" s="2" t="inlineStr"/>
-      <c r="J247" s="2" t="inlineStr"/>
-      <c r="K247" s="2" t="inlineStr"/>
-      <c r="L247" s="2" t="inlineStr"/>
-      <c r="M247" s="2" t="inlineStr"/>
-      <c r="N247" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="O247" s="2" t="inlineStr"/>
-      <c r="P247" s="2" t="inlineStr"/>
+      <c r="D247" s="3" t="inlineStr">
+        <is>
+          <t>A self-regulation process that modulates the frequency, rate or extent of one's  performance of a behaviour.</t>
+        </is>
+      </c>
+      <c r="E247" s="3" t="inlineStr"/>
+      <c r="F247" s="3" t="inlineStr"/>
+      <c r="G247" s="3" t="inlineStr"/>
+      <c r="H247" s="3" t="inlineStr"/>
+      <c r="I247" s="3" t="inlineStr"/>
+      <c r="J247" s="3" t="inlineStr"/>
+      <c r="K247" s="3" t="inlineStr"/>
+      <c r="L247" s="3" t="inlineStr"/>
+      <c r="M247" s="3" t="inlineStr"/>
+      <c r="N247" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O247" s="3" t="inlineStr"/>
+      <c r="P247" s="3" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050222</t>
+          <t>BCIO:050268</t>
         </is>
       </c>
       <c r="B248" s="2" t="inlineStr">
         <is>
-          <t>self-regulatory skill</t>
+          <t>self-regulation process</t>
         </is>
       </c>
       <c r="C248" s="2" t="inlineStr">
         <is>
-          <t>self-regulation capability</t>
+          <t>bodily process</t>
         </is>
       </c>
       <c r="D248" s="2" t="inlineStr">
         <is>
-          <t>A self-regulation capability that is acquired through training or practice.</t>
+          <t>A bodily process that modulates the frequency, rate or extent of a response to external or internal stimuli and that is instigated by the person.</t>
         </is>
       </c>
       <c r="E248" s="2" t="inlineStr"/>
@@ -10562,70 +10562,70 @@
       <c r="P248" s="2" t="inlineStr"/>
     </row>
     <row r="249">
-      <c r="A249" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006106</t>
-        </is>
-      </c>
-      <c r="B249" s="3" t="inlineStr">
-        <is>
-          <t>self-reinforcing self-regulation</t>
-        </is>
-      </c>
-      <c r="C249" s="3" t="inlineStr">
-        <is>
-          <t>self-regulation of behaviour</t>
-        </is>
-      </c>
-      <c r="D249" s="3" t="inlineStr">
-        <is>
-          <t>Self-regulation of behaviour through self-administering a reward for performing an intended behaviour.</t>
-        </is>
-      </c>
-      <c r="E249" s="3" t="inlineStr"/>
-      <c r="F249" s="3" t="inlineStr">
-        <is>
-          <t>A bodily process that modulates the frequency, rate or extent of behaviour through self-administering a reward for performing an intended behaviour.</t>
-        </is>
-      </c>
-      <c r="G249" s="3" t="inlineStr"/>
-      <c r="H249" s="3" t="inlineStr"/>
-      <c r="I249" s="3" t="inlineStr"/>
-      <c r="J249" s="3" t="inlineStr"/>
-      <c r="K249" s="3" t="inlineStr"/>
-      <c r="L249" s="3" t="inlineStr"/>
-      <c r="M249" s="3" t="inlineStr"/>
-      <c r="N249" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O249" s="3" t="inlineStr"/>
-      <c r="P249" s="3" t="inlineStr"/>
+      <c r="A249" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050222</t>
+        </is>
+      </c>
+      <c r="B249" s="2" t="inlineStr">
+        <is>
+          <t>self-regulatory skill</t>
+        </is>
+      </c>
+      <c r="C249" s="2" t="inlineStr">
+        <is>
+          <t>self-regulation capability</t>
+        </is>
+      </c>
+      <c r="D249" s="2" t="inlineStr">
+        <is>
+          <t>A self-regulation capability that is acquired through training or practice.</t>
+        </is>
+      </c>
+      <c r="E249" s="2" t="inlineStr"/>
+      <c r="F249" s="2" t="inlineStr"/>
+      <c r="G249" s="2" t="inlineStr"/>
+      <c r="H249" s="2" t="inlineStr"/>
+      <c r="I249" s="2" t="inlineStr"/>
+      <c r="J249" s="2" t="inlineStr"/>
+      <c r="K249" s="2" t="inlineStr"/>
+      <c r="L249" s="2" t="inlineStr"/>
+      <c r="M249" s="2" t="inlineStr"/>
+      <c r="N249" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="O249" s="2" t="inlineStr"/>
+      <c r="P249" s="2" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006128</t>
+          <t>BCIO:006106</t>
         </is>
       </c>
       <c r="B250" s="3" t="inlineStr">
         <is>
-          <t>semantic memory</t>
+          <t>self-reinforcing self-regulation</t>
         </is>
       </c>
       <c r="C250" s="3" t="inlineStr">
         <is>
-          <t>memory</t>
+          <t>self-regulation of behaviour</t>
         </is>
       </c>
       <c r="D250" s="3" t="inlineStr">
         <is>
-          <t>A memory process that deals with the receipt, storage, retrieval and modification of information associated with meanings, understandings or conceptual facts about the world.</t>
+          <t>Self-regulation of behaviour through self-administering a reward for performing an intended behaviour.</t>
         </is>
       </c>
       <c r="E250" s="3" t="inlineStr"/>
-      <c r="F250" s="3" t="inlineStr"/>
+      <c r="F250" s="3" t="inlineStr">
+        <is>
+          <t>A bodily process that modulates the frequency, rate or extent of behaviour through self-administering a reward for performing an intended behaviour.</t>
+        </is>
+      </c>
       <c r="G250" s="3" t="inlineStr"/>
       <c r="H250" s="3" t="inlineStr"/>
       <c r="I250" s="3" t="inlineStr"/>
@@ -10642,62 +10642,62 @@
       <c r="P250" s="3" t="inlineStr"/>
     </row>
     <row r="251">
-      <c r="A251" t="inlineStr">
-        <is>
-          <t>GO:0046960</t>
-        </is>
-      </c>
-      <c r="B251" t="inlineStr">
-        <is>
-          <t>sensitization</t>
-        </is>
-      </c>
-      <c r="C251" t="inlineStr">
-        <is>
-          <t>non-associative learning</t>
-        </is>
-      </c>
-      <c r="D251" t="inlineStr">
-        <is>
-          <t>An increase in a behavioural response to a repeated stimulus.</t>
-        </is>
-      </c>
-      <c r="E251" t="inlineStr"/>
-      <c r="F251" t="inlineStr"/>
-      <c r="G251" t="inlineStr"/>
-      <c r="H251" t="inlineStr"/>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
-      <c r="M251" t="inlineStr"/>
-      <c r="N251" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="O251" t="inlineStr"/>
-      <c r="P251" t="inlineStr"/>
+      <c r="A251" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006128</t>
+        </is>
+      </c>
+      <c r="B251" s="3" t="inlineStr">
+        <is>
+          <t>semantic memory</t>
+        </is>
+      </c>
+      <c r="C251" s="3" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="D251" s="3" t="inlineStr">
+        <is>
+          <t>A memory process that deals with the receipt, storage, retrieval and modification of information associated with meanings, understandings or conceptual facts about the world.</t>
+        </is>
+      </c>
+      <c r="E251" s="3" t="inlineStr"/>
+      <c r="F251" s="3" t="inlineStr"/>
+      <c r="G251" s="3" t="inlineStr"/>
+      <c r="H251" s="3" t="inlineStr"/>
+      <c r="I251" s="3" t="inlineStr"/>
+      <c r="J251" s="3" t="inlineStr"/>
+      <c r="K251" s="3" t="inlineStr"/>
+      <c r="L251" s="3" t="inlineStr"/>
+      <c r="M251" s="3" t="inlineStr"/>
+      <c r="N251" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O251" s="3" t="inlineStr"/>
+      <c r="P251" s="3" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>MFOEM:000040</t>
+          <t>GO:0046960</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>sexual pleasure</t>
+          <t>sensitization</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>pleasure</t>
+          <t>non-associative learning</t>
         </is>
       </c>
       <c r="D252" t="inlineStr">
         <is>
-          <t>Pleasure that is experienced as a result of sexual activities.</t>
+          <t>An increase in a behavioural response to a repeated stimulus.</t>
         </is>
       </c>
       <c r="E252" t="inlineStr"/>
@@ -10720,22 +10720,22 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>MFOEM:000055</t>
+          <t>MFOEM:000040</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>shame</t>
+          <t>sexual pleasure</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>emotion process</t>
+          <t>pleasure</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>A negative emotion that is distressing and occurs when one appraises one's behaviour or circumstance as wrong, dishonourable, immodest or indecorous.</t>
+          <t>Pleasure that is experienced as a result of sexual activities.</t>
         </is>
       </c>
       <c r="E253" t="inlineStr"/>
@@ -10756,73 +10756,73 @@
       <c r="P253" t="inlineStr"/>
     </row>
     <row r="254">
-      <c r="A254" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006044</t>
-        </is>
-      </c>
-      <c r="B254" s="3" t="inlineStr">
-        <is>
-          <t>situational self-efficacy belief for a behaviour</t>
-        </is>
-      </c>
-      <c r="C254" s="3" t="inlineStr">
-        <is>
-          <t>self-efficacy belief for a behaviour</t>
-        </is>
-      </c>
-      <c r="D254" s="3" t="inlineStr">
-        <is>
-          <t>Self-efficacy belief for a behaviour when a barrier or facilitator of the behaviour is encountered.</t>
-        </is>
-      </c>
-      <c r="E254" s="3" t="inlineStr"/>
-      <c r="F254" s="3" t="inlineStr"/>
-      <c r="G254" s="3" t="inlineStr"/>
-      <c r="H254" s="3" t="inlineStr"/>
-      <c r="I254" s="3" t="inlineStr">
-        <is>
-          <t>The 'barrier or facilitator' specified in the definition can be external or internal.</t>
-        </is>
-      </c>
-      <c r="J254" s="3" t="inlineStr"/>
-      <c r="K254" s="3" t="inlineStr"/>
-      <c r="L254" s="3" t="inlineStr"/>
-      <c r="M254" s="3" t="inlineStr"/>
-      <c r="N254" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O254" s="3" t="inlineStr"/>
-      <c r="P254" s="3" t="inlineStr"/>
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>MFOEM:000055</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>shame</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>emotion process</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>A negative emotion that is distressing and occurs when one appraises one's behaviour or circumstance as wrong, dishonourable, immodest or indecorous.</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr"/>
+      <c r="F254" t="inlineStr"/>
+      <c r="G254" t="inlineStr"/>
+      <c r="H254" t="inlineStr"/>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="inlineStr"/>
+      <c r="M254" t="inlineStr"/>
+      <c r="N254" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="O254" t="inlineStr"/>
+      <c r="P254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006014</t>
+          <t>BCIO:006044</t>
         </is>
       </c>
       <c r="B255" s="3" t="inlineStr">
         <is>
-          <t>social alienation</t>
+          <t>situational self-efficacy belief for a behaviour</t>
         </is>
       </c>
       <c r="C255" s="3" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>self-efficacy belief for a behaviour</t>
         </is>
       </c>
       <c r="D255" s="3" t="inlineStr">
         <is>
-          <t>A mental disposition to perceive or experience oneself as isolated from and not meaningfully involved in social groups.</t>
+          <t>Self-efficacy belief for a behaviour when a barrier or facilitator of the behaviour is encountered.</t>
         </is>
       </c>
       <c r="E255" s="3" t="inlineStr"/>
       <c r="F255" s="3" t="inlineStr"/>
       <c r="G255" s="3" t="inlineStr"/>
       <c r="H255" s="3" t="inlineStr"/>
-      <c r="I255" s="3" t="inlineStr"/>
+      <c r="I255" s="3" t="inlineStr">
+        <is>
+          <t>The 'barrier or facilitator' specified in the definition can be external or internal.</t>
+        </is>
+      </c>
       <c r="J255" s="3" t="inlineStr"/>
       <c r="K255" s="3" t="inlineStr"/>
       <c r="L255" s="3" t="inlineStr"/>
@@ -10838,22 +10838,22 @@
     <row r="256">
       <c r="A256" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006011</t>
+          <t>BCIO:006014</t>
         </is>
       </c>
       <c r="B256" s="3" t="inlineStr">
         <is>
-          <t>social behavioural capability</t>
+          <t>social alienation</t>
         </is>
       </c>
       <c r="C256" s="3" t="inlineStr">
         <is>
-          <t>behavioural capability</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D256" s="3" t="inlineStr">
         <is>
-          <t>A personal capability includes interpersonal behaviour in its realisation.</t>
+          <t>A mental disposition to perceive or experience oneself as isolated from and not meaningfully involved in social groups.</t>
         </is>
       </c>
       <c r="E256" s="3" t="inlineStr"/>
@@ -10876,30 +10876,26 @@
     <row r="257">
       <c r="A257" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006090</t>
+          <t>BCIO:006011</t>
         </is>
       </c>
       <c r="B257" s="3" t="inlineStr">
         <is>
-          <t>social behavioural opportunity</t>
+          <t>social behavioural capability</t>
         </is>
       </c>
       <c r="C257" s="3" t="inlineStr">
         <is>
-          <t>behavioural opportunity</t>
+          <t>behavioural capability</t>
         </is>
       </c>
       <c r="D257" s="3" t="inlineStr">
         <is>
-          <t>A behavioural opportunity that involves the social environmental system.</t>
+          <t>A personal capability includes interpersonal behaviour in its realisation.</t>
         </is>
       </c>
       <c r="E257" s="3" t="inlineStr"/>
-      <c r="F257" s="3" t="inlineStr">
-        <is>
-          <t>Properties of a person's environment relating to the social world they inhabit, including the rules and norms that are operating and social cues.</t>
-        </is>
-      </c>
+      <c r="F257" s="3" t="inlineStr"/>
       <c r="G257" s="3" t="inlineStr"/>
       <c r="H257" s="3" t="inlineStr"/>
       <c r="I257" s="3" t="inlineStr"/>
@@ -10918,26 +10914,30 @@
     <row r="258">
       <c r="A258" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006118</t>
+          <t>BCIO:006090</t>
         </is>
       </c>
       <c r="B258" s="3" t="inlineStr">
         <is>
-          <t>social comparison process</t>
+          <t>social behavioural opportunity</t>
         </is>
       </c>
       <c r="C258" s="3" t="inlineStr">
         <is>
-          <t>judging</t>
+          <t>behavioural opportunity</t>
         </is>
       </c>
       <c r="D258" s="3" t="inlineStr">
         <is>
-          <t>Judging oneself or one's social group in relation to the qualities or characteristics of another person or social group.</t>
+          <t>A behavioural opportunity that involves the social environmental system.</t>
         </is>
       </c>
       <c r="E258" s="3" t="inlineStr"/>
-      <c r="F258" s="3" t="inlineStr"/>
+      <c r="F258" s="3" t="inlineStr">
+        <is>
+          <t>Properties of a person's environment relating to the social world they inhabit, including the rules and norms that are operating and social cues.</t>
+        </is>
+      </c>
       <c r="G258" s="3" t="inlineStr"/>
       <c r="H258" s="3" t="inlineStr"/>
       <c r="I258" s="3" t="inlineStr"/>
@@ -10956,22 +10956,22 @@
     <row r="259">
       <c r="A259" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006074</t>
+          <t>BCIO:006118</t>
         </is>
       </c>
       <c r="B259" s="3" t="inlineStr">
         <is>
-          <t>social embeddedness</t>
+          <t>social comparison process</t>
         </is>
       </c>
       <c r="C259" s="3" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>judging</t>
         </is>
       </c>
       <c r="D259" s="3" t="inlineStr">
         <is>
-          <t>A mental disposition to experience a feeling of being connected by social attachments.</t>
+          <t>Judging oneself or one's social group in relation to the qualities or characteristics of another person or social group.</t>
         </is>
       </c>
       <c r="E259" s="3" t="inlineStr"/>
@@ -10994,22 +10994,22 @@
     <row r="260">
       <c r="A260" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006001</t>
+          <t>BCIO:006074</t>
         </is>
       </c>
       <c r="B260" s="3" t="inlineStr">
         <is>
-          <t>social environmental system</t>
+          <t>social embeddedness</t>
         </is>
       </c>
       <c r="C260" s="3" t="inlineStr">
         <is>
-          <t>environmental system</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D260" s="3" t="inlineStr">
         <is>
-          <t>An environmental system that consists of people, their pets, social and cultural institutions and processes that influence the life of people and social groups.</t>
+          <t>A mental disposition to experience a feeling of being connected by social attachments.</t>
         </is>
       </c>
       <c r="E260" s="3" t="inlineStr"/>
@@ -11030,119 +11030,115 @@
       <c r="P260" s="3" t="inlineStr"/>
     </row>
     <row r="261">
-      <c r="A261" t="inlineStr">
+      <c r="A261" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006001</t>
+        </is>
+      </c>
+      <c r="B261" s="3" t="inlineStr">
+        <is>
+          <t>social environmental system</t>
+        </is>
+      </c>
+      <c r="C261" s="3" t="inlineStr">
+        <is>
+          <t>environmental system</t>
+        </is>
+      </c>
+      <c r="D261" s="3" t="inlineStr">
+        <is>
+          <t>An environmental system that consists of people, their pets, social and cultural institutions and processes that influence the life of people and social groups.</t>
+        </is>
+      </c>
+      <c r="E261" s="3" t="inlineStr"/>
+      <c r="F261" s="3" t="inlineStr"/>
+      <c r="G261" s="3" t="inlineStr"/>
+      <c r="H261" s="3" t="inlineStr"/>
+      <c r="I261" s="3" t="inlineStr"/>
+      <c r="J261" s="3" t="inlineStr"/>
+      <c r="K261" s="3" t="inlineStr"/>
+      <c r="L261" s="3" t="inlineStr"/>
+      <c r="M261" s="3" t="inlineStr"/>
+      <c r="N261" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O261" s="3" t="inlineStr"/>
+      <c r="P261" s="3" t="inlineStr"/>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
         <is>
           <t xml:space="preserve">ADDICTO:0001087 </t>
         </is>
       </c>
-      <c r="B261" t="inlineStr">
+      <c r="B262" t="inlineStr">
         <is>
           <t>social identity</t>
         </is>
       </c>
-      <c r="C261" t="inlineStr">
+      <c r="C262" t="inlineStr">
         <is>
           <t>self-identity</t>
         </is>
       </c>
-      <c r="D261" t="inlineStr">
+      <c r="D262" t="inlineStr">
         <is>
           <t>A self-identity in which the representation involves a relation between the identity holder and another person or group.</t>
         </is>
       </c>
-      <c r="E261" t="inlineStr"/>
-      <c r="F261" t="inlineStr"/>
-      <c r="G261" t="inlineStr"/>
-      <c r="H261" t="inlineStr"/>
-      <c r="I261" t="inlineStr">
+      <c r="E262" t="inlineStr"/>
+      <c r="F262" t="inlineStr"/>
+      <c r="G262" t="inlineStr"/>
+      <c r="H262" t="inlineStr"/>
+      <c r="I262" t="inlineStr">
         <is>
           <t>'Social identity' can involve a sense of one's rank or status in reference to other groups.</t>
         </is>
       </c>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
-      <c r="M261" t="inlineStr"/>
-      <c r="N261" t="inlineStr">
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="inlineStr"/>
+      <c r="M262" t="inlineStr"/>
+      <c r="N262" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="O261" t="inlineStr"/>
-      <c r="P261" t="inlineStr"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006099</t>
-        </is>
-      </c>
-      <c r="B262" s="3" t="inlineStr">
-        <is>
-          <t>social influence behaviour</t>
-        </is>
-      </c>
-      <c r="C262" s="3" t="inlineStr">
-        <is>
-          <t>inter-personal behaviour</t>
-        </is>
-      </c>
-      <c r="D262" s="3" t="inlineStr">
-        <is>
-          <t>An inter-personal behaviour where a person exerts an influence on the behaviour of another.</t>
-        </is>
-      </c>
-      <c r="E262" s="3" t="inlineStr"/>
-      <c r="F262" s="3" t="inlineStr"/>
-      <c r="G262" s="3" t="inlineStr"/>
-      <c r="H262" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Social support from social network. </t>
-        </is>
-      </c>
-      <c r="I262" s="3" t="inlineStr"/>
-      <c r="J262" s="3" t="inlineStr"/>
-      <c r="K262" s="3" t="inlineStr"/>
-      <c r="L262" s="3" t="inlineStr"/>
-      <c r="M262" s="3" t="inlineStr"/>
-      <c r="N262" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O262" s="3" t="inlineStr"/>
-      <c r="P262" s="3" t="inlineStr"/>
+      <c r="O262" t="inlineStr"/>
+      <c r="P262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006082</t>
+          <t>BCIO:006099</t>
         </is>
       </c>
       <c r="B263" s="3" t="inlineStr">
         <is>
-          <t>social role</t>
+          <t>social influence behaviour</t>
         </is>
       </c>
       <c r="C263" s="3" t="inlineStr">
         <is>
-          <t>personal role</t>
+          <t>inter-personal behaviour</t>
         </is>
       </c>
       <c r="D263" s="3" t="inlineStr">
         <is>
-          <t>A personal role that is realised in human social processes.</t>
+          <t>An inter-personal behaviour where a person exerts an influence on the behaviour of another.</t>
         </is>
       </c>
       <c r="E263" s="3" t="inlineStr"/>
       <c r="F263" s="3" t="inlineStr"/>
       <c r="G263" s="3" t="inlineStr"/>
-      <c r="H263" s="3" t="inlineStr"/>
-      <c r="I263" s="3" t="inlineStr">
-        <is>
-          <t>A role can be assigned without being realised. A person realises a role by doing something.</t>
-        </is>
-      </c>
+      <c r="H263" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Social support from social network. </t>
+        </is>
+      </c>
+      <c r="I263" s="3" t="inlineStr"/>
       <c r="J263" s="3" t="inlineStr"/>
       <c r="K263" s="3" t="inlineStr"/>
       <c r="L263" s="3" t="inlineStr"/>
@@ -11158,29 +11154,33 @@
     <row r="264">
       <c r="A264" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006012</t>
+          <t>BCIO:006082</t>
         </is>
       </c>
       <c r="B264" s="3" t="inlineStr">
         <is>
-          <t>social skill</t>
+          <t>social role</t>
         </is>
       </c>
       <c r="C264" s="3" t="inlineStr">
         <is>
-          <t>social behavioural capability</t>
+          <t>personal role</t>
         </is>
       </c>
       <c r="D264" s="3" t="inlineStr">
         <is>
-          <t>A social capability acquired through training or practice.</t>
+          <t>A personal role that is realised in human social processes.</t>
         </is>
       </c>
       <c r="E264" s="3" t="inlineStr"/>
       <c r="F264" s="3" t="inlineStr"/>
       <c r="G264" s="3" t="inlineStr"/>
       <c r="H264" s="3" t="inlineStr"/>
-      <c r="I264" s="3" t="inlineStr"/>
+      <c r="I264" s="3" t="inlineStr">
+        <is>
+          <t>A role can be assigned without being realised. A person realises a role by doing something.</t>
+        </is>
+      </c>
       <c r="J264" s="3" t="inlineStr"/>
       <c r="K264" s="3" t="inlineStr"/>
       <c r="L264" s="3" t="inlineStr"/>
@@ -11196,33 +11196,29 @@
     <row r="265">
       <c r="A265" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006072</t>
+          <t>BCIO:006012</t>
         </is>
       </c>
       <c r="B265" s="3" t="inlineStr">
         <is>
-          <t>stereotype</t>
+          <t>social skill</t>
         </is>
       </c>
       <c r="C265" s="3" t="inlineStr">
         <is>
-          <t>cognitive schema</t>
+          <t>social behavioural capability</t>
         </is>
       </c>
       <c r="D265" s="3" t="inlineStr">
         <is>
-          <t>A cognitive schema that when activated, guides perception, thought, emotion or behaviour toward members of a social group as having certain shared attributes, by virtue of their group membership.</t>
+          <t>A social capability acquired through training or practice.</t>
         </is>
       </c>
       <c r="E265" s="3" t="inlineStr"/>
       <c r="F265" s="3" t="inlineStr"/>
       <c r="G265" s="3" t="inlineStr"/>
       <c r="H265" s="3" t="inlineStr"/>
-      <c r="I265" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The attributes of members are not definitional. For instance, a psychologist studying psychology is not a stereotype. </t>
-        </is>
-      </c>
+      <c r="I265" s="3" t="inlineStr"/>
       <c r="J265" s="3" t="inlineStr"/>
       <c r="K265" s="3" t="inlineStr"/>
       <c r="L265" s="3" t="inlineStr"/>
@@ -11236,83 +11232,87 @@
       <c r="P265" s="3" t="inlineStr"/>
     </row>
     <row r="266">
-      <c r="A266" t="inlineStr">
+      <c r="A266" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006072</t>
+        </is>
+      </c>
+      <c r="B266" s="3" t="inlineStr">
+        <is>
+          <t>stereotype</t>
+        </is>
+      </c>
+      <c r="C266" s="3" t="inlineStr">
+        <is>
+          <t>cognitive schema</t>
+        </is>
+      </c>
+      <c r="D266" s="3" t="inlineStr">
+        <is>
+          <t>A cognitive schema that when activated, guides perception, thought, emotion or behaviour toward members of a social group as having certain shared attributes, by virtue of their group membership.</t>
+        </is>
+      </c>
+      <c r="E266" s="3" t="inlineStr"/>
+      <c r="F266" s="3" t="inlineStr"/>
+      <c r="G266" s="3" t="inlineStr"/>
+      <c r="H266" s="3" t="inlineStr"/>
+      <c r="I266" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The attributes of members are not definitional. For instance, a psychologist studying psychology is not a stereotype. </t>
+        </is>
+      </c>
+      <c r="J266" s="3" t="inlineStr"/>
+      <c r="K266" s="3" t="inlineStr"/>
+      <c r="L266" s="3" t="inlineStr"/>
+      <c r="M266" s="3" t="inlineStr"/>
+      <c r="N266" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O266" s="3" t="inlineStr"/>
+      <c r="P266" s="3" t="inlineStr"/>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
         <is>
           <t xml:space="preserve">MFOEM:000006 </t>
         </is>
       </c>
-      <c r="B266" t="inlineStr">
+      <c r="B267" t="inlineStr">
         <is>
           <t>subjective affective feeling</t>
         </is>
       </c>
-      <c r="C266" t="inlineStr">
+      <c r="C267" t="inlineStr">
         <is>
           <t>affective process</t>
         </is>
       </c>
-      <c r="D266" t="inlineStr">
+      <c r="D267" t="inlineStr">
         <is>
           <t>An affective process that involves the experience of internal or external sensory stimuli.</t>
         </is>
       </c>
-      <c r="E266" t="inlineStr"/>
-      <c r="F266" t="inlineStr">
+      <c r="E267" t="inlineStr"/>
+      <c r="F267" t="inlineStr">
         <is>
           <t>The conscious experience that a person has of feelings in their body (e.g., hunger), their mood (e.g., feeling cheerful) and their emotion (e.g., feeling nervous), in response to internal or external stimuli.</t>
         </is>
       </c>
-      <c r="G266" t="inlineStr">
+      <c r="G267" t="inlineStr">
         <is>
           <t>Feeling calm; hunger; pain</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr"/>
-      <c r="I266" t="inlineStr">
+      <c r="H267" t="inlineStr"/>
+      <c r="I267" t="inlineStr">
         <is>
           <t>'Subjective affective feeling can have greater or weaker physiological or mental components. The bodily process that are experienced will usually involve some mental process.
 Bodily sensation and the experiences of emotions (e.g., feeling calm) would both qualify as examples of 'subjective affective feeling'.
 As a subclass of 'affective process', subjective affective feelings have valence. Valence refers to the 'the subjective value of an event, object, person, or other entity in the life space of the individual' (https://dictionary.apa.org/valence). Valence ranges from negative to positive.</t>
         </is>
       </c>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
-      <c r="M266" t="inlineStr"/>
-      <c r="N266" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="O266" t="inlineStr"/>
-      <c r="P266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MF:0000088 </t>
-        </is>
-      </c>
-      <c r="B267" t="inlineStr">
-        <is>
-          <t>subliminal process</t>
-        </is>
-      </c>
-      <c r="C267" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D267" t="inlineStr">
-        <is>
-          <t>A mental process that involves neuronal activity in response to a sensory stimulus but which is not the subject of consciousness.</t>
-        </is>
-      </c>
-      <c r="E267" t="inlineStr"/>
-      <c r="F267" t="inlineStr"/>
-      <c r="G267" t="inlineStr"/>
-      <c r="H267" t="inlineStr"/>
-      <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
       <c r="L267" t="inlineStr"/>
@@ -11328,33 +11328,29 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>ADDICTO:0001140</t>
+          <t xml:space="preserve">MF:0000088 </t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>substance dependence</t>
+          <t>subliminal process</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>bodily disposition</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>A bodily disposition which is realised as impaired functioning following reduction or termination of use of a psychoactive substance.</t>
+          <t>A mental process that involves neuronal activity in response to a sensory stimulus but which is not the subject of consciousness.</t>
         </is>
       </c>
       <c r="E268" t="inlineStr"/>
       <c r="F268" t="inlineStr"/>
       <c r="G268" t="inlineStr"/>
       <c r="H268" t="inlineStr"/>
-      <c r="I268" t="inlineStr">
-        <is>
-          <t>While 'addiction' is a disposition relating to experience motivation to use a substance, 'substance dependence' refers to 'disposition related to the impaired functioning in the absence of a substance'.</t>
-        </is>
-      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
       <c r="L268" t="inlineStr"/>
@@ -11370,29 +11366,33 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>MFOEM:000032</t>
+          <t>ADDICTO:0001140</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>substance dependence</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>emotion process</t>
+          <t>bodily disposition</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t xml:space="preserve">An emotion caused by encountering unexpected events. </t>
+          <t>A bodily disposition which is realised as impaired functioning following reduction or termination of use of a psychoactive substance.</t>
         </is>
       </c>
       <c r="E269" t="inlineStr"/>
       <c r="F269" t="inlineStr"/>
       <c r="G269" t="inlineStr"/>
       <c r="H269" t="inlineStr"/>
-      <c r="I269" t="inlineStr"/>
+      <c r="I269" t="inlineStr">
+        <is>
+          <t>While 'addiction' is a disposition relating to experience motivation to use a substance, 'substance dependence' refers to 'disposition related to the impaired functioning in the absence of a substance'.</t>
+        </is>
+      </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
       <c r="L269" t="inlineStr"/>
@@ -11408,22 +11408,22 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>RO:0002577</t>
+          <t>MFOEM:000032</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>system</t>
+          <t>surprise</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>material entity</t>
+          <t>emotion process</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>A material entity consisting of multiple components that are causally integrated.</t>
+          <t xml:space="preserve">An emotion caused by encountering unexpected events. </t>
         </is>
       </c>
       <c r="E270" t="inlineStr"/>
@@ -11444,75 +11444,71 @@
       <c r="P270" t="inlineStr"/>
     </row>
     <row r="271">
-      <c r="A271" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006163</t>
-        </is>
-      </c>
-      <c r="B271" s="3" t="inlineStr">
-        <is>
-          <t>targeted mental distancing</t>
-        </is>
-      </c>
-      <c r="C271" s="3" t="inlineStr">
-        <is>
-          <t>mental distancing</t>
-        </is>
-      </c>
-      <c r="D271" s="3" t="inlineStr">
-        <is>
-          <t>Mental distancing that involves identifying particular immediate thoughts and intentionally detaching from these thoughts.</t>
-        </is>
-      </c>
-      <c r="E271" s="3" t="inlineStr"/>
-      <c r="F271" s="3" t="inlineStr"/>
-      <c r="G271" s="3" t="inlineStr">
-        <is>
-          <t>targeted decentring</t>
-        </is>
-      </c>
-      <c r="H271" s="3" t="inlineStr"/>
-      <c r="I271" s="3" t="inlineStr"/>
-      <c r="J271" s="3" t="inlineStr"/>
-      <c r="K271" s="3" t="inlineStr"/>
-      <c r="L271" s="3" t="inlineStr"/>
-      <c r="M271" s="3" t="inlineStr"/>
-      <c r="N271" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O271" s="3" t="inlineStr"/>
-      <c r="P271" s="3" t="inlineStr"/>
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>RO:0002577</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>material entity</t>
+        </is>
+      </c>
+      <c r="D271" t="inlineStr">
+        <is>
+          <t>A material entity consisting of multiple components that are causally integrated.</t>
+        </is>
+      </c>
+      <c r="E271" t="inlineStr"/>
+      <c r="F271" t="inlineStr"/>
+      <c r="G271" t="inlineStr"/>
+      <c r="H271" t="inlineStr"/>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="inlineStr"/>
+      <c r="M271" t="inlineStr"/>
+      <c r="N271" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="O271" t="inlineStr"/>
+      <c r="P271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006091</t>
+          <t>BCIO:006163</t>
         </is>
       </c>
       <c r="B272" s="3" t="inlineStr">
         <is>
-          <t>temporal behavioural opportunity</t>
+          <t>targeted mental distancing</t>
         </is>
       </c>
       <c r="C272" s="3" t="inlineStr">
         <is>
-          <t>physical behavioural opportunity</t>
+          <t>mental distancing</t>
         </is>
       </c>
       <c r="D272" s="3" t="inlineStr">
         <is>
-          <t>A physical behavioural opportunity that involves the person having sufficient time or a suitable period.</t>
+          <t>Mental distancing that involves identifying particular immediate thoughts and intentionally detaching from these thoughts.</t>
         </is>
       </c>
       <c r="E272" s="3" t="inlineStr"/>
-      <c r="F272" s="3" t="inlineStr">
-        <is>
-          <t>Properties of a person's environment that involve the time available and influence the person's ability to enact a behaviour.</t>
-        </is>
-      </c>
-      <c r="G272" s="3" t="inlineStr"/>
+      <c r="F272" s="3" t="inlineStr"/>
+      <c r="G272" s="3" t="inlineStr">
+        <is>
+          <t>targeted decentring</t>
+        </is>
+      </c>
       <c r="H272" s="3" t="inlineStr"/>
       <c r="I272" s="3" t="inlineStr"/>
       <c r="J272" s="3" t="inlineStr"/>
@@ -11528,52 +11524,56 @@
       <c r="P272" s="3" t="inlineStr"/>
     </row>
     <row r="273">
-      <c r="A273" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050230</t>
-        </is>
-      </c>
-      <c r="B273" s="2" t="inlineStr">
-        <is>
-          <t>temporal orientation to the future</t>
-        </is>
-      </c>
-      <c r="C273" s="2" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
-      <c r="D273" s="2" t="inlineStr">
-        <is>
-          <t>A mental disposition to focus more on future than present outcomes.</t>
-        </is>
-      </c>
-      <c r="E273" s="2" t="inlineStr"/>
-      <c r="F273" s="2" t="inlineStr"/>
-      <c r="G273" s="2" t="inlineStr"/>
-      <c r="H273" s="2" t="inlineStr"/>
-      <c r="I273" s="2" t="inlineStr"/>
-      <c r="J273" s="2" t="inlineStr"/>
-      <c r="K273" s="2" t="inlineStr"/>
-      <c r="L273" s="2" t="inlineStr"/>
-      <c r="M273" s="2" t="inlineStr"/>
-      <c r="N273" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="O273" s="2" t="inlineStr"/>
-      <c r="P273" s="2" t="inlineStr"/>
+      <c r="A273" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006091</t>
+        </is>
+      </c>
+      <c r="B273" s="3" t="inlineStr">
+        <is>
+          <t>temporal behavioural opportunity</t>
+        </is>
+      </c>
+      <c r="C273" s="3" t="inlineStr">
+        <is>
+          <t>physical behavioural opportunity</t>
+        </is>
+      </c>
+      <c r="D273" s="3" t="inlineStr">
+        <is>
+          <t>A physical behavioural opportunity that involves the person having sufficient time or a suitable period.</t>
+        </is>
+      </c>
+      <c r="E273" s="3" t="inlineStr"/>
+      <c r="F273" s="3" t="inlineStr">
+        <is>
+          <t>Properties of a person's environment that involve the time available and influence the person's ability to enact a behaviour.</t>
+        </is>
+      </c>
+      <c r="G273" s="3" t="inlineStr"/>
+      <c r="H273" s="3" t="inlineStr"/>
+      <c r="I273" s="3" t="inlineStr"/>
+      <c r="J273" s="3" t="inlineStr"/>
+      <c r="K273" s="3" t="inlineStr"/>
+      <c r="L273" s="3" t="inlineStr"/>
+      <c r="M273" s="3" t="inlineStr"/>
+      <c r="N273" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O273" s="3" t="inlineStr"/>
+      <c r="P273" s="3" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050231</t>
+          <t>BCIO:050230</t>
         </is>
       </c>
       <c r="B274" s="2" t="inlineStr">
         <is>
-          <t>temporal orientation to the present</t>
+          <t>temporal orientation to the future</t>
         </is>
       </c>
       <c r="C274" s="2" t="inlineStr">
@@ -11583,7 +11583,7 @@
       </c>
       <c r="D274" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to focus more on present than future outcomes.</t>
+          <t>A mental disposition to focus more on future than present outcomes.</t>
         </is>
       </c>
       <c r="E274" s="2" t="inlineStr"/>
@@ -11604,160 +11604,198 @@
       <c r="P274" s="2" t="inlineStr"/>
     </row>
     <row r="275">
-      <c r="A275" t="inlineStr">
+      <c r="A275" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050231</t>
+        </is>
+      </c>
+      <c r="B275" s="2" t="inlineStr">
+        <is>
+          <t>temporal orientation to the present</t>
+        </is>
+      </c>
+      <c r="C275" s="2" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="D275" s="2" t="inlineStr">
+        <is>
+          <t>A mental disposition to focus more on present than future outcomes.</t>
+        </is>
+      </c>
+      <c r="E275" s="2" t="inlineStr"/>
+      <c r="F275" s="2" t="inlineStr"/>
+      <c r="G275" s="2" t="inlineStr"/>
+      <c r="H275" s="2" t="inlineStr"/>
+      <c r="I275" s="2" t="inlineStr"/>
+      <c r="J275" s="2" t="inlineStr"/>
+      <c r="K275" s="2" t="inlineStr"/>
+      <c r="L275" s="2" t="inlineStr"/>
+      <c r="M275" s="2" t="inlineStr"/>
+      <c r="N275" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="O275" s="2" t="inlineStr"/>
+      <c r="P275" s="2" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
         <is>
           <t>MF:0000013</t>
         </is>
       </c>
-      <c r="B275" t="inlineStr">
+      <c r="B276" t="inlineStr">
         <is>
           <t>thinking</t>
         </is>
       </c>
-      <c r="C275" t="inlineStr">
+      <c r="C276" t="inlineStr">
         <is>
           <t>cognitive process</t>
         </is>
       </c>
-      <c r="D275" t="inlineStr">
+      <c r="D276" t="inlineStr">
         <is>
           <t>A cognitive process that involves the manipulation of mental language and/or mental images.</t>
         </is>
       </c>
-      <c r="E275" t="inlineStr"/>
-      <c r="F275" t="inlineStr"/>
-      <c r="G275" t="inlineStr"/>
-      <c r="H275" t="inlineStr"/>
-      <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
-      <c r="M275" t="inlineStr"/>
-      <c r="N275" t="inlineStr">
+      <c r="E276" t="inlineStr"/>
+      <c r="F276" t="inlineStr"/>
+      <c r="G276" t="inlineStr"/>
+      <c r="H276" t="inlineStr"/>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="inlineStr"/>
+      <c r="M276" t="inlineStr"/>
+      <c r="N276" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="O275" t="inlineStr"/>
-      <c r="P275" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="3" t="inlineStr">
+      <c r="O276" t="inlineStr"/>
+      <c r="P276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="3" t="inlineStr">
         <is>
           <t>BCIO:006107</t>
         </is>
       </c>
-      <c r="B276" s="3" t="inlineStr">
+      <c r="B277" s="3" t="inlineStr">
         <is>
           <t>value-congruent self-regulation</t>
         </is>
       </c>
-      <c r="C276" s="3" t="inlineStr">
+      <c r="C277" s="3" t="inlineStr">
         <is>
           <t>self-regulation of behaviour</t>
         </is>
       </c>
-      <c r="D276" s="3" t="inlineStr">
+      <c r="D277" s="3" t="inlineStr">
         <is>
           <t>Self-regulation undertaken to achieve consistency between one's values and the behaviour performed.</t>
         </is>
       </c>
-      <c r="E276" s="3" t="inlineStr"/>
-      <c r="F276" s="3" t="inlineStr"/>
-      <c r="G276" s="3" t="inlineStr"/>
-      <c r="H276" s="3" t="inlineStr"/>
-      <c r="I276" s="3" t="inlineStr"/>
-      <c r="J276" s="3" t="inlineStr"/>
-      <c r="K276" s="3" t="inlineStr"/>
-      <c r="L276" s="3" t="inlineStr"/>
-      <c r="M276" s="3" t="inlineStr"/>
-      <c r="N276" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O276" s="3" t="inlineStr"/>
-      <c r="P276" s="3" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" t="inlineStr">
+      <c r="E277" s="3" t="inlineStr"/>
+      <c r="F277" s="3" t="inlineStr"/>
+      <c r="G277" s="3" t="inlineStr"/>
+      <c r="H277" s="3" t="inlineStr"/>
+      <c r="I277" s="3" t="inlineStr"/>
+      <c r="J277" s="3" t="inlineStr"/>
+      <c r="K277" s="3" t="inlineStr"/>
+      <c r="L277" s="3" t="inlineStr"/>
+      <c r="M277" s="3" t="inlineStr"/>
+      <c r="N277" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O277" s="3" t="inlineStr"/>
+      <c r="P277" s="3" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
         <is>
           <t>MF:0000045</t>
         </is>
       </c>
-      <c r="B277" t="inlineStr">
+      <c r="B278" t="inlineStr">
         <is>
           <t>wanting</t>
         </is>
       </c>
-      <c r="C277" t="inlineStr">
+      <c r="C278" t="inlineStr">
         <is>
           <t>mental process</t>
         </is>
       </c>
-      <c r="D277" t="inlineStr">
+      <c r="D278" t="inlineStr">
         <is>
           <t>A mental process that involves thinking about a state of affairs that is not yet the case together with a desire for that state of affairs to come about.</t>
         </is>
       </c>
-      <c r="E277" t="inlineStr"/>
-      <c r="F277" t="inlineStr"/>
-      <c r="G277" t="inlineStr"/>
-      <c r="H277" t="inlineStr"/>
-      <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="inlineStr"/>
-      <c r="N277" t="inlineStr">
+      <c r="E278" t="inlineStr"/>
+      <c r="F278" t="inlineStr"/>
+      <c r="G278" t="inlineStr"/>
+      <c r="H278" t="inlineStr"/>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="inlineStr"/>
+      <c r="M278" t="inlineStr"/>
+      <c r="N278" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="O277" t="inlineStr"/>
-      <c r="P277" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="3" t="inlineStr">
+      <c r="O278" t="inlineStr"/>
+      <c r="P278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="3" t="inlineStr">
         <is>
           <t>BCIO:006059</t>
         </is>
       </c>
-      <c r="B278" s="3" t="inlineStr">
+      <c r="B279" s="3" t="inlineStr">
         <is>
           <t>willingness to comply</t>
         </is>
       </c>
-      <c r="C278" s="3" t="inlineStr">
+      <c r="C279" s="3" t="inlineStr">
         <is>
           <t>mental disposition</t>
         </is>
       </c>
-      <c r="D278" s="3" t="inlineStr">
+      <c r="D279" s="3" t="inlineStr">
         <is>
           <t>A mental disposition to act in accordance with the likely approval of others.</t>
         </is>
       </c>
-      <c r="E278" s="3" t="inlineStr"/>
-      <c r="F278" s="3" t="inlineStr"/>
-      <c r="G278" s="3" t="inlineStr">
+      <c r="E279" s="3" t="inlineStr"/>
+      <c r="F279" s="3" t="inlineStr"/>
+      <c r="G279" s="3" t="inlineStr">
         <is>
           <t>motivation to comply</t>
         </is>
       </c>
-      <c r="H278" s="3" t="inlineStr"/>
-      <c r="I278" s="3" t="inlineStr"/>
-      <c r="J278" s="3" t="inlineStr"/>
-      <c r="K278" s="3" t="inlineStr"/>
-      <c r="L278" s="3" t="inlineStr"/>
-      <c r="M278" s="3" t="inlineStr"/>
-      <c r="N278" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O278" s="3" t="inlineStr"/>
-      <c r="P278" s="3" t="inlineStr"/>
+      <c r="H279" s="3" t="inlineStr"/>
+      <c r="I279" s="3" t="inlineStr"/>
+      <c r="J279" s="3" t="inlineStr"/>
+      <c r="K279" s="3" t="inlineStr"/>
+      <c r="L279" s="3" t="inlineStr"/>
+      <c r="M279" s="3" t="inlineStr"/>
+      <c r="N279" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O279" s="3" t="inlineStr"/>
+      <c r="P279" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/MechanismOfAction/inputs/BCIO_MoA.xlsx
+++ b/MechanismOfAction/inputs/BCIO_MoA.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P279"/>
+  <dimension ref="A1:P280"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6764,22 +6764,22 @@
     <row r="155">
       <c r="A155" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036025</t>
+          <t>BCIO:006094</t>
         </is>
       </c>
       <c r="B155" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">inter-personal behaviour </t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="C155" s="2" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>bodily process</t>
         </is>
       </c>
       <c r="D155" s="2" t="inlineStr">
         <is>
-          <t>An individual human behaviour that involves an interaction between two or more people.</t>
+          <t>A bodily process of a human that involves co-ordinated contraction of striated muscles controlled by the brain.</t>
         </is>
       </c>
       <c r="E155" s="2" t="inlineStr"/>
@@ -6800,149 +6800,149 @@
       <c r="P155" s="2" t="inlineStr"/>
     </row>
     <row r="156">
-      <c r="A156" s="3" t="inlineStr">
+      <c r="A156" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:036025</t>
+        </is>
+      </c>
+      <c r="B156" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">inter-personal behaviour </t>
+        </is>
+      </c>
+      <c r="C156" s="2" t="inlineStr">
+        <is>
+          <t>individual human behaviour</t>
+        </is>
+      </c>
+      <c r="D156" s="2" t="inlineStr">
+        <is>
+          <t>An individual human behaviour that involves an interaction between two or more people.</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="inlineStr"/>
+      <c r="F156" s="2" t="inlineStr"/>
+      <c r="G156" s="2" t="inlineStr"/>
+      <c r="H156" s="2" t="inlineStr"/>
+      <c r="I156" s="2" t="inlineStr"/>
+      <c r="J156" s="2" t="inlineStr"/>
+      <c r="K156" s="2" t="inlineStr"/>
+      <c r="L156" s="2" t="inlineStr"/>
+      <c r="M156" s="2" t="inlineStr"/>
+      <c r="N156" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="O156" s="2" t="inlineStr"/>
+      <c r="P156" s="2" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="3" t="inlineStr">
         <is>
           <t>BCIO:006100</t>
         </is>
       </c>
-      <c r="B156" s="3" t="inlineStr">
+      <c r="B157" s="3" t="inlineStr">
         <is>
           <t>internal reward for a response</t>
         </is>
       </c>
-      <c r="C156" s="3" t="inlineStr">
+      <c r="C157" s="3" t="inlineStr">
         <is>
           <t>bodily process</t>
         </is>
       </c>
-      <c r="D156" s="3" t="inlineStr">
+      <c r="D157" s="3" t="inlineStr">
         <is>
           <t>A bodily process by which the person experiences an internally-generated positive physical or psychological state subsequent to a response.</t>
         </is>
       </c>
-      <c r="E156" s="3" t="inlineStr"/>
-      <c r="F156" s="3" t="inlineStr"/>
-      <c r="G156" s="3" t="inlineStr"/>
-      <c r="H156" s="3" t="inlineStr"/>
-      <c r="I156" s="3" t="inlineStr"/>
-      <c r="J156" s="3" t="inlineStr"/>
-      <c r="K156" s="3" t="inlineStr"/>
-      <c r="L156" s="3" t="inlineStr"/>
-      <c r="M156" s="3" t="inlineStr"/>
-      <c r="N156" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O156" s="3" t="inlineStr"/>
-      <c r="P156" s="3" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
+      <c r="E157" s="3" t="inlineStr"/>
+      <c r="F157" s="3" t="inlineStr"/>
+      <c r="G157" s="3" t="inlineStr"/>
+      <c r="H157" s="3" t="inlineStr"/>
+      <c r="I157" s="3" t="inlineStr"/>
+      <c r="J157" s="3" t="inlineStr"/>
+      <c r="K157" s="3" t="inlineStr"/>
+      <c r="L157" s="3" t="inlineStr"/>
+      <c r="M157" s="3" t="inlineStr"/>
+      <c r="N157" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O157" s="3" t="inlineStr"/>
+      <c r="P157" s="3" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
         <is>
           <t>MFOEM:000022</t>
         </is>
       </c>
-      <c r="B157" t="inlineStr">
+      <c r="B158" t="inlineStr">
         <is>
           <t>interpersonal disgust</t>
         </is>
       </c>
-      <c r="C157" t="inlineStr">
+      <c r="C158" t="inlineStr">
         <is>
           <t>disgust</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr">
+      <c r="D158" t="inlineStr">
         <is>
           <t>Disgust elicited by contact with others, especially contact with strangers or other individuals or groups we are averse to.</t>
         </is>
       </c>
-      <c r="E157" t="inlineStr"/>
-      <c r="F157" t="inlineStr"/>
-      <c r="G157" t="inlineStr"/>
-      <c r="H157" t="inlineStr"/>
-      <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="inlineStr"/>
-      <c r="N157" t="inlineStr">
+      <c r="E158" t="inlineStr"/>
+      <c r="F158" t="inlineStr"/>
+      <c r="G158" t="inlineStr"/>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="O157" t="inlineStr"/>
-      <c r="P157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006136</t>
-        </is>
-      </c>
-      <c r="B158" s="3" t="inlineStr">
-        <is>
-          <t>intrinsic motivation</t>
-        </is>
-      </c>
-      <c r="C158" s="3" t="inlineStr">
-        <is>
-          <t>autonomous motivation</t>
-        </is>
-      </c>
-      <c r="D158" s="3" t="inlineStr">
-        <is>
-          <t>Autonomous motivation due to a behaviour's inherent enjoyment, satisfaction or benefits to oneself.</t>
-        </is>
-      </c>
-      <c r="E158" s="3" t="inlineStr"/>
-      <c r="F158" s="3" t="inlineStr"/>
-      <c r="G158" s="3" t="inlineStr"/>
-      <c r="H158" s="3" t="inlineStr"/>
-      <c r="I158" s="3" t="inlineStr">
-        <is>
-          <t>The phrase 'benefits to oneself' includes the reduction of unpleasant internal states.</t>
-        </is>
-      </c>
-      <c r="J158" s="3" t="inlineStr"/>
-      <c r="K158" s="3" t="inlineStr"/>
-      <c r="L158" s="3" t="inlineStr"/>
-      <c r="M158" s="3" t="inlineStr"/>
-      <c r="N158" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O158" s="3" t="inlineStr"/>
-      <c r="P158" s="3" t="inlineStr"/>
+      <c r="O158" t="inlineStr"/>
+      <c r="P158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006105</t>
+          <t>BCIO:006136</t>
         </is>
       </c>
       <c r="B159" s="3" t="inlineStr">
         <is>
-          <t>introjected self-regulation</t>
+          <t>intrinsic motivation</t>
         </is>
       </c>
       <c r="C159" s="3" t="inlineStr">
         <is>
-          <t>self-regulation of behaviour</t>
+          <t>autonomous motivation</t>
         </is>
       </c>
       <c r="D159" s="3" t="inlineStr">
         <is>
-          <t>Self-regulation of behaviour undertaken to manage a sense of guilt, anxiety or obligation.</t>
+          <t>Autonomous motivation due to a behaviour's inherent enjoyment, satisfaction or benefits to oneself.</t>
         </is>
       </c>
       <c r="E159" s="3" t="inlineStr"/>
       <c r="F159" s="3" t="inlineStr"/>
       <c r="G159" s="3" t="inlineStr"/>
       <c r="H159" s="3" t="inlineStr"/>
-      <c r="I159" s="3" t="inlineStr"/>
+      <c r="I159" s="3" t="inlineStr">
+        <is>
+          <t>The phrase 'benefits to oneself' includes the reduction of unpleasant internal states.</t>
+        </is>
+      </c>
       <c r="J159" s="3" t="inlineStr"/>
       <c r="K159" s="3" t="inlineStr"/>
       <c r="L159" s="3" t="inlineStr"/>
@@ -6956,115 +6956,115 @@
       <c r="P159" s="3" t="inlineStr"/>
     </row>
     <row r="160">
-      <c r="A160" t="inlineStr">
+      <c r="A160" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006105</t>
+        </is>
+      </c>
+      <c r="B160" s="3" t="inlineStr">
+        <is>
+          <t>introjected self-regulation</t>
+        </is>
+      </c>
+      <c r="C160" s="3" t="inlineStr">
+        <is>
+          <t>self-regulation of behaviour</t>
+        </is>
+      </c>
+      <c r="D160" s="3" t="inlineStr">
+        <is>
+          <t>Self-regulation of behaviour undertaken to manage a sense of guilt, anxiety or obligation.</t>
+        </is>
+      </c>
+      <c r="E160" s="3" t="inlineStr"/>
+      <c r="F160" s="3" t="inlineStr"/>
+      <c r="G160" s="3" t="inlineStr"/>
+      <c r="H160" s="3" t="inlineStr"/>
+      <c r="I160" s="3" t="inlineStr"/>
+      <c r="J160" s="3" t="inlineStr"/>
+      <c r="K160" s="3" t="inlineStr"/>
+      <c r="L160" s="3" t="inlineStr"/>
+      <c r="M160" s="3" t="inlineStr"/>
+      <c r="N160" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O160" s="3" t="inlineStr"/>
+      <c r="P160" s="3" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
         <is>
           <t>MF:0000006</t>
         </is>
       </c>
-      <c r="B160" t="inlineStr">
+      <c r="B161" t="inlineStr">
         <is>
           <t>judging</t>
         </is>
       </c>
-      <c r="C160" t="inlineStr">
+      <c r="C161" t="inlineStr">
         <is>
           <t>mental process</t>
         </is>
       </c>
-      <c r="D160" t="inlineStr">
+      <c r="D161" t="inlineStr">
         <is>
           <t>A mental process during which information is evaluated, the outcome of which is a belief or opinion.</t>
         </is>
       </c>
-      <c r="E160" t="inlineStr"/>
-      <c r="F160" t="inlineStr"/>
-      <c r="G160" t="inlineStr"/>
-      <c r="H160" t="inlineStr"/>
-      <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="inlineStr"/>
-      <c r="N160" t="inlineStr">
+      <c r="E161" t="inlineStr"/>
+      <c r="F161" t="inlineStr"/>
+      <c r="G161" t="inlineStr"/>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="O160" t="inlineStr"/>
-      <c r="P160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006052</t>
-        </is>
-      </c>
-      <c r="B161" s="3" t="inlineStr">
-        <is>
-          <t>knowledge</t>
-        </is>
-      </c>
-      <c r="C161" s="3" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
-      <c r="D161" s="3" t="inlineStr">
-        <is>
-          <t>A mental disposition to understand the nature of the world, or a specific aspect of the world, that corresponds to the actual state of the world and is acquired through experience or learning.</t>
-        </is>
-      </c>
-      <c r="E161" s="3" t="inlineStr"/>
-      <c r="F161" s="3" t="inlineStr">
-        <is>
-          <t>An understanding of something that results from experience or learning.</t>
-        </is>
-      </c>
-      <c r="G161" s="3" t="inlineStr"/>
-      <c r="H161" s="3" t="inlineStr"/>
-      <c r="I161" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Knowledge is defined as a 'mental disposition', a realisable entity, because a person requires a process to access the information stored in their brain. A person knows something, when the relevant information has been retrieved from their memory. There are instances where a person might have learned something, but is unable to retrieve the information at a specific moment. </t>
-        </is>
-      </c>
-      <c r="J161" s="3" t="inlineStr"/>
-      <c r="K161" s="3" t="inlineStr"/>
-      <c r="L161" s="3" t="inlineStr"/>
-      <c r="M161" s="3" t="inlineStr"/>
-      <c r="N161" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O161" s="3" t="inlineStr"/>
-      <c r="P161" s="3" t="inlineStr"/>
+      <c r="O161" t="inlineStr"/>
+      <c r="P161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006053</t>
+          <t>BCIO:006052</t>
         </is>
       </c>
       <c r="B162" s="3" t="inlineStr">
         <is>
-          <t>knowledge regarding a behaviour</t>
+          <t>knowledge</t>
         </is>
       </c>
       <c r="C162" s="3" t="inlineStr">
         <is>
-          <t>knowledge</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D162" s="3" t="inlineStr">
         <is>
-          <t>Knowledge regarding a particular set of actions.</t>
+          <t>A mental disposition to understand the nature of the world, or a specific aspect of the world, that corresponds to the actual state of the world and is acquired through experience or learning.</t>
         </is>
       </c>
       <c r="E162" s="3" t="inlineStr"/>
-      <c r="F162" s="3" t="inlineStr"/>
+      <c r="F162" s="3" t="inlineStr">
+        <is>
+          <t>An understanding of something that results from experience or learning.</t>
+        </is>
+      </c>
       <c r="G162" s="3" t="inlineStr"/>
       <c r="H162" s="3" t="inlineStr"/>
-      <c r="I162" s="3" t="inlineStr"/>
+      <c r="I162" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Knowledge is defined as a 'mental disposition', a realisable entity, because a person requires a process to access the information stored in their brain. A person knows something, when the relevant information has been retrieved from their memory. There are instances where a person might have learned something, but is unable to retrieve the information at a specific moment. </t>
+        </is>
+      </c>
       <c r="J162" s="3" t="inlineStr"/>
       <c r="K162" s="3" t="inlineStr"/>
       <c r="L162" s="3" t="inlineStr"/>
@@ -7080,12 +7080,12 @@
     <row r="163">
       <c r="A163" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006055</t>
+          <t>BCIO:006053</t>
         </is>
       </c>
       <c r="B163" s="3" t="inlineStr">
         <is>
-          <t>knowledge regarding a threat</t>
+          <t>knowledge regarding a behaviour</t>
         </is>
       </c>
       <c r="C163" s="3" t="inlineStr">
@@ -7095,7 +7095,7 @@
       </c>
       <c r="D163" s="3" t="inlineStr">
         <is>
-          <t>Knowledge regarding a potential harm.</t>
+          <t>Knowledge regarding a particular set of actions.</t>
         </is>
       </c>
       <c r="E163" s="3" t="inlineStr"/>
@@ -7118,12 +7118,12 @@
     <row r="164">
       <c r="A164" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006054</t>
+          <t>BCIO:006055</t>
         </is>
       </c>
       <c r="B164" s="3" t="inlineStr">
         <is>
-          <t>knowledge regarding an innovation</t>
+          <t>knowledge regarding a threat</t>
         </is>
       </c>
       <c r="C164" s="3" t="inlineStr">
@@ -7133,7 +7133,7 @@
       </c>
       <c r="D164" s="3" t="inlineStr">
         <is>
-          <t>Knowledge regarding a novel invention or way of doing something.</t>
+          <t>Knowledge regarding a potential harm.</t>
         </is>
       </c>
       <c r="E164" s="3" t="inlineStr"/>
@@ -7156,12 +7156,12 @@
     <row r="165">
       <c r="A165" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006056</t>
+          <t>BCIO:006054</t>
         </is>
       </c>
       <c r="B165" s="3" t="inlineStr">
         <is>
-          <t>knowledge regarding treatment</t>
+          <t>knowledge regarding an innovation</t>
         </is>
       </c>
       <c r="C165" s="3" t="inlineStr">
@@ -7171,7 +7171,7 @@
       </c>
       <c r="D165" s="3" t="inlineStr">
         <is>
-          <t>Knowledge regarding a therapy or medication for a health problem.</t>
+          <t>Knowledge regarding a novel invention or way of doing something.</t>
         </is>
       </c>
       <c r="E165" s="3" t="inlineStr"/>
@@ -7194,41 +7194,29 @@
     <row r="166">
       <c r="A166" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006155</t>
+          <t>BCIO:006056</t>
         </is>
       </c>
       <c r="B166" s="3" t="inlineStr">
         <is>
-          <t>learned stimulus-behaviour co-occurrence</t>
+          <t>knowledge regarding treatment</t>
         </is>
       </c>
       <c r="C166" s="3" t="inlineStr">
         <is>
-          <t>learned stimulus-reponse co-occurrence</t>
+          <t>knowledge</t>
         </is>
       </c>
       <c r="D166" s="3" t="inlineStr">
         <is>
-          <t>A mental disposition to behave in a particular way in response to an internal or external event in the person's environment, which is acquired through habit learning.</t>
+          <t>Knowledge regarding a therapy or medication for a health problem.</t>
         </is>
       </c>
       <c r="E166" s="3" t="inlineStr"/>
-      <c r="F166" s="3" t="inlineStr">
-        <is>
-          <t>A tendency for something in the environment to prompt a behaviour as a result of learning.</t>
-        </is>
-      </c>
-      <c r="G166" s="3" t="inlineStr">
-        <is>
-          <t>Habit</t>
-        </is>
-      </c>
+      <c r="F166" s="3" t="inlineStr"/>
+      <c r="G166" s="3" t="inlineStr"/>
       <c r="H166" s="3" t="inlineStr"/>
-      <c r="I166" s="3" t="inlineStr">
-        <is>
-          <t>Learned stimulus-behaviour co-occurrence can vary in strength.</t>
-        </is>
-      </c>
+      <c r="I166" s="3" t="inlineStr"/>
       <c r="J166" s="3" t="inlineStr"/>
       <c r="K166" s="3" t="inlineStr"/>
       <c r="L166" s="3" t="inlineStr"/>
@@ -7244,31 +7232,39 @@
     <row r="167">
       <c r="A167" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006057</t>
+          <t>BCIO:006155</t>
         </is>
       </c>
       <c r="B167" s="3" t="inlineStr">
         <is>
+          <t>learned stimulus-behaviour co-occurrence</t>
+        </is>
+      </c>
+      <c r="C167" s="3" t="inlineStr">
+        <is>
           <t>learned stimulus-reponse co-occurrence</t>
         </is>
       </c>
-      <c r="C167" s="3" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
       <c r="D167" s="3" t="inlineStr">
         <is>
-          <t>A mental disposition to think or behave in a particular way in response to an internal or external event in the person's environment, which is acquired through associative learning.</t>
+          <t>A mental disposition to behave in a particular way in response to an internal or external event in the person's environment, which is acquired through habit learning.</t>
         </is>
       </c>
       <c r="E167" s="3" t="inlineStr"/>
-      <c r="F167" s="3" t="inlineStr"/>
-      <c r="G167" s="3" t="inlineStr"/>
+      <c r="F167" s="3" t="inlineStr">
+        <is>
+          <t>A tendency for something in the environment to prompt a behaviour as a result of learning.</t>
+        </is>
+      </c>
+      <c r="G167" s="3" t="inlineStr">
+        <is>
+          <t>Habit</t>
+        </is>
+      </c>
       <c r="H167" s="3" t="inlineStr"/>
       <c r="I167" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">The responses to an event can include thinking and impulses to respond. </t>
+          <t>Learned stimulus-behaviour co-occurrence can vary in strength.</t>
         </is>
       </c>
       <c r="J167" s="3" t="inlineStr"/>
@@ -7286,33 +7282,33 @@
     <row r="168">
       <c r="A168" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006156</t>
+          <t>BCIO:006057</t>
         </is>
       </c>
       <c r="B168" s="3" t="inlineStr">
         <is>
-          <t>learned stimulus-thought co-occurrence</t>
+          <t>learned stimulus-reponse co-occurrence</t>
         </is>
       </c>
       <c r="C168" s="3" t="inlineStr">
         <is>
-          <t>learned stimulus-reponse co-occurrence</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D168" s="3" t="inlineStr">
         <is>
-          <t>A mental disposition to think in a particular way in response to an internal or external event in the person's environment, which is acquired through associative learning.</t>
+          <t>A mental disposition to think or behave in a particular way in response to an internal or external event in the person's environment, which is acquired through associative learning.</t>
         </is>
       </c>
       <c r="E168" s="3" t="inlineStr"/>
       <c r="F168" s="3" t="inlineStr"/>
-      <c r="G168" s="3" t="inlineStr">
-        <is>
-          <t>Mental habit</t>
-        </is>
-      </c>
+      <c r="G168" s="3" t="inlineStr"/>
       <c r="H168" s="3" t="inlineStr"/>
-      <c r="I168" s="3" t="inlineStr"/>
+      <c r="I168" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The responses to an event can include thinking and impulses to respond. </t>
+        </is>
+      </c>
       <c r="J168" s="3" t="inlineStr"/>
       <c r="K168" s="3" t="inlineStr"/>
       <c r="L168" s="3" t="inlineStr"/>
@@ -7326,123 +7322,119 @@
       <c r="P168" s="3" t="inlineStr"/>
     </row>
     <row r="169">
-      <c r="A169" s="2" t="inlineStr">
+      <c r="A169" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006156</t>
+        </is>
+      </c>
+      <c r="B169" s="3" t="inlineStr">
+        <is>
+          <t>learned stimulus-thought co-occurrence</t>
+        </is>
+      </c>
+      <c r="C169" s="3" t="inlineStr">
+        <is>
+          <t>learned stimulus-reponse co-occurrence</t>
+        </is>
+      </c>
+      <c r="D169" s="3" t="inlineStr">
+        <is>
+          <t>A mental disposition to think in a particular way in response to an internal or external event in the person's environment, which is acquired through associative learning.</t>
+        </is>
+      </c>
+      <c r="E169" s="3" t="inlineStr"/>
+      <c r="F169" s="3" t="inlineStr"/>
+      <c r="G169" s="3" t="inlineStr">
+        <is>
+          <t>Mental habit</t>
+        </is>
+      </c>
+      <c r="H169" s="3" t="inlineStr"/>
+      <c r="I169" s="3" t="inlineStr"/>
+      <c r="J169" s="3" t="inlineStr"/>
+      <c r="K169" s="3" t="inlineStr"/>
+      <c r="L169" s="3" t="inlineStr"/>
+      <c r="M169" s="3" t="inlineStr"/>
+      <c r="N169" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O169" s="3" t="inlineStr"/>
+      <c r="P169" s="3" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="inlineStr">
         <is>
           <t>BCIO:050239</t>
         </is>
       </c>
-      <c r="B169" s="2" t="inlineStr">
+      <c r="B170" s="2" t="inlineStr">
         <is>
           <t>learning</t>
         </is>
       </c>
-      <c r="C169" s="2" t="inlineStr">
+      <c r="C170" s="2" t="inlineStr">
         <is>
           <t>mental process</t>
         </is>
       </c>
-      <c r="D169" s="2" t="inlineStr">
+      <c r="D170" s="2" t="inlineStr">
         <is>
           <t>A mental process in which a lasting mental or behavioural change occurs as the result of experience.</t>
         </is>
       </c>
-      <c r="E169" s="2" t="inlineStr"/>
-      <c r="F169" s="2" t="inlineStr"/>
-      <c r="G169" s="2" t="inlineStr"/>
-      <c r="H169" s="2" t="inlineStr"/>
-      <c r="I169" s="2" t="inlineStr">
+      <c r="E170" s="2" t="inlineStr"/>
+      <c r="F170" s="2" t="inlineStr"/>
+      <c r="G170" s="2" t="inlineStr"/>
+      <c r="H170" s="2" t="inlineStr"/>
+      <c r="I170" s="2" t="inlineStr">
         <is>
           <t>The class 'learning' from the Gene Ontology was not reused but adapted for the Mechanism of Action (MoA) Ontology, as the Gene Ontology only focuses on learning adaptive behaviours in order to be relevant to all organisms.</t>
         </is>
       </c>
-      <c r="J169" s="2" t="inlineStr"/>
-      <c r="K169" s="2" t="inlineStr"/>
-      <c r="L169" s="2" t="inlineStr"/>
-      <c r="M169" s="2" t="inlineStr"/>
-      <c r="N169" s="2" t="inlineStr">
+      <c r="J170" s="2" t="inlineStr"/>
+      <c r="K170" s="2" t="inlineStr"/>
+      <c r="L170" s="2" t="inlineStr"/>
+      <c r="M170" s="2" t="inlineStr"/>
+      <c r="N170" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="O169" s="2" t="inlineStr"/>
-      <c r="P169" s="2" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050237</t>
-        </is>
-      </c>
-      <c r="B170" s="3" t="inlineStr">
-        <is>
-          <t>linguistic communication behaviour</t>
-        </is>
-      </c>
-      <c r="C170" s="3" t="inlineStr">
-        <is>
-          <t>communication behaviour</t>
-        </is>
-      </c>
-      <c r="D170" s="3" t="inlineStr">
-        <is>
-          <t>A communication behaviour in which the information that is communicated is encoded in language.</t>
-        </is>
-      </c>
-      <c r="E170" s="3" t="inlineStr"/>
-      <c r="F170" s="3" t="inlineStr"/>
-      <c r="G170" s="3" t="inlineStr"/>
-      <c r="H170" s="3" t="inlineStr">
-        <is>
-          <t>Written language, spoken language and sign-language communication</t>
-        </is>
-      </c>
-      <c r="I170" s="3" t="inlineStr"/>
-      <c r="J170" s="3" t="inlineStr"/>
-      <c r="K170" s="3" t="inlineStr"/>
-      <c r="L170" s="3" t="inlineStr"/>
-      <c r="M170" s="3" t="inlineStr"/>
-      <c r="N170" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O170" s="3" t="inlineStr"/>
-      <c r="P170" s="3" t="inlineStr"/>
+      <c r="O170" s="2" t="inlineStr"/>
+      <c r="P170" s="2" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006085</t>
+          <t>BCIO:050237</t>
         </is>
       </c>
       <c r="B171" s="3" t="inlineStr">
         <is>
-          <t>location</t>
+          <t>linguistic communication behaviour</t>
         </is>
       </c>
       <c r="C171" s="3" t="inlineStr">
         <is>
-          <t>quality</t>
+          <t>communication behaviour</t>
         </is>
       </c>
       <c r="D171" s="3" t="inlineStr">
         <is>
-          <t>A spatial quality that inheres in a bearer by virtue of its position relative to other entities.</t>
+          <t>A communication behaviour in which the information that is communicated is encoded in language.</t>
         </is>
       </c>
       <c r="E171" s="3" t="inlineStr"/>
-      <c r="F171" s="3" t="inlineStr">
-        <is>
-          <t>Where a person, animal or object is.</t>
-        </is>
-      </c>
+      <c r="F171" s="3" t="inlineStr"/>
       <c r="G171" s="3" t="inlineStr"/>
-      <c r="H171" s="3" t="inlineStr"/>
-      <c r="I171" s="3" t="inlineStr">
-        <is>
-          <t>An intervention could be used to rearrange objects in an environment, changing the location of a person relative to these objects and thereby increasing the likelihood of a behaviour.</t>
-        </is>
-      </c>
+      <c r="H171" s="3" t="inlineStr">
+        <is>
+          <t>Written language, spoken language and sign-language communication</t>
+        </is>
+      </c>
+      <c r="I171" s="3" t="inlineStr"/>
       <c r="J171" s="3" t="inlineStr"/>
       <c r="K171" s="3" t="inlineStr"/>
       <c r="L171" s="3" t="inlineStr"/>
@@ -7456,62 +7448,70 @@
       <c r="P171" s="3" t="inlineStr"/>
     </row>
     <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>UBERON:0000465</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>material anatomical entity</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>material entity</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>Anatomical entity that has mass.</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr"/>
-      <c r="F172" t="inlineStr"/>
-      <c r="G172" t="inlineStr"/>
-      <c r="H172" t="inlineStr"/>
-      <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="inlineStr"/>
-      <c r="N172" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="O172" t="inlineStr"/>
-      <c r="P172" t="inlineStr"/>
+      <c r="A172" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006085</t>
+        </is>
+      </c>
+      <c r="B172" s="3" t="inlineStr">
+        <is>
+          <t>location</t>
+        </is>
+      </c>
+      <c r="C172" s="3" t="inlineStr">
+        <is>
+          <t>quality</t>
+        </is>
+      </c>
+      <c r="D172" s="3" t="inlineStr">
+        <is>
+          <t>A spatial quality that inheres in a bearer by virtue of its position relative to other entities.</t>
+        </is>
+      </c>
+      <c r="E172" s="3" t="inlineStr"/>
+      <c r="F172" s="3" t="inlineStr">
+        <is>
+          <t>Where a person, animal or object is.</t>
+        </is>
+      </c>
+      <c r="G172" s="3" t="inlineStr"/>
+      <c r="H172" s="3" t="inlineStr"/>
+      <c r="I172" s="3" t="inlineStr">
+        <is>
+          <t>An intervention could be used to rearrange objects in an environment, changing the location of a person relative to these objects and thereby increasing the likelihood of a behaviour.</t>
+        </is>
+      </c>
+      <c r="J172" s="3" t="inlineStr"/>
+      <c r="K172" s="3" t="inlineStr"/>
+      <c r="L172" s="3" t="inlineStr"/>
+      <c r="M172" s="3" t="inlineStr"/>
+      <c r="N172" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O172" s="3" t="inlineStr"/>
+      <c r="P172" s="3" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>BFO:0000040</t>
+          <t>UBERON:0000465</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
+          <t>material anatomical entity</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
           <t>material entity</t>
         </is>
       </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>independent continuant</t>
-        </is>
-      </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>An independent continuant that is spatially extended whose identity is independent of that of other entities and can be maintained through time.</t>
+          <t>Anatomical entity that has mass.</t>
         </is>
       </c>
       <c r="E173" t="inlineStr"/>
@@ -7534,22 +7534,22 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>GO:0007613</t>
+          <t>BFO:0000040</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>memory</t>
+          <t>material entity</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>independent continuant</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>The activities involved in the mental information processing system that receives (registers), modifies, stores, and retrieves informational stimuli.</t>
+          <t>An independent continuant that is spatially extended whose identity is independent of that of other entities and can be maintained through time.</t>
         </is>
       </c>
       <c r="E174" t="inlineStr"/>
@@ -7570,227 +7570,227 @@
       <c r="P174" t="inlineStr"/>
     </row>
     <row r="175">
-      <c r="A175" s="3" t="inlineStr">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>GO:0007613</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>The activities involved in the mental information processing system that receives (registers), modifies, stores, and retrieves informational stimuli.</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr"/>
+      <c r="F175" t="inlineStr"/>
+      <c r="G175" t="inlineStr"/>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="O175" t="inlineStr"/>
+      <c r="P175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="3" t="inlineStr">
         <is>
           <t>BCIO:006093</t>
         </is>
       </c>
-      <c r="B175" s="3" t="inlineStr">
+      <c r="B176" s="3" t="inlineStr">
         <is>
           <t>mental behavioural cue</t>
         </is>
       </c>
-      <c r="C175" s="3" t="inlineStr">
+      <c r="C176" s="3" t="inlineStr">
         <is>
           <t>bodily behavioural cue</t>
         </is>
       </c>
-      <c r="D175" s="3" t="inlineStr">
+      <c r="D176" s="3" t="inlineStr">
         <is>
           <t>A stimulus that arises from mental processes and serves to elicit or guide behaviour.</t>
         </is>
       </c>
-      <c r="E175" s="3" t="inlineStr"/>
-      <c r="F175" s="3" t="inlineStr"/>
-      <c r="G175" s="3" t="inlineStr"/>
-      <c r="H175" s="3" t="inlineStr"/>
-      <c r="I175" s="3" t="inlineStr"/>
-      <c r="J175" s="3" t="inlineStr"/>
-      <c r="K175" s="3" t="inlineStr"/>
-      <c r="L175" s="3" t="inlineStr"/>
-      <c r="M175" s="3" t="inlineStr"/>
-      <c r="N175" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O175" s="3" t="inlineStr"/>
-      <c r="P175" s="3" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
+      <c r="E176" s="3" t="inlineStr"/>
+      <c r="F176" s="3" t="inlineStr"/>
+      <c r="G176" s="3" t="inlineStr"/>
+      <c r="H176" s="3" t="inlineStr"/>
+      <c r="I176" s="3" t="inlineStr"/>
+      <c r="J176" s="3" t="inlineStr"/>
+      <c r="K176" s="3" t="inlineStr"/>
+      <c r="L176" s="3" t="inlineStr"/>
+      <c r="M176" s="3" t="inlineStr"/>
+      <c r="N176" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O176" s="3" t="inlineStr"/>
+      <c r="P176" s="3" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
         <is>
           <t xml:space="preserve">MF:0000048 </t>
         </is>
       </c>
-      <c r="B176" t="inlineStr">
+      <c r="B177" t="inlineStr">
         <is>
           <t>mental capability</t>
         </is>
       </c>
-      <c r="C176" t="inlineStr">
+      <c r="C177" t="inlineStr">
         <is>
           <t>personal capability</t>
         </is>
       </c>
-      <c r="D176" t="inlineStr">
+      <c r="D177" t="inlineStr">
         <is>
           <t>A personal capability that  includes mental processes in its realisation.</t>
         </is>
       </c>
-      <c r="E176" t="inlineStr"/>
-      <c r="F176" t="inlineStr"/>
-      <c r="G176" t="inlineStr"/>
-      <c r="H176" t="inlineStr"/>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="inlineStr"/>
-      <c r="N176" t="inlineStr">
+      <c r="E177" t="inlineStr"/>
+      <c r="F177" t="inlineStr"/>
+      <c r="G177" t="inlineStr"/>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="O176" t="inlineStr"/>
-      <c r="P176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="3" t="inlineStr">
+      <c r="O177" t="inlineStr"/>
+      <c r="P177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="3" t="inlineStr">
         <is>
           <t>BCIO:006131</t>
         </is>
       </c>
-      <c r="B177" s="3" t="inlineStr">
+      <c r="B178" s="3" t="inlineStr">
         <is>
           <t>mental categorising</t>
         </is>
       </c>
-      <c r="C177" s="3" t="inlineStr">
+      <c r="C178" s="3" t="inlineStr">
         <is>
           <t>mental process</t>
         </is>
       </c>
-      <c r="D177" s="3" t="inlineStr">
+      <c r="D178" s="3" t="inlineStr">
         <is>
           <t>A mental process in which objects, events, people, or experiences are grouped into classes, on the basis of features shared by members of the same class and features distinguishing the members of one class from those of another.</t>
         </is>
       </c>
-      <c r="E177" s="3" t="inlineStr"/>
-      <c r="F177" s="3" t="inlineStr"/>
-      <c r="G177" s="3" t="inlineStr"/>
-      <c r="H177" s="3" t="inlineStr"/>
-      <c r="I177" s="3" t="inlineStr"/>
-      <c r="J177" s="3" t="inlineStr"/>
-      <c r="K177" s="3" t="inlineStr"/>
-      <c r="L177" s="3" t="inlineStr"/>
-      <c r="M177" s="3" t="inlineStr"/>
-      <c r="N177" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O177" s="3" t="inlineStr"/>
-      <c r="P177" s="3" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
+      <c r="E178" s="3" t="inlineStr"/>
+      <c r="F178" s="3" t="inlineStr"/>
+      <c r="G178" s="3" t="inlineStr"/>
+      <c r="H178" s="3" t="inlineStr"/>
+      <c r="I178" s="3" t="inlineStr"/>
+      <c r="J178" s="3" t="inlineStr"/>
+      <c r="K178" s="3" t="inlineStr"/>
+      <c r="L178" s="3" t="inlineStr"/>
+      <c r="M178" s="3" t="inlineStr"/>
+      <c r="N178" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O178" s="3" t="inlineStr"/>
+      <c r="P178" s="3" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
         <is>
           <t>MF:0000033</t>
         </is>
       </c>
-      <c r="B178" t="inlineStr">
+      <c r="B179" t="inlineStr">
         <is>
           <t>mental disposition</t>
         </is>
       </c>
-      <c r="C178" t="inlineStr">
+      <c r="C179" t="inlineStr">
         <is>
           <t>bodily disposition</t>
         </is>
       </c>
-      <c r="D178" t="inlineStr">
+      <c r="D179" t="inlineStr">
         <is>
           <t>A bodily disposition that is realized in a mental process.</t>
         </is>
       </c>
-      <c r="E178" t="inlineStr"/>
-      <c r="F178" t="inlineStr"/>
-      <c r="G178" t="inlineStr"/>
-      <c r="H178" t="inlineStr"/>
-      <c r="I178" t="inlineStr">
+      <c r="E179" t="inlineStr"/>
+      <c r="F179" t="inlineStr"/>
+      <c r="G179" t="inlineStr"/>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="inlineStr">
         <is>
           <t xml:space="preserve">Mental disposition' is a subclass of 'bodily disposition', as mental dispositions occur in the body. </t>
         </is>
       </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="inlineStr"/>
-      <c r="N178" t="inlineStr">
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="O178" t="inlineStr"/>
-      <c r="P178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006162</t>
-        </is>
-      </c>
-      <c r="B179" s="3" t="inlineStr">
-        <is>
-          <t>mental distancing</t>
-        </is>
-      </c>
-      <c r="C179" s="3" t="inlineStr">
-        <is>
-          <t>cognitive process</t>
-        </is>
-      </c>
-      <c r="D179" s="3" t="inlineStr">
-        <is>
-          <t>A cognitive process that involves intentionally detaching oneself from one's immediate thoughts.</t>
-        </is>
-      </c>
-      <c r="E179" s="3" t="inlineStr"/>
-      <c r="F179" s="3" t="inlineStr"/>
-      <c r="G179" s="3" t="inlineStr">
-        <is>
-          <t>decentring</t>
-        </is>
-      </c>
-      <c r="H179" s="3" t="inlineStr"/>
-      <c r="I179" s="3" t="inlineStr"/>
-      <c r="J179" s="3" t="inlineStr"/>
-      <c r="K179" s="3" t="inlineStr"/>
-      <c r="L179" s="3" t="inlineStr"/>
-      <c r="M179" s="3" t="inlineStr"/>
-      <c r="N179" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O179" s="3" t="inlineStr"/>
-      <c r="P179" s="3" t="inlineStr"/>
+      <c r="O179" t="inlineStr"/>
+      <c r="P179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006080</t>
+          <t>BCIO:006162</t>
         </is>
       </c>
       <c r="B180" s="3" t="inlineStr">
         <is>
-          <t>mental image</t>
+          <t>mental distancing</t>
         </is>
       </c>
       <c r="C180" s="3" t="inlineStr">
         <is>
-          <t>cognitive representation</t>
+          <t>cognitive process</t>
         </is>
       </c>
       <c r="D180" s="3" t="inlineStr">
         <is>
-          <t>A cognitive representation of the sensory characteristics of objects or events that are not immediately present to the senses.</t>
+          <t>A cognitive process that involves intentionally detaching oneself from one's immediate thoughts.</t>
         </is>
       </c>
       <c r="E180" s="3" t="inlineStr"/>
       <c r="F180" s="3" t="inlineStr"/>
-      <c r="G180" s="3" t="inlineStr"/>
+      <c r="G180" s="3" t="inlineStr">
+        <is>
+          <t>decentring</t>
+        </is>
+      </c>
       <c r="H180" s="3" t="inlineStr"/>
       <c r="I180" s="3" t="inlineStr"/>
       <c r="J180" s="3" t="inlineStr"/>
@@ -7806,200 +7806,200 @@
       <c r="P180" s="3" t="inlineStr"/>
     </row>
     <row r="181">
-      <c r="A181" t="inlineStr">
+      <c r="A181" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006080</t>
+        </is>
+      </c>
+      <c r="B181" s="3" t="inlineStr">
+        <is>
+          <t>mental image</t>
+        </is>
+      </c>
+      <c r="C181" s="3" t="inlineStr">
+        <is>
+          <t>cognitive representation</t>
+        </is>
+      </c>
+      <c r="D181" s="3" t="inlineStr">
+        <is>
+          <t>A cognitive representation of the sensory characteristics of objects or events that are not immediately present to the senses.</t>
+        </is>
+      </c>
+      <c r="E181" s="3" t="inlineStr"/>
+      <c r="F181" s="3" t="inlineStr"/>
+      <c r="G181" s="3" t="inlineStr"/>
+      <c r="H181" s="3" t="inlineStr"/>
+      <c r="I181" s="3" t="inlineStr"/>
+      <c r="J181" s="3" t="inlineStr"/>
+      <c r="K181" s="3" t="inlineStr"/>
+      <c r="L181" s="3" t="inlineStr"/>
+      <c r="M181" s="3" t="inlineStr"/>
+      <c r="N181" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O181" s="3" t="inlineStr"/>
+      <c r="P181" s="3" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
         <is>
           <t>MF:0000083</t>
         </is>
       </c>
-      <c r="B181" t="inlineStr">
+      <c r="B182" t="inlineStr">
         <is>
           <t>mental imagery</t>
         </is>
       </c>
-      <c r="C181" t="inlineStr">
+      <c r="C182" t="inlineStr">
         <is>
           <t>mental process</t>
         </is>
       </c>
-      <c r="D181" t="inlineStr">
+      <c r="D182" t="inlineStr">
         <is>
           <t>A mental process that evokes the representation of the sensory characteristics of objects or events when these are not immediately present to the senses.</t>
         </is>
       </c>
-      <c r="E181" t="inlineStr"/>
-      <c r="F181" t="inlineStr"/>
-      <c r="G181" t="inlineStr"/>
-      <c r="H181" t="inlineStr"/>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="inlineStr"/>
-      <c r="N181" t="inlineStr">
+      <c r="E182" t="inlineStr"/>
+      <c r="F182" t="inlineStr"/>
+      <c r="G182" t="inlineStr"/>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="O181" t="inlineStr"/>
-      <c r="P181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="3" t="inlineStr">
+      <c r="O182" t="inlineStr"/>
+      <c r="P182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="3" t="inlineStr">
         <is>
           <t>BCIO:006058</t>
         </is>
       </c>
-      <c r="B182" s="3" t="inlineStr">
+      <c r="B183" s="3" t="inlineStr">
         <is>
           <t>mental imagery disposition</t>
         </is>
       </c>
-      <c r="C182" s="3" t="inlineStr">
+      <c r="C183" s="3" t="inlineStr">
         <is>
           <t>mental disposition</t>
         </is>
       </c>
-      <c r="D182" s="3" t="inlineStr">
+      <c r="D183" s="3" t="inlineStr">
         <is>
           <t>A mental disposition to evoke the representation of the sensory characteristics of objects or events when these are not immediately present to the senses.</t>
         </is>
       </c>
-      <c r="E182" s="3" t="inlineStr"/>
-      <c r="F182" s="3" t="inlineStr">
+      <c r="E183" s="3" t="inlineStr"/>
+      <c r="F183" s="3" t="inlineStr">
         <is>
           <t>A tendency to experience mental images.</t>
         </is>
       </c>
-      <c r="G182" s="3" t="inlineStr"/>
-      <c r="H182" s="3" t="inlineStr"/>
-      <c r="I182" s="3" t="inlineStr"/>
-      <c r="J182" s="3" t="inlineStr"/>
-      <c r="K182" s="3" t="inlineStr"/>
-      <c r="L182" s="3" t="inlineStr"/>
-      <c r="M182" s="3" t="inlineStr"/>
-      <c r="N182" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O182" s="3" t="inlineStr"/>
-      <c r="P182" s="3" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="2" t="inlineStr">
+      <c r="G183" s="3" t="inlineStr"/>
+      <c r="H183" s="3" t="inlineStr"/>
+      <c r="I183" s="3" t="inlineStr"/>
+      <c r="J183" s="3" t="inlineStr"/>
+      <c r="K183" s="3" t="inlineStr"/>
+      <c r="L183" s="3" t="inlineStr"/>
+      <c r="M183" s="3" t="inlineStr"/>
+      <c r="N183" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O183" s="3" t="inlineStr"/>
+      <c r="P183" s="3" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="inlineStr">
         <is>
           <t>BCIO:050228</t>
         </is>
       </c>
-      <c r="B183" s="2" t="inlineStr">
+      <c r="B184" s="2" t="inlineStr">
         <is>
           <t>mental plan</t>
         </is>
       </c>
-      <c r="C183" s="2" t="inlineStr">
+      <c r="C184" s="2" t="inlineStr">
         <is>
           <t>mental disposition</t>
         </is>
       </c>
-      <c r="D183" s="2" t="inlineStr">
+      <c r="D184" s="2" t="inlineStr">
         <is>
           <t>A mental disposition that is realised in mental processes mentally manipulating representations of steps in an imagined process which has some goal.</t>
         </is>
       </c>
-      <c r="E183" s="2" t="inlineStr"/>
-      <c r="F183" s="2" t="inlineStr"/>
-      <c r="G183" s="2" t="inlineStr"/>
-      <c r="H183" s="2" t="inlineStr"/>
-      <c r="I183" s="2" t="inlineStr">
+      <c r="E184" s="2" t="inlineStr"/>
+      <c r="F184" s="2" t="inlineStr"/>
+      <c r="G184" s="2" t="inlineStr"/>
+      <c r="H184" s="2" t="inlineStr"/>
+      <c r="I184" s="2" t="inlineStr">
         <is>
           <t>A mental plan is the outcome of a planning process.</t>
         </is>
       </c>
-      <c r="J183" s="2" t="inlineStr"/>
-      <c r="K183" s="2" t="inlineStr"/>
-      <c r="L183" s="2" t="inlineStr"/>
-      <c r="M183" s="2" t="inlineStr"/>
-      <c r="N183" s="2" t="inlineStr">
+      <c r="J184" s="2" t="inlineStr"/>
+      <c r="K184" s="2" t="inlineStr"/>
+      <c r="L184" s="2" t="inlineStr"/>
+      <c r="M184" s="2" t="inlineStr"/>
+      <c r="N184" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="O183" s="2" t="inlineStr"/>
-      <c r="P183" s="2" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="3" t="inlineStr">
+      <c r="O184" s="2" t="inlineStr"/>
+      <c r="P184" s="2" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="3" t="inlineStr">
         <is>
           <t>BCIO:006070</t>
         </is>
       </c>
-      <c r="B184" s="3" t="inlineStr">
+      <c r="B185" s="3" t="inlineStr">
         <is>
           <t>mental plan for a behaviour</t>
         </is>
       </c>
-      <c r="C184" s="3" t="inlineStr">
+      <c r="C185" s="3" t="inlineStr">
         <is>
           <t>mental plan</t>
         </is>
       </c>
-      <c r="D184" s="3" t="inlineStr">
+      <c r="D185" s="3" t="inlineStr">
         <is>
           <t>A mental plan that is realised in mental processes representing the steps to enact a behaviour and the conditions under which the behaviour will be enacted.</t>
         </is>
       </c>
-      <c r="E184" s="3" t="inlineStr"/>
-      <c r="F184" s="3" t="inlineStr"/>
-      <c r="G184" s="3" t="inlineStr">
+      <c r="E185" s="3" t="inlineStr"/>
+      <c r="F185" s="3" t="inlineStr"/>
+      <c r="G185" s="3" t="inlineStr">
         <is>
           <t>Action plan</t>
         </is>
       </c>
-      <c r="H184" s="3" t="inlineStr"/>
-      <c r="I184" s="3" t="inlineStr">
+      <c r="H185" s="3" t="inlineStr"/>
+      <c r="I185" s="3" t="inlineStr">
         <is>
           <t>The term ‘plan’ can sometimes be used to refer to intention and sometimes for instructional plans.
 'mental plan for a behaviour’ involves  plans for which details about the behaviour (when [specific times], where, how or with whom) are specified.</t>
         </is>
       </c>
-      <c r="J184" s="3" t="inlineStr"/>
-      <c r="K184" s="3" t="inlineStr"/>
-      <c r="L184" s="3" t="inlineStr"/>
-      <c r="M184" s="3" t="inlineStr"/>
-      <c r="N184" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O184" s="3" t="inlineStr"/>
-      <c r="P184" s="3" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006157</t>
-        </is>
-      </c>
-      <c r="B185" s="3" t="inlineStr">
-        <is>
-          <t>mental plan for coping with barriers</t>
-        </is>
-      </c>
-      <c r="C185" s="3" t="inlineStr">
-        <is>
-          <t>mental plan for a behaviour</t>
-        </is>
-      </c>
-      <c r="D185" s="3" t="inlineStr">
-        <is>
-          <t>A mental plan regarding a strategy to deal with conditions that could prevent the performance of a behaviour.</t>
-        </is>
-      </c>
-      <c r="E185" s="3" t="inlineStr"/>
-      <c r="F185" s="3" t="inlineStr"/>
-      <c r="G185" s="3" t="inlineStr"/>
-      <c r="H185" s="3" t="inlineStr"/>
-      <c r="I185" s="3" t="inlineStr"/>
       <c r="J185" s="3" t="inlineStr"/>
       <c r="K185" s="3" t="inlineStr"/>
       <c r="L185" s="3" t="inlineStr"/>
@@ -8013,151 +8013,147 @@
       <c r="P185" s="3" t="inlineStr"/>
     </row>
     <row r="186">
-      <c r="A186" t="inlineStr">
+      <c r="A186" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006157</t>
+        </is>
+      </c>
+      <c r="B186" s="3" t="inlineStr">
+        <is>
+          <t>mental plan for coping with barriers</t>
+        </is>
+      </c>
+      <c r="C186" s="3" t="inlineStr">
+        <is>
+          <t>mental plan for a behaviour</t>
+        </is>
+      </c>
+      <c r="D186" s="3" t="inlineStr">
+        <is>
+          <t>A mental plan regarding a strategy to deal with conditions that could prevent the performance of a behaviour.</t>
+        </is>
+      </c>
+      <c r="E186" s="3" t="inlineStr"/>
+      <c r="F186" s="3" t="inlineStr"/>
+      <c r="G186" s="3" t="inlineStr"/>
+      <c r="H186" s="3" t="inlineStr"/>
+      <c r="I186" s="3" t="inlineStr"/>
+      <c r="J186" s="3" t="inlineStr"/>
+      <c r="K186" s="3" t="inlineStr"/>
+      <c r="L186" s="3" t="inlineStr"/>
+      <c r="M186" s="3" t="inlineStr"/>
+      <c r="N186" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O186" s="3" t="inlineStr"/>
+      <c r="P186" s="3" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
         <is>
           <t>MF:0000020</t>
         </is>
       </c>
-      <c r="B186" t="inlineStr">
+      <c r="B187" t="inlineStr">
         <is>
           <t>mental process</t>
         </is>
       </c>
-      <c r="C186" t="inlineStr">
+      <c r="C187" t="inlineStr">
         <is>
           <t>bodily process</t>
         </is>
       </c>
-      <c r="D186" t="inlineStr">
+      <c r="D187" t="inlineStr">
         <is>
           <t>A bodily process that occurs in the brain, and that can of itself be conscious, or can give rise to a process that can of itself be conscious or can give rise to behaviour.</t>
         </is>
       </c>
-      <c r="E186" t="inlineStr"/>
-      <c r="F186" t="inlineStr">
+      <c r="E187" t="inlineStr"/>
+      <c r="F187" t="inlineStr">
         <is>
           <t>A process that takes place in the brain and can involve consciousness.</t>
         </is>
       </c>
-      <c r="G186" t="inlineStr"/>
-      <c r="H186" t="inlineStr"/>
-      <c r="I186" t="inlineStr">
+      <c r="G187" t="inlineStr"/>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="inlineStr">
         <is>
           <t>Mental processes can vary in the degree to which they involve consciousness.
 A 'mental process' is a subclass of 'bodily process', as mental processes occur within the body, specifically involving the brain.</t>
         </is>
       </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="inlineStr"/>
-      <c r="N186" t="inlineStr">
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="O186" t="inlineStr"/>
-      <c r="P186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="4" t="inlineStr">
+      <c r="O187" t="inlineStr"/>
+      <c r="P187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="4" t="inlineStr">
         <is>
           <t xml:space="preserve">MF:0000075 </t>
         </is>
       </c>
-      <c r="B187" s="4" t="inlineStr">
+      <c r="B188" s="4" t="inlineStr">
         <is>
           <t>mental quality</t>
         </is>
       </c>
-      <c r="C187" s="4" t="inlineStr">
+      <c r="C188" s="4" t="inlineStr">
         <is>
           <t>bodily quality</t>
         </is>
       </c>
-      <c r="D187" s="4" t="inlineStr">
+      <c r="D188" s="4" t="inlineStr">
         <is>
           <t>A bodily quality that inheres in those structures of the extended organism that are essential for mental functioning.</t>
         </is>
       </c>
-      <c r="E187" s="4" t="inlineStr"/>
-      <c r="F187" s="4" t="inlineStr"/>
-      <c r="G187" s="4" t="inlineStr"/>
-      <c r="H187" s="4" t="inlineStr"/>
-      <c r="I187" s="4" t="inlineStr"/>
-      <c r="J187" s="4" t="inlineStr"/>
-      <c r="K187" s="4" t="inlineStr"/>
-      <c r="L187" s="4" t="inlineStr"/>
-      <c r="M187" s="4" t="inlineStr"/>
-      <c r="N187" s="4" t="inlineStr">
+      <c r="E188" s="4" t="inlineStr"/>
+      <c r="F188" s="4" t="inlineStr"/>
+      <c r="G188" s="4" t="inlineStr"/>
+      <c r="H188" s="4" t="inlineStr"/>
+      <c r="I188" s="4" t="inlineStr"/>
+      <c r="J188" s="4" t="inlineStr"/>
+      <c r="K188" s="4" t="inlineStr"/>
+      <c r="L188" s="4" t="inlineStr"/>
+      <c r="M188" s="4" t="inlineStr"/>
+      <c r="N188" s="4" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="O187" s="4" t="inlineStr"/>
-      <c r="P187" s="4" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006004</t>
-        </is>
-      </c>
-      <c r="B188" s="3" t="inlineStr">
-        <is>
-          <t>mental skill</t>
-        </is>
-      </c>
-      <c r="C188" s="3" t="inlineStr">
-        <is>
-          <t>mental capability</t>
-        </is>
-      </c>
-      <c r="D188" s="3" t="inlineStr">
-        <is>
-          <t>A mental capability acquired through training or practice.</t>
-        </is>
-      </c>
-      <c r="E188" s="3" t="inlineStr"/>
-      <c r="F188" s="3" t="inlineStr"/>
-      <c r="G188" s="3" t="inlineStr"/>
-      <c r="H188" s="3" t="inlineStr"/>
-      <c r="I188" s="3" t="inlineStr">
-        <is>
-          <t>The term 'skill' specifically refers to acquired capabilities, as behavioural theories suggested that the main difference between capabilities and skills was that skills were learned.</t>
-        </is>
-      </c>
-      <c r="J188" s="3" t="inlineStr"/>
-      <c r="K188" s="3" t="inlineStr"/>
-      <c r="L188" s="3" t="inlineStr"/>
-      <c r="M188" s="3" t="inlineStr"/>
-      <c r="N188" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O188" s="3" t="inlineStr"/>
-      <c r="P188" s="3" t="inlineStr"/>
+      <c r="O188" s="4" t="inlineStr"/>
+      <c r="P188" s="4" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006132</t>
+          <t>BCIO:006004</t>
         </is>
       </c>
       <c r="B189" s="3" t="inlineStr">
         <is>
-          <t>mentally comparing against a standard</t>
+          <t>mental skill</t>
         </is>
       </c>
       <c r="C189" s="3" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t>mental capability</t>
         </is>
       </c>
       <c r="D189" s="3" t="inlineStr">
         <is>
-          <t>A mental process in which conditions are compared against a particular reference level.</t>
+          <t>A mental capability acquired through training or practice.</t>
         </is>
       </c>
       <c r="E189" s="3" t="inlineStr"/>
@@ -8166,7 +8162,7 @@
       <c r="H189" s="3" t="inlineStr"/>
       <c r="I189" s="3" t="inlineStr">
         <is>
-          <t>The term 'condition' may refer to the characteristics of an object, event and person.</t>
+          <t>The term 'skill' specifically refers to acquired capabilities, as behavioural theories suggested that the main difference between capabilities and skills was that skills were learned.</t>
         </is>
       </c>
       <c r="J189" s="3" t="inlineStr"/>
@@ -8182,100 +8178,104 @@
       <c r="P189" s="3" t="inlineStr"/>
     </row>
     <row r="190">
-      <c r="A190" t="inlineStr">
+      <c r="A190" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006132</t>
+        </is>
+      </c>
+      <c r="B190" s="3" t="inlineStr">
+        <is>
+          <t>mentally comparing against a standard</t>
+        </is>
+      </c>
+      <c r="C190" s="3" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D190" s="3" t="inlineStr">
+        <is>
+          <t>A mental process in which conditions are compared against a particular reference level.</t>
+        </is>
+      </c>
+      <c r="E190" s="3" t="inlineStr"/>
+      <c r="F190" s="3" t="inlineStr"/>
+      <c r="G190" s="3" t="inlineStr"/>
+      <c r="H190" s="3" t="inlineStr"/>
+      <c r="I190" s="3" t="inlineStr">
+        <is>
+          <t>The term 'condition' may refer to the characteristics of an object, event and person.</t>
+        </is>
+      </c>
+      <c r="J190" s="3" t="inlineStr"/>
+      <c r="K190" s="3" t="inlineStr"/>
+      <c r="L190" s="3" t="inlineStr"/>
+      <c r="M190" s="3" t="inlineStr"/>
+      <c r="N190" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O190" s="3" t="inlineStr"/>
+      <c r="P190" s="3" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
         <is>
           <t>MFOEM:000023</t>
         </is>
       </c>
-      <c r="B190" t="inlineStr">
+      <c r="B191" t="inlineStr">
         <is>
           <t>moral disgust</t>
         </is>
       </c>
-      <c r="C190" t="inlineStr">
+      <c r="C191" t="inlineStr">
         <is>
           <t>disgust</t>
         </is>
       </c>
-      <c r="D190" t="inlineStr">
+      <c r="D191" t="inlineStr">
         <is>
           <t>Disgust elicited by some kinds of especially egregious moral violations.</t>
         </is>
       </c>
-      <c r="E190" t="inlineStr"/>
-      <c r="F190" t="inlineStr"/>
-      <c r="G190" t="inlineStr"/>
-      <c r="H190" t="inlineStr"/>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="inlineStr"/>
-      <c r="N190" t="inlineStr">
+      <c r="E191" t="inlineStr"/>
+      <c r="F191" t="inlineStr"/>
+      <c r="G191" t="inlineStr"/>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="O190" t="inlineStr"/>
-      <c r="P190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006133</t>
-        </is>
-      </c>
-      <c r="B191" s="3" t="inlineStr">
-        <is>
-          <t>motivation</t>
-        </is>
-      </c>
-      <c r="C191" s="3" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D191" s="3" t="inlineStr">
-        <is>
-          <t>A mental process that energises and directs behaviour.</t>
-        </is>
-      </c>
-      <c r="E191" s="3" t="inlineStr"/>
-      <c r="F191" s="3" t="inlineStr"/>
-      <c r="G191" s="3" t="inlineStr"/>
-      <c r="H191" s="3" t="inlineStr"/>
-      <c r="I191" s="3" t="inlineStr"/>
-      <c r="J191" s="3" t="inlineStr"/>
-      <c r="K191" s="3" t="inlineStr"/>
-      <c r="L191" s="3" t="inlineStr"/>
-      <c r="M191" s="3" t="inlineStr"/>
-      <c r="N191" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O191" s="3" t="inlineStr"/>
-      <c r="P191" s="3" t="inlineStr"/>
+      <c r="O191" t="inlineStr"/>
+      <c r="P191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006060</t>
+          <t>BCIO:006133</t>
         </is>
       </c>
       <c r="B192" s="3" t="inlineStr">
         <is>
-          <t>motivational orientation towards types of outcomes</t>
+          <t>motivation</t>
         </is>
       </c>
       <c r="C192" s="3" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D192" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">A mental disposition for motivation to be guided by a focus on the presence or absence of outcomes of a certain valence. </t>
+          <t>A mental process that energises and directs behaviour.</t>
         </is>
       </c>
       <c r="E192" s="3" t="inlineStr"/>
@@ -8298,22 +8298,22 @@
     <row r="193">
       <c r="A193" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006068</t>
+          <t>BCIO:006060</t>
         </is>
       </c>
       <c r="B193" s="3" t="inlineStr">
         <is>
-          <t>need for a sense of belonging and attachment</t>
+          <t>motivational orientation towards types of outcomes</t>
         </is>
       </c>
       <c r="C193" s="3" t="inlineStr">
         <is>
-          <t>psychological need</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D193" s="3" t="inlineStr">
         <is>
-          <t>A psychological need to have caring relationships with other people.</t>
+          <t xml:space="preserve">A mental disposition for motivation to be guided by a focus on the presence or absence of outcomes of a certain valence. </t>
         </is>
       </c>
       <c r="E193" s="3" t="inlineStr"/>
@@ -8336,12 +8336,12 @@
     <row r="194">
       <c r="A194" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006067</t>
+          <t>BCIO:006068</t>
         </is>
       </c>
       <c r="B194" s="3" t="inlineStr">
         <is>
-          <t>need for a sense of safety</t>
+          <t>need for a sense of belonging and attachment</t>
         </is>
       </c>
       <c r="C194" s="3" t="inlineStr">
@@ -8351,7 +8351,7 @@
       </c>
       <c r="D194" s="3" t="inlineStr">
         <is>
-          <t>A psychological need to feel safe from threats.</t>
+          <t>A psychological need to have caring relationships with other people.</t>
         </is>
       </c>
       <c r="E194" s="3" t="inlineStr"/>
@@ -8374,12 +8374,12 @@
     <row r="195">
       <c r="A195" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006065</t>
+          <t>BCIO:006067</t>
         </is>
       </c>
       <c r="B195" s="3" t="inlineStr">
         <is>
-          <t>need for autonomy</t>
+          <t>need for a sense of safety</t>
         </is>
       </c>
       <c r="C195" s="3" t="inlineStr">
@@ -8389,7 +8389,7 @@
       </c>
       <c r="D195" s="3" t="inlineStr">
         <is>
-          <t>A psychological need to have a sense of personal agency and initiative.</t>
+          <t>A psychological need to feel safe from threats.</t>
         </is>
       </c>
       <c r="E195" s="3" t="inlineStr"/>
@@ -8412,12 +8412,12 @@
     <row r="196">
       <c r="A196" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006066</t>
+          <t>BCIO:006065</t>
         </is>
       </c>
       <c r="B196" s="3" t="inlineStr">
         <is>
-          <t>need for self-esteem</t>
+          <t>need for autonomy</t>
         </is>
       </c>
       <c r="C196" s="3" t="inlineStr">
@@ -8427,7 +8427,7 @@
       </c>
       <c r="D196" s="3" t="inlineStr">
         <is>
-          <t>A psychological need to have a positive evaluation of oneself and one's qualities and characteristics.</t>
+          <t>A psychological need to have a sense of personal agency and initiative.</t>
         </is>
       </c>
       <c r="E196" s="3" t="inlineStr"/>
@@ -8450,12 +8450,12 @@
     <row r="197">
       <c r="A197" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006069</t>
+          <t>BCIO:006066</t>
         </is>
       </c>
       <c r="B197" s="3" t="inlineStr">
         <is>
-          <t>need to feel competent</t>
+          <t>need for self-esteem</t>
         </is>
       </c>
       <c r="C197" s="3" t="inlineStr">
@@ -8465,16 +8465,12 @@
       </c>
       <c r="D197" s="3" t="inlineStr">
         <is>
-          <t>A psychological need to experience oneself as capable and effective.</t>
+          <t>A psychological need to have a positive evaluation of oneself and one's qualities and characteristics.</t>
         </is>
       </c>
       <c r="E197" s="3" t="inlineStr"/>
       <c r="F197" s="3" t="inlineStr"/>
-      <c r="G197" s="3" t="inlineStr">
-        <is>
-          <t>need for mastery</t>
-        </is>
-      </c>
+      <c r="G197" s="3" t="inlineStr"/>
       <c r="H197" s="3" t="inlineStr"/>
       <c r="I197" s="3" t="inlineStr"/>
       <c r="J197" s="3" t="inlineStr"/>
@@ -8490,62 +8486,66 @@
       <c r="P197" s="3" t="inlineStr"/>
     </row>
     <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>MFOEM:000210</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>negative surprise</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>surprise</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>Surprise with a negative valence.</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr"/>
-      <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
-      <c r="H198" t="inlineStr"/>
-      <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="inlineStr"/>
-      <c r="N198" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="O198" t="inlineStr"/>
-      <c r="P198" t="inlineStr"/>
+      <c r="A198" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006069</t>
+        </is>
+      </c>
+      <c r="B198" s="3" t="inlineStr">
+        <is>
+          <t>need to feel competent</t>
+        </is>
+      </c>
+      <c r="C198" s="3" t="inlineStr">
+        <is>
+          <t>psychological need</t>
+        </is>
+      </c>
+      <c r="D198" s="3" t="inlineStr">
+        <is>
+          <t>A psychological need to experience oneself as capable and effective.</t>
+        </is>
+      </c>
+      <c r="E198" s="3" t="inlineStr"/>
+      <c r="F198" s="3" t="inlineStr"/>
+      <c r="G198" s="3" t="inlineStr">
+        <is>
+          <t>need for mastery</t>
+        </is>
+      </c>
+      <c r="H198" s="3" t="inlineStr"/>
+      <c r="I198" s="3" t="inlineStr"/>
+      <c r="J198" s="3" t="inlineStr"/>
+      <c r="K198" s="3" t="inlineStr"/>
+      <c r="L198" s="3" t="inlineStr"/>
+      <c r="M198" s="3" t="inlineStr"/>
+      <c r="N198" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O198" s="3" t="inlineStr"/>
+      <c r="P198" s="3" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>GO:0046958</t>
+          <t>MFOEM:000210</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>non-associative learning</t>
+          <t>negative surprise</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>learning</t>
+          <t>surprise</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>A simple form of learning whereby the repeated presence of a stimulus leads to a change in the probability or strength of the response to that stimulus. There is no association of one type of stimulus with another, rather it is a generalized response to the environment.</t>
+          <t>Surprise with a negative valence.</t>
         </is>
       </c>
       <c r="E199" t="inlineStr"/>
@@ -8566,119 +8566,115 @@
       <c r="P199" t="inlineStr"/>
     </row>
     <row r="200">
-      <c r="A200" s="2" t="inlineStr">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>GO:0046958</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>non-associative learning</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>learning</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>A simple form of learning whereby the repeated presence of a stimulus leads to a change in the probability or strength of the response to that stimulus. There is no association of one type of stimulus with another, rather it is a generalized response to the environment.</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr"/>
+      <c r="F200" t="inlineStr"/>
+      <c r="G200" t="inlineStr"/>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="O200" t="inlineStr"/>
+      <c r="P200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="inlineStr">
         <is>
           <t>BCIO:050235</t>
         </is>
       </c>
-      <c r="B200" s="2" t="inlineStr">
+      <c r="B201" s="2" t="inlineStr">
         <is>
           <t>non-judgmental acknowledgement</t>
         </is>
       </c>
-      <c r="C200" s="2" t="inlineStr">
+      <c r="C201" s="2" t="inlineStr">
         <is>
           <t>mental process</t>
         </is>
       </c>
-      <c r="D200" s="2" t="inlineStr">
+      <c r="D201" s="2" t="inlineStr">
         <is>
           <t>A mental process that involves taking notice of one's affective, mental or bodily experience without judging it as good or bad.</t>
         </is>
       </c>
-      <c r="E200" s="2" t="inlineStr"/>
-      <c r="F200" s="2" t="inlineStr"/>
-      <c r="G200" s="2" t="inlineStr">
+      <c r="E201" s="2" t="inlineStr"/>
+      <c r="F201" s="2" t="inlineStr"/>
+      <c r="G201" s="2" t="inlineStr">
         <is>
           <t>Acceptance</t>
         </is>
       </c>
-      <c r="H200" s="2" t="inlineStr"/>
-      <c r="I200" s="2" t="inlineStr"/>
-      <c r="J200" s="2" t="inlineStr"/>
-      <c r="K200" s="2" t="inlineStr"/>
-      <c r="L200" s="2" t="inlineStr"/>
-      <c r="M200" s="2" t="inlineStr"/>
-      <c r="N200" s="2" t="inlineStr">
+      <c r="H201" s="2" t="inlineStr"/>
+      <c r="I201" s="2" t="inlineStr"/>
+      <c r="J201" s="2" t="inlineStr"/>
+      <c r="K201" s="2" t="inlineStr"/>
+      <c r="L201" s="2" t="inlineStr"/>
+      <c r="M201" s="2" t="inlineStr"/>
+      <c r="N201" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="O200" s="2" t="inlineStr"/>
-      <c r="P200" s="2" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:050238</t>
-        </is>
-      </c>
-      <c r="B201" s="3" t="inlineStr">
-        <is>
-          <t>non-linguistic communication behaviour</t>
-        </is>
-      </c>
-      <c r="C201" s="3" t="inlineStr">
-        <is>
-          <t>communication behaviour</t>
-        </is>
-      </c>
-      <c r="D201" s="3" t="inlineStr">
-        <is>
-          <t>A communication behaviour in which information is transmitted without being encoded in the meaning units of any language.</t>
-        </is>
-      </c>
-      <c r="E201" s="3" t="inlineStr"/>
-      <c r="F201" s="3" t="inlineStr"/>
-      <c r="G201" s="3" t="inlineStr"/>
-      <c r="H201" s="3" t="inlineStr">
-        <is>
-          <t>Communicating through bodily gestures, through pictograms and through sound (e.g. a siren going off communicates information about the presence of danger without the use of language)</t>
-        </is>
-      </c>
-      <c r="I201" s="3" t="inlineStr"/>
-      <c r="J201" s="3" t="inlineStr"/>
-      <c r="K201" s="3" t="inlineStr"/>
-      <c r="L201" s="3" t="inlineStr"/>
-      <c r="M201" s="3" t="inlineStr"/>
-      <c r="N201" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O201" s="3" t="inlineStr"/>
-      <c r="P201" s="3" t="inlineStr"/>
+      <c r="O201" s="2" t="inlineStr"/>
+      <c r="P201" s="2" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006095</t>
+          <t>BCIO:050238</t>
         </is>
       </c>
       <c r="B202" s="3" t="inlineStr">
         <is>
-          <t>normative behaviour</t>
+          <t>non-linguistic communication behaviour</t>
         </is>
       </c>
       <c r="C202" s="3" t="inlineStr">
         <is>
-          <t>individual human behaviour</t>
+          <t>communication behaviour</t>
         </is>
       </c>
       <c r="D202" s="3" t="inlineStr">
         <is>
-          <t>An individual human behaviour that is commonly enacted by people that are part of a social environmental system.</t>
+          <t>A communication behaviour in which information is transmitted without being encoded in the meaning units of any language.</t>
         </is>
       </c>
       <c r="E202" s="3" t="inlineStr"/>
       <c r="F202" s="3" t="inlineStr"/>
       <c r="G202" s="3" t="inlineStr"/>
-      <c r="H202" s="3" t="inlineStr"/>
-      <c r="I202" s="3" t="inlineStr">
-        <is>
-          <t>Normative behaviour can be an MoA or outcome depending on how 'normative behaviour' is described in an intervention. The Behaviour Change-Intervention Ontology includes the class 'outcome behaviour' (definition: Human behavior that is an intervention outcome.), which would not be an MoA. When an intervention targets a normative behaviour to achieve an outcome behaviour, the former qualifies as an MoA.</t>
-        </is>
-      </c>
+      <c r="H202" s="3" t="inlineStr">
+        <is>
+          <t>Communicating through bodily gestures, through pictograms and through sound (e.g. a siren going off communicates information about the presence of danger without the use of language)</t>
+        </is>
+      </c>
+      <c r="I202" s="3" t="inlineStr"/>
       <c r="J202" s="3" t="inlineStr"/>
       <c r="K202" s="3" t="inlineStr"/>
       <c r="L202" s="3" t="inlineStr"/>
@@ -8694,22 +8690,22 @@
     <row r="203">
       <c r="A203" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006042</t>
+          <t>BCIO:006095</t>
         </is>
       </c>
       <c r="B203" s="3" t="inlineStr">
         <is>
-          <t>normative belief</t>
+          <t>normative behaviour</t>
         </is>
       </c>
       <c r="C203" s="3" t="inlineStr">
         <is>
-          <t>perceived norm</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="D203" s="3" t="inlineStr">
         <is>
-          <t>A belief about whether key others think one should perform a behaviour.</t>
+          <t>An individual human behaviour that is commonly enacted by people that are part of a social environmental system.</t>
         </is>
       </c>
       <c r="E203" s="3" t="inlineStr"/>
@@ -8718,7 +8714,7 @@
       <c r="H203" s="3" t="inlineStr"/>
       <c r="I203" s="3" t="inlineStr">
         <is>
-          <t>'Key others' can include 'people in one’s social network’</t>
+          <t>Normative behaviour can be an MoA or outcome depending on how 'normative behaviour' is described in an intervention. The Behaviour Change-Intervention Ontology includes the class 'outcome behaviour' (definition: Human behavior that is an intervention outcome.), which would not be an MoA. When an intervention targets a normative behaviour to achieve an outcome behaviour, the former qualifies as an MoA.</t>
         </is>
       </c>
       <c r="J203" s="3" t="inlineStr"/>
@@ -8734,111 +8730,115 @@
       <c r="P203" s="3" t="inlineStr"/>
     </row>
     <row r="204">
-      <c r="A204" t="inlineStr">
+      <c r="A204" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006042</t>
+        </is>
+      </c>
+      <c r="B204" s="3" t="inlineStr">
+        <is>
+          <t>normative belief</t>
+        </is>
+      </c>
+      <c r="C204" s="3" t="inlineStr">
+        <is>
+          <t>perceived norm</t>
+        </is>
+      </c>
+      <c r="D204" s="3" t="inlineStr">
+        <is>
+          <t>A belief about whether key others think one should perform a behaviour.</t>
+        </is>
+      </c>
+      <c r="E204" s="3" t="inlineStr"/>
+      <c r="F204" s="3" t="inlineStr"/>
+      <c r="G204" s="3" t="inlineStr"/>
+      <c r="H204" s="3" t="inlineStr"/>
+      <c r="I204" s="3" t="inlineStr">
+        <is>
+          <t>'Key others' can include 'people in one’s social network’</t>
+        </is>
+      </c>
+      <c r="J204" s="3" t="inlineStr"/>
+      <c r="K204" s="3" t="inlineStr"/>
+      <c r="L204" s="3" t="inlineStr"/>
+      <c r="M204" s="3" t="inlineStr"/>
+      <c r="N204" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O204" s="3" t="inlineStr"/>
+      <c r="P204" s="3" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
         <is>
           <t>GO:0098597</t>
         </is>
       </c>
-      <c r="B204" t="inlineStr">
+      <c r="B205" t="inlineStr">
         <is>
           <t>observational learning</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
+      <c r="C205" t="inlineStr">
         <is>
           <t>learning</t>
         </is>
       </c>
-      <c r="D204" t="inlineStr">
+      <c r="D205" t="inlineStr">
         <is>
           <t>Learning that occurs through observing the behaviour of others.</t>
         </is>
       </c>
-      <c r="E204" t="inlineStr"/>
-      <c r="F204" t="inlineStr"/>
-      <c r="G204" t="inlineStr"/>
-      <c r="H204" t="inlineStr"/>
-      <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="inlineStr"/>
-      <c r="N204" t="inlineStr">
+      <c r="E205" t="inlineStr"/>
+      <c r="F205" t="inlineStr"/>
+      <c r="G205" t="inlineStr"/>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="O204" t="inlineStr"/>
-      <c r="P204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:015430</t>
-        </is>
-      </c>
-      <c r="B205" s="3" t="inlineStr">
-        <is>
-          <t>occupational role</t>
-        </is>
-      </c>
-      <c r="C205" s="3" t="inlineStr">
-        <is>
-          <t>personal role</t>
-        </is>
-      </c>
-      <c r="D205" s="3" t="inlineStr">
-        <is>
-          <t>A role that is realised in a person by doing a specified type of work or working in a specified way.</t>
-        </is>
-      </c>
-      <c r="E205" s="3" t="inlineStr"/>
-      <c r="F205" s="3" t="inlineStr"/>
-      <c r="G205" s="3" t="inlineStr"/>
-      <c r="H205" s="3" t="inlineStr"/>
-      <c r="I205" s="3" t="inlineStr">
-        <is>
-          <t>A role can be assigned without being realised. A person realises a role by doing something.</t>
-        </is>
-      </c>
-      <c r="J205" s="3" t="inlineStr"/>
-      <c r="K205" s="3" t="inlineStr"/>
-      <c r="L205" s="3" t="inlineStr"/>
-      <c r="M205" s="3" t="inlineStr"/>
-      <c r="N205" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O205" s="3" t="inlineStr"/>
-      <c r="P205" s="3" t="inlineStr"/>
+      <c r="O205" t="inlineStr"/>
+      <c r="P205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006125</t>
+          <t>BCIO:015430</t>
         </is>
       </c>
       <c r="B206" s="3" t="inlineStr">
         <is>
-          <t>operant conditioning</t>
+          <t>occupational role</t>
         </is>
       </c>
       <c r="C206" s="3" t="inlineStr">
         <is>
-          <t>associative learning</t>
+          <t>personal role</t>
         </is>
       </c>
       <c r="D206" s="3" t="inlineStr">
         <is>
-          <t>Associative learning process in which the likelihood of a particular behavioural response is influenced by the past consequences associated with performing that behaviour.</t>
+          <t>A role that is realised in a person by doing a specified type of work or working in a specified way.</t>
         </is>
       </c>
       <c r="E206" s="3" t="inlineStr"/>
       <c r="F206" s="3" t="inlineStr"/>
       <c r="G206" s="3" t="inlineStr"/>
       <c r="H206" s="3" t="inlineStr"/>
-      <c r="I206" s="3" t="inlineStr"/>
+      <c r="I206" s="3" t="inlineStr">
+        <is>
+          <t>A role can be assigned without being realised. A person realises a role by doing something.</t>
+        </is>
+      </c>
       <c r="J206" s="3" t="inlineStr"/>
       <c r="K206" s="3" t="inlineStr"/>
       <c r="L206" s="3" t="inlineStr"/>
@@ -8852,94 +8852,94 @@
       <c r="P206" s="3" t="inlineStr"/>
     </row>
     <row r="207">
-      <c r="A207" t="inlineStr">
+      <c r="A207" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006125</t>
+        </is>
+      </c>
+      <c r="B207" s="3" t="inlineStr">
+        <is>
+          <t>operant conditioning</t>
+        </is>
+      </c>
+      <c r="C207" s="3" t="inlineStr">
+        <is>
+          <t>associative learning</t>
+        </is>
+      </c>
+      <c r="D207" s="3" t="inlineStr">
+        <is>
+          <t>Associative learning process in which the likelihood of a particular behavioural response is influenced by the past consequences associated with performing that behaviour.</t>
+        </is>
+      </c>
+      <c r="E207" s="3" t="inlineStr"/>
+      <c r="F207" s="3" t="inlineStr"/>
+      <c r="G207" s="3" t="inlineStr"/>
+      <c r="H207" s="3" t="inlineStr"/>
+      <c r="I207" s="3" t="inlineStr"/>
+      <c r="J207" s="3" t="inlineStr"/>
+      <c r="K207" s="3" t="inlineStr"/>
+      <c r="L207" s="3" t="inlineStr"/>
+      <c r="M207" s="3" t="inlineStr"/>
+      <c r="N207" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O207" s="3" t="inlineStr"/>
+      <c r="P207" s="3" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
         <is>
           <t>MFOEM:000203</t>
         </is>
       </c>
-      <c r="B207" t="inlineStr">
+      <c r="B208" t="inlineStr">
         <is>
           <t>pain</t>
         </is>
       </c>
-      <c r="C207" t="inlineStr">
+      <c r="C208" t="inlineStr">
         <is>
           <t>subjective affective feeling</t>
         </is>
       </c>
-      <c r="D207" t="inlineStr">
+      <c r="D208" t="inlineStr">
         <is>
           <t>A subjective affective feeling in an organism S, involving two integrated levels: (a) activation of the nociceptive system and associated emotion generating brain components of S, and (b) a simultaneous aversive sensory and emotional experience on the part of S, where (b) is phenomenologically similar to the sort of aversive experience involved in pain with concordant tissue damage.</t>
         </is>
       </c>
-      <c r="E207" t="inlineStr"/>
-      <c r="F207" t="inlineStr">
+      <c r="E208" t="inlineStr"/>
+      <c r="F208" t="inlineStr">
         <is>
           <t>An unpleasant experience typically associated with tissue damage.</t>
         </is>
       </c>
-      <c r="G207" t="inlineStr"/>
-      <c r="H207" t="inlineStr"/>
-      <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
-      <c r="M207" t="inlineStr"/>
-      <c r="N207" t="inlineStr">
+      <c r="G208" t="inlineStr"/>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="O207" t="inlineStr"/>
-      <c r="P207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006040</t>
-        </is>
-      </c>
-      <c r="B208" s="3" t="inlineStr">
-        <is>
-          <t>perceived descriptive norm</t>
-        </is>
-      </c>
-      <c r="C208" s="3" t="inlineStr">
-        <is>
-          <t>perceived norm</t>
-        </is>
-      </c>
-      <c r="D208" s="3" t="inlineStr">
-        <is>
-          <t>A belief about the prevalence of performance of a given behaviour by people within a group.</t>
-        </is>
-      </c>
-      <c r="E208" s="3" t="inlineStr"/>
-      <c r="F208" s="3" t="inlineStr"/>
-      <c r="G208" s="3" t="inlineStr"/>
-      <c r="H208" s="3" t="inlineStr"/>
-      <c r="I208" s="3" t="inlineStr"/>
-      <c r="J208" s="3" t="inlineStr"/>
-      <c r="K208" s="3" t="inlineStr"/>
-      <c r="L208" s="3" t="inlineStr"/>
-      <c r="M208" s="3" t="inlineStr"/>
-      <c r="N208" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O208" s="3" t="inlineStr"/>
-      <c r="P208" s="3" t="inlineStr"/>
+      <c r="O208" t="inlineStr"/>
+      <c r="P208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006041</t>
+          <t>BCIO:006040</t>
         </is>
       </c>
       <c r="B209" s="3" t="inlineStr">
         <is>
-          <t>perceived injunctive norm</t>
+          <t>perceived descriptive norm</t>
         </is>
       </c>
       <c r="C209" s="3" t="inlineStr">
@@ -8949,7 +8949,7 @@
       </c>
       <c r="D209" s="3" t="inlineStr">
         <is>
-          <t>A belief about whether a behaviour is appropriate and correct for people who belong to a particular group.</t>
+          <t>A belief about the prevalence of performance of a given behaviour by people within a group.</t>
         </is>
       </c>
       <c r="E209" s="3" t="inlineStr"/>
@@ -8972,37 +8972,29 @@
     <row r="210">
       <c r="A210" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006039</t>
+          <t>BCIO:006041</t>
         </is>
       </c>
       <c r="B210" s="3" t="inlineStr">
         <is>
+          <t>perceived injunctive norm</t>
+        </is>
+      </c>
+      <c r="C210" s="3" t="inlineStr">
+        <is>
           <t>perceived norm</t>
         </is>
       </c>
-      <c r="C210" s="3" t="inlineStr">
-        <is>
-          <t>belief</t>
-        </is>
-      </c>
       <c r="D210" s="3" t="inlineStr">
         <is>
-          <t>A belief about what is typical for people who belong to a particular group.</t>
+          <t>A belief about whether a behaviour is appropriate and correct for people who belong to a particular group.</t>
         </is>
       </c>
       <c r="E210" s="3" t="inlineStr"/>
       <c r="F210" s="3" t="inlineStr"/>
-      <c r="G210" s="3" t="inlineStr">
-        <is>
-          <t>belief about norm</t>
-        </is>
-      </c>
+      <c r="G210" s="3" t="inlineStr"/>
       <c r="H210" s="3" t="inlineStr"/>
-      <c r="I210" s="3" t="inlineStr">
-        <is>
-          <t>A person does not need to belong to a group to have a perception of their norms. For instance, the perceived norm could be in a group one aspires to belong to, and so the person might attempt to conform to it in an attempt to be accepted as a member of that group.</t>
-        </is>
-      </c>
+      <c r="I210" s="3" t="inlineStr"/>
       <c r="J210" s="3" t="inlineStr"/>
       <c r="K210" s="3" t="inlineStr"/>
       <c r="L210" s="3" t="inlineStr"/>
@@ -9016,214 +9008,222 @@
       <c r="P210" s="3" t="inlineStr"/>
     </row>
     <row r="211">
-      <c r="A211" t="inlineStr">
+      <c r="A211" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006039</t>
+        </is>
+      </c>
+      <c r="B211" s="3" t="inlineStr">
+        <is>
+          <t>perceived norm</t>
+        </is>
+      </c>
+      <c r="C211" s="3" t="inlineStr">
+        <is>
+          <t>belief</t>
+        </is>
+      </c>
+      <c r="D211" s="3" t="inlineStr">
+        <is>
+          <t>A belief about what is typical for people who belong to a particular group.</t>
+        </is>
+      </c>
+      <c r="E211" s="3" t="inlineStr"/>
+      <c r="F211" s="3" t="inlineStr"/>
+      <c r="G211" s="3" t="inlineStr">
+        <is>
+          <t>belief about norm</t>
+        </is>
+      </c>
+      <c r="H211" s="3" t="inlineStr"/>
+      <c r="I211" s="3" t="inlineStr">
+        <is>
+          <t>A person does not need to belong to a group to have a perception of their norms. For instance, the perceived norm could be in a group one aspires to belong to, and so the person might attempt to conform to it in an attempt to be accepted as a member of that group.</t>
+        </is>
+      </c>
+      <c r="J211" s="3" t="inlineStr"/>
+      <c r="K211" s="3" t="inlineStr"/>
+      <c r="L211" s="3" t="inlineStr"/>
+      <c r="M211" s="3" t="inlineStr"/>
+      <c r="N211" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O211" s="3" t="inlineStr"/>
+      <c r="P211" s="3" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
         <is>
           <t>MF:0000019</t>
         </is>
       </c>
-      <c r="B211" t="inlineStr">
+      <c r="B212" t="inlineStr">
         <is>
           <t>perception</t>
         </is>
       </c>
-      <c r="C211" t="inlineStr">
+      <c r="C212" t="inlineStr">
         <is>
           <t>mental process</t>
         </is>
       </c>
-      <c r="D211" t="inlineStr">
+      <c r="D212" t="inlineStr">
         <is>
           <t>A mental process which is a) produced by a causal process involving a part of the environment of the organism, and b) is experienced by the organism as being so caused, and c) in which the relevant part of the environment is thereby represented to the organism.</t>
         </is>
       </c>
-      <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr">
+      <c r="E212" t="inlineStr"/>
+      <c r="F212" t="inlineStr">
         <is>
           <t>A sensory experience involving a part of a person's environment.</t>
         </is>
       </c>
-      <c r="G211" t="inlineStr"/>
-      <c r="H211" t="inlineStr"/>
-      <c r="I211" t="inlineStr">
+      <c r="G212" t="inlineStr"/>
+      <c r="H212" t="inlineStr"/>
+      <c r="I212" t="inlineStr">
         <is>
           <t>Examples for 'causal processes involving a part of the environment of an organism' that can be perceived are light rays and air vibrations.
 'Perception' is about perceiving stimuli in one's environment in the MoA Ontology. However, the term 'perception' is sometimes used to refer to things defined as 'belief' in the MoA Ontology.</t>
         </is>
       </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
-      <c r="M211" t="inlineStr"/>
-      <c r="N211" t="inlineStr">
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="O211" t="inlineStr"/>
-      <c r="P211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="4" t="inlineStr">
+      <c r="O212" t="inlineStr"/>
+      <c r="P212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" s="4" t="inlineStr">
         <is>
           <t>BCIO:050300</t>
         </is>
       </c>
-      <c r="B212" s="4" t="inlineStr">
+      <c r="B213" s="4" t="inlineStr">
         <is>
           <t>personal attribute</t>
         </is>
       </c>
-      <c r="C212" s="4" t="inlineStr">
+      <c r="C213" s="4" t="inlineStr">
         <is>
           <t>specifically dependent continuant</t>
         </is>
       </c>
-      <c r="D212" s="4" t="inlineStr">
+      <c r="D213" s="4" t="inlineStr">
         <is>
           <t>A specifically dependent continuant that inheres in a person.</t>
         </is>
       </c>
-      <c r="E212" s="4" t="inlineStr"/>
-      <c r="F212" s="4" t="inlineStr">
+      <c r="E213" s="4" t="inlineStr"/>
+      <c r="F213" s="4" t="inlineStr">
         <is>
           <t>A characteristic of a person such as age, intelligence, socioeconomic status, height and job.</t>
         </is>
       </c>
-      <c r="G212" s="4" t="inlineStr"/>
-      <c r="H212" s="4" t="inlineStr"/>
-      <c r="I212" s="4" t="inlineStr">
+      <c r="G213" s="4" t="inlineStr"/>
+      <c r="H213" s="4" t="inlineStr"/>
+      <c r="I213" s="4" t="inlineStr">
         <is>
           <t>Includes everything that can be said about a person: the most general class under which all other qualities, dispositions, roles etc belong.</t>
         </is>
       </c>
-      <c r="J212" s="4" t="inlineStr"/>
-      <c r="K212" s="4" t="inlineStr"/>
-      <c r="L212" s="4" t="inlineStr"/>
-      <c r="M212" s="4" t="inlineStr">
+      <c r="J213" s="4" t="inlineStr"/>
+      <c r="K213" s="4" t="inlineStr"/>
+      <c r="L213" s="4" t="inlineStr"/>
+      <c r="M213" s="4" t="inlineStr">
         <is>
           <t>The population ontology individuals branch defines many personal attributes</t>
         </is>
       </c>
-      <c r="N212" s="4" t="inlineStr">
+      <c r="N213" s="4" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="O212" s="4" t="inlineStr"/>
-      <c r="P212" s="4" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
+      <c r="O213" s="4" t="inlineStr"/>
+      <c r="P213" s="4" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
         <is>
           <t xml:space="preserve">MF:0000043 </t>
         </is>
       </c>
-      <c r="B213" t="inlineStr">
+      <c r="B214" t="inlineStr">
         <is>
           <t>personal capability</t>
         </is>
       </c>
-      <c r="C213" t="inlineStr">
+      <c r="C214" t="inlineStr">
         <is>
           <t>bodily disposition</t>
         </is>
       </c>
-      <c r="D213" t="inlineStr">
+      <c r="D214" t="inlineStr">
         <is>
           <t>A bodily disposition whose realization ordinarily brings benefits to an organism or group of organisms, where "ordinarily" means within a typical  range or context.</t>
         </is>
       </c>
-      <c r="E213" t="inlineStr"/>
-      <c r="F213" t="inlineStr">
+      <c r="E214" t="inlineStr"/>
+      <c r="F214" t="inlineStr">
         <is>
           <t>The ability of someone to perform some useful and/or beneficial activity.</t>
         </is>
       </c>
-      <c r="G213" t="inlineStr"/>
-      <c r="H213" t="inlineStr"/>
-      <c r="I213" t="inlineStr">
+      <c r="G214" t="inlineStr"/>
+      <c r="H214" t="inlineStr"/>
+      <c r="I214" t="inlineStr">
         <is>
           <t>The phrase 'ordinarily brings benefits to an organism or group of organism' is used to explain that capabilities normally provide a benefit. 
 For instance, having a musical ability is ordinarily an ability that is positive for a person (e.g., they receive positive feedback about their ability). However, in certain exceptional cases (e.g., a neighbour becoming annoyed with a person playing the piano and expressing this annoyance), the ability might not bring benefits.</t>
         </is>
       </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="inlineStr"/>
-      <c r="N213" t="inlineStr">
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="inlineStr"/>
+      <c r="N214" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="O213" t="inlineStr"/>
-      <c r="P213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="4" t="inlineStr">
-        <is>
-          <t>BCIO:050301</t>
-        </is>
-      </c>
-      <c r="B214" s="4" t="inlineStr">
-        <is>
-          <t>personal disposition</t>
-        </is>
-      </c>
-      <c r="C214" s="4" t="inlineStr">
-        <is>
-          <t>disposition</t>
-        </is>
-      </c>
-      <c r="D214" s="4" t="inlineStr">
-        <is>
-          <t>A disposition that inheres in a person.</t>
-        </is>
-      </c>
-      <c r="E214" s="4" t="inlineStr"/>
-      <c r="F214" s="4" t="inlineStr">
-        <is>
-          <t>A characteristic of a person such as intelligence and personality that causes them to think feel or act in a particular way in a particular situation.</t>
-        </is>
-      </c>
-      <c r="G214" s="4" t="inlineStr"/>
-      <c r="H214" s="4" t="inlineStr"/>
-      <c r="I214" s="4" t="inlineStr"/>
-      <c r="J214" s="4" t="inlineStr"/>
-      <c r="K214" s="4" t="inlineStr"/>
-      <c r="L214" s="4" t="inlineStr"/>
-      <c r="M214" s="4" t="inlineStr"/>
-      <c r="N214" s="4" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="O214" s="4" t="inlineStr"/>
-      <c r="P214" s="4" t="inlineStr"/>
+      <c r="O214" t="inlineStr"/>
+      <c r="P214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="4" t="inlineStr">
         <is>
-          <t>BCIO:050302</t>
+          <t>BCIO:050301</t>
         </is>
       </c>
       <c r="B215" s="4" t="inlineStr">
         <is>
-          <t>personal life attribute</t>
+          <t>personal disposition</t>
         </is>
       </c>
       <c r="C215" s="4" t="inlineStr">
         <is>
-          <t>process attribute</t>
+          <t>disposition</t>
         </is>
       </c>
       <c r="D215" s="4" t="inlineStr">
         <is>
-          <t>A process attribute that is an attribute of a life process.</t>
+          <t>A disposition that inheres in a person.</t>
         </is>
       </c>
       <c r="E215" s="4" t="inlineStr"/>
-      <c r="F215" s="4" t="inlineStr"/>
+      <c r="F215" s="4" t="inlineStr">
+        <is>
+          <t>A characteristic of a person such as intelligence and personality that causes them to think feel or act in a particular way in a particular situation.</t>
+        </is>
+      </c>
       <c r="G215" s="4" t="inlineStr"/>
       <c r="H215" s="4" t="inlineStr"/>
       <c r="I215" s="4" t="inlineStr"/>
@@ -9242,22 +9242,22 @@
     <row r="216">
       <c r="A216" s="4" t="inlineStr">
         <is>
-          <t>BCIO:050303</t>
+          <t>BCIO:050302</t>
         </is>
       </c>
       <c r="B216" s="4" t="inlineStr">
         <is>
-          <t>personal quality</t>
+          <t>personal life attribute</t>
         </is>
       </c>
       <c r="C216" s="4" t="inlineStr">
         <is>
-          <t>quality</t>
+          <t>process attribute</t>
         </is>
       </c>
       <c r="D216" s="4" t="inlineStr">
         <is>
-          <t>A quality that inheres in a person.</t>
+          <t>A process attribute that is an attribute of a life process.</t>
         </is>
       </c>
       <c r="E216" s="4" t="inlineStr"/>
@@ -9278,77 +9278,77 @@
       <c r="P216" s="4" t="inlineStr"/>
     </row>
     <row r="217">
-      <c r="A217" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006081</t>
-        </is>
-      </c>
-      <c r="B217" s="3" t="inlineStr">
-        <is>
-          <t>personal role</t>
-        </is>
-      </c>
-      <c r="C217" s="3" t="inlineStr">
-        <is>
-          <t>role</t>
-        </is>
-      </c>
-      <c r="D217" s="3" t="inlineStr">
-        <is>
-          <t>A role that inheres in a human being by virtue of their social and institutional circumstances.</t>
-        </is>
-      </c>
-      <c r="E217" s="3" t="inlineStr"/>
-      <c r="F217" s="3" t="inlineStr">
-        <is>
-          <t>A role that someone has within an organisation or social grouping.</t>
-        </is>
-      </c>
-      <c r="G217" s="3" t="inlineStr"/>
-      <c r="H217" s="3" t="inlineStr"/>
-      <c r="I217" s="3" t="inlineStr">
-        <is>
-          <t>A role can be assigned without being realised. A person realises a role by doing something.</t>
-        </is>
-      </c>
-      <c r="J217" s="3" t="inlineStr"/>
-      <c r="K217" s="3" t="inlineStr"/>
-      <c r="L217" s="3" t="inlineStr"/>
-      <c r="M217" s="3" t="inlineStr"/>
-      <c r="N217" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O217" s="3" t="inlineStr"/>
-      <c r="P217" s="3" t="inlineStr"/>
+      <c r="A217" s="4" t="inlineStr">
+        <is>
+          <t>BCIO:050303</t>
+        </is>
+      </c>
+      <c r="B217" s="4" t="inlineStr">
+        <is>
+          <t>personal quality</t>
+        </is>
+      </c>
+      <c r="C217" s="4" t="inlineStr">
+        <is>
+          <t>quality</t>
+        </is>
+      </c>
+      <c r="D217" s="4" t="inlineStr">
+        <is>
+          <t>A quality that inheres in a person.</t>
+        </is>
+      </c>
+      <c r="E217" s="4" t="inlineStr"/>
+      <c r="F217" s="4" t="inlineStr"/>
+      <c r="G217" s="4" t="inlineStr"/>
+      <c r="H217" s="4" t="inlineStr"/>
+      <c r="I217" s="4" t="inlineStr"/>
+      <c r="J217" s="4" t="inlineStr"/>
+      <c r="K217" s="4" t="inlineStr"/>
+      <c r="L217" s="4" t="inlineStr"/>
+      <c r="M217" s="4" t="inlineStr"/>
+      <c r="N217" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="O217" s="4" t="inlineStr"/>
+      <c r="P217" s="4" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006063</t>
+          <t>BCIO:006081</t>
         </is>
       </c>
       <c r="B218" s="3" t="inlineStr">
         <is>
-          <t>personal value</t>
+          <t>personal role</t>
         </is>
       </c>
       <c r="C218" s="3" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>role</t>
         </is>
       </c>
       <c r="D218" s="3" t="inlineStr">
         <is>
-          <t>A mental disposition to regard certain things as fundamentally important in life, which informs standards for behaviour.</t>
+          <t>A role that inheres in a human being by virtue of their social and institutional circumstances.</t>
         </is>
       </c>
       <c r="E218" s="3" t="inlineStr"/>
-      <c r="F218" s="3" t="inlineStr"/>
+      <c r="F218" s="3" t="inlineStr">
+        <is>
+          <t>A role that someone has within an organisation or social grouping.</t>
+        </is>
+      </c>
       <c r="G218" s="3" t="inlineStr"/>
       <c r="H218" s="3" t="inlineStr"/>
-      <c r="I218" s="3" t="inlineStr"/>
+      <c r="I218" s="3" t="inlineStr">
+        <is>
+          <t>A role can be assigned without being realised. A person realises a role by doing something.</t>
+        </is>
+      </c>
       <c r="J218" s="3" t="inlineStr"/>
       <c r="K218" s="3" t="inlineStr"/>
       <c r="L218" s="3" t="inlineStr"/>
@@ -9364,22 +9364,22 @@
     <row r="219">
       <c r="A219" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006009</t>
+          <t>BCIO:006063</t>
         </is>
       </c>
       <c r="B219" s="3" t="inlineStr">
         <is>
-          <t>physical behavioural capability</t>
+          <t>personal value</t>
         </is>
       </c>
       <c r="C219" s="3" t="inlineStr">
         <is>
-          <t>behavioural capability</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D219" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">A behavioural capability that involves a musculoskeletal process in its realisation. </t>
+          <t>A mental disposition to regard certain things as fundamentally important in life, which informs standards for behaviour.</t>
         </is>
       </c>
       <c r="E219" s="3" t="inlineStr"/>
@@ -9402,37 +9402,29 @@
     <row r="220">
       <c r="A220" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006089</t>
+          <t>BCIO:006009</t>
         </is>
       </c>
       <c r="B220" s="3" t="inlineStr">
         <is>
-          <t>physical behavioural opportunity</t>
+          <t>physical behavioural capability</t>
         </is>
       </c>
       <c r="C220" s="3" t="inlineStr">
         <is>
-          <t>behavioural opportunity</t>
+          <t>behavioural capability</t>
         </is>
       </c>
       <c r="D220" s="3" t="inlineStr">
         <is>
-          <t>A behavioural opportunity that involves time and parts of the environmental system that do not involve people or organisations.</t>
+          <t xml:space="preserve">A behavioural capability that involves a musculoskeletal process in its realisation. </t>
         </is>
       </c>
       <c r="E220" s="3" t="inlineStr"/>
-      <c r="F220" s="3" t="inlineStr">
-        <is>
-          <t>Properties of a person's environment that involve the objects in their environment, the space they inhabit, the time available or the material resources available to them and influence the person's ability to enact a behaviour.</t>
-        </is>
-      </c>
+      <c r="F220" s="3" t="inlineStr"/>
       <c r="G220" s="3" t="inlineStr"/>
       <c r="H220" s="3" t="inlineStr"/>
-      <c r="I220" s="3" t="inlineStr">
-        <is>
-          <t>A 'behavioural opportunity' is a feature of the environmental system. While the class 'environmental system' is about what is found in an environment, the behavioural opportunity is a feature of the environment which interacts with the person and enables or prevents a behaviour.</t>
-        </is>
-      </c>
+      <c r="I220" s="3" t="inlineStr"/>
       <c r="J220" s="3" t="inlineStr"/>
       <c r="K220" s="3" t="inlineStr"/>
       <c r="L220" s="3" t="inlineStr"/>
@@ -9448,29 +9440,37 @@
     <row r="221">
       <c r="A221" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006010</t>
+          <t>BCIO:006089</t>
         </is>
       </c>
       <c r="B221" s="3" t="inlineStr">
         <is>
-          <t>physical skill</t>
+          <t>physical behavioural opportunity</t>
         </is>
       </c>
       <c r="C221" s="3" t="inlineStr">
         <is>
-          <t>physical behavioural capability</t>
+          <t>behavioural opportunity</t>
         </is>
       </c>
       <c r="D221" s="3" t="inlineStr">
         <is>
-          <t>A physical capability acquired through training or practice.</t>
+          <t>A behavioural opportunity that involves time and parts of the environmental system that do not involve people or organisations.</t>
         </is>
       </c>
       <c r="E221" s="3" t="inlineStr"/>
-      <c r="F221" s="3" t="inlineStr"/>
+      <c r="F221" s="3" t="inlineStr">
+        <is>
+          <t>Properties of a person's environment that involve the objects in their environment, the space they inhabit, the time available or the material resources available to them and influence the person's ability to enact a behaviour.</t>
+        </is>
+      </c>
       <c r="G221" s="3" t="inlineStr"/>
       <c r="H221" s="3" t="inlineStr"/>
-      <c r="I221" s="3" t="inlineStr"/>
+      <c r="I221" s="3" t="inlineStr">
+        <is>
+          <t>A 'behavioural opportunity' is a feature of the environmental system. While the class 'environmental system' is about what is found in an environment, the behavioural opportunity is a feature of the environment which interacts with the person and enables or prevents a behaviour.</t>
+        </is>
+      </c>
       <c r="J221" s="3" t="inlineStr"/>
       <c r="K221" s="3" t="inlineStr"/>
       <c r="L221" s="3" t="inlineStr"/>
@@ -9484,157 +9484,153 @@
       <c r="P221" s="3" t="inlineStr"/>
     </row>
     <row r="222">
-      <c r="A222" t="inlineStr">
+      <c r="A222" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006010</t>
+        </is>
+      </c>
+      <c r="B222" s="3" t="inlineStr">
+        <is>
+          <t>physical skill</t>
+        </is>
+      </c>
+      <c r="C222" s="3" t="inlineStr">
+        <is>
+          <t>physical behavioural capability</t>
+        </is>
+      </c>
+      <c r="D222" s="3" t="inlineStr">
+        <is>
+          <t>A physical capability acquired through training or practice.</t>
+        </is>
+      </c>
+      <c r="E222" s="3" t="inlineStr"/>
+      <c r="F222" s="3" t="inlineStr"/>
+      <c r="G222" s="3" t="inlineStr"/>
+      <c r="H222" s="3" t="inlineStr"/>
+      <c r="I222" s="3" t="inlineStr"/>
+      <c r="J222" s="3" t="inlineStr"/>
+      <c r="K222" s="3" t="inlineStr"/>
+      <c r="L222" s="3" t="inlineStr"/>
+      <c r="M222" s="3" t="inlineStr"/>
+      <c r="N222" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O222" s="3" t="inlineStr"/>
+      <c r="P222" s="3" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
         <is>
           <t xml:space="preserve">MFOEM:000003 </t>
         </is>
       </c>
-      <c r="B222" t="inlineStr">
+      <c r="B223" t="inlineStr">
         <is>
           <t>physiological process involved in an emotion</t>
         </is>
       </c>
-      <c r="C222" t="inlineStr">
+      <c r="C223" t="inlineStr">
         <is>
           <t>bodily process</t>
         </is>
       </c>
-      <c r="D222" t="inlineStr">
+      <c r="D223" t="inlineStr">
         <is>
           <t>A bodily process that encompasses all the neurophysiological changes accompanying an emotion, which take place in the central nervous system (CNS), neuro-endocrine system (NES) and autonomous nervous system (ANS).</t>
         </is>
       </c>
-      <c r="E222" t="inlineStr"/>
-      <c r="F222" t="inlineStr">
+      <c r="E223" t="inlineStr"/>
+      <c r="F223" t="inlineStr">
         <is>
           <t>A process that occurs in a person's body when they are experiencing an emotion.</t>
         </is>
       </c>
-      <c r="G222" t="inlineStr"/>
-      <c r="H222" t="inlineStr"/>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="inlineStr"/>
-      <c r="N222" t="inlineStr">
+      <c r="G223" t="inlineStr"/>
+      <c r="H223" t="inlineStr"/>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="inlineStr"/>
+      <c r="N223" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="O222" t="inlineStr"/>
-      <c r="P222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="3" t="inlineStr">
+      <c r="O223" t="inlineStr"/>
+      <c r="P223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" s="3" t="inlineStr">
         <is>
           <t>BCIO:006102</t>
         </is>
       </c>
-      <c r="B223" s="3" t="inlineStr">
+      <c r="B224" s="3" t="inlineStr">
         <is>
           <t>plan enactment</t>
         </is>
       </c>
-      <c r="C223" s="3" t="inlineStr">
+      <c r="C224" s="3" t="inlineStr">
         <is>
           <t>bodily process</t>
         </is>
       </c>
-      <c r="D223" s="3" t="inlineStr">
+      <c r="D224" s="3" t="inlineStr">
         <is>
           <t>A bodily process by which a person attempts to follow the steps in a plan.</t>
         </is>
       </c>
-      <c r="E223" s="3" t="inlineStr"/>
-      <c r="F223" s="3" t="inlineStr"/>
-      <c r="G223" s="3" t="inlineStr"/>
-      <c r="H223" s="3" t="inlineStr"/>
-      <c r="I223" s="3" t="inlineStr"/>
-      <c r="J223" s="3" t="inlineStr"/>
-      <c r="K223" s="3" t="inlineStr"/>
-      <c r="L223" s="3" t="inlineStr"/>
-      <c r="M223" s="3" t="inlineStr"/>
-      <c r="N223" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O223" s="3" t="inlineStr"/>
-      <c r="P223" s="3" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>MF:0000027</t>
-        </is>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>planning</t>
-        </is>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D224" t="inlineStr">
-        <is>
-          <t>A mental process that involves mentally manipulating representations of steps in an imagined process which has some goal.</t>
-        </is>
-      </c>
-      <c r="E224" t="inlineStr"/>
-      <c r="F224" t="inlineStr"/>
-      <c r="G224" t="inlineStr"/>
-      <c r="H224" t="inlineStr"/>
-      <c r="I224" t="inlineStr">
-        <is>
-          <t>The outcome of this mental process is a mental plan which has the potential to be followed to bring about the desired outcome.</t>
-        </is>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="inlineStr"/>
-      <c r="N224" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="O224" t="inlineStr"/>
-      <c r="P224" t="inlineStr"/>
+      <c r="E224" s="3" t="inlineStr"/>
+      <c r="F224" s="3" t="inlineStr"/>
+      <c r="G224" s="3" t="inlineStr"/>
+      <c r="H224" s="3" t="inlineStr"/>
+      <c r="I224" s="3" t="inlineStr"/>
+      <c r="J224" s="3" t="inlineStr"/>
+      <c r="K224" s="3" t="inlineStr"/>
+      <c r="L224" s="3" t="inlineStr"/>
+      <c r="M224" s="3" t="inlineStr"/>
+      <c r="N224" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O224" s="3" t="inlineStr"/>
+      <c r="P224" s="3" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>MFOEM:000035</t>
+          <t>MF:0000027</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>pleasure</t>
+          <t>planning</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>emotion process</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>A positive emotion which is sought out and is associated with happiness and satisfaction.</t>
+          <t>A mental process that involves mentally manipulating representations of steps in an imagined process which has some goal.</t>
         </is>
       </c>
       <c r="E225" t="inlineStr"/>
       <c r="F225" t="inlineStr"/>
-      <c r="G225" t="inlineStr">
-        <is>
-          <t>enjoyment</t>
-        </is>
-      </c>
+      <c r="G225" t="inlineStr"/>
       <c r="H225" t="inlineStr"/>
-      <c r="I225" t="inlineStr"/>
+      <c r="I225" t="inlineStr">
+        <is>
+          <t>The outcome of this mental process is a mental plan which has the potential to be followed to bring about the desired outcome.</t>
+        </is>
+      </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr"/>
@@ -9648,146 +9644,150 @@
       <c r="P225" t="inlineStr"/>
     </row>
     <row r="226">
-      <c r="A226" s="3" t="inlineStr">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>MFOEM:000035</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>pleasure</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>emotion process</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>A positive emotion which is sought out and is associated with happiness and satisfaction.</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr"/>
+      <c r="F226" t="inlineStr"/>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>enjoyment</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr"/>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
+      <c r="M226" t="inlineStr"/>
+      <c r="N226" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="O226" t="inlineStr"/>
+      <c r="P226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" s="3" t="inlineStr">
         <is>
           <t>BCIO:006159</t>
         </is>
       </c>
-      <c r="B226" s="3" t="inlineStr">
+      <c r="B227" s="3" t="inlineStr">
         <is>
           <t>pleasure associated with behaviour</t>
         </is>
       </c>
-      <c r="C226" s="3" t="inlineStr">
+      <c r="C227" s="3" t="inlineStr">
         <is>
           <t>pleasure</t>
         </is>
       </c>
-      <c r="D226" s="3" t="inlineStr">
+      <c r="D227" s="3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pleasure that is experienced as a result of engaging in a behaviour. </t>
         </is>
       </c>
-      <c r="E226" s="3" t="inlineStr"/>
-      <c r="F226" s="3" t="inlineStr"/>
-      <c r="G226" s="3" t="inlineStr">
+      <c r="E227" s="3" t="inlineStr"/>
+      <c r="F227" s="3" t="inlineStr"/>
+      <c r="G227" s="3" t="inlineStr">
         <is>
           <t>Enjoyment of behaviour</t>
         </is>
       </c>
-      <c r="H226" s="3" t="inlineStr"/>
-      <c r="I226" s="3" t="inlineStr"/>
-      <c r="J226" s="3" t="inlineStr"/>
-      <c r="K226" s="3" t="inlineStr"/>
-      <c r="L226" s="3" t="inlineStr"/>
-      <c r="M226" s="3" t="inlineStr"/>
-      <c r="N226" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O226" s="3" t="inlineStr"/>
-      <c r="P226" s="3" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" t="inlineStr">
+      <c r="H227" s="3" t="inlineStr"/>
+      <c r="I227" s="3" t="inlineStr"/>
+      <c r="J227" s="3" t="inlineStr"/>
+      <c r="K227" s="3" t="inlineStr"/>
+      <c r="L227" s="3" t="inlineStr"/>
+      <c r="M227" s="3" t="inlineStr"/>
+      <c r="N227" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O227" s="3" t="inlineStr"/>
+      <c r="P227" s="3" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
         <is>
           <t>MFOEM:000209</t>
         </is>
       </c>
-      <c r="B227" t="inlineStr">
+      <c r="B228" t="inlineStr">
         <is>
           <t>positive surprise</t>
         </is>
       </c>
-      <c r="C227" t="inlineStr">
+      <c r="C228" t="inlineStr">
         <is>
           <t>surprise</t>
         </is>
       </c>
-      <c r="D227" t="inlineStr">
+      <c r="D228" t="inlineStr">
         <is>
           <t>Surprise with a positive valence.</t>
         </is>
       </c>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr">
+      <c r="E228" t="inlineStr"/>
+      <c r="F228" t="inlineStr"/>
+      <c r="G228" t="inlineStr">
         <is>
           <t>wonder; astonishment</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr"/>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
-      <c r="M227" t="inlineStr"/>
-      <c r="N227" t="inlineStr">
+      <c r="H228" t="inlineStr"/>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
+      <c r="M228" t="inlineStr"/>
+      <c r="N228" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="O227" t="inlineStr"/>
-      <c r="P227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006061</t>
-        </is>
-      </c>
-      <c r="B228" s="3" t="inlineStr">
-        <is>
-          <t>prevention focused motivational orientation</t>
-        </is>
-      </c>
-      <c r="C228" s="3" t="inlineStr">
-        <is>
-          <t>motivational orientation towards types of outcomes</t>
-        </is>
-      </c>
-      <c r="D228" s="3" t="inlineStr">
-        <is>
-          <t>A mental disposition for motivation to be guided by a focus on the presence or absence of positive outcomes.</t>
-        </is>
-      </c>
-      <c r="E228" s="3" t="inlineStr"/>
-      <c r="F228" s="3" t="inlineStr"/>
-      <c r="G228" s="3" t="inlineStr"/>
-      <c r="H228" s="3" t="inlineStr"/>
-      <c r="I228" s="3" t="inlineStr"/>
-      <c r="J228" s="3" t="inlineStr"/>
-      <c r="K228" s="3" t="inlineStr"/>
-      <c r="L228" s="3" t="inlineStr"/>
-      <c r="M228" s="3" t="inlineStr"/>
-      <c r="N228" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O228" s="3" t="inlineStr"/>
-      <c r="P228" s="3" t="inlineStr"/>
+      <c r="O228" t="inlineStr"/>
+      <c r="P228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006129</t>
+          <t>BCIO:006061</t>
         </is>
       </c>
       <c r="B229" s="3" t="inlineStr">
         <is>
-          <t>procedural memory</t>
+          <t>prevention focused motivational orientation</t>
         </is>
       </c>
       <c r="C229" s="3" t="inlineStr">
         <is>
-          <t>memory</t>
+          <t>motivational orientation towards types of outcomes</t>
         </is>
       </c>
       <c r="D229" s="3" t="inlineStr">
         <is>
-          <t>A memory process that deals with the receipt, storage, retrieval and modification of information regarding how to perform a complex activity without conscious awareness.</t>
+          <t>A mental disposition for motivation to be guided by a focus on the presence or absence of positive outcomes.</t>
         </is>
       </c>
       <c r="E229" s="3" t="inlineStr"/>
@@ -9808,62 +9808,62 @@
       <c r="P229" s="3" t="inlineStr"/>
     </row>
     <row r="230">
-      <c r="A230" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050229</t>
-        </is>
-      </c>
-      <c r="B230" s="2" t="inlineStr">
-        <is>
-          <t>professional identity</t>
-        </is>
-      </c>
-      <c r="C230" s="2" t="inlineStr">
-        <is>
-          <t>self-identity</t>
-        </is>
-      </c>
-      <c r="D230" s="2" t="inlineStr">
-        <is>
-          <t>A self-identity that is associated with one's occupational role.</t>
-        </is>
-      </c>
-      <c r="E230" s="2" t="inlineStr"/>
-      <c r="F230" s="2" t="inlineStr"/>
-      <c r="G230" s="2" t="inlineStr"/>
-      <c r="H230" s="2" t="inlineStr"/>
-      <c r="I230" s="2" t="inlineStr"/>
-      <c r="J230" s="2" t="inlineStr"/>
-      <c r="K230" s="2" t="inlineStr"/>
-      <c r="L230" s="2" t="inlineStr"/>
-      <c r="M230" s="2" t="inlineStr"/>
-      <c r="N230" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="O230" s="2" t="inlineStr"/>
-      <c r="P230" s="2" t="inlineStr"/>
+      <c r="A230" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006129</t>
+        </is>
+      </c>
+      <c r="B230" s="3" t="inlineStr">
+        <is>
+          <t>procedural memory</t>
+        </is>
+      </c>
+      <c r="C230" s="3" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="D230" s="3" t="inlineStr">
+        <is>
+          <t>A memory process that deals with the receipt, storage, retrieval and modification of information regarding how to perform a complex activity without conscious awareness.</t>
+        </is>
+      </c>
+      <c r="E230" s="3" t="inlineStr"/>
+      <c r="F230" s="3" t="inlineStr"/>
+      <c r="G230" s="3" t="inlineStr"/>
+      <c r="H230" s="3" t="inlineStr"/>
+      <c r="I230" s="3" t="inlineStr"/>
+      <c r="J230" s="3" t="inlineStr"/>
+      <c r="K230" s="3" t="inlineStr"/>
+      <c r="L230" s="3" t="inlineStr"/>
+      <c r="M230" s="3" t="inlineStr"/>
+      <c r="N230" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O230" s="3" t="inlineStr"/>
+      <c r="P230" s="3" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050213</t>
+          <t>BCIO:050229</t>
         </is>
       </c>
       <c r="B231" s="2" t="inlineStr">
         <is>
-          <t>professional network</t>
+          <t>professional identity</t>
         </is>
       </c>
       <c r="C231" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> social environmental system</t>
+          <t>self-identity</t>
         </is>
       </c>
       <c r="D231" s="2" t="inlineStr">
         <is>
-          <t>A social environmental system that consists of persons who have shared interests relating to their occupational roles and are in contact or communication.</t>
+          <t>A self-identity that is associated with one's occupational role.</t>
         </is>
       </c>
       <c r="E231" s="2" t="inlineStr"/>
@@ -9884,73 +9884,69 @@
       <c r="P231" s="2" t="inlineStr"/>
     </row>
     <row r="232">
-      <c r="A232" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006062</t>
-        </is>
-      </c>
-      <c r="B232" s="3" t="inlineStr">
-        <is>
-          <t>promotion focused motivational orientation</t>
-        </is>
-      </c>
-      <c r="C232" s="3" t="inlineStr">
-        <is>
-          <t>motivational orientation towards types of outcomes</t>
-        </is>
-      </c>
-      <c r="D232" s="3" t="inlineStr">
-        <is>
-          <t>A mental disposition for motivation to be guided by a focus on the presence or absence of negative outcomes.</t>
-        </is>
-      </c>
-      <c r="E232" s="3" t="inlineStr"/>
-      <c r="F232" s="3" t="inlineStr"/>
-      <c r="G232" s="3" t="inlineStr"/>
-      <c r="H232" s="3" t="inlineStr"/>
-      <c r="I232" s="3" t="inlineStr"/>
-      <c r="J232" s="3" t="inlineStr"/>
-      <c r="K232" s="3" t="inlineStr"/>
-      <c r="L232" s="3" t="inlineStr"/>
-      <c r="M232" s="3" t="inlineStr"/>
-      <c r="N232" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O232" s="3" t="inlineStr"/>
-      <c r="P232" s="3" t="inlineStr"/>
+      <c r="A232" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050213</t>
+        </is>
+      </c>
+      <c r="B232" s="2" t="inlineStr">
+        <is>
+          <t>professional network</t>
+        </is>
+      </c>
+      <c r="C232" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> social environmental system</t>
+        </is>
+      </c>
+      <c r="D232" s="2" t="inlineStr">
+        <is>
+          <t>A social environmental system that consists of persons who have shared interests relating to their occupational roles and are in contact or communication.</t>
+        </is>
+      </c>
+      <c r="E232" s="2" t="inlineStr"/>
+      <c r="F232" s="2" t="inlineStr"/>
+      <c r="G232" s="2" t="inlineStr"/>
+      <c r="H232" s="2" t="inlineStr"/>
+      <c r="I232" s="2" t="inlineStr"/>
+      <c r="J232" s="2" t="inlineStr"/>
+      <c r="K232" s="2" t="inlineStr"/>
+      <c r="L232" s="2" t="inlineStr"/>
+      <c r="M232" s="2" t="inlineStr"/>
+      <c r="N232" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="O232" s="2" t="inlineStr"/>
+      <c r="P232" s="2" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006064</t>
+          <t>BCIO:006062</t>
         </is>
       </c>
       <c r="B233" s="3" t="inlineStr">
         <is>
-          <t>psychological need</t>
+          <t>promotion focused motivational orientation</t>
         </is>
       </c>
       <c r="C233" s="3" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>motivational orientation towards types of outcomes</t>
         </is>
       </c>
       <c r="D233" s="3" t="inlineStr">
         <is>
-          <t>A mental disposition of a person to act to obtain or maintain a particular state due to this state’s importance to the person’s wellbeing.</t>
+          <t>A mental disposition for motivation to be guided by a focus on the presence or absence of negative outcomes.</t>
         </is>
       </c>
       <c r="E233" s="3" t="inlineStr"/>
       <c r="F233" s="3" t="inlineStr"/>
       <c r="G233" s="3" t="inlineStr"/>
       <c r="H233" s="3" t="inlineStr"/>
-      <c r="I233" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Psychological needs can be satisfied or thwarted. </t>
-        </is>
-      </c>
+      <c r="I233" s="3" t="inlineStr"/>
       <c r="J233" s="3" t="inlineStr"/>
       <c r="K233" s="3" t="inlineStr"/>
       <c r="L233" s="3" t="inlineStr"/>
@@ -9964,242 +9960,246 @@
       <c r="P233" s="3" t="inlineStr"/>
     </row>
     <row r="234">
-      <c r="A234" s="4" t="inlineStr">
+      <c r="A234" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006064</t>
+        </is>
+      </c>
+      <c r="B234" s="3" t="inlineStr">
+        <is>
+          <t>psychological need</t>
+        </is>
+      </c>
+      <c r="C234" s="3" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="D234" s="3" t="inlineStr">
+        <is>
+          <t>A mental disposition of a person to act to obtain or maintain a particular state due to this state’s importance to the person’s wellbeing.</t>
+        </is>
+      </c>
+      <c r="E234" s="3" t="inlineStr"/>
+      <c r="F234" s="3" t="inlineStr"/>
+      <c r="G234" s="3" t="inlineStr"/>
+      <c r="H234" s="3" t="inlineStr"/>
+      <c r="I234" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Psychological needs can be satisfied or thwarted. </t>
+        </is>
+      </c>
+      <c r="J234" s="3" t="inlineStr"/>
+      <c r="K234" s="3" t="inlineStr"/>
+      <c r="L234" s="3" t="inlineStr"/>
+      <c r="M234" s="3" t="inlineStr"/>
+      <c r="N234" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O234" s="3" t="inlineStr"/>
+      <c r="P234" s="3" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="4" t="inlineStr">
         <is>
           <t>PATO:0000001</t>
         </is>
       </c>
-      <c r="B234" s="4" t="inlineStr">
+      <c r="B235" s="4" t="inlineStr">
         <is>
           <t>quality</t>
         </is>
       </c>
-      <c r="C234" s="4" t="inlineStr">
+      <c r="C235" s="4" t="inlineStr">
         <is>
           <t>specifically dependent continuant</t>
         </is>
       </c>
-      <c r="D234" s="4" t="inlineStr">
+      <c r="D235" s="4" t="inlineStr">
         <is>
           <t>A dependent entity that inheres in a bearer by virtue of how the bearer is related to other entities.</t>
         </is>
       </c>
-      <c r="E234" s="4" t="inlineStr"/>
-      <c r="F234" s="4" t="inlineStr"/>
-      <c r="G234" s="4" t="inlineStr"/>
-      <c r="H234" s="4" t="inlineStr"/>
-      <c r="I234" s="4" t="inlineStr"/>
-      <c r="J234" s="4" t="inlineStr"/>
-      <c r="K234" s="4" t="inlineStr"/>
-      <c r="L234" s="4" t="inlineStr"/>
-      <c r="M234" s="4" t="inlineStr"/>
-      <c r="N234" s="4" t="inlineStr">
+      <c r="E235" s="4" t="inlineStr"/>
+      <c r="F235" s="4" t="inlineStr"/>
+      <c r="G235" s="4" t="inlineStr"/>
+      <c r="H235" s="4" t="inlineStr"/>
+      <c r="I235" s="4" t="inlineStr"/>
+      <c r="J235" s="4" t="inlineStr"/>
+      <c r="K235" s="4" t="inlineStr"/>
+      <c r="L235" s="4" t="inlineStr"/>
+      <c r="M235" s="4" t="inlineStr"/>
+      <c r="N235" s="4" t="inlineStr">
         <is>
           <t>Obsolete</t>
         </is>
       </c>
-      <c r="O234" s="4" t="inlineStr"/>
-      <c r="P234" s="4" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="3" t="inlineStr">
+      <c r="O235" s="4" t="inlineStr"/>
+      <c r="P235" s="4" t="inlineStr"/>
+    </row>
+    <row r="236">
+      <c r="A236" s="3" t="inlineStr">
         <is>
           <t>BCIO:006112</t>
         </is>
       </c>
-      <c r="B235" s="3" t="inlineStr">
+      <c r="B236" s="3" t="inlineStr">
         <is>
           <t>reflective thinking</t>
         </is>
       </c>
-      <c r="C235" s="3" t="inlineStr">
+      <c r="C236" s="3" t="inlineStr">
         <is>
           <t>thinking</t>
         </is>
       </c>
-      <c r="D235" s="3" t="inlineStr">
+      <c r="D236" s="3" t="inlineStr">
         <is>
           <t>Thinking that involves the generation of inferences by reasoning based on one or more statements, evaluating anticipated consequences or considering the relationships between concepts.</t>
         </is>
       </c>
-      <c r="E235" s="3" t="inlineStr"/>
-      <c r="F235" s="3" t="inlineStr"/>
-      <c r="G235" s="3" t="inlineStr"/>
-      <c r="H235" s="3" t="inlineStr"/>
-      <c r="I235" s="3" t="inlineStr"/>
-      <c r="J235" s="3" t="inlineStr"/>
-      <c r="K235" s="3" t="inlineStr"/>
-      <c r="L235" s="3" t="inlineStr"/>
-      <c r="M235" s="3" t="inlineStr"/>
-      <c r="N235" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O235" s="3" t="inlineStr"/>
-      <c r="P235" s="3" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="2" t="inlineStr">
+      <c r="E236" s="3" t="inlineStr"/>
+      <c r="F236" s="3" t="inlineStr"/>
+      <c r="G236" s="3" t="inlineStr"/>
+      <c r="H236" s="3" t="inlineStr"/>
+      <c r="I236" s="3" t="inlineStr"/>
+      <c r="J236" s="3" t="inlineStr"/>
+      <c r="K236" s="3" t="inlineStr"/>
+      <c r="L236" s="3" t="inlineStr"/>
+      <c r="M236" s="3" t="inlineStr"/>
+      <c r="N236" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O236" s="3" t="inlineStr"/>
+      <c r="P236" s="3" t="inlineStr"/>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="inlineStr">
         <is>
           <t>BCIO:050232</t>
         </is>
       </c>
-      <c r="B236" s="2" t="inlineStr">
+      <c r="B237" s="2" t="inlineStr">
         <is>
           <t>regret</t>
         </is>
       </c>
-      <c r="C236" s="2" t="inlineStr">
+      <c r="C237" s="2" t="inlineStr">
         <is>
           <t>emotion process</t>
         </is>
       </c>
-      <c r="D236" s="2" t="inlineStr">
+      <c r="D237" s="2" t="inlineStr">
         <is>
           <t>A negative emotion that occurs when a person wishes they chose or acted differently in the past, due to the consequences of that choice or action being unfavourable.</t>
         </is>
       </c>
-      <c r="E236" s="2" t="inlineStr"/>
-      <c r="F236" s="2" t="inlineStr"/>
-      <c r="G236" s="2" t="inlineStr"/>
-      <c r="H236" s="2" t="inlineStr"/>
-      <c r="I236" s="2" t="inlineStr"/>
-      <c r="J236" s="2" t="inlineStr"/>
-      <c r="K236" s="2" t="inlineStr"/>
-      <c r="L236" s="2" t="inlineStr"/>
-      <c r="M236" s="2" t="inlineStr"/>
-      <c r="N236" s="2" t="inlineStr">
+      <c r="E237" s="2" t="inlineStr"/>
+      <c r="F237" s="2" t="inlineStr"/>
+      <c r="G237" s="2" t="inlineStr"/>
+      <c r="H237" s="2" t="inlineStr"/>
+      <c r="I237" s="2" t="inlineStr"/>
+      <c r="J237" s="2" t="inlineStr"/>
+      <c r="K237" s="2" t="inlineStr"/>
+      <c r="L237" s="2" t="inlineStr"/>
+      <c r="M237" s="2" t="inlineStr"/>
+      <c r="N237" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="O236" s="2" t="inlineStr"/>
-      <c r="P236" s="2" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" t="inlineStr">
+      <c r="O237" s="2" t="inlineStr"/>
+      <c r="P237" s="2" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
         <is>
           <t>MF:0000030</t>
         </is>
       </c>
-      <c r="B237" t="inlineStr">
+      <c r="B238" t="inlineStr">
         <is>
           <t>representation</t>
         </is>
       </c>
-      <c r="C237" t="inlineStr">
+      <c r="C238" t="inlineStr">
         <is>
           <t>specifically dependent continuant</t>
         </is>
       </c>
-      <c r="D237" t="inlineStr">
+      <c r="D238" t="inlineStr">
         <is>
           <t>A dependent continuant which is about a portion of reality.</t>
         </is>
       </c>
-      <c r="E237" t="inlineStr"/>
-      <c r="F237" t="inlineStr"/>
-      <c r="G237" t="inlineStr"/>
-      <c r="H237" t="inlineStr"/>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
-      <c r="M237" t="inlineStr"/>
-      <c r="N237" t="inlineStr">
+      <c r="E238" t="inlineStr"/>
+      <c r="F238" t="inlineStr"/>
+      <c r="G238" t="inlineStr"/>
+      <c r="H238" t="inlineStr"/>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
+      <c r="M238" t="inlineStr"/>
+      <c r="N238" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="O237" t="inlineStr"/>
-      <c r="P237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="2" t="inlineStr">
+      <c r="O238" t="inlineStr"/>
+      <c r="P238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="inlineStr">
         <is>
           <t>BCIO:050266</t>
         </is>
       </c>
-      <c r="B238" s="2" t="inlineStr">
+      <c r="B239" s="2" t="inlineStr">
         <is>
           <t>ruminating</t>
         </is>
       </c>
-      <c r="C238" s="2" t="inlineStr">
+      <c r="C239" s="2" t="inlineStr">
         <is>
           <t>thinking</t>
         </is>
       </c>
-      <c r="D238" s="2" t="inlineStr">
+      <c r="D239" s="2" t="inlineStr">
         <is>
           <t>Thinking that is about negative experiences and feelings, and repeated.</t>
         </is>
       </c>
-      <c r="E238" s="2" t="inlineStr"/>
-      <c r="F238" s="2" t="inlineStr"/>
-      <c r="G238" s="2" t="inlineStr"/>
-      <c r="H238" s="2" t="inlineStr"/>
-      <c r="I238" s="2" t="inlineStr"/>
-      <c r="J238" s="2" t="inlineStr"/>
-      <c r="K238" s="2" t="inlineStr"/>
-      <c r="L238" s="2" t="inlineStr"/>
-      <c r="M238" s="2" t="inlineStr"/>
-      <c r="N238" s="2" t="inlineStr">
+      <c r="E239" s="2" t="inlineStr"/>
+      <c r="F239" s="2" t="inlineStr"/>
+      <c r="G239" s="2" t="inlineStr"/>
+      <c r="H239" s="2" t="inlineStr"/>
+      <c r="I239" s="2" t="inlineStr"/>
+      <c r="J239" s="2" t="inlineStr"/>
+      <c r="K239" s="2" t="inlineStr"/>
+      <c r="L239" s="2" t="inlineStr"/>
+      <c r="M239" s="2" t="inlineStr"/>
+      <c r="N239" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="O238" s="2" t="inlineStr"/>
-      <c r="P238" s="2" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MFOEM:000056 </t>
-        </is>
-      </c>
-      <c r="B239" t="inlineStr">
-        <is>
-          <t>sadness</t>
-        </is>
-      </c>
-      <c r="C239" t="inlineStr">
-        <is>
-          <t>emotion process</t>
-        </is>
-      </c>
-      <c r="D239" t="inlineStr">
-        <is>
-          <t>A negative emotion felt when an event is appraised as unpleasant and resulting in loss or failure.</t>
-        </is>
-      </c>
-      <c r="E239" t="inlineStr"/>
-      <c r="F239" t="inlineStr"/>
-      <c r="G239" t="inlineStr"/>
-      <c r="H239" t="inlineStr"/>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
-      <c r="M239" t="inlineStr"/>
-      <c r="N239" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="O239" t="inlineStr"/>
-      <c r="P239" t="inlineStr"/>
+      <c r="O239" s="2" t="inlineStr"/>
+      <c r="P239" s="2" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>MFOEM:000169</t>
+          <t xml:space="preserve">MFOEM:000056 </t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>satisfaction</t>
+          <t>sadness</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -10209,7 +10209,7 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>An emotion that is experienced when one's wishes, expectations or needs are fulfilled.</t>
+          <t>A negative emotion felt when an event is appraised as unpleasant and resulting in loss or failure.</t>
         </is>
       </c>
       <c r="E240" t="inlineStr"/>
@@ -10230,99 +10230,94 @@
       <c r="P240" t="inlineStr"/>
     </row>
     <row r="241">
-      <c r="A241" s="2" t="inlineStr">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>MFOEM:000169</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>satisfaction</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>emotion process</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>An emotion that is experienced when one's wishes, expectations or needs are fulfilled.</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr"/>
+      <c r="F241" t="inlineStr"/>
+      <c r="G241" t="inlineStr"/>
+      <c r="H241" t="inlineStr"/>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
+      <c r="M241" t="inlineStr"/>
+      <c r="N241" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="O241" t="inlineStr"/>
+      <c r="P241" t="inlineStr"/>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="inlineStr">
         <is>
           <t>BCIO:050236</t>
         </is>
       </c>
-      <c r="B241" s="2" t="inlineStr">
+      <c r="B242" s="2" t="inlineStr">
         <is>
           <t>self-binding</t>
         </is>
       </c>
-      <c r="C241" s="2" t="inlineStr">
+      <c r="C242" s="2" t="inlineStr">
         <is>
           <t>mental process</t>
         </is>
       </c>
-      <c r="D241" s="2" t="inlineStr">
+      <c r="D242" s="2" t="inlineStr">
         <is>
           <t>A mental process that involves creating adverse consequences for oneself if one does not stick to an intended course of action.</t>
         </is>
       </c>
-      <c r="E241" s="2" t="inlineStr"/>
-      <c r="F241" s="2" t="inlineStr"/>
-      <c r="G241" s="2" t="inlineStr">
+      <c r="E242" s="2" t="inlineStr"/>
+      <c r="F242" s="2" t="inlineStr"/>
+      <c r="G242" s="2" t="inlineStr">
         <is>
           <t>Pre-commitment</t>
         </is>
       </c>
-      <c r="H241" s="2" t="inlineStr"/>
-      <c r="I241" s="2" t="inlineStr"/>
-      <c r="J241" s="2" t="inlineStr"/>
-      <c r="K241" s="2" t="inlineStr"/>
-      <c r="L241" s="2" t="inlineStr"/>
-      <c r="M241" s="2" t="inlineStr"/>
-      <c r="N241" s="2" t="inlineStr">
+      <c r="H242" s="2" t="inlineStr"/>
+      <c r="I242" s="2" t="inlineStr"/>
+      <c r="J242" s="2" t="inlineStr"/>
+      <c r="K242" s="2" t="inlineStr"/>
+      <c r="L242" s="2" t="inlineStr"/>
+      <c r="M242" s="2" t="inlineStr"/>
+      <c r="N242" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="O241" s="2" t="inlineStr"/>
-      <c r="P241" s="2" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006154</t>
-        </is>
-      </c>
-      <c r="B242" s="3" t="inlineStr">
-        <is>
-          <t>self-efficacy belief for a behaviour</t>
-        </is>
-      </c>
-      <c r="C242" s="3" t="inlineStr">
-        <is>
-          <t>belief</t>
-        </is>
-      </c>
-      <c r="D242" s="3" t="inlineStr">
-        <is>
-          <t>A belief about one's capabilities to organise and execute a behaviour.</t>
-        </is>
-      </c>
-      <c r="E242" s="3" t="inlineStr"/>
-      <c r="F242" s="3" t="inlineStr"/>
-      <c r="G242" s="3" t="inlineStr"/>
-      <c r="H242" s="3" t="inlineStr"/>
-      <c r="I242" s="3" t="inlineStr">
-        <is>
-          <t>The phrase 'to organise' refers to the ability to organise mental processes and sequences of actions.
-'self-efficacy belief for a behaviour' is part of 'self-efficacy belief for a behaviour and its associated outcomes'. However, the latter also includes a belief about the outcomes associated with behaviour.</t>
-        </is>
-      </c>
-      <c r="J242" s="3" t="inlineStr"/>
-      <c r="K242" s="3" t="inlineStr"/>
-      <c r="L242" s="3" t="inlineStr"/>
-      <c r="M242" s="3" t="inlineStr"/>
-      <c r="N242" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O242" s="3" t="inlineStr"/>
-      <c r="P242" s="3" t="inlineStr"/>
+      <c r="O242" s="2" t="inlineStr"/>
+      <c r="P242" s="2" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006043</t>
+          <t>BCIO:006154</t>
         </is>
       </c>
       <c r="B243" s="3" t="inlineStr">
         <is>
-          <t>self-efficacy belief for a behaviour and its associated outcomes</t>
+          <t>self-efficacy belief for a behaviour</t>
         </is>
       </c>
       <c r="C243" s="3" t="inlineStr">
@@ -10332,7 +10327,7 @@
       </c>
       <c r="D243" s="3" t="inlineStr">
         <is>
-          <t>A belief about one's capabilities to organise and execute a behaviour and achieve the outcomes associated with this behaviour.</t>
+          <t>A belief about one's capabilities to organise and execute a behaviour.</t>
         </is>
       </c>
       <c r="E243" s="3" t="inlineStr"/>
@@ -10346,11 +10341,7 @@
         </is>
       </c>
       <c r="J243" s="3" t="inlineStr"/>
-      <c r="K243" s="3" t="inlineStr">
-        <is>
-          <t>self-efficacy belief for a behaviour</t>
-        </is>
-      </c>
+      <c r="K243" s="3" t="inlineStr"/>
       <c r="L243" s="3" t="inlineStr"/>
       <c r="M243" s="3" t="inlineStr"/>
       <c r="N243" s="3" t="inlineStr">
@@ -10362,106 +10353,109 @@
       <c r="P243" s="3" t="inlineStr"/>
     </row>
     <row r="244">
-      <c r="A244" t="inlineStr">
+      <c r="A244" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006043</t>
+        </is>
+      </c>
+      <c r="B244" s="3" t="inlineStr">
+        <is>
+          <t>self-efficacy belief for a behaviour and its associated outcomes</t>
+        </is>
+      </c>
+      <c r="C244" s="3" t="inlineStr">
+        <is>
+          <t>belief</t>
+        </is>
+      </c>
+      <c r="D244" s="3" t="inlineStr">
+        <is>
+          <t>A belief about one's capabilities to organise and execute a behaviour and achieve the outcomes associated with this behaviour.</t>
+        </is>
+      </c>
+      <c r="E244" s="3" t="inlineStr"/>
+      <c r="F244" s="3" t="inlineStr"/>
+      <c r="G244" s="3" t="inlineStr"/>
+      <c r="H244" s="3" t="inlineStr"/>
+      <c r="I244" s="3" t="inlineStr">
+        <is>
+          <t>The phrase 'to organise' refers to the ability to organise mental processes and sequences of actions.
+'self-efficacy belief for a behaviour' is part of 'self-efficacy belief for a behaviour and its associated outcomes'. However, the latter also includes a belief about the outcomes associated with behaviour.</t>
+        </is>
+      </c>
+      <c r="J244" s="3" t="inlineStr"/>
+      <c r="K244" s="3" t="inlineStr">
+        <is>
+          <t>self-efficacy belief for a behaviour</t>
+        </is>
+      </c>
+      <c r="L244" s="3" t="inlineStr"/>
+      <c r="M244" s="3" t="inlineStr"/>
+      <c r="N244" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O244" s="3" t="inlineStr"/>
+      <c r="P244" s="3" t="inlineStr"/>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
         <is>
           <t>ADDICTO:0000399</t>
         </is>
       </c>
-      <c r="B244" t="inlineStr">
+      <c r="B245" t="inlineStr">
         <is>
           <t>self-identity</t>
         </is>
       </c>
-      <c r="C244" t="inlineStr">
+      <c r="C245" t="inlineStr">
         <is>
           <t>identity</t>
         </is>
       </c>
-      <c r="D244" t="inlineStr">
+      <c r="D245" t="inlineStr">
         <is>
           <t>An identity that a person has about themselves.</t>
         </is>
       </c>
-      <c r="E244" t="inlineStr"/>
-      <c r="F244" t="inlineStr"/>
-      <c r="G244" t="inlineStr"/>
-      <c r="H244" t="inlineStr"/>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
-      <c r="M244" t="inlineStr"/>
-      <c r="N244" t="inlineStr">
+      <c r="E245" t="inlineStr"/>
+      <c r="F245" t="inlineStr"/>
+      <c r="G245" t="inlineStr"/>
+      <c r="H245" t="inlineStr"/>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
+      <c r="M245" t="inlineStr"/>
+      <c r="N245" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="O244" t="inlineStr"/>
-      <c r="P244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006137</t>
-        </is>
-      </c>
-      <c r="B245" s="3" t="inlineStr">
-        <is>
-          <t>self-monitoring</t>
-        </is>
-      </c>
-      <c r="C245" s="3" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D245" s="3" t="inlineStr">
-        <is>
-          <t>A mental process in which one observes one's own behaviour or mental processes.</t>
-        </is>
-      </c>
-      <c r="E245" s="3" t="inlineStr"/>
-      <c r="F245" s="3" t="inlineStr"/>
-      <c r="G245" s="3" t="inlineStr"/>
-      <c r="H245" s="3" t="inlineStr"/>
-      <c r="I245" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">There are behaviour change techniques labelled 'Self-monitoring of behaviour' and 'Self-monitoring of outcome of behaviour'. These are about establishing a method for monitoring states. In contrast, the MoA is the mental process of monitoring.
-'Self-monitoring of behaviour' is defined as 'Instruct self recording of specified behaviour/s (with or without associated thoughts, emotions, situations) as part of a behaviour change strategy ' (Michie et al., 2013).
-'Self-monitoring of outcome of behaviour' is defined "Establish a method for the person to monitor and record their behavior(s) as part of a behavior change strategy"  (Michie et al., 2013). </t>
-        </is>
-      </c>
-      <c r="J245" s="3" t="inlineStr"/>
-      <c r="K245" s="3" t="inlineStr"/>
-      <c r="L245" s="3" t="inlineStr"/>
-      <c r="M245" s="3" t="inlineStr"/>
-      <c r="N245" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O245" s="3" t="inlineStr"/>
-      <c r="P245" s="3" t="inlineStr"/>
+      <c r="O245" t="inlineStr"/>
+      <c r="P245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006005</t>
+          <t>BCIO:006137</t>
         </is>
       </c>
       <c r="B246" s="3" t="inlineStr">
         <is>
-          <t>self-regulation capability</t>
+          <t>self-monitoring</t>
         </is>
       </c>
       <c r="C246" s="3" t="inlineStr">
         <is>
-          <t>mental capability</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D246" s="3" t="inlineStr">
         <is>
-          <t>A mental capability that involves processes that modulate the frequency, rate or extent of a response to external or internal stimuli and that are instigated by the person themselves.</t>
+          <t>A mental process in which one observes one's own behaviour or mental processes.</t>
         </is>
       </c>
       <c r="E246" s="3" t="inlineStr"/>
@@ -10470,7 +10464,9 @@
       <c r="H246" s="3" t="inlineStr"/>
       <c r="I246" s="3" t="inlineStr">
         <is>
-          <t>'Modulate’ refers to ‘modifying or controlling influence on or change the strength’ and involves processes</t>
+          <t xml:space="preserve">There are behaviour change techniques labelled 'Self-monitoring of behaviour' and 'Self-monitoring of outcome of behaviour'. These are about establishing a method for monitoring states. In contrast, the MoA is the mental process of monitoring.
+'Self-monitoring of behaviour' is defined as 'Instruct self recording of specified behaviour/s (with or without associated thoughts, emotions, situations) as part of a behaviour change strategy ' (Michie et al., 2013).
+'Self-monitoring of outcome of behaviour' is defined "Establish a method for the person to monitor and record their behavior(s) as part of a behavior change strategy"  (Michie et al., 2013). </t>
         </is>
       </c>
       <c r="J246" s="3" t="inlineStr"/>
@@ -10488,29 +10484,33 @@
     <row r="247">
       <c r="A247" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006103</t>
+          <t>BCIO:006005</t>
         </is>
       </c>
       <c r="B247" s="3" t="inlineStr">
         <is>
-          <t>self-regulation of behaviour</t>
+          <t>self-regulation capability</t>
         </is>
       </c>
       <c r="C247" s="3" t="inlineStr">
         <is>
-          <t>self-regulation process</t>
+          <t>mental capability</t>
         </is>
       </c>
       <c r="D247" s="3" t="inlineStr">
         <is>
-          <t>A self-regulation process that modulates the frequency, rate or extent of one's  performance of a behaviour.</t>
+          <t>A mental capability that involves processes that modulate the frequency, rate or extent of a response to external or internal stimuli and that are instigated by the person themselves.</t>
         </is>
       </c>
       <c r="E247" s="3" t="inlineStr"/>
       <c r="F247" s="3" t="inlineStr"/>
       <c r="G247" s="3" t="inlineStr"/>
       <c r="H247" s="3" t="inlineStr"/>
-      <c r="I247" s="3" t="inlineStr"/>
+      <c r="I247" s="3" t="inlineStr">
+        <is>
+          <t>'Modulate’ refers to ‘modifying or controlling influence on or change the strength’ and involves processes</t>
+        </is>
+      </c>
       <c r="J247" s="3" t="inlineStr"/>
       <c r="K247" s="3" t="inlineStr"/>
       <c r="L247" s="3" t="inlineStr"/>
@@ -10524,62 +10524,62 @@
       <c r="P247" s="3" t="inlineStr"/>
     </row>
     <row r="248">
-      <c r="A248" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050268</t>
-        </is>
-      </c>
-      <c r="B248" s="2" t="inlineStr">
+      <c r="A248" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006103</t>
+        </is>
+      </c>
+      <c r="B248" s="3" t="inlineStr">
+        <is>
+          <t>self-regulation of behaviour</t>
+        </is>
+      </c>
+      <c r="C248" s="3" t="inlineStr">
         <is>
           <t>self-regulation process</t>
         </is>
       </c>
-      <c r="C248" s="2" t="inlineStr">
-        <is>
-          <t>bodily process</t>
-        </is>
-      </c>
-      <c r="D248" s="2" t="inlineStr">
-        <is>
-          <t>A bodily process that modulates the frequency, rate or extent of a response to external or internal stimuli and that is instigated by the person.</t>
-        </is>
-      </c>
-      <c r="E248" s="2" t="inlineStr"/>
-      <c r="F248" s="2" t="inlineStr"/>
-      <c r="G248" s="2" t="inlineStr"/>
-      <c r="H248" s="2" t="inlineStr"/>
-      <c r="I248" s="2" t="inlineStr"/>
-      <c r="J248" s="2" t="inlineStr"/>
-      <c r="K248" s="2" t="inlineStr"/>
-      <c r="L248" s="2" t="inlineStr"/>
-      <c r="M248" s="2" t="inlineStr"/>
-      <c r="N248" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="O248" s="2" t="inlineStr"/>
-      <c r="P248" s="2" t="inlineStr"/>
+      <c r="D248" s="3" t="inlineStr">
+        <is>
+          <t>A self-regulation process that modulates the frequency, rate or extent of one's  performance of a behaviour.</t>
+        </is>
+      </c>
+      <c r="E248" s="3" t="inlineStr"/>
+      <c r="F248" s="3" t="inlineStr"/>
+      <c r="G248" s="3" t="inlineStr"/>
+      <c r="H248" s="3" t="inlineStr"/>
+      <c r="I248" s="3" t="inlineStr"/>
+      <c r="J248" s="3" t="inlineStr"/>
+      <c r="K248" s="3" t="inlineStr"/>
+      <c r="L248" s="3" t="inlineStr"/>
+      <c r="M248" s="3" t="inlineStr"/>
+      <c r="N248" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O248" s="3" t="inlineStr"/>
+      <c r="P248" s="3" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050222</t>
+          <t>BCIO:050268</t>
         </is>
       </c>
       <c r="B249" s="2" t="inlineStr">
         <is>
-          <t>self-regulatory skill</t>
+          <t>self-regulation process</t>
         </is>
       </c>
       <c r="C249" s="2" t="inlineStr">
         <is>
-          <t>self-regulation capability</t>
+          <t>bodily process</t>
         </is>
       </c>
       <c r="D249" s="2" t="inlineStr">
         <is>
-          <t>A self-regulation capability that is acquired through training or practice.</t>
+          <t>A bodily process that modulates the frequency, rate or extent of a response to external or internal stimuli and that is instigated by the person.</t>
         </is>
       </c>
       <c r="E249" s="2" t="inlineStr"/>
@@ -10600,70 +10600,70 @@
       <c r="P249" s="2" t="inlineStr"/>
     </row>
     <row r="250">
-      <c r="A250" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006106</t>
-        </is>
-      </c>
-      <c r="B250" s="3" t="inlineStr">
-        <is>
-          <t>self-reinforcing self-regulation</t>
-        </is>
-      </c>
-      <c r="C250" s="3" t="inlineStr">
-        <is>
-          <t>self-regulation of behaviour</t>
-        </is>
-      </c>
-      <c r="D250" s="3" t="inlineStr">
-        <is>
-          <t>Self-regulation of behaviour through self-administering a reward for performing an intended behaviour.</t>
-        </is>
-      </c>
-      <c r="E250" s="3" t="inlineStr"/>
-      <c r="F250" s="3" t="inlineStr">
-        <is>
-          <t>A bodily process that modulates the frequency, rate or extent of behaviour through self-administering a reward for performing an intended behaviour.</t>
-        </is>
-      </c>
-      <c r="G250" s="3" t="inlineStr"/>
-      <c r="H250" s="3" t="inlineStr"/>
-      <c r="I250" s="3" t="inlineStr"/>
-      <c r="J250" s="3" t="inlineStr"/>
-      <c r="K250" s="3" t="inlineStr"/>
-      <c r="L250" s="3" t="inlineStr"/>
-      <c r="M250" s="3" t="inlineStr"/>
-      <c r="N250" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O250" s="3" t="inlineStr"/>
-      <c r="P250" s="3" t="inlineStr"/>
+      <c r="A250" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050222</t>
+        </is>
+      </c>
+      <c r="B250" s="2" t="inlineStr">
+        <is>
+          <t>self-regulatory skill</t>
+        </is>
+      </c>
+      <c r="C250" s="2" t="inlineStr">
+        <is>
+          <t>self-regulation capability</t>
+        </is>
+      </c>
+      <c r="D250" s="2" t="inlineStr">
+        <is>
+          <t>A self-regulation capability that is acquired through training or practice.</t>
+        </is>
+      </c>
+      <c r="E250" s="2" t="inlineStr"/>
+      <c r="F250" s="2" t="inlineStr"/>
+      <c r="G250" s="2" t="inlineStr"/>
+      <c r="H250" s="2" t="inlineStr"/>
+      <c r="I250" s="2" t="inlineStr"/>
+      <c r="J250" s="2" t="inlineStr"/>
+      <c r="K250" s="2" t="inlineStr"/>
+      <c r="L250" s="2" t="inlineStr"/>
+      <c r="M250" s="2" t="inlineStr"/>
+      <c r="N250" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="O250" s="2" t="inlineStr"/>
+      <c r="P250" s="2" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006128</t>
+          <t>BCIO:006106</t>
         </is>
       </c>
       <c r="B251" s="3" t="inlineStr">
         <is>
-          <t>semantic memory</t>
+          <t>self-reinforcing self-regulation</t>
         </is>
       </c>
       <c r="C251" s="3" t="inlineStr">
         <is>
-          <t>memory</t>
+          <t>self-regulation of behaviour</t>
         </is>
       </c>
       <c r="D251" s="3" t="inlineStr">
         <is>
-          <t>A memory process that deals with the receipt, storage, retrieval and modification of information associated with meanings, understandings or conceptual facts about the world.</t>
+          <t>Self-regulation of behaviour through self-administering a reward for performing an intended behaviour.</t>
         </is>
       </c>
       <c r="E251" s="3" t="inlineStr"/>
-      <c r="F251" s="3" t="inlineStr"/>
+      <c r="F251" s="3" t="inlineStr">
+        <is>
+          <t>A bodily process that modulates the frequency, rate or extent of behaviour through self-administering a reward for performing an intended behaviour.</t>
+        </is>
+      </c>
       <c r="G251" s="3" t="inlineStr"/>
       <c r="H251" s="3" t="inlineStr"/>
       <c r="I251" s="3" t="inlineStr"/>
@@ -10680,62 +10680,62 @@
       <c r="P251" s="3" t="inlineStr"/>
     </row>
     <row r="252">
-      <c r="A252" t="inlineStr">
-        <is>
-          <t>GO:0046960</t>
-        </is>
-      </c>
-      <c r="B252" t="inlineStr">
-        <is>
-          <t>sensitization</t>
-        </is>
-      </c>
-      <c r="C252" t="inlineStr">
-        <is>
-          <t>non-associative learning</t>
-        </is>
-      </c>
-      <c r="D252" t="inlineStr">
-        <is>
-          <t>An increase in a behavioural response to a repeated stimulus.</t>
-        </is>
-      </c>
-      <c r="E252" t="inlineStr"/>
-      <c r="F252" t="inlineStr"/>
-      <c r="G252" t="inlineStr"/>
-      <c r="H252" t="inlineStr"/>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
-      <c r="M252" t="inlineStr"/>
-      <c r="N252" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="O252" t="inlineStr"/>
-      <c r="P252" t="inlineStr"/>
+      <c r="A252" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006128</t>
+        </is>
+      </c>
+      <c r="B252" s="3" t="inlineStr">
+        <is>
+          <t>semantic memory</t>
+        </is>
+      </c>
+      <c r="C252" s="3" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="D252" s="3" t="inlineStr">
+        <is>
+          <t>A memory process that deals with the receipt, storage, retrieval and modification of information associated with meanings, understandings or conceptual facts about the world.</t>
+        </is>
+      </c>
+      <c r="E252" s="3" t="inlineStr"/>
+      <c r="F252" s="3" t="inlineStr"/>
+      <c r="G252" s="3" t="inlineStr"/>
+      <c r="H252" s="3" t="inlineStr"/>
+      <c r="I252" s="3" t="inlineStr"/>
+      <c r="J252" s="3" t="inlineStr"/>
+      <c r="K252" s="3" t="inlineStr"/>
+      <c r="L252" s="3" t="inlineStr"/>
+      <c r="M252" s="3" t="inlineStr"/>
+      <c r="N252" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O252" s="3" t="inlineStr"/>
+      <c r="P252" s="3" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>MFOEM:000040</t>
+          <t>GO:0046960</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>sexual pleasure</t>
+          <t>sensitization</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>pleasure</t>
+          <t>non-associative learning</t>
         </is>
       </c>
       <c r="D253" t="inlineStr">
         <is>
-          <t>Pleasure that is experienced as a result of sexual activities.</t>
+          <t>An increase in a behavioural response to a repeated stimulus.</t>
         </is>
       </c>
       <c r="E253" t="inlineStr"/>
@@ -10758,22 +10758,22 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>MFOEM:000055</t>
+          <t>MFOEM:000040</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>shame</t>
+          <t>sexual pleasure</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>emotion process</t>
+          <t>pleasure</t>
         </is>
       </c>
       <c r="D254" t="inlineStr">
         <is>
-          <t>A negative emotion that is distressing and occurs when one appraises one's behaviour or circumstance as wrong, dishonourable, immodest or indecorous.</t>
+          <t>Pleasure that is experienced as a result of sexual activities.</t>
         </is>
       </c>
       <c r="E254" t="inlineStr"/>
@@ -10794,73 +10794,73 @@
       <c r="P254" t="inlineStr"/>
     </row>
     <row r="255">
-      <c r="A255" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006044</t>
-        </is>
-      </c>
-      <c r="B255" s="3" t="inlineStr">
-        <is>
-          <t>situational self-efficacy belief for a behaviour</t>
-        </is>
-      </c>
-      <c r="C255" s="3" t="inlineStr">
-        <is>
-          <t>self-efficacy belief for a behaviour</t>
-        </is>
-      </c>
-      <c r="D255" s="3" t="inlineStr">
-        <is>
-          <t>Self-efficacy belief for a behaviour when a barrier or facilitator of the behaviour is encountered.</t>
-        </is>
-      </c>
-      <c r="E255" s="3" t="inlineStr"/>
-      <c r="F255" s="3" t="inlineStr"/>
-      <c r="G255" s="3" t="inlineStr"/>
-      <c r="H255" s="3" t="inlineStr"/>
-      <c r="I255" s="3" t="inlineStr">
-        <is>
-          <t>The 'barrier or facilitator' specified in the definition can be external or internal.</t>
-        </is>
-      </c>
-      <c r="J255" s="3" t="inlineStr"/>
-      <c r="K255" s="3" t="inlineStr"/>
-      <c r="L255" s="3" t="inlineStr"/>
-      <c r="M255" s="3" t="inlineStr"/>
-      <c r="N255" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O255" s="3" t="inlineStr"/>
-      <c r="P255" s="3" t="inlineStr"/>
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>MFOEM:000055</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>shame</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>emotion process</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>A negative emotion that is distressing and occurs when one appraises one's behaviour or circumstance as wrong, dishonourable, immodest or indecorous.</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr"/>
+      <c r="F255" t="inlineStr"/>
+      <c r="G255" t="inlineStr"/>
+      <c r="H255" t="inlineStr"/>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="inlineStr"/>
+      <c r="M255" t="inlineStr"/>
+      <c r="N255" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="O255" t="inlineStr"/>
+      <c r="P255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006014</t>
+          <t>BCIO:006044</t>
         </is>
       </c>
       <c r="B256" s="3" t="inlineStr">
         <is>
-          <t>social alienation</t>
+          <t>situational self-efficacy belief for a behaviour</t>
         </is>
       </c>
       <c r="C256" s="3" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>self-efficacy belief for a behaviour</t>
         </is>
       </c>
       <c r="D256" s="3" t="inlineStr">
         <is>
-          <t>A mental disposition to perceive or experience oneself as isolated from and not meaningfully involved in social groups.</t>
+          <t>Self-efficacy belief for a behaviour when a barrier or facilitator of the behaviour is encountered.</t>
         </is>
       </c>
       <c r="E256" s="3" t="inlineStr"/>
       <c r="F256" s="3" t="inlineStr"/>
       <c r="G256" s="3" t="inlineStr"/>
       <c r="H256" s="3" t="inlineStr"/>
-      <c r="I256" s="3" t="inlineStr"/>
+      <c r="I256" s="3" t="inlineStr">
+        <is>
+          <t>The 'barrier or facilitator' specified in the definition can be external or internal.</t>
+        </is>
+      </c>
       <c r="J256" s="3" t="inlineStr"/>
       <c r="K256" s="3" t="inlineStr"/>
       <c r="L256" s="3" t="inlineStr"/>
@@ -10876,22 +10876,22 @@
     <row r="257">
       <c r="A257" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006011</t>
+          <t>BCIO:006014</t>
         </is>
       </c>
       <c r="B257" s="3" t="inlineStr">
         <is>
-          <t>social behavioural capability</t>
+          <t>social alienation</t>
         </is>
       </c>
       <c r="C257" s="3" t="inlineStr">
         <is>
-          <t>behavioural capability</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D257" s="3" t="inlineStr">
         <is>
-          <t>A personal capability includes interpersonal behaviour in its realisation.</t>
+          <t>A mental disposition to perceive or experience oneself as isolated from and not meaningfully involved in social groups.</t>
         </is>
       </c>
       <c r="E257" s="3" t="inlineStr"/>
@@ -10914,30 +10914,26 @@
     <row r="258">
       <c r="A258" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006090</t>
+          <t>BCIO:006011</t>
         </is>
       </c>
       <c r="B258" s="3" t="inlineStr">
         <is>
-          <t>social behavioural opportunity</t>
+          <t>social behavioural capability</t>
         </is>
       </c>
       <c r="C258" s="3" t="inlineStr">
         <is>
-          <t>behavioural opportunity</t>
+          <t>behavioural capability</t>
         </is>
       </c>
       <c r="D258" s="3" t="inlineStr">
         <is>
-          <t>A behavioural opportunity that involves the social environmental system.</t>
+          <t>A personal capability includes interpersonal behaviour in its realisation.</t>
         </is>
       </c>
       <c r="E258" s="3" t="inlineStr"/>
-      <c r="F258" s="3" t="inlineStr">
-        <is>
-          <t>Properties of a person's environment relating to the social world they inhabit, including the rules and norms that are operating and social cues.</t>
-        </is>
-      </c>
+      <c r="F258" s="3" t="inlineStr"/>
       <c r="G258" s="3" t="inlineStr"/>
       <c r="H258" s="3" t="inlineStr"/>
       <c r="I258" s="3" t="inlineStr"/>
@@ -10956,26 +10952,30 @@
     <row r="259">
       <c r="A259" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006118</t>
+          <t>BCIO:006090</t>
         </is>
       </c>
       <c r="B259" s="3" t="inlineStr">
         <is>
-          <t>social comparison process</t>
+          <t>social behavioural opportunity</t>
         </is>
       </c>
       <c r="C259" s="3" t="inlineStr">
         <is>
-          <t>judging</t>
+          <t>behavioural opportunity</t>
         </is>
       </c>
       <c r="D259" s="3" t="inlineStr">
         <is>
-          <t>Judging oneself or one's social group in relation to the qualities or characteristics of another person or social group.</t>
+          <t>A behavioural opportunity that involves the social environmental system.</t>
         </is>
       </c>
       <c r="E259" s="3" t="inlineStr"/>
-      <c r="F259" s="3" t="inlineStr"/>
+      <c r="F259" s="3" t="inlineStr">
+        <is>
+          <t>Properties of a person's environment relating to the social world they inhabit, including the rules and norms that are operating and social cues.</t>
+        </is>
+      </c>
       <c r="G259" s="3" t="inlineStr"/>
       <c r="H259" s="3" t="inlineStr"/>
       <c r="I259" s="3" t="inlineStr"/>
@@ -10994,22 +10994,22 @@
     <row r="260">
       <c r="A260" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006074</t>
+          <t>BCIO:006118</t>
         </is>
       </c>
       <c r="B260" s="3" t="inlineStr">
         <is>
-          <t>social embeddedness</t>
+          <t>social comparison process</t>
         </is>
       </c>
       <c r="C260" s="3" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>judging</t>
         </is>
       </c>
       <c r="D260" s="3" t="inlineStr">
         <is>
-          <t>A mental disposition to experience a feeling of being connected by social attachments.</t>
+          <t>Judging oneself or one's social group in relation to the qualities or characteristics of another person or social group.</t>
         </is>
       </c>
       <c r="E260" s="3" t="inlineStr"/>
@@ -11032,22 +11032,22 @@
     <row r="261">
       <c r="A261" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006001</t>
+          <t>BCIO:006074</t>
         </is>
       </c>
       <c r="B261" s="3" t="inlineStr">
         <is>
-          <t>social environmental system</t>
+          <t>social embeddedness</t>
         </is>
       </c>
       <c r="C261" s="3" t="inlineStr">
         <is>
-          <t>environmental system</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D261" s="3" t="inlineStr">
         <is>
-          <t>An environmental system that consists of people, their pets, social and cultural institutions and processes that influence the life of people and social groups.</t>
+          <t>A mental disposition to experience a feeling of being connected by social attachments.</t>
         </is>
       </c>
       <c r="E261" s="3" t="inlineStr"/>
@@ -11068,119 +11068,115 @@
       <c r="P261" s="3" t="inlineStr"/>
     </row>
     <row r="262">
-      <c r="A262" t="inlineStr">
+      <c r="A262" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006001</t>
+        </is>
+      </c>
+      <c r="B262" s="3" t="inlineStr">
+        <is>
+          <t>social environmental system</t>
+        </is>
+      </c>
+      <c r="C262" s="3" t="inlineStr">
+        <is>
+          <t>environmental system</t>
+        </is>
+      </c>
+      <c r="D262" s="3" t="inlineStr">
+        <is>
+          <t>An environmental system that consists of people, their pets, social and cultural institutions and processes that influence the life of people and social groups.</t>
+        </is>
+      </c>
+      <c r="E262" s="3" t="inlineStr"/>
+      <c r="F262" s="3" t="inlineStr"/>
+      <c r="G262" s="3" t="inlineStr"/>
+      <c r="H262" s="3" t="inlineStr"/>
+      <c r="I262" s="3" t="inlineStr"/>
+      <c r="J262" s="3" t="inlineStr"/>
+      <c r="K262" s="3" t="inlineStr"/>
+      <c r="L262" s="3" t="inlineStr"/>
+      <c r="M262" s="3" t="inlineStr"/>
+      <c r="N262" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O262" s="3" t="inlineStr"/>
+      <c r="P262" s="3" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
         <is>
           <t xml:space="preserve">ADDICTO:0001087 </t>
         </is>
       </c>
-      <c r="B262" t="inlineStr">
+      <c r="B263" t="inlineStr">
         <is>
           <t>social identity</t>
         </is>
       </c>
-      <c r="C262" t="inlineStr">
+      <c r="C263" t="inlineStr">
         <is>
           <t>self-identity</t>
         </is>
       </c>
-      <c r="D262" t="inlineStr">
+      <c r="D263" t="inlineStr">
         <is>
           <t>A self-identity in which the representation involves a relation between the identity holder and another person or group.</t>
         </is>
       </c>
-      <c r="E262" t="inlineStr"/>
-      <c r="F262" t="inlineStr"/>
-      <c r="G262" t="inlineStr"/>
-      <c r="H262" t="inlineStr"/>
-      <c r="I262" t="inlineStr">
+      <c r="E263" t="inlineStr"/>
+      <c r="F263" t="inlineStr"/>
+      <c r="G263" t="inlineStr"/>
+      <c r="H263" t="inlineStr"/>
+      <c r="I263" t="inlineStr">
         <is>
           <t>'Social identity' can involve a sense of one's rank or status in reference to other groups.</t>
         </is>
       </c>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
-      <c r="M262" t="inlineStr"/>
-      <c r="N262" t="inlineStr">
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="inlineStr"/>
+      <c r="M263" t="inlineStr"/>
+      <c r="N263" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="O262" t="inlineStr"/>
-      <c r="P262" t="inlineStr"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006099</t>
-        </is>
-      </c>
-      <c r="B263" s="3" t="inlineStr">
-        <is>
-          <t>social influence behaviour</t>
-        </is>
-      </c>
-      <c r="C263" s="3" t="inlineStr">
-        <is>
-          <t>inter-personal behaviour</t>
-        </is>
-      </c>
-      <c r="D263" s="3" t="inlineStr">
-        <is>
-          <t>An inter-personal behaviour where a person exerts an influence on the behaviour of another.</t>
-        </is>
-      </c>
-      <c r="E263" s="3" t="inlineStr"/>
-      <c r="F263" s="3" t="inlineStr"/>
-      <c r="G263" s="3" t="inlineStr"/>
-      <c r="H263" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Social support from social network. </t>
-        </is>
-      </c>
-      <c r="I263" s="3" t="inlineStr"/>
-      <c r="J263" s="3" t="inlineStr"/>
-      <c r="K263" s="3" t="inlineStr"/>
-      <c r="L263" s="3" t="inlineStr"/>
-      <c r="M263" s="3" t="inlineStr"/>
-      <c r="N263" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O263" s="3" t="inlineStr"/>
-      <c r="P263" s="3" t="inlineStr"/>
+      <c r="O263" t="inlineStr"/>
+      <c r="P263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006082</t>
+          <t>BCIO:006099</t>
         </is>
       </c>
       <c r="B264" s="3" t="inlineStr">
         <is>
-          <t>social role</t>
+          <t>social influence behaviour</t>
         </is>
       </c>
       <c r="C264" s="3" t="inlineStr">
         <is>
-          <t>personal role</t>
+          <t>inter-personal behaviour</t>
         </is>
       </c>
       <c r="D264" s="3" t="inlineStr">
         <is>
-          <t>A personal role that is realised in human social processes.</t>
+          <t>An inter-personal behaviour where a person exerts an influence on the behaviour of another.</t>
         </is>
       </c>
       <c r="E264" s="3" t="inlineStr"/>
       <c r="F264" s="3" t="inlineStr"/>
       <c r="G264" s="3" t="inlineStr"/>
-      <c r="H264" s="3" t="inlineStr"/>
-      <c r="I264" s="3" t="inlineStr">
-        <is>
-          <t>A role can be assigned without being realised. A person realises a role by doing something.</t>
-        </is>
-      </c>
+      <c r="H264" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Social support from social network. </t>
+        </is>
+      </c>
+      <c r="I264" s="3" t="inlineStr"/>
       <c r="J264" s="3" t="inlineStr"/>
       <c r="K264" s="3" t="inlineStr"/>
       <c r="L264" s="3" t="inlineStr"/>
@@ -11196,29 +11192,33 @@
     <row r="265">
       <c r="A265" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006012</t>
+          <t>BCIO:006082</t>
         </is>
       </c>
       <c r="B265" s="3" t="inlineStr">
         <is>
-          <t>social skill</t>
+          <t>social role</t>
         </is>
       </c>
       <c r="C265" s="3" t="inlineStr">
         <is>
-          <t>social behavioural capability</t>
+          <t>personal role</t>
         </is>
       </c>
       <c r="D265" s="3" t="inlineStr">
         <is>
-          <t>A social capability acquired through training or practice.</t>
+          <t>A personal role that is realised in human social processes.</t>
         </is>
       </c>
       <c r="E265" s="3" t="inlineStr"/>
       <c r="F265" s="3" t="inlineStr"/>
       <c r="G265" s="3" t="inlineStr"/>
       <c r="H265" s="3" t="inlineStr"/>
-      <c r="I265" s="3" t="inlineStr"/>
+      <c r="I265" s="3" t="inlineStr">
+        <is>
+          <t>A role can be assigned without being realised. A person realises a role by doing something.</t>
+        </is>
+      </c>
       <c r="J265" s="3" t="inlineStr"/>
       <c r="K265" s="3" t="inlineStr"/>
       <c r="L265" s="3" t="inlineStr"/>
@@ -11234,33 +11234,29 @@
     <row r="266">
       <c r="A266" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006072</t>
+          <t>BCIO:006012</t>
         </is>
       </c>
       <c r="B266" s="3" t="inlineStr">
         <is>
-          <t>stereotype</t>
+          <t>social skill</t>
         </is>
       </c>
       <c r="C266" s="3" t="inlineStr">
         <is>
-          <t>cognitive schema</t>
+          <t>social behavioural capability</t>
         </is>
       </c>
       <c r="D266" s="3" t="inlineStr">
         <is>
-          <t>A cognitive schema that when activated, guides perception, thought, emotion or behaviour toward members of a social group as having certain shared attributes, by virtue of their group membership.</t>
+          <t>A social capability acquired through training or practice.</t>
         </is>
       </c>
       <c r="E266" s="3" t="inlineStr"/>
       <c r="F266" s="3" t="inlineStr"/>
       <c r="G266" s="3" t="inlineStr"/>
       <c r="H266" s="3" t="inlineStr"/>
-      <c r="I266" s="3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The attributes of members are not definitional. For instance, a psychologist studying psychology is not a stereotype. </t>
-        </is>
-      </c>
+      <c r="I266" s="3" t="inlineStr"/>
       <c r="J266" s="3" t="inlineStr"/>
       <c r="K266" s="3" t="inlineStr"/>
       <c r="L266" s="3" t="inlineStr"/>
@@ -11274,83 +11270,87 @@
       <c r="P266" s="3" t="inlineStr"/>
     </row>
     <row r="267">
-      <c r="A267" t="inlineStr">
+      <c r="A267" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006072</t>
+        </is>
+      </c>
+      <c r="B267" s="3" t="inlineStr">
+        <is>
+          <t>stereotype</t>
+        </is>
+      </c>
+      <c r="C267" s="3" t="inlineStr">
+        <is>
+          <t>cognitive schema</t>
+        </is>
+      </c>
+      <c r="D267" s="3" t="inlineStr">
+        <is>
+          <t>A cognitive schema that when activated, guides perception, thought, emotion or behaviour toward members of a social group as having certain shared attributes, by virtue of their group membership.</t>
+        </is>
+      </c>
+      <c r="E267" s="3" t="inlineStr"/>
+      <c r="F267" s="3" t="inlineStr"/>
+      <c r="G267" s="3" t="inlineStr"/>
+      <c r="H267" s="3" t="inlineStr"/>
+      <c r="I267" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">The attributes of members are not definitional. For instance, a psychologist studying psychology is not a stereotype. </t>
+        </is>
+      </c>
+      <c r="J267" s="3" t="inlineStr"/>
+      <c r="K267" s="3" t="inlineStr"/>
+      <c r="L267" s="3" t="inlineStr"/>
+      <c r="M267" s="3" t="inlineStr"/>
+      <c r="N267" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O267" s="3" t="inlineStr"/>
+      <c r="P267" s="3" t="inlineStr"/>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
         <is>
           <t xml:space="preserve">MFOEM:000006 </t>
         </is>
       </c>
-      <c r="B267" t="inlineStr">
+      <c r="B268" t="inlineStr">
         <is>
           <t>subjective affective feeling</t>
         </is>
       </c>
-      <c r="C267" t="inlineStr">
+      <c r="C268" t="inlineStr">
         <is>
           <t>affective process</t>
         </is>
       </c>
-      <c r="D267" t="inlineStr">
+      <c r="D268" t="inlineStr">
         <is>
           <t>An affective process that involves the experience of internal or external sensory stimuli.</t>
         </is>
       </c>
-      <c r="E267" t="inlineStr"/>
-      <c r="F267" t="inlineStr">
+      <c r="E268" t="inlineStr"/>
+      <c r="F268" t="inlineStr">
         <is>
           <t>The conscious experience that a person has of feelings in their body (e.g., hunger), their mood (e.g., feeling cheerful) and their emotion (e.g., feeling nervous), in response to internal or external stimuli.</t>
         </is>
       </c>
-      <c r="G267" t="inlineStr">
+      <c r="G268" t="inlineStr">
         <is>
           <t>Feeling calm; hunger; pain</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr"/>
-      <c r="I267" t="inlineStr">
+      <c r="H268" t="inlineStr"/>
+      <c r="I268" t="inlineStr">
         <is>
           <t>'Subjective affective feeling can have greater or weaker physiological or mental components. The bodily process that are experienced will usually involve some mental process.
 Bodily sensation and the experiences of emotions (e.g., feeling calm) would both qualify as examples of 'subjective affective feeling'.
 As a subclass of 'affective process', subjective affective feelings have valence. Valence refers to the 'the subjective value of an event, object, person, or other entity in the life space of the individual' (https://dictionary.apa.org/valence). Valence ranges from negative to positive.</t>
         </is>
       </c>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
-      <c r="M267" t="inlineStr"/>
-      <c r="N267" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="O267" t="inlineStr"/>
-      <c r="P267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MF:0000088 </t>
-        </is>
-      </c>
-      <c r="B268" t="inlineStr">
-        <is>
-          <t>subliminal process</t>
-        </is>
-      </c>
-      <c r="C268" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D268" t="inlineStr">
-        <is>
-          <t>A mental process that involves neuronal activity in response to a sensory stimulus but which is not the subject of consciousness.</t>
-        </is>
-      </c>
-      <c r="E268" t="inlineStr"/>
-      <c r="F268" t="inlineStr"/>
-      <c r="G268" t="inlineStr"/>
-      <c r="H268" t="inlineStr"/>
-      <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
       <c r="L268" t="inlineStr"/>
@@ -11366,33 +11366,29 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>ADDICTO:0001140</t>
+          <t xml:space="preserve">MF:0000088 </t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>substance dependence</t>
+          <t>subliminal process</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>bodily disposition</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>A bodily disposition which is realised as impaired functioning following reduction or termination of use of a psychoactive substance.</t>
+          <t>A mental process that involves neuronal activity in response to a sensory stimulus but which is not the subject of consciousness.</t>
         </is>
       </c>
       <c r="E269" t="inlineStr"/>
       <c r="F269" t="inlineStr"/>
       <c r="G269" t="inlineStr"/>
       <c r="H269" t="inlineStr"/>
-      <c r="I269" t="inlineStr">
-        <is>
-          <t>While 'addiction' is a disposition relating to experience motivation to use a substance, 'substance dependence' refers to 'disposition related to the impaired functioning in the absence of a substance'.</t>
-        </is>
-      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
       <c r="L269" t="inlineStr"/>
@@ -11408,29 +11404,33 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>MFOEM:000032</t>
+          <t>ADDICTO:0001140</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>surprise</t>
+          <t>substance dependence</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>emotion process</t>
+          <t>bodily disposition</t>
         </is>
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t xml:space="preserve">An emotion caused by encountering unexpected events. </t>
+          <t>A bodily disposition which is realised as impaired functioning following reduction or termination of use of a psychoactive substance.</t>
         </is>
       </c>
       <c r="E270" t="inlineStr"/>
       <c r="F270" t="inlineStr"/>
       <c r="G270" t="inlineStr"/>
       <c r="H270" t="inlineStr"/>
-      <c r="I270" t="inlineStr"/>
+      <c r="I270" t="inlineStr">
+        <is>
+          <t>While 'addiction' is a disposition relating to experience motivation to use a substance, 'substance dependence' refers to 'disposition related to the impaired functioning in the absence of a substance'.</t>
+        </is>
+      </c>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
       <c r="L270" t="inlineStr"/>
@@ -11446,22 +11446,22 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>RO:0002577</t>
+          <t>MFOEM:000032</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>system</t>
+          <t>surprise</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>material entity</t>
+          <t>emotion process</t>
         </is>
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>A material entity consisting of multiple components that are causally integrated.</t>
+          <t xml:space="preserve">An emotion caused by encountering unexpected events. </t>
         </is>
       </c>
       <c r="E271" t="inlineStr"/>
@@ -11482,75 +11482,71 @@
       <c r="P271" t="inlineStr"/>
     </row>
     <row r="272">
-      <c r="A272" s="3" t="inlineStr">
-        <is>
-          <t>BCIO:006163</t>
-        </is>
-      </c>
-      <c r="B272" s="3" t="inlineStr">
-        <is>
-          <t>targeted mental distancing</t>
-        </is>
-      </c>
-      <c r="C272" s="3" t="inlineStr">
-        <is>
-          <t>mental distancing</t>
-        </is>
-      </c>
-      <c r="D272" s="3" t="inlineStr">
-        <is>
-          <t>Mental distancing that involves identifying particular immediate thoughts and intentionally detaching from these thoughts.</t>
-        </is>
-      </c>
-      <c r="E272" s="3" t="inlineStr"/>
-      <c r="F272" s="3" t="inlineStr"/>
-      <c r="G272" s="3" t="inlineStr">
-        <is>
-          <t>targeted decentring</t>
-        </is>
-      </c>
-      <c r="H272" s="3" t="inlineStr"/>
-      <c r="I272" s="3" t="inlineStr"/>
-      <c r="J272" s="3" t="inlineStr"/>
-      <c r="K272" s="3" t="inlineStr"/>
-      <c r="L272" s="3" t="inlineStr"/>
-      <c r="M272" s="3" t="inlineStr"/>
-      <c r="N272" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O272" s="3" t="inlineStr"/>
-      <c r="P272" s="3" t="inlineStr"/>
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>RO:0002577</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>system</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>material entity</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>A material entity consisting of multiple components that are causally integrated.</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr"/>
+      <c r="F272" t="inlineStr"/>
+      <c r="G272" t="inlineStr"/>
+      <c r="H272" t="inlineStr"/>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="inlineStr"/>
+      <c r="M272" t="inlineStr"/>
+      <c r="N272" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="O272" t="inlineStr"/>
+      <c r="P272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="3" t="inlineStr">
         <is>
-          <t>BCIO:006091</t>
+          <t>BCIO:006163</t>
         </is>
       </c>
       <c r="B273" s="3" t="inlineStr">
         <is>
-          <t>temporal behavioural opportunity</t>
+          <t>targeted mental distancing</t>
         </is>
       </c>
       <c r="C273" s="3" t="inlineStr">
         <is>
-          <t>physical behavioural opportunity</t>
+          <t>mental distancing</t>
         </is>
       </c>
       <c r="D273" s="3" t="inlineStr">
         <is>
-          <t>A physical behavioural opportunity that involves the person having sufficient time or a suitable period.</t>
+          <t>Mental distancing that involves identifying particular immediate thoughts and intentionally detaching from these thoughts.</t>
         </is>
       </c>
       <c r="E273" s="3" t="inlineStr"/>
-      <c r="F273" s="3" t="inlineStr">
-        <is>
-          <t>Properties of a person's environment that involve the time available and influence the person's ability to enact a behaviour.</t>
-        </is>
-      </c>
-      <c r="G273" s="3" t="inlineStr"/>
+      <c r="F273" s="3" t="inlineStr"/>
+      <c r="G273" s="3" t="inlineStr">
+        <is>
+          <t>targeted decentring</t>
+        </is>
+      </c>
       <c r="H273" s="3" t="inlineStr"/>
       <c r="I273" s="3" t="inlineStr"/>
       <c r="J273" s="3" t="inlineStr"/>
@@ -11566,52 +11562,56 @@
       <c r="P273" s="3" t="inlineStr"/>
     </row>
     <row r="274">
-      <c r="A274" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050230</t>
-        </is>
-      </c>
-      <c r="B274" s="2" t="inlineStr">
-        <is>
-          <t>temporal orientation to the future</t>
-        </is>
-      </c>
-      <c r="C274" s="2" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
-      <c r="D274" s="2" t="inlineStr">
-        <is>
-          <t>A mental disposition to focus more on future than present outcomes.</t>
-        </is>
-      </c>
-      <c r="E274" s="2" t="inlineStr"/>
-      <c r="F274" s="2" t="inlineStr"/>
-      <c r="G274" s="2" t="inlineStr"/>
-      <c r="H274" s="2" t="inlineStr"/>
-      <c r="I274" s="2" t="inlineStr"/>
-      <c r="J274" s="2" t="inlineStr"/>
-      <c r="K274" s="2" t="inlineStr"/>
-      <c r="L274" s="2" t="inlineStr"/>
-      <c r="M274" s="2" t="inlineStr"/>
-      <c r="N274" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="O274" s="2" t="inlineStr"/>
-      <c r="P274" s="2" t="inlineStr"/>
+      <c r="A274" s="3" t="inlineStr">
+        <is>
+          <t>BCIO:006091</t>
+        </is>
+      </c>
+      <c r="B274" s="3" t="inlineStr">
+        <is>
+          <t>temporal behavioural opportunity</t>
+        </is>
+      </c>
+      <c r="C274" s="3" t="inlineStr">
+        <is>
+          <t>physical behavioural opportunity</t>
+        </is>
+      </c>
+      <c r="D274" s="3" t="inlineStr">
+        <is>
+          <t>A physical behavioural opportunity that involves the person having sufficient time or a suitable period.</t>
+        </is>
+      </c>
+      <c r="E274" s="3" t="inlineStr"/>
+      <c r="F274" s="3" t="inlineStr">
+        <is>
+          <t>Properties of a person's environment that involve the time available and influence the person's ability to enact a behaviour.</t>
+        </is>
+      </c>
+      <c r="G274" s="3" t="inlineStr"/>
+      <c r="H274" s="3" t="inlineStr"/>
+      <c r="I274" s="3" t="inlineStr"/>
+      <c r="J274" s="3" t="inlineStr"/>
+      <c r="K274" s="3" t="inlineStr"/>
+      <c r="L274" s="3" t="inlineStr"/>
+      <c r="M274" s="3" t="inlineStr"/>
+      <c r="N274" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O274" s="3" t="inlineStr"/>
+      <c r="P274" s="3" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="2" t="inlineStr">
         <is>
-          <t>BCIO:050231</t>
+          <t>BCIO:050230</t>
         </is>
       </c>
       <c r="B275" s="2" t="inlineStr">
         <is>
-          <t>temporal orientation to the present</t>
+          <t>temporal orientation to the future</t>
         </is>
       </c>
       <c r="C275" s="2" t="inlineStr">
@@ -11621,7 +11621,7 @@
       </c>
       <c r="D275" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition to focus more on present than future outcomes.</t>
+          <t>A mental disposition to focus more on future than present outcomes.</t>
         </is>
       </c>
       <c r="E275" s="2" t="inlineStr"/>
@@ -11642,160 +11642,198 @@
       <c r="P275" s="2" t="inlineStr"/>
     </row>
     <row r="276">
-      <c r="A276" t="inlineStr">
+      <c r="A276" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050231</t>
+        </is>
+      </c>
+      <c r="B276" s="2" t="inlineStr">
+        <is>
+          <t>temporal orientation to the present</t>
+        </is>
+      </c>
+      <c r="C276" s="2" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="D276" s="2" t="inlineStr">
+        <is>
+          <t>A mental disposition to focus more on present than future outcomes.</t>
+        </is>
+      </c>
+      <c r="E276" s="2" t="inlineStr"/>
+      <c r="F276" s="2" t="inlineStr"/>
+      <c r="G276" s="2" t="inlineStr"/>
+      <c r="H276" s="2" t="inlineStr"/>
+      <c r="I276" s="2" t="inlineStr"/>
+      <c r="J276" s="2" t="inlineStr"/>
+      <c r="K276" s="2" t="inlineStr"/>
+      <c r="L276" s="2" t="inlineStr"/>
+      <c r="M276" s="2" t="inlineStr"/>
+      <c r="N276" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="O276" s="2" t="inlineStr"/>
+      <c r="P276" s="2" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
         <is>
           <t>MF:0000013</t>
         </is>
       </c>
-      <c r="B276" t="inlineStr">
+      <c r="B277" t="inlineStr">
         <is>
           <t>thinking</t>
         </is>
       </c>
-      <c r="C276" t="inlineStr">
+      <c r="C277" t="inlineStr">
         <is>
           <t>cognitive process</t>
         </is>
       </c>
-      <c r="D276" t="inlineStr">
+      <c r="D277" t="inlineStr">
         <is>
           <t>A cognitive process that involves the manipulation of mental language and/or mental images.</t>
         </is>
       </c>
-      <c r="E276" t="inlineStr"/>
-      <c r="F276" t="inlineStr"/>
-      <c r="G276" t="inlineStr"/>
-      <c r="H276" t="inlineStr"/>
-      <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="inlineStr"/>
-      <c r="N276" t="inlineStr">
+      <c r="E277" t="inlineStr"/>
+      <c r="F277" t="inlineStr"/>
+      <c r="G277" t="inlineStr"/>
+      <c r="H277" t="inlineStr"/>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="inlineStr"/>
+      <c r="M277" t="inlineStr"/>
+      <c r="N277" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="O276" t="inlineStr"/>
-      <c r="P276" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="3" t="inlineStr">
+      <c r="O277" t="inlineStr"/>
+      <c r="P277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="3" t="inlineStr">
         <is>
           <t>BCIO:006107</t>
         </is>
       </c>
-      <c r="B277" s="3" t="inlineStr">
+      <c r="B278" s="3" t="inlineStr">
         <is>
           <t>value-congruent self-regulation</t>
         </is>
       </c>
-      <c r="C277" s="3" t="inlineStr">
+      <c r="C278" s="3" t="inlineStr">
         <is>
           <t>self-regulation of behaviour</t>
         </is>
       </c>
-      <c r="D277" s="3" t="inlineStr">
+      <c r="D278" s="3" t="inlineStr">
         <is>
           <t>Self-regulation undertaken to achieve consistency between one's values and the behaviour performed.</t>
         </is>
       </c>
-      <c r="E277" s="3" t="inlineStr"/>
-      <c r="F277" s="3" t="inlineStr"/>
-      <c r="G277" s="3" t="inlineStr"/>
-      <c r="H277" s="3" t="inlineStr"/>
-      <c r="I277" s="3" t="inlineStr"/>
-      <c r="J277" s="3" t="inlineStr"/>
-      <c r="K277" s="3" t="inlineStr"/>
-      <c r="L277" s="3" t="inlineStr"/>
-      <c r="M277" s="3" t="inlineStr"/>
-      <c r="N277" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O277" s="3" t="inlineStr"/>
-      <c r="P277" s="3" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" t="inlineStr">
+      <c r="E278" s="3" t="inlineStr"/>
+      <c r="F278" s="3" t="inlineStr"/>
+      <c r="G278" s="3" t="inlineStr"/>
+      <c r="H278" s="3" t="inlineStr"/>
+      <c r="I278" s="3" t="inlineStr"/>
+      <c r="J278" s="3" t="inlineStr"/>
+      <c r="K278" s="3" t="inlineStr"/>
+      <c r="L278" s="3" t="inlineStr"/>
+      <c r="M278" s="3" t="inlineStr"/>
+      <c r="N278" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O278" s="3" t="inlineStr"/>
+      <c r="P278" s="3" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
         <is>
           <t>MF:0000045</t>
         </is>
       </c>
-      <c r="B278" t="inlineStr">
+      <c r="B279" t="inlineStr">
         <is>
           <t>wanting</t>
         </is>
       </c>
-      <c r="C278" t="inlineStr">
+      <c r="C279" t="inlineStr">
         <is>
           <t>mental process</t>
         </is>
       </c>
-      <c r="D278" t="inlineStr">
+      <c r="D279" t="inlineStr">
         <is>
           <t>A mental process that involves thinking about a state of affairs that is not yet the case together with a desire for that state of affairs to come about.</t>
         </is>
       </c>
-      <c r="E278" t="inlineStr"/>
-      <c r="F278" t="inlineStr"/>
-      <c r="G278" t="inlineStr"/>
-      <c r="H278" t="inlineStr"/>
-      <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
-      <c r="M278" t="inlineStr"/>
-      <c r="N278" t="inlineStr">
+      <c r="E279" t="inlineStr"/>
+      <c r="F279" t="inlineStr"/>
+      <c r="G279" t="inlineStr"/>
+      <c r="H279" t="inlineStr"/>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="inlineStr"/>
+      <c r="M279" t="inlineStr"/>
+      <c r="N279" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="O278" t="inlineStr"/>
-      <c r="P278" t="inlineStr"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="3" t="inlineStr">
+      <c r="O279" t="inlineStr"/>
+      <c r="P279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="3" t="inlineStr">
         <is>
           <t>BCIO:006059</t>
         </is>
       </c>
-      <c r="B279" s="3" t="inlineStr">
+      <c r="B280" s="3" t="inlineStr">
         <is>
           <t>willingness to comply</t>
         </is>
       </c>
-      <c r="C279" s="3" t="inlineStr">
+      <c r="C280" s="3" t="inlineStr">
         <is>
           <t>mental disposition</t>
         </is>
       </c>
-      <c r="D279" s="3" t="inlineStr">
+      <c r="D280" s="3" t="inlineStr">
         <is>
           <t>A mental disposition to act in accordance with the likely approval of others.</t>
         </is>
       </c>
-      <c r="E279" s="3" t="inlineStr"/>
-      <c r="F279" s="3" t="inlineStr"/>
-      <c r="G279" s="3" t="inlineStr">
+      <c r="E280" s="3" t="inlineStr"/>
+      <c r="F280" s="3" t="inlineStr"/>
+      <c r="G280" s="3" t="inlineStr">
         <is>
           <t>motivation to comply</t>
         </is>
       </c>
-      <c r="H279" s="3" t="inlineStr"/>
-      <c r="I279" s="3" t="inlineStr"/>
-      <c r="J279" s="3" t="inlineStr"/>
-      <c r="K279" s="3" t="inlineStr"/>
-      <c r="L279" s="3" t="inlineStr"/>
-      <c r="M279" s="3" t="inlineStr"/>
-      <c r="N279" s="3" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
-      <c r="O279" s="3" t="inlineStr"/>
-      <c r="P279" s="3" t="inlineStr"/>
+      <c r="H280" s="3" t="inlineStr"/>
+      <c r="I280" s="3" t="inlineStr"/>
+      <c r="J280" s="3" t="inlineStr"/>
+      <c r="K280" s="3" t="inlineStr"/>
+      <c r="L280" s="3" t="inlineStr"/>
+      <c r="M280" s="3" t="inlineStr"/>
+      <c r="N280" s="3" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+      <c r="O280" s="3" t="inlineStr"/>
+      <c r="P280" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/MechanismOfAction/inputs/BCIO_MoA.xlsx
+++ b/MechanismOfAction/inputs/BCIO_MoA.xlsx
@@ -553,7 +553,7 @@
       <c r="H2" s="2" t="inlineStr"/>
       <c r="I2" s="2" t="inlineStr">
         <is>
-          <t>The relation between ‘mechanism of action through bodily disposition’ and ‘bodily disposition’ is labelled ‘through'.
+          <t>The relation between ‘mechanism of action through bodily disposition’ and ‘bodily disposition’ is labelled as ‘through'.
 The ‘through’ relationship is defined as: ‘A relation that holds between an intervention’s mechanism of action and an entity x, in which the entity x (a) participates in or is part of the mechanism of action process and (b) is influenced by a BCI or its context such that there is some change in entity x.’ 
 In this definition, ‘change’ refers to change from what would have been the case rather than change from an existing state of affairs. This is to capture the fact that mechanisms of action can act to sustain a current state of affairs, for example preventing smoking uptake. In the definition, ‘some change’ captures changes in salience, change in valence, or being added, increased, decreased, manifested/realised, created, started, stopped or altered rate.</t>
         </is>
@@ -601,7 +601,7 @@
       <c r="H3" s="2" t="inlineStr"/>
       <c r="I3" s="2" t="inlineStr">
         <is>
-          <t>The relation between ‘mechanism of action through bodily process’ and ‘bodily process’ is labelled ‘through'.
+          <t>The relation between ‘mechanism of action through bodily process’ and ‘bodily process’ is labelled as ‘through'.
 The ‘through’ relationship is defined as: ‘A relation that holds between an intervention’s mechanism of action and an entity x, in which the entity x (a) participates in or is part of the mechanism of action process and (b) is influenced by a BCI or its context such that there is some change in entity x.’ 
 In this definition, ‘change’ refers to change from what would have been the case rather than change from an existing state of affairs. This is to capture the fact that mechanisms of action can act to sustain a current state of affairs, for example preventing smoking uptake. In the definition, ‘some change’ captures changes in salience, change in valence, or being added, increased, decreased, manifested/realised, created, started, stopped or altered rate.</t>
         </is>
@@ -649,7 +649,7 @@
       <c r="H4" s="2" t="inlineStr"/>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>The relation between ‘mechanism of action through 'cognitive representation' and cognitive representation' is labelled 'through'.
+          <t>The relation between ‘mechanism of action through 'cognitive representation' and cognitive representation' is labelled as 'through'.
 The ‘through’ relationship is defined as: ‘A relation that holds between an intervention’s mechanism of action and an entity x, in which the entity x (a) participates in or is part of the mechanism of action process and (b) is influenced by a BCI or its context such that there is some change in entity x.’ 
 In this definition, ‘change’ refers to change from what would have been the case rather than change from an existing state of affairs. This is to capture the fact that mechanisms of action can act to sustain a current state of affairs, for example preventing smoking uptake. In the definition, ‘some change’ captures changes in salience, change in valence, or being added, increased, decreased, manifested/realised, created, started, stopped or altered rate.</t>
         </is>
@@ -697,7 +697,7 @@
       <c r="H5" s="2" t="inlineStr"/>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>The relation between ‘mechanism of action through environmental disposition' and ‘environmental disposition' is labelled 'through'.
+          <t>The relation between ‘mechanism of action through environmental disposition' and ‘environmental disposition' is labelled as 'through'.
 The ‘through’ relationship is defined as: ‘A relation that holds between an intervention’s mechanism of action and an entity x, in which the entity x (a) participates in or is part of the mechanism of action process and (b) is influenced by a BCI or its context such that there is some change in entity x.’ 
 In this definition, ‘change’ refers to change from what would have been the case rather than change from an existing state of affairs. This is to capture the fact that mechanisms of action can act to sustain a current state of affairs, for example preventing smoking uptake. In the definition, ‘some change’ captures changes in salience, change in valence, or being added, increased, decreased, manifested/realised, created, started, stopped or altered rate.</t>
         </is>
@@ -745,7 +745,7 @@
       <c r="H6" s="2" t="inlineStr"/>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>The relation between ‘mechanism of action through location' and ‘location' is labelled 'through'.
+          <t>The relation between ‘mechanism of action through location' and ‘location' is labelled as 'through'.
 The ‘through’ relationship is defined as: ‘A relation that holds between an intervention’s mechanism of action and an entity x, in which the entity x (a) participates in or is part of the mechanism of action process and (b) is influenced by a BCI or its context such that there is some change in entity x.’ 
 In this definition, ‘change’ refers to change from what would have been the case rather than change from an existing state of affairs. This is to capture the fact that mechanisms of action can act to sustain a current state of affairs, for example preventing smoking uptake. In the definition, ‘some change’ captures changes in salience, change in valence, or being added, increased, decreased, manifested/realised, created, started, stopped or altered rate.</t>
         </is>
@@ -793,7 +793,7 @@
       <c r="H7" s="2" t="inlineStr"/>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>The relation between ‘mechanism of action through material entity’ and ‘material entity’ is labelled ‘through’.
+          <t>The relation between ‘mechanism of action through material entity’ and ‘material entity’ is labelled as‘through’.
 The ‘through’ relationship is defined as: ‘A relation that holds between an intervention’s mechanism of action and an entity x, in which the entity x (a) participates in or is part of the mechanism of action process and (b) is influenced by a BCI or its context such that there is some change in entity x.’ 
 In this definition, ‘change’ refers to change from what would have been the case rather than change from an existing state of affairs. This is to capture the fact that mechanisms of action can act to sustain a current state of affairs, for example preventing smoking uptake. In the definition, ‘some change’ captures changes in salience, change in valence, or being added, increased, decreased, manifested/realised, created, started, stopped or altered rate.</t>
         </is>
@@ -841,7 +841,7 @@
       <c r="H8" s="2" t="inlineStr"/>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>The relation between ‘mechanism of action through personal role’ and ‘personal role’ is labelled ‘through’.
+          <t>The relation between ‘mechanism of action through personal role’ and ‘personal role’ is labelled as ‘through’.
 The ‘through’ relationship is defined as: ‘A relation that holds between an intervention’s mechanism of action and an entity x, in which the entity x (a) participates in or is part of the mechanism of action process and (b) is influenced by a BCI or its context such that there is some change in entity x.’ 
 In this definition, ‘change’ refers to change from what would have been the case rather than change from an existing state of affairs. This is to capture the fact that mechanisms of action can act to sustain a current state of affairs, for example preventing smoking uptake. In the definition, ‘some change’ captures changes in salience, change in valence, or being added, increased, decreased, manifested/realised, created, started, stopped or altered rate.</t>
         </is>
@@ -4045,42 +4045,42 @@
       <c r="P87" t="inlineStr"/>
     </row>
     <row r="88">
-      <c r="A88" s="4" t="inlineStr">
-        <is>
-          <t>MFOEM:000202</t>
-        </is>
-      </c>
-      <c r="B88" s="4" t="inlineStr">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>BCIO:050304</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
         <is>
           <t>bodily feeling</t>
         </is>
       </c>
-      <c r="C88" s="4" t="inlineStr">
+      <c r="C88" t="inlineStr">
         <is>
           <t>affective process</t>
         </is>
       </c>
-      <c r="D88" s="4" t="inlineStr">
+      <c r="D88" t="inlineStr">
         <is>
           <t>An affective process involving sensory experience of physiological stimuli.</t>
         </is>
       </c>
-      <c r="E88" s="4" t="inlineStr"/>
-      <c r="F88" s="4" t="inlineStr"/>
-      <c r="G88" s="4" t="inlineStr"/>
-      <c r="H88" s="4" t="inlineStr"/>
-      <c r="I88" s="4" t="inlineStr"/>
-      <c r="J88" s="4" t="inlineStr"/>
-      <c r="K88" s="4" t="inlineStr"/>
-      <c r="L88" s="4" t="inlineStr"/>
-      <c r="M88" s="4" t="inlineStr"/>
-      <c r="N88" s="4" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="O88" s="4" t="inlineStr"/>
-      <c r="P88" s="4" t="inlineStr"/>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -4129,42 +4129,42 @@
       <c r="P89" t="inlineStr"/>
     </row>
     <row r="90">
-      <c r="A90" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MF:0000074 </t>
-        </is>
-      </c>
-      <c r="B90" s="4" t="inlineStr">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>BCIO:050305</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
         <is>
           <t>bodily quality</t>
         </is>
       </c>
-      <c r="C90" s="4" t="inlineStr">
+      <c r="C90" t="inlineStr">
         <is>
           <t>quality</t>
         </is>
       </c>
-      <c r="D90" s="4" t="inlineStr">
+      <c r="D90" t="inlineStr">
         <is>
           <t>A quality that inheres in some extended organism.</t>
         </is>
       </c>
-      <c r="E90" s="4" t="inlineStr"/>
-      <c r="F90" s="4" t="inlineStr"/>
-      <c r="G90" s="4" t="inlineStr"/>
-      <c r="H90" s="4" t="inlineStr"/>
-      <c r="I90" s="4" t="inlineStr"/>
-      <c r="J90" s="4" t="inlineStr"/>
-      <c r="K90" s="4" t="inlineStr"/>
-      <c r="L90" s="4" t="inlineStr"/>
-      <c r="M90" s="4" t="inlineStr"/>
-      <c r="N90" s="4" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="O90" s="4" t="inlineStr"/>
-      <c r="P90" s="4" t="inlineStr"/>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="3" t="inlineStr">
@@ -7534,7 +7534,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>BFO:0000040</t>
+          <t>BCIO:050306</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -8098,42 +8098,42 @@
       <c r="P187" t="inlineStr"/>
     </row>
     <row r="188">
-      <c r="A188" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MF:0000075 </t>
-        </is>
-      </c>
-      <c r="B188" s="4" t="inlineStr">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>BCIO:050307</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
         <is>
           <t>mental quality</t>
         </is>
       </c>
-      <c r="C188" s="4" t="inlineStr">
+      <c r="C188" t="inlineStr">
         <is>
           <t>bodily quality</t>
         </is>
       </c>
-      <c r="D188" s="4" t="inlineStr">
+      <c r="D188" t="inlineStr">
         <is>
           <t>A bodily quality that inheres in those structures of the extended organism that are essential for mental functioning.</t>
         </is>
       </c>
-      <c r="E188" s="4" t="inlineStr"/>
-      <c r="F188" s="4" t="inlineStr"/>
-      <c r="G188" s="4" t="inlineStr"/>
-      <c r="H188" s="4" t="inlineStr"/>
-      <c r="I188" s="4" t="inlineStr"/>
-      <c r="J188" s="4" t="inlineStr"/>
-      <c r="K188" s="4" t="inlineStr"/>
-      <c r="L188" s="4" t="inlineStr"/>
-      <c r="M188" s="4" t="inlineStr"/>
-      <c r="N188" s="4" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="O188" s="4" t="inlineStr"/>
-      <c r="P188" s="4" t="inlineStr"/>
+      <c r="E188" t="inlineStr"/>
+      <c r="F188" t="inlineStr"/>
+      <c r="G188" t="inlineStr"/>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="O188" t="inlineStr"/>
+      <c r="P188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="3" t="inlineStr">
@@ -10002,42 +10002,42 @@
       <c r="P234" s="3" t="inlineStr"/>
     </row>
     <row r="235">
-      <c r="A235" s="4" t="inlineStr">
-        <is>
-          <t>PATO:0000001</t>
-        </is>
-      </c>
-      <c r="B235" s="4" t="inlineStr">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>BCIO:050308</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
         <is>
           <t>quality</t>
         </is>
       </c>
-      <c r="C235" s="4" t="inlineStr">
+      <c r="C235" t="inlineStr">
         <is>
           <t>specifically dependent continuant</t>
         </is>
       </c>
-      <c r="D235" s="4" t="inlineStr">
+      <c r="D235" t="inlineStr">
         <is>
           <t>A dependent entity that inheres in a bearer by virtue of how the bearer is related to other entities.</t>
         </is>
       </c>
-      <c r="E235" s="4" t="inlineStr"/>
-      <c r="F235" s="4" t="inlineStr"/>
-      <c r="G235" s="4" t="inlineStr"/>
-      <c r="H235" s="4" t="inlineStr"/>
-      <c r="I235" s="4" t="inlineStr"/>
-      <c r="J235" s="4" t="inlineStr"/>
-      <c r="K235" s="4" t="inlineStr"/>
-      <c r="L235" s="4" t="inlineStr"/>
-      <c r="M235" s="4" t="inlineStr"/>
-      <c r="N235" s="4" t="inlineStr">
-        <is>
-          <t>Obsolete</t>
-        </is>
-      </c>
-      <c r="O235" s="4" t="inlineStr"/>
-      <c r="P235" s="4" t="inlineStr"/>
+      <c r="E235" t="inlineStr"/>
+      <c r="F235" t="inlineStr"/>
+      <c r="G235" t="inlineStr"/>
+      <c r="H235" t="inlineStr"/>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" t="inlineStr"/>
+      <c r="N235" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="O235" t="inlineStr"/>
+      <c r="P235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="3" t="inlineStr">
@@ -10118,7 +10118,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>MF:0000030</t>
+          <t>BCIO:050309</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">

--- a/MechanismOfAction/inputs/BCIO_MoA.xlsx
+++ b/MechanismOfAction/inputs/BCIO_MoA.xlsx
@@ -4045,42 +4045,42 @@
       <c r="P87" t="inlineStr"/>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
+      <c r="A88" s="4" t="inlineStr">
         <is>
           <t>BCIO:050304</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B88" s="4" t="inlineStr">
         <is>
           <t>bodily feeling</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="C88" s="4" t="inlineStr">
         <is>
           <t>affective process</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
+      <c r="D88" s="4" t="inlineStr">
         <is>
           <t>An affective process involving sensory experience of physiological stimuli.</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr"/>
-      <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
+      <c r="E88" s="4" t="inlineStr"/>
+      <c r="F88" s="4" t="inlineStr"/>
+      <c r="G88" s="4" t="inlineStr"/>
+      <c r="H88" s="4" t="inlineStr"/>
+      <c r="I88" s="4" t="inlineStr"/>
+      <c r="J88" s="4" t="inlineStr"/>
+      <c r="K88" s="4" t="inlineStr"/>
+      <c r="L88" s="4" t="inlineStr"/>
+      <c r="M88" s="4" t="inlineStr"/>
+      <c r="N88" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="O88" s="4" t="inlineStr"/>
+      <c r="P88" s="4" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -4129,42 +4129,42 @@
       <c r="P89" t="inlineStr"/>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
+      <c r="A90" s="4" t="inlineStr">
         <is>
           <t>BCIO:050305</t>
         </is>
       </c>
-      <c r="B90" t="inlineStr">
+      <c r="B90" s="4" t="inlineStr">
         <is>
           <t>bodily quality</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
+      <c r="C90" s="4" t="inlineStr">
         <is>
           <t>quality</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
+      <c r="D90" s="4" t="inlineStr">
         <is>
           <t>A quality that inheres in some extended organism.</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr"/>
-      <c r="G90" t="inlineStr"/>
-      <c r="H90" t="inlineStr"/>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
+      <c r="E90" s="4" t="inlineStr"/>
+      <c r="F90" s="4" t="inlineStr"/>
+      <c r="G90" s="4" t="inlineStr"/>
+      <c r="H90" s="4" t="inlineStr"/>
+      <c r="I90" s="4" t="inlineStr"/>
+      <c r="J90" s="4" t="inlineStr"/>
+      <c r="K90" s="4" t="inlineStr"/>
+      <c r="L90" s="4" t="inlineStr"/>
+      <c r="M90" s="4" t="inlineStr"/>
+      <c r="N90" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="O90" s="4" t="inlineStr"/>
+      <c r="P90" s="4" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="3" t="inlineStr">
@@ -8098,42 +8098,42 @@
       <c r="P187" t="inlineStr"/>
     </row>
     <row r="188">
-      <c r="A188" t="inlineStr">
+      <c r="A188" s="4" t="inlineStr">
         <is>
           <t>BCIO:050307</t>
         </is>
       </c>
-      <c r="B188" t="inlineStr">
+      <c r="B188" s="4" t="inlineStr">
         <is>
           <t>mental quality</t>
         </is>
       </c>
-      <c r="C188" t="inlineStr">
+      <c r="C188" s="4" t="inlineStr">
         <is>
           <t>bodily quality</t>
         </is>
       </c>
-      <c r="D188" t="inlineStr">
+      <c r="D188" s="4" t="inlineStr">
         <is>
           <t>A bodily quality that inheres in those structures of the extended organism that are essential for mental functioning.</t>
         </is>
       </c>
-      <c r="E188" t="inlineStr"/>
-      <c r="F188" t="inlineStr"/>
-      <c r="G188" t="inlineStr"/>
-      <c r="H188" t="inlineStr"/>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="inlineStr"/>
-      <c r="N188" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="O188" t="inlineStr"/>
-      <c r="P188" t="inlineStr"/>
+      <c r="E188" s="4" t="inlineStr"/>
+      <c r="F188" s="4" t="inlineStr"/>
+      <c r="G188" s="4" t="inlineStr"/>
+      <c r="H188" s="4" t="inlineStr"/>
+      <c r="I188" s="4" t="inlineStr"/>
+      <c r="J188" s="4" t="inlineStr"/>
+      <c r="K188" s="4" t="inlineStr"/>
+      <c r="L188" s="4" t="inlineStr"/>
+      <c r="M188" s="4" t="inlineStr"/>
+      <c r="N188" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="O188" s="4" t="inlineStr"/>
+      <c r="P188" s="4" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="3" t="inlineStr">
@@ -10002,42 +10002,42 @@
       <c r="P234" s="3" t="inlineStr"/>
     </row>
     <row r="235">
-      <c r="A235" t="inlineStr">
+      <c r="A235" s="4" t="inlineStr">
         <is>
           <t>BCIO:050308</t>
         </is>
       </c>
-      <c r="B235" t="inlineStr">
+      <c r="B235" s="4" t="inlineStr">
         <is>
           <t>quality</t>
         </is>
       </c>
-      <c r="C235" t="inlineStr">
+      <c r="C235" s="4" t="inlineStr">
         <is>
           <t>specifically dependent continuant</t>
         </is>
       </c>
-      <c r="D235" t="inlineStr">
+      <c r="D235" s="4" t="inlineStr">
         <is>
           <t>A dependent entity that inheres in a bearer by virtue of how the bearer is related to other entities.</t>
         </is>
       </c>
-      <c r="E235" t="inlineStr"/>
-      <c r="F235" t="inlineStr"/>
-      <c r="G235" t="inlineStr"/>
-      <c r="H235" t="inlineStr"/>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
-      <c r="M235" t="inlineStr"/>
-      <c r="N235" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="O235" t="inlineStr"/>
-      <c r="P235" t="inlineStr"/>
+      <c r="E235" s="4" t="inlineStr"/>
+      <c r="F235" s="4" t="inlineStr"/>
+      <c r="G235" s="4" t="inlineStr"/>
+      <c r="H235" s="4" t="inlineStr"/>
+      <c r="I235" s="4" t="inlineStr"/>
+      <c r="J235" s="4" t="inlineStr"/>
+      <c r="K235" s="4" t="inlineStr"/>
+      <c r="L235" s="4" t="inlineStr"/>
+      <c r="M235" s="4" t="inlineStr"/>
+      <c r="N235" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="O235" s="4" t="inlineStr"/>
+      <c r="P235" s="4" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="3" t="inlineStr">

--- a/MechanismOfAction/inputs/BCIO_MoA.xlsx
+++ b/MechanismOfAction/inputs/BCIO_MoA.xlsx
@@ -10118,7 +10118,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>BCIO:050309</t>
+          <t>BCIO:050310</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">

--- a/MechanismOfAction/inputs/BCIO_MoA.xlsx
+++ b/MechanismOfAction/inputs/BCIO_MoA.xlsx
@@ -10116,42 +10116,42 @@
       <c r="P237" s="2" t="inlineStr"/>
     </row>
     <row r="238">
-      <c r="A238" t="inlineStr">
+      <c r="A238" s="4" t="inlineStr">
         <is>
           <t>BCIO:050310</t>
         </is>
       </c>
-      <c r="B238" t="inlineStr">
+      <c r="B238" s="4" t="inlineStr">
         <is>
           <t>representation</t>
         </is>
       </c>
-      <c r="C238" t="inlineStr">
+      <c r="C238" s="4" t="inlineStr">
         <is>
           <t>specifically dependent continuant</t>
         </is>
       </c>
-      <c r="D238" t="inlineStr">
+      <c r="D238" s="4" t="inlineStr">
         <is>
           <t>A dependent continuant which is about a portion of reality.</t>
         </is>
       </c>
-      <c r="E238" t="inlineStr"/>
-      <c r="F238" t="inlineStr"/>
-      <c r="G238" t="inlineStr"/>
-      <c r="H238" t="inlineStr"/>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
-      <c r="M238" t="inlineStr"/>
-      <c r="N238" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="O238" t="inlineStr"/>
-      <c r="P238" t="inlineStr"/>
+      <c r="E238" s="4" t="inlineStr"/>
+      <c r="F238" s="4" t="inlineStr"/>
+      <c r="G238" s="4" t="inlineStr"/>
+      <c r="H238" s="4" t="inlineStr"/>
+      <c r="I238" s="4" t="inlineStr"/>
+      <c r="J238" s="4" t="inlineStr"/>
+      <c r="K238" s="4" t="inlineStr"/>
+      <c r="L238" s="4" t="inlineStr"/>
+      <c r="M238" s="4" t="inlineStr"/>
+      <c r="N238" s="4" t="inlineStr">
+        <is>
+          <t>Obsolete</t>
+        </is>
+      </c>
+      <c r="O238" s="4" t="inlineStr"/>
+      <c r="P238" s="4" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="2" t="inlineStr">

--- a/MechanismOfAction/inputs/BCIO_MoA.xlsx
+++ b/MechanismOfAction/inputs/BCIO_MoA.xlsx
@@ -7157,7 +7157,7 @@
     <row r="148">
       <c r="A148" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006094</t>
+          <t>BCIO:036000</t>
         </is>
       </c>
       <c r="B148" s="2" t="inlineStr">

--- a/MechanismOfAction/inputs/BCIO_MoA.xlsx
+++ b/MechanismOfAction/inputs/BCIO_MoA.xlsx
@@ -10921,7 +10921,7 @@
       </c>
       <c r="D229" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition for motivation to be guided by a focus on the presence or absence of positive outcomes.</t>
+          <t>A mental disposition for motivation to be guided by a focus on the presence or absence of negative outcomes.</t>
         </is>
       </c>
       <c r="E229" s="2" t="inlineStr"/>
@@ -11093,7 +11093,7 @@
       </c>
       <c r="D233" s="2" t="inlineStr">
         <is>
-          <t>A mental disposition for motivation to be guided by a focus on the presence or absence of negative outcomes.</t>
+          <t>A mental disposition for motivation to be guided by a focus on the presence or absence of positive outcomes.</t>
         </is>
       </c>
       <c r="E233" s="2" t="inlineStr"/>

--- a/MechanismOfAction/inputs/BCIO_MoA.xlsx
+++ b/MechanismOfAction/inputs/BCIO_MoA.xlsx
@@ -4513,22 +4513,22 @@
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>BCIO:036034</t>
+          <t>BCIO:006110</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>communication behaviour</t>
+          <t>comprehension</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">inter-personal behaviour </t>
+          <t>cognitive process</t>
         </is>
       </c>
       <c r="D90" s="2" t="inlineStr">
         <is>
-          <t>An inter-personal behaviour that involves the intentional transmission of information.</t>
+          <t>A cognitive process that creates a representation of the meaning and significance of a communication, object, event or situation.</t>
         </is>
       </c>
       <c r="E90" s="2" t="inlineStr"/>
@@ -4554,43 +4554,47 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006110</t>
-        </is>
-      </c>
-      <c r="B91" s="2" t="inlineStr">
-        <is>
-          <t>comprehension</t>
-        </is>
-      </c>
-      <c r="C91" s="2" t="inlineStr">
-        <is>
-          <t>cognitive process</t>
-        </is>
-      </c>
-      <c r="D91" s="2" t="inlineStr">
-        <is>
-          <t>A cognitive process that creates a representation of the meaning and significance of a communication, object, event or situation.</t>
-        </is>
-      </c>
-      <c r="E91" s="2" t="inlineStr"/>
-      <c r="F91" s="2" t="inlineStr"/>
-      <c r="G91" s="2" t="inlineStr"/>
-      <c r="H91" s="2" t="inlineStr"/>
-      <c r="I91" s="2" t="inlineStr"/>
-      <c r="J91" s="2" t="inlineStr"/>
-      <c r="K91" s="2" t="inlineStr"/>
-      <c r="L91" s="2" t="inlineStr"/>
-      <c r="M91" s="2" t="inlineStr"/>
-      <c r="N91" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="O91" s="2" t="inlineStr"/>
-      <c r="P91" s="2" t="inlineStr"/>
-      <c r="Q91" s="2" t="inlineStr">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>MF:0000017</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>consciousness</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>process profile</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>That part of the mental process that confers a subjective perspective, a phenomenology, an experience of the mental process of which it is a part; and intends the object or event that the mental process is about, should such exist; it confers intentionality on the mental process.</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>A subjective experience of one’s inner or outer world, which can include experience of one's own mental processes.</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="O91" t="inlineStr"/>
+      <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr">
         <is>
           <t>Mechanisms of action</t>
         </is>
@@ -4599,30 +4603,26 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>MF:0000017</t>
+          <t>MFOEM:000020</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>consciousness</t>
+          <t>core disgust</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>process profile</t>
+          <t>disgust</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>That part of the mental process that confers a subjective perspective, a phenomenology, an experience of the mental process of which it is a part; and intends the object or event that the mental process is about, should such exist; it confers intentionality on the mental process.</t>
+          <t>Disgust elicited by "contaminated" food substances: rotten food, culturally variable "bad" food, certain animals associated with rotten food (maggots, rats), and every body product except tears.</t>
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>A subjective experience of one’s inner or outer world, which can include experience of one's own mental processes.</t>
-        </is>
-      </c>
+      <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
@@ -4646,22 +4646,22 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>MFOEM:000020</t>
+          <t>ADDICTO:0000511</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>core disgust</t>
+          <t>craving</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>disgust</t>
+          <t>subjective affective feeling</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Disgust elicited by "contaminated" food substances: rotten food, culturally variable "bad" food, certain animals associated with rotten food (maggots, rats), and every body product except tears.</t>
+          <t>A subjective affective feeling involving a strong desire or urge.</t>
         </is>
       </c>
       <c r="E93" t="inlineStr"/>
@@ -4679,7 +4679,11 @@
         </is>
       </c>
       <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>RW: I've made the edits I suggest pending agreement from the rest of the team 23 Feb 22</t>
+        </is>
+      </c>
       <c r="Q93" t="inlineStr">
         <is>
           <t>Mechanisms of action</t>
@@ -4687,47 +4691,51 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000511</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>craving</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>subjective affective feeling</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>A subjective affective feeling involving a strong desire or urge.</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr"/>
-      <c r="F94" t="inlineStr"/>
-      <c r="G94" t="inlineStr"/>
-      <c r="H94" t="inlineStr"/>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr">
-        <is>
-          <t>RW: I've made the edits I suggest pending agreement from the rest of the team 23 Feb 22</t>
-        </is>
-      </c>
-      <c r="Q94" t="inlineStr">
+      <c r="A94" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006047</t>
+        </is>
+      </c>
+      <c r="B94" s="2" t="inlineStr">
+        <is>
+          <t>decision</t>
+        </is>
+      </c>
+      <c r="C94" s="2" t="inlineStr">
+        <is>
+          <t>mental disposition</t>
+        </is>
+      </c>
+      <c r="D94" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A mental disposition to represent one proposition as preferred from at least two. </t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="inlineStr"/>
+      <c r="F94" s="2" t="inlineStr">
+        <is>
+          <t>A conclusion or resolution reached after consideration of options.</t>
+        </is>
+      </c>
+      <c r="G94" s="2" t="inlineStr"/>
+      <c r="H94" s="2" t="inlineStr"/>
+      <c r="I94" s="2" t="inlineStr">
+        <is>
+          <t>Decision is defined as a 'mental disposition', a realisable entity, because a person requires a process to form, think about or reconsider a decision.</t>
+        </is>
+      </c>
+      <c r="J94" s="2" t="inlineStr"/>
+      <c r="K94" s="2" t="inlineStr"/>
+      <c r="L94" s="2" t="inlineStr"/>
+      <c r="M94" s="2" t="inlineStr"/>
+      <c r="N94" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="O94" s="2" t="inlineStr"/>
+      <c r="P94" s="2" t="inlineStr"/>
+      <c r="Q94" s="2" t="inlineStr">
         <is>
           <t>Mechanisms of action</t>
         </is>
@@ -4736,37 +4744,29 @@
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006047</t>
+          <t>BCIO:006111</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>decision</t>
+          <t xml:space="preserve">decision simplification </t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr">
         <is>
-          <t>mental disposition</t>
+          <t>cognitive process</t>
         </is>
       </c>
       <c r="D95" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">A mental disposition to represent one proposition as preferred from at least two. </t>
+          <t>A cognitive process used prior to decision-making that reduces the perceived scope or complexity of available options.</t>
         </is>
       </c>
       <c r="E95" s="2" t="inlineStr"/>
-      <c r="F95" s="2" t="inlineStr">
-        <is>
-          <t>A conclusion or resolution reached after consideration of options.</t>
-        </is>
-      </c>
+      <c r="F95" s="2" t="inlineStr"/>
       <c r="G95" s="2" t="inlineStr"/>
       <c r="H95" s="2" t="inlineStr"/>
-      <c r="I95" s="2" t="inlineStr">
-        <is>
-          <t>Decision is defined as a 'mental disposition', a realisable entity, because a person requires a process to form, think about or reconsider a decision.</t>
-        </is>
-      </c>
+      <c r="I95" s="2" t="inlineStr"/>
       <c r="J95" s="2" t="inlineStr"/>
       <c r="K95" s="2" t="inlineStr"/>
       <c r="L95" s="2" t="inlineStr"/>
@@ -4787,29 +4787,33 @@
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006111</t>
+          <t>BCIO:006116</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">decision simplification </t>
+          <t>decision-making</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr">
         <is>
-          <t>cognitive process</t>
+          <t>judging</t>
         </is>
       </c>
       <c r="D96" s="2" t="inlineStr">
         <is>
-          <t>A cognitive process used prior to decision-making that reduces the perceived scope or complexity of available options.</t>
+          <t>Judging during which one proposition is selected as preferred from at least two.</t>
         </is>
       </c>
       <c r="E96" s="2" t="inlineStr"/>
       <c r="F96" s="2" t="inlineStr"/>
       <c r="G96" s="2" t="inlineStr"/>
       <c r="H96" s="2" t="inlineStr"/>
-      <c r="I96" s="2" t="inlineStr"/>
+      <c r="I96" s="2" t="inlineStr">
+        <is>
+          <t>The output of decision-making is a decision.</t>
+        </is>
+      </c>
       <c r="J96" s="2" t="inlineStr"/>
       <c r="K96" s="2" t="inlineStr"/>
       <c r="L96" s="2" t="inlineStr"/>
@@ -4830,22 +4834,22 @@
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006116</t>
+          <t>BCIO:006079</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>decision-making</t>
+          <t>desired standard</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr">
         <is>
-          <t>judging</t>
+          <t>cognitive representation</t>
         </is>
       </c>
       <c r="D97" s="2" t="inlineStr">
         <is>
-          <t>Judging during which one proposition is selected as preferred from at least two.</t>
+          <t>A cognitive representation of a reference level that an individual wishes to obtain.</t>
         </is>
       </c>
       <c r="E97" s="2" t="inlineStr"/>
@@ -4854,7 +4858,7 @@
       <c r="H97" s="2" t="inlineStr"/>
       <c r="I97" s="2" t="inlineStr">
         <is>
-          <t>The output of decision-making is a decision.</t>
+          <t>Examples of 'reference level' are the level of a behaviour and the blood glucose level.</t>
         </is>
       </c>
       <c r="J97" s="2" t="inlineStr"/>
@@ -4877,33 +4881,29 @@
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006079</t>
+          <t>BCIO:006121</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>desired standard</t>
+          <t>discrimination learning</t>
         </is>
       </c>
       <c r="C98" s="2" t="inlineStr">
         <is>
-          <t>cognitive representation</t>
+          <t>associative learning</t>
         </is>
       </c>
       <c r="D98" s="2" t="inlineStr">
         <is>
-          <t>A cognitive representation of a reference level that an individual wishes to obtain.</t>
+          <t>Associative learning process in which people learn to distinguish between appropriate responses to similar but different stimuli depending on whether a generalised response is rewarded or not.</t>
         </is>
       </c>
       <c r="E98" s="2" t="inlineStr"/>
       <c r="F98" s="2" t="inlineStr"/>
       <c r="G98" s="2" t="inlineStr"/>
       <c r="H98" s="2" t="inlineStr"/>
-      <c r="I98" s="2" t="inlineStr">
-        <is>
-          <t>Examples of 'reference level' are the level of a behaviour and the blood glucose level.</t>
-        </is>
-      </c>
+      <c r="I98" s="2" t="inlineStr"/>
       <c r="J98" s="2" t="inlineStr"/>
       <c r="K98" s="2" t="inlineStr"/>
       <c r="L98" s="2" t="inlineStr"/>
@@ -4924,22 +4924,22 @@
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006121</t>
+          <t>BCIO:050227</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>discrimination learning</t>
+          <t>disengagement due to workload</t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr">
         <is>
-          <t>associative learning</t>
+          <t>mental disposition</t>
         </is>
       </c>
       <c r="D99" s="2" t="inlineStr">
         <is>
-          <t>Associative learning process in which people learn to distinguish between appropriate responses to similar but different stimuli depending on whether a generalised response is rewarded or not.</t>
+          <t>A mental disposition to be detached from other people due to exhaustion experienced in one's working environment.</t>
         </is>
       </c>
       <c r="E99" s="2" t="inlineStr"/>
@@ -4965,129 +4965,129 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050227</t>
-        </is>
-      </c>
-      <c r="B100" s="2" t="inlineStr">
-        <is>
-          <t>disengagement due to workload</t>
-        </is>
-      </c>
-      <c r="C100" s="2" t="inlineStr">
-        <is>
-          <t>mental disposition</t>
-        </is>
-      </c>
-      <c r="D100" s="2" t="inlineStr">
-        <is>
-          <t>A mental disposition to be detached from other people due to exhaustion experienced in one's working environment.</t>
-        </is>
-      </c>
-      <c r="E100" s="2" t="inlineStr"/>
-      <c r="F100" s="2" t="inlineStr"/>
-      <c r="G100" s="2" t="inlineStr"/>
-      <c r="H100" s="2" t="inlineStr"/>
-      <c r="I100" s="2" t="inlineStr"/>
-      <c r="J100" s="2" t="inlineStr"/>
-      <c r="K100" s="2" t="inlineStr"/>
-      <c r="L100" s="2" t="inlineStr"/>
-      <c r="M100" s="2" t="inlineStr"/>
-      <c r="N100" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="O100" s="2" t="inlineStr"/>
-      <c r="P100" s="2" t="inlineStr"/>
-      <c r="Q100" s="2" t="inlineStr">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">MFOEM:000019 </t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>disgust</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>emotion process</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>A negative emotion that is characterised by a need to get rid of, or distance oneself from, a stimulus that is appraised as repulsing.</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr">
         <is>
           <t>Mechanisms of action</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MFOEM:000019 </t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>disgust</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>emotion process</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>A negative emotion that is characterised by a need to get rid of, or distance oneself from, a stimulus that is appraised as repulsing.</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr"/>
-      <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr"/>
-      <c r="H101" t="inlineStr"/>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="inlineStr">
+      <c r="A101" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006113</t>
+        </is>
+      </c>
+      <c r="B101" s="2" t="inlineStr">
+        <is>
+          <t>dissonance reduction process</t>
+        </is>
+      </c>
+      <c r="C101" s="2" t="inlineStr">
+        <is>
+          <t>mental process</t>
+        </is>
+      </c>
+      <c r="D101" s="2" t="inlineStr">
+        <is>
+          <t>A mental process through which a perceived inconsistency between two concurrently held cognitive representations is reduced.</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="inlineStr"/>
+      <c r="F101" s="2" t="inlineStr"/>
+      <c r="G101" s="2" t="inlineStr"/>
+      <c r="H101" s="2" t="inlineStr"/>
+      <c r="I101" s="2" t="inlineStr"/>
+      <c r="J101" s="2" t="inlineStr"/>
+      <c r="K101" s="2" t="inlineStr"/>
+      <c r="L101" s="2" t="inlineStr"/>
+      <c r="M101" s="2" t="inlineStr"/>
+      <c r="N101" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="O101" s="2" t="inlineStr"/>
+      <c r="P101" s="2" t="inlineStr"/>
+      <c r="Q101" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>ENVO:01001110</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>ecosystem</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>environmental system</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>An environmental system which includes both living and non-living components.</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006113</t>
-        </is>
-      </c>
-      <c r="B102" s="2" t="inlineStr">
-        <is>
-          <t>dissonance reduction process</t>
-        </is>
-      </c>
-      <c r="C102" s="2" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D102" s="2" t="inlineStr">
-        <is>
-          <t>A mental process through which a perceived inconsistency between two concurrently held cognitive representations is reduced.</t>
-        </is>
-      </c>
-      <c r="E102" s="2" t="inlineStr"/>
-      <c r="F102" s="2" t="inlineStr"/>
-      <c r="G102" s="2" t="inlineStr"/>
-      <c r="H102" s="2" t="inlineStr"/>
-      <c r="I102" s="2" t="inlineStr"/>
-      <c r="J102" s="2" t="inlineStr"/>
-      <c r="K102" s="2" t="inlineStr"/>
-      <c r="L102" s="2" t="inlineStr"/>
-      <c r="M102" s="2" t="inlineStr"/>
-      <c r="N102" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="O102" s="2" t="inlineStr"/>
-      <c r="P102" s="2" t="inlineStr"/>
-      <c r="Q102" s="2" t="inlineStr">
+      <c r="O102" t="inlineStr"/>
+      <c r="P102" t="inlineStr"/>
+      <c r="Q102" t="inlineStr">
         <is>
           <t>Mechanisms of action</t>
         </is>
@@ -5096,29 +5096,35 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>ENVO:01001110</t>
+          <t xml:space="preserve">MFOEM:000001 </t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>ecosystem</t>
+          <t>emotion process</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>environmental system</t>
+          <t>affective process</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>An environmental system which includes both living and non-living components.</t>
+          <t>An affective process that is a synchronized aggregate of constituent mental processes, including an appraisal process, which is valenced, has an object, and gives rise to an action tendency.</t>
         </is>
       </c>
       <c r="E103" t="inlineStr"/>
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
       <c r="H103" t="inlineStr"/>
-      <c r="I103" t="inlineStr"/>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>There is no intended sequence of the entities that are part of the emotion process (e.g., an appraisal process does not necessarily precede a physiological process part of the emotion process). 
+Emotion processes are distinguished from other affective processes (e.g., mood) by having an object. Even if an emotion is experienced due to physiological reasons, they would be felt as being about something or someone. For instance, a person might be angry at a situation that they would normally not be angry at, because they are hungry. However, that person would still be angry at a specific situation. 
+Valence refers to the 'the subjective value of an event, object, person, or other entity in the life space of the individual' (https://dictionary.apa.org/valence). Valence ranges from negative to positive.</t>
+        </is>
+      </c>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
@@ -5139,33 +5145,39 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t xml:space="preserve">MFOEM:000001 </t>
+          <t xml:space="preserve">MFOEM:000007 </t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>emotion process</t>
+          <t>emotional action tendency</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>affective process</t>
+          <t>bodily disposition</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>An affective process that is a synchronized aggregate of constituent mental processes, including an appraisal process, which is valenced, has an object, and gives rise to an action tendency.</t>
+          <t>A bodily disposition to behaviour that inheres in an organism by virtue of the physical changes brought about by an emotion process.</t>
         </is>
       </c>
       <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr"/>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>A tendency to enact a behaviour that is experienced during or after an emotion.</t>
+        </is>
+      </c>
       <c r="G104" t="inlineStr"/>
-      <c r="H104" t="inlineStr"/>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Flight and fight action tendencies</t>
+        </is>
+      </c>
       <c r="I104" t="inlineStr">
         <is>
-          <t>There is no intended sequence of the entities that are part of the emotion process (e.g., an appraisal process does not necessarily precede a physiological process part of the emotion process). 
-Emotion processes are distinguished from other affective processes (e.g., mood) by having an object. Even if an emotion is experienced due to physiological reasons, they would be felt as being about something or someone. For instance, a person might be angry at a situation that they would normally not be angry at, because they are hungry. However, that person would still be angry at a specific situation. 
-Valence refers to the 'the subjective value of an event, object, person, or other entity in the life space of the individual' (https://dictionary.apa.org/valence). Valence ranges from negative to positive.</t>
+          <t>Emotional action tendency involves dispositions that proceed a behaviour relating to emotions. For instance, fight or flight action tendencies influence a person's behaviour in response to a threat.</t>
         </is>
       </c>
       <c r="J104" t="inlineStr"/>
@@ -5186,102 +5198,94 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t xml:space="preserve">MFOEM:000007 </t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>emotional action tendency</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>bodily disposition</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>A bodily disposition to behaviour that inheres in an organism by virtue of the physical changes brought about by an emotion process.</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>A tendency to enact a behaviour that is experienced during or after an emotion.</t>
-        </is>
-      </c>
-      <c r="G105" t="inlineStr"/>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>Flight and fight action tendencies</t>
-        </is>
-      </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>Emotional action tendency involves dispositions that proceed a behaviour relating to emotions. For instance, fight or flight action tendencies influence a person's behaviour in response to a threat.</t>
-        </is>
-      </c>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="inlineStr">
+      <c r="A105" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006008</t>
+        </is>
+      </c>
+      <c r="B105" s="2" t="inlineStr">
+        <is>
+          <t>emotional self-regulation capability</t>
+        </is>
+      </c>
+      <c r="C105" s="2" t="inlineStr">
+        <is>
+          <t>self-regulation capability</t>
+        </is>
+      </c>
+      <c r="D105" s="2" t="inlineStr">
+        <is>
+          <t>A self-regulation capability to modulate one's emotional responses to a stimulus.</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="inlineStr"/>
+      <c r="F105" s="2" t="inlineStr"/>
+      <c r="G105" s="2" t="inlineStr">
+        <is>
+          <t>emotional regulation capability</t>
+        </is>
+      </c>
+      <c r="H105" s="2" t="inlineStr"/>
+      <c r="I105" s="2" t="inlineStr"/>
+      <c r="J105" s="2" t="inlineStr"/>
+      <c r="K105" s="2" t="inlineStr"/>
+      <c r="L105" s="2" t="inlineStr"/>
+      <c r="M105" s="2" t="inlineStr"/>
+      <c r="N105" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="O105" s="2" t="inlineStr"/>
+      <c r="P105" s="2" t="inlineStr"/>
+      <c r="Q105" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>ENVO:01000452</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>environmental disposition</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>disposition</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>A disposition which is realised by an environmental system or system parts thereof.</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'Mental disposition' is a subclass of 'bodily disposition', as mental dispositions occur in the body. </t>
+        </is>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006008</t>
-        </is>
-      </c>
-      <c r="B106" s="2" t="inlineStr">
-        <is>
-          <t>emotional self-regulation capability</t>
-        </is>
-      </c>
-      <c r="C106" s="2" t="inlineStr">
-        <is>
-          <t>self-regulation capability</t>
-        </is>
-      </c>
-      <c r="D106" s="2" t="inlineStr">
-        <is>
-          <t>A self-regulation capability to modulate one's emotional responses to a stimulus.</t>
-        </is>
-      </c>
-      <c r="E106" s="2" t="inlineStr"/>
-      <c r="F106" s="2" t="inlineStr"/>
-      <c r="G106" s="2" t="inlineStr">
-        <is>
-          <t>emotional regulation capability</t>
-        </is>
-      </c>
-      <c r="H106" s="2" t="inlineStr"/>
-      <c r="I106" s="2" t="inlineStr"/>
-      <c r="J106" s="2" t="inlineStr"/>
-      <c r="K106" s="2" t="inlineStr"/>
-      <c r="L106" s="2" t="inlineStr"/>
-      <c r="M106" s="2" t="inlineStr"/>
-      <c r="N106" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="O106" s="2" t="inlineStr"/>
-      <c r="P106" s="2" t="inlineStr"/>
-      <c r="Q106" s="2" t="inlineStr">
+      <c r="O106" t="inlineStr"/>
+      <c r="P106" t="inlineStr"/>
+      <c r="Q106" t="inlineStr">
         <is>
           <t>Mechanisms of action</t>
         </is>
@@ -5290,31 +5294,37 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>ENVO:01000452</t>
+          <t>ENVO:01000254</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>environmental disposition</t>
+          <t>environmental system</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>disposition</t>
+          <t>system</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>A disposition which is realised by an environmental system or system parts thereof.</t>
+          <t>A system which has the disposition to surround and interact with one or more material entities.</t>
         </is>
       </c>
       <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr"/>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>The social and physical environment surrounding a person.</t>
+        </is>
+      </c>
       <c r="G107" t="inlineStr"/>
       <c r="H107" t="inlineStr"/>
       <c r="I107" t="inlineStr">
         <is>
-          <t xml:space="preserve">'Mental disposition' is a subclass of 'bodily disposition', as mental dispositions occur in the body. </t>
+          <t>'The term 'disposition' is used to describe that an environmental system can surround and interact with one or more material entities. This conditionality is important, as an entity does not necessarily have to be in an specific environment system at all times.
+The class 'environmental system' relates to what is found in the physical and social environment (e.g., how many streets are there for you to walk on), while the class 'opportunity' is about the features of the environment and how they interact with the person (e.g., whether an environment enables a person to take walks).
+'environmental system' includes physical and social aspects of the environment. As all subclasses of 'environmental system' will have physical aspects, a separate subclass for 'physical environmental system' would not capture a unique aspect of its parent class.</t>
         </is>
       </c>
       <c r="J107" t="inlineStr"/>
@@ -5335,53 +5345,43 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>ENVO:01000254</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>environmental system</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>system</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>A system which has the disposition to surround and interact with one or more material entities.</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>The social and physical environment surrounding a person.</t>
-        </is>
-      </c>
-      <c r="G108" t="inlineStr"/>
-      <c r="H108" t="inlineStr"/>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>'The term 'disposition' is used to describe that an environmental system can surround and interact with one or more material entities. This conditionality is important, as an entity does not necessarily have to be in an specific environment system at all times.
-The class 'environmental system' relates to what is found in the physical and social environment (e.g., how many streets are there for you to walk on), while the class 'opportunity' is about the features of the environment and how they interact with the person (e.g., whether an environment enables a person to take walks).
-'environmental system' includes physical and social aspects of the environment. As all subclasses of 'environmental system' will have physical aspects, a separate subclass for 'physical environmental system' would not capture a unique aspect of its parent class.</t>
-        </is>
-      </c>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr">
+      <c r="A108" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006127</t>
+        </is>
+      </c>
+      <c r="B108" s="2" t="inlineStr">
+        <is>
+          <t>episodic memory</t>
+        </is>
+      </c>
+      <c r="C108" s="2" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="D108" s="2" t="inlineStr">
+        <is>
+          <t>A memory process that deals with the receipt, storage, retrieval and modification of information regarding a personally experienced event at a particular time or place.</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="inlineStr"/>
+      <c r="F108" s="2" t="inlineStr"/>
+      <c r="G108" s="2" t="inlineStr"/>
+      <c r="H108" s="2" t="inlineStr"/>
+      <c r="I108" s="2" t="inlineStr"/>
+      <c r="J108" s="2" t="inlineStr"/>
+      <c r="K108" s="2" t="inlineStr"/>
+      <c r="L108" s="2" t="inlineStr"/>
+      <c r="M108" s="2" t="inlineStr"/>
+      <c r="N108" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="O108" s="2" t="inlineStr"/>
+      <c r="P108" s="2" t="inlineStr"/>
+      <c r="Q108" s="2" t="inlineStr">
         <is>
           <t>Mechanisms of action</t>
         </is>
@@ -5390,29 +5390,37 @@
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006127</t>
+          <t>BCIO:006035</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
         <is>
-          <t>episodic memory</t>
+          <t>evaluation of self</t>
         </is>
       </c>
       <c r="C109" s="2" t="inlineStr">
         <is>
-          <t>memory</t>
+          <t>evaluative belief</t>
         </is>
       </c>
       <c r="D109" s="2" t="inlineStr">
         <is>
-          <t>A memory process that deals with the receipt, storage, retrieval and modification of information regarding a personally experienced event at a particular time or place.</t>
+          <t>An evaluative belief about one's attributes.</t>
         </is>
       </c>
       <c r="E109" s="2" t="inlineStr"/>
       <c r="F109" s="2" t="inlineStr"/>
-      <c r="G109" s="2" t="inlineStr"/>
+      <c r="G109" s="2" t="inlineStr">
+        <is>
+          <t>Self-concept</t>
+        </is>
+      </c>
       <c r="H109" s="2" t="inlineStr"/>
-      <c r="I109" s="2" t="inlineStr"/>
+      <c r="I109" s="2" t="inlineStr">
+        <is>
+          <t>One's attributes can be evaluated as positive or negative.</t>
+        </is>
+      </c>
       <c r="J109" s="2" t="inlineStr"/>
       <c r="K109" s="2" t="inlineStr"/>
       <c r="L109" s="2" t="inlineStr"/>
@@ -5433,35 +5441,31 @@
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006035</t>
+          <t>BCIO:006038</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>evaluation of self</t>
+          <t>evaluative belief</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr">
         <is>
-          <t>evaluative belief</t>
+          <t>belief</t>
         </is>
       </c>
       <c r="D110" s="2" t="inlineStr">
         <is>
-          <t>An evaluative belief about one's attributes.</t>
+          <t>A belief about whether a particular aspect of the world is positive or negative.</t>
         </is>
       </c>
       <c r="E110" s="2" t="inlineStr"/>
       <c r="F110" s="2" t="inlineStr"/>
-      <c r="G110" s="2" t="inlineStr">
-        <is>
-          <t>Self-concept</t>
-        </is>
-      </c>
+      <c r="G110" s="2" t="inlineStr"/>
       <c r="H110" s="2" t="inlineStr"/>
       <c r="I110" s="2" t="inlineStr">
         <is>
-          <t>One's attributes can be evaluated as positive or negative.</t>
+          <t>The class 'evaluative belief about the consequences of behaviour' can be found as the subclass of 'belief about consequences of behaviour'.</t>
         </is>
       </c>
       <c r="J110" s="2" t="inlineStr"/>
@@ -5484,33 +5488,29 @@
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006038</t>
+          <t>BCIO:006147</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
         <is>
+          <t>evaluative belief about behaviour</t>
+        </is>
+      </c>
+      <c r="C111" s="2" t="inlineStr">
+        <is>
           <t>evaluative belief</t>
         </is>
       </c>
-      <c r="C111" s="2" t="inlineStr">
-        <is>
-          <t>belief</t>
-        </is>
-      </c>
       <c r="D111" s="2" t="inlineStr">
         <is>
-          <t>A belief about whether a particular aspect of the world is positive or negative.</t>
+          <t>An evaluative belief about whether a behaviour is positive or negative.</t>
         </is>
       </c>
       <c r="E111" s="2" t="inlineStr"/>
       <c r="F111" s="2" t="inlineStr"/>
       <c r="G111" s="2" t="inlineStr"/>
       <c r="H111" s="2" t="inlineStr"/>
-      <c r="I111" s="2" t="inlineStr">
-        <is>
-          <t>The class 'evaluative belief about the consequences of behaviour' can be found as the subclass of 'belief about consequences of behaviour'.</t>
-        </is>
-      </c>
+      <c r="I111" s="2" t="inlineStr"/>
       <c r="J111" s="2" t="inlineStr"/>
       <c r="K111" s="2" t="inlineStr"/>
       <c r="L111" s="2" t="inlineStr"/>
@@ -5531,12 +5531,12 @@
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006147</t>
+          <t>BCIO:006150</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
-          <t>evaluative belief about behaviour</t>
+          <t>evaluative belief about others</t>
         </is>
       </c>
       <c r="C112" s="2" t="inlineStr">
@@ -5546,7 +5546,7 @@
       </c>
       <c r="D112" s="2" t="inlineStr">
         <is>
-          <t>An evaluative belief about whether a behaviour is positive or negative.</t>
+          <t>An evaluative belief about the attributes of others.</t>
         </is>
       </c>
       <c r="E112" s="2" t="inlineStr"/>
@@ -5574,25 +5574,29 @@
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006150</t>
+          <t>BCIO:006148</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
         <is>
-          <t>evaluative belief about others</t>
+          <t>evaluative belief about the consequences of behaviour</t>
         </is>
       </c>
       <c r="C113" s="2" t="inlineStr">
         <is>
-          <t>evaluative belief</t>
+          <t>belief about consequences of behaviour</t>
         </is>
       </c>
       <c r="D113" s="2" t="inlineStr">
         <is>
-          <t>An evaluative belief about the attributes of others.</t>
-        </is>
-      </c>
-      <c r="E113" s="2" t="inlineStr"/>
+          <t>A belief about consequences of behaviour in terms of whether they are positive or negative.</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="inlineStr">
+        <is>
+          <t>(evaluative belief    belief about consequences of behaviour)</t>
+        </is>
+      </c>
       <c r="F113" s="2" t="inlineStr"/>
       <c r="G113" s="2" t="inlineStr"/>
       <c r="H113" s="2" t="inlineStr"/>
@@ -5617,33 +5621,34 @@
     <row r="114">
       <c r="A114" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006148</t>
+          <t>BCIO:006122</t>
         </is>
       </c>
       <c r="B114" s="2" t="inlineStr">
         <is>
-          <t>evaluative belief about the consequences of behaviour</t>
+          <t>extinction in classical conditioning</t>
         </is>
       </c>
       <c r="C114" s="2" t="inlineStr">
         <is>
-          <t>belief about consequences of behaviour</t>
+          <t>associative learning</t>
         </is>
       </c>
       <c r="D114" s="2" t="inlineStr">
         <is>
-          <t>A belief about consequences of behaviour in terms of whether they are positive or negative.</t>
-        </is>
-      </c>
-      <c r="E114" s="2" t="inlineStr">
-        <is>
-          <t>(evaluative belief    belief about consequences of behaviour)</t>
-        </is>
-      </c>
+          <t>Associative learning process in which the strength of a conditioned response is reduced because its conditioned stimulus is presented without being accompanied by the unconditioned stimulus.</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="inlineStr"/>
       <c r="F114" s="2" t="inlineStr"/>
       <c r="G114" s="2" t="inlineStr"/>
       <c r="H114" s="2" t="inlineStr"/>
-      <c r="I114" s="2" t="inlineStr"/>
+      <c r="I114" s="2" t="inlineStr">
+        <is>
+          <t>An unconditioned stimulus is "a stimulus that elicits a reflexive or innate response (the unconditioned response) without prior learning." (p., 280, Holt, N., Bremner, A., Sutherland, E., Vliek, M., Passer, M., and Smith, R. (2019). EBOOK: Psychology: The Science of Mind and Behaviour, 4e. McGraw Hill.)
+A conditioned stimulus is a stimulus that, through association with an unconditioned stimulus, comes to elicit a conditioned response similar to the original unconditioned response (Holt, N., Bremner, A., Sutherland, E., Vliek, M., Passer, M., and Smith, R. (2019). EBOOK: Psychology: The Science of Mind and Behaviour, 4e. McGraw Hill.)</t>
+        </is>
+      </c>
       <c r="J114" s="2" t="inlineStr"/>
       <c r="K114" s="2" t="inlineStr"/>
       <c r="L114" s="2" t="inlineStr"/>
@@ -5664,12 +5669,12 @@
     <row r="115">
       <c r="A115" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006122</t>
+          <t>BCIO:006123</t>
         </is>
       </c>
       <c r="B115" s="2" t="inlineStr">
         <is>
-          <t>extinction in classical conditioning</t>
+          <t>extinction in operant learning</t>
         </is>
       </c>
       <c r="C115" s="2" t="inlineStr">
@@ -5679,7 +5684,7 @@
       </c>
       <c r="D115" s="2" t="inlineStr">
         <is>
-          <t>Associative learning process in which the strength of a conditioned response is reduced because its conditioned stimulus is presented without being accompanied by the unconditioned stimulus.</t>
+          <t xml:space="preserve">Associative learning process in which the rate of behavioural response in the presence of a discriminative stimulus is reduced because the response is no longer followed by a reinforcer. </t>
         </is>
       </c>
       <c r="E115" s="2" t="inlineStr"/>
@@ -5688,8 +5693,7 @@
       <c r="H115" s="2" t="inlineStr"/>
       <c r="I115" s="2" t="inlineStr">
         <is>
-          <t>An unconditioned stimulus is "a stimulus that elicits a reflexive or innate response (the unconditioned response) without prior learning." (p., 280, Holt, N., Bremner, A., Sutherland, E., Vliek, M., Passer, M., and Smith, R. (2019). EBOOK: Psychology: The Science of Mind and Behaviour, 4e. McGraw Hill.)
-A conditioned stimulus is a stimulus that, through association with an unconditioned stimulus, comes to elicit a conditioned response similar to the original unconditioned response (Holt, N., Bremner, A., Sutherland, E., Vliek, M., Passer, M., and Smith, R. (2019). EBOOK: Psychology: The Science of Mind and Behaviour, 4e. McGraw Hill.)</t>
+          <t>Discriminative stimulus is "a signal that a particular response will produce certain consequences." (p. 291; Holt, N., Bremner, A., Sutherland, E., Vliek, M., Passer, M., and Smith, R. (2019). EBOOK: Psychology: The Science of Mind and Behaviour, 4e. McGraw Hill.)</t>
         </is>
       </c>
       <c r="J115" s="2" t="inlineStr"/>
@@ -5712,33 +5716,33 @@
     <row r="116">
       <c r="A116" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006123</t>
+          <t>BCIO:006307</t>
         </is>
       </c>
       <c r="B116" s="2" t="inlineStr">
         <is>
-          <t>extinction in operant learning</t>
+          <t>extrinsic motivation</t>
         </is>
       </c>
       <c r="C116" s="2" t="inlineStr">
         <is>
-          <t>associative learning</t>
+          <t>motivation</t>
         </is>
       </c>
       <c r="D116" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Associative learning process in which the rate of behavioural response in the presence of a discriminative stimulus is reduced because the response is no longer followed by a reinforcer. </t>
+          <t>Motivation that is based on external rewards, punishments or pressure regarding a behaviour.</t>
         </is>
       </c>
       <c r="E116" s="2" t="inlineStr"/>
       <c r="F116" s="2" t="inlineStr"/>
-      <c r="G116" s="2" t="inlineStr"/>
+      <c r="G116" s="2" t="inlineStr">
+        <is>
+          <t>controlled motivation</t>
+        </is>
+      </c>
       <c r="H116" s="2" t="inlineStr"/>
-      <c r="I116" s="2" t="inlineStr">
-        <is>
-          <t>Discriminative stimulus is "a signal that a particular response will produce certain consequences." (p. 291; Holt, N., Bremner, A., Sutherland, E., Vliek, M., Passer, M., and Smith, R. (2019). EBOOK: Psychology: The Science of Mind and Behaviour, 4e. McGraw Hill.)</t>
-        </is>
-      </c>
+      <c r="I116" s="2" t="inlineStr"/>
       <c r="J116" s="2" t="inlineStr"/>
       <c r="K116" s="2" t="inlineStr"/>
       <c r="L116" s="2" t="inlineStr"/>
@@ -5759,31 +5763,27 @@
     <row r="117">
       <c r="A117" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006307</t>
+          <t>BCIO:006002</t>
         </is>
       </c>
       <c r="B117" s="2" t="inlineStr">
         <is>
-          <t>extrinsic motivation</t>
+          <t>family environmental system</t>
         </is>
       </c>
       <c r="C117" s="2" t="inlineStr">
         <is>
-          <t>motivation</t>
+          <t>social environmental system</t>
         </is>
       </c>
       <c r="D117" s="2" t="inlineStr">
         <is>
-          <t>Motivation that is based on external rewards, punishments or pressure regarding a behaviour.</t>
+          <t>A social environmental system that consists of persons related as members of a domestic group, or a number of domestic groups linked through descent from a common ancestor, marriage,  adoption or other legal arrangements.</t>
         </is>
       </c>
       <c r="E117" s="2" t="inlineStr"/>
       <c r="F117" s="2" t="inlineStr"/>
-      <c r="G117" s="2" t="inlineStr">
-        <is>
-          <t>controlled motivation</t>
-        </is>
-      </c>
+      <c r="G117" s="2" t="inlineStr"/>
       <c r="H117" s="2" t="inlineStr"/>
       <c r="I117" s="2" t="inlineStr"/>
       <c r="J117" s="2" t="inlineStr"/>
@@ -5804,137 +5804,137 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006002</t>
-        </is>
-      </c>
-      <c r="B118" s="2" t="inlineStr">
-        <is>
-          <t>family environmental system</t>
-        </is>
-      </c>
-      <c r="C118" s="2" t="inlineStr">
-        <is>
-          <t>social environmental system</t>
-        </is>
-      </c>
-      <c r="D118" s="2" t="inlineStr">
-        <is>
-          <t>A social environmental system that consists of persons related as members of a domestic group, or a number of domestic groups linked through descent from a common ancestor, marriage,  adoption or other legal arrangements.</t>
-        </is>
-      </c>
-      <c r="E118" s="2" t="inlineStr"/>
-      <c r="F118" s="2" t="inlineStr"/>
-      <c r="G118" s="2" t="inlineStr"/>
-      <c r="H118" s="2" t="inlineStr"/>
-      <c r="I118" s="2" t="inlineStr"/>
-      <c r="J118" s="2" t="inlineStr"/>
-      <c r="K118" s="2" t="inlineStr"/>
-      <c r="L118" s="2" t="inlineStr"/>
-      <c r="M118" s="2" t="inlineStr"/>
-      <c r="N118" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="O118" s="2" t="inlineStr"/>
-      <c r="P118" s="2" t="inlineStr"/>
-      <c r="Q118" s="2" t="inlineStr">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>MFOEM:000026</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>fear</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>emotion process</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>A negative emotion that is aversive and characterised by feelings of threat and impending doom, and by an urge to get out of the situation.</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>Distinguished from anxiety since it usually has sudden onset and offset. Anxiety is often gradual and long-lasting and is triggered by a distal threat.</t>
+        </is>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="O118" t="inlineStr"/>
+      <c r="P118" t="inlineStr"/>
+      <c r="Q118" t="inlineStr">
         <is>
           <t>Mechanisms of action</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>MFOEM:000026</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>fear</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>emotion process</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>A negative emotion that is aversive and characterised by feelings of threat and impending doom, and by an urge to get out of the situation.</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr"/>
-      <c r="G119" t="inlineStr"/>
-      <c r="H119" t="inlineStr"/>
-      <c r="I119" t="inlineStr">
-        <is>
-          <t>Distinguished from anxiety since it usually has sudden onset and offset. Anxiety is often gradual and long-lasting and is triggered by a distal threat.</t>
-        </is>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="inlineStr"/>
-      <c r="N119" t="inlineStr">
+      <c r="A119" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006109</t>
+        </is>
+      </c>
+      <c r="B119" s="2" t="inlineStr">
+        <is>
+          <t>feeling an urge</t>
+        </is>
+      </c>
+      <c r="C119" s="2" t="inlineStr">
+        <is>
+          <t>subjective affective feeling</t>
+        </is>
+      </c>
+      <c r="D119" s="2" t="inlineStr">
+        <is>
+          <t>A subjective affective feeling that  arises when an impulse to enact a behaviour is activated but not immediately acted upon.</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="inlineStr"/>
+      <c r="F119" s="2" t="inlineStr"/>
+      <c r="G119" s="2" t="inlineStr"/>
+      <c r="H119" s="2" t="inlineStr"/>
+      <c r="I119" s="2" t="inlineStr">
+        <is>
+          <t>An urge is felt when an impulse is frustrated.</t>
+        </is>
+      </c>
+      <c r="J119" s="2" t="inlineStr"/>
+      <c r="K119" s="2" t="inlineStr"/>
+      <c r="L119" s="2" t="inlineStr"/>
+      <c r="M119" s="2" t="inlineStr"/>
+      <c r="N119" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="O119" s="2" t="inlineStr"/>
+      <c r="P119" s="2" t="inlineStr"/>
+      <c r="Q119" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>MFOEM:000107</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>feeling at ease</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>subjective affective feeling</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>A subjective affective feeling of being at ease, comfortable, relaxed.</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006109</t>
-        </is>
-      </c>
-      <c r="B120" s="2" t="inlineStr">
-        <is>
-          <t>feeling an urge</t>
-        </is>
-      </c>
-      <c r="C120" s="2" t="inlineStr">
-        <is>
-          <t>subjective affective feeling</t>
-        </is>
-      </c>
-      <c r="D120" s="2" t="inlineStr">
-        <is>
-          <t>A subjective affective feeling that  arises when an impulse to enact a behaviour is activated but not immediately acted upon.</t>
-        </is>
-      </c>
-      <c r="E120" s="2" t="inlineStr"/>
-      <c r="F120" s="2" t="inlineStr"/>
-      <c r="G120" s="2" t="inlineStr"/>
-      <c r="H120" s="2" t="inlineStr"/>
-      <c r="I120" s="2" t="inlineStr">
-        <is>
-          <t>An urge is felt when an impulse is frustrated.</t>
-        </is>
-      </c>
-      <c r="J120" s="2" t="inlineStr"/>
-      <c r="K120" s="2" t="inlineStr"/>
-      <c r="L120" s="2" t="inlineStr"/>
-      <c r="M120" s="2" t="inlineStr"/>
-      <c r="N120" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="O120" s="2" t="inlineStr"/>
-      <c r="P120" s="2" t="inlineStr"/>
-      <c r="Q120" s="2" t="inlineStr">
+      <c r="O120" t="inlineStr"/>
+      <c r="P120" t="inlineStr"/>
+      <c r="Q120" t="inlineStr">
         <is>
           <t>Mechanisms of action</t>
         </is>
@@ -5943,12 +5943,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>MFOEM:000107</t>
+          <t>MFOEM:000109</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>feeling at ease</t>
+          <t>feeling energetic</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -5958,7 +5958,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>A subjective affective feeling of being at ease, comfortable, relaxed.</t>
+          <t>A subjective affective feeling of having lots of energy, being energetic.</t>
         </is>
       </c>
       <c r="E121" t="inlineStr"/>
@@ -5986,22 +5986,22 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>MFOEM:000109</t>
+          <t xml:space="preserve">MFOEM:000112 </t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>feeling energetic</t>
+          <t>feeling exhausted</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>subjective affective feeling</t>
+          <t>feeling tired</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>A subjective affective feeling of having lots of energy, being energetic.</t>
+          <t>Feeling tired to an extremely strong degree.</t>
         </is>
       </c>
       <c r="E122" t="inlineStr"/>
@@ -6029,29 +6029,33 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t xml:space="preserve">MFOEM:000112 </t>
+          <t>MFOEM:000124</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>feeling exhausted</t>
+          <t>feeling nervous</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>feeling tired</t>
+          <t>subjective affective feeling</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>Feeling tired to an extremely strong degree.</t>
+          <t>A subjective affective feeling of being not at ease or agitated.</t>
         </is>
       </c>
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr"/>
-      <c r="I123" t="inlineStr"/>
+      <c r="I123" t="inlineStr">
+        <is>
+          <t>Note that 'feeling nervous' is related to 'anxiety' but is not identical with it. Feeling nervous is the subjective experience of nervousness, while anxiety is a complete emotion process. Subjective affective feelings are process parts of emotion processes.</t>
+        </is>
+      </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
@@ -6072,12 +6076,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>MFOEM:000124</t>
+          <t>ADDICTO:0000377</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>feeling nervous</t>
+          <t>feeling of need satisfaction</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -6087,18 +6091,22 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>A subjective affective feeling of being not at ease or agitated.</t>
+          <t>A feeling involving positive affect associated with reduction in a feeling of need.</t>
         </is>
       </c>
       <c r="E124" t="inlineStr"/>
-      <c r="F124" t="inlineStr"/>
-      <c r="G124" t="inlineStr"/>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>A feeling of anticipated relief or avoidance of discomfort.</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>subjective need</t>
+        </is>
+      </c>
       <c r="H124" t="inlineStr"/>
-      <c r="I124" t="inlineStr">
-        <is>
-          <t>Note that 'feeling nervous' is related to 'anxiety' but is not identical with it. Feeling nervous is the subjective experience of nervousness, while anxiety is a complete emotion process. Subjective affective feelings are process parts of emotion processes.</t>
-        </is>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
@@ -6117,137 +6125,137 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000377</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>feeling of need satisfaction</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
+      <c r="A125" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:050233</t>
+        </is>
+      </c>
+      <c r="B125" s="2" t="inlineStr">
+        <is>
+          <t>feeling sadness</t>
+        </is>
+      </c>
+      <c r="C125" s="2" t="inlineStr">
         <is>
           <t>subjective affective feeling</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>A feeling involving positive affect associated with reduction in a feeling of need.</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr"/>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>A feeling of anticipated relief or avoidance of discomfort.</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>subjective need</t>
-        </is>
-      </c>
-      <c r="H125" t="inlineStr"/>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="inlineStr"/>
-      <c r="N125" t="inlineStr">
+      <c r="D125" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">A subjective affective feeling of sadness. </t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="inlineStr"/>
+      <c r="F125" s="2" t="inlineStr"/>
+      <c r="G125" s="2" t="inlineStr"/>
+      <c r="H125" s="2" t="inlineStr"/>
+      <c r="I125" s="2" t="inlineStr"/>
+      <c r="J125" s="2" t="inlineStr"/>
+      <c r="K125" s="2" t="inlineStr"/>
+      <c r="L125" s="2" t="inlineStr"/>
+      <c r="M125" s="2" t="inlineStr"/>
+      <c r="N125" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="O125" s="2" t="inlineStr"/>
+      <c r="P125" s="2" t="inlineStr"/>
+      <c r="Q125" s="2" t="inlineStr">
+        <is>
+          <t>Mechanisms of action</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>MFOEM:000080</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>feeling tired</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>subjective affective feeling</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>A subjective affective feeling of tiredness, needing sleep.</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="inlineStr">
         <is>
           <t>External</t>
         </is>
       </c>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr">
-        <is>
-          <t>Mechanisms of action</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:050233</t>
-        </is>
-      </c>
-      <c r="B126" s="2" t="inlineStr">
-        <is>
-          <t>feeling sadness</t>
-        </is>
-      </c>
-      <c r="C126" s="2" t="inlineStr">
-        <is>
-          <t>subjective affective feeling</t>
-        </is>
-      </c>
-      <c r="D126" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">A subjective affective feeling of sadness. </t>
-        </is>
-      </c>
-      <c r="E126" s="2" t="inlineStr"/>
-      <c r="F126" s="2" t="inlineStr"/>
-      <c r="G126" s="2" t="inlineStr"/>
-      <c r="H126" s="2" t="inlineStr"/>
-      <c r="I126" s="2" t="inlineStr"/>
-      <c r="J126" s="2" t="inlineStr"/>
-      <c r="K126" s="2" t="inlineStr"/>
-      <c r="L126" s="2" t="inlineStr"/>
-      <c r="M126" s="2" t="inlineStr"/>
-      <c r="N126" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="O126" s="2" t="inlineStr"/>
-      <c r="P126" s="2" t="inlineStr"/>
-      <c r="Q126" s="2" t="inlineStr">
+      <c r="O126" t="inlineStr"/>
+      <c r="P126" t="inlineStr"/>
+      <c r="Q126" t="inlineStr">
         <is>
           <t>Mechanisms of action</t>
         </is>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>MFOEM:000080</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>feeling tired</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>subjective affective feeling</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>A subjective affective feeling of tiredness, needing sleep.</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr"/>
-      <c r="F127" t="inlineStr"/>
-      <c r="G127" t="inlineStr"/>
-      <c r="H127" t="inlineStr"/>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr"/>
-      <c r="N127" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr">
+      <c r="A127" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006087</t>
+        </is>
+      </c>
+      <c r="B127" s="2" t="inlineStr">
+        <is>
+          <t>financial behavioural opportunity</t>
+        </is>
+      </c>
+      <c r="C127" s="2" t="inlineStr">
+        <is>
+          <t>physical behavioural opportunity</t>
+        </is>
+      </c>
+      <c r="D127" s="2" t="inlineStr">
+        <is>
+          <t>A physical behavioural opportunity that involves the person having sufficient financial resources.</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="inlineStr"/>
+      <c r="F127" s="2" t="inlineStr">
+        <is>
+          <t>Properties of a person's environment that involve the material resources available to them and influence the person's ability to enact a behaviour.</t>
+        </is>
+      </c>
+      <c r="G127" s="2" t="inlineStr"/>
+      <c r="H127" s="2" t="inlineStr"/>
+      <c r="I127" s="2" t="inlineStr">
+        <is>
+          <t>As 'financial behavioural opportunity' will involve some physical monetary entity (e.g., money borrowed from someone), it is a physical behavioural opportunity. While financial resources (e.g., money) have intrinsically social dimensions, the 'financial behavioural opportunity' does not involve a social aspect.</t>
+        </is>
+      </c>
+      <c r="J127" s="2" t="inlineStr"/>
+      <c r="K127" s="2" t="inlineStr"/>
+      <c r="L127" s="2" t="inlineStr"/>
+      <c r="M127" s="2" t="inlineStr"/>
+      <c r="N127" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="O127" s="2" t="inlineStr"/>
+      <c r="P127" s="2" t="inlineStr"/>
+      <c r="Q127" s="2" t="inlineStr">
         <is>
           <t>Mechanisms of action</t>
         </is>
@@ -6256,37 +6264,29 @@
     <row r="128">
       <c r="A128" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006087</t>
+          <t>BCIO:006003</t>
         </is>
       </c>
       <c r="B128" s="2" t="inlineStr">
         <is>
-          <t>financial behavioural opportunity</t>
+          <t>friendship network</t>
         </is>
       </c>
       <c r="C128" s="2" t="inlineStr">
         <is>
-          <t>physical behavioural opportunity</t>
+          <t>social environmental system</t>
         </is>
       </c>
       <c r="D128" s="2" t="inlineStr">
         <is>
-          <t>A physical behavioural opportunity that involves the person having sufficient financial resources.</t>
+          <t>A social environmental system that consists of persons who share a bond of mutual affection and are in contact or communication.</t>
         </is>
       </c>
       <c r="E128" s="2" t="inlineStr"/>
-      <c r="F128" s="2" t="inlineStr">
-        <is>
-          <t>Properties of a person's environment that involve the material resources available to them and influence the person's ability to enact a behaviour.</t>
-        </is>
-      </c>
+      <c r="F128" s="2" t="inlineStr"/>
       <c r="G128" s="2" t="inlineStr"/>
       <c r="H128" s="2" t="inlineStr"/>
-      <c r="I128" s="2" t="inlineStr">
-        <is>
-          <t>As 'financial behavioural opportunity' will involve some physical monetary entity (e.g., money borrowed from someone), it is a physical behavioural opportunity. While financial resources (e.g., money) have intrinsically social dimensions, the 'financial behavioural opportunity' does not involve a social aspect.</t>
-        </is>
-      </c>
+      <c r="I128" s="2" t="inlineStr"/>
       <c r="J128" s="2" t="inlineStr"/>
       <c r="K128" s="2" t="inlineStr"/>
       <c r="L128" s="2" t="inlineStr"/>
@@ -6307,27 +6307,31 @@
     <row r="129">
       <c r="A129" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006003</t>
+          <t>BCIO:006308</t>
         </is>
       </c>
       <c r="B129" s="2" t="inlineStr">
         <is>
-          <t>friendship network</t>
+          <t>fundamental need-based motivation</t>
         </is>
       </c>
       <c r="C129" s="2" t="inlineStr">
         <is>
-          <t>social environmental system</t>
+          <t>autonomous motivation</t>
         </is>
       </c>
       <c r="D129" s="2" t="inlineStr">
         <is>
-          <t>A social environmental system that consists of persons who share a bond of mutual affection and are in contact or communication.</t>
+          <t>Autonomous motivation due to a behaviour being perceived to satisfy a core psychological need.</t>
         </is>
       </c>
       <c r="E129" s="2" t="inlineStr"/>
       <c r="F129" s="2" t="inlineStr"/>
-      <c r="G129" s="2" t="inlineStr"/>
+      <c r="G129" s="2" t="inlineStr">
+        <is>
+          <t>integrated motivation; integrated regulation</t>
+        </is>
+      </c>
       <c r="H129" s="2" t="inlineStr"/>
       <c r="I129" s="2" t="inlineStr"/>
       <c r="J129" s="2" t="inlineStr"/>
@@ -6350,33 +6354,33 @@
     <row r="130">
       <c r="A130" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006308</t>
+          <t>BCIO:006124</t>
         </is>
       </c>
       <c r="B130" s="2" t="inlineStr">
         <is>
-          <t>fundamental need-based motivation</t>
+          <t>generalisation in learning</t>
         </is>
       </c>
       <c r="C130" s="2" t="inlineStr">
         <is>
-          <t>autonomous motivation</t>
+          <t>associative learning</t>
         </is>
       </c>
       <c r="D130" s="2" t="inlineStr">
         <is>
-          <t>Autonomous motivation due to a behaviour being perceived to satisfy a core psychological need.</t>
+          <t>Associative learning process in which prior learning that an antecedent stimulus signals certain consequences of behaviour spreads to a stimulus that differs in certain aspects from the original antecedent stimulus.</t>
         </is>
       </c>
       <c r="E130" s="2" t="inlineStr"/>
       <c r="F130" s="2" t="inlineStr"/>
-      <c r="G130" s="2" t="inlineStr">
-        <is>
-          <t>integrated motivation; integrated regulation</t>
-        </is>
-      </c>
+      <c r="G130" s="2" t="inlineStr"/>
       <c r="H130" s="2" t="inlineStr"/>
-      <c r="I130" s="2" t="inlineStr"/>
+      <c r="I130" s="2" t="inlineStr">
+        <is>
+          <t>The label 'Generalisation of target  behavior' is used for a behaviour change technique (BCT) in the BCT Taxonomy v1 (Michie et al., 2013). The definition for this BCT reads as follows: 'Advise to perform the wanted behaviour,  which is already performed in a particular situation, in another situation.' Therefore, the BCT is the advice to perform the behaviour, whereas the MoA is a learning process that occurs in the brain.</t>
+        </is>
+      </c>
       <c r="J130" s="2" t="inlineStr"/>
       <c r="K130" s="2" t="inlineStr"/>
       <c r="L130" s="2" t="inlineStr"/>
@@ -6397,33 +6401,29 @@
     <row r="131">
       <c r="A131" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006124</t>
+          <t>BCIO:006049</t>
         </is>
       </c>
       <c r="B131" s="2" t="inlineStr">
         <is>
-          <t>generalisation in learning</t>
+          <t>goal</t>
         </is>
       </c>
       <c r="C131" s="2" t="inlineStr">
         <is>
-          <t>associative learning</t>
+          <t>cognitive representation</t>
         </is>
       </c>
       <c r="D131" s="2" t="inlineStr">
         <is>
-          <t>Associative learning process in which prior learning that an antecedent stimulus signals certain consequences of behaviour spreads to a stimulus that differs in certain aspects from the original antecedent stimulus.</t>
+          <t>A cognitive representation of an end state towards which one is striving.</t>
         </is>
       </c>
       <c r="E131" s="2" t="inlineStr"/>
       <c r="F131" s="2" t="inlineStr"/>
       <c r="G131" s="2" t="inlineStr"/>
       <c r="H131" s="2" t="inlineStr"/>
-      <c r="I131" s="2" t="inlineStr">
-        <is>
-          <t>The label 'Generalisation of target  behavior' is used for a behaviour change technique (BCT) in the BCT Taxonomy v1 (Michie et al., 2013). The definition for this BCT reads as follows: 'Advise to perform the wanted behaviour,  which is already performed in a particular situation, in another situation.' Therefore, the BCT is the advice to perform the behaviour, whereas the MoA is a learning process that occurs in the brain.</t>
-        </is>
-      </c>
+      <c r="I131" s="2" t="inlineStr"/>
       <c r="J131" s="2" t="inlineStr"/>
       <c r="K131" s="2" t="inlineStr"/>
       <c r="L131" s="2" t="inlineStr"/>
@@ -6444,29 +6444,33 @@
     <row r="132">
       <c r="A132" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006049</t>
+          <t>BCIO:006096</t>
         </is>
       </c>
       <c r="B132" s="2" t="inlineStr">
         <is>
-          <t>goal</t>
+          <t>goal pursuit process</t>
         </is>
       </c>
       <c r="C132" s="2" t="inlineStr">
         <is>
-          <t>cognitive representation</t>
+          <t>bodily process</t>
         </is>
       </c>
       <c r="D132" s="2" t="inlineStr">
         <is>
-          <t>A cognitive representation of an end state towards which one is striving.</t>
+          <t>A bodily process in which attempts are made to achieve a desired end state.</t>
         </is>
       </c>
       <c r="E132" s="2" t="inlineStr"/>
       <c r="F132" s="2" t="inlineStr"/>
       <c r="G132" s="2" t="inlineStr"/>
       <c r="H132" s="2" t="inlineStr"/>
-      <c r="I132" s="2" t="inlineStr"/>
+      <c r="I132" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">'Goal pursuit process' is a bodily process, as it may involve more than just mental processes (i.e., other processes in the body). </t>
+        </is>
+      </c>
       <c r="J132" s="2" t="inlineStr"/>
       <c r="K132" s="2" t="inlineStr"/>
       <c r="L132" s="2" t="inlineStr"/>
@@ -6487,33 +6491,29 @@
     <row r="133">
       <c r="A133" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006096</t>
+          <t>BCIO:006114</t>
         </is>
       </c>
       <c r="B133" s="2" t="inlineStr">
         <is>
-          <t>goal pursuit process</t>
+          <t>goal setting process</t>
         </is>
       </c>
       <c r="C133" s="2" t="inlineStr">
         <is>
-          <t>bodily process</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D133" s="2" t="inlineStr">
         <is>
-          <t>A bodily process in which attempts are made to achieve a desired end state.</t>
+          <t>A mental process that establishes a cognitive representation of the desired end state.</t>
         </is>
       </c>
       <c r="E133" s="2" t="inlineStr"/>
       <c r="F133" s="2" t="inlineStr"/>
       <c r="G133" s="2" t="inlineStr"/>
       <c r="H133" s="2" t="inlineStr"/>
-      <c r="I133" s="2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">'Goal pursuit process' is a bodily process, as it may involve more than just mental processes (i.e., other processes in the body). </t>
-        </is>
-      </c>
+      <c r="I133" s="2" t="inlineStr"/>
       <c r="J133" s="2" t="inlineStr"/>
       <c r="K133" s="2" t="inlineStr"/>
       <c r="L133" s="2" t="inlineStr"/>
@@ -6532,43 +6532,47 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006114</t>
-        </is>
-      </c>
-      <c r="B134" s="2" t="inlineStr">
-        <is>
-          <t>goal setting process</t>
-        </is>
-      </c>
-      <c r="C134" s="2" t="inlineStr">
-        <is>
-          <t>mental process</t>
-        </is>
-      </c>
-      <c r="D134" s="2" t="inlineStr">
-        <is>
-          <t>A mental process that establishes a cognitive representation of the desired end state.</t>
-        </is>
-      </c>
-      <c r="E134" s="2" t="inlineStr"/>
-      <c r="F134" s="2" t="inlineStr"/>
-      <c r="G134" s="2" t="inlineStr"/>
-      <c r="H134" s="2" t="inlineStr"/>
-      <c r="I134" s="2" t="inlineStr"/>
-      <c r="J134" s="2" t="inlineStr"/>
-      <c r="K134" s="2" t="inlineStr"/>
-      <c r="L134" s="2" t="inlineStr"/>
-      <c r="M134" s="2" t="inlineStr"/>
-      <c r="N134" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="O134" s="2" t="inlineStr"/>
-      <c r="P134" s="2" t="inlineStr"/>
-      <c r="Q134" s="2" t="inlineStr">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000715</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>group identity</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>identity</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>An identity that a group holds about itself.</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="inlineStr"/>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>An ongoing consideration regarding this class is whether a socially shared representation can be said to be purely cognitive.</t>
+        </is>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="O134" t="inlineStr"/>
+      <c r="P134" t="inlineStr"/>
+      <c r="Q134" t="inlineStr">
         <is>
           <t>Mechanisms of action</t>
         </is>
@@ -6577,33 +6581,29 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>ADDICTO:0000715</t>
+          <t>MFOEM:000053</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>group identity</t>
+          <t>guilt</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>identity</t>
+          <t>emotion process</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>An identity that a group holds about itself.</t>
+          <t>A negative self-evaluative emotion that occurs when a person brings about a negative outcome by acts of commission or omission that violate internal or external moral standards.</t>
         </is>
       </c>
       <c r="E135" t="inlineStr"/>
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr"/>
       <c r="H135" t="inlineStr"/>
-      <c r="I135" t="inlineStr">
-        <is>
-          <t>An ongoing consideration regarding this class is whether a socially shared representation can be said to be purely cognitive.</t>
-        </is>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
@@ -6622,43 +6622,43 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>MFOEM:000053</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>guilt</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>emotion process</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>A negative self-evaluative emotion that occurs when a person brings about a negative outcome by acts of commission or omission that violate internal or external moral standards.</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr"/>
-      <c r="F136" t="inlineStr"/>
-      <c r="G136" t="inlineStr"/>
-      <c r="H136" t="inlineStr"/>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="inlineStr"/>
-      <c r="N136" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="O136" t="inlineStr"/>
-      <c r="P136" t="inlineStr"/>
-      <c r="Q136" t="inlineStr">
+      <c r="A136" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006309</t>
+        </is>
+      </c>
+      <c r="B136" s="2" t="inlineStr">
+        <is>
+          <t>habit learning</t>
+        </is>
+      </c>
+      <c r="C136" s="2" t="inlineStr">
+        <is>
+          <t>associative learning</t>
+        </is>
+      </c>
+      <c r="D136" s="2" t="inlineStr">
+        <is>
+          <t>Associative learning process that involves strengthening an association between a stimulus and an impulse through repetition of co-occurrence of the stimulus and the behaviour.</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="inlineStr"/>
+      <c r="F136" s="2" t="inlineStr"/>
+      <c r="G136" s="2" t="inlineStr"/>
+      <c r="H136" s="2" t="inlineStr"/>
+      <c r="I136" s="2" t="inlineStr"/>
+      <c r="J136" s="2" t="inlineStr"/>
+      <c r="K136" s="2" t="inlineStr"/>
+      <c r="L136" s="2" t="inlineStr"/>
+      <c r="M136" s="2" t="inlineStr"/>
+      <c r="N136" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="O136" s="2" t="inlineStr"/>
+      <c r="P136" s="2" t="inlineStr"/>
+      <c r="Q136" s="2" t="inlineStr">
         <is>
           <t>Mechanisms of action</t>
         </is>
@@ -6667,29 +6667,34 @@
     <row r="137">
       <c r="A137" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006309</t>
+          <t>BCIO:006158</t>
         </is>
       </c>
       <c r="B137" s="2" t="inlineStr">
         <is>
-          <t>habit learning</t>
+          <t>habitual behaviour</t>
         </is>
       </c>
       <c r="C137" s="2" t="inlineStr">
         <is>
-          <t>associative learning</t>
+          <t>individual human behaviour</t>
         </is>
       </c>
       <c r="D137" s="2" t="inlineStr">
         <is>
-          <t>Associative learning process that involves strengthening an association between a stimulus and an impulse through repetition of co-occurrence of the stimulus and the behaviour.</t>
+          <t>A behaviour that results from a learnt stimulus-behaviour co-occurrence.</t>
         </is>
       </c>
       <c r="E137" s="2" t="inlineStr"/>
       <c r="F137" s="2" t="inlineStr"/>
       <c r="G137" s="2" t="inlineStr"/>
       <c r="H137" s="2" t="inlineStr"/>
-      <c r="I137" s="2" t="inlineStr"/>
+      <c r="I137" s="2" t="inlineStr">
+        <is>
+          <t>A learnt stimulus-behaviour co-occurrence can lead to activation or execution of a habitual behaviour.
+Habitual behaviour can be an MoA or outcome depending on how 'habitual behaviour' is described in an intervention. The Behaviour Change-Intervention Ontology includes the class 'outcome behaviour' (definition: Human behavior that is an intervention outcome.), which would not be an MoA. When an intervention targets a habitual behaviour to achieve an outcome behaviour, the former qualifies as an MoA.</t>
+        </is>
+      </c>
       <c r="J137" s="2" t="inlineStr"/>
       <c r="K137" s="2" t="inlineStr"/>
       <c r="L137" s="2" t="inlineStr"/>
@@ -6708,48 +6713,43 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="2" t="inlineStr">
-        <is>
-          <t>BCIO:006158</t>
-        </is>
-      </c>
-      <c r="B138" s="2" t="inlineStr">
-        <is>
-          <t>habitual behaviour</t>
-        </is>
-      </c>
-      <c r="C138" s="2" t="inlineStr">
-        <is>
-          <t>individual human behaviour</t>
-        </is>
-      </c>
-      <c r="D138" s="2" t="inlineStr">
-        <is>
-          <t>A behaviour that results from a learnt stimulus-behaviour co-occurrence.</t>
-        </is>
-      </c>
-      <c r="E138" s="2" t="inlineStr"/>
-      <c r="F138" s="2" t="inlineStr"/>
-      <c r="G138" s="2" t="inlineStr"/>
-      <c r="H138" s="2" t="inlineStr"/>
-      <c r="I138" s="2" t="inlineStr">
-        <is>
-          <t>A learnt stimulus-behaviour co-occurrence can lead to activation or execution of a habitual behaviour.
-Habitual behaviour can be an MoA or outcome depending on how 'habitual behaviour' is described in an intervention. The Behaviour Change-Intervention Ontology includes the class 'outcome behaviour' (definition: Human behavior that is an intervention outcome.), which would not be an MoA. When an intervention targets a habitual behaviour to achieve an outcome behaviour, the former qualifies as an MoA.</t>
-        </is>
-      </c>
-      <c r="J138" s="2" t="inlineStr"/>
-      <c r="K138" s="2" t="inlineStr"/>
-      <c r="L138" s="2" t="inlineStr"/>
-      <c r="M138" s="2" t="inlineStr"/>
-      <c r="N138" s="2" t="inlineStr">
-        <is>
-          <t>Published</t>
-        </is>
-      </c>
-      <c r="O138" s="2" t="inlineStr"/>
-      <c r="P138" s="2" t="inlineStr"/>
-      <c r="Q138" s="2" t="inlineStr">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>GO:0046959</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>habituation</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>non-associative learning</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>A decrease in a behavioural response to a repeated stimulus.</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr"/>
+      <c r="F138" t="inlineStr"/>
+      <c r="G138" t="inlineStr"/>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="inlineStr">
+        <is>
+          <t>External</t>
+        </is>
+      </c>
+      <c r="O138" t="inlineStr"/>
+      <c r="P138" t="inlineStr"/>
+      <c r="Q138" t="inlineStr">
         <is>
           <t>Mechanisms of action</t>
         </is>
@@ -6758,22 +6758,22 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>GO:0046959</t>
+          <t>MFOEM:000042</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>habituation</t>
+          <t>happiness</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>non-associative learning</t>
+          <t>emotion process</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>A decrease in a behavioural response to a repeated stimulus.</t>
+          <t>A positive emotion which is experienced in reaction to a positive experience or event.</t>
         </is>
       </c>
       <c r="E139" t="inlineStr"/>
@@ -6799,43 +6799,51 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>MFOEM:000042</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>happiness</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>emotion process</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>A positive emotion which is experienced in reaction to a positive experience or event.</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr"/>
-      <c r="F140" t="inlineStr"/>
-      <c r="G140" t="inlineStr"/>
-      <c r="H140" t="inlineStr"/>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="inlineStr"/>
-      <c r="N140" t="inlineStr">
-        <is>
-          <t>External</t>
-        </is>
-      </c>
-      <c r="O140" t="inlineStr"/>
-      <c r="P140" t="inlineStr"/>
-      <c r="Q140" t="inlineStr">
+      <c r="A140" s="2" t="inlineStr">
+        <is>
+          <t>BCIO:006088</t>
+        </is>
+      </c>
+      <c r="B140" s="2" t="inlineStr">
+        <is>
+          <t>healthcare access</t>
+        </is>
+      </c>
+      <c r="C140" s="2" t="inlineStr">
+        <is>
+          <t>behavioural opportunity</t>
+        </is>
+      </c>
+      <c r="D140" s="2" t="inlineStr">
+        <is>
+          <t>A behavioural opportunity regarding how easy it is for a person to approach and use a healthcare service.</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="inlineStr"/>
+      <c r="F140" s="2" t="inlineStr">
+        <is>
+          <t>Properties of a person's environment that enable or facilitate accessing healthcare services.</t>
+        </is>
+      </c>
+      <c r="G140" s="2" t="inlineStr"/>
+      <c r="H140" s="2" t="inlineStr"/>
+      <c r="I140" s="2" t="inlineStr">
+        <is>
+          <t>The 'healthcare services' refers to services provided for the purposes of preventing, detecting, curing or controlling a health problem or enhancing wellbeing.</t>
+        </is>
+      </c>
+      <c r="J140" s="2" t="inlineStr"/>
+      <c r="K140" s="2" t="inlineStr"/>
+      <c r="L140" s="2" t="inlineStr"/>
+      <c r="M140" s="2" t="inlineStr"/>
+      <c r="N140" s="2" t="inlineStr">
+        <is>
+          <t>Published</t>
+        </is>
+      </c>
+      <c r="O140" s="2" t="inlineStr"/>
+      <c r="P140" s="2" t="inlineStr"/>
+      <c r="Q140" s="2" t="inlineStr">
         <is>
           <t>Mechanisms of action</t>
         </is>
@@ -6844,37 +6852,29 @@
     <row r="141">
       <c r="A141" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006088</t>
+          <t>BCIO:006115</t>
         </is>
       </c>
       <c r="B141" s="2" t="inlineStr">
         <is>
-          <t>healthcare access</t>
+          <t>heuristic process</t>
         </is>
       </c>
       <c r="C141" s="2" t="inlineStr">
         <is>
-          <t>behavioural opportunity</t>
+          <t>mental process</t>
         </is>
       </c>
       <c r="D141" s="2" t="inlineStr">
         <is>
-          <t>A behavioural opportunity regarding how easy it is for a person to approach and use a healthcare service.</t>
+          <t>A mental process that uses simple rules and associations learnt from experience to make judgements.</t>
         </is>
       </c>
       <c r="E141" s="2" t="inlineStr"/>
-      <c r="F141" s="2" t="inlineStr">
-        <is>
-          <t>Properties of a person's environment that enable or facilitate accessing healthcare services.</t>
-        </is>
-      </c>
+      <c r="F141" s="2" t="inlineStr"/>
       <c r="G141" s="2" t="inlineStr"/>
       <c r="H141" s="2" t="inlineStr"/>
-      <c r="I141" s="2" t="inlineStr">
-        <is>
-          <t>The 'healthcare services' refers to services provided for the purposes of preventing, detecting, curing or controlling a health problem or enhancing wellbeing.</t>
-        </is>
-      </c>
+      <c r="I141" s="2" t="inlineStr"/>
       <c r="J141" s="2" t="inlineStr"/>
       <c r="K141" s="2" t="inlineStr"/>
       <c r="L141" s="2" t="inlineStr"/>
@@ -6895,22 +6895,22 @@
     <row r="142">
       <c r="A142" s="2" t="inlineStr">
         <is>
-          <t>BCIO:006115</t>
+          <t>BCIO:036034</t>
         </is>
       </c>
       <c r="B142" s="2" t="inlineStr">
         <is>
-          <t>heuristic process</t>
+          <t>human communication behaviour</t>
         </is>
       </c>
       <c r="C142" s="2" t="inlineStr">
         <is>
-          <t>mental process</t>
+          <t xml:space="preserve">inter-personal behaviour </t>
         </is>
       </c>
       <c r="D142" s="2" t="inlineStr">
         <is>
-          <t>A mental process that uses simple rules and associations learnt from experience to make judgements.</t>
+          <t>An inter-personal behaviour that involves the transmission of information.</t>
         </is>
       </c>
       <c r="E142" s="2" t="inlineStr"/>
@@ -7896,7 +7896,7 @@
       </c>
       <c r="D164" s="2" t="inlineStr">
         <is>
-          <t>A communication behaviour in which the information that is communicated is encoded in language.</t>
+          <t>A human communication behaviour in which the information that is communicated is encoded in language.</t>
         </is>
       </c>
       <c r="E164" s="2" t="inlineStr"/>
@@ -9662,7 +9662,7 @@
       </c>
       <c r="D202" s="2" t="inlineStr">
         <is>
-          <t>A communication behaviour in which information is transmitted without being encoded in the meaning units of any language.</t>
+          <t>A human communication behaviour in which information is transmitted without being encoded in the meaning units of any language.</t>
         </is>
       </c>
       <c r="E202" s="2" t="inlineStr"/>

--- a/MechanismOfAction/inputs/BCIO_MoA.xlsx
+++ b/MechanismOfAction/inputs/BCIO_MoA.xlsx
@@ -10227,7 +10227,7 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>A bodily disposition whose realization ordinarily brings benefits to an organism or group of organisms, where "ordinarily" means within a typical  range or context.</t>
+          <t>A bodily disposition whose realization ordinarily brings benefits to an organism or group of organisms, where "ordinarily" means within a typical range or context.</t>
         </is>
       </c>
       <c r="E214" t="inlineStr"/>

--- a/MechanismOfAction/inputs/BCIO_MoA.xlsx
+++ b/MechanismOfAction/inputs/BCIO_MoA.xlsx
@@ -10964,7 +10964,7 @@
       </c>
       <c r="D230" s="2" t="inlineStr">
         <is>
-          <t>A memory process that deals with the receipt, storage, retrieval and modification of information regarding how to perform a complex activity without conscious awareness.</t>
+          <t>A memory process that deals with the receipt, storage, retrieval and modification of information regarding performance of an activity.</t>
         </is>
       </c>
       <c r="E230" s="2" t="inlineStr"/>

--- a/MechanismOfAction/inputs/BCIO_MoA.xlsx
+++ b/MechanismOfAction/inputs/BCIO_MoA.xlsx
@@ -436,7 +436,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q283"/>
+  <dimension ref="A1:Q285"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6178,51 +6178,51 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
+      <c r="A126" s="4" t="inlineStr">
         <is>
           <t>ADDICTO:0000377</t>
         </is>
       </c>
-      <c r="B126" t="inlineStr">
+      <c r="B126" s="4" t="inlineStr">
         <is>
           <t>feeling of need satisfaction</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
+      <c r="C126" s="4" t="inlineStr">
         <is>
           <t>subjective affective feeling</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
+      <c r="D126" s="4" t="inlineStr">
         <is>
           <t>A feeling involving positive affect associated with reduction in a feeling of need.</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr"/>
-      <c r="F126" t="inlineStr">
+